--- a/storage/app/public/seeds/datosPassword.xlsx
+++ b/storage/app/public/seeds/datosPassword.xlsx
@@ -44,7 +44,7 @@
     <t>angie.alcivar.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>HqH?!N6i</t>
+    <t>Og0ejdJQ</t>
   </si>
   <si>
     <t>ALCIVAR VERA KARLA MILENA</t>
@@ -53,7 +53,7 @@
     <t>karla.alcivar.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>bdLrMJVJ</t>
+    <t>p8bECmjV</t>
   </si>
   <si>
     <t>ALVIA ROCA HENRY ISAAC</t>
@@ -65,7 +65,7 @@
     <t>henry.alvia.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>&amp;H6K7mu?</t>
+    <t>Q!TG?Kfh</t>
   </si>
   <si>
     <t>ANANGONO GOMEZ ANA MARCELA</t>
@@ -74,7 +74,7 @@
     <t>ana.anangono.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>2LsM#uar</t>
+    <t>sonHx5IK</t>
   </si>
   <si>
     <t>BRAVO MARCILLO NATHALY SILVANA</t>
@@ -86,7 +86,7 @@
     <t>nathaly.bravo.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>A8JyBp74</t>
+    <t>iiZ8YP#C</t>
   </si>
   <si>
     <t>BRIONES SUAREZ DANIA MELISSA</t>
@@ -95,7 +95,7 @@
     <t>dania.briones.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>?jQt2Bsd</t>
+    <t>ma4f#7p3</t>
   </si>
   <si>
     <t>CANCHINGRE LOZA MARIANA DE JESUS</t>
@@ -107,7 +107,7 @@
     <t>mariana.canchingre.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>nAlz7yu9</t>
+    <t>EXwxWvgf</t>
   </si>
   <si>
     <t>CEDEÑO GARCIA EMILY JAHAIRA</t>
@@ -116,7 +116,7 @@
     <t>emily.cedeno.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>wEq&amp;xQmi</t>
+    <t>5XPxIXPT</t>
   </si>
   <si>
     <t>CEDEÑO VELEZ STEVEN ANTONIO</t>
@@ -125,7 +125,7 @@
     <t>steven.cedeno.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>DpJAilIL</t>
+    <t>taizF2u3</t>
   </si>
   <si>
     <t>CHICA ORDOÑEZ YAIZA ANAHI</t>
@@ -134,7 +134,7 @@
     <t>yaiza.chica.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>L6k!BhaX</t>
+    <t>AvOtwtpP</t>
   </si>
   <si>
     <t>CORONEL MERO DAMARY SABRINA</t>
@@ -143,7 +143,7 @@
     <t>damary.coronel.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>qPY/gyR7</t>
+    <t>?emvS&amp;91</t>
   </si>
   <si>
     <t>DELGADO BENAVIDES MELISSA ANDREINA</t>
@@ -152,7 +152,7 @@
     <t>melissa.delgado.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>gK6GS#oD</t>
+    <t>Mhpz#?DP</t>
   </si>
   <si>
     <t>DELGADO SOLORZANO TONY DAMIAN</t>
@@ -161,7 +161,7 @@
     <t>tony.delgado.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>R0gNaRom</t>
+    <t>MNOu?QO9</t>
   </si>
   <si>
     <t>ELENO GENDE JOSELYN KATHERINE</t>
@@ -173,7 +173,7 @@
     <t>joselyn.eleno.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>K5C6avoQ</t>
+    <t>lrjhg4n#</t>
   </si>
   <si>
     <t>GARCIA RIVERA ANGHELA LISBETH</t>
@@ -185,7 +185,7 @@
     <t>anghela.garcia.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>IvIQoJvU</t>
+    <t>ImK?GHor</t>
   </si>
   <si>
     <t>GARCIA ROSS PRISCILA TAHILY</t>
@@ -194,7 +194,7 @@
     <t>priscila.garcia.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>SBq7i8kL</t>
+    <t>y9FXtdaL</t>
   </si>
   <si>
     <t>LOOR ZAMBRANO MARILYN MICHEL</t>
@@ -203,7 +203,7 @@
     <t>marilyn.loor.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>EAkrQyS?</t>
+    <t>Eg8XHO4B</t>
   </si>
   <si>
     <t>LUCAS MENDOZA MOISES NOE</t>
@@ -212,7 +212,7 @@
     <t>moises.lucas.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>L7mOveMk</t>
+    <t>FlxjLalB</t>
   </si>
   <si>
     <t>MANTUANO LOOR JENIFER DANIELA</t>
@@ -221,7 +221,7 @@
     <t>jenifer.mantuano.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>&amp;F26bQRn</t>
+    <t>&amp;9mIZSWL</t>
   </si>
   <si>
     <t>MENENDEZ SANTANA JOSMELY ANAHI</t>
@@ -230,7 +230,7 @@
     <t>josmely.menendez.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>WIOjw/j2</t>
+    <t>biDeHfJU</t>
   </si>
   <si>
     <t>MEZA ESPINOZA MISHEL NICOL</t>
@@ -239,7 +239,7 @@
     <t>mishel.meza.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>hkKBDmjw</t>
+    <t>n6jHV7p2</t>
   </si>
   <si>
     <t>MORANTE TROYA JAIME ANDRES</t>
@@ -248,7 +248,7 @@
     <t>jaime.morante.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>/jsGP/uX</t>
+    <t>THfs!Sgh</t>
   </si>
   <si>
     <t>PARRAGA MOREIRA CINDY ANDREA</t>
@@ -257,7 +257,7 @@
     <t>cindy.parraga.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>taeK#3uH</t>
+    <t>ZeN5TXz&amp;</t>
   </si>
   <si>
     <t>PEÑAFIEL VALENCIA JULEISY LISBETH</t>
@@ -269,7 +269,7 @@
     <t>juleisy.penafiel.4623@espam.edu.ec</t>
   </si>
   <si>
-    <t>#2LQCSp6</t>
+    <t>5eTOMTRv</t>
   </si>
   <si>
     <t>PICO CRIOLLO MILETH KATHERINE</t>
@@ -278,7 +278,7 @@
     <t>mileth.pico.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>5#Rl4B!l</t>
+    <t>1p0wYuJe</t>
   </si>
   <si>
     <t>RENDON GILER JUNIOR ARIEL</t>
@@ -287,7 +287,7 @@
     <t>junior.rendon@espam.edu.ec</t>
   </si>
   <si>
-    <t>hJOU3xu#</t>
+    <t>zUgMDq1U</t>
   </si>
   <si>
     <t>SALVATIERRA SANTOS BRYAN ALEJANDRO</t>
@@ -296,7 +296,7 @@
     <t>bryan.salvatierra@espam.edu.ec</t>
   </si>
   <si>
-    <t>rbtPSQs0</t>
+    <t>ugqvpZQh</t>
   </si>
   <si>
     <t>SOLORZANO LUCAS ALEXANDER JOEL</t>
@@ -308,7 +308,7 @@
     <t>alexander.solorzano.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>jR0sZ1St</t>
+    <t>Ygn9&amp;DNk</t>
   </si>
   <si>
     <t>SOLORZANO RODRIGUEZ DAYANA NICOLLE</t>
@@ -317,7 +317,7 @@
     <t>dayanna.solorzano.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>i8248cS6</t>
+    <t>yKguvPV1</t>
   </si>
   <si>
     <t>TENORIO QUINTERO ELY GILMAR</t>
@@ -329,7 +329,7 @@
     <t>ely.tenorio.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>OVWge7!t</t>
+    <t>xAy8e16m</t>
   </si>
   <si>
     <t>VELASQUEZ DOMINGUEZ JORDAN RICARDO</t>
@@ -338,7 +338,7 @@
     <t>jordan.velasquez.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>aGaz?mHe</t>
+    <t>3d9UG3ED</t>
   </si>
   <si>
     <t>VILLAVICENCIO SALVADOR MELANIE HELLAIM</t>
@@ -350,7 +350,7 @@
     <t>melanie.villavicencio.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>4#CD/7Pa</t>
+    <t>6QhJ1gks</t>
   </si>
   <si>
     <t>ZAMBRANO CEDEÑO ANGELO ALEXANDER</t>
@@ -359,7 +359,7 @@
     <t>angelo.zambrano.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>CWj&amp;Mwk#</t>
+    <t>7aQFTOvu</t>
   </si>
   <si>
     <t>ZAMBRANO VALENCIA SHIRLEY EDITH</t>
@@ -368,7 +368,7 @@
     <t>shirley.zambrano.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>OtBjcrle</t>
+    <t>FrM/UqSs</t>
   </si>
   <si>
     <t>ANGEL GOMEZ GILENY NAHOMY</t>
@@ -380,7 +380,7 @@
     <t>gileny.angel.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>XJCm4Wxm</t>
+    <t>0cV?#vox</t>
   </si>
   <si>
     <t>BARRE QUIJANO DARWIN JOSE</t>
@@ -389,7 +389,7 @@
     <t>darwin.barre@espam.edu.ec</t>
   </si>
   <si>
-    <t>Qmg7SR&amp;k</t>
+    <t>x9#s5gl8</t>
   </si>
   <si>
     <t>BRAVO ALVAREZ EMILY JESUS</t>
@@ -398,7 +398,7 @@
     <t>emily.bravo.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>jf#f4#19</t>
+    <t>/9mWT8Gs</t>
   </si>
   <si>
     <t>CAGUA YOONG NAHOMY JAMILETH</t>
@@ -407,7 +407,7 @@
     <t>nahomy.cagua.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>p6jT4T0D</t>
+    <t>KliiG&amp;!u</t>
   </si>
   <si>
     <t>CASTILLO CEDEÑO EMILIA MARICELA</t>
@@ -416,7 +416,7 @@
     <t>emilia.castillo.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>w60D0vLS</t>
+    <t>LU/#3ip5</t>
   </si>
   <si>
     <t>CEDEÑO ZAMBRANO JOSE DANIEL</t>
@@ -425,7 +425,7 @@
     <t>jose.cedenoz.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>!P7ossIT</t>
+    <t>eKT4S?ps</t>
   </si>
   <si>
     <t>CIFUENTES VELASQUEZ JOSE JAHIR</t>
@@ -434,7 +434,7 @@
     <t>jose.cifuentes.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>hdEpz7PT</t>
+    <t>NfNGe7Ar</t>
   </si>
   <si>
     <t>CONFORME CIFUENTES ROBERTH JESUS</t>
@@ -443,7 +443,7 @@
     <t>roberth.conforme.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>M!kEc19n</t>
+    <t>Eq4ggaS1</t>
   </si>
   <si>
     <t>CORDERO GILER SALMA PAOLA</t>
@@ -452,7 +452,7 @@
     <t>salma.cordero.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>7Rmc03LF</t>
+    <t>bOyW2s9Y</t>
   </si>
   <si>
     <t>FARIAS VELIZ RENE OCTAVIO</t>
@@ -461,7 +461,7 @@
     <t>rene.farias.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>vaUjbzKk</t>
+    <t>F2E26IBX</t>
   </si>
   <si>
     <t>GARCIA DUEÑAS JEAN FERNANDO</t>
@@ -470,7 +470,7 @@
     <t>jean.garcia.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>Bgf4#WtC</t>
+    <t>hfANeCt3</t>
   </si>
   <si>
     <t>HERRERA BASURTO IVIS ANTONELLA</t>
@@ -479,7 +479,7 @@
     <t>ivis.herrera.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>dMalPNOt</t>
+    <t>k!1EpXN#</t>
   </si>
   <si>
     <t>HIDALGO LOOR MARLYN NALLELY</t>
@@ -488,7 +488,7 @@
     <t>marlyn.hidalgo.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>5CSNR5p5</t>
+    <t>vZ/9qH7f</t>
   </si>
   <si>
     <t>IBARRA CHAVARRIA JUAN DIEGO</t>
@@ -497,7 +497,7 @@
     <t>juan.ibarra.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>2f4mp6Gk</t>
+    <t>bZBatPzN</t>
   </si>
   <si>
     <t>JAYA ZAPATA VICTOR EDUARDO</t>
@@ -506,7 +506,7 @@
     <t>victor.jaya.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>JQ8!2CqZ</t>
+    <t>Hn!!rge7</t>
   </si>
   <si>
     <t>LOOR DELGADO JERRY JOEL</t>
@@ -515,7 +515,7 @@
     <t>jerry.loor.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>WGSDGiuD</t>
+    <t>vMfYpDca</t>
   </si>
   <si>
     <t>MANTUANO PONCE MELANY MONCERRATE</t>
@@ -524,7 +524,7 @@
     <t>melany.mantuano.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>nSsn7&amp;d6</t>
+    <t>/&amp;KKPM/K</t>
   </si>
   <si>
     <t>MENDOZA VASQUEZ ARIEL ALEXIS</t>
@@ -536,7 +536,7 @@
     <t>ariel.mendoza.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>0qE7kBwI</t>
+    <t>B/IW45dA</t>
   </si>
   <si>
     <t>MOREIRA GARCIA MACARIO EMANUEL</t>
@@ -545,7 +545,7 @@
     <t>macario.moreira.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>N&amp;F8#1vV</t>
+    <t>KtyiPu&amp;u</t>
   </si>
   <si>
     <t>MOREIRA GILCES GABRIELA NIKOL</t>
@@ -554,7 +554,7 @@
     <t>gabriela.moreira.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>Hw8VUYb6</t>
+    <t>VXxinARX</t>
   </si>
   <si>
     <t>NOBOA MONTESDEOCA INGRITH MADELEYN</t>
@@ -563,7 +563,7 @@
     <t>ingrith.noboa.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>4#oDMWEr</t>
+    <t>CxG6YOgh</t>
   </si>
   <si>
     <t>ORDOÑEZ ALCIVAR ALEX PAUL</t>
@@ -572,7 +572,7 @@
     <t>alex.ordonez.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>YBqwlL!5</t>
+    <t>0VG#Q#Cd</t>
   </si>
   <si>
     <t>PALMA GARCIA MELYN JARITZA</t>
@@ -581,7 +581,7 @@
     <t>melyn.palma.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>0ZgXAott</t>
+    <t>3Wb!PHGF</t>
   </si>
   <si>
     <t>PAREDES MERO GHISLAINE ANAHI</t>
@@ -590,7 +590,7 @@
     <t>ghislaine.paredes.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>RIbOLj5b</t>
+    <t>LZn3Yfj!</t>
   </si>
   <si>
     <t>QUIJIJE PIANDA XIOMARA MISHELLE</t>
@@ -602,7 +602,7 @@
     <t>xiomara.quijije.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>EKLff77R</t>
+    <t>2axYrUrz</t>
   </si>
   <si>
     <t>SALAVARRIA AVEIGA YULIANA GUADALUPE</t>
@@ -611,7 +611,7 @@
     <t>yuliana.salavarria.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>r1gSYqdn</t>
+    <t>Pkjjy!qd</t>
   </si>
   <si>
     <t>SANTOS ALCIVAR JAIR SEBASTIAN</t>
@@ -620,7 +620,7 @@
     <t>jair.santos.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>tGIVc1FK</t>
+    <t>nsenuvAv</t>
   </si>
   <si>
     <t>SOLORZANO CANDELA JARITZA NOHEMY</t>
@@ -629,7 +629,7 @@
     <t>jaritza.solorzano.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>gH1cZFIT</t>
+    <t>E6EH5Egf</t>
   </si>
   <si>
     <t>VERA CEBALLOS MARIA CONCEPCION</t>
@@ -638,7 +638,7 @@
     <t>maria.vera.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>PNSxqWHy</t>
+    <t>gTT3Vxql</t>
   </si>
   <si>
     <t>ALAVA MUÑOZ BILL JARVI</t>
@@ -647,7 +647,7 @@
     <t>bill.alava.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>fs&amp;daXxx</t>
+    <t>hUawyiIR</t>
   </si>
   <si>
     <t>ALCIVAR ZAMBRANO ESTHER JOMARA</t>
@@ -656,7 +656,7 @@
     <t>esther.alcivar.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>Y6WUWEx1</t>
+    <t>ZWxPz4L!</t>
   </si>
   <si>
     <t>ALMEIDA LOOR MARIA VICTORIA</t>
@@ -665,7 +665,7 @@
     <t>maria.almeida.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>FvE&amp;PQa!</t>
+    <t>PTF!k0li</t>
   </si>
   <si>
     <t>ANDRADE VILLAVICENCIO PABLO HUGO</t>
@@ -674,7 +674,7 @@
     <t>pablo.andrade.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>8Plcn6qC</t>
+    <t>whz9X66B</t>
   </si>
   <si>
     <t>AVENDAÑO YZQUIERDO ADRIANA ISABEL</t>
@@ -686,7 +686,7 @@
     <t>adriana.avendano.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>CC881MlN</t>
+    <t>YvLwgB25</t>
   </si>
   <si>
     <t>BALUARTE PARRAGA MAYERLY NARCISA</t>
@@ -698,7 +698,7 @@
     <t>mayerly.baluarte.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>qzd9O&amp;O?</t>
+    <t>2quDE0dC</t>
   </si>
   <si>
     <t>BARRE CASTAÑEDA MAYERLI SOLANGE</t>
@@ -710,7 +710,7 @@
     <t>mayerli.barre.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>bSBn/W?f</t>
+    <t>hhg&amp;FL9K</t>
   </si>
   <si>
     <t>BERMEO MENDOZA LESLY JULIETT</t>
@@ -719,7 +719,7 @@
     <t>lesly.bermeo.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>CBmTbmNE</t>
+    <t>J1SErCCg</t>
   </si>
   <si>
     <t>BRAVO ZAMBRANO DANA KATIUSKA</t>
@@ -728,7 +728,7 @@
     <t>dana.bravo.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>xIbQ25Y#</t>
+    <t>jUByBccb</t>
   </si>
   <si>
     <t>CEDEÑO ALVARADO JORGE LUIS</t>
@@ -737,7 +737,7 @@
     <t>jorge.cedeno.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>lXoHDQM/</t>
+    <t>vZdj?tLH</t>
   </si>
   <si>
     <t>DOMINGUEZ ANGEL ANAIS ZULEYMA</t>
@@ -749,7 +749,7 @@
     <t>anais.dominguez.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>taxl?JHH</t>
+    <t>y1dwL8wM</t>
   </si>
   <si>
     <t>ESPARZA TELLO ERICKA MARIA</t>
@@ -761,7 +761,7 @@
     <t>ericka.esparza.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>!?Bi0F/G</t>
+    <t>1KsTFs3L</t>
   </si>
   <si>
     <t>GRAIN MARCILLO MICHAEL JOSUE</t>
@@ -770,7 +770,7 @@
     <t>michael.grain.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>xHDR0CnY</t>
+    <t>plnVo10E</t>
   </si>
   <si>
     <t>JAMA ZAMBRANO ROBERTH XAVIER</t>
@@ -779,7 +779,7 @@
     <t>roberth.jama@espam.edu.ec</t>
   </si>
   <si>
-    <t>p!daOnJL</t>
+    <t>xMDo?E1O</t>
   </si>
   <si>
     <t>LARA BONE ANGIE NICOLE</t>
@@ -791,7 +791,7 @@
     <t>angie.lara.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>mkg1DtSe</t>
+    <t>pahFGh6e</t>
   </si>
   <si>
     <t>LOPEZ DELGADO DAYANA NICOLLE</t>
@@ -800,7 +800,7 @@
     <t>dayana.lopez.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>E/owx?i2</t>
+    <t>UBSc9vOL</t>
   </si>
   <si>
     <t>MELO CENTENO HELEN SOFIA</t>
@@ -809,7 +809,7 @@
     <t>helen.melo.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>pGAHat3A</t>
+    <t>ObPwfudw</t>
   </si>
   <si>
     <t>MENDOZA ORTEGA ANGELO DANIEL</t>
@@ -818,7 +818,7 @@
     <t>angelo.mendoza.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>W29HHyKl</t>
+    <t>o6Ms7uVs</t>
   </si>
   <si>
     <t>MERO CARRILLO EMELY MILENA</t>
@@ -827,7 +827,7 @@
     <t>emely.mero.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>WnAk0osI</t>
+    <t>y8Smxcxs</t>
   </si>
   <si>
     <t>MITE MENENDEZ GEORGE ISAAC</t>
@@ -836,7 +836,7 @@
     <t>george.mite.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>MSoC7C!5</t>
+    <t>2OmQE32H</t>
   </si>
   <si>
     <t>MONCAYO CAGUA LADY NOHELIA</t>
@@ -845,7 +845,7 @@
     <t>lady.moncayo.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>d3fSY6Mw</t>
+    <t>xJ#MbLYP</t>
   </si>
   <si>
     <t>ORMAZA ALCIVAR NOHELIA MILENA</t>
@@ -854,7 +854,7 @@
     <t>nohelia.ormaza.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>m#Yd9a8F</t>
+    <t>3jT2Huqx</t>
   </si>
   <si>
     <t>PANTA CANDELA YONNY ALEXANDER</t>
@@ -863,7 +863,7 @@
     <t>jonny.panta.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>JjozavyY</t>
+    <t>9SoNJVeu</t>
   </si>
   <si>
     <t>QUINATOA SIMALIZA YAJAIRA NICOLE</t>
@@ -872,7 +872,7 @@
     <t>yajaira.quinatoa.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>N?5qL6eF</t>
+    <t>mMmJtgtK</t>
   </si>
   <si>
     <t>REYNA RAMIREZ SINDY MAHOLY</t>
@@ -881,7 +881,7 @@
     <t>sindy.reyna.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>J4mdTpWw</t>
+    <t>HLOQfQKj</t>
   </si>
   <si>
     <t>RODRIGUEZ ANCHUNDIA LUIS FERNANDO</t>
@@ -890,7 +890,7 @@
     <t>luis.rodriguez.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>4eCnC?ij</t>
+    <t>onDP/DEH</t>
   </si>
   <si>
     <t>SABANDO TUAREZ MILENA BLANCA</t>
@@ -899,7 +899,7 @@
     <t>milena.sabando.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>jDHjcEJ7</t>
+    <t>FlNmvz1&amp;</t>
   </si>
   <si>
     <t>SALAZAR RAMIREZ YARITZA GABRIELA</t>
@@ -908,7 +908,7 @@
     <t>yaritza.salazar.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>A7Ozp1ic</t>
+    <t>68xlPSuL</t>
   </si>
   <si>
     <t>SHIGUANGO AGUINDA KATTY MIRELLA</t>
@@ -917,7 +917,7 @@
     <t>katty.shiguango.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>pIBcYQ2X</t>
+    <t>QOr&amp;7hgi</t>
   </si>
   <si>
     <t>VACA MORALES JOSE EDUARDO</t>
@@ -926,7 +926,7 @@
     <t>jose.vaca.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>Pq5/ajp#</t>
+    <t>xTrF/cG1</t>
   </si>
   <si>
     <t>VELASQUEZ MEJIA ARIANNA ELIZABETH</t>
@@ -935,7 +935,7 @@
     <t>arianna.velasquez.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>u27&amp;wngh</t>
+    <t>mo2Ow79V</t>
   </si>
   <si>
     <t>VELEZ CEDEÑO YANDRY ALAIN</t>
@@ -944,7 +944,7 @@
     <t>yandry.velez.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>D1hVp&amp;I8</t>
+    <t>JWPAMGkK</t>
   </si>
   <si>
     <t>VERA ZAMORA DIXON YAIR</t>
@@ -953,7 +953,7 @@
     <t>dixon.vera.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>duS4wBSJ</t>
+    <t>jI/yPCqh</t>
   </si>
   <si>
     <t>ZAMBRANO FORTIS RICARDO MIGUEL</t>
@@ -962,7 +962,7 @@
     <t>ricardo.zambrano.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>imnx!Q2D</t>
+    <t>w8JY283O</t>
   </si>
   <si>
     <t>ALVARADO DUEÑAS KARELYS VANESSA</t>
@@ -971,7 +971,7 @@
     <t>karelys.alvarado.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>7E32kUT8</t>
+    <t>oAZk2hif</t>
   </si>
   <si>
     <t>ANDRADE ILES ALVIERY JAHIR</t>
@@ -983,7 +983,7 @@
     <t>alviery.andrade.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>I3QZaX&amp;W</t>
+    <t>/ZOnh9U7</t>
   </si>
   <si>
     <t>ARTEAGA RAMOS DIEGO ALEJANDRO</t>
@@ -992,7 +992,7 @@
     <t>diego.arteaga.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>DS9#vY5T</t>
+    <t>MkeyHYoO</t>
   </si>
   <si>
     <t>BARREIRO INTRIAGO STEFANY PIERINA</t>
@@ -1001,7 +1001,7 @@
     <t>stefany.barreiro.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>ZrDMCqTh</t>
+    <t>hlScCc9Y</t>
   </si>
   <si>
     <t>BRAVO QUINTERO SARA NICOLE</t>
@@ -1013,7 +1013,7 @@
     <t>sara.bravo.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>aih&amp;#dfe</t>
+    <t>WSH6!U2Y</t>
   </si>
   <si>
     <t>CABALLERO MUÑOZ STEVEN FABRICIO</t>
@@ -1022,7 +1022,7 @@
     <t>steven.caballero.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>gL5fFbS2</t>
+    <t>ClrmrMUn</t>
   </si>
   <si>
     <t>CARRASCO VERA LUCAS JOSUE</t>
@@ -1031,7 +1031,7 @@
     <t>lucas.carrasco.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>gc2wbbgZ</t>
+    <t>HKL4RW9u</t>
   </si>
   <si>
     <t>CEDEÑO MURILLO KENNER STEVEN</t>
@@ -1040,7 +1040,7 @@
     <t>kenner.cedeno.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>DJDy4/Qg</t>
+    <t>MZ8iPWiv</t>
   </si>
   <si>
     <t>CUERO PAZMIÑO EMMANUEL JOSUE</t>
@@ -1049,7 +1049,7 @@
     <t>emmanuel.cuero.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>&amp;pl9dj91</t>
+    <t>bXME?QOb</t>
   </si>
   <si>
     <t>LADINES CASTRO MIRKA DARLISHA</t>
@@ -1061,7 +1061,7 @@
     <t>mirka.ladines.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>t&amp;!pToMg</t>
+    <t>&amp;Nct8gZ4</t>
   </si>
   <si>
     <t>LARA FRANCO MICHAEL ARGEL</t>
@@ -1073,7 +1073,7 @@
     <t>michael.lara.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>BkUDQgyd</t>
+    <t>WEhcAgGA</t>
   </si>
   <si>
     <t>LEYTHON QUIÑONEZ JEIMY SILVANA</t>
@@ -1085,7 +1085,7 @@
     <t>jeimy.leython.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>/ZLsvgMu</t>
+    <t>xpnzwRUH</t>
   </si>
   <si>
     <t>LOOR LOOR GENESIS DANIELA</t>
@@ -1094,7 +1094,7 @@
     <t>genesis.loor.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>CyHHTsDp</t>
+    <t>qHcGGT1w</t>
   </si>
   <si>
     <t>MATAMBA GUANGA THALIA VALERIA</t>
@@ -1106,7 +1106,7 @@
     <t>thalia.matamba.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>CGvehjYx</t>
+    <t>KaFu3!2y</t>
   </si>
   <si>
     <t>MENDOZA DE LA CRUZ MARTHA DANIELA</t>
@@ -1115,7 +1115,7 @@
     <t>martha.mendoza.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>ZRvM?pzo</t>
+    <t>ea2oQ&amp;7O</t>
   </si>
   <si>
     <t>MINOTA BORJA ALEXANDER JAHIR</t>
@@ -1127,7 +1127,7 @@
     <t>alexander.minota.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>SeeY0He4</t>
+    <t>35bczTTj</t>
   </si>
   <si>
     <t>NAVIA LOOR JOSE EFRAIN</t>
@@ -1136,7 +1136,7 @@
     <t>jose.navia.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>/1LWwtgl</t>
+    <t>NItUgGMD</t>
   </si>
   <si>
     <t>PILATAXI UTRERAS KATHERIN JULIETH</t>
@@ -1145,7 +1145,7 @@
     <t>katherin.pilataxi.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>vECI3#nI</t>
+    <t>?B0jrKUN</t>
   </si>
   <si>
     <t>PINARGOTE CARREÑO FELIX JOEL</t>
@@ -1154,7 +1154,7 @@
     <t>felix.pinargote.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>0jmpfsE/</t>
+    <t>q3FQiWDU</t>
   </si>
   <si>
     <t>PONCE ZAMBRANO ARIANA JESSENIA</t>
@@ -1163,7 +1163,7 @@
     <t>ariana.ponce.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>HnAlfunk</t>
+    <t>M#5x&amp;!!Z</t>
   </si>
   <si>
     <t>QUINATOA SIMALIZA KELLY MARIUXI</t>
@@ -1172,7 +1172,7 @@
     <t>kelly.quinatoa.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>11!9!96/</t>
+    <t>iO4v&amp;TU6</t>
   </si>
   <si>
     <t>ROSADO ROSADO JOEL JESUS</t>
@@ -1181,7 +1181,7 @@
     <t>joel.rosado.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>7x1btoTW</t>
+    <t>AwxYL9?R</t>
   </si>
   <si>
     <t>SANMARTIN TAPIA CARMEN EDITH</t>
@@ -1190,7 +1190,7 @@
     <t>carmen.sanmartin.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>W2Vbg5C/</t>
+    <t>7cmNsDNk</t>
   </si>
   <si>
     <t>SAYAY DAGUA JOSELYN NICOL</t>
@@ -1202,7 +1202,7 @@
     <t>joselyn.sayay.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>BJUWUw76</t>
+    <t>bSdFuMni</t>
   </si>
   <si>
     <t>SOLORZANO PAZMIÑO DECCY DANIELA</t>
@@ -1211,7 +1211,7 @@
     <t>deccy.solorzano.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>&amp;tfO3rNJ</t>
+    <t>N7iinV1V</t>
   </si>
   <si>
     <t>VERGARA ZAMBRANO MATIAS ALEXANDER</t>
@@ -1220,7 +1220,7 @@
     <t>matias.vergara.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>W4wTH!1T</t>
+    <t>0/qh0M8e</t>
   </si>
   <si>
     <t>ZAMBRANO INTRIAGO FRAYDA JESSENIA</t>
@@ -1229,7 +1229,7 @@
     <t>frayda.zambrano.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>W9BgzqP8</t>
+    <t>CaQ/qbdV</t>
   </si>
   <si>
     <t>ZAMBRANO VALAREZO ANDREA LISBETH</t>
@@ -1238,7 +1238,7 @@
     <t>andrea.zambrano.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>&amp;!yIM/Vt</t>
+    <t>wi5LKiiI</t>
   </si>
   <si>
     <t>AGUAS MARTINEZ KEVIN SNAIDER</t>
@@ -1247,7 +1247,7 @@
     <t>kevin.aguas@espam.edu.ec</t>
   </si>
   <si>
-    <t>AThb9V66</t>
+    <t>VbPto#6Z</t>
   </si>
   <si>
     <t>ANDRADE GARCIA LUZ CRUCELINA</t>
@@ -1256,7 +1256,7 @@
     <t>luz.andrade.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>hihoB!gk</t>
+    <t>j0aj3UJU</t>
   </si>
   <si>
     <t>BARBERAN MERO HELEN ADRIANA</t>
@@ -1265,7 +1265,7 @@
     <t>helen.barberan.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>VqasDqAU</t>
+    <t>6D0r&amp;UZD</t>
   </si>
   <si>
     <t>BARROS ZAMBRANO DANIEL ANGEL</t>
@@ -1274,7 +1274,7 @@
     <t>daniel.barros.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>1Q?NKWHb</t>
+    <t>oz!FgNN4</t>
   </si>
   <si>
     <t>BASURTO ZAMBRANO CARLOS RAUL</t>
@@ -1283,7 +1283,7 @@
     <t>carlos.basurto.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>KDr6E&amp;Zp</t>
+    <t>cy5O/RyL</t>
   </si>
   <si>
     <t>BRAVO BRAVO ANTHONY ADEMIR</t>
@@ -1292,7 +1292,7 @@
     <t>anthony.bravo.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>gvJj644L</t>
+    <t>MUIUWdyv</t>
   </si>
   <si>
     <t>CANTOS VERA ANGELA AUXILIADORA</t>
@@ -1301,7 +1301,7 @@
     <t>angela.cantos.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>D8UxR7Qa</t>
+    <t>6JZI&amp;JWu</t>
   </si>
   <si>
     <t>CASTRO BOLAÑO FANNY TATIANA</t>
@@ -1310,7 +1310,7 @@
     <t>fanny.castro.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>xgg7Oz5S</t>
+    <t>uUnIy?4K</t>
   </si>
   <si>
     <t>CASTRO SALTOS MATTEWS FARID</t>
@@ -1319,7 +1319,7 @@
     <t>mattews.castro.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>k7Rq4BYL</t>
+    <t>qZ8?DN46</t>
   </si>
   <si>
     <t>CHANCAY RADE ANTONY GABRIEL</t>
@@ -1328,7 +1328,7 @@
     <t>antony.chancay@espam.edu.ec</t>
   </si>
   <si>
-    <t>48jDbMHO</t>
+    <t>KRNe7ekT</t>
   </si>
   <si>
     <t>COBEÑA GARCIA YOMAYRA ALEXANDRA</t>
@@ -1337,7 +1337,7 @@
     <t>yomayra.cobena.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>AluPm4U?</t>
+    <t>/QOIffEC</t>
   </si>
   <si>
     <t>CRUZ ERAZO JOSE MIGUEL</t>
@@ -1346,7 +1346,7 @@
     <t>jose.cruz.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>iHRdA&amp;EZ</t>
+    <t>zu4L0Ykd</t>
   </si>
   <si>
     <t>GARCIA ANDRADE MARIA ROSA</t>
@@ -1355,7 +1355,7 @@
     <t>maria.garcia.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>YR07P0bn</t>
+    <t>RsSsZo1b</t>
   </si>
   <si>
     <t>HERNANDEZ LOPEZ LUIS DAVID</t>
@@ -1364,7 +1364,7 @@
     <t>luis.hernandez.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>HFTJIyQA</t>
+    <t>0Cyl5OBV</t>
   </si>
   <si>
     <t>LEON FUENTES JONATHAN ALBINO</t>
@@ -1376,7 +1376,7 @@
     <t>jonathan.leon.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>RSdL!33r</t>
+    <t>gzVNzk9g</t>
   </si>
   <si>
     <t>MACIAS ANCHUNDIA ROBERTO CARLOS</t>
@@ -1385,7 +1385,7 @@
     <t>roberto.macias.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>e5kYcFF7</t>
+    <t>#zEDaOPj</t>
   </si>
   <si>
     <t>MAZA AGREDA KAREN IBETH</t>
@@ -1394,7 +1394,7 @@
     <t>karen.maza.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>zGv7IuqF</t>
+    <t>gOT8UfB?</t>
   </si>
   <si>
     <t>MUÑOZ MERA LITZY ALEJANDRA</t>
@@ -1403,7 +1403,7 @@
     <t>litzy.munoz.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>OWe8Z4q4</t>
+    <t>eWQgCX7T</t>
   </si>
   <si>
     <t>MUÑOZ MOLINA ANDRY FABIAN</t>
@@ -1412,7 +1412,7 @@
     <t>andry.munoz.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>b#ojZoVS</t>
+    <t>xevNk1PS</t>
   </si>
   <si>
     <t>ORMAZA VALENCIA KEVIN JAVIER</t>
@@ -1424,7 +1424,7 @@
     <t>kevin.ormaza.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>gYhpfD6t</t>
+    <t>HDYYJy!O</t>
   </si>
   <si>
     <t>PAZMIÑO PINCAY NAYELLY AGUSTINA</t>
@@ -1433,7 +1433,7 @@
     <t>nayelly.pazmino.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>QkJo6Vke</t>
+    <t>?vYdtEQs</t>
   </si>
   <si>
     <t>POZO PONCE DANNY IVAN</t>
@@ -1442,7 +1442,7 @@
     <t>danny.pozo@espam.edu.ec</t>
   </si>
   <si>
-    <t>pNm71g#7</t>
+    <t>gqWC5u5V</t>
   </si>
   <si>
     <t>QUIJANO MEZA MARIANA LISETH</t>
@@ -1451,7 +1451,7 @@
     <t>mariana.quijano.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>XbpcJc!W</t>
+    <t>I6ScEhuh</t>
   </si>
   <si>
     <t>QUIÑONEZ AÑAPA RODRIGO MANUEL</t>
@@ -1463,7 +1463,7 @@
     <t>rodrigo.quinonez.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>mlFBZuhz</t>
+    <t>9h57h#?3</t>
   </si>
   <si>
     <t>SANTOS ALCIVAR KELVIN YOEL</t>
@@ -1472,7 +1472,7 @@
     <t>kelvin.santos.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>spSipN60</t>
+    <t>qqvG/#Tw</t>
   </si>
   <si>
     <t>SOLORZANO RODRIGUEZ SANDY</t>
@@ -1481,7 +1481,7 @@
     <t>sandy.solorzano.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>zahvwoPH</t>
+    <t>Xq3qiCwF</t>
   </si>
   <si>
     <t>TOALA PIN ARIEL ALEJANDRO</t>
@@ -1493,7 +1493,7 @@
     <t>ariel.toala.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>abqgkrWE</t>
+    <t>M47thGE?</t>
   </si>
   <si>
     <t>VEGA INTRIAGO MIGUEL ANGEL</t>
@@ -1502,7 +1502,7 @@
     <t>miguel.vega.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>a41&amp;e0?F</t>
+    <t>NNmSnwP#</t>
   </si>
   <si>
     <t>VELASQUEZ RODRIGUEZ GEMA BELEN</t>
@@ -1511,7 +1511,7 @@
     <t>gema.velasquez.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>&amp;Sj85uix</t>
+    <t>hZGCayfv</t>
   </si>
   <si>
     <t>VERA MENDOZA MARIA VICTORIA</t>
@@ -1520,7 +1520,7 @@
     <t>maria.veram.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>au5oum00</t>
+    <t>bzQSJpn3</t>
   </si>
   <si>
     <t>VERA PALACIOS JORDANO SAUL</t>
@@ -1529,7 +1529,7 @@
     <t>jordano.vera.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>yKJ&amp;Rdbf</t>
+    <t>7goU/dcd</t>
   </si>
   <si>
     <t>ZAMBRANO MERA VALENTINA MONSERRATE</t>
@@ -1538,7 +1538,7 @@
     <t>valentina.zambrano.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>YQ!KC3XJ</t>
+    <t>NLn9oF4x</t>
   </si>
   <si>
     <t>ZAMBRANO QUIMI JUAN GEORGE</t>
@@ -1550,7 +1550,7 @@
     <t>juan.zambrano.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>Z/GpXW31</t>
+    <t>j9U83xSb</t>
   </si>
   <si>
     <t>ALCIVAR ZAMBRANO GEOMAYRA KATHERINE</t>
@@ -1562,7 +1562,7 @@
     <t>geomayra.alcivar.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>yHs?tcnj</t>
+    <t>SiHgbcu0</t>
   </si>
   <si>
     <t>ANDRADE CASTILLO CLAUDIA VICTORIA</t>
@@ -1571,7 +1571,7 @@
     <t>claudia.andrade.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>JSZwZZ4/</t>
+    <t>5gZvx!Ul</t>
   </si>
   <si>
     <t>ANGUISACA CUENCA ALEXANDRA CECIBEL</t>
@@ -1580,7 +1580,7 @@
     <t>alexandra.anguisaca.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>ELKEaoBE</t>
+    <t>zPZeYrk&amp;</t>
   </si>
   <si>
     <t>BARIAS GUARACA LESLY NAYHELY</t>
@@ -1589,7 +1589,7 @@
     <t>lesly.barias.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>v&amp;vz6#rG</t>
+    <t>#dCFCr!i</t>
   </si>
   <si>
     <t>BARROS VERA ANGEL DAVID</t>
@@ -1598,7 +1598,7 @@
     <t>angel.barros.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>stQaj3A8</t>
+    <t>7jKFX2jG</t>
   </si>
   <si>
     <t>BAZURTO SANTOS KENNIA KATHERINE</t>
@@ -1607,7 +1607,7 @@
     <t>kennia.bazurto.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>q/ZVP2FV</t>
+    <t>jLXq?ie7</t>
   </si>
   <si>
     <t>BRAVO BAZURTO GISSELA MARIA</t>
@@ -1616,7 +1616,7 @@
     <t>gissela.bravo.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>AgI8XhT3</t>
+    <t>VruPBqQi</t>
   </si>
   <si>
     <t>BUSTAMANTE YANEZ ANTHONY MICHEL</t>
@@ -1625,7 +1625,7 @@
     <t>anthony.bustamante.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>NFUq2SgU</t>
+    <t>YK5wzt6W</t>
   </si>
   <si>
     <t>CASTRO SOLORZANO NIURKA JULIANA</t>
@@ -1634,7 +1634,7 @@
     <t>niurka.castro.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>tUGD?olf</t>
+    <t>#CnjrWR?</t>
   </si>
   <si>
     <t>CEDEÑO CEDEÑO YOHANA VANESA</t>
@@ -1643,7 +1643,7 @@
     <t>yohana.cedeno.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>6Y!rtmjq</t>
+    <t>4LytNY0H</t>
   </si>
   <si>
     <t>CEDEÑO INTRIAGO JEAN PIERRE</t>
@@ -1652,7 +1652,7 @@
     <t>jean.cedeno@espam.edu.ec</t>
   </si>
   <si>
-    <t>ujQmpUY/</t>
+    <t>BlBSDz#V</t>
   </si>
   <si>
     <t>DELGADO CEVALLOS MARIA JOSE</t>
@@ -1661,7 +1661,7 @@
     <t>maria.delgado.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>TOAfXKKk</t>
+    <t>NYLW&amp;QAR</t>
   </si>
   <si>
     <t>ERAZO MORALES GABRIELA ALEJANDRA</t>
@@ -1670,7 +1670,7 @@
     <t>gabriela.erazo.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>8G9!?HRz</t>
+    <t>kOcZflVN</t>
   </si>
   <si>
     <t>INTRIAGO ZAMBRANO LUIS JOSE</t>
@@ -1679,7 +1679,7 @@
     <t>luis.intriagoz.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>erKdaG2u</t>
+    <t>zGMrE1Bg</t>
   </si>
   <si>
     <t>LOOR ORTIZ YORDY DAVID</t>
@@ -1688,7 +1688,7 @@
     <t>yordy.loor.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>?hhFcAD&amp;</t>
+    <t>4jyk!52A</t>
   </si>
   <si>
     <t>LOZANO GAMEZ THALIA VANESSA</t>
@@ -1700,7 +1700,7 @@
     <t>thalia.lozano.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>BTqx/?uq</t>
+    <t>&amp;y&amp;joTHb</t>
   </si>
   <si>
     <t>MONTES RODRIGUEZ ROLANDO ANTONIO</t>
@@ -1709,7 +1709,7 @@
     <t>rolando.montes.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>MVkdJxhT</t>
+    <t>ZVFBTCM1</t>
   </si>
   <si>
     <t>PALMA RENDON ARGENIS ARTURO</t>
@@ -1718,7 +1718,7 @@
     <t>argenis.palma@espam.edu.ec</t>
   </si>
   <si>
-    <t>fCfStStJ</t>
+    <t>Zg3J1cKh</t>
   </si>
   <si>
     <t>PAREDES YUMBILLO KATTY MARGOTH</t>
@@ -1730,7 +1730,7 @@
     <t>katty.paredes.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>XXlZT8lo</t>
+    <t>LtEezp/B</t>
   </si>
   <si>
     <t>PARRALES DELGADO ALAN SEBASTIAN</t>
@@ -1739,7 +1739,7 @@
     <t>alan.parrales.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>G2Z00eIq</t>
+    <t>FRpar#sD</t>
   </si>
   <si>
     <t>PATA CEDEÑO ROSA JUANA</t>
@@ -1751,7 +1751,7 @@
     <t>rosa.pata.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>feHgZ2wr</t>
+    <t>SnbdlKv!</t>
   </si>
   <si>
     <t>RETETE BASARAN KEVIN ALEXANDER</t>
@@ -1760,7 +1760,7 @@
     <t>kevin.retete.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>4mP4wH4p</t>
+    <t>qxP9av7H</t>
   </si>
   <si>
     <t>ROMAN MACIAS ESTEFANIA ISABEL</t>
@@ -1769,7 +1769,7 @@
     <t>estefania.roman.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>yfv3V3S6</t>
+    <t>ZBNg2UcQ</t>
   </si>
   <si>
     <t>SANDOVAL UREÑA FERNANDA DAYANARA</t>
@@ -1781,7 +1781,7 @@
     <t>fernanda.sandoval.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>n!Yftmeg</t>
+    <t>AH3A5Myg</t>
   </si>
   <si>
     <t>SUBIAGA RAMOS LUIS ALEJANDRO</t>
@@ -1790,7 +1790,7 @@
     <t>luis.subiaga.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>R5EW4AAm</t>
+    <t>sCr6Lkos</t>
   </si>
   <si>
     <t>VELASQUEZ AVEIGA MARIA JESUS</t>
@@ -1799,7 +1799,7 @@
     <t>maria.velasquez.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>1i0hgJM3</t>
+    <t>Ver6#Oar</t>
   </si>
   <si>
     <t>VELEZ CHEME JORDAN ESTEBAN</t>
@@ -1811,7 +1811,7 @@
     <t>jordan.velez.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>2J7eT0FC</t>
+    <t>mscAy/Nf</t>
   </si>
   <si>
     <t>VELEZ MENDOZA DARWIN ALEXIS</t>
@@ -1820,7 +1820,7 @@
     <t>darwin.velez.4623@espam.edu.ec</t>
   </si>
   <si>
-    <t>YHBinZQY</t>
+    <t>is3LdnhY</t>
   </si>
   <si>
     <t>VERA BARRE RONNY ARISTIDES</t>
@@ -1829,7 +1829,7 @@
     <t>ronny.vera.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>!gty/Qcd</t>
+    <t>nQdUNZxa</t>
   </si>
   <si>
     <t>ZAMBRANO MACIAS DIEGO ANDRES</t>
@@ -1838,7 +1838,7 @@
     <t>diego.zambrano.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>v5rX3P3m</t>
+    <t>zZpkh/P3</t>
   </si>
   <si>
     <t>ZAMBRANO REYNA YERSY ENRIQUE</t>
@@ -1847,7 +1847,7 @@
     <t>yersy.zambrano.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>&amp;h9POO!!</t>
+    <t>UD3FbH8a</t>
   </si>
   <si>
     <t>CARDENAS MIELES CRISTHYAN ALBERTO</t>
@@ -1856,7 +1856,7 @@
     <t>cristhyan.cardenas.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>uc&amp;aIcV#</t>
+    <t>pIUe/lKo</t>
   </si>
   <si>
     <t>CASTRO CARRERA JUAN CARLOS</t>
@@ -1865,7 +1865,7 @@
     <t>juan.castro.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>Tq&amp;Uq2rX</t>
+    <t>oy02Shii</t>
   </si>
   <si>
     <t>CHAVEZ MIRANDA ANTHONY MIGUEL</t>
@@ -1874,7 +1874,7 @@
     <t>anthony.chavez@espam.edu.ec</t>
   </si>
   <si>
-    <t>S/wEgdmm</t>
+    <t>VX7QaY#3</t>
   </si>
   <si>
     <t>CUSME ZAMBRANO MICHAEL RICHARD</t>
@@ -1883,7 +1883,7 @@
     <t>michael.cusme.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>D6gIaYbv</t>
+    <t>Hv/2jFkL</t>
   </si>
   <si>
     <t>GILER SALAZAR CARLOS IGNACIO</t>
@@ -1892,7 +1892,7 @@
     <t>carlos.giler@espam.edu.ec</t>
   </si>
   <si>
-    <t>f9hkX1h!</t>
+    <t>m6R3PyHU</t>
   </si>
   <si>
     <t>HERNANDEZ DIAZ MARIA JOSE</t>
@@ -1904,7 +1904,7 @@
     <t>maria.hernandez.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>6mhMwLFr</t>
+    <t>cfG#d!OI</t>
   </si>
   <si>
     <t>HIDALGO MOREIRA ESTELA NATHALY</t>
@@ -1913,7 +1913,7 @@
     <t>estela.hidalgo.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>qrZD33Cm</t>
+    <t>rt!Wdx/D</t>
   </si>
   <si>
     <t>HIDALGO MOREIRA PIERINA NATHALY</t>
@@ -1922,7 +1922,7 @@
     <t>pierina.hidalgo.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>w!F0DSv4</t>
+    <t>aVbupdWx</t>
   </si>
   <si>
     <t>LARA QUIJIJE PAMELA JULISSA</t>
@@ -1931,7 +1931,7 @@
     <t>pamela.lara.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>ThO0phn&amp;</t>
+    <t>iM4QQETf</t>
   </si>
   <si>
     <t>LOOR PITIZACA FRANK ALLAN</t>
@@ -1940,7 +1940,7 @@
     <t>frank.loor.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>d0u&amp;y1Hl</t>
+    <t>zS8QoRdJ</t>
   </si>
   <si>
     <t>LOOR ZAMBRANO GEMA STEFANIA</t>
@@ -1949,7 +1949,7 @@
     <t>gema.loor.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>ty3mkkXx</t>
+    <t>0IPCpF3h</t>
   </si>
   <si>
     <t>PALACIOS TAPIA CESAR XAVIER</t>
@@ -1958,7 +1958,7 @@
     <t>cesar.palacios.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>ESOKR4a/</t>
+    <t>a9o7PHkS</t>
   </si>
   <si>
     <t>PEÑARRETA LANCHE PILAR MICAELA</t>
@@ -1967,7 +1967,7 @@
     <t>pilar.penarreta.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>?!qPjGQH</t>
+    <t>XorOLir#</t>
   </si>
   <si>
     <t>PILLASAGUA PINARGOTE INGRID MAYERLI</t>
@@ -1979,7 +1979,7 @@
     <t>ingrid.pillasagua.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>H6?L2FNV</t>
+    <t>AU#/kRPy</t>
   </si>
   <si>
     <t>QUIJIJE CEDEÑO GEMA LISBETH</t>
@@ -1988,7 +1988,7 @@
     <t>gema.quijije.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>4Sv4H7Bd</t>
+    <t>LAdrC&amp;3Y</t>
   </si>
   <si>
     <t>RUIZ ZAMBRANO VICTOR ANDRES</t>
@@ -1997,7 +1997,7 @@
     <t>victor.ruiz.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>cBqVBHp6</t>
+    <t>lX9ubDVP</t>
   </si>
   <si>
     <t>SALTOS SALAZAR MAYERLY VERONICA</t>
@@ -2009,7 +2009,7 @@
     <t>mayerly.saltos.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>1qlf7n6y</t>
+    <t>D0yJAqAa</t>
   </si>
   <si>
     <t>SANTANA PALOMINO FRANKLIN JOHAO</t>
@@ -2018,7 +2018,7 @@
     <t>franklin.santana.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>VJ!&amp;SCZK</t>
+    <t>qnbr7W5O</t>
   </si>
   <si>
     <t>TAFFUR TOASA OLGA MARIA</t>
@@ -2027,7 +2027,7 @@
     <t>olga.taffur@espam.edu.ec</t>
   </si>
   <si>
-    <t>2tFtuYbj</t>
+    <t>bk7?E#Sr</t>
   </si>
   <si>
     <t>TOALA MACAY JOSSELYN VALERIA</t>
@@ -2036,7 +2036,7 @@
     <t>josselyn.toala.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>JGlTHnof</t>
+    <t>e9jFPmB5</t>
   </si>
   <si>
     <t>VALLADARES ALCIVAR LUIS EDUARDO</t>
@@ -2045,7 +2045,7 @@
     <t>luis.valladares@espam.edu.ec</t>
   </si>
   <si>
-    <t>mrgm?SNi</t>
+    <t>Z/BvVuPR</t>
   </si>
   <si>
     <t>VERA ZAMBRANO HILTER JOSSBEL</t>
@@ -2054,7 +2054,7 @@
     <t>hilter.vera.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>ZdWsvdj4</t>
+    <t>B/Nd4Ze3</t>
   </si>
   <si>
     <t>VERGARA TABOADA ROMEL ALEXANDER</t>
@@ -2063,7 +2063,7 @@
     <t>romel.vergara@espam.edu.ec</t>
   </si>
   <si>
-    <t>Kj?6nCmd</t>
+    <t>M#/FCAaS</t>
   </si>
   <si>
     <t>ZAMBRANO RIVAS NALLELY LISBETH</t>
@@ -2072,7 +2072,7 @@
     <t>nallely.zambrano.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>CQn8KuOK</t>
+    <t>5&amp;f?UyPS</t>
   </si>
   <si>
     <t>ABAD MIRANDA KENYA ESTEFANIA</t>
@@ -2084,7 +2084,7 @@
     <t>kenya.abad.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>9eN0cll/</t>
+    <t>od&amp;U//29</t>
   </si>
   <si>
     <t>ALAVA MORENO MILTON ANTERO</t>
@@ -2093,7 +2093,7 @@
     <t>milton.alava@espam.edu.ec</t>
   </si>
   <si>
-    <t>VYJeRtL8</t>
+    <t>O482iAbg</t>
   </si>
   <si>
     <t>ALMEIDA CEDEÑO CINDY BELEN</t>
@@ -2102,7 +2102,7 @@
     <t>cindy.almeida.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>vKG1WhOO</t>
+    <t>oP/Rx&amp;#7</t>
   </si>
   <si>
     <t>ANCHUNDIA VERA JUSTIN JOSE</t>
@@ -2111,7 +2111,7 @@
     <t>justin.anchundia.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>BDYP/kLK</t>
+    <t>L3fZq8t#</t>
   </si>
   <si>
     <t>AYONG PALADINES MARIA FERNANDA</t>
@@ -2120,7 +2120,7 @@
     <t>maria.ayong.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>h6Yzr0c1</t>
+    <t>SAd5ayG&amp;</t>
   </si>
   <si>
     <t>BRAVO CEVALLOS MELANY PIERINA</t>
@@ -2129,7 +2129,7 @@
     <t>melany.bravo.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>uaBBEEA/</t>
+    <t>BTyI!dVq</t>
   </si>
   <si>
     <t>CASANOVA SALAZAR ROSEMBERG STEVEN</t>
@@ -2138,7 +2138,7 @@
     <t>rosemberg.casanova@espam.edu.ec</t>
   </si>
   <si>
-    <t>8jR!OP&amp;L</t>
+    <t>2NO3GBSf</t>
   </si>
   <si>
     <t>FERNANDEZ TORRES JALENI SCARLETH</t>
@@ -2150,7 +2150,7 @@
     <t>jaleni.fernandez.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>y941oPYJ</t>
+    <t>n?bWbSDI</t>
   </si>
   <si>
     <t>HERRERA SABANDO WILLIAMS ANDRES</t>
@@ -2159,7 +2159,7 @@
     <t>williams.herrera.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>egZjr3yB</t>
+    <t>cKLJQTEF</t>
   </si>
   <si>
     <t>LOPEZ PALADINES EDGAR JOSE</t>
@@ -2168,7 +2168,7 @@
     <t>edgar.lopez.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>Kaxj/0P2</t>
+    <t>4sLjz?DZ</t>
   </si>
   <si>
     <t>MEDRANDA GONZALES LINCI YERLEY</t>
@@ -2177,7 +2177,7 @@
     <t>linci.medranda.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>#AkwB!YK</t>
+    <t>eTTgZpFe</t>
   </si>
   <si>
     <t>MENDIETA GILER JORDY EDUARDO</t>
@@ -2186,7 +2186,7 @@
     <t>jordy.mendieta.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>iI88aZhK</t>
+    <t>8!PMMUuQ</t>
   </si>
   <si>
     <t>MORENO VELIZ ALDRIN DAIRY</t>
@@ -2195,7 +2195,7 @@
     <t>aldrin.moreno.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>KtHTAt0X</t>
+    <t>y4B0k/UW</t>
   </si>
   <si>
     <t>MUÑOZ VERA GENESIS LOURDES</t>
@@ -2204,7 +2204,7 @@
     <t>genesis.munoz.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>I/CG8mLO</t>
+    <t>y!olrLgf</t>
   </si>
   <si>
     <t>PLAZA CHOEZ RODOLFO JEAMPIERRE</t>
@@ -2213,7 +2213,7 @@
     <t>rodolfo.plaza.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>dSZk4x26</t>
+    <t>4ODGDEAN</t>
   </si>
   <si>
     <t>PRECIADO MOREIRA PABLO ANTHONY</t>
@@ -2225,7 +2225,7 @@
     <t>pablo.preciado@espam.edu.ec</t>
   </si>
   <si>
-    <t>ACP?RHRn</t>
+    <t>Bh11Uusc</t>
   </si>
   <si>
     <t>SABANDO SALCEDO GENESIS BETZABETH</t>
@@ -2237,7 +2237,7 @@
     <t>genesis.sabando.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>oFG7N9QV</t>
+    <t>#JAI2ms/</t>
   </si>
   <si>
     <t>SOLEDISPA ZAMBRANO CRISTHINA ISABELA</t>
@@ -2246,7 +2246,7 @@
     <t>cristhina.soledispa.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>PFtiv9ik</t>
+    <t>gZUYXb?x</t>
   </si>
   <si>
     <t>SOLORZANO RODRIGUEZ EVELYN AGUSTINA</t>
@@ -2255,7 +2255,7 @@
     <t>evelyn.solorzanor@espam.edu.ec</t>
   </si>
   <si>
-    <t>2HjXcz1J</t>
+    <t>H8?9?XsE</t>
   </si>
   <si>
     <t>VERA AGUAS KELVIN JEAN PIERRE</t>
@@ -2264,7 +2264,7 @@
     <t>kelvin.vera@espam.edu.ec</t>
   </si>
   <si>
-    <t>ak8slXc!</t>
+    <t>/!hA9yQH</t>
   </si>
   <si>
     <t>VERA LOOR DENYS ESTEFANIA</t>
@@ -2273,7 +2273,7 @@
     <t>denys.vera.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>h9eiUxPW</t>
+    <t>LABflxtF</t>
   </si>
   <si>
     <t>VINCES PIN MARIA FERNANDA</t>
@@ -2282,7 +2282,7 @@
     <t>maria.vinces.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>C9Dws&amp;J0</t>
+    <t>i77qFB!F</t>
   </si>
   <si>
     <t>ZAMBRANO ZAMBRANO MARIA BELEN</t>
@@ -2291,7 +2291,7 @@
     <t>mariab.zambranoz.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>XaG9cRH3</t>
+    <t>G6QXD1GN</t>
   </si>
   <si>
     <t>ALCIVAR ZAMBRANO DIANA ESTHER</t>
@@ -2300,7 +2300,7 @@
     <t>diana.alcivar.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>nhq8DxA8</t>
+    <t>g8/vpDPv</t>
   </si>
   <si>
     <t>ALVAREZ BORJA ANGHELO JOSUE</t>
@@ -2309,7 +2309,7 @@
     <t>anghelo.alvarez.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>4il62kfA</t>
+    <t>hEMyaGsH</t>
   </si>
   <si>
     <t>BRAVO MENDOZA ALBERDY JAVIER</t>
@@ -2318,7 +2318,7 @@
     <t>alberdy.bravo@espam.edu.ec</t>
   </si>
   <si>
-    <t>X8DpOw#z</t>
+    <t>2KEGPqHT</t>
   </si>
   <si>
     <t>GARCIA PARRAGA FATIMA MARIA</t>
@@ -2327,7 +2327,7 @@
     <t>fatima.garcia.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>qZcWpDRn</t>
+    <t>!YPjbnis</t>
   </si>
   <si>
     <t>GRACIA PRATT WILINTON JOSUE</t>
@@ -2339,7 +2339,7 @@
     <t>wilinton.gracia.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>Q?fAVM!4</t>
+    <t>IhX64&amp;v!</t>
   </si>
   <si>
     <t>MARRETT BEDOYA MISHELLE MARCELA</t>
@@ -2351,7 +2351,7 @@
     <t>mishelle.marrett.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>aOmpyn4z</t>
+    <t>fUzUTrRs</t>
   </si>
   <si>
     <t>MERA CASTILLO NATHALY VIRGINIA</t>
@@ -2360,7 +2360,7 @@
     <t>nathaly.mera.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>&amp;1ZWTu7a</t>
+    <t>jQU3t!!g</t>
   </si>
   <si>
     <t>ROSERO VERA LUIS ANDRES</t>
@@ -2369,7 +2369,7 @@
     <t>luis.rosero@espam.edu.ec</t>
   </si>
   <si>
-    <t>wrtaCV#W</t>
+    <t>Cf4nvDfI</t>
   </si>
   <si>
     <t>SANTISTEBAN BENAVIDES JOSUE ROMARIO</t>
@@ -2378,7 +2378,7 @@
     <t>josue.santisteban.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>zjtBn3ln</t>
+    <t>f?kSmk&amp;s</t>
   </si>
   <si>
     <t>SOLORZANO CUSME GEMA JULIANA</t>
@@ -2387,7 +2387,7 @@
     <t>gemaju.solorzano@espam.edu.ec</t>
   </si>
   <si>
-    <t>#HpW5n2N</t>
+    <t>k5hR1m7X</t>
   </si>
   <si>
     <t>TORRES PINARGOTE MAHOLY</t>
@@ -2396,7 +2396,7 @@
     <t>maholy.torres.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>kpDBNeiA</t>
+    <t>P&amp;nZ6xlE</t>
   </si>
   <si>
     <t>ZAMBRANO BRAVO LEANDRO ISMAEL</t>
@@ -2405,7 +2405,7 @@
     <t>leandro.zambrano.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>yeyAiwls</t>
+    <t>JoTHS!fB</t>
   </si>
   <si>
     <t>ZAMBRANO GARCIA HENRY ARTURO</t>
@@ -2414,7 +2414,7 @@
     <t>henry.zambrano.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>MZjKwlVl</t>
+    <t>zOPH/rcV</t>
   </si>
   <si>
     <t>BARRE PARRAGA BETSY BEATRIZ</t>
@@ -2423,7 +2423,7 @@
     <t>betsy.barre.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>V9oEuNpK</t>
+    <t>CjKitjTX</t>
   </si>
   <si>
     <t>CEDEÑO CEDEÑO CAMILA PATRICIA</t>
@@ -2435,7 +2435,7 @@
     <t>camila.cedeno.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>dwEEksP3</t>
+    <t>MjNTVHyC</t>
   </si>
   <si>
     <t>CEDEÑO SOLORZANO ANTHONY STEVEN</t>
@@ -2444,7 +2444,7 @@
     <t>anthony.cedenos.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>eJS3yTxT</t>
+    <t>aWUs/tzH</t>
   </si>
   <si>
     <t>CEDEÑO TUAREZ ANGIE LISSETTE</t>
@@ -2453,7 +2453,7 @@
     <t>angie.cedeno@espam.edu.ec</t>
   </si>
   <si>
-    <t>YZGdmZU4</t>
+    <t>4iHPZpXC</t>
   </si>
   <si>
     <t>CHAVEZ LANDAZURI JACKSON JAIR</t>
@@ -2465,7 +2465,7 @@
     <t>jackson.chavez.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>6Ajcm2?9</t>
+    <t>H?FJJIBo</t>
   </si>
   <si>
     <t>CHICA MOREIRA MARIA FERNANDA</t>
@@ -2474,7 +2474,7 @@
     <t>maria.chica.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>zF0WCfeS</t>
+    <t>Ge#zUWcb</t>
   </si>
   <si>
     <t>GARCIA ZAMBRANO WENDY YAMILETH</t>
@@ -2483,7 +2483,7 @@
     <t>wendy.garcia.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>/h0e9jGn</t>
+    <t>!hFmImb0</t>
   </si>
   <si>
     <t>GARZON CEDEÑO FRANCESCO RUBEN</t>
@@ -2492,7 +2492,7 @@
     <t>francesco.garzon.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>cl8EDOBH</t>
+    <t>?8U9xLVd</t>
   </si>
   <si>
     <t>GUERRERO CEDEÑO MICHAEL JORDY</t>
@@ -2501,7 +2501,7 @@
     <t>michael.guerrero.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>ixRq#Kw#</t>
+    <t>w7BhpD#I</t>
   </si>
   <si>
     <t>MEDRANDA GONZALES CRISTHIAN JOSE</t>
@@ -2510,7 +2510,7 @@
     <t>cristhian.medranda@espam.edu.ec</t>
   </si>
   <si>
-    <t>//7wI3Z1</t>
+    <t>Yp/Br3kj</t>
   </si>
   <si>
     <t>ORELLANA ANCHUNDIA JESUS MIGUEL</t>
@@ -2519,7 +2519,7 @@
     <t>jesus.orellana@espam.edu.ec</t>
   </si>
   <si>
-    <t>bg3okAo/</t>
+    <t>pl1QiC?#</t>
   </si>
   <si>
     <t>ORTIZ GOMEZ EDUARDO ANDRES</t>
@@ -2528,7 +2528,7 @@
     <t>eduardo.ortiz@espam.edu.ec</t>
   </si>
   <si>
-    <t>LzL!0&amp;Z2</t>
+    <t>bguzxf/L</t>
   </si>
   <si>
     <t>PAZMIÑO MERA SHANDE ALEXANDER</t>
@@ -2537,7 +2537,7 @@
     <t>shande.pazmino.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>panstwGV</t>
+    <t>Ka19sQU9</t>
   </si>
   <si>
     <t>PEÑARRIETA BAZURTO ERICK ANDRES</t>
@@ -2546,7 +2546,7 @@
     <t>erick.penarrieta@espam.edu.ec</t>
   </si>
   <si>
-    <t>hHyWFPOD</t>
+    <t>UpudrhAn</t>
   </si>
   <si>
     <t>RIERA GAVILANES IZHURY MILLENYTH</t>
@@ -2558,7 +2558,7 @@
     <t>izhury.riera.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>LMi1vbyK</t>
+    <t>?dER3/Vt</t>
   </si>
   <si>
     <t>RIVERA CEDEÑO RIVALDO JOSE</t>
@@ -2570,7 +2570,7 @@
     <t>rivaldo.rivera.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>gKfHOV2H</t>
+    <t>j36JAp8G</t>
   </si>
   <si>
     <t>SALDARRIAGA ARTEAGA OMAIRA MARIBI</t>
@@ -2579,7 +2579,7 @@
     <t>omaira.saldarriaga@espam.edu.ec</t>
   </si>
   <si>
-    <t>A9CuFJSw</t>
+    <t>S11FR5L&amp;</t>
   </si>
   <si>
     <t>SANDOVAL MERA NALLELY STEFANIA</t>
@@ -2588,7 +2588,7 @@
     <t>nallely.sandoval.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>BUj&amp;W2ji</t>
+    <t>eweBN?yp</t>
   </si>
   <si>
     <t>SUQUI CANGO BRYAN EDUARDO</t>
@@ -2600,7 +2600,7 @@
     <t>bryan.suqui.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>4CgLP&amp;8i</t>
+    <t>dD!M5/Fi</t>
   </si>
   <si>
     <t>VERDUGA ZAMBRANO CARLOS ANDRES</t>
@@ -2609,7 +2609,7 @@
     <t>carlos.verduga.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>sVL2ZSpX</t>
+    <t>mN2gYKFz</t>
   </si>
   <si>
     <t>ZAMBRANO LARA MARVIN RENE</t>
@@ -2618,7 +2618,7 @@
     <t>marvin.zambrano.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>!MoLQcPh</t>
+    <t>hH22D2&amp;I</t>
   </si>
   <si>
     <t>ZAMBRANO OBANDO KELVIN JOSUE</t>
@@ -2630,7 +2630,7 @@
     <t>kelvin.zambrano.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>KIFdznnN</t>
+    <t>05HmGCf?</t>
   </si>
   <si>
     <t>ZAPATA QUINCHE ANDREA CAROLINA</t>
@@ -2639,7 +2639,7 @@
     <t>andrea.zapata.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>bKeYJsop</t>
+    <t>iWBCr30Q</t>
   </si>
   <si>
     <t>ALMEIDA PEREZ ANGEL FERNANDO</t>
@@ -2648,7 +2648,7 @@
     <t>angel.almeida@espam.edu.ec</t>
   </si>
   <si>
-    <t>GX!SYNb3</t>
+    <t>ZlwnFOiQ</t>
   </si>
   <si>
     <t>CEDEÑO PARRAGA MELANY NALLELY</t>
@@ -2657,7 +2657,7 @@
     <t>melany.cedeno.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>EYUxHgtl</t>
+    <t>9XEv2utQ</t>
   </si>
   <si>
     <t>CEDEÑO SALVATIERRA JENIFFER ALEJANDRA</t>
@@ -2666,7 +2666,7 @@
     <t>jeniffer.cedenosal@espam.edu.ec</t>
   </si>
   <si>
-    <t>udEcTubR</t>
+    <t>AAjInxPR</t>
   </si>
   <si>
     <t>FERNANDEZ ARTEAGA SCHEZNARDA EDITH</t>
@@ -2675,7 +2675,7 @@
     <t>scheznarda.fernandez.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>5p3T9dwO</t>
+    <t>oYIIV18r</t>
   </si>
   <si>
     <t>GANCHOZO VELEZ EMILY JULEXY</t>
@@ -2684,7 +2684,7 @@
     <t>emily.ganchozo.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>nWkrU4QS</t>
+    <t>4OWqYa!R</t>
   </si>
   <si>
     <t>LEON VIZÑAY ROQUE JAVIER</t>
@@ -2696,7 +2696,7 @@
     <t>roque.leon@espam.edu.ec</t>
   </si>
   <si>
-    <t>DX4R0ROt</t>
+    <t>up6OWxVu</t>
   </si>
   <si>
     <t>LOOR LOOR EVELYN YAMILETH</t>
@@ -2705,7 +2705,7 @@
     <t>evelynya.loor@espam.edu.ec</t>
   </si>
   <si>
-    <t>qT3cJMjq</t>
+    <t>4HhN0ioB</t>
   </si>
   <si>
     <t>LOOR MOREIRA MELANIE NOEMI</t>
@@ -2714,7 +2714,7 @@
     <t>melanie.loorm.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>PMrjIYwU</t>
+    <t>wJDEBXAw</t>
   </si>
   <si>
     <t>LOPEZ ESTACIO ROSA ANGELICA</t>
@@ -2723,7 +2723,7 @@
     <t>rosa.lopez@espam.edu.ec</t>
   </si>
   <si>
-    <t>1B1LuMpl</t>
+    <t>emytoXHH</t>
   </si>
   <si>
     <t>MENDOZA MUÑOZ FLOR ANTONELA</t>
@@ -2732,7 +2732,7 @@
     <t>flor.mendoza.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>xFkgaQYH</t>
+    <t>R!c7Rma?</t>
   </si>
   <si>
     <t>MERELO SOLORZANO NAIDELYN MISHELLE</t>
@@ -2741,7 +2741,7 @@
     <t>naidelyn.merelo.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>b5/A6//T</t>
+    <t>!D2Vs4/E</t>
   </si>
   <si>
     <t>MOREIRA LOOR FABIAN ALEXANDER</t>
@@ -2750,7 +2750,7 @@
     <t>fabian.moreira@espam.edu.ec</t>
   </si>
   <si>
-    <t>4mUiC8eq</t>
+    <t>OrgE#Rhg</t>
   </si>
   <si>
     <t>PAZMIÑO FALCONES JOSE MIGUEL</t>
@@ -2759,7 +2759,7 @@
     <t>jose.pazmino@espam.edu.ec</t>
   </si>
   <si>
-    <t>mRX9w4O/</t>
+    <t>xcAT49qW</t>
   </si>
   <si>
     <t>PEÑAFIEL PITA BRITHANNY MICAELA</t>
@@ -2771,7 +2771,7 @@
     <t>brithanny.penafiel.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>bQ6wnH&amp;r</t>
+    <t>o5/mSviL</t>
   </si>
   <si>
     <t>PINTO PALACIOS JOSE ANTONIO</t>
@@ -2780,7 +2780,7 @@
     <t>jose.pinto@espam.edu.ec</t>
   </si>
   <si>
-    <t>KxqEAeUA</t>
+    <t>HhL#ooeK</t>
   </si>
   <si>
     <t>RENTERIA VALENCIA NEURYS GYSSELA</t>
@@ -2792,7 +2792,7 @@
     <t>neurys.renteria@espam.edu.ec</t>
   </si>
   <si>
-    <t>Rva?qG0S</t>
+    <t>1v/0Vezm</t>
   </si>
   <si>
     <t>RIVAS ZAMBRANO ALISSON KATIUSKA</t>
@@ -2801,7 +2801,7 @@
     <t>alisson.rivas.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>oGjk4fxq</t>
+    <t>GCp7S!/l</t>
   </si>
   <si>
     <t>TORRES VARGAS KARELIS ANDREINA</t>
@@ -2813,7 +2813,7 @@
     <t>karelis.torres@espam.edu.ec</t>
   </si>
   <si>
-    <t>3LsMyePm</t>
+    <t>E!wAH/FY</t>
   </si>
   <si>
     <t>VALDIVIESO CHUNG DANIEL JAFET</t>
@@ -2822,7 +2822,7 @@
     <t>daniel.valdivieso.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>ysreY?kp</t>
+    <t>!l4x6Rf5</t>
   </si>
   <si>
     <t>VASCONEZ GONZALEZ FRANCISCO ALESSIO</t>
@@ -2831,7 +2831,7 @@
     <t>francisco.vasconez.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>GIZSqysg</t>
+    <t>rpY98THv</t>
   </si>
   <si>
     <t>VELEZ ORTEGA BORIS ANDRES</t>
@@ -2840,7 +2840,7 @@
     <t>boris.velez.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>QJnxRR6b</t>
+    <t>JIE!SmFj</t>
   </si>
   <si>
     <t>VERA ESTUPIÑAN BRYAN FRANCISCO</t>
@@ -2849,7 +2849,7 @@
     <t>bryan.vera@espam.edu.ec</t>
   </si>
   <si>
-    <t>prlY2hkB</t>
+    <t>R97cYGEF</t>
   </si>
   <si>
     <t>VERA LOOR ARIANA PAOLA</t>
@@ -2858,7 +2858,7 @@
     <t>ariana.vera.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>&amp;O88Gz4z</t>
+    <t>boB635St</t>
   </si>
   <si>
     <t>ZAMBRANO VEGA AURA ARACELY</t>
@@ -2867,7 +2867,7 @@
     <t>aura.zambranov@espam.edu.ec</t>
   </si>
   <si>
-    <t>7a3slMiY</t>
+    <t>GttSYo&amp;L</t>
   </si>
   <si>
     <t>ALMEIDA ZAMBRANO HALINTONG VICENTE</t>
@@ -2876,7 +2876,7 @@
     <t>halintong.almeida@espam.edu.ec</t>
   </si>
   <si>
-    <t>Na1ETp3k</t>
+    <t>3QaIh?V/</t>
   </si>
   <si>
     <t>AYALA VILLAFUERTE NAHOMY NAYELY</t>
@@ -2885,7 +2885,7 @@
     <t>nahomy.ayala@espam.edu.ec</t>
   </si>
   <si>
-    <t>z/1PlNTD</t>
+    <t>CbpoWZqI</t>
   </si>
   <si>
     <t>BASURTO CEDEÑO ITALO JORDANO</t>
@@ -2894,7 +2894,7 @@
     <t>italo.basurto.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>IQeSB/Tk</t>
+    <t>!V9OoUsl</t>
   </si>
   <si>
     <t>CASTRO TAIPE YERIK LEXANDER</t>
@@ -2903,7 +2903,7 @@
     <t>yerik.castro.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>9w&amp;Ukw!h</t>
+    <t>dRFzLew4</t>
   </si>
   <si>
     <t>CEDEÑO GARCIA CARLOS PAUL</t>
@@ -2912,7 +2912,7 @@
     <t>carlos.cedeno.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>crSqVvPY</t>
+    <t>Jn544sSt</t>
   </si>
   <si>
     <t>COBEÑA ZAMBRANO EDIS ARIEL</t>
@@ -2921,7 +2921,7 @@
     <t>edis.cobena@espam.edu.ec</t>
   </si>
   <si>
-    <t>1wMqtoma</t>
+    <t>tQgUFqTU</t>
   </si>
   <si>
     <t>CORDOVA MUGUERZA ADRIANA NICOLLE</t>
@@ -2930,7 +2930,7 @@
     <t>adriana.muguersa.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>rEY4DSd4</t>
+    <t>cHfQbwWn</t>
   </si>
   <si>
     <t>COTERA PIN MAYERLY DAYANARA</t>
@@ -2939,7 +2939,7 @@
     <t>mayerly.cotera.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>eGCM5KN0</t>
+    <t>eEzN&amp;8cc</t>
   </si>
   <si>
     <t>CUENCA CUSME CECILIA ALEXANDRA</t>
@@ -2948,7 +2948,7 @@
     <t>cecilia.cuenca@espam.edu.ec</t>
   </si>
   <si>
-    <t>GqchSfxi</t>
+    <t>qiGm?koV</t>
   </si>
   <si>
     <t>FERNANDEZ ARTEAGA ANGIE MISHELLE</t>
@@ -2957,7 +2957,7 @@
     <t>angie.fernandez.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>PYxBy0Ap</t>
+    <t>#C78r!IS</t>
   </si>
   <si>
     <t>LATA QUINCHI SANDRA LOURDES</t>
@@ -2966,7 +2966,7 @@
     <t>sandra.lata.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>RH2!pkVx</t>
+    <t>MXkNy#I6</t>
   </si>
   <si>
     <t>MEJICANGO CALLE JAZMIN LISBETH</t>
@@ -2978,7 +2978,7 @@
     <t>jazmin.mejicango.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>PK#zxrFD</t>
+    <t>L#D7xbTx</t>
   </si>
   <si>
     <t>MENDOZA GANCHOZO DOMENICA NICOLE</t>
@@ -2987,7 +2987,7 @@
     <t>domenica.mendoza.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>!I4n6O&amp;5</t>
+    <t>na1C0f2Z</t>
   </si>
   <si>
     <t>MOREIRA CEVALLOS NAYELY VANESSA</t>
@@ -2996,7 +2996,7 @@
     <t>nayely.moreira@espam.edu.ec</t>
   </si>
   <si>
-    <t>DNwawKS8</t>
+    <t>1FM9p6QA</t>
   </si>
   <si>
     <t>MUÑOZ VERA MICHELLE VALENTINA</t>
@@ -3005,7 +3005,7 @@
     <t>michelle.munoz.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>fwUu&amp;uYO</t>
+    <t>?FPnrB?X</t>
   </si>
   <si>
     <t>OLMOS RIVERA CLEOPATRA STEFANIA</t>
@@ -3014,7 +3014,7 @@
     <t>cleopatra.olmos.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>gCMSPKOU</t>
+    <t>H1XfcZOX</t>
   </si>
   <si>
     <t>PAREDES RODRIGUEZ GIBELY JARLETH</t>
@@ -3026,7 +3026,7 @@
     <t>gibely.paredes.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>E/JYo8aU</t>
+    <t>C&amp;pVFeZL</t>
   </si>
   <si>
     <t>PERUGACHI MECIAS GEOVANNY ALEJANDRO</t>
@@ -3035,7 +3035,7 @@
     <t>geovanny.perugachi.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>3uT5&amp;OtI</t>
+    <t>E6&amp;Z1Xxo</t>
   </si>
   <si>
     <t>PITA MACIAS RUBEN DARIO</t>
@@ -3044,7 +3044,7 @@
     <t>ruben.pita@espam.edu.ec</t>
   </si>
   <si>
-    <t>s5GG&amp;Tp/</t>
+    <t>GF8T4ej8</t>
   </si>
   <si>
     <t>ROSADO QUIROZ JANDRY FABRICIO</t>
@@ -3053,7 +3053,7 @@
     <t>jandry.rosado.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>ZurrnK1N</t>
+    <t>DaEhrUic</t>
   </si>
   <si>
     <t>SANCHEZ CHOEZ BERTHA DOLORES</t>
@@ -3062,7 +3062,7 @@
     <t>bertha.choez.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>ImvvEFVw</t>
+    <t>A6F0?gQE</t>
   </si>
   <si>
     <t>VALENCIA MARCILLO JENIFFER KAROLINA</t>
@@ -3071,7 +3071,7 @@
     <t>jenifferk.valenciam@espam.edu.ec</t>
   </si>
   <si>
-    <t>OLVcV6bZ</t>
+    <t>mU&amp;tMbVk</t>
   </si>
   <si>
     <t>VELASQUEZ GUADAMUD MARIO DAMIAN</t>
@@ -3080,7 +3080,7 @@
     <t>mario.velasquez@espam.edu.ec</t>
   </si>
   <si>
-    <t>fhDMR8vc</t>
+    <t>/5KBJRsG</t>
   </si>
   <si>
     <t>VELEZ RIVAS JOFFRE GEOVANNY</t>
@@ -3089,7 +3089,7 @@
     <t>joffre.velez.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>CL&amp;HBHCa</t>
+    <t>NO9FmM7/</t>
   </si>
   <si>
     <t>VELEZ ZAMBRANO GEMA BRIGITH</t>
@@ -3098,7 +3098,7 @@
     <t>gema.velez.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>GrEGPkZr</t>
+    <t>xWP/?9MM</t>
   </si>
   <si>
     <t>VERA CEVALLOS CARMEN GISSELLA</t>
@@ -3107,7 +3107,7 @@
     <t>carmen.vera@espam.edu.ec</t>
   </si>
   <si>
-    <t>N!ZWXzu5</t>
+    <t>WG!SB#OC</t>
   </si>
   <si>
     <t>VERA SOLORZANO CARLOS NEPTALI</t>
@@ -3116,7 +3116,7 @@
     <t>carlos.veras@espam.edu.ec</t>
   </si>
   <si>
-    <t>8GXv0VJG</t>
+    <t>GgF6FeB2</t>
   </si>
   <si>
     <t>VERA VERA YUSTHYN YARLETH</t>
@@ -3125,7 +3125,7 @@
     <t>yusthyn.vera.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>8TGRVzog</t>
+    <t>I8b8teCq</t>
   </si>
   <si>
     <t>VIDAL SABANDO MARIA KATHERINE</t>
@@ -3134,7 +3134,7 @@
     <t>maria.vidal.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>pZB?ycl?</t>
+    <t>YUbY&amp;avI</t>
   </si>
   <si>
     <t>ZAMBRANO ALCIVAR EMILIO JOSE</t>
@@ -3143,7 +3143,7 @@
     <t>emilio.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>ayRu##QG</t>
+    <t>jRvEd7oH</t>
   </si>
   <si>
     <t>ZAMBRANO AVEIGA MAYRA ALEXANDRA</t>
@@ -3152,7 +3152,7 @@
     <t>mayra.zambrano.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>QkhYkNrQ</t>
+    <t>9VhwyjKO</t>
   </si>
   <si>
     <t>ZAMBRANO VERA MARIA BEATRIZ</t>
@@ -3161,7 +3161,7 @@
     <t>maria.zambrano.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>XNDG5ob9</t>
+    <t>JZ4S48f/</t>
   </si>
   <si>
     <t>ALCIVAR RODRIGUEZ STEFANY LISETH</t>
@@ -3170,7 +3170,7 @@
     <t>stefany.alcivar.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>Ves1TkAU</t>
+    <t>R0F8GlKg</t>
   </si>
   <si>
     <t>ANGULO GLENN YURANI MAGERLI</t>
@@ -3182,7 +3182,7 @@
     <t>yurani.angulo.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>kVKWlC6n</t>
+    <t>sUCi74c5</t>
   </si>
   <si>
     <t>ARTEAGA TRIVIÑO CAMILA</t>
@@ -3191,7 +3191,7 @@
     <t>camila.arteaga.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>uLSmZf!1</t>
+    <t>HYTNBgTl</t>
   </si>
   <si>
     <t>BALDERRAMO CABRERA JOSE GERMAN</t>
@@ -3200,7 +3200,7 @@
     <t>jose.balderramo.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>gQy/gyyM</t>
+    <t>HxhaECkU</t>
   </si>
   <si>
     <t>BRAVO MUÑOZ JEAN MYCKEL</t>
@@ -3209,7 +3209,7 @@
     <t>jean.bravomu@espam.edu.ec</t>
   </si>
   <si>
-    <t>!7hLpaCh</t>
+    <t>O7vUHkTg</t>
   </si>
   <si>
     <t>BRAVO SANTANA JUNIOR XAVIER</t>
@@ -3218,7 +3218,7 @@
     <t>juniorx.bravos@espam.edu.ec</t>
   </si>
   <si>
-    <t>6knNQZ2M</t>
+    <t>Iz/AyD2!</t>
   </si>
   <si>
     <t>CAGUA RODRIGUEZ NAYELY ANAHI</t>
@@ -3227,7 +3227,7 @@
     <t>nayely.cagua.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>oqP1Uvt#</t>
+    <t>EumfyNP5</t>
   </si>
   <si>
     <t>CALDERON RODRIGUEZ FATIMA DANIELA</t>
@@ -3236,7 +3236,7 @@
     <t>fatima.calderon.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>/9hDYu0J</t>
+    <t>?zgbCxp7</t>
   </si>
   <si>
     <t>CASTILLO MEJIA MARIA CARLOTA</t>
@@ -3245,7 +3245,7 @@
     <t>maria.castillo.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>nP2aByHo</t>
+    <t>Uze/7lL1</t>
   </si>
   <si>
     <t>CEDEÑO CUSME DAYANARA NARCISA</t>
@@ -3254,7 +3254,7 @@
     <t>dayanara.cedeno.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>wQ3yGjI5</t>
+    <t>IOHSxefj</t>
   </si>
   <si>
     <t>CELORIO VERA PETER PABLO</t>
@@ -3263,7 +3263,7 @@
     <t>peter.celorio.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>WX/efnTP</t>
+    <t>C4Z7dt26</t>
   </si>
   <si>
     <t>COOL MORENO DIANA ESTHEFANIA</t>
@@ -3272,7 +3272,7 @@
     <t>diana.cool@espam.edu.ec</t>
   </si>
   <si>
-    <t>j6tuKPZ3</t>
+    <t>MweTwTkm</t>
   </si>
   <si>
     <t>DELGADO GARZON PAOLA FERNANDA</t>
@@ -3281,7 +3281,7 @@
     <t>paola.delgadog.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>IGAW9Rdr</t>
+    <t>k05oH2SX</t>
   </si>
   <si>
     <t>DOMINGUEZ DOMINGUEZ ROMINA MELISSA</t>
@@ -3290,7 +3290,7 @@
     <t>romina.dominguez@espam.edu.ec</t>
   </si>
   <si>
-    <t>LTkA8Xq3</t>
+    <t>70jyhhH!</t>
   </si>
   <si>
     <t>GARCIA MUÑOZ EDDY SANTIAGO</t>
@@ -3299,7 +3299,7 @@
     <t>eddy.garcia@espam.edu.ec</t>
   </si>
   <si>
-    <t>kaNtRwa?</t>
+    <t>5PVuxsfa</t>
   </si>
   <si>
     <t>GARCIA PONCE LEONELA ANTONELLA</t>
@@ -3308,7 +3308,7 @@
     <t>leonela.garcia.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>Lx&amp;gqRFH</t>
+    <t>71vBOcEQ</t>
   </si>
   <si>
     <t>LOPEZ SOLORZANO YIMMY</t>
@@ -3317,7 +3317,7 @@
     <t>yimmy.lopez@espam.edu.ec</t>
   </si>
   <si>
-    <t>!peveI03</t>
+    <t>TMJfRzNC</t>
   </si>
   <si>
     <t>LOPEZ ZAMBRANO JORGE ISAAC</t>
@@ -3326,7 +3326,7 @@
     <t>jorge.lopez.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>32rlWaVE</t>
+    <t>OgH/1qwh</t>
   </si>
   <si>
     <t>MACIAS GUAGUA MAGERLY THAIS</t>
@@ -3338,7 +3338,7 @@
     <t>magerly.macias.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>qAKDdhAa</t>
+    <t>kwXBEJ&amp;&amp;</t>
   </si>
   <si>
     <t>MARTINEZ SABANDO MARCELO EFRAIN</t>
@@ -3347,7 +3347,7 @@
     <t>marcelo.martinez@espam.edu.ec</t>
   </si>
   <si>
-    <t>qyYsMll9</t>
+    <t>lh18eA5P</t>
   </si>
   <si>
     <t>MEDRANDA CEDEÑO IVAN ARTURO</t>
@@ -3356,7 +3356,7 @@
     <t>ivan.medranda@espam.edu.ec</t>
   </si>
   <si>
-    <t>GlXoCjME</t>
+    <t>lpgPT18?</t>
   </si>
   <si>
     <t>MENDOZA INTRIAGO KEYLA YAMIRA</t>
@@ -3365,7 +3365,7 @@
     <t>keyla.mendoza@espam.edu.ec</t>
   </si>
   <si>
-    <t>MNCTBABC</t>
+    <t>9ypr!ru?</t>
   </si>
   <si>
     <t>MENDOZA LOOR MARIAGRACIA</t>
@@ -3374,7 +3374,7 @@
     <t>mariagracia.mendoza@espam.edu.ec</t>
   </si>
   <si>
-    <t>Eh/ve2uk</t>
+    <t>9/E9OPHw</t>
   </si>
   <si>
     <t>MOREIRA VELEZ ANGELICA LISBETH</t>
@@ -3383,7 +3383,7 @@
     <t>angelica.moreira@espam.edu.ec</t>
   </si>
   <si>
-    <t>HvKZc8V0</t>
+    <t>NuBC9bwl</t>
   </si>
   <si>
     <t>PATA HERRERA ESTRELLA TATIANA</t>
@@ -3392,7 +3392,7 @@
     <t>estrella.pata.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>!K3b448h</t>
+    <t>bM21!h?k</t>
   </si>
   <si>
     <t>PONCE MIRANDA YOEL ISAIAS</t>
@@ -3401,7 +3401,7 @@
     <t>yoel.ponce@espam.edu.ec</t>
   </si>
   <si>
-    <t>s0Q0LSXs</t>
+    <t>fXDdGuCo</t>
   </si>
   <si>
     <t>RIVAS ALARCON ALISSON MAYERLI</t>
@@ -3413,7 +3413,7 @@
     <t>alisson.rivas@espam.edu.ec</t>
   </si>
   <si>
-    <t>ngj6IQ5b</t>
+    <t>GFdm5BiC</t>
   </si>
   <si>
     <t>SABANDO VERA EMELY NOEMI</t>
@@ -3425,7 +3425,7 @@
     <t>emely.sabando.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>?yj3p09h</t>
+    <t>&amp;9nopWvV</t>
   </si>
   <si>
     <t>VELASQUEZ ZAMBRANO JUAN DIEGO</t>
@@ -3434,7 +3434,7 @@
     <t>juan.velasquez@espam.edu.ec</t>
   </si>
   <si>
-    <t>93s3B!n!</t>
+    <t>c2sT&amp;Azf</t>
   </si>
   <si>
     <t>ZAMBRANO MENDOZA JOSE LUIS</t>
@@ -3443,7 +3443,7 @@
     <t>jose.zambrano.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>mh0COkK!</t>
+    <t>xJbHa8Wb</t>
   </si>
   <si>
     <t>ZAMBRANO PEREZ CARLOS JULIO</t>
@@ -3452,7 +3452,7 @@
     <t>carlos.zambranop@espam.edu.ec</t>
   </si>
   <si>
-    <t>rGjITdcJ</t>
+    <t>HCx1tUVD</t>
   </si>
   <si>
     <t>ACHIG GUALACATA EVELIN LISETTE</t>
@@ -3461,7 +3461,7 @@
     <t>evelin.achig@espam.edu.ec</t>
   </si>
   <si>
-    <t>q9DXsz?D</t>
+    <t>a?XHNpUs</t>
   </si>
   <si>
     <t>AGUAS VERA JEICOL MIKE</t>
@@ -3470,7 +3470,7 @@
     <t>jeicol.aguas@espam.edu.ec</t>
   </si>
   <si>
-    <t>iAmM60pF</t>
+    <t>a3Zq81iv</t>
   </si>
   <si>
     <t>BRAVO BASURTO JUAN CARLOS</t>
@@ -3479,7 +3479,7 @@
     <t>juan.bravo@espam.edu.ec</t>
   </si>
   <si>
-    <t>D8RQtDd0</t>
+    <t>b85vusY?</t>
   </si>
   <si>
     <t>CANTOS ZAMBRANO MARIA FERNANDA</t>
@@ -3488,7 +3488,7 @@
     <t>mariaf.cantos@espam.edu.ec</t>
   </si>
   <si>
-    <t>QhOKatYk</t>
+    <t>u62w2Kh!</t>
   </si>
   <si>
     <t>CASTILLO DELGADO LERENY JAMILEX</t>
@@ -3497,7 +3497,7 @@
     <t>lereny.castillo@espam.edu.ec</t>
   </si>
   <si>
-    <t>0805mOB6</t>
+    <t>F8Jb#!Fu</t>
   </si>
   <si>
     <t>CASTILLO JACOME JHON JAIRO</t>
@@ -3506,7 +3506,7 @@
     <t>jhon.castillo@espam.edu.ec</t>
   </si>
   <si>
-    <t>?fg/On1L</t>
+    <t>NHJ8kBck</t>
   </si>
   <si>
     <t>CELORIO MENDOZA MIRIAN ALEJANDRA</t>
@@ -3515,7 +3515,7 @@
     <t>mirian.celorio@espam.edu.ec</t>
   </si>
   <si>
-    <t>ZOS5Obmo</t>
+    <t>Duw!iV4t</t>
   </si>
   <si>
     <t>CHUMO CHAVEZ JANINA BELEN</t>
@@ -3524,7 +3524,7 @@
     <t>janina.chumo@espam.edu.ec</t>
   </si>
   <si>
-    <t>Xv9k9L/l</t>
+    <t>rm/pBWZ0</t>
   </si>
   <si>
     <t>DELGADO LOPEZ MERCEDES ELIZABETH</t>
@@ -3533,7 +3533,7 @@
     <t>mercedes.delgado@espam.edu.ec</t>
   </si>
   <si>
-    <t>e4Kf4zmc</t>
+    <t>0sFMcRja</t>
   </si>
   <si>
     <t>ESTEVES OLVERA DIANA MILENA</t>
@@ -3542,7 +3542,7 @@
     <t>diana.esteves@espam.edu.ec</t>
   </si>
   <si>
-    <t>PeJiJcB4</t>
+    <t>d!jQOY2V</t>
   </si>
   <si>
     <t>FALLAIN ZAMBRANO MARIA ANGELICA</t>
@@ -3551,7 +3551,7 @@
     <t>maria.fallain@espam.edu.ec</t>
   </si>
   <si>
-    <t>ZtKBfst!</t>
+    <t>BYqTMN5D</t>
   </si>
   <si>
     <t>FERNANDEZ CEVALLOS FRANCISCO ESTUARDO</t>
@@ -3560,7 +3560,7 @@
     <t>francisco.fernandez@espam.edu.ec</t>
   </si>
   <si>
-    <t>4DHaF!9S</t>
+    <t>S4j?V7db</t>
   </si>
   <si>
     <t>HERNANDEZ HERNANDEZ MARIA ZULEMA</t>
@@ -3572,7 +3572,7 @@
     <t>maria.hernandez@espam.edu.ec</t>
   </si>
   <si>
-    <t>8hMcjSPF</t>
+    <t>UagZW661</t>
   </si>
   <si>
     <t>INTRIAGO SOLORZANO LEYDI GABRIELA</t>
@@ -3581,7 +3581,7 @@
     <t>leydi.intriago@espam.edu.ec</t>
   </si>
   <si>
-    <t>NqgxfnQn</t>
+    <t>fdOzMj9T</t>
   </si>
   <si>
     <t>MACIAS LOOR ELIAN RENE</t>
@@ -3590,7 +3590,7 @@
     <t>elian.macias@espam.edu.ec</t>
   </si>
   <si>
-    <t>/uBGWEZf</t>
+    <t>D/saSX4?</t>
   </si>
   <si>
     <t>MACIAS PISCO NACHY MONSERRAT</t>
@@ -3599,7 +3599,7 @@
     <t>nachy.macias@espam.edu.ec</t>
   </si>
   <si>
-    <t>4CgbN?9g</t>
+    <t>m9mxlxQ4</t>
   </si>
   <si>
     <t>MERA LOOR JONAYKER REYNALDO</t>
@@ -3608,7 +3608,7 @@
     <t>jonayker.mera@espam.edu.ec</t>
   </si>
   <si>
-    <t>luaylpTF</t>
+    <t>U&amp;?s7BTZ</t>
   </si>
   <si>
     <t>MOREIRA BASURTO YORDY JOEL</t>
@@ -3617,7 +3617,7 @@
     <t>yordy.moreira@espam.edu.ec</t>
   </si>
   <si>
-    <t>XG2rCE!Z</t>
+    <t>NhQj3fG5</t>
   </si>
   <si>
     <t>MOREIRA MENDOZA MAGDALENA JAMILETH</t>
@@ -3626,7 +3626,7 @@
     <t>magdalena.moreira@espam.edu.ec</t>
   </si>
   <si>
-    <t>OC&amp;zs4Xn</t>
+    <t>6KpN//LM</t>
   </si>
   <si>
     <t>PANTUSIN MUGUERZA ANDREA LISSETH</t>
@@ -3635,7 +3635,7 @@
     <t>andrea.pantusin@espam.edu.ec</t>
   </si>
   <si>
-    <t>hDcy9jPo</t>
+    <t>SUm&amp;Yb3f</t>
   </si>
   <si>
     <t>PATIÑO MEJIA MILENA ANAHI</t>
@@ -3644,7 +3644,7 @@
     <t>milena.patino@espam.edu.ec</t>
   </si>
   <si>
-    <t>18Da/yw/</t>
+    <t>7LAu6gE7</t>
   </si>
   <si>
     <t>PICO GARCIA ALLISON JANELY</t>
@@ -3653,7 +3653,7 @@
     <t>allison.pico@espam.edu.ec</t>
   </si>
   <si>
-    <t>DlGbtUtM</t>
+    <t>TC7RYO89</t>
   </si>
   <si>
     <t>POVEDA SANTANA ENZO JAVIER</t>
@@ -3665,7 +3665,7 @@
     <t>enzo.poveda@espam.edu.ec</t>
   </si>
   <si>
-    <t>A?cp!yRw</t>
+    <t>IndJx0AA</t>
   </si>
   <si>
     <t>QUIJIJE CEDEÑO NATALY SILVANA</t>
@@ -3674,7 +3674,7 @@
     <t>nataly.quijije@espam.edu.ec</t>
   </si>
   <si>
-    <t>AC0HZXuU</t>
+    <t>NCBVcIr0</t>
   </si>
   <si>
     <t>ROBALINO DELGADO JORGE DAVID</t>
@@ -3683,7 +3683,7 @@
     <t>jorge.robalino@espam.edu.ec</t>
   </si>
   <si>
-    <t>69P8uh#U</t>
+    <t>Dz3XKoo7</t>
   </si>
   <si>
     <t>SANCHEZ CASTILLO ADRIANA MICAELA</t>
@@ -3692,7 +3692,7 @@
     <t>adriana.sanchez@espam.edu.ec</t>
   </si>
   <si>
-    <t>3VQAxutC</t>
+    <t>AQdSwo2v</t>
   </si>
   <si>
     <t>SOLORZANO ALAVA TAIRUN FRANCISCO</t>
@@ -3701,7 +3701,7 @@
     <t>tairun.solorzano@espam.edu.ec</t>
   </si>
   <si>
-    <t>gETcHmJr</t>
+    <t>TlZOZZlp</t>
   </si>
   <si>
     <t>SOLORZANO BAILON MARIA GABRIELA</t>
@@ -3710,7 +3710,7 @@
     <t>mariaga.solorzano@espam.edu.ec</t>
   </si>
   <si>
-    <t>TUbX?D#R</t>
+    <t>hPuijbvK</t>
   </si>
   <si>
     <t>TRUJILLO AGUAS MAYERLI DAYANA</t>
@@ -3719,7 +3719,7 @@
     <t>mayerli.trujillo@espam.edu.ec</t>
   </si>
   <si>
-    <t>Ajygt1TD</t>
+    <t>a5awSt&amp;g</t>
   </si>
   <si>
     <t>VERA VERA CINTHIA MARIA</t>
@@ -3728,7 +3728,7 @@
     <t>cinthia.verav@espam.edu.ec</t>
   </si>
   <si>
-    <t>9Tc6/uZC</t>
+    <t>EC9JQNAq</t>
   </si>
   <si>
     <t>VIDAL INTRIAGO ANDY YOEL</t>
@@ -3737,7 +3737,7 @@
     <t>andy.vidal@espam.edu.ec</t>
   </si>
   <si>
-    <t>Zazk/qbM</t>
+    <t>0DL9je!n</t>
   </si>
   <si>
     <t>VINTIMILLA PROAÑO MARIA DE LOURDES</t>
@@ -3746,7 +3746,7 @@
     <t>maria.vintimilla@espam.edu.ec</t>
   </si>
   <si>
-    <t>AxsIl2Jl</t>
+    <t>Te//LSZV</t>
   </si>
   <si>
     <t>VITERI SANTOS VINICIO ORLEY</t>
@@ -3755,7 +3755,7 @@
     <t>vinicio.viteri@espam.edu.ec</t>
   </si>
   <si>
-    <t>J0TxhvU7</t>
+    <t>hpLXszVB</t>
   </si>
   <si>
     <t>ZAMBRANO CANO FRANCISCO JAVIER</t>
@@ -3764,7 +3764,7 @@
     <t>francisco.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>3IT0AT1t</t>
+    <t>DU4Zxhgr</t>
   </si>
   <si>
     <t>ZAMBRANO NAVARRETE ELBA MARIA</t>
@@ -3773,7 +3773,7 @@
     <t>elba.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>VPikDJVo</t>
+    <t>mv!HyINZ</t>
   </si>
   <si>
     <t>ZAMBRANO ZAMBRANO WENDY GISSELLA</t>
@@ -3782,7 +3782,7 @@
     <t>wendy.zambranoz@espam.edu.ec</t>
   </si>
   <si>
-    <t>IGvcp4SF</t>
+    <t>SXijeScW</t>
   </si>
   <si>
     <t>ARANA RUEDA ANGY LISSETH</t>
@@ -3794,7 +3794,7 @@
     <t>angy.arana@espam.edu.ec</t>
   </si>
   <si>
-    <t>3bPzh0jK</t>
+    <t>NEWwkU&amp;N</t>
   </si>
   <si>
     <t>ARTEAGA VARGAS ANDREA VALERIA</t>
@@ -3803,7 +3803,7 @@
     <t>andrea.arteaga@espam.edu.ec</t>
   </si>
   <si>
-    <t>I9TP?32U</t>
+    <t>w1qHTf#a</t>
   </si>
   <si>
     <t>BARBERAN SANCHEZ KARLA MICHELLE</t>
@@ -3812,7 +3812,7 @@
     <t>karla.barberan@espam.edu.ec</t>
   </si>
   <si>
-    <t>Riw/jjG8</t>
+    <t>5OhQU#Bz</t>
   </si>
   <si>
     <t>BAZURTO MANZABA SORAYA STEFANIA</t>
@@ -3821,7 +3821,7 @@
     <t>soraya.bazurto@espam.edu.ec</t>
   </si>
   <si>
-    <t>&amp;neEkEcT</t>
+    <t>5N3AlEPf</t>
   </si>
   <si>
     <t>CAGUA GARCIA ANDRES VIRGILIO</t>
@@ -3830,7 +3830,7 @@
     <t>andres.cagua@espam.edu.ec</t>
   </si>
   <si>
-    <t>Qjix&amp;iEW</t>
+    <t>s8fGoiWO</t>
   </si>
   <si>
     <t>DOMINGUEZ CALDERON JEAN PIERRE</t>
@@ -3839,7 +3839,7 @@
     <t>jean.dominguez@espam.edu.ec</t>
   </si>
   <si>
-    <t>s!jAQp/B</t>
+    <t>Xd!Sey0T</t>
   </si>
   <si>
     <t>ESPINOZA ALCIVAR EVELYN ALEXANDRA</t>
@@ -3848,7 +3848,7 @@
     <t>evelyn.espinoza@espam.edu.ec</t>
   </si>
   <si>
-    <t>riOi8l4q</t>
+    <t>#TuNPBw&amp;</t>
   </si>
   <si>
     <t>LOOR MORENO DANIEL AGUSTIN</t>
@@ -3857,7 +3857,7 @@
     <t>daniel.loor@espam.edu.ec</t>
   </si>
   <si>
-    <t>ldnr18iI</t>
+    <t>Qudq!Yv3</t>
   </si>
   <si>
     <t>MACIAS PARRALES MEREDITH MARIBEL</t>
@@ -3866,7 +3866,7 @@
     <t>meredith.macias@espam.edu.ec</t>
   </si>
   <si>
-    <t>fX61sx!9</t>
+    <t>FFO&amp;R10m</t>
   </si>
   <si>
     <t>MENDOZA CANCHINGRE BRIGITH MIKAELA</t>
@@ -3875,7 +3875,7 @@
     <t>brigith.mendoza@espam.edu.ec</t>
   </si>
   <si>
-    <t>bEG2Fzt&amp;</t>
+    <t>nYz6zl7&amp;</t>
   </si>
   <si>
     <t>MENDOZA VELEZ JOSE MIGUEL</t>
@@ -3884,7 +3884,7 @@
     <t>josemi.mendoza@espam.edu.ec</t>
   </si>
   <si>
-    <t>MrqLzJGb</t>
+    <t>C3Fgglj/</t>
   </si>
   <si>
     <t>MEZA BRIONES ANTHONY NARCILO</t>
@@ -3893,7 +3893,7 @@
     <t>anthony.meza@espam.edu.ec</t>
   </si>
   <si>
-    <t>ET3?#LUG</t>
+    <t>0bwWH2XW</t>
   </si>
   <si>
     <t>MORA ZAMBRANO MARIA LAURA</t>
@@ -3902,7 +3902,7 @@
     <t>maria.mora@espam.edu.ec</t>
   </si>
   <si>
-    <t>d#X6hud&amp;</t>
+    <t>daD#33xj</t>
   </si>
   <si>
     <t>NAVARRETE ZAMBRANO ROBIN LUGERIO</t>
@@ -3911,7 +3911,7 @@
     <t>robin.navarrete@espam.edu.ec</t>
   </si>
   <si>
-    <t>du0Zw2Oc</t>
+    <t>dy&amp;!oqJq</t>
   </si>
   <si>
     <t>OSTAIZA LOPEZ JOSEPH MANUEL</t>
@@ -3920,7 +3920,7 @@
     <t>josepth.ostaiza@espam.edu.ec</t>
   </si>
   <si>
-    <t>aMMCl6Gl</t>
+    <t>wcPuUBVP</t>
   </si>
   <si>
     <t>PARRAGA PARRAGA CARLA ESTEFANIA</t>
@@ -3929,7 +3929,7 @@
     <t>carla.parraga@espam.edu.ec</t>
   </si>
   <si>
-    <t>BNMMqBHy</t>
+    <t>CLFPCQnn</t>
   </si>
   <si>
     <t>PLAZA CABRERA MAYERLY MARIA</t>
@@ -3941,7 +3941,7 @@
     <t>mayerly.plaza@espam.edu.ec</t>
   </si>
   <si>
-    <t>kXb3y6np</t>
+    <t>S?ekaH!o</t>
   </si>
   <si>
     <t>RODRIGUEZ VELIZ LEANDRO MOISES</t>
@@ -3950,7 +3950,7 @@
     <t>leandro.rodriguez@espam.edu.ec</t>
   </si>
   <si>
-    <t>GoUMtnGw</t>
+    <t>i36fKwTv</t>
   </si>
   <si>
     <t>SANTANA GUERRERO MARIA RAQUEL</t>
@@ -3959,7 +3959,7 @@
     <t>mariar.santanag@espam.edu.ec</t>
   </si>
   <si>
-    <t>Ddrz&amp;&amp;FZ</t>
+    <t>OpOUxd9I</t>
   </si>
   <si>
     <t>SANTOS SALAZAR JANDRY DAVID</t>
@@ -3968,7 +3968,7 @@
     <t>jandry.santos@espam.edu.ec</t>
   </si>
   <si>
-    <t>6XxPo6/F</t>
+    <t>xFZQ4ShJ</t>
   </si>
   <si>
     <t>SOLORZANO LOOR KEYLA GEOVANNA</t>
@@ -3977,7 +3977,7 @@
     <t>keyla.solorzano@espam.edu.ec</t>
   </si>
   <si>
-    <t>wC&amp;AtC?c</t>
+    <t>LWEN1trL</t>
   </si>
   <si>
     <t>VALENCIA ZAMBRANO VALERIA MERCEDES</t>
@@ -3986,7 +3986,7 @@
     <t>valeria.valencia@espam.edu.ec</t>
   </si>
   <si>
-    <t>e!mqL77u</t>
+    <t>hfp6?EW&amp;</t>
   </si>
   <si>
     <t>VARGAS CHOEZ ALEXIS ELIAN</t>
@@ -3995,7 +3995,7 @@
     <t>alexis.vargas@espam.edu.ec</t>
   </si>
   <si>
-    <t>ESbhl30q</t>
+    <t>/tXJh/jX</t>
   </si>
   <si>
     <t>VELEZ ALMEIDA CARMEN REBECA</t>
@@ -4004,7 +4004,7 @@
     <t>carmen.velez@espam.edu.ec</t>
   </si>
   <si>
-    <t>y4FREL7M</t>
+    <t>28yc?a50</t>
   </si>
   <si>
     <t>VELEZ LEGTON GENESIS YAMILET</t>
@@ -4013,7 +4013,7 @@
     <t>genesisya.velez@espam.edu.ec</t>
   </si>
   <si>
-    <t>v1YSOx5s</t>
+    <t>NtnV7r4U</t>
   </si>
   <si>
     <t>VERA BALAREZO MARYAM JANELLA</t>
@@ -4022,7 +4022,7 @@
     <t>maryam.vera@espam.edu.ec</t>
   </si>
   <si>
-    <t>gOLF&amp;XrO</t>
+    <t>dRpQW2fQ</t>
   </si>
   <si>
     <t>VERA SERRANO CARLOS STEFANO</t>
@@ -4031,7 +4031,7 @@
     <t>carlos.verase@espam.edu.ec</t>
   </si>
   <si>
-    <t>qCL4y70N</t>
+    <t>jeTA/q94</t>
   </si>
   <si>
     <t>VIERA BAZURTO JOSE ALEXANDER</t>
@@ -4040,7 +4040,7 @@
     <t>jose.viera@espam.edu.ec</t>
   </si>
   <si>
-    <t>qnRw&amp;X?G</t>
+    <t>bfEV6LdS</t>
   </si>
   <si>
     <t>ZAMBRANO ALCIVAR DIEGO JAHIR</t>
@@ -4049,7 +4049,7 @@
     <t>diego.zambranoa@espam.edu.ec</t>
   </si>
   <si>
-    <t>quUNUS/F</t>
+    <t>?J5IYVtl</t>
   </si>
   <si>
     <t>ZAMBRANO MANZABA MARIA FERNANDA</t>
@@ -4058,7 +4058,7 @@
     <t>mariafer.zambranom@espam.edu.ec</t>
   </si>
   <si>
-    <t>jqF!L1ko</t>
+    <t>Z98EQSaJ</t>
   </si>
   <si>
     <t>ALCIVAR GILER MELANY JULISA</t>
@@ -4067,7 +4067,7 @@
     <t>melany.alcivar@espam.edu.ec</t>
   </si>
   <si>
-    <t>VJ?&amp;hymZ</t>
+    <t>tBUDKKax</t>
   </si>
   <si>
     <t>ANDRADE ZAMBRANO NATHALY NICOLLE</t>
@@ -4076,7 +4076,7 @@
     <t>nathaly.andrade@espam.edu.ec</t>
   </si>
   <si>
-    <t>aKaGl4kz</t>
+    <t>exbw9tc1</t>
   </si>
   <si>
     <t>BASURTO MORAN LUIS ALEXANDER</t>
@@ -4085,7 +4085,7 @@
     <t>luis.basurtom@espam.edu.ec</t>
   </si>
   <si>
-    <t>bL1LnE9k</t>
+    <t>YwxXX/rM</t>
   </si>
   <si>
     <t>BERMELLO VELEZ ANGELA DANIELA</t>
@@ -4094,7 +4094,7 @@
     <t>angela.bermello@espam.edu.ec</t>
   </si>
   <si>
-    <t>3DxVtdvI</t>
+    <t>RgFn9d0r</t>
   </si>
   <si>
     <t>BRAVO VERA GEMA VIVIANA</t>
@@ -4103,7 +4103,7 @@
     <t>gema.bravov@espam.edu.ec</t>
   </si>
   <si>
-    <t>6RNxBbk/</t>
+    <t>Cgxs4!Co</t>
   </si>
   <si>
     <t>BRIONES INTRIAGO LORENA LUCIA</t>
@@ -4112,7 +4112,7 @@
     <t>lorena.briones@espam.edu.ec</t>
   </si>
   <si>
-    <t>R?eC9eer</t>
+    <t>ys!Cb5pv</t>
   </si>
   <si>
     <t>BURGOS BRAVO KATHERIN DANIELA</t>
@@ -4121,7 +4121,7 @@
     <t>katherin.burgos@espam.edu.ec</t>
   </si>
   <si>
-    <t>BpxnAMUK</t>
+    <t>R&amp;IkDXI9</t>
   </si>
   <si>
     <t>LOOR PARRAGA ROY RUBEN</t>
@@ -4130,7 +4130,7 @@
     <t>roy.loor@espam.edu.ec</t>
   </si>
   <si>
-    <t>6tHb/lt/</t>
+    <t>/8IX!H/t</t>
   </si>
   <si>
     <t>LOPEZ GANCHOZO LEANDRO ANTONIO</t>
@@ -4139,7 +4139,7 @@
     <t>leandro.lopez@espam.edu.ec</t>
   </si>
   <si>
-    <t>Svsw&amp;8DV</t>
+    <t>B9QH53X9</t>
   </si>
   <si>
     <t>MACIAS MACIAS JOY ROBERTO</t>
@@ -4148,7 +4148,7 @@
     <t>joy.macias@espam.edu.ec</t>
   </si>
   <si>
-    <t>aBzk#4#t</t>
+    <t>0dcknnpz</t>
   </si>
   <si>
     <t>MACIAS SILVA CINTHYA MARIANA</t>
@@ -4157,7 +4157,7 @@
     <t>cinthya.macias@espam.edu.ec</t>
   </si>
   <si>
-    <t>ouG4uF16</t>
+    <t>iMm3DU&amp;p</t>
   </si>
   <si>
     <t>MENDOZA PONCE MARIA ANGELICA</t>
@@ -4166,7 +4166,7 @@
     <t>maria.mendozap@espam.edu.ec</t>
   </si>
   <si>
-    <t>oyuelnlb</t>
+    <t>?rwoUR&amp;H</t>
   </si>
   <si>
     <t>MONCAYO LAINEZ KERLY ARIANNA</t>
@@ -4175,7 +4175,7 @@
     <t>kerly.moncayo@espam.edu.ec</t>
   </si>
   <si>
-    <t>HUuemHaE</t>
+    <t>2whqQdVI</t>
   </si>
   <si>
     <t>MONTES POZO JEAN POLL</t>
@@ -4184,7 +4184,7 @@
     <t>jean.montes@espam.edu.ec</t>
   </si>
   <si>
-    <t>zUgbzNXj</t>
+    <t>yGomKsDp</t>
   </si>
   <si>
     <t>MORENO OBANDO ANA BELLA</t>
@@ -4193,7 +4193,7 @@
     <t>ana.moreno@espam.edu.ec</t>
   </si>
   <si>
-    <t>OpZ9jqBe</t>
+    <t>gd#j/lSJ</t>
   </si>
   <si>
     <t>NAVARRETE PARODI ERIKA KARINA</t>
@@ -4202,7 +4202,7 @@
     <t>erika.navarrete@espam.edu.ec</t>
   </si>
   <si>
-    <t>UpKnnld/</t>
+    <t>nQO8o3Sa</t>
   </si>
   <si>
     <t>ORMAZA ESPINOZA JESUS EMILIO</t>
@@ -4211,7 +4211,7 @@
     <t>jesus.ormaza@espam.edu.ec</t>
   </si>
   <si>
-    <t>IAEPGd66</t>
+    <t>Ou/OGhNV</t>
   </si>
   <si>
     <t>ORMAZA FALCONES MARIA ALEJANDRA</t>
@@ -4220,7 +4220,7 @@
     <t>maria.ormaza@espam.edu.ec</t>
   </si>
   <si>
-    <t>eaVE6SJ6</t>
+    <t>5vvr0?TM</t>
   </si>
   <si>
     <t>PARRAGA QUIJIJE GEMA KAROLINA</t>
@@ -4229,7 +4229,7 @@
     <t>gemak.parragaq@espam.edu.ec</t>
   </si>
   <si>
-    <t>Om/&amp;fqxg</t>
+    <t>rqblC1ml</t>
   </si>
   <si>
     <t>PICO TOLA MARCO ANDRES</t>
@@ -4238,7 +4238,7 @@
     <t>marco.pico@espam.edu.ec</t>
   </si>
   <si>
-    <t>!FuINZS2</t>
+    <t>NvQ8YbeZ</t>
   </si>
   <si>
     <t>PIN NAPA IVANA MAYERLI</t>
@@ -4247,7 +4247,7 @@
     <t>ivana.pin@espam.edu.ec</t>
   </si>
   <si>
-    <t>ARMAPvIc</t>
+    <t>vBU60Esc</t>
   </si>
   <si>
     <t>ROMERO BRAVO JOSE AGUSTIN</t>
@@ -4256,7 +4256,7 @@
     <t>jose.romero@espam.edu.ec</t>
   </si>
   <si>
-    <t>/EPAZ/b&amp;</t>
+    <t>SJ#4ffu8</t>
   </si>
   <si>
     <t>SALTOS INTRIAGO NATHALIA MELISSA</t>
@@ -4265,7 +4265,7 @@
     <t>nathalia.saltos@espam.edu.ec</t>
   </si>
   <si>
-    <t>FAOFXn6H</t>
+    <t>jgiPI&amp;Ug</t>
   </si>
   <si>
     <t>SALTOS SALTOS MADELYNE PIERINA</t>
@@ -4274,7 +4274,7 @@
     <t>madelyne.saltos@espam.edu.ec</t>
   </si>
   <si>
-    <t>49#7wX4H</t>
+    <t>bysOPgZB</t>
   </si>
   <si>
     <t>SOLIS ORTIZ SANTIAGO</t>
@@ -4283,7 +4283,7 @@
     <t>santiago.solis@espam.edu.ec</t>
   </si>
   <si>
-    <t>8vVapwco</t>
+    <t>nGT7iVmi</t>
   </si>
   <si>
     <t>SOLORZANO ZAMBRANO GEMA NARCISA</t>
@@ -4292,7 +4292,7 @@
     <t>gema.solorzano@espam.edu.ec</t>
   </si>
   <si>
-    <t>0Lauhjo?</t>
+    <t>BKfEE!Dc</t>
   </si>
   <si>
     <t>VARGAS SOLORZANO ANDREA DIVINA</t>
@@ -4301,7 +4301,7 @@
     <t>andrea.vargas@espam.edu.ec</t>
   </si>
   <si>
-    <t>y!OyPZxK</t>
+    <t>sAa4kQDX</t>
   </si>
   <si>
     <t>VELEZ VERA MANUEL ALEXANDER</t>
@@ -4310,7 +4310,7 @@
     <t>manuel.velez@espam.edu.ec</t>
   </si>
   <si>
-    <t>FJD0WbZH</t>
+    <t>T9UIwYI1</t>
   </si>
   <si>
     <t>VELEZ ZAMBRANO ADRIAN DAVID</t>
@@ -4319,7 +4319,7 @@
     <t>adrian.velez@espam.edu.ec</t>
   </si>
   <si>
-    <t>HLYug5yM</t>
+    <t>MUGoQZ5L</t>
   </si>
   <si>
     <t>YLLESCA CEDEÑO JESUS JONATHAN</t>
@@ -4328,7 +4328,7 @@
     <t>jesus.yllesca@espam.edu.ec</t>
   </si>
   <si>
-    <t>P1RI&amp;#y7</t>
+    <t>3vxOkdUP</t>
   </si>
   <si>
     <t>ZAMBRANO CATOTA DERLYN MILENA</t>
@@ -4337,7 +4337,7 @@
     <t>derlyn.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>crVJtW5!</t>
+    <t>MBJLaa/c</t>
   </si>
   <si>
     <t>ZAMBRANO CEDEÑO CHRISTIAN EDUARDO</t>
@@ -4346,7 +4346,7 @@
     <t>christian.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>I9PDAQN7</t>
+    <t>2gm&amp;Mwd8</t>
   </si>
   <si>
     <t>ZAMBRANO ROBLES GLENDY MERCEDES</t>
@@ -4355,7 +4355,7 @@
     <t>glendy.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>nZ#/!bXF</t>
+    <t>trsUsx#G</t>
   </si>
   <si>
     <t>ZAMBRANO ROSADO JORGE ALESSANDRO</t>
@@ -4364,7 +4364,7 @@
     <t>jorge.zambranor@espam.edu.ec</t>
   </si>
   <si>
-    <t>belR31FS</t>
+    <t>bVfFPvcp</t>
   </si>
   <si>
     <t>ZAMBRANO VERA WENDY ANAHI</t>
@@ -4373,7 +4373,7 @@
     <t>wendy.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>L#45GH6&amp;</t>
+    <t>Oi&amp;o5V6M</t>
   </si>
   <si>
     <t>ZAMBRANO ZAMBRANO JONATHAN JAVIER</t>
@@ -4382,7 +4382,7 @@
     <t>jonathan.zambranoz@espam.edu.ec</t>
   </si>
   <si>
-    <t>Svo7xlmW</t>
+    <t>#s3f//1Y</t>
   </si>
   <si>
     <t>ZAMORA SOLORZANO MAGALY DOLORES</t>
@@ -4391,7 +4391,7 @@
     <t>magaly.zamora@espam.edu.ec</t>
   </si>
   <si>
-    <t>a8Ioyd?3</t>
+    <t>Mikwk!&amp;X</t>
   </si>
   <si>
     <t>BRAVO ZAMBRANO MARIA EMILIA</t>
@@ -4400,7 +4400,7 @@
     <t>maria.bravoz@espam.edu.ec</t>
   </si>
   <si>
-    <t>rynPMbAT</t>
+    <t>lYkHHdDe</t>
   </si>
   <si>
     <t>CEVALLOS ALVAREZ ARMANDO ENRIQUE</t>
@@ -4409,7 +4409,7 @@
     <t>armando.cevallos@espam.edu.ec</t>
   </si>
   <si>
-    <t>HykZh6!t</t>
+    <t>&amp;s?IiMNi</t>
   </si>
   <si>
     <t>CEVALLOS VERA ARELIS STEFANIA</t>
@@ -4418,7 +4418,7 @@
     <t>arelis.cevallos@espam.edu.ec</t>
   </si>
   <si>
-    <t>r2uP?d1b</t>
+    <t>2s/zNEwa</t>
   </si>
   <si>
     <t>COOL MERO PATRICIO JAVIER</t>
@@ -4427,7 +4427,7 @@
     <t>patricio.cool@espam.edu.ec</t>
   </si>
   <si>
-    <t>tMntyTAI</t>
+    <t>eRU45MV9</t>
   </si>
   <si>
     <t>FRANCO ORELLANA GUADALUPE MONSERRATE</t>
@@ -4436,7 +4436,7 @@
     <t>guadalupe.franco@espam.edu.ec</t>
   </si>
   <si>
-    <t>C92l&amp;guf</t>
+    <t>kFH&amp;juOQ</t>
   </si>
   <si>
     <t>HUERTA BALDIVIEZO JEAN CRISTHIAN</t>
@@ -4445,7 +4445,7 @@
     <t>jean.huerta@espam.edu.ec</t>
   </si>
   <si>
-    <t>YXblYdnL</t>
+    <t>K0kiKBpq</t>
   </si>
   <si>
     <t>INTRIAGO CANTOS MARIA JOSE</t>
@@ -4454,7 +4454,7 @@
     <t>maria.intriagoc@espam.edu.ec</t>
   </si>
   <si>
-    <t>vEsvvD9G</t>
+    <t>ixdSnyYC</t>
   </si>
   <si>
     <t>LOOR CANTOS DIANA ISABEL</t>
@@ -4463,7 +4463,7 @@
     <t>diana.loor@espam.edu.ec</t>
   </si>
   <si>
-    <t>bh52K&amp;nD</t>
+    <t>lRhW&amp;Hs2</t>
   </si>
   <si>
     <t>LOOR SEGOVIA EVELYN ADRIANA</t>
@@ -4472,7 +4472,7 @@
     <t>evelyn.loors@espam.edu.ec</t>
   </si>
   <si>
-    <t>ukIXDRLG</t>
+    <t>QsrN#0nl</t>
   </si>
   <si>
     <t>MEDINA CEDEÑO JULIO CESAR</t>
@@ -4481,7 +4481,7 @@
     <t>julio.medina@espam.edu.ec</t>
   </si>
   <si>
-    <t>NVJjFaLz</t>
+    <t>r05IQBXL</t>
   </si>
   <si>
     <t>MERA VELEZ ALONDRA GARDENIA</t>
@@ -4490,7 +4490,7 @@
     <t>alondra.mera@espam.edu.ec</t>
   </si>
   <si>
-    <t>hVGm!BcQ</t>
+    <t>cT3czmyO</t>
   </si>
   <si>
     <t>MUÑOZ ZAMBRANO CARLOS JOSUE</t>
@@ -4499,7 +4499,7 @@
     <t>carlos.munozz@espam.edu.ec</t>
   </si>
   <si>
-    <t>JQ5xTVEk</t>
+    <t>4U#wabkS</t>
   </si>
   <si>
     <t>NAPA RODRIGUEZ JOSE AGUSTIN</t>
@@ -4508,7 +4508,7 @@
     <t>jose.napa@espam.edu.ec</t>
   </si>
   <si>
-    <t>W#J!n/pe</t>
+    <t>kgStSKnw</t>
   </si>
   <si>
     <t>PALMA CEVALLOS MARIA JOSE</t>
@@ -4517,7 +4517,7 @@
     <t>maria.palma@espam.edu.ec</t>
   </si>
   <si>
-    <t>sEJL14FD</t>
+    <t>g?1xs8g#</t>
   </si>
   <si>
     <t>PATIÑO MESIAS MARIA GABRIELA</t>
@@ -4526,7 +4526,7 @@
     <t>maria.patino@espam.edu.ec</t>
   </si>
   <si>
-    <t>DeUp&amp;uGE</t>
+    <t>hqxzorhd</t>
   </si>
   <si>
     <t>QUINTANA CAGUA YENIFER YULI</t>
@@ -4535,7 +4535,7 @@
     <t>yenifer.quintana@espam.edu.ec</t>
   </si>
   <si>
-    <t>/d&amp;&amp;rtxj</t>
+    <t>xbydTvoZ</t>
   </si>
   <si>
     <t>RIVERA CANTOS MARIA DANIELA</t>
@@ -4544,7 +4544,7 @@
     <t>maria.riverac@espam.edu.ec</t>
   </si>
   <si>
-    <t>&amp;jmp2Kdy</t>
+    <t>m9p4b2QN</t>
   </si>
   <si>
     <t>RODRIGUEZ PINCAY CARLOS BRYAN</t>
@@ -4553,7 +4553,7 @@
     <t>carlos.rodriguezp@espam.edu.ec</t>
   </si>
   <si>
-    <t>Vvm/wMfP</t>
+    <t>Yf5ngGG7</t>
   </si>
   <si>
     <t>SABANDO VELEZ CRISTHIAN ANTHONY</t>
@@ -4562,7 +4562,7 @@
     <t>cristhian.sabando@espam.edu.ec</t>
   </si>
   <si>
-    <t>n?fgge6K</t>
+    <t>n0rPcy/L</t>
   </si>
   <si>
     <t>SANTANA VERA ANTHONY JAHIR</t>
@@ -4571,7 +4571,7 @@
     <t>anthony.santana@espam.edu.ec</t>
   </si>
   <si>
-    <t>5Fe#tsXB</t>
+    <t>qIuR6Syc</t>
   </si>
   <si>
     <t>VELEZ ESPINOZA JUNIOR JESUS</t>
@@ -4580,7 +4580,7 @@
     <t>junior.veleze@espam.edu.ec</t>
   </si>
   <si>
-    <t>89d0W9XL</t>
+    <t>dFOP3ZD6</t>
   </si>
   <si>
     <t>VERDUGA ZAMBRANO DIEGO ALEJANDRO</t>
@@ -4589,7 +4589,7 @@
     <t>diego.verduga@espam.edu.ec</t>
   </si>
   <si>
-    <t>Y!cQY!Po</t>
+    <t>YIfssgER</t>
   </si>
   <si>
     <t>ZAMBRANO VELEZ NAYELHY LILIBETH</t>
@@ -4598,7 +4598,7 @@
     <t>nayelhy.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>VTnMXlZr</t>
+    <t>tUXDC#hA</t>
   </si>
   <si>
     <t>ZAMBRANO WITONG KENIA THAIS</t>
@@ -4607,7 +4607,7 @@
     <t>keniath.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>WtXdMYEh</t>
+    <t>GugrICTk</t>
   </si>
   <si>
     <t>ANCHUNDIA ANCHUNDIA GEMA LILIBETH</t>
@@ -4616,7 +4616,7 @@
     <t>gema.anchundia@espam.edu.ec</t>
   </si>
   <si>
-    <t>f?T0uQxO</t>
+    <t>96vFBoPu</t>
   </si>
   <si>
     <t>ARTEAGA DELGADO JEAN CARLOS</t>
@@ -4625,7 +4625,7 @@
     <t>jean.arteaga@espam.edu.ec</t>
   </si>
   <si>
-    <t>FvVtOjb9</t>
+    <t>Fu#8tq7Y</t>
   </si>
   <si>
     <t>BARREIRO ZAMBRANO JOSE VICENTE</t>
@@ -4634,7 +4634,7 @@
     <t>jose.barreiro@espam.edu.ec</t>
   </si>
   <si>
-    <t>e1liQm&amp;B</t>
+    <t>skkAMXli</t>
   </si>
   <si>
     <t>BASURTO ALCIVAR DARWIN JESUS</t>
@@ -4643,7 +4643,7 @@
     <t>darwin.basurto@espam.edu.ec</t>
   </si>
   <si>
-    <t>tkMRWGVJ</t>
+    <t>Ld&amp;eW6kz</t>
   </si>
   <si>
     <t>BRAVO CEDEÑO JOSE RODOLFO</t>
@@ -4652,7 +4652,7 @@
     <t>jose.bravo@espam.edu.ec</t>
   </si>
   <si>
-    <t>v!ObDGHu</t>
+    <t>vtp4jZ!l</t>
   </si>
   <si>
     <t>BRIONES BERMEO ANTONY JAVIER</t>
@@ -4661,7 +4661,7 @@
     <t>antony.briones@espam.edu.ec</t>
   </si>
   <si>
-    <t>Rl6k1Qnx</t>
+    <t>P1#EqKJ7</t>
   </si>
   <si>
     <t>CEDEÑO ANCHUNDIA YANDRY ANTONIO</t>
@@ -4673,7 +4673,7 @@
     <t>yandry.cedeno@espam.edu.ec</t>
   </si>
   <si>
-    <t>Vwyrb?TV</t>
+    <t>at3ncXjJ</t>
   </si>
   <si>
     <t>CEDEÑO PEÑARRIETA DAYANA SOPHIA</t>
@@ -4682,7 +4682,7 @@
     <t>dayanaso.cedeno@espam.edu.ec</t>
   </si>
   <si>
-    <t>7bgb501L</t>
+    <t>SUA6odSy</t>
   </si>
   <si>
     <t>CHAVARRIA PEÑARRIETA MARCOS ALEJANDRO</t>
@@ -4691,7 +4691,7 @@
     <t>marcos.chavarria@espam.edu.ec</t>
   </si>
   <si>
-    <t>eIzWCAgI</t>
+    <t>JhUMStX!</t>
   </si>
   <si>
     <t>DEL VALLE BASURTO CARMEN MELINA</t>
@@ -4700,7 +4700,7 @@
     <t>carmen.del@espam.edu.ec</t>
   </si>
   <si>
-    <t>XcbY8Eb1</t>
+    <t>fmpfgPc3</t>
   </si>
   <si>
     <t>GUERRERO BRAVO ANA BELEN</t>
@@ -4709,7 +4709,7 @@
     <t>ana.guerrero@espam.edu.ec</t>
   </si>
   <si>
-    <t>s!wIdGaB</t>
+    <t>hdR5fg!D</t>
   </si>
   <si>
     <t>GUERRERO GUERRERO JOSSELYN MELISSA</t>
@@ -4718,7 +4718,7 @@
     <t>josselyn.guerrero@espam.edu.ec</t>
   </si>
   <si>
-    <t>o4ndOk#P</t>
+    <t>Q##0Wtnh</t>
   </si>
   <si>
     <t>INTRIAGO BARBERAN LAURO ANTONIO</t>
@@ -4727,7 +4727,7 @@
     <t>lauro.intriago1@espam.edu.ec</t>
   </si>
   <si>
-    <t>H!3mXmd3</t>
+    <t>V0CF3gwI</t>
   </si>
   <si>
     <t>INTRIAGO MORA LENIN ARCENIO</t>
@@ -4736,7 +4736,7 @@
     <t>lenin.intriago@espam.edu.ec</t>
   </si>
   <si>
-    <t>nk!OV&amp;cl</t>
+    <t>dbrsck5R</t>
   </si>
   <si>
     <t>MACIAS CALDERON JOSE ARIEL</t>
@@ -4745,7 +4745,7 @@
     <t>jose.macias@espam.edu.ec</t>
   </si>
   <si>
-    <t>kReM3g6N</t>
+    <t>WkNj5Riz</t>
   </si>
   <si>
     <t>MARCILLO VELEZ ANA PATRICIA</t>
@@ -4754,7 +4754,7 @@
     <t>ana.marcillo@espam.edu.ec</t>
   </si>
   <si>
-    <t>ZG8lHMZV</t>
+    <t>iDVIoawA</t>
   </si>
   <si>
     <t>MERA FIGUEROA RAYMOND ALEJANDRO</t>
@@ -4763,7 +4763,7 @@
     <t>raymond.mera@espam.edu.ec</t>
   </si>
   <si>
-    <t>Ya7Y/4la</t>
+    <t>rzOg&amp;PEQ</t>
   </si>
   <si>
     <t>MOREIRA ZAMBRANO JOSSENKA MERCEDES</t>
@@ -4772,7 +4772,7 @@
     <t>jossenka.moreira@espam.edu.ec</t>
   </si>
   <si>
-    <t>!#L1Yr?k</t>
+    <t>r34Hh#Os</t>
   </si>
   <si>
     <t>MUÑOZ ALCIVAR CRISTHIAN MARTIN</t>
@@ -4781,7 +4781,7 @@
     <t>cristhian.munoz@espam.edu.ec</t>
   </si>
   <si>
-    <t>0cs1KW?B</t>
+    <t>iz6gTGYo</t>
   </si>
   <si>
     <t>MUÑOZ MACIAS MARIA MAGDALENA</t>
@@ -4790,7 +4790,7 @@
     <t>mariama.munoz@espam.edu.ec</t>
   </si>
   <si>
-    <t>eRrovwZz</t>
+    <t>ncCfHKUE</t>
   </si>
   <si>
     <t>POLO GANCHOZO ARON ESNEYDER</t>
@@ -4799,7 +4799,7 @@
     <t>aron.polo@espam.edu.ec</t>
   </si>
   <si>
-    <t>GnKt?#Q#</t>
+    <t>hbRpbsmn</t>
   </si>
   <si>
     <t>RIOS BERMELLO JENIFFER LIZETH</t>
@@ -4808,7 +4808,7 @@
     <t>jeniffer.rios@espam.edu.ec</t>
   </si>
   <si>
-    <t>CKMEKF&amp;m</t>
+    <t>Qikki2Jy</t>
   </si>
   <si>
     <t>SALVATIERRA VALDEZ VICKY NICOLLE</t>
@@ -4817,7 +4817,7 @@
     <t>vicky.salvatierra@espam.edu.ec</t>
   </si>
   <si>
-    <t>D#/lpxlx</t>
+    <t>gu5nHemw</t>
   </si>
   <si>
     <t>SANTOS VELEZ MONICA GERMANIA</t>
@@ -4826,7 +4826,7 @@
     <t>monica.santos@espam.edu.ec</t>
   </si>
   <si>
-    <t>DXFxvPR1</t>
+    <t>I!ygJGR&amp;</t>
   </si>
   <si>
     <t>SOLORZANO ZAMBRANO MILENA DENISSE</t>
@@ -4835,7 +4835,7 @@
     <t>milena.solorzano@espam.edu.ec</t>
   </si>
   <si>
-    <t>/VDPLK!K</t>
+    <t>?TbEHKT?</t>
   </si>
   <si>
     <t>TUQUERES TACURI JESSICA MARIBELL</t>
@@ -4844,7 +4844,7 @@
     <t>jessica.tuqueres@espam.edu.ec</t>
   </si>
   <si>
-    <t>G!o9lDjm</t>
+    <t>3ZHDl2av</t>
   </si>
   <si>
     <t>VERDUGA ERAZO JOSUE SALVADOR</t>
@@ -4853,7 +4853,7 @@
     <t>josue.verduga@espam.edu.ec</t>
   </si>
   <si>
-    <t>ByDRfjU7</t>
+    <t>SN5d2p5E</t>
   </si>
   <si>
     <t>YEPEZ VELIZ GENESIS THALIA</t>
@@ -4862,7 +4862,7 @@
     <t>genesis.yepez@espam.edu.ec</t>
   </si>
   <si>
-    <t>CjuXkJHq</t>
+    <t>y5CR0eeA</t>
   </si>
   <si>
     <t>ZAMBRANO BASURTO ERICK RAFAEL</t>
@@ -4871,7 +4871,7 @@
     <t>erick.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>KISADhp7</t>
+    <t>l5tGZS4a</t>
   </si>
   <si>
     <t>ZAMBRANO MUÑOZ JANDRY DEIVY</t>
@@ -4880,7 +4880,7 @@
     <t>jandry.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>!6!t/e4S</t>
+    <t>l?C3eRtO</t>
   </si>
   <si>
     <t>AYONG VERA JUAN DAVID</t>
@@ -4889,7 +4889,7 @@
     <t>juan.ayong@espam.edu.ec</t>
   </si>
   <si>
-    <t>RU?gj7EM</t>
+    <t>IVY&amp;ww?G</t>
   </si>
   <si>
     <t>BASURTO SALAZAR ANGELA MARGARITA</t>
@@ -4898,7 +4898,7 @@
     <t>angela.basurto@espam.edu.ec</t>
   </si>
   <si>
-    <t>gqMALtdN</t>
+    <t>jkWvN1N6</t>
   </si>
   <si>
     <t>CASANOVA INTRIAGO ANDREA BELEN</t>
@@ -4910,7 +4910,7 @@
     <t>andrea.casanova@espam.edu.ec</t>
   </si>
   <si>
-    <t>1xB8CPgt</t>
+    <t>Rle3dw2G</t>
   </si>
   <si>
     <t>CHUMO ZAMBRANO ANTONIO BENITO</t>
@@ -4919,7 +4919,7 @@
     <t>antonio.chumo@espam.edu.ec</t>
   </si>
   <si>
-    <t>oMSWBklA</t>
+    <t>nzvHq4Gz</t>
   </si>
   <si>
     <t>GARCIA CORTEZ ERIKA STEFANIA</t>
@@ -4928,7 +4928,7 @@
     <t>erika.garcia@espam.edu.ec</t>
   </si>
   <si>
-    <t>vpCVGiu?</t>
+    <t>sS6O4DNV</t>
   </si>
   <si>
     <t>GOMEZ BARRERA JUNIOR LENIN</t>
@@ -4937,7 +4937,7 @@
     <t>junior.gomez@espam.edu.ec</t>
   </si>
   <si>
-    <t>XN0w7QBU</t>
+    <t>kn?UFycZ</t>
   </si>
   <si>
     <t>LOOR CEDEÑO RICARDO EMANUEL</t>
@@ -4946,7 +4946,7 @@
     <t>ricardo.loor@espam.edu.ec</t>
   </si>
   <si>
-    <t>#dBMkOVr</t>
+    <t>fqW1r/nd</t>
   </si>
   <si>
     <t>LOOR LUCAS EVELYN GUADALUPE</t>
@@ -4958,7 +4958,7 @@
     <t>evelyn.loor@espam.edu.ec</t>
   </si>
   <si>
-    <t>SCV54I98</t>
+    <t>EdRFNUi0</t>
   </si>
   <si>
     <t>LOOR VELASCO FABIANA BELEN</t>
@@ -4970,7 +4970,7 @@
     <t>fabiana.loor@espam.edu.ec</t>
   </si>
   <si>
-    <t>JnpScoY!</t>
+    <t>WMzg&amp;uz5</t>
   </si>
   <si>
     <t>MARTINEZ CEDEÑO JENIFFER ESTEFANIA</t>
@@ -4979,7 +4979,7 @@
     <t>jeniffer.martinez@espam.edu.ec</t>
   </si>
   <si>
-    <t>4wZwQKEw</t>
+    <t>BDIH2iIC</t>
   </si>
   <si>
     <t>MENDOZA BARRE EDDY ENMANUEL</t>
@@ -4988,7 +4988,7 @@
     <t>eddy.mendoza@espam.edu.ec</t>
   </si>
   <si>
-    <t>XuA7zSKJ</t>
+    <t>5ZQw&amp;duJ</t>
   </si>
   <si>
     <t>MURILLO PALACIOS ULICES JAIR</t>
@@ -4997,7 +4997,7 @@
     <t>ulices.murillo@espam.edu.ec</t>
   </si>
   <si>
-    <t>PONuFhG9</t>
+    <t>JilE0lKN</t>
   </si>
   <si>
     <t>QUIJANO ZAMBRANO JONATHAN ERNESTO</t>
@@ -5006,7 +5006,7 @@
     <t>jonathan.quijano@espam.edu.ec</t>
   </si>
   <si>
-    <t>UdrUh9Mg</t>
+    <t>?Dty5Md8</t>
   </si>
   <si>
     <t>ROBLES YORI EFRAIN DAVID</t>
@@ -5015,7 +5015,7 @@
     <t>efrain.robles@espam.edu.ec</t>
   </si>
   <si>
-    <t>d9vDyRNf</t>
+    <t>sYmFEt7b</t>
   </si>
   <si>
     <t>SABANDO ZAMBRANO FREDDY ANTONIO</t>
@@ -5024,7 +5024,7 @@
     <t>freddy.sabando@espam.edu.ec</t>
   </si>
   <si>
-    <t>JUu2fLJW</t>
+    <t>6LktUil&amp;</t>
   </si>
   <si>
     <t>SOLORZANO GUERRERO RONALDO WANDERLEY</t>
@@ -5033,7 +5033,7 @@
     <t>ronaldo.solorzano@espam.edu.ec</t>
   </si>
   <si>
-    <t>ZJ6A2r8w</t>
+    <t>OyPnzNef</t>
   </si>
   <si>
     <t>VELEZ CALDERON GENESIS MARIANA</t>
@@ -5045,7 +5045,7 @@
     <t>genesis.velez@espam.edu.ec</t>
   </si>
   <si>
-    <t>5Xjeedpz</t>
+    <t>?yYJ7y/s</t>
   </si>
   <si>
     <t>ZAMBRANO BALDA JOSE RAMIRO</t>
@@ -5054,7 +5054,7 @@
     <t>josera.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>Z/coiZZ#</t>
+    <t>1q1Gorx7</t>
   </si>
   <si>
     <t>ZAMBRANO CANTOS YENNY ANNABEL</t>
@@ -5063,7 +5063,7 @@
     <t>yenny.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>hhGk0Qr8</t>
+    <t>JSUTgOlG</t>
   </si>
   <si>
     <t>ZAMBRANO LOOR CRISTHIAN LEONARDO</t>
@@ -5072,7 +5072,7 @@
     <t>cristhian.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>i8Zbk0GD</t>
+    <t>RqbyLf#!</t>
   </si>
   <si>
     <t>ZAMBRANO LOOR DIANA STEFANIA</t>
@@ -5081,7 +5081,7 @@
     <t>dianas.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>k0APz2Ty</t>
+    <t>MIU1ASOQ</t>
   </si>
   <si>
     <t>ZAMBRANO LOOR MARIA EMILIA</t>
@@ -5090,7 +5090,7 @@
     <t>maria.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>iRlXA4sz</t>
+    <t>jdCks66z</t>
   </si>
   <si>
     <t>ZAMBRANO MOREIRA LEONELA ALEJANDRA</t>
@@ -5099,7 +5099,7 @@
     <t>leonela.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>i3y0jzzm</t>
+    <t>ByshE8rM</t>
   </si>
   <si>
     <t>ALAVA ORTIZ EDWIN ALEXANDER</t>
@@ -5108,7 +5108,7 @@
     <t>edwin.alava@espam.edu.ec</t>
   </si>
   <si>
-    <t>m!#SC6sx</t>
+    <t>qW1AMOz3</t>
   </si>
   <si>
     <t>ALCIVAR LOOR GEMA LISBETH</t>
@@ -5117,7 +5117,7 @@
     <t>gemal.alcivar@espam.edu.ec</t>
   </si>
   <si>
-    <t>T#bd2yRg</t>
+    <t>zE#2/42G</t>
   </si>
   <si>
     <t>AVELLAN SANTANA GENESIS NICOLLE</t>
@@ -5126,7 +5126,7 @@
     <t>genesis.avellan@espam.edu.ec</t>
   </si>
   <si>
-    <t>7aQ4L4cA</t>
+    <t>31zq15zB</t>
   </si>
   <si>
     <t>CALDERON SANCHEZ SANDY KATHERINE</t>
@@ -5138,7 +5138,7 @@
     <t>sandy.calderon@espam.edu.ec</t>
   </si>
   <si>
-    <t>VUda#THK</t>
+    <t>xHU!Sa8t</t>
   </si>
   <si>
     <t>CARDENAS ASTUDILLO ANGELA JULIANA</t>
@@ -5150,7 +5150,7 @@
     <t>angela.cardenas@espam.edu.ec</t>
   </si>
   <si>
-    <t>99z4MOAu</t>
+    <t>RuYoaSFu</t>
   </si>
   <si>
     <t>CARRILLO PACHAY MARCO STEVE</t>
@@ -5159,7 +5159,7 @@
     <t>marco.carrillo@espam.edu.ec</t>
   </si>
   <si>
-    <t>TdLRdqVr</t>
+    <t>4ZlW!xRI</t>
   </si>
   <si>
     <t>CEDEÑO ZAMBRANO BRYAN ISIDRO</t>
@@ -5168,7 +5168,7 @@
     <t>bryan.cedeno@espam.edu.ec</t>
   </si>
   <si>
-    <t>dI&amp;!A50V</t>
+    <t>aGJonxUq</t>
   </si>
   <si>
     <t>CEVALLOS SALTOS ANTHONY FERNANDO</t>
@@ -5177,7 +5177,7 @@
     <t>anthonyf.cevallos@espam.edu.ec</t>
   </si>
   <si>
-    <t>QBYgAV#W</t>
+    <t>DgMiedJ/</t>
   </si>
   <si>
     <t>CHANG ZAMBRANO MARTHA YAMILETH</t>
@@ -5186,7 +5186,7 @@
     <t>martha.chang@espam.edu.ec</t>
   </si>
   <si>
-    <t>oE1ThLfi</t>
+    <t>Nz3K7Wca</t>
   </si>
   <si>
     <t>CHIRIBOGA FARIAS LUIS FERNANDO</t>
@@ -5195,7 +5195,7 @@
     <t>luis.chiriboga@espam.edu.ec</t>
   </si>
   <si>
-    <t>6QOI!GKw</t>
+    <t>x8#61wue</t>
   </si>
   <si>
     <t>ESPINOZA PILAY JERSON JOSE</t>
@@ -5204,7 +5204,7 @@
     <t>jerson.espinoza@espam.edu.ec</t>
   </si>
   <si>
-    <t>wjae4#0F</t>
+    <t>drysxjq?</t>
   </si>
   <si>
     <t>FARIAS MERA MAURICIO ANDRES</t>
@@ -5213,7 +5213,7 @@
     <t>mauricio.farias@espam.edu.ec</t>
   </si>
   <si>
-    <t>ZRy7CdLf</t>
+    <t>vcCa7AFb</t>
   </si>
   <si>
     <t>HERNANDEZ GONZALEZ JAMILEX KAREY</t>
@@ -5225,7 +5225,7 @@
     <t>jamilex.hernandez@espam.edu.ec</t>
   </si>
   <si>
-    <t>kmPMbxSf</t>
+    <t>fORCL4v7</t>
   </si>
   <si>
     <t>LEONES FALCONES ABAD JHOAN</t>
@@ -5234,7 +5234,7 @@
     <t>abad.leones@espam.edu.ec</t>
   </si>
   <si>
-    <t>9?cMmaDQ</t>
+    <t>2TYrYFVn</t>
   </si>
   <si>
     <t>LOOR CEVALLOS ANA MARIA</t>
@@ -5243,7 +5243,7 @@
     <t>anama.loor@espam.edu.ec</t>
   </si>
   <si>
-    <t>wxKKpay0</t>
+    <t>wBVelf6Z</t>
   </si>
   <si>
     <t>LOOR LOOR RONALD POLIVIO</t>
@@ -5252,7 +5252,7 @@
     <t>ronald.loor@espam.edu.ec</t>
   </si>
   <si>
-    <t>w3TGGhdi</t>
+    <t>Bhmh&amp;Rdr</t>
   </si>
   <si>
     <t>LOOR REYES GENESIS JAMILETH</t>
@@ -5261,7 +5261,7 @@
     <t>genesis.loor@espam.edu.ec</t>
   </si>
   <si>
-    <t>D5ZGnKAj</t>
+    <t>yK4DbKSq</t>
   </si>
   <si>
     <t>MACIAS BRAVO RICARDO FRANCISCO</t>
@@ -5270,7 +5270,7 @@
     <t>ricardo.macias@espam.edu.ec</t>
   </si>
   <si>
-    <t>t7KCaQUN</t>
+    <t>ulXJTdN/</t>
   </si>
   <si>
     <t>MACIAS MACIAS LISSETH LILIBETH</t>
@@ -5279,7 +5279,7 @@
     <t>lisseth.macias@espam.edu.ec</t>
   </si>
   <si>
-    <t>IXnj#IVy</t>
+    <t>b!#jGN1b</t>
   </si>
   <si>
     <t>MANZABA CEDEÑO KEVIN ALBERTO</t>
@@ -5288,7 +5288,7 @@
     <t>kevin.manzaba@espam.edu.ec</t>
   </si>
   <si>
-    <t>oObxVmX4</t>
+    <t>F#!O&amp;PRn</t>
   </si>
   <si>
     <t>MARQUEZ LEMA NAYELI SABRINA</t>
@@ -5297,7 +5297,7 @@
     <t>nayeli.marquez@espam.edu.ec</t>
   </si>
   <si>
-    <t>&amp;v21y6bn</t>
+    <t>krg9nSdI</t>
   </si>
   <si>
     <t>MENDOZA BRIONES MARIUXI KATHERINE</t>
@@ -5309,7 +5309,7 @@
     <t>mariuxi.mendoza@espam.edu.ec</t>
   </si>
   <si>
-    <t>Ovn?4uc6</t>
+    <t>wfaOMR!T</t>
   </si>
   <si>
     <t>MOLINA CEDEÑO JUAN DE DIOS</t>
@@ -5318,7 +5318,7 @@
     <t>juan.molina@espam.edu.ec</t>
   </si>
   <si>
-    <t>FCCYf3Hc</t>
+    <t>O/Sssw!j</t>
   </si>
   <si>
     <t>MONTESDEOCA GARCIA YUDID ALEXANDRA</t>
@@ -5327,7 +5327,7 @@
     <t>yudid.montesdeoca@espam.edu.ec</t>
   </si>
   <si>
-    <t>rKy7Ht4i</t>
+    <t>vbwbxBoP</t>
   </si>
   <si>
     <t>MUÑOZ MERA JUAN PABLO</t>
@@ -5336,7 +5336,7 @@
     <t>juan.munoz@espam.edu.ec</t>
   </si>
   <si>
-    <t>bUUdFh!y</t>
+    <t>nLa2I2Sf</t>
   </si>
   <si>
     <t>NAVARRETE ORMAZA ERICK ALEXANDER</t>
@@ -5345,7 +5345,7 @@
     <t>erick.navarrete@espam.edu.ec</t>
   </si>
   <si>
-    <t>2BRe8rsD</t>
+    <t>MuM43QCt</t>
   </si>
   <si>
     <t>OCAMPO BARRE ANTHONY VICENTE</t>
@@ -5354,7 +5354,7 @@
     <t>anthony.ocampo@espam.edu.ec</t>
   </si>
   <si>
-    <t>BVfGyVnu</t>
+    <t>Aw&amp;YZzFh</t>
   </si>
   <si>
     <t>PARRALES FALCONES ANTHONY LEONARDO</t>
@@ -5363,7 +5363,7 @@
     <t>anthony.parrales@espam.edu.ec</t>
   </si>
   <si>
-    <t>SU3QT#Ko</t>
+    <t>N!p8pJ2a</t>
   </si>
   <si>
     <t>RAMOS SALTOS NICOLE PAOLA</t>
@@ -5372,7 +5372,7 @@
     <t>nicole.ramos@espam.edu.ec</t>
   </si>
   <si>
-    <t>J0YQyKJ9</t>
+    <t>sc5ZQU3u</t>
   </si>
   <si>
     <t>ROBLES MOLINA JENIFFER STEFANIA</t>
@@ -5381,7 +5381,7 @@
     <t>jeniffer.robles@espam.edu.ec</t>
   </si>
   <si>
-    <t>JUlxCogA</t>
+    <t>XW3kXWcE</t>
   </si>
   <si>
     <t>RODRIGUEZ CAMPOS JEAN KATHERINE</t>
@@ -5390,7 +5390,7 @@
     <t>jean.rodriguez@espam.edu.ec</t>
   </si>
   <si>
-    <t>LNcJleAB</t>
+    <t>7RY9iZ0U</t>
   </si>
   <si>
     <t>SANCHEZ MEDINA GISSEL STEPHANIE</t>
@@ -5399,7 +5399,7 @@
     <t>gissel.sanchez@espam.edu.ec</t>
   </si>
   <si>
-    <t>50sXMO?T</t>
+    <t>e/Z#z2XA</t>
   </si>
   <si>
     <t>VASQUEZ VERA ARGENIS JAVIER</t>
@@ -5408,7 +5408,7 @@
     <t>argenis.vasquez@espam.edu.ec</t>
   </si>
   <si>
-    <t>ZaElmNd8</t>
+    <t>k/!4oD6X</t>
   </si>
   <si>
     <t>VASQUEZ VERA MARIA MERCEDES</t>
@@ -5417,7 +5417,7 @@
     <t>maria.vasquez@espam.edu.ec</t>
   </si>
   <si>
-    <t>V0k91iHg</t>
+    <t>Fa/&amp;Z0OT</t>
   </si>
   <si>
     <t>VELEZ MERA JOSSELYN JOSSENKA</t>
@@ -5426,7 +5426,7 @@
     <t>josselynjo.velez@espam.edu.ec</t>
   </si>
   <si>
-    <t>cwr7jtSU</t>
+    <t>hX#SUaIo</t>
   </si>
   <si>
     <t>VELEZ PALACIOS STEVEN RAMON</t>
@@ -5435,7 +5435,7 @@
     <t>steven.velez@espam.edu.ec</t>
   </si>
   <si>
-    <t>MhN?187o</t>
+    <t>HTPiSqtP</t>
   </si>
   <si>
     <t>VERA BRAVO MARY LAURA</t>
@@ -5444,7 +5444,7 @@
     <t>mary.vera@espam.edu.ec</t>
   </si>
   <si>
-    <t>HeqtDKV2</t>
+    <t>BEf2pVjq</t>
   </si>
   <si>
     <t>VILLAMIL VALENCIA ISABEL ANDREA</t>
@@ -5453,7 +5453,7 @@
     <t>isabel.villamil@espam.edu.ec</t>
   </si>
   <si>
-    <t>Ng?imkmO</t>
+    <t>5Y?v#yo?</t>
   </si>
   <si>
     <t>ZAMBRANO COBEÑA PABLO ALBERTO</t>
@@ -5462,7 +5462,7 @@
     <t>pablo.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>JWlk#9kP</t>
+    <t>A93RDEw!</t>
   </si>
   <si>
     <t>ALVAREZ INTRIAGO MAILIN KATHERINE</t>
@@ -5471,7 +5471,7 @@
     <t>mailin.alvarez@espam.edu.ec</t>
   </si>
   <si>
-    <t>OqJ8qqzu</t>
+    <t>AvjnnPfj</t>
   </si>
   <si>
     <t>BRAVO ARTEAGA RICARDO JAVIER</t>
@@ -5480,7 +5480,7 @@
     <t>ricardo.bravo@espam.edu.ec</t>
   </si>
   <si>
-    <t>5JI1IfWg</t>
+    <t>psFo0&amp;GN</t>
   </si>
   <si>
     <t>BRAVO VERGARA GEMA CAROLINA</t>
@@ -5489,7 +5489,7 @@
     <t>gemac.bravo@espam.edu.ec</t>
   </si>
   <si>
-    <t>baEZHonC</t>
+    <t>gQuCpZjP</t>
   </si>
   <si>
     <t>CEDEÑO VELASQUEZ GEMA GUADALUPE</t>
@@ -5498,7 +5498,7 @@
     <t>gemag.cedeno@espam.edu.ec</t>
   </si>
   <si>
-    <t>jel39zo7</t>
+    <t>o1iWu81I</t>
   </si>
   <si>
     <t>CHAVEZ VELIZ DENIS ALEXANDER</t>
@@ -5507,7 +5507,7 @@
     <t>denis.chavez@espam.edu.ec</t>
   </si>
   <si>
-    <t>Xz?d4S6Z</t>
+    <t>!gJmr33D</t>
   </si>
   <si>
     <t>DEMERA ZAMBRANO JACKSON ANDRES</t>
@@ -5516,7 +5516,7 @@
     <t>jackson.demera@espam.edu.ec</t>
   </si>
   <si>
-    <t>eUKNNo#!</t>
+    <t>RyaMqr3V</t>
   </si>
   <si>
     <t>GANCHOZO LECTONG GRESSILLE GUISSELLA</t>
@@ -5525,7 +5525,7 @@
     <t>gressille.ganchozo@espam.edu.ec</t>
   </si>
   <si>
-    <t>DQi6iFIi</t>
+    <t>yC#KKR&amp;M</t>
   </si>
   <si>
     <t>INDIO ZAMBRANO ODALIS MICHELLE</t>
@@ -5537,7 +5537,7 @@
     <t>odalis.indio@espam.edu.ec</t>
   </si>
   <si>
-    <t>L/Ozh#Rh</t>
+    <t>Lvidu#CF</t>
   </si>
   <si>
     <t>INTRIAGO TERAN BRYAN ASDRUBAL</t>
@@ -5546,7 +5546,7 @@
     <t>bryan.intriago@espam.edu.ec</t>
   </si>
   <si>
-    <t>Elu?NclC</t>
+    <t>672JO9G#</t>
   </si>
   <si>
     <t>INTRIAGO ZAMBRANO GISSELA KAROLINA</t>
@@ -5555,7 +5555,7 @@
     <t>gissela.intriago@espam.edu.ec</t>
   </si>
   <si>
-    <t>9Be#fuAE</t>
+    <t>Canu6InB</t>
   </si>
   <si>
     <t>LEONES SOLORZANO YARITZA DANIELA</t>
@@ -5564,7 +5564,7 @@
     <t>yaritza.leones@espam.edu.ec</t>
   </si>
   <si>
-    <t>qQosJ74u</t>
+    <t>mYBJm5LF</t>
   </si>
   <si>
     <t>LOPEZ MORA JOSSELYN AMARILYS</t>
@@ -5573,7 +5573,7 @@
     <t>josselyn.lopez@espam.edu.ec</t>
   </si>
   <si>
-    <t>8dnIlnNP</t>
+    <t>OS0SLYwp</t>
   </si>
   <si>
     <t>MERA LOOR ANTONY ELIAN</t>
@@ -5582,7 +5582,7 @@
     <t>antony.mera@espam.edu.ec</t>
   </si>
   <si>
-    <t>lQ3/4lNG</t>
+    <t>sueXp8Sw</t>
   </si>
   <si>
     <t>MERA SABANDO GEMA YAMILETH</t>
@@ -5591,7 +5591,7 @@
     <t>gema.mera@espam.edu.ec</t>
   </si>
   <si>
-    <t>VAAQqNyx</t>
+    <t>lRyxcqOW</t>
   </si>
   <si>
     <t>MIRANDA IBARRA ALFONSO SEBASTIAN</t>
@@ -5600,7 +5600,7 @@
     <t>alfonso.miranda@espam.edu.ec</t>
   </si>
   <si>
-    <t>7192HIcI</t>
+    <t>x2PAZm6L</t>
   </si>
   <si>
     <t>MONGE ERAZO JECSY PIERINA</t>
@@ -5609,7 +5609,7 @@
     <t>jecsy.monge@espam.edu.ec</t>
   </si>
   <si>
-    <t>sxp!aprz</t>
+    <t>1fnITBhO</t>
   </si>
   <si>
     <t>ROMERO ORTEGA ANGEL ANDRES</t>
@@ -5618,7 +5618,7 @@
     <t>angel.romero@espam.edu.ec</t>
   </si>
   <si>
-    <t>?4l?u!Fq</t>
+    <t>wJlwhWyV</t>
   </si>
   <si>
     <t>SOLORZANO INTRIAGO OSCAR FABIAN</t>
@@ -5630,7 +5630,7 @@
     <t>oscar.solorzano@espam.edu.ec</t>
   </si>
   <si>
-    <t>OKI8VFjG</t>
+    <t>/SHa3&amp;C6</t>
   </si>
   <si>
     <t>VALVERDE ZAPATA KATHIUSCA CARLOTA</t>
@@ -5642,7 +5642,7 @@
     <t>kathiusca.valverde@espam.edu.ec</t>
   </si>
   <si>
-    <t>vNAD0G1v</t>
+    <t>JB6V?DdY</t>
   </si>
   <si>
     <t>VERA AYALA GENESIS LISBETH</t>
@@ -5651,7 +5651,7 @@
     <t>genesis.vera@espam.edu.ec</t>
   </si>
   <si>
-    <t>risPaoos</t>
+    <t>Ys&amp;eCLB1</t>
   </si>
   <si>
     <t>VERA PULIDO MARIA IVANNA</t>
@@ -5660,7 +5660,7 @@
     <t>mariai.verap@espam.edu.ec</t>
   </si>
   <si>
-    <t>o&amp;cp?hc#</t>
+    <t>0L9uRBv&amp;</t>
   </si>
   <si>
     <t>VERA ZAMBRANO JAZMIN CAROLINA</t>
@@ -5669,7 +5669,7 @@
     <t>jazmin.vera@espam.edu.ec</t>
   </si>
   <si>
-    <t>CZMRkUIp</t>
+    <t>?Wq?#bQ6</t>
   </si>
   <si>
     <t>VERGARA ARBOLEDA WENDY DEL ROCIO</t>
@@ -5681,7 +5681,7 @@
     <t>wendy.vergara@espam.edu.ec</t>
   </si>
   <si>
-    <t>AuX7av91</t>
+    <t>lpg0GC60</t>
   </si>
   <si>
     <t>VILLAMAR GONZALEZ ELENA SAMANTA</t>
@@ -5690,7 +5690,7 @@
     <t>elena.villamar@espam.edu.ec</t>
   </si>
   <si>
-    <t>j#d?yvhe</t>
+    <t>k##bCXjr</t>
   </si>
   <si>
     <t>ZAMBRANO ALCIVAR GENESIS VALENTINA</t>
@@ -5699,7 +5699,7 @@
     <t>genesis.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>wPe!jx4q</t>
+    <t>H/l!wFYp</t>
   </si>
   <si>
     <t>ZAMBRANO CHAVEZ ANDREA MONSERRATE</t>
@@ -5708,7 +5708,7 @@
     <t>andream.zambranoc@espam.edu.ec</t>
   </si>
   <si>
-    <t>zMreQjm4</t>
+    <t>7Qxpv!ni</t>
   </si>
   <si>
     <t>ZAMBRANO GRACIA DANIELA ANGELINA</t>
@@ -5717,7 +5717,7 @@
     <t>daniela.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>hh&amp;jyXmH</t>
+    <t>NTbPApM9</t>
   </si>
   <si>
     <t>ZAMBRANO MUÑOZ WILLY JHONAY</t>
@@ -5726,7 +5726,7 @@
     <t>willy.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>!9Khp?Fr</t>
+    <t>cbCDvmEK</t>
   </si>
   <si>
     <t>ZAMBRANO ZAMBRANO TATIANA ELIZABETH</t>
@@ -5735,7 +5735,7 @@
     <t>tatianael.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>kGpvbcAb</t>
+    <t>HxkUr&amp;h5</t>
   </si>
 </sst>
 </file>

--- a/storage/app/public/seeds/datosPassword.xlsx
+++ b/storage/app/public/seeds/datosPassword.xlsx
@@ -44,7 +44,7 @@
     <t>angie.alcivar.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>Og0ejdJQ</t>
+    <t>57ud?QNf</t>
   </si>
   <si>
     <t>ALCIVAR VERA KARLA MILENA</t>
@@ -53,7 +53,7 @@
     <t>karla.alcivar.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>p8bECmjV</t>
+    <t>NYiVT!1r</t>
   </si>
   <si>
     <t>ALVIA ROCA HENRY ISAAC</t>
@@ -65,7 +65,7 @@
     <t>henry.alvia.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>Q!TG?Kfh</t>
+    <t>Y&amp;rVELaO</t>
   </si>
   <si>
     <t>ANANGONO GOMEZ ANA MARCELA</t>
@@ -74,7 +74,7 @@
     <t>ana.anangono.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>sonHx5IK</t>
+    <t>D107F5wt</t>
   </si>
   <si>
     <t>BRAVO MARCILLO NATHALY SILVANA</t>
@@ -86,7 +86,7 @@
     <t>nathaly.bravo.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>iiZ8YP#C</t>
+    <t>W!dHpkFx</t>
   </si>
   <si>
     <t>BRIONES SUAREZ DANIA MELISSA</t>
@@ -95,7 +95,7 @@
     <t>dania.briones.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>ma4f#7p3</t>
+    <t>ltCEj60&amp;</t>
   </si>
   <si>
     <t>CANCHINGRE LOZA MARIANA DE JESUS</t>
@@ -107,7 +107,7 @@
     <t>mariana.canchingre.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>EXwxWvgf</t>
+    <t>D2rIikiI</t>
   </si>
   <si>
     <t>CEDEÑO GARCIA EMILY JAHAIRA</t>
@@ -116,7 +116,7 @@
     <t>emily.cedeno.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>5XPxIXPT</t>
+    <t>k30OBODv</t>
   </si>
   <si>
     <t>CEDEÑO VELEZ STEVEN ANTONIO</t>
@@ -125,7 +125,7 @@
     <t>steven.cedeno.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>taizF2u3</t>
+    <t>x61ivIwc</t>
   </si>
   <si>
     <t>CHICA ORDOÑEZ YAIZA ANAHI</t>
@@ -134,7 +134,7 @@
     <t>yaiza.chica.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>AvOtwtpP</t>
+    <t>d4jXDcg1</t>
   </si>
   <si>
     <t>CORONEL MERO DAMARY SABRINA</t>
@@ -143,7 +143,7 @@
     <t>damary.coronel.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>?emvS&amp;91</t>
+    <t>mxieMn9a</t>
   </si>
   <si>
     <t>DELGADO BENAVIDES MELISSA ANDREINA</t>
@@ -152,7 +152,7 @@
     <t>melissa.delgado.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>Mhpz#?DP</t>
+    <t>UYyxxaSr</t>
   </si>
   <si>
     <t>DELGADO SOLORZANO TONY DAMIAN</t>
@@ -161,7 +161,7 @@
     <t>tony.delgado.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>MNOu?QO9</t>
+    <t>V9VNV&amp;Wh</t>
   </si>
   <si>
     <t>ELENO GENDE JOSELYN KATHERINE</t>
@@ -173,7 +173,7 @@
     <t>joselyn.eleno.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>lrjhg4n#</t>
+    <t>CZRDOxZM</t>
   </si>
   <si>
     <t>GARCIA RIVERA ANGHELA LISBETH</t>
@@ -185,7 +185,7 @@
     <t>anghela.garcia.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>ImK?GHor</t>
+    <t>LZ#MI?hR</t>
   </si>
   <si>
     <t>GARCIA ROSS PRISCILA TAHILY</t>
@@ -194,7 +194,7 @@
     <t>priscila.garcia.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>y9FXtdaL</t>
+    <t>LkvhcXbj</t>
   </si>
   <si>
     <t>LOOR ZAMBRANO MARILYN MICHEL</t>
@@ -203,7 +203,7 @@
     <t>marilyn.loor.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>Eg8XHO4B</t>
+    <t>imZ260pN</t>
   </si>
   <si>
     <t>LUCAS MENDOZA MOISES NOE</t>
@@ -212,7 +212,7 @@
     <t>moises.lucas.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>FlxjLalB</t>
+    <t>QYvJYNcN</t>
   </si>
   <si>
     <t>MANTUANO LOOR JENIFER DANIELA</t>
@@ -221,7 +221,7 @@
     <t>jenifer.mantuano.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>&amp;9mIZSWL</t>
+    <t>9GQakwNx</t>
   </si>
   <si>
     <t>MENENDEZ SANTANA JOSMELY ANAHI</t>
@@ -230,7 +230,7 @@
     <t>josmely.menendez.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>biDeHfJU</t>
+    <t>Wm4qODSm</t>
   </si>
   <si>
     <t>MEZA ESPINOZA MISHEL NICOL</t>
@@ -239,7 +239,7 @@
     <t>mishel.meza.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>n6jHV7p2</t>
+    <t>9lueAHZi</t>
   </si>
   <si>
     <t>MORANTE TROYA JAIME ANDRES</t>
@@ -248,7 +248,7 @@
     <t>jaime.morante.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>THfs!Sgh</t>
+    <t>VMO4KMzC</t>
   </si>
   <si>
     <t>PARRAGA MOREIRA CINDY ANDREA</t>
@@ -257,7 +257,7 @@
     <t>cindy.parraga.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>ZeN5TXz&amp;</t>
+    <t>QSg0tZMM</t>
   </si>
   <si>
     <t>PEÑAFIEL VALENCIA JULEISY LISBETH</t>
@@ -269,7 +269,7 @@
     <t>juleisy.penafiel.4623@espam.edu.ec</t>
   </si>
   <si>
-    <t>5eTOMTRv</t>
+    <t>7E?BQe7P</t>
   </si>
   <si>
     <t>PICO CRIOLLO MILETH KATHERINE</t>
@@ -278,7 +278,7 @@
     <t>mileth.pico.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>1p0wYuJe</t>
+    <t>yOIu1x#Z</t>
   </si>
   <si>
     <t>RENDON GILER JUNIOR ARIEL</t>
@@ -287,7 +287,7 @@
     <t>junior.rendon@espam.edu.ec</t>
   </si>
   <si>
-    <t>zUgMDq1U</t>
+    <t>uVqicABV</t>
   </si>
   <si>
     <t>SALVATIERRA SANTOS BRYAN ALEJANDRO</t>
@@ -296,7 +296,7 @@
     <t>bryan.salvatierra@espam.edu.ec</t>
   </si>
   <si>
-    <t>ugqvpZQh</t>
+    <t>I6S#!hi1</t>
   </si>
   <si>
     <t>SOLORZANO LUCAS ALEXANDER JOEL</t>
@@ -308,7 +308,7 @@
     <t>alexander.solorzano.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>Ygn9&amp;DNk</t>
+    <t>ea3o!v!#</t>
   </si>
   <si>
     <t>SOLORZANO RODRIGUEZ DAYANA NICOLLE</t>
@@ -317,7 +317,7 @@
     <t>dayanna.solorzano.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>yKguvPV1</t>
+    <t>A6/qzo4n</t>
   </si>
   <si>
     <t>TENORIO QUINTERO ELY GILMAR</t>
@@ -329,7 +329,7 @@
     <t>ely.tenorio.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>xAy8e16m</t>
+    <t>D?pz#mVy</t>
   </si>
   <si>
     <t>VELASQUEZ DOMINGUEZ JORDAN RICARDO</t>
@@ -338,7 +338,7 @@
     <t>jordan.velasquez.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>3d9UG3ED</t>
+    <t>fT&amp;IYRF&amp;</t>
   </si>
   <si>
     <t>VILLAVICENCIO SALVADOR MELANIE HELLAIM</t>
@@ -350,7 +350,7 @@
     <t>melanie.villavicencio.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>6QhJ1gks</t>
+    <t>P8!ION3j</t>
   </si>
   <si>
     <t>ZAMBRANO CEDEÑO ANGELO ALEXANDER</t>
@@ -359,7 +359,7 @@
     <t>angelo.zambrano.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>7aQFTOvu</t>
+    <t>e0jW!8hr</t>
   </si>
   <si>
     <t>ZAMBRANO VALENCIA SHIRLEY EDITH</t>
@@ -368,7 +368,7 @@
     <t>shirley.zambrano.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>FrM/UqSs</t>
+    <t>GxUgRxkU</t>
   </si>
   <si>
     <t>ANGEL GOMEZ GILENY NAHOMY</t>
@@ -380,7 +380,7 @@
     <t>gileny.angel.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>0cV?#vox</t>
+    <t>DYeJY8CR</t>
   </si>
   <si>
     <t>BARRE QUIJANO DARWIN JOSE</t>
@@ -389,7 +389,7 @@
     <t>darwin.barre@espam.edu.ec</t>
   </si>
   <si>
-    <t>x9#s5gl8</t>
+    <t>gQo9FE3f</t>
   </si>
   <si>
     <t>BRAVO ALVAREZ EMILY JESUS</t>
@@ -398,7 +398,7 @@
     <t>emily.bravo.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>/9mWT8Gs</t>
+    <t>Nw5q6F2J</t>
   </si>
   <si>
     <t>CAGUA YOONG NAHOMY JAMILETH</t>
@@ -407,7 +407,7 @@
     <t>nahomy.cagua.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>KliiG&amp;!u</t>
+    <t>lqZ7Y573</t>
   </si>
   <si>
     <t>CASTILLO CEDEÑO EMILIA MARICELA</t>
@@ -416,7 +416,7 @@
     <t>emilia.castillo.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>LU/#3ip5</t>
+    <t>hTQcnDp!</t>
   </si>
   <si>
     <t>CEDEÑO ZAMBRANO JOSE DANIEL</t>
@@ -425,7 +425,7 @@
     <t>jose.cedenoz.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>eKT4S?ps</t>
+    <t>dlpe8JYb</t>
   </si>
   <si>
     <t>CIFUENTES VELASQUEZ JOSE JAHIR</t>
@@ -434,7 +434,7 @@
     <t>jose.cifuentes.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>NfNGe7Ar</t>
+    <t>WEl3i5Ti</t>
   </si>
   <si>
     <t>CONFORME CIFUENTES ROBERTH JESUS</t>
@@ -443,7 +443,7 @@
     <t>roberth.conforme.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>Eq4ggaS1</t>
+    <t>TE9PS/m/</t>
   </si>
   <si>
     <t>CORDERO GILER SALMA PAOLA</t>
@@ -452,7 +452,7 @@
     <t>salma.cordero.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>bOyW2s9Y</t>
+    <t>ciKekk!P</t>
   </si>
   <si>
     <t>FARIAS VELIZ RENE OCTAVIO</t>
@@ -461,7 +461,7 @@
     <t>rene.farias.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>F2E26IBX</t>
+    <t>BCok9&amp;Ht</t>
   </si>
   <si>
     <t>GARCIA DUEÑAS JEAN FERNANDO</t>
@@ -470,7 +470,7 @@
     <t>jean.garcia.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>hfANeCt3</t>
+    <t>f0eLGTvw</t>
   </si>
   <si>
     <t>HERRERA BASURTO IVIS ANTONELLA</t>
@@ -479,7 +479,7 @@
     <t>ivis.herrera.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>k!1EpXN#</t>
+    <t>OUAocMiJ</t>
   </si>
   <si>
     <t>HIDALGO LOOR MARLYN NALLELY</t>
@@ -488,7 +488,7 @@
     <t>marlyn.hidalgo.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>vZ/9qH7f</t>
+    <t>9ij9SqEy</t>
   </si>
   <si>
     <t>IBARRA CHAVARRIA JUAN DIEGO</t>
@@ -497,7 +497,7 @@
     <t>juan.ibarra.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>bZBatPzN</t>
+    <t>v3Ov5uT1</t>
   </si>
   <si>
     <t>JAYA ZAPATA VICTOR EDUARDO</t>
@@ -506,7 +506,7 @@
     <t>victor.jaya.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>Hn!!rge7</t>
+    <t>7zCLCkcc</t>
   </si>
   <si>
     <t>LOOR DELGADO JERRY JOEL</t>
@@ -515,7 +515,7 @@
     <t>jerry.loor.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>vMfYpDca</t>
+    <t>MzjIeIg?</t>
   </si>
   <si>
     <t>MANTUANO PONCE MELANY MONCERRATE</t>
@@ -524,7 +524,7 @@
     <t>melany.mantuano.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>/&amp;KKPM/K</t>
+    <t>o7yvR3Gk</t>
   </si>
   <si>
     <t>MENDOZA VASQUEZ ARIEL ALEXIS</t>
@@ -536,7 +536,7 @@
     <t>ariel.mendoza.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>B/IW45dA</t>
+    <t>8JTi//BS</t>
   </si>
   <si>
     <t>MOREIRA GARCIA MACARIO EMANUEL</t>
@@ -545,7 +545,7 @@
     <t>macario.moreira.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>KtyiPu&amp;u</t>
+    <t>6F5c#JQ1</t>
   </si>
   <si>
     <t>MOREIRA GILCES GABRIELA NIKOL</t>
@@ -554,7 +554,7 @@
     <t>gabriela.moreira.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>VXxinARX</t>
+    <t>?b3&amp;4PVB</t>
   </si>
   <si>
     <t>NOBOA MONTESDEOCA INGRITH MADELEYN</t>
@@ -563,7 +563,7 @@
     <t>ingrith.noboa.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>CxG6YOgh</t>
+    <t>AFvIdDCl</t>
   </si>
   <si>
     <t>ORDOÑEZ ALCIVAR ALEX PAUL</t>
@@ -572,7 +572,7 @@
     <t>alex.ordonez.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>0VG#Q#Cd</t>
+    <t>h#zgcfy8</t>
   </si>
   <si>
     <t>PALMA GARCIA MELYN JARITZA</t>
@@ -581,7 +581,7 @@
     <t>melyn.palma.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>3Wb!PHGF</t>
+    <t>SM98U2pI</t>
   </si>
   <si>
     <t>PAREDES MERO GHISLAINE ANAHI</t>
@@ -590,7 +590,7 @@
     <t>ghislaine.paredes.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>LZn3Yfj!</t>
+    <t>SYZ?#4JC</t>
   </si>
   <si>
     <t>QUIJIJE PIANDA XIOMARA MISHELLE</t>
@@ -602,7 +602,7 @@
     <t>xiomara.quijije.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>2axYrUrz</t>
+    <t>oYymkq!f</t>
   </si>
   <si>
     <t>SALAVARRIA AVEIGA YULIANA GUADALUPE</t>
@@ -611,7 +611,7 @@
     <t>yuliana.salavarria.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>Pkjjy!qd</t>
+    <t>pJGqfvMg</t>
   </si>
   <si>
     <t>SANTOS ALCIVAR JAIR SEBASTIAN</t>
@@ -620,7 +620,7 @@
     <t>jair.santos.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>nsenuvAv</t>
+    <t>u?FhLpXp</t>
   </si>
   <si>
     <t>SOLORZANO CANDELA JARITZA NOHEMY</t>
@@ -629,7 +629,7 @@
     <t>jaritza.solorzano.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>E6EH5Egf</t>
+    <t>CrTT4zvG</t>
   </si>
   <si>
     <t>VERA CEBALLOS MARIA CONCEPCION</t>
@@ -638,7 +638,7 @@
     <t>maria.vera.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>gTT3Vxql</t>
+    <t>Cv6Luq!8</t>
   </si>
   <si>
     <t>ALAVA MUÑOZ BILL JARVI</t>
@@ -647,7 +647,7 @@
     <t>bill.alava.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>hUawyiIR</t>
+    <t>M&amp;GC/ELy</t>
   </si>
   <si>
     <t>ALCIVAR ZAMBRANO ESTHER JOMARA</t>
@@ -656,7 +656,7 @@
     <t>esther.alcivar.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>ZWxPz4L!</t>
+    <t>TkVmHYXs</t>
   </si>
   <si>
     <t>ALMEIDA LOOR MARIA VICTORIA</t>
@@ -665,7 +665,7 @@
     <t>maria.almeida.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>PTF!k0li</t>
+    <t>ATq&amp;5rBq</t>
   </si>
   <si>
     <t>ANDRADE VILLAVICENCIO PABLO HUGO</t>
@@ -674,7 +674,7 @@
     <t>pablo.andrade.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>whz9X66B</t>
+    <t>pmh3qQNH</t>
   </si>
   <si>
     <t>AVENDAÑO YZQUIERDO ADRIANA ISABEL</t>
@@ -686,7 +686,7 @@
     <t>adriana.avendano.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>YvLwgB25</t>
+    <t>7jXDmCM!</t>
   </si>
   <si>
     <t>BALUARTE PARRAGA MAYERLY NARCISA</t>
@@ -698,7 +698,7 @@
     <t>mayerly.baluarte.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>2quDE0dC</t>
+    <t>mDva71ey</t>
   </si>
   <si>
     <t>BARRE CASTAÑEDA MAYERLI SOLANGE</t>
@@ -710,7 +710,7 @@
     <t>mayerli.barre.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>hhg&amp;FL9K</t>
+    <t>DPnU0!rh</t>
   </si>
   <si>
     <t>BERMEO MENDOZA LESLY JULIETT</t>
@@ -719,7 +719,7 @@
     <t>lesly.bermeo.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>J1SErCCg</t>
+    <t>8D30F1St</t>
   </si>
   <si>
     <t>BRAVO ZAMBRANO DANA KATIUSKA</t>
@@ -728,7 +728,7 @@
     <t>dana.bravo.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>jUByBccb</t>
+    <t>umh74Ai1</t>
   </si>
   <si>
     <t>CEDEÑO ALVARADO JORGE LUIS</t>
@@ -737,7 +737,7 @@
     <t>jorge.cedeno.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>vZdj?tLH</t>
+    <t>MGxrgoHs</t>
   </si>
   <si>
     <t>DOMINGUEZ ANGEL ANAIS ZULEYMA</t>
@@ -749,7 +749,7 @@
     <t>anais.dominguez.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>y1dwL8wM</t>
+    <t>uocZ!ioR</t>
   </si>
   <si>
     <t>ESPARZA TELLO ERICKA MARIA</t>
@@ -761,7 +761,7 @@
     <t>ericka.esparza.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>1KsTFs3L</t>
+    <t>5vte5rI4</t>
   </si>
   <si>
     <t>GRAIN MARCILLO MICHAEL JOSUE</t>
@@ -770,7 +770,7 @@
     <t>michael.grain.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>plnVo10E</t>
+    <t>b8e3OX&amp;/</t>
   </si>
   <si>
     <t>JAMA ZAMBRANO ROBERTH XAVIER</t>
@@ -779,7 +779,7 @@
     <t>roberth.jama@espam.edu.ec</t>
   </si>
   <si>
-    <t>xMDo?E1O</t>
+    <t>jw5XGhbg</t>
   </si>
   <si>
     <t>LARA BONE ANGIE NICOLE</t>
@@ -791,7 +791,7 @@
     <t>angie.lara.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>pahFGh6e</t>
+    <t>!&amp;i&amp;V4/i</t>
   </si>
   <si>
     <t>LOPEZ DELGADO DAYANA NICOLLE</t>
@@ -800,7 +800,7 @@
     <t>dayana.lopez.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>UBSc9vOL</t>
+    <t>VYlmTPd?</t>
   </si>
   <si>
     <t>MELO CENTENO HELEN SOFIA</t>
@@ -809,7 +809,7 @@
     <t>helen.melo.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>ObPwfudw</t>
+    <t>bplTS/5b</t>
   </si>
   <si>
     <t>MENDOZA ORTEGA ANGELO DANIEL</t>
@@ -818,7 +818,7 @@
     <t>angelo.mendoza.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>o6Ms7uVs</t>
+    <t>rsjE?bqp</t>
   </si>
   <si>
     <t>MERO CARRILLO EMELY MILENA</t>
@@ -827,7 +827,7 @@
     <t>emely.mero.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>y8Smxcxs</t>
+    <t>Az70oMe9</t>
   </si>
   <si>
     <t>MITE MENENDEZ GEORGE ISAAC</t>
@@ -836,7 +836,7 @@
     <t>george.mite.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>2OmQE32H</t>
+    <t>9w4BGR/F</t>
   </si>
   <si>
     <t>MONCAYO CAGUA LADY NOHELIA</t>
@@ -845,7 +845,7 @@
     <t>lady.moncayo.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>xJ#MbLYP</t>
+    <t>aWmyRcuZ</t>
   </si>
   <si>
     <t>ORMAZA ALCIVAR NOHELIA MILENA</t>
@@ -854,7 +854,7 @@
     <t>nohelia.ormaza.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>3jT2Huqx</t>
+    <t>CQToQ4qg</t>
   </si>
   <si>
     <t>PANTA CANDELA YONNY ALEXANDER</t>
@@ -863,7 +863,7 @@
     <t>jonny.panta.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>9SoNJVeu</t>
+    <t>5Qpf4LVk</t>
   </si>
   <si>
     <t>QUINATOA SIMALIZA YAJAIRA NICOLE</t>
@@ -872,7 +872,7 @@
     <t>yajaira.quinatoa.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>mMmJtgtK</t>
+    <t>&amp;EccueqV</t>
   </si>
   <si>
     <t>REYNA RAMIREZ SINDY MAHOLY</t>
@@ -881,7 +881,7 @@
     <t>sindy.reyna.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>HLOQfQKj</t>
+    <t>Hm5N9Ww3</t>
   </si>
   <si>
     <t>RODRIGUEZ ANCHUNDIA LUIS FERNANDO</t>
@@ -890,7 +890,7 @@
     <t>luis.rodriguez.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>onDP/DEH</t>
+    <t>8lAQeorn</t>
   </si>
   <si>
     <t>SABANDO TUAREZ MILENA BLANCA</t>
@@ -899,7 +899,7 @@
     <t>milena.sabando.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>FlNmvz1&amp;</t>
+    <t>#w/dUjOB</t>
   </si>
   <si>
     <t>SALAZAR RAMIREZ YARITZA GABRIELA</t>
@@ -908,7 +908,7 @@
     <t>yaritza.salazar.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>68xlPSuL</t>
+    <t>WodsL?J?</t>
   </si>
   <si>
     <t>SHIGUANGO AGUINDA KATTY MIRELLA</t>
@@ -917,7 +917,7 @@
     <t>katty.shiguango.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>QOr&amp;7hgi</t>
+    <t>hTKYYwtH</t>
   </si>
   <si>
     <t>VACA MORALES JOSE EDUARDO</t>
@@ -926,7 +926,7 @@
     <t>jose.vaca.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>xTrF/cG1</t>
+    <t>FrhVpctS</t>
   </si>
   <si>
     <t>VELASQUEZ MEJIA ARIANNA ELIZABETH</t>
@@ -935,7 +935,7 @@
     <t>arianna.velasquez.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>mo2Ow79V</t>
+    <t>3jJNdVDf</t>
   </si>
   <si>
     <t>VELEZ CEDEÑO YANDRY ALAIN</t>
@@ -944,7 +944,7 @@
     <t>yandry.velez.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>JWPAMGkK</t>
+    <t>mnhWczvn</t>
   </si>
   <si>
     <t>VERA ZAMORA DIXON YAIR</t>
@@ -953,7 +953,7 @@
     <t>dixon.vera.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>jI/yPCqh</t>
+    <t>#tBF4g7x</t>
   </si>
   <si>
     <t>ZAMBRANO FORTIS RICARDO MIGUEL</t>
@@ -962,7 +962,7 @@
     <t>ricardo.zambrano.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>w8JY283O</t>
+    <t>hJ56s!TB</t>
   </si>
   <si>
     <t>ALVARADO DUEÑAS KARELYS VANESSA</t>
@@ -971,7 +971,7 @@
     <t>karelys.alvarado.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>oAZk2hif</t>
+    <t>4OFYOJex</t>
   </si>
   <si>
     <t>ANDRADE ILES ALVIERY JAHIR</t>
@@ -983,7 +983,7 @@
     <t>alviery.andrade.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>/ZOnh9U7</t>
+    <t>ZOEAb&amp;vR</t>
   </si>
   <si>
     <t>ARTEAGA RAMOS DIEGO ALEJANDRO</t>
@@ -992,7 +992,7 @@
     <t>diego.arteaga.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>MkeyHYoO</t>
+    <t>9vW!AEks</t>
   </si>
   <si>
     <t>BARREIRO INTRIAGO STEFANY PIERINA</t>
@@ -1001,7 +1001,7 @@
     <t>stefany.barreiro.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>hlScCc9Y</t>
+    <t>Vy6APlly</t>
   </si>
   <si>
     <t>BRAVO QUINTERO SARA NICOLE</t>
@@ -1013,7 +1013,7 @@
     <t>sara.bravo.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>WSH6!U2Y</t>
+    <t>gD4&amp;2LlT</t>
   </si>
   <si>
     <t>CABALLERO MUÑOZ STEVEN FABRICIO</t>
@@ -1022,7 +1022,7 @@
     <t>steven.caballero.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>ClrmrMUn</t>
+    <t>Un2!VXSx</t>
   </si>
   <si>
     <t>CARRASCO VERA LUCAS JOSUE</t>
@@ -1031,7 +1031,7 @@
     <t>lucas.carrasco.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>HKL4RW9u</t>
+    <t>B?ugjwGw</t>
   </si>
   <si>
     <t>CEDEÑO MURILLO KENNER STEVEN</t>
@@ -1040,7 +1040,7 @@
     <t>kenner.cedeno.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>MZ8iPWiv</t>
+    <t>/ukg?zVk</t>
   </si>
   <si>
     <t>CUERO PAZMIÑO EMMANUEL JOSUE</t>
@@ -1049,7 +1049,7 @@
     <t>emmanuel.cuero.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>bXME?QOb</t>
+    <t>f8yepEh6</t>
   </si>
   <si>
     <t>LADINES CASTRO MIRKA DARLISHA</t>
@@ -1061,7 +1061,7 @@
     <t>mirka.ladines.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>&amp;Nct8gZ4</t>
+    <t>JaP5K7E7</t>
   </si>
   <si>
     <t>LARA FRANCO MICHAEL ARGEL</t>
@@ -1073,7 +1073,7 @@
     <t>michael.lara.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>WEhcAgGA</t>
+    <t>hGKyibG4</t>
   </si>
   <si>
     <t>LEYTHON QUIÑONEZ JEIMY SILVANA</t>
@@ -1085,7 +1085,7 @@
     <t>jeimy.leython.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>xpnzwRUH</t>
+    <t>KUWutI84</t>
   </si>
   <si>
     <t>LOOR LOOR GENESIS DANIELA</t>
@@ -1094,7 +1094,7 @@
     <t>genesis.loor.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>qHcGGT1w</t>
+    <t>eQ?SmY3W</t>
   </si>
   <si>
     <t>MATAMBA GUANGA THALIA VALERIA</t>
@@ -1106,7 +1106,7 @@
     <t>thalia.matamba.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>KaFu3!2y</t>
+    <t>Qk2q1YGw</t>
   </si>
   <si>
     <t>MENDOZA DE LA CRUZ MARTHA DANIELA</t>
@@ -1115,7 +1115,7 @@
     <t>martha.mendoza.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>ea2oQ&amp;7O</t>
+    <t>u#kBbuyr</t>
   </si>
   <si>
     <t>MINOTA BORJA ALEXANDER JAHIR</t>
@@ -1127,7 +1127,7 @@
     <t>alexander.minota.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>35bczTTj</t>
+    <t>gmbsw3S8</t>
   </si>
   <si>
     <t>NAVIA LOOR JOSE EFRAIN</t>
@@ -1136,7 +1136,7 @@
     <t>jose.navia.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>NItUgGMD</t>
+    <t>M7sw!8My</t>
   </si>
   <si>
     <t>PILATAXI UTRERAS KATHERIN JULIETH</t>
@@ -1145,7 +1145,7 @@
     <t>katherin.pilataxi.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>?B0jrKUN</t>
+    <t>k3XphAnj</t>
   </si>
   <si>
     <t>PINARGOTE CARREÑO FELIX JOEL</t>
@@ -1154,7 +1154,7 @@
     <t>felix.pinargote.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>q3FQiWDU</t>
+    <t>JCueGMUv</t>
   </si>
   <si>
     <t>PONCE ZAMBRANO ARIANA JESSENIA</t>
@@ -1163,7 +1163,7 @@
     <t>ariana.ponce.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>M#5x&amp;!!Z</t>
+    <t>fLvtMTOF</t>
   </si>
   <si>
     <t>QUINATOA SIMALIZA KELLY MARIUXI</t>
@@ -1172,7 +1172,7 @@
     <t>kelly.quinatoa.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>iO4v&amp;TU6</t>
+    <t>SK3MZ4DJ</t>
   </si>
   <si>
     <t>ROSADO ROSADO JOEL JESUS</t>
@@ -1181,7 +1181,7 @@
     <t>joel.rosado.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>AwxYL9?R</t>
+    <t>0G8AciD1</t>
   </si>
   <si>
     <t>SANMARTIN TAPIA CARMEN EDITH</t>
@@ -1190,7 +1190,7 @@
     <t>carmen.sanmartin.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>7cmNsDNk</t>
+    <t>hqg42Ur0</t>
   </si>
   <si>
     <t>SAYAY DAGUA JOSELYN NICOL</t>
@@ -1202,7 +1202,7 @@
     <t>joselyn.sayay.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>bSdFuMni</t>
+    <t>mvUXsyOF</t>
   </si>
   <si>
     <t>SOLORZANO PAZMIÑO DECCY DANIELA</t>
@@ -1211,7 +1211,7 @@
     <t>deccy.solorzano.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>N7iinV1V</t>
+    <t>#pdTWjHP</t>
   </si>
   <si>
     <t>VERGARA ZAMBRANO MATIAS ALEXANDER</t>
@@ -1220,7 +1220,7 @@
     <t>matias.vergara.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>0/qh0M8e</t>
+    <t>Si31!8H1</t>
   </si>
   <si>
     <t>ZAMBRANO INTRIAGO FRAYDA JESSENIA</t>
@@ -1229,7 +1229,7 @@
     <t>frayda.zambrano.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>CaQ/qbdV</t>
+    <t>wAxeL3I6</t>
   </si>
   <si>
     <t>ZAMBRANO VALAREZO ANDREA LISBETH</t>
@@ -1238,7 +1238,7 @@
     <t>andrea.zambrano.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>wi5LKiiI</t>
+    <t>/IiEDGrV</t>
   </si>
   <si>
     <t>AGUAS MARTINEZ KEVIN SNAIDER</t>
@@ -1247,7 +1247,7 @@
     <t>kevin.aguas@espam.edu.ec</t>
   </si>
   <si>
-    <t>VbPto#6Z</t>
+    <t>OSQ?GwzM</t>
   </si>
   <si>
     <t>ANDRADE GARCIA LUZ CRUCELINA</t>
@@ -1256,7 +1256,7 @@
     <t>luz.andrade.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>j0aj3UJU</t>
+    <t>kzLAPZvf</t>
   </si>
   <si>
     <t>BARBERAN MERO HELEN ADRIANA</t>
@@ -1265,7 +1265,7 @@
     <t>helen.barberan.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>6D0r&amp;UZD</t>
+    <t>4ZYFDxZx</t>
   </si>
   <si>
     <t>BARROS ZAMBRANO DANIEL ANGEL</t>
@@ -1274,7 +1274,7 @@
     <t>daniel.barros.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>oz!FgNN4</t>
+    <t>psoU25oj</t>
   </si>
   <si>
     <t>BASURTO ZAMBRANO CARLOS RAUL</t>
@@ -1283,7 +1283,7 @@
     <t>carlos.basurto.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>cy5O/RyL</t>
+    <t>e47feNHs</t>
   </si>
   <si>
     <t>BRAVO BRAVO ANTHONY ADEMIR</t>
@@ -1292,7 +1292,7 @@
     <t>anthony.bravo.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>MUIUWdyv</t>
+    <t>AMW1PJUy</t>
   </si>
   <si>
     <t>CANTOS VERA ANGELA AUXILIADORA</t>
@@ -1301,7 +1301,7 @@
     <t>angela.cantos.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>6JZI&amp;JWu</t>
+    <t>M?cDYj2?</t>
   </si>
   <si>
     <t>CASTRO BOLAÑO FANNY TATIANA</t>
@@ -1310,7 +1310,7 @@
     <t>fanny.castro.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>uUnIy?4K</t>
+    <t>WdBH6Kcm</t>
   </si>
   <si>
     <t>CASTRO SALTOS MATTEWS FARID</t>
@@ -1319,7 +1319,7 @@
     <t>mattews.castro.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>qZ8?DN46</t>
+    <t>#D5UMw6/</t>
   </si>
   <si>
     <t>CHANCAY RADE ANTONY GABRIEL</t>
@@ -1328,7 +1328,7 @@
     <t>antony.chancay@espam.edu.ec</t>
   </si>
   <si>
-    <t>KRNe7ekT</t>
+    <t>8f0xjott</t>
   </si>
   <si>
     <t>COBEÑA GARCIA YOMAYRA ALEXANDRA</t>
@@ -1337,7 +1337,7 @@
     <t>yomayra.cobena.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>/QOIffEC</t>
+    <t>6laqrSWx</t>
   </si>
   <si>
     <t>CRUZ ERAZO JOSE MIGUEL</t>
@@ -1346,7 +1346,7 @@
     <t>jose.cruz.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>zu4L0Ykd</t>
+    <t>qb7u2MqD</t>
   </si>
   <si>
     <t>GARCIA ANDRADE MARIA ROSA</t>
@@ -1355,7 +1355,7 @@
     <t>maria.garcia.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>RsSsZo1b</t>
+    <t>QvUTRCbS</t>
   </si>
   <si>
     <t>HERNANDEZ LOPEZ LUIS DAVID</t>
@@ -1364,7 +1364,7 @@
     <t>luis.hernandez.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>0Cyl5OBV</t>
+    <t>Ro09nspo</t>
   </si>
   <si>
     <t>LEON FUENTES JONATHAN ALBINO</t>
@@ -1376,7 +1376,7 @@
     <t>jonathan.leon.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>gzVNzk9g</t>
+    <t>Fmr!z5Uh</t>
   </si>
   <si>
     <t>MACIAS ANCHUNDIA ROBERTO CARLOS</t>
@@ -1385,7 +1385,7 @@
     <t>roberto.macias.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>#zEDaOPj</t>
+    <t>F/kavD2Q</t>
   </si>
   <si>
     <t>MAZA AGREDA KAREN IBETH</t>
@@ -1394,7 +1394,7 @@
     <t>karen.maza.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>gOT8UfB?</t>
+    <t>7Kf6GgZV</t>
   </si>
   <si>
     <t>MUÑOZ MERA LITZY ALEJANDRA</t>
@@ -1403,7 +1403,7 @@
     <t>litzy.munoz.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>eWQgCX7T</t>
+    <t>ElUyMj2k</t>
   </si>
   <si>
     <t>MUÑOZ MOLINA ANDRY FABIAN</t>
@@ -1412,7 +1412,7 @@
     <t>andry.munoz.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>xevNk1PS</t>
+    <t>RgWYWinH</t>
   </si>
   <si>
     <t>ORMAZA VALENCIA KEVIN JAVIER</t>
@@ -1424,7 +1424,7 @@
     <t>kevin.ormaza.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>HDYYJy!O</t>
+    <t>mF3K7yfX</t>
   </si>
   <si>
     <t>PAZMIÑO PINCAY NAYELLY AGUSTINA</t>
@@ -1433,7 +1433,7 @@
     <t>nayelly.pazmino.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>?vYdtEQs</t>
+    <t>bXl0IxHw</t>
   </si>
   <si>
     <t>POZO PONCE DANNY IVAN</t>
@@ -1442,7 +1442,7 @@
     <t>danny.pozo@espam.edu.ec</t>
   </si>
   <si>
-    <t>gqWC5u5V</t>
+    <t>NPXaNQZL</t>
   </si>
   <si>
     <t>QUIJANO MEZA MARIANA LISETH</t>
@@ -1451,7 +1451,7 @@
     <t>mariana.quijano.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>I6ScEhuh</t>
+    <t>9nEWXsLE</t>
   </si>
   <si>
     <t>QUIÑONEZ AÑAPA RODRIGO MANUEL</t>
@@ -1463,7 +1463,7 @@
     <t>rodrigo.quinonez.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>9h57h#?3</t>
+    <t>7anHMo&amp;7</t>
   </si>
   <si>
     <t>SANTOS ALCIVAR KELVIN YOEL</t>
@@ -1472,7 +1472,7 @@
     <t>kelvin.santos.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>qqvG/#Tw</t>
+    <t>?HBB!HG/</t>
   </si>
   <si>
     <t>SOLORZANO RODRIGUEZ SANDY</t>
@@ -1481,7 +1481,7 @@
     <t>sandy.solorzano.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>Xq3qiCwF</t>
+    <t>3OC#VPAj</t>
   </si>
   <si>
     <t>TOALA PIN ARIEL ALEJANDRO</t>
@@ -1493,7 +1493,7 @@
     <t>ariel.toala.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>M47thGE?</t>
+    <t>?1vnCs6w</t>
   </si>
   <si>
     <t>VEGA INTRIAGO MIGUEL ANGEL</t>
@@ -1502,7 +1502,7 @@
     <t>miguel.vega.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>NNmSnwP#</t>
+    <t>v4/#Zd5?</t>
   </si>
   <si>
     <t>VELASQUEZ RODRIGUEZ GEMA BELEN</t>
@@ -1511,7 +1511,7 @@
     <t>gema.velasquez.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>hZGCayfv</t>
+    <t>#Hd2Ir?r</t>
   </si>
   <si>
     <t>VERA MENDOZA MARIA VICTORIA</t>
@@ -1520,7 +1520,7 @@
     <t>maria.veram.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>bzQSJpn3</t>
+    <t>WXGcMCEv</t>
   </si>
   <si>
     <t>VERA PALACIOS JORDANO SAUL</t>
@@ -1529,7 +1529,7 @@
     <t>jordano.vera.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>7goU/dcd</t>
+    <t>cXErDe4#</t>
   </si>
   <si>
     <t>ZAMBRANO MERA VALENTINA MONSERRATE</t>
@@ -1538,7 +1538,7 @@
     <t>valentina.zambrano.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>NLn9oF4x</t>
+    <t>9#mRPAX1</t>
   </si>
   <si>
     <t>ZAMBRANO QUIMI JUAN GEORGE</t>
@@ -1550,7 +1550,7 @@
     <t>juan.zambrano.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>j9U83xSb</t>
+    <t>xB0Hlhhd</t>
   </si>
   <si>
     <t>ALCIVAR ZAMBRANO GEOMAYRA KATHERINE</t>
@@ -1562,7 +1562,7 @@
     <t>geomayra.alcivar.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>SiHgbcu0</t>
+    <t>pCwNte4K</t>
   </si>
   <si>
     <t>ANDRADE CASTILLO CLAUDIA VICTORIA</t>
@@ -1571,7 +1571,7 @@
     <t>claudia.andrade.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>5gZvx!Ul</t>
+    <t>0auej0?o</t>
   </si>
   <si>
     <t>ANGUISACA CUENCA ALEXANDRA CECIBEL</t>
@@ -1580,7 +1580,7 @@
     <t>alexandra.anguisaca.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>zPZeYrk&amp;</t>
+    <t>rO0nN7qs</t>
   </si>
   <si>
     <t>BARIAS GUARACA LESLY NAYHELY</t>
@@ -1589,7 +1589,7 @@
     <t>lesly.barias.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>#dCFCr!i</t>
+    <t>t9C?h02!</t>
   </si>
   <si>
     <t>BARROS VERA ANGEL DAVID</t>
@@ -1598,7 +1598,7 @@
     <t>angel.barros.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>7jKFX2jG</t>
+    <t>BgYk0G2t</t>
   </si>
   <si>
     <t>BAZURTO SANTOS KENNIA KATHERINE</t>
@@ -1607,7 +1607,7 @@
     <t>kennia.bazurto.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>jLXq?ie7</t>
+    <t>CzwnARIR</t>
   </si>
   <si>
     <t>BRAVO BAZURTO GISSELA MARIA</t>
@@ -1616,7 +1616,7 @@
     <t>gissela.bravo.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>VruPBqQi</t>
+    <t>Xorfo6WF</t>
   </si>
   <si>
     <t>BUSTAMANTE YANEZ ANTHONY MICHEL</t>
@@ -1625,7 +1625,7 @@
     <t>anthony.bustamante.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>YK5wzt6W</t>
+    <t>aWZDKUQQ</t>
   </si>
   <si>
     <t>CASTRO SOLORZANO NIURKA JULIANA</t>
@@ -1634,7 +1634,7 @@
     <t>niurka.castro.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>#CnjrWR?</t>
+    <t>G?rcj#&amp;W</t>
   </si>
   <si>
     <t>CEDEÑO CEDEÑO YOHANA VANESA</t>
@@ -1643,7 +1643,7 @@
     <t>yohana.cedeno.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>4LytNY0H</t>
+    <t>Pc1BXj7h</t>
   </si>
   <si>
     <t>CEDEÑO INTRIAGO JEAN PIERRE</t>
@@ -1652,7 +1652,7 @@
     <t>jean.cedeno@espam.edu.ec</t>
   </si>
   <si>
-    <t>BlBSDz#V</t>
+    <t>d!ZBjWeO</t>
   </si>
   <si>
     <t>DELGADO CEVALLOS MARIA JOSE</t>
@@ -1661,7 +1661,7 @@
     <t>maria.delgado.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>NYLW&amp;QAR</t>
+    <t>6Ws3J5ZN</t>
   </si>
   <si>
     <t>ERAZO MORALES GABRIELA ALEJANDRA</t>
@@ -1670,7 +1670,7 @@
     <t>gabriela.erazo.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>kOcZflVN</t>
+    <t>SloKiA2S</t>
   </si>
   <si>
     <t>INTRIAGO ZAMBRANO LUIS JOSE</t>
@@ -1679,7 +1679,7 @@
     <t>luis.intriagoz.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>zGMrE1Bg</t>
+    <t>Vhbnf1qB</t>
   </si>
   <si>
     <t>LOOR ORTIZ YORDY DAVID</t>
@@ -1688,7 +1688,7 @@
     <t>yordy.loor.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>4jyk!52A</t>
+    <t>K63LE&amp;QK</t>
   </si>
   <si>
     <t>LOZANO GAMEZ THALIA VANESSA</t>
@@ -1700,7 +1700,7 @@
     <t>thalia.lozano.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>&amp;y&amp;joTHb</t>
+    <t>AxwwOCEH</t>
   </si>
   <si>
     <t>MONTES RODRIGUEZ ROLANDO ANTONIO</t>
@@ -1709,7 +1709,7 @@
     <t>rolando.montes.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>ZVFBTCM1</t>
+    <t>pNpWTEYN</t>
   </si>
   <si>
     <t>PALMA RENDON ARGENIS ARTURO</t>
@@ -1718,7 +1718,7 @@
     <t>argenis.palma@espam.edu.ec</t>
   </si>
   <si>
-    <t>Zg3J1cKh</t>
+    <t>C6x2/koL</t>
   </si>
   <si>
     <t>PAREDES YUMBILLO KATTY MARGOTH</t>
@@ -1730,7 +1730,7 @@
     <t>katty.paredes.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>LtEezp/B</t>
+    <t>x4YQd0Ko</t>
   </si>
   <si>
     <t>PARRALES DELGADO ALAN SEBASTIAN</t>
@@ -1739,7 +1739,7 @@
     <t>alan.parrales.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>FRpar#sD</t>
+    <t>L9Htk?Ta</t>
   </si>
   <si>
     <t>PATA CEDEÑO ROSA JUANA</t>
@@ -1751,7 +1751,7 @@
     <t>rosa.pata.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>SnbdlKv!</t>
+    <t>r7KguM9G</t>
   </si>
   <si>
     <t>RETETE BASARAN KEVIN ALEXANDER</t>
@@ -1760,7 +1760,7 @@
     <t>kevin.retete.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>qxP9av7H</t>
+    <t>LK6/&amp;YUz</t>
   </si>
   <si>
     <t>ROMAN MACIAS ESTEFANIA ISABEL</t>
@@ -1769,7 +1769,7 @@
     <t>estefania.roman.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>ZBNg2UcQ</t>
+    <t>dJXVPLAm</t>
   </si>
   <si>
     <t>SANDOVAL UREÑA FERNANDA DAYANARA</t>
@@ -1781,7 +1781,7 @@
     <t>fernanda.sandoval.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>AH3A5Myg</t>
+    <t>9Te5kmPg</t>
   </si>
   <si>
     <t>SUBIAGA RAMOS LUIS ALEJANDRO</t>
@@ -1790,7 +1790,7 @@
     <t>luis.subiaga.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>sCr6Lkos</t>
+    <t>hfZIfqgy</t>
   </si>
   <si>
     <t>VELASQUEZ AVEIGA MARIA JESUS</t>
@@ -1799,7 +1799,7 @@
     <t>maria.velasquez.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>Ver6#Oar</t>
+    <t>VQ#TZYPq</t>
   </si>
   <si>
     <t>VELEZ CHEME JORDAN ESTEBAN</t>
@@ -1811,7 +1811,7 @@
     <t>jordan.velez.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>mscAy/Nf</t>
+    <t>?U0zdJ!k</t>
   </si>
   <si>
     <t>VELEZ MENDOZA DARWIN ALEXIS</t>
@@ -1820,7 +1820,7 @@
     <t>darwin.velez.4623@espam.edu.ec</t>
   </si>
   <si>
-    <t>is3LdnhY</t>
+    <t>m3N!6k?D</t>
   </si>
   <si>
     <t>VERA BARRE RONNY ARISTIDES</t>
@@ -1829,7 +1829,7 @@
     <t>ronny.vera.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>nQdUNZxa</t>
+    <t>a5OnrdF#</t>
   </si>
   <si>
     <t>ZAMBRANO MACIAS DIEGO ANDRES</t>
@@ -1838,7 +1838,7 @@
     <t>diego.zambrano.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>zZpkh/P3</t>
+    <t>AiXjFzux</t>
   </si>
   <si>
     <t>ZAMBRANO REYNA YERSY ENRIQUE</t>
@@ -1847,7 +1847,7 @@
     <t>yersy.zambrano.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>UD3FbH8a</t>
+    <t>xU13uVju</t>
   </si>
   <si>
     <t>CARDENAS MIELES CRISTHYAN ALBERTO</t>
@@ -1856,7 +1856,7 @@
     <t>cristhyan.cardenas.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>pIUe/lKo</t>
+    <t>iwQ&amp;8#Ff</t>
   </si>
   <si>
     <t>CASTRO CARRERA JUAN CARLOS</t>
@@ -1865,7 +1865,7 @@
     <t>juan.castro.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>oy02Shii</t>
+    <t>5saL254o</t>
   </si>
   <si>
     <t>CHAVEZ MIRANDA ANTHONY MIGUEL</t>
@@ -1874,7 +1874,7 @@
     <t>anthony.chavez@espam.edu.ec</t>
   </si>
   <si>
-    <t>VX7QaY#3</t>
+    <t>evvjCfoa</t>
   </si>
   <si>
     <t>CUSME ZAMBRANO MICHAEL RICHARD</t>
@@ -1883,7 +1883,7 @@
     <t>michael.cusme.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>Hv/2jFkL</t>
+    <t>mBjBzLOh</t>
   </si>
   <si>
     <t>GILER SALAZAR CARLOS IGNACIO</t>
@@ -1892,7 +1892,7 @@
     <t>carlos.giler@espam.edu.ec</t>
   </si>
   <si>
-    <t>m6R3PyHU</t>
+    <t>FVK85bXf</t>
   </si>
   <si>
     <t>HERNANDEZ DIAZ MARIA JOSE</t>
@@ -1904,7 +1904,7 @@
     <t>maria.hernandez.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>cfG#d!OI</t>
+    <t>TOCUHgds</t>
   </si>
   <si>
     <t>HIDALGO MOREIRA ESTELA NATHALY</t>
@@ -1913,7 +1913,7 @@
     <t>estela.hidalgo.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>rt!Wdx/D</t>
+    <t>wjmTfoze</t>
   </si>
   <si>
     <t>HIDALGO MOREIRA PIERINA NATHALY</t>
@@ -1922,7 +1922,7 @@
     <t>pierina.hidalgo.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>aVbupdWx</t>
+    <t>PVKnm&amp;hZ</t>
   </si>
   <si>
     <t>LARA QUIJIJE PAMELA JULISSA</t>
@@ -1931,7 +1931,7 @@
     <t>pamela.lara.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>iM4QQETf</t>
+    <t>G#ITUn8r</t>
   </si>
   <si>
     <t>LOOR PITIZACA FRANK ALLAN</t>
@@ -1940,7 +1940,7 @@
     <t>frank.loor.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>zS8QoRdJ</t>
+    <t>qMFwc6rB</t>
   </si>
   <si>
     <t>LOOR ZAMBRANO GEMA STEFANIA</t>
@@ -1949,7 +1949,7 @@
     <t>gema.loor.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>0IPCpF3h</t>
+    <t>wmMRYh4X</t>
   </si>
   <si>
     <t>PALACIOS TAPIA CESAR XAVIER</t>
@@ -1958,7 +1958,7 @@
     <t>cesar.palacios.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>a9o7PHkS</t>
+    <t>35rF!0zP</t>
   </si>
   <si>
     <t>PEÑARRETA LANCHE PILAR MICAELA</t>
@@ -1967,7 +1967,7 @@
     <t>pilar.penarreta.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>XorOLir#</t>
+    <t>OUsNr6pn</t>
   </si>
   <si>
     <t>PILLASAGUA PINARGOTE INGRID MAYERLI</t>
@@ -1979,7 +1979,7 @@
     <t>ingrid.pillasagua.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>AU#/kRPy</t>
+    <t>z/byt9vU</t>
   </si>
   <si>
     <t>QUIJIJE CEDEÑO GEMA LISBETH</t>
@@ -1988,7 +1988,7 @@
     <t>gema.quijije.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>LAdrC&amp;3Y</t>
+    <t>qbBSncRL</t>
   </si>
   <si>
     <t>RUIZ ZAMBRANO VICTOR ANDRES</t>
@@ -1997,7 +1997,7 @@
     <t>victor.ruiz.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>lX9ubDVP</t>
+    <t>PEpZ61qZ</t>
   </si>
   <si>
     <t>SALTOS SALAZAR MAYERLY VERONICA</t>
@@ -2009,7 +2009,7 @@
     <t>mayerly.saltos.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>D0yJAqAa</t>
+    <t>F8tELRzL</t>
   </si>
   <si>
     <t>SANTANA PALOMINO FRANKLIN JOHAO</t>
@@ -2018,7 +2018,7 @@
     <t>franklin.santana.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>qnbr7W5O</t>
+    <t>OZL5aUm7</t>
   </si>
   <si>
     <t>TAFFUR TOASA OLGA MARIA</t>
@@ -2027,7 +2027,7 @@
     <t>olga.taffur@espam.edu.ec</t>
   </si>
   <si>
-    <t>bk7?E#Sr</t>
+    <t>VT8hDRhu</t>
   </si>
   <si>
     <t>TOALA MACAY JOSSELYN VALERIA</t>
@@ -2036,7 +2036,7 @@
     <t>josselyn.toala.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>e9jFPmB5</t>
+    <t>96NxzU&amp;z</t>
   </si>
   <si>
     <t>VALLADARES ALCIVAR LUIS EDUARDO</t>
@@ -2045,7 +2045,7 @@
     <t>luis.valladares@espam.edu.ec</t>
   </si>
   <si>
-    <t>Z/BvVuPR</t>
+    <t>iO98ffMj</t>
   </si>
   <si>
     <t>VERA ZAMBRANO HILTER JOSSBEL</t>
@@ -2054,7 +2054,7 @@
     <t>hilter.vera.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>B/Nd4Ze3</t>
+    <t>WeW/QVwL</t>
   </si>
   <si>
     <t>VERGARA TABOADA ROMEL ALEXANDER</t>
@@ -2063,7 +2063,7 @@
     <t>romel.vergara@espam.edu.ec</t>
   </si>
   <si>
-    <t>M#/FCAaS</t>
+    <t>q6U?V#DP</t>
   </si>
   <si>
     <t>ZAMBRANO RIVAS NALLELY LISBETH</t>
@@ -2072,7 +2072,7 @@
     <t>nallely.zambrano.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>5&amp;f?UyPS</t>
+    <t>kIjxHELX</t>
   </si>
   <si>
     <t>ABAD MIRANDA KENYA ESTEFANIA</t>
@@ -2084,7 +2084,7 @@
     <t>kenya.abad.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>od&amp;U//29</t>
+    <t>E#CzD#JM</t>
   </si>
   <si>
     <t>ALAVA MORENO MILTON ANTERO</t>
@@ -2093,7 +2093,7 @@
     <t>milton.alava@espam.edu.ec</t>
   </si>
   <si>
-    <t>O482iAbg</t>
+    <t>iYWfYScw</t>
   </si>
   <si>
     <t>ALMEIDA CEDEÑO CINDY BELEN</t>
@@ -2102,7 +2102,7 @@
     <t>cindy.almeida.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>oP/Rx&amp;#7</t>
+    <t>2XNhoV8C</t>
   </si>
   <si>
     <t>ANCHUNDIA VERA JUSTIN JOSE</t>
@@ -2111,7 +2111,7 @@
     <t>justin.anchundia.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>L3fZq8t#</t>
+    <t>eD5849I0</t>
   </si>
   <si>
     <t>AYONG PALADINES MARIA FERNANDA</t>
@@ -2120,7 +2120,7 @@
     <t>maria.ayong.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>SAd5ayG&amp;</t>
+    <t>yVW9RjQv</t>
   </si>
   <si>
     <t>BRAVO CEVALLOS MELANY PIERINA</t>
@@ -2129,7 +2129,7 @@
     <t>melany.bravo.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>BTyI!dVq</t>
+    <t>?MBp0!0O</t>
   </si>
   <si>
     <t>CASANOVA SALAZAR ROSEMBERG STEVEN</t>
@@ -2138,7 +2138,7 @@
     <t>rosemberg.casanova@espam.edu.ec</t>
   </si>
   <si>
-    <t>2NO3GBSf</t>
+    <t>vkB65pTE</t>
   </si>
   <si>
     <t>FERNANDEZ TORRES JALENI SCARLETH</t>
@@ -2150,7 +2150,7 @@
     <t>jaleni.fernandez.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>n?bWbSDI</t>
+    <t>3PXLBcM5</t>
   </si>
   <si>
     <t>HERRERA SABANDO WILLIAMS ANDRES</t>
@@ -2159,7 +2159,7 @@
     <t>williams.herrera.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>cKLJQTEF</t>
+    <t>QmUb5UCy</t>
   </si>
   <si>
     <t>LOPEZ PALADINES EDGAR JOSE</t>
@@ -2168,7 +2168,7 @@
     <t>edgar.lopez.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>4sLjz?DZ</t>
+    <t>GjUc8?&amp;x</t>
   </si>
   <si>
     <t>MEDRANDA GONZALES LINCI YERLEY</t>
@@ -2177,7 +2177,7 @@
     <t>linci.medranda.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>eTTgZpFe</t>
+    <t>RHvLFcjP</t>
   </si>
   <si>
     <t>MENDIETA GILER JORDY EDUARDO</t>
@@ -2186,7 +2186,7 @@
     <t>jordy.mendieta.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>8!PMMUuQ</t>
+    <t>wixBXlz5</t>
   </si>
   <si>
     <t>MORENO VELIZ ALDRIN DAIRY</t>
@@ -2195,7 +2195,7 @@
     <t>aldrin.moreno.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>y4B0k/UW</t>
+    <t>Gt2nL6oy</t>
   </si>
   <si>
     <t>MUÑOZ VERA GENESIS LOURDES</t>
@@ -2204,7 +2204,7 @@
     <t>genesis.munoz.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>y!olrLgf</t>
+    <t>f2uefSKX</t>
   </si>
   <si>
     <t>PLAZA CHOEZ RODOLFO JEAMPIERRE</t>
@@ -2213,7 +2213,7 @@
     <t>rodolfo.plaza.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>4ODGDEAN</t>
+    <t>7xL3zm1t</t>
   </si>
   <si>
     <t>PRECIADO MOREIRA PABLO ANTHONY</t>
@@ -2225,7 +2225,7 @@
     <t>pablo.preciado@espam.edu.ec</t>
   </si>
   <si>
-    <t>Bh11Uusc</t>
+    <t>BtIKqSO2</t>
   </si>
   <si>
     <t>SABANDO SALCEDO GENESIS BETZABETH</t>
@@ -2237,7 +2237,7 @@
     <t>genesis.sabando.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>#JAI2ms/</t>
+    <t>YoU49tDr</t>
   </si>
   <si>
     <t>SOLEDISPA ZAMBRANO CRISTHINA ISABELA</t>
@@ -2246,7 +2246,7 @@
     <t>cristhina.soledispa.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>gZUYXb?x</t>
+    <t>aFKUGgJa</t>
   </si>
   <si>
     <t>SOLORZANO RODRIGUEZ EVELYN AGUSTINA</t>
@@ -2255,7 +2255,7 @@
     <t>evelyn.solorzanor@espam.edu.ec</t>
   </si>
   <si>
-    <t>H8?9?XsE</t>
+    <t>kl&amp;HpR2Z</t>
   </si>
   <si>
     <t>VERA AGUAS KELVIN JEAN PIERRE</t>
@@ -2264,7 +2264,7 @@
     <t>kelvin.vera@espam.edu.ec</t>
   </si>
   <si>
-    <t>/!hA9yQH</t>
+    <t>Xe&amp;ZX/mp</t>
   </si>
   <si>
     <t>VERA LOOR DENYS ESTEFANIA</t>
@@ -2273,7 +2273,7 @@
     <t>denys.vera.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>LABflxtF</t>
+    <t>dmHQS!Aw</t>
   </si>
   <si>
     <t>VINCES PIN MARIA FERNANDA</t>
@@ -2282,7 +2282,7 @@
     <t>maria.vinces.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>i77qFB!F</t>
+    <t>Kw8EkzNY</t>
   </si>
   <si>
     <t>ZAMBRANO ZAMBRANO MARIA BELEN</t>
@@ -2291,7 +2291,7 @@
     <t>mariab.zambranoz.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>G6QXD1GN</t>
+    <t>s6fNU4WJ</t>
   </si>
   <si>
     <t>ALCIVAR ZAMBRANO DIANA ESTHER</t>
@@ -2300,7 +2300,7 @@
     <t>diana.alcivar.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>g8/vpDPv</t>
+    <t>4hL4Geoe</t>
   </si>
   <si>
     <t>ALVAREZ BORJA ANGHELO JOSUE</t>
@@ -2309,7 +2309,7 @@
     <t>anghelo.alvarez.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>hEMyaGsH</t>
+    <t>zL3epaZP</t>
   </si>
   <si>
     <t>BRAVO MENDOZA ALBERDY JAVIER</t>
@@ -2318,7 +2318,7 @@
     <t>alberdy.bravo@espam.edu.ec</t>
   </si>
   <si>
-    <t>2KEGPqHT</t>
+    <t>d#ZxFqDm</t>
   </si>
   <si>
     <t>GARCIA PARRAGA FATIMA MARIA</t>
@@ -2327,7 +2327,7 @@
     <t>fatima.garcia.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>!YPjbnis</t>
+    <t>LE1SkK6?</t>
   </si>
   <si>
     <t>GRACIA PRATT WILINTON JOSUE</t>
@@ -2339,7 +2339,7 @@
     <t>wilinton.gracia.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>IhX64&amp;v!</t>
+    <t>ubRgebM2</t>
   </si>
   <si>
     <t>MARRETT BEDOYA MISHELLE MARCELA</t>
@@ -2351,7 +2351,7 @@
     <t>mishelle.marrett.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>fUzUTrRs</t>
+    <t>FZPHGdQW</t>
   </si>
   <si>
     <t>MERA CASTILLO NATHALY VIRGINIA</t>
@@ -2360,7 +2360,7 @@
     <t>nathaly.mera.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>jQU3t!!g</t>
+    <t>TmO6jmg7</t>
   </si>
   <si>
     <t>ROSERO VERA LUIS ANDRES</t>
@@ -2369,7 +2369,7 @@
     <t>luis.rosero@espam.edu.ec</t>
   </si>
   <si>
-    <t>Cf4nvDfI</t>
+    <t>BwPmABgj</t>
   </si>
   <si>
     <t>SANTISTEBAN BENAVIDES JOSUE ROMARIO</t>
@@ -2378,7 +2378,7 @@
     <t>josue.santisteban.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>f?kSmk&amp;s</t>
+    <t>regWFeFw</t>
   </si>
   <si>
     <t>SOLORZANO CUSME GEMA JULIANA</t>
@@ -2387,7 +2387,7 @@
     <t>gemaju.solorzano@espam.edu.ec</t>
   </si>
   <si>
-    <t>k5hR1m7X</t>
+    <t>b1ResXa0</t>
   </si>
   <si>
     <t>TORRES PINARGOTE MAHOLY</t>
@@ -2396,7 +2396,7 @@
     <t>maholy.torres.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>P&amp;nZ6xlE</t>
+    <t>NVLB&amp;Tg6</t>
   </si>
   <si>
     <t>ZAMBRANO BRAVO LEANDRO ISMAEL</t>
@@ -2405,7 +2405,7 @@
     <t>leandro.zambrano.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>JoTHS!fB</t>
+    <t>zhfkbBSZ</t>
   </si>
   <si>
     <t>ZAMBRANO GARCIA HENRY ARTURO</t>
@@ -2414,7 +2414,7 @@
     <t>henry.zambrano.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>zOPH/rcV</t>
+    <t>KGT4NYKG</t>
   </si>
   <si>
     <t>BARRE PARRAGA BETSY BEATRIZ</t>
@@ -2423,7 +2423,7 @@
     <t>betsy.barre.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>CjKitjTX</t>
+    <t>F3D9T2TE</t>
   </si>
   <si>
     <t>CEDEÑO CEDEÑO CAMILA PATRICIA</t>
@@ -2435,7 +2435,7 @@
     <t>camila.cedeno.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>MjNTVHyC</t>
+    <t>7m#YgoOm</t>
   </si>
   <si>
     <t>CEDEÑO SOLORZANO ANTHONY STEVEN</t>
@@ -2444,7 +2444,7 @@
     <t>anthony.cedenos.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>aWUs/tzH</t>
+    <t>?vUGNWL1</t>
   </si>
   <si>
     <t>CEDEÑO TUAREZ ANGIE LISSETTE</t>
@@ -2453,7 +2453,7 @@
     <t>angie.cedeno@espam.edu.ec</t>
   </si>
   <si>
-    <t>4iHPZpXC</t>
+    <t>Br39Upj1</t>
   </si>
   <si>
     <t>CHAVEZ LANDAZURI JACKSON JAIR</t>
@@ -2465,7 +2465,7 @@
     <t>jackson.chavez.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>H?FJJIBo</t>
+    <t>Q&amp;KYdBmy</t>
   </si>
   <si>
     <t>CHICA MOREIRA MARIA FERNANDA</t>
@@ -2474,7 +2474,7 @@
     <t>maria.chica.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>Ge#zUWcb</t>
+    <t>6ksP0/&amp;N</t>
   </si>
   <si>
     <t>GARCIA ZAMBRANO WENDY YAMILETH</t>
@@ -2483,7 +2483,7 @@
     <t>wendy.garcia.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>!hFmImb0</t>
+    <t>S&amp;Zg2ou5</t>
   </si>
   <si>
     <t>GARZON CEDEÑO FRANCESCO RUBEN</t>
@@ -2492,7 +2492,7 @@
     <t>francesco.garzon.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>?8U9xLVd</t>
+    <t>ODXj&amp;CqK</t>
   </si>
   <si>
     <t>GUERRERO CEDEÑO MICHAEL JORDY</t>
@@ -2501,7 +2501,7 @@
     <t>michael.guerrero.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>w7BhpD#I</t>
+    <t>/2sXXCnj</t>
   </si>
   <si>
     <t>MEDRANDA GONZALES CRISTHIAN JOSE</t>
@@ -2510,7 +2510,7 @@
     <t>cristhian.medranda@espam.edu.ec</t>
   </si>
   <si>
-    <t>Yp/Br3kj</t>
+    <t>lTG/UkIM</t>
   </si>
   <si>
     <t>ORELLANA ANCHUNDIA JESUS MIGUEL</t>
@@ -2519,7 +2519,7 @@
     <t>jesus.orellana@espam.edu.ec</t>
   </si>
   <si>
-    <t>pl1QiC?#</t>
+    <t>JLYeCsTr</t>
   </si>
   <si>
     <t>ORTIZ GOMEZ EDUARDO ANDRES</t>
@@ -2528,7 +2528,7 @@
     <t>eduardo.ortiz@espam.edu.ec</t>
   </si>
   <si>
-    <t>bguzxf/L</t>
+    <t>A!NQMdOH</t>
   </si>
   <si>
     <t>PAZMIÑO MERA SHANDE ALEXANDER</t>
@@ -2537,7 +2537,7 @@
     <t>shande.pazmino.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>Ka19sQU9</t>
+    <t>G?i5g#XP</t>
   </si>
   <si>
     <t>PEÑARRIETA BAZURTO ERICK ANDRES</t>
@@ -2546,7 +2546,7 @@
     <t>erick.penarrieta@espam.edu.ec</t>
   </si>
   <si>
-    <t>UpudrhAn</t>
+    <t>aJwaL9e?</t>
   </si>
   <si>
     <t>RIERA GAVILANES IZHURY MILLENYTH</t>
@@ -2558,7 +2558,7 @@
     <t>izhury.riera.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>?dER3/Vt</t>
+    <t>#OnLQY!j</t>
   </si>
   <si>
     <t>RIVERA CEDEÑO RIVALDO JOSE</t>
@@ -2570,7 +2570,7 @@
     <t>rivaldo.rivera.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>j36JAp8G</t>
+    <t>W?PDQir&amp;</t>
   </si>
   <si>
     <t>SALDARRIAGA ARTEAGA OMAIRA MARIBI</t>
@@ -2579,7 +2579,7 @@
     <t>omaira.saldarriaga@espam.edu.ec</t>
   </si>
   <si>
-    <t>S11FR5L&amp;</t>
+    <t>1nl6WJu6</t>
   </si>
   <si>
     <t>SANDOVAL MERA NALLELY STEFANIA</t>
@@ -2588,7 +2588,7 @@
     <t>nallely.sandoval.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>eweBN?yp</t>
+    <t>OJmQWPzG</t>
   </si>
   <si>
     <t>SUQUI CANGO BRYAN EDUARDO</t>
@@ -2600,7 +2600,7 @@
     <t>bryan.suqui.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>dD!M5/Fi</t>
+    <t>eiClgw4u</t>
   </si>
   <si>
     <t>VERDUGA ZAMBRANO CARLOS ANDRES</t>
@@ -2609,7 +2609,7 @@
     <t>carlos.verduga.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>mN2gYKFz</t>
+    <t>/AOzC7LD</t>
   </si>
   <si>
     <t>ZAMBRANO LARA MARVIN RENE</t>
@@ -2618,7 +2618,7 @@
     <t>marvin.zambrano.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>hH22D2&amp;I</t>
+    <t>/Eb1I&amp;Gy</t>
   </si>
   <si>
     <t>ZAMBRANO OBANDO KELVIN JOSUE</t>
@@ -2630,7 +2630,7 @@
     <t>kelvin.zambrano.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>05HmGCf?</t>
+    <t>HEjKT?C1</t>
   </si>
   <si>
     <t>ZAPATA QUINCHE ANDREA CAROLINA</t>
@@ -2639,7 +2639,7 @@
     <t>andrea.zapata.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>iWBCr30Q</t>
+    <t>EkfVhqhb</t>
   </si>
   <si>
     <t>ALMEIDA PEREZ ANGEL FERNANDO</t>
@@ -2648,7 +2648,7 @@
     <t>angel.almeida@espam.edu.ec</t>
   </si>
   <si>
-    <t>ZlwnFOiQ</t>
+    <t>61YUGup9</t>
   </si>
   <si>
     <t>CEDEÑO PARRAGA MELANY NALLELY</t>
@@ -2657,7 +2657,7 @@
     <t>melany.cedeno.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>9XEv2utQ</t>
+    <t>XpYQypFq</t>
   </si>
   <si>
     <t>CEDEÑO SALVATIERRA JENIFFER ALEJANDRA</t>
@@ -2666,7 +2666,7 @@
     <t>jeniffer.cedenosal@espam.edu.ec</t>
   </si>
   <si>
-    <t>AAjInxPR</t>
+    <t>IMf?ci?r</t>
   </si>
   <si>
     <t>FERNANDEZ ARTEAGA SCHEZNARDA EDITH</t>
@@ -2675,7 +2675,7 @@
     <t>scheznarda.fernandez.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>oYIIV18r</t>
+    <t>J6ztbYP&amp;</t>
   </si>
   <si>
     <t>GANCHOZO VELEZ EMILY JULEXY</t>
@@ -2684,7 +2684,7 @@
     <t>emily.ganchozo.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>4OWqYa!R</t>
+    <t>uZCMeNVJ</t>
   </si>
   <si>
     <t>LEON VIZÑAY ROQUE JAVIER</t>
@@ -2696,7 +2696,7 @@
     <t>roque.leon@espam.edu.ec</t>
   </si>
   <si>
-    <t>up6OWxVu</t>
+    <t>sQ&amp;2uc24</t>
   </si>
   <si>
     <t>LOOR LOOR EVELYN YAMILETH</t>
@@ -2705,7 +2705,7 @@
     <t>evelynya.loor@espam.edu.ec</t>
   </si>
   <si>
-    <t>4HhN0ioB</t>
+    <t>xuXSEe&amp;o</t>
   </si>
   <si>
     <t>LOOR MOREIRA MELANIE NOEMI</t>
@@ -2714,7 +2714,7 @@
     <t>melanie.loorm.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>wJDEBXAw</t>
+    <t>jRAIAvCh</t>
   </si>
   <si>
     <t>LOPEZ ESTACIO ROSA ANGELICA</t>
@@ -2723,7 +2723,7 @@
     <t>rosa.lopez@espam.edu.ec</t>
   </si>
   <si>
-    <t>emytoXHH</t>
+    <t>HXJr4j5V</t>
   </si>
   <si>
     <t>MENDOZA MUÑOZ FLOR ANTONELA</t>
@@ -2732,7 +2732,7 @@
     <t>flor.mendoza.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>R!c7Rma?</t>
+    <t>ArMZwOO5</t>
   </si>
   <si>
     <t>MERELO SOLORZANO NAIDELYN MISHELLE</t>
@@ -2741,7 +2741,7 @@
     <t>naidelyn.merelo.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>!D2Vs4/E</t>
+    <t>0LnTCeaz</t>
   </si>
   <si>
     <t>MOREIRA LOOR FABIAN ALEXANDER</t>
@@ -2750,7 +2750,7 @@
     <t>fabian.moreira@espam.edu.ec</t>
   </si>
   <si>
-    <t>OrgE#Rhg</t>
+    <t>1jXM/3D/</t>
   </si>
   <si>
     <t>PAZMIÑO FALCONES JOSE MIGUEL</t>
@@ -2759,7 +2759,7 @@
     <t>jose.pazmino@espam.edu.ec</t>
   </si>
   <si>
-    <t>xcAT49qW</t>
+    <t>Qz8QJNC9</t>
   </si>
   <si>
     <t>PEÑAFIEL PITA BRITHANNY MICAELA</t>
@@ -2771,7 +2771,7 @@
     <t>brithanny.penafiel.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>o5/mSviL</t>
+    <t>JoB3#M/q</t>
   </si>
   <si>
     <t>PINTO PALACIOS JOSE ANTONIO</t>
@@ -2780,7 +2780,7 @@
     <t>jose.pinto@espam.edu.ec</t>
   </si>
   <si>
-    <t>HhL#ooeK</t>
+    <t>WTt6S7Qn</t>
   </si>
   <si>
     <t>RENTERIA VALENCIA NEURYS GYSSELA</t>
@@ -2792,7 +2792,7 @@
     <t>neurys.renteria@espam.edu.ec</t>
   </si>
   <si>
-    <t>1v/0Vezm</t>
+    <t>54zqP?DI</t>
   </si>
   <si>
     <t>RIVAS ZAMBRANO ALISSON KATIUSKA</t>
@@ -2801,7 +2801,7 @@
     <t>alisson.rivas.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>GCp7S!/l</t>
+    <t>DUXzbkU1</t>
   </si>
   <si>
     <t>TORRES VARGAS KARELIS ANDREINA</t>
@@ -2813,7 +2813,7 @@
     <t>karelis.torres@espam.edu.ec</t>
   </si>
   <si>
-    <t>E!wAH/FY</t>
+    <t>p5k#9&amp;xI</t>
   </si>
   <si>
     <t>VALDIVIESO CHUNG DANIEL JAFET</t>
@@ -2822,7 +2822,7 @@
     <t>daniel.valdivieso.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>!l4x6Rf5</t>
+    <t>to3jNLMf</t>
   </si>
   <si>
     <t>VASCONEZ GONZALEZ FRANCISCO ALESSIO</t>
@@ -2831,7 +2831,7 @@
     <t>francisco.vasconez.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>rpY98THv</t>
+    <t>RgR?QYuw</t>
   </si>
   <si>
     <t>VELEZ ORTEGA BORIS ANDRES</t>
@@ -2840,7 +2840,7 @@
     <t>boris.velez.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>JIE!SmFj</t>
+    <t>nLscSqCJ</t>
   </si>
   <si>
     <t>VERA ESTUPIÑAN BRYAN FRANCISCO</t>
@@ -2849,7 +2849,7 @@
     <t>bryan.vera@espam.edu.ec</t>
   </si>
   <si>
-    <t>R97cYGEF</t>
+    <t>&amp;T50yzq1</t>
   </si>
   <si>
     <t>VERA LOOR ARIANA PAOLA</t>
@@ -2858,7 +2858,7 @@
     <t>ariana.vera.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>boB635St</t>
+    <t>aqNi6qQ0</t>
   </si>
   <si>
     <t>ZAMBRANO VEGA AURA ARACELY</t>
@@ -2867,7 +2867,7 @@
     <t>aura.zambranov@espam.edu.ec</t>
   </si>
   <si>
-    <t>GttSYo&amp;L</t>
+    <t>v&amp;F1c8QN</t>
   </si>
   <si>
     <t>ALMEIDA ZAMBRANO HALINTONG VICENTE</t>
@@ -2876,7 +2876,7 @@
     <t>halintong.almeida@espam.edu.ec</t>
   </si>
   <si>
-    <t>3QaIh?V/</t>
+    <t>7fBOki/m</t>
   </si>
   <si>
     <t>AYALA VILLAFUERTE NAHOMY NAYELY</t>
@@ -2885,7 +2885,7 @@
     <t>nahomy.ayala@espam.edu.ec</t>
   </si>
   <si>
-    <t>CbpoWZqI</t>
+    <t>U5vqIeGU</t>
   </si>
   <si>
     <t>BASURTO CEDEÑO ITALO JORDANO</t>
@@ -2894,7 +2894,7 @@
     <t>italo.basurto.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>!V9OoUsl</t>
+    <t>GxZ7k2UE</t>
   </si>
   <si>
     <t>CASTRO TAIPE YERIK LEXANDER</t>
@@ -2903,7 +2903,7 @@
     <t>yerik.castro.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>dRFzLew4</t>
+    <t>Lkf!FT1D</t>
   </si>
   <si>
     <t>CEDEÑO GARCIA CARLOS PAUL</t>
@@ -2912,7 +2912,7 @@
     <t>carlos.cedeno.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>Jn544sSt</t>
+    <t>IK8OZVWV</t>
   </si>
   <si>
     <t>COBEÑA ZAMBRANO EDIS ARIEL</t>
@@ -2921,7 +2921,7 @@
     <t>edis.cobena@espam.edu.ec</t>
   </si>
   <si>
-    <t>tQgUFqTU</t>
+    <t>ECqYZRW4</t>
   </si>
   <si>
     <t>CORDOVA MUGUERZA ADRIANA NICOLLE</t>
@@ -2930,7 +2930,7 @@
     <t>adriana.muguersa.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>cHfQbwWn</t>
+    <t>VnBCIUl?</t>
   </si>
   <si>
     <t>COTERA PIN MAYERLY DAYANARA</t>
@@ -2939,7 +2939,7 @@
     <t>mayerly.cotera.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>eEzN&amp;8cc</t>
+    <t>0VW16gr&amp;</t>
   </si>
   <si>
     <t>CUENCA CUSME CECILIA ALEXANDRA</t>
@@ -2948,7 +2948,7 @@
     <t>cecilia.cuenca@espam.edu.ec</t>
   </si>
   <si>
-    <t>qiGm?koV</t>
+    <t>dxbTKWeS</t>
   </si>
   <si>
     <t>FERNANDEZ ARTEAGA ANGIE MISHELLE</t>
@@ -2957,7 +2957,7 @@
     <t>angie.fernandez.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>#C78r!IS</t>
+    <t>OwWtJWDI</t>
   </si>
   <si>
     <t>LATA QUINCHI SANDRA LOURDES</t>
@@ -2966,7 +2966,7 @@
     <t>sandra.lata.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>MXkNy#I6</t>
+    <t>MMHfc4B2</t>
   </si>
   <si>
     <t>MEJICANGO CALLE JAZMIN LISBETH</t>
@@ -2978,7 +2978,7 @@
     <t>jazmin.mejicango.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>L#D7xbTx</t>
+    <t>i7AA#CbX</t>
   </si>
   <si>
     <t>MENDOZA GANCHOZO DOMENICA NICOLE</t>
@@ -2987,7 +2987,7 @@
     <t>domenica.mendoza.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>na1C0f2Z</t>
+    <t>Pu45#sbR</t>
   </si>
   <si>
     <t>MOREIRA CEVALLOS NAYELY VANESSA</t>
@@ -2996,7 +2996,7 @@
     <t>nayely.moreira@espam.edu.ec</t>
   </si>
   <si>
-    <t>1FM9p6QA</t>
+    <t>PTID3!Qb</t>
   </si>
   <si>
     <t>MUÑOZ VERA MICHELLE VALENTINA</t>
@@ -3005,7 +3005,7 @@
     <t>michelle.munoz.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>?FPnrB?X</t>
+    <t>!aF#YV&amp;y</t>
   </si>
   <si>
     <t>OLMOS RIVERA CLEOPATRA STEFANIA</t>
@@ -3014,7 +3014,7 @@
     <t>cleopatra.olmos.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>H1XfcZOX</t>
+    <t>#UDEeIA7</t>
   </si>
   <si>
     <t>PAREDES RODRIGUEZ GIBELY JARLETH</t>
@@ -3026,7 +3026,7 @@
     <t>gibely.paredes.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>C&amp;pVFeZL</t>
+    <t>hFpDf2Zq</t>
   </si>
   <si>
     <t>PERUGACHI MECIAS GEOVANNY ALEJANDRO</t>
@@ -3035,7 +3035,7 @@
     <t>geovanny.perugachi.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>E6&amp;Z1Xxo</t>
+    <t>4#KftOgA</t>
   </si>
   <si>
     <t>PITA MACIAS RUBEN DARIO</t>
@@ -3044,7 +3044,7 @@
     <t>ruben.pita@espam.edu.ec</t>
   </si>
   <si>
-    <t>GF8T4ej8</t>
+    <t>MlPpMouo</t>
   </si>
   <si>
     <t>ROSADO QUIROZ JANDRY FABRICIO</t>
@@ -3053,7 +3053,7 @@
     <t>jandry.rosado.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>DaEhrUic</t>
+    <t>WqnZaO//</t>
   </si>
   <si>
     <t>SANCHEZ CHOEZ BERTHA DOLORES</t>
@@ -3062,7 +3062,7 @@
     <t>bertha.choez.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>A6F0?gQE</t>
+    <t>Y6qpzc6C</t>
   </si>
   <si>
     <t>VALENCIA MARCILLO JENIFFER KAROLINA</t>
@@ -3071,7 +3071,7 @@
     <t>jenifferk.valenciam@espam.edu.ec</t>
   </si>
   <si>
-    <t>mU&amp;tMbVk</t>
+    <t>qGepM&amp;MD</t>
   </si>
   <si>
     <t>VELASQUEZ GUADAMUD MARIO DAMIAN</t>
@@ -3080,7 +3080,7 @@
     <t>mario.velasquez@espam.edu.ec</t>
   </si>
   <si>
-    <t>/5KBJRsG</t>
+    <t>YBBJNR3Q</t>
   </si>
   <si>
     <t>VELEZ RIVAS JOFFRE GEOVANNY</t>
@@ -3089,7 +3089,7 @@
     <t>joffre.velez.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>NO9FmM7/</t>
+    <t>qsNTxlV0</t>
   </si>
   <si>
     <t>VELEZ ZAMBRANO GEMA BRIGITH</t>
@@ -3098,7 +3098,7 @@
     <t>gema.velez.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>xWP/?9MM</t>
+    <t>9jVA?OKh</t>
   </si>
   <si>
     <t>VERA CEVALLOS CARMEN GISSELLA</t>
@@ -3107,7 +3107,7 @@
     <t>carmen.vera@espam.edu.ec</t>
   </si>
   <si>
-    <t>WG!SB#OC</t>
+    <t>HqrV2!uI</t>
   </si>
   <si>
     <t>VERA SOLORZANO CARLOS NEPTALI</t>
@@ -3116,7 +3116,7 @@
     <t>carlos.veras@espam.edu.ec</t>
   </si>
   <si>
-    <t>GgF6FeB2</t>
+    <t>7zmdnYlF</t>
   </si>
   <si>
     <t>VERA VERA YUSTHYN YARLETH</t>
@@ -3125,7 +3125,7 @@
     <t>yusthyn.vera.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>I8b8teCq</t>
+    <t>b76b7Zud</t>
   </si>
   <si>
     <t>VIDAL SABANDO MARIA KATHERINE</t>
@@ -3134,7 +3134,7 @@
     <t>maria.vidal.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>YUbY&amp;avI</t>
+    <t>mMg/8w?!</t>
   </si>
   <si>
     <t>ZAMBRANO ALCIVAR EMILIO JOSE</t>
@@ -3143,7 +3143,7 @@
     <t>emilio.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>jRvEd7oH</t>
+    <t>7WCme8G&amp;</t>
   </si>
   <si>
     <t>ZAMBRANO AVEIGA MAYRA ALEXANDRA</t>
@@ -3152,7 +3152,7 @@
     <t>mayra.zambrano.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>9VhwyjKO</t>
+    <t>nTuHoE9z</t>
   </si>
   <si>
     <t>ZAMBRANO VERA MARIA BEATRIZ</t>
@@ -3161,7 +3161,7 @@
     <t>maria.zambrano.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>JZ4S48f/</t>
+    <t>1yjwcSOr</t>
   </si>
   <si>
     <t>ALCIVAR RODRIGUEZ STEFANY LISETH</t>
@@ -3170,7 +3170,7 @@
     <t>stefany.alcivar.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>R0F8GlKg</t>
+    <t>5pkfPnrg</t>
   </si>
   <si>
     <t>ANGULO GLENN YURANI MAGERLI</t>
@@ -3182,7 +3182,7 @@
     <t>yurani.angulo.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>sUCi74c5</t>
+    <t>jl6WNbe5</t>
   </si>
   <si>
     <t>ARTEAGA TRIVIÑO CAMILA</t>
@@ -3191,7 +3191,7 @@
     <t>camila.arteaga.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>HYTNBgTl</t>
+    <t>oym!#u4a</t>
   </si>
   <si>
     <t>BALDERRAMO CABRERA JOSE GERMAN</t>
@@ -3200,7 +3200,7 @@
     <t>jose.balderramo.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>HxhaECkU</t>
+    <t>lgt95jPD</t>
   </si>
   <si>
     <t>BRAVO MUÑOZ JEAN MYCKEL</t>
@@ -3209,7 +3209,7 @@
     <t>jean.bravomu@espam.edu.ec</t>
   </si>
   <si>
-    <t>O7vUHkTg</t>
+    <t>9eYbaZpa</t>
   </si>
   <si>
     <t>BRAVO SANTANA JUNIOR XAVIER</t>
@@ -3218,7 +3218,7 @@
     <t>juniorx.bravos@espam.edu.ec</t>
   </si>
   <si>
-    <t>Iz/AyD2!</t>
+    <t>HXpwUM9G</t>
   </si>
   <si>
     <t>CAGUA RODRIGUEZ NAYELY ANAHI</t>
@@ -3227,7 +3227,7 @@
     <t>nayely.cagua.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>EumfyNP5</t>
+    <t>YHKjk0C?</t>
   </si>
   <si>
     <t>CALDERON RODRIGUEZ FATIMA DANIELA</t>
@@ -3236,7 +3236,7 @@
     <t>fatima.calderon.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>?zgbCxp7</t>
+    <t>z#iCatzq</t>
   </si>
   <si>
     <t>CASTILLO MEJIA MARIA CARLOTA</t>
@@ -3245,7 +3245,7 @@
     <t>maria.castillo.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>Uze/7lL1</t>
+    <t>Qbit7SfJ</t>
   </si>
   <si>
     <t>CEDEÑO CUSME DAYANARA NARCISA</t>
@@ -3254,7 +3254,7 @@
     <t>dayanara.cedeno.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>IOHSxefj</t>
+    <t>z#NdZ#B5</t>
   </si>
   <si>
     <t>CELORIO VERA PETER PABLO</t>
@@ -3263,7 +3263,7 @@
     <t>peter.celorio.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>C4Z7dt26</t>
+    <t>S&amp;sP9QcY</t>
   </si>
   <si>
     <t>COOL MORENO DIANA ESTHEFANIA</t>
@@ -3272,7 +3272,7 @@
     <t>diana.cool@espam.edu.ec</t>
   </si>
   <si>
-    <t>MweTwTkm</t>
+    <t>xBNtYSww</t>
   </si>
   <si>
     <t>DELGADO GARZON PAOLA FERNANDA</t>
@@ -3281,7 +3281,7 @@
     <t>paola.delgadog.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>k05oH2SX</t>
+    <t>1LAz2XqV</t>
   </si>
   <si>
     <t>DOMINGUEZ DOMINGUEZ ROMINA MELISSA</t>
@@ -3290,7 +3290,7 @@
     <t>romina.dominguez@espam.edu.ec</t>
   </si>
   <si>
-    <t>70jyhhH!</t>
+    <t>rCZx1n&amp;y</t>
   </si>
   <si>
     <t>GARCIA MUÑOZ EDDY SANTIAGO</t>
@@ -3299,7 +3299,7 @@
     <t>eddy.garcia@espam.edu.ec</t>
   </si>
   <si>
-    <t>5PVuxsfa</t>
+    <t>dx6aBCmo</t>
   </si>
   <si>
     <t>GARCIA PONCE LEONELA ANTONELLA</t>
@@ -3308,7 +3308,7 @@
     <t>leonela.garcia.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>71vBOcEQ</t>
+    <t>HbbGw5K4</t>
   </si>
   <si>
     <t>LOPEZ SOLORZANO YIMMY</t>
@@ -3317,7 +3317,7 @@
     <t>yimmy.lopez@espam.edu.ec</t>
   </si>
   <si>
-    <t>TMJfRzNC</t>
+    <t>aP/J9PHX</t>
   </si>
   <si>
     <t>LOPEZ ZAMBRANO JORGE ISAAC</t>
@@ -3326,7 +3326,7 @@
     <t>jorge.lopez.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>OgH/1qwh</t>
+    <t>jg0&amp;Q8C7</t>
   </si>
   <si>
     <t>MACIAS GUAGUA MAGERLY THAIS</t>
@@ -3338,7 +3338,7 @@
     <t>magerly.macias.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>kwXBEJ&amp;&amp;</t>
+    <t>QhyFkHYq</t>
   </si>
   <si>
     <t>MARTINEZ SABANDO MARCELO EFRAIN</t>
@@ -3347,7 +3347,7 @@
     <t>marcelo.martinez@espam.edu.ec</t>
   </si>
   <si>
-    <t>lh18eA5P</t>
+    <t>F8n9DNyq</t>
   </si>
   <si>
     <t>MEDRANDA CEDEÑO IVAN ARTURO</t>
@@ -3356,7 +3356,7 @@
     <t>ivan.medranda@espam.edu.ec</t>
   </si>
   <si>
-    <t>lpgPT18?</t>
+    <t>Xk7axnnQ</t>
   </si>
   <si>
     <t>MENDOZA INTRIAGO KEYLA YAMIRA</t>
@@ -3365,7 +3365,7 @@
     <t>keyla.mendoza@espam.edu.ec</t>
   </si>
   <si>
-    <t>9ypr!ru?</t>
+    <t>Br0XKBs5</t>
   </si>
   <si>
     <t>MENDOZA LOOR MARIAGRACIA</t>
@@ -3374,7 +3374,7 @@
     <t>mariagracia.mendoza@espam.edu.ec</t>
   </si>
   <si>
-    <t>9/E9OPHw</t>
+    <t>8#v??ncm</t>
   </si>
   <si>
     <t>MOREIRA VELEZ ANGELICA LISBETH</t>
@@ -3383,7 +3383,7 @@
     <t>angelica.moreira@espam.edu.ec</t>
   </si>
   <si>
-    <t>NuBC9bwl</t>
+    <t>#IqjUl3Z</t>
   </si>
   <si>
     <t>PATA HERRERA ESTRELLA TATIANA</t>
@@ -3392,7 +3392,7 @@
     <t>estrella.pata.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>bM21!h?k</t>
+    <t>dkASLC#j</t>
   </si>
   <si>
     <t>PONCE MIRANDA YOEL ISAIAS</t>
@@ -3401,7 +3401,7 @@
     <t>yoel.ponce@espam.edu.ec</t>
   </si>
   <si>
-    <t>fXDdGuCo</t>
+    <t>UWgoko0N</t>
   </si>
   <si>
     <t>RIVAS ALARCON ALISSON MAYERLI</t>
@@ -3413,7 +3413,7 @@
     <t>alisson.rivas@espam.edu.ec</t>
   </si>
   <si>
-    <t>GFdm5BiC</t>
+    <t>reX/PFDz</t>
   </si>
   <si>
     <t>SABANDO VERA EMELY NOEMI</t>
@@ -3425,7 +3425,7 @@
     <t>emely.sabando.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>&amp;9nopWvV</t>
+    <t>HZ37SoJu</t>
   </si>
   <si>
     <t>VELASQUEZ ZAMBRANO JUAN DIEGO</t>
@@ -3434,7 +3434,7 @@
     <t>juan.velasquez@espam.edu.ec</t>
   </si>
   <si>
-    <t>c2sT&amp;Azf</t>
+    <t>wk?cJzHr</t>
   </si>
   <si>
     <t>ZAMBRANO MENDOZA JOSE LUIS</t>
@@ -3443,7 +3443,7 @@
     <t>jose.zambrano.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>xJbHa8Wb</t>
+    <t>DTyzhO!H</t>
   </si>
   <si>
     <t>ZAMBRANO PEREZ CARLOS JULIO</t>
@@ -3452,7 +3452,7 @@
     <t>carlos.zambranop@espam.edu.ec</t>
   </si>
   <si>
-    <t>HCx1tUVD</t>
+    <t>?7vWJivQ</t>
   </si>
   <si>
     <t>ACHIG GUALACATA EVELIN LISETTE</t>
@@ -3461,7 +3461,7 @@
     <t>evelin.achig@espam.edu.ec</t>
   </si>
   <si>
-    <t>a?XHNpUs</t>
+    <t>tB0mn&amp;6D</t>
   </si>
   <si>
     <t>AGUAS VERA JEICOL MIKE</t>
@@ -3470,7 +3470,7 @@
     <t>jeicol.aguas@espam.edu.ec</t>
   </si>
   <si>
-    <t>a3Zq81iv</t>
+    <t>tHb?!No?</t>
   </si>
   <si>
     <t>BRAVO BASURTO JUAN CARLOS</t>
@@ -3479,7 +3479,7 @@
     <t>juan.bravo@espam.edu.ec</t>
   </si>
   <si>
-    <t>b85vusY?</t>
+    <t>MTtjV/FJ</t>
   </si>
   <si>
     <t>CANTOS ZAMBRANO MARIA FERNANDA</t>
@@ -3488,7 +3488,7 @@
     <t>mariaf.cantos@espam.edu.ec</t>
   </si>
   <si>
-    <t>u62w2Kh!</t>
+    <t>1i/i9oY9</t>
   </si>
   <si>
     <t>CASTILLO DELGADO LERENY JAMILEX</t>
@@ -3497,7 +3497,7 @@
     <t>lereny.castillo@espam.edu.ec</t>
   </si>
   <si>
-    <t>F8Jb#!Fu</t>
+    <t>AK0hmL8W</t>
   </si>
   <si>
     <t>CASTILLO JACOME JHON JAIRO</t>
@@ -3506,7 +3506,7 @@
     <t>jhon.castillo@espam.edu.ec</t>
   </si>
   <si>
-    <t>NHJ8kBck</t>
+    <t>XAozBb7v</t>
   </si>
   <si>
     <t>CELORIO MENDOZA MIRIAN ALEJANDRA</t>
@@ -3515,7 +3515,7 @@
     <t>mirian.celorio@espam.edu.ec</t>
   </si>
   <si>
-    <t>Duw!iV4t</t>
+    <t>?/ROOCAq</t>
   </si>
   <si>
     <t>CHUMO CHAVEZ JANINA BELEN</t>
@@ -3524,7 +3524,7 @@
     <t>janina.chumo@espam.edu.ec</t>
   </si>
   <si>
-    <t>rm/pBWZ0</t>
+    <t>H58j8bXn</t>
   </si>
   <si>
     <t>DELGADO LOPEZ MERCEDES ELIZABETH</t>
@@ -3533,7 +3533,7 @@
     <t>mercedes.delgado@espam.edu.ec</t>
   </si>
   <si>
-    <t>0sFMcRja</t>
+    <t>vkgn&amp;qRC</t>
   </si>
   <si>
     <t>ESTEVES OLVERA DIANA MILENA</t>
@@ -3542,7 +3542,7 @@
     <t>diana.esteves@espam.edu.ec</t>
   </si>
   <si>
-    <t>d!jQOY2V</t>
+    <t>l9RnyNgf</t>
   </si>
   <si>
     <t>FALLAIN ZAMBRANO MARIA ANGELICA</t>
@@ -3551,7 +3551,7 @@
     <t>maria.fallain@espam.edu.ec</t>
   </si>
   <si>
-    <t>BYqTMN5D</t>
+    <t>ZWR7WVfN</t>
   </si>
   <si>
     <t>FERNANDEZ CEVALLOS FRANCISCO ESTUARDO</t>
@@ -3560,7 +3560,7 @@
     <t>francisco.fernandez@espam.edu.ec</t>
   </si>
   <si>
-    <t>S4j?V7db</t>
+    <t>UwpH9nVL</t>
   </si>
   <si>
     <t>HERNANDEZ HERNANDEZ MARIA ZULEMA</t>
@@ -3572,7 +3572,7 @@
     <t>maria.hernandez@espam.edu.ec</t>
   </si>
   <si>
-    <t>UagZW661</t>
+    <t>ujwv0ABJ</t>
   </si>
   <si>
     <t>INTRIAGO SOLORZANO LEYDI GABRIELA</t>
@@ -3581,7 +3581,7 @@
     <t>leydi.intriago@espam.edu.ec</t>
   </si>
   <si>
-    <t>fdOzMj9T</t>
+    <t>jGNs&amp;dBY</t>
   </si>
   <si>
     <t>MACIAS LOOR ELIAN RENE</t>
@@ -3590,7 +3590,7 @@
     <t>elian.macias@espam.edu.ec</t>
   </si>
   <si>
-    <t>D/saSX4?</t>
+    <t>AhQy9HrN</t>
   </si>
   <si>
     <t>MACIAS PISCO NACHY MONSERRAT</t>
@@ -3599,7 +3599,7 @@
     <t>nachy.macias@espam.edu.ec</t>
   </si>
   <si>
-    <t>m9mxlxQ4</t>
+    <t>9GzrMgPl</t>
   </si>
   <si>
     <t>MERA LOOR JONAYKER REYNALDO</t>
@@ -3608,7 +3608,7 @@
     <t>jonayker.mera@espam.edu.ec</t>
   </si>
   <si>
-    <t>U&amp;?s7BTZ</t>
+    <t>oDaM1BxB</t>
   </si>
   <si>
     <t>MOREIRA BASURTO YORDY JOEL</t>
@@ -3617,7 +3617,7 @@
     <t>yordy.moreira@espam.edu.ec</t>
   </si>
   <si>
-    <t>NhQj3fG5</t>
+    <t>vsBU/YTT</t>
   </si>
   <si>
     <t>MOREIRA MENDOZA MAGDALENA JAMILETH</t>
@@ -3626,7 +3626,7 @@
     <t>magdalena.moreira@espam.edu.ec</t>
   </si>
   <si>
-    <t>6KpN//LM</t>
+    <t>r/DoMSbn</t>
   </si>
   <si>
     <t>PANTUSIN MUGUERZA ANDREA LISSETH</t>
@@ -3635,7 +3635,7 @@
     <t>andrea.pantusin@espam.edu.ec</t>
   </si>
   <si>
-    <t>SUm&amp;Yb3f</t>
+    <t>5waf4Teo</t>
   </si>
   <si>
     <t>PATIÑO MEJIA MILENA ANAHI</t>
@@ -3644,7 +3644,7 @@
     <t>milena.patino@espam.edu.ec</t>
   </si>
   <si>
-    <t>7LAu6gE7</t>
+    <t>58qGVlJZ</t>
   </si>
   <si>
     <t>PICO GARCIA ALLISON JANELY</t>
@@ -3653,7 +3653,7 @@
     <t>allison.pico@espam.edu.ec</t>
   </si>
   <si>
-    <t>TC7RYO89</t>
+    <t>XS04w#aT</t>
   </si>
   <si>
     <t>POVEDA SANTANA ENZO JAVIER</t>
@@ -3665,7 +3665,7 @@
     <t>enzo.poveda@espam.edu.ec</t>
   </si>
   <si>
-    <t>IndJx0AA</t>
+    <t>?JtMrz!1</t>
   </si>
   <si>
     <t>QUIJIJE CEDEÑO NATALY SILVANA</t>
@@ -3674,7 +3674,7 @@
     <t>nataly.quijije@espam.edu.ec</t>
   </si>
   <si>
-    <t>NCBVcIr0</t>
+    <t>foz7uYbB</t>
   </si>
   <si>
     <t>ROBALINO DELGADO JORGE DAVID</t>
@@ -3683,7 +3683,7 @@
     <t>jorge.robalino@espam.edu.ec</t>
   </si>
   <si>
-    <t>Dz3XKoo7</t>
+    <t>c3TNk/pU</t>
   </si>
   <si>
     <t>SANCHEZ CASTILLO ADRIANA MICAELA</t>
@@ -3692,7 +3692,7 @@
     <t>adriana.sanchez@espam.edu.ec</t>
   </si>
   <si>
-    <t>AQdSwo2v</t>
+    <t>u0YvaFsS</t>
   </si>
   <si>
     <t>SOLORZANO ALAVA TAIRUN FRANCISCO</t>
@@ -3701,7 +3701,7 @@
     <t>tairun.solorzano@espam.edu.ec</t>
   </si>
   <si>
-    <t>TlZOZZlp</t>
+    <t>wvnrYhiK</t>
   </si>
   <si>
     <t>SOLORZANO BAILON MARIA GABRIELA</t>
@@ -3710,7 +3710,7 @@
     <t>mariaga.solorzano@espam.edu.ec</t>
   </si>
   <si>
-    <t>hPuijbvK</t>
+    <t>3d2as#MI</t>
   </si>
   <si>
     <t>TRUJILLO AGUAS MAYERLI DAYANA</t>
@@ -3719,7 +3719,7 @@
     <t>mayerli.trujillo@espam.edu.ec</t>
   </si>
   <si>
-    <t>a5awSt&amp;g</t>
+    <t>cO0bFXwX</t>
   </si>
   <si>
     <t>VERA VERA CINTHIA MARIA</t>
@@ -3728,7 +3728,7 @@
     <t>cinthia.verav@espam.edu.ec</t>
   </si>
   <si>
-    <t>EC9JQNAq</t>
+    <t>RDAuP/kH</t>
   </si>
   <si>
     <t>VIDAL INTRIAGO ANDY YOEL</t>
@@ -3737,7 +3737,7 @@
     <t>andy.vidal@espam.edu.ec</t>
   </si>
   <si>
-    <t>0DL9je!n</t>
+    <t>Xby2idhX</t>
   </si>
   <si>
     <t>VINTIMILLA PROAÑO MARIA DE LOURDES</t>
@@ -3746,7 +3746,7 @@
     <t>maria.vintimilla@espam.edu.ec</t>
   </si>
   <si>
-    <t>Te//LSZV</t>
+    <t>pubvSrc9</t>
   </si>
   <si>
     <t>VITERI SANTOS VINICIO ORLEY</t>
@@ -3755,7 +3755,7 @@
     <t>vinicio.viteri@espam.edu.ec</t>
   </si>
   <si>
-    <t>hpLXszVB</t>
+    <t>7Ef2efkf</t>
   </si>
   <si>
     <t>ZAMBRANO CANO FRANCISCO JAVIER</t>
@@ -3764,7 +3764,7 @@
     <t>francisco.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>DU4Zxhgr</t>
+    <t>FE1sNZXQ</t>
   </si>
   <si>
     <t>ZAMBRANO NAVARRETE ELBA MARIA</t>
@@ -3773,7 +3773,7 @@
     <t>elba.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>mv!HyINZ</t>
+    <t>WNmoID6v</t>
   </si>
   <si>
     <t>ZAMBRANO ZAMBRANO WENDY GISSELLA</t>
@@ -3782,7 +3782,7 @@
     <t>wendy.zambranoz@espam.edu.ec</t>
   </si>
   <si>
-    <t>SXijeScW</t>
+    <t>oT!Q8Ruf</t>
   </si>
   <si>
     <t>ARANA RUEDA ANGY LISSETH</t>
@@ -3794,7 +3794,7 @@
     <t>angy.arana@espam.edu.ec</t>
   </si>
   <si>
-    <t>NEWwkU&amp;N</t>
+    <t>u8JLDnCf</t>
   </si>
   <si>
     <t>ARTEAGA VARGAS ANDREA VALERIA</t>
@@ -3803,7 +3803,7 @@
     <t>andrea.arteaga@espam.edu.ec</t>
   </si>
   <si>
-    <t>w1qHTf#a</t>
+    <t>kMETlv#M</t>
   </si>
   <si>
     <t>BARBERAN SANCHEZ KARLA MICHELLE</t>
@@ -3812,7 +3812,7 @@
     <t>karla.barberan@espam.edu.ec</t>
   </si>
   <si>
-    <t>5OhQU#Bz</t>
+    <t>PHnq&amp;RLv</t>
   </si>
   <si>
     <t>BAZURTO MANZABA SORAYA STEFANIA</t>
@@ -3821,7 +3821,7 @@
     <t>soraya.bazurto@espam.edu.ec</t>
   </si>
   <si>
-    <t>5N3AlEPf</t>
+    <t>btkMgb5B</t>
   </si>
   <si>
     <t>CAGUA GARCIA ANDRES VIRGILIO</t>
@@ -3830,7 +3830,7 @@
     <t>andres.cagua@espam.edu.ec</t>
   </si>
   <si>
-    <t>s8fGoiWO</t>
+    <t>KZQh6jOh</t>
   </si>
   <si>
     <t>DOMINGUEZ CALDERON JEAN PIERRE</t>
@@ -3839,7 +3839,7 @@
     <t>jean.dominguez@espam.edu.ec</t>
   </si>
   <si>
-    <t>Xd!Sey0T</t>
+    <t>IgsJ2!3p</t>
   </si>
   <si>
     <t>ESPINOZA ALCIVAR EVELYN ALEXANDRA</t>
@@ -3848,7 +3848,7 @@
     <t>evelyn.espinoza@espam.edu.ec</t>
   </si>
   <si>
-    <t>#TuNPBw&amp;</t>
+    <t>di0K#g2i</t>
   </si>
   <si>
     <t>LOOR MORENO DANIEL AGUSTIN</t>
@@ -3857,7 +3857,7 @@
     <t>daniel.loor@espam.edu.ec</t>
   </si>
   <si>
-    <t>Qudq!Yv3</t>
+    <t>jAHSDbnw</t>
   </si>
   <si>
     <t>MACIAS PARRALES MEREDITH MARIBEL</t>
@@ -3866,7 +3866,7 @@
     <t>meredith.macias@espam.edu.ec</t>
   </si>
   <si>
-    <t>FFO&amp;R10m</t>
+    <t>ZpYOJi1h</t>
   </si>
   <si>
     <t>MENDOZA CANCHINGRE BRIGITH MIKAELA</t>
@@ -3875,7 +3875,7 @@
     <t>brigith.mendoza@espam.edu.ec</t>
   </si>
   <si>
-    <t>nYz6zl7&amp;</t>
+    <t>YHkzXmYh</t>
   </si>
   <si>
     <t>MENDOZA VELEZ JOSE MIGUEL</t>
@@ -3884,7 +3884,7 @@
     <t>josemi.mendoza@espam.edu.ec</t>
   </si>
   <si>
-    <t>C3Fgglj/</t>
+    <t>XId1&amp;9Xb</t>
   </si>
   <si>
     <t>MEZA BRIONES ANTHONY NARCILO</t>
@@ -3893,7 +3893,7 @@
     <t>anthony.meza@espam.edu.ec</t>
   </si>
   <si>
-    <t>0bwWH2XW</t>
+    <t>JFpxXbu6</t>
   </si>
   <si>
     <t>MORA ZAMBRANO MARIA LAURA</t>
@@ -3902,7 +3902,7 @@
     <t>maria.mora@espam.edu.ec</t>
   </si>
   <si>
-    <t>daD#33xj</t>
+    <t>0ug0E0eb</t>
   </si>
   <si>
     <t>NAVARRETE ZAMBRANO ROBIN LUGERIO</t>
@@ -3911,7 +3911,7 @@
     <t>robin.navarrete@espam.edu.ec</t>
   </si>
   <si>
-    <t>dy&amp;!oqJq</t>
+    <t>NKyDXPZq</t>
   </si>
   <si>
     <t>OSTAIZA LOPEZ JOSEPH MANUEL</t>
@@ -3920,7 +3920,7 @@
     <t>josepth.ostaiza@espam.edu.ec</t>
   </si>
   <si>
-    <t>wcPuUBVP</t>
+    <t>HKPp/nFS</t>
   </si>
   <si>
     <t>PARRAGA PARRAGA CARLA ESTEFANIA</t>
@@ -3929,7 +3929,7 @@
     <t>carla.parraga@espam.edu.ec</t>
   </si>
   <si>
-    <t>CLFPCQnn</t>
+    <t>?zcUFMW#</t>
   </si>
   <si>
     <t>PLAZA CABRERA MAYERLY MARIA</t>
@@ -3941,7 +3941,7 @@
     <t>mayerly.plaza@espam.edu.ec</t>
   </si>
   <si>
-    <t>S?ekaH!o</t>
+    <t>#tE#/YqP</t>
   </si>
   <si>
     <t>RODRIGUEZ VELIZ LEANDRO MOISES</t>
@@ -3950,7 +3950,7 @@
     <t>leandro.rodriguez@espam.edu.ec</t>
   </si>
   <si>
-    <t>i36fKwTv</t>
+    <t>EaxnsdGE</t>
   </si>
   <si>
     <t>SANTANA GUERRERO MARIA RAQUEL</t>
@@ -3959,7 +3959,7 @@
     <t>mariar.santanag@espam.edu.ec</t>
   </si>
   <si>
-    <t>OpOUxd9I</t>
+    <t>c!jqhXeY</t>
   </si>
   <si>
     <t>SANTOS SALAZAR JANDRY DAVID</t>
@@ -3968,7 +3968,7 @@
     <t>jandry.santos@espam.edu.ec</t>
   </si>
   <si>
-    <t>xFZQ4ShJ</t>
+    <t>OELX&amp;psb</t>
   </si>
   <si>
     <t>SOLORZANO LOOR KEYLA GEOVANNA</t>
@@ -3977,7 +3977,7 @@
     <t>keyla.solorzano@espam.edu.ec</t>
   </si>
   <si>
-    <t>LWEN1trL</t>
+    <t>/bufml?W</t>
   </si>
   <si>
     <t>VALENCIA ZAMBRANO VALERIA MERCEDES</t>
@@ -3986,7 +3986,7 @@
     <t>valeria.valencia@espam.edu.ec</t>
   </si>
   <si>
-    <t>hfp6?EW&amp;</t>
+    <t>0IIEm/NA</t>
   </si>
   <si>
     <t>VARGAS CHOEZ ALEXIS ELIAN</t>
@@ -3995,7 +3995,7 @@
     <t>alexis.vargas@espam.edu.ec</t>
   </si>
   <si>
-    <t>/tXJh/jX</t>
+    <t>xiBYEz!A</t>
   </si>
   <si>
     <t>VELEZ ALMEIDA CARMEN REBECA</t>
@@ -4004,7 +4004,7 @@
     <t>carmen.velez@espam.edu.ec</t>
   </si>
   <si>
-    <t>28yc?a50</t>
+    <t>vyhgc8FW</t>
   </si>
   <si>
     <t>VELEZ LEGTON GENESIS YAMILET</t>
@@ -4013,7 +4013,7 @@
     <t>genesisya.velez@espam.edu.ec</t>
   </si>
   <si>
-    <t>NtnV7r4U</t>
+    <t>8?BERyjE</t>
   </si>
   <si>
     <t>VERA BALAREZO MARYAM JANELLA</t>
@@ -4022,7 +4022,7 @@
     <t>maryam.vera@espam.edu.ec</t>
   </si>
   <si>
-    <t>dRpQW2fQ</t>
+    <t>7Z?IJxbh</t>
   </si>
   <si>
     <t>VERA SERRANO CARLOS STEFANO</t>
@@ -4031,7 +4031,7 @@
     <t>carlos.verase@espam.edu.ec</t>
   </si>
   <si>
-    <t>jeTA/q94</t>
+    <t>ns9hrj4w</t>
   </si>
   <si>
     <t>VIERA BAZURTO JOSE ALEXANDER</t>
@@ -4040,7 +4040,7 @@
     <t>jose.viera@espam.edu.ec</t>
   </si>
   <si>
-    <t>bfEV6LdS</t>
+    <t>m!3EVOn3</t>
   </si>
   <si>
     <t>ZAMBRANO ALCIVAR DIEGO JAHIR</t>
@@ -4049,7 +4049,7 @@
     <t>diego.zambranoa@espam.edu.ec</t>
   </si>
   <si>
-    <t>?J5IYVtl</t>
+    <t>#YBis0YW</t>
   </si>
   <si>
     <t>ZAMBRANO MANZABA MARIA FERNANDA</t>
@@ -4058,7 +4058,7 @@
     <t>mariafer.zambranom@espam.edu.ec</t>
   </si>
   <si>
-    <t>Z98EQSaJ</t>
+    <t>23WUIq74</t>
   </si>
   <si>
     <t>ALCIVAR GILER MELANY JULISA</t>
@@ -4067,7 +4067,7 @@
     <t>melany.alcivar@espam.edu.ec</t>
   </si>
   <si>
-    <t>tBUDKKax</t>
+    <t>STd7p&amp;LI</t>
   </si>
   <si>
     <t>ANDRADE ZAMBRANO NATHALY NICOLLE</t>
@@ -4076,7 +4076,7 @@
     <t>nathaly.andrade@espam.edu.ec</t>
   </si>
   <si>
-    <t>exbw9tc1</t>
+    <t>tjd5c08j</t>
   </si>
   <si>
     <t>BASURTO MORAN LUIS ALEXANDER</t>
@@ -4085,7 +4085,7 @@
     <t>luis.basurtom@espam.edu.ec</t>
   </si>
   <si>
-    <t>YwxXX/rM</t>
+    <t>IfYjwXd0</t>
   </si>
   <si>
     <t>BERMELLO VELEZ ANGELA DANIELA</t>
@@ -4094,7 +4094,7 @@
     <t>angela.bermello@espam.edu.ec</t>
   </si>
   <si>
-    <t>RgFn9d0r</t>
+    <t>i!r0djpx</t>
   </si>
   <si>
     <t>BRAVO VERA GEMA VIVIANA</t>
@@ -4103,7 +4103,7 @@
     <t>gema.bravov@espam.edu.ec</t>
   </si>
   <si>
-    <t>Cgxs4!Co</t>
+    <t>a85bLOgR</t>
   </si>
   <si>
     <t>BRIONES INTRIAGO LORENA LUCIA</t>
@@ -4112,7 +4112,7 @@
     <t>lorena.briones@espam.edu.ec</t>
   </si>
   <si>
-    <t>ys!Cb5pv</t>
+    <t>Mh46hhy/</t>
   </si>
   <si>
     <t>BURGOS BRAVO KATHERIN DANIELA</t>
@@ -4121,7 +4121,7 @@
     <t>katherin.burgos@espam.edu.ec</t>
   </si>
   <si>
-    <t>R&amp;IkDXI9</t>
+    <t>JoLuCY5d</t>
   </si>
   <si>
     <t>LOOR PARRAGA ROY RUBEN</t>
@@ -4130,7 +4130,7 @@
     <t>roy.loor@espam.edu.ec</t>
   </si>
   <si>
-    <t>/8IX!H/t</t>
+    <t>hVPzsUul</t>
   </si>
   <si>
     <t>LOPEZ GANCHOZO LEANDRO ANTONIO</t>
@@ -4139,7 +4139,7 @@
     <t>leandro.lopez@espam.edu.ec</t>
   </si>
   <si>
-    <t>B9QH53X9</t>
+    <t>#Vy3fS#U</t>
   </si>
   <si>
     <t>MACIAS MACIAS JOY ROBERTO</t>
@@ -4148,7 +4148,7 @@
     <t>joy.macias@espam.edu.ec</t>
   </si>
   <si>
-    <t>0dcknnpz</t>
+    <t>/H5gBA&amp;P</t>
   </si>
   <si>
     <t>MACIAS SILVA CINTHYA MARIANA</t>
@@ -4157,7 +4157,7 @@
     <t>cinthya.macias@espam.edu.ec</t>
   </si>
   <si>
-    <t>iMm3DU&amp;p</t>
+    <t>9/gvbJ6N</t>
   </si>
   <si>
     <t>MENDOZA PONCE MARIA ANGELICA</t>
@@ -4166,7 +4166,7 @@
     <t>maria.mendozap@espam.edu.ec</t>
   </si>
   <si>
-    <t>?rwoUR&amp;H</t>
+    <t>3wnjR7&amp;0</t>
   </si>
   <si>
     <t>MONCAYO LAINEZ KERLY ARIANNA</t>
@@ -4175,7 +4175,7 @@
     <t>kerly.moncayo@espam.edu.ec</t>
   </si>
   <si>
-    <t>2whqQdVI</t>
+    <t>XXR!wWi!</t>
   </si>
   <si>
     <t>MONTES POZO JEAN POLL</t>
@@ -4184,7 +4184,7 @@
     <t>jean.montes@espam.edu.ec</t>
   </si>
   <si>
-    <t>yGomKsDp</t>
+    <t>vMsJyePu</t>
   </si>
   <si>
     <t>MORENO OBANDO ANA BELLA</t>
@@ -4193,7 +4193,7 @@
     <t>ana.moreno@espam.edu.ec</t>
   </si>
   <si>
-    <t>gd#j/lSJ</t>
+    <t>Y8w?U9Zf</t>
   </si>
   <si>
     <t>NAVARRETE PARODI ERIKA KARINA</t>
@@ -4202,7 +4202,7 @@
     <t>erika.navarrete@espam.edu.ec</t>
   </si>
   <si>
-    <t>nQO8o3Sa</t>
+    <t>Dw4NW/mp</t>
   </si>
   <si>
     <t>ORMAZA ESPINOZA JESUS EMILIO</t>
@@ -4211,7 +4211,7 @@
     <t>jesus.ormaza@espam.edu.ec</t>
   </si>
   <si>
-    <t>Ou/OGhNV</t>
+    <t>?9dmWq!s</t>
   </si>
   <si>
     <t>ORMAZA FALCONES MARIA ALEJANDRA</t>
@@ -4220,7 +4220,7 @@
     <t>maria.ormaza@espam.edu.ec</t>
   </si>
   <si>
-    <t>5vvr0?TM</t>
+    <t>duW?eNQF</t>
   </si>
   <si>
     <t>PARRAGA QUIJIJE GEMA KAROLINA</t>
@@ -4229,7 +4229,7 @@
     <t>gemak.parragaq@espam.edu.ec</t>
   </si>
   <si>
-    <t>rqblC1ml</t>
+    <t>ntyrcq1!</t>
   </si>
   <si>
     <t>PICO TOLA MARCO ANDRES</t>
@@ -4238,7 +4238,7 @@
     <t>marco.pico@espam.edu.ec</t>
   </si>
   <si>
-    <t>NvQ8YbeZ</t>
+    <t>?C/tnENH</t>
   </si>
   <si>
     <t>PIN NAPA IVANA MAYERLI</t>
@@ -4247,7 +4247,7 @@
     <t>ivana.pin@espam.edu.ec</t>
   </si>
   <si>
-    <t>vBU60Esc</t>
+    <t>8!cZP4?d</t>
   </si>
   <si>
     <t>ROMERO BRAVO JOSE AGUSTIN</t>
@@ -4256,7 +4256,7 @@
     <t>jose.romero@espam.edu.ec</t>
   </si>
   <si>
-    <t>SJ#4ffu8</t>
+    <t>yybDAq87</t>
   </si>
   <si>
     <t>SALTOS INTRIAGO NATHALIA MELISSA</t>
@@ -4265,7 +4265,7 @@
     <t>nathalia.saltos@espam.edu.ec</t>
   </si>
   <si>
-    <t>jgiPI&amp;Ug</t>
+    <t>m6SZu34K</t>
   </si>
   <si>
     <t>SALTOS SALTOS MADELYNE PIERINA</t>
@@ -4274,7 +4274,7 @@
     <t>madelyne.saltos@espam.edu.ec</t>
   </si>
   <si>
-    <t>bysOPgZB</t>
+    <t>yWTpaKMH</t>
   </si>
   <si>
     <t>SOLIS ORTIZ SANTIAGO</t>
@@ -4283,7 +4283,7 @@
     <t>santiago.solis@espam.edu.ec</t>
   </si>
   <si>
-    <t>nGT7iVmi</t>
+    <t>LCILZiAL</t>
   </si>
   <si>
     <t>SOLORZANO ZAMBRANO GEMA NARCISA</t>
@@ -4292,7 +4292,7 @@
     <t>gema.solorzano@espam.edu.ec</t>
   </si>
   <si>
-    <t>BKfEE!Dc</t>
+    <t>4X/vjb4!</t>
   </si>
   <si>
     <t>VARGAS SOLORZANO ANDREA DIVINA</t>
@@ -4301,7 +4301,7 @@
     <t>andrea.vargas@espam.edu.ec</t>
   </si>
   <si>
-    <t>sAa4kQDX</t>
+    <t>/GjxURtv</t>
   </si>
   <si>
     <t>VELEZ VERA MANUEL ALEXANDER</t>
@@ -4310,7 +4310,7 @@
     <t>manuel.velez@espam.edu.ec</t>
   </si>
   <si>
-    <t>T9UIwYI1</t>
+    <t>zYFSN7Pf</t>
   </si>
   <si>
     <t>VELEZ ZAMBRANO ADRIAN DAVID</t>
@@ -4319,7 +4319,7 @@
     <t>adrian.velez@espam.edu.ec</t>
   </si>
   <si>
-    <t>MUGoQZ5L</t>
+    <t>zQBO8L1u</t>
   </si>
   <si>
     <t>YLLESCA CEDEÑO JESUS JONATHAN</t>
@@ -4328,7 +4328,7 @@
     <t>jesus.yllesca@espam.edu.ec</t>
   </si>
   <si>
-    <t>3vxOkdUP</t>
+    <t>HtKDYOTS</t>
   </si>
   <si>
     <t>ZAMBRANO CATOTA DERLYN MILENA</t>
@@ -4337,7 +4337,7 @@
     <t>derlyn.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>MBJLaa/c</t>
+    <t>PaI7xAeS</t>
   </si>
   <si>
     <t>ZAMBRANO CEDEÑO CHRISTIAN EDUARDO</t>
@@ -4346,7 +4346,7 @@
     <t>christian.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>2gm&amp;Mwd8</t>
+    <t>xnU81Xdz</t>
   </si>
   <si>
     <t>ZAMBRANO ROBLES GLENDY MERCEDES</t>
@@ -4355,7 +4355,7 @@
     <t>glendy.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>trsUsx#G</t>
+    <t>?M4wyD56</t>
   </si>
   <si>
     <t>ZAMBRANO ROSADO JORGE ALESSANDRO</t>
@@ -4364,7 +4364,7 @@
     <t>jorge.zambranor@espam.edu.ec</t>
   </si>
   <si>
-    <t>bVfFPvcp</t>
+    <t>wiY154k0</t>
   </si>
   <si>
     <t>ZAMBRANO VERA WENDY ANAHI</t>
@@ -4373,7 +4373,7 @@
     <t>wendy.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>Oi&amp;o5V6M</t>
+    <t>hf2QDIct</t>
   </si>
   <si>
     <t>ZAMBRANO ZAMBRANO JONATHAN JAVIER</t>
@@ -4382,7 +4382,7 @@
     <t>jonathan.zambranoz@espam.edu.ec</t>
   </si>
   <si>
-    <t>#s3f//1Y</t>
+    <t>OAS/IfNu</t>
   </si>
   <si>
     <t>ZAMORA SOLORZANO MAGALY DOLORES</t>
@@ -4391,7 +4391,7 @@
     <t>magaly.zamora@espam.edu.ec</t>
   </si>
   <si>
-    <t>Mikwk!&amp;X</t>
+    <t>T6ncL1!S</t>
   </si>
   <si>
     <t>BRAVO ZAMBRANO MARIA EMILIA</t>
@@ -4400,7 +4400,7 @@
     <t>maria.bravoz@espam.edu.ec</t>
   </si>
   <si>
-    <t>lYkHHdDe</t>
+    <t>/bFtOTO&amp;</t>
   </si>
   <si>
     <t>CEVALLOS ALVAREZ ARMANDO ENRIQUE</t>
@@ -4409,7 +4409,7 @@
     <t>armando.cevallos@espam.edu.ec</t>
   </si>
   <si>
-    <t>&amp;s?IiMNi</t>
+    <t>gTKJk3YQ</t>
   </si>
   <si>
     <t>CEVALLOS VERA ARELIS STEFANIA</t>
@@ -4418,7 +4418,7 @@
     <t>arelis.cevallos@espam.edu.ec</t>
   </si>
   <si>
-    <t>2s/zNEwa</t>
+    <t>XF!3wKuv</t>
   </si>
   <si>
     <t>COOL MERO PATRICIO JAVIER</t>
@@ -4427,7 +4427,7 @@
     <t>patricio.cool@espam.edu.ec</t>
   </si>
   <si>
-    <t>eRU45MV9</t>
+    <t>Pn#4FbOP</t>
   </si>
   <si>
     <t>FRANCO ORELLANA GUADALUPE MONSERRATE</t>
@@ -4436,7 +4436,7 @@
     <t>guadalupe.franco@espam.edu.ec</t>
   </si>
   <si>
-    <t>kFH&amp;juOQ</t>
+    <t>NmdKxb6n</t>
   </si>
   <si>
     <t>HUERTA BALDIVIEZO JEAN CRISTHIAN</t>
@@ -4445,7 +4445,7 @@
     <t>jean.huerta@espam.edu.ec</t>
   </si>
   <si>
-    <t>K0kiKBpq</t>
+    <t>eJrP77&amp;#</t>
   </si>
   <si>
     <t>INTRIAGO CANTOS MARIA JOSE</t>
@@ -4454,7 +4454,7 @@
     <t>maria.intriagoc@espam.edu.ec</t>
   </si>
   <si>
-    <t>ixdSnyYC</t>
+    <t>g/GjyxBG</t>
   </si>
   <si>
     <t>LOOR CANTOS DIANA ISABEL</t>
@@ -4463,7 +4463,7 @@
     <t>diana.loor@espam.edu.ec</t>
   </si>
   <si>
-    <t>lRhW&amp;Hs2</t>
+    <t>FVVxV34M</t>
   </si>
   <si>
     <t>LOOR SEGOVIA EVELYN ADRIANA</t>
@@ -4472,7 +4472,7 @@
     <t>evelyn.loors@espam.edu.ec</t>
   </si>
   <si>
-    <t>QsrN#0nl</t>
+    <t>3hk!NlFd</t>
   </si>
   <si>
     <t>MEDINA CEDEÑO JULIO CESAR</t>
@@ -4481,7 +4481,7 @@
     <t>julio.medina@espam.edu.ec</t>
   </si>
   <si>
-    <t>r05IQBXL</t>
+    <t>F7t!#2C4</t>
   </si>
   <si>
     <t>MERA VELEZ ALONDRA GARDENIA</t>
@@ -4490,7 +4490,7 @@
     <t>alondra.mera@espam.edu.ec</t>
   </si>
   <si>
-    <t>cT3czmyO</t>
+    <t>8snjR7E&amp;</t>
   </si>
   <si>
     <t>MUÑOZ ZAMBRANO CARLOS JOSUE</t>
@@ -4499,7 +4499,7 @@
     <t>carlos.munozz@espam.edu.ec</t>
   </si>
   <si>
-    <t>4U#wabkS</t>
+    <t>SIinUqT6</t>
   </si>
   <si>
     <t>NAPA RODRIGUEZ JOSE AGUSTIN</t>
@@ -4508,7 +4508,7 @@
     <t>jose.napa@espam.edu.ec</t>
   </si>
   <si>
-    <t>kgStSKnw</t>
+    <t>7g0z2Euc</t>
   </si>
   <si>
     <t>PALMA CEVALLOS MARIA JOSE</t>
@@ -4517,7 +4517,7 @@
     <t>maria.palma@espam.edu.ec</t>
   </si>
   <si>
-    <t>g?1xs8g#</t>
+    <t>gnO1hS5n</t>
   </si>
   <si>
     <t>PATIÑO MESIAS MARIA GABRIELA</t>
@@ -4526,7 +4526,7 @@
     <t>maria.patino@espam.edu.ec</t>
   </si>
   <si>
-    <t>hqxzorhd</t>
+    <t>miiD&amp;nb6</t>
   </si>
   <si>
     <t>QUINTANA CAGUA YENIFER YULI</t>
@@ -4535,7 +4535,7 @@
     <t>yenifer.quintana@espam.edu.ec</t>
   </si>
   <si>
-    <t>xbydTvoZ</t>
+    <t>5CtReUpJ</t>
   </si>
   <si>
     <t>RIVERA CANTOS MARIA DANIELA</t>
@@ -4544,7 +4544,7 @@
     <t>maria.riverac@espam.edu.ec</t>
   </si>
   <si>
-    <t>m9p4b2QN</t>
+    <t>6V10bAFE</t>
   </si>
   <si>
     <t>RODRIGUEZ PINCAY CARLOS BRYAN</t>
@@ -4553,7 +4553,7 @@
     <t>carlos.rodriguezp@espam.edu.ec</t>
   </si>
   <si>
-    <t>Yf5ngGG7</t>
+    <t>Hc4KJg!?</t>
   </si>
   <si>
     <t>SABANDO VELEZ CRISTHIAN ANTHONY</t>
@@ -4562,7 +4562,7 @@
     <t>cristhian.sabando@espam.edu.ec</t>
   </si>
   <si>
-    <t>n0rPcy/L</t>
+    <t>9Nl#/S0u</t>
   </si>
   <si>
     <t>SANTANA VERA ANTHONY JAHIR</t>
@@ -4571,7 +4571,7 @@
     <t>anthony.santana@espam.edu.ec</t>
   </si>
   <si>
-    <t>qIuR6Syc</t>
+    <t>DIKx?n8O</t>
   </si>
   <si>
     <t>VELEZ ESPINOZA JUNIOR JESUS</t>
@@ -4580,7 +4580,7 @@
     <t>junior.veleze@espam.edu.ec</t>
   </si>
   <si>
-    <t>dFOP3ZD6</t>
+    <t>a8gG&amp;XAV</t>
   </si>
   <si>
     <t>VERDUGA ZAMBRANO DIEGO ALEJANDRO</t>
@@ -4589,7 +4589,7 @@
     <t>diego.verduga@espam.edu.ec</t>
   </si>
   <si>
-    <t>YIfssgER</t>
+    <t>0vNczP!P</t>
   </si>
   <si>
     <t>ZAMBRANO VELEZ NAYELHY LILIBETH</t>
@@ -4598,7 +4598,7 @@
     <t>nayelhy.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>tUXDC#hA</t>
+    <t>wO#/AN?9</t>
   </si>
   <si>
     <t>ZAMBRANO WITONG KENIA THAIS</t>
@@ -4607,7 +4607,7 @@
     <t>keniath.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>GugrICTk</t>
+    <t>HLFKZPEZ</t>
   </si>
   <si>
     <t>ANCHUNDIA ANCHUNDIA GEMA LILIBETH</t>
@@ -4616,7 +4616,7 @@
     <t>gema.anchundia@espam.edu.ec</t>
   </si>
   <si>
-    <t>96vFBoPu</t>
+    <t>Rk9&amp;fviy</t>
   </si>
   <si>
     <t>ARTEAGA DELGADO JEAN CARLOS</t>
@@ -4625,7 +4625,7 @@
     <t>jean.arteaga@espam.edu.ec</t>
   </si>
   <si>
-    <t>Fu#8tq7Y</t>
+    <t>PMY9GpNu</t>
   </si>
   <si>
     <t>BARREIRO ZAMBRANO JOSE VICENTE</t>
@@ -4634,7 +4634,7 @@
     <t>jose.barreiro@espam.edu.ec</t>
   </si>
   <si>
-    <t>skkAMXli</t>
+    <t>5I8mOF7b</t>
   </si>
   <si>
     <t>BASURTO ALCIVAR DARWIN JESUS</t>
@@ -4643,7 +4643,7 @@
     <t>darwin.basurto@espam.edu.ec</t>
   </si>
   <si>
-    <t>Ld&amp;eW6kz</t>
+    <t>7?AcQDiC</t>
   </si>
   <si>
     <t>BRAVO CEDEÑO JOSE RODOLFO</t>
@@ -4652,7 +4652,7 @@
     <t>jose.bravo@espam.edu.ec</t>
   </si>
   <si>
-    <t>vtp4jZ!l</t>
+    <t>Y5!z2azU</t>
   </si>
   <si>
     <t>BRIONES BERMEO ANTONY JAVIER</t>
@@ -4661,7 +4661,7 @@
     <t>antony.briones@espam.edu.ec</t>
   </si>
   <si>
-    <t>P1#EqKJ7</t>
+    <t>nr4n99mh</t>
   </si>
   <si>
     <t>CEDEÑO ANCHUNDIA YANDRY ANTONIO</t>
@@ -4673,7 +4673,7 @@
     <t>yandry.cedeno@espam.edu.ec</t>
   </si>
   <si>
-    <t>at3ncXjJ</t>
+    <t>vNe6lCmi</t>
   </si>
   <si>
     <t>CEDEÑO PEÑARRIETA DAYANA SOPHIA</t>
@@ -4682,7 +4682,7 @@
     <t>dayanaso.cedeno@espam.edu.ec</t>
   </si>
   <si>
-    <t>SUA6odSy</t>
+    <t>Voo2SAXf</t>
   </si>
   <si>
     <t>CHAVARRIA PEÑARRIETA MARCOS ALEJANDRO</t>
@@ -4691,7 +4691,7 @@
     <t>marcos.chavarria@espam.edu.ec</t>
   </si>
   <si>
-    <t>JhUMStX!</t>
+    <t>IIcfvy4J</t>
   </si>
   <si>
     <t>DEL VALLE BASURTO CARMEN MELINA</t>
@@ -4700,7 +4700,7 @@
     <t>carmen.del@espam.edu.ec</t>
   </si>
   <si>
-    <t>fmpfgPc3</t>
+    <t>NmHLIDTM</t>
   </si>
   <si>
     <t>GUERRERO BRAVO ANA BELEN</t>
@@ -4709,7 +4709,7 @@
     <t>ana.guerrero@espam.edu.ec</t>
   </si>
   <si>
-    <t>hdR5fg!D</t>
+    <t>zfZksPZ1</t>
   </si>
   <si>
     <t>GUERRERO GUERRERO JOSSELYN MELISSA</t>
@@ -4718,7 +4718,7 @@
     <t>josselyn.guerrero@espam.edu.ec</t>
   </si>
   <si>
-    <t>Q##0Wtnh</t>
+    <t>CL/p3WXV</t>
   </si>
   <si>
     <t>INTRIAGO BARBERAN LAURO ANTONIO</t>
@@ -4727,7 +4727,7 @@
     <t>lauro.intriago1@espam.edu.ec</t>
   </si>
   <si>
-    <t>V0CF3gwI</t>
+    <t>jQeOWOh?</t>
   </si>
   <si>
     <t>INTRIAGO MORA LENIN ARCENIO</t>
@@ -4736,7 +4736,7 @@
     <t>lenin.intriago@espam.edu.ec</t>
   </si>
   <si>
-    <t>dbrsck5R</t>
+    <t>pTTJdvk1</t>
   </si>
   <si>
     <t>MACIAS CALDERON JOSE ARIEL</t>
@@ -4745,7 +4745,7 @@
     <t>jose.macias@espam.edu.ec</t>
   </si>
   <si>
-    <t>WkNj5Riz</t>
+    <t>U&amp;9b3Au!</t>
   </si>
   <si>
     <t>MARCILLO VELEZ ANA PATRICIA</t>
@@ -4754,7 +4754,7 @@
     <t>ana.marcillo@espam.edu.ec</t>
   </si>
   <si>
-    <t>iDVIoawA</t>
+    <t>rw?OS4qG</t>
   </si>
   <si>
     <t>MERA FIGUEROA RAYMOND ALEJANDRO</t>
@@ -4763,7 +4763,7 @@
     <t>raymond.mera@espam.edu.ec</t>
   </si>
   <si>
-    <t>rzOg&amp;PEQ</t>
+    <t>rmzoEp7t</t>
   </si>
   <si>
     <t>MOREIRA ZAMBRANO JOSSENKA MERCEDES</t>
@@ -4772,7 +4772,7 @@
     <t>jossenka.moreira@espam.edu.ec</t>
   </si>
   <si>
-    <t>r34Hh#Os</t>
+    <t>FKLGCTx&amp;</t>
   </si>
   <si>
     <t>MUÑOZ ALCIVAR CRISTHIAN MARTIN</t>
@@ -4781,7 +4781,7 @@
     <t>cristhian.munoz@espam.edu.ec</t>
   </si>
   <si>
-    <t>iz6gTGYo</t>
+    <t>/VwQfdhm</t>
   </si>
   <si>
     <t>MUÑOZ MACIAS MARIA MAGDALENA</t>
@@ -4790,7 +4790,7 @@
     <t>mariama.munoz@espam.edu.ec</t>
   </si>
   <si>
-    <t>ncCfHKUE</t>
+    <t>qaDguGWU</t>
   </si>
   <si>
     <t>POLO GANCHOZO ARON ESNEYDER</t>
@@ -4799,7 +4799,7 @@
     <t>aron.polo@espam.edu.ec</t>
   </si>
   <si>
-    <t>hbRpbsmn</t>
+    <t>Q/HmU2dh</t>
   </si>
   <si>
     <t>RIOS BERMELLO JENIFFER LIZETH</t>
@@ -4808,7 +4808,7 @@
     <t>jeniffer.rios@espam.edu.ec</t>
   </si>
   <si>
-    <t>Qikki2Jy</t>
+    <t>8onH!IF?</t>
   </si>
   <si>
     <t>SALVATIERRA VALDEZ VICKY NICOLLE</t>
@@ -4817,7 +4817,7 @@
     <t>vicky.salvatierra@espam.edu.ec</t>
   </si>
   <si>
-    <t>gu5nHemw</t>
+    <t>MhlD4cD1</t>
   </si>
   <si>
     <t>SANTOS VELEZ MONICA GERMANIA</t>
@@ -4826,7 +4826,7 @@
     <t>monica.santos@espam.edu.ec</t>
   </si>
   <si>
-    <t>I!ygJGR&amp;</t>
+    <t>hFOsKCei</t>
   </si>
   <si>
     <t>SOLORZANO ZAMBRANO MILENA DENISSE</t>
@@ -4835,7 +4835,7 @@
     <t>milena.solorzano@espam.edu.ec</t>
   </si>
   <si>
-    <t>?TbEHKT?</t>
+    <t>ty?pUrBw</t>
   </si>
   <si>
     <t>TUQUERES TACURI JESSICA MARIBELL</t>
@@ -4844,7 +4844,7 @@
     <t>jessica.tuqueres@espam.edu.ec</t>
   </si>
   <si>
-    <t>3ZHDl2av</t>
+    <t>A7Yn/zy1</t>
   </si>
   <si>
     <t>VERDUGA ERAZO JOSUE SALVADOR</t>
@@ -4853,7 +4853,7 @@
     <t>josue.verduga@espam.edu.ec</t>
   </si>
   <si>
-    <t>SN5d2p5E</t>
+    <t>dnr50Z#R</t>
   </si>
   <si>
     <t>YEPEZ VELIZ GENESIS THALIA</t>
@@ -4862,7 +4862,7 @@
     <t>genesis.yepez@espam.edu.ec</t>
   </si>
   <si>
-    <t>y5CR0eeA</t>
+    <t>#Rtw3cak</t>
   </si>
   <si>
     <t>ZAMBRANO BASURTO ERICK RAFAEL</t>
@@ -4871,7 +4871,7 @@
     <t>erick.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>l5tGZS4a</t>
+    <t>uFuoFldO</t>
   </si>
   <si>
     <t>ZAMBRANO MUÑOZ JANDRY DEIVY</t>
@@ -4880,7 +4880,7 @@
     <t>jandry.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>l?C3eRtO</t>
+    <t>Wc2Lm!i&amp;</t>
   </si>
   <si>
     <t>AYONG VERA JUAN DAVID</t>
@@ -4889,7 +4889,7 @@
     <t>juan.ayong@espam.edu.ec</t>
   </si>
   <si>
-    <t>IVY&amp;ww?G</t>
+    <t>5d7lJE#Q</t>
   </si>
   <si>
     <t>BASURTO SALAZAR ANGELA MARGARITA</t>
@@ -4898,7 +4898,7 @@
     <t>angela.basurto@espam.edu.ec</t>
   </si>
   <si>
-    <t>jkWvN1N6</t>
+    <t>HMOfaTHG</t>
   </si>
   <si>
     <t>CASANOVA INTRIAGO ANDREA BELEN</t>
@@ -4910,7 +4910,7 @@
     <t>andrea.casanova@espam.edu.ec</t>
   </si>
   <si>
-    <t>Rle3dw2G</t>
+    <t>KDwwULfE</t>
   </si>
   <si>
     <t>CHUMO ZAMBRANO ANTONIO BENITO</t>
@@ -4919,7 +4919,7 @@
     <t>antonio.chumo@espam.edu.ec</t>
   </si>
   <si>
-    <t>nzvHq4Gz</t>
+    <t>N&amp;d7KFqs</t>
   </si>
   <si>
     <t>GARCIA CORTEZ ERIKA STEFANIA</t>
@@ -4928,7 +4928,7 @@
     <t>erika.garcia@espam.edu.ec</t>
   </si>
   <si>
-    <t>sS6O4DNV</t>
+    <t>Vr9SU6ic</t>
   </si>
   <si>
     <t>GOMEZ BARRERA JUNIOR LENIN</t>
@@ -4937,7 +4937,7 @@
     <t>junior.gomez@espam.edu.ec</t>
   </si>
   <si>
-    <t>kn?UFycZ</t>
+    <t>kg0oqzG2</t>
   </si>
   <si>
     <t>LOOR CEDEÑO RICARDO EMANUEL</t>
@@ -4946,7 +4946,7 @@
     <t>ricardo.loor@espam.edu.ec</t>
   </si>
   <si>
-    <t>fqW1r/nd</t>
+    <t>S9hqwkpu</t>
   </si>
   <si>
     <t>LOOR LUCAS EVELYN GUADALUPE</t>
@@ -4958,7 +4958,7 @@
     <t>evelyn.loor@espam.edu.ec</t>
   </si>
   <si>
-    <t>EdRFNUi0</t>
+    <t>PbCrLL#x</t>
   </si>
   <si>
     <t>LOOR VELASCO FABIANA BELEN</t>
@@ -4970,7 +4970,7 @@
     <t>fabiana.loor@espam.edu.ec</t>
   </si>
   <si>
-    <t>WMzg&amp;uz5</t>
+    <t>Lc7BF?#M</t>
   </si>
   <si>
     <t>MARTINEZ CEDEÑO JENIFFER ESTEFANIA</t>
@@ -4979,7 +4979,7 @@
     <t>jeniffer.martinez@espam.edu.ec</t>
   </si>
   <si>
-    <t>BDIH2iIC</t>
+    <t>V!1J0lu4</t>
   </si>
   <si>
     <t>MENDOZA BARRE EDDY ENMANUEL</t>
@@ -4988,7 +4988,7 @@
     <t>eddy.mendoza@espam.edu.ec</t>
   </si>
   <si>
-    <t>5ZQw&amp;duJ</t>
+    <t>2iNsVQJR</t>
   </si>
   <si>
     <t>MURILLO PALACIOS ULICES JAIR</t>
@@ -4997,7 +4997,7 @@
     <t>ulices.murillo@espam.edu.ec</t>
   </si>
   <si>
-    <t>JilE0lKN</t>
+    <t>p0fevSW#</t>
   </si>
   <si>
     <t>QUIJANO ZAMBRANO JONATHAN ERNESTO</t>
@@ -5006,7 +5006,7 @@
     <t>jonathan.quijano@espam.edu.ec</t>
   </si>
   <si>
-    <t>?Dty5Md8</t>
+    <t>&amp;W&amp;YyarM</t>
   </si>
   <si>
     <t>ROBLES YORI EFRAIN DAVID</t>
@@ -5015,7 +5015,7 @@
     <t>efrain.robles@espam.edu.ec</t>
   </si>
   <si>
-    <t>sYmFEt7b</t>
+    <t>xKqlEpCX</t>
   </si>
   <si>
     <t>SABANDO ZAMBRANO FREDDY ANTONIO</t>
@@ -5024,7 +5024,7 @@
     <t>freddy.sabando@espam.edu.ec</t>
   </si>
   <si>
-    <t>6LktUil&amp;</t>
+    <t>uBQhH8xU</t>
   </si>
   <si>
     <t>SOLORZANO GUERRERO RONALDO WANDERLEY</t>
@@ -5033,7 +5033,7 @@
     <t>ronaldo.solorzano@espam.edu.ec</t>
   </si>
   <si>
-    <t>OyPnzNef</t>
+    <t>89QuzHlw</t>
   </si>
   <si>
     <t>VELEZ CALDERON GENESIS MARIANA</t>
@@ -5045,7 +5045,7 @@
     <t>genesis.velez@espam.edu.ec</t>
   </si>
   <si>
-    <t>?yYJ7y/s</t>
+    <t>v7wYpKRv</t>
   </si>
   <si>
     <t>ZAMBRANO BALDA JOSE RAMIRO</t>
@@ -5054,7 +5054,7 @@
     <t>josera.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>1q1Gorx7</t>
+    <t>VNYS#lad</t>
   </si>
   <si>
     <t>ZAMBRANO CANTOS YENNY ANNABEL</t>
@@ -5063,7 +5063,7 @@
     <t>yenny.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>JSUTgOlG</t>
+    <t>TA2ZUhph</t>
   </si>
   <si>
     <t>ZAMBRANO LOOR CRISTHIAN LEONARDO</t>
@@ -5072,7 +5072,7 @@
     <t>cristhian.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>RqbyLf#!</t>
+    <t>p1BwDt/W</t>
   </si>
   <si>
     <t>ZAMBRANO LOOR DIANA STEFANIA</t>
@@ -5081,7 +5081,7 @@
     <t>dianas.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>MIU1ASOQ</t>
+    <t>3vi4Xn?#</t>
   </si>
   <si>
     <t>ZAMBRANO LOOR MARIA EMILIA</t>
@@ -5090,7 +5090,7 @@
     <t>maria.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>jdCks66z</t>
+    <t>YeW#LH1m</t>
   </si>
   <si>
     <t>ZAMBRANO MOREIRA LEONELA ALEJANDRA</t>
@@ -5099,7 +5099,7 @@
     <t>leonela.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>ByshE8rM</t>
+    <t>/JFcsisi</t>
   </si>
   <si>
     <t>ALAVA ORTIZ EDWIN ALEXANDER</t>
@@ -5108,7 +5108,7 @@
     <t>edwin.alava@espam.edu.ec</t>
   </si>
   <si>
-    <t>qW1AMOz3</t>
+    <t>Exz9bPc6</t>
   </si>
   <si>
     <t>ALCIVAR LOOR GEMA LISBETH</t>
@@ -5117,7 +5117,7 @@
     <t>gemal.alcivar@espam.edu.ec</t>
   </si>
   <si>
-    <t>zE#2/42G</t>
+    <t>GLY2a7o&amp;</t>
   </si>
   <si>
     <t>AVELLAN SANTANA GENESIS NICOLLE</t>
@@ -5126,7 +5126,7 @@
     <t>genesis.avellan@espam.edu.ec</t>
   </si>
   <si>
-    <t>31zq15zB</t>
+    <t>BMl5UfRy</t>
   </si>
   <si>
     <t>CALDERON SANCHEZ SANDY KATHERINE</t>
@@ -5138,7 +5138,7 @@
     <t>sandy.calderon@espam.edu.ec</t>
   </si>
   <si>
-    <t>xHU!Sa8t</t>
+    <t>h#vrxt9T</t>
   </si>
   <si>
     <t>CARDENAS ASTUDILLO ANGELA JULIANA</t>
@@ -5150,7 +5150,7 @@
     <t>angela.cardenas@espam.edu.ec</t>
   </si>
   <si>
-    <t>RuYoaSFu</t>
+    <t>Clfk!XAK</t>
   </si>
   <si>
     <t>CARRILLO PACHAY MARCO STEVE</t>
@@ -5159,7 +5159,7 @@
     <t>marco.carrillo@espam.edu.ec</t>
   </si>
   <si>
-    <t>4ZlW!xRI</t>
+    <t>80fv8a9A</t>
   </si>
   <si>
     <t>CEDEÑO ZAMBRANO BRYAN ISIDRO</t>
@@ -5168,7 +5168,7 @@
     <t>bryan.cedeno@espam.edu.ec</t>
   </si>
   <si>
-    <t>aGJonxUq</t>
+    <t>9XM7D48X</t>
   </si>
   <si>
     <t>CEVALLOS SALTOS ANTHONY FERNANDO</t>
@@ -5177,7 +5177,7 @@
     <t>anthonyf.cevallos@espam.edu.ec</t>
   </si>
   <si>
-    <t>DgMiedJ/</t>
+    <t>#/uCu#sJ</t>
   </si>
   <si>
     <t>CHANG ZAMBRANO MARTHA YAMILETH</t>
@@ -5186,7 +5186,7 @@
     <t>martha.chang@espam.edu.ec</t>
   </si>
   <si>
-    <t>Nz3K7Wca</t>
+    <t>n?SxEQFm</t>
   </si>
   <si>
     <t>CHIRIBOGA FARIAS LUIS FERNANDO</t>
@@ -5195,7 +5195,7 @@
     <t>luis.chiriboga@espam.edu.ec</t>
   </si>
   <si>
-    <t>x8#61wue</t>
+    <t>zjbltCSk</t>
   </si>
   <si>
     <t>ESPINOZA PILAY JERSON JOSE</t>
@@ -5204,7 +5204,7 @@
     <t>jerson.espinoza@espam.edu.ec</t>
   </si>
   <si>
-    <t>drysxjq?</t>
+    <t>n3YO!JnX</t>
   </si>
   <si>
     <t>FARIAS MERA MAURICIO ANDRES</t>
@@ -5213,7 +5213,7 @@
     <t>mauricio.farias@espam.edu.ec</t>
   </si>
   <si>
-    <t>vcCa7AFb</t>
+    <t>mhB&amp;pjO8</t>
   </si>
   <si>
     <t>HERNANDEZ GONZALEZ JAMILEX KAREY</t>
@@ -5225,7 +5225,7 @@
     <t>jamilex.hernandez@espam.edu.ec</t>
   </si>
   <si>
-    <t>fORCL4v7</t>
+    <t>ARVl#&amp;Zh</t>
   </si>
   <si>
     <t>LEONES FALCONES ABAD JHOAN</t>
@@ -5234,7 +5234,7 @@
     <t>abad.leones@espam.edu.ec</t>
   </si>
   <si>
-    <t>2TYrYFVn</t>
+    <t>/c4oEO!S</t>
   </si>
   <si>
     <t>LOOR CEVALLOS ANA MARIA</t>
@@ -5243,7 +5243,7 @@
     <t>anama.loor@espam.edu.ec</t>
   </si>
   <si>
-    <t>wBVelf6Z</t>
+    <t>N6?ZWBDI</t>
   </si>
   <si>
     <t>LOOR LOOR RONALD POLIVIO</t>
@@ -5252,7 +5252,7 @@
     <t>ronald.loor@espam.edu.ec</t>
   </si>
   <si>
-    <t>Bhmh&amp;Rdr</t>
+    <t>IKNWpaly</t>
   </si>
   <si>
     <t>LOOR REYES GENESIS JAMILETH</t>
@@ -5261,7 +5261,7 @@
     <t>genesis.loor@espam.edu.ec</t>
   </si>
   <si>
-    <t>yK4DbKSq</t>
+    <t>JLUGvxjK</t>
   </si>
   <si>
     <t>MACIAS BRAVO RICARDO FRANCISCO</t>
@@ -5270,7 +5270,7 @@
     <t>ricardo.macias@espam.edu.ec</t>
   </si>
   <si>
-    <t>ulXJTdN/</t>
+    <t>?lWpGV#c</t>
   </si>
   <si>
     <t>MACIAS MACIAS LISSETH LILIBETH</t>
@@ -5279,7 +5279,7 @@
     <t>lisseth.macias@espam.edu.ec</t>
   </si>
   <si>
-    <t>b!#jGN1b</t>
+    <t>i43A?d3j</t>
   </si>
   <si>
     <t>MANZABA CEDEÑO KEVIN ALBERTO</t>
@@ -5288,7 +5288,7 @@
     <t>kevin.manzaba@espam.edu.ec</t>
   </si>
   <si>
-    <t>F#!O&amp;PRn</t>
+    <t>5YJv&amp;u2X</t>
   </si>
   <si>
     <t>MARQUEZ LEMA NAYELI SABRINA</t>
@@ -5297,7 +5297,7 @@
     <t>nayeli.marquez@espam.edu.ec</t>
   </si>
   <si>
-    <t>krg9nSdI</t>
+    <t>8Za08wa3</t>
   </si>
   <si>
     <t>MENDOZA BRIONES MARIUXI KATHERINE</t>
@@ -5309,7 +5309,7 @@
     <t>mariuxi.mendoza@espam.edu.ec</t>
   </si>
   <si>
-    <t>wfaOMR!T</t>
+    <t>kr4jR2yB</t>
   </si>
   <si>
     <t>MOLINA CEDEÑO JUAN DE DIOS</t>
@@ -5318,7 +5318,7 @@
     <t>juan.molina@espam.edu.ec</t>
   </si>
   <si>
-    <t>O/Sssw!j</t>
+    <t>JWfeQ/vE</t>
   </si>
   <si>
     <t>MONTESDEOCA GARCIA YUDID ALEXANDRA</t>
@@ -5327,7 +5327,7 @@
     <t>yudid.montesdeoca@espam.edu.ec</t>
   </si>
   <si>
-    <t>vbwbxBoP</t>
+    <t>RlOdgC7Y</t>
   </si>
   <si>
     <t>MUÑOZ MERA JUAN PABLO</t>
@@ -5336,7 +5336,7 @@
     <t>juan.munoz@espam.edu.ec</t>
   </si>
   <si>
-    <t>nLa2I2Sf</t>
+    <t>8nTad3S!</t>
   </si>
   <si>
     <t>NAVARRETE ORMAZA ERICK ALEXANDER</t>
@@ -5345,7 +5345,7 @@
     <t>erick.navarrete@espam.edu.ec</t>
   </si>
   <si>
-    <t>MuM43QCt</t>
+    <t>/#J93Sst</t>
   </si>
   <si>
     <t>OCAMPO BARRE ANTHONY VICENTE</t>
@@ -5354,7 +5354,7 @@
     <t>anthony.ocampo@espam.edu.ec</t>
   </si>
   <si>
-    <t>Aw&amp;YZzFh</t>
+    <t>UjDMesQ8</t>
   </si>
   <si>
     <t>PARRALES FALCONES ANTHONY LEONARDO</t>
@@ -5363,7 +5363,7 @@
     <t>anthony.parrales@espam.edu.ec</t>
   </si>
   <si>
-    <t>N!p8pJ2a</t>
+    <t>G?&amp;OSU2R</t>
   </si>
   <si>
     <t>RAMOS SALTOS NICOLE PAOLA</t>
@@ -5372,7 +5372,7 @@
     <t>nicole.ramos@espam.edu.ec</t>
   </si>
   <si>
-    <t>sc5ZQU3u</t>
+    <t>KfUFNIQa</t>
   </si>
   <si>
     <t>ROBLES MOLINA JENIFFER STEFANIA</t>
@@ -5381,7 +5381,7 @@
     <t>jeniffer.robles@espam.edu.ec</t>
   </si>
   <si>
-    <t>XW3kXWcE</t>
+    <t>J2tThK37</t>
   </si>
   <si>
     <t>RODRIGUEZ CAMPOS JEAN KATHERINE</t>
@@ -5390,7 +5390,7 @@
     <t>jean.rodriguez@espam.edu.ec</t>
   </si>
   <si>
-    <t>7RY9iZ0U</t>
+    <t>!lhhI!MH</t>
   </si>
   <si>
     <t>SANCHEZ MEDINA GISSEL STEPHANIE</t>
@@ -5399,7 +5399,7 @@
     <t>gissel.sanchez@espam.edu.ec</t>
   </si>
   <si>
-    <t>e/Z#z2XA</t>
+    <t>pN#QwjeD</t>
   </si>
   <si>
     <t>VASQUEZ VERA ARGENIS JAVIER</t>
@@ -5408,7 +5408,7 @@
     <t>argenis.vasquez@espam.edu.ec</t>
   </si>
   <si>
-    <t>k/!4oD6X</t>
+    <t>0ALIbjH!</t>
   </si>
   <si>
     <t>VASQUEZ VERA MARIA MERCEDES</t>
@@ -5417,7 +5417,7 @@
     <t>maria.vasquez@espam.edu.ec</t>
   </si>
   <si>
-    <t>Fa/&amp;Z0OT</t>
+    <t>XOwGn1cf</t>
   </si>
   <si>
     <t>VELEZ MERA JOSSELYN JOSSENKA</t>
@@ -5426,7 +5426,7 @@
     <t>josselynjo.velez@espam.edu.ec</t>
   </si>
   <si>
-    <t>hX#SUaIo</t>
+    <t>hFOa1ZG9</t>
   </si>
   <si>
     <t>VELEZ PALACIOS STEVEN RAMON</t>
@@ -5435,7 +5435,7 @@
     <t>steven.velez@espam.edu.ec</t>
   </si>
   <si>
-    <t>HTPiSqtP</t>
+    <t>4Ssh0TW7</t>
   </si>
   <si>
     <t>VERA BRAVO MARY LAURA</t>
@@ -5444,7 +5444,7 @@
     <t>mary.vera@espam.edu.ec</t>
   </si>
   <si>
-    <t>BEf2pVjq</t>
+    <t>2H&amp;Wk#lU</t>
   </si>
   <si>
     <t>VILLAMIL VALENCIA ISABEL ANDREA</t>
@@ -5453,7 +5453,7 @@
     <t>isabel.villamil@espam.edu.ec</t>
   </si>
   <si>
-    <t>5Y?v#yo?</t>
+    <t>SqlWDWbO</t>
   </si>
   <si>
     <t>ZAMBRANO COBEÑA PABLO ALBERTO</t>
@@ -5462,7 +5462,7 @@
     <t>pablo.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>A93RDEw!</t>
+    <t>nKxXmz0h</t>
   </si>
   <si>
     <t>ALVAREZ INTRIAGO MAILIN KATHERINE</t>
@@ -5471,7 +5471,7 @@
     <t>mailin.alvarez@espam.edu.ec</t>
   </si>
   <si>
-    <t>AvjnnPfj</t>
+    <t>X!GUmu5S</t>
   </si>
   <si>
     <t>BRAVO ARTEAGA RICARDO JAVIER</t>
@@ -5480,7 +5480,7 @@
     <t>ricardo.bravo@espam.edu.ec</t>
   </si>
   <si>
-    <t>psFo0&amp;GN</t>
+    <t>wD8gNJzz</t>
   </si>
   <si>
     <t>BRAVO VERGARA GEMA CAROLINA</t>
@@ -5489,7 +5489,7 @@
     <t>gemac.bravo@espam.edu.ec</t>
   </si>
   <si>
-    <t>gQuCpZjP</t>
+    <t>VkEZsGVv</t>
   </si>
   <si>
     <t>CEDEÑO VELASQUEZ GEMA GUADALUPE</t>
@@ -5498,7 +5498,7 @@
     <t>gemag.cedeno@espam.edu.ec</t>
   </si>
   <si>
-    <t>o1iWu81I</t>
+    <t>XKVdNTh&amp;</t>
   </si>
   <si>
     <t>CHAVEZ VELIZ DENIS ALEXANDER</t>
@@ -5507,7 +5507,7 @@
     <t>denis.chavez@espam.edu.ec</t>
   </si>
   <si>
-    <t>!gJmr33D</t>
+    <t>UDP/KDz/</t>
   </si>
   <si>
     <t>DEMERA ZAMBRANO JACKSON ANDRES</t>
@@ -5516,7 +5516,7 @@
     <t>jackson.demera@espam.edu.ec</t>
   </si>
   <si>
-    <t>RyaMqr3V</t>
+    <t>nXcmI!2s</t>
   </si>
   <si>
     <t>GANCHOZO LECTONG GRESSILLE GUISSELLA</t>
@@ -5525,7 +5525,7 @@
     <t>gressille.ganchozo@espam.edu.ec</t>
   </si>
   <si>
-    <t>yC#KKR&amp;M</t>
+    <t>kzR1Akog</t>
   </si>
   <si>
     <t>INDIO ZAMBRANO ODALIS MICHELLE</t>
@@ -5537,7 +5537,7 @@
     <t>odalis.indio@espam.edu.ec</t>
   </si>
   <si>
-    <t>Lvidu#CF</t>
+    <t>zOCS205R</t>
   </si>
   <si>
     <t>INTRIAGO TERAN BRYAN ASDRUBAL</t>
@@ -5546,7 +5546,7 @@
     <t>bryan.intriago@espam.edu.ec</t>
   </si>
   <si>
-    <t>672JO9G#</t>
+    <t>VkokZ/T&amp;</t>
   </si>
   <si>
     <t>INTRIAGO ZAMBRANO GISSELA KAROLINA</t>
@@ -5555,7 +5555,7 @@
     <t>gissela.intriago@espam.edu.ec</t>
   </si>
   <si>
-    <t>Canu6InB</t>
+    <t>6uooqq#a</t>
   </si>
   <si>
     <t>LEONES SOLORZANO YARITZA DANIELA</t>
@@ -5564,7 +5564,7 @@
     <t>yaritza.leones@espam.edu.ec</t>
   </si>
   <si>
-    <t>mYBJm5LF</t>
+    <t>nN?IORmx</t>
   </si>
   <si>
     <t>LOPEZ MORA JOSSELYN AMARILYS</t>
@@ -5573,7 +5573,7 @@
     <t>josselyn.lopez@espam.edu.ec</t>
   </si>
   <si>
-    <t>OS0SLYwp</t>
+    <t>mq7eV0Hn</t>
   </si>
   <si>
     <t>MERA LOOR ANTONY ELIAN</t>
@@ -5582,7 +5582,7 @@
     <t>antony.mera@espam.edu.ec</t>
   </si>
   <si>
-    <t>sueXp8Sw</t>
+    <t>6&amp;JF6GFU</t>
   </si>
   <si>
     <t>MERA SABANDO GEMA YAMILETH</t>
@@ -5591,7 +5591,7 @@
     <t>gema.mera@espam.edu.ec</t>
   </si>
   <si>
-    <t>lRyxcqOW</t>
+    <t>2SGZXwqX</t>
   </si>
   <si>
     <t>MIRANDA IBARRA ALFONSO SEBASTIAN</t>
@@ -5600,7 +5600,7 @@
     <t>alfonso.miranda@espam.edu.ec</t>
   </si>
   <si>
-    <t>x2PAZm6L</t>
+    <t>9Orzngw3</t>
   </si>
   <si>
     <t>MONGE ERAZO JECSY PIERINA</t>
@@ -5609,7 +5609,7 @@
     <t>jecsy.monge@espam.edu.ec</t>
   </si>
   <si>
-    <t>1fnITBhO</t>
+    <t>iXfoJNqp</t>
   </si>
   <si>
     <t>ROMERO ORTEGA ANGEL ANDRES</t>
@@ -5618,7 +5618,7 @@
     <t>angel.romero@espam.edu.ec</t>
   </si>
   <si>
-    <t>wJlwhWyV</t>
+    <t>Rx!eqoPp</t>
   </si>
   <si>
     <t>SOLORZANO INTRIAGO OSCAR FABIAN</t>
@@ -5630,7 +5630,7 @@
     <t>oscar.solorzano@espam.edu.ec</t>
   </si>
   <si>
-    <t>/SHa3&amp;C6</t>
+    <t>0TqGHdAN</t>
   </si>
   <si>
     <t>VALVERDE ZAPATA KATHIUSCA CARLOTA</t>
@@ -5642,7 +5642,7 @@
     <t>kathiusca.valverde@espam.edu.ec</t>
   </si>
   <si>
-    <t>JB6V?DdY</t>
+    <t>m0NsTr/e</t>
   </si>
   <si>
     <t>VERA AYALA GENESIS LISBETH</t>
@@ -5651,7 +5651,7 @@
     <t>genesis.vera@espam.edu.ec</t>
   </si>
   <si>
-    <t>Ys&amp;eCLB1</t>
+    <t>pYFFoWH?</t>
   </si>
   <si>
     <t>VERA PULIDO MARIA IVANNA</t>
@@ -5660,7 +5660,7 @@
     <t>mariai.verap@espam.edu.ec</t>
   </si>
   <si>
-    <t>0L9uRBv&amp;</t>
+    <t>eU3XEqZX</t>
   </si>
   <si>
     <t>VERA ZAMBRANO JAZMIN CAROLINA</t>
@@ -5669,7 +5669,7 @@
     <t>jazmin.vera@espam.edu.ec</t>
   </si>
   <si>
-    <t>?Wq?#bQ6</t>
+    <t>hKSJ!K1z</t>
   </si>
   <si>
     <t>VERGARA ARBOLEDA WENDY DEL ROCIO</t>
@@ -5681,7 +5681,7 @@
     <t>wendy.vergara@espam.edu.ec</t>
   </si>
   <si>
-    <t>lpg0GC60</t>
+    <t>mK7ofRMi</t>
   </si>
   <si>
     <t>VILLAMAR GONZALEZ ELENA SAMANTA</t>
@@ -5690,7 +5690,7 @@
     <t>elena.villamar@espam.edu.ec</t>
   </si>
   <si>
-    <t>k##bCXjr</t>
+    <t>S3pHBdtx</t>
   </si>
   <si>
     <t>ZAMBRANO ALCIVAR GENESIS VALENTINA</t>
@@ -5699,7 +5699,7 @@
     <t>genesis.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>H/l!wFYp</t>
+    <t>YcLp!6v9</t>
   </si>
   <si>
     <t>ZAMBRANO CHAVEZ ANDREA MONSERRATE</t>
@@ -5708,7 +5708,7 @@
     <t>andream.zambranoc@espam.edu.ec</t>
   </si>
   <si>
-    <t>7Qxpv!ni</t>
+    <t>uXa2eu!j</t>
   </si>
   <si>
     <t>ZAMBRANO GRACIA DANIELA ANGELINA</t>
@@ -5717,7 +5717,7 @@
     <t>daniela.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>NTbPApM9</t>
+    <t>ai/50zIZ</t>
   </si>
   <si>
     <t>ZAMBRANO MUÑOZ WILLY JHONAY</t>
@@ -5726,7 +5726,7 @@
     <t>willy.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>cbCDvmEK</t>
+    <t>O5c1h7F5</t>
   </si>
   <si>
     <t>ZAMBRANO ZAMBRANO TATIANA ELIZABETH</t>
@@ -5735,7 +5735,7 @@
     <t>tatianael.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>HxkUr&amp;h5</t>
+    <t>Uv#tYuWE</t>
   </si>
 </sst>
 </file>

--- a/storage/app/public/seeds/datosPassword.xlsx
+++ b/storage/app/public/seeds/datosPassword.xlsx
@@ -44,7 +44,7 @@
     <t>angie.alcivar.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>57ud?QNf</t>
+    <t>EEzrsutj</t>
   </si>
   <si>
     <t>ALCIVAR VERA KARLA MILENA</t>
@@ -53,7 +53,7 @@
     <t>karla.alcivar.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>NYiVT!1r</t>
+    <t>EiNquV6P</t>
   </si>
   <si>
     <t>ALVIA ROCA HENRY ISAAC</t>
@@ -65,7 +65,7 @@
     <t>henry.alvia.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>Y&amp;rVELaO</t>
+    <t>W9&amp;sas9#</t>
   </si>
   <si>
     <t>ANANGONO GOMEZ ANA MARCELA</t>
@@ -74,7 +74,7 @@
     <t>ana.anangono.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>D107F5wt</t>
+    <t>ephcmlVi</t>
   </si>
   <si>
     <t>BRAVO MARCILLO NATHALY SILVANA</t>
@@ -86,7 +86,7 @@
     <t>nathaly.bravo.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>W!dHpkFx</t>
+    <t>zUkYYS4I</t>
   </si>
   <si>
     <t>BRIONES SUAREZ DANIA MELISSA</t>
@@ -95,7 +95,7 @@
     <t>dania.briones.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>ltCEj60&amp;</t>
+    <t>!?u/uDS3</t>
   </si>
   <si>
     <t>CANCHINGRE LOZA MARIANA DE JESUS</t>
@@ -107,7 +107,7 @@
     <t>mariana.canchingre.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>D2rIikiI</t>
+    <t>8h4mpHpA</t>
   </si>
   <si>
     <t>CEDEÑO GARCIA EMILY JAHAIRA</t>
@@ -116,7 +116,7 @@
     <t>emily.cedeno.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>k30OBODv</t>
+    <t>kfXhVZvj</t>
   </si>
   <si>
     <t>CEDEÑO VELEZ STEVEN ANTONIO</t>
@@ -125,7 +125,7 @@
     <t>steven.cedeno.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>x61ivIwc</t>
+    <t>eUGml7xg</t>
   </si>
   <si>
     <t>CHICA ORDOÑEZ YAIZA ANAHI</t>
@@ -134,7 +134,7 @@
     <t>yaiza.chica.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>d4jXDcg1</t>
+    <t>gQqYNJlT</t>
   </si>
   <si>
     <t>CORONEL MERO DAMARY SABRINA</t>
@@ -143,7 +143,7 @@
     <t>damary.coronel.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>mxieMn9a</t>
+    <t>JEoR?a3d</t>
   </si>
   <si>
     <t>DELGADO BENAVIDES MELISSA ANDREINA</t>
@@ -152,7 +152,7 @@
     <t>melissa.delgado.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>UYyxxaSr</t>
+    <t>12hLpvaW</t>
   </si>
   <si>
     <t>DELGADO SOLORZANO TONY DAMIAN</t>
@@ -161,7 +161,7 @@
     <t>tony.delgado.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>V9VNV&amp;Wh</t>
+    <t>&amp;KlWHuW7</t>
   </si>
   <si>
     <t>ELENO GENDE JOSELYN KATHERINE</t>
@@ -173,7 +173,7 @@
     <t>joselyn.eleno.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>CZRDOxZM</t>
+    <t>KI89Fnsp</t>
   </si>
   <si>
     <t>GARCIA RIVERA ANGHELA LISBETH</t>
@@ -185,7 +185,7 @@
     <t>anghela.garcia.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>LZ#MI?hR</t>
+    <t>HgQGvxKo</t>
   </si>
   <si>
     <t>GARCIA ROSS PRISCILA TAHILY</t>
@@ -194,7 +194,7 @@
     <t>priscila.garcia.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>LkvhcXbj</t>
+    <t>weEUZivO</t>
   </si>
   <si>
     <t>LOOR ZAMBRANO MARILYN MICHEL</t>
@@ -203,7 +203,7 @@
     <t>marilyn.loor.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>imZ260pN</t>
+    <t>qOveAe9e</t>
   </si>
   <si>
     <t>LUCAS MENDOZA MOISES NOE</t>
@@ -212,7 +212,7 @@
     <t>moises.lucas.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>QYvJYNcN</t>
+    <t>lioDJgRa</t>
   </si>
   <si>
     <t>MANTUANO LOOR JENIFER DANIELA</t>
@@ -221,7 +221,7 @@
     <t>jenifer.mantuano.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>9GQakwNx</t>
+    <t>Sv0uPe2L</t>
   </si>
   <si>
     <t>MENENDEZ SANTANA JOSMELY ANAHI</t>
@@ -230,7 +230,7 @@
     <t>josmely.menendez.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>Wm4qODSm</t>
+    <t>XZNEpVKV</t>
   </si>
   <si>
     <t>MEZA ESPINOZA MISHEL NICOL</t>
@@ -239,7 +239,7 @@
     <t>mishel.meza.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>9lueAHZi</t>
+    <t>ElnCQeF6</t>
   </si>
   <si>
     <t>MORANTE TROYA JAIME ANDRES</t>
@@ -248,7 +248,7 @@
     <t>jaime.morante.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>VMO4KMzC</t>
+    <t>RRrmH6MZ</t>
   </si>
   <si>
     <t>PARRAGA MOREIRA CINDY ANDREA</t>
@@ -257,7 +257,7 @@
     <t>cindy.parraga.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>QSg0tZMM</t>
+    <t>CkK9TLmT</t>
   </si>
   <si>
     <t>PEÑAFIEL VALENCIA JULEISY LISBETH</t>
@@ -269,7 +269,7 @@
     <t>juleisy.penafiel.4623@espam.edu.ec</t>
   </si>
   <si>
-    <t>7E?BQe7P</t>
+    <t>egX4wc#o</t>
   </si>
   <si>
     <t>PICO CRIOLLO MILETH KATHERINE</t>
@@ -278,7 +278,7 @@
     <t>mileth.pico.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>yOIu1x#Z</t>
+    <t>P&amp;wQqj32</t>
   </si>
   <si>
     <t>RENDON GILER JUNIOR ARIEL</t>
@@ -287,7 +287,7 @@
     <t>junior.rendon@espam.edu.ec</t>
   </si>
   <si>
-    <t>uVqicABV</t>
+    <t>mvIttbvY</t>
   </si>
   <si>
     <t>SALVATIERRA SANTOS BRYAN ALEJANDRO</t>
@@ -296,7 +296,7 @@
     <t>bryan.salvatierra@espam.edu.ec</t>
   </si>
   <si>
-    <t>I6S#!hi1</t>
+    <t>&amp;/cagYu2</t>
   </si>
   <si>
     <t>SOLORZANO LUCAS ALEXANDER JOEL</t>
@@ -308,7 +308,7 @@
     <t>alexander.solorzano.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>ea3o!v!#</t>
+    <t>uCN09MJS</t>
   </si>
   <si>
     <t>SOLORZANO RODRIGUEZ DAYANA NICOLLE</t>
@@ -317,7 +317,7 @@
     <t>dayanna.solorzano.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>A6/qzo4n</t>
+    <t>KeAdTXKB</t>
   </si>
   <si>
     <t>TENORIO QUINTERO ELY GILMAR</t>
@@ -329,7 +329,7 @@
     <t>ely.tenorio.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>D?pz#mVy</t>
+    <t>GGlJBJVm</t>
   </si>
   <si>
     <t>VELASQUEZ DOMINGUEZ JORDAN RICARDO</t>
@@ -338,7 +338,7 @@
     <t>jordan.velasquez.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>fT&amp;IYRF&amp;</t>
+    <t>N&amp;aimbGx</t>
   </si>
   <si>
     <t>VILLAVICENCIO SALVADOR MELANIE HELLAIM</t>
@@ -350,7 +350,7 @@
     <t>melanie.villavicencio.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>P8!ION3j</t>
+    <t>ki?d!/ol</t>
   </si>
   <si>
     <t>ZAMBRANO CEDEÑO ANGELO ALEXANDER</t>
@@ -359,7 +359,7 @@
     <t>angelo.zambrano.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>e0jW!8hr</t>
+    <t>n6O&amp;LMlR</t>
   </si>
   <si>
     <t>ZAMBRANO VALENCIA SHIRLEY EDITH</t>
@@ -368,7 +368,7 @@
     <t>shirley.zambrano.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>GxUgRxkU</t>
+    <t>?LfFypLJ</t>
   </si>
   <si>
     <t>ANGEL GOMEZ GILENY NAHOMY</t>
@@ -380,7 +380,7 @@
     <t>gileny.angel.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>DYeJY8CR</t>
+    <t>YZ4mG7GM</t>
   </si>
   <si>
     <t>BARRE QUIJANO DARWIN JOSE</t>
@@ -389,7 +389,7 @@
     <t>darwin.barre@espam.edu.ec</t>
   </si>
   <si>
-    <t>gQo9FE3f</t>
+    <t>nw&amp;EFYvI</t>
   </si>
   <si>
     <t>BRAVO ALVAREZ EMILY JESUS</t>
@@ -398,7 +398,7 @@
     <t>emily.bravo.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>Nw5q6F2J</t>
+    <t>QXhORHcE</t>
   </si>
   <si>
     <t>CAGUA YOONG NAHOMY JAMILETH</t>
@@ -407,7 +407,7 @@
     <t>nahomy.cagua.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>lqZ7Y573</t>
+    <t>hfWmUYIe</t>
   </si>
   <si>
     <t>CASTILLO CEDEÑO EMILIA MARICELA</t>
@@ -416,7 +416,7 @@
     <t>emilia.castillo.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>hTQcnDp!</t>
+    <t>cvjZNQ!l</t>
   </si>
   <si>
     <t>CEDEÑO ZAMBRANO JOSE DANIEL</t>
@@ -425,7 +425,7 @@
     <t>jose.cedenoz.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>dlpe8JYb</t>
+    <t>SzkrpZsk</t>
   </si>
   <si>
     <t>CIFUENTES VELASQUEZ JOSE JAHIR</t>
@@ -434,7 +434,7 @@
     <t>jose.cifuentes.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>WEl3i5Ti</t>
+    <t>p&amp;ylzMfQ</t>
   </si>
   <si>
     <t>CONFORME CIFUENTES ROBERTH JESUS</t>
@@ -443,7 +443,7 @@
     <t>roberth.conforme.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>TE9PS/m/</t>
+    <t>O!Z3#2UB</t>
   </si>
   <si>
     <t>CORDERO GILER SALMA PAOLA</t>
@@ -452,7 +452,7 @@
     <t>salma.cordero.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>ciKekk!P</t>
+    <t>FMq74vrE</t>
   </si>
   <si>
     <t>FARIAS VELIZ RENE OCTAVIO</t>
@@ -461,7 +461,7 @@
     <t>rene.farias.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>BCok9&amp;Ht</t>
+    <t>Q?gXL4Z/</t>
   </si>
   <si>
     <t>GARCIA DUEÑAS JEAN FERNANDO</t>
@@ -470,7 +470,7 @@
     <t>jean.garcia.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>f0eLGTvw</t>
+    <t>V8#EswDX</t>
   </si>
   <si>
     <t>HERRERA BASURTO IVIS ANTONELLA</t>
@@ -479,7 +479,7 @@
     <t>ivis.herrera.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>OUAocMiJ</t>
+    <t>c2nxsMVy</t>
   </si>
   <si>
     <t>HIDALGO LOOR MARLYN NALLELY</t>
@@ -488,7 +488,7 @@
     <t>marlyn.hidalgo.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>9ij9SqEy</t>
+    <t>Tkm4FMIU</t>
   </si>
   <si>
     <t>IBARRA CHAVARRIA JUAN DIEGO</t>
@@ -497,7 +497,7 @@
     <t>juan.ibarra.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>v3Ov5uT1</t>
+    <t>tE/lUyEt</t>
   </si>
   <si>
     <t>JAYA ZAPATA VICTOR EDUARDO</t>
@@ -506,7 +506,7 @@
     <t>victor.jaya.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>7zCLCkcc</t>
+    <t>kboel8dd</t>
   </si>
   <si>
     <t>LOOR DELGADO JERRY JOEL</t>
@@ -515,7 +515,7 @@
     <t>jerry.loor.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>MzjIeIg?</t>
+    <t>90i5sf9v</t>
   </si>
   <si>
     <t>MANTUANO PONCE MELANY MONCERRATE</t>
@@ -524,7 +524,7 @@
     <t>melany.mantuano.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>o7yvR3Gk</t>
+    <t>VlcWyWJL</t>
   </si>
   <si>
     <t>MENDOZA VASQUEZ ARIEL ALEXIS</t>
@@ -536,7 +536,7 @@
     <t>ariel.mendoza.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>8JTi//BS</t>
+    <t>dvMGIcKy</t>
   </si>
   <si>
     <t>MOREIRA GARCIA MACARIO EMANUEL</t>
@@ -545,7 +545,7 @@
     <t>macario.moreira.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>6F5c#JQ1</t>
+    <t>7Vn3T/1a</t>
   </si>
   <si>
     <t>MOREIRA GILCES GABRIELA NIKOL</t>
@@ -554,7 +554,7 @@
     <t>gabriela.moreira.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>?b3&amp;4PVB</t>
+    <t>ajke1&amp;r5</t>
   </si>
   <si>
     <t>NOBOA MONTESDEOCA INGRITH MADELEYN</t>
@@ -563,7 +563,7 @@
     <t>ingrith.noboa.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>AFvIdDCl</t>
+    <t>3GbwQcR0</t>
   </si>
   <si>
     <t>ORDOÑEZ ALCIVAR ALEX PAUL</t>
@@ -572,7 +572,7 @@
     <t>alex.ordonez.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>h#zgcfy8</t>
+    <t>J9vRAe#?</t>
   </si>
   <si>
     <t>PALMA GARCIA MELYN JARITZA</t>
@@ -581,7 +581,7 @@
     <t>melyn.palma.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>SM98U2pI</t>
+    <t>kzCwN4CF</t>
   </si>
   <si>
     <t>PAREDES MERO GHISLAINE ANAHI</t>
@@ -590,7 +590,7 @@
     <t>ghislaine.paredes.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>SYZ?#4JC</t>
+    <t>MQ00brB9</t>
   </si>
   <si>
     <t>QUIJIJE PIANDA XIOMARA MISHELLE</t>
@@ -602,7 +602,7 @@
     <t>xiomara.quijije.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>oYymkq!f</t>
+    <t>47PaeJKL</t>
   </si>
   <si>
     <t>SALAVARRIA AVEIGA YULIANA GUADALUPE</t>
@@ -611,7 +611,7 @@
     <t>yuliana.salavarria.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>pJGqfvMg</t>
+    <t>QiuoNr2T</t>
   </si>
   <si>
     <t>SANTOS ALCIVAR JAIR SEBASTIAN</t>
@@ -620,7 +620,7 @@
     <t>jair.santos.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>u?FhLpXp</t>
+    <t>bUyzpvp0</t>
   </si>
   <si>
     <t>SOLORZANO CANDELA JARITZA NOHEMY</t>
@@ -629,7 +629,7 @@
     <t>jaritza.solorzano.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>CrTT4zvG</t>
+    <t>lcON9/Kr</t>
   </si>
   <si>
     <t>VERA CEBALLOS MARIA CONCEPCION</t>
@@ -638,7 +638,7 @@
     <t>maria.vera.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>Cv6Luq!8</t>
+    <t>tdM&amp;Tan#</t>
   </si>
   <si>
     <t>ALAVA MUÑOZ BILL JARVI</t>
@@ -647,7 +647,7 @@
     <t>bill.alava.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>M&amp;GC/ELy</t>
+    <t>2f/dwLfF</t>
   </si>
   <si>
     <t>ALCIVAR ZAMBRANO ESTHER JOMARA</t>
@@ -656,7 +656,7 @@
     <t>esther.alcivar.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>TkVmHYXs</t>
+    <t>HBCH8VqI</t>
   </si>
   <si>
     <t>ALMEIDA LOOR MARIA VICTORIA</t>
@@ -665,7 +665,7 @@
     <t>maria.almeida.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>ATq&amp;5rBq</t>
+    <t>ISePTm?3</t>
   </si>
   <si>
     <t>ANDRADE VILLAVICENCIO PABLO HUGO</t>
@@ -674,7 +674,7 @@
     <t>pablo.andrade.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>pmh3qQNH</t>
+    <t>#MUAV&amp;Rx</t>
   </si>
   <si>
     <t>AVENDAÑO YZQUIERDO ADRIANA ISABEL</t>
@@ -686,7 +686,7 @@
     <t>adriana.avendano.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>7jXDmCM!</t>
+    <t>wKbw2hS5</t>
   </si>
   <si>
     <t>BALUARTE PARRAGA MAYERLY NARCISA</t>
@@ -698,7 +698,7 @@
     <t>mayerly.baluarte.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>mDva71ey</t>
+    <t>2USPCY9U</t>
   </si>
   <si>
     <t>BARRE CASTAÑEDA MAYERLI SOLANGE</t>
@@ -710,7 +710,7 @@
     <t>mayerli.barre.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>DPnU0!rh</t>
+    <t>2!?kP2#I</t>
   </si>
   <si>
     <t>BERMEO MENDOZA LESLY JULIETT</t>
@@ -719,7 +719,7 @@
     <t>lesly.bermeo.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>8D30F1St</t>
+    <t>s1?E7&amp;PE</t>
   </si>
   <si>
     <t>BRAVO ZAMBRANO DANA KATIUSKA</t>
@@ -728,7 +728,7 @@
     <t>dana.bravo.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>umh74Ai1</t>
+    <t>RB&amp;Pcn3F</t>
   </si>
   <si>
     <t>CEDEÑO ALVARADO JORGE LUIS</t>
@@ -737,7 +737,7 @@
     <t>jorge.cedeno.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>MGxrgoHs</t>
+    <t>d&amp;im43VQ</t>
   </si>
   <si>
     <t>DOMINGUEZ ANGEL ANAIS ZULEYMA</t>
@@ -749,7 +749,7 @@
     <t>anais.dominguez.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>uocZ!ioR</t>
+    <t>p6/kIrhZ</t>
   </si>
   <si>
     <t>ESPARZA TELLO ERICKA MARIA</t>
@@ -761,7 +761,7 @@
     <t>ericka.esparza.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>5vte5rI4</t>
+    <t>L4yTtr6n</t>
   </si>
   <si>
     <t>GRAIN MARCILLO MICHAEL JOSUE</t>
@@ -770,7 +770,7 @@
     <t>michael.grain.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>b8e3OX&amp;/</t>
+    <t>mPnn6k4A</t>
   </si>
   <si>
     <t>JAMA ZAMBRANO ROBERTH XAVIER</t>
@@ -779,7 +779,7 @@
     <t>roberth.jama@espam.edu.ec</t>
   </si>
   <si>
-    <t>jw5XGhbg</t>
+    <t>AIwgHq13</t>
   </si>
   <si>
     <t>LARA BONE ANGIE NICOLE</t>
@@ -791,7 +791,7 @@
     <t>angie.lara.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>!&amp;i&amp;V4/i</t>
+    <t>6HP/BGPK</t>
   </si>
   <si>
     <t>LOPEZ DELGADO DAYANA NICOLLE</t>
@@ -800,7 +800,7 @@
     <t>dayana.lopez.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>VYlmTPd?</t>
+    <t>Z5nr9pGm</t>
   </si>
   <si>
     <t>MELO CENTENO HELEN SOFIA</t>
@@ -809,7 +809,7 @@
     <t>helen.melo.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>bplTS/5b</t>
+    <t>Z3mo?pR7</t>
   </si>
   <si>
     <t>MENDOZA ORTEGA ANGELO DANIEL</t>
@@ -818,7 +818,7 @@
     <t>angelo.mendoza.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>rsjE?bqp</t>
+    <t>X31xZFCG</t>
   </si>
   <si>
     <t>MERO CARRILLO EMELY MILENA</t>
@@ -827,7 +827,7 @@
     <t>emely.mero.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>Az70oMe9</t>
+    <t>bqEr88Xi</t>
   </si>
   <si>
     <t>MITE MENENDEZ GEORGE ISAAC</t>
@@ -836,7 +836,7 @@
     <t>george.mite.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>9w4BGR/F</t>
+    <t>y5oAL?XI</t>
   </si>
   <si>
     <t>MONCAYO CAGUA LADY NOHELIA</t>
@@ -845,7 +845,7 @@
     <t>lady.moncayo.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>aWmyRcuZ</t>
+    <t>V&amp;uhF4qk</t>
   </si>
   <si>
     <t>ORMAZA ALCIVAR NOHELIA MILENA</t>
@@ -854,7 +854,7 @@
     <t>nohelia.ormaza.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>CQToQ4qg</t>
+    <t>&amp;SKJP&amp;iI</t>
   </si>
   <si>
     <t>PANTA CANDELA YONNY ALEXANDER</t>
@@ -863,7 +863,7 @@
     <t>jonny.panta.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>5Qpf4LVk</t>
+    <t>3Bzbek6m</t>
   </si>
   <si>
     <t>QUINATOA SIMALIZA YAJAIRA NICOLE</t>
@@ -872,7 +872,7 @@
     <t>yajaira.quinatoa.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>&amp;EccueqV</t>
+    <t>Ivzr2UWr</t>
   </si>
   <si>
     <t>REYNA RAMIREZ SINDY MAHOLY</t>
@@ -881,7 +881,7 @@
     <t>sindy.reyna.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>Hm5N9Ww3</t>
+    <t>pOXNo5GS</t>
   </si>
   <si>
     <t>RODRIGUEZ ANCHUNDIA LUIS FERNANDO</t>
@@ -890,7 +890,7 @@
     <t>luis.rodriguez.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>8lAQeorn</t>
+    <t>aWS!i#cL</t>
   </si>
   <si>
     <t>SABANDO TUAREZ MILENA BLANCA</t>
@@ -899,7 +899,7 @@
     <t>milena.sabando.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>#w/dUjOB</t>
+    <t>pJLRXygj</t>
   </si>
   <si>
     <t>SALAZAR RAMIREZ YARITZA GABRIELA</t>
@@ -908,7 +908,7 @@
     <t>yaritza.salazar.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>WodsL?J?</t>
+    <t>Kd5rM6T6</t>
   </si>
   <si>
     <t>SHIGUANGO AGUINDA KATTY MIRELLA</t>
@@ -917,7 +917,7 @@
     <t>katty.shiguango.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>hTKYYwtH</t>
+    <t>gJcQxjxL</t>
   </si>
   <si>
     <t>VACA MORALES JOSE EDUARDO</t>
@@ -926,7 +926,7 @@
     <t>jose.vaca.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>FrhVpctS</t>
+    <t>gaCQYpGz</t>
   </si>
   <si>
     <t>VELASQUEZ MEJIA ARIANNA ELIZABETH</t>
@@ -935,7 +935,7 @@
     <t>arianna.velasquez.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>3jJNdVDf</t>
+    <t>Z#K5F9yc</t>
   </si>
   <si>
     <t>VELEZ CEDEÑO YANDRY ALAIN</t>
@@ -944,7 +944,7 @@
     <t>yandry.velez.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>mnhWczvn</t>
+    <t>2mdGvd8j</t>
   </si>
   <si>
     <t>VERA ZAMORA DIXON YAIR</t>
@@ -953,7 +953,7 @@
     <t>dixon.vera.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>#tBF4g7x</t>
+    <t>Vfwcs64z</t>
   </si>
   <si>
     <t>ZAMBRANO FORTIS RICARDO MIGUEL</t>
@@ -962,7 +962,7 @@
     <t>ricardo.zambrano.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>hJ56s!TB</t>
+    <t>slcJDlaU</t>
   </si>
   <si>
     <t>ALVARADO DUEÑAS KARELYS VANESSA</t>
@@ -971,7 +971,7 @@
     <t>karelys.alvarado.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>4OFYOJex</t>
+    <t>sc&amp;Jrp11</t>
   </si>
   <si>
     <t>ANDRADE ILES ALVIERY JAHIR</t>
@@ -983,7 +983,7 @@
     <t>alviery.andrade.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>ZOEAb&amp;vR</t>
+    <t>N2706KjN</t>
   </si>
   <si>
     <t>ARTEAGA RAMOS DIEGO ALEJANDRO</t>
@@ -992,7 +992,7 @@
     <t>diego.arteaga.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>9vW!AEks</t>
+    <t>!iBNgTvV</t>
   </si>
   <si>
     <t>BARREIRO INTRIAGO STEFANY PIERINA</t>
@@ -1001,7 +1001,7 @@
     <t>stefany.barreiro.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>Vy6APlly</t>
+    <t>wz!7NItX</t>
   </si>
   <si>
     <t>BRAVO QUINTERO SARA NICOLE</t>
@@ -1013,7 +1013,7 @@
     <t>sara.bravo.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>gD4&amp;2LlT</t>
+    <t>4Fr4/k1L</t>
   </si>
   <si>
     <t>CABALLERO MUÑOZ STEVEN FABRICIO</t>
@@ -1022,7 +1022,7 @@
     <t>steven.caballero.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>Un2!VXSx</t>
+    <t>v!8PCCFM</t>
   </si>
   <si>
     <t>CARRASCO VERA LUCAS JOSUE</t>
@@ -1031,7 +1031,7 @@
     <t>lucas.carrasco.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>B?ugjwGw</t>
+    <t>4Y2xpryO</t>
   </si>
   <si>
     <t>CEDEÑO MURILLO KENNER STEVEN</t>
@@ -1040,7 +1040,7 @@
     <t>kenner.cedeno.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>/ukg?zVk</t>
+    <t>!9RPlpC5</t>
   </si>
   <si>
     <t>CUERO PAZMIÑO EMMANUEL JOSUE</t>
@@ -1049,7 +1049,7 @@
     <t>emmanuel.cuero.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>f8yepEh6</t>
+    <t>s9H0g&amp;Tz</t>
   </si>
   <si>
     <t>LADINES CASTRO MIRKA DARLISHA</t>
@@ -1061,7 +1061,7 @@
     <t>mirka.ladines.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>JaP5K7E7</t>
+    <t>GEQgmz#R</t>
   </si>
   <si>
     <t>LARA FRANCO MICHAEL ARGEL</t>
@@ -1073,7 +1073,7 @@
     <t>michael.lara.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>hGKyibG4</t>
+    <t>?jpP?oae</t>
   </si>
   <si>
     <t>LEYTHON QUIÑONEZ JEIMY SILVANA</t>
@@ -1085,7 +1085,7 @@
     <t>jeimy.leython.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>KUWutI84</t>
+    <t>BfImHFC?</t>
   </si>
   <si>
     <t>LOOR LOOR GENESIS DANIELA</t>
@@ -1094,7 +1094,7 @@
     <t>genesis.loor.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>eQ?SmY3W</t>
+    <t>YysXnCXM</t>
   </si>
   <si>
     <t>MATAMBA GUANGA THALIA VALERIA</t>
@@ -1106,7 +1106,7 @@
     <t>thalia.matamba.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>Qk2q1YGw</t>
+    <t>51kUZ8yE</t>
   </si>
   <si>
     <t>MENDOZA DE LA CRUZ MARTHA DANIELA</t>
@@ -1115,7 +1115,7 @@
     <t>martha.mendoza.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>u#kBbuyr</t>
+    <t>XHQn1J1X</t>
   </si>
   <si>
     <t>MINOTA BORJA ALEXANDER JAHIR</t>
@@ -1127,7 +1127,7 @@
     <t>alexander.minota.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>gmbsw3S8</t>
+    <t>5ATqLw8B</t>
   </si>
   <si>
     <t>NAVIA LOOR JOSE EFRAIN</t>
@@ -1136,7 +1136,7 @@
     <t>jose.navia.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>M7sw!8My</t>
+    <t>AdfMfqhv</t>
   </si>
   <si>
     <t>PILATAXI UTRERAS KATHERIN JULIETH</t>
@@ -1145,7 +1145,7 @@
     <t>katherin.pilataxi.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>k3XphAnj</t>
+    <t>EEk#rIab</t>
   </si>
   <si>
     <t>PINARGOTE CARREÑO FELIX JOEL</t>
@@ -1154,7 +1154,7 @@
     <t>felix.pinargote.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>JCueGMUv</t>
+    <t>!4rqbV&amp;0</t>
   </si>
   <si>
     <t>PONCE ZAMBRANO ARIANA JESSENIA</t>
@@ -1163,7 +1163,7 @@
     <t>ariana.ponce.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>fLvtMTOF</t>
+    <t>Ca3&amp;LJQz</t>
   </si>
   <si>
     <t>QUINATOA SIMALIZA KELLY MARIUXI</t>
@@ -1172,7 +1172,7 @@
     <t>kelly.quinatoa.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>SK3MZ4DJ</t>
+    <t>Mt8WKs8W</t>
   </si>
   <si>
     <t>ROSADO ROSADO JOEL JESUS</t>
@@ -1181,7 +1181,7 @@
     <t>joel.rosado.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>0G8AciD1</t>
+    <t>fZL&amp;spya</t>
   </si>
   <si>
     <t>SANMARTIN TAPIA CARMEN EDITH</t>
@@ -1190,7 +1190,7 @@
     <t>carmen.sanmartin.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>hqg42Ur0</t>
+    <t>!YGyFvMA</t>
   </si>
   <si>
     <t>SAYAY DAGUA JOSELYN NICOL</t>
@@ -1202,7 +1202,7 @@
     <t>joselyn.sayay.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>mvUXsyOF</t>
+    <t>2WrcYSIU</t>
   </si>
   <si>
     <t>SOLORZANO PAZMIÑO DECCY DANIELA</t>
@@ -1211,7 +1211,7 @@
     <t>deccy.solorzano.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>#pdTWjHP</t>
+    <t>&amp;SJuBCYN</t>
   </si>
   <si>
     <t>VERGARA ZAMBRANO MATIAS ALEXANDER</t>
@@ -1220,7 +1220,7 @@
     <t>matias.vergara.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>Si31!8H1</t>
+    <t>YxUcrkib</t>
   </si>
   <si>
     <t>ZAMBRANO INTRIAGO FRAYDA JESSENIA</t>
@@ -1229,7 +1229,7 @@
     <t>frayda.zambrano.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>wAxeL3I6</t>
+    <t>yp#/N95z</t>
   </si>
   <si>
     <t>ZAMBRANO VALAREZO ANDREA LISBETH</t>
@@ -1238,7 +1238,7 @@
     <t>andrea.zambrano.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>/IiEDGrV</t>
+    <t>WEXV9NuH</t>
   </si>
   <si>
     <t>AGUAS MARTINEZ KEVIN SNAIDER</t>
@@ -1247,7 +1247,7 @@
     <t>kevin.aguas@espam.edu.ec</t>
   </si>
   <si>
-    <t>OSQ?GwzM</t>
+    <t>NkqNUDp8</t>
   </si>
   <si>
     <t>ANDRADE GARCIA LUZ CRUCELINA</t>
@@ -1256,7 +1256,7 @@
     <t>luz.andrade.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>kzLAPZvf</t>
+    <t>VSxXo13F</t>
   </si>
   <si>
     <t>BARBERAN MERO HELEN ADRIANA</t>
@@ -1265,7 +1265,7 @@
     <t>helen.barberan.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>4ZYFDxZx</t>
+    <t>/!?c1/Y6</t>
   </si>
   <si>
     <t>BARROS ZAMBRANO DANIEL ANGEL</t>
@@ -1274,7 +1274,7 @@
     <t>daniel.barros.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>psoU25oj</t>
+    <t>EOuD5h7?</t>
   </si>
   <si>
     <t>BASURTO ZAMBRANO CARLOS RAUL</t>
@@ -1283,7 +1283,7 @@
     <t>carlos.basurto.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>e47feNHs</t>
+    <t>BJVEv!NV</t>
   </si>
   <si>
     <t>BRAVO BRAVO ANTHONY ADEMIR</t>
@@ -1292,7 +1292,7 @@
     <t>anthony.bravo.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>AMW1PJUy</t>
+    <t>x2Evxgb!</t>
   </si>
   <si>
     <t>CANTOS VERA ANGELA AUXILIADORA</t>
@@ -1301,7 +1301,7 @@
     <t>angela.cantos.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>M?cDYj2?</t>
+    <t>?OZi3Ku6</t>
   </si>
   <si>
     <t>CASTRO BOLAÑO FANNY TATIANA</t>
@@ -1310,7 +1310,7 @@
     <t>fanny.castro.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>WdBH6Kcm</t>
+    <t>oSzDlo42</t>
   </si>
   <si>
     <t>CASTRO SALTOS MATTEWS FARID</t>
@@ -1319,7 +1319,7 @@
     <t>mattews.castro.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>#D5UMw6/</t>
+    <t>1of479Ql</t>
   </si>
   <si>
     <t>CHANCAY RADE ANTONY GABRIEL</t>
@@ -1328,7 +1328,7 @@
     <t>antony.chancay@espam.edu.ec</t>
   </si>
   <si>
-    <t>8f0xjott</t>
+    <t>iiSl?8IF</t>
   </si>
   <si>
     <t>COBEÑA GARCIA YOMAYRA ALEXANDRA</t>
@@ -1337,7 +1337,7 @@
     <t>yomayra.cobena.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>6laqrSWx</t>
+    <t>YlnNDa5J</t>
   </si>
   <si>
     <t>CRUZ ERAZO JOSE MIGUEL</t>
@@ -1346,7 +1346,7 @@
     <t>jose.cruz.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>qb7u2MqD</t>
+    <t>HN74hUWO</t>
   </si>
   <si>
     <t>GARCIA ANDRADE MARIA ROSA</t>
@@ -1355,7 +1355,7 @@
     <t>maria.garcia.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>QvUTRCbS</t>
+    <t>pK3fqYQU</t>
   </si>
   <si>
     <t>HERNANDEZ LOPEZ LUIS DAVID</t>
@@ -1364,7 +1364,7 @@
     <t>luis.hernandez.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>Ro09nspo</t>
+    <t>OCBnW54L</t>
   </si>
   <si>
     <t>LEON FUENTES JONATHAN ALBINO</t>
@@ -1376,7 +1376,7 @@
     <t>jonathan.leon.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>Fmr!z5Uh</t>
+    <t>acnB#Gh/</t>
   </si>
   <si>
     <t>MACIAS ANCHUNDIA ROBERTO CARLOS</t>
@@ -1385,7 +1385,7 @@
     <t>roberto.macias.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>F/kavD2Q</t>
+    <t>UZ7RJiT6</t>
   </si>
   <si>
     <t>MAZA AGREDA KAREN IBETH</t>
@@ -1394,7 +1394,7 @@
     <t>karen.maza.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>7Kf6GgZV</t>
+    <t>jv&amp;iozyT</t>
   </si>
   <si>
     <t>MUÑOZ MERA LITZY ALEJANDRA</t>
@@ -1403,7 +1403,7 @@
     <t>litzy.munoz.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>ElUyMj2k</t>
+    <t>Ol8aKwaU</t>
   </si>
   <si>
     <t>MUÑOZ MOLINA ANDRY FABIAN</t>
@@ -1412,7 +1412,7 @@
     <t>andry.munoz.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>RgWYWinH</t>
+    <t>UeiG#Mnw</t>
   </si>
   <si>
     <t>ORMAZA VALENCIA KEVIN JAVIER</t>
@@ -1424,7 +1424,7 @@
     <t>kevin.ormaza.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>mF3K7yfX</t>
+    <t>sY6&amp;2JZv</t>
   </si>
   <si>
     <t>PAZMIÑO PINCAY NAYELLY AGUSTINA</t>
@@ -1433,7 +1433,7 @@
     <t>nayelly.pazmino.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>bXl0IxHw</t>
+    <t>JD7clU0/</t>
   </si>
   <si>
     <t>POZO PONCE DANNY IVAN</t>
@@ -1442,7 +1442,7 @@
     <t>danny.pozo@espam.edu.ec</t>
   </si>
   <si>
-    <t>NPXaNQZL</t>
+    <t>9rU3YzAQ</t>
   </si>
   <si>
     <t>QUIJANO MEZA MARIANA LISETH</t>
@@ -1451,7 +1451,7 @@
     <t>mariana.quijano.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>9nEWXsLE</t>
+    <t>qYDPbmxG</t>
   </si>
   <si>
     <t>QUIÑONEZ AÑAPA RODRIGO MANUEL</t>
@@ -1463,7 +1463,7 @@
     <t>rodrigo.quinonez.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>7anHMo&amp;7</t>
+    <t>OoF#E5RZ</t>
   </si>
   <si>
     <t>SANTOS ALCIVAR KELVIN YOEL</t>
@@ -1472,7 +1472,7 @@
     <t>kelvin.santos.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>?HBB!HG/</t>
+    <t>Omc/i!UN</t>
   </si>
   <si>
     <t>SOLORZANO RODRIGUEZ SANDY</t>
@@ -1481,7 +1481,7 @@
     <t>sandy.solorzano.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>3OC#VPAj</t>
+    <t>Jpff4TD#</t>
   </si>
   <si>
     <t>TOALA PIN ARIEL ALEJANDRO</t>
@@ -1493,7 +1493,7 @@
     <t>ariel.toala.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>?1vnCs6w</t>
+    <t>!q993TK3</t>
   </si>
   <si>
     <t>VEGA INTRIAGO MIGUEL ANGEL</t>
@@ -1502,7 +1502,7 @@
     <t>miguel.vega.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>v4/#Zd5?</t>
+    <t>gwlb4hGT</t>
   </si>
   <si>
     <t>VELASQUEZ RODRIGUEZ GEMA BELEN</t>
@@ -1511,7 +1511,7 @@
     <t>gema.velasquez.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>#Hd2Ir?r</t>
+    <t>CJZPOI2!</t>
   </si>
   <si>
     <t>VERA MENDOZA MARIA VICTORIA</t>
@@ -1520,7 +1520,7 @@
     <t>maria.veram.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>WXGcMCEv</t>
+    <t>1NKYWrM#</t>
   </si>
   <si>
     <t>VERA PALACIOS JORDANO SAUL</t>
@@ -1529,7 +1529,7 @@
     <t>jordano.vera.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>cXErDe4#</t>
+    <t>sTPEkBf9</t>
   </si>
   <si>
     <t>ZAMBRANO MERA VALENTINA MONSERRATE</t>
@@ -1538,7 +1538,7 @@
     <t>valentina.zambrano.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>9#mRPAX1</t>
+    <t>&amp;HNDxUrX</t>
   </si>
   <si>
     <t>ZAMBRANO QUIMI JUAN GEORGE</t>
@@ -1550,7 +1550,7 @@
     <t>juan.zambrano.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>xB0Hlhhd</t>
+    <t>#Z4XU7#1</t>
   </si>
   <si>
     <t>ALCIVAR ZAMBRANO GEOMAYRA KATHERINE</t>
@@ -1562,7 +1562,7 @@
     <t>geomayra.alcivar.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>pCwNte4K</t>
+    <t>GMKDRaJl</t>
   </si>
   <si>
     <t>ANDRADE CASTILLO CLAUDIA VICTORIA</t>
@@ -1571,7 +1571,7 @@
     <t>claudia.andrade.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>0auej0?o</t>
+    <t>KlOpohA7</t>
   </si>
   <si>
     <t>ANGUISACA CUENCA ALEXANDRA CECIBEL</t>
@@ -1580,7 +1580,7 @@
     <t>alexandra.anguisaca.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>rO0nN7qs</t>
+    <t>qtatGUWP</t>
   </si>
   <si>
     <t>BARIAS GUARACA LESLY NAYHELY</t>
@@ -1589,7 +1589,7 @@
     <t>lesly.barias.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>t9C?h02!</t>
+    <t>Si5C1qnq</t>
   </si>
   <si>
     <t>BARROS VERA ANGEL DAVID</t>
@@ -1598,7 +1598,7 @@
     <t>angel.barros.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>BgYk0G2t</t>
+    <t>s#kmPY3v</t>
   </si>
   <si>
     <t>BAZURTO SANTOS KENNIA KATHERINE</t>
@@ -1607,7 +1607,7 @@
     <t>kennia.bazurto.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>CzwnARIR</t>
+    <t>LFR?fuBq</t>
   </si>
   <si>
     <t>BRAVO BAZURTO GISSELA MARIA</t>
@@ -1616,7 +1616,7 @@
     <t>gissela.bravo.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>Xorfo6WF</t>
+    <t>WrK?/l62</t>
   </si>
   <si>
     <t>BUSTAMANTE YANEZ ANTHONY MICHEL</t>
@@ -1625,7 +1625,7 @@
     <t>anthony.bustamante.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>aWZDKUQQ</t>
+    <t>/UgbNzWw</t>
   </si>
   <si>
     <t>CASTRO SOLORZANO NIURKA JULIANA</t>
@@ -1634,7 +1634,7 @@
     <t>niurka.castro.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>G?rcj#&amp;W</t>
+    <t>HMOFs8wE</t>
   </si>
   <si>
     <t>CEDEÑO CEDEÑO YOHANA VANESA</t>
@@ -1643,7 +1643,7 @@
     <t>yohana.cedeno.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>Pc1BXj7h</t>
+    <t>mCFm6yrV</t>
   </si>
   <si>
     <t>CEDEÑO INTRIAGO JEAN PIERRE</t>
@@ -1652,7 +1652,7 @@
     <t>jean.cedeno@espam.edu.ec</t>
   </si>
   <si>
-    <t>d!ZBjWeO</t>
+    <t>ofOVQ#eh</t>
   </si>
   <si>
     <t>DELGADO CEVALLOS MARIA JOSE</t>
@@ -1661,7 +1661,7 @@
     <t>maria.delgado.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>6Ws3J5ZN</t>
+    <t>7WwuImtP</t>
   </si>
   <si>
     <t>ERAZO MORALES GABRIELA ALEJANDRA</t>
@@ -1670,7 +1670,7 @@
     <t>gabriela.erazo.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>SloKiA2S</t>
+    <t>/iJ!ho?P</t>
   </si>
   <si>
     <t>INTRIAGO ZAMBRANO LUIS JOSE</t>
@@ -1679,7 +1679,7 @@
     <t>luis.intriagoz.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>Vhbnf1qB</t>
+    <t>f3H1udjA</t>
   </si>
   <si>
     <t>LOOR ORTIZ YORDY DAVID</t>
@@ -1688,7 +1688,7 @@
     <t>yordy.loor.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>K63LE&amp;QK</t>
+    <t>lp08nIgm</t>
   </si>
   <si>
     <t>LOZANO GAMEZ THALIA VANESSA</t>
@@ -1700,7 +1700,7 @@
     <t>thalia.lozano.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>AxwwOCEH</t>
+    <t>50PSd&amp;E&amp;</t>
   </si>
   <si>
     <t>MONTES RODRIGUEZ ROLANDO ANTONIO</t>
@@ -1709,7 +1709,7 @@
     <t>rolando.montes.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>pNpWTEYN</t>
+    <t>ginofXkG</t>
   </si>
   <si>
     <t>PALMA RENDON ARGENIS ARTURO</t>
@@ -1718,7 +1718,7 @@
     <t>argenis.palma@espam.edu.ec</t>
   </si>
   <si>
-    <t>C6x2/koL</t>
+    <t>Je!CcjbL</t>
   </si>
   <si>
     <t>PAREDES YUMBILLO KATTY MARGOTH</t>
@@ -1730,7 +1730,7 @@
     <t>katty.paredes.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>x4YQd0Ko</t>
+    <t>dQfqflxs</t>
   </si>
   <si>
     <t>PARRALES DELGADO ALAN SEBASTIAN</t>
@@ -1739,7 +1739,7 @@
     <t>alan.parrales.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>L9Htk?Ta</t>
+    <t>5vBPlvQu</t>
   </si>
   <si>
     <t>PATA CEDEÑO ROSA JUANA</t>
@@ -1751,7 +1751,7 @@
     <t>rosa.pata.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>r7KguM9G</t>
+    <t>l1l8U9mQ</t>
   </si>
   <si>
     <t>RETETE BASARAN KEVIN ALEXANDER</t>
@@ -1760,7 +1760,7 @@
     <t>kevin.retete.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>LK6/&amp;YUz</t>
+    <t>CW8IaPg?</t>
   </si>
   <si>
     <t>ROMAN MACIAS ESTEFANIA ISABEL</t>
@@ -1769,7 +1769,7 @@
     <t>estefania.roman.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>dJXVPLAm</t>
+    <t>hTXP6WqH</t>
   </si>
   <si>
     <t>SANDOVAL UREÑA FERNANDA DAYANARA</t>
@@ -1781,7 +1781,7 @@
     <t>fernanda.sandoval.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>9Te5kmPg</t>
+    <t>ykuAHvhz</t>
   </si>
   <si>
     <t>SUBIAGA RAMOS LUIS ALEJANDRO</t>
@@ -1790,7 +1790,7 @@
     <t>luis.subiaga.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>hfZIfqgy</t>
+    <t>nioZTUAB</t>
   </si>
   <si>
     <t>VELASQUEZ AVEIGA MARIA JESUS</t>
@@ -1799,7 +1799,7 @@
     <t>maria.velasquez.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>VQ#TZYPq</t>
+    <t>TsF9ICvo</t>
   </si>
   <si>
     <t>VELEZ CHEME JORDAN ESTEBAN</t>
@@ -1811,7 +1811,7 @@
     <t>jordan.velez.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>?U0zdJ!k</t>
+    <t>Nw7NOWxF</t>
   </si>
   <si>
     <t>VELEZ MENDOZA DARWIN ALEXIS</t>
@@ -1820,7 +1820,7 @@
     <t>darwin.velez.4623@espam.edu.ec</t>
   </si>
   <si>
-    <t>m3N!6k?D</t>
+    <t>MMDzgsfS</t>
   </si>
   <si>
     <t>VERA BARRE RONNY ARISTIDES</t>
@@ -1829,7 +1829,7 @@
     <t>ronny.vera.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>a5OnrdF#</t>
+    <t>WU7tA6PL</t>
   </si>
   <si>
     <t>ZAMBRANO MACIAS DIEGO ANDRES</t>
@@ -1838,7 +1838,7 @@
     <t>diego.zambrano.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>AiXjFzux</t>
+    <t>!Vejv&amp;&amp;E</t>
   </si>
   <si>
     <t>ZAMBRANO REYNA YERSY ENRIQUE</t>
@@ -1847,7 +1847,7 @@
     <t>yersy.zambrano.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>xU13uVju</t>
+    <t>PFClKfOC</t>
   </si>
   <si>
     <t>CARDENAS MIELES CRISTHYAN ALBERTO</t>
@@ -1856,7 +1856,7 @@
     <t>cristhyan.cardenas.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>iwQ&amp;8#Ff</t>
+    <t>V8DdrpCd</t>
   </si>
   <si>
     <t>CASTRO CARRERA JUAN CARLOS</t>
@@ -1865,7 +1865,7 @@
     <t>juan.castro.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>5saL254o</t>
+    <t>odDPKlyf</t>
   </si>
   <si>
     <t>CHAVEZ MIRANDA ANTHONY MIGUEL</t>
@@ -1874,7 +1874,7 @@
     <t>anthony.chavez@espam.edu.ec</t>
   </si>
   <si>
-    <t>evvjCfoa</t>
+    <t>NELFzseG</t>
   </si>
   <si>
     <t>CUSME ZAMBRANO MICHAEL RICHARD</t>
@@ -1883,7 +1883,7 @@
     <t>michael.cusme.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>mBjBzLOh</t>
+    <t>Eo3kTO7v</t>
   </si>
   <si>
     <t>GILER SALAZAR CARLOS IGNACIO</t>
@@ -1892,7 +1892,7 @@
     <t>carlos.giler@espam.edu.ec</t>
   </si>
   <si>
-    <t>FVK85bXf</t>
+    <t>5M4Zt4v3</t>
   </si>
   <si>
     <t>HERNANDEZ DIAZ MARIA JOSE</t>
@@ -1904,7 +1904,7 @@
     <t>maria.hernandez.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>TOCUHgds</t>
+    <t>WFYjJNBV</t>
   </si>
   <si>
     <t>HIDALGO MOREIRA ESTELA NATHALY</t>
@@ -1913,7 +1913,7 @@
     <t>estela.hidalgo.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>wjmTfoze</t>
+    <t>XBS7&amp;q2j</t>
   </si>
   <si>
     <t>HIDALGO MOREIRA PIERINA NATHALY</t>
@@ -1922,7 +1922,7 @@
     <t>pierina.hidalgo.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>PVKnm&amp;hZ</t>
+    <t>5f?ODy/d</t>
   </si>
   <si>
     <t>LARA QUIJIJE PAMELA JULISSA</t>
@@ -1931,7 +1931,7 @@
     <t>pamela.lara.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>G#ITUn8r</t>
+    <t>ql6bByQb</t>
   </si>
   <si>
     <t>LOOR PITIZACA FRANK ALLAN</t>
@@ -1940,7 +1940,7 @@
     <t>frank.loor.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>qMFwc6rB</t>
+    <t>A3nY6mMb</t>
   </si>
   <si>
     <t>LOOR ZAMBRANO GEMA STEFANIA</t>
@@ -1949,7 +1949,7 @@
     <t>gema.loor.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>wmMRYh4X</t>
+    <t>zzTOD#6x</t>
   </si>
   <si>
     <t>PALACIOS TAPIA CESAR XAVIER</t>
@@ -1958,7 +1958,7 @@
     <t>cesar.palacios.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>35rF!0zP</t>
+    <t>q7sC&amp;z0M</t>
   </si>
   <si>
     <t>PEÑARRETA LANCHE PILAR MICAELA</t>
@@ -1967,7 +1967,7 @@
     <t>pilar.penarreta.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>OUsNr6pn</t>
+    <t>Bm/uScO0</t>
   </si>
   <si>
     <t>PILLASAGUA PINARGOTE INGRID MAYERLI</t>
@@ -1979,7 +1979,7 @@
     <t>ingrid.pillasagua.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>z/byt9vU</t>
+    <t>NHFalyWv</t>
   </si>
   <si>
     <t>QUIJIJE CEDEÑO GEMA LISBETH</t>
@@ -1988,7 +1988,7 @@
     <t>gema.quijije.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>qbBSncRL</t>
+    <t>8/TjXng#</t>
   </si>
   <si>
     <t>RUIZ ZAMBRANO VICTOR ANDRES</t>
@@ -1997,7 +1997,7 @@
     <t>victor.ruiz.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>PEpZ61qZ</t>
+    <t>3BGiWfW1</t>
   </si>
   <si>
     <t>SALTOS SALAZAR MAYERLY VERONICA</t>
@@ -2009,7 +2009,7 @@
     <t>mayerly.saltos.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>F8tELRzL</t>
+    <t>tfOHRn12</t>
   </si>
   <si>
     <t>SANTANA PALOMINO FRANKLIN JOHAO</t>
@@ -2018,7 +2018,7 @@
     <t>franklin.santana.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>OZL5aUm7</t>
+    <t>rIErc!Zf</t>
   </si>
   <si>
     <t>TAFFUR TOASA OLGA MARIA</t>
@@ -2027,7 +2027,7 @@
     <t>olga.taffur@espam.edu.ec</t>
   </si>
   <si>
-    <t>VT8hDRhu</t>
+    <t>tVT/7#74</t>
   </si>
   <si>
     <t>TOALA MACAY JOSSELYN VALERIA</t>
@@ -2036,7 +2036,7 @@
     <t>josselyn.toala.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>96NxzU&amp;z</t>
+    <t>WHJVu1TT</t>
   </si>
   <si>
     <t>VALLADARES ALCIVAR LUIS EDUARDO</t>
@@ -2045,7 +2045,7 @@
     <t>luis.valladares@espam.edu.ec</t>
   </si>
   <si>
-    <t>iO98ffMj</t>
+    <t>jPH2drYz</t>
   </si>
   <si>
     <t>VERA ZAMBRANO HILTER JOSSBEL</t>
@@ -2054,7 +2054,7 @@
     <t>hilter.vera.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>WeW/QVwL</t>
+    <t>C6ko83i5</t>
   </si>
   <si>
     <t>VERGARA TABOADA ROMEL ALEXANDER</t>
@@ -2063,7 +2063,7 @@
     <t>romel.vergara@espam.edu.ec</t>
   </si>
   <si>
-    <t>q6U?V#DP</t>
+    <t>mxjFfvuZ</t>
   </si>
   <si>
     <t>ZAMBRANO RIVAS NALLELY LISBETH</t>
@@ -2072,7 +2072,7 @@
     <t>nallely.zambrano.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>kIjxHELX</t>
+    <t>LWdT8PkG</t>
   </si>
   <si>
     <t>ABAD MIRANDA KENYA ESTEFANIA</t>
@@ -2084,7 +2084,7 @@
     <t>kenya.abad.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>E#CzD#JM</t>
+    <t>9Q4Ab!h1</t>
   </si>
   <si>
     <t>ALAVA MORENO MILTON ANTERO</t>
@@ -2093,7 +2093,7 @@
     <t>milton.alava@espam.edu.ec</t>
   </si>
   <si>
-    <t>iYWfYScw</t>
+    <t>2SQqz&amp;aW</t>
   </si>
   <si>
     <t>ALMEIDA CEDEÑO CINDY BELEN</t>
@@ -2102,7 +2102,7 @@
     <t>cindy.almeida.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>2XNhoV8C</t>
+    <t>EU315tm9</t>
   </si>
   <si>
     <t>ANCHUNDIA VERA JUSTIN JOSE</t>
@@ -2111,7 +2111,7 @@
     <t>justin.anchundia.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>eD5849I0</t>
+    <t>gxlhELdX</t>
   </si>
   <si>
     <t>AYONG PALADINES MARIA FERNANDA</t>
@@ -2120,7 +2120,7 @@
     <t>maria.ayong.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>yVW9RjQv</t>
+    <t>RwIxG2xG</t>
   </si>
   <si>
     <t>BRAVO CEVALLOS MELANY PIERINA</t>
@@ -2129,7 +2129,7 @@
     <t>melany.bravo.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>?MBp0!0O</t>
+    <t>VfyKzW8&amp;</t>
   </si>
   <si>
     <t>CASANOVA SALAZAR ROSEMBERG STEVEN</t>
@@ -2138,7 +2138,7 @@
     <t>rosemberg.casanova@espam.edu.ec</t>
   </si>
   <si>
-    <t>vkB65pTE</t>
+    <t>oKF8vv5P</t>
   </si>
   <si>
     <t>FERNANDEZ TORRES JALENI SCARLETH</t>
@@ -2150,7 +2150,7 @@
     <t>jaleni.fernandez.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>3PXLBcM5</t>
+    <t>pzS#mlhe</t>
   </si>
   <si>
     <t>HERRERA SABANDO WILLIAMS ANDRES</t>
@@ -2159,7 +2159,7 @@
     <t>williams.herrera.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>QmUb5UCy</t>
+    <t>1kiYlpto</t>
   </si>
   <si>
     <t>LOPEZ PALADINES EDGAR JOSE</t>
@@ -2168,7 +2168,7 @@
     <t>edgar.lopez.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>GjUc8?&amp;x</t>
+    <t>FeWq7Vzp</t>
   </si>
   <si>
     <t>MEDRANDA GONZALES LINCI YERLEY</t>
@@ -2177,7 +2177,7 @@
     <t>linci.medranda.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>RHvLFcjP</t>
+    <t>c#n4Ci&amp;N</t>
   </si>
   <si>
     <t>MENDIETA GILER JORDY EDUARDO</t>
@@ -2186,7 +2186,7 @@
     <t>jordy.mendieta.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>wixBXlz5</t>
+    <t>eqGmq2&amp;Q</t>
   </si>
   <si>
     <t>MORENO VELIZ ALDRIN DAIRY</t>
@@ -2195,7 +2195,7 @@
     <t>aldrin.moreno.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>Gt2nL6oy</t>
+    <t>IWy&amp;?eIf</t>
   </si>
   <si>
     <t>MUÑOZ VERA GENESIS LOURDES</t>
@@ -2204,7 +2204,7 @@
     <t>genesis.munoz.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>f2uefSKX</t>
+    <t>qjEzIOvf</t>
   </si>
   <si>
     <t>PLAZA CHOEZ RODOLFO JEAMPIERRE</t>
@@ -2213,7 +2213,7 @@
     <t>rodolfo.plaza.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>7xL3zm1t</t>
+    <t>/UEOZ3B7</t>
   </si>
   <si>
     <t>PRECIADO MOREIRA PABLO ANTHONY</t>
@@ -2225,7 +2225,7 @@
     <t>pablo.preciado@espam.edu.ec</t>
   </si>
   <si>
-    <t>BtIKqSO2</t>
+    <t>q4bCpjHO</t>
   </si>
   <si>
     <t>SABANDO SALCEDO GENESIS BETZABETH</t>
@@ -2237,7 +2237,7 @@
     <t>genesis.sabando.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>YoU49tDr</t>
+    <t>bvfjlSn4</t>
   </si>
   <si>
     <t>SOLEDISPA ZAMBRANO CRISTHINA ISABELA</t>
@@ -2246,7 +2246,7 @@
     <t>cristhina.soledispa.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>aFKUGgJa</t>
+    <t>9FpvtAYa</t>
   </si>
   <si>
     <t>SOLORZANO RODRIGUEZ EVELYN AGUSTINA</t>
@@ -2255,7 +2255,7 @@
     <t>evelyn.solorzanor@espam.edu.ec</t>
   </si>
   <si>
-    <t>kl&amp;HpR2Z</t>
+    <t>!bju!bH6</t>
   </si>
   <si>
     <t>VERA AGUAS KELVIN JEAN PIERRE</t>
@@ -2264,7 +2264,7 @@
     <t>kelvin.vera@espam.edu.ec</t>
   </si>
   <si>
-    <t>Xe&amp;ZX/mp</t>
+    <t>OCJ#&amp;fJj</t>
   </si>
   <si>
     <t>VERA LOOR DENYS ESTEFANIA</t>
@@ -2273,7 +2273,7 @@
     <t>denys.vera.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>dmHQS!Aw</t>
+    <t>E6h3HdWd</t>
   </si>
   <si>
     <t>VINCES PIN MARIA FERNANDA</t>
@@ -2282,7 +2282,7 @@
     <t>maria.vinces.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>Kw8EkzNY</t>
+    <t>b8A!qRGT</t>
   </si>
   <si>
     <t>ZAMBRANO ZAMBRANO MARIA BELEN</t>
@@ -2291,7 +2291,7 @@
     <t>mariab.zambranoz.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>s6fNU4WJ</t>
+    <t>YD#wA4OC</t>
   </si>
   <si>
     <t>ALCIVAR ZAMBRANO DIANA ESTHER</t>
@@ -2300,7 +2300,7 @@
     <t>diana.alcivar.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>4hL4Geoe</t>
+    <t>sgSiLzv2</t>
   </si>
   <si>
     <t>ALVAREZ BORJA ANGHELO JOSUE</t>
@@ -2309,7 +2309,7 @@
     <t>anghelo.alvarez.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>zL3epaZP</t>
+    <t>#jSCeJWy</t>
   </si>
   <si>
     <t>BRAVO MENDOZA ALBERDY JAVIER</t>
@@ -2318,7 +2318,7 @@
     <t>alberdy.bravo@espam.edu.ec</t>
   </si>
   <si>
-    <t>d#ZxFqDm</t>
+    <t>QByWsFXI</t>
   </si>
   <si>
     <t>GARCIA PARRAGA FATIMA MARIA</t>
@@ -2327,7 +2327,7 @@
     <t>fatima.garcia.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>LE1SkK6?</t>
+    <t>kwXV7IfG</t>
   </si>
   <si>
     <t>GRACIA PRATT WILINTON JOSUE</t>
@@ -2339,7 +2339,7 @@
     <t>wilinton.gracia.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>ubRgebM2</t>
+    <t>mGnfaYie</t>
   </si>
   <si>
     <t>MARRETT BEDOYA MISHELLE MARCELA</t>
@@ -2351,7 +2351,7 @@
     <t>mishelle.marrett.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>FZPHGdQW</t>
+    <t>B1igyeDQ</t>
   </si>
   <si>
     <t>MERA CASTILLO NATHALY VIRGINIA</t>
@@ -2360,7 +2360,7 @@
     <t>nathaly.mera.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>TmO6jmg7</t>
+    <t>HJLiQj#h</t>
   </si>
   <si>
     <t>ROSERO VERA LUIS ANDRES</t>
@@ -2369,7 +2369,7 @@
     <t>luis.rosero@espam.edu.ec</t>
   </si>
   <si>
-    <t>BwPmABgj</t>
+    <t>XJqi9Hso</t>
   </si>
   <si>
     <t>SANTISTEBAN BENAVIDES JOSUE ROMARIO</t>
@@ -2378,7 +2378,7 @@
     <t>josue.santisteban.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>regWFeFw</t>
+    <t>YhqN6x02</t>
   </si>
   <si>
     <t>SOLORZANO CUSME GEMA JULIANA</t>
@@ -2387,7 +2387,7 @@
     <t>gemaju.solorzano@espam.edu.ec</t>
   </si>
   <si>
-    <t>b1ResXa0</t>
+    <t>7Xhz4Nim</t>
   </si>
   <si>
     <t>TORRES PINARGOTE MAHOLY</t>
@@ -2396,7 +2396,7 @@
     <t>maholy.torres.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>NVLB&amp;Tg6</t>
+    <t>99OWfT6c</t>
   </si>
   <si>
     <t>ZAMBRANO BRAVO LEANDRO ISMAEL</t>
@@ -2405,7 +2405,7 @@
     <t>leandro.zambrano.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>zhfkbBSZ</t>
+    <t>nKinUyD7</t>
   </si>
   <si>
     <t>ZAMBRANO GARCIA HENRY ARTURO</t>
@@ -2414,7 +2414,7 @@
     <t>henry.zambrano.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>KGT4NYKG</t>
+    <t>b8h6uR?U</t>
   </si>
   <si>
     <t>BARRE PARRAGA BETSY BEATRIZ</t>
@@ -2423,7 +2423,7 @@
     <t>betsy.barre.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>F3D9T2TE</t>
+    <t>v0TA&amp;6AP</t>
   </si>
   <si>
     <t>CEDEÑO CEDEÑO CAMILA PATRICIA</t>
@@ -2435,7 +2435,7 @@
     <t>camila.cedeno.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>7m#YgoOm</t>
+    <t>KXcHNRct</t>
   </si>
   <si>
     <t>CEDEÑO SOLORZANO ANTHONY STEVEN</t>
@@ -2444,7 +2444,7 @@
     <t>anthony.cedenos.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>?vUGNWL1</t>
+    <t>sBIn7aBO</t>
   </si>
   <si>
     <t>CEDEÑO TUAREZ ANGIE LISSETTE</t>
@@ -2453,7 +2453,7 @@
     <t>angie.cedeno@espam.edu.ec</t>
   </si>
   <si>
-    <t>Br39Upj1</t>
+    <t>8&amp;hA/5Ha</t>
   </si>
   <si>
     <t>CHAVEZ LANDAZURI JACKSON JAIR</t>
@@ -2465,7 +2465,7 @@
     <t>jackson.chavez.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>Q&amp;KYdBmy</t>
+    <t>Xzz!SRs0</t>
   </si>
   <si>
     <t>CHICA MOREIRA MARIA FERNANDA</t>
@@ -2474,7 +2474,7 @@
     <t>maria.chica.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>6ksP0/&amp;N</t>
+    <t>5XU7NppG</t>
   </si>
   <si>
     <t>GARCIA ZAMBRANO WENDY YAMILETH</t>
@@ -2483,7 +2483,7 @@
     <t>wendy.garcia.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>S&amp;Zg2ou5</t>
+    <t>klz/g?Zg</t>
   </si>
   <si>
     <t>GARZON CEDEÑO FRANCESCO RUBEN</t>
@@ -2492,7 +2492,7 @@
     <t>francesco.garzon.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>ODXj&amp;CqK</t>
+    <t>CQrQkVE5</t>
   </si>
   <si>
     <t>GUERRERO CEDEÑO MICHAEL JORDY</t>
@@ -2501,7 +2501,7 @@
     <t>michael.guerrero.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>/2sXXCnj</t>
+    <t>UsxWNXt3</t>
   </si>
   <si>
     <t>MEDRANDA GONZALES CRISTHIAN JOSE</t>
@@ -2510,7 +2510,7 @@
     <t>cristhian.medranda@espam.edu.ec</t>
   </si>
   <si>
-    <t>lTG/UkIM</t>
+    <t>nkNy3PpU</t>
   </si>
   <si>
     <t>ORELLANA ANCHUNDIA JESUS MIGUEL</t>
@@ -2519,7 +2519,7 @@
     <t>jesus.orellana@espam.edu.ec</t>
   </si>
   <si>
-    <t>JLYeCsTr</t>
+    <t>Iu2l5zE?</t>
   </si>
   <si>
     <t>ORTIZ GOMEZ EDUARDO ANDRES</t>
@@ -2528,7 +2528,7 @@
     <t>eduardo.ortiz@espam.edu.ec</t>
   </si>
   <si>
-    <t>A!NQMdOH</t>
+    <t>Ff#FLVaB</t>
   </si>
   <si>
     <t>PAZMIÑO MERA SHANDE ALEXANDER</t>
@@ -2537,7 +2537,7 @@
     <t>shande.pazmino.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>G?i5g#XP</t>
+    <t>hrih3JYz</t>
   </si>
   <si>
     <t>PEÑARRIETA BAZURTO ERICK ANDRES</t>
@@ -2546,7 +2546,7 @@
     <t>erick.penarrieta@espam.edu.ec</t>
   </si>
   <si>
-    <t>aJwaL9e?</t>
+    <t>EQnoIF2p</t>
   </si>
   <si>
     <t>RIERA GAVILANES IZHURY MILLENYTH</t>
@@ -2558,7 +2558,7 @@
     <t>izhury.riera.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>#OnLQY!j</t>
+    <t>X&amp;91349K</t>
   </si>
   <si>
     <t>RIVERA CEDEÑO RIVALDO JOSE</t>
@@ -2570,7 +2570,7 @@
     <t>rivaldo.rivera.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>W?PDQir&amp;</t>
+    <t>UzUZ1unl</t>
   </si>
   <si>
     <t>SALDARRIAGA ARTEAGA OMAIRA MARIBI</t>
@@ -2579,7 +2579,7 @@
     <t>omaira.saldarriaga@espam.edu.ec</t>
   </si>
   <si>
-    <t>1nl6WJu6</t>
+    <t>rG&amp;4dbd0</t>
   </si>
   <si>
     <t>SANDOVAL MERA NALLELY STEFANIA</t>
@@ -2588,7 +2588,7 @@
     <t>nallely.sandoval.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>OJmQWPzG</t>
+    <t>/6IbTmN3</t>
   </si>
   <si>
     <t>SUQUI CANGO BRYAN EDUARDO</t>
@@ -2600,7 +2600,7 @@
     <t>bryan.suqui.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>eiClgw4u</t>
+    <t>LhDF2cpE</t>
   </si>
   <si>
     <t>VERDUGA ZAMBRANO CARLOS ANDRES</t>
@@ -2609,7 +2609,7 @@
     <t>carlos.verduga.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>/AOzC7LD</t>
+    <t>&amp;NMBRQe1</t>
   </si>
   <si>
     <t>ZAMBRANO LARA MARVIN RENE</t>
@@ -2618,7 +2618,7 @@
     <t>marvin.zambrano.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>/Eb1I&amp;Gy</t>
+    <t>dAAmG6G?</t>
   </si>
   <si>
     <t>ZAMBRANO OBANDO KELVIN JOSUE</t>
@@ -2630,7 +2630,7 @@
     <t>kelvin.zambrano.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>HEjKT?C1</t>
+    <t>?px8DzqD</t>
   </si>
   <si>
     <t>ZAPATA QUINCHE ANDREA CAROLINA</t>
@@ -2639,7 +2639,7 @@
     <t>andrea.zapata.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>EkfVhqhb</t>
+    <t>99T0!GS7</t>
   </si>
   <si>
     <t>ALMEIDA PEREZ ANGEL FERNANDO</t>
@@ -2648,7 +2648,7 @@
     <t>angel.almeida@espam.edu.ec</t>
   </si>
   <si>
-    <t>61YUGup9</t>
+    <t>cGGfUQhg</t>
   </si>
   <si>
     <t>CEDEÑO PARRAGA MELANY NALLELY</t>
@@ -2657,7 +2657,7 @@
     <t>melany.cedeno.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>XpYQypFq</t>
+    <t>G4wB8/Ty</t>
   </si>
   <si>
     <t>CEDEÑO SALVATIERRA JENIFFER ALEJANDRA</t>
@@ -2666,7 +2666,7 @@
     <t>jeniffer.cedenosal@espam.edu.ec</t>
   </si>
   <si>
-    <t>IMf?ci?r</t>
+    <t>TKwW&amp;vSO</t>
   </si>
   <si>
     <t>FERNANDEZ ARTEAGA SCHEZNARDA EDITH</t>
@@ -2675,7 +2675,7 @@
     <t>scheznarda.fernandez.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>J6ztbYP&amp;</t>
+    <t>ZJ3TQlbT</t>
   </si>
   <si>
     <t>GANCHOZO VELEZ EMILY JULEXY</t>
@@ -2684,7 +2684,7 @@
     <t>emily.ganchozo.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>uZCMeNVJ</t>
+    <t>CU7plVwd</t>
   </si>
   <si>
     <t>LEON VIZÑAY ROQUE JAVIER</t>
@@ -2696,7 +2696,7 @@
     <t>roque.leon@espam.edu.ec</t>
   </si>
   <si>
-    <t>sQ&amp;2uc24</t>
+    <t>RzEMaq#a</t>
   </si>
   <si>
     <t>LOOR LOOR EVELYN YAMILETH</t>
@@ -2705,7 +2705,7 @@
     <t>evelynya.loor@espam.edu.ec</t>
   </si>
   <si>
-    <t>xuXSEe&amp;o</t>
+    <t>qJupSSkl</t>
   </si>
   <si>
     <t>LOOR MOREIRA MELANIE NOEMI</t>
@@ -2714,7 +2714,7 @@
     <t>melanie.loorm.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>jRAIAvCh</t>
+    <t>D7jdssD9</t>
   </si>
   <si>
     <t>LOPEZ ESTACIO ROSA ANGELICA</t>
@@ -2723,7 +2723,7 @@
     <t>rosa.lopez@espam.edu.ec</t>
   </si>
   <si>
-    <t>HXJr4j5V</t>
+    <t>dJgNZRgM</t>
   </si>
   <si>
     <t>MENDOZA MUÑOZ FLOR ANTONELA</t>
@@ -2732,7 +2732,7 @@
     <t>flor.mendoza.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>ArMZwOO5</t>
+    <t>r?unyN?0</t>
   </si>
   <si>
     <t>MERELO SOLORZANO NAIDELYN MISHELLE</t>
@@ -2741,7 +2741,7 @@
     <t>naidelyn.merelo.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>0LnTCeaz</t>
+    <t>dkjRL3sX</t>
   </si>
   <si>
     <t>MOREIRA LOOR FABIAN ALEXANDER</t>
@@ -2750,7 +2750,7 @@
     <t>fabian.moreira@espam.edu.ec</t>
   </si>
   <si>
-    <t>1jXM/3D/</t>
+    <t>3mri#2X?</t>
   </si>
   <si>
     <t>PAZMIÑO FALCONES JOSE MIGUEL</t>
@@ -2759,7 +2759,7 @@
     <t>jose.pazmino@espam.edu.ec</t>
   </si>
   <si>
-    <t>Qz8QJNC9</t>
+    <t>vabr9MBD</t>
   </si>
   <si>
     <t>PEÑAFIEL PITA BRITHANNY MICAELA</t>
@@ -2771,7 +2771,7 @@
     <t>brithanny.penafiel.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>JoB3#M/q</t>
+    <t>fVVxT8GY</t>
   </si>
   <si>
     <t>PINTO PALACIOS JOSE ANTONIO</t>
@@ -2780,7 +2780,7 @@
     <t>jose.pinto@espam.edu.ec</t>
   </si>
   <si>
-    <t>WTt6S7Qn</t>
+    <t>AxVHccP3</t>
   </si>
   <si>
     <t>RENTERIA VALENCIA NEURYS GYSSELA</t>
@@ -2792,7 +2792,7 @@
     <t>neurys.renteria@espam.edu.ec</t>
   </si>
   <si>
-    <t>54zqP?DI</t>
+    <t>AVIBL10G</t>
   </si>
   <si>
     <t>RIVAS ZAMBRANO ALISSON KATIUSKA</t>
@@ -2801,7 +2801,7 @@
     <t>alisson.rivas.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>DUXzbkU1</t>
+    <t>xs/4eYgJ</t>
   </si>
   <si>
     <t>TORRES VARGAS KARELIS ANDREINA</t>
@@ -2813,7 +2813,7 @@
     <t>karelis.torres@espam.edu.ec</t>
   </si>
   <si>
-    <t>p5k#9&amp;xI</t>
+    <t>YBNByTHC</t>
   </si>
   <si>
     <t>VALDIVIESO CHUNG DANIEL JAFET</t>
@@ -2822,7 +2822,7 @@
     <t>daniel.valdivieso.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>to3jNLMf</t>
+    <t>NbwXv493</t>
   </si>
   <si>
     <t>VASCONEZ GONZALEZ FRANCISCO ALESSIO</t>
@@ -2831,7 +2831,7 @@
     <t>francisco.vasconez.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>RgR?QYuw</t>
+    <t>VRHy!?Op</t>
   </si>
   <si>
     <t>VELEZ ORTEGA BORIS ANDRES</t>
@@ -2840,7 +2840,7 @@
     <t>boris.velez.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>nLscSqCJ</t>
+    <t>96rW9dL8</t>
   </si>
   <si>
     <t>VERA ESTUPIÑAN BRYAN FRANCISCO</t>
@@ -2849,7 +2849,7 @@
     <t>bryan.vera@espam.edu.ec</t>
   </si>
   <si>
-    <t>&amp;T50yzq1</t>
+    <t>GCEZePgd</t>
   </si>
   <si>
     <t>VERA LOOR ARIANA PAOLA</t>
@@ -2858,7 +2858,7 @@
     <t>ariana.vera.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>aqNi6qQ0</t>
+    <t>HqAcg#wf</t>
   </si>
   <si>
     <t>ZAMBRANO VEGA AURA ARACELY</t>
@@ -2867,7 +2867,7 @@
     <t>aura.zambranov@espam.edu.ec</t>
   </si>
   <si>
-    <t>v&amp;F1c8QN</t>
+    <t>30TJBwdW</t>
   </si>
   <si>
     <t>ALMEIDA ZAMBRANO HALINTONG VICENTE</t>
@@ -2876,7 +2876,7 @@
     <t>halintong.almeida@espam.edu.ec</t>
   </si>
   <si>
-    <t>7fBOki/m</t>
+    <t>4uw2rVUx</t>
   </si>
   <si>
     <t>AYALA VILLAFUERTE NAHOMY NAYELY</t>
@@ -2885,7 +2885,7 @@
     <t>nahomy.ayala@espam.edu.ec</t>
   </si>
   <si>
-    <t>U5vqIeGU</t>
+    <t>7bnc0mus</t>
   </si>
   <si>
     <t>BASURTO CEDEÑO ITALO JORDANO</t>
@@ -2894,7 +2894,7 @@
     <t>italo.basurto.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>GxZ7k2UE</t>
+    <t>CJY6hiO2</t>
   </si>
   <si>
     <t>CASTRO TAIPE YERIK LEXANDER</t>
@@ -2903,7 +2903,7 @@
     <t>yerik.castro.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>Lkf!FT1D</t>
+    <t>ayUA2sXM</t>
   </si>
   <si>
     <t>CEDEÑO GARCIA CARLOS PAUL</t>
@@ -2912,7 +2912,7 @@
     <t>carlos.cedeno.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>IK8OZVWV</t>
+    <t>l0GIGObd</t>
   </si>
   <si>
     <t>COBEÑA ZAMBRANO EDIS ARIEL</t>
@@ -2921,7 +2921,7 @@
     <t>edis.cobena@espam.edu.ec</t>
   </si>
   <si>
-    <t>ECqYZRW4</t>
+    <t>48FPP8m7</t>
   </si>
   <si>
     <t>CORDOVA MUGUERZA ADRIANA NICOLLE</t>
@@ -2930,7 +2930,7 @@
     <t>adriana.muguersa.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>VnBCIUl?</t>
+    <t>o#fcX88z</t>
   </si>
   <si>
     <t>COTERA PIN MAYERLY DAYANARA</t>
@@ -2939,7 +2939,7 @@
     <t>mayerly.cotera.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>0VW16gr&amp;</t>
+    <t>5RDszUTw</t>
   </si>
   <si>
     <t>CUENCA CUSME CECILIA ALEXANDRA</t>
@@ -2948,7 +2948,7 @@
     <t>cecilia.cuenca@espam.edu.ec</t>
   </si>
   <si>
-    <t>dxbTKWeS</t>
+    <t>NOKeUquz</t>
   </si>
   <si>
     <t>FERNANDEZ ARTEAGA ANGIE MISHELLE</t>
@@ -2957,7 +2957,7 @@
     <t>angie.fernandez.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>OwWtJWDI</t>
+    <t>T0QLTEC3</t>
   </si>
   <si>
     <t>LATA QUINCHI SANDRA LOURDES</t>
@@ -2966,7 +2966,7 @@
     <t>sandra.lata.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>MMHfc4B2</t>
+    <t>Dbp/p7ff</t>
   </si>
   <si>
     <t>MEJICANGO CALLE JAZMIN LISBETH</t>
@@ -2978,7 +2978,7 @@
     <t>jazmin.mejicango.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>i7AA#CbX</t>
+    <t>tfUe9Bn4</t>
   </si>
   <si>
     <t>MENDOZA GANCHOZO DOMENICA NICOLE</t>
@@ -2987,7 +2987,7 @@
     <t>domenica.mendoza.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>Pu45#sbR</t>
+    <t>4/ah!QER</t>
   </si>
   <si>
     <t>MOREIRA CEVALLOS NAYELY VANESSA</t>
@@ -2996,7 +2996,7 @@
     <t>nayely.moreira@espam.edu.ec</t>
   </si>
   <si>
-    <t>PTID3!Qb</t>
+    <t>MXGvZGWq</t>
   </si>
   <si>
     <t>MUÑOZ VERA MICHELLE VALENTINA</t>
@@ -3005,7 +3005,7 @@
     <t>michelle.munoz.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>!aF#YV&amp;y</t>
+    <t>AOQM84Ic</t>
   </si>
   <si>
     <t>OLMOS RIVERA CLEOPATRA STEFANIA</t>
@@ -3014,7 +3014,7 @@
     <t>cleopatra.olmos.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>#UDEeIA7</t>
+    <t>eff7n8BJ</t>
   </si>
   <si>
     <t>PAREDES RODRIGUEZ GIBELY JARLETH</t>
@@ -3026,7 +3026,7 @@
     <t>gibely.paredes.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>hFpDf2Zq</t>
+    <t>cTpdRGzL</t>
   </si>
   <si>
     <t>PERUGACHI MECIAS GEOVANNY ALEJANDRO</t>
@@ -3035,7 +3035,7 @@
     <t>geovanny.perugachi.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>4#KftOgA</t>
+    <t>8wzb6nkd</t>
   </si>
   <si>
     <t>PITA MACIAS RUBEN DARIO</t>
@@ -3044,7 +3044,7 @@
     <t>ruben.pita@espam.edu.ec</t>
   </si>
   <si>
-    <t>MlPpMouo</t>
+    <t>SDsRLafl</t>
   </si>
   <si>
     <t>ROSADO QUIROZ JANDRY FABRICIO</t>
@@ -3053,7 +3053,7 @@
     <t>jandry.rosado.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>WqnZaO//</t>
+    <t>pj8Ipwme</t>
   </si>
   <si>
     <t>SANCHEZ CHOEZ BERTHA DOLORES</t>
@@ -3062,7 +3062,7 @@
     <t>bertha.choez.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>Y6qpzc6C</t>
+    <t>#6vashrq</t>
   </si>
   <si>
     <t>VALENCIA MARCILLO JENIFFER KAROLINA</t>
@@ -3071,7 +3071,7 @@
     <t>jenifferk.valenciam@espam.edu.ec</t>
   </si>
   <si>
-    <t>qGepM&amp;MD</t>
+    <t>V0ywBBY!</t>
   </si>
   <si>
     <t>VELASQUEZ GUADAMUD MARIO DAMIAN</t>
@@ -3080,7 +3080,7 @@
     <t>mario.velasquez@espam.edu.ec</t>
   </si>
   <si>
-    <t>YBBJNR3Q</t>
+    <t>2E3N9m!M</t>
   </si>
   <si>
     <t>VELEZ RIVAS JOFFRE GEOVANNY</t>
@@ -3089,7 +3089,7 @@
     <t>joffre.velez.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>qsNTxlV0</t>
+    <t>Nw9XCzb5</t>
   </si>
   <si>
     <t>VELEZ ZAMBRANO GEMA BRIGITH</t>
@@ -3098,7 +3098,7 @@
     <t>gema.velez.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>9jVA?OKh</t>
+    <t>?XlCp2?X</t>
   </si>
   <si>
     <t>VERA CEVALLOS CARMEN GISSELLA</t>
@@ -3107,7 +3107,7 @@
     <t>carmen.vera@espam.edu.ec</t>
   </si>
   <si>
-    <t>HqrV2!uI</t>
+    <t>t4XUe7IH</t>
   </si>
   <si>
     <t>VERA SOLORZANO CARLOS NEPTALI</t>
@@ -3116,7 +3116,7 @@
     <t>carlos.veras@espam.edu.ec</t>
   </si>
   <si>
-    <t>7zmdnYlF</t>
+    <t>5QpzbO5v</t>
   </si>
   <si>
     <t>VERA VERA YUSTHYN YARLETH</t>
@@ -3125,7 +3125,7 @@
     <t>yusthyn.vera.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>b76b7Zud</t>
+    <t>w#g3dgSA</t>
   </si>
   <si>
     <t>VIDAL SABANDO MARIA KATHERINE</t>
@@ -3134,7 +3134,7 @@
     <t>maria.vidal.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>mMg/8w?!</t>
+    <t>NoNo?nDz</t>
   </si>
   <si>
     <t>ZAMBRANO ALCIVAR EMILIO JOSE</t>
@@ -3143,7 +3143,7 @@
     <t>emilio.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>7WCme8G&amp;</t>
+    <t>6/1jwBXs</t>
   </si>
   <si>
     <t>ZAMBRANO AVEIGA MAYRA ALEXANDRA</t>
@@ -3152,7 +3152,7 @@
     <t>mayra.zambrano.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>nTuHoE9z</t>
+    <t>6U?QgLnv</t>
   </si>
   <si>
     <t>ZAMBRANO VERA MARIA BEATRIZ</t>
@@ -3161,7 +3161,7 @@
     <t>maria.zambrano.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>1yjwcSOr</t>
+    <t>Pwx4W3fW</t>
   </si>
   <si>
     <t>ALCIVAR RODRIGUEZ STEFANY LISETH</t>
@@ -3170,7 +3170,7 @@
     <t>stefany.alcivar.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>5pkfPnrg</t>
+    <t>??ukUxzL</t>
   </si>
   <si>
     <t>ANGULO GLENN YURANI MAGERLI</t>
@@ -3182,7 +3182,7 @@
     <t>yurani.angulo.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>jl6WNbe5</t>
+    <t>Q8NQmgUB</t>
   </si>
   <si>
     <t>ARTEAGA TRIVIÑO CAMILA</t>
@@ -3191,7 +3191,7 @@
     <t>camila.arteaga.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>oym!#u4a</t>
+    <t>oiRE5t0f</t>
   </si>
   <si>
     <t>BALDERRAMO CABRERA JOSE GERMAN</t>
@@ -3200,7 +3200,7 @@
     <t>jose.balderramo.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>lgt95jPD</t>
+    <t>62rPa?Is</t>
   </si>
   <si>
     <t>BRAVO MUÑOZ JEAN MYCKEL</t>
@@ -3209,7 +3209,7 @@
     <t>jean.bravomu@espam.edu.ec</t>
   </si>
   <si>
-    <t>9eYbaZpa</t>
+    <t>WqjXrrKd</t>
   </si>
   <si>
     <t>BRAVO SANTANA JUNIOR XAVIER</t>
@@ -3218,7 +3218,7 @@
     <t>juniorx.bravos@espam.edu.ec</t>
   </si>
   <si>
-    <t>HXpwUM9G</t>
+    <t>86XfxoRX</t>
   </si>
   <si>
     <t>CAGUA RODRIGUEZ NAYELY ANAHI</t>
@@ -3227,7 +3227,7 @@
     <t>nayely.cagua.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>YHKjk0C?</t>
+    <t>?H/XlzSR</t>
   </si>
   <si>
     <t>CALDERON RODRIGUEZ FATIMA DANIELA</t>
@@ -3236,7 +3236,7 @@
     <t>fatima.calderon.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>z#iCatzq</t>
+    <t>J5W&amp;di#c</t>
   </si>
   <si>
     <t>CASTILLO MEJIA MARIA CARLOTA</t>
@@ -3245,7 +3245,7 @@
     <t>maria.castillo.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>Qbit7SfJ</t>
+    <t>G8w0r036</t>
   </si>
   <si>
     <t>CEDEÑO CUSME DAYANARA NARCISA</t>
@@ -3254,7 +3254,7 @@
     <t>dayanara.cedeno.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>z#NdZ#B5</t>
+    <t>wwY8WHMR</t>
   </si>
   <si>
     <t>CELORIO VERA PETER PABLO</t>
@@ -3263,7 +3263,7 @@
     <t>peter.celorio.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>S&amp;sP9QcY</t>
+    <t>nykr?&amp;Fn</t>
   </si>
   <si>
     <t>COOL MORENO DIANA ESTHEFANIA</t>
@@ -3272,7 +3272,7 @@
     <t>diana.cool@espam.edu.ec</t>
   </si>
   <si>
-    <t>xBNtYSww</t>
+    <t>IORm1NW&amp;</t>
   </si>
   <si>
     <t>DELGADO GARZON PAOLA FERNANDA</t>
@@ -3281,7 +3281,7 @@
     <t>paola.delgadog.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>1LAz2XqV</t>
+    <t>zgz&amp;KQhR</t>
   </si>
   <si>
     <t>DOMINGUEZ DOMINGUEZ ROMINA MELISSA</t>
@@ -3290,7 +3290,7 @@
     <t>romina.dominguez@espam.edu.ec</t>
   </si>
   <si>
-    <t>rCZx1n&amp;y</t>
+    <t>0fOfS!Q&amp;</t>
   </si>
   <si>
     <t>GARCIA MUÑOZ EDDY SANTIAGO</t>
@@ -3299,7 +3299,7 @@
     <t>eddy.garcia@espam.edu.ec</t>
   </si>
   <si>
-    <t>dx6aBCmo</t>
+    <t>LZ73Vtya</t>
   </si>
   <si>
     <t>GARCIA PONCE LEONELA ANTONELLA</t>
@@ -3308,7 +3308,7 @@
     <t>leonela.garcia.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>HbbGw5K4</t>
+    <t>7WLA2Db8</t>
   </si>
   <si>
     <t>LOPEZ SOLORZANO YIMMY</t>
@@ -3317,7 +3317,7 @@
     <t>yimmy.lopez@espam.edu.ec</t>
   </si>
   <si>
-    <t>aP/J9PHX</t>
+    <t>gOctfE!u</t>
   </si>
   <si>
     <t>LOPEZ ZAMBRANO JORGE ISAAC</t>
@@ -3326,7 +3326,7 @@
     <t>jorge.lopez.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>jg0&amp;Q8C7</t>
+    <t>XGnqgfPv</t>
   </si>
   <si>
     <t>MACIAS GUAGUA MAGERLY THAIS</t>
@@ -3338,7 +3338,7 @@
     <t>magerly.macias.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>QhyFkHYq</t>
+    <t>N/B#Iv7x</t>
   </si>
   <si>
     <t>MARTINEZ SABANDO MARCELO EFRAIN</t>
@@ -3347,7 +3347,7 @@
     <t>marcelo.martinez@espam.edu.ec</t>
   </si>
   <si>
-    <t>F8n9DNyq</t>
+    <t>RXJDTuzd</t>
   </si>
   <si>
     <t>MEDRANDA CEDEÑO IVAN ARTURO</t>
@@ -3356,7 +3356,7 @@
     <t>ivan.medranda@espam.edu.ec</t>
   </si>
   <si>
-    <t>Xk7axnnQ</t>
+    <t>u9aXZM2H</t>
   </si>
   <si>
     <t>MENDOZA INTRIAGO KEYLA YAMIRA</t>
@@ -3365,7 +3365,7 @@
     <t>keyla.mendoza@espam.edu.ec</t>
   </si>
   <si>
-    <t>Br0XKBs5</t>
+    <t>Ffgsj2Ak</t>
   </si>
   <si>
     <t>MENDOZA LOOR MARIAGRACIA</t>
@@ -3374,7 +3374,7 @@
     <t>mariagracia.mendoza@espam.edu.ec</t>
   </si>
   <si>
-    <t>8#v??ncm</t>
+    <t>nP?xfbSV</t>
   </si>
   <si>
     <t>MOREIRA VELEZ ANGELICA LISBETH</t>
@@ -3383,7 +3383,7 @@
     <t>angelica.moreira@espam.edu.ec</t>
   </si>
   <si>
-    <t>#IqjUl3Z</t>
+    <t>HuTFVWux</t>
   </si>
   <si>
     <t>PATA HERRERA ESTRELLA TATIANA</t>
@@ -3392,7 +3392,7 @@
     <t>estrella.pata.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>dkASLC#j</t>
+    <t>lD8HgQQP</t>
   </si>
   <si>
     <t>PONCE MIRANDA YOEL ISAIAS</t>
@@ -3401,7 +3401,7 @@
     <t>yoel.ponce@espam.edu.ec</t>
   </si>
   <si>
-    <t>UWgoko0N</t>
+    <t>abrEOw!Q</t>
   </si>
   <si>
     <t>RIVAS ALARCON ALISSON MAYERLI</t>
@@ -3413,7 +3413,7 @@
     <t>alisson.rivas@espam.edu.ec</t>
   </si>
   <si>
-    <t>reX/PFDz</t>
+    <t>cIccT8kC</t>
   </si>
   <si>
     <t>SABANDO VERA EMELY NOEMI</t>
@@ -3425,7 +3425,7 @@
     <t>emely.sabando.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>HZ37SoJu</t>
+    <t>UxphmWC6</t>
   </si>
   <si>
     <t>VELASQUEZ ZAMBRANO JUAN DIEGO</t>
@@ -3434,7 +3434,7 @@
     <t>juan.velasquez@espam.edu.ec</t>
   </si>
   <si>
-    <t>wk?cJzHr</t>
+    <t>hjOgc1FW</t>
   </si>
   <si>
     <t>ZAMBRANO MENDOZA JOSE LUIS</t>
@@ -3443,7 +3443,7 @@
     <t>jose.zambrano.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>DTyzhO!H</t>
+    <t>kBOu?6Wp</t>
   </si>
   <si>
     <t>ZAMBRANO PEREZ CARLOS JULIO</t>
@@ -3452,7 +3452,7 @@
     <t>carlos.zambranop@espam.edu.ec</t>
   </si>
   <si>
-    <t>?7vWJivQ</t>
+    <t>I8Bzlivr</t>
   </si>
   <si>
     <t>ACHIG GUALACATA EVELIN LISETTE</t>
@@ -3461,7 +3461,7 @@
     <t>evelin.achig@espam.edu.ec</t>
   </si>
   <si>
-    <t>tB0mn&amp;6D</t>
+    <t>&amp;iuEKgZq</t>
   </si>
   <si>
     <t>AGUAS VERA JEICOL MIKE</t>
@@ -3470,7 +3470,7 @@
     <t>jeicol.aguas@espam.edu.ec</t>
   </si>
   <si>
-    <t>tHb?!No?</t>
+    <t>UIQYH4Dd</t>
   </si>
   <si>
     <t>BRAVO BASURTO JUAN CARLOS</t>
@@ -3479,7 +3479,7 @@
     <t>juan.bravo@espam.edu.ec</t>
   </si>
   <si>
-    <t>MTtjV/FJ</t>
+    <t>2fqUV5j7</t>
   </si>
   <si>
     <t>CANTOS ZAMBRANO MARIA FERNANDA</t>
@@ -3488,7 +3488,7 @@
     <t>mariaf.cantos@espam.edu.ec</t>
   </si>
   <si>
-    <t>1i/i9oY9</t>
+    <t>6EEw65F2</t>
   </si>
   <si>
     <t>CASTILLO DELGADO LERENY JAMILEX</t>
@@ -3497,7 +3497,7 @@
     <t>lereny.castillo@espam.edu.ec</t>
   </si>
   <si>
-    <t>AK0hmL8W</t>
+    <t>NVDvsywX</t>
   </si>
   <si>
     <t>CASTILLO JACOME JHON JAIRO</t>
@@ -3506,7 +3506,7 @@
     <t>jhon.castillo@espam.edu.ec</t>
   </si>
   <si>
-    <t>XAozBb7v</t>
+    <t>noR0VYi#</t>
   </si>
   <si>
     <t>CELORIO MENDOZA MIRIAN ALEJANDRA</t>
@@ -3515,7 +3515,7 @@
     <t>mirian.celorio@espam.edu.ec</t>
   </si>
   <si>
-    <t>?/ROOCAq</t>
+    <t>4o7fwXou</t>
   </si>
   <si>
     <t>CHUMO CHAVEZ JANINA BELEN</t>
@@ -3524,7 +3524,7 @@
     <t>janina.chumo@espam.edu.ec</t>
   </si>
   <si>
-    <t>H58j8bXn</t>
+    <t>97o#lJo8</t>
   </si>
   <si>
     <t>DELGADO LOPEZ MERCEDES ELIZABETH</t>
@@ -3533,7 +3533,7 @@
     <t>mercedes.delgado@espam.edu.ec</t>
   </si>
   <si>
-    <t>vkgn&amp;qRC</t>
+    <t>Gaz/I63s</t>
   </si>
   <si>
     <t>ESTEVES OLVERA DIANA MILENA</t>
@@ -3542,7 +3542,7 @@
     <t>diana.esteves@espam.edu.ec</t>
   </si>
   <si>
-    <t>l9RnyNgf</t>
+    <t>bf2WsMe0</t>
   </si>
   <si>
     <t>FALLAIN ZAMBRANO MARIA ANGELICA</t>
@@ -3551,7 +3551,7 @@
     <t>maria.fallain@espam.edu.ec</t>
   </si>
   <si>
-    <t>ZWR7WVfN</t>
+    <t>EUE4Tc6B</t>
   </si>
   <si>
     <t>FERNANDEZ CEVALLOS FRANCISCO ESTUARDO</t>
@@ -3560,7 +3560,7 @@
     <t>francisco.fernandez@espam.edu.ec</t>
   </si>
   <si>
-    <t>UwpH9nVL</t>
+    <t>kiy?LPTA</t>
   </si>
   <si>
     <t>HERNANDEZ HERNANDEZ MARIA ZULEMA</t>
@@ -3572,7 +3572,7 @@
     <t>maria.hernandez@espam.edu.ec</t>
   </si>
   <si>
-    <t>ujwv0ABJ</t>
+    <t>X?m3wj!Q</t>
   </si>
   <si>
     <t>INTRIAGO SOLORZANO LEYDI GABRIELA</t>
@@ -3581,7 +3581,7 @@
     <t>leydi.intriago@espam.edu.ec</t>
   </si>
   <si>
-    <t>jGNs&amp;dBY</t>
+    <t>Ji66Q?qc</t>
   </si>
   <si>
     <t>MACIAS LOOR ELIAN RENE</t>
@@ -3590,7 +3590,7 @@
     <t>elian.macias@espam.edu.ec</t>
   </si>
   <si>
-    <t>AhQy9HrN</t>
+    <t>Qo01Kn12</t>
   </si>
   <si>
     <t>MACIAS PISCO NACHY MONSERRAT</t>
@@ -3599,7 +3599,7 @@
     <t>nachy.macias@espam.edu.ec</t>
   </si>
   <si>
-    <t>9GzrMgPl</t>
+    <t>CIgfTKnE</t>
   </si>
   <si>
     <t>MERA LOOR JONAYKER REYNALDO</t>
@@ -3608,7 +3608,7 @@
     <t>jonayker.mera@espam.edu.ec</t>
   </si>
   <si>
-    <t>oDaM1BxB</t>
+    <t>19&amp;zJlGa</t>
   </si>
   <si>
     <t>MOREIRA BASURTO YORDY JOEL</t>
@@ -3617,7 +3617,7 @@
     <t>yordy.moreira@espam.edu.ec</t>
   </si>
   <si>
-    <t>vsBU/YTT</t>
+    <t>V&amp;JM5Ics</t>
   </si>
   <si>
     <t>MOREIRA MENDOZA MAGDALENA JAMILETH</t>
@@ -3626,7 +3626,7 @@
     <t>magdalena.moreira@espam.edu.ec</t>
   </si>
   <si>
-    <t>r/DoMSbn</t>
+    <t>cmRSX&amp;tU</t>
   </si>
   <si>
     <t>PANTUSIN MUGUERZA ANDREA LISSETH</t>
@@ -3635,7 +3635,7 @@
     <t>andrea.pantusin@espam.edu.ec</t>
   </si>
   <si>
-    <t>5waf4Teo</t>
+    <t>I3p0plmo</t>
   </si>
   <si>
     <t>PATIÑO MEJIA MILENA ANAHI</t>
@@ -3644,7 +3644,7 @@
     <t>milena.patino@espam.edu.ec</t>
   </si>
   <si>
-    <t>58qGVlJZ</t>
+    <t>gURnbAkH</t>
   </si>
   <si>
     <t>PICO GARCIA ALLISON JANELY</t>
@@ -3653,7 +3653,7 @@
     <t>allison.pico@espam.edu.ec</t>
   </si>
   <si>
-    <t>XS04w#aT</t>
+    <t>ul8VYMyc</t>
   </si>
   <si>
     <t>POVEDA SANTANA ENZO JAVIER</t>
@@ -3665,7 +3665,7 @@
     <t>enzo.poveda@espam.edu.ec</t>
   </si>
   <si>
-    <t>?JtMrz!1</t>
+    <t>CVB?Qkv&amp;</t>
   </si>
   <si>
     <t>QUIJIJE CEDEÑO NATALY SILVANA</t>
@@ -3674,7 +3674,7 @@
     <t>nataly.quijije@espam.edu.ec</t>
   </si>
   <si>
-    <t>foz7uYbB</t>
+    <t>in6WHm?Y</t>
   </si>
   <si>
     <t>ROBALINO DELGADO JORGE DAVID</t>
@@ -3683,7 +3683,7 @@
     <t>jorge.robalino@espam.edu.ec</t>
   </si>
   <si>
-    <t>c3TNk/pU</t>
+    <t>12gdE?Op</t>
   </si>
   <si>
     <t>SANCHEZ CASTILLO ADRIANA MICAELA</t>
@@ -3692,7 +3692,7 @@
     <t>adriana.sanchez@espam.edu.ec</t>
   </si>
   <si>
-    <t>u0YvaFsS</t>
+    <t>H7Kouasj</t>
   </si>
   <si>
     <t>SOLORZANO ALAVA TAIRUN FRANCISCO</t>
@@ -3701,7 +3701,7 @@
     <t>tairun.solorzano@espam.edu.ec</t>
   </si>
   <si>
-    <t>wvnrYhiK</t>
+    <t>16mK!Udg</t>
   </si>
   <si>
     <t>SOLORZANO BAILON MARIA GABRIELA</t>
@@ -3710,7 +3710,7 @@
     <t>mariaga.solorzano@espam.edu.ec</t>
   </si>
   <si>
-    <t>3d2as#MI</t>
+    <t>PB8TR6SV</t>
   </si>
   <si>
     <t>TRUJILLO AGUAS MAYERLI DAYANA</t>
@@ -3719,7 +3719,7 @@
     <t>mayerli.trujillo@espam.edu.ec</t>
   </si>
   <si>
-    <t>cO0bFXwX</t>
+    <t>q3&amp;4iy11</t>
   </si>
   <si>
     <t>VERA VERA CINTHIA MARIA</t>
@@ -3728,7 +3728,7 @@
     <t>cinthia.verav@espam.edu.ec</t>
   </si>
   <si>
-    <t>RDAuP/kH</t>
+    <t>OrtEDrqk</t>
   </si>
   <si>
     <t>VIDAL INTRIAGO ANDY YOEL</t>
@@ -3737,7 +3737,7 @@
     <t>andy.vidal@espam.edu.ec</t>
   </si>
   <si>
-    <t>Xby2idhX</t>
+    <t>gxKhP3HA</t>
   </si>
   <si>
     <t>VINTIMILLA PROAÑO MARIA DE LOURDES</t>
@@ -3746,7 +3746,7 @@
     <t>maria.vintimilla@espam.edu.ec</t>
   </si>
   <si>
-    <t>pubvSrc9</t>
+    <t>Woe3gwhh</t>
   </si>
   <si>
     <t>VITERI SANTOS VINICIO ORLEY</t>
@@ -3755,7 +3755,7 @@
     <t>vinicio.viteri@espam.edu.ec</t>
   </si>
   <si>
-    <t>7Ef2efkf</t>
+    <t>0crszm/M</t>
   </si>
   <si>
     <t>ZAMBRANO CANO FRANCISCO JAVIER</t>
@@ -3764,7 +3764,7 @@
     <t>francisco.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>FE1sNZXQ</t>
+    <t>oQFL46Tz</t>
   </si>
   <si>
     <t>ZAMBRANO NAVARRETE ELBA MARIA</t>
@@ -3773,7 +3773,7 @@
     <t>elba.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>WNmoID6v</t>
+    <t>LNe/cYSo</t>
   </si>
   <si>
     <t>ZAMBRANO ZAMBRANO WENDY GISSELLA</t>
@@ -3782,7 +3782,7 @@
     <t>wendy.zambranoz@espam.edu.ec</t>
   </si>
   <si>
-    <t>oT!Q8Ruf</t>
+    <t>seyt1f#p</t>
   </si>
   <si>
     <t>ARANA RUEDA ANGY LISSETH</t>
@@ -3794,7 +3794,7 @@
     <t>angy.arana@espam.edu.ec</t>
   </si>
   <si>
-    <t>u8JLDnCf</t>
+    <t>GSNRcWee</t>
   </si>
   <si>
     <t>ARTEAGA VARGAS ANDREA VALERIA</t>
@@ -3803,7 +3803,7 @@
     <t>andrea.arteaga@espam.edu.ec</t>
   </si>
   <si>
-    <t>kMETlv#M</t>
+    <t>AAr&amp;X92B</t>
   </si>
   <si>
     <t>BARBERAN SANCHEZ KARLA MICHELLE</t>
@@ -3812,7 +3812,7 @@
     <t>karla.barberan@espam.edu.ec</t>
   </si>
   <si>
-    <t>PHnq&amp;RLv</t>
+    <t>ljljmWsX</t>
   </si>
   <si>
     <t>BAZURTO MANZABA SORAYA STEFANIA</t>
@@ -3821,7 +3821,7 @@
     <t>soraya.bazurto@espam.edu.ec</t>
   </si>
   <si>
-    <t>btkMgb5B</t>
+    <t>IQepTS6L</t>
   </si>
   <si>
     <t>CAGUA GARCIA ANDRES VIRGILIO</t>
@@ -3830,7 +3830,7 @@
     <t>andres.cagua@espam.edu.ec</t>
   </si>
   <si>
-    <t>KZQh6jOh</t>
+    <t>y2piwgc3</t>
   </si>
   <si>
     <t>DOMINGUEZ CALDERON JEAN PIERRE</t>
@@ -3839,7 +3839,7 @@
     <t>jean.dominguez@espam.edu.ec</t>
   </si>
   <si>
-    <t>IgsJ2!3p</t>
+    <t>tzNBw#JN</t>
   </si>
   <si>
     <t>ESPINOZA ALCIVAR EVELYN ALEXANDRA</t>
@@ -3848,7 +3848,7 @@
     <t>evelyn.espinoza@espam.edu.ec</t>
   </si>
   <si>
-    <t>di0K#g2i</t>
+    <t>6WaRZZqu</t>
   </si>
   <si>
     <t>LOOR MORENO DANIEL AGUSTIN</t>
@@ -3857,7 +3857,7 @@
     <t>daniel.loor@espam.edu.ec</t>
   </si>
   <si>
-    <t>jAHSDbnw</t>
+    <t>GtWwqqre</t>
   </si>
   <si>
     <t>MACIAS PARRALES MEREDITH MARIBEL</t>
@@ -3866,7 +3866,7 @@
     <t>meredith.macias@espam.edu.ec</t>
   </si>
   <si>
-    <t>ZpYOJi1h</t>
+    <t>tsPdV2lf</t>
   </si>
   <si>
     <t>MENDOZA CANCHINGRE BRIGITH MIKAELA</t>
@@ -3875,7 +3875,7 @@
     <t>brigith.mendoza@espam.edu.ec</t>
   </si>
   <si>
-    <t>YHkzXmYh</t>
+    <t>LXt7ET8#</t>
   </si>
   <si>
     <t>MENDOZA VELEZ JOSE MIGUEL</t>
@@ -3884,7 +3884,7 @@
     <t>josemi.mendoza@espam.edu.ec</t>
   </si>
   <si>
-    <t>XId1&amp;9Xb</t>
+    <t>OPXTEZ/T</t>
   </si>
   <si>
     <t>MEZA BRIONES ANTHONY NARCILO</t>
@@ -3893,7 +3893,7 @@
     <t>anthony.meza@espam.edu.ec</t>
   </si>
   <si>
-    <t>JFpxXbu6</t>
+    <t>sCjQl!NG</t>
   </si>
   <si>
     <t>MORA ZAMBRANO MARIA LAURA</t>
@@ -3902,7 +3902,7 @@
     <t>maria.mora@espam.edu.ec</t>
   </si>
   <si>
-    <t>0ug0E0eb</t>
+    <t>?a7FnD/T</t>
   </si>
   <si>
     <t>NAVARRETE ZAMBRANO ROBIN LUGERIO</t>
@@ -3911,7 +3911,7 @@
     <t>robin.navarrete@espam.edu.ec</t>
   </si>
   <si>
-    <t>NKyDXPZq</t>
+    <t>Mvp/m#QU</t>
   </si>
   <si>
     <t>OSTAIZA LOPEZ JOSEPH MANUEL</t>
@@ -3920,7 +3920,7 @@
     <t>josepth.ostaiza@espam.edu.ec</t>
   </si>
   <si>
-    <t>HKPp/nFS</t>
+    <t>&amp;fJwe/w5</t>
   </si>
   <si>
     <t>PARRAGA PARRAGA CARLA ESTEFANIA</t>
@@ -3929,7 +3929,7 @@
     <t>carla.parraga@espam.edu.ec</t>
   </si>
   <si>
-    <t>?zcUFMW#</t>
+    <t>pUHgBvbR</t>
   </si>
   <si>
     <t>PLAZA CABRERA MAYERLY MARIA</t>
@@ -3941,7 +3941,7 @@
     <t>mayerly.plaza@espam.edu.ec</t>
   </si>
   <si>
-    <t>#tE#/YqP</t>
+    <t>oW9bowbd</t>
   </si>
   <si>
     <t>RODRIGUEZ VELIZ LEANDRO MOISES</t>
@@ -3950,7 +3950,7 @@
     <t>leandro.rodriguez@espam.edu.ec</t>
   </si>
   <si>
-    <t>EaxnsdGE</t>
+    <t>Za4JrA1a</t>
   </si>
   <si>
     <t>SANTANA GUERRERO MARIA RAQUEL</t>
@@ -3959,7 +3959,7 @@
     <t>mariar.santanag@espam.edu.ec</t>
   </si>
   <si>
-    <t>c!jqhXeY</t>
+    <t>E3fw1jjk</t>
   </si>
   <si>
     <t>SANTOS SALAZAR JANDRY DAVID</t>
@@ -3968,7 +3968,7 @@
     <t>jandry.santos@espam.edu.ec</t>
   </si>
   <si>
-    <t>OELX&amp;psb</t>
+    <t>k?ri0xd1</t>
   </si>
   <si>
     <t>SOLORZANO LOOR KEYLA GEOVANNA</t>
@@ -3977,7 +3977,7 @@
     <t>keyla.solorzano@espam.edu.ec</t>
   </si>
   <si>
-    <t>/bufml?W</t>
+    <t>IFVK9H9M</t>
   </si>
   <si>
     <t>VALENCIA ZAMBRANO VALERIA MERCEDES</t>
@@ -3986,7 +3986,7 @@
     <t>valeria.valencia@espam.edu.ec</t>
   </si>
   <si>
-    <t>0IIEm/NA</t>
+    <t>3bNzKv/?</t>
   </si>
   <si>
     <t>VARGAS CHOEZ ALEXIS ELIAN</t>
@@ -3995,7 +3995,7 @@
     <t>alexis.vargas@espam.edu.ec</t>
   </si>
   <si>
-    <t>xiBYEz!A</t>
+    <t>!R9kuCjD</t>
   </si>
   <si>
     <t>VELEZ ALMEIDA CARMEN REBECA</t>
@@ -4004,7 +4004,7 @@
     <t>carmen.velez@espam.edu.ec</t>
   </si>
   <si>
-    <t>vyhgc8FW</t>
+    <t>Tkv!d3uZ</t>
   </si>
   <si>
     <t>VELEZ LEGTON GENESIS YAMILET</t>
@@ -4013,7 +4013,7 @@
     <t>genesisya.velez@espam.edu.ec</t>
   </si>
   <si>
-    <t>8?BERyjE</t>
+    <t>amSGlmvr</t>
   </si>
   <si>
     <t>VERA BALAREZO MARYAM JANELLA</t>
@@ -4022,7 +4022,7 @@
     <t>maryam.vera@espam.edu.ec</t>
   </si>
   <si>
-    <t>7Z?IJxbh</t>
+    <t>4kmPMb&amp;r</t>
   </si>
   <si>
     <t>VERA SERRANO CARLOS STEFANO</t>
@@ -4031,7 +4031,7 @@
     <t>carlos.verase@espam.edu.ec</t>
   </si>
   <si>
-    <t>ns9hrj4w</t>
+    <t>hhItXY#/</t>
   </si>
   <si>
     <t>VIERA BAZURTO JOSE ALEXANDER</t>
@@ -4040,7 +4040,7 @@
     <t>jose.viera@espam.edu.ec</t>
   </si>
   <si>
-    <t>m!3EVOn3</t>
+    <t>&amp;goCa#CG</t>
   </si>
   <si>
     <t>ZAMBRANO ALCIVAR DIEGO JAHIR</t>
@@ -4049,7 +4049,7 @@
     <t>diego.zambranoa@espam.edu.ec</t>
   </si>
   <si>
-    <t>#YBis0YW</t>
+    <t>uKRoaV/V</t>
   </si>
   <si>
     <t>ZAMBRANO MANZABA MARIA FERNANDA</t>
@@ -4058,7 +4058,7 @@
     <t>mariafer.zambranom@espam.edu.ec</t>
   </si>
   <si>
-    <t>23WUIq74</t>
+    <t>e3G89voF</t>
   </si>
   <si>
     <t>ALCIVAR GILER MELANY JULISA</t>
@@ -4067,7 +4067,7 @@
     <t>melany.alcivar@espam.edu.ec</t>
   </si>
   <si>
-    <t>STd7p&amp;LI</t>
+    <t>U1qbxkcW</t>
   </si>
   <si>
     <t>ANDRADE ZAMBRANO NATHALY NICOLLE</t>
@@ -4076,7 +4076,7 @@
     <t>nathaly.andrade@espam.edu.ec</t>
   </si>
   <si>
-    <t>tjd5c08j</t>
+    <t>Dy1HosT3</t>
   </si>
   <si>
     <t>BASURTO MORAN LUIS ALEXANDER</t>
@@ -4085,7 +4085,7 @@
     <t>luis.basurtom@espam.edu.ec</t>
   </si>
   <si>
-    <t>IfYjwXd0</t>
+    <t>VKboyw3p</t>
   </si>
   <si>
     <t>BERMELLO VELEZ ANGELA DANIELA</t>
@@ -4094,7 +4094,7 @@
     <t>angela.bermello@espam.edu.ec</t>
   </si>
   <si>
-    <t>i!r0djpx</t>
+    <t>ZAOuAubD</t>
   </si>
   <si>
     <t>BRAVO VERA GEMA VIVIANA</t>
@@ -4103,7 +4103,7 @@
     <t>gema.bravov@espam.edu.ec</t>
   </si>
   <si>
-    <t>a85bLOgR</t>
+    <t>cKjz#!66</t>
   </si>
   <si>
     <t>BRIONES INTRIAGO LORENA LUCIA</t>
@@ -4112,7 +4112,7 @@
     <t>lorena.briones@espam.edu.ec</t>
   </si>
   <si>
-    <t>Mh46hhy/</t>
+    <t>EOBA0H#&amp;</t>
   </si>
   <si>
     <t>BURGOS BRAVO KATHERIN DANIELA</t>
@@ -4121,7 +4121,7 @@
     <t>katherin.burgos@espam.edu.ec</t>
   </si>
   <si>
-    <t>JoLuCY5d</t>
+    <t>TWwcJ/o1</t>
   </si>
   <si>
     <t>LOOR PARRAGA ROY RUBEN</t>
@@ -4130,7 +4130,7 @@
     <t>roy.loor@espam.edu.ec</t>
   </si>
   <si>
-    <t>hVPzsUul</t>
+    <t>HySKZcOm</t>
   </si>
   <si>
     <t>LOPEZ GANCHOZO LEANDRO ANTONIO</t>
@@ -4139,7 +4139,7 @@
     <t>leandro.lopez@espam.edu.ec</t>
   </si>
   <si>
-    <t>#Vy3fS#U</t>
+    <t>uTPAq?7H</t>
   </si>
   <si>
     <t>MACIAS MACIAS JOY ROBERTO</t>
@@ -4148,7 +4148,7 @@
     <t>joy.macias@espam.edu.ec</t>
   </si>
   <si>
-    <t>/H5gBA&amp;P</t>
+    <t>FQaQlYYp</t>
   </si>
   <si>
     <t>MACIAS SILVA CINTHYA MARIANA</t>
@@ -4157,7 +4157,7 @@
     <t>cinthya.macias@espam.edu.ec</t>
   </si>
   <si>
-    <t>9/gvbJ6N</t>
+    <t>oAZElEnv</t>
   </si>
   <si>
     <t>MENDOZA PONCE MARIA ANGELICA</t>
@@ -4166,7 +4166,7 @@
     <t>maria.mendozap@espam.edu.ec</t>
   </si>
   <si>
-    <t>3wnjR7&amp;0</t>
+    <t>wvMH6urp</t>
   </si>
   <si>
     <t>MONCAYO LAINEZ KERLY ARIANNA</t>
@@ -4175,7 +4175,7 @@
     <t>kerly.moncayo@espam.edu.ec</t>
   </si>
   <si>
-    <t>XXR!wWi!</t>
+    <t>uHjtOkRK</t>
   </si>
   <si>
     <t>MONTES POZO JEAN POLL</t>
@@ -4184,7 +4184,7 @@
     <t>jean.montes@espam.edu.ec</t>
   </si>
   <si>
-    <t>vMsJyePu</t>
+    <t>/dCwdpIq</t>
   </si>
   <si>
     <t>MORENO OBANDO ANA BELLA</t>
@@ -4193,7 +4193,7 @@
     <t>ana.moreno@espam.edu.ec</t>
   </si>
   <si>
-    <t>Y8w?U9Zf</t>
+    <t>2cD?lUVq</t>
   </si>
   <si>
     <t>NAVARRETE PARODI ERIKA KARINA</t>
@@ -4202,7 +4202,7 @@
     <t>erika.navarrete@espam.edu.ec</t>
   </si>
   <si>
-    <t>Dw4NW/mp</t>
+    <t>pidctxKC</t>
   </si>
   <si>
     <t>ORMAZA ESPINOZA JESUS EMILIO</t>
@@ -4211,7 +4211,7 @@
     <t>jesus.ormaza@espam.edu.ec</t>
   </si>
   <si>
-    <t>?9dmWq!s</t>
+    <t>wpdhZ2HS</t>
   </si>
   <si>
     <t>ORMAZA FALCONES MARIA ALEJANDRA</t>
@@ -4220,7 +4220,7 @@
     <t>maria.ormaza@espam.edu.ec</t>
   </si>
   <si>
-    <t>duW?eNQF</t>
+    <t>SN82nRBw</t>
   </si>
   <si>
     <t>PARRAGA QUIJIJE GEMA KAROLINA</t>
@@ -4229,7 +4229,7 @@
     <t>gemak.parragaq@espam.edu.ec</t>
   </si>
   <si>
-    <t>ntyrcq1!</t>
+    <t>CrKZhs!#</t>
   </si>
   <si>
     <t>PICO TOLA MARCO ANDRES</t>
@@ -4238,7 +4238,7 @@
     <t>marco.pico@espam.edu.ec</t>
   </si>
   <si>
-    <t>?C/tnENH</t>
+    <t>T#ojfkZ/</t>
   </si>
   <si>
     <t>PIN NAPA IVANA MAYERLI</t>
@@ -4247,7 +4247,7 @@
     <t>ivana.pin@espam.edu.ec</t>
   </si>
   <si>
-    <t>8!cZP4?d</t>
+    <t>JQD3pR9m</t>
   </si>
   <si>
     <t>ROMERO BRAVO JOSE AGUSTIN</t>
@@ -4256,7 +4256,7 @@
     <t>jose.romero@espam.edu.ec</t>
   </si>
   <si>
-    <t>yybDAq87</t>
+    <t>Cb9Jd7Ea</t>
   </si>
   <si>
     <t>SALTOS INTRIAGO NATHALIA MELISSA</t>
@@ -4265,7 +4265,7 @@
     <t>nathalia.saltos@espam.edu.ec</t>
   </si>
   <si>
-    <t>m6SZu34K</t>
+    <t>Ok#ZG3Fe</t>
   </si>
   <si>
     <t>SALTOS SALTOS MADELYNE PIERINA</t>
@@ -4274,7 +4274,7 @@
     <t>madelyne.saltos@espam.edu.ec</t>
   </si>
   <si>
-    <t>yWTpaKMH</t>
+    <t>aroRcS4v</t>
   </si>
   <si>
     <t>SOLIS ORTIZ SANTIAGO</t>
@@ -4283,7 +4283,7 @@
     <t>santiago.solis@espam.edu.ec</t>
   </si>
   <si>
-    <t>LCILZiAL</t>
+    <t>KeMHKRv!</t>
   </si>
   <si>
     <t>SOLORZANO ZAMBRANO GEMA NARCISA</t>
@@ -4292,7 +4292,7 @@
     <t>gema.solorzano@espam.edu.ec</t>
   </si>
   <si>
-    <t>4X/vjb4!</t>
+    <t>Mup3!cBy</t>
   </si>
   <si>
     <t>VARGAS SOLORZANO ANDREA DIVINA</t>
@@ -4301,7 +4301,7 @@
     <t>andrea.vargas@espam.edu.ec</t>
   </si>
   <si>
-    <t>/GjxURtv</t>
+    <t>oD6kwJW6</t>
   </si>
   <si>
     <t>VELEZ VERA MANUEL ALEXANDER</t>
@@ -4310,7 +4310,7 @@
     <t>manuel.velez@espam.edu.ec</t>
   </si>
   <si>
-    <t>zYFSN7Pf</t>
+    <t>p2/P0IjV</t>
   </si>
   <si>
     <t>VELEZ ZAMBRANO ADRIAN DAVID</t>
@@ -4319,7 +4319,7 @@
     <t>adrian.velez@espam.edu.ec</t>
   </si>
   <si>
-    <t>zQBO8L1u</t>
+    <t>37Al6PAj</t>
   </si>
   <si>
     <t>YLLESCA CEDEÑO JESUS JONATHAN</t>
@@ -4328,7 +4328,7 @@
     <t>jesus.yllesca@espam.edu.ec</t>
   </si>
   <si>
-    <t>HtKDYOTS</t>
+    <t>zwGGd8h2</t>
   </si>
   <si>
     <t>ZAMBRANO CATOTA DERLYN MILENA</t>
@@ -4337,7 +4337,7 @@
     <t>derlyn.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>PaI7xAeS</t>
+    <t>5&amp;Rzt87f</t>
   </si>
   <si>
     <t>ZAMBRANO CEDEÑO CHRISTIAN EDUARDO</t>
@@ -4346,7 +4346,7 @@
     <t>christian.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>xnU81Xdz</t>
+    <t>ooVc4RoA</t>
   </si>
   <si>
     <t>ZAMBRANO ROBLES GLENDY MERCEDES</t>
@@ -4355,7 +4355,7 @@
     <t>glendy.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>?M4wyD56</t>
+    <t>Jdcx/ZaG</t>
   </si>
   <si>
     <t>ZAMBRANO ROSADO JORGE ALESSANDRO</t>
@@ -4364,7 +4364,7 @@
     <t>jorge.zambranor@espam.edu.ec</t>
   </si>
   <si>
-    <t>wiY154k0</t>
+    <t>i31v#RhC</t>
   </si>
   <si>
     <t>ZAMBRANO VERA WENDY ANAHI</t>
@@ -4373,7 +4373,7 @@
     <t>wendy.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>hf2QDIct</t>
+    <t>N6#!!uVm</t>
   </si>
   <si>
     <t>ZAMBRANO ZAMBRANO JONATHAN JAVIER</t>
@@ -4382,7 +4382,7 @@
     <t>jonathan.zambranoz@espam.edu.ec</t>
   </si>
   <si>
-    <t>OAS/IfNu</t>
+    <t>LEemRPDF</t>
   </si>
   <si>
     <t>ZAMORA SOLORZANO MAGALY DOLORES</t>
@@ -4391,7 +4391,7 @@
     <t>magaly.zamora@espam.edu.ec</t>
   </si>
   <si>
-    <t>T6ncL1!S</t>
+    <t>mPCuQoEy</t>
   </si>
   <si>
     <t>BRAVO ZAMBRANO MARIA EMILIA</t>
@@ -4400,7 +4400,7 @@
     <t>maria.bravoz@espam.edu.ec</t>
   </si>
   <si>
-    <t>/bFtOTO&amp;</t>
+    <t>qZ0gNLGf</t>
   </si>
   <si>
     <t>CEVALLOS ALVAREZ ARMANDO ENRIQUE</t>
@@ -4409,7 +4409,7 @@
     <t>armando.cevallos@espam.edu.ec</t>
   </si>
   <si>
-    <t>gTKJk3YQ</t>
+    <t>gSzG7kgK</t>
   </si>
   <si>
     <t>CEVALLOS VERA ARELIS STEFANIA</t>
@@ -4418,7 +4418,7 @@
     <t>arelis.cevallos@espam.edu.ec</t>
   </si>
   <si>
-    <t>XF!3wKuv</t>
+    <t>X!v0zBWQ</t>
   </si>
   <si>
     <t>COOL MERO PATRICIO JAVIER</t>
@@ -4427,7 +4427,7 @@
     <t>patricio.cool@espam.edu.ec</t>
   </si>
   <si>
-    <t>Pn#4FbOP</t>
+    <t>gkquqYZ#</t>
   </si>
   <si>
     <t>FRANCO ORELLANA GUADALUPE MONSERRATE</t>
@@ -4436,7 +4436,7 @@
     <t>guadalupe.franco@espam.edu.ec</t>
   </si>
   <si>
-    <t>NmdKxb6n</t>
+    <t>g!NZa9D7</t>
   </si>
   <si>
     <t>HUERTA BALDIVIEZO JEAN CRISTHIAN</t>
@@ -4445,7 +4445,7 @@
     <t>jean.huerta@espam.edu.ec</t>
   </si>
   <si>
-    <t>eJrP77&amp;#</t>
+    <t>FXUfJIqR</t>
   </si>
   <si>
     <t>INTRIAGO CANTOS MARIA JOSE</t>
@@ -4454,7 +4454,7 @@
     <t>maria.intriagoc@espam.edu.ec</t>
   </si>
   <si>
-    <t>g/GjyxBG</t>
+    <t>mwUYUEF6</t>
   </si>
   <si>
     <t>LOOR CANTOS DIANA ISABEL</t>
@@ -4463,7 +4463,7 @@
     <t>diana.loor@espam.edu.ec</t>
   </si>
   <si>
-    <t>FVVxV34M</t>
+    <t>b&amp;#NvJ#6</t>
   </si>
   <si>
     <t>LOOR SEGOVIA EVELYN ADRIANA</t>
@@ -4472,7 +4472,7 @@
     <t>evelyn.loors@espam.edu.ec</t>
   </si>
   <si>
-    <t>3hk!NlFd</t>
+    <t>HT&amp;YAz3L</t>
   </si>
   <si>
     <t>MEDINA CEDEÑO JULIO CESAR</t>
@@ -4481,7 +4481,7 @@
     <t>julio.medina@espam.edu.ec</t>
   </si>
   <si>
-    <t>F7t!#2C4</t>
+    <t>JCFJXFd#</t>
   </si>
   <si>
     <t>MERA VELEZ ALONDRA GARDENIA</t>
@@ -4490,7 +4490,7 @@
     <t>alondra.mera@espam.edu.ec</t>
   </si>
   <si>
-    <t>8snjR7E&amp;</t>
+    <t>/yQ0XqUY</t>
   </si>
   <si>
     <t>MUÑOZ ZAMBRANO CARLOS JOSUE</t>
@@ -4499,7 +4499,7 @@
     <t>carlos.munozz@espam.edu.ec</t>
   </si>
   <si>
-    <t>SIinUqT6</t>
+    <t>eIZ0Bg3r</t>
   </si>
   <si>
     <t>NAPA RODRIGUEZ JOSE AGUSTIN</t>
@@ -4508,7 +4508,7 @@
     <t>jose.napa@espam.edu.ec</t>
   </si>
   <si>
-    <t>7g0z2Euc</t>
+    <t>x2m2ydQd</t>
   </si>
   <si>
     <t>PALMA CEVALLOS MARIA JOSE</t>
@@ -4517,7 +4517,7 @@
     <t>maria.palma@espam.edu.ec</t>
   </si>
   <si>
-    <t>gnO1hS5n</t>
+    <t>WD/?gE?R</t>
   </si>
   <si>
     <t>PATIÑO MESIAS MARIA GABRIELA</t>
@@ -4526,7 +4526,7 @@
     <t>maria.patino@espam.edu.ec</t>
   </si>
   <si>
-    <t>miiD&amp;nb6</t>
+    <t>Qkl!yzkk</t>
   </si>
   <si>
     <t>QUINTANA CAGUA YENIFER YULI</t>
@@ -4535,7 +4535,7 @@
     <t>yenifer.quintana@espam.edu.ec</t>
   </si>
   <si>
-    <t>5CtReUpJ</t>
+    <t>r18wiusJ</t>
   </si>
   <si>
     <t>RIVERA CANTOS MARIA DANIELA</t>
@@ -4544,7 +4544,7 @@
     <t>maria.riverac@espam.edu.ec</t>
   </si>
   <si>
-    <t>6V10bAFE</t>
+    <t>qX?MTk95</t>
   </si>
   <si>
     <t>RODRIGUEZ PINCAY CARLOS BRYAN</t>
@@ -4553,7 +4553,7 @@
     <t>carlos.rodriguezp@espam.edu.ec</t>
   </si>
   <si>
-    <t>Hc4KJg!?</t>
+    <t>5EN2CSrB</t>
   </si>
   <si>
     <t>SABANDO VELEZ CRISTHIAN ANTHONY</t>
@@ -4562,7 +4562,7 @@
     <t>cristhian.sabando@espam.edu.ec</t>
   </si>
   <si>
-    <t>9Nl#/S0u</t>
+    <t>6s7TiJkw</t>
   </si>
   <si>
     <t>SANTANA VERA ANTHONY JAHIR</t>
@@ -4571,7 +4571,7 @@
     <t>anthony.santana@espam.edu.ec</t>
   </si>
   <si>
-    <t>DIKx?n8O</t>
+    <t>2NEjQuiU</t>
   </si>
   <si>
     <t>VELEZ ESPINOZA JUNIOR JESUS</t>
@@ -4580,7 +4580,7 @@
     <t>junior.veleze@espam.edu.ec</t>
   </si>
   <si>
-    <t>a8gG&amp;XAV</t>
+    <t>rK7T2?Av</t>
   </si>
   <si>
     <t>VERDUGA ZAMBRANO DIEGO ALEJANDRO</t>
@@ -4589,7 +4589,7 @@
     <t>diego.verduga@espam.edu.ec</t>
   </si>
   <si>
-    <t>0vNczP!P</t>
+    <t>EFvvmrCZ</t>
   </si>
   <si>
     <t>ZAMBRANO VELEZ NAYELHY LILIBETH</t>
@@ -4598,7 +4598,7 @@
     <t>nayelhy.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>wO#/AN?9</t>
+    <t>guldOa?L</t>
   </si>
   <si>
     <t>ZAMBRANO WITONG KENIA THAIS</t>
@@ -4607,7 +4607,7 @@
     <t>keniath.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>HLFKZPEZ</t>
+    <t>6!ZjgoFq</t>
   </si>
   <si>
     <t>ANCHUNDIA ANCHUNDIA GEMA LILIBETH</t>
@@ -4616,7 +4616,7 @@
     <t>gema.anchundia@espam.edu.ec</t>
   </si>
   <si>
-    <t>Rk9&amp;fviy</t>
+    <t>Ds0sL?Ty</t>
   </si>
   <si>
     <t>ARTEAGA DELGADO JEAN CARLOS</t>
@@ -4625,7 +4625,7 @@
     <t>jean.arteaga@espam.edu.ec</t>
   </si>
   <si>
-    <t>PMY9GpNu</t>
+    <t>sEJ0rgQ2</t>
   </si>
   <si>
     <t>BARREIRO ZAMBRANO JOSE VICENTE</t>
@@ -4634,7 +4634,7 @@
     <t>jose.barreiro@espam.edu.ec</t>
   </si>
   <si>
-    <t>5I8mOF7b</t>
+    <t>r84u25#D</t>
   </si>
   <si>
     <t>BASURTO ALCIVAR DARWIN JESUS</t>
@@ -4643,7 +4643,7 @@
     <t>darwin.basurto@espam.edu.ec</t>
   </si>
   <si>
-    <t>7?AcQDiC</t>
+    <t>KGfL!RF2</t>
   </si>
   <si>
     <t>BRAVO CEDEÑO JOSE RODOLFO</t>
@@ -4652,7 +4652,7 @@
     <t>jose.bravo@espam.edu.ec</t>
   </si>
   <si>
-    <t>Y5!z2azU</t>
+    <t>th5UZJaj</t>
   </si>
   <si>
     <t>BRIONES BERMEO ANTONY JAVIER</t>
@@ -4661,7 +4661,7 @@
     <t>antony.briones@espam.edu.ec</t>
   </si>
   <si>
-    <t>nr4n99mh</t>
+    <t>Hz&amp;qtk#n</t>
   </si>
   <si>
     <t>CEDEÑO ANCHUNDIA YANDRY ANTONIO</t>
@@ -4673,7 +4673,7 @@
     <t>yandry.cedeno@espam.edu.ec</t>
   </si>
   <si>
-    <t>vNe6lCmi</t>
+    <t>!tVPvvVB</t>
   </si>
   <si>
     <t>CEDEÑO PEÑARRIETA DAYANA SOPHIA</t>
@@ -4682,7 +4682,7 @@
     <t>dayanaso.cedeno@espam.edu.ec</t>
   </si>
   <si>
-    <t>Voo2SAXf</t>
+    <t>LewRj8c2</t>
   </si>
   <si>
     <t>CHAVARRIA PEÑARRIETA MARCOS ALEJANDRO</t>
@@ -4691,7 +4691,7 @@
     <t>marcos.chavarria@espam.edu.ec</t>
   </si>
   <si>
-    <t>IIcfvy4J</t>
+    <t>tf7!8K/l</t>
   </si>
   <si>
     <t>DEL VALLE BASURTO CARMEN MELINA</t>
@@ -4700,7 +4700,7 @@
     <t>carmen.del@espam.edu.ec</t>
   </si>
   <si>
-    <t>NmHLIDTM</t>
+    <t>4GrN&amp;VmW</t>
   </si>
   <si>
     <t>GUERRERO BRAVO ANA BELEN</t>
@@ -4709,7 +4709,7 @@
     <t>ana.guerrero@espam.edu.ec</t>
   </si>
   <si>
-    <t>zfZksPZ1</t>
+    <t>G9Lu!lAC</t>
   </si>
   <si>
     <t>GUERRERO GUERRERO JOSSELYN MELISSA</t>
@@ -4718,7 +4718,7 @@
     <t>josselyn.guerrero@espam.edu.ec</t>
   </si>
   <si>
-    <t>CL/p3WXV</t>
+    <t>yNEd9uXT</t>
   </si>
   <si>
     <t>INTRIAGO BARBERAN LAURO ANTONIO</t>
@@ -4727,7 +4727,7 @@
     <t>lauro.intriago1@espam.edu.ec</t>
   </si>
   <si>
-    <t>jQeOWOh?</t>
+    <t>YjnuBGWr</t>
   </si>
   <si>
     <t>INTRIAGO MORA LENIN ARCENIO</t>
@@ -4736,7 +4736,7 @@
     <t>lenin.intriago@espam.edu.ec</t>
   </si>
   <si>
-    <t>pTTJdvk1</t>
+    <t>Yio6eE#S</t>
   </si>
   <si>
     <t>MACIAS CALDERON JOSE ARIEL</t>
@@ -4745,7 +4745,7 @@
     <t>jose.macias@espam.edu.ec</t>
   </si>
   <si>
-    <t>U&amp;9b3Au!</t>
+    <t>ycyWeiI/</t>
   </si>
   <si>
     <t>MARCILLO VELEZ ANA PATRICIA</t>
@@ -4754,7 +4754,7 @@
     <t>ana.marcillo@espam.edu.ec</t>
   </si>
   <si>
-    <t>rw?OS4qG</t>
+    <t>Et2QWI/m</t>
   </si>
   <si>
     <t>MERA FIGUEROA RAYMOND ALEJANDRO</t>
@@ -4763,7 +4763,7 @@
     <t>raymond.mera@espam.edu.ec</t>
   </si>
   <si>
-    <t>rmzoEp7t</t>
+    <t>mAoZtig3</t>
   </si>
   <si>
     <t>MOREIRA ZAMBRANO JOSSENKA MERCEDES</t>
@@ -4772,7 +4772,7 @@
     <t>jossenka.moreira@espam.edu.ec</t>
   </si>
   <si>
-    <t>FKLGCTx&amp;</t>
+    <t>&amp;GVo#hUM</t>
   </si>
   <si>
     <t>MUÑOZ ALCIVAR CRISTHIAN MARTIN</t>
@@ -4781,7 +4781,7 @@
     <t>cristhian.munoz@espam.edu.ec</t>
   </si>
   <si>
-    <t>/VwQfdhm</t>
+    <t>lz4URAv!</t>
   </si>
   <si>
     <t>MUÑOZ MACIAS MARIA MAGDALENA</t>
@@ -4790,7 +4790,7 @@
     <t>mariama.munoz@espam.edu.ec</t>
   </si>
   <si>
-    <t>qaDguGWU</t>
+    <t>!NIMsPiw</t>
   </si>
   <si>
     <t>POLO GANCHOZO ARON ESNEYDER</t>
@@ -4799,7 +4799,7 @@
     <t>aron.polo@espam.edu.ec</t>
   </si>
   <si>
-    <t>Q/HmU2dh</t>
+    <t>tO9LsvqY</t>
   </si>
   <si>
     <t>RIOS BERMELLO JENIFFER LIZETH</t>
@@ -4808,7 +4808,7 @@
     <t>jeniffer.rios@espam.edu.ec</t>
   </si>
   <si>
-    <t>8onH!IF?</t>
+    <t>yGXQwXKw</t>
   </si>
   <si>
     <t>SALVATIERRA VALDEZ VICKY NICOLLE</t>
@@ -4817,7 +4817,7 @@
     <t>vicky.salvatierra@espam.edu.ec</t>
   </si>
   <si>
-    <t>MhlD4cD1</t>
+    <t>sTafST!s</t>
   </si>
   <si>
     <t>SANTOS VELEZ MONICA GERMANIA</t>
@@ -4826,7 +4826,7 @@
     <t>monica.santos@espam.edu.ec</t>
   </si>
   <si>
-    <t>hFOsKCei</t>
+    <t>6jugxo0W</t>
   </si>
   <si>
     <t>SOLORZANO ZAMBRANO MILENA DENISSE</t>
@@ -4835,7 +4835,7 @@
     <t>milena.solorzano@espam.edu.ec</t>
   </si>
   <si>
-    <t>ty?pUrBw</t>
+    <t>&amp;45?ppm6</t>
   </si>
   <si>
     <t>TUQUERES TACURI JESSICA MARIBELL</t>
@@ -4844,7 +4844,7 @@
     <t>jessica.tuqueres@espam.edu.ec</t>
   </si>
   <si>
-    <t>A7Yn/zy1</t>
+    <t>VYyqDPpm</t>
   </si>
   <si>
     <t>VERDUGA ERAZO JOSUE SALVADOR</t>
@@ -4853,7 +4853,7 @@
     <t>josue.verduga@espam.edu.ec</t>
   </si>
   <si>
-    <t>dnr50Z#R</t>
+    <t>DU8Qcc3A</t>
   </si>
   <si>
     <t>YEPEZ VELIZ GENESIS THALIA</t>
@@ -4862,7 +4862,7 @@
     <t>genesis.yepez@espam.edu.ec</t>
   </si>
   <si>
-    <t>#Rtw3cak</t>
+    <t>1oK#Xbbq</t>
   </si>
   <si>
     <t>ZAMBRANO BASURTO ERICK RAFAEL</t>
@@ -4871,7 +4871,7 @@
     <t>erick.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>uFuoFldO</t>
+    <t>GojQ1f22</t>
   </si>
   <si>
     <t>ZAMBRANO MUÑOZ JANDRY DEIVY</t>
@@ -4880,7 +4880,7 @@
     <t>jandry.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>Wc2Lm!i&amp;</t>
+    <t>7udChYtw</t>
   </si>
   <si>
     <t>AYONG VERA JUAN DAVID</t>
@@ -4889,7 +4889,7 @@
     <t>juan.ayong@espam.edu.ec</t>
   </si>
   <si>
-    <t>5d7lJE#Q</t>
+    <t>L81v!Ggo</t>
   </si>
   <si>
     <t>BASURTO SALAZAR ANGELA MARGARITA</t>
@@ -4898,7 +4898,7 @@
     <t>angela.basurto@espam.edu.ec</t>
   </si>
   <si>
-    <t>HMOfaTHG</t>
+    <t>N98YOnpW</t>
   </si>
   <si>
     <t>CASANOVA INTRIAGO ANDREA BELEN</t>
@@ -4910,7 +4910,7 @@
     <t>andrea.casanova@espam.edu.ec</t>
   </si>
   <si>
-    <t>KDwwULfE</t>
+    <t>mrRqIdxo</t>
   </si>
   <si>
     <t>CHUMO ZAMBRANO ANTONIO BENITO</t>
@@ -4919,7 +4919,7 @@
     <t>antonio.chumo@espam.edu.ec</t>
   </si>
   <si>
-    <t>N&amp;d7KFqs</t>
+    <t>WGn/3X4k</t>
   </si>
   <si>
     <t>GARCIA CORTEZ ERIKA STEFANIA</t>
@@ -4928,7 +4928,7 @@
     <t>erika.garcia@espam.edu.ec</t>
   </si>
   <si>
-    <t>Vr9SU6ic</t>
+    <t>gAaEYV7X</t>
   </si>
   <si>
     <t>GOMEZ BARRERA JUNIOR LENIN</t>
@@ -4937,7 +4937,7 @@
     <t>junior.gomez@espam.edu.ec</t>
   </si>
   <si>
-    <t>kg0oqzG2</t>
+    <t>BJ#AmpPB</t>
   </si>
   <si>
     <t>LOOR CEDEÑO RICARDO EMANUEL</t>
@@ -4946,7 +4946,7 @@
     <t>ricardo.loor@espam.edu.ec</t>
   </si>
   <si>
-    <t>S9hqwkpu</t>
+    <t>7Nq2nW/!</t>
   </si>
   <si>
     <t>LOOR LUCAS EVELYN GUADALUPE</t>
@@ -4958,7 +4958,7 @@
     <t>evelyn.loor@espam.edu.ec</t>
   </si>
   <si>
-    <t>PbCrLL#x</t>
+    <t>UaOJBy43</t>
   </si>
   <si>
     <t>LOOR VELASCO FABIANA BELEN</t>
@@ -4970,7 +4970,7 @@
     <t>fabiana.loor@espam.edu.ec</t>
   </si>
   <si>
-    <t>Lc7BF?#M</t>
+    <t>nuc1j210</t>
   </si>
   <si>
     <t>MARTINEZ CEDEÑO JENIFFER ESTEFANIA</t>
@@ -4979,7 +4979,7 @@
     <t>jeniffer.martinez@espam.edu.ec</t>
   </si>
   <si>
-    <t>V!1J0lu4</t>
+    <t>Uuodft?d</t>
   </si>
   <si>
     <t>MENDOZA BARRE EDDY ENMANUEL</t>
@@ -4988,7 +4988,7 @@
     <t>eddy.mendoza@espam.edu.ec</t>
   </si>
   <si>
-    <t>2iNsVQJR</t>
+    <t>rdaA0!Un</t>
   </si>
   <si>
     <t>MURILLO PALACIOS ULICES JAIR</t>
@@ -4997,7 +4997,7 @@
     <t>ulices.murillo@espam.edu.ec</t>
   </si>
   <si>
-    <t>p0fevSW#</t>
+    <t>iHIAM4BQ</t>
   </si>
   <si>
     <t>QUIJANO ZAMBRANO JONATHAN ERNESTO</t>
@@ -5006,7 +5006,7 @@
     <t>jonathan.quijano@espam.edu.ec</t>
   </si>
   <si>
-    <t>&amp;W&amp;YyarM</t>
+    <t>dQC805AT</t>
   </si>
   <si>
     <t>ROBLES YORI EFRAIN DAVID</t>
@@ -5015,7 +5015,7 @@
     <t>efrain.robles@espam.edu.ec</t>
   </si>
   <si>
-    <t>xKqlEpCX</t>
+    <t>TixtZlam</t>
   </si>
   <si>
     <t>SABANDO ZAMBRANO FREDDY ANTONIO</t>
@@ -5024,7 +5024,7 @@
     <t>freddy.sabando@espam.edu.ec</t>
   </si>
   <si>
-    <t>uBQhH8xU</t>
+    <t>U!LgR5lX</t>
   </si>
   <si>
     <t>SOLORZANO GUERRERO RONALDO WANDERLEY</t>
@@ -5033,7 +5033,7 @@
     <t>ronaldo.solorzano@espam.edu.ec</t>
   </si>
   <si>
-    <t>89QuzHlw</t>
+    <t>WxSfchHz</t>
   </si>
   <si>
     <t>VELEZ CALDERON GENESIS MARIANA</t>
@@ -5045,7 +5045,7 @@
     <t>genesis.velez@espam.edu.ec</t>
   </si>
   <si>
-    <t>v7wYpKRv</t>
+    <t>N?d0mDwU</t>
   </si>
   <si>
     <t>ZAMBRANO BALDA JOSE RAMIRO</t>
@@ -5054,7 +5054,7 @@
     <t>josera.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>VNYS#lad</t>
+    <t>5NM9TmxD</t>
   </si>
   <si>
     <t>ZAMBRANO CANTOS YENNY ANNABEL</t>
@@ -5063,7 +5063,7 @@
     <t>yenny.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>TA2ZUhph</t>
+    <t>cPd5Uzsr</t>
   </si>
   <si>
     <t>ZAMBRANO LOOR CRISTHIAN LEONARDO</t>
@@ -5072,7 +5072,7 @@
     <t>cristhian.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>p1BwDt/W</t>
+    <t>1hJ/LXwg</t>
   </si>
   <si>
     <t>ZAMBRANO LOOR DIANA STEFANIA</t>
@@ -5081,7 +5081,7 @@
     <t>dianas.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>3vi4Xn?#</t>
+    <t>r1/sGVgW</t>
   </si>
   <si>
     <t>ZAMBRANO LOOR MARIA EMILIA</t>
@@ -5090,7 +5090,7 @@
     <t>maria.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>YeW#LH1m</t>
+    <t>mAT/xZqi</t>
   </si>
   <si>
     <t>ZAMBRANO MOREIRA LEONELA ALEJANDRA</t>
@@ -5099,7 +5099,7 @@
     <t>leonela.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>/JFcsisi</t>
+    <t>IhdQz?9C</t>
   </si>
   <si>
     <t>ALAVA ORTIZ EDWIN ALEXANDER</t>
@@ -5108,7 +5108,7 @@
     <t>edwin.alava@espam.edu.ec</t>
   </si>
   <si>
-    <t>Exz9bPc6</t>
+    <t>?jR2nYPv</t>
   </si>
   <si>
     <t>ALCIVAR LOOR GEMA LISBETH</t>
@@ -5117,7 +5117,7 @@
     <t>gemal.alcivar@espam.edu.ec</t>
   </si>
   <si>
-    <t>GLY2a7o&amp;</t>
+    <t>thKV?WlG</t>
   </si>
   <si>
     <t>AVELLAN SANTANA GENESIS NICOLLE</t>
@@ -5126,7 +5126,7 @@
     <t>genesis.avellan@espam.edu.ec</t>
   </si>
   <si>
-    <t>BMl5UfRy</t>
+    <t>UCamWtjv</t>
   </si>
   <si>
     <t>CALDERON SANCHEZ SANDY KATHERINE</t>
@@ -5138,7 +5138,7 @@
     <t>sandy.calderon@espam.edu.ec</t>
   </si>
   <si>
-    <t>h#vrxt9T</t>
+    <t>Ova3xw3l</t>
   </si>
   <si>
     <t>CARDENAS ASTUDILLO ANGELA JULIANA</t>
@@ -5150,7 +5150,7 @@
     <t>angela.cardenas@espam.edu.ec</t>
   </si>
   <si>
-    <t>Clfk!XAK</t>
+    <t>Zh3ZSP!e</t>
   </si>
   <si>
     <t>CARRILLO PACHAY MARCO STEVE</t>
@@ -5159,7 +5159,7 @@
     <t>marco.carrillo@espam.edu.ec</t>
   </si>
   <si>
-    <t>80fv8a9A</t>
+    <t>ak#4DGp6</t>
   </si>
   <si>
     <t>CEDEÑO ZAMBRANO BRYAN ISIDRO</t>
@@ -5168,7 +5168,7 @@
     <t>bryan.cedeno@espam.edu.ec</t>
   </si>
   <si>
-    <t>9XM7D48X</t>
+    <t>tXN3CjB!</t>
   </si>
   <si>
     <t>CEVALLOS SALTOS ANTHONY FERNANDO</t>
@@ -5177,7 +5177,7 @@
     <t>anthonyf.cevallos@espam.edu.ec</t>
   </si>
   <si>
-    <t>#/uCu#sJ</t>
+    <t>WvLGidti</t>
   </si>
   <si>
     <t>CHANG ZAMBRANO MARTHA YAMILETH</t>
@@ -5186,7 +5186,7 @@
     <t>martha.chang@espam.edu.ec</t>
   </si>
   <si>
-    <t>n?SxEQFm</t>
+    <t>yHTYZL72</t>
   </si>
   <si>
     <t>CHIRIBOGA FARIAS LUIS FERNANDO</t>
@@ -5195,7 +5195,7 @@
     <t>luis.chiriboga@espam.edu.ec</t>
   </si>
   <si>
-    <t>zjbltCSk</t>
+    <t>KUqrfB?o</t>
   </si>
   <si>
     <t>ESPINOZA PILAY JERSON JOSE</t>
@@ -5204,7 +5204,7 @@
     <t>jerson.espinoza@espam.edu.ec</t>
   </si>
   <si>
-    <t>n3YO!JnX</t>
+    <t>B!!xml9/</t>
   </si>
   <si>
     <t>FARIAS MERA MAURICIO ANDRES</t>
@@ -5213,7 +5213,7 @@
     <t>mauricio.farias@espam.edu.ec</t>
   </si>
   <si>
-    <t>mhB&amp;pjO8</t>
+    <t>Ej!R35??</t>
   </si>
   <si>
     <t>HERNANDEZ GONZALEZ JAMILEX KAREY</t>
@@ -5225,7 +5225,7 @@
     <t>jamilex.hernandez@espam.edu.ec</t>
   </si>
   <si>
-    <t>ARVl#&amp;Zh</t>
+    <t>q04RMTYM</t>
   </si>
   <si>
     <t>LEONES FALCONES ABAD JHOAN</t>
@@ -5234,7 +5234,7 @@
     <t>abad.leones@espam.edu.ec</t>
   </si>
   <si>
-    <t>/c4oEO!S</t>
+    <t>glURcT55</t>
   </si>
   <si>
     <t>LOOR CEVALLOS ANA MARIA</t>
@@ -5243,7 +5243,7 @@
     <t>anama.loor@espam.edu.ec</t>
   </si>
   <si>
-    <t>N6?ZWBDI</t>
+    <t>Ru9E&amp;jjS</t>
   </si>
   <si>
     <t>LOOR LOOR RONALD POLIVIO</t>
@@ -5252,7 +5252,7 @@
     <t>ronald.loor@espam.edu.ec</t>
   </si>
   <si>
-    <t>IKNWpaly</t>
+    <t>I71HoPI9</t>
   </si>
   <si>
     <t>LOOR REYES GENESIS JAMILETH</t>
@@ -5261,7 +5261,7 @@
     <t>genesis.loor@espam.edu.ec</t>
   </si>
   <si>
-    <t>JLUGvxjK</t>
+    <t>uzBu5K0i</t>
   </si>
   <si>
     <t>MACIAS BRAVO RICARDO FRANCISCO</t>
@@ -5270,7 +5270,7 @@
     <t>ricardo.macias@espam.edu.ec</t>
   </si>
   <si>
-    <t>?lWpGV#c</t>
+    <t>7!3IRRQ!</t>
   </si>
   <si>
     <t>MACIAS MACIAS LISSETH LILIBETH</t>
@@ -5279,7 +5279,7 @@
     <t>lisseth.macias@espam.edu.ec</t>
   </si>
   <si>
-    <t>i43A?d3j</t>
+    <t>&amp;9LaHaKW</t>
   </si>
   <si>
     <t>MANZABA CEDEÑO KEVIN ALBERTO</t>
@@ -5288,7 +5288,7 @@
     <t>kevin.manzaba@espam.edu.ec</t>
   </si>
   <si>
-    <t>5YJv&amp;u2X</t>
+    <t>FTUa86wT</t>
   </si>
   <si>
     <t>MARQUEZ LEMA NAYELI SABRINA</t>
@@ -5297,7 +5297,7 @@
     <t>nayeli.marquez@espam.edu.ec</t>
   </si>
   <si>
-    <t>8Za08wa3</t>
+    <t>FvdHQS2K</t>
   </si>
   <si>
     <t>MENDOZA BRIONES MARIUXI KATHERINE</t>
@@ -5309,7 +5309,7 @@
     <t>mariuxi.mendoza@espam.edu.ec</t>
   </si>
   <si>
-    <t>kr4jR2yB</t>
+    <t>JW#L#ft/</t>
   </si>
   <si>
     <t>MOLINA CEDEÑO JUAN DE DIOS</t>
@@ -5318,7 +5318,7 @@
     <t>juan.molina@espam.edu.ec</t>
   </si>
   <si>
-    <t>JWfeQ/vE</t>
+    <t>cvLnH7HL</t>
   </si>
   <si>
     <t>MONTESDEOCA GARCIA YUDID ALEXANDRA</t>
@@ -5327,7 +5327,7 @@
     <t>yudid.montesdeoca@espam.edu.ec</t>
   </si>
   <si>
-    <t>RlOdgC7Y</t>
+    <t>iJMw0hqz</t>
   </si>
   <si>
     <t>MUÑOZ MERA JUAN PABLO</t>
@@ -5336,7 +5336,7 @@
     <t>juan.munoz@espam.edu.ec</t>
   </si>
   <si>
-    <t>8nTad3S!</t>
+    <t>Dh#VgNMm</t>
   </si>
   <si>
     <t>NAVARRETE ORMAZA ERICK ALEXANDER</t>
@@ -5345,7 +5345,7 @@
     <t>erick.navarrete@espam.edu.ec</t>
   </si>
   <si>
-    <t>/#J93Sst</t>
+    <t>/PvZzjG3</t>
   </si>
   <si>
     <t>OCAMPO BARRE ANTHONY VICENTE</t>
@@ -5354,7 +5354,7 @@
     <t>anthony.ocampo@espam.edu.ec</t>
   </si>
   <si>
-    <t>UjDMesQ8</t>
+    <t>r!kLHOZu</t>
   </si>
   <si>
     <t>PARRALES FALCONES ANTHONY LEONARDO</t>
@@ -5363,7 +5363,7 @@
     <t>anthony.parrales@espam.edu.ec</t>
   </si>
   <si>
-    <t>G?&amp;OSU2R</t>
+    <t>RN8DcenM</t>
   </si>
   <si>
     <t>RAMOS SALTOS NICOLE PAOLA</t>
@@ -5372,7 +5372,7 @@
     <t>nicole.ramos@espam.edu.ec</t>
   </si>
   <si>
-    <t>KfUFNIQa</t>
+    <t>H&amp;KbrLha</t>
   </si>
   <si>
     <t>ROBLES MOLINA JENIFFER STEFANIA</t>
@@ -5381,7 +5381,7 @@
     <t>jeniffer.robles@espam.edu.ec</t>
   </si>
   <si>
-    <t>J2tThK37</t>
+    <t>FS&amp;TR2MS</t>
   </si>
   <si>
     <t>RODRIGUEZ CAMPOS JEAN KATHERINE</t>
@@ -5390,7 +5390,7 @@
     <t>jean.rodriguez@espam.edu.ec</t>
   </si>
   <si>
-    <t>!lhhI!MH</t>
+    <t>G6tHJZ0n</t>
   </si>
   <si>
     <t>SANCHEZ MEDINA GISSEL STEPHANIE</t>
@@ -5399,7 +5399,7 @@
     <t>gissel.sanchez@espam.edu.ec</t>
   </si>
   <si>
-    <t>pN#QwjeD</t>
+    <t>g/kEMUTi</t>
   </si>
   <si>
     <t>VASQUEZ VERA ARGENIS JAVIER</t>
@@ -5408,7 +5408,7 @@
     <t>argenis.vasquez@espam.edu.ec</t>
   </si>
   <si>
-    <t>0ALIbjH!</t>
+    <t>/R/XKrge</t>
   </si>
   <si>
     <t>VASQUEZ VERA MARIA MERCEDES</t>
@@ -5417,7 +5417,7 @@
     <t>maria.vasquez@espam.edu.ec</t>
   </si>
   <si>
-    <t>XOwGn1cf</t>
+    <t>CZ8AIwMp</t>
   </si>
   <si>
     <t>VELEZ MERA JOSSELYN JOSSENKA</t>
@@ -5426,7 +5426,7 @@
     <t>josselynjo.velez@espam.edu.ec</t>
   </si>
   <si>
-    <t>hFOa1ZG9</t>
+    <t>rShPBqvK</t>
   </si>
   <si>
     <t>VELEZ PALACIOS STEVEN RAMON</t>
@@ -5435,7 +5435,7 @@
     <t>steven.velez@espam.edu.ec</t>
   </si>
   <si>
-    <t>4Ssh0TW7</t>
+    <t>8YT&amp;zr9L</t>
   </si>
   <si>
     <t>VERA BRAVO MARY LAURA</t>
@@ -5444,7 +5444,7 @@
     <t>mary.vera@espam.edu.ec</t>
   </si>
   <si>
-    <t>2H&amp;Wk#lU</t>
+    <t>eI3JTtZl</t>
   </si>
   <si>
     <t>VILLAMIL VALENCIA ISABEL ANDREA</t>
@@ -5453,7 +5453,7 @@
     <t>isabel.villamil@espam.edu.ec</t>
   </si>
   <si>
-    <t>SqlWDWbO</t>
+    <t>RJb1IOs/</t>
   </si>
   <si>
     <t>ZAMBRANO COBEÑA PABLO ALBERTO</t>
@@ -5462,7 +5462,7 @@
     <t>pablo.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>nKxXmz0h</t>
+    <t>WBjAjrAd</t>
   </si>
   <si>
     <t>ALVAREZ INTRIAGO MAILIN KATHERINE</t>
@@ -5471,7 +5471,7 @@
     <t>mailin.alvarez@espam.edu.ec</t>
   </si>
   <si>
-    <t>X!GUmu5S</t>
+    <t>INHpObUC</t>
   </si>
   <si>
     <t>BRAVO ARTEAGA RICARDO JAVIER</t>
@@ -5480,7 +5480,7 @@
     <t>ricardo.bravo@espam.edu.ec</t>
   </si>
   <si>
-    <t>wD8gNJzz</t>
+    <t>jjaBWdAG</t>
   </si>
   <si>
     <t>BRAVO VERGARA GEMA CAROLINA</t>
@@ -5489,7 +5489,7 @@
     <t>gemac.bravo@espam.edu.ec</t>
   </si>
   <si>
-    <t>VkEZsGVv</t>
+    <t>7IJ1dA5M</t>
   </si>
   <si>
     <t>CEDEÑO VELASQUEZ GEMA GUADALUPE</t>
@@ -5498,7 +5498,7 @@
     <t>gemag.cedeno@espam.edu.ec</t>
   </si>
   <si>
-    <t>XKVdNTh&amp;</t>
+    <t>UuXCK24w</t>
   </si>
   <si>
     <t>CHAVEZ VELIZ DENIS ALEXANDER</t>
@@ -5507,7 +5507,7 @@
     <t>denis.chavez@espam.edu.ec</t>
   </si>
   <si>
-    <t>UDP/KDz/</t>
+    <t>4bT1?hu3</t>
   </si>
   <si>
     <t>DEMERA ZAMBRANO JACKSON ANDRES</t>
@@ -5516,7 +5516,7 @@
     <t>jackson.demera@espam.edu.ec</t>
   </si>
   <si>
-    <t>nXcmI!2s</t>
+    <t>6awvZ/Rv</t>
   </si>
   <si>
     <t>GANCHOZO LECTONG GRESSILLE GUISSELLA</t>
@@ -5525,7 +5525,7 @@
     <t>gressille.ganchozo@espam.edu.ec</t>
   </si>
   <si>
-    <t>kzR1Akog</t>
+    <t>crdtjd8J</t>
   </si>
   <si>
     <t>INDIO ZAMBRANO ODALIS MICHELLE</t>
@@ -5537,7 +5537,7 @@
     <t>odalis.indio@espam.edu.ec</t>
   </si>
   <si>
-    <t>zOCS205R</t>
+    <t>tTzeZjry</t>
   </si>
   <si>
     <t>INTRIAGO TERAN BRYAN ASDRUBAL</t>
@@ -5546,7 +5546,7 @@
     <t>bryan.intriago@espam.edu.ec</t>
   </si>
   <si>
-    <t>VkokZ/T&amp;</t>
+    <t>/NqIKFSS</t>
   </si>
   <si>
     <t>INTRIAGO ZAMBRANO GISSELA KAROLINA</t>
@@ -5555,7 +5555,7 @@
     <t>gissela.intriago@espam.edu.ec</t>
   </si>
   <si>
-    <t>6uooqq#a</t>
+    <t>!9Km/O5E</t>
   </si>
   <si>
     <t>LEONES SOLORZANO YARITZA DANIELA</t>
@@ -5564,7 +5564,7 @@
     <t>yaritza.leones@espam.edu.ec</t>
   </si>
   <si>
-    <t>nN?IORmx</t>
+    <t>Afut8SR&amp;</t>
   </si>
   <si>
     <t>LOPEZ MORA JOSSELYN AMARILYS</t>
@@ -5573,7 +5573,7 @@
     <t>josselyn.lopez@espam.edu.ec</t>
   </si>
   <si>
-    <t>mq7eV0Hn</t>
+    <t>OJLpJRYg</t>
   </si>
   <si>
     <t>MERA LOOR ANTONY ELIAN</t>
@@ -5582,7 +5582,7 @@
     <t>antony.mera@espam.edu.ec</t>
   </si>
   <si>
-    <t>6&amp;JF6GFU</t>
+    <t>yaydCdV2</t>
   </si>
   <si>
     <t>MERA SABANDO GEMA YAMILETH</t>
@@ -5591,7 +5591,7 @@
     <t>gema.mera@espam.edu.ec</t>
   </si>
   <si>
-    <t>2SGZXwqX</t>
+    <t>GGsYwYq6</t>
   </si>
   <si>
     <t>MIRANDA IBARRA ALFONSO SEBASTIAN</t>
@@ -5600,7 +5600,7 @@
     <t>alfonso.miranda@espam.edu.ec</t>
   </si>
   <si>
-    <t>9Orzngw3</t>
+    <t>d5tE7/GO</t>
   </si>
   <si>
     <t>MONGE ERAZO JECSY PIERINA</t>
@@ -5609,7 +5609,7 @@
     <t>jecsy.monge@espam.edu.ec</t>
   </si>
   <si>
-    <t>iXfoJNqp</t>
+    <t>OXgErEMA</t>
   </si>
   <si>
     <t>ROMERO ORTEGA ANGEL ANDRES</t>
@@ -5618,7 +5618,7 @@
     <t>angel.romero@espam.edu.ec</t>
   </si>
   <si>
-    <t>Rx!eqoPp</t>
+    <t>K0k4kDH8</t>
   </si>
   <si>
     <t>SOLORZANO INTRIAGO OSCAR FABIAN</t>
@@ -5630,7 +5630,7 @@
     <t>oscar.solorzano@espam.edu.ec</t>
   </si>
   <si>
-    <t>0TqGHdAN</t>
+    <t>u?m#Xh8m</t>
   </si>
   <si>
     <t>VALVERDE ZAPATA KATHIUSCA CARLOTA</t>
@@ -5642,7 +5642,7 @@
     <t>kathiusca.valverde@espam.edu.ec</t>
   </si>
   <si>
-    <t>m0NsTr/e</t>
+    <t>y1r5zmXv</t>
   </si>
   <si>
     <t>VERA AYALA GENESIS LISBETH</t>
@@ -5651,7 +5651,7 @@
     <t>genesis.vera@espam.edu.ec</t>
   </si>
   <si>
-    <t>pYFFoWH?</t>
+    <t>07f1knGA</t>
   </si>
   <si>
     <t>VERA PULIDO MARIA IVANNA</t>
@@ -5660,7 +5660,7 @@
     <t>mariai.verap@espam.edu.ec</t>
   </si>
   <si>
-    <t>eU3XEqZX</t>
+    <t>1yaOfY9&amp;</t>
   </si>
   <si>
     <t>VERA ZAMBRANO JAZMIN CAROLINA</t>
@@ -5669,7 +5669,7 @@
     <t>jazmin.vera@espam.edu.ec</t>
   </si>
   <si>
-    <t>hKSJ!K1z</t>
+    <t>3zkUhjMQ</t>
   </si>
   <si>
     <t>VERGARA ARBOLEDA WENDY DEL ROCIO</t>
@@ -5681,7 +5681,7 @@
     <t>wendy.vergara@espam.edu.ec</t>
   </si>
   <si>
-    <t>mK7ofRMi</t>
+    <t>ft3A3K#o</t>
   </si>
   <si>
     <t>VILLAMAR GONZALEZ ELENA SAMANTA</t>
@@ -5690,7 +5690,7 @@
     <t>elena.villamar@espam.edu.ec</t>
   </si>
   <si>
-    <t>S3pHBdtx</t>
+    <t>v1x14rh0</t>
   </si>
   <si>
     <t>ZAMBRANO ALCIVAR GENESIS VALENTINA</t>
@@ -5699,7 +5699,7 @@
     <t>genesis.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>YcLp!6v9</t>
+    <t>MVpvX3aE</t>
   </si>
   <si>
     <t>ZAMBRANO CHAVEZ ANDREA MONSERRATE</t>
@@ -5708,7 +5708,7 @@
     <t>andream.zambranoc@espam.edu.ec</t>
   </si>
   <si>
-    <t>uXa2eu!j</t>
+    <t>YVc6xGL0</t>
   </si>
   <si>
     <t>ZAMBRANO GRACIA DANIELA ANGELINA</t>
@@ -5717,7 +5717,7 @@
     <t>daniela.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>ai/50zIZ</t>
+    <t>vYuxi/dl</t>
   </si>
   <si>
     <t>ZAMBRANO MUÑOZ WILLY JHONAY</t>
@@ -5726,7 +5726,7 @@
     <t>willy.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>O5c1h7F5</t>
+    <t>bL#f6mZB</t>
   </si>
   <si>
     <t>ZAMBRANO ZAMBRANO TATIANA ELIZABETH</t>
@@ -5735,7 +5735,7 @@
     <t>tatianael.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>Uv#tYuWE</t>
+    <t>A/2rh1/R</t>
   </si>
 </sst>
 </file>

--- a/storage/app/public/seeds/datosPassword.xlsx
+++ b/storage/app/public/seeds/datosPassword.xlsx
@@ -44,7 +44,7 @@
     <t>angie.alcivar.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>EEzrsutj</t>
+    <t>eak8CoJq</t>
   </si>
   <si>
     <t>ALCIVAR VERA KARLA MILENA</t>
@@ -53,7 +53,7 @@
     <t>karla.alcivar.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>EiNquV6P</t>
+    <t>PKHqwHF8</t>
   </si>
   <si>
     <t>ALVIA ROCA HENRY ISAAC</t>
@@ -65,7 +65,7 @@
     <t>henry.alvia.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>W9&amp;sas9#</t>
+    <t>4mg1RqwC</t>
   </si>
   <si>
     <t>ANANGONO GOMEZ ANA MARCELA</t>
@@ -74,7 +74,7 @@
     <t>ana.anangono.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>ephcmlVi</t>
+    <t>w3g43Awz</t>
   </si>
   <si>
     <t>BRAVO MARCILLO NATHALY SILVANA</t>
@@ -86,7 +86,7 @@
     <t>nathaly.bravo.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>zUkYYS4I</t>
+    <t>1eoZCpNc</t>
   </si>
   <si>
     <t>BRIONES SUAREZ DANIA MELISSA</t>
@@ -95,7 +95,7 @@
     <t>dania.briones.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>!?u/uDS3</t>
+    <t>D91aOU9O</t>
   </si>
   <si>
     <t>CANCHINGRE LOZA MARIANA DE JESUS</t>
@@ -107,7 +107,7 @@
     <t>mariana.canchingre.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>8h4mpHpA</t>
+    <t>6Y&amp;060WC</t>
   </si>
   <si>
     <t>CEDEÑO GARCIA EMILY JAHAIRA</t>
@@ -116,7 +116,7 @@
     <t>emily.cedeno.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>kfXhVZvj</t>
+    <t>F!gQNn5U</t>
   </si>
   <si>
     <t>CEDEÑO VELEZ STEVEN ANTONIO</t>
@@ -125,7 +125,7 @@
     <t>steven.cedeno.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>eUGml7xg</t>
+    <t>!KdBJLF0</t>
   </si>
   <si>
     <t>CHICA ORDOÑEZ YAIZA ANAHI</t>
@@ -134,7 +134,7 @@
     <t>yaiza.chica.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>gQqYNJlT</t>
+    <t>JcfLC?Nj</t>
   </si>
   <si>
     <t>CORONEL MERO DAMARY SABRINA</t>
@@ -143,7 +143,7 @@
     <t>damary.coronel.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>JEoR?a3d</t>
+    <t>iG0mCZZS</t>
   </si>
   <si>
     <t>DELGADO BENAVIDES MELISSA ANDREINA</t>
@@ -152,7 +152,7 @@
     <t>melissa.delgado.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>12hLpvaW</t>
+    <t>bLxGsXV#</t>
   </si>
   <si>
     <t>DELGADO SOLORZANO TONY DAMIAN</t>
@@ -161,7 +161,7 @@
     <t>tony.delgado.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>&amp;KlWHuW7</t>
+    <t>660605Te</t>
   </si>
   <si>
     <t>ELENO GENDE JOSELYN KATHERINE</t>
@@ -173,7 +173,7 @@
     <t>joselyn.eleno.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>KI89Fnsp</t>
+    <t>jhiRHAdw</t>
   </si>
   <si>
     <t>GARCIA RIVERA ANGHELA LISBETH</t>
@@ -185,7 +185,7 @@
     <t>anghela.garcia.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>HgQGvxKo</t>
+    <t>oKJppA3S</t>
   </si>
   <si>
     <t>GARCIA ROSS PRISCILA TAHILY</t>
@@ -194,7 +194,7 @@
     <t>priscila.garcia.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>weEUZivO</t>
+    <t>5wwlqaoV</t>
   </si>
   <si>
     <t>LOOR ZAMBRANO MARILYN MICHEL</t>
@@ -203,7 +203,7 @@
     <t>marilyn.loor.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>qOveAe9e</t>
+    <t>q0IN9lSR</t>
   </si>
   <si>
     <t>LUCAS MENDOZA MOISES NOE</t>
@@ -212,7 +212,7 @@
     <t>moises.lucas.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>lioDJgRa</t>
+    <t>EbTjMS4y</t>
   </si>
   <si>
     <t>MANTUANO LOOR JENIFER DANIELA</t>
@@ -221,7 +221,7 @@
     <t>jenifer.mantuano.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>Sv0uPe2L</t>
+    <t>J&amp;uzAdXR</t>
   </si>
   <si>
     <t>MENENDEZ SANTANA JOSMELY ANAHI</t>
@@ -230,7 +230,7 @@
     <t>josmely.menendez.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>XZNEpVKV</t>
+    <t>V6TLxU9h</t>
   </si>
   <si>
     <t>MEZA ESPINOZA MISHEL NICOL</t>
@@ -239,7 +239,7 @@
     <t>mishel.meza.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>ElnCQeF6</t>
+    <t>1sp4q6At</t>
   </si>
   <si>
     <t>MORANTE TROYA JAIME ANDRES</t>
@@ -248,7 +248,7 @@
     <t>jaime.morante.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>RRrmH6MZ</t>
+    <t>Efo8rE&amp;w</t>
   </si>
   <si>
     <t>PARRAGA MOREIRA CINDY ANDREA</t>
@@ -257,7 +257,7 @@
     <t>cindy.parraga.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>CkK9TLmT</t>
+    <t>K31LvBYI</t>
   </si>
   <si>
     <t>PEÑAFIEL VALENCIA JULEISY LISBETH</t>
@@ -269,7 +269,7 @@
     <t>juleisy.penafiel.4623@espam.edu.ec</t>
   </si>
   <si>
-    <t>egX4wc#o</t>
+    <t>esrUkD5h</t>
   </si>
   <si>
     <t>PICO CRIOLLO MILETH KATHERINE</t>
@@ -278,7 +278,7 @@
     <t>mileth.pico.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>P&amp;wQqj32</t>
+    <t>1ZaO6si2</t>
   </si>
   <si>
     <t>RENDON GILER JUNIOR ARIEL</t>
@@ -287,7 +287,7 @@
     <t>junior.rendon@espam.edu.ec</t>
   </si>
   <si>
-    <t>mvIttbvY</t>
+    <t>1HzDYkIT</t>
   </si>
   <si>
     <t>SALVATIERRA SANTOS BRYAN ALEJANDRO</t>
@@ -296,7 +296,7 @@
     <t>bryan.salvatierra@espam.edu.ec</t>
   </si>
   <si>
-    <t>&amp;/cagYu2</t>
+    <t>vGR1GfpY</t>
   </si>
   <si>
     <t>SOLORZANO LUCAS ALEXANDER JOEL</t>
@@ -308,7 +308,7 @@
     <t>alexander.solorzano.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>uCN09MJS</t>
+    <t>!YOibzo8</t>
   </si>
   <si>
     <t>SOLORZANO RODRIGUEZ DAYANA NICOLLE</t>
@@ -317,7 +317,7 @@
     <t>dayanna.solorzano.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>KeAdTXKB</t>
+    <t>asD7omwu</t>
   </si>
   <si>
     <t>TENORIO QUINTERO ELY GILMAR</t>
@@ -329,7 +329,7 @@
     <t>ely.tenorio.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>GGlJBJVm</t>
+    <t>Xd?x3ePz</t>
   </si>
   <si>
     <t>VELASQUEZ DOMINGUEZ JORDAN RICARDO</t>
@@ -338,7 +338,7 @@
     <t>jordan.velasquez.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>N&amp;aimbGx</t>
+    <t>xw27!jgP</t>
   </si>
   <si>
     <t>VILLAVICENCIO SALVADOR MELANIE HELLAIM</t>
@@ -350,7 +350,7 @@
     <t>melanie.villavicencio.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>ki?d!/ol</t>
+    <t>WRWjyAJN</t>
   </si>
   <si>
     <t>ZAMBRANO CEDEÑO ANGELO ALEXANDER</t>
@@ -359,7 +359,7 @@
     <t>angelo.zambrano.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>n6O&amp;LMlR</t>
+    <t>sYC2?uzV</t>
   </si>
   <si>
     <t>ZAMBRANO VALENCIA SHIRLEY EDITH</t>
@@ -368,7 +368,7 @@
     <t>shirley.zambrano.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>?LfFypLJ</t>
+    <t>pHvY3DNh</t>
   </si>
   <si>
     <t>ANGEL GOMEZ GILENY NAHOMY</t>
@@ -380,7 +380,7 @@
     <t>gileny.angel.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>YZ4mG7GM</t>
+    <t>mPB!SW25</t>
   </si>
   <si>
     <t>BARRE QUIJANO DARWIN JOSE</t>
@@ -389,7 +389,7 @@
     <t>darwin.barre@espam.edu.ec</t>
   </si>
   <si>
-    <t>nw&amp;EFYvI</t>
+    <t>#iZKp7/b</t>
   </si>
   <si>
     <t>BRAVO ALVAREZ EMILY JESUS</t>
@@ -398,7 +398,7 @@
     <t>emily.bravo.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>QXhORHcE</t>
+    <t>rI9s7X9y</t>
   </si>
   <si>
     <t>CAGUA YOONG NAHOMY JAMILETH</t>
@@ -407,7 +407,7 @@
     <t>nahomy.cagua.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>hfWmUYIe</t>
+    <t>zmGgEvse</t>
   </si>
   <si>
     <t>CASTILLO CEDEÑO EMILIA MARICELA</t>
@@ -416,7 +416,7 @@
     <t>emilia.castillo.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>cvjZNQ!l</t>
+    <t>eo7S4yJv</t>
   </si>
   <si>
     <t>CEDEÑO ZAMBRANO JOSE DANIEL</t>
@@ -425,7 +425,7 @@
     <t>jose.cedenoz.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>SzkrpZsk</t>
+    <t>3VkJjC6o</t>
   </si>
   <si>
     <t>CIFUENTES VELASQUEZ JOSE JAHIR</t>
@@ -434,7 +434,7 @@
     <t>jose.cifuentes.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>p&amp;ylzMfQ</t>
+    <t>TBZBrogN</t>
   </si>
   <si>
     <t>CONFORME CIFUENTES ROBERTH JESUS</t>
@@ -443,7 +443,7 @@
     <t>roberth.conforme.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>O!Z3#2UB</t>
+    <t>?&amp;plI17D</t>
   </si>
   <si>
     <t>CORDERO GILER SALMA PAOLA</t>
@@ -452,7 +452,7 @@
     <t>salma.cordero.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>FMq74vrE</t>
+    <t>tLZVrs1v</t>
   </si>
   <si>
     <t>FARIAS VELIZ RENE OCTAVIO</t>
@@ -461,7 +461,7 @@
     <t>rene.farias.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>Q?gXL4Z/</t>
+    <t>RppScdg/</t>
   </si>
   <si>
     <t>GARCIA DUEÑAS JEAN FERNANDO</t>
@@ -470,7 +470,7 @@
     <t>jean.garcia.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>V8#EswDX</t>
+    <t>cqXJCcv6</t>
   </si>
   <si>
     <t>HERRERA BASURTO IVIS ANTONELLA</t>
@@ -479,7 +479,7 @@
     <t>ivis.herrera.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>c2nxsMVy</t>
+    <t>QN1Pq2av</t>
   </si>
   <si>
     <t>HIDALGO LOOR MARLYN NALLELY</t>
@@ -488,7 +488,7 @@
     <t>marlyn.hidalgo.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>Tkm4FMIU</t>
+    <t>HRUhZ?5P</t>
   </si>
   <si>
     <t>IBARRA CHAVARRIA JUAN DIEGO</t>
@@ -497,7 +497,7 @@
     <t>juan.ibarra.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>tE/lUyEt</t>
+    <t>350xtrFR</t>
   </si>
   <si>
     <t>JAYA ZAPATA VICTOR EDUARDO</t>
@@ -506,7 +506,7 @@
     <t>victor.jaya.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>kboel8dd</t>
+    <t>XU#PSUhw</t>
   </si>
   <si>
     <t>LOOR DELGADO JERRY JOEL</t>
@@ -515,7 +515,7 @@
     <t>jerry.loor.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>90i5sf9v</t>
+    <t>ZpVc&amp;nMn</t>
   </si>
   <si>
     <t>MANTUANO PONCE MELANY MONCERRATE</t>
@@ -524,7 +524,7 @@
     <t>melany.mantuano.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>VlcWyWJL</t>
+    <t>cOeE08!N</t>
   </si>
   <si>
     <t>MENDOZA VASQUEZ ARIEL ALEXIS</t>
@@ -536,7 +536,7 @@
     <t>ariel.mendoza.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>dvMGIcKy</t>
+    <t>!dlR0Kla</t>
   </si>
   <si>
     <t>MOREIRA GARCIA MACARIO EMANUEL</t>
@@ -545,7 +545,7 @@
     <t>macario.moreira.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>7Vn3T/1a</t>
+    <t>sS65tUNi</t>
   </si>
   <si>
     <t>MOREIRA GILCES GABRIELA NIKOL</t>
@@ -554,7 +554,7 @@
     <t>gabriela.moreira.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>ajke1&amp;r5</t>
+    <t>!O#?2G9?</t>
   </si>
   <si>
     <t>NOBOA MONTESDEOCA INGRITH MADELEYN</t>
@@ -563,7 +563,7 @@
     <t>ingrith.noboa.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>3GbwQcR0</t>
+    <t>MOX9&amp;oYm</t>
   </si>
   <si>
     <t>ORDOÑEZ ALCIVAR ALEX PAUL</t>
@@ -572,7 +572,7 @@
     <t>alex.ordonez.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>J9vRAe#?</t>
+    <t>W0iTaS7u</t>
   </si>
   <si>
     <t>PALMA GARCIA MELYN JARITZA</t>
@@ -581,7 +581,7 @@
     <t>melyn.palma.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>kzCwN4CF</t>
+    <t>z!Aa2bVw</t>
   </si>
   <si>
     <t>PAREDES MERO GHISLAINE ANAHI</t>
@@ -590,7 +590,7 @@
     <t>ghislaine.paredes.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>MQ00brB9</t>
+    <t>k/5KzPTG</t>
   </si>
   <si>
     <t>QUIJIJE PIANDA XIOMARA MISHELLE</t>
@@ -602,7 +602,7 @@
     <t>xiomara.quijije.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>47PaeJKL</t>
+    <t>7X6tqwl0</t>
   </si>
   <si>
     <t>SALAVARRIA AVEIGA YULIANA GUADALUPE</t>
@@ -611,7 +611,7 @@
     <t>yuliana.salavarria.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>QiuoNr2T</t>
+    <t>3SD3DD9z</t>
   </si>
   <si>
     <t>SANTOS ALCIVAR JAIR SEBASTIAN</t>
@@ -620,7 +620,7 @@
     <t>jair.santos.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>bUyzpvp0</t>
+    <t>s4SmYcaj</t>
   </si>
   <si>
     <t>SOLORZANO CANDELA JARITZA NOHEMY</t>
@@ -629,7 +629,7 @@
     <t>jaritza.solorzano.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>lcON9/Kr</t>
+    <t>7pV2p8gY</t>
   </si>
   <si>
     <t>VERA CEBALLOS MARIA CONCEPCION</t>
@@ -638,7 +638,7 @@
     <t>maria.vera.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>tdM&amp;Tan#</t>
+    <t>&amp;1t3KKAZ</t>
   </si>
   <si>
     <t>ALAVA MUÑOZ BILL JARVI</t>
@@ -647,7 +647,7 @@
     <t>bill.alava.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>2f/dwLfF</t>
+    <t>T/hIn0J#</t>
   </si>
   <si>
     <t>ALCIVAR ZAMBRANO ESTHER JOMARA</t>
@@ -656,7 +656,7 @@
     <t>esther.alcivar.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>HBCH8VqI</t>
+    <t>dRt1ld0n</t>
   </si>
   <si>
     <t>ALMEIDA LOOR MARIA VICTORIA</t>
@@ -665,7 +665,7 @@
     <t>maria.almeida.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>ISePTm?3</t>
+    <t>zo2!aJfn</t>
   </si>
   <si>
     <t>ANDRADE VILLAVICENCIO PABLO HUGO</t>
@@ -674,7 +674,7 @@
     <t>pablo.andrade.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>#MUAV&amp;Rx</t>
+    <t>7HzrBEC5</t>
   </si>
   <si>
     <t>AVENDAÑO YZQUIERDO ADRIANA ISABEL</t>
@@ -686,7 +686,7 @@
     <t>adriana.avendano.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>wKbw2hS5</t>
+    <t>#dPGru4o</t>
   </si>
   <si>
     <t>BALUARTE PARRAGA MAYERLY NARCISA</t>
@@ -698,7 +698,7 @@
     <t>mayerly.baluarte.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>2USPCY9U</t>
+    <t>bDq4GgUP</t>
   </si>
   <si>
     <t>BARRE CASTAÑEDA MAYERLI SOLANGE</t>
@@ -710,7 +710,7 @@
     <t>mayerli.barre.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>2!?kP2#I</t>
+    <t>feJYY&amp;Jv</t>
   </si>
   <si>
     <t>BERMEO MENDOZA LESLY JULIETT</t>
@@ -719,7 +719,7 @@
     <t>lesly.bermeo.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>s1?E7&amp;PE</t>
+    <t>b8a812eJ</t>
   </si>
   <si>
     <t>BRAVO ZAMBRANO DANA KATIUSKA</t>
@@ -728,7 +728,7 @@
     <t>dana.bravo.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>RB&amp;Pcn3F</t>
+    <t>Gmdodbqy</t>
   </si>
   <si>
     <t>CEDEÑO ALVARADO JORGE LUIS</t>
@@ -737,7 +737,7 @@
     <t>jorge.cedeno.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>d&amp;im43VQ</t>
+    <t>2QhsBxRs</t>
   </si>
   <si>
     <t>DOMINGUEZ ANGEL ANAIS ZULEYMA</t>
@@ -749,7 +749,7 @@
     <t>anais.dominguez.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>p6/kIrhZ</t>
+    <t>z?7xzumE</t>
   </si>
   <si>
     <t>ESPARZA TELLO ERICKA MARIA</t>
@@ -761,7 +761,7 @@
     <t>ericka.esparza.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>L4yTtr6n</t>
+    <t>EnUHJz&amp;?</t>
   </si>
   <si>
     <t>GRAIN MARCILLO MICHAEL JOSUE</t>
@@ -770,7 +770,7 @@
     <t>michael.grain.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>mPnn6k4A</t>
+    <t>hCkGy!HC</t>
   </si>
   <si>
     <t>JAMA ZAMBRANO ROBERTH XAVIER</t>
@@ -779,7 +779,7 @@
     <t>roberth.jama@espam.edu.ec</t>
   </si>
   <si>
-    <t>AIwgHq13</t>
+    <t>qINpeFsq</t>
   </si>
   <si>
     <t>LARA BONE ANGIE NICOLE</t>
@@ -791,7 +791,7 @@
     <t>angie.lara.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>6HP/BGPK</t>
+    <t>FolN#JGZ</t>
   </si>
   <si>
     <t>LOPEZ DELGADO DAYANA NICOLLE</t>
@@ -800,7 +800,7 @@
     <t>dayana.lopez.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>Z5nr9pGm</t>
+    <t>/GbT!A#u</t>
   </si>
   <si>
     <t>MELO CENTENO HELEN SOFIA</t>
@@ -809,7 +809,7 @@
     <t>helen.melo.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>Z3mo?pR7</t>
+    <t>obAsMhxB</t>
   </si>
   <si>
     <t>MENDOZA ORTEGA ANGELO DANIEL</t>
@@ -818,7 +818,7 @@
     <t>angelo.mendoza.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>X31xZFCG</t>
+    <t>ig8QP0MC</t>
   </si>
   <si>
     <t>MERO CARRILLO EMELY MILENA</t>
@@ -827,7 +827,7 @@
     <t>emely.mero.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>bqEr88Xi</t>
+    <t>&amp;IUoZwL4</t>
   </si>
   <si>
     <t>MITE MENENDEZ GEORGE ISAAC</t>
@@ -836,7 +836,7 @@
     <t>george.mite.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>y5oAL?XI</t>
+    <t>AsAKHvP2</t>
   </si>
   <si>
     <t>MONCAYO CAGUA LADY NOHELIA</t>
@@ -845,7 +845,7 @@
     <t>lady.moncayo.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>V&amp;uhF4qk</t>
+    <t>8?he?ik1</t>
   </si>
   <si>
     <t>ORMAZA ALCIVAR NOHELIA MILENA</t>
@@ -854,7 +854,7 @@
     <t>nohelia.ormaza.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>&amp;SKJP&amp;iI</t>
+    <t>oT1R&amp;wT1</t>
   </si>
   <si>
     <t>PANTA CANDELA YONNY ALEXANDER</t>
@@ -863,7 +863,7 @@
     <t>jonny.panta.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>3Bzbek6m</t>
+    <t>Vnb1rDZS</t>
   </si>
   <si>
     <t>QUINATOA SIMALIZA YAJAIRA NICOLE</t>
@@ -872,7 +872,7 @@
     <t>yajaira.quinatoa.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>Ivzr2UWr</t>
+    <t>LEsH4!A#</t>
   </si>
   <si>
     <t>REYNA RAMIREZ SINDY MAHOLY</t>
@@ -881,7 +881,7 @@
     <t>sindy.reyna.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>pOXNo5GS</t>
+    <t>GYRm4nv/</t>
   </si>
   <si>
     <t>RODRIGUEZ ANCHUNDIA LUIS FERNANDO</t>
@@ -890,7 +890,7 @@
     <t>luis.rodriguez.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>aWS!i#cL</t>
+    <t>LwS5ViMm</t>
   </si>
   <si>
     <t>SABANDO TUAREZ MILENA BLANCA</t>
@@ -899,7 +899,7 @@
     <t>milena.sabando.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>pJLRXygj</t>
+    <t>v3wasYJ!</t>
   </si>
   <si>
     <t>SALAZAR RAMIREZ YARITZA GABRIELA</t>
@@ -908,7 +908,7 @@
     <t>yaritza.salazar.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>Kd5rM6T6</t>
+    <t>t1g!E6Sz</t>
   </si>
   <si>
     <t>SHIGUANGO AGUINDA KATTY MIRELLA</t>
@@ -917,7 +917,7 @@
     <t>katty.shiguango.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>gJcQxjxL</t>
+    <t>yDGhZXXW</t>
   </si>
   <si>
     <t>VACA MORALES JOSE EDUARDO</t>
@@ -926,7 +926,7 @@
     <t>jose.vaca.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>gaCQYpGz</t>
+    <t>BqQpVmrB</t>
   </si>
   <si>
     <t>VELASQUEZ MEJIA ARIANNA ELIZABETH</t>
@@ -935,7 +935,7 @@
     <t>arianna.velasquez.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>Z#K5F9yc</t>
+    <t>uIPJ&amp;4JS</t>
   </si>
   <si>
     <t>VELEZ CEDEÑO YANDRY ALAIN</t>
@@ -944,7 +944,7 @@
     <t>yandry.velez.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>2mdGvd8j</t>
+    <t>DH38WXxn</t>
   </si>
   <si>
     <t>VERA ZAMORA DIXON YAIR</t>
@@ -953,7 +953,7 @@
     <t>dixon.vera.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>Vfwcs64z</t>
+    <t>lJdaxHNH</t>
   </si>
   <si>
     <t>ZAMBRANO FORTIS RICARDO MIGUEL</t>
@@ -962,7 +962,7 @@
     <t>ricardo.zambrano.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>slcJDlaU</t>
+    <t>pf4UfK7P</t>
   </si>
   <si>
     <t>ALVARADO DUEÑAS KARELYS VANESSA</t>
@@ -971,7 +971,7 @@
     <t>karelys.alvarado.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>sc&amp;Jrp11</t>
+    <t>KP?FrL2&amp;</t>
   </si>
   <si>
     <t>ANDRADE ILES ALVIERY JAHIR</t>
@@ -983,7 +983,7 @@
     <t>alviery.andrade.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>N2706KjN</t>
+    <t>VCszPM30</t>
   </si>
   <si>
     <t>ARTEAGA RAMOS DIEGO ALEJANDRO</t>
@@ -992,7 +992,7 @@
     <t>diego.arteaga.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>!iBNgTvV</t>
+    <t>gFuc&amp;bOx</t>
   </si>
   <si>
     <t>BARREIRO INTRIAGO STEFANY PIERINA</t>
@@ -1001,7 +1001,7 @@
     <t>stefany.barreiro.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>wz!7NItX</t>
+    <t>JBAVv2!Q</t>
   </si>
   <si>
     <t>BRAVO QUINTERO SARA NICOLE</t>
@@ -1013,7 +1013,7 @@
     <t>sara.bravo.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>4Fr4/k1L</t>
+    <t>uWEpuT?K</t>
   </si>
   <si>
     <t>CABALLERO MUÑOZ STEVEN FABRICIO</t>
@@ -1022,7 +1022,7 @@
     <t>steven.caballero.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>v!8PCCFM</t>
+    <t>dpUCa3OH</t>
   </si>
   <si>
     <t>CARRASCO VERA LUCAS JOSUE</t>
@@ -1031,7 +1031,7 @@
     <t>lucas.carrasco.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>4Y2xpryO</t>
+    <t>EopJlX2C</t>
   </si>
   <si>
     <t>CEDEÑO MURILLO KENNER STEVEN</t>
@@ -1040,7 +1040,7 @@
     <t>kenner.cedeno.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>!9RPlpC5</t>
+    <t>1MrSqHcL</t>
   </si>
   <si>
     <t>CUERO PAZMIÑO EMMANUEL JOSUE</t>
@@ -1049,7 +1049,7 @@
     <t>emmanuel.cuero.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>s9H0g&amp;Tz</t>
+    <t>/EDXS7Rp</t>
   </si>
   <si>
     <t>LADINES CASTRO MIRKA DARLISHA</t>
@@ -1061,7 +1061,7 @@
     <t>mirka.ladines.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>GEQgmz#R</t>
+    <t>ewdyXs88</t>
   </si>
   <si>
     <t>LARA FRANCO MICHAEL ARGEL</t>
@@ -1073,7 +1073,7 @@
     <t>michael.lara.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>?jpP?oae</t>
+    <t>Um#&amp;q255</t>
   </si>
   <si>
     <t>LEYTHON QUIÑONEZ JEIMY SILVANA</t>
@@ -1085,7 +1085,7 @@
     <t>jeimy.leython.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>BfImHFC?</t>
+    <t>ruitmmjF</t>
   </si>
   <si>
     <t>LOOR LOOR GENESIS DANIELA</t>
@@ -1094,7 +1094,7 @@
     <t>genesis.loor.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>YysXnCXM</t>
+    <t>!Pw9R78a</t>
   </si>
   <si>
     <t>MATAMBA GUANGA THALIA VALERIA</t>
@@ -1106,7 +1106,7 @@
     <t>thalia.matamba.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>51kUZ8yE</t>
+    <t>rC0S!!3I</t>
   </si>
   <si>
     <t>MENDOZA DE LA CRUZ MARTHA DANIELA</t>
@@ -1115,7 +1115,7 @@
     <t>martha.mendoza.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>XHQn1J1X</t>
+    <t>9NmJBe15</t>
   </si>
   <si>
     <t>MINOTA BORJA ALEXANDER JAHIR</t>
@@ -1127,7 +1127,7 @@
     <t>alexander.minota.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>5ATqLw8B</t>
+    <t>vmXGR7YZ</t>
   </si>
   <si>
     <t>NAVIA LOOR JOSE EFRAIN</t>
@@ -1136,7 +1136,7 @@
     <t>jose.navia.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>AdfMfqhv</t>
+    <t>HbDVS5O7</t>
   </si>
   <si>
     <t>PILATAXI UTRERAS KATHERIN JULIETH</t>
@@ -1145,7 +1145,7 @@
     <t>katherin.pilataxi.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>EEk#rIab</t>
+    <t>9BzfHFlU</t>
   </si>
   <si>
     <t>PINARGOTE CARREÑO FELIX JOEL</t>
@@ -1154,7 +1154,7 @@
     <t>felix.pinargote.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>!4rqbV&amp;0</t>
+    <t>zwt21Bcm</t>
   </si>
   <si>
     <t>PONCE ZAMBRANO ARIANA JESSENIA</t>
@@ -1163,7 +1163,7 @@
     <t>ariana.ponce.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>Ca3&amp;LJQz</t>
+    <t>0Z8K&amp;Re2</t>
   </si>
   <si>
     <t>QUINATOA SIMALIZA KELLY MARIUXI</t>
@@ -1172,7 +1172,7 @@
     <t>kelly.quinatoa.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>Mt8WKs8W</t>
+    <t>du8Y49LX</t>
   </si>
   <si>
     <t>ROSADO ROSADO JOEL JESUS</t>
@@ -1181,7 +1181,7 @@
     <t>joel.rosado.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>fZL&amp;spya</t>
+    <t>aK5nBp#j</t>
   </si>
   <si>
     <t>SANMARTIN TAPIA CARMEN EDITH</t>
@@ -1190,7 +1190,7 @@
     <t>carmen.sanmartin.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>!YGyFvMA</t>
+    <t>wmYLC37u</t>
   </si>
   <si>
     <t>SAYAY DAGUA JOSELYN NICOL</t>
@@ -1202,7 +1202,7 @@
     <t>joselyn.sayay.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>2WrcYSIU</t>
+    <t>VRAHf5HY</t>
   </si>
   <si>
     <t>SOLORZANO PAZMIÑO DECCY DANIELA</t>
@@ -1211,7 +1211,7 @@
     <t>deccy.solorzano.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>&amp;SJuBCYN</t>
+    <t>bqden&amp;vv</t>
   </si>
   <si>
     <t>VERGARA ZAMBRANO MATIAS ALEXANDER</t>
@@ -1220,7 +1220,7 @@
     <t>matias.vergara.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>YxUcrkib</t>
+    <t>QZsGYIf8</t>
   </si>
   <si>
     <t>ZAMBRANO INTRIAGO FRAYDA JESSENIA</t>
@@ -1229,7 +1229,7 @@
     <t>frayda.zambrano.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>yp#/N95z</t>
+    <t>XvF78CYJ</t>
   </si>
   <si>
     <t>ZAMBRANO VALAREZO ANDREA LISBETH</t>
@@ -1238,7 +1238,7 @@
     <t>andrea.zambrano.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>WEXV9NuH</t>
+    <t>eJNlhwyM</t>
   </si>
   <si>
     <t>AGUAS MARTINEZ KEVIN SNAIDER</t>
@@ -1247,7 +1247,7 @@
     <t>kevin.aguas@espam.edu.ec</t>
   </si>
   <si>
-    <t>NkqNUDp8</t>
+    <t>Ri0jk2So</t>
   </si>
   <si>
     <t>ANDRADE GARCIA LUZ CRUCELINA</t>
@@ -1256,7 +1256,7 @@
     <t>luz.andrade.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>VSxXo13F</t>
+    <t>NCqV!Ji3</t>
   </si>
   <si>
     <t>BARBERAN MERO HELEN ADRIANA</t>
@@ -1265,7 +1265,7 @@
     <t>helen.barberan.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>/!?c1/Y6</t>
+    <t>6!iF&amp;0az</t>
   </si>
   <si>
     <t>BARROS ZAMBRANO DANIEL ANGEL</t>
@@ -1274,7 +1274,7 @@
     <t>daniel.barros.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>EOuD5h7?</t>
+    <t>d&amp;#vMGR#</t>
   </si>
   <si>
     <t>BASURTO ZAMBRANO CARLOS RAUL</t>
@@ -1283,7 +1283,7 @@
     <t>carlos.basurto.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>BJVEv!NV</t>
+    <t>qH6&amp;4jU3</t>
   </si>
   <si>
     <t>BRAVO BRAVO ANTHONY ADEMIR</t>
@@ -1292,7 +1292,7 @@
     <t>anthony.bravo.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>x2Evxgb!</t>
+    <t>w0rR5rxl</t>
   </si>
   <si>
     <t>CANTOS VERA ANGELA AUXILIADORA</t>
@@ -1301,7 +1301,7 @@
     <t>angela.cantos.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>?OZi3Ku6</t>
+    <t>StT#GK8?</t>
   </si>
   <si>
     <t>CASTRO BOLAÑO FANNY TATIANA</t>
@@ -1310,7 +1310,7 @@
     <t>fanny.castro.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>oSzDlo42</t>
+    <t>tXIKnhyH</t>
   </si>
   <si>
     <t>CASTRO SALTOS MATTEWS FARID</t>
@@ -1319,7 +1319,7 @@
     <t>mattews.castro.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>1of479Ql</t>
+    <t>xbPJuC#U</t>
   </si>
   <si>
     <t>CHANCAY RADE ANTONY GABRIEL</t>
@@ -1328,7 +1328,7 @@
     <t>antony.chancay@espam.edu.ec</t>
   </si>
   <si>
-    <t>iiSl?8IF</t>
+    <t>D0kK#Eml</t>
   </si>
   <si>
     <t>COBEÑA GARCIA YOMAYRA ALEXANDRA</t>
@@ -1337,7 +1337,7 @@
     <t>yomayra.cobena.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>YlnNDa5J</t>
+    <t>E!/23oSG</t>
   </si>
   <si>
     <t>CRUZ ERAZO JOSE MIGUEL</t>
@@ -1346,7 +1346,7 @@
     <t>jose.cruz.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>HN74hUWO</t>
+    <t>Zy#O!yWM</t>
   </si>
   <si>
     <t>GARCIA ANDRADE MARIA ROSA</t>
@@ -1355,7 +1355,7 @@
     <t>maria.garcia.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>pK3fqYQU</t>
+    <t>bPPQTFN/</t>
   </si>
   <si>
     <t>HERNANDEZ LOPEZ LUIS DAVID</t>
@@ -1364,7 +1364,7 @@
     <t>luis.hernandez.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>OCBnW54L</t>
+    <t>AMMK4d?r</t>
   </si>
   <si>
     <t>LEON FUENTES JONATHAN ALBINO</t>
@@ -1376,7 +1376,7 @@
     <t>jonathan.leon.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>acnB#Gh/</t>
+    <t>dL7LsdyX</t>
   </si>
   <si>
     <t>MACIAS ANCHUNDIA ROBERTO CARLOS</t>
@@ -1385,7 +1385,7 @@
     <t>roberto.macias.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>UZ7RJiT6</t>
+    <t>nmI6BfqK</t>
   </si>
   <si>
     <t>MAZA AGREDA KAREN IBETH</t>
@@ -1394,7 +1394,7 @@
     <t>karen.maza.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>jv&amp;iozyT</t>
+    <t>nyvz5xlA</t>
   </si>
   <si>
     <t>MUÑOZ MERA LITZY ALEJANDRA</t>
@@ -1403,7 +1403,7 @@
     <t>litzy.munoz.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>Ol8aKwaU</t>
+    <t>sD7&amp;QFXt</t>
   </si>
   <si>
     <t>MUÑOZ MOLINA ANDRY FABIAN</t>
@@ -1412,7 +1412,7 @@
     <t>andry.munoz.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>UeiG#Mnw</t>
+    <t>04e6hnCw</t>
   </si>
   <si>
     <t>ORMAZA VALENCIA KEVIN JAVIER</t>
@@ -1424,7 +1424,7 @@
     <t>kevin.ormaza.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>sY6&amp;2JZv</t>
+    <t>?Omo/QGu</t>
   </si>
   <si>
     <t>PAZMIÑO PINCAY NAYELLY AGUSTINA</t>
@@ -1433,7 +1433,7 @@
     <t>nayelly.pazmino.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>JD7clU0/</t>
+    <t>P28/0yIM</t>
   </si>
   <si>
     <t>POZO PONCE DANNY IVAN</t>
@@ -1442,7 +1442,7 @@
     <t>danny.pozo@espam.edu.ec</t>
   </si>
   <si>
-    <t>9rU3YzAQ</t>
+    <t>p6dQgSqg</t>
   </si>
   <si>
     <t>QUIJANO MEZA MARIANA LISETH</t>
@@ -1451,7 +1451,7 @@
     <t>mariana.quijano.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>qYDPbmxG</t>
+    <t>oeXUYEk#</t>
   </si>
   <si>
     <t>QUIÑONEZ AÑAPA RODRIGO MANUEL</t>
@@ -1463,7 +1463,7 @@
     <t>rodrigo.quinonez.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>OoF#E5RZ</t>
+    <t>g!CsXqj&amp;</t>
   </si>
   <si>
     <t>SANTOS ALCIVAR KELVIN YOEL</t>
@@ -1472,7 +1472,7 @@
     <t>kelvin.santos.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>Omc/i!UN</t>
+    <t>uz4vw3lA</t>
   </si>
   <si>
     <t>SOLORZANO RODRIGUEZ SANDY</t>
@@ -1481,7 +1481,7 @@
     <t>sandy.solorzano.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>Jpff4TD#</t>
+    <t>C2krp&amp;mm</t>
   </si>
   <si>
     <t>TOALA PIN ARIEL ALEJANDRO</t>
@@ -1493,7 +1493,7 @@
     <t>ariel.toala.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>!q993TK3</t>
+    <t>SlVbgs4I</t>
   </si>
   <si>
     <t>VEGA INTRIAGO MIGUEL ANGEL</t>
@@ -1502,7 +1502,7 @@
     <t>miguel.vega.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>gwlb4hGT</t>
+    <t>k9vxURcQ</t>
   </si>
   <si>
     <t>VELASQUEZ RODRIGUEZ GEMA BELEN</t>
@@ -1511,7 +1511,7 @@
     <t>gema.velasquez.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>CJZPOI2!</t>
+    <t>LbYFl?YM</t>
   </si>
   <si>
     <t>VERA MENDOZA MARIA VICTORIA</t>
@@ -1520,7 +1520,7 @@
     <t>maria.veram.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>1NKYWrM#</t>
+    <t>MBQU&amp;SeJ</t>
   </si>
   <si>
     <t>VERA PALACIOS JORDANO SAUL</t>
@@ -1529,7 +1529,7 @@
     <t>jordano.vera.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>sTPEkBf9</t>
+    <t>ic541dTx</t>
   </si>
   <si>
     <t>ZAMBRANO MERA VALENTINA MONSERRATE</t>
@@ -1538,7 +1538,7 @@
     <t>valentina.zambrano.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>&amp;HNDxUrX</t>
+    <t>L65aU52F</t>
   </si>
   <si>
     <t>ZAMBRANO QUIMI JUAN GEORGE</t>
@@ -1550,7 +1550,7 @@
     <t>juan.zambrano.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>#Z4XU7#1</t>
+    <t>Yymy4f2z</t>
   </si>
   <si>
     <t>ALCIVAR ZAMBRANO GEOMAYRA KATHERINE</t>
@@ -1562,7 +1562,7 @@
     <t>geomayra.alcivar.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>GMKDRaJl</t>
+    <t>#Zndt&amp;VE</t>
   </si>
   <si>
     <t>ANDRADE CASTILLO CLAUDIA VICTORIA</t>
@@ -1571,7 +1571,7 @@
     <t>claudia.andrade.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>KlOpohA7</t>
+    <t>ed/qbf6p</t>
   </si>
   <si>
     <t>ANGUISACA CUENCA ALEXANDRA CECIBEL</t>
@@ -1580,7 +1580,7 @@
     <t>alexandra.anguisaca.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>qtatGUWP</t>
+    <t>XCM&amp;uwVx</t>
   </si>
   <si>
     <t>BARIAS GUARACA LESLY NAYHELY</t>
@@ -1589,7 +1589,7 @@
     <t>lesly.barias.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>Si5C1qnq</t>
+    <t>HB/dX8NE</t>
   </si>
   <si>
     <t>BARROS VERA ANGEL DAVID</t>
@@ -1598,7 +1598,7 @@
     <t>angel.barros.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>s#kmPY3v</t>
+    <t>TrsAQwEZ</t>
   </si>
   <si>
     <t>BAZURTO SANTOS KENNIA KATHERINE</t>
@@ -1607,7 +1607,7 @@
     <t>kennia.bazurto.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>LFR?fuBq</t>
+    <t>2m&amp;ET2Te</t>
   </si>
   <si>
     <t>BRAVO BAZURTO GISSELA MARIA</t>
@@ -1616,7 +1616,7 @@
     <t>gissela.bravo.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>WrK?/l62</t>
+    <t>xF8WdrF4</t>
   </si>
   <si>
     <t>BUSTAMANTE YANEZ ANTHONY MICHEL</t>
@@ -1625,7 +1625,7 @@
     <t>anthony.bustamante.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>/UgbNzWw</t>
+    <t>/O3q6Jia</t>
   </si>
   <si>
     <t>CASTRO SOLORZANO NIURKA JULIANA</t>
@@ -1634,7 +1634,7 @@
     <t>niurka.castro.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>HMOFs8wE</t>
+    <t>Om234zbk</t>
   </si>
   <si>
     <t>CEDEÑO CEDEÑO YOHANA VANESA</t>
@@ -1643,7 +1643,7 @@
     <t>yohana.cedeno.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>mCFm6yrV</t>
+    <t>b4W6cJto</t>
   </si>
   <si>
     <t>CEDEÑO INTRIAGO JEAN PIERRE</t>
@@ -1652,7 +1652,7 @@
     <t>jean.cedeno@espam.edu.ec</t>
   </si>
   <si>
-    <t>ofOVQ#eh</t>
+    <t>NIQBeLNu</t>
   </si>
   <si>
     <t>DELGADO CEVALLOS MARIA JOSE</t>
@@ -1661,7 +1661,7 @@
     <t>maria.delgado.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>7WwuImtP</t>
+    <t>iJST1n7S</t>
   </si>
   <si>
     <t>ERAZO MORALES GABRIELA ALEJANDRA</t>
@@ -1670,7 +1670,7 @@
     <t>gabriela.erazo.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>/iJ!ho?P</t>
+    <t>96/Devho</t>
   </si>
   <si>
     <t>INTRIAGO ZAMBRANO LUIS JOSE</t>
@@ -1679,7 +1679,7 @@
     <t>luis.intriagoz.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>f3H1udjA</t>
+    <t>wbnCbcoe</t>
   </si>
   <si>
     <t>LOOR ORTIZ YORDY DAVID</t>
@@ -1688,7 +1688,7 @@
     <t>yordy.loor.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>lp08nIgm</t>
+    <t>SmNFBi1H</t>
   </si>
   <si>
     <t>LOZANO GAMEZ THALIA VANESSA</t>
@@ -1700,7 +1700,7 @@
     <t>thalia.lozano.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>50PSd&amp;E&amp;</t>
+    <t>yAM?Ujl7</t>
   </si>
   <si>
     <t>MONTES RODRIGUEZ ROLANDO ANTONIO</t>
@@ -1709,7 +1709,7 @@
     <t>rolando.montes.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>ginofXkG</t>
+    <t>dOimXIFN</t>
   </si>
   <si>
     <t>PALMA RENDON ARGENIS ARTURO</t>
@@ -1718,7 +1718,7 @@
     <t>argenis.palma@espam.edu.ec</t>
   </si>
   <si>
-    <t>Je!CcjbL</t>
+    <t>FXh7LrC9</t>
   </si>
   <si>
     <t>PAREDES YUMBILLO KATTY MARGOTH</t>
@@ -1730,7 +1730,7 @@
     <t>katty.paredes.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>dQfqflxs</t>
+    <t>fNAhR7jw</t>
   </si>
   <si>
     <t>PARRALES DELGADO ALAN SEBASTIAN</t>
@@ -1739,7 +1739,7 @@
     <t>alan.parrales.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>5vBPlvQu</t>
+    <t>NbgaL9Px</t>
   </si>
   <si>
     <t>PATA CEDEÑO ROSA JUANA</t>
@@ -1751,7 +1751,7 @@
     <t>rosa.pata.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>l1l8U9mQ</t>
+    <t>V6Q/0FOf</t>
   </si>
   <si>
     <t>RETETE BASARAN KEVIN ALEXANDER</t>
@@ -1760,7 +1760,7 @@
     <t>kevin.retete.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>CW8IaPg?</t>
+    <t>iWxZiKGi</t>
   </si>
   <si>
     <t>ROMAN MACIAS ESTEFANIA ISABEL</t>
@@ -1769,7 +1769,7 @@
     <t>estefania.roman.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>hTXP6WqH</t>
+    <t>5tj!He/V</t>
   </si>
   <si>
     <t>SANDOVAL UREÑA FERNANDA DAYANARA</t>
@@ -1781,7 +1781,7 @@
     <t>fernanda.sandoval.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>ykuAHvhz</t>
+    <t>Z2RLRixN</t>
   </si>
   <si>
     <t>SUBIAGA RAMOS LUIS ALEJANDRO</t>
@@ -1790,7 +1790,7 @@
     <t>luis.subiaga.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>nioZTUAB</t>
+    <t>WXXirDY1</t>
   </si>
   <si>
     <t>VELASQUEZ AVEIGA MARIA JESUS</t>
@@ -1799,7 +1799,7 @@
     <t>maria.velasquez.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>TsF9ICvo</t>
+    <t>#d8ER5&amp;g</t>
   </si>
   <si>
     <t>VELEZ CHEME JORDAN ESTEBAN</t>
@@ -1811,7 +1811,7 @@
     <t>jordan.velez.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>Nw7NOWxF</t>
+    <t>6b6VRltS</t>
   </si>
   <si>
     <t>VELEZ MENDOZA DARWIN ALEXIS</t>
@@ -1820,7 +1820,7 @@
     <t>darwin.velez.4623@espam.edu.ec</t>
   </si>
   <si>
-    <t>MMDzgsfS</t>
+    <t>qTyp0iBE</t>
   </si>
   <si>
     <t>VERA BARRE RONNY ARISTIDES</t>
@@ -1829,7 +1829,7 @@
     <t>ronny.vera.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>WU7tA6PL</t>
+    <t>CF??LyAx</t>
   </si>
   <si>
     <t>ZAMBRANO MACIAS DIEGO ANDRES</t>
@@ -1838,7 +1838,7 @@
     <t>diego.zambrano.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>!Vejv&amp;&amp;E</t>
+    <t>ge41uMDm</t>
   </si>
   <si>
     <t>ZAMBRANO REYNA YERSY ENRIQUE</t>
@@ -1847,7 +1847,7 @@
     <t>yersy.zambrano.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>PFClKfOC</t>
+    <t>8HEOHNbI</t>
   </si>
   <si>
     <t>CARDENAS MIELES CRISTHYAN ALBERTO</t>
@@ -1856,7 +1856,7 @@
     <t>cristhyan.cardenas.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>V8DdrpCd</t>
+    <t>dbxraS6D</t>
   </si>
   <si>
     <t>CASTRO CARRERA JUAN CARLOS</t>
@@ -1865,7 +1865,7 @@
     <t>juan.castro.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>odDPKlyf</t>
+    <t>TnVUGSUf</t>
   </si>
   <si>
     <t>CHAVEZ MIRANDA ANTHONY MIGUEL</t>
@@ -1874,7 +1874,7 @@
     <t>anthony.chavez@espam.edu.ec</t>
   </si>
   <si>
-    <t>NELFzseG</t>
+    <t>az3qVyL3</t>
   </si>
   <si>
     <t>CUSME ZAMBRANO MICHAEL RICHARD</t>
@@ -1883,7 +1883,7 @@
     <t>michael.cusme.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>Eo3kTO7v</t>
+    <t>P!QifBtI</t>
   </si>
   <si>
     <t>GILER SALAZAR CARLOS IGNACIO</t>
@@ -1892,7 +1892,7 @@
     <t>carlos.giler@espam.edu.ec</t>
   </si>
   <si>
-    <t>5M4Zt4v3</t>
+    <t>yltb99Qz</t>
   </si>
   <si>
     <t>HERNANDEZ DIAZ MARIA JOSE</t>
@@ -1904,7 +1904,7 @@
     <t>maria.hernandez.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>WFYjJNBV</t>
+    <t>RdaPWQDz</t>
   </si>
   <si>
     <t>HIDALGO MOREIRA ESTELA NATHALY</t>
@@ -1913,7 +1913,7 @@
     <t>estela.hidalgo.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>XBS7&amp;q2j</t>
+    <t>nMOh5EI3</t>
   </si>
   <si>
     <t>HIDALGO MOREIRA PIERINA NATHALY</t>
@@ -1922,7 +1922,7 @@
     <t>pierina.hidalgo.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>5f?ODy/d</t>
+    <t>LZ08Gr6P</t>
   </si>
   <si>
     <t>LARA QUIJIJE PAMELA JULISSA</t>
@@ -1931,7 +1931,7 @@
     <t>pamela.lara.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>ql6bByQb</t>
+    <t>ygdQu6Fa</t>
   </si>
   <si>
     <t>LOOR PITIZACA FRANK ALLAN</t>
@@ -1940,7 +1940,7 @@
     <t>frank.loor.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>A3nY6mMb</t>
+    <t>f&amp;dugXB1</t>
   </si>
   <si>
     <t>LOOR ZAMBRANO GEMA STEFANIA</t>
@@ -1949,7 +1949,7 @@
     <t>gema.loor.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>zzTOD#6x</t>
+    <t>LGi51?wb</t>
   </si>
   <si>
     <t>PALACIOS TAPIA CESAR XAVIER</t>
@@ -1958,7 +1958,7 @@
     <t>cesar.palacios.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>q7sC&amp;z0M</t>
+    <t>8EdiN4WU</t>
   </si>
   <si>
     <t>PEÑARRETA LANCHE PILAR MICAELA</t>
@@ -1967,7 +1967,7 @@
     <t>pilar.penarreta.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>Bm/uScO0</t>
+    <t>mgl77FOu</t>
   </si>
   <si>
     <t>PILLASAGUA PINARGOTE INGRID MAYERLI</t>
@@ -1979,7 +1979,7 @@
     <t>ingrid.pillasagua.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>NHFalyWv</t>
+    <t>6?evmVD6</t>
   </si>
   <si>
     <t>QUIJIJE CEDEÑO GEMA LISBETH</t>
@@ -1988,7 +1988,7 @@
     <t>gema.quijije.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>8/TjXng#</t>
+    <t>PBJpUcCb</t>
   </si>
   <si>
     <t>RUIZ ZAMBRANO VICTOR ANDRES</t>
@@ -1997,7 +1997,7 @@
     <t>victor.ruiz.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>3BGiWfW1</t>
+    <t>a#DHr9IF</t>
   </si>
   <si>
     <t>SALTOS SALAZAR MAYERLY VERONICA</t>
@@ -2009,7 +2009,7 @@
     <t>mayerly.saltos.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>tfOHRn12</t>
+    <t>qjtaCjlj</t>
   </si>
   <si>
     <t>SANTANA PALOMINO FRANKLIN JOHAO</t>
@@ -2018,7 +2018,7 @@
     <t>franklin.santana.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>rIErc!Zf</t>
+    <t>vDlQNymy</t>
   </si>
   <si>
     <t>TAFFUR TOASA OLGA MARIA</t>
@@ -2027,7 +2027,7 @@
     <t>olga.taffur@espam.edu.ec</t>
   </si>
   <si>
-    <t>tVT/7#74</t>
+    <t>xE4OnnTf</t>
   </si>
   <si>
     <t>TOALA MACAY JOSSELYN VALERIA</t>
@@ -2036,7 +2036,7 @@
     <t>josselyn.toala.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>WHJVu1TT</t>
+    <t>B?s6OPe6</t>
   </si>
   <si>
     <t>VALLADARES ALCIVAR LUIS EDUARDO</t>
@@ -2045,7 +2045,7 @@
     <t>luis.valladares@espam.edu.ec</t>
   </si>
   <si>
-    <t>jPH2drYz</t>
+    <t>UZgmyC/B</t>
   </si>
   <si>
     <t>VERA ZAMBRANO HILTER JOSSBEL</t>
@@ -2054,7 +2054,7 @@
     <t>hilter.vera.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>C6ko83i5</t>
+    <t>Et0ulPcm</t>
   </si>
   <si>
     <t>VERGARA TABOADA ROMEL ALEXANDER</t>
@@ -2063,7 +2063,7 @@
     <t>romel.vergara@espam.edu.ec</t>
   </si>
   <si>
-    <t>mxjFfvuZ</t>
+    <t>3JgIzNRf</t>
   </si>
   <si>
     <t>ZAMBRANO RIVAS NALLELY LISBETH</t>
@@ -2072,7 +2072,7 @@
     <t>nallely.zambrano.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>LWdT8PkG</t>
+    <t>aeZcRg/m</t>
   </si>
   <si>
     <t>ABAD MIRANDA KENYA ESTEFANIA</t>
@@ -2084,7 +2084,7 @@
     <t>kenya.abad.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>9Q4Ab!h1</t>
+    <t>64xOWPkH</t>
   </si>
   <si>
     <t>ALAVA MORENO MILTON ANTERO</t>
@@ -2093,7 +2093,7 @@
     <t>milton.alava@espam.edu.ec</t>
   </si>
   <si>
-    <t>2SQqz&amp;aW</t>
+    <t>LI2C7yRv</t>
   </si>
   <si>
     <t>ALMEIDA CEDEÑO CINDY BELEN</t>
@@ -2102,7 +2102,7 @@
     <t>cindy.almeida.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>EU315tm9</t>
+    <t>GL08/9MD</t>
   </si>
   <si>
     <t>ANCHUNDIA VERA JUSTIN JOSE</t>
@@ -2111,7 +2111,7 @@
     <t>justin.anchundia.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>gxlhELdX</t>
+    <t>#wFlcGag</t>
   </si>
   <si>
     <t>AYONG PALADINES MARIA FERNANDA</t>
@@ -2120,7 +2120,7 @@
     <t>maria.ayong.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>RwIxG2xG</t>
+    <t>z5wt!gu#</t>
   </si>
   <si>
     <t>BRAVO CEVALLOS MELANY PIERINA</t>
@@ -2129,7 +2129,7 @@
     <t>melany.bravo.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>VfyKzW8&amp;</t>
+    <t>8LPRCM/5</t>
   </si>
   <si>
     <t>CASANOVA SALAZAR ROSEMBERG STEVEN</t>
@@ -2138,7 +2138,7 @@
     <t>rosemberg.casanova@espam.edu.ec</t>
   </si>
   <si>
-    <t>oKF8vv5P</t>
+    <t>/IAxg4fQ</t>
   </si>
   <si>
     <t>FERNANDEZ TORRES JALENI SCARLETH</t>
@@ -2150,7 +2150,7 @@
     <t>jaleni.fernandez.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>pzS#mlhe</t>
+    <t>B7EjLkSm</t>
   </si>
   <si>
     <t>HERRERA SABANDO WILLIAMS ANDRES</t>
@@ -2159,7 +2159,7 @@
     <t>williams.herrera.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>1kiYlpto</t>
+    <t>Q8dJDENM</t>
   </si>
   <si>
     <t>LOPEZ PALADINES EDGAR JOSE</t>
@@ -2168,7 +2168,7 @@
     <t>edgar.lopez.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>FeWq7Vzp</t>
+    <t>3MTh8cuX</t>
   </si>
   <si>
     <t>MEDRANDA GONZALES LINCI YERLEY</t>
@@ -2177,7 +2177,7 @@
     <t>linci.medranda.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>c#n4Ci&amp;N</t>
+    <t>B&amp;iAzknG</t>
   </si>
   <si>
     <t>MENDIETA GILER JORDY EDUARDO</t>
@@ -2186,7 +2186,7 @@
     <t>jordy.mendieta.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>eqGmq2&amp;Q</t>
+    <t>x37gIsHF</t>
   </si>
   <si>
     <t>MORENO VELIZ ALDRIN DAIRY</t>
@@ -2195,7 +2195,7 @@
     <t>aldrin.moreno.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>IWy&amp;?eIf</t>
+    <t>9UmKe#1r</t>
   </si>
   <si>
     <t>MUÑOZ VERA GENESIS LOURDES</t>
@@ -2204,7 +2204,7 @@
     <t>genesis.munoz.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>qjEzIOvf</t>
+    <t>Bm/jo/Ax</t>
   </si>
   <si>
     <t>PLAZA CHOEZ RODOLFO JEAMPIERRE</t>
@@ -2213,7 +2213,7 @@
     <t>rodolfo.plaza.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>/UEOZ3B7</t>
+    <t>CqJWdtRB</t>
   </si>
   <si>
     <t>PRECIADO MOREIRA PABLO ANTHONY</t>
@@ -2225,7 +2225,7 @@
     <t>pablo.preciado@espam.edu.ec</t>
   </si>
   <si>
-    <t>q4bCpjHO</t>
+    <t>Xea4#bsD</t>
   </si>
   <si>
     <t>SABANDO SALCEDO GENESIS BETZABETH</t>
@@ -2237,7 +2237,7 @@
     <t>genesis.sabando.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>bvfjlSn4</t>
+    <t>scMo!paG</t>
   </si>
   <si>
     <t>SOLEDISPA ZAMBRANO CRISTHINA ISABELA</t>
@@ -2246,7 +2246,7 @@
     <t>cristhina.soledispa.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>9FpvtAYa</t>
+    <t>Jkc#xR3v</t>
   </si>
   <si>
     <t>SOLORZANO RODRIGUEZ EVELYN AGUSTINA</t>
@@ -2255,7 +2255,7 @@
     <t>evelyn.solorzanor@espam.edu.ec</t>
   </si>
   <si>
-    <t>!bju!bH6</t>
+    <t>MNSW#59G</t>
   </si>
   <si>
     <t>VERA AGUAS KELVIN JEAN PIERRE</t>
@@ -2264,7 +2264,7 @@
     <t>kelvin.vera@espam.edu.ec</t>
   </si>
   <si>
-    <t>OCJ#&amp;fJj</t>
+    <t>U2f2AsLt</t>
   </si>
   <si>
     <t>VERA LOOR DENYS ESTEFANIA</t>
@@ -2273,7 +2273,7 @@
     <t>denys.vera.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>E6h3HdWd</t>
+    <t>kDkyRzrl</t>
   </si>
   <si>
     <t>VINCES PIN MARIA FERNANDA</t>
@@ -2282,7 +2282,7 @@
     <t>maria.vinces.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>b8A!qRGT</t>
+    <t>iu54QhTK</t>
   </si>
   <si>
     <t>ZAMBRANO ZAMBRANO MARIA BELEN</t>
@@ -2291,7 +2291,7 @@
     <t>mariab.zambranoz.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>YD#wA4OC</t>
+    <t>B8PZ/0lS</t>
   </si>
   <si>
     <t>ALCIVAR ZAMBRANO DIANA ESTHER</t>
@@ -2300,7 +2300,7 @@
     <t>diana.alcivar.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>sgSiLzv2</t>
+    <t>bi&amp;p6VND</t>
   </si>
   <si>
     <t>ALVAREZ BORJA ANGHELO JOSUE</t>
@@ -2309,7 +2309,7 @@
     <t>anghelo.alvarez.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>#jSCeJWy</t>
+    <t>GRNb?B33</t>
   </si>
   <si>
     <t>BRAVO MENDOZA ALBERDY JAVIER</t>
@@ -2318,7 +2318,7 @@
     <t>alberdy.bravo@espam.edu.ec</t>
   </si>
   <si>
-    <t>QByWsFXI</t>
+    <t>A&amp;e5?!fq</t>
   </si>
   <si>
     <t>GARCIA PARRAGA FATIMA MARIA</t>
@@ -2327,7 +2327,7 @@
     <t>fatima.garcia.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>kwXV7IfG</t>
+    <t>!vzPMXiY</t>
   </si>
   <si>
     <t>GRACIA PRATT WILINTON JOSUE</t>
@@ -2339,7 +2339,7 @@
     <t>wilinton.gracia.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>mGnfaYie</t>
+    <t>g4EO1g6L</t>
   </si>
   <si>
     <t>MARRETT BEDOYA MISHELLE MARCELA</t>
@@ -2351,7 +2351,7 @@
     <t>mishelle.marrett.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>B1igyeDQ</t>
+    <t>BIiM/uv6</t>
   </si>
   <si>
     <t>MERA CASTILLO NATHALY VIRGINIA</t>
@@ -2360,7 +2360,7 @@
     <t>nathaly.mera.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>HJLiQj#h</t>
+    <t>a/#2&amp;B/P</t>
   </si>
   <si>
     <t>ROSERO VERA LUIS ANDRES</t>
@@ -2369,7 +2369,7 @@
     <t>luis.rosero@espam.edu.ec</t>
   </si>
   <si>
-    <t>XJqi9Hso</t>
+    <t>&amp;rQNTUz3</t>
   </si>
   <si>
     <t>SANTISTEBAN BENAVIDES JOSUE ROMARIO</t>
@@ -2378,7 +2378,7 @@
     <t>josue.santisteban.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>YhqN6x02</t>
+    <t>HjOoK3#v</t>
   </si>
   <si>
     <t>SOLORZANO CUSME GEMA JULIANA</t>
@@ -2387,7 +2387,7 @@
     <t>gemaju.solorzano@espam.edu.ec</t>
   </si>
   <si>
-    <t>7Xhz4Nim</t>
+    <t>t8Ii#AXy</t>
   </si>
   <si>
     <t>TORRES PINARGOTE MAHOLY</t>
@@ -2396,7 +2396,7 @@
     <t>maholy.torres.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>99OWfT6c</t>
+    <t>mxgT?J?s</t>
   </si>
   <si>
     <t>ZAMBRANO BRAVO LEANDRO ISMAEL</t>
@@ -2405,7 +2405,7 @@
     <t>leandro.zambrano.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>nKinUyD7</t>
+    <t>zyQtP1o7</t>
   </si>
   <si>
     <t>ZAMBRANO GARCIA HENRY ARTURO</t>
@@ -2414,7 +2414,7 @@
     <t>henry.zambrano.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>b8h6uR?U</t>
+    <t>hfEf4Dc#</t>
   </si>
   <si>
     <t>BARRE PARRAGA BETSY BEATRIZ</t>
@@ -2423,7 +2423,7 @@
     <t>betsy.barre.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>v0TA&amp;6AP</t>
+    <t>3hVfOueg</t>
   </si>
   <si>
     <t>CEDEÑO CEDEÑO CAMILA PATRICIA</t>
@@ -2435,7 +2435,7 @@
     <t>camila.cedeno.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>KXcHNRct</t>
+    <t>#QNUi9B1</t>
   </si>
   <si>
     <t>CEDEÑO SOLORZANO ANTHONY STEVEN</t>
@@ -2444,7 +2444,7 @@
     <t>anthony.cedenos.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>sBIn7aBO</t>
+    <t>Xdtvii#K</t>
   </si>
   <si>
     <t>CEDEÑO TUAREZ ANGIE LISSETTE</t>
@@ -2453,7 +2453,7 @@
     <t>angie.cedeno@espam.edu.ec</t>
   </si>
   <si>
-    <t>8&amp;hA/5Ha</t>
+    <t>rd0/UTLp</t>
   </si>
   <si>
     <t>CHAVEZ LANDAZURI JACKSON JAIR</t>
@@ -2465,7 +2465,7 @@
     <t>jackson.chavez.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>Xzz!SRs0</t>
+    <t>?yP195ks</t>
   </si>
   <si>
     <t>CHICA MOREIRA MARIA FERNANDA</t>
@@ -2474,7 +2474,7 @@
     <t>maria.chica.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>5XU7NppG</t>
+    <t>Si0M01&amp;u</t>
   </si>
   <si>
     <t>GARCIA ZAMBRANO WENDY YAMILETH</t>
@@ -2483,7 +2483,7 @@
     <t>wendy.garcia.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>klz/g?Zg</t>
+    <t>8zA?YKPo</t>
   </si>
   <si>
     <t>GARZON CEDEÑO FRANCESCO RUBEN</t>
@@ -2492,7 +2492,7 @@
     <t>francesco.garzon.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>CQrQkVE5</t>
+    <t>fyznCSrh</t>
   </si>
   <si>
     <t>GUERRERO CEDEÑO MICHAEL JORDY</t>
@@ -2501,7 +2501,7 @@
     <t>michael.guerrero.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>UsxWNXt3</t>
+    <t>eO#ltbxF</t>
   </si>
   <si>
     <t>MEDRANDA GONZALES CRISTHIAN JOSE</t>
@@ -2510,7 +2510,7 @@
     <t>cristhian.medranda@espam.edu.ec</t>
   </si>
   <si>
-    <t>nkNy3PpU</t>
+    <t>TLw2mmvA</t>
   </si>
   <si>
     <t>ORELLANA ANCHUNDIA JESUS MIGUEL</t>
@@ -2519,7 +2519,7 @@
     <t>jesus.orellana@espam.edu.ec</t>
   </si>
   <si>
-    <t>Iu2l5zE?</t>
+    <t>MILfx6Ak</t>
   </si>
   <si>
     <t>ORTIZ GOMEZ EDUARDO ANDRES</t>
@@ -2528,7 +2528,7 @@
     <t>eduardo.ortiz@espam.edu.ec</t>
   </si>
   <si>
-    <t>Ff#FLVaB</t>
+    <t>1DZ12N8o</t>
   </si>
   <si>
     <t>PAZMIÑO MERA SHANDE ALEXANDER</t>
@@ -2537,7 +2537,7 @@
     <t>shande.pazmino.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>hrih3JYz</t>
+    <t>s&amp;GaUGSg</t>
   </si>
   <si>
     <t>PEÑARRIETA BAZURTO ERICK ANDRES</t>
@@ -2546,7 +2546,7 @@
     <t>erick.penarrieta@espam.edu.ec</t>
   </si>
   <si>
-    <t>EQnoIF2p</t>
+    <t>6y/ZUOuW</t>
   </si>
   <si>
     <t>RIERA GAVILANES IZHURY MILLENYTH</t>
@@ -2558,7 +2558,7 @@
     <t>izhury.riera.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>X&amp;91349K</t>
+    <t>KIm1q&amp;4n</t>
   </si>
   <si>
     <t>RIVERA CEDEÑO RIVALDO JOSE</t>
@@ -2570,7 +2570,7 @@
     <t>rivaldo.rivera.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>UzUZ1unl</t>
+    <t>bGTId7h5</t>
   </si>
   <si>
     <t>SALDARRIAGA ARTEAGA OMAIRA MARIBI</t>
@@ -2579,7 +2579,7 @@
     <t>omaira.saldarriaga@espam.edu.ec</t>
   </si>
   <si>
-    <t>rG&amp;4dbd0</t>
+    <t>T05oyve&amp;</t>
   </si>
   <si>
     <t>SANDOVAL MERA NALLELY STEFANIA</t>
@@ -2588,7 +2588,7 @@
     <t>nallely.sandoval.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>/6IbTmN3</t>
+    <t>v4XZ!fH6</t>
   </si>
   <si>
     <t>SUQUI CANGO BRYAN EDUARDO</t>
@@ -2600,7 +2600,7 @@
     <t>bryan.suqui.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>LhDF2cpE</t>
+    <t>mX&amp;YJ6nw</t>
   </si>
   <si>
     <t>VERDUGA ZAMBRANO CARLOS ANDRES</t>
@@ -2609,7 +2609,7 @@
     <t>carlos.verduga.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>&amp;NMBRQe1</t>
+    <t>WBYakzU4</t>
   </si>
   <si>
     <t>ZAMBRANO LARA MARVIN RENE</t>
@@ -2618,7 +2618,7 @@
     <t>marvin.zambrano.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>dAAmG6G?</t>
+    <t>25LL?P5t</t>
   </si>
   <si>
     <t>ZAMBRANO OBANDO KELVIN JOSUE</t>
@@ -2630,7 +2630,7 @@
     <t>kelvin.zambrano.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>?px8DzqD</t>
+    <t>tUZRvm!5</t>
   </si>
   <si>
     <t>ZAPATA QUINCHE ANDREA CAROLINA</t>
@@ -2639,7 +2639,7 @@
     <t>andrea.zapata.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>99T0!GS7</t>
+    <t>A#GbogE8</t>
   </si>
   <si>
     <t>ALMEIDA PEREZ ANGEL FERNANDO</t>
@@ -2648,7 +2648,7 @@
     <t>angel.almeida@espam.edu.ec</t>
   </si>
   <si>
-    <t>cGGfUQhg</t>
+    <t>Wu4oX3m6</t>
   </si>
   <si>
     <t>CEDEÑO PARRAGA MELANY NALLELY</t>
@@ -2657,7 +2657,7 @@
     <t>melany.cedeno.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>G4wB8/Ty</t>
+    <t>y3R/piBx</t>
   </si>
   <si>
     <t>CEDEÑO SALVATIERRA JENIFFER ALEJANDRA</t>
@@ -2666,7 +2666,7 @@
     <t>jeniffer.cedenosal@espam.edu.ec</t>
   </si>
   <si>
-    <t>TKwW&amp;vSO</t>
+    <t>4NKzsxDp</t>
   </si>
   <si>
     <t>FERNANDEZ ARTEAGA SCHEZNARDA EDITH</t>
@@ -2675,7 +2675,7 @@
     <t>scheznarda.fernandez.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>ZJ3TQlbT</t>
+    <t>T/bX!13J</t>
   </si>
   <si>
     <t>GANCHOZO VELEZ EMILY JULEXY</t>
@@ -2684,7 +2684,7 @@
     <t>emily.ganchozo.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>CU7plVwd</t>
+    <t>!wJwkmBU</t>
   </si>
   <si>
     <t>LEON VIZÑAY ROQUE JAVIER</t>
@@ -2696,7 +2696,7 @@
     <t>roque.leon@espam.edu.ec</t>
   </si>
   <si>
-    <t>RzEMaq#a</t>
+    <t>YQu&amp;Ayh?</t>
   </si>
   <si>
     <t>LOOR LOOR EVELYN YAMILETH</t>
@@ -2705,7 +2705,7 @@
     <t>evelynya.loor@espam.edu.ec</t>
   </si>
   <si>
-    <t>qJupSSkl</t>
+    <t>Zf4?0k/#</t>
   </si>
   <si>
     <t>LOOR MOREIRA MELANIE NOEMI</t>
@@ -2714,7 +2714,7 @@
     <t>melanie.loorm.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>D7jdssD9</t>
+    <t>KKTMTqgJ</t>
   </si>
   <si>
     <t>LOPEZ ESTACIO ROSA ANGELICA</t>
@@ -2723,7 +2723,7 @@
     <t>rosa.lopez@espam.edu.ec</t>
   </si>
   <si>
-    <t>dJgNZRgM</t>
+    <t>O933wTIY</t>
   </si>
   <si>
     <t>MENDOZA MUÑOZ FLOR ANTONELA</t>
@@ -2732,7 +2732,7 @@
     <t>flor.mendoza.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>r?unyN?0</t>
+    <t>Md3&amp;dkUp</t>
   </si>
   <si>
     <t>MERELO SOLORZANO NAIDELYN MISHELLE</t>
@@ -2741,7 +2741,7 @@
     <t>naidelyn.merelo.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>dkjRL3sX</t>
+    <t>1us?m59Y</t>
   </si>
   <si>
     <t>MOREIRA LOOR FABIAN ALEXANDER</t>
@@ -2750,7 +2750,7 @@
     <t>fabian.moreira@espam.edu.ec</t>
   </si>
   <si>
-    <t>3mri#2X?</t>
+    <t>F&amp;yfymTt</t>
   </si>
   <si>
     <t>PAZMIÑO FALCONES JOSE MIGUEL</t>
@@ -2759,7 +2759,7 @@
     <t>jose.pazmino@espam.edu.ec</t>
   </si>
   <si>
-    <t>vabr9MBD</t>
+    <t>q7T6uRkS</t>
   </si>
   <si>
     <t>PEÑAFIEL PITA BRITHANNY MICAELA</t>
@@ -2771,7 +2771,7 @@
     <t>brithanny.penafiel.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>fVVxT8GY</t>
+    <t>ojIyvuxK</t>
   </si>
   <si>
     <t>PINTO PALACIOS JOSE ANTONIO</t>
@@ -2780,7 +2780,7 @@
     <t>jose.pinto@espam.edu.ec</t>
   </si>
   <si>
-    <t>AxVHccP3</t>
+    <t>LRTUX!2l</t>
   </si>
   <si>
     <t>RENTERIA VALENCIA NEURYS GYSSELA</t>
@@ -2792,7 +2792,7 @@
     <t>neurys.renteria@espam.edu.ec</t>
   </si>
   <si>
-    <t>AVIBL10G</t>
+    <t>t?oWKJvp</t>
   </si>
   <si>
     <t>RIVAS ZAMBRANO ALISSON KATIUSKA</t>
@@ -2801,7 +2801,7 @@
     <t>alisson.rivas.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>xs/4eYgJ</t>
+    <t>qG0ZF1M&amp;</t>
   </si>
   <si>
     <t>TORRES VARGAS KARELIS ANDREINA</t>
@@ -2813,7 +2813,7 @@
     <t>karelis.torres@espam.edu.ec</t>
   </si>
   <si>
-    <t>YBNByTHC</t>
+    <t>jJHuyHeU</t>
   </si>
   <si>
     <t>VALDIVIESO CHUNG DANIEL JAFET</t>
@@ -2822,7 +2822,7 @@
     <t>daniel.valdivieso.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>NbwXv493</t>
+    <t>M4/UzpwL</t>
   </si>
   <si>
     <t>VASCONEZ GONZALEZ FRANCISCO ALESSIO</t>
@@ -2831,7 +2831,7 @@
     <t>francisco.vasconez.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>VRHy!?Op</t>
+    <t>ctw34Nh3</t>
   </si>
   <si>
     <t>VELEZ ORTEGA BORIS ANDRES</t>
@@ -2840,7 +2840,7 @@
     <t>boris.velez.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>96rW9dL8</t>
+    <t>P0pz!zJ#</t>
   </si>
   <si>
     <t>VERA ESTUPIÑAN BRYAN FRANCISCO</t>
@@ -2849,7 +2849,7 @@
     <t>bryan.vera@espam.edu.ec</t>
   </si>
   <si>
-    <t>GCEZePgd</t>
+    <t>iKhEbVLu</t>
   </si>
   <si>
     <t>VERA LOOR ARIANA PAOLA</t>
@@ -2858,7 +2858,7 @@
     <t>ariana.vera.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>HqAcg#wf</t>
+    <t>hQsRfoD?</t>
   </si>
   <si>
     <t>ZAMBRANO VEGA AURA ARACELY</t>
@@ -2867,7 +2867,7 @@
     <t>aura.zambranov@espam.edu.ec</t>
   </si>
   <si>
-    <t>30TJBwdW</t>
+    <t>CrW55qo3</t>
   </si>
   <si>
     <t>ALMEIDA ZAMBRANO HALINTONG VICENTE</t>
@@ -2876,7 +2876,7 @@
     <t>halintong.almeida@espam.edu.ec</t>
   </si>
   <si>
-    <t>4uw2rVUx</t>
+    <t>dx3V?#M7</t>
   </si>
   <si>
     <t>AYALA VILLAFUERTE NAHOMY NAYELY</t>
@@ -2885,7 +2885,7 @@
     <t>nahomy.ayala@espam.edu.ec</t>
   </si>
   <si>
-    <t>7bnc0mus</t>
+    <t>V#q8eoFG</t>
   </si>
   <si>
     <t>BASURTO CEDEÑO ITALO JORDANO</t>
@@ -2894,7 +2894,7 @@
     <t>italo.basurto.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>CJY6hiO2</t>
+    <t>nHJmYsYf</t>
   </si>
   <si>
     <t>CASTRO TAIPE YERIK LEXANDER</t>
@@ -2903,7 +2903,7 @@
     <t>yerik.castro.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>ayUA2sXM</t>
+    <t>bQwmMCjr</t>
   </si>
   <si>
     <t>CEDEÑO GARCIA CARLOS PAUL</t>
@@ -2912,7 +2912,7 @@
     <t>carlos.cedeno.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>l0GIGObd</t>
+    <t>QE362tX9</t>
   </si>
   <si>
     <t>COBEÑA ZAMBRANO EDIS ARIEL</t>
@@ -2921,7 +2921,7 @@
     <t>edis.cobena@espam.edu.ec</t>
   </si>
   <si>
-    <t>48FPP8m7</t>
+    <t>nZ2d5DgD</t>
   </si>
   <si>
     <t>CORDOVA MUGUERZA ADRIANA NICOLLE</t>
@@ -2930,7 +2930,7 @@
     <t>adriana.muguersa.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>o#fcX88z</t>
+    <t>CqWCS1Q9</t>
   </si>
   <si>
     <t>COTERA PIN MAYERLY DAYANARA</t>
@@ -2939,7 +2939,7 @@
     <t>mayerly.cotera.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>5RDszUTw</t>
+    <t>dy6TIVi2</t>
   </si>
   <si>
     <t>CUENCA CUSME CECILIA ALEXANDRA</t>
@@ -2948,7 +2948,7 @@
     <t>cecilia.cuenca@espam.edu.ec</t>
   </si>
   <si>
-    <t>NOKeUquz</t>
+    <t>#?7Y0!OR</t>
   </si>
   <si>
     <t>FERNANDEZ ARTEAGA ANGIE MISHELLE</t>
@@ -2957,7 +2957,7 @@
     <t>angie.fernandez.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>T0QLTEC3</t>
+    <t>S8/7dTbj</t>
   </si>
   <si>
     <t>LATA QUINCHI SANDRA LOURDES</t>
@@ -2966,7 +2966,7 @@
     <t>sandra.lata.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>Dbp/p7ff</t>
+    <t>QvSeTbSa</t>
   </si>
   <si>
     <t>MEJICANGO CALLE JAZMIN LISBETH</t>
@@ -2978,7 +2978,7 @@
     <t>jazmin.mejicango.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>tfUe9Bn4</t>
+    <t>HX3dFYPA</t>
   </si>
   <si>
     <t>MENDOZA GANCHOZO DOMENICA NICOLE</t>
@@ -2987,7 +2987,7 @@
     <t>domenica.mendoza.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>4/ah!QER</t>
+    <t>lmmY3xpJ</t>
   </si>
   <si>
     <t>MOREIRA CEVALLOS NAYELY VANESSA</t>
@@ -2996,7 +2996,7 @@
     <t>nayely.moreira@espam.edu.ec</t>
   </si>
   <si>
-    <t>MXGvZGWq</t>
+    <t>Cq95ewsR</t>
   </si>
   <si>
     <t>MUÑOZ VERA MICHELLE VALENTINA</t>
@@ -3005,7 +3005,7 @@
     <t>michelle.munoz.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>AOQM84Ic</t>
+    <t>O4gHGUaV</t>
   </si>
   <si>
     <t>OLMOS RIVERA CLEOPATRA STEFANIA</t>
@@ -3014,7 +3014,7 @@
     <t>cleopatra.olmos.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>eff7n8BJ</t>
+    <t>ej4i#s9&amp;</t>
   </si>
   <si>
     <t>PAREDES RODRIGUEZ GIBELY JARLETH</t>
@@ -3026,7 +3026,7 @@
     <t>gibely.paredes.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>cTpdRGzL</t>
+    <t>0CC?AZLj</t>
   </si>
   <si>
     <t>PERUGACHI MECIAS GEOVANNY ALEJANDRO</t>
@@ -3035,7 +3035,7 @@
     <t>geovanny.perugachi.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>8wzb6nkd</t>
+    <t>MUBsQJjN</t>
   </si>
   <si>
     <t>PITA MACIAS RUBEN DARIO</t>
@@ -3044,7 +3044,7 @@
     <t>ruben.pita@espam.edu.ec</t>
   </si>
   <si>
-    <t>SDsRLafl</t>
+    <t>GobCeepe</t>
   </si>
   <si>
     <t>ROSADO QUIROZ JANDRY FABRICIO</t>
@@ -3053,7 +3053,7 @@
     <t>jandry.rosado.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>pj8Ipwme</t>
+    <t>#4DGK1Aa</t>
   </si>
   <si>
     <t>SANCHEZ CHOEZ BERTHA DOLORES</t>
@@ -3062,7 +3062,7 @@
     <t>bertha.choez.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>#6vashrq</t>
+    <t>h6n6Qt#D</t>
   </si>
   <si>
     <t>VALENCIA MARCILLO JENIFFER KAROLINA</t>
@@ -3071,7 +3071,7 @@
     <t>jenifferk.valenciam@espam.edu.ec</t>
   </si>
   <si>
-    <t>V0ywBBY!</t>
+    <t>E2J5Ndrx</t>
   </si>
   <si>
     <t>VELASQUEZ GUADAMUD MARIO DAMIAN</t>
@@ -3080,7 +3080,7 @@
     <t>mario.velasquez@espam.edu.ec</t>
   </si>
   <si>
-    <t>2E3N9m!M</t>
+    <t>lEgeh/xN</t>
   </si>
   <si>
     <t>VELEZ RIVAS JOFFRE GEOVANNY</t>
@@ -3089,7 +3089,7 @@
     <t>joffre.velez.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>Nw9XCzb5</t>
+    <t>wuoJAmGh</t>
   </si>
   <si>
     <t>VELEZ ZAMBRANO GEMA BRIGITH</t>
@@ -3098,7 +3098,7 @@
     <t>gema.velez.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>?XlCp2?X</t>
+    <t>cjyksHxO</t>
   </si>
   <si>
     <t>VERA CEVALLOS CARMEN GISSELLA</t>
@@ -3107,7 +3107,7 @@
     <t>carmen.vera@espam.edu.ec</t>
   </si>
   <si>
-    <t>t4XUe7IH</t>
+    <t>sqf3QVPS</t>
   </si>
   <si>
     <t>VERA SOLORZANO CARLOS NEPTALI</t>
@@ -3116,7 +3116,7 @@
     <t>carlos.veras@espam.edu.ec</t>
   </si>
   <si>
-    <t>5QpzbO5v</t>
+    <t>PS75/&amp;ik</t>
   </si>
   <si>
     <t>VERA VERA YUSTHYN YARLETH</t>
@@ -3125,7 +3125,7 @@
     <t>yusthyn.vera.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>w#g3dgSA</t>
+    <t>eTtqC2lt</t>
   </si>
   <si>
     <t>VIDAL SABANDO MARIA KATHERINE</t>
@@ -3134,7 +3134,7 @@
     <t>maria.vidal.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>NoNo?nDz</t>
+    <t>ctxcvxoV</t>
   </si>
   <si>
     <t>ZAMBRANO ALCIVAR EMILIO JOSE</t>
@@ -3143,7 +3143,7 @@
     <t>emilio.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>6/1jwBXs</t>
+    <t>LT2PE1NE</t>
   </si>
   <si>
     <t>ZAMBRANO AVEIGA MAYRA ALEXANDRA</t>
@@ -3152,7 +3152,7 @@
     <t>mayra.zambrano.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>6U?QgLnv</t>
+    <t>ogMK6JY6</t>
   </si>
   <si>
     <t>ZAMBRANO VERA MARIA BEATRIZ</t>
@@ -3161,7 +3161,7 @@
     <t>maria.zambrano.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>Pwx4W3fW</t>
+    <t>0eblBUS1</t>
   </si>
   <si>
     <t>ALCIVAR RODRIGUEZ STEFANY LISETH</t>
@@ -3170,7 +3170,7 @@
     <t>stefany.alcivar.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>??ukUxzL</t>
+    <t>rDAhoLcH</t>
   </si>
   <si>
     <t>ANGULO GLENN YURANI MAGERLI</t>
@@ -3182,7 +3182,7 @@
     <t>yurani.angulo.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>Q8NQmgUB</t>
+    <t>VwDP3bMF</t>
   </si>
   <si>
     <t>ARTEAGA TRIVIÑO CAMILA</t>
@@ -3191,7 +3191,7 @@
     <t>camila.arteaga.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>oiRE5t0f</t>
+    <t>oE0LKhl3</t>
   </si>
   <si>
     <t>BALDERRAMO CABRERA JOSE GERMAN</t>
@@ -3200,7 +3200,7 @@
     <t>jose.balderramo.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>62rPa?Is</t>
+    <t>blo5uT2l</t>
   </si>
   <si>
     <t>BRAVO MUÑOZ JEAN MYCKEL</t>
@@ -3209,7 +3209,7 @@
     <t>jean.bravomu@espam.edu.ec</t>
   </si>
   <si>
-    <t>WqjXrrKd</t>
+    <t>9B!Kpbqa</t>
   </si>
   <si>
     <t>BRAVO SANTANA JUNIOR XAVIER</t>
@@ -3218,7 +3218,7 @@
     <t>juniorx.bravos@espam.edu.ec</t>
   </si>
   <si>
-    <t>86XfxoRX</t>
+    <t>mZsQvhr/</t>
   </si>
   <si>
     <t>CAGUA RODRIGUEZ NAYELY ANAHI</t>
@@ -3227,7 +3227,7 @@
     <t>nayely.cagua.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>?H/XlzSR</t>
+    <t>SEO2P01m</t>
   </si>
   <si>
     <t>CALDERON RODRIGUEZ FATIMA DANIELA</t>
@@ -3236,7 +3236,7 @@
     <t>fatima.calderon.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>J5W&amp;di#c</t>
+    <t>Zw1E5n6q</t>
   </si>
   <si>
     <t>CASTILLO MEJIA MARIA CARLOTA</t>
@@ -3245,7 +3245,7 @@
     <t>maria.castillo.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>G8w0r036</t>
+    <t>i0u4MhG#</t>
   </si>
   <si>
     <t>CEDEÑO CUSME DAYANARA NARCISA</t>
@@ -3254,7 +3254,7 @@
     <t>dayanara.cedeno.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>wwY8WHMR</t>
+    <t>wTB2KiTV</t>
   </si>
   <si>
     <t>CELORIO VERA PETER PABLO</t>
@@ -3263,7 +3263,7 @@
     <t>peter.celorio.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>nykr?&amp;Fn</t>
+    <t>65B!32j!</t>
   </si>
   <si>
     <t>COOL MORENO DIANA ESTHEFANIA</t>
@@ -3272,7 +3272,7 @@
     <t>diana.cool@espam.edu.ec</t>
   </si>
   <si>
-    <t>IORm1NW&amp;</t>
+    <t>xc4VbqXJ</t>
   </si>
   <si>
     <t>DELGADO GARZON PAOLA FERNANDA</t>
@@ -3281,7 +3281,7 @@
     <t>paola.delgadog.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>zgz&amp;KQhR</t>
+    <t>6Dps8x26</t>
   </si>
   <si>
     <t>DOMINGUEZ DOMINGUEZ ROMINA MELISSA</t>
@@ -3290,7 +3290,7 @@
     <t>romina.dominguez@espam.edu.ec</t>
   </si>
   <si>
-    <t>0fOfS!Q&amp;</t>
+    <t>Dc#U0d91</t>
   </si>
   <si>
     <t>GARCIA MUÑOZ EDDY SANTIAGO</t>
@@ -3299,7 +3299,7 @@
     <t>eddy.garcia@espam.edu.ec</t>
   </si>
   <si>
-    <t>LZ73Vtya</t>
+    <t>DMudlZTt</t>
   </si>
   <si>
     <t>GARCIA PONCE LEONELA ANTONELLA</t>
@@ -3308,7 +3308,7 @@
     <t>leonela.garcia.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>7WLA2Db8</t>
+    <t>WS1638m8</t>
   </si>
   <si>
     <t>LOPEZ SOLORZANO YIMMY</t>
@@ -3317,7 +3317,7 @@
     <t>yimmy.lopez@espam.edu.ec</t>
   </si>
   <si>
-    <t>gOctfE!u</t>
+    <t>b7Wewurf</t>
   </si>
   <si>
     <t>LOPEZ ZAMBRANO JORGE ISAAC</t>
@@ -3326,7 +3326,7 @@
     <t>jorge.lopez.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>XGnqgfPv</t>
+    <t>!Q41VUS7</t>
   </si>
   <si>
     <t>MACIAS GUAGUA MAGERLY THAIS</t>
@@ -3338,7 +3338,7 @@
     <t>magerly.macias.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>N/B#Iv7x</t>
+    <t>gL#xKfQ&amp;</t>
   </si>
   <si>
     <t>MARTINEZ SABANDO MARCELO EFRAIN</t>
@@ -3347,7 +3347,7 @@
     <t>marcelo.martinez@espam.edu.ec</t>
   </si>
   <si>
-    <t>RXJDTuzd</t>
+    <t>WIeN26SW</t>
   </si>
   <si>
     <t>MEDRANDA CEDEÑO IVAN ARTURO</t>
@@ -3356,7 +3356,7 @@
     <t>ivan.medranda@espam.edu.ec</t>
   </si>
   <si>
-    <t>u9aXZM2H</t>
+    <t>qi#5ElSg</t>
   </si>
   <si>
     <t>MENDOZA INTRIAGO KEYLA YAMIRA</t>
@@ -3365,7 +3365,7 @@
     <t>keyla.mendoza@espam.edu.ec</t>
   </si>
   <si>
-    <t>Ffgsj2Ak</t>
+    <t>8T!&amp;4Rev</t>
   </si>
   <si>
     <t>MENDOZA LOOR MARIAGRACIA</t>
@@ -3374,7 +3374,7 @@
     <t>mariagracia.mendoza@espam.edu.ec</t>
   </si>
   <si>
-    <t>nP?xfbSV</t>
+    <t>Ef1mAHgM</t>
   </si>
   <si>
     <t>MOREIRA VELEZ ANGELICA LISBETH</t>
@@ -3383,7 +3383,7 @@
     <t>angelica.moreira@espam.edu.ec</t>
   </si>
   <si>
-    <t>HuTFVWux</t>
+    <t>GDYpM4N9</t>
   </si>
   <si>
     <t>PATA HERRERA ESTRELLA TATIANA</t>
@@ -3392,7 +3392,7 @@
     <t>estrella.pata.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>lD8HgQQP</t>
+    <t>wI4&amp;XqwH</t>
   </si>
   <si>
     <t>PONCE MIRANDA YOEL ISAIAS</t>
@@ -3401,7 +3401,7 @@
     <t>yoel.ponce@espam.edu.ec</t>
   </si>
   <si>
-    <t>abrEOw!Q</t>
+    <t>tspdXx&amp;0</t>
   </si>
   <si>
     <t>RIVAS ALARCON ALISSON MAYERLI</t>
@@ -3413,7 +3413,7 @@
     <t>alisson.rivas@espam.edu.ec</t>
   </si>
   <si>
-    <t>cIccT8kC</t>
+    <t>O72IoeVC</t>
   </si>
   <si>
     <t>SABANDO VERA EMELY NOEMI</t>
@@ -3425,7 +3425,7 @@
     <t>emely.sabando.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>UxphmWC6</t>
+    <t>85L8lEKf</t>
   </si>
   <si>
     <t>VELASQUEZ ZAMBRANO JUAN DIEGO</t>
@@ -3434,7 +3434,7 @@
     <t>juan.velasquez@espam.edu.ec</t>
   </si>
   <si>
-    <t>hjOgc1FW</t>
+    <t>QKD#j7ia</t>
   </si>
   <si>
     <t>ZAMBRANO MENDOZA JOSE LUIS</t>
@@ -3443,7 +3443,7 @@
     <t>jose.zambrano.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>kBOu?6Wp</t>
+    <t>&amp;X7mOEfQ</t>
   </si>
   <si>
     <t>ZAMBRANO PEREZ CARLOS JULIO</t>
@@ -3452,7 +3452,7 @@
     <t>carlos.zambranop@espam.edu.ec</t>
   </si>
   <si>
-    <t>I8Bzlivr</t>
+    <t>j8k6gemt</t>
   </si>
   <si>
     <t>ACHIG GUALACATA EVELIN LISETTE</t>
@@ -3461,7 +3461,7 @@
     <t>evelin.achig@espam.edu.ec</t>
   </si>
   <si>
-    <t>&amp;iuEKgZq</t>
+    <t>OKdnt&amp;sF</t>
   </si>
   <si>
     <t>AGUAS VERA JEICOL MIKE</t>
@@ -3470,7 +3470,7 @@
     <t>jeicol.aguas@espam.edu.ec</t>
   </si>
   <si>
-    <t>UIQYH4Dd</t>
+    <t>xcshXxRH</t>
   </si>
   <si>
     <t>BRAVO BASURTO JUAN CARLOS</t>
@@ -3479,7 +3479,7 @@
     <t>juan.bravo@espam.edu.ec</t>
   </si>
   <si>
-    <t>2fqUV5j7</t>
+    <t>iV#5&amp;iPp</t>
   </si>
   <si>
     <t>CANTOS ZAMBRANO MARIA FERNANDA</t>
@@ -3488,7 +3488,7 @@
     <t>mariaf.cantos@espam.edu.ec</t>
   </si>
   <si>
-    <t>6EEw65F2</t>
+    <t>P3sOrIwP</t>
   </si>
   <si>
     <t>CASTILLO DELGADO LERENY JAMILEX</t>
@@ -3497,7 +3497,7 @@
     <t>lereny.castillo@espam.edu.ec</t>
   </si>
   <si>
-    <t>NVDvsywX</t>
+    <t>BwTrtEXq</t>
   </si>
   <si>
     <t>CASTILLO JACOME JHON JAIRO</t>
@@ -3506,7 +3506,7 @@
     <t>jhon.castillo@espam.edu.ec</t>
   </si>
   <si>
-    <t>noR0VYi#</t>
+    <t>YHEX/v8a</t>
   </si>
   <si>
     <t>CELORIO MENDOZA MIRIAN ALEJANDRA</t>
@@ -3515,7 +3515,7 @@
     <t>mirian.celorio@espam.edu.ec</t>
   </si>
   <si>
-    <t>4o7fwXou</t>
+    <t>bjdNgz3v</t>
   </si>
   <si>
     <t>CHUMO CHAVEZ JANINA BELEN</t>
@@ -3524,7 +3524,7 @@
     <t>janina.chumo@espam.edu.ec</t>
   </si>
   <si>
-    <t>97o#lJo8</t>
+    <t>d?Y/m4qt</t>
   </si>
   <si>
     <t>DELGADO LOPEZ MERCEDES ELIZABETH</t>
@@ -3533,7 +3533,7 @@
     <t>mercedes.delgado@espam.edu.ec</t>
   </si>
   <si>
-    <t>Gaz/I63s</t>
+    <t>?cLSGuUX</t>
   </si>
   <si>
     <t>ESTEVES OLVERA DIANA MILENA</t>
@@ -3542,7 +3542,7 @@
     <t>diana.esteves@espam.edu.ec</t>
   </si>
   <si>
-    <t>bf2WsMe0</t>
+    <t>us0Sc#PR</t>
   </si>
   <si>
     <t>FALLAIN ZAMBRANO MARIA ANGELICA</t>
@@ -3551,7 +3551,7 @@
     <t>maria.fallain@espam.edu.ec</t>
   </si>
   <si>
-    <t>EUE4Tc6B</t>
+    <t>PCbCThHX</t>
   </si>
   <si>
     <t>FERNANDEZ CEVALLOS FRANCISCO ESTUARDO</t>
@@ -3560,7 +3560,7 @@
     <t>francisco.fernandez@espam.edu.ec</t>
   </si>
   <si>
-    <t>kiy?LPTA</t>
+    <t>aSG9ESgE</t>
   </si>
   <si>
     <t>HERNANDEZ HERNANDEZ MARIA ZULEMA</t>
@@ -3572,7 +3572,7 @@
     <t>maria.hernandez@espam.edu.ec</t>
   </si>
   <si>
-    <t>X?m3wj!Q</t>
+    <t>yY8zxPA?</t>
   </si>
   <si>
     <t>INTRIAGO SOLORZANO LEYDI GABRIELA</t>
@@ -3581,7 +3581,7 @@
     <t>leydi.intriago@espam.edu.ec</t>
   </si>
   <si>
-    <t>Ji66Q?qc</t>
+    <t>4E46GhdR</t>
   </si>
   <si>
     <t>MACIAS LOOR ELIAN RENE</t>
@@ -3590,7 +3590,7 @@
     <t>elian.macias@espam.edu.ec</t>
   </si>
   <si>
-    <t>Qo01Kn12</t>
+    <t>E!3RYi&amp;A</t>
   </si>
   <si>
     <t>MACIAS PISCO NACHY MONSERRAT</t>
@@ -3599,7 +3599,7 @@
     <t>nachy.macias@espam.edu.ec</t>
   </si>
   <si>
-    <t>CIgfTKnE</t>
+    <t>uHp2YIY!</t>
   </si>
   <si>
     <t>MERA LOOR JONAYKER REYNALDO</t>
@@ -3608,7 +3608,7 @@
     <t>jonayker.mera@espam.edu.ec</t>
   </si>
   <si>
-    <t>19&amp;zJlGa</t>
+    <t>SB8f!?Vu</t>
   </si>
   <si>
     <t>MOREIRA BASURTO YORDY JOEL</t>
@@ -3617,7 +3617,7 @@
     <t>yordy.moreira@espam.edu.ec</t>
   </si>
   <si>
-    <t>V&amp;JM5Ics</t>
+    <t>dyn4CUWA</t>
   </si>
   <si>
     <t>MOREIRA MENDOZA MAGDALENA JAMILETH</t>
@@ -3626,7 +3626,7 @@
     <t>magdalena.moreira@espam.edu.ec</t>
   </si>
   <si>
-    <t>cmRSX&amp;tU</t>
+    <t>LZR18KLy</t>
   </si>
   <si>
     <t>PANTUSIN MUGUERZA ANDREA LISSETH</t>
@@ -3635,7 +3635,7 @@
     <t>andrea.pantusin@espam.edu.ec</t>
   </si>
   <si>
-    <t>I3p0plmo</t>
+    <t>CHo?lnn2</t>
   </si>
   <si>
     <t>PATIÑO MEJIA MILENA ANAHI</t>
@@ -3644,7 +3644,7 @@
     <t>milena.patino@espam.edu.ec</t>
   </si>
   <si>
-    <t>gURnbAkH</t>
+    <t>Ia8#9VkZ</t>
   </si>
   <si>
     <t>PICO GARCIA ALLISON JANELY</t>
@@ -3653,7 +3653,7 @@
     <t>allison.pico@espam.edu.ec</t>
   </si>
   <si>
-    <t>ul8VYMyc</t>
+    <t>yR4!eoIv</t>
   </si>
   <si>
     <t>POVEDA SANTANA ENZO JAVIER</t>
@@ -3665,7 +3665,7 @@
     <t>enzo.poveda@espam.edu.ec</t>
   </si>
   <si>
-    <t>CVB?Qkv&amp;</t>
+    <t>37&amp;/#zhe</t>
   </si>
   <si>
     <t>QUIJIJE CEDEÑO NATALY SILVANA</t>
@@ -3674,7 +3674,7 @@
     <t>nataly.quijije@espam.edu.ec</t>
   </si>
   <si>
-    <t>in6WHm?Y</t>
+    <t>FSbNl4H!</t>
   </si>
   <si>
     <t>ROBALINO DELGADO JORGE DAVID</t>
@@ -3683,7 +3683,7 @@
     <t>jorge.robalino@espam.edu.ec</t>
   </si>
   <si>
-    <t>12gdE?Op</t>
+    <t>1H5GyUGV</t>
   </si>
   <si>
     <t>SANCHEZ CASTILLO ADRIANA MICAELA</t>
@@ -3692,7 +3692,7 @@
     <t>adriana.sanchez@espam.edu.ec</t>
   </si>
   <si>
-    <t>H7Kouasj</t>
+    <t>4HSkCqtm</t>
   </si>
   <si>
     <t>SOLORZANO ALAVA TAIRUN FRANCISCO</t>
@@ -3701,7 +3701,7 @@
     <t>tairun.solorzano@espam.edu.ec</t>
   </si>
   <si>
-    <t>16mK!Udg</t>
+    <t>hwPJuJ6i</t>
   </si>
   <si>
     <t>SOLORZANO BAILON MARIA GABRIELA</t>
@@ -3710,7 +3710,7 @@
     <t>mariaga.solorzano@espam.edu.ec</t>
   </si>
   <si>
-    <t>PB8TR6SV</t>
+    <t>TGS##7VQ</t>
   </si>
   <si>
     <t>TRUJILLO AGUAS MAYERLI DAYANA</t>
@@ -3719,7 +3719,7 @@
     <t>mayerli.trujillo@espam.edu.ec</t>
   </si>
   <si>
-    <t>q3&amp;4iy11</t>
+    <t>fEw9qt6a</t>
   </si>
   <si>
     <t>VERA VERA CINTHIA MARIA</t>
@@ -3728,7 +3728,7 @@
     <t>cinthia.verav@espam.edu.ec</t>
   </si>
   <si>
-    <t>OrtEDrqk</t>
+    <t>&amp;HFBO6M/</t>
   </si>
   <si>
     <t>VIDAL INTRIAGO ANDY YOEL</t>
@@ -3737,7 +3737,7 @@
     <t>andy.vidal@espam.edu.ec</t>
   </si>
   <si>
-    <t>gxKhP3HA</t>
+    <t>zeWoOVUX</t>
   </si>
   <si>
     <t>VINTIMILLA PROAÑO MARIA DE LOURDES</t>
@@ -3746,7 +3746,7 @@
     <t>maria.vintimilla@espam.edu.ec</t>
   </si>
   <si>
-    <t>Woe3gwhh</t>
+    <t>7prlEc&amp;K</t>
   </si>
   <si>
     <t>VITERI SANTOS VINICIO ORLEY</t>
@@ -3755,7 +3755,7 @@
     <t>vinicio.viteri@espam.edu.ec</t>
   </si>
   <si>
-    <t>0crszm/M</t>
+    <t>XwtBTv1e</t>
   </si>
   <si>
     <t>ZAMBRANO CANO FRANCISCO JAVIER</t>
@@ -3764,7 +3764,7 @@
     <t>francisco.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>oQFL46Tz</t>
+    <t>6N3YDGbQ</t>
   </si>
   <si>
     <t>ZAMBRANO NAVARRETE ELBA MARIA</t>
@@ -3773,7 +3773,7 @@
     <t>elba.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>LNe/cYSo</t>
+    <t>cbyF4tdN</t>
   </si>
   <si>
     <t>ZAMBRANO ZAMBRANO WENDY GISSELLA</t>
@@ -3782,7 +3782,7 @@
     <t>wendy.zambranoz@espam.edu.ec</t>
   </si>
   <si>
-    <t>seyt1f#p</t>
+    <t>8BgVMy9!</t>
   </si>
   <si>
     <t>ARANA RUEDA ANGY LISSETH</t>
@@ -3794,7 +3794,7 @@
     <t>angy.arana@espam.edu.ec</t>
   </si>
   <si>
-    <t>GSNRcWee</t>
+    <t>GlcjYn0d</t>
   </si>
   <si>
     <t>ARTEAGA VARGAS ANDREA VALERIA</t>
@@ -3803,7 +3803,7 @@
     <t>andrea.arteaga@espam.edu.ec</t>
   </si>
   <si>
-    <t>AAr&amp;X92B</t>
+    <t>wDyfR5YK</t>
   </si>
   <si>
     <t>BARBERAN SANCHEZ KARLA MICHELLE</t>
@@ -3812,7 +3812,7 @@
     <t>karla.barberan@espam.edu.ec</t>
   </si>
   <si>
-    <t>ljljmWsX</t>
+    <t>23g1SErd</t>
   </si>
   <si>
     <t>BAZURTO MANZABA SORAYA STEFANIA</t>
@@ -3821,7 +3821,7 @@
     <t>soraya.bazurto@espam.edu.ec</t>
   </si>
   <si>
-    <t>IQepTS6L</t>
+    <t>nao/#t1b</t>
   </si>
   <si>
     <t>CAGUA GARCIA ANDRES VIRGILIO</t>
@@ -3830,7 +3830,7 @@
     <t>andres.cagua@espam.edu.ec</t>
   </si>
   <si>
-    <t>y2piwgc3</t>
+    <t>mOEBBGMU</t>
   </si>
   <si>
     <t>DOMINGUEZ CALDERON JEAN PIERRE</t>
@@ -3839,7 +3839,7 @@
     <t>jean.dominguez@espam.edu.ec</t>
   </si>
   <si>
-    <t>tzNBw#JN</t>
+    <t>wHlKMkYH</t>
   </si>
   <si>
     <t>ESPINOZA ALCIVAR EVELYN ALEXANDRA</t>
@@ -3848,7 +3848,7 @@
     <t>evelyn.espinoza@espam.edu.ec</t>
   </si>
   <si>
-    <t>6WaRZZqu</t>
+    <t>IgV1ulQl</t>
   </si>
   <si>
     <t>LOOR MORENO DANIEL AGUSTIN</t>
@@ -3857,7 +3857,7 @@
     <t>daniel.loor@espam.edu.ec</t>
   </si>
   <si>
-    <t>GtWwqqre</t>
+    <t>855t&amp;jff</t>
   </si>
   <si>
     <t>MACIAS PARRALES MEREDITH MARIBEL</t>
@@ -3866,7 +3866,7 @@
     <t>meredith.macias@espam.edu.ec</t>
   </si>
   <si>
-    <t>tsPdV2lf</t>
+    <t>nurgvGi2</t>
   </si>
   <si>
     <t>MENDOZA CANCHINGRE BRIGITH MIKAELA</t>
@@ -3875,7 +3875,7 @@
     <t>brigith.mendoza@espam.edu.ec</t>
   </si>
   <si>
-    <t>LXt7ET8#</t>
+    <t>Pl/YGu7k</t>
   </si>
   <si>
     <t>MENDOZA VELEZ JOSE MIGUEL</t>
@@ -3884,7 +3884,7 @@
     <t>josemi.mendoza@espam.edu.ec</t>
   </si>
   <si>
-    <t>OPXTEZ/T</t>
+    <t>ETqGHQ3F</t>
   </si>
   <si>
     <t>MEZA BRIONES ANTHONY NARCILO</t>
@@ -3893,7 +3893,7 @@
     <t>anthony.meza@espam.edu.ec</t>
   </si>
   <si>
-    <t>sCjQl!NG</t>
+    <t>j3G&amp;8&amp;bC</t>
   </si>
   <si>
     <t>MORA ZAMBRANO MARIA LAURA</t>
@@ -3902,7 +3902,7 @@
     <t>maria.mora@espam.edu.ec</t>
   </si>
   <si>
-    <t>?a7FnD/T</t>
+    <t>#?5ypSly</t>
   </si>
   <si>
     <t>NAVARRETE ZAMBRANO ROBIN LUGERIO</t>
@@ -3911,7 +3911,7 @@
     <t>robin.navarrete@espam.edu.ec</t>
   </si>
   <si>
-    <t>Mvp/m#QU</t>
+    <t>cphJmPWK</t>
   </si>
   <si>
     <t>OSTAIZA LOPEZ JOSEPH MANUEL</t>
@@ -3920,7 +3920,7 @@
     <t>josepth.ostaiza@espam.edu.ec</t>
   </si>
   <si>
-    <t>&amp;fJwe/w5</t>
+    <t>f&amp;14ALrn</t>
   </si>
   <si>
     <t>PARRAGA PARRAGA CARLA ESTEFANIA</t>
@@ -3929,7 +3929,7 @@
     <t>carla.parraga@espam.edu.ec</t>
   </si>
   <si>
-    <t>pUHgBvbR</t>
+    <t>qnuc2sYS</t>
   </si>
   <si>
     <t>PLAZA CABRERA MAYERLY MARIA</t>
@@ -3941,7 +3941,7 @@
     <t>mayerly.plaza@espam.edu.ec</t>
   </si>
   <si>
-    <t>oW9bowbd</t>
+    <t>0Bim4S!2</t>
   </si>
   <si>
     <t>RODRIGUEZ VELIZ LEANDRO MOISES</t>
@@ -3950,7 +3950,7 @@
     <t>leandro.rodriguez@espam.edu.ec</t>
   </si>
   <si>
-    <t>Za4JrA1a</t>
+    <t>wRulH/CN</t>
   </si>
   <si>
     <t>SANTANA GUERRERO MARIA RAQUEL</t>
@@ -3959,7 +3959,7 @@
     <t>mariar.santanag@espam.edu.ec</t>
   </si>
   <si>
-    <t>E3fw1jjk</t>
+    <t>F9RgKCfb</t>
   </si>
   <si>
     <t>SANTOS SALAZAR JANDRY DAVID</t>
@@ -3968,7 +3968,7 @@
     <t>jandry.santos@espam.edu.ec</t>
   </si>
   <si>
-    <t>k?ri0xd1</t>
+    <t>cG00XzH7</t>
   </si>
   <si>
     <t>SOLORZANO LOOR KEYLA GEOVANNA</t>
@@ -3977,7 +3977,7 @@
     <t>keyla.solorzano@espam.edu.ec</t>
   </si>
   <si>
-    <t>IFVK9H9M</t>
+    <t>G41zpNFQ</t>
   </si>
   <si>
     <t>VALENCIA ZAMBRANO VALERIA MERCEDES</t>
@@ -3986,7 +3986,7 @@
     <t>valeria.valencia@espam.edu.ec</t>
   </si>
   <si>
-    <t>3bNzKv/?</t>
+    <t>v8izKNVS</t>
   </si>
   <si>
     <t>VARGAS CHOEZ ALEXIS ELIAN</t>
@@ -3995,7 +3995,7 @@
     <t>alexis.vargas@espam.edu.ec</t>
   </si>
   <si>
-    <t>!R9kuCjD</t>
+    <t>I4P&amp;USP&amp;</t>
   </si>
   <si>
     <t>VELEZ ALMEIDA CARMEN REBECA</t>
@@ -4004,7 +4004,7 @@
     <t>carmen.velez@espam.edu.ec</t>
   </si>
   <si>
-    <t>Tkv!d3uZ</t>
+    <t>GpxcGT2V</t>
   </si>
   <si>
     <t>VELEZ LEGTON GENESIS YAMILET</t>
@@ -4013,7 +4013,7 @@
     <t>genesisya.velez@espam.edu.ec</t>
   </si>
   <si>
-    <t>amSGlmvr</t>
+    <t>3yV&amp;C9J6</t>
   </si>
   <si>
     <t>VERA BALAREZO MARYAM JANELLA</t>
@@ -4022,7 +4022,7 @@
     <t>maryam.vera@espam.edu.ec</t>
   </si>
   <si>
-    <t>4kmPMb&amp;r</t>
+    <t>IGaMOT0A</t>
   </si>
   <si>
     <t>VERA SERRANO CARLOS STEFANO</t>
@@ -4031,7 +4031,7 @@
     <t>carlos.verase@espam.edu.ec</t>
   </si>
   <si>
-    <t>hhItXY#/</t>
+    <t>bSazsMEx</t>
   </si>
   <si>
     <t>VIERA BAZURTO JOSE ALEXANDER</t>
@@ -4040,7 +4040,7 @@
     <t>jose.viera@espam.edu.ec</t>
   </si>
   <si>
-    <t>&amp;goCa#CG</t>
+    <t>bIikGcNH</t>
   </si>
   <si>
     <t>ZAMBRANO ALCIVAR DIEGO JAHIR</t>
@@ -4049,7 +4049,7 @@
     <t>diego.zambranoa@espam.edu.ec</t>
   </si>
   <si>
-    <t>uKRoaV/V</t>
+    <t>xm!XtWlN</t>
   </si>
   <si>
     <t>ZAMBRANO MANZABA MARIA FERNANDA</t>
@@ -4058,7 +4058,7 @@
     <t>mariafer.zambranom@espam.edu.ec</t>
   </si>
   <si>
-    <t>e3G89voF</t>
+    <t>lJqYAMhf</t>
   </si>
   <si>
     <t>ALCIVAR GILER MELANY JULISA</t>
@@ -4067,7 +4067,7 @@
     <t>melany.alcivar@espam.edu.ec</t>
   </si>
   <si>
-    <t>U1qbxkcW</t>
+    <t>bOcq7KYX</t>
   </si>
   <si>
     <t>ANDRADE ZAMBRANO NATHALY NICOLLE</t>
@@ -4076,7 +4076,7 @@
     <t>nathaly.andrade@espam.edu.ec</t>
   </si>
   <si>
-    <t>Dy1HosT3</t>
+    <t>vOZNNq!j</t>
   </si>
   <si>
     <t>BASURTO MORAN LUIS ALEXANDER</t>
@@ -4085,7 +4085,7 @@
     <t>luis.basurtom@espam.edu.ec</t>
   </si>
   <si>
-    <t>VKboyw3p</t>
+    <t>ik#//VLU</t>
   </si>
   <si>
     <t>BERMELLO VELEZ ANGELA DANIELA</t>
@@ -4094,7 +4094,7 @@
     <t>angela.bermello@espam.edu.ec</t>
   </si>
   <si>
-    <t>ZAOuAubD</t>
+    <t>TYY9NMhO</t>
   </si>
   <si>
     <t>BRAVO VERA GEMA VIVIANA</t>
@@ -4103,7 +4103,7 @@
     <t>gema.bravov@espam.edu.ec</t>
   </si>
   <si>
-    <t>cKjz#!66</t>
+    <t>YFRmBbBQ</t>
   </si>
   <si>
     <t>BRIONES INTRIAGO LORENA LUCIA</t>
@@ -4112,7 +4112,7 @@
     <t>lorena.briones@espam.edu.ec</t>
   </si>
   <si>
-    <t>EOBA0H#&amp;</t>
+    <t>RUlCQHQh</t>
   </si>
   <si>
     <t>BURGOS BRAVO KATHERIN DANIELA</t>
@@ -4121,7 +4121,7 @@
     <t>katherin.burgos@espam.edu.ec</t>
   </si>
   <si>
-    <t>TWwcJ/o1</t>
+    <t>k#05n2uw</t>
   </si>
   <si>
     <t>LOOR PARRAGA ROY RUBEN</t>
@@ -4130,7 +4130,7 @@
     <t>roy.loor@espam.edu.ec</t>
   </si>
   <si>
-    <t>HySKZcOm</t>
+    <t>pVDD2!Fn</t>
   </si>
   <si>
     <t>LOPEZ GANCHOZO LEANDRO ANTONIO</t>
@@ -4139,7 +4139,7 @@
     <t>leandro.lopez@espam.edu.ec</t>
   </si>
   <si>
-    <t>uTPAq?7H</t>
+    <t>jJVOZlsZ</t>
   </si>
   <si>
     <t>MACIAS MACIAS JOY ROBERTO</t>
@@ -4148,7 +4148,7 @@
     <t>joy.macias@espam.edu.ec</t>
   </si>
   <si>
-    <t>FQaQlYYp</t>
+    <t>KGHoYlUG</t>
   </si>
   <si>
     <t>MACIAS SILVA CINTHYA MARIANA</t>
@@ -4157,7 +4157,7 @@
     <t>cinthya.macias@espam.edu.ec</t>
   </si>
   <si>
-    <t>oAZElEnv</t>
+    <t>nWkbT5g6</t>
   </si>
   <si>
     <t>MENDOZA PONCE MARIA ANGELICA</t>
@@ -4166,7 +4166,7 @@
     <t>maria.mendozap@espam.edu.ec</t>
   </si>
   <si>
-    <t>wvMH6urp</t>
+    <t>SXfJf#RS</t>
   </si>
   <si>
     <t>MONCAYO LAINEZ KERLY ARIANNA</t>
@@ -4175,7 +4175,7 @@
     <t>kerly.moncayo@espam.edu.ec</t>
   </si>
   <si>
-    <t>uHjtOkRK</t>
+    <t>jW?wAffW</t>
   </si>
   <si>
     <t>MONTES POZO JEAN POLL</t>
@@ -4184,7 +4184,7 @@
     <t>jean.montes@espam.edu.ec</t>
   </si>
   <si>
-    <t>/dCwdpIq</t>
+    <t>BmXXF&amp;I8</t>
   </si>
   <si>
     <t>MORENO OBANDO ANA BELLA</t>
@@ -4193,7 +4193,7 @@
     <t>ana.moreno@espam.edu.ec</t>
   </si>
   <si>
-    <t>2cD?lUVq</t>
+    <t>hI#GJWZ6</t>
   </si>
   <si>
     <t>NAVARRETE PARODI ERIKA KARINA</t>
@@ -4202,7 +4202,7 @@
     <t>erika.navarrete@espam.edu.ec</t>
   </si>
   <si>
-    <t>pidctxKC</t>
+    <t>8kPnAdkt</t>
   </si>
   <si>
     <t>ORMAZA ESPINOZA JESUS EMILIO</t>
@@ -4211,7 +4211,7 @@
     <t>jesus.ormaza@espam.edu.ec</t>
   </si>
   <si>
-    <t>wpdhZ2HS</t>
+    <t>JsAdpnN8</t>
   </si>
   <si>
     <t>ORMAZA FALCONES MARIA ALEJANDRA</t>
@@ -4220,7 +4220,7 @@
     <t>maria.ormaza@espam.edu.ec</t>
   </si>
   <si>
-    <t>SN82nRBw</t>
+    <t>UYb65oX9</t>
   </si>
   <si>
     <t>PARRAGA QUIJIJE GEMA KAROLINA</t>
@@ -4229,7 +4229,7 @@
     <t>gemak.parragaq@espam.edu.ec</t>
   </si>
   <si>
-    <t>CrKZhs!#</t>
+    <t>djjOr7sz</t>
   </si>
   <si>
     <t>PICO TOLA MARCO ANDRES</t>
@@ -4238,7 +4238,7 @@
     <t>marco.pico@espam.edu.ec</t>
   </si>
   <si>
-    <t>T#ojfkZ/</t>
+    <t>eegwcrfy</t>
   </si>
   <si>
     <t>PIN NAPA IVANA MAYERLI</t>
@@ -4247,7 +4247,7 @@
     <t>ivana.pin@espam.edu.ec</t>
   </si>
   <si>
-    <t>JQD3pR9m</t>
+    <t>C9R6c/By</t>
   </si>
   <si>
     <t>ROMERO BRAVO JOSE AGUSTIN</t>
@@ -4256,7 +4256,7 @@
     <t>jose.romero@espam.edu.ec</t>
   </si>
   <si>
-    <t>Cb9Jd7Ea</t>
+    <t>e5GtVHrk</t>
   </si>
   <si>
     <t>SALTOS INTRIAGO NATHALIA MELISSA</t>
@@ -4265,7 +4265,7 @@
     <t>nathalia.saltos@espam.edu.ec</t>
   </si>
   <si>
-    <t>Ok#ZG3Fe</t>
+    <t>9KbI#xvn</t>
   </si>
   <si>
     <t>SALTOS SALTOS MADELYNE PIERINA</t>
@@ -4274,7 +4274,7 @@
     <t>madelyne.saltos@espam.edu.ec</t>
   </si>
   <si>
-    <t>aroRcS4v</t>
+    <t>lVE9H5/C</t>
   </si>
   <si>
     <t>SOLIS ORTIZ SANTIAGO</t>
@@ -4283,7 +4283,7 @@
     <t>santiago.solis@espam.edu.ec</t>
   </si>
   <si>
-    <t>KeMHKRv!</t>
+    <t>ZDkubF6!</t>
   </si>
   <si>
     <t>SOLORZANO ZAMBRANO GEMA NARCISA</t>
@@ -4292,7 +4292,7 @@
     <t>gema.solorzano@espam.edu.ec</t>
   </si>
   <si>
-    <t>Mup3!cBy</t>
+    <t>NrGpIWZR</t>
   </si>
   <si>
     <t>VARGAS SOLORZANO ANDREA DIVINA</t>
@@ -4301,7 +4301,7 @@
     <t>andrea.vargas@espam.edu.ec</t>
   </si>
   <si>
-    <t>oD6kwJW6</t>
+    <t>GQ?nYCuC</t>
   </si>
   <si>
     <t>VELEZ VERA MANUEL ALEXANDER</t>
@@ -4310,7 +4310,7 @@
     <t>manuel.velez@espam.edu.ec</t>
   </si>
   <si>
-    <t>p2/P0IjV</t>
+    <t>GmDsvOUf</t>
   </si>
   <si>
     <t>VELEZ ZAMBRANO ADRIAN DAVID</t>
@@ -4319,7 +4319,7 @@
     <t>adrian.velez@espam.edu.ec</t>
   </si>
   <si>
-    <t>37Al6PAj</t>
+    <t>PR/OMGDZ</t>
   </si>
   <si>
     <t>YLLESCA CEDEÑO JESUS JONATHAN</t>
@@ -4328,7 +4328,7 @@
     <t>jesus.yllesca@espam.edu.ec</t>
   </si>
   <si>
-    <t>zwGGd8h2</t>
+    <t>IK/&amp;2#iq</t>
   </si>
   <si>
     <t>ZAMBRANO CATOTA DERLYN MILENA</t>
@@ -4337,7 +4337,7 @@
     <t>derlyn.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>5&amp;Rzt87f</t>
+    <t>UetmnEYe</t>
   </si>
   <si>
     <t>ZAMBRANO CEDEÑO CHRISTIAN EDUARDO</t>
@@ -4346,7 +4346,7 @@
     <t>christian.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>ooVc4RoA</t>
+    <t>ANDs2Snl</t>
   </si>
   <si>
     <t>ZAMBRANO ROBLES GLENDY MERCEDES</t>
@@ -4355,7 +4355,7 @@
     <t>glendy.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>Jdcx/ZaG</t>
+    <t>ySFMS&amp;Jh</t>
   </si>
   <si>
     <t>ZAMBRANO ROSADO JORGE ALESSANDRO</t>
@@ -4364,7 +4364,7 @@
     <t>jorge.zambranor@espam.edu.ec</t>
   </si>
   <si>
-    <t>i31v#RhC</t>
+    <t>b3wUVD/p</t>
   </si>
   <si>
     <t>ZAMBRANO VERA WENDY ANAHI</t>
@@ -4373,7 +4373,7 @@
     <t>wendy.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>N6#!!uVm</t>
+    <t>EUA9yFu?</t>
   </si>
   <si>
     <t>ZAMBRANO ZAMBRANO JONATHAN JAVIER</t>
@@ -4382,7 +4382,7 @@
     <t>jonathan.zambranoz@espam.edu.ec</t>
   </si>
   <si>
-    <t>LEemRPDF</t>
+    <t>chaFkv#z</t>
   </si>
   <si>
     <t>ZAMORA SOLORZANO MAGALY DOLORES</t>
@@ -4391,7 +4391,7 @@
     <t>magaly.zamora@espam.edu.ec</t>
   </si>
   <si>
-    <t>mPCuQoEy</t>
+    <t>#UIDjpPX</t>
   </si>
   <si>
     <t>BRAVO ZAMBRANO MARIA EMILIA</t>
@@ -4400,7 +4400,7 @@
     <t>maria.bravoz@espam.edu.ec</t>
   </si>
   <si>
-    <t>qZ0gNLGf</t>
+    <t>l!Rfcnt0</t>
   </si>
   <si>
     <t>CEVALLOS ALVAREZ ARMANDO ENRIQUE</t>
@@ -4409,7 +4409,7 @@
     <t>armando.cevallos@espam.edu.ec</t>
   </si>
   <si>
-    <t>gSzG7kgK</t>
+    <t>ITx5zjxE</t>
   </si>
   <si>
     <t>CEVALLOS VERA ARELIS STEFANIA</t>
@@ -4418,7 +4418,7 @@
     <t>arelis.cevallos@espam.edu.ec</t>
   </si>
   <si>
-    <t>X!v0zBWQ</t>
+    <t>UbdhM8?/</t>
   </si>
   <si>
     <t>COOL MERO PATRICIO JAVIER</t>
@@ -4427,7 +4427,7 @@
     <t>patricio.cool@espam.edu.ec</t>
   </si>
   <si>
-    <t>gkquqYZ#</t>
+    <t>!p?BIXMX</t>
   </si>
   <si>
     <t>FRANCO ORELLANA GUADALUPE MONSERRATE</t>
@@ -4436,7 +4436,7 @@
     <t>guadalupe.franco@espam.edu.ec</t>
   </si>
   <si>
-    <t>g!NZa9D7</t>
+    <t>RwY9xl!7</t>
   </si>
   <si>
     <t>HUERTA BALDIVIEZO JEAN CRISTHIAN</t>
@@ -4445,7 +4445,7 @@
     <t>jean.huerta@espam.edu.ec</t>
   </si>
   <si>
-    <t>FXUfJIqR</t>
+    <t>pV#&amp;Oq?Y</t>
   </si>
   <si>
     <t>INTRIAGO CANTOS MARIA JOSE</t>
@@ -4454,7 +4454,7 @@
     <t>maria.intriagoc@espam.edu.ec</t>
   </si>
   <si>
-    <t>mwUYUEF6</t>
+    <t>d6sD0uu7</t>
   </si>
   <si>
     <t>LOOR CANTOS DIANA ISABEL</t>
@@ -4463,7 +4463,7 @@
     <t>diana.loor@espam.edu.ec</t>
   </si>
   <si>
-    <t>b&amp;#NvJ#6</t>
+    <t>zs#rZ?&amp;#</t>
   </si>
   <si>
     <t>LOOR SEGOVIA EVELYN ADRIANA</t>
@@ -4472,7 +4472,7 @@
     <t>evelyn.loors@espam.edu.ec</t>
   </si>
   <si>
-    <t>HT&amp;YAz3L</t>
+    <t>t&amp;ZNmSnC</t>
   </si>
   <si>
     <t>MEDINA CEDEÑO JULIO CESAR</t>
@@ -4481,7 +4481,7 @@
     <t>julio.medina@espam.edu.ec</t>
   </si>
   <si>
-    <t>JCFJXFd#</t>
+    <t>UFLB3USt</t>
   </si>
   <si>
     <t>MERA VELEZ ALONDRA GARDENIA</t>
@@ -4490,7 +4490,7 @@
     <t>alondra.mera@espam.edu.ec</t>
   </si>
   <si>
-    <t>/yQ0XqUY</t>
+    <t>Jyi5UUgs</t>
   </si>
   <si>
     <t>MUÑOZ ZAMBRANO CARLOS JOSUE</t>
@@ -4499,7 +4499,7 @@
     <t>carlos.munozz@espam.edu.ec</t>
   </si>
   <si>
-    <t>eIZ0Bg3r</t>
+    <t>rEeR!/18</t>
   </si>
   <si>
     <t>NAPA RODRIGUEZ JOSE AGUSTIN</t>
@@ -4508,7 +4508,7 @@
     <t>jose.napa@espam.edu.ec</t>
   </si>
   <si>
-    <t>x2m2ydQd</t>
+    <t>b3F6?!cG</t>
   </si>
   <si>
     <t>PALMA CEVALLOS MARIA JOSE</t>
@@ -4517,7 +4517,7 @@
     <t>maria.palma@espam.edu.ec</t>
   </si>
   <si>
-    <t>WD/?gE?R</t>
+    <t>9NxmXFbr</t>
   </si>
   <si>
     <t>PATIÑO MESIAS MARIA GABRIELA</t>
@@ -4526,7 +4526,7 @@
     <t>maria.patino@espam.edu.ec</t>
   </si>
   <si>
-    <t>Qkl!yzkk</t>
+    <t>N9kApxKb</t>
   </si>
   <si>
     <t>QUINTANA CAGUA YENIFER YULI</t>
@@ -4535,7 +4535,7 @@
     <t>yenifer.quintana@espam.edu.ec</t>
   </si>
   <si>
-    <t>r18wiusJ</t>
+    <t>BzcuVKea</t>
   </si>
   <si>
     <t>RIVERA CANTOS MARIA DANIELA</t>
@@ -4544,7 +4544,7 @@
     <t>maria.riverac@espam.edu.ec</t>
   </si>
   <si>
-    <t>qX?MTk95</t>
+    <t>8g35ghec</t>
   </si>
   <si>
     <t>RODRIGUEZ PINCAY CARLOS BRYAN</t>
@@ -4553,7 +4553,7 @@
     <t>carlos.rodriguezp@espam.edu.ec</t>
   </si>
   <si>
-    <t>5EN2CSrB</t>
+    <t>TNBe4ERk</t>
   </si>
   <si>
     <t>SABANDO VELEZ CRISTHIAN ANTHONY</t>
@@ -4562,7 +4562,7 @@
     <t>cristhian.sabando@espam.edu.ec</t>
   </si>
   <si>
-    <t>6s7TiJkw</t>
+    <t>rGNIwRmL</t>
   </si>
   <si>
     <t>SANTANA VERA ANTHONY JAHIR</t>
@@ -4571,7 +4571,7 @@
     <t>anthony.santana@espam.edu.ec</t>
   </si>
   <si>
-    <t>2NEjQuiU</t>
+    <t>X5wzgSu9</t>
   </si>
   <si>
     <t>VELEZ ESPINOZA JUNIOR JESUS</t>
@@ -4580,7 +4580,7 @@
     <t>junior.veleze@espam.edu.ec</t>
   </si>
   <si>
-    <t>rK7T2?Av</t>
+    <t>KOa4uxvz</t>
   </si>
   <si>
     <t>VERDUGA ZAMBRANO DIEGO ALEJANDRO</t>
@@ -4589,7 +4589,7 @@
     <t>diego.verduga@espam.edu.ec</t>
   </si>
   <si>
-    <t>EFvvmrCZ</t>
+    <t>Of9!1aa!</t>
   </si>
   <si>
     <t>ZAMBRANO VELEZ NAYELHY LILIBETH</t>
@@ -4598,7 +4598,7 @@
     <t>nayelhy.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>guldOa?L</t>
+    <t>O6RPLLhn</t>
   </si>
   <si>
     <t>ZAMBRANO WITONG KENIA THAIS</t>
@@ -4607,7 +4607,7 @@
     <t>keniath.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>6!ZjgoFq</t>
+    <t>EQ3E6g60</t>
   </si>
   <si>
     <t>ANCHUNDIA ANCHUNDIA GEMA LILIBETH</t>
@@ -4616,7 +4616,7 @@
     <t>gema.anchundia@espam.edu.ec</t>
   </si>
   <si>
-    <t>Ds0sL?Ty</t>
+    <t>8aVpDaf7</t>
   </si>
   <si>
     <t>ARTEAGA DELGADO JEAN CARLOS</t>
@@ -4625,7 +4625,7 @@
     <t>jean.arteaga@espam.edu.ec</t>
   </si>
   <si>
-    <t>sEJ0rgQ2</t>
+    <t>/uNTKlao</t>
   </si>
   <si>
     <t>BARREIRO ZAMBRANO JOSE VICENTE</t>
@@ -4634,7 +4634,7 @@
     <t>jose.barreiro@espam.edu.ec</t>
   </si>
   <si>
-    <t>r84u25#D</t>
+    <t>zZTx/cfd</t>
   </si>
   <si>
     <t>BASURTO ALCIVAR DARWIN JESUS</t>
@@ -4643,7 +4643,7 @@
     <t>darwin.basurto@espam.edu.ec</t>
   </si>
   <si>
-    <t>KGfL!RF2</t>
+    <t>TnK6kXBo</t>
   </si>
   <si>
     <t>BRAVO CEDEÑO JOSE RODOLFO</t>
@@ -4652,7 +4652,7 @@
     <t>jose.bravo@espam.edu.ec</t>
   </si>
   <si>
-    <t>th5UZJaj</t>
+    <t>BxoOxktB</t>
   </si>
   <si>
     <t>BRIONES BERMEO ANTONY JAVIER</t>
@@ -4661,7 +4661,7 @@
     <t>antony.briones@espam.edu.ec</t>
   </si>
   <si>
-    <t>Hz&amp;qtk#n</t>
+    <t>nrtnJIkf</t>
   </si>
   <si>
     <t>CEDEÑO ANCHUNDIA YANDRY ANTONIO</t>
@@ -4673,7 +4673,7 @@
     <t>yandry.cedeno@espam.edu.ec</t>
   </si>
   <si>
-    <t>!tVPvvVB</t>
+    <t>nAJf1CvY</t>
   </si>
   <si>
     <t>CEDEÑO PEÑARRIETA DAYANA SOPHIA</t>
@@ -4682,7 +4682,7 @@
     <t>dayanaso.cedeno@espam.edu.ec</t>
   </si>
   <si>
-    <t>LewRj8c2</t>
+    <t>5#KujT7k</t>
   </si>
   <si>
     <t>CHAVARRIA PEÑARRIETA MARCOS ALEJANDRO</t>
@@ -4691,7 +4691,7 @@
     <t>marcos.chavarria@espam.edu.ec</t>
   </si>
   <si>
-    <t>tf7!8K/l</t>
+    <t>qOXLkJNG</t>
   </si>
   <si>
     <t>DEL VALLE BASURTO CARMEN MELINA</t>
@@ -4700,7 +4700,7 @@
     <t>carmen.del@espam.edu.ec</t>
   </si>
   <si>
-    <t>4GrN&amp;VmW</t>
+    <t>Jw7!OXV!</t>
   </si>
   <si>
     <t>GUERRERO BRAVO ANA BELEN</t>
@@ -4709,7 +4709,7 @@
     <t>ana.guerrero@espam.edu.ec</t>
   </si>
   <si>
-    <t>G9Lu!lAC</t>
+    <t>aSZYDL39</t>
   </si>
   <si>
     <t>GUERRERO GUERRERO JOSSELYN MELISSA</t>
@@ -4718,7 +4718,7 @@
     <t>josselyn.guerrero@espam.edu.ec</t>
   </si>
   <si>
-    <t>yNEd9uXT</t>
+    <t>rzJCj!ag</t>
   </si>
   <si>
     <t>INTRIAGO BARBERAN LAURO ANTONIO</t>
@@ -4727,7 +4727,7 @@
     <t>lauro.intriago1@espam.edu.ec</t>
   </si>
   <si>
-    <t>YjnuBGWr</t>
+    <t>QpaCr2Uv</t>
   </si>
   <si>
     <t>INTRIAGO MORA LENIN ARCENIO</t>
@@ -4736,7 +4736,7 @@
     <t>lenin.intriago@espam.edu.ec</t>
   </si>
   <si>
-    <t>Yio6eE#S</t>
+    <t>tfgGi0wM</t>
   </si>
   <si>
     <t>MACIAS CALDERON JOSE ARIEL</t>
@@ -4745,7 +4745,7 @@
     <t>jose.macias@espam.edu.ec</t>
   </si>
   <si>
-    <t>ycyWeiI/</t>
+    <t>EB!o2QFt</t>
   </si>
   <si>
     <t>MARCILLO VELEZ ANA PATRICIA</t>
@@ -4754,7 +4754,7 @@
     <t>ana.marcillo@espam.edu.ec</t>
   </si>
   <si>
-    <t>Et2QWI/m</t>
+    <t>7mMWloD3</t>
   </si>
   <si>
     <t>MERA FIGUEROA RAYMOND ALEJANDRO</t>
@@ -4763,7 +4763,7 @@
     <t>raymond.mera@espam.edu.ec</t>
   </si>
   <si>
-    <t>mAoZtig3</t>
+    <t>x7lxtEW5</t>
   </si>
   <si>
     <t>MOREIRA ZAMBRANO JOSSENKA MERCEDES</t>
@@ -4772,7 +4772,7 @@
     <t>jossenka.moreira@espam.edu.ec</t>
   </si>
   <si>
-    <t>&amp;GVo#hUM</t>
+    <t>pqDyJsOM</t>
   </si>
   <si>
     <t>MUÑOZ ALCIVAR CRISTHIAN MARTIN</t>
@@ -4781,7 +4781,7 @@
     <t>cristhian.munoz@espam.edu.ec</t>
   </si>
   <si>
-    <t>lz4URAv!</t>
+    <t>MtAei!Zu</t>
   </si>
   <si>
     <t>MUÑOZ MACIAS MARIA MAGDALENA</t>
@@ -4790,7 +4790,7 @@
     <t>mariama.munoz@espam.edu.ec</t>
   </si>
   <si>
-    <t>!NIMsPiw</t>
+    <t>2kdUIuk!</t>
   </si>
   <si>
     <t>POLO GANCHOZO ARON ESNEYDER</t>
@@ -4799,7 +4799,7 @@
     <t>aron.polo@espam.edu.ec</t>
   </si>
   <si>
-    <t>tO9LsvqY</t>
+    <t>D7Cxh?hC</t>
   </si>
   <si>
     <t>RIOS BERMELLO JENIFFER LIZETH</t>
@@ -4808,7 +4808,7 @@
     <t>jeniffer.rios@espam.edu.ec</t>
   </si>
   <si>
-    <t>yGXQwXKw</t>
+    <t>d6lyxFkl</t>
   </si>
   <si>
     <t>SALVATIERRA VALDEZ VICKY NICOLLE</t>
@@ -4817,7 +4817,7 @@
     <t>vicky.salvatierra@espam.edu.ec</t>
   </si>
   <si>
-    <t>sTafST!s</t>
+    <t>Yeiu7mSQ</t>
   </si>
   <si>
     <t>SANTOS VELEZ MONICA GERMANIA</t>
@@ -4826,7 +4826,7 @@
     <t>monica.santos@espam.edu.ec</t>
   </si>
   <si>
-    <t>6jugxo0W</t>
+    <t>C2q9D728</t>
   </si>
   <si>
     <t>SOLORZANO ZAMBRANO MILENA DENISSE</t>
@@ -4835,7 +4835,7 @@
     <t>milena.solorzano@espam.edu.ec</t>
   </si>
   <si>
-    <t>&amp;45?ppm6</t>
+    <t>zrm3rqgk</t>
   </si>
   <si>
     <t>TUQUERES TACURI JESSICA MARIBELL</t>
@@ -4844,7 +4844,7 @@
     <t>jessica.tuqueres@espam.edu.ec</t>
   </si>
   <si>
-    <t>VYyqDPpm</t>
+    <t>PRswsbn?</t>
   </si>
   <si>
     <t>VERDUGA ERAZO JOSUE SALVADOR</t>
@@ -4853,7 +4853,7 @@
     <t>josue.verduga@espam.edu.ec</t>
   </si>
   <si>
-    <t>DU8Qcc3A</t>
+    <t>GGzaw5Fj</t>
   </si>
   <si>
     <t>YEPEZ VELIZ GENESIS THALIA</t>
@@ -4862,7 +4862,7 @@
     <t>genesis.yepez@espam.edu.ec</t>
   </si>
   <si>
-    <t>1oK#Xbbq</t>
+    <t>luCZWbz5</t>
   </si>
   <si>
     <t>ZAMBRANO BASURTO ERICK RAFAEL</t>
@@ -4871,7 +4871,7 @@
     <t>erick.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>GojQ1f22</t>
+    <t>?ctQoZev</t>
   </si>
   <si>
     <t>ZAMBRANO MUÑOZ JANDRY DEIVY</t>
@@ -4880,7 +4880,7 @@
     <t>jandry.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>7udChYtw</t>
+    <t>vpMKUAOP</t>
   </si>
   <si>
     <t>AYONG VERA JUAN DAVID</t>
@@ -4889,7 +4889,7 @@
     <t>juan.ayong@espam.edu.ec</t>
   </si>
   <si>
-    <t>L81v!Ggo</t>
+    <t>ne!LwA/i</t>
   </si>
   <si>
     <t>BASURTO SALAZAR ANGELA MARGARITA</t>
@@ -4898,7 +4898,7 @@
     <t>angela.basurto@espam.edu.ec</t>
   </si>
   <si>
-    <t>N98YOnpW</t>
+    <t>JmkXKGmu</t>
   </si>
   <si>
     <t>CASANOVA INTRIAGO ANDREA BELEN</t>
@@ -4910,7 +4910,7 @@
     <t>andrea.casanova@espam.edu.ec</t>
   </si>
   <si>
-    <t>mrRqIdxo</t>
+    <t>xG9d7V1R</t>
   </si>
   <si>
     <t>CHUMO ZAMBRANO ANTONIO BENITO</t>
@@ -4919,7 +4919,7 @@
     <t>antonio.chumo@espam.edu.ec</t>
   </si>
   <si>
-    <t>WGn/3X4k</t>
+    <t>131f3d2Q</t>
   </si>
   <si>
     <t>GARCIA CORTEZ ERIKA STEFANIA</t>
@@ -4928,7 +4928,7 @@
     <t>erika.garcia@espam.edu.ec</t>
   </si>
   <si>
-    <t>gAaEYV7X</t>
+    <t>AjsDg&amp;7T</t>
   </si>
   <si>
     <t>GOMEZ BARRERA JUNIOR LENIN</t>
@@ -4937,7 +4937,7 @@
     <t>junior.gomez@espam.edu.ec</t>
   </si>
   <si>
-    <t>BJ#AmpPB</t>
+    <t>w3dkZsP1</t>
   </si>
   <si>
     <t>LOOR CEDEÑO RICARDO EMANUEL</t>
@@ -4946,7 +4946,7 @@
     <t>ricardo.loor@espam.edu.ec</t>
   </si>
   <si>
-    <t>7Nq2nW/!</t>
+    <t>zGrVvQbh</t>
   </si>
   <si>
     <t>LOOR LUCAS EVELYN GUADALUPE</t>
@@ -4958,7 +4958,7 @@
     <t>evelyn.loor@espam.edu.ec</t>
   </si>
   <si>
-    <t>UaOJBy43</t>
+    <t>HWc27QaC</t>
   </si>
   <si>
     <t>LOOR VELASCO FABIANA BELEN</t>
@@ -4970,7 +4970,7 @@
     <t>fabiana.loor@espam.edu.ec</t>
   </si>
   <si>
-    <t>nuc1j210</t>
+    <t>PgoHisWg</t>
   </si>
   <si>
     <t>MARTINEZ CEDEÑO JENIFFER ESTEFANIA</t>
@@ -4979,7 +4979,7 @@
     <t>jeniffer.martinez@espam.edu.ec</t>
   </si>
   <si>
-    <t>Uuodft?d</t>
+    <t>!BbXbYfH</t>
   </si>
   <si>
     <t>MENDOZA BARRE EDDY ENMANUEL</t>
@@ -4988,7 +4988,7 @@
     <t>eddy.mendoza@espam.edu.ec</t>
   </si>
   <si>
-    <t>rdaA0!Un</t>
+    <t>cCVmNohK</t>
   </si>
   <si>
     <t>MURILLO PALACIOS ULICES JAIR</t>
@@ -4997,7 +4997,7 @@
     <t>ulices.murillo@espam.edu.ec</t>
   </si>
   <si>
-    <t>iHIAM4BQ</t>
+    <t>BLTUWQXY</t>
   </si>
   <si>
     <t>QUIJANO ZAMBRANO JONATHAN ERNESTO</t>
@@ -5006,7 +5006,7 @@
     <t>jonathan.quijano@espam.edu.ec</t>
   </si>
   <si>
-    <t>dQC805AT</t>
+    <t>fVnqYoEG</t>
   </si>
   <si>
     <t>ROBLES YORI EFRAIN DAVID</t>
@@ -5015,7 +5015,7 @@
     <t>efrain.robles@espam.edu.ec</t>
   </si>
   <si>
-    <t>TixtZlam</t>
+    <t>XiGS614h</t>
   </si>
   <si>
     <t>SABANDO ZAMBRANO FREDDY ANTONIO</t>
@@ -5024,7 +5024,7 @@
     <t>freddy.sabando@espam.edu.ec</t>
   </si>
   <si>
-    <t>U!LgR5lX</t>
+    <t>dd4FywDv</t>
   </si>
   <si>
     <t>SOLORZANO GUERRERO RONALDO WANDERLEY</t>
@@ -5033,7 +5033,7 @@
     <t>ronaldo.solorzano@espam.edu.ec</t>
   </si>
   <si>
-    <t>WxSfchHz</t>
+    <t>xPrr3Zsz</t>
   </si>
   <si>
     <t>VELEZ CALDERON GENESIS MARIANA</t>
@@ -5045,7 +5045,7 @@
     <t>genesis.velez@espam.edu.ec</t>
   </si>
   <si>
-    <t>N?d0mDwU</t>
+    <t>IE88ZfO0</t>
   </si>
   <si>
     <t>ZAMBRANO BALDA JOSE RAMIRO</t>
@@ -5054,7 +5054,7 @@
     <t>josera.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>5NM9TmxD</t>
+    <t>9xFGo##K</t>
   </si>
   <si>
     <t>ZAMBRANO CANTOS YENNY ANNABEL</t>
@@ -5063,7 +5063,7 @@
     <t>yenny.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>cPd5Uzsr</t>
+    <t>440saKXr</t>
   </si>
   <si>
     <t>ZAMBRANO LOOR CRISTHIAN LEONARDO</t>
@@ -5072,7 +5072,7 @@
     <t>cristhian.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>1hJ/LXwg</t>
+    <t>WlwnMu8o</t>
   </si>
   <si>
     <t>ZAMBRANO LOOR DIANA STEFANIA</t>
@@ -5081,7 +5081,7 @@
     <t>dianas.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>r1/sGVgW</t>
+    <t>u22jgEjY</t>
   </si>
   <si>
     <t>ZAMBRANO LOOR MARIA EMILIA</t>
@@ -5090,7 +5090,7 @@
     <t>maria.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>mAT/xZqi</t>
+    <t>juxGgs2!</t>
   </si>
   <si>
     <t>ZAMBRANO MOREIRA LEONELA ALEJANDRA</t>
@@ -5099,7 +5099,7 @@
     <t>leonela.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>IhdQz?9C</t>
+    <t>i?GbEfBd</t>
   </si>
   <si>
     <t>ALAVA ORTIZ EDWIN ALEXANDER</t>
@@ -5108,7 +5108,7 @@
     <t>edwin.alava@espam.edu.ec</t>
   </si>
   <si>
-    <t>?jR2nYPv</t>
+    <t>fqwc7BNR</t>
   </si>
   <si>
     <t>ALCIVAR LOOR GEMA LISBETH</t>
@@ -5117,7 +5117,7 @@
     <t>gemal.alcivar@espam.edu.ec</t>
   </si>
   <si>
-    <t>thKV?WlG</t>
+    <t>SAHhy4YI</t>
   </si>
   <si>
     <t>AVELLAN SANTANA GENESIS NICOLLE</t>
@@ -5126,7 +5126,7 @@
     <t>genesis.avellan@espam.edu.ec</t>
   </si>
   <si>
-    <t>UCamWtjv</t>
+    <t>spXFrc9Y</t>
   </si>
   <si>
     <t>CALDERON SANCHEZ SANDY KATHERINE</t>
@@ -5138,7 +5138,7 @@
     <t>sandy.calderon@espam.edu.ec</t>
   </si>
   <si>
-    <t>Ova3xw3l</t>
+    <t>wSqrnUKP</t>
   </si>
   <si>
     <t>CARDENAS ASTUDILLO ANGELA JULIANA</t>
@@ -5150,7 +5150,7 @@
     <t>angela.cardenas@espam.edu.ec</t>
   </si>
   <si>
-    <t>Zh3ZSP!e</t>
+    <t>UuWyKGYa</t>
   </si>
   <si>
     <t>CARRILLO PACHAY MARCO STEVE</t>
@@ -5159,7 +5159,7 @@
     <t>marco.carrillo@espam.edu.ec</t>
   </si>
   <si>
-    <t>ak#4DGp6</t>
+    <t>85MnPXfm</t>
   </si>
   <si>
     <t>CEDEÑO ZAMBRANO BRYAN ISIDRO</t>
@@ -5168,7 +5168,7 @@
     <t>bryan.cedeno@espam.edu.ec</t>
   </si>
   <si>
-    <t>tXN3CjB!</t>
+    <t>SUC4&amp;YTJ</t>
   </si>
   <si>
     <t>CEVALLOS SALTOS ANTHONY FERNANDO</t>
@@ -5177,7 +5177,7 @@
     <t>anthonyf.cevallos@espam.edu.ec</t>
   </si>
   <si>
-    <t>WvLGidti</t>
+    <t>joADBHh6</t>
   </si>
   <si>
     <t>CHANG ZAMBRANO MARTHA YAMILETH</t>
@@ -5186,7 +5186,7 @@
     <t>martha.chang@espam.edu.ec</t>
   </si>
   <si>
-    <t>yHTYZL72</t>
+    <t>iXn#pI04</t>
   </si>
   <si>
     <t>CHIRIBOGA FARIAS LUIS FERNANDO</t>
@@ -5195,7 +5195,7 @@
     <t>luis.chiriboga@espam.edu.ec</t>
   </si>
   <si>
-    <t>KUqrfB?o</t>
+    <t>K1Rci!0u</t>
   </si>
   <si>
     <t>ESPINOZA PILAY JERSON JOSE</t>
@@ -5204,7 +5204,7 @@
     <t>jerson.espinoza@espam.edu.ec</t>
   </si>
   <si>
-    <t>B!!xml9/</t>
+    <t>kHLJNKKD</t>
   </si>
   <si>
     <t>FARIAS MERA MAURICIO ANDRES</t>
@@ -5213,7 +5213,7 @@
     <t>mauricio.farias@espam.edu.ec</t>
   </si>
   <si>
-    <t>Ej!R35??</t>
+    <t>qHWvXZmY</t>
   </si>
   <si>
     <t>HERNANDEZ GONZALEZ JAMILEX KAREY</t>
@@ -5225,7 +5225,7 @@
     <t>jamilex.hernandez@espam.edu.ec</t>
   </si>
   <si>
-    <t>q04RMTYM</t>
+    <t>N88PHm0u</t>
   </si>
   <si>
     <t>LEONES FALCONES ABAD JHOAN</t>
@@ -5234,7 +5234,7 @@
     <t>abad.leones@espam.edu.ec</t>
   </si>
   <si>
-    <t>glURcT55</t>
+    <t>PFok&amp;fjv</t>
   </si>
   <si>
     <t>LOOR CEVALLOS ANA MARIA</t>
@@ -5243,7 +5243,7 @@
     <t>anama.loor@espam.edu.ec</t>
   </si>
   <si>
-    <t>Ru9E&amp;jjS</t>
+    <t>lBftAbeI</t>
   </si>
   <si>
     <t>LOOR LOOR RONALD POLIVIO</t>
@@ -5252,7 +5252,7 @@
     <t>ronald.loor@espam.edu.ec</t>
   </si>
   <si>
-    <t>I71HoPI9</t>
+    <t>Y0ESSfmq</t>
   </si>
   <si>
     <t>LOOR REYES GENESIS JAMILETH</t>
@@ -5261,7 +5261,7 @@
     <t>genesis.loor@espam.edu.ec</t>
   </si>
   <si>
-    <t>uzBu5K0i</t>
+    <t>78!xkk4Z</t>
   </si>
   <si>
     <t>MACIAS BRAVO RICARDO FRANCISCO</t>
@@ -5270,7 +5270,7 @@
     <t>ricardo.macias@espam.edu.ec</t>
   </si>
   <si>
-    <t>7!3IRRQ!</t>
+    <t>0q/IOTcQ</t>
   </si>
   <si>
     <t>MACIAS MACIAS LISSETH LILIBETH</t>
@@ -5279,7 +5279,7 @@
     <t>lisseth.macias@espam.edu.ec</t>
   </si>
   <si>
-    <t>&amp;9LaHaKW</t>
+    <t>I/ITLqKm</t>
   </si>
   <si>
     <t>MANZABA CEDEÑO KEVIN ALBERTO</t>
@@ -5288,7 +5288,7 @@
     <t>kevin.manzaba@espam.edu.ec</t>
   </si>
   <si>
-    <t>FTUa86wT</t>
+    <t>PzPo&amp;tLU</t>
   </si>
   <si>
     <t>MARQUEZ LEMA NAYELI SABRINA</t>
@@ -5297,7 +5297,7 @@
     <t>nayeli.marquez@espam.edu.ec</t>
   </si>
   <si>
-    <t>FvdHQS2K</t>
+    <t>nuqSwunq</t>
   </si>
   <si>
     <t>MENDOZA BRIONES MARIUXI KATHERINE</t>
@@ -5309,7 +5309,7 @@
     <t>mariuxi.mendoza@espam.edu.ec</t>
   </si>
   <si>
-    <t>JW#L#ft/</t>
+    <t>mEYlRsOA</t>
   </si>
   <si>
     <t>MOLINA CEDEÑO JUAN DE DIOS</t>
@@ -5318,7 +5318,7 @@
     <t>juan.molina@espam.edu.ec</t>
   </si>
   <si>
-    <t>cvLnH7HL</t>
+    <t>SFtV#Q6R</t>
   </si>
   <si>
     <t>MONTESDEOCA GARCIA YUDID ALEXANDRA</t>
@@ -5327,7 +5327,7 @@
     <t>yudid.montesdeoca@espam.edu.ec</t>
   </si>
   <si>
-    <t>iJMw0hqz</t>
+    <t>lOpiyARw</t>
   </si>
   <si>
     <t>MUÑOZ MERA JUAN PABLO</t>
@@ -5336,7 +5336,7 @@
     <t>juan.munoz@espam.edu.ec</t>
   </si>
   <si>
-    <t>Dh#VgNMm</t>
+    <t>3QH!tFuU</t>
   </si>
   <si>
     <t>NAVARRETE ORMAZA ERICK ALEXANDER</t>
@@ -5345,7 +5345,7 @@
     <t>erick.navarrete@espam.edu.ec</t>
   </si>
   <si>
-    <t>/PvZzjG3</t>
+    <t>wRfDYeMf</t>
   </si>
   <si>
     <t>OCAMPO BARRE ANTHONY VICENTE</t>
@@ -5354,7 +5354,7 @@
     <t>anthony.ocampo@espam.edu.ec</t>
   </si>
   <si>
-    <t>r!kLHOZu</t>
+    <t>q2oEbEvH</t>
   </si>
   <si>
     <t>PARRALES FALCONES ANTHONY LEONARDO</t>
@@ -5363,7 +5363,7 @@
     <t>anthony.parrales@espam.edu.ec</t>
   </si>
   <si>
-    <t>RN8DcenM</t>
+    <t>wnYUN5Mk</t>
   </si>
   <si>
     <t>RAMOS SALTOS NICOLE PAOLA</t>
@@ -5372,7 +5372,7 @@
     <t>nicole.ramos@espam.edu.ec</t>
   </si>
   <si>
-    <t>H&amp;KbrLha</t>
+    <t>!eaQtgkK</t>
   </si>
   <si>
     <t>ROBLES MOLINA JENIFFER STEFANIA</t>
@@ -5381,7 +5381,7 @@
     <t>jeniffer.robles@espam.edu.ec</t>
   </si>
   <si>
-    <t>FS&amp;TR2MS</t>
+    <t>z3vlDRto</t>
   </si>
   <si>
     <t>RODRIGUEZ CAMPOS JEAN KATHERINE</t>
@@ -5390,7 +5390,7 @@
     <t>jean.rodriguez@espam.edu.ec</t>
   </si>
   <si>
-    <t>G6tHJZ0n</t>
+    <t>?yEqeB3o</t>
   </si>
   <si>
     <t>SANCHEZ MEDINA GISSEL STEPHANIE</t>
@@ -5399,7 +5399,7 @@
     <t>gissel.sanchez@espam.edu.ec</t>
   </si>
   <si>
-    <t>g/kEMUTi</t>
+    <t>m?6Gy8!1</t>
   </si>
   <si>
     <t>VASQUEZ VERA ARGENIS JAVIER</t>
@@ -5408,7 +5408,7 @@
     <t>argenis.vasquez@espam.edu.ec</t>
   </si>
   <si>
-    <t>/R/XKrge</t>
+    <t>rnptPGz7</t>
   </si>
   <si>
     <t>VASQUEZ VERA MARIA MERCEDES</t>
@@ -5417,7 +5417,7 @@
     <t>maria.vasquez@espam.edu.ec</t>
   </si>
   <si>
-    <t>CZ8AIwMp</t>
+    <t>CO#N9hPe</t>
   </si>
   <si>
     <t>VELEZ MERA JOSSELYN JOSSENKA</t>
@@ -5426,7 +5426,7 @@
     <t>josselynjo.velez@espam.edu.ec</t>
   </si>
   <si>
-    <t>rShPBqvK</t>
+    <t>4t6i57/g</t>
   </si>
   <si>
     <t>VELEZ PALACIOS STEVEN RAMON</t>
@@ -5435,7 +5435,7 @@
     <t>steven.velez@espam.edu.ec</t>
   </si>
   <si>
-    <t>8YT&amp;zr9L</t>
+    <t>4PE?Tqsy</t>
   </si>
   <si>
     <t>VERA BRAVO MARY LAURA</t>
@@ -5444,7 +5444,7 @@
     <t>mary.vera@espam.edu.ec</t>
   </si>
   <si>
-    <t>eI3JTtZl</t>
+    <t>3LM&amp;MkLF</t>
   </si>
   <si>
     <t>VILLAMIL VALENCIA ISABEL ANDREA</t>
@@ -5453,7 +5453,7 @@
     <t>isabel.villamil@espam.edu.ec</t>
   </si>
   <si>
-    <t>RJb1IOs/</t>
+    <t>TVZp1Swt</t>
   </si>
   <si>
     <t>ZAMBRANO COBEÑA PABLO ALBERTO</t>
@@ -5462,7 +5462,7 @@
     <t>pablo.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>WBjAjrAd</t>
+    <t>CJHd!t&amp;b</t>
   </si>
   <si>
     <t>ALVAREZ INTRIAGO MAILIN KATHERINE</t>
@@ -5471,7 +5471,7 @@
     <t>mailin.alvarez@espam.edu.ec</t>
   </si>
   <si>
-    <t>INHpObUC</t>
+    <t>jOU5ugUV</t>
   </si>
   <si>
     <t>BRAVO ARTEAGA RICARDO JAVIER</t>
@@ -5480,7 +5480,7 @@
     <t>ricardo.bravo@espam.edu.ec</t>
   </si>
   <si>
-    <t>jjaBWdAG</t>
+    <t>h/Qkjvge</t>
   </si>
   <si>
     <t>BRAVO VERGARA GEMA CAROLINA</t>
@@ -5489,7 +5489,7 @@
     <t>gemac.bravo@espam.edu.ec</t>
   </si>
   <si>
-    <t>7IJ1dA5M</t>
+    <t>9r!r#2pK</t>
   </si>
   <si>
     <t>CEDEÑO VELASQUEZ GEMA GUADALUPE</t>
@@ -5498,7 +5498,7 @@
     <t>gemag.cedeno@espam.edu.ec</t>
   </si>
   <si>
-    <t>UuXCK24w</t>
+    <t>NtdB1ZFP</t>
   </si>
   <si>
     <t>CHAVEZ VELIZ DENIS ALEXANDER</t>
@@ -5507,7 +5507,7 @@
     <t>denis.chavez@espam.edu.ec</t>
   </si>
   <si>
-    <t>4bT1?hu3</t>
+    <t>sdloJdoD</t>
   </si>
   <si>
     <t>DEMERA ZAMBRANO JACKSON ANDRES</t>
@@ -5516,7 +5516,7 @@
     <t>jackson.demera@espam.edu.ec</t>
   </si>
   <si>
-    <t>6awvZ/Rv</t>
+    <t>Y!SzPLNx</t>
   </si>
   <si>
     <t>GANCHOZO LECTONG GRESSILLE GUISSELLA</t>
@@ -5525,7 +5525,7 @@
     <t>gressille.ganchozo@espam.edu.ec</t>
   </si>
   <si>
-    <t>crdtjd8J</t>
+    <t>z8ufyA!z</t>
   </si>
   <si>
     <t>INDIO ZAMBRANO ODALIS MICHELLE</t>
@@ -5537,7 +5537,7 @@
     <t>odalis.indio@espam.edu.ec</t>
   </si>
   <si>
-    <t>tTzeZjry</t>
+    <t>d!2/#itP</t>
   </si>
   <si>
     <t>INTRIAGO TERAN BRYAN ASDRUBAL</t>
@@ -5546,7 +5546,7 @@
     <t>bryan.intriago@espam.edu.ec</t>
   </si>
   <si>
-    <t>/NqIKFSS</t>
+    <t>pFewwZdT</t>
   </si>
   <si>
     <t>INTRIAGO ZAMBRANO GISSELA KAROLINA</t>
@@ -5555,7 +5555,7 @@
     <t>gissela.intriago@espam.edu.ec</t>
   </si>
   <si>
-    <t>!9Km/O5E</t>
+    <t>s4o5bJfK</t>
   </si>
   <si>
     <t>LEONES SOLORZANO YARITZA DANIELA</t>
@@ -5564,7 +5564,7 @@
     <t>yaritza.leones@espam.edu.ec</t>
   </si>
   <si>
-    <t>Afut8SR&amp;</t>
+    <t>q1e/g88P</t>
   </si>
   <si>
     <t>LOPEZ MORA JOSSELYN AMARILYS</t>
@@ -5573,7 +5573,7 @@
     <t>josselyn.lopez@espam.edu.ec</t>
   </si>
   <si>
-    <t>OJLpJRYg</t>
+    <t>W5S/0254</t>
   </si>
   <si>
     <t>MERA LOOR ANTONY ELIAN</t>
@@ -5582,7 +5582,7 @@
     <t>antony.mera@espam.edu.ec</t>
   </si>
   <si>
-    <t>yaydCdV2</t>
+    <t>VvvS5U1G</t>
   </si>
   <si>
     <t>MERA SABANDO GEMA YAMILETH</t>
@@ -5591,7 +5591,7 @@
     <t>gema.mera@espam.edu.ec</t>
   </si>
   <si>
-    <t>GGsYwYq6</t>
+    <t>IM/2jEii</t>
   </si>
   <si>
     <t>MIRANDA IBARRA ALFONSO SEBASTIAN</t>
@@ -5600,7 +5600,7 @@
     <t>alfonso.miranda@espam.edu.ec</t>
   </si>
   <si>
-    <t>d5tE7/GO</t>
+    <t>s5NEC&amp;UX</t>
   </si>
   <si>
     <t>MONGE ERAZO JECSY PIERINA</t>
@@ -5609,7 +5609,7 @@
     <t>jecsy.monge@espam.edu.ec</t>
   </si>
   <si>
-    <t>OXgErEMA</t>
+    <t>3fw6Eug&amp;</t>
   </si>
   <si>
     <t>ROMERO ORTEGA ANGEL ANDRES</t>
@@ -5618,7 +5618,7 @@
     <t>angel.romero@espam.edu.ec</t>
   </si>
   <si>
-    <t>K0k4kDH8</t>
+    <t>SYid&amp;b?G</t>
   </si>
   <si>
     <t>SOLORZANO INTRIAGO OSCAR FABIAN</t>
@@ -5630,7 +5630,7 @@
     <t>oscar.solorzano@espam.edu.ec</t>
   </si>
   <si>
-    <t>u?m#Xh8m</t>
+    <t>7lf41?He</t>
   </si>
   <si>
     <t>VALVERDE ZAPATA KATHIUSCA CARLOTA</t>
@@ -5642,7 +5642,7 @@
     <t>kathiusca.valverde@espam.edu.ec</t>
   </si>
   <si>
-    <t>y1r5zmXv</t>
+    <t>mNfddZ5n</t>
   </si>
   <si>
     <t>VERA AYALA GENESIS LISBETH</t>
@@ -5651,7 +5651,7 @@
     <t>genesis.vera@espam.edu.ec</t>
   </si>
   <si>
-    <t>07f1knGA</t>
+    <t>wMztd4tv</t>
   </si>
   <si>
     <t>VERA PULIDO MARIA IVANNA</t>
@@ -5660,7 +5660,7 @@
     <t>mariai.verap@espam.edu.ec</t>
   </si>
   <si>
-    <t>1yaOfY9&amp;</t>
+    <t>qShn349E</t>
   </si>
   <si>
     <t>VERA ZAMBRANO JAZMIN CAROLINA</t>
@@ -5669,7 +5669,7 @@
     <t>jazmin.vera@espam.edu.ec</t>
   </si>
   <si>
-    <t>3zkUhjMQ</t>
+    <t>MeLNTLb2</t>
   </si>
   <si>
     <t>VERGARA ARBOLEDA WENDY DEL ROCIO</t>
@@ -5681,7 +5681,7 @@
     <t>wendy.vergara@espam.edu.ec</t>
   </si>
   <si>
-    <t>ft3A3K#o</t>
+    <t>eDGYSwtp</t>
   </si>
   <si>
     <t>VILLAMAR GONZALEZ ELENA SAMANTA</t>
@@ -5690,7 +5690,7 @@
     <t>elena.villamar@espam.edu.ec</t>
   </si>
   <si>
-    <t>v1x14rh0</t>
+    <t>D2txnRNX</t>
   </si>
   <si>
     <t>ZAMBRANO ALCIVAR GENESIS VALENTINA</t>
@@ -5699,7 +5699,7 @@
     <t>genesis.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>MVpvX3aE</t>
+    <t>pgLkrtBq</t>
   </si>
   <si>
     <t>ZAMBRANO CHAVEZ ANDREA MONSERRATE</t>
@@ -5708,7 +5708,7 @@
     <t>andream.zambranoc@espam.edu.ec</t>
   </si>
   <si>
-    <t>YVc6xGL0</t>
+    <t>!fJhPMiF</t>
   </si>
   <si>
     <t>ZAMBRANO GRACIA DANIELA ANGELINA</t>
@@ -5717,7 +5717,7 @@
     <t>daniela.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>vYuxi/dl</t>
+    <t>y25VeIyB</t>
   </si>
   <si>
     <t>ZAMBRANO MUÑOZ WILLY JHONAY</t>
@@ -5726,7 +5726,7 @@
     <t>willy.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>bL#f6mZB</t>
+    <t>ja1wPVr8</t>
   </si>
   <si>
     <t>ZAMBRANO ZAMBRANO TATIANA ELIZABETH</t>
@@ -5735,7 +5735,7 @@
     <t>tatianael.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>A/2rh1/R</t>
+    <t>NxGt&amp;wKC</t>
   </si>
 </sst>
 </file>

--- a/storage/app/public/seeds/datosPassword.xlsx
+++ b/storage/app/public/seeds/datosPassword.xlsx
@@ -44,7 +44,7 @@
     <t>angie.alcivar.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>eak8CoJq</t>
+    <t>nLN98tEV</t>
   </si>
   <si>
     <t>ALCIVAR VERA KARLA MILENA</t>
@@ -53,7 +53,7 @@
     <t>karla.alcivar.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>PKHqwHF8</t>
+    <t>AYU8fRvd</t>
   </si>
   <si>
     <t>ALVIA ROCA HENRY ISAAC</t>
@@ -65,7 +65,7 @@
     <t>henry.alvia.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>4mg1RqwC</t>
+    <t>4#Eqd/P7</t>
   </si>
   <si>
     <t>ANANGONO GOMEZ ANA MARCELA</t>
@@ -74,7 +74,7 @@
     <t>ana.anangono.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>w3g43Awz</t>
+    <t>&amp;XwDfyId</t>
   </si>
   <si>
     <t>BRAVO MARCILLO NATHALY SILVANA</t>
@@ -86,7 +86,7 @@
     <t>nathaly.bravo.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>1eoZCpNc</t>
+    <t>K1uwQPiA</t>
   </si>
   <si>
     <t>BRIONES SUAREZ DANIA MELISSA</t>
@@ -95,7 +95,7 @@
     <t>dania.briones.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>D91aOU9O</t>
+    <t>T#neMuGX</t>
   </si>
   <si>
     <t>CANCHINGRE LOZA MARIANA DE JESUS</t>
@@ -107,7 +107,7 @@
     <t>mariana.canchingre.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>6Y&amp;060WC</t>
+    <t>zlBShrxa</t>
   </si>
   <si>
     <t>CEDEÑO GARCIA EMILY JAHAIRA</t>
@@ -116,7 +116,7 @@
     <t>emily.cedeno.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>F!gQNn5U</t>
+    <t>W8qcwyMr</t>
   </si>
   <si>
     <t>CEDEÑO VELEZ STEVEN ANTONIO</t>
@@ -125,7 +125,7 @@
     <t>steven.cedeno.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>!KdBJLF0</t>
+    <t>N5cPhEuS</t>
   </si>
   <si>
     <t>CHICA ORDOÑEZ YAIZA ANAHI</t>
@@ -134,7 +134,7 @@
     <t>yaiza.chica.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>JcfLC?Nj</t>
+    <t>x3qeTgQS</t>
   </si>
   <si>
     <t>CORONEL MERO DAMARY SABRINA</t>
@@ -143,7 +143,7 @@
     <t>damary.coronel.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>iG0mCZZS</t>
+    <t>zC8TlJQT</t>
   </si>
   <si>
     <t>DELGADO BENAVIDES MELISSA ANDREINA</t>
@@ -152,7 +152,7 @@
     <t>melissa.delgado.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>bLxGsXV#</t>
+    <t>kUkrUZwY</t>
   </si>
   <si>
     <t>DELGADO SOLORZANO TONY DAMIAN</t>
@@ -161,7 +161,7 @@
     <t>tony.delgado.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>660605Te</t>
+    <t>I9&amp;BpsTC</t>
   </si>
   <si>
     <t>ELENO GENDE JOSELYN KATHERINE</t>
@@ -173,7 +173,7 @@
     <t>joselyn.eleno.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>jhiRHAdw</t>
+    <t>8nCnd6pq</t>
   </si>
   <si>
     <t>GARCIA RIVERA ANGHELA LISBETH</t>
@@ -185,7 +185,7 @@
     <t>anghela.garcia.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>oKJppA3S</t>
+    <t>vngZeLIS</t>
   </si>
   <si>
     <t>GARCIA ROSS PRISCILA TAHILY</t>
@@ -194,7 +194,7 @@
     <t>priscila.garcia.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>5wwlqaoV</t>
+    <t>qEh!9J7T</t>
   </si>
   <si>
     <t>LOOR ZAMBRANO MARILYN MICHEL</t>
@@ -203,7 +203,7 @@
     <t>marilyn.loor.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>q0IN9lSR</t>
+    <t>Faq5ALk3</t>
   </si>
   <si>
     <t>LUCAS MENDOZA MOISES NOE</t>
@@ -212,7 +212,7 @@
     <t>moises.lucas.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>EbTjMS4y</t>
+    <t>E4a1FMxp</t>
   </si>
   <si>
     <t>MANTUANO LOOR JENIFER DANIELA</t>
@@ -221,7 +221,7 @@
     <t>jenifer.mantuano.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>J&amp;uzAdXR</t>
+    <t>8R4rg#Un</t>
   </si>
   <si>
     <t>MENENDEZ SANTANA JOSMELY ANAHI</t>
@@ -230,7 +230,7 @@
     <t>josmely.menendez.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>V6TLxU9h</t>
+    <t>U?NDIzph</t>
   </si>
   <si>
     <t>MEZA ESPINOZA MISHEL NICOL</t>
@@ -239,7 +239,7 @@
     <t>mishel.meza.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>1sp4q6At</t>
+    <t>1vLOtXYf</t>
   </si>
   <si>
     <t>MORANTE TROYA JAIME ANDRES</t>
@@ -248,7 +248,7 @@
     <t>jaime.morante.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>Efo8rE&amp;w</t>
+    <t>6#npDA&amp;G</t>
   </si>
   <si>
     <t>PARRAGA MOREIRA CINDY ANDREA</t>
@@ -257,7 +257,7 @@
     <t>cindy.parraga.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>K31LvBYI</t>
+    <t>GvARgjjz</t>
   </si>
   <si>
     <t>PEÑAFIEL VALENCIA JULEISY LISBETH</t>
@@ -269,7 +269,7 @@
     <t>juleisy.penafiel.4623@espam.edu.ec</t>
   </si>
   <si>
-    <t>esrUkD5h</t>
+    <t>PqpDITeg</t>
   </si>
   <si>
     <t>PICO CRIOLLO MILETH KATHERINE</t>
@@ -278,7 +278,7 @@
     <t>mileth.pico.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>1ZaO6si2</t>
+    <t>#O#6t6MB</t>
   </si>
   <si>
     <t>RENDON GILER JUNIOR ARIEL</t>
@@ -287,7 +287,7 @@
     <t>junior.rendon@espam.edu.ec</t>
   </si>
   <si>
-    <t>1HzDYkIT</t>
+    <t>GkN8WP0E</t>
   </si>
   <si>
     <t>SALVATIERRA SANTOS BRYAN ALEJANDRO</t>
@@ -296,7 +296,7 @@
     <t>bryan.salvatierra@espam.edu.ec</t>
   </si>
   <si>
-    <t>vGR1GfpY</t>
+    <t>YLGDTlv6</t>
   </si>
   <si>
     <t>SOLORZANO LUCAS ALEXANDER JOEL</t>
@@ -308,7 +308,7 @@
     <t>alexander.solorzano.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>!YOibzo8</t>
+    <t>#68&amp;hnYy</t>
   </si>
   <si>
     <t>SOLORZANO RODRIGUEZ DAYANA NICOLLE</t>
@@ -317,7 +317,7 @@
     <t>dayanna.solorzano.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>asD7omwu</t>
+    <t>GzTCqlUG</t>
   </si>
   <si>
     <t>TENORIO QUINTERO ELY GILMAR</t>
@@ -329,7 +329,7 @@
     <t>ely.tenorio.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>Xd?x3ePz</t>
+    <t>OgHZOqbk</t>
   </si>
   <si>
     <t>VELASQUEZ DOMINGUEZ JORDAN RICARDO</t>
@@ -338,7 +338,7 @@
     <t>jordan.velasquez.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>xw27!jgP</t>
+    <t>x7KvLQdd</t>
   </si>
   <si>
     <t>VILLAVICENCIO SALVADOR MELANIE HELLAIM</t>
@@ -350,7 +350,7 @@
     <t>melanie.villavicencio.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>WRWjyAJN</t>
+    <t>bzXr#W2I</t>
   </si>
   <si>
     <t>ZAMBRANO CEDEÑO ANGELO ALEXANDER</t>
@@ -359,7 +359,7 @@
     <t>angelo.zambrano.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>sYC2?uzV</t>
+    <t>ZUGpn6/2</t>
   </si>
   <si>
     <t>ZAMBRANO VALENCIA SHIRLEY EDITH</t>
@@ -368,7 +368,7 @@
     <t>shirley.zambrano.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>pHvY3DNh</t>
+    <t>o1lo6nQ?</t>
   </si>
   <si>
     <t>ANGEL GOMEZ GILENY NAHOMY</t>
@@ -380,7 +380,7 @@
     <t>gileny.angel.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>mPB!SW25</t>
+    <t>PCWAHRcU</t>
   </si>
   <si>
     <t>BARRE QUIJANO DARWIN JOSE</t>
@@ -389,7 +389,7 @@
     <t>darwin.barre@espam.edu.ec</t>
   </si>
   <si>
-    <t>#iZKp7/b</t>
+    <t>?oEZNUUG</t>
   </si>
   <si>
     <t>BRAVO ALVAREZ EMILY JESUS</t>
@@ -398,7 +398,7 @@
     <t>emily.bravo.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>rI9s7X9y</t>
+    <t>?VWH8O6c</t>
   </si>
   <si>
     <t>CAGUA YOONG NAHOMY JAMILETH</t>
@@ -407,7 +407,7 @@
     <t>nahomy.cagua.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>zmGgEvse</t>
+    <t>ETdHDo9o</t>
   </si>
   <si>
     <t>CASTILLO CEDEÑO EMILIA MARICELA</t>
@@ -416,7 +416,7 @@
     <t>emilia.castillo.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>eo7S4yJv</t>
+    <t>8QyEtAbM</t>
   </si>
   <si>
     <t>CEDEÑO ZAMBRANO JOSE DANIEL</t>
@@ -425,7 +425,7 @@
     <t>jose.cedenoz.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>3VkJjC6o</t>
+    <t>JqYPUmuV</t>
   </si>
   <si>
     <t>CIFUENTES VELASQUEZ JOSE JAHIR</t>
@@ -434,7 +434,7 @@
     <t>jose.cifuentes.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>TBZBrogN</t>
+    <t>LYFEj8RD</t>
   </si>
   <si>
     <t>CONFORME CIFUENTES ROBERTH JESUS</t>
@@ -443,7 +443,7 @@
     <t>roberth.conforme.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>?&amp;plI17D</t>
+    <t>0j7Pb7vC</t>
   </si>
   <si>
     <t>CORDERO GILER SALMA PAOLA</t>
@@ -452,7 +452,7 @@
     <t>salma.cordero.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>tLZVrs1v</t>
+    <t>Jeo?4/XJ</t>
   </si>
   <si>
     <t>FARIAS VELIZ RENE OCTAVIO</t>
@@ -461,7 +461,7 @@
     <t>rene.farias.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>RppScdg/</t>
+    <t>fSuP1EdR</t>
   </si>
   <si>
     <t>GARCIA DUEÑAS JEAN FERNANDO</t>
@@ -470,7 +470,7 @@
     <t>jean.garcia.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>cqXJCcv6</t>
+    <t>0HCpKKTw</t>
   </si>
   <si>
     <t>HERRERA BASURTO IVIS ANTONELLA</t>
@@ -479,7 +479,7 @@
     <t>ivis.herrera.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>QN1Pq2av</t>
+    <t>0ofge5Ya</t>
   </si>
   <si>
     <t>HIDALGO LOOR MARLYN NALLELY</t>
@@ -488,7 +488,7 @@
     <t>marlyn.hidalgo.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>HRUhZ?5P</t>
+    <t>JScSDET!</t>
   </si>
   <si>
     <t>IBARRA CHAVARRIA JUAN DIEGO</t>
@@ -497,7 +497,7 @@
     <t>juan.ibarra.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>350xtrFR</t>
+    <t>JjMHfXrC</t>
   </si>
   <si>
     <t>JAYA ZAPATA VICTOR EDUARDO</t>
@@ -506,7 +506,7 @@
     <t>victor.jaya.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>XU#PSUhw</t>
+    <t>/U?GOS95</t>
   </si>
   <si>
     <t>LOOR DELGADO JERRY JOEL</t>
@@ -515,7 +515,7 @@
     <t>jerry.loor.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>ZpVc&amp;nMn</t>
+    <t>fHabtBPx</t>
   </si>
   <si>
     <t>MANTUANO PONCE MELANY MONCERRATE</t>
@@ -524,7 +524,7 @@
     <t>melany.mantuano.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>cOeE08!N</t>
+    <t>ffZDbJyf</t>
   </si>
   <si>
     <t>MENDOZA VASQUEZ ARIEL ALEXIS</t>
@@ -536,7 +536,7 @@
     <t>ariel.mendoza.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>!dlR0Kla</t>
+    <t>TA9h#O1I</t>
   </si>
   <si>
     <t>MOREIRA GARCIA MACARIO EMANUEL</t>
@@ -545,7 +545,7 @@
     <t>macario.moreira.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>sS65tUNi</t>
+    <t>Lg2&amp;LlsF</t>
   </si>
   <si>
     <t>MOREIRA GILCES GABRIELA NIKOL</t>
@@ -554,7 +554,7 @@
     <t>gabriela.moreira.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>!O#?2G9?</t>
+    <t>UyKJuxrF</t>
   </si>
   <si>
     <t>NOBOA MONTESDEOCA INGRITH MADELEYN</t>
@@ -563,7 +563,7 @@
     <t>ingrith.noboa.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>MOX9&amp;oYm</t>
+    <t>bmCkpr!k</t>
   </si>
   <si>
     <t>ORDOÑEZ ALCIVAR ALEX PAUL</t>
@@ -572,7 +572,7 @@
     <t>alex.ordonez.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>W0iTaS7u</t>
+    <t>fw8MsWEo</t>
   </si>
   <si>
     <t>PALMA GARCIA MELYN JARITZA</t>
@@ -581,7 +581,7 @@
     <t>melyn.palma.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>z!Aa2bVw</t>
+    <t>K5xDJaRB</t>
   </si>
   <si>
     <t>PAREDES MERO GHISLAINE ANAHI</t>
@@ -590,7 +590,7 @@
     <t>ghislaine.paredes.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>k/5KzPTG</t>
+    <t>tDhfu2uT</t>
   </si>
   <si>
     <t>QUIJIJE PIANDA XIOMARA MISHELLE</t>
@@ -602,7 +602,7 @@
     <t>xiomara.quijije.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>7X6tqwl0</t>
+    <t>ZHqboBXR</t>
   </si>
   <si>
     <t>SALAVARRIA AVEIGA YULIANA GUADALUPE</t>
@@ -611,7 +611,7 @@
     <t>yuliana.salavarria.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>3SD3DD9z</t>
+    <t>K5fHdAU&amp;</t>
   </si>
   <si>
     <t>SANTOS ALCIVAR JAIR SEBASTIAN</t>
@@ -620,7 +620,7 @@
     <t>jair.santos.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>s4SmYcaj</t>
+    <t>zSRJyBmA</t>
   </si>
   <si>
     <t>SOLORZANO CANDELA JARITZA NOHEMY</t>
@@ -629,7 +629,7 @@
     <t>jaritza.solorzano.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>7pV2p8gY</t>
+    <t>8O3yxH#n</t>
   </si>
   <si>
     <t>VERA CEBALLOS MARIA CONCEPCION</t>
@@ -638,7 +638,7 @@
     <t>maria.vera.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>&amp;1t3KKAZ</t>
+    <t>jg/oRpLZ</t>
   </si>
   <si>
     <t>ALAVA MUÑOZ BILL JARVI</t>
@@ -647,7 +647,7 @@
     <t>bill.alava.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>T/hIn0J#</t>
+    <t>/GxNgv?k</t>
   </si>
   <si>
     <t>ALCIVAR ZAMBRANO ESTHER JOMARA</t>
@@ -656,7 +656,7 @@
     <t>esther.alcivar.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>dRt1ld0n</t>
+    <t>X7/SibAK</t>
   </si>
   <si>
     <t>ALMEIDA LOOR MARIA VICTORIA</t>
@@ -665,7 +665,7 @@
     <t>maria.almeida.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>zo2!aJfn</t>
+    <t>WT#cpOVr</t>
   </si>
   <si>
     <t>ANDRADE VILLAVICENCIO PABLO HUGO</t>
@@ -674,7 +674,7 @@
     <t>pablo.andrade.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>7HzrBEC5</t>
+    <t>RrMGkOof</t>
   </si>
   <si>
     <t>AVENDAÑO YZQUIERDO ADRIANA ISABEL</t>
@@ -686,7 +686,7 @@
     <t>adriana.avendano.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>#dPGru4o</t>
+    <t>io#AdDQl</t>
   </si>
   <si>
     <t>BALUARTE PARRAGA MAYERLY NARCISA</t>
@@ -698,7 +698,7 @@
     <t>mayerly.baluarte.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>bDq4GgUP</t>
+    <t>ltWL23TP</t>
   </si>
   <si>
     <t>BARRE CASTAÑEDA MAYERLI SOLANGE</t>
@@ -710,7 +710,7 @@
     <t>mayerli.barre.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>feJYY&amp;Jv</t>
+    <t>1xIci9Sq</t>
   </si>
   <si>
     <t>BERMEO MENDOZA LESLY JULIETT</t>
@@ -719,7 +719,7 @@
     <t>lesly.bermeo.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>b8a812eJ</t>
+    <t>jqYX9XIX</t>
   </si>
   <si>
     <t>BRAVO ZAMBRANO DANA KATIUSKA</t>
@@ -728,7 +728,7 @@
     <t>dana.bravo.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>Gmdodbqy</t>
+    <t>9TvKkRT?</t>
   </si>
   <si>
     <t>CEDEÑO ALVARADO JORGE LUIS</t>
@@ -737,7 +737,7 @@
     <t>jorge.cedeno.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>2QhsBxRs</t>
+    <t>Nw#LiH4F</t>
   </si>
   <si>
     <t>DOMINGUEZ ANGEL ANAIS ZULEYMA</t>
@@ -749,7 +749,7 @@
     <t>anais.dominguez.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>z?7xzumE</t>
+    <t>e&amp;hOHQVV</t>
   </si>
   <si>
     <t>ESPARZA TELLO ERICKA MARIA</t>
@@ -761,7 +761,7 @@
     <t>ericka.esparza.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>EnUHJz&amp;?</t>
+    <t>3Fas7#De</t>
   </si>
   <si>
     <t>GRAIN MARCILLO MICHAEL JOSUE</t>
@@ -770,7 +770,7 @@
     <t>michael.grain.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>hCkGy!HC</t>
+    <t>4ZoW!iNU</t>
   </si>
   <si>
     <t>JAMA ZAMBRANO ROBERTH XAVIER</t>
@@ -779,7 +779,7 @@
     <t>roberth.jama@espam.edu.ec</t>
   </si>
   <si>
-    <t>qINpeFsq</t>
+    <t>4/b4RNzP</t>
   </si>
   <si>
     <t>LARA BONE ANGIE NICOLE</t>
@@ -791,7 +791,7 @@
     <t>angie.lara.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>FolN#JGZ</t>
+    <t>OWEbYnj5</t>
   </si>
   <si>
     <t>LOPEZ DELGADO DAYANA NICOLLE</t>
@@ -800,7 +800,7 @@
     <t>dayana.lopez.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>/GbT!A#u</t>
+    <t>PqEcP#Fl</t>
   </si>
   <si>
     <t>MELO CENTENO HELEN SOFIA</t>
@@ -809,7 +809,7 @@
     <t>helen.melo.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>obAsMhxB</t>
+    <t>Ow!0bA/!</t>
   </si>
   <si>
     <t>MENDOZA ORTEGA ANGELO DANIEL</t>
@@ -818,7 +818,7 @@
     <t>angelo.mendoza.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>ig8QP0MC</t>
+    <t>TwFYb5mD</t>
   </si>
   <si>
     <t>MERO CARRILLO EMELY MILENA</t>
@@ -827,7 +827,7 @@
     <t>emely.mero.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>&amp;IUoZwL4</t>
+    <t>KiA/FagR</t>
   </si>
   <si>
     <t>MITE MENENDEZ GEORGE ISAAC</t>
@@ -836,7 +836,7 @@
     <t>george.mite.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>AsAKHvP2</t>
+    <t>s9vdn66S</t>
   </si>
   <si>
     <t>MONCAYO CAGUA LADY NOHELIA</t>
@@ -845,7 +845,7 @@
     <t>lady.moncayo.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>8?he?ik1</t>
+    <t>ByjVARVP</t>
   </si>
   <si>
     <t>ORMAZA ALCIVAR NOHELIA MILENA</t>
@@ -854,7 +854,7 @@
     <t>nohelia.ormaza.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>oT1R&amp;wT1</t>
+    <t>HiwORefd</t>
   </si>
   <si>
     <t>PANTA CANDELA YONNY ALEXANDER</t>
@@ -863,7 +863,7 @@
     <t>jonny.panta.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>Vnb1rDZS</t>
+    <t>a0qx5bHW</t>
   </si>
   <si>
     <t>QUINATOA SIMALIZA YAJAIRA NICOLE</t>
@@ -872,7 +872,7 @@
     <t>yajaira.quinatoa.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>LEsH4!A#</t>
+    <t>Z?nTBzpD</t>
   </si>
   <si>
     <t>REYNA RAMIREZ SINDY MAHOLY</t>
@@ -881,7 +881,7 @@
     <t>sindy.reyna.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>GYRm4nv/</t>
+    <t>BvjqpTLQ</t>
   </si>
   <si>
     <t>RODRIGUEZ ANCHUNDIA LUIS FERNANDO</t>
@@ -890,7 +890,7 @@
     <t>luis.rodriguez.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>LwS5ViMm</t>
+    <t>vgLHco7y</t>
   </si>
   <si>
     <t>SABANDO TUAREZ MILENA BLANCA</t>
@@ -899,7 +899,7 @@
     <t>milena.sabando.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>v3wasYJ!</t>
+    <t>bqbCBseM</t>
   </si>
   <si>
     <t>SALAZAR RAMIREZ YARITZA GABRIELA</t>
@@ -908,7 +908,7 @@
     <t>yaritza.salazar.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>t1g!E6Sz</t>
+    <t>kz55Zpxl</t>
   </si>
   <si>
     <t>SHIGUANGO AGUINDA KATTY MIRELLA</t>
@@ -917,7 +917,7 @@
     <t>katty.shiguango.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>yDGhZXXW</t>
+    <t>94x/nOc#</t>
   </si>
   <si>
     <t>VACA MORALES JOSE EDUARDO</t>
@@ -926,7 +926,7 @@
     <t>jose.vaca.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>BqQpVmrB</t>
+    <t>5oTqVs9/</t>
   </si>
   <si>
     <t>VELASQUEZ MEJIA ARIANNA ELIZABETH</t>
@@ -935,7 +935,7 @@
     <t>arianna.velasquez.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>uIPJ&amp;4JS</t>
+    <t>wNLNhEly</t>
   </si>
   <si>
     <t>VELEZ CEDEÑO YANDRY ALAIN</t>
@@ -944,7 +944,7 @@
     <t>yandry.velez.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>DH38WXxn</t>
+    <t>GpeyKFek</t>
   </si>
   <si>
     <t>VERA ZAMORA DIXON YAIR</t>
@@ -953,7 +953,7 @@
     <t>dixon.vera.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>lJdaxHNH</t>
+    <t>b5Z/a#EQ</t>
   </si>
   <si>
     <t>ZAMBRANO FORTIS RICARDO MIGUEL</t>
@@ -962,7 +962,7 @@
     <t>ricardo.zambrano.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>pf4UfK7P</t>
+    <t>Azg/4rs5</t>
   </si>
   <si>
     <t>ALVARADO DUEÑAS KARELYS VANESSA</t>
@@ -971,7 +971,7 @@
     <t>karelys.alvarado.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>KP?FrL2&amp;</t>
+    <t>1g6XPEht</t>
   </si>
   <si>
     <t>ANDRADE ILES ALVIERY JAHIR</t>
@@ -983,7 +983,7 @@
     <t>alviery.andrade.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>VCszPM30</t>
+    <t>j7HcfS5R</t>
   </si>
   <si>
     <t>ARTEAGA RAMOS DIEGO ALEJANDRO</t>
@@ -992,7 +992,7 @@
     <t>diego.arteaga.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>gFuc&amp;bOx</t>
+    <t>E#hy?4d0</t>
   </si>
   <si>
     <t>BARREIRO INTRIAGO STEFANY PIERINA</t>
@@ -1001,7 +1001,7 @@
     <t>stefany.barreiro.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>JBAVv2!Q</t>
+    <t>8sCFVNGU</t>
   </si>
   <si>
     <t>BRAVO QUINTERO SARA NICOLE</t>
@@ -1013,7 +1013,7 @@
     <t>sara.bravo.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>uWEpuT?K</t>
+    <t>bT79iJlr</t>
   </si>
   <si>
     <t>CABALLERO MUÑOZ STEVEN FABRICIO</t>
@@ -1022,7 +1022,7 @@
     <t>steven.caballero.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>dpUCa3OH</t>
+    <t>yIb2rzSC</t>
   </si>
   <si>
     <t>CARRASCO VERA LUCAS JOSUE</t>
@@ -1031,7 +1031,7 @@
     <t>lucas.carrasco.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>EopJlX2C</t>
+    <t>zn/s!BUa</t>
   </si>
   <si>
     <t>CEDEÑO MURILLO KENNER STEVEN</t>
@@ -1040,7 +1040,7 @@
     <t>kenner.cedeno.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>1MrSqHcL</t>
+    <t>bjM49r90</t>
   </si>
   <si>
     <t>CUERO PAZMIÑO EMMANUEL JOSUE</t>
@@ -1049,7 +1049,7 @@
     <t>emmanuel.cuero.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>/EDXS7Rp</t>
+    <t>A3rPqWGY</t>
   </si>
   <si>
     <t>LADINES CASTRO MIRKA DARLISHA</t>
@@ -1061,7 +1061,7 @@
     <t>mirka.ladines.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>ewdyXs88</t>
+    <t>SvLoK&amp;xU</t>
   </si>
   <si>
     <t>LARA FRANCO MICHAEL ARGEL</t>
@@ -1073,7 +1073,7 @@
     <t>michael.lara.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>Um#&amp;q255</t>
+    <t>4qfIv8r4</t>
   </si>
   <si>
     <t>LEYTHON QUIÑONEZ JEIMY SILVANA</t>
@@ -1085,7 +1085,7 @@
     <t>jeimy.leython.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>ruitmmjF</t>
+    <t>o3?f4ogI</t>
   </si>
   <si>
     <t>LOOR LOOR GENESIS DANIELA</t>
@@ -1094,7 +1094,7 @@
     <t>genesis.loor.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>!Pw9R78a</t>
+    <t>FM5NK&amp;tg</t>
   </si>
   <si>
     <t>MATAMBA GUANGA THALIA VALERIA</t>
@@ -1106,7 +1106,7 @@
     <t>thalia.matamba.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>rC0S!!3I</t>
+    <t>j#MLwz1U</t>
   </si>
   <si>
     <t>MENDOZA DE LA CRUZ MARTHA DANIELA</t>
@@ -1115,7 +1115,7 @@
     <t>martha.mendoza.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>9NmJBe15</t>
+    <t>6HqnzTPQ</t>
   </si>
   <si>
     <t>MINOTA BORJA ALEXANDER JAHIR</t>
@@ -1127,7 +1127,7 @@
     <t>alexander.minota.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>vmXGR7YZ</t>
+    <t>4L5PcSCL</t>
   </si>
   <si>
     <t>NAVIA LOOR JOSE EFRAIN</t>
@@ -1136,7 +1136,7 @@
     <t>jose.navia.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>HbDVS5O7</t>
+    <t>FARfGAGf</t>
   </si>
   <si>
     <t>PILATAXI UTRERAS KATHERIN JULIETH</t>
@@ -1145,7 +1145,7 @@
     <t>katherin.pilataxi.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>9BzfHFlU</t>
+    <t>HrS/9j0q</t>
   </si>
   <si>
     <t>PINARGOTE CARREÑO FELIX JOEL</t>
@@ -1154,7 +1154,7 @@
     <t>felix.pinargote.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>zwt21Bcm</t>
+    <t>7RRmU5dl</t>
   </si>
   <si>
     <t>PONCE ZAMBRANO ARIANA JESSENIA</t>
@@ -1163,7 +1163,7 @@
     <t>ariana.ponce.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>0Z8K&amp;Re2</t>
+    <t>dAgm1Z5f</t>
   </si>
   <si>
     <t>QUINATOA SIMALIZA KELLY MARIUXI</t>
@@ -1172,7 +1172,7 @@
     <t>kelly.quinatoa.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>du8Y49LX</t>
+    <t>zN88F/zl</t>
   </si>
   <si>
     <t>ROSADO ROSADO JOEL JESUS</t>
@@ -1181,7 +1181,7 @@
     <t>joel.rosado.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>aK5nBp#j</t>
+    <t>XIJ8yFRq</t>
   </si>
   <si>
     <t>SANMARTIN TAPIA CARMEN EDITH</t>
@@ -1190,7 +1190,7 @@
     <t>carmen.sanmartin.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>wmYLC37u</t>
+    <t>tW?GIbp5</t>
   </si>
   <si>
     <t>SAYAY DAGUA JOSELYN NICOL</t>
@@ -1202,7 +1202,7 @@
     <t>joselyn.sayay.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>VRAHf5HY</t>
+    <t>n6n3GPS8</t>
   </si>
   <si>
     <t>SOLORZANO PAZMIÑO DECCY DANIELA</t>
@@ -1211,7 +1211,7 @@
     <t>deccy.solorzano.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>bqden&amp;vv</t>
+    <t>obuxndLb</t>
   </si>
   <si>
     <t>VERGARA ZAMBRANO MATIAS ALEXANDER</t>
@@ -1220,7 +1220,7 @@
     <t>matias.vergara.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>QZsGYIf8</t>
+    <t>fe7sBZA?</t>
   </si>
   <si>
     <t>ZAMBRANO INTRIAGO FRAYDA JESSENIA</t>
@@ -1229,7 +1229,7 @@
     <t>frayda.zambrano.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>XvF78CYJ</t>
+    <t>ODFktrdl</t>
   </si>
   <si>
     <t>ZAMBRANO VALAREZO ANDREA LISBETH</t>
@@ -1238,7 +1238,7 @@
     <t>andrea.zambrano.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>eJNlhwyM</t>
+    <t>R4GZffN1</t>
   </si>
   <si>
     <t>AGUAS MARTINEZ KEVIN SNAIDER</t>
@@ -1247,7 +1247,7 @@
     <t>kevin.aguas@espam.edu.ec</t>
   </si>
   <si>
-    <t>Ri0jk2So</t>
+    <t>?VNc6bi1</t>
   </si>
   <si>
     <t>ANDRADE GARCIA LUZ CRUCELINA</t>
@@ -1256,7 +1256,7 @@
     <t>luz.andrade.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>NCqV!Ji3</t>
+    <t>Lrd23D2X</t>
   </si>
   <si>
     <t>BARBERAN MERO HELEN ADRIANA</t>
@@ -1265,7 +1265,7 @@
     <t>helen.barberan.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>6!iF&amp;0az</t>
+    <t>#s1qb?OA</t>
   </si>
   <si>
     <t>BARROS ZAMBRANO DANIEL ANGEL</t>
@@ -1274,7 +1274,7 @@
     <t>daniel.barros.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>d&amp;#vMGR#</t>
+    <t>A?nfrakj</t>
   </si>
   <si>
     <t>BASURTO ZAMBRANO CARLOS RAUL</t>
@@ -1283,7 +1283,7 @@
     <t>carlos.basurto.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>qH6&amp;4jU3</t>
+    <t>CjGy6EU7</t>
   </si>
   <si>
     <t>BRAVO BRAVO ANTHONY ADEMIR</t>
@@ -1292,7 +1292,7 @@
     <t>anthony.bravo.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>w0rR5rxl</t>
+    <t>9?FJu5hM</t>
   </si>
   <si>
     <t>CANTOS VERA ANGELA AUXILIADORA</t>
@@ -1301,7 +1301,7 @@
     <t>angela.cantos.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>StT#GK8?</t>
+    <t>1m8Nf4SS</t>
   </si>
   <si>
     <t>CASTRO BOLAÑO FANNY TATIANA</t>
@@ -1310,7 +1310,7 @@
     <t>fanny.castro.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>tXIKnhyH</t>
+    <t>WFRDENlP</t>
   </si>
   <si>
     <t>CASTRO SALTOS MATTEWS FARID</t>
@@ -1319,7 +1319,7 @@
     <t>mattews.castro.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>xbPJuC#U</t>
+    <t>SrIcWmE?</t>
   </si>
   <si>
     <t>CHANCAY RADE ANTONY GABRIEL</t>
@@ -1328,7 +1328,7 @@
     <t>antony.chancay@espam.edu.ec</t>
   </si>
   <si>
-    <t>D0kK#Eml</t>
+    <t>lqy57nTP</t>
   </si>
   <si>
     <t>COBEÑA GARCIA YOMAYRA ALEXANDRA</t>
@@ -1337,7 +1337,7 @@
     <t>yomayra.cobena.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>E!/23oSG</t>
+    <t>Z?efbeWI</t>
   </si>
   <si>
     <t>CRUZ ERAZO JOSE MIGUEL</t>
@@ -1346,7 +1346,7 @@
     <t>jose.cruz.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>Zy#O!yWM</t>
+    <t>rhqWrsby</t>
   </si>
   <si>
     <t>GARCIA ANDRADE MARIA ROSA</t>
@@ -1355,7 +1355,7 @@
     <t>maria.garcia.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>bPPQTFN/</t>
+    <t>rRt7XoRW</t>
   </si>
   <si>
     <t>HERNANDEZ LOPEZ LUIS DAVID</t>
@@ -1364,7 +1364,7 @@
     <t>luis.hernandez.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>AMMK4d?r</t>
+    <t>&amp;0N2VuKa</t>
   </si>
   <si>
     <t>LEON FUENTES JONATHAN ALBINO</t>
@@ -1376,7 +1376,7 @@
     <t>jonathan.leon.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>dL7LsdyX</t>
+    <t>ktBEhoDO</t>
   </si>
   <si>
     <t>MACIAS ANCHUNDIA ROBERTO CARLOS</t>
@@ -1385,7 +1385,7 @@
     <t>roberto.macias.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>nmI6BfqK</t>
+    <t>9AnvgAjw</t>
   </si>
   <si>
     <t>MAZA AGREDA KAREN IBETH</t>
@@ -1394,7 +1394,7 @@
     <t>karen.maza.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>nyvz5xlA</t>
+    <t>Wbzb0Dx9</t>
   </si>
   <si>
     <t>MUÑOZ MERA LITZY ALEJANDRA</t>
@@ -1403,7 +1403,7 @@
     <t>litzy.munoz.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>sD7&amp;QFXt</t>
+    <t>#xJvkJwN</t>
   </si>
   <si>
     <t>MUÑOZ MOLINA ANDRY FABIAN</t>
@@ -1412,7 +1412,7 @@
     <t>andry.munoz.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>04e6hnCw</t>
+    <t>u5y5kDTq</t>
   </si>
   <si>
     <t>ORMAZA VALENCIA KEVIN JAVIER</t>
@@ -1424,7 +1424,7 @@
     <t>kevin.ormaza.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>?Omo/QGu</t>
+    <t>fpsZS#kS</t>
   </si>
   <si>
     <t>PAZMIÑO PINCAY NAYELLY AGUSTINA</t>
@@ -1433,7 +1433,7 @@
     <t>nayelly.pazmino.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>P28/0yIM</t>
+    <t>IbIoVSN0</t>
   </si>
   <si>
     <t>POZO PONCE DANNY IVAN</t>
@@ -1442,7 +1442,7 @@
     <t>danny.pozo@espam.edu.ec</t>
   </si>
   <si>
-    <t>p6dQgSqg</t>
+    <t>yH3L46/x</t>
   </si>
   <si>
     <t>QUIJANO MEZA MARIANA LISETH</t>
@@ -1451,7 +1451,7 @@
     <t>mariana.quijano.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>oeXUYEk#</t>
+    <t>wcVPmKz#</t>
   </si>
   <si>
     <t>QUIÑONEZ AÑAPA RODRIGO MANUEL</t>
@@ -1463,7 +1463,7 @@
     <t>rodrigo.quinonez.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>g!CsXqj&amp;</t>
+    <t>zmYHgkA9</t>
   </si>
   <si>
     <t>SANTOS ALCIVAR KELVIN YOEL</t>
@@ -1472,7 +1472,7 @@
     <t>kelvin.santos.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>uz4vw3lA</t>
+    <t>9!s77yZl</t>
   </si>
   <si>
     <t>SOLORZANO RODRIGUEZ SANDY</t>
@@ -1481,7 +1481,7 @@
     <t>sandy.solorzano.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>C2krp&amp;mm</t>
+    <t>k5FKMknt</t>
   </si>
   <si>
     <t>TOALA PIN ARIEL ALEJANDRO</t>
@@ -1493,7 +1493,7 @@
     <t>ariel.toala.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>SlVbgs4I</t>
+    <t>Roh0NMA4</t>
   </si>
   <si>
     <t>VEGA INTRIAGO MIGUEL ANGEL</t>
@@ -1502,7 +1502,7 @@
     <t>miguel.vega.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>k9vxURcQ</t>
+    <t>n241uO?Z</t>
   </si>
   <si>
     <t>VELASQUEZ RODRIGUEZ GEMA BELEN</t>
@@ -1511,7 +1511,7 @@
     <t>gema.velasquez.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>LbYFl?YM</t>
+    <t>i4njWk&amp;O</t>
   </si>
   <si>
     <t>VERA MENDOZA MARIA VICTORIA</t>
@@ -1520,7 +1520,7 @@
     <t>maria.veram.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>MBQU&amp;SeJ</t>
+    <t>V3Vqb2cO</t>
   </si>
   <si>
     <t>VERA PALACIOS JORDANO SAUL</t>
@@ -1529,7 +1529,7 @@
     <t>jordano.vera.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>ic541dTx</t>
+    <t>7JOYO35Q</t>
   </si>
   <si>
     <t>ZAMBRANO MERA VALENTINA MONSERRATE</t>
@@ -1538,7 +1538,7 @@
     <t>valentina.zambrano.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>L65aU52F</t>
+    <t>QRkyf903</t>
   </si>
   <si>
     <t>ZAMBRANO QUIMI JUAN GEORGE</t>
@@ -1550,7 +1550,7 @@
     <t>juan.zambrano.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>Yymy4f2z</t>
+    <t>EZiQWG#O</t>
   </si>
   <si>
     <t>ALCIVAR ZAMBRANO GEOMAYRA KATHERINE</t>
@@ -1562,7 +1562,7 @@
     <t>geomayra.alcivar.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>#Zndt&amp;VE</t>
+    <t>OAPy0VBo</t>
   </si>
   <si>
     <t>ANDRADE CASTILLO CLAUDIA VICTORIA</t>
@@ -1571,7 +1571,7 @@
     <t>claudia.andrade.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>ed/qbf6p</t>
+    <t>rNvhoX4!</t>
   </si>
   <si>
     <t>ANGUISACA CUENCA ALEXANDRA CECIBEL</t>
@@ -1580,7 +1580,7 @@
     <t>alexandra.anguisaca.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>XCM&amp;uwVx</t>
+    <t>eAe3iWCN</t>
   </si>
   <si>
     <t>BARIAS GUARACA LESLY NAYHELY</t>
@@ -1589,7 +1589,7 @@
     <t>lesly.barias.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>HB/dX8NE</t>
+    <t>nFmwWpiR</t>
   </si>
   <si>
     <t>BARROS VERA ANGEL DAVID</t>
@@ -1598,7 +1598,7 @@
     <t>angel.barros.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>TrsAQwEZ</t>
+    <t>yHQu7NqB</t>
   </si>
   <si>
     <t>BAZURTO SANTOS KENNIA KATHERINE</t>
@@ -1607,7 +1607,7 @@
     <t>kennia.bazurto.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>2m&amp;ET2Te</t>
+    <t>JLBIoQO6</t>
   </si>
   <si>
     <t>BRAVO BAZURTO GISSELA MARIA</t>
@@ -1616,7 +1616,7 @@
     <t>gissela.bravo.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>xF8WdrF4</t>
+    <t>#VQIa?AS</t>
   </si>
   <si>
     <t>BUSTAMANTE YANEZ ANTHONY MICHEL</t>
@@ -1625,7 +1625,7 @@
     <t>anthony.bustamante.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>/O3q6Jia</t>
+    <t>NRIn6ZHH</t>
   </si>
   <si>
     <t>CASTRO SOLORZANO NIURKA JULIANA</t>
@@ -1634,7 +1634,7 @@
     <t>niurka.castro.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>Om234zbk</t>
+    <t>h&amp;X5wpwd</t>
   </si>
   <si>
     <t>CEDEÑO CEDEÑO YOHANA VANESA</t>
@@ -1643,7 +1643,7 @@
     <t>yohana.cedeno.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>b4W6cJto</t>
+    <t>6MgysMz6</t>
   </si>
   <si>
     <t>CEDEÑO INTRIAGO JEAN PIERRE</t>
@@ -1652,7 +1652,7 @@
     <t>jean.cedeno@espam.edu.ec</t>
   </si>
   <si>
-    <t>NIQBeLNu</t>
+    <t>5Jg3sjtj</t>
   </si>
   <si>
     <t>DELGADO CEVALLOS MARIA JOSE</t>
@@ -1661,7 +1661,7 @@
     <t>maria.delgado.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>iJST1n7S</t>
+    <t>GR3Arbpc</t>
   </si>
   <si>
     <t>ERAZO MORALES GABRIELA ALEJANDRA</t>
@@ -1670,7 +1670,7 @@
     <t>gabriela.erazo.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>96/Devho</t>
+    <t>I4LMYYF2</t>
   </si>
   <si>
     <t>INTRIAGO ZAMBRANO LUIS JOSE</t>
@@ -1679,7 +1679,7 @@
     <t>luis.intriagoz.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>wbnCbcoe</t>
+    <t>UIn9mYOs</t>
   </si>
   <si>
     <t>LOOR ORTIZ YORDY DAVID</t>
@@ -1688,7 +1688,7 @@
     <t>yordy.loor.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>SmNFBi1H</t>
+    <t>jljeUWVT</t>
   </si>
   <si>
     <t>LOZANO GAMEZ THALIA VANESSA</t>
@@ -1700,7 +1700,7 @@
     <t>thalia.lozano.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>yAM?Ujl7</t>
+    <t>jQh94V4g</t>
   </si>
   <si>
     <t>MONTES RODRIGUEZ ROLANDO ANTONIO</t>
@@ -1709,7 +1709,7 @@
     <t>rolando.montes.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>dOimXIFN</t>
+    <t>jvdM?i/R</t>
   </si>
   <si>
     <t>PALMA RENDON ARGENIS ARTURO</t>
@@ -1718,7 +1718,7 @@
     <t>argenis.palma@espam.edu.ec</t>
   </si>
   <si>
-    <t>FXh7LrC9</t>
+    <t>948hFs97</t>
   </si>
   <si>
     <t>PAREDES YUMBILLO KATTY MARGOTH</t>
@@ -1730,7 +1730,7 @@
     <t>katty.paredes.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>fNAhR7jw</t>
+    <t>#H4NFbKY</t>
   </si>
   <si>
     <t>PARRALES DELGADO ALAN SEBASTIAN</t>
@@ -1739,7 +1739,7 @@
     <t>alan.parrales.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>NbgaL9Px</t>
+    <t>g0OaY0Ye</t>
   </si>
   <si>
     <t>PATA CEDEÑO ROSA JUANA</t>
@@ -1751,7 +1751,7 @@
     <t>rosa.pata.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>V6Q/0FOf</t>
+    <t>U9CewJhH</t>
   </si>
   <si>
     <t>RETETE BASARAN KEVIN ALEXANDER</t>
@@ -1760,7 +1760,7 @@
     <t>kevin.retete.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>iWxZiKGi</t>
+    <t>RhLDMH/k</t>
   </si>
   <si>
     <t>ROMAN MACIAS ESTEFANIA ISABEL</t>
@@ -1769,7 +1769,7 @@
     <t>estefania.roman.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>5tj!He/V</t>
+    <t>!xg?01pY</t>
   </si>
   <si>
     <t>SANDOVAL UREÑA FERNANDA DAYANARA</t>
@@ -1781,7 +1781,7 @@
     <t>fernanda.sandoval.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>Z2RLRixN</t>
+    <t>9VV1QDjI</t>
   </si>
   <si>
     <t>SUBIAGA RAMOS LUIS ALEJANDRO</t>
@@ -1790,7 +1790,7 @@
     <t>luis.subiaga.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>WXXirDY1</t>
+    <t>n8R#9MK!</t>
   </si>
   <si>
     <t>VELASQUEZ AVEIGA MARIA JESUS</t>
@@ -1799,7 +1799,7 @@
     <t>maria.velasquez.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>#d8ER5&amp;g</t>
+    <t>WdSNOvav</t>
   </si>
   <si>
     <t>VELEZ CHEME JORDAN ESTEBAN</t>
@@ -1811,7 +1811,7 @@
     <t>jordan.velez.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>6b6VRltS</t>
+    <t>pzRT?DgV</t>
   </si>
   <si>
     <t>VELEZ MENDOZA DARWIN ALEXIS</t>
@@ -1820,7 +1820,7 @@
     <t>darwin.velez.4623@espam.edu.ec</t>
   </si>
   <si>
-    <t>qTyp0iBE</t>
+    <t>X5J6gD1V</t>
   </si>
   <si>
     <t>VERA BARRE RONNY ARISTIDES</t>
@@ -1829,7 +1829,7 @@
     <t>ronny.vera.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>CF??LyAx</t>
+    <t>idvAUK1g</t>
   </si>
   <si>
     <t>ZAMBRANO MACIAS DIEGO ANDRES</t>
@@ -1838,7 +1838,7 @@
     <t>diego.zambrano.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>ge41uMDm</t>
+    <t>rZ!epUSt</t>
   </si>
   <si>
     <t>ZAMBRANO REYNA YERSY ENRIQUE</t>
@@ -1847,7 +1847,7 @@
     <t>yersy.zambrano.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>8HEOHNbI</t>
+    <t>OTSs8&amp;mu</t>
   </si>
   <si>
     <t>CARDENAS MIELES CRISTHYAN ALBERTO</t>
@@ -1856,7 +1856,7 @@
     <t>cristhyan.cardenas.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>dbxraS6D</t>
+    <t>gqPX2SiN</t>
   </si>
   <si>
     <t>CASTRO CARRERA JUAN CARLOS</t>
@@ -1865,7 +1865,7 @@
     <t>juan.castro.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>TnVUGSUf</t>
+    <t>t37XSmCO</t>
   </si>
   <si>
     <t>CHAVEZ MIRANDA ANTHONY MIGUEL</t>
@@ -1874,7 +1874,7 @@
     <t>anthony.chavez@espam.edu.ec</t>
   </si>
   <si>
-    <t>az3qVyL3</t>
+    <t>f8rmen!/</t>
   </si>
   <si>
     <t>CUSME ZAMBRANO MICHAEL RICHARD</t>
@@ -1883,7 +1883,7 @@
     <t>michael.cusme.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>P!QifBtI</t>
+    <t>QxGe4FNx</t>
   </si>
   <si>
     <t>GILER SALAZAR CARLOS IGNACIO</t>
@@ -1892,7 +1892,7 @@
     <t>carlos.giler@espam.edu.ec</t>
   </si>
   <si>
-    <t>yltb99Qz</t>
+    <t>WaQJsi89</t>
   </si>
   <si>
     <t>HERNANDEZ DIAZ MARIA JOSE</t>
@@ -1904,7 +1904,7 @@
     <t>maria.hernandez.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>RdaPWQDz</t>
+    <t>vE&amp;4kAuI</t>
   </si>
   <si>
     <t>HIDALGO MOREIRA ESTELA NATHALY</t>
@@ -1913,7 +1913,7 @@
     <t>estela.hidalgo.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>nMOh5EI3</t>
+    <t>VrT5C616</t>
   </si>
   <si>
     <t>HIDALGO MOREIRA PIERINA NATHALY</t>
@@ -1922,7 +1922,7 @@
     <t>pierina.hidalgo.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>LZ08Gr6P</t>
+    <t>!pI5w!qg</t>
   </si>
   <si>
     <t>LARA QUIJIJE PAMELA JULISSA</t>
@@ -1931,7 +1931,7 @@
     <t>pamela.lara.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>ygdQu6Fa</t>
+    <t>7#1XiA?a</t>
   </si>
   <si>
     <t>LOOR PITIZACA FRANK ALLAN</t>
@@ -1940,7 +1940,7 @@
     <t>frank.loor.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>f&amp;dugXB1</t>
+    <t>y?/oS6go</t>
   </si>
   <si>
     <t>LOOR ZAMBRANO GEMA STEFANIA</t>
@@ -1949,7 +1949,7 @@
     <t>gema.loor.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>LGi51?wb</t>
+    <t>YqmvTf2J</t>
   </si>
   <si>
     <t>PALACIOS TAPIA CESAR XAVIER</t>
@@ -1958,7 +1958,7 @@
     <t>cesar.palacios.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>8EdiN4WU</t>
+    <t>lbVN3?TF</t>
   </si>
   <si>
     <t>PEÑARRETA LANCHE PILAR MICAELA</t>
@@ -1967,7 +1967,7 @@
     <t>pilar.penarreta.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>mgl77FOu</t>
+    <t>H0yBwWHm</t>
   </si>
   <si>
     <t>PILLASAGUA PINARGOTE INGRID MAYERLI</t>
@@ -1979,7 +1979,7 @@
     <t>ingrid.pillasagua.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>6?evmVD6</t>
+    <t>sF97Vmit</t>
   </si>
   <si>
     <t>QUIJIJE CEDEÑO GEMA LISBETH</t>
@@ -1988,7 +1988,7 @@
     <t>gema.quijije.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>PBJpUcCb</t>
+    <t>0d1vcsYl</t>
   </si>
   <si>
     <t>RUIZ ZAMBRANO VICTOR ANDRES</t>
@@ -1997,7 +1997,7 @@
     <t>victor.ruiz.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>a#DHr9IF</t>
+    <t>nlEPxvA3</t>
   </si>
   <si>
     <t>SALTOS SALAZAR MAYERLY VERONICA</t>
@@ -2009,7 +2009,7 @@
     <t>mayerly.saltos.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>qjtaCjlj</t>
+    <t>#g1MWSet</t>
   </si>
   <si>
     <t>SANTANA PALOMINO FRANKLIN JOHAO</t>
@@ -2018,7 +2018,7 @@
     <t>franklin.santana.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>vDlQNymy</t>
+    <t>Hb7J/Ok5</t>
   </si>
   <si>
     <t>TAFFUR TOASA OLGA MARIA</t>
@@ -2027,7 +2027,7 @@
     <t>olga.taffur@espam.edu.ec</t>
   </si>
   <si>
-    <t>xE4OnnTf</t>
+    <t>IAd&amp;fb2h</t>
   </si>
   <si>
     <t>TOALA MACAY JOSSELYN VALERIA</t>
@@ -2036,7 +2036,7 @@
     <t>josselyn.toala.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>B?s6OPe6</t>
+    <t>#tPop&amp;K0</t>
   </si>
   <si>
     <t>VALLADARES ALCIVAR LUIS EDUARDO</t>
@@ -2045,7 +2045,7 @@
     <t>luis.valladares@espam.edu.ec</t>
   </si>
   <si>
-    <t>UZgmyC/B</t>
+    <t>9asYydOO</t>
   </si>
   <si>
     <t>VERA ZAMBRANO HILTER JOSSBEL</t>
@@ -2054,7 +2054,7 @@
     <t>hilter.vera.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>Et0ulPcm</t>
+    <t>JkSw851f</t>
   </si>
   <si>
     <t>VERGARA TABOADA ROMEL ALEXANDER</t>
@@ -2063,7 +2063,7 @@
     <t>romel.vergara@espam.edu.ec</t>
   </si>
   <si>
-    <t>3JgIzNRf</t>
+    <t>3mQbmlnc</t>
   </si>
   <si>
     <t>ZAMBRANO RIVAS NALLELY LISBETH</t>
@@ -2072,7 +2072,7 @@
     <t>nallely.zambrano.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>aeZcRg/m</t>
+    <t>aAvSsubP</t>
   </si>
   <si>
     <t>ABAD MIRANDA KENYA ESTEFANIA</t>
@@ -2084,7 +2084,7 @@
     <t>kenya.abad.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>64xOWPkH</t>
+    <t>P80I?4OC</t>
   </si>
   <si>
     <t>ALAVA MORENO MILTON ANTERO</t>
@@ -2093,7 +2093,7 @@
     <t>milton.alava@espam.edu.ec</t>
   </si>
   <si>
-    <t>LI2C7yRv</t>
+    <t>fvoNPQnW</t>
   </si>
   <si>
     <t>ALMEIDA CEDEÑO CINDY BELEN</t>
@@ -2102,7 +2102,7 @@
     <t>cindy.almeida.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>GL08/9MD</t>
+    <t>#PJNm4!O</t>
   </si>
   <si>
     <t>ANCHUNDIA VERA JUSTIN JOSE</t>
@@ -2111,7 +2111,7 @@
     <t>justin.anchundia.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>#wFlcGag</t>
+    <t>I9#Ha/?f</t>
   </si>
   <si>
     <t>AYONG PALADINES MARIA FERNANDA</t>
@@ -2120,7 +2120,7 @@
     <t>maria.ayong.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>z5wt!gu#</t>
+    <t>Y7Z3QhuZ</t>
   </si>
   <si>
     <t>BRAVO CEVALLOS MELANY PIERINA</t>
@@ -2129,7 +2129,7 @@
     <t>melany.bravo.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>8LPRCM/5</t>
+    <t>h!aOAWlc</t>
   </si>
   <si>
     <t>CASANOVA SALAZAR ROSEMBERG STEVEN</t>
@@ -2138,7 +2138,7 @@
     <t>rosemberg.casanova@espam.edu.ec</t>
   </si>
   <si>
-    <t>/IAxg4fQ</t>
+    <t>p5Zjv/0l</t>
   </si>
   <si>
     <t>FERNANDEZ TORRES JALENI SCARLETH</t>
@@ -2150,7 +2150,7 @@
     <t>jaleni.fernandez.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>B7EjLkSm</t>
+    <t>ALwQ8V1r</t>
   </si>
   <si>
     <t>HERRERA SABANDO WILLIAMS ANDRES</t>
@@ -2159,7 +2159,7 @@
     <t>williams.herrera.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>Q8dJDENM</t>
+    <t>2QVW0rIK</t>
   </si>
   <si>
     <t>LOPEZ PALADINES EDGAR JOSE</t>
@@ -2168,7 +2168,7 @@
     <t>edgar.lopez.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>3MTh8cuX</t>
+    <t>m0Tp5vlV</t>
   </si>
   <si>
     <t>MEDRANDA GONZALES LINCI YERLEY</t>
@@ -2177,7 +2177,7 @@
     <t>linci.medranda.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>B&amp;iAzknG</t>
+    <t>wZGQbmML</t>
   </si>
   <si>
     <t>MENDIETA GILER JORDY EDUARDO</t>
@@ -2186,7 +2186,7 @@
     <t>jordy.mendieta.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>x37gIsHF</t>
+    <t>xgmI4mhI</t>
   </si>
   <si>
     <t>MORENO VELIZ ALDRIN DAIRY</t>
@@ -2195,7 +2195,7 @@
     <t>aldrin.moreno.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>9UmKe#1r</t>
+    <t>nxHvHVzS</t>
   </si>
   <si>
     <t>MUÑOZ VERA GENESIS LOURDES</t>
@@ -2204,7 +2204,7 @@
     <t>genesis.munoz.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>Bm/jo/Ax</t>
+    <t>h#9c6tNL</t>
   </si>
   <si>
     <t>PLAZA CHOEZ RODOLFO JEAMPIERRE</t>
@@ -2213,7 +2213,7 @@
     <t>rodolfo.plaza.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>CqJWdtRB</t>
+    <t>bitLsoDC</t>
   </si>
   <si>
     <t>PRECIADO MOREIRA PABLO ANTHONY</t>
@@ -2225,7 +2225,7 @@
     <t>pablo.preciado@espam.edu.ec</t>
   </si>
   <si>
-    <t>Xea4#bsD</t>
+    <t>?pOkVBuN</t>
   </si>
   <si>
     <t>SABANDO SALCEDO GENESIS BETZABETH</t>
@@ -2237,7 +2237,7 @@
     <t>genesis.sabando.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>scMo!paG</t>
+    <t>Kk8uhBgt</t>
   </si>
   <si>
     <t>SOLEDISPA ZAMBRANO CRISTHINA ISABELA</t>
@@ -2246,7 +2246,7 @@
     <t>cristhina.soledispa.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>Jkc#xR3v</t>
+    <t>kBFHB!zJ</t>
   </si>
   <si>
     <t>SOLORZANO RODRIGUEZ EVELYN AGUSTINA</t>
@@ -2255,7 +2255,7 @@
     <t>evelyn.solorzanor@espam.edu.ec</t>
   </si>
   <si>
-    <t>MNSW#59G</t>
+    <t>qyxR6/P1</t>
   </si>
   <si>
     <t>VERA AGUAS KELVIN JEAN PIERRE</t>
@@ -2264,7 +2264,7 @@
     <t>kelvin.vera@espam.edu.ec</t>
   </si>
   <si>
-    <t>U2f2AsLt</t>
+    <t>##1yMsj5</t>
   </si>
   <si>
     <t>VERA LOOR DENYS ESTEFANIA</t>
@@ -2273,7 +2273,7 @@
     <t>denys.vera.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>kDkyRzrl</t>
+    <t>RVn8OHhH</t>
   </si>
   <si>
     <t>VINCES PIN MARIA FERNANDA</t>
@@ -2282,7 +2282,7 @@
     <t>maria.vinces.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>iu54QhTK</t>
+    <t>WuGPjDZa</t>
   </si>
   <si>
     <t>ZAMBRANO ZAMBRANO MARIA BELEN</t>
@@ -2291,7 +2291,7 @@
     <t>mariab.zambranoz.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>B8PZ/0lS</t>
+    <t>86pWGemJ</t>
   </si>
   <si>
     <t>ALCIVAR ZAMBRANO DIANA ESTHER</t>
@@ -2300,7 +2300,7 @@
     <t>diana.alcivar.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>bi&amp;p6VND</t>
+    <t>!nNcVCLD</t>
   </si>
   <si>
     <t>ALVAREZ BORJA ANGHELO JOSUE</t>
@@ -2309,7 +2309,7 @@
     <t>anghelo.alvarez.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>GRNb?B33</t>
+    <t>cNjKzYEA</t>
   </si>
   <si>
     <t>BRAVO MENDOZA ALBERDY JAVIER</t>
@@ -2318,7 +2318,7 @@
     <t>alberdy.bravo@espam.edu.ec</t>
   </si>
   <si>
-    <t>A&amp;e5?!fq</t>
+    <t>Jop4KYUI</t>
   </si>
   <si>
     <t>GARCIA PARRAGA FATIMA MARIA</t>
@@ -2327,7 +2327,7 @@
     <t>fatima.garcia.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>!vzPMXiY</t>
+    <t>W45qLpp0</t>
   </si>
   <si>
     <t>GRACIA PRATT WILINTON JOSUE</t>
@@ -2339,7 +2339,7 @@
     <t>wilinton.gracia.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>g4EO1g6L</t>
+    <t>qTEIsH##</t>
   </si>
   <si>
     <t>MARRETT BEDOYA MISHELLE MARCELA</t>
@@ -2351,7 +2351,7 @@
     <t>mishelle.marrett.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>BIiM/uv6</t>
+    <t>F1M/Mk/N</t>
   </si>
   <si>
     <t>MERA CASTILLO NATHALY VIRGINIA</t>
@@ -2360,7 +2360,7 @@
     <t>nathaly.mera.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>a/#2&amp;B/P</t>
+    <t>5rSYVsV1</t>
   </si>
   <si>
     <t>ROSERO VERA LUIS ANDRES</t>
@@ -2369,7 +2369,7 @@
     <t>luis.rosero@espam.edu.ec</t>
   </si>
   <si>
-    <t>&amp;rQNTUz3</t>
+    <t>qbZU3mSS</t>
   </si>
   <si>
     <t>SANTISTEBAN BENAVIDES JOSUE ROMARIO</t>
@@ -2378,7 +2378,7 @@
     <t>josue.santisteban.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>HjOoK3#v</t>
+    <t>vFFFS0Ns</t>
   </si>
   <si>
     <t>SOLORZANO CUSME GEMA JULIANA</t>
@@ -2387,7 +2387,7 @@
     <t>gemaju.solorzano@espam.edu.ec</t>
   </si>
   <si>
-    <t>t8Ii#AXy</t>
+    <t>&amp;9A6BMQ#</t>
   </si>
   <si>
     <t>TORRES PINARGOTE MAHOLY</t>
@@ -2396,7 +2396,7 @@
     <t>maholy.torres.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>mxgT?J?s</t>
+    <t>J&amp;&amp;Mb8yy</t>
   </si>
   <si>
     <t>ZAMBRANO BRAVO LEANDRO ISMAEL</t>
@@ -2405,7 +2405,7 @@
     <t>leandro.zambrano.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>zyQtP1o7</t>
+    <t>&amp;z3K?Nf4</t>
   </si>
   <si>
     <t>ZAMBRANO GARCIA HENRY ARTURO</t>
@@ -2414,7 +2414,7 @@
     <t>henry.zambrano.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>hfEf4Dc#</t>
+    <t>Dsm3?s8H</t>
   </si>
   <si>
     <t>BARRE PARRAGA BETSY BEATRIZ</t>
@@ -2423,7 +2423,7 @@
     <t>betsy.barre.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>3hVfOueg</t>
+    <t>#FViM8?N</t>
   </si>
   <si>
     <t>CEDEÑO CEDEÑO CAMILA PATRICIA</t>
@@ -2435,7 +2435,7 @@
     <t>camila.cedeno.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>#QNUi9B1</t>
+    <t>to#lkysf</t>
   </si>
   <si>
     <t>CEDEÑO SOLORZANO ANTHONY STEVEN</t>
@@ -2444,7 +2444,7 @@
     <t>anthony.cedenos.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>Xdtvii#K</t>
+    <t>UWON33wK</t>
   </si>
   <si>
     <t>CEDEÑO TUAREZ ANGIE LISSETTE</t>
@@ -2453,7 +2453,7 @@
     <t>angie.cedeno@espam.edu.ec</t>
   </si>
   <si>
-    <t>rd0/UTLp</t>
+    <t>FP6&amp;4NM#</t>
   </si>
   <si>
     <t>CHAVEZ LANDAZURI JACKSON JAIR</t>
@@ -2465,7 +2465,7 @@
     <t>jackson.chavez.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>?yP195ks</t>
+    <t>ICd5aM/V</t>
   </si>
   <si>
     <t>CHICA MOREIRA MARIA FERNANDA</t>
@@ -2474,7 +2474,7 @@
     <t>maria.chica.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>Si0M01&amp;u</t>
+    <t>YJqkiFEO</t>
   </si>
   <si>
     <t>GARCIA ZAMBRANO WENDY YAMILETH</t>
@@ -2483,7 +2483,7 @@
     <t>wendy.garcia.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>8zA?YKPo</t>
+    <t>##kC8szG</t>
   </si>
   <si>
     <t>GARZON CEDEÑO FRANCESCO RUBEN</t>
@@ -2492,7 +2492,7 @@
     <t>francesco.garzon.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>fyznCSrh</t>
+    <t>?mc7KAFS</t>
   </si>
   <si>
     <t>GUERRERO CEDEÑO MICHAEL JORDY</t>
@@ -2501,7 +2501,7 @@
     <t>michael.guerrero.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>eO#ltbxF</t>
+    <t>0tMYF4Z#</t>
   </si>
   <si>
     <t>MEDRANDA GONZALES CRISTHIAN JOSE</t>
@@ -2510,7 +2510,7 @@
     <t>cristhian.medranda@espam.edu.ec</t>
   </si>
   <si>
-    <t>TLw2mmvA</t>
+    <t>Uctr5Az?</t>
   </si>
   <si>
     <t>ORELLANA ANCHUNDIA JESUS MIGUEL</t>
@@ -2519,7 +2519,7 @@
     <t>jesus.orellana@espam.edu.ec</t>
   </si>
   <si>
-    <t>MILfx6Ak</t>
+    <t>pW1Oa7K5</t>
   </si>
   <si>
     <t>ORTIZ GOMEZ EDUARDO ANDRES</t>
@@ -2528,7 +2528,7 @@
     <t>eduardo.ortiz@espam.edu.ec</t>
   </si>
   <si>
-    <t>1DZ12N8o</t>
+    <t>CAoCkn0V</t>
   </si>
   <si>
     <t>PAZMIÑO MERA SHANDE ALEXANDER</t>
@@ -2537,7 +2537,7 @@
     <t>shande.pazmino.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>s&amp;GaUGSg</t>
+    <t>doxUtjuR</t>
   </si>
   <si>
     <t>PEÑARRIETA BAZURTO ERICK ANDRES</t>
@@ -2546,7 +2546,7 @@
     <t>erick.penarrieta@espam.edu.ec</t>
   </si>
   <si>
-    <t>6y/ZUOuW</t>
+    <t>2Wq5rfYq</t>
   </si>
   <si>
     <t>RIERA GAVILANES IZHURY MILLENYTH</t>
@@ -2558,7 +2558,7 @@
     <t>izhury.riera.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>KIm1q&amp;4n</t>
+    <t>mWF1OaN!</t>
   </si>
   <si>
     <t>RIVERA CEDEÑO RIVALDO JOSE</t>
@@ -2570,7 +2570,7 @@
     <t>rivaldo.rivera.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>bGTId7h5</t>
+    <t>avVvvw!U</t>
   </si>
   <si>
     <t>SALDARRIAGA ARTEAGA OMAIRA MARIBI</t>
@@ -2579,7 +2579,7 @@
     <t>omaira.saldarriaga@espam.edu.ec</t>
   </si>
   <si>
-    <t>T05oyve&amp;</t>
+    <t>mSHVTbJ4</t>
   </si>
   <si>
     <t>SANDOVAL MERA NALLELY STEFANIA</t>
@@ -2588,7 +2588,7 @@
     <t>nallely.sandoval.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>v4XZ!fH6</t>
+    <t>D4u4tbrX</t>
   </si>
   <si>
     <t>SUQUI CANGO BRYAN EDUARDO</t>
@@ -2600,7 +2600,7 @@
     <t>bryan.suqui.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>mX&amp;YJ6nw</t>
+    <t>Mfnaplu4</t>
   </si>
   <si>
     <t>VERDUGA ZAMBRANO CARLOS ANDRES</t>
@@ -2609,7 +2609,7 @@
     <t>carlos.verduga.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>WBYakzU4</t>
+    <t>o#&amp;V9qjR</t>
   </si>
   <si>
     <t>ZAMBRANO LARA MARVIN RENE</t>
@@ -2618,7 +2618,7 @@
     <t>marvin.zambrano.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>25LL?P5t</t>
+    <t>DMqdk0zh</t>
   </si>
   <si>
     <t>ZAMBRANO OBANDO KELVIN JOSUE</t>
@@ -2630,7 +2630,7 @@
     <t>kelvin.zambrano.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>tUZRvm!5</t>
+    <t>TvEGplJj</t>
   </si>
   <si>
     <t>ZAPATA QUINCHE ANDREA CAROLINA</t>
@@ -2639,7 +2639,7 @@
     <t>andrea.zapata.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>A#GbogE8</t>
+    <t>bniwlcNr</t>
   </si>
   <si>
     <t>ALMEIDA PEREZ ANGEL FERNANDO</t>
@@ -2648,7 +2648,7 @@
     <t>angel.almeida@espam.edu.ec</t>
   </si>
   <si>
-    <t>Wu4oX3m6</t>
+    <t>NVrq81Hp</t>
   </si>
   <si>
     <t>CEDEÑO PARRAGA MELANY NALLELY</t>
@@ -2657,7 +2657,7 @@
     <t>melany.cedeno.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>y3R/piBx</t>
+    <t>e8/fcKxF</t>
   </si>
   <si>
     <t>CEDEÑO SALVATIERRA JENIFFER ALEJANDRA</t>
@@ -2666,7 +2666,7 @@
     <t>jeniffer.cedenosal@espam.edu.ec</t>
   </si>
   <si>
-    <t>4NKzsxDp</t>
+    <t>VuaFicx8</t>
   </si>
   <si>
     <t>FERNANDEZ ARTEAGA SCHEZNARDA EDITH</t>
@@ -2675,7 +2675,7 @@
     <t>scheznarda.fernandez.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>T/bX!13J</t>
+    <t>s&amp;sM!1mB</t>
   </si>
   <si>
     <t>GANCHOZO VELEZ EMILY JULEXY</t>
@@ -2684,7 +2684,7 @@
     <t>emily.ganchozo.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>!wJwkmBU</t>
+    <t>n0BUGDSM</t>
   </si>
   <si>
     <t>LEON VIZÑAY ROQUE JAVIER</t>
@@ -2696,7 +2696,7 @@
     <t>roque.leon@espam.edu.ec</t>
   </si>
   <si>
-    <t>YQu&amp;Ayh?</t>
+    <t>Rnl4RyzA</t>
   </si>
   <si>
     <t>LOOR LOOR EVELYN YAMILETH</t>
@@ -2705,7 +2705,7 @@
     <t>evelynya.loor@espam.edu.ec</t>
   </si>
   <si>
-    <t>Zf4?0k/#</t>
+    <t>hiDCOWcG</t>
   </si>
   <si>
     <t>LOOR MOREIRA MELANIE NOEMI</t>
@@ -2714,7 +2714,7 @@
     <t>melanie.loorm.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>KKTMTqgJ</t>
+    <t>P/V&amp;7#e6</t>
   </si>
   <si>
     <t>LOPEZ ESTACIO ROSA ANGELICA</t>
@@ -2723,7 +2723,7 @@
     <t>rosa.lopez@espam.edu.ec</t>
   </si>
   <si>
-    <t>O933wTIY</t>
+    <t>oIQea!b!</t>
   </si>
   <si>
     <t>MENDOZA MUÑOZ FLOR ANTONELA</t>
@@ -2732,7 +2732,7 @@
     <t>flor.mendoza.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>Md3&amp;dkUp</t>
+    <t>Pz7eNYih</t>
   </si>
   <si>
     <t>MERELO SOLORZANO NAIDELYN MISHELLE</t>
@@ -2741,7 +2741,7 @@
     <t>naidelyn.merelo.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>1us?m59Y</t>
+    <t>R1vXlNpJ</t>
   </si>
   <si>
     <t>MOREIRA LOOR FABIAN ALEXANDER</t>
@@ -2750,7 +2750,7 @@
     <t>fabian.moreira@espam.edu.ec</t>
   </si>
   <si>
-    <t>F&amp;yfymTt</t>
+    <t>lnDw2uNN</t>
   </si>
   <si>
     <t>PAZMIÑO FALCONES JOSE MIGUEL</t>
@@ -2759,7 +2759,7 @@
     <t>jose.pazmino@espam.edu.ec</t>
   </si>
   <si>
-    <t>q7T6uRkS</t>
+    <t>uJQq5FhS</t>
   </si>
   <si>
     <t>PEÑAFIEL PITA BRITHANNY MICAELA</t>
@@ -2771,7 +2771,7 @@
     <t>brithanny.penafiel.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>ojIyvuxK</t>
+    <t>&amp;QQJ6SD!</t>
   </si>
   <si>
     <t>PINTO PALACIOS JOSE ANTONIO</t>
@@ -2780,7 +2780,7 @@
     <t>jose.pinto@espam.edu.ec</t>
   </si>
   <si>
-    <t>LRTUX!2l</t>
+    <t>b5vY/#IX</t>
   </si>
   <si>
     <t>RENTERIA VALENCIA NEURYS GYSSELA</t>
@@ -2792,7 +2792,7 @@
     <t>neurys.renteria@espam.edu.ec</t>
   </si>
   <si>
-    <t>t?oWKJvp</t>
+    <t>wxlkeO/a</t>
   </si>
   <si>
     <t>RIVAS ZAMBRANO ALISSON KATIUSKA</t>
@@ -2801,7 +2801,7 @@
     <t>alisson.rivas.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>qG0ZF1M&amp;</t>
+    <t>1bp7H1S1</t>
   </si>
   <si>
     <t>TORRES VARGAS KARELIS ANDREINA</t>
@@ -2813,7 +2813,7 @@
     <t>karelis.torres@espam.edu.ec</t>
   </si>
   <si>
-    <t>jJHuyHeU</t>
+    <t>NbLnsawF</t>
   </si>
   <si>
     <t>VALDIVIESO CHUNG DANIEL JAFET</t>
@@ -2822,7 +2822,7 @@
     <t>daniel.valdivieso.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>M4/UzpwL</t>
+    <t>MOiw9MFZ</t>
   </si>
   <si>
     <t>VASCONEZ GONZALEZ FRANCISCO ALESSIO</t>
@@ -2831,7 +2831,7 @@
     <t>francisco.vasconez.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>ctw34Nh3</t>
+    <t>TLE?sJ8n</t>
   </si>
   <si>
     <t>VELEZ ORTEGA BORIS ANDRES</t>
@@ -2840,7 +2840,7 @@
     <t>boris.velez.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>P0pz!zJ#</t>
+    <t>tCXCreCY</t>
   </si>
   <si>
     <t>VERA ESTUPIÑAN BRYAN FRANCISCO</t>
@@ -2849,7 +2849,7 @@
     <t>bryan.vera@espam.edu.ec</t>
   </si>
   <si>
-    <t>iKhEbVLu</t>
+    <t>dHq/jQxl</t>
   </si>
   <si>
     <t>VERA LOOR ARIANA PAOLA</t>
@@ -2858,7 +2858,7 @@
     <t>ariana.vera.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>hQsRfoD?</t>
+    <t>kNfxlKtY</t>
   </si>
   <si>
     <t>ZAMBRANO VEGA AURA ARACELY</t>
@@ -2867,7 +2867,7 @@
     <t>aura.zambranov@espam.edu.ec</t>
   </si>
   <si>
-    <t>CrW55qo3</t>
+    <t>vMy!?mUu</t>
   </si>
   <si>
     <t>ALMEIDA ZAMBRANO HALINTONG VICENTE</t>
@@ -2876,7 +2876,7 @@
     <t>halintong.almeida@espam.edu.ec</t>
   </si>
   <si>
-    <t>dx3V?#M7</t>
+    <t>ZCjbOJni</t>
   </si>
   <si>
     <t>AYALA VILLAFUERTE NAHOMY NAYELY</t>
@@ -2885,7 +2885,7 @@
     <t>nahomy.ayala@espam.edu.ec</t>
   </si>
   <si>
-    <t>V#q8eoFG</t>
+    <t>FFWb5UmO</t>
   </si>
   <si>
     <t>BASURTO CEDEÑO ITALO JORDANO</t>
@@ -2894,7 +2894,7 @@
     <t>italo.basurto.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>nHJmYsYf</t>
+    <t>dT4mm4PO</t>
   </si>
   <si>
     <t>CASTRO TAIPE YERIK LEXANDER</t>
@@ -2903,7 +2903,7 @@
     <t>yerik.castro.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>bQwmMCjr</t>
+    <t>iafeel/7</t>
   </si>
   <si>
     <t>CEDEÑO GARCIA CARLOS PAUL</t>
@@ -2912,7 +2912,7 @@
     <t>carlos.cedeno.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>QE362tX9</t>
+    <t>HLM1W0Hz</t>
   </si>
   <si>
     <t>COBEÑA ZAMBRANO EDIS ARIEL</t>
@@ -2921,7 +2921,7 @@
     <t>edis.cobena@espam.edu.ec</t>
   </si>
   <si>
-    <t>nZ2d5DgD</t>
+    <t>OXuCCvE4</t>
   </si>
   <si>
     <t>CORDOVA MUGUERZA ADRIANA NICOLLE</t>
@@ -2930,7 +2930,7 @@
     <t>adriana.muguersa.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>CqWCS1Q9</t>
+    <t>pU5OiGtQ</t>
   </si>
   <si>
     <t>COTERA PIN MAYERLY DAYANARA</t>
@@ -2939,7 +2939,7 @@
     <t>mayerly.cotera.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>dy6TIVi2</t>
+    <t>p2tMD#qj</t>
   </si>
   <si>
     <t>CUENCA CUSME CECILIA ALEXANDRA</t>
@@ -2948,7 +2948,7 @@
     <t>cecilia.cuenca@espam.edu.ec</t>
   </si>
   <si>
-    <t>#?7Y0!OR</t>
+    <t>VM!2nr5G</t>
   </si>
   <si>
     <t>FERNANDEZ ARTEAGA ANGIE MISHELLE</t>
@@ -2957,7 +2957,7 @@
     <t>angie.fernandez.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>S8/7dTbj</t>
+    <t>P9SZpy?U</t>
   </si>
   <si>
     <t>LATA QUINCHI SANDRA LOURDES</t>
@@ -2966,7 +2966,7 @@
     <t>sandra.lata.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>QvSeTbSa</t>
+    <t>qYlGwMiR</t>
   </si>
   <si>
     <t>MEJICANGO CALLE JAZMIN LISBETH</t>
@@ -2978,7 +2978,7 @@
     <t>jazmin.mejicango.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>HX3dFYPA</t>
+    <t>Y#uWiRBa</t>
   </si>
   <si>
     <t>MENDOZA GANCHOZO DOMENICA NICOLE</t>
@@ -2987,7 +2987,7 @@
     <t>domenica.mendoza.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>lmmY3xpJ</t>
+    <t>!vm#iSrd</t>
   </si>
   <si>
     <t>MOREIRA CEVALLOS NAYELY VANESSA</t>
@@ -2996,7 +2996,7 @@
     <t>nayely.moreira@espam.edu.ec</t>
   </si>
   <si>
-    <t>Cq95ewsR</t>
+    <t>7kMH0d!J</t>
   </si>
   <si>
     <t>MUÑOZ VERA MICHELLE VALENTINA</t>
@@ -3005,7 +3005,7 @@
     <t>michelle.munoz.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>O4gHGUaV</t>
+    <t>F!/2Bu16</t>
   </si>
   <si>
     <t>OLMOS RIVERA CLEOPATRA STEFANIA</t>
@@ -3014,7 +3014,7 @@
     <t>cleopatra.olmos.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>ej4i#s9&amp;</t>
+    <t>/O33#DOC</t>
   </si>
   <si>
     <t>PAREDES RODRIGUEZ GIBELY JARLETH</t>
@@ -3026,7 +3026,7 @@
     <t>gibely.paredes.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>0CC?AZLj</t>
+    <t>4R?hV6FZ</t>
   </si>
   <si>
     <t>PERUGACHI MECIAS GEOVANNY ALEJANDRO</t>
@@ -3035,7 +3035,7 @@
     <t>geovanny.perugachi.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>MUBsQJjN</t>
+    <t>dzS?7QKd</t>
   </si>
   <si>
     <t>PITA MACIAS RUBEN DARIO</t>
@@ -3044,7 +3044,7 @@
     <t>ruben.pita@espam.edu.ec</t>
   </si>
   <si>
-    <t>GobCeepe</t>
+    <t>Di?Syy5q</t>
   </si>
   <si>
     <t>ROSADO QUIROZ JANDRY FABRICIO</t>
@@ -3053,7 +3053,7 @@
     <t>jandry.rosado.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>#4DGK1Aa</t>
+    <t>Z9n?HaHK</t>
   </si>
   <si>
     <t>SANCHEZ CHOEZ BERTHA DOLORES</t>
@@ -3062,7 +3062,7 @@
     <t>bertha.choez.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>h6n6Qt#D</t>
+    <t>UUFlkxFp</t>
   </si>
   <si>
     <t>VALENCIA MARCILLO JENIFFER KAROLINA</t>
@@ -3071,7 +3071,7 @@
     <t>jenifferk.valenciam@espam.edu.ec</t>
   </si>
   <si>
-    <t>E2J5Ndrx</t>
+    <t>uUWlEkTp</t>
   </si>
   <si>
     <t>VELASQUEZ GUADAMUD MARIO DAMIAN</t>
@@ -3080,7 +3080,7 @@
     <t>mario.velasquez@espam.edu.ec</t>
   </si>
   <si>
-    <t>lEgeh/xN</t>
+    <t>bdVRPKMg</t>
   </si>
   <si>
     <t>VELEZ RIVAS JOFFRE GEOVANNY</t>
@@ -3089,7 +3089,7 @@
     <t>joffre.velez.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>wuoJAmGh</t>
+    <t>A/cvq4oo</t>
   </si>
   <si>
     <t>VELEZ ZAMBRANO GEMA BRIGITH</t>
@@ -3098,7 +3098,7 @@
     <t>gema.velez.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>cjyksHxO</t>
+    <t>YqIU/Zx2</t>
   </si>
   <si>
     <t>VERA CEVALLOS CARMEN GISSELLA</t>
@@ -3107,7 +3107,7 @@
     <t>carmen.vera@espam.edu.ec</t>
   </si>
   <si>
-    <t>sqf3QVPS</t>
+    <t>d0fD!gAk</t>
   </si>
   <si>
     <t>VERA SOLORZANO CARLOS NEPTALI</t>
@@ -3116,7 +3116,7 @@
     <t>carlos.veras@espam.edu.ec</t>
   </si>
   <si>
-    <t>PS75/&amp;ik</t>
+    <t>JifLiqay</t>
   </si>
   <si>
     <t>VERA VERA YUSTHYN YARLETH</t>
@@ -3125,7 +3125,7 @@
     <t>yusthyn.vera.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>eTtqC2lt</t>
+    <t>JKupuG5?</t>
   </si>
   <si>
     <t>VIDAL SABANDO MARIA KATHERINE</t>
@@ -3134,7 +3134,7 @@
     <t>maria.vidal.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>ctxcvxoV</t>
+    <t>6rrAZo2U</t>
   </si>
   <si>
     <t>ZAMBRANO ALCIVAR EMILIO JOSE</t>
@@ -3143,7 +3143,7 @@
     <t>emilio.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>LT2PE1NE</t>
+    <t>3Z4TRv3!</t>
   </si>
   <si>
     <t>ZAMBRANO AVEIGA MAYRA ALEXANDRA</t>
@@ -3152,7 +3152,7 @@
     <t>mayra.zambrano.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>ogMK6JY6</t>
+    <t>dQ6YM4h?</t>
   </si>
   <si>
     <t>ZAMBRANO VERA MARIA BEATRIZ</t>
@@ -3161,7 +3161,7 @@
     <t>maria.zambrano.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>0eblBUS1</t>
+    <t>szqoU&amp;z7</t>
   </si>
   <si>
     <t>ALCIVAR RODRIGUEZ STEFANY LISETH</t>
@@ -3170,7 +3170,7 @@
     <t>stefany.alcivar.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>rDAhoLcH</t>
+    <t>Gxh0G&amp;Nz</t>
   </si>
   <si>
     <t>ANGULO GLENN YURANI MAGERLI</t>
@@ -3182,7 +3182,7 @@
     <t>yurani.angulo.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>VwDP3bMF</t>
+    <t>g&amp;kIIBh!</t>
   </si>
   <si>
     <t>ARTEAGA TRIVIÑO CAMILA</t>
@@ -3191,7 +3191,7 @@
     <t>camila.arteaga.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>oE0LKhl3</t>
+    <t>ON2YTX#6</t>
   </si>
   <si>
     <t>BALDERRAMO CABRERA JOSE GERMAN</t>
@@ -3200,7 +3200,7 @@
     <t>jose.balderramo.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>blo5uT2l</t>
+    <t>G49ciuej</t>
   </si>
   <si>
     <t>BRAVO MUÑOZ JEAN MYCKEL</t>
@@ -3209,7 +3209,7 @@
     <t>jean.bravomu@espam.edu.ec</t>
   </si>
   <si>
-    <t>9B!Kpbqa</t>
+    <t>RAx#nqIO</t>
   </si>
   <si>
     <t>BRAVO SANTANA JUNIOR XAVIER</t>
@@ -3218,7 +3218,7 @@
     <t>juniorx.bravos@espam.edu.ec</t>
   </si>
   <si>
-    <t>mZsQvhr/</t>
+    <t>Pr#z&amp;g3o</t>
   </si>
   <si>
     <t>CAGUA RODRIGUEZ NAYELY ANAHI</t>
@@ -3227,7 +3227,7 @@
     <t>nayely.cagua.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>SEO2P01m</t>
+    <t>Td&amp;0GxDe</t>
   </si>
   <si>
     <t>CALDERON RODRIGUEZ FATIMA DANIELA</t>
@@ -3236,7 +3236,7 @@
     <t>fatima.calderon.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>Zw1E5n6q</t>
+    <t>ZD&amp;ACn3V</t>
   </si>
   <si>
     <t>CASTILLO MEJIA MARIA CARLOTA</t>
@@ -3245,7 +3245,7 @@
     <t>maria.castillo.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>i0u4MhG#</t>
+    <t>ZT7i04VJ</t>
   </si>
   <si>
     <t>CEDEÑO CUSME DAYANARA NARCISA</t>
@@ -3254,7 +3254,7 @@
     <t>dayanara.cedeno.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>wTB2KiTV</t>
+    <t>gvszaiLo</t>
   </si>
   <si>
     <t>CELORIO VERA PETER PABLO</t>
@@ -3263,7 +3263,7 @@
     <t>peter.celorio.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>65B!32j!</t>
+    <t>l8kv8Qpq</t>
   </si>
   <si>
     <t>COOL MORENO DIANA ESTHEFANIA</t>
@@ -3272,7 +3272,7 @@
     <t>diana.cool@espam.edu.ec</t>
   </si>
   <si>
-    <t>xc4VbqXJ</t>
+    <t>u2TN4owE</t>
   </si>
   <si>
     <t>DELGADO GARZON PAOLA FERNANDA</t>
@@ -3281,7 +3281,7 @@
     <t>paola.delgadog.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>6Dps8x26</t>
+    <t>&amp;#8aSOqG</t>
   </si>
   <si>
     <t>DOMINGUEZ DOMINGUEZ ROMINA MELISSA</t>
@@ -3290,7 +3290,7 @@
     <t>romina.dominguez@espam.edu.ec</t>
   </si>
   <si>
-    <t>Dc#U0d91</t>
+    <t>UhXJ6g58</t>
   </si>
   <si>
     <t>GARCIA MUÑOZ EDDY SANTIAGO</t>
@@ -3299,7 +3299,7 @@
     <t>eddy.garcia@espam.edu.ec</t>
   </si>
   <si>
-    <t>DMudlZTt</t>
+    <t>gaRMia79</t>
   </si>
   <si>
     <t>GARCIA PONCE LEONELA ANTONELLA</t>
@@ -3308,7 +3308,7 @@
     <t>leonela.garcia.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>WS1638m8</t>
+    <t>#MrN?dGz</t>
   </si>
   <si>
     <t>LOPEZ SOLORZANO YIMMY</t>
@@ -3317,7 +3317,7 @@
     <t>yimmy.lopez@espam.edu.ec</t>
   </si>
   <si>
-    <t>b7Wewurf</t>
+    <t>Aou?rrHa</t>
   </si>
   <si>
     <t>LOPEZ ZAMBRANO JORGE ISAAC</t>
@@ -3326,7 +3326,7 @@
     <t>jorge.lopez.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>!Q41VUS7</t>
+    <t>jSnwS&amp;gi</t>
   </si>
   <si>
     <t>MACIAS GUAGUA MAGERLY THAIS</t>
@@ -3338,7 +3338,7 @@
     <t>magerly.macias.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>gL#xKfQ&amp;</t>
+    <t>8o8cs?&amp;D</t>
   </si>
   <si>
     <t>MARTINEZ SABANDO MARCELO EFRAIN</t>
@@ -3347,7 +3347,7 @@
     <t>marcelo.martinez@espam.edu.ec</t>
   </si>
   <si>
-    <t>WIeN26SW</t>
+    <t>u9Sf/pa8</t>
   </si>
   <si>
     <t>MEDRANDA CEDEÑO IVAN ARTURO</t>
@@ -3356,7 +3356,7 @@
     <t>ivan.medranda@espam.edu.ec</t>
   </si>
   <si>
-    <t>qi#5ElSg</t>
+    <t>A/63TjkQ</t>
   </si>
   <si>
     <t>MENDOZA INTRIAGO KEYLA YAMIRA</t>
@@ -3365,7 +3365,7 @@
     <t>keyla.mendoza@espam.edu.ec</t>
   </si>
   <si>
-    <t>8T!&amp;4Rev</t>
+    <t>tEF1zCgg</t>
   </si>
   <si>
     <t>MENDOZA LOOR MARIAGRACIA</t>
@@ -3374,7 +3374,7 @@
     <t>mariagracia.mendoza@espam.edu.ec</t>
   </si>
   <si>
-    <t>Ef1mAHgM</t>
+    <t>6bbFoPqa</t>
   </si>
   <si>
     <t>MOREIRA VELEZ ANGELICA LISBETH</t>
@@ -3383,7 +3383,7 @@
     <t>angelica.moreira@espam.edu.ec</t>
   </si>
   <si>
-    <t>GDYpM4N9</t>
+    <t>!#Er72jm</t>
   </si>
   <si>
     <t>PATA HERRERA ESTRELLA TATIANA</t>
@@ -3392,7 +3392,7 @@
     <t>estrella.pata.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>wI4&amp;XqwH</t>
+    <t>!RNXAJD2</t>
   </si>
   <si>
     <t>PONCE MIRANDA YOEL ISAIAS</t>
@@ -3401,7 +3401,7 @@
     <t>yoel.ponce@espam.edu.ec</t>
   </si>
   <si>
-    <t>tspdXx&amp;0</t>
+    <t>xjS32lTa</t>
   </si>
   <si>
     <t>RIVAS ALARCON ALISSON MAYERLI</t>
@@ -3413,7 +3413,7 @@
     <t>alisson.rivas@espam.edu.ec</t>
   </si>
   <si>
-    <t>O72IoeVC</t>
+    <t>H2yqXjzF</t>
   </si>
   <si>
     <t>SABANDO VERA EMELY NOEMI</t>
@@ -3425,7 +3425,7 @@
     <t>emely.sabando.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>85L8lEKf</t>
+    <t>9vA73IH6</t>
   </si>
   <si>
     <t>VELASQUEZ ZAMBRANO JUAN DIEGO</t>
@@ -3434,7 +3434,7 @@
     <t>juan.velasquez@espam.edu.ec</t>
   </si>
   <si>
-    <t>QKD#j7ia</t>
+    <t>wnQBcjif</t>
   </si>
   <si>
     <t>ZAMBRANO MENDOZA JOSE LUIS</t>
@@ -3443,7 +3443,7 @@
     <t>jose.zambrano.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>&amp;X7mOEfQ</t>
+    <t>061I29Vv</t>
   </si>
   <si>
     <t>ZAMBRANO PEREZ CARLOS JULIO</t>
@@ -3452,7 +3452,7 @@
     <t>carlos.zambranop@espam.edu.ec</t>
   </si>
   <si>
-    <t>j8k6gemt</t>
+    <t>GkEj/lP7</t>
   </si>
   <si>
     <t>ACHIG GUALACATA EVELIN LISETTE</t>
@@ -3461,7 +3461,7 @@
     <t>evelin.achig@espam.edu.ec</t>
   </si>
   <si>
-    <t>OKdnt&amp;sF</t>
+    <t>kDo?lAw&amp;</t>
   </si>
   <si>
     <t>AGUAS VERA JEICOL MIKE</t>
@@ -3470,7 +3470,7 @@
     <t>jeicol.aguas@espam.edu.ec</t>
   </si>
   <si>
-    <t>xcshXxRH</t>
+    <t>ocwU?hql</t>
   </si>
   <si>
     <t>BRAVO BASURTO JUAN CARLOS</t>
@@ -3479,7 +3479,7 @@
     <t>juan.bravo@espam.edu.ec</t>
   </si>
   <si>
-    <t>iV#5&amp;iPp</t>
+    <t>27vGBXIv</t>
   </si>
   <si>
     <t>CANTOS ZAMBRANO MARIA FERNANDA</t>
@@ -3488,7 +3488,7 @@
     <t>mariaf.cantos@espam.edu.ec</t>
   </si>
   <si>
-    <t>P3sOrIwP</t>
+    <t>j33CUWTI</t>
   </si>
   <si>
     <t>CASTILLO DELGADO LERENY JAMILEX</t>
@@ -3497,7 +3497,7 @@
     <t>lereny.castillo@espam.edu.ec</t>
   </si>
   <si>
-    <t>BwTrtEXq</t>
+    <t>0/1#N/?L</t>
   </si>
   <si>
     <t>CASTILLO JACOME JHON JAIRO</t>
@@ -3506,7 +3506,7 @@
     <t>jhon.castillo@espam.edu.ec</t>
   </si>
   <si>
-    <t>YHEX/v8a</t>
+    <t>SGys4g5W</t>
   </si>
   <si>
     <t>CELORIO MENDOZA MIRIAN ALEJANDRA</t>
@@ -3515,7 +3515,7 @@
     <t>mirian.celorio@espam.edu.ec</t>
   </si>
   <si>
-    <t>bjdNgz3v</t>
+    <t>Zt8X5Chj</t>
   </si>
   <si>
     <t>CHUMO CHAVEZ JANINA BELEN</t>
@@ -3524,7 +3524,7 @@
     <t>janina.chumo@espam.edu.ec</t>
   </si>
   <si>
-    <t>d?Y/m4qt</t>
+    <t>XdrjTF7Z</t>
   </si>
   <si>
     <t>DELGADO LOPEZ MERCEDES ELIZABETH</t>
@@ -3533,7 +3533,7 @@
     <t>mercedes.delgado@espam.edu.ec</t>
   </si>
   <si>
-    <t>?cLSGuUX</t>
+    <t>vFRjd!go</t>
   </si>
   <si>
     <t>ESTEVES OLVERA DIANA MILENA</t>
@@ -3542,7 +3542,7 @@
     <t>diana.esteves@espam.edu.ec</t>
   </si>
   <si>
-    <t>us0Sc#PR</t>
+    <t>pq9ftTjt</t>
   </si>
   <si>
     <t>FALLAIN ZAMBRANO MARIA ANGELICA</t>
@@ -3551,7 +3551,7 @@
     <t>maria.fallain@espam.edu.ec</t>
   </si>
   <si>
-    <t>PCbCThHX</t>
+    <t>9&amp;Q&amp;Oo!B</t>
   </si>
   <si>
     <t>FERNANDEZ CEVALLOS FRANCISCO ESTUARDO</t>
@@ -3560,7 +3560,7 @@
     <t>francisco.fernandez@espam.edu.ec</t>
   </si>
   <si>
-    <t>aSG9ESgE</t>
+    <t>Oizlp/yk</t>
   </si>
   <si>
     <t>HERNANDEZ HERNANDEZ MARIA ZULEMA</t>
@@ -3572,7 +3572,7 @@
     <t>maria.hernandez@espam.edu.ec</t>
   </si>
   <si>
-    <t>yY8zxPA?</t>
+    <t>JOSuvpEL</t>
   </si>
   <si>
     <t>INTRIAGO SOLORZANO LEYDI GABRIELA</t>
@@ -3581,7 +3581,7 @@
     <t>leydi.intriago@espam.edu.ec</t>
   </si>
   <si>
-    <t>4E46GhdR</t>
+    <t>zH3rhbdZ</t>
   </si>
   <si>
     <t>MACIAS LOOR ELIAN RENE</t>
@@ -3590,7 +3590,7 @@
     <t>elian.macias@espam.edu.ec</t>
   </si>
   <si>
-    <t>E!3RYi&amp;A</t>
+    <t>U7piHh?d</t>
   </si>
   <si>
     <t>MACIAS PISCO NACHY MONSERRAT</t>
@@ -3599,7 +3599,7 @@
     <t>nachy.macias@espam.edu.ec</t>
   </si>
   <si>
-    <t>uHp2YIY!</t>
+    <t>sGU#MoWT</t>
   </si>
   <si>
     <t>MERA LOOR JONAYKER REYNALDO</t>
@@ -3608,7 +3608,7 @@
     <t>jonayker.mera@espam.edu.ec</t>
   </si>
   <si>
-    <t>SB8f!?Vu</t>
+    <t>QYca8UqE</t>
   </si>
   <si>
     <t>MOREIRA BASURTO YORDY JOEL</t>
@@ -3617,7 +3617,7 @@
     <t>yordy.moreira@espam.edu.ec</t>
   </si>
   <si>
-    <t>dyn4CUWA</t>
+    <t>7s6Cg6LF</t>
   </si>
   <si>
     <t>MOREIRA MENDOZA MAGDALENA JAMILETH</t>
@@ -3626,7 +3626,7 @@
     <t>magdalena.moreira@espam.edu.ec</t>
   </si>
   <si>
-    <t>LZR18KLy</t>
+    <t>Y6SQoBe3</t>
   </si>
   <si>
     <t>PANTUSIN MUGUERZA ANDREA LISSETH</t>
@@ -3635,7 +3635,7 @@
     <t>andrea.pantusin@espam.edu.ec</t>
   </si>
   <si>
-    <t>CHo?lnn2</t>
+    <t>4TmFcjwv</t>
   </si>
   <si>
     <t>PATIÑO MEJIA MILENA ANAHI</t>
@@ -3644,7 +3644,7 @@
     <t>milena.patino@espam.edu.ec</t>
   </si>
   <si>
-    <t>Ia8#9VkZ</t>
+    <t>y#C0jYr&amp;</t>
   </si>
   <si>
     <t>PICO GARCIA ALLISON JANELY</t>
@@ -3653,7 +3653,7 @@
     <t>allison.pico@espam.edu.ec</t>
   </si>
   <si>
-    <t>yR4!eoIv</t>
+    <t>CTySv&amp;u0</t>
   </si>
   <si>
     <t>POVEDA SANTANA ENZO JAVIER</t>
@@ -3665,7 +3665,7 @@
     <t>enzo.poveda@espam.edu.ec</t>
   </si>
   <si>
-    <t>37&amp;/#zhe</t>
+    <t>6cQNArmH</t>
   </si>
   <si>
     <t>QUIJIJE CEDEÑO NATALY SILVANA</t>
@@ -3674,7 +3674,7 @@
     <t>nataly.quijije@espam.edu.ec</t>
   </si>
   <si>
-    <t>FSbNl4H!</t>
+    <t>U370yPiB</t>
   </si>
   <si>
     <t>ROBALINO DELGADO JORGE DAVID</t>
@@ -3683,7 +3683,7 @@
     <t>jorge.robalino@espam.edu.ec</t>
   </si>
   <si>
-    <t>1H5GyUGV</t>
+    <t>jTFzXf!?</t>
   </si>
   <si>
     <t>SANCHEZ CASTILLO ADRIANA MICAELA</t>
@@ -3692,7 +3692,7 @@
     <t>adriana.sanchez@espam.edu.ec</t>
   </si>
   <si>
-    <t>4HSkCqtm</t>
+    <t>aHAZL7Du</t>
   </si>
   <si>
     <t>SOLORZANO ALAVA TAIRUN FRANCISCO</t>
@@ -3701,7 +3701,7 @@
     <t>tairun.solorzano@espam.edu.ec</t>
   </si>
   <si>
-    <t>hwPJuJ6i</t>
+    <t>IiXz1Z0r</t>
   </si>
   <si>
     <t>SOLORZANO BAILON MARIA GABRIELA</t>
@@ -3710,7 +3710,7 @@
     <t>mariaga.solorzano@espam.edu.ec</t>
   </si>
   <si>
-    <t>TGS##7VQ</t>
+    <t>MLYIAT7v</t>
   </si>
   <si>
     <t>TRUJILLO AGUAS MAYERLI DAYANA</t>
@@ -3719,7 +3719,7 @@
     <t>mayerli.trujillo@espam.edu.ec</t>
   </si>
   <si>
-    <t>fEw9qt6a</t>
+    <t>h/Hc1IZv</t>
   </si>
   <si>
     <t>VERA VERA CINTHIA MARIA</t>
@@ -3728,7 +3728,7 @@
     <t>cinthia.verav@espam.edu.ec</t>
   </si>
   <si>
-    <t>&amp;HFBO6M/</t>
+    <t>/GjAmFCo</t>
   </si>
   <si>
     <t>VIDAL INTRIAGO ANDY YOEL</t>
@@ -3737,7 +3737,7 @@
     <t>andy.vidal@espam.edu.ec</t>
   </si>
   <si>
-    <t>zeWoOVUX</t>
+    <t>2HqVIFd?</t>
   </si>
   <si>
     <t>VINTIMILLA PROAÑO MARIA DE LOURDES</t>
@@ -3746,7 +3746,7 @@
     <t>maria.vintimilla@espam.edu.ec</t>
   </si>
   <si>
-    <t>7prlEc&amp;K</t>
+    <t>7mdd7QMA</t>
   </si>
   <si>
     <t>VITERI SANTOS VINICIO ORLEY</t>
@@ -3755,7 +3755,7 @@
     <t>vinicio.viteri@espam.edu.ec</t>
   </si>
   <si>
-    <t>XwtBTv1e</t>
+    <t>uoB#aFJa</t>
   </si>
   <si>
     <t>ZAMBRANO CANO FRANCISCO JAVIER</t>
@@ -3764,7 +3764,7 @@
     <t>francisco.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>6N3YDGbQ</t>
+    <t>ISmo98Dy</t>
   </si>
   <si>
     <t>ZAMBRANO NAVARRETE ELBA MARIA</t>
@@ -3773,7 +3773,7 @@
     <t>elba.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>cbyF4tdN</t>
+    <t>PvnYHlAN</t>
   </si>
   <si>
     <t>ZAMBRANO ZAMBRANO WENDY GISSELLA</t>
@@ -3782,7 +3782,7 @@
     <t>wendy.zambranoz@espam.edu.ec</t>
   </si>
   <si>
-    <t>8BgVMy9!</t>
+    <t>tMoLpNdq</t>
   </si>
   <si>
     <t>ARANA RUEDA ANGY LISSETH</t>
@@ -3794,7 +3794,7 @@
     <t>angy.arana@espam.edu.ec</t>
   </si>
   <si>
-    <t>GlcjYn0d</t>
+    <t>gKPQ6ejb</t>
   </si>
   <si>
     <t>ARTEAGA VARGAS ANDREA VALERIA</t>
@@ -3803,7 +3803,7 @@
     <t>andrea.arteaga@espam.edu.ec</t>
   </si>
   <si>
-    <t>wDyfR5YK</t>
+    <t>#qNzxc6A</t>
   </si>
   <si>
     <t>BARBERAN SANCHEZ KARLA MICHELLE</t>
@@ -3812,7 +3812,7 @@
     <t>karla.barberan@espam.edu.ec</t>
   </si>
   <si>
-    <t>23g1SErd</t>
+    <t>6u4R#Gt3</t>
   </si>
   <si>
     <t>BAZURTO MANZABA SORAYA STEFANIA</t>
@@ -3821,7 +3821,7 @@
     <t>soraya.bazurto@espam.edu.ec</t>
   </si>
   <si>
-    <t>nao/#t1b</t>
+    <t>FH6/vXNg</t>
   </si>
   <si>
     <t>CAGUA GARCIA ANDRES VIRGILIO</t>
@@ -3830,7 +3830,7 @@
     <t>andres.cagua@espam.edu.ec</t>
   </si>
   <si>
-    <t>mOEBBGMU</t>
+    <t>Jz80XTw8</t>
   </si>
   <si>
     <t>DOMINGUEZ CALDERON JEAN PIERRE</t>
@@ -3839,7 +3839,7 @@
     <t>jean.dominguez@espam.edu.ec</t>
   </si>
   <si>
-    <t>wHlKMkYH</t>
+    <t>ZgdE?iIm</t>
   </si>
   <si>
     <t>ESPINOZA ALCIVAR EVELYN ALEXANDRA</t>
@@ -3848,7 +3848,7 @@
     <t>evelyn.espinoza@espam.edu.ec</t>
   </si>
   <si>
-    <t>IgV1ulQl</t>
+    <t>7zSO2FAY</t>
   </si>
   <si>
     <t>LOOR MORENO DANIEL AGUSTIN</t>
@@ -3857,7 +3857,7 @@
     <t>daniel.loor@espam.edu.ec</t>
   </si>
   <si>
-    <t>855t&amp;jff</t>
+    <t>NHnUY/MM</t>
   </si>
   <si>
     <t>MACIAS PARRALES MEREDITH MARIBEL</t>
@@ -3866,7 +3866,7 @@
     <t>meredith.macias@espam.edu.ec</t>
   </si>
   <si>
-    <t>nurgvGi2</t>
+    <t>D#INE7c?</t>
   </si>
   <si>
     <t>MENDOZA CANCHINGRE BRIGITH MIKAELA</t>
@@ -3875,7 +3875,7 @@
     <t>brigith.mendoza@espam.edu.ec</t>
   </si>
   <si>
-    <t>Pl/YGu7k</t>
+    <t>/2tM3!XD</t>
   </si>
   <si>
     <t>MENDOZA VELEZ JOSE MIGUEL</t>
@@ -3884,7 +3884,7 @@
     <t>josemi.mendoza@espam.edu.ec</t>
   </si>
   <si>
-    <t>ETqGHQ3F</t>
+    <t>gm4!z45b</t>
   </si>
   <si>
     <t>MEZA BRIONES ANTHONY NARCILO</t>
@@ -3893,7 +3893,7 @@
     <t>anthony.meza@espam.edu.ec</t>
   </si>
   <si>
-    <t>j3G&amp;8&amp;bC</t>
+    <t>qRftAfWF</t>
   </si>
   <si>
     <t>MORA ZAMBRANO MARIA LAURA</t>
@@ -3902,7 +3902,7 @@
     <t>maria.mora@espam.edu.ec</t>
   </si>
   <si>
-    <t>#?5ypSly</t>
+    <t>M14gd800</t>
   </si>
   <si>
     <t>NAVARRETE ZAMBRANO ROBIN LUGERIO</t>
@@ -3911,7 +3911,7 @@
     <t>robin.navarrete@espam.edu.ec</t>
   </si>
   <si>
-    <t>cphJmPWK</t>
+    <t>Qzp2Puuz</t>
   </si>
   <si>
     <t>OSTAIZA LOPEZ JOSEPH MANUEL</t>
@@ -3920,7 +3920,7 @@
     <t>josepth.ostaiza@espam.edu.ec</t>
   </si>
   <si>
-    <t>f&amp;14ALrn</t>
+    <t>#oXPg654</t>
   </si>
   <si>
     <t>PARRAGA PARRAGA CARLA ESTEFANIA</t>
@@ -3929,7 +3929,7 @@
     <t>carla.parraga@espam.edu.ec</t>
   </si>
   <si>
-    <t>qnuc2sYS</t>
+    <t>6f8s#5Su</t>
   </si>
   <si>
     <t>PLAZA CABRERA MAYERLY MARIA</t>
@@ -3941,7 +3941,7 @@
     <t>mayerly.plaza@espam.edu.ec</t>
   </si>
   <si>
-    <t>0Bim4S!2</t>
+    <t>b20qYE?8</t>
   </si>
   <si>
     <t>RODRIGUEZ VELIZ LEANDRO MOISES</t>
@@ -3950,7 +3950,7 @@
     <t>leandro.rodriguez@espam.edu.ec</t>
   </si>
   <si>
-    <t>wRulH/CN</t>
+    <t>GPi49EgV</t>
   </si>
   <si>
     <t>SANTANA GUERRERO MARIA RAQUEL</t>
@@ -3959,7 +3959,7 @@
     <t>mariar.santanag@espam.edu.ec</t>
   </si>
   <si>
-    <t>F9RgKCfb</t>
+    <t>qYySj0bV</t>
   </si>
   <si>
     <t>SANTOS SALAZAR JANDRY DAVID</t>
@@ -3968,7 +3968,7 @@
     <t>jandry.santos@espam.edu.ec</t>
   </si>
   <si>
-    <t>cG00XzH7</t>
+    <t>Ir1G6GuD</t>
   </si>
   <si>
     <t>SOLORZANO LOOR KEYLA GEOVANNA</t>
@@ -3977,7 +3977,7 @@
     <t>keyla.solorzano@espam.edu.ec</t>
   </si>
   <si>
-    <t>G41zpNFQ</t>
+    <t>0UKiQcgQ</t>
   </si>
   <si>
     <t>VALENCIA ZAMBRANO VALERIA MERCEDES</t>
@@ -3986,7 +3986,7 @@
     <t>valeria.valencia@espam.edu.ec</t>
   </si>
   <si>
-    <t>v8izKNVS</t>
+    <t>8?qNH5rW</t>
   </si>
   <si>
     <t>VARGAS CHOEZ ALEXIS ELIAN</t>
@@ -3995,7 +3995,7 @@
     <t>alexis.vargas@espam.edu.ec</t>
   </si>
   <si>
-    <t>I4P&amp;USP&amp;</t>
+    <t>dLsdYnUz</t>
   </si>
   <si>
     <t>VELEZ ALMEIDA CARMEN REBECA</t>
@@ -4004,7 +4004,7 @@
     <t>carmen.velez@espam.edu.ec</t>
   </si>
   <si>
-    <t>GpxcGT2V</t>
+    <t>J0#o7sL?</t>
   </si>
   <si>
     <t>VELEZ LEGTON GENESIS YAMILET</t>
@@ -4013,7 +4013,7 @@
     <t>genesisya.velez@espam.edu.ec</t>
   </si>
   <si>
-    <t>3yV&amp;C9J6</t>
+    <t>MysUF4yU</t>
   </si>
   <si>
     <t>VERA BALAREZO MARYAM JANELLA</t>
@@ -4022,7 +4022,7 @@
     <t>maryam.vera@espam.edu.ec</t>
   </si>
   <si>
-    <t>IGaMOT0A</t>
+    <t>T?Ty9ijD</t>
   </si>
   <si>
     <t>VERA SERRANO CARLOS STEFANO</t>
@@ -4031,7 +4031,7 @@
     <t>carlos.verase@espam.edu.ec</t>
   </si>
   <si>
-    <t>bSazsMEx</t>
+    <t>0A?efi4R</t>
   </si>
   <si>
     <t>VIERA BAZURTO JOSE ALEXANDER</t>
@@ -4040,7 +4040,7 @@
     <t>jose.viera@espam.edu.ec</t>
   </si>
   <si>
-    <t>bIikGcNH</t>
+    <t>AWBN?pJc</t>
   </si>
   <si>
     <t>ZAMBRANO ALCIVAR DIEGO JAHIR</t>
@@ -4049,7 +4049,7 @@
     <t>diego.zambranoa@espam.edu.ec</t>
   </si>
   <si>
-    <t>xm!XtWlN</t>
+    <t>v&amp;wk1#zW</t>
   </si>
   <si>
     <t>ZAMBRANO MANZABA MARIA FERNANDA</t>
@@ -4058,7 +4058,7 @@
     <t>mariafer.zambranom@espam.edu.ec</t>
   </si>
   <si>
-    <t>lJqYAMhf</t>
+    <t>ZsnY/WH9</t>
   </si>
   <si>
     <t>ALCIVAR GILER MELANY JULISA</t>
@@ -4067,7 +4067,7 @@
     <t>melany.alcivar@espam.edu.ec</t>
   </si>
   <si>
-    <t>bOcq7KYX</t>
+    <t>bzZ9f9nf</t>
   </si>
   <si>
     <t>ANDRADE ZAMBRANO NATHALY NICOLLE</t>
@@ -4076,7 +4076,7 @@
     <t>nathaly.andrade@espam.edu.ec</t>
   </si>
   <si>
-    <t>vOZNNq!j</t>
+    <t>AdUD&amp;eWY</t>
   </si>
   <si>
     <t>BASURTO MORAN LUIS ALEXANDER</t>
@@ -4085,7 +4085,7 @@
     <t>luis.basurtom@espam.edu.ec</t>
   </si>
   <si>
-    <t>ik#//VLU</t>
+    <t>7/QCP64R</t>
   </si>
   <si>
     <t>BERMELLO VELEZ ANGELA DANIELA</t>
@@ -4094,7 +4094,7 @@
     <t>angela.bermello@espam.edu.ec</t>
   </si>
   <si>
-    <t>TYY9NMhO</t>
+    <t>boAY?O//</t>
   </si>
   <si>
     <t>BRAVO VERA GEMA VIVIANA</t>
@@ -4103,7 +4103,7 @@
     <t>gema.bravov@espam.edu.ec</t>
   </si>
   <si>
-    <t>YFRmBbBQ</t>
+    <t>vWG#Xco2</t>
   </si>
   <si>
     <t>BRIONES INTRIAGO LORENA LUCIA</t>
@@ -4112,7 +4112,7 @@
     <t>lorena.briones@espam.edu.ec</t>
   </si>
   <si>
-    <t>RUlCQHQh</t>
+    <t>DA9Afy?Q</t>
   </si>
   <si>
     <t>BURGOS BRAVO KATHERIN DANIELA</t>
@@ -4121,7 +4121,7 @@
     <t>katherin.burgos@espam.edu.ec</t>
   </si>
   <si>
-    <t>k#05n2uw</t>
+    <t>/#aIIMSq</t>
   </si>
   <si>
     <t>LOOR PARRAGA ROY RUBEN</t>
@@ -4130,7 +4130,7 @@
     <t>roy.loor@espam.edu.ec</t>
   </si>
   <si>
-    <t>pVDD2!Fn</t>
+    <t>RkbtHtP!</t>
   </si>
   <si>
     <t>LOPEZ GANCHOZO LEANDRO ANTONIO</t>
@@ -4139,7 +4139,7 @@
     <t>leandro.lopez@espam.edu.ec</t>
   </si>
   <si>
-    <t>jJVOZlsZ</t>
+    <t>bE#wITBz</t>
   </si>
   <si>
     <t>MACIAS MACIAS JOY ROBERTO</t>
@@ -4148,7 +4148,7 @@
     <t>joy.macias@espam.edu.ec</t>
   </si>
   <si>
-    <t>KGHoYlUG</t>
+    <t>d8eXXDAo</t>
   </si>
   <si>
     <t>MACIAS SILVA CINTHYA MARIANA</t>
@@ -4157,7 +4157,7 @@
     <t>cinthya.macias@espam.edu.ec</t>
   </si>
   <si>
-    <t>nWkbT5g6</t>
+    <t>2WwH#3z7</t>
   </si>
   <si>
     <t>MENDOZA PONCE MARIA ANGELICA</t>
@@ -4166,7 +4166,7 @@
     <t>maria.mendozap@espam.edu.ec</t>
   </si>
   <si>
-    <t>SXfJf#RS</t>
+    <t>#b?ZNTDe</t>
   </si>
   <si>
     <t>MONCAYO LAINEZ KERLY ARIANNA</t>
@@ -4175,7 +4175,7 @@
     <t>kerly.moncayo@espam.edu.ec</t>
   </si>
   <si>
-    <t>jW?wAffW</t>
+    <t>q/ozad?I</t>
   </si>
   <si>
     <t>MONTES POZO JEAN POLL</t>
@@ -4184,7 +4184,7 @@
     <t>jean.montes@espam.edu.ec</t>
   </si>
   <si>
-    <t>BmXXF&amp;I8</t>
+    <t>Ivel69m3</t>
   </si>
   <si>
     <t>MORENO OBANDO ANA BELLA</t>
@@ -4193,7 +4193,7 @@
     <t>ana.moreno@espam.edu.ec</t>
   </si>
   <si>
-    <t>hI#GJWZ6</t>
+    <t>uf22zike</t>
   </si>
   <si>
     <t>NAVARRETE PARODI ERIKA KARINA</t>
@@ -4202,7 +4202,7 @@
     <t>erika.navarrete@espam.edu.ec</t>
   </si>
   <si>
-    <t>8kPnAdkt</t>
+    <t>12g7Y5sJ</t>
   </si>
   <si>
     <t>ORMAZA ESPINOZA JESUS EMILIO</t>
@@ -4211,7 +4211,7 @@
     <t>jesus.ormaza@espam.edu.ec</t>
   </si>
   <si>
-    <t>JsAdpnN8</t>
+    <t>Lh4?q33O</t>
   </si>
   <si>
     <t>ORMAZA FALCONES MARIA ALEJANDRA</t>
@@ -4220,7 +4220,7 @@
     <t>maria.ormaza@espam.edu.ec</t>
   </si>
   <si>
-    <t>UYb65oX9</t>
+    <t>RrDodQnf</t>
   </si>
   <si>
     <t>PARRAGA QUIJIJE GEMA KAROLINA</t>
@@ -4229,7 +4229,7 @@
     <t>gemak.parragaq@espam.edu.ec</t>
   </si>
   <si>
-    <t>djjOr7sz</t>
+    <t>!rlrjHNy</t>
   </si>
   <si>
     <t>PICO TOLA MARCO ANDRES</t>
@@ -4238,7 +4238,7 @@
     <t>marco.pico@espam.edu.ec</t>
   </si>
   <si>
-    <t>eegwcrfy</t>
+    <t>NmYL9XSi</t>
   </si>
   <si>
     <t>PIN NAPA IVANA MAYERLI</t>
@@ -4247,7 +4247,7 @@
     <t>ivana.pin@espam.edu.ec</t>
   </si>
   <si>
-    <t>C9R6c/By</t>
+    <t>xJHuq0wr</t>
   </si>
   <si>
     <t>ROMERO BRAVO JOSE AGUSTIN</t>
@@ -4256,7 +4256,7 @@
     <t>jose.romero@espam.edu.ec</t>
   </si>
   <si>
-    <t>e5GtVHrk</t>
+    <t>jvl9!ZE0</t>
   </si>
   <si>
     <t>SALTOS INTRIAGO NATHALIA MELISSA</t>
@@ -4265,7 +4265,7 @@
     <t>nathalia.saltos@espam.edu.ec</t>
   </si>
   <si>
-    <t>9KbI#xvn</t>
+    <t>SjBrvtWg</t>
   </si>
   <si>
     <t>SALTOS SALTOS MADELYNE PIERINA</t>
@@ -4274,7 +4274,7 @@
     <t>madelyne.saltos@espam.edu.ec</t>
   </si>
   <si>
-    <t>lVE9H5/C</t>
+    <t>L3dtJIj&amp;</t>
   </si>
   <si>
     <t>SOLIS ORTIZ SANTIAGO</t>
@@ -4283,7 +4283,7 @@
     <t>santiago.solis@espam.edu.ec</t>
   </si>
   <si>
-    <t>ZDkubF6!</t>
+    <t>DYFJUMrN</t>
   </si>
   <si>
     <t>SOLORZANO ZAMBRANO GEMA NARCISA</t>
@@ -4292,7 +4292,7 @@
     <t>gema.solorzano@espam.edu.ec</t>
   </si>
   <si>
-    <t>NrGpIWZR</t>
+    <t>62Vehi3b</t>
   </si>
   <si>
     <t>VARGAS SOLORZANO ANDREA DIVINA</t>
@@ -4301,7 +4301,7 @@
     <t>andrea.vargas@espam.edu.ec</t>
   </si>
   <si>
-    <t>GQ?nYCuC</t>
+    <t>lj8&amp;GbvB</t>
   </si>
   <si>
     <t>VELEZ VERA MANUEL ALEXANDER</t>
@@ -4310,7 +4310,7 @@
     <t>manuel.velez@espam.edu.ec</t>
   </si>
   <si>
-    <t>GmDsvOUf</t>
+    <t>FrCa!Yli</t>
   </si>
   <si>
     <t>VELEZ ZAMBRANO ADRIAN DAVID</t>
@@ -4319,7 +4319,7 @@
     <t>adrian.velez@espam.edu.ec</t>
   </si>
   <si>
-    <t>PR/OMGDZ</t>
+    <t>NQY3I7B&amp;</t>
   </si>
   <si>
     <t>YLLESCA CEDEÑO JESUS JONATHAN</t>
@@ -4328,7 +4328,7 @@
     <t>jesus.yllesca@espam.edu.ec</t>
   </si>
   <si>
-    <t>IK/&amp;2#iq</t>
+    <t>XqE9snEy</t>
   </si>
   <si>
     <t>ZAMBRANO CATOTA DERLYN MILENA</t>
@@ -4337,7 +4337,7 @@
     <t>derlyn.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>UetmnEYe</t>
+    <t>uVnpZKt4</t>
   </si>
   <si>
     <t>ZAMBRANO CEDEÑO CHRISTIAN EDUARDO</t>
@@ -4346,7 +4346,7 @@
     <t>christian.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>ANDs2Snl</t>
+    <t>Dps99Wb#</t>
   </si>
   <si>
     <t>ZAMBRANO ROBLES GLENDY MERCEDES</t>
@@ -4355,7 +4355,7 @@
     <t>glendy.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>ySFMS&amp;Jh</t>
+    <t>TVPnYmnl</t>
   </si>
   <si>
     <t>ZAMBRANO ROSADO JORGE ALESSANDRO</t>
@@ -4364,7 +4364,7 @@
     <t>jorge.zambranor@espam.edu.ec</t>
   </si>
   <si>
-    <t>b3wUVD/p</t>
+    <t>wPNafbO1</t>
   </si>
   <si>
     <t>ZAMBRANO VERA WENDY ANAHI</t>
@@ -4373,7 +4373,7 @@
     <t>wendy.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>EUA9yFu?</t>
+    <t>s2aC1l6?</t>
   </si>
   <si>
     <t>ZAMBRANO ZAMBRANO JONATHAN JAVIER</t>
@@ -4382,7 +4382,7 @@
     <t>jonathan.zambranoz@espam.edu.ec</t>
   </si>
   <si>
-    <t>chaFkv#z</t>
+    <t>5fL1wAu7</t>
   </si>
   <si>
     <t>ZAMORA SOLORZANO MAGALY DOLORES</t>
@@ -4391,7 +4391,7 @@
     <t>magaly.zamora@espam.edu.ec</t>
   </si>
   <si>
-    <t>#UIDjpPX</t>
+    <t>tD#7Yh89</t>
   </si>
   <si>
     <t>BRAVO ZAMBRANO MARIA EMILIA</t>
@@ -4400,7 +4400,7 @@
     <t>maria.bravoz@espam.edu.ec</t>
   </si>
   <si>
-    <t>l!Rfcnt0</t>
+    <t>EAUQ16S7</t>
   </si>
   <si>
     <t>CEVALLOS ALVAREZ ARMANDO ENRIQUE</t>
@@ -4409,7 +4409,7 @@
     <t>armando.cevallos@espam.edu.ec</t>
   </si>
   <si>
-    <t>ITx5zjxE</t>
+    <t>QM&amp;uCswZ</t>
   </si>
   <si>
     <t>CEVALLOS VERA ARELIS STEFANIA</t>
@@ -4418,7 +4418,7 @@
     <t>arelis.cevallos@espam.edu.ec</t>
   </si>
   <si>
-    <t>UbdhM8?/</t>
+    <t>aHjcDpdc</t>
   </si>
   <si>
     <t>COOL MERO PATRICIO JAVIER</t>
@@ -4427,7 +4427,7 @@
     <t>patricio.cool@espam.edu.ec</t>
   </si>
   <si>
-    <t>!p?BIXMX</t>
+    <t>l6GGGKL!</t>
   </si>
   <si>
     <t>FRANCO ORELLANA GUADALUPE MONSERRATE</t>
@@ -4436,7 +4436,7 @@
     <t>guadalupe.franco@espam.edu.ec</t>
   </si>
   <si>
-    <t>RwY9xl!7</t>
+    <t>1AeJS7Kj</t>
   </si>
   <si>
     <t>HUERTA BALDIVIEZO JEAN CRISTHIAN</t>
@@ -4445,7 +4445,7 @@
     <t>jean.huerta@espam.edu.ec</t>
   </si>
   <si>
-    <t>pV#&amp;Oq?Y</t>
+    <t>/JgPGFep</t>
   </si>
   <si>
     <t>INTRIAGO CANTOS MARIA JOSE</t>
@@ -4454,7 +4454,7 @@
     <t>maria.intriagoc@espam.edu.ec</t>
   </si>
   <si>
-    <t>d6sD0uu7</t>
+    <t>GrY4kGWV</t>
   </si>
   <si>
     <t>LOOR CANTOS DIANA ISABEL</t>
@@ -4463,7 +4463,7 @@
     <t>diana.loor@espam.edu.ec</t>
   </si>
   <si>
-    <t>zs#rZ?&amp;#</t>
+    <t>nyxrurwV</t>
   </si>
   <si>
     <t>LOOR SEGOVIA EVELYN ADRIANA</t>
@@ -4472,7 +4472,7 @@
     <t>evelyn.loors@espam.edu.ec</t>
   </si>
   <si>
-    <t>t&amp;ZNmSnC</t>
+    <t>bz2bRkxd</t>
   </si>
   <si>
     <t>MEDINA CEDEÑO JULIO CESAR</t>
@@ -4481,7 +4481,7 @@
     <t>julio.medina@espam.edu.ec</t>
   </si>
   <si>
-    <t>UFLB3USt</t>
+    <t>5NI1Xxs1</t>
   </si>
   <si>
     <t>MERA VELEZ ALONDRA GARDENIA</t>
@@ -4490,7 +4490,7 @@
     <t>alondra.mera@espam.edu.ec</t>
   </si>
   <si>
-    <t>Jyi5UUgs</t>
+    <t>6xaIkNuD</t>
   </si>
   <si>
     <t>MUÑOZ ZAMBRANO CARLOS JOSUE</t>
@@ -4499,7 +4499,7 @@
     <t>carlos.munozz@espam.edu.ec</t>
   </si>
   <si>
-    <t>rEeR!/18</t>
+    <t>Wh6RyYVN</t>
   </si>
   <si>
     <t>NAPA RODRIGUEZ JOSE AGUSTIN</t>
@@ -4508,7 +4508,7 @@
     <t>jose.napa@espam.edu.ec</t>
   </si>
   <si>
-    <t>b3F6?!cG</t>
+    <t>ceDDFeXw</t>
   </si>
   <si>
     <t>PALMA CEVALLOS MARIA JOSE</t>
@@ -4517,7 +4517,7 @@
     <t>maria.palma@espam.edu.ec</t>
   </si>
   <si>
-    <t>9NxmXFbr</t>
+    <t>eS&amp;!75Mr</t>
   </si>
   <si>
     <t>PATIÑO MESIAS MARIA GABRIELA</t>
@@ -4526,7 +4526,7 @@
     <t>maria.patino@espam.edu.ec</t>
   </si>
   <si>
-    <t>N9kApxKb</t>
+    <t>O&amp;YU3jP#</t>
   </si>
   <si>
     <t>QUINTANA CAGUA YENIFER YULI</t>
@@ -4535,7 +4535,7 @@
     <t>yenifer.quintana@espam.edu.ec</t>
   </si>
   <si>
-    <t>BzcuVKea</t>
+    <t>r?0Z25h7</t>
   </si>
   <si>
     <t>RIVERA CANTOS MARIA DANIELA</t>
@@ -4544,7 +4544,7 @@
     <t>maria.riverac@espam.edu.ec</t>
   </si>
   <si>
-    <t>8g35ghec</t>
+    <t>/nLgLwQb</t>
   </si>
   <si>
     <t>RODRIGUEZ PINCAY CARLOS BRYAN</t>
@@ -4553,7 +4553,7 @@
     <t>carlos.rodriguezp@espam.edu.ec</t>
   </si>
   <si>
-    <t>TNBe4ERk</t>
+    <t>pKQA86tp</t>
   </si>
   <si>
     <t>SABANDO VELEZ CRISTHIAN ANTHONY</t>
@@ -4562,7 +4562,7 @@
     <t>cristhian.sabando@espam.edu.ec</t>
   </si>
   <si>
-    <t>rGNIwRmL</t>
+    <t>nIqtX9AU</t>
   </si>
   <si>
     <t>SANTANA VERA ANTHONY JAHIR</t>
@@ -4571,7 +4571,7 @@
     <t>anthony.santana@espam.edu.ec</t>
   </si>
   <si>
-    <t>X5wzgSu9</t>
+    <t>LA9onKeW</t>
   </si>
   <si>
     <t>VELEZ ESPINOZA JUNIOR JESUS</t>
@@ -4580,7 +4580,7 @@
     <t>junior.veleze@espam.edu.ec</t>
   </si>
   <si>
-    <t>KOa4uxvz</t>
+    <t>q4AO4dsu</t>
   </si>
   <si>
     <t>VERDUGA ZAMBRANO DIEGO ALEJANDRO</t>
@@ -4589,7 +4589,7 @@
     <t>diego.verduga@espam.edu.ec</t>
   </si>
   <si>
-    <t>Of9!1aa!</t>
+    <t>g3f/OgPc</t>
   </si>
   <si>
     <t>ZAMBRANO VELEZ NAYELHY LILIBETH</t>
@@ -4598,7 +4598,7 @@
     <t>nayelhy.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>O6RPLLhn</t>
+    <t>Frap6bj!</t>
   </si>
   <si>
     <t>ZAMBRANO WITONG KENIA THAIS</t>
@@ -4607,7 +4607,7 @@
     <t>keniath.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>EQ3E6g60</t>
+    <t>zQuEhEfe</t>
   </si>
   <si>
     <t>ANCHUNDIA ANCHUNDIA GEMA LILIBETH</t>
@@ -4616,7 +4616,7 @@
     <t>gema.anchundia@espam.edu.ec</t>
   </si>
   <si>
-    <t>8aVpDaf7</t>
+    <t>Cxa1PZy9</t>
   </si>
   <si>
     <t>ARTEAGA DELGADO JEAN CARLOS</t>
@@ -4625,7 +4625,7 @@
     <t>jean.arteaga@espam.edu.ec</t>
   </si>
   <si>
-    <t>/uNTKlao</t>
+    <t>caFca7OW</t>
   </si>
   <si>
     <t>BARREIRO ZAMBRANO JOSE VICENTE</t>
@@ -4634,7 +4634,7 @@
     <t>jose.barreiro@espam.edu.ec</t>
   </si>
   <si>
-    <t>zZTx/cfd</t>
+    <t>E#/8t!8P</t>
   </si>
   <si>
     <t>BASURTO ALCIVAR DARWIN JESUS</t>
@@ -4643,7 +4643,7 @@
     <t>darwin.basurto@espam.edu.ec</t>
   </si>
   <si>
-    <t>TnK6kXBo</t>
+    <t>gE5llP0r</t>
   </si>
   <si>
     <t>BRAVO CEDEÑO JOSE RODOLFO</t>
@@ -4652,7 +4652,7 @@
     <t>jose.bravo@espam.edu.ec</t>
   </si>
   <si>
-    <t>BxoOxktB</t>
+    <t>Gxz&amp;jgAM</t>
   </si>
   <si>
     <t>BRIONES BERMEO ANTONY JAVIER</t>
@@ -4661,7 +4661,7 @@
     <t>antony.briones@espam.edu.ec</t>
   </si>
   <si>
-    <t>nrtnJIkf</t>
+    <t>wWj?&amp;Kwb</t>
   </si>
   <si>
     <t>CEDEÑO ANCHUNDIA YANDRY ANTONIO</t>
@@ -4673,7 +4673,7 @@
     <t>yandry.cedeno@espam.edu.ec</t>
   </si>
   <si>
-    <t>nAJf1CvY</t>
+    <t>W50CGjK&amp;</t>
   </si>
   <si>
     <t>CEDEÑO PEÑARRIETA DAYANA SOPHIA</t>
@@ -4682,7 +4682,7 @@
     <t>dayanaso.cedeno@espam.edu.ec</t>
   </si>
   <si>
-    <t>5#KujT7k</t>
+    <t>fLFDuOhQ</t>
   </si>
   <si>
     <t>CHAVARRIA PEÑARRIETA MARCOS ALEJANDRO</t>
@@ -4691,7 +4691,7 @@
     <t>marcos.chavarria@espam.edu.ec</t>
   </si>
   <si>
-    <t>qOXLkJNG</t>
+    <t>qnlTCPqW</t>
   </si>
   <si>
     <t>DEL VALLE BASURTO CARMEN MELINA</t>
@@ -4700,7 +4700,7 @@
     <t>carmen.del@espam.edu.ec</t>
   </si>
   <si>
-    <t>Jw7!OXV!</t>
+    <t>g&amp;Hjnrbz</t>
   </si>
   <si>
     <t>GUERRERO BRAVO ANA BELEN</t>
@@ -4709,7 +4709,7 @@
     <t>ana.guerrero@espam.edu.ec</t>
   </si>
   <si>
-    <t>aSZYDL39</t>
+    <t>irrLJhTp</t>
   </si>
   <si>
     <t>GUERRERO GUERRERO JOSSELYN MELISSA</t>
@@ -4718,7 +4718,7 @@
     <t>josselyn.guerrero@espam.edu.ec</t>
   </si>
   <si>
-    <t>rzJCj!ag</t>
+    <t>2AS5lplS</t>
   </si>
   <si>
     <t>INTRIAGO BARBERAN LAURO ANTONIO</t>
@@ -4727,7 +4727,7 @@
     <t>lauro.intriago1@espam.edu.ec</t>
   </si>
   <si>
-    <t>QpaCr2Uv</t>
+    <t>d8fqFZDJ</t>
   </si>
   <si>
     <t>INTRIAGO MORA LENIN ARCENIO</t>
@@ -4736,7 +4736,7 @@
     <t>lenin.intriago@espam.edu.ec</t>
   </si>
   <si>
-    <t>tfgGi0wM</t>
+    <t>#MBR/Xa?</t>
   </si>
   <si>
     <t>MACIAS CALDERON JOSE ARIEL</t>
@@ -4745,7 +4745,7 @@
     <t>jose.macias@espam.edu.ec</t>
   </si>
   <si>
-    <t>EB!o2QFt</t>
+    <t>Gj5a839h</t>
   </si>
   <si>
     <t>MARCILLO VELEZ ANA PATRICIA</t>
@@ -4754,7 +4754,7 @@
     <t>ana.marcillo@espam.edu.ec</t>
   </si>
   <si>
-    <t>7mMWloD3</t>
+    <t>MdHvOf5N</t>
   </si>
   <si>
     <t>MERA FIGUEROA RAYMOND ALEJANDRO</t>
@@ -4763,7 +4763,7 @@
     <t>raymond.mera@espam.edu.ec</t>
   </si>
   <si>
-    <t>x7lxtEW5</t>
+    <t>GDrIMIZY</t>
   </si>
   <si>
     <t>MOREIRA ZAMBRANO JOSSENKA MERCEDES</t>
@@ -4772,7 +4772,7 @@
     <t>jossenka.moreira@espam.edu.ec</t>
   </si>
   <si>
-    <t>pqDyJsOM</t>
+    <t>I&amp;zyn77Z</t>
   </si>
   <si>
     <t>MUÑOZ ALCIVAR CRISTHIAN MARTIN</t>
@@ -4781,7 +4781,7 @@
     <t>cristhian.munoz@espam.edu.ec</t>
   </si>
   <si>
-    <t>MtAei!Zu</t>
+    <t>GiWUo6I0</t>
   </si>
   <si>
     <t>MUÑOZ MACIAS MARIA MAGDALENA</t>
@@ -4790,7 +4790,7 @@
     <t>mariama.munoz@espam.edu.ec</t>
   </si>
   <si>
-    <t>2kdUIuk!</t>
+    <t>DrWWOB5B</t>
   </si>
   <si>
     <t>POLO GANCHOZO ARON ESNEYDER</t>
@@ -4799,7 +4799,7 @@
     <t>aron.polo@espam.edu.ec</t>
   </si>
   <si>
-    <t>D7Cxh?hC</t>
+    <t>ZaC7SC7y</t>
   </si>
   <si>
     <t>RIOS BERMELLO JENIFFER LIZETH</t>
@@ -4808,7 +4808,7 @@
     <t>jeniffer.rios@espam.edu.ec</t>
   </si>
   <si>
-    <t>d6lyxFkl</t>
+    <t>FaNyYsph</t>
   </si>
   <si>
     <t>SALVATIERRA VALDEZ VICKY NICOLLE</t>
@@ -4817,7 +4817,7 @@
     <t>vicky.salvatierra@espam.edu.ec</t>
   </si>
   <si>
-    <t>Yeiu7mSQ</t>
+    <t>duq9L6bq</t>
   </si>
   <si>
     <t>SANTOS VELEZ MONICA GERMANIA</t>
@@ -4826,7 +4826,7 @@
     <t>monica.santos@espam.edu.ec</t>
   </si>
   <si>
-    <t>C2q9D728</t>
+    <t>iXcl5yp/</t>
   </si>
   <si>
     <t>SOLORZANO ZAMBRANO MILENA DENISSE</t>
@@ -4835,7 +4835,7 @@
     <t>milena.solorzano@espam.edu.ec</t>
   </si>
   <si>
-    <t>zrm3rqgk</t>
+    <t>gvVS?K&amp;m</t>
   </si>
   <si>
     <t>TUQUERES TACURI JESSICA MARIBELL</t>
@@ -4844,7 +4844,7 @@
     <t>jessica.tuqueres@espam.edu.ec</t>
   </si>
   <si>
-    <t>PRswsbn?</t>
+    <t>JAaVfajB</t>
   </si>
   <si>
     <t>VERDUGA ERAZO JOSUE SALVADOR</t>
@@ -4853,7 +4853,7 @@
     <t>josue.verduga@espam.edu.ec</t>
   </si>
   <si>
-    <t>GGzaw5Fj</t>
+    <t>Oxjd5JeN</t>
   </si>
   <si>
     <t>YEPEZ VELIZ GENESIS THALIA</t>
@@ -4862,7 +4862,7 @@
     <t>genesis.yepez@espam.edu.ec</t>
   </si>
   <si>
-    <t>luCZWbz5</t>
+    <t>09o/xZeu</t>
   </si>
   <si>
     <t>ZAMBRANO BASURTO ERICK RAFAEL</t>
@@ -4871,7 +4871,7 @@
     <t>erick.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>?ctQoZev</t>
+    <t>J/dqa20J</t>
   </si>
   <si>
     <t>ZAMBRANO MUÑOZ JANDRY DEIVY</t>
@@ -4880,7 +4880,7 @@
     <t>jandry.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>vpMKUAOP</t>
+    <t>ahwpxdpp</t>
   </si>
   <si>
     <t>AYONG VERA JUAN DAVID</t>
@@ -4889,7 +4889,7 @@
     <t>juan.ayong@espam.edu.ec</t>
   </si>
   <si>
-    <t>ne!LwA/i</t>
+    <t>yC9?6Brw</t>
   </si>
   <si>
     <t>BASURTO SALAZAR ANGELA MARGARITA</t>
@@ -4898,7 +4898,7 @@
     <t>angela.basurto@espam.edu.ec</t>
   </si>
   <si>
-    <t>JmkXKGmu</t>
+    <t>#OSpJYJL</t>
   </si>
   <si>
     <t>CASANOVA INTRIAGO ANDREA BELEN</t>
@@ -4910,7 +4910,7 @@
     <t>andrea.casanova@espam.edu.ec</t>
   </si>
   <si>
-    <t>xG9d7V1R</t>
+    <t>ecN6MFSR</t>
   </si>
   <si>
     <t>CHUMO ZAMBRANO ANTONIO BENITO</t>
@@ -4919,7 +4919,7 @@
     <t>antonio.chumo@espam.edu.ec</t>
   </si>
   <si>
-    <t>131f3d2Q</t>
+    <t>fQAqd#bH</t>
   </si>
   <si>
     <t>GARCIA CORTEZ ERIKA STEFANIA</t>
@@ -4928,7 +4928,7 @@
     <t>erika.garcia@espam.edu.ec</t>
   </si>
   <si>
-    <t>AjsDg&amp;7T</t>
+    <t>tV?qc?7/</t>
   </si>
   <si>
     <t>GOMEZ BARRERA JUNIOR LENIN</t>
@@ -4937,7 +4937,7 @@
     <t>junior.gomez@espam.edu.ec</t>
   </si>
   <si>
-    <t>w3dkZsP1</t>
+    <t>ZnTxeFMI</t>
   </si>
   <si>
     <t>LOOR CEDEÑO RICARDO EMANUEL</t>
@@ -4946,7 +4946,7 @@
     <t>ricardo.loor@espam.edu.ec</t>
   </si>
   <si>
-    <t>zGrVvQbh</t>
+    <t>Phm19SSZ</t>
   </si>
   <si>
     <t>LOOR LUCAS EVELYN GUADALUPE</t>
@@ -4958,7 +4958,7 @@
     <t>evelyn.loor@espam.edu.ec</t>
   </si>
   <si>
-    <t>HWc27QaC</t>
+    <t>&amp;yY/36DT</t>
   </si>
   <si>
     <t>LOOR VELASCO FABIANA BELEN</t>
@@ -4970,7 +4970,7 @@
     <t>fabiana.loor@espam.edu.ec</t>
   </si>
   <si>
-    <t>PgoHisWg</t>
+    <t>ojyEZNtx</t>
   </si>
   <si>
     <t>MARTINEZ CEDEÑO JENIFFER ESTEFANIA</t>
@@ -4979,7 +4979,7 @@
     <t>jeniffer.martinez@espam.edu.ec</t>
   </si>
   <si>
-    <t>!BbXbYfH</t>
+    <t>Dk9OvhRW</t>
   </si>
   <si>
     <t>MENDOZA BARRE EDDY ENMANUEL</t>
@@ -4988,7 +4988,7 @@
     <t>eddy.mendoza@espam.edu.ec</t>
   </si>
   <si>
-    <t>cCVmNohK</t>
+    <t>pBRFEynz</t>
   </si>
   <si>
     <t>MURILLO PALACIOS ULICES JAIR</t>
@@ -4997,7 +4997,7 @@
     <t>ulices.murillo@espam.edu.ec</t>
   </si>
   <si>
-    <t>BLTUWQXY</t>
+    <t>Q?kx0YNJ</t>
   </si>
   <si>
     <t>QUIJANO ZAMBRANO JONATHAN ERNESTO</t>
@@ -5006,7 +5006,7 @@
     <t>jonathan.quijano@espam.edu.ec</t>
   </si>
   <si>
-    <t>fVnqYoEG</t>
+    <t>qMH/hmgU</t>
   </si>
   <si>
     <t>ROBLES YORI EFRAIN DAVID</t>
@@ -5015,7 +5015,7 @@
     <t>efrain.robles@espam.edu.ec</t>
   </si>
   <si>
-    <t>XiGS614h</t>
+    <t>wkUP9fxj</t>
   </si>
   <si>
     <t>SABANDO ZAMBRANO FREDDY ANTONIO</t>
@@ -5024,7 +5024,7 @@
     <t>freddy.sabando@espam.edu.ec</t>
   </si>
   <si>
-    <t>dd4FywDv</t>
+    <t>5aDvKiYD</t>
   </si>
   <si>
     <t>SOLORZANO GUERRERO RONALDO WANDERLEY</t>
@@ -5033,7 +5033,7 @@
     <t>ronaldo.solorzano@espam.edu.ec</t>
   </si>
   <si>
-    <t>xPrr3Zsz</t>
+    <t>BsPzzzZu</t>
   </si>
   <si>
     <t>VELEZ CALDERON GENESIS MARIANA</t>
@@ -5045,7 +5045,7 @@
     <t>genesis.velez@espam.edu.ec</t>
   </si>
   <si>
-    <t>IE88ZfO0</t>
+    <t>kW9hotcy</t>
   </si>
   <si>
     <t>ZAMBRANO BALDA JOSE RAMIRO</t>
@@ -5054,7 +5054,7 @@
     <t>josera.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>9xFGo##K</t>
+    <t>6ZWI&amp;9#Y</t>
   </si>
   <si>
     <t>ZAMBRANO CANTOS YENNY ANNABEL</t>
@@ -5063,7 +5063,7 @@
     <t>yenny.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>440saKXr</t>
+    <t>Rh2uDw6a</t>
   </si>
   <si>
     <t>ZAMBRANO LOOR CRISTHIAN LEONARDO</t>
@@ -5072,7 +5072,7 @@
     <t>cristhian.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>WlwnMu8o</t>
+    <t>EH7Ma1jm</t>
   </si>
   <si>
     <t>ZAMBRANO LOOR DIANA STEFANIA</t>
@@ -5081,7 +5081,7 @@
     <t>dianas.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>u22jgEjY</t>
+    <t>CtGfcGwM</t>
   </si>
   <si>
     <t>ZAMBRANO LOOR MARIA EMILIA</t>
@@ -5090,7 +5090,7 @@
     <t>maria.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>juxGgs2!</t>
+    <t>pIqj8knu</t>
   </si>
   <si>
     <t>ZAMBRANO MOREIRA LEONELA ALEJANDRA</t>
@@ -5099,7 +5099,7 @@
     <t>leonela.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>i?GbEfBd</t>
+    <t>b17ZuVB2</t>
   </si>
   <si>
     <t>ALAVA ORTIZ EDWIN ALEXANDER</t>
@@ -5108,7 +5108,7 @@
     <t>edwin.alava@espam.edu.ec</t>
   </si>
   <si>
-    <t>fqwc7BNR</t>
+    <t>qKbJje8Q</t>
   </si>
   <si>
     <t>ALCIVAR LOOR GEMA LISBETH</t>
@@ -5117,7 +5117,7 @@
     <t>gemal.alcivar@espam.edu.ec</t>
   </si>
   <si>
-    <t>SAHhy4YI</t>
+    <t>aNLF2j9t</t>
   </si>
   <si>
     <t>AVELLAN SANTANA GENESIS NICOLLE</t>
@@ -5126,7 +5126,7 @@
     <t>genesis.avellan@espam.edu.ec</t>
   </si>
   <si>
-    <t>spXFrc9Y</t>
+    <t>4xDnlSid</t>
   </si>
   <si>
     <t>CALDERON SANCHEZ SANDY KATHERINE</t>
@@ -5138,7 +5138,7 @@
     <t>sandy.calderon@espam.edu.ec</t>
   </si>
   <si>
-    <t>wSqrnUKP</t>
+    <t>lehvJDvC</t>
   </si>
   <si>
     <t>CARDENAS ASTUDILLO ANGELA JULIANA</t>
@@ -5150,7 +5150,7 @@
     <t>angela.cardenas@espam.edu.ec</t>
   </si>
   <si>
-    <t>UuWyKGYa</t>
+    <t>oXd1d23i</t>
   </si>
   <si>
     <t>CARRILLO PACHAY MARCO STEVE</t>
@@ -5159,7 +5159,7 @@
     <t>marco.carrillo@espam.edu.ec</t>
   </si>
   <si>
-    <t>85MnPXfm</t>
+    <t>xb11/BzJ</t>
   </si>
   <si>
     <t>CEDEÑO ZAMBRANO BRYAN ISIDRO</t>
@@ -5168,7 +5168,7 @@
     <t>bryan.cedeno@espam.edu.ec</t>
   </si>
   <si>
-    <t>SUC4&amp;YTJ</t>
+    <t>in!?1fk1</t>
   </si>
   <si>
     <t>CEVALLOS SALTOS ANTHONY FERNANDO</t>
@@ -5177,7 +5177,7 @@
     <t>anthonyf.cevallos@espam.edu.ec</t>
   </si>
   <si>
-    <t>joADBHh6</t>
+    <t>S2seBnAa</t>
   </si>
   <si>
     <t>CHANG ZAMBRANO MARTHA YAMILETH</t>
@@ -5186,7 +5186,7 @@
     <t>martha.chang@espam.edu.ec</t>
   </si>
   <si>
-    <t>iXn#pI04</t>
+    <t>2jJ5Vh!r</t>
   </si>
   <si>
     <t>CHIRIBOGA FARIAS LUIS FERNANDO</t>
@@ -5195,7 +5195,7 @@
     <t>luis.chiriboga@espam.edu.ec</t>
   </si>
   <si>
-    <t>K1Rci!0u</t>
+    <t>#MTss#8w</t>
   </si>
   <si>
     <t>ESPINOZA PILAY JERSON JOSE</t>
@@ -5204,7 +5204,7 @@
     <t>jerson.espinoza@espam.edu.ec</t>
   </si>
   <si>
-    <t>kHLJNKKD</t>
+    <t>WoH#QC#K</t>
   </si>
   <si>
     <t>FARIAS MERA MAURICIO ANDRES</t>
@@ -5213,7 +5213,7 @@
     <t>mauricio.farias@espam.edu.ec</t>
   </si>
   <si>
-    <t>qHWvXZmY</t>
+    <t>2NNf06le</t>
   </si>
   <si>
     <t>HERNANDEZ GONZALEZ JAMILEX KAREY</t>
@@ -5225,7 +5225,7 @@
     <t>jamilex.hernandez@espam.edu.ec</t>
   </si>
   <si>
-    <t>N88PHm0u</t>
+    <t>fVpUKdFv</t>
   </si>
   <si>
     <t>LEONES FALCONES ABAD JHOAN</t>
@@ -5234,7 +5234,7 @@
     <t>abad.leones@espam.edu.ec</t>
   </si>
   <si>
-    <t>PFok&amp;fjv</t>
+    <t>iFANyZ!x</t>
   </si>
   <si>
     <t>LOOR CEVALLOS ANA MARIA</t>
@@ -5243,7 +5243,7 @@
     <t>anama.loor@espam.edu.ec</t>
   </si>
   <si>
-    <t>lBftAbeI</t>
+    <t>X38iJQnU</t>
   </si>
   <si>
     <t>LOOR LOOR RONALD POLIVIO</t>
@@ -5252,7 +5252,7 @@
     <t>ronald.loor@espam.edu.ec</t>
   </si>
   <si>
-    <t>Y0ESSfmq</t>
+    <t>msdjZjPV</t>
   </si>
   <si>
     <t>LOOR REYES GENESIS JAMILETH</t>
@@ -5261,7 +5261,7 @@
     <t>genesis.loor@espam.edu.ec</t>
   </si>
   <si>
-    <t>78!xkk4Z</t>
+    <t>a&amp;vXtY?l</t>
   </si>
   <si>
     <t>MACIAS BRAVO RICARDO FRANCISCO</t>
@@ -5270,7 +5270,7 @@
     <t>ricardo.macias@espam.edu.ec</t>
   </si>
   <si>
-    <t>0q/IOTcQ</t>
+    <t>am5nCWIJ</t>
   </si>
   <si>
     <t>MACIAS MACIAS LISSETH LILIBETH</t>
@@ -5279,7 +5279,7 @@
     <t>lisseth.macias@espam.edu.ec</t>
   </si>
   <si>
-    <t>I/ITLqKm</t>
+    <t>uU4F!/Hj</t>
   </si>
   <si>
     <t>MANZABA CEDEÑO KEVIN ALBERTO</t>
@@ -5288,7 +5288,7 @@
     <t>kevin.manzaba@espam.edu.ec</t>
   </si>
   <si>
-    <t>PzPo&amp;tLU</t>
+    <t>0rfmjvFk</t>
   </si>
   <si>
     <t>MARQUEZ LEMA NAYELI SABRINA</t>
@@ -5297,7 +5297,7 @@
     <t>nayeli.marquez@espam.edu.ec</t>
   </si>
   <si>
-    <t>nuqSwunq</t>
+    <t>2BKZy8yL</t>
   </si>
   <si>
     <t>MENDOZA BRIONES MARIUXI KATHERINE</t>
@@ -5309,7 +5309,7 @@
     <t>mariuxi.mendoza@espam.edu.ec</t>
   </si>
   <si>
-    <t>mEYlRsOA</t>
+    <t>W08kx5ra</t>
   </si>
   <si>
     <t>MOLINA CEDEÑO JUAN DE DIOS</t>
@@ -5318,7 +5318,7 @@
     <t>juan.molina@espam.edu.ec</t>
   </si>
   <si>
-    <t>SFtV#Q6R</t>
+    <t>tf!gx#FK</t>
   </si>
   <si>
     <t>MONTESDEOCA GARCIA YUDID ALEXANDRA</t>
@@ -5327,7 +5327,7 @@
     <t>yudid.montesdeoca@espam.edu.ec</t>
   </si>
   <si>
-    <t>lOpiyARw</t>
+    <t>2c&amp;I&amp;P7Z</t>
   </si>
   <si>
     <t>MUÑOZ MERA JUAN PABLO</t>
@@ -5336,7 +5336,7 @@
     <t>juan.munoz@espam.edu.ec</t>
   </si>
   <si>
-    <t>3QH!tFuU</t>
+    <t>L70B3faD</t>
   </si>
   <si>
     <t>NAVARRETE ORMAZA ERICK ALEXANDER</t>
@@ -5345,7 +5345,7 @@
     <t>erick.navarrete@espam.edu.ec</t>
   </si>
   <si>
-    <t>wRfDYeMf</t>
+    <t>1gxnG7pp</t>
   </si>
   <si>
     <t>OCAMPO BARRE ANTHONY VICENTE</t>
@@ -5354,7 +5354,7 @@
     <t>anthony.ocampo@espam.edu.ec</t>
   </si>
   <si>
-    <t>q2oEbEvH</t>
+    <t>24vKz?5h</t>
   </si>
   <si>
     <t>PARRALES FALCONES ANTHONY LEONARDO</t>
@@ -5363,7 +5363,7 @@
     <t>anthony.parrales@espam.edu.ec</t>
   </si>
   <si>
-    <t>wnYUN5Mk</t>
+    <t>3/LoQE3b</t>
   </si>
   <si>
     <t>RAMOS SALTOS NICOLE PAOLA</t>
@@ -5372,7 +5372,7 @@
     <t>nicole.ramos@espam.edu.ec</t>
   </si>
   <si>
-    <t>!eaQtgkK</t>
+    <t>m#UGkFmo</t>
   </si>
   <si>
     <t>ROBLES MOLINA JENIFFER STEFANIA</t>
@@ -5381,7 +5381,7 @@
     <t>jeniffer.robles@espam.edu.ec</t>
   </si>
   <si>
-    <t>z3vlDRto</t>
+    <t>fc3Gmq!s</t>
   </si>
   <si>
     <t>RODRIGUEZ CAMPOS JEAN KATHERINE</t>
@@ -5390,7 +5390,7 @@
     <t>jean.rodriguez@espam.edu.ec</t>
   </si>
   <si>
-    <t>?yEqeB3o</t>
+    <t>Qcb7sXC#</t>
   </si>
   <si>
     <t>SANCHEZ MEDINA GISSEL STEPHANIE</t>
@@ -5399,7 +5399,7 @@
     <t>gissel.sanchez@espam.edu.ec</t>
   </si>
   <si>
-    <t>m?6Gy8!1</t>
+    <t>gXWFlQSe</t>
   </si>
   <si>
     <t>VASQUEZ VERA ARGENIS JAVIER</t>
@@ -5408,7 +5408,7 @@
     <t>argenis.vasquez@espam.edu.ec</t>
   </si>
   <si>
-    <t>rnptPGz7</t>
+    <t>7S/P&amp;lDq</t>
   </si>
   <si>
     <t>VASQUEZ VERA MARIA MERCEDES</t>
@@ -5417,7 +5417,7 @@
     <t>maria.vasquez@espam.edu.ec</t>
   </si>
   <si>
-    <t>CO#N9hPe</t>
+    <t>!lZ1oyof</t>
   </si>
   <si>
     <t>VELEZ MERA JOSSELYN JOSSENKA</t>
@@ -5426,7 +5426,7 @@
     <t>josselynjo.velez@espam.edu.ec</t>
   </si>
   <si>
-    <t>4t6i57/g</t>
+    <t>DdES/Ud6</t>
   </si>
   <si>
     <t>VELEZ PALACIOS STEVEN RAMON</t>
@@ -5435,7 +5435,7 @@
     <t>steven.velez@espam.edu.ec</t>
   </si>
   <si>
-    <t>4PE?Tqsy</t>
+    <t>/LNf48ST</t>
   </si>
   <si>
     <t>VERA BRAVO MARY LAURA</t>
@@ -5444,7 +5444,7 @@
     <t>mary.vera@espam.edu.ec</t>
   </si>
   <si>
-    <t>3LM&amp;MkLF</t>
+    <t>CGf7oROE</t>
   </si>
   <si>
     <t>VILLAMIL VALENCIA ISABEL ANDREA</t>
@@ -5453,7 +5453,7 @@
     <t>isabel.villamil@espam.edu.ec</t>
   </si>
   <si>
-    <t>TVZp1Swt</t>
+    <t>m2RDjF&amp;G</t>
   </si>
   <si>
     <t>ZAMBRANO COBEÑA PABLO ALBERTO</t>
@@ -5462,7 +5462,7 @@
     <t>pablo.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>CJHd!t&amp;b</t>
+    <t>3TTHup!m</t>
   </si>
   <si>
     <t>ALVAREZ INTRIAGO MAILIN KATHERINE</t>
@@ -5471,7 +5471,7 @@
     <t>mailin.alvarez@espam.edu.ec</t>
   </si>
   <si>
-    <t>jOU5ugUV</t>
+    <t>yizLzSF3</t>
   </si>
   <si>
     <t>BRAVO ARTEAGA RICARDO JAVIER</t>
@@ -5480,7 +5480,7 @@
     <t>ricardo.bravo@espam.edu.ec</t>
   </si>
   <si>
-    <t>h/Qkjvge</t>
+    <t>rvSeyEYW</t>
   </si>
   <si>
     <t>BRAVO VERGARA GEMA CAROLINA</t>
@@ -5489,7 +5489,7 @@
     <t>gemac.bravo@espam.edu.ec</t>
   </si>
   <si>
-    <t>9r!r#2pK</t>
+    <t>/?jXnN3L</t>
   </si>
   <si>
     <t>CEDEÑO VELASQUEZ GEMA GUADALUPE</t>
@@ -5498,7 +5498,7 @@
     <t>gemag.cedeno@espam.edu.ec</t>
   </si>
   <si>
-    <t>NtdB1ZFP</t>
+    <t>0C5VSY#3</t>
   </si>
   <si>
     <t>CHAVEZ VELIZ DENIS ALEXANDER</t>
@@ -5507,7 +5507,7 @@
     <t>denis.chavez@espam.edu.ec</t>
   </si>
   <si>
-    <t>sdloJdoD</t>
+    <t>ISjcrrOf</t>
   </si>
   <si>
     <t>DEMERA ZAMBRANO JACKSON ANDRES</t>
@@ -5516,7 +5516,7 @@
     <t>jackson.demera@espam.edu.ec</t>
   </si>
   <si>
-    <t>Y!SzPLNx</t>
+    <t>Pum3sgDf</t>
   </si>
   <si>
     <t>GANCHOZO LECTONG GRESSILLE GUISSELLA</t>
@@ -5525,7 +5525,7 @@
     <t>gressille.ganchozo@espam.edu.ec</t>
   </si>
   <si>
-    <t>z8ufyA!z</t>
+    <t>eV4vv!g8</t>
   </si>
   <si>
     <t>INDIO ZAMBRANO ODALIS MICHELLE</t>
@@ -5537,7 +5537,7 @@
     <t>odalis.indio@espam.edu.ec</t>
   </si>
   <si>
-    <t>d!2/#itP</t>
+    <t>RJ9wD?VP</t>
   </si>
   <si>
     <t>INTRIAGO TERAN BRYAN ASDRUBAL</t>
@@ -5546,7 +5546,7 @@
     <t>bryan.intriago@espam.edu.ec</t>
   </si>
   <si>
-    <t>pFewwZdT</t>
+    <t>MlalE/uK</t>
   </si>
   <si>
     <t>INTRIAGO ZAMBRANO GISSELA KAROLINA</t>
@@ -5555,7 +5555,7 @@
     <t>gissela.intriago@espam.edu.ec</t>
   </si>
   <si>
-    <t>s4o5bJfK</t>
+    <t>2v24kPvL</t>
   </si>
   <si>
     <t>LEONES SOLORZANO YARITZA DANIELA</t>
@@ -5564,7 +5564,7 @@
     <t>yaritza.leones@espam.edu.ec</t>
   </si>
   <si>
-    <t>q1e/g88P</t>
+    <t>rf0kBXFn</t>
   </si>
   <si>
     <t>LOPEZ MORA JOSSELYN AMARILYS</t>
@@ -5573,7 +5573,7 @@
     <t>josselyn.lopez@espam.edu.ec</t>
   </si>
   <si>
-    <t>W5S/0254</t>
+    <t>R?kkUzjc</t>
   </si>
   <si>
     <t>MERA LOOR ANTONY ELIAN</t>
@@ -5582,7 +5582,7 @@
     <t>antony.mera@espam.edu.ec</t>
   </si>
   <si>
-    <t>VvvS5U1G</t>
+    <t>8jtfF4s9</t>
   </si>
   <si>
     <t>MERA SABANDO GEMA YAMILETH</t>
@@ -5591,7 +5591,7 @@
     <t>gema.mera@espam.edu.ec</t>
   </si>
   <si>
-    <t>IM/2jEii</t>
+    <t>wA!Z9#fM</t>
   </si>
   <si>
     <t>MIRANDA IBARRA ALFONSO SEBASTIAN</t>
@@ -5600,7 +5600,7 @@
     <t>alfonso.miranda@espam.edu.ec</t>
   </si>
   <si>
-    <t>s5NEC&amp;UX</t>
+    <t>epPDuAOO</t>
   </si>
   <si>
     <t>MONGE ERAZO JECSY PIERINA</t>
@@ -5609,7 +5609,7 @@
     <t>jecsy.monge@espam.edu.ec</t>
   </si>
   <si>
-    <t>3fw6Eug&amp;</t>
+    <t>zEnOtaOB</t>
   </si>
   <si>
     <t>ROMERO ORTEGA ANGEL ANDRES</t>
@@ -5618,7 +5618,7 @@
     <t>angel.romero@espam.edu.ec</t>
   </si>
   <si>
-    <t>SYid&amp;b?G</t>
+    <t>VDriq6ma</t>
   </si>
   <si>
     <t>SOLORZANO INTRIAGO OSCAR FABIAN</t>
@@ -5630,7 +5630,7 @@
     <t>oscar.solorzano@espam.edu.ec</t>
   </si>
   <si>
-    <t>7lf41?He</t>
+    <t>ofmOOrCe</t>
   </si>
   <si>
     <t>VALVERDE ZAPATA KATHIUSCA CARLOTA</t>
@@ -5642,7 +5642,7 @@
     <t>kathiusca.valverde@espam.edu.ec</t>
   </si>
   <si>
-    <t>mNfddZ5n</t>
+    <t>?Dzk#cw7</t>
   </si>
   <si>
     <t>VERA AYALA GENESIS LISBETH</t>
@@ -5651,7 +5651,7 @@
     <t>genesis.vera@espam.edu.ec</t>
   </si>
   <si>
-    <t>wMztd4tv</t>
+    <t>1tOZK7eX</t>
   </si>
   <si>
     <t>VERA PULIDO MARIA IVANNA</t>
@@ -5660,7 +5660,7 @@
     <t>mariai.verap@espam.edu.ec</t>
   </si>
   <si>
-    <t>qShn349E</t>
+    <t>lXLeZxmQ</t>
   </si>
   <si>
     <t>VERA ZAMBRANO JAZMIN CAROLINA</t>
@@ -5669,7 +5669,7 @@
     <t>jazmin.vera@espam.edu.ec</t>
   </si>
   <si>
-    <t>MeLNTLb2</t>
+    <t>Qf8MAkEN</t>
   </si>
   <si>
     <t>VERGARA ARBOLEDA WENDY DEL ROCIO</t>
@@ -5681,7 +5681,7 @@
     <t>wendy.vergara@espam.edu.ec</t>
   </si>
   <si>
-    <t>eDGYSwtp</t>
+    <t>GqQm3KHr</t>
   </si>
   <si>
     <t>VILLAMAR GONZALEZ ELENA SAMANTA</t>
@@ -5690,7 +5690,7 @@
     <t>elena.villamar@espam.edu.ec</t>
   </si>
   <si>
-    <t>D2txnRNX</t>
+    <t>jhKrIVwP</t>
   </si>
   <si>
     <t>ZAMBRANO ALCIVAR GENESIS VALENTINA</t>
@@ -5699,7 +5699,7 @@
     <t>genesis.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>pgLkrtBq</t>
+    <t>yy9Myp8H</t>
   </si>
   <si>
     <t>ZAMBRANO CHAVEZ ANDREA MONSERRATE</t>
@@ -5708,7 +5708,7 @@
     <t>andream.zambranoc@espam.edu.ec</t>
   </si>
   <si>
-    <t>!fJhPMiF</t>
+    <t>6aJeya6r</t>
   </si>
   <si>
     <t>ZAMBRANO GRACIA DANIELA ANGELINA</t>
@@ -5717,7 +5717,7 @@
     <t>daniela.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>y25VeIyB</t>
+    <t>CVhl3Nmt</t>
   </si>
   <si>
     <t>ZAMBRANO MUÑOZ WILLY JHONAY</t>
@@ -5726,7 +5726,7 @@
     <t>willy.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>ja1wPVr8</t>
+    <t>IZVTFbdU</t>
   </si>
   <si>
     <t>ZAMBRANO ZAMBRANO TATIANA ELIZABETH</t>
@@ -5735,7 +5735,7 @@
     <t>tatianael.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>NxGt&amp;wKC</t>
+    <t>k1eEwPmS</t>
   </si>
 </sst>
 </file>

--- a/storage/app/public/seeds/datosPassword.xlsx
+++ b/storage/app/public/seeds/datosPassword.xlsx
@@ -44,7 +44,7 @@
     <t>angie.alcivar.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>nLN98tEV</t>
+    <t>BIN1yMcW</t>
   </si>
   <si>
     <t>ALCIVAR VERA KARLA MILENA</t>
@@ -53,7 +53,7 @@
     <t>karla.alcivar.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>AYU8fRvd</t>
+    <t>9DYo#&amp;nu</t>
   </si>
   <si>
     <t>ALVIA ROCA HENRY ISAAC</t>
@@ -65,7 +65,7 @@
     <t>henry.alvia.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>4#Eqd/P7</t>
+    <t>3kb#/G8l</t>
   </si>
   <si>
     <t>ANANGONO GOMEZ ANA MARCELA</t>
@@ -74,7 +74,7 @@
     <t>ana.anangono.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>&amp;XwDfyId</t>
+    <t>m?bzIDpl</t>
   </si>
   <si>
     <t>BRAVO MARCILLO NATHALY SILVANA</t>
@@ -86,7 +86,7 @@
     <t>nathaly.bravo.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>K1uwQPiA</t>
+    <t>3K1Foa0O</t>
   </si>
   <si>
     <t>BRIONES SUAREZ DANIA MELISSA</t>
@@ -95,7 +95,7 @@
     <t>dania.briones.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>T#neMuGX</t>
+    <t>ZzYmsWuq</t>
   </si>
   <si>
     <t>CANCHINGRE LOZA MARIANA DE JESUS</t>
@@ -107,7 +107,7 @@
     <t>mariana.canchingre.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>zlBShrxa</t>
+    <t>lCyotMvi</t>
   </si>
   <si>
     <t>CEDEÑO GARCIA EMILY JAHAIRA</t>
@@ -116,7 +116,7 @@
     <t>emily.cedeno.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>W8qcwyMr</t>
+    <t>bPOssUqs</t>
   </si>
   <si>
     <t>CEDEÑO VELEZ STEVEN ANTONIO</t>
@@ -125,7 +125,7 @@
     <t>steven.cedeno.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>N5cPhEuS</t>
+    <t>3DbbuRAR</t>
   </si>
   <si>
     <t>CHICA ORDOÑEZ YAIZA ANAHI</t>
@@ -134,7 +134,7 @@
     <t>yaiza.chica.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>x3qeTgQS</t>
+    <t>4OXj3e88</t>
   </si>
   <si>
     <t>CORONEL MERO DAMARY SABRINA</t>
@@ -143,7 +143,7 @@
     <t>damary.coronel.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>zC8TlJQT</t>
+    <t>1uij/HIl</t>
   </si>
   <si>
     <t>DELGADO BENAVIDES MELISSA ANDREINA</t>
@@ -152,7 +152,7 @@
     <t>melissa.delgado.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>kUkrUZwY</t>
+    <t>XKi3AUmg</t>
   </si>
   <si>
     <t>DELGADO SOLORZANO TONY DAMIAN</t>
@@ -161,7 +161,7 @@
     <t>tony.delgado.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>I9&amp;BpsTC</t>
+    <t>ui!fgVau</t>
   </si>
   <si>
     <t>ELENO GENDE JOSELYN KATHERINE</t>
@@ -173,7 +173,7 @@
     <t>joselyn.eleno.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>8nCnd6pq</t>
+    <t>KQvzvonE</t>
   </si>
   <si>
     <t>GARCIA RIVERA ANGHELA LISBETH</t>
@@ -185,7 +185,7 @@
     <t>anghela.garcia.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>vngZeLIS</t>
+    <t>aWtOHM&amp;C</t>
   </si>
   <si>
     <t>GARCIA ROSS PRISCILA TAHILY</t>
@@ -194,7 +194,7 @@
     <t>priscila.garcia.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>qEh!9J7T</t>
+    <t>#TIcOnjm</t>
   </si>
   <si>
     <t>LOOR ZAMBRANO MARILYN MICHEL</t>
@@ -203,7 +203,7 @@
     <t>marilyn.loor.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>Faq5ALk3</t>
+    <t>axDC1Ewd</t>
   </si>
   <si>
     <t>LUCAS MENDOZA MOISES NOE</t>
@@ -212,7 +212,7 @@
     <t>moises.lucas.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>E4a1FMxp</t>
+    <t>339Czl!M</t>
   </si>
   <si>
     <t>MANTUANO LOOR JENIFER DANIELA</t>
@@ -221,7 +221,7 @@
     <t>jenifer.mantuano.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>8R4rg#Un</t>
+    <t>zh99P3sb</t>
   </si>
   <si>
     <t>MENENDEZ SANTANA JOSMELY ANAHI</t>
@@ -230,7 +230,7 @@
     <t>josmely.menendez.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>U?NDIzph</t>
+    <t>v41vdqcS</t>
   </si>
   <si>
     <t>MEZA ESPINOZA MISHEL NICOL</t>
@@ -239,7 +239,7 @@
     <t>mishel.meza.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>1vLOtXYf</t>
+    <t>fsPMp8XC</t>
   </si>
   <si>
     <t>MORANTE TROYA JAIME ANDRES</t>
@@ -248,7 +248,7 @@
     <t>jaime.morante.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>6#npDA&amp;G</t>
+    <t>ZiTImsFb</t>
   </si>
   <si>
     <t>PARRAGA MOREIRA CINDY ANDREA</t>
@@ -257,7 +257,7 @@
     <t>cindy.parraga.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>GvARgjjz</t>
+    <t>K&amp;4rKyFS</t>
   </si>
   <si>
     <t>PEÑAFIEL VALENCIA JULEISY LISBETH</t>
@@ -269,7 +269,7 @@
     <t>juleisy.penafiel.4623@espam.edu.ec</t>
   </si>
   <si>
-    <t>PqpDITeg</t>
+    <t>1&amp;0gHdTz</t>
   </si>
   <si>
     <t>PICO CRIOLLO MILETH KATHERINE</t>
@@ -278,7 +278,7 @@
     <t>mileth.pico.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>#O#6t6MB</t>
+    <t>B?09qOD8</t>
   </si>
   <si>
     <t>RENDON GILER JUNIOR ARIEL</t>
@@ -287,7 +287,7 @@
     <t>junior.rendon@espam.edu.ec</t>
   </si>
   <si>
-    <t>GkN8WP0E</t>
+    <t>xra3tSJI</t>
   </si>
   <si>
     <t>SALVATIERRA SANTOS BRYAN ALEJANDRO</t>
@@ -296,7 +296,7 @@
     <t>bryan.salvatierra@espam.edu.ec</t>
   </si>
   <si>
-    <t>YLGDTlv6</t>
+    <t>Lt&amp;FjYN2</t>
   </si>
   <si>
     <t>SOLORZANO LUCAS ALEXANDER JOEL</t>
@@ -308,7 +308,7 @@
     <t>alexander.solorzano.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>#68&amp;hnYy</t>
+    <t>hZK6wMZR</t>
   </si>
   <si>
     <t>SOLORZANO RODRIGUEZ DAYANA NICOLLE</t>
@@ -317,7 +317,7 @@
     <t>dayanna.solorzano.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>GzTCqlUG</t>
+    <t>4Cy0mGkG</t>
   </si>
   <si>
     <t>TENORIO QUINTERO ELY GILMAR</t>
@@ -329,7 +329,7 @@
     <t>ely.tenorio.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>OgHZOqbk</t>
+    <t>duci88m/</t>
   </si>
   <si>
     <t>VELASQUEZ DOMINGUEZ JORDAN RICARDO</t>
@@ -338,7 +338,7 @@
     <t>jordan.velasquez.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>x7KvLQdd</t>
+    <t>cPXsE6Q7</t>
   </si>
   <si>
     <t>VILLAVICENCIO SALVADOR MELANIE HELLAIM</t>
@@ -350,7 +350,7 @@
     <t>melanie.villavicencio.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>bzXr#W2I</t>
+    <t>OX9kvOnB</t>
   </si>
   <si>
     <t>ZAMBRANO CEDEÑO ANGELO ALEXANDER</t>
@@ -359,7 +359,7 @@
     <t>angelo.zambrano.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>ZUGpn6/2</t>
+    <t>Fs9cIFc0</t>
   </si>
   <si>
     <t>ZAMBRANO VALENCIA SHIRLEY EDITH</t>
@@ -368,7 +368,7 @@
     <t>shirley.zambrano.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>o1lo6nQ?</t>
+    <t>rjFjCzmJ</t>
   </si>
   <si>
     <t>ANGEL GOMEZ GILENY NAHOMY</t>
@@ -380,7 +380,7 @@
     <t>gileny.angel.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>PCWAHRcU</t>
+    <t>3lEolrPx</t>
   </si>
   <si>
     <t>BARRE QUIJANO DARWIN JOSE</t>
@@ -389,7 +389,7 @@
     <t>darwin.barre@espam.edu.ec</t>
   </si>
   <si>
-    <t>?oEZNUUG</t>
+    <t>pkI3dHok</t>
   </si>
   <si>
     <t>BRAVO ALVAREZ EMILY JESUS</t>
@@ -398,7 +398,7 @@
     <t>emily.bravo.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>?VWH8O6c</t>
+    <t>WJfbTzCI</t>
   </si>
   <si>
     <t>CAGUA YOONG NAHOMY JAMILETH</t>
@@ -407,7 +407,7 @@
     <t>nahomy.cagua.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>ETdHDo9o</t>
+    <t>4JYLSNzE</t>
   </si>
   <si>
     <t>CASTILLO CEDEÑO EMILIA MARICELA</t>
@@ -416,7 +416,7 @@
     <t>emilia.castillo.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>8QyEtAbM</t>
+    <t>dKuNV8jj</t>
   </si>
   <si>
     <t>CEDEÑO ZAMBRANO JOSE DANIEL</t>
@@ -425,7 +425,7 @@
     <t>jose.cedenoz.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>JqYPUmuV</t>
+    <t>tvs1!It3</t>
   </si>
   <si>
     <t>CIFUENTES VELASQUEZ JOSE JAHIR</t>
@@ -434,7 +434,7 @@
     <t>jose.cifuentes.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>LYFEj8RD</t>
+    <t>BRmDzmYs</t>
   </si>
   <si>
     <t>CONFORME CIFUENTES ROBERTH JESUS</t>
@@ -443,7 +443,7 @@
     <t>roberth.conforme.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>0j7Pb7vC</t>
+    <t>cYX78ip4</t>
   </si>
   <si>
     <t>CORDERO GILER SALMA PAOLA</t>
@@ -452,7 +452,7 @@
     <t>salma.cordero.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>Jeo?4/XJ</t>
+    <t>/6tWqpdW</t>
   </si>
   <si>
     <t>FARIAS VELIZ RENE OCTAVIO</t>
@@ -461,7 +461,7 @@
     <t>rene.farias.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>fSuP1EdR</t>
+    <t>TRXi#7&amp;o</t>
   </si>
   <si>
     <t>GARCIA DUEÑAS JEAN FERNANDO</t>
@@ -470,7 +470,7 @@
     <t>jean.garcia.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>0HCpKKTw</t>
+    <t>r3C7TBo9</t>
   </si>
   <si>
     <t>HERRERA BASURTO IVIS ANTONELLA</t>
@@ -479,7 +479,7 @@
     <t>ivis.herrera.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>0ofge5Ya</t>
+    <t>zoZmOAou</t>
   </si>
   <si>
     <t>HIDALGO LOOR MARLYN NALLELY</t>
@@ -488,7 +488,7 @@
     <t>marlyn.hidalgo.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>JScSDET!</t>
+    <t>UBwAisWz</t>
   </si>
   <si>
     <t>IBARRA CHAVARRIA JUAN DIEGO</t>
@@ -497,7 +497,7 @@
     <t>juan.ibarra.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>JjMHfXrC</t>
+    <t>IWE4ybq4</t>
   </si>
   <si>
     <t>JAYA ZAPATA VICTOR EDUARDO</t>
@@ -506,7 +506,7 @@
     <t>victor.jaya.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>/U?GOS95</t>
+    <t>4k1QkzVH</t>
   </si>
   <si>
     <t>LOOR DELGADO JERRY JOEL</t>
@@ -515,7 +515,7 @@
     <t>jerry.loor.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>fHabtBPx</t>
+    <t>0I9GPSOa</t>
   </si>
   <si>
     <t>MANTUANO PONCE MELANY MONCERRATE</t>
@@ -524,7 +524,7 @@
     <t>melany.mantuano.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>ffZDbJyf</t>
+    <t>HqbbDJo4</t>
   </si>
   <si>
     <t>MENDOZA VASQUEZ ARIEL ALEXIS</t>
@@ -536,7 +536,7 @@
     <t>ariel.mendoza.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>TA9h#O1I</t>
+    <t>Gq/1zsOW</t>
   </si>
   <si>
     <t>MOREIRA GARCIA MACARIO EMANUEL</t>
@@ -545,7 +545,7 @@
     <t>macario.moreira.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>Lg2&amp;LlsF</t>
+    <t>hc2#xcEh</t>
   </si>
   <si>
     <t>MOREIRA GILCES GABRIELA NIKOL</t>
@@ -554,7 +554,7 @@
     <t>gabriela.moreira.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>UyKJuxrF</t>
+    <t>VnxtELz8</t>
   </si>
   <si>
     <t>NOBOA MONTESDEOCA INGRITH MADELEYN</t>
@@ -563,7 +563,7 @@
     <t>ingrith.noboa.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>bmCkpr!k</t>
+    <t>bQrO!WTg</t>
   </si>
   <si>
     <t>ORDOÑEZ ALCIVAR ALEX PAUL</t>
@@ -572,7 +572,7 @@
     <t>alex.ordonez.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>fw8MsWEo</t>
+    <t>!kIUsnJm</t>
   </si>
   <si>
     <t>PALMA GARCIA MELYN JARITZA</t>
@@ -581,7 +581,7 @@
     <t>melyn.palma.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>K5xDJaRB</t>
+    <t>cBLm7fL0</t>
   </si>
   <si>
     <t>PAREDES MERO GHISLAINE ANAHI</t>
@@ -590,7 +590,7 @@
     <t>ghislaine.paredes.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>tDhfu2uT</t>
+    <t>SS0MosLv</t>
   </si>
   <si>
     <t>QUIJIJE PIANDA XIOMARA MISHELLE</t>
@@ -602,7 +602,7 @@
     <t>xiomara.quijije.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>ZHqboBXR</t>
+    <t>#N5vGuh8</t>
   </si>
   <si>
     <t>SALAVARRIA AVEIGA YULIANA GUADALUPE</t>
@@ -611,7 +611,7 @@
     <t>yuliana.salavarria.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>K5fHdAU&amp;</t>
+    <t>5cKlVmPn</t>
   </si>
   <si>
     <t>SANTOS ALCIVAR JAIR SEBASTIAN</t>
@@ -620,7 +620,7 @@
     <t>jair.santos.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>zSRJyBmA</t>
+    <t>T0srOWs2</t>
   </si>
   <si>
     <t>SOLORZANO CANDELA JARITZA NOHEMY</t>
@@ -629,7 +629,7 @@
     <t>jaritza.solorzano.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>8O3yxH#n</t>
+    <t>a4OdBLij</t>
   </si>
   <si>
     <t>VERA CEBALLOS MARIA CONCEPCION</t>
@@ -638,7 +638,7 @@
     <t>maria.vera.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>jg/oRpLZ</t>
+    <t>N5Yi02i0</t>
   </si>
   <si>
     <t>ALAVA MUÑOZ BILL JARVI</t>
@@ -647,7 +647,7 @@
     <t>bill.alava.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>/GxNgv?k</t>
+    <t>mWuNqiRF</t>
   </si>
   <si>
     <t>ALCIVAR ZAMBRANO ESTHER JOMARA</t>
@@ -656,7 +656,7 @@
     <t>esther.alcivar.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>X7/SibAK</t>
+    <t>R?H#xB6j</t>
   </si>
   <si>
     <t>ALMEIDA LOOR MARIA VICTORIA</t>
@@ -665,7 +665,7 @@
     <t>maria.almeida.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>WT#cpOVr</t>
+    <t>alz4IS#p</t>
   </si>
   <si>
     <t>ANDRADE VILLAVICENCIO PABLO HUGO</t>
@@ -674,7 +674,7 @@
     <t>pablo.andrade.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>RrMGkOof</t>
+    <t>1vLwCkH3</t>
   </si>
   <si>
     <t>AVENDAÑO YZQUIERDO ADRIANA ISABEL</t>
@@ -686,7 +686,7 @@
     <t>adriana.avendano.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>io#AdDQl</t>
+    <t>zdCXeh1o</t>
   </si>
   <si>
     <t>BALUARTE PARRAGA MAYERLY NARCISA</t>
@@ -698,7 +698,7 @@
     <t>mayerly.baluarte.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>ltWL23TP</t>
+    <t>5rKaMama</t>
   </si>
   <si>
     <t>BARRE CASTAÑEDA MAYERLI SOLANGE</t>
@@ -710,7 +710,7 @@
     <t>mayerli.barre.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>1xIci9Sq</t>
+    <t>HCalBLHu</t>
   </si>
   <si>
     <t>BERMEO MENDOZA LESLY JULIETT</t>
@@ -719,7 +719,7 @@
     <t>lesly.bermeo.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>jqYX9XIX</t>
+    <t>ymPtUDoG</t>
   </si>
   <si>
     <t>BRAVO ZAMBRANO DANA KATIUSKA</t>
@@ -728,7 +728,7 @@
     <t>dana.bravo.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>9TvKkRT?</t>
+    <t>&amp;IbbcqVm</t>
   </si>
   <si>
     <t>CEDEÑO ALVARADO JORGE LUIS</t>
@@ -737,7 +737,7 @@
     <t>jorge.cedeno.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>Nw#LiH4F</t>
+    <t>RGMIfBh5</t>
   </si>
   <si>
     <t>DOMINGUEZ ANGEL ANAIS ZULEYMA</t>
@@ -749,7 +749,7 @@
     <t>anais.dominguez.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>e&amp;hOHQVV</t>
+    <t>E52Utj4X</t>
   </si>
   <si>
     <t>ESPARZA TELLO ERICKA MARIA</t>
@@ -761,7 +761,7 @@
     <t>ericka.esparza.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>3Fas7#De</t>
+    <t>2bJ3LZdp</t>
   </si>
   <si>
     <t>GRAIN MARCILLO MICHAEL JOSUE</t>
@@ -770,7 +770,7 @@
     <t>michael.grain.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>4ZoW!iNU</t>
+    <t>!Z3a!BEW</t>
   </si>
   <si>
     <t>JAMA ZAMBRANO ROBERTH XAVIER</t>
@@ -779,7 +779,7 @@
     <t>roberth.jama@espam.edu.ec</t>
   </si>
   <si>
-    <t>4/b4RNzP</t>
+    <t>x?wzW&amp;ul</t>
   </si>
   <si>
     <t>LARA BONE ANGIE NICOLE</t>
@@ -791,7 +791,7 @@
     <t>angie.lara.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>OWEbYnj5</t>
+    <t>0FlEIbC#</t>
   </si>
   <si>
     <t>LOPEZ DELGADO DAYANA NICOLLE</t>
@@ -800,7 +800,7 @@
     <t>dayana.lopez.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>PqEcP#Fl</t>
+    <t>vIYWUlSS</t>
   </si>
   <si>
     <t>MELO CENTENO HELEN SOFIA</t>
@@ -809,7 +809,7 @@
     <t>helen.melo.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>Ow!0bA/!</t>
+    <t>?Ap&amp;0h/?</t>
   </si>
   <si>
     <t>MENDOZA ORTEGA ANGELO DANIEL</t>
@@ -818,7 +818,7 @@
     <t>angelo.mendoza.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>TwFYb5mD</t>
+    <t>gvrV!2cF</t>
   </si>
   <si>
     <t>MERO CARRILLO EMELY MILENA</t>
@@ -827,7 +827,7 @@
     <t>emely.mero.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>KiA/FagR</t>
+    <t>Joazo5VD</t>
   </si>
   <si>
     <t>MITE MENENDEZ GEORGE ISAAC</t>
@@ -836,7 +836,7 @@
     <t>george.mite.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>s9vdn66S</t>
+    <t>/y#nCzrI</t>
   </si>
   <si>
     <t>MONCAYO CAGUA LADY NOHELIA</t>
@@ -845,7 +845,7 @@
     <t>lady.moncayo.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>ByjVARVP</t>
+    <t>f51oUX1j</t>
   </si>
   <si>
     <t>ORMAZA ALCIVAR NOHELIA MILENA</t>
@@ -854,7 +854,7 @@
     <t>nohelia.ormaza.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>HiwORefd</t>
+    <t>1JfX2GlX</t>
   </si>
   <si>
     <t>PANTA CANDELA YONNY ALEXANDER</t>
@@ -863,7 +863,7 @@
     <t>jonny.panta.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>a0qx5bHW</t>
+    <t>vxsz4wT!</t>
   </si>
   <si>
     <t>QUINATOA SIMALIZA YAJAIRA NICOLE</t>
@@ -872,7 +872,7 @@
     <t>yajaira.quinatoa.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>Z?nTBzpD</t>
+    <t>qrEnNA19</t>
   </si>
   <si>
     <t>REYNA RAMIREZ SINDY MAHOLY</t>
@@ -881,7 +881,7 @@
     <t>sindy.reyna.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>BvjqpTLQ</t>
+    <t>jJfJp9pt</t>
   </si>
   <si>
     <t>RODRIGUEZ ANCHUNDIA LUIS FERNANDO</t>
@@ -890,7 +890,7 @@
     <t>luis.rodriguez.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>vgLHco7y</t>
+    <t>8Hq11hyB</t>
   </si>
   <si>
     <t>SABANDO TUAREZ MILENA BLANCA</t>
@@ -899,7 +899,7 @@
     <t>milena.sabando.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>bqbCBseM</t>
+    <t>QWDLgmjg</t>
   </si>
   <si>
     <t>SALAZAR RAMIREZ YARITZA GABRIELA</t>
@@ -908,7 +908,7 @@
     <t>yaritza.salazar.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>kz55Zpxl</t>
+    <t>qlUg05l&amp;</t>
   </si>
   <si>
     <t>SHIGUANGO AGUINDA KATTY MIRELLA</t>
@@ -917,7 +917,7 @@
     <t>katty.shiguango.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>94x/nOc#</t>
+    <t>9oY7Y32l</t>
   </si>
   <si>
     <t>VACA MORALES JOSE EDUARDO</t>
@@ -926,7 +926,7 @@
     <t>jose.vaca.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>5oTqVs9/</t>
+    <t>enutdJTj</t>
   </si>
   <si>
     <t>VELASQUEZ MEJIA ARIANNA ELIZABETH</t>
@@ -935,7 +935,7 @@
     <t>arianna.velasquez.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>wNLNhEly</t>
+    <t>u1M?1Pgj</t>
   </si>
   <si>
     <t>VELEZ CEDEÑO YANDRY ALAIN</t>
@@ -944,7 +944,7 @@
     <t>yandry.velez.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>GpeyKFek</t>
+    <t>HK&amp;okD2d</t>
   </si>
   <si>
     <t>VERA ZAMORA DIXON YAIR</t>
@@ -953,7 +953,7 @@
     <t>dixon.vera.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>b5Z/a#EQ</t>
+    <t>ZrNQijlQ</t>
   </si>
   <si>
     <t>ZAMBRANO FORTIS RICARDO MIGUEL</t>
@@ -962,7 +962,7 @@
     <t>ricardo.zambrano.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>Azg/4rs5</t>
+    <t>vs2gZFGS</t>
   </si>
   <si>
     <t>ALVARADO DUEÑAS KARELYS VANESSA</t>
@@ -971,7 +971,7 @@
     <t>karelys.alvarado.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>1g6XPEht</t>
+    <t>2fk!dQMv</t>
   </si>
   <si>
     <t>ANDRADE ILES ALVIERY JAHIR</t>
@@ -983,7 +983,7 @@
     <t>alviery.andrade.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>j7HcfS5R</t>
+    <t>HmcyrV5N</t>
   </si>
   <si>
     <t>ARTEAGA RAMOS DIEGO ALEJANDRO</t>
@@ -992,7 +992,7 @@
     <t>diego.arteaga.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>E#hy?4d0</t>
+    <t>Q6a/lWzj</t>
   </si>
   <si>
     <t>BARREIRO INTRIAGO STEFANY PIERINA</t>
@@ -1001,7 +1001,7 @@
     <t>stefany.barreiro.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>8sCFVNGU</t>
+    <t>mgd/RPDu</t>
   </si>
   <si>
     <t>BRAVO QUINTERO SARA NICOLE</t>
@@ -1013,7 +1013,7 @@
     <t>sara.bravo.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>bT79iJlr</t>
+    <t>kUcgcXTu</t>
   </si>
   <si>
     <t>CABALLERO MUÑOZ STEVEN FABRICIO</t>
@@ -1022,7 +1022,7 @@
     <t>steven.caballero.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>yIb2rzSC</t>
+    <t>lOtv7AZm</t>
   </si>
   <si>
     <t>CARRASCO VERA LUCAS JOSUE</t>
@@ -1031,7 +1031,7 @@
     <t>lucas.carrasco.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>zn/s!BUa</t>
+    <t>JD4Vvfff</t>
   </si>
   <si>
     <t>CEDEÑO MURILLO KENNER STEVEN</t>
@@ -1040,7 +1040,7 @@
     <t>kenner.cedeno.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>bjM49r90</t>
+    <t>gmloMvnu</t>
   </si>
   <si>
     <t>CUERO PAZMIÑO EMMANUEL JOSUE</t>
@@ -1049,7 +1049,7 @@
     <t>emmanuel.cuero.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>A3rPqWGY</t>
+    <t>?6VxT6IK</t>
   </si>
   <si>
     <t>LADINES CASTRO MIRKA DARLISHA</t>
@@ -1061,7 +1061,7 @@
     <t>mirka.ladines.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>SvLoK&amp;xU</t>
+    <t>P/10d28B</t>
   </si>
   <si>
     <t>LARA FRANCO MICHAEL ARGEL</t>
@@ -1073,7 +1073,7 @@
     <t>michael.lara.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>4qfIv8r4</t>
+    <t>jAiGAu24</t>
   </si>
   <si>
     <t>LEYTHON QUIÑONEZ JEIMY SILVANA</t>
@@ -1085,7 +1085,7 @@
     <t>jeimy.leython.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>o3?f4ogI</t>
+    <t>CvTmBrj1</t>
   </si>
   <si>
     <t>LOOR LOOR GENESIS DANIELA</t>
@@ -1094,7 +1094,7 @@
     <t>genesis.loor.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>FM5NK&amp;tg</t>
+    <t>PANFF9ht</t>
   </si>
   <si>
     <t>MATAMBA GUANGA THALIA VALERIA</t>
@@ -1106,7 +1106,7 @@
     <t>thalia.matamba.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>j#MLwz1U</t>
+    <t>DZo!akfE</t>
   </si>
   <si>
     <t>MENDOZA DE LA CRUZ MARTHA DANIELA</t>
@@ -1115,7 +1115,7 @@
     <t>martha.mendoza.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>6HqnzTPQ</t>
+    <t>67HguR&amp;4</t>
   </si>
   <si>
     <t>MINOTA BORJA ALEXANDER JAHIR</t>
@@ -1127,7 +1127,7 @@
     <t>alexander.minota.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>4L5PcSCL</t>
+    <t>PVXDYjoW</t>
   </si>
   <si>
     <t>NAVIA LOOR JOSE EFRAIN</t>
@@ -1136,7 +1136,7 @@
     <t>jose.navia.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>FARfGAGf</t>
+    <t>APc9s!lW</t>
   </si>
   <si>
     <t>PILATAXI UTRERAS KATHERIN JULIETH</t>
@@ -1145,7 +1145,7 @@
     <t>katherin.pilataxi.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>HrS/9j0q</t>
+    <t>!Mjf5887</t>
   </si>
   <si>
     <t>PINARGOTE CARREÑO FELIX JOEL</t>
@@ -1154,7 +1154,7 @@
     <t>felix.pinargote.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>7RRmU5dl</t>
+    <t>YdlxbshW</t>
   </si>
   <si>
     <t>PONCE ZAMBRANO ARIANA JESSENIA</t>
@@ -1163,7 +1163,7 @@
     <t>ariana.ponce.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>dAgm1Z5f</t>
+    <t>d&amp;Wak&amp;A8</t>
   </si>
   <si>
     <t>QUINATOA SIMALIZA KELLY MARIUXI</t>
@@ -1172,7 +1172,7 @@
     <t>kelly.quinatoa.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>zN88F/zl</t>
+    <t>rdHLS9mk</t>
   </si>
   <si>
     <t>ROSADO ROSADO JOEL JESUS</t>
@@ -1181,7 +1181,7 @@
     <t>joel.rosado.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>XIJ8yFRq</t>
+    <t>Eb78M6hi</t>
   </si>
   <si>
     <t>SANMARTIN TAPIA CARMEN EDITH</t>
@@ -1190,7 +1190,7 @@
     <t>carmen.sanmartin.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>tW?GIbp5</t>
+    <t>9fLLMbJE</t>
   </si>
   <si>
     <t>SAYAY DAGUA JOSELYN NICOL</t>
@@ -1202,7 +1202,7 @@
     <t>joselyn.sayay.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>n6n3GPS8</t>
+    <t>U60YTEFt</t>
   </si>
   <si>
     <t>SOLORZANO PAZMIÑO DECCY DANIELA</t>
@@ -1211,7 +1211,7 @@
     <t>deccy.solorzano.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>obuxndLb</t>
+    <t>9LbXFCbX</t>
   </si>
   <si>
     <t>VERGARA ZAMBRANO MATIAS ALEXANDER</t>
@@ -1220,7 +1220,7 @@
     <t>matias.vergara.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>fe7sBZA?</t>
+    <t>A&amp;ua4NG4</t>
   </si>
   <si>
     <t>ZAMBRANO INTRIAGO FRAYDA JESSENIA</t>
@@ -1229,7 +1229,7 @@
     <t>frayda.zambrano.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>ODFktrdl</t>
+    <t>z5FZ?0pZ</t>
   </si>
   <si>
     <t>ZAMBRANO VALAREZO ANDREA LISBETH</t>
@@ -1238,7 +1238,7 @@
     <t>andrea.zambrano.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>R4GZffN1</t>
+    <t>dRlS8jkK</t>
   </si>
   <si>
     <t>AGUAS MARTINEZ KEVIN SNAIDER</t>
@@ -1247,7 +1247,7 @@
     <t>kevin.aguas@espam.edu.ec</t>
   </si>
   <si>
-    <t>?VNc6bi1</t>
+    <t>kYp&amp;xZWe</t>
   </si>
   <si>
     <t>ANDRADE GARCIA LUZ CRUCELINA</t>
@@ -1256,7 +1256,7 @@
     <t>luz.andrade.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>Lrd23D2X</t>
+    <t>g3I#zyey</t>
   </si>
   <si>
     <t>BARBERAN MERO HELEN ADRIANA</t>
@@ -1265,7 +1265,7 @@
     <t>helen.barberan.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>#s1qb?OA</t>
+    <t>xUqfb43w</t>
   </si>
   <si>
     <t>BARROS ZAMBRANO DANIEL ANGEL</t>
@@ -1274,7 +1274,7 @@
     <t>daniel.barros.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>A?nfrakj</t>
+    <t>rNYKbngK</t>
   </si>
   <si>
     <t>BASURTO ZAMBRANO CARLOS RAUL</t>
@@ -1283,7 +1283,7 @@
     <t>carlos.basurto.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>CjGy6EU7</t>
+    <t>Be3kW5PA</t>
   </si>
   <si>
     <t>BRAVO BRAVO ANTHONY ADEMIR</t>
@@ -1292,7 +1292,7 @@
     <t>anthony.bravo.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>9?FJu5hM</t>
+    <t>zPWxHhSH</t>
   </si>
   <si>
     <t>CANTOS VERA ANGELA AUXILIADORA</t>
@@ -1301,7 +1301,7 @@
     <t>angela.cantos.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>1m8Nf4SS</t>
+    <t>aWy8ZOLI</t>
   </si>
   <si>
     <t>CASTRO BOLAÑO FANNY TATIANA</t>
@@ -1310,7 +1310,7 @@
     <t>fanny.castro.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>WFRDENlP</t>
+    <t>8jsRZrd9</t>
   </si>
   <si>
     <t>CASTRO SALTOS MATTEWS FARID</t>
@@ -1319,7 +1319,7 @@
     <t>mattews.castro.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>SrIcWmE?</t>
+    <t>zgePY/#Z</t>
   </si>
   <si>
     <t>CHANCAY RADE ANTONY GABRIEL</t>
@@ -1328,7 +1328,7 @@
     <t>antony.chancay@espam.edu.ec</t>
   </si>
   <si>
-    <t>lqy57nTP</t>
+    <t>vvEXEt2V</t>
   </si>
   <si>
     <t>COBEÑA GARCIA YOMAYRA ALEXANDRA</t>
@@ -1337,7 +1337,7 @@
     <t>yomayra.cobena.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>Z?efbeWI</t>
+    <t>9q90KO/e</t>
   </si>
   <si>
     <t>CRUZ ERAZO JOSE MIGUEL</t>
@@ -1346,7 +1346,7 @@
     <t>jose.cruz.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>rhqWrsby</t>
+    <t>7lstR9Sf</t>
   </si>
   <si>
     <t>GARCIA ANDRADE MARIA ROSA</t>
@@ -1355,7 +1355,7 @@
     <t>maria.garcia.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>rRt7XoRW</t>
+    <t>WjghBF?K</t>
   </si>
   <si>
     <t>HERNANDEZ LOPEZ LUIS DAVID</t>
@@ -1364,7 +1364,7 @@
     <t>luis.hernandez.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>&amp;0N2VuKa</t>
+    <t>UwpPOI6q</t>
   </si>
   <si>
     <t>LEON FUENTES JONATHAN ALBINO</t>
@@ -1376,7 +1376,7 @@
     <t>jonathan.leon.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>ktBEhoDO</t>
+    <t>Ft8LHLPY</t>
   </si>
   <si>
     <t>MACIAS ANCHUNDIA ROBERTO CARLOS</t>
@@ -1385,7 +1385,7 @@
     <t>roberto.macias.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>9AnvgAjw</t>
+    <t>yGufq&amp;#f</t>
   </si>
   <si>
     <t>MAZA AGREDA KAREN IBETH</t>
@@ -1394,7 +1394,7 @@
     <t>karen.maza.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>Wbzb0Dx9</t>
+    <t>8j4RH&amp;GH</t>
   </si>
   <si>
     <t>MUÑOZ MERA LITZY ALEJANDRA</t>
@@ -1403,7 +1403,7 @@
     <t>litzy.munoz.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>#xJvkJwN</t>
+    <t>JtuDVYJM</t>
   </si>
   <si>
     <t>MUÑOZ MOLINA ANDRY FABIAN</t>
@@ -1412,7 +1412,7 @@
     <t>andry.munoz.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>u5y5kDTq</t>
+    <t>oUf?y!QM</t>
   </si>
   <si>
     <t>ORMAZA VALENCIA KEVIN JAVIER</t>
@@ -1424,7 +1424,7 @@
     <t>kevin.ormaza.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>fpsZS#kS</t>
+    <t>JlbgAqno</t>
   </si>
   <si>
     <t>PAZMIÑO PINCAY NAYELLY AGUSTINA</t>
@@ -1433,7 +1433,7 @@
     <t>nayelly.pazmino.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>IbIoVSN0</t>
+    <t>Ot7ROvdX</t>
   </si>
   <si>
     <t>POZO PONCE DANNY IVAN</t>
@@ -1442,7 +1442,7 @@
     <t>danny.pozo@espam.edu.ec</t>
   </si>
   <si>
-    <t>yH3L46/x</t>
+    <t>kF#y/Li&amp;</t>
   </si>
   <si>
     <t>QUIJANO MEZA MARIANA LISETH</t>
@@ -1451,7 +1451,7 @@
     <t>mariana.quijano.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>wcVPmKz#</t>
+    <t>?tkaAN3S</t>
   </si>
   <si>
     <t>QUIÑONEZ AÑAPA RODRIGO MANUEL</t>
@@ -1463,7 +1463,7 @@
     <t>rodrigo.quinonez.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>zmYHgkA9</t>
+    <t>MPRiFNF0</t>
   </si>
   <si>
     <t>SANTOS ALCIVAR KELVIN YOEL</t>
@@ -1472,7 +1472,7 @@
     <t>kelvin.santos.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>9!s77yZl</t>
+    <t>/oE!bL2E</t>
   </si>
   <si>
     <t>SOLORZANO RODRIGUEZ SANDY</t>
@@ -1481,7 +1481,7 @@
     <t>sandy.solorzano.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>k5FKMknt</t>
+    <t>EqF9II3?</t>
   </si>
   <si>
     <t>TOALA PIN ARIEL ALEJANDRO</t>
@@ -1493,7 +1493,7 @@
     <t>ariel.toala.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>Roh0NMA4</t>
+    <t>3#iNHaaC</t>
   </si>
   <si>
     <t>VEGA INTRIAGO MIGUEL ANGEL</t>
@@ -1502,7 +1502,7 @@
     <t>miguel.vega.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>n241uO?Z</t>
+    <t>l58lcjsQ</t>
   </si>
   <si>
     <t>VELASQUEZ RODRIGUEZ GEMA BELEN</t>
@@ -1511,7 +1511,7 @@
     <t>gema.velasquez.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>i4njWk&amp;O</t>
+    <t>Z33dMEGd</t>
   </si>
   <si>
     <t>VERA MENDOZA MARIA VICTORIA</t>
@@ -1520,7 +1520,7 @@
     <t>maria.veram.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>V3Vqb2cO</t>
+    <t>6fC&amp;qJ0V</t>
   </si>
   <si>
     <t>VERA PALACIOS JORDANO SAUL</t>
@@ -1529,7 +1529,7 @@
     <t>jordano.vera.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>7JOYO35Q</t>
+    <t>oB9BFt6E</t>
   </si>
   <si>
     <t>ZAMBRANO MERA VALENTINA MONSERRATE</t>
@@ -1538,7 +1538,7 @@
     <t>valentina.zambrano.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>QRkyf903</t>
+    <t>Vyl?IZGY</t>
   </si>
   <si>
     <t>ZAMBRANO QUIMI JUAN GEORGE</t>
@@ -1550,7 +1550,7 @@
     <t>juan.zambrano.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>EZiQWG#O</t>
+    <t>exuscL77</t>
   </si>
   <si>
     <t>ALCIVAR ZAMBRANO GEOMAYRA KATHERINE</t>
@@ -1562,7 +1562,7 @@
     <t>geomayra.alcivar.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>OAPy0VBo</t>
+    <t>uVjj5RU&amp;</t>
   </si>
   <si>
     <t>ANDRADE CASTILLO CLAUDIA VICTORIA</t>
@@ -1571,7 +1571,7 @@
     <t>claudia.andrade.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>rNvhoX4!</t>
+    <t>bxNXWT/1</t>
   </si>
   <si>
     <t>ANGUISACA CUENCA ALEXANDRA CECIBEL</t>
@@ -1580,7 +1580,7 @@
     <t>alexandra.anguisaca.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>eAe3iWCN</t>
+    <t>Bf95d&amp;4?</t>
   </si>
   <si>
     <t>BARIAS GUARACA LESLY NAYHELY</t>
@@ -1589,7 +1589,7 @@
     <t>lesly.barias.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>nFmwWpiR</t>
+    <t>?28JWH7b</t>
   </si>
   <si>
     <t>BARROS VERA ANGEL DAVID</t>
@@ -1598,7 +1598,7 @@
     <t>angel.barros.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>yHQu7NqB</t>
+    <t>ypwPj89R</t>
   </si>
   <si>
     <t>BAZURTO SANTOS KENNIA KATHERINE</t>
@@ -1607,7 +1607,7 @@
     <t>kennia.bazurto.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>JLBIoQO6</t>
+    <t>No6260w7</t>
   </si>
   <si>
     <t>BRAVO BAZURTO GISSELA MARIA</t>
@@ -1616,7 +1616,7 @@
     <t>gissela.bravo.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>#VQIa?AS</t>
+    <t>?85O8PkS</t>
   </si>
   <si>
     <t>BUSTAMANTE YANEZ ANTHONY MICHEL</t>
@@ -1625,7 +1625,7 @@
     <t>anthony.bustamante.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>NRIn6ZHH</t>
+    <t>?k1A54vl</t>
   </si>
   <si>
     <t>CASTRO SOLORZANO NIURKA JULIANA</t>
@@ -1634,7 +1634,7 @@
     <t>niurka.castro.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>h&amp;X5wpwd</t>
+    <t>HC3PsFEM</t>
   </si>
   <si>
     <t>CEDEÑO CEDEÑO YOHANA VANESA</t>
@@ -1643,7 +1643,7 @@
     <t>yohana.cedeno.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>6MgysMz6</t>
+    <t>EJo&amp;oKsZ</t>
   </si>
   <si>
     <t>CEDEÑO INTRIAGO JEAN PIERRE</t>
@@ -1652,7 +1652,7 @@
     <t>jean.cedeno@espam.edu.ec</t>
   </si>
   <si>
-    <t>5Jg3sjtj</t>
+    <t>zAt/P4JM</t>
   </si>
   <si>
     <t>DELGADO CEVALLOS MARIA JOSE</t>
@@ -1661,7 +1661,7 @@
     <t>maria.delgado.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>GR3Arbpc</t>
+    <t>6gn8/XD7</t>
   </si>
   <si>
     <t>ERAZO MORALES GABRIELA ALEJANDRA</t>
@@ -1670,7 +1670,7 @@
     <t>gabriela.erazo.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>I4LMYYF2</t>
+    <t>JdiOFGL#</t>
   </si>
   <si>
     <t>INTRIAGO ZAMBRANO LUIS JOSE</t>
@@ -1679,7 +1679,7 @@
     <t>luis.intriagoz.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>UIn9mYOs</t>
+    <t>hAWCkXV&amp;</t>
   </si>
   <si>
     <t>LOOR ORTIZ YORDY DAVID</t>
@@ -1688,7 +1688,7 @@
     <t>yordy.loor.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>jljeUWVT</t>
+    <t>yXiiUAn#</t>
   </si>
   <si>
     <t>LOZANO GAMEZ THALIA VANESSA</t>
@@ -1700,7 +1700,7 @@
     <t>thalia.lozano.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>jQh94V4g</t>
+    <t>kSDItgcD</t>
   </si>
   <si>
     <t>MONTES RODRIGUEZ ROLANDO ANTONIO</t>
@@ -1709,7 +1709,7 @@
     <t>rolando.montes.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>jvdM?i/R</t>
+    <t>dFkDN1ry</t>
   </si>
   <si>
     <t>PALMA RENDON ARGENIS ARTURO</t>
@@ -1718,7 +1718,7 @@
     <t>argenis.palma@espam.edu.ec</t>
   </si>
   <si>
-    <t>948hFs97</t>
+    <t>bwC7uV?X</t>
   </si>
   <si>
     <t>PAREDES YUMBILLO KATTY MARGOTH</t>
@@ -1730,7 +1730,7 @@
     <t>katty.paredes.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>#H4NFbKY</t>
+    <t>&amp;NgXw#ev</t>
   </si>
   <si>
     <t>PARRALES DELGADO ALAN SEBASTIAN</t>
@@ -1739,7 +1739,7 @@
     <t>alan.parrales.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>g0OaY0Ye</t>
+    <t>U#kz4Nhr</t>
   </si>
   <si>
     <t>PATA CEDEÑO ROSA JUANA</t>
@@ -1751,7 +1751,7 @@
     <t>rosa.pata.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>U9CewJhH</t>
+    <t>XXZV&amp;ksK</t>
   </si>
   <si>
     <t>RETETE BASARAN KEVIN ALEXANDER</t>
@@ -1760,7 +1760,7 @@
     <t>kevin.retete.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>RhLDMH/k</t>
+    <t>#U5HhwOX</t>
   </si>
   <si>
     <t>ROMAN MACIAS ESTEFANIA ISABEL</t>
@@ -1769,7 +1769,7 @@
     <t>estefania.roman.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>!xg?01pY</t>
+    <t>6V&amp;1eujx</t>
   </si>
   <si>
     <t>SANDOVAL UREÑA FERNANDA DAYANARA</t>
@@ -1781,7 +1781,7 @@
     <t>fernanda.sandoval.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>9VV1QDjI</t>
+    <t>nNrSEUO4</t>
   </si>
   <si>
     <t>SUBIAGA RAMOS LUIS ALEJANDRO</t>
@@ -1790,7 +1790,7 @@
     <t>luis.subiaga.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>n8R#9MK!</t>
+    <t>1QsgTKBr</t>
   </si>
   <si>
     <t>VELASQUEZ AVEIGA MARIA JESUS</t>
@@ -1799,7 +1799,7 @@
     <t>maria.velasquez.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>WdSNOvav</t>
+    <t>UdGA4mO!</t>
   </si>
   <si>
     <t>VELEZ CHEME JORDAN ESTEBAN</t>
@@ -1811,7 +1811,7 @@
     <t>jordan.velez.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>pzRT?DgV</t>
+    <t>20Ufs6rE</t>
   </si>
   <si>
     <t>VELEZ MENDOZA DARWIN ALEXIS</t>
@@ -1820,7 +1820,7 @@
     <t>darwin.velez.4623@espam.edu.ec</t>
   </si>
   <si>
-    <t>X5J6gD1V</t>
+    <t>xppXAU4V</t>
   </si>
   <si>
     <t>VERA BARRE RONNY ARISTIDES</t>
@@ -1829,7 +1829,7 @@
     <t>ronny.vera.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>idvAUK1g</t>
+    <t>fz5STI8e</t>
   </si>
   <si>
     <t>ZAMBRANO MACIAS DIEGO ANDRES</t>
@@ -1838,7 +1838,7 @@
     <t>diego.zambrano.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>rZ!epUSt</t>
+    <t>oAqoZdMY</t>
   </si>
   <si>
     <t>ZAMBRANO REYNA YERSY ENRIQUE</t>
@@ -1847,7 +1847,7 @@
     <t>yersy.zambrano.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>OTSs8&amp;mu</t>
+    <t>EpcvH&amp;Ri</t>
   </si>
   <si>
     <t>CARDENAS MIELES CRISTHYAN ALBERTO</t>
@@ -1856,7 +1856,7 @@
     <t>cristhyan.cardenas.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>gqPX2SiN</t>
+    <t>hdAscFmL</t>
   </si>
   <si>
     <t>CASTRO CARRERA JUAN CARLOS</t>
@@ -1865,7 +1865,7 @@
     <t>juan.castro.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>t37XSmCO</t>
+    <t>iMiMBe&amp;q</t>
   </si>
   <si>
     <t>CHAVEZ MIRANDA ANTHONY MIGUEL</t>
@@ -1874,7 +1874,7 @@
     <t>anthony.chavez@espam.edu.ec</t>
   </si>
   <si>
-    <t>f8rmen!/</t>
+    <t>V3suAh1l</t>
   </si>
   <si>
     <t>CUSME ZAMBRANO MICHAEL RICHARD</t>
@@ -1883,7 +1883,7 @@
     <t>michael.cusme.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>QxGe4FNx</t>
+    <t>HNCMJMSS</t>
   </si>
   <si>
     <t>GILER SALAZAR CARLOS IGNACIO</t>
@@ -1892,7 +1892,7 @@
     <t>carlos.giler@espam.edu.ec</t>
   </si>
   <si>
-    <t>WaQJsi89</t>
+    <t>RkIqnIaJ</t>
   </si>
   <si>
     <t>HERNANDEZ DIAZ MARIA JOSE</t>
@@ -1904,7 +1904,7 @@
     <t>maria.hernandez.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>vE&amp;4kAuI</t>
+    <t>PlKIrEkD</t>
   </si>
   <si>
     <t>HIDALGO MOREIRA ESTELA NATHALY</t>
@@ -1913,7 +1913,7 @@
     <t>estela.hidalgo.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>VrT5C616</t>
+    <t>!EmMhlJV</t>
   </si>
   <si>
     <t>HIDALGO MOREIRA PIERINA NATHALY</t>
@@ -1922,7 +1922,7 @@
     <t>pierina.hidalgo.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>!pI5w!qg</t>
+    <t>CnmT2GHi</t>
   </si>
   <si>
     <t>LARA QUIJIJE PAMELA JULISSA</t>
@@ -1931,7 +1931,7 @@
     <t>pamela.lara.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>7#1XiA?a</t>
+    <t>Y7Fgy1xE</t>
   </si>
   <si>
     <t>LOOR PITIZACA FRANK ALLAN</t>
@@ -1940,7 +1940,7 @@
     <t>frank.loor.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>y?/oS6go</t>
+    <t>2UGXr8qS</t>
   </si>
   <si>
     <t>LOOR ZAMBRANO GEMA STEFANIA</t>
@@ -1949,7 +1949,7 @@
     <t>gema.loor.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>YqmvTf2J</t>
+    <t>&amp;YIyh6CG</t>
   </si>
   <si>
     <t>PALACIOS TAPIA CESAR XAVIER</t>
@@ -1958,7 +1958,7 @@
     <t>cesar.palacios.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>lbVN3?TF</t>
+    <t>N8uGnbQZ</t>
   </si>
   <si>
     <t>PEÑARRETA LANCHE PILAR MICAELA</t>
@@ -1967,7 +1967,7 @@
     <t>pilar.penarreta.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>H0yBwWHm</t>
+    <t>qJ!26SYL</t>
   </si>
   <si>
     <t>PILLASAGUA PINARGOTE INGRID MAYERLI</t>
@@ -1979,7 +1979,7 @@
     <t>ingrid.pillasagua.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>sF97Vmit</t>
+    <t>f&amp;?P8zfw</t>
   </si>
   <si>
     <t>QUIJIJE CEDEÑO GEMA LISBETH</t>
@@ -1988,7 +1988,7 @@
     <t>gema.quijije.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>0d1vcsYl</t>
+    <t>uihxq3/O</t>
   </si>
   <si>
     <t>RUIZ ZAMBRANO VICTOR ANDRES</t>
@@ -1997,7 +1997,7 @@
     <t>victor.ruiz.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>nlEPxvA3</t>
+    <t>uIFsVwKy</t>
   </si>
   <si>
     <t>SALTOS SALAZAR MAYERLY VERONICA</t>
@@ -2009,7 +2009,7 @@
     <t>mayerly.saltos.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>#g1MWSet</t>
+    <t>eQQEdmGm</t>
   </si>
   <si>
     <t>SANTANA PALOMINO FRANKLIN JOHAO</t>
@@ -2018,7 +2018,7 @@
     <t>franklin.santana.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>Hb7J/Ok5</t>
+    <t>MReW?6TX</t>
   </si>
   <si>
     <t>TAFFUR TOASA OLGA MARIA</t>
@@ -2027,7 +2027,7 @@
     <t>olga.taffur@espam.edu.ec</t>
   </si>
   <si>
-    <t>IAd&amp;fb2h</t>
+    <t>jAIWXmJL</t>
   </si>
   <si>
     <t>TOALA MACAY JOSSELYN VALERIA</t>
@@ -2036,7 +2036,7 @@
     <t>josselyn.toala.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>#tPop&amp;K0</t>
+    <t>!Tv2rB82</t>
   </si>
   <si>
     <t>VALLADARES ALCIVAR LUIS EDUARDO</t>
@@ -2045,7 +2045,7 @@
     <t>luis.valladares@espam.edu.ec</t>
   </si>
   <si>
-    <t>9asYydOO</t>
+    <t>YNJGjTrA</t>
   </si>
   <si>
     <t>VERA ZAMBRANO HILTER JOSSBEL</t>
@@ -2054,7 +2054,7 @@
     <t>hilter.vera.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>JkSw851f</t>
+    <t>TCEEpYD5</t>
   </si>
   <si>
     <t>VERGARA TABOADA ROMEL ALEXANDER</t>
@@ -2063,7 +2063,7 @@
     <t>romel.vergara@espam.edu.ec</t>
   </si>
   <si>
-    <t>3mQbmlnc</t>
+    <t>cH&amp;rYDic</t>
   </si>
   <si>
     <t>ZAMBRANO RIVAS NALLELY LISBETH</t>
@@ -2072,7 +2072,7 @@
     <t>nallely.zambrano.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>aAvSsubP</t>
+    <t>r6XGq#Yd</t>
   </si>
   <si>
     <t>ABAD MIRANDA KENYA ESTEFANIA</t>
@@ -2084,7 +2084,7 @@
     <t>kenya.abad.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>P80I?4OC</t>
+    <t>/vLrU/k2</t>
   </si>
   <si>
     <t>ALAVA MORENO MILTON ANTERO</t>
@@ -2093,7 +2093,7 @@
     <t>milton.alava@espam.edu.ec</t>
   </si>
   <si>
-    <t>fvoNPQnW</t>
+    <t>dHuZPzve</t>
   </si>
   <si>
     <t>ALMEIDA CEDEÑO CINDY BELEN</t>
@@ -2102,7 +2102,7 @@
     <t>cindy.almeida.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>#PJNm4!O</t>
+    <t>WUo18VhJ</t>
   </si>
   <si>
     <t>ANCHUNDIA VERA JUSTIN JOSE</t>
@@ -2111,7 +2111,7 @@
     <t>justin.anchundia.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>I9#Ha/?f</t>
+    <t>IHNwESqZ</t>
   </si>
   <si>
     <t>AYONG PALADINES MARIA FERNANDA</t>
@@ -2120,7 +2120,7 @@
     <t>maria.ayong.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>Y7Z3QhuZ</t>
+    <t>wf/X8bA9</t>
   </si>
   <si>
     <t>BRAVO CEVALLOS MELANY PIERINA</t>
@@ -2129,7 +2129,7 @@
     <t>melany.bravo.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>h!aOAWlc</t>
+    <t>KL&amp;SqKVv</t>
   </si>
   <si>
     <t>CASANOVA SALAZAR ROSEMBERG STEVEN</t>
@@ -2138,7 +2138,7 @@
     <t>rosemberg.casanova@espam.edu.ec</t>
   </si>
   <si>
-    <t>p5Zjv/0l</t>
+    <t>4Mm8QGQo</t>
   </si>
   <si>
     <t>FERNANDEZ TORRES JALENI SCARLETH</t>
@@ -2150,7 +2150,7 @@
     <t>jaleni.fernandez.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>ALwQ8V1r</t>
+    <t>i5sLvaku</t>
   </si>
   <si>
     <t>HERRERA SABANDO WILLIAMS ANDRES</t>
@@ -2159,7 +2159,7 @@
     <t>williams.herrera.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>2QVW0rIK</t>
+    <t>IaCBzrf#</t>
   </si>
   <si>
     <t>LOPEZ PALADINES EDGAR JOSE</t>
@@ -2168,7 +2168,7 @@
     <t>edgar.lopez.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>m0Tp5vlV</t>
+    <t>bhpIGkCZ</t>
   </si>
   <si>
     <t>MEDRANDA GONZALES LINCI YERLEY</t>
@@ -2177,7 +2177,7 @@
     <t>linci.medranda.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>wZGQbmML</t>
+    <t>Kd9&amp;30Dt</t>
   </si>
   <si>
     <t>MENDIETA GILER JORDY EDUARDO</t>
@@ -2186,7 +2186,7 @@
     <t>jordy.mendieta.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>xgmI4mhI</t>
+    <t>R9ZsKBUY</t>
   </si>
   <si>
     <t>MORENO VELIZ ALDRIN DAIRY</t>
@@ -2195,7 +2195,7 @@
     <t>aldrin.moreno.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>nxHvHVzS</t>
+    <t>q#H7PdVi</t>
   </si>
   <si>
     <t>MUÑOZ VERA GENESIS LOURDES</t>
@@ -2204,7 +2204,7 @@
     <t>genesis.munoz.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>h#9c6tNL</t>
+    <t>QKHQ5cYH</t>
   </si>
   <si>
     <t>PLAZA CHOEZ RODOLFO JEAMPIERRE</t>
@@ -2213,7 +2213,7 @@
     <t>rodolfo.plaza.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>bitLsoDC</t>
+    <t>sdm/LO2g</t>
   </si>
   <si>
     <t>PRECIADO MOREIRA PABLO ANTHONY</t>
@@ -2225,7 +2225,7 @@
     <t>pablo.preciado@espam.edu.ec</t>
   </si>
   <si>
-    <t>?pOkVBuN</t>
+    <t>iagggaYM</t>
   </si>
   <si>
     <t>SABANDO SALCEDO GENESIS BETZABETH</t>
@@ -2237,7 +2237,7 @@
     <t>genesis.sabando.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>Kk8uhBgt</t>
+    <t>Q5ykmx2K</t>
   </si>
   <si>
     <t>SOLEDISPA ZAMBRANO CRISTHINA ISABELA</t>
@@ -2246,7 +2246,7 @@
     <t>cristhina.soledispa.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>kBFHB!zJ</t>
+    <t>x!/aIIk7</t>
   </si>
   <si>
     <t>SOLORZANO RODRIGUEZ EVELYN AGUSTINA</t>
@@ -2255,7 +2255,7 @@
     <t>evelyn.solorzanor@espam.edu.ec</t>
   </si>
   <si>
-    <t>qyxR6/P1</t>
+    <t>xl9hqAcS</t>
   </si>
   <si>
     <t>VERA AGUAS KELVIN JEAN PIERRE</t>
@@ -2264,7 +2264,7 @@
     <t>kelvin.vera@espam.edu.ec</t>
   </si>
   <si>
-    <t>##1yMsj5</t>
+    <t>BkrlTWr8</t>
   </si>
   <si>
     <t>VERA LOOR DENYS ESTEFANIA</t>
@@ -2273,7 +2273,7 @@
     <t>denys.vera.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>RVn8OHhH</t>
+    <t>d0oslJd3</t>
   </si>
   <si>
     <t>VINCES PIN MARIA FERNANDA</t>
@@ -2282,7 +2282,7 @@
     <t>maria.vinces.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>WuGPjDZa</t>
+    <t>sk/EtlpS</t>
   </si>
   <si>
     <t>ZAMBRANO ZAMBRANO MARIA BELEN</t>
@@ -2291,7 +2291,7 @@
     <t>mariab.zambranoz.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>86pWGemJ</t>
+    <t>5CeaFw9/</t>
   </si>
   <si>
     <t>ALCIVAR ZAMBRANO DIANA ESTHER</t>
@@ -2300,7 +2300,7 @@
     <t>diana.alcivar.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>!nNcVCLD</t>
+    <t>KD9h3/1S</t>
   </si>
   <si>
     <t>ALVAREZ BORJA ANGHELO JOSUE</t>
@@ -2309,7 +2309,7 @@
     <t>anghelo.alvarez.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>cNjKzYEA</t>
+    <t>d30dE&amp;dq</t>
   </si>
   <si>
     <t>BRAVO MENDOZA ALBERDY JAVIER</t>
@@ -2318,7 +2318,7 @@
     <t>alberdy.bravo@espam.edu.ec</t>
   </si>
   <si>
-    <t>Jop4KYUI</t>
+    <t>cFGRhLm5</t>
   </si>
   <si>
     <t>GARCIA PARRAGA FATIMA MARIA</t>
@@ -2327,7 +2327,7 @@
     <t>fatima.garcia.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>W45qLpp0</t>
+    <t>wAvTx#EW</t>
   </si>
   <si>
     <t>GRACIA PRATT WILINTON JOSUE</t>
@@ -2339,7 +2339,7 @@
     <t>wilinton.gracia.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>qTEIsH##</t>
+    <t>AsaALbbT</t>
   </si>
   <si>
     <t>MARRETT BEDOYA MISHELLE MARCELA</t>
@@ -2351,7 +2351,7 @@
     <t>mishelle.marrett.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>F1M/Mk/N</t>
+    <t>xyE6Nl&amp;X</t>
   </si>
   <si>
     <t>MERA CASTILLO NATHALY VIRGINIA</t>
@@ -2360,7 +2360,7 @@
     <t>nathaly.mera.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>5rSYVsV1</t>
+    <t>H6&amp;hQfO8</t>
   </si>
   <si>
     <t>ROSERO VERA LUIS ANDRES</t>
@@ -2369,7 +2369,7 @@
     <t>luis.rosero@espam.edu.ec</t>
   </si>
   <si>
-    <t>qbZU3mSS</t>
+    <t>g0UzAVP5</t>
   </si>
   <si>
     <t>SANTISTEBAN BENAVIDES JOSUE ROMARIO</t>
@@ -2378,7 +2378,7 @@
     <t>josue.santisteban.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>vFFFS0Ns</t>
+    <t>KpQQS93H</t>
   </si>
   <si>
     <t>SOLORZANO CUSME GEMA JULIANA</t>
@@ -2387,7 +2387,7 @@
     <t>gemaju.solorzano@espam.edu.ec</t>
   </si>
   <si>
-    <t>&amp;9A6BMQ#</t>
+    <t>BivHgTPE</t>
   </si>
   <si>
     <t>TORRES PINARGOTE MAHOLY</t>
@@ -2396,7 +2396,7 @@
     <t>maholy.torres.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>J&amp;&amp;Mb8yy</t>
+    <t>SAZpHrlS</t>
   </si>
   <si>
     <t>ZAMBRANO BRAVO LEANDRO ISMAEL</t>
@@ -2405,7 +2405,7 @@
     <t>leandro.zambrano.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>&amp;z3K?Nf4</t>
+    <t>mGBfS3uJ</t>
   </si>
   <si>
     <t>ZAMBRANO GARCIA HENRY ARTURO</t>
@@ -2414,7 +2414,7 @@
     <t>henry.zambrano.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>Dsm3?s8H</t>
+    <t>ORd5PDvU</t>
   </si>
   <si>
     <t>BARRE PARRAGA BETSY BEATRIZ</t>
@@ -2423,7 +2423,7 @@
     <t>betsy.barre.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>#FViM8?N</t>
+    <t>N5nnzF70</t>
   </si>
   <si>
     <t>CEDEÑO CEDEÑO CAMILA PATRICIA</t>
@@ -2435,7 +2435,7 @@
     <t>camila.cedeno.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>to#lkysf</t>
+    <t>2lfMX0m4</t>
   </si>
   <si>
     <t>CEDEÑO SOLORZANO ANTHONY STEVEN</t>
@@ -2444,7 +2444,7 @@
     <t>anthony.cedenos.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>UWON33wK</t>
+    <t>zd#T1o8&amp;</t>
   </si>
   <si>
     <t>CEDEÑO TUAREZ ANGIE LISSETTE</t>
@@ -2453,7 +2453,7 @@
     <t>angie.cedeno@espam.edu.ec</t>
   </si>
   <si>
-    <t>FP6&amp;4NM#</t>
+    <t>Ke7Fqpjg</t>
   </si>
   <si>
     <t>CHAVEZ LANDAZURI JACKSON JAIR</t>
@@ -2465,7 +2465,7 @@
     <t>jackson.chavez.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>ICd5aM/V</t>
+    <t>NvvxaySE</t>
   </si>
   <si>
     <t>CHICA MOREIRA MARIA FERNANDA</t>
@@ -2474,7 +2474,7 @@
     <t>maria.chica.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>YJqkiFEO</t>
+    <t>bxlBMrQl</t>
   </si>
   <si>
     <t>GARCIA ZAMBRANO WENDY YAMILETH</t>
@@ -2483,7 +2483,7 @@
     <t>wendy.garcia.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>##kC8szG</t>
+    <t>tlY3byj3</t>
   </si>
   <si>
     <t>GARZON CEDEÑO FRANCESCO RUBEN</t>
@@ -2492,7 +2492,7 @@
     <t>francesco.garzon.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>?mc7KAFS</t>
+    <t>QpW?LSlC</t>
   </si>
   <si>
     <t>GUERRERO CEDEÑO MICHAEL JORDY</t>
@@ -2501,7 +2501,7 @@
     <t>michael.guerrero.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>0tMYF4Z#</t>
+    <t>uTjc90PG</t>
   </si>
   <si>
     <t>MEDRANDA GONZALES CRISTHIAN JOSE</t>
@@ -2510,7 +2510,7 @@
     <t>cristhian.medranda@espam.edu.ec</t>
   </si>
   <si>
-    <t>Uctr5Az?</t>
+    <t>LSNCMUi1</t>
   </si>
   <si>
     <t>ORELLANA ANCHUNDIA JESUS MIGUEL</t>
@@ -2519,7 +2519,7 @@
     <t>jesus.orellana@espam.edu.ec</t>
   </si>
   <si>
-    <t>pW1Oa7K5</t>
+    <t>1Y7ZJywH</t>
   </si>
   <si>
     <t>ORTIZ GOMEZ EDUARDO ANDRES</t>
@@ -2528,7 +2528,7 @@
     <t>eduardo.ortiz@espam.edu.ec</t>
   </si>
   <si>
-    <t>CAoCkn0V</t>
+    <t>4YM!hLAC</t>
   </si>
   <si>
     <t>PAZMIÑO MERA SHANDE ALEXANDER</t>
@@ -2537,7 +2537,7 @@
     <t>shande.pazmino.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>doxUtjuR</t>
+    <t>GM79d2YO</t>
   </si>
   <si>
     <t>PEÑARRIETA BAZURTO ERICK ANDRES</t>
@@ -2546,7 +2546,7 @@
     <t>erick.penarrieta@espam.edu.ec</t>
   </si>
   <si>
-    <t>2Wq5rfYq</t>
+    <t>9zOQpt7G</t>
   </si>
   <si>
     <t>RIERA GAVILANES IZHURY MILLENYTH</t>
@@ -2558,7 +2558,7 @@
     <t>izhury.riera.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>mWF1OaN!</t>
+    <t>EX6eJuev</t>
   </si>
   <si>
     <t>RIVERA CEDEÑO RIVALDO JOSE</t>
@@ -2570,7 +2570,7 @@
     <t>rivaldo.rivera.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>avVvvw!U</t>
+    <t>X0mZc5nh</t>
   </si>
   <si>
     <t>SALDARRIAGA ARTEAGA OMAIRA MARIBI</t>
@@ -2579,7 +2579,7 @@
     <t>omaira.saldarriaga@espam.edu.ec</t>
   </si>
   <si>
-    <t>mSHVTbJ4</t>
+    <t>tswI041H</t>
   </si>
   <si>
     <t>SANDOVAL MERA NALLELY STEFANIA</t>
@@ -2588,7 +2588,7 @@
     <t>nallely.sandoval.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>D4u4tbrX</t>
+    <t>GVPDXZ2x</t>
   </si>
   <si>
     <t>SUQUI CANGO BRYAN EDUARDO</t>
@@ -2600,7 +2600,7 @@
     <t>bryan.suqui.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>Mfnaplu4</t>
+    <t>Su3zVZOP</t>
   </si>
   <si>
     <t>VERDUGA ZAMBRANO CARLOS ANDRES</t>
@@ -2609,7 +2609,7 @@
     <t>carlos.verduga.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>o#&amp;V9qjR</t>
+    <t>XOkLD2fR</t>
   </si>
   <si>
     <t>ZAMBRANO LARA MARVIN RENE</t>
@@ -2618,7 +2618,7 @@
     <t>marvin.zambrano.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>DMqdk0zh</t>
+    <t>8cN3POv6</t>
   </si>
   <si>
     <t>ZAMBRANO OBANDO KELVIN JOSUE</t>
@@ -2630,7 +2630,7 @@
     <t>kelvin.zambrano.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>TvEGplJj</t>
+    <t>geT051US</t>
   </si>
   <si>
     <t>ZAPATA QUINCHE ANDREA CAROLINA</t>
@@ -2639,7 +2639,7 @@
     <t>andrea.zapata.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>bniwlcNr</t>
+    <t>m1XelWQE</t>
   </si>
   <si>
     <t>ALMEIDA PEREZ ANGEL FERNANDO</t>
@@ -2648,7 +2648,7 @@
     <t>angel.almeida@espam.edu.ec</t>
   </si>
   <si>
-    <t>NVrq81Hp</t>
+    <t>#SLxIbek</t>
   </si>
   <si>
     <t>CEDEÑO PARRAGA MELANY NALLELY</t>
@@ -2657,7 +2657,7 @@
     <t>melany.cedeno.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>e8/fcKxF</t>
+    <t>iYwEyTlz</t>
   </si>
   <si>
     <t>CEDEÑO SALVATIERRA JENIFFER ALEJANDRA</t>
@@ -2666,7 +2666,7 @@
     <t>jeniffer.cedenosal@espam.edu.ec</t>
   </si>
   <si>
-    <t>VuaFicx8</t>
+    <t>oKz?QUAG</t>
   </si>
   <si>
     <t>FERNANDEZ ARTEAGA SCHEZNARDA EDITH</t>
@@ -2675,7 +2675,7 @@
     <t>scheznarda.fernandez.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>s&amp;sM!1mB</t>
+    <t>5/VIYDcJ</t>
   </si>
   <si>
     <t>GANCHOZO VELEZ EMILY JULEXY</t>
@@ -2684,7 +2684,7 @@
     <t>emily.ganchozo.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>n0BUGDSM</t>
+    <t>dUhIZbTC</t>
   </si>
   <si>
     <t>LEON VIZÑAY ROQUE JAVIER</t>
@@ -2696,7 +2696,7 @@
     <t>roque.leon@espam.edu.ec</t>
   </si>
   <si>
-    <t>Rnl4RyzA</t>
+    <t>LtAa!No7</t>
   </si>
   <si>
     <t>LOOR LOOR EVELYN YAMILETH</t>
@@ -2705,7 +2705,7 @@
     <t>evelynya.loor@espam.edu.ec</t>
   </si>
   <si>
-    <t>hiDCOWcG</t>
+    <t>goeLUIbo</t>
   </si>
   <si>
     <t>LOOR MOREIRA MELANIE NOEMI</t>
@@ -2714,7 +2714,7 @@
     <t>melanie.loorm.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>P/V&amp;7#e6</t>
+    <t>Fo&amp;axZAN</t>
   </si>
   <si>
     <t>LOPEZ ESTACIO ROSA ANGELICA</t>
@@ -2723,7 +2723,7 @@
     <t>rosa.lopez@espam.edu.ec</t>
   </si>
   <si>
-    <t>oIQea!b!</t>
+    <t>JJ?134CL</t>
   </si>
   <si>
     <t>MENDOZA MUÑOZ FLOR ANTONELA</t>
@@ -2732,7 +2732,7 @@
     <t>flor.mendoza.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>Pz7eNYih</t>
+    <t>xvOOOSkW</t>
   </si>
   <si>
     <t>MERELO SOLORZANO NAIDELYN MISHELLE</t>
@@ -2741,7 +2741,7 @@
     <t>naidelyn.merelo.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>R1vXlNpJ</t>
+    <t>HDWuEV/V</t>
   </si>
   <si>
     <t>MOREIRA LOOR FABIAN ALEXANDER</t>
@@ -2750,7 +2750,7 @@
     <t>fabian.moreira@espam.edu.ec</t>
   </si>
   <si>
-    <t>lnDw2uNN</t>
+    <t>2Hx5ymss</t>
   </si>
   <si>
     <t>PAZMIÑO FALCONES JOSE MIGUEL</t>
@@ -2759,7 +2759,7 @@
     <t>jose.pazmino@espam.edu.ec</t>
   </si>
   <si>
-    <t>uJQq5FhS</t>
+    <t>#dptYSA7</t>
   </si>
   <si>
     <t>PEÑAFIEL PITA BRITHANNY MICAELA</t>
@@ -2771,7 +2771,7 @@
     <t>brithanny.penafiel.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>&amp;QQJ6SD!</t>
+    <t>p4O/XyHQ</t>
   </si>
   <si>
     <t>PINTO PALACIOS JOSE ANTONIO</t>
@@ -2780,7 +2780,7 @@
     <t>jose.pinto@espam.edu.ec</t>
   </si>
   <si>
-    <t>b5vY/#IX</t>
+    <t>ijJVklL9</t>
   </si>
   <si>
     <t>RENTERIA VALENCIA NEURYS GYSSELA</t>
@@ -2792,7 +2792,7 @@
     <t>neurys.renteria@espam.edu.ec</t>
   </si>
   <si>
-    <t>wxlkeO/a</t>
+    <t>22T0JqnV</t>
   </si>
   <si>
     <t>RIVAS ZAMBRANO ALISSON KATIUSKA</t>
@@ -2801,7 +2801,7 @@
     <t>alisson.rivas.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>1bp7H1S1</t>
+    <t>snjP555v</t>
   </si>
   <si>
     <t>TORRES VARGAS KARELIS ANDREINA</t>
@@ -2813,7 +2813,7 @@
     <t>karelis.torres@espam.edu.ec</t>
   </si>
   <si>
-    <t>NbLnsawF</t>
+    <t>FrONRNFI</t>
   </si>
   <si>
     <t>VALDIVIESO CHUNG DANIEL JAFET</t>
@@ -2822,7 +2822,7 @@
     <t>daniel.valdivieso.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>MOiw9MFZ</t>
+    <t>sBs0TZ/7</t>
   </si>
   <si>
     <t>VASCONEZ GONZALEZ FRANCISCO ALESSIO</t>
@@ -2831,7 +2831,7 @@
     <t>francisco.vasconez.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>TLE?sJ8n</t>
+    <t>#zUPSuhf</t>
   </si>
   <si>
     <t>VELEZ ORTEGA BORIS ANDRES</t>
@@ -2840,7 +2840,7 @@
     <t>boris.velez.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>tCXCreCY</t>
+    <t>h0pmhomN</t>
   </si>
   <si>
     <t>VERA ESTUPIÑAN BRYAN FRANCISCO</t>
@@ -2849,7 +2849,7 @@
     <t>bryan.vera@espam.edu.ec</t>
   </si>
   <si>
-    <t>dHq/jQxl</t>
+    <t>#YxvEWp!</t>
   </si>
   <si>
     <t>VERA LOOR ARIANA PAOLA</t>
@@ -2858,7 +2858,7 @@
     <t>ariana.vera.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>kNfxlKtY</t>
+    <t>c!8t#b7L</t>
   </si>
   <si>
     <t>ZAMBRANO VEGA AURA ARACELY</t>
@@ -2867,7 +2867,7 @@
     <t>aura.zambranov@espam.edu.ec</t>
   </si>
   <si>
-    <t>vMy!?mUu</t>
+    <t>V9ioB!yy</t>
   </si>
   <si>
     <t>ALMEIDA ZAMBRANO HALINTONG VICENTE</t>
@@ -2876,7 +2876,7 @@
     <t>halintong.almeida@espam.edu.ec</t>
   </si>
   <si>
-    <t>ZCjbOJni</t>
+    <t>CSZddDMg</t>
   </si>
   <si>
     <t>AYALA VILLAFUERTE NAHOMY NAYELY</t>
@@ -2885,7 +2885,7 @@
     <t>nahomy.ayala@espam.edu.ec</t>
   </si>
   <si>
-    <t>FFWb5UmO</t>
+    <t>pLLWXPrr</t>
   </si>
   <si>
     <t>BASURTO CEDEÑO ITALO JORDANO</t>
@@ -2894,7 +2894,7 @@
     <t>italo.basurto.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>dT4mm4PO</t>
+    <t>5fCzcnml</t>
   </si>
   <si>
     <t>CASTRO TAIPE YERIK LEXANDER</t>
@@ -2903,7 +2903,7 @@
     <t>yerik.castro.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>iafeel/7</t>
+    <t>oFV?kPgx</t>
   </si>
   <si>
     <t>CEDEÑO GARCIA CARLOS PAUL</t>
@@ -2912,7 +2912,7 @@
     <t>carlos.cedeno.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>HLM1W0Hz</t>
+    <t>HvXI?kjR</t>
   </si>
   <si>
     <t>COBEÑA ZAMBRANO EDIS ARIEL</t>
@@ -2921,7 +2921,7 @@
     <t>edis.cobena@espam.edu.ec</t>
   </si>
   <si>
-    <t>OXuCCvE4</t>
+    <t>SFKvbc3X</t>
   </si>
   <si>
     <t>CORDOVA MUGUERZA ADRIANA NICOLLE</t>
@@ -2930,7 +2930,7 @@
     <t>adriana.muguersa.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>pU5OiGtQ</t>
+    <t>BYWZJp#m</t>
   </si>
   <si>
     <t>COTERA PIN MAYERLY DAYANARA</t>
@@ -2939,7 +2939,7 @@
     <t>mayerly.cotera.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>p2tMD#qj</t>
+    <t>K4ImDyql</t>
   </si>
   <si>
     <t>CUENCA CUSME CECILIA ALEXANDRA</t>
@@ -2948,7 +2948,7 @@
     <t>cecilia.cuenca@espam.edu.ec</t>
   </si>
   <si>
-    <t>VM!2nr5G</t>
+    <t>/J7S4nvE</t>
   </si>
   <si>
     <t>FERNANDEZ ARTEAGA ANGIE MISHELLE</t>
@@ -2957,7 +2957,7 @@
     <t>angie.fernandez.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>P9SZpy?U</t>
+    <t>u#r6bI?q</t>
   </si>
   <si>
     <t>LATA QUINCHI SANDRA LOURDES</t>
@@ -2966,7 +2966,7 @@
     <t>sandra.lata.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>qYlGwMiR</t>
+    <t>sFt4EjXY</t>
   </si>
   <si>
     <t>MEJICANGO CALLE JAZMIN LISBETH</t>
@@ -2978,7 +2978,7 @@
     <t>jazmin.mejicango.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>Y#uWiRBa</t>
+    <t>0AM/W!Ka</t>
   </si>
   <si>
     <t>MENDOZA GANCHOZO DOMENICA NICOLE</t>
@@ -2987,7 +2987,7 @@
     <t>domenica.mendoza.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>!vm#iSrd</t>
+    <t>bB82!8L#</t>
   </si>
   <si>
     <t>MOREIRA CEVALLOS NAYELY VANESSA</t>
@@ -2996,7 +2996,7 @@
     <t>nayely.moreira@espam.edu.ec</t>
   </si>
   <si>
-    <t>7kMH0d!J</t>
+    <t>4jRaULeL</t>
   </si>
   <si>
     <t>MUÑOZ VERA MICHELLE VALENTINA</t>
@@ -3005,7 +3005,7 @@
     <t>michelle.munoz.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>F!/2Bu16</t>
+    <t>xUyw/Un4</t>
   </si>
   <si>
     <t>OLMOS RIVERA CLEOPATRA STEFANIA</t>
@@ -3014,7 +3014,7 @@
     <t>cleopatra.olmos.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>/O33#DOC</t>
+    <t>FEYKbXjG</t>
   </si>
   <si>
     <t>PAREDES RODRIGUEZ GIBELY JARLETH</t>
@@ -3026,7 +3026,7 @@
     <t>gibely.paredes.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>4R?hV6FZ</t>
+    <t>y8g6ADGU</t>
   </si>
   <si>
     <t>PERUGACHI MECIAS GEOVANNY ALEJANDRO</t>
@@ -3035,7 +3035,7 @@
     <t>geovanny.perugachi.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>dzS?7QKd</t>
+    <t>MtznkKeD</t>
   </si>
   <si>
     <t>PITA MACIAS RUBEN DARIO</t>
@@ -3044,7 +3044,7 @@
     <t>ruben.pita@espam.edu.ec</t>
   </si>
   <si>
-    <t>Di?Syy5q</t>
+    <t>2?5SMBgf</t>
   </si>
   <si>
     <t>ROSADO QUIROZ JANDRY FABRICIO</t>
@@ -3053,7 +3053,7 @@
     <t>jandry.rosado.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>Z9n?HaHK</t>
+    <t>6jEODix8</t>
   </si>
   <si>
     <t>SANCHEZ CHOEZ BERTHA DOLORES</t>
@@ -3062,7 +3062,7 @@
     <t>bertha.choez.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>UUFlkxFp</t>
+    <t>1JMZ!sdN</t>
   </si>
   <si>
     <t>VALENCIA MARCILLO JENIFFER KAROLINA</t>
@@ -3071,7 +3071,7 @@
     <t>jenifferk.valenciam@espam.edu.ec</t>
   </si>
   <si>
-    <t>uUWlEkTp</t>
+    <t>lgknpy67</t>
   </si>
   <si>
     <t>VELASQUEZ GUADAMUD MARIO DAMIAN</t>
@@ -3080,7 +3080,7 @@
     <t>mario.velasquez@espam.edu.ec</t>
   </si>
   <si>
-    <t>bdVRPKMg</t>
+    <t>bCMgZrwW</t>
   </si>
   <si>
     <t>VELEZ RIVAS JOFFRE GEOVANNY</t>
@@ -3089,7 +3089,7 @@
     <t>joffre.velez.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>A/cvq4oo</t>
+    <t>tzt5pJR0</t>
   </si>
   <si>
     <t>VELEZ ZAMBRANO GEMA BRIGITH</t>
@@ -3098,7 +3098,7 @@
     <t>gema.velez.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>YqIU/Zx2</t>
+    <t>jyBrQw&amp;F</t>
   </si>
   <si>
     <t>VERA CEVALLOS CARMEN GISSELLA</t>
@@ -3107,7 +3107,7 @@
     <t>carmen.vera@espam.edu.ec</t>
   </si>
   <si>
-    <t>d0fD!gAk</t>
+    <t>xazt/!Zj</t>
   </si>
   <si>
     <t>VERA SOLORZANO CARLOS NEPTALI</t>
@@ -3116,7 +3116,7 @@
     <t>carlos.veras@espam.edu.ec</t>
   </si>
   <si>
-    <t>JifLiqay</t>
+    <t>&amp;gRy2tDW</t>
   </si>
   <si>
     <t>VERA VERA YUSTHYN YARLETH</t>
@@ -3125,7 +3125,7 @@
     <t>yusthyn.vera.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>JKupuG5?</t>
+    <t>!2N##hg/</t>
   </si>
   <si>
     <t>VIDAL SABANDO MARIA KATHERINE</t>
@@ -3134,7 +3134,7 @@
     <t>maria.vidal.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>6rrAZo2U</t>
+    <t>31eb5A&amp;A</t>
   </si>
   <si>
     <t>ZAMBRANO ALCIVAR EMILIO JOSE</t>
@@ -3143,7 +3143,7 @@
     <t>emilio.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>3Z4TRv3!</t>
+    <t>axtNbdAT</t>
   </si>
   <si>
     <t>ZAMBRANO AVEIGA MAYRA ALEXANDRA</t>
@@ -3152,7 +3152,7 @@
     <t>mayra.zambrano.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>dQ6YM4h?</t>
+    <t>YPXa2rGY</t>
   </si>
   <si>
     <t>ZAMBRANO VERA MARIA BEATRIZ</t>
@@ -3161,7 +3161,7 @@
     <t>maria.zambrano.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>szqoU&amp;z7</t>
+    <t>#Kl0Nw6a</t>
   </si>
   <si>
     <t>ALCIVAR RODRIGUEZ STEFANY LISETH</t>
@@ -3170,7 +3170,7 @@
     <t>stefany.alcivar.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>Gxh0G&amp;Nz</t>
+    <t>vcd&amp;d8Jw</t>
   </si>
   <si>
     <t>ANGULO GLENN YURANI MAGERLI</t>
@@ -3182,7 +3182,7 @@
     <t>yurani.angulo.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>g&amp;kIIBh!</t>
+    <t>VBwxWhhj</t>
   </si>
   <si>
     <t>ARTEAGA TRIVIÑO CAMILA</t>
@@ -3191,7 +3191,7 @@
     <t>camila.arteaga.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>ON2YTX#6</t>
+    <t>a3G#rz37</t>
   </si>
   <si>
     <t>BALDERRAMO CABRERA JOSE GERMAN</t>
@@ -3200,7 +3200,7 @@
     <t>jose.balderramo.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>G49ciuej</t>
+    <t>vlWZxgBb</t>
   </si>
   <si>
     <t>BRAVO MUÑOZ JEAN MYCKEL</t>
@@ -3209,7 +3209,7 @@
     <t>jean.bravomu@espam.edu.ec</t>
   </si>
   <si>
-    <t>RAx#nqIO</t>
+    <t>ajEC&amp;rgd</t>
   </si>
   <si>
     <t>BRAVO SANTANA JUNIOR XAVIER</t>
@@ -3218,7 +3218,7 @@
     <t>juniorx.bravos@espam.edu.ec</t>
   </si>
   <si>
-    <t>Pr#z&amp;g3o</t>
+    <t>OYoxZcjq</t>
   </si>
   <si>
     <t>CAGUA RODRIGUEZ NAYELY ANAHI</t>
@@ -3227,7 +3227,7 @@
     <t>nayely.cagua.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>Td&amp;0GxDe</t>
+    <t>ZxiDzOFr</t>
   </si>
   <si>
     <t>CALDERON RODRIGUEZ FATIMA DANIELA</t>
@@ -3236,7 +3236,7 @@
     <t>fatima.calderon.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>ZD&amp;ACn3V</t>
+    <t>!GJM02D3</t>
   </si>
   <si>
     <t>CASTILLO MEJIA MARIA CARLOTA</t>
@@ -3245,7 +3245,7 @@
     <t>maria.castillo.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>ZT7i04VJ</t>
+    <t>ZQw4GCDK</t>
   </si>
   <si>
     <t>CEDEÑO CUSME DAYANARA NARCISA</t>
@@ -3254,7 +3254,7 @@
     <t>dayanara.cedeno.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>gvszaiLo</t>
+    <t>pzUdKxSd</t>
   </si>
   <si>
     <t>CELORIO VERA PETER PABLO</t>
@@ -3263,7 +3263,7 @@
     <t>peter.celorio.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>l8kv8Qpq</t>
+    <t>N2BhqEtd</t>
   </si>
   <si>
     <t>COOL MORENO DIANA ESTHEFANIA</t>
@@ -3272,7 +3272,7 @@
     <t>diana.cool@espam.edu.ec</t>
   </si>
   <si>
-    <t>u2TN4owE</t>
+    <t>uHEHTVx8</t>
   </si>
   <si>
     <t>DELGADO GARZON PAOLA FERNANDA</t>
@@ -3281,7 +3281,7 @@
     <t>paola.delgadog.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>&amp;#8aSOqG</t>
+    <t>Plt&amp;9LP#</t>
   </si>
   <si>
     <t>DOMINGUEZ DOMINGUEZ ROMINA MELISSA</t>
@@ -3290,7 +3290,7 @@
     <t>romina.dominguez@espam.edu.ec</t>
   </si>
   <si>
-    <t>UhXJ6g58</t>
+    <t>yOHno7u3</t>
   </si>
   <si>
     <t>GARCIA MUÑOZ EDDY SANTIAGO</t>
@@ -3299,7 +3299,7 @@
     <t>eddy.garcia@espam.edu.ec</t>
   </si>
   <si>
-    <t>gaRMia79</t>
+    <t>cKPkULj0</t>
   </si>
   <si>
     <t>GARCIA PONCE LEONELA ANTONELLA</t>
@@ -3308,7 +3308,7 @@
     <t>leonela.garcia.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>#MrN?dGz</t>
+    <t>GrQ5DKKX</t>
   </si>
   <si>
     <t>LOPEZ SOLORZANO YIMMY</t>
@@ -3317,7 +3317,7 @@
     <t>yimmy.lopez@espam.edu.ec</t>
   </si>
   <si>
-    <t>Aou?rrHa</t>
+    <t>!C2YkNOS</t>
   </si>
   <si>
     <t>LOPEZ ZAMBRANO JORGE ISAAC</t>
@@ -3326,7 +3326,7 @@
     <t>jorge.lopez.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>jSnwS&amp;gi</t>
+    <t>wVwKDe&amp;i</t>
   </si>
   <si>
     <t>MACIAS GUAGUA MAGERLY THAIS</t>
@@ -3338,7 +3338,7 @@
     <t>magerly.macias.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>8o8cs?&amp;D</t>
+    <t>x5PI9bL#</t>
   </si>
   <si>
     <t>MARTINEZ SABANDO MARCELO EFRAIN</t>
@@ -3347,7 +3347,7 @@
     <t>marcelo.martinez@espam.edu.ec</t>
   </si>
   <si>
-    <t>u9Sf/pa8</t>
+    <t>z/YrGcBP</t>
   </si>
   <si>
     <t>MEDRANDA CEDEÑO IVAN ARTURO</t>
@@ -3356,7 +3356,7 @@
     <t>ivan.medranda@espam.edu.ec</t>
   </si>
   <si>
-    <t>A/63TjkQ</t>
+    <t>0GsTUJQv</t>
   </si>
   <si>
     <t>MENDOZA INTRIAGO KEYLA YAMIRA</t>
@@ -3365,7 +3365,7 @@
     <t>keyla.mendoza@espam.edu.ec</t>
   </si>
   <si>
-    <t>tEF1zCgg</t>
+    <t>PfpHWDgH</t>
   </si>
   <si>
     <t>MENDOZA LOOR MARIAGRACIA</t>
@@ -3374,7 +3374,7 @@
     <t>mariagracia.mendoza@espam.edu.ec</t>
   </si>
   <si>
-    <t>6bbFoPqa</t>
+    <t>BcvKr!9P</t>
   </si>
   <si>
     <t>MOREIRA VELEZ ANGELICA LISBETH</t>
@@ -3383,7 +3383,7 @@
     <t>angelica.moreira@espam.edu.ec</t>
   </si>
   <si>
-    <t>!#Er72jm</t>
+    <t>juC42QLp</t>
   </si>
   <si>
     <t>PATA HERRERA ESTRELLA TATIANA</t>
@@ -3392,7 +3392,7 @@
     <t>estrella.pata.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>!RNXAJD2</t>
+    <t>WQuw1v6N</t>
   </si>
   <si>
     <t>PONCE MIRANDA YOEL ISAIAS</t>
@@ -3401,7 +3401,7 @@
     <t>yoel.ponce@espam.edu.ec</t>
   </si>
   <si>
-    <t>xjS32lTa</t>
+    <t>efZQ&amp;qHX</t>
   </si>
   <si>
     <t>RIVAS ALARCON ALISSON MAYERLI</t>
@@ -3413,7 +3413,7 @@
     <t>alisson.rivas@espam.edu.ec</t>
   </si>
   <si>
-    <t>H2yqXjzF</t>
+    <t>Xb4sgxyB</t>
   </si>
   <si>
     <t>SABANDO VERA EMELY NOEMI</t>
@@ -3425,7 +3425,7 @@
     <t>emely.sabando.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>9vA73IH6</t>
+    <t>zOLtvhaz</t>
   </si>
   <si>
     <t>VELASQUEZ ZAMBRANO JUAN DIEGO</t>
@@ -3434,7 +3434,7 @@
     <t>juan.velasquez@espam.edu.ec</t>
   </si>
   <si>
-    <t>wnQBcjif</t>
+    <t>8RsoExeU</t>
   </si>
   <si>
     <t>ZAMBRANO MENDOZA JOSE LUIS</t>
@@ -3443,7 +3443,7 @@
     <t>jose.zambrano.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>061I29Vv</t>
+    <t>Zl1hnTBB</t>
   </si>
   <si>
     <t>ZAMBRANO PEREZ CARLOS JULIO</t>
@@ -3452,7 +3452,7 @@
     <t>carlos.zambranop@espam.edu.ec</t>
   </si>
   <si>
-    <t>GkEj/lP7</t>
+    <t>3ez#DSKw</t>
   </si>
   <si>
     <t>ACHIG GUALACATA EVELIN LISETTE</t>
@@ -3461,7 +3461,7 @@
     <t>evelin.achig@espam.edu.ec</t>
   </si>
   <si>
-    <t>kDo?lAw&amp;</t>
+    <t>7pJl#FTa</t>
   </si>
   <si>
     <t>AGUAS VERA JEICOL MIKE</t>
@@ -3470,7 +3470,7 @@
     <t>jeicol.aguas@espam.edu.ec</t>
   </si>
   <si>
-    <t>ocwU?hql</t>
+    <t>s7xQJU!b</t>
   </si>
   <si>
     <t>BRAVO BASURTO JUAN CARLOS</t>
@@ -3479,7 +3479,7 @@
     <t>juan.bravo@espam.edu.ec</t>
   </si>
   <si>
-    <t>27vGBXIv</t>
+    <t>vG36?F7p</t>
   </si>
   <si>
     <t>CANTOS ZAMBRANO MARIA FERNANDA</t>
@@ -3488,7 +3488,7 @@
     <t>mariaf.cantos@espam.edu.ec</t>
   </si>
   <si>
-    <t>j33CUWTI</t>
+    <t>oUSPUqRq</t>
   </si>
   <si>
     <t>CASTILLO DELGADO LERENY JAMILEX</t>
@@ -3497,7 +3497,7 @@
     <t>lereny.castillo@espam.edu.ec</t>
   </si>
   <si>
-    <t>0/1#N/?L</t>
+    <t>mu3aorCW</t>
   </si>
   <si>
     <t>CASTILLO JACOME JHON JAIRO</t>
@@ -3506,7 +3506,7 @@
     <t>jhon.castillo@espam.edu.ec</t>
   </si>
   <si>
-    <t>SGys4g5W</t>
+    <t>iR/59m86</t>
   </si>
   <si>
     <t>CELORIO MENDOZA MIRIAN ALEJANDRA</t>
@@ -3515,7 +3515,7 @@
     <t>mirian.celorio@espam.edu.ec</t>
   </si>
   <si>
-    <t>Zt8X5Chj</t>
+    <t>n4Do5A?&amp;</t>
   </si>
   <si>
     <t>CHUMO CHAVEZ JANINA BELEN</t>
@@ -3524,7 +3524,7 @@
     <t>janina.chumo@espam.edu.ec</t>
   </si>
   <si>
-    <t>XdrjTF7Z</t>
+    <t>96ak!r1k</t>
   </si>
   <si>
     <t>DELGADO LOPEZ MERCEDES ELIZABETH</t>
@@ -3533,7 +3533,7 @@
     <t>mercedes.delgado@espam.edu.ec</t>
   </si>
   <si>
-    <t>vFRjd!go</t>
+    <t>D!PQQCjc</t>
   </si>
   <si>
     <t>ESTEVES OLVERA DIANA MILENA</t>
@@ -3542,7 +3542,7 @@
     <t>diana.esteves@espam.edu.ec</t>
   </si>
   <si>
-    <t>pq9ftTjt</t>
+    <t>RwXGMG7F</t>
   </si>
   <si>
     <t>FALLAIN ZAMBRANO MARIA ANGELICA</t>
@@ -3551,7 +3551,7 @@
     <t>maria.fallain@espam.edu.ec</t>
   </si>
   <si>
-    <t>9&amp;Q&amp;Oo!B</t>
+    <t>/Rz6acPM</t>
   </si>
   <si>
     <t>FERNANDEZ CEVALLOS FRANCISCO ESTUARDO</t>
@@ -3560,7 +3560,7 @@
     <t>francisco.fernandez@espam.edu.ec</t>
   </si>
   <si>
-    <t>Oizlp/yk</t>
+    <t>52!OjQ33</t>
   </si>
   <si>
     <t>HERNANDEZ HERNANDEZ MARIA ZULEMA</t>
@@ -3572,7 +3572,7 @@
     <t>maria.hernandez@espam.edu.ec</t>
   </si>
   <si>
-    <t>JOSuvpEL</t>
+    <t>?j?cNzk/</t>
   </si>
   <si>
     <t>INTRIAGO SOLORZANO LEYDI GABRIELA</t>
@@ -3581,7 +3581,7 @@
     <t>leydi.intriago@espam.edu.ec</t>
   </si>
   <si>
-    <t>zH3rhbdZ</t>
+    <t>ERXVnfja</t>
   </si>
   <si>
     <t>MACIAS LOOR ELIAN RENE</t>
@@ -3590,7 +3590,7 @@
     <t>elian.macias@espam.edu.ec</t>
   </si>
   <si>
-    <t>U7piHh?d</t>
+    <t>6&amp;!x0qs6</t>
   </si>
   <si>
     <t>MACIAS PISCO NACHY MONSERRAT</t>
@@ -3599,7 +3599,7 @@
     <t>nachy.macias@espam.edu.ec</t>
   </si>
   <si>
-    <t>sGU#MoWT</t>
+    <t>j9ik?62#</t>
   </si>
   <si>
     <t>MERA LOOR JONAYKER REYNALDO</t>
@@ -3608,7 +3608,7 @@
     <t>jonayker.mera@espam.edu.ec</t>
   </si>
   <si>
-    <t>QYca8UqE</t>
+    <t>!4Z50CCO</t>
   </si>
   <si>
     <t>MOREIRA BASURTO YORDY JOEL</t>
@@ -3617,7 +3617,7 @@
     <t>yordy.moreira@espam.edu.ec</t>
   </si>
   <si>
-    <t>7s6Cg6LF</t>
+    <t>/z51llbj</t>
   </si>
   <si>
     <t>MOREIRA MENDOZA MAGDALENA JAMILETH</t>
@@ -3626,7 +3626,7 @@
     <t>magdalena.moreira@espam.edu.ec</t>
   </si>
   <si>
-    <t>Y6SQoBe3</t>
+    <t>y2qeblJV</t>
   </si>
   <si>
     <t>PANTUSIN MUGUERZA ANDREA LISSETH</t>
@@ -3635,7 +3635,7 @@
     <t>andrea.pantusin@espam.edu.ec</t>
   </si>
   <si>
-    <t>4TmFcjwv</t>
+    <t>2GmVN7AD</t>
   </si>
   <si>
     <t>PATIÑO MEJIA MILENA ANAHI</t>
@@ -3644,7 +3644,7 @@
     <t>milena.patino@espam.edu.ec</t>
   </si>
   <si>
-    <t>y#C0jYr&amp;</t>
+    <t>9Axzv?dt</t>
   </si>
   <si>
     <t>PICO GARCIA ALLISON JANELY</t>
@@ -3653,7 +3653,7 @@
     <t>allison.pico@espam.edu.ec</t>
   </si>
   <si>
-    <t>CTySv&amp;u0</t>
+    <t>HO5yr8!5</t>
   </si>
   <si>
     <t>POVEDA SANTANA ENZO JAVIER</t>
@@ -3665,7 +3665,7 @@
     <t>enzo.poveda@espam.edu.ec</t>
   </si>
   <si>
-    <t>6cQNArmH</t>
+    <t>qHTIiBBd</t>
   </si>
   <si>
     <t>QUIJIJE CEDEÑO NATALY SILVANA</t>
@@ -3674,7 +3674,7 @@
     <t>nataly.quijije@espam.edu.ec</t>
   </si>
   <si>
-    <t>U370yPiB</t>
+    <t>CoXqmT/V</t>
   </si>
   <si>
     <t>ROBALINO DELGADO JORGE DAVID</t>
@@ -3683,7 +3683,7 @@
     <t>jorge.robalino@espam.edu.ec</t>
   </si>
   <si>
-    <t>jTFzXf!?</t>
+    <t>?2LiTs0!</t>
   </si>
   <si>
     <t>SANCHEZ CASTILLO ADRIANA MICAELA</t>
@@ -3692,7 +3692,7 @@
     <t>adriana.sanchez@espam.edu.ec</t>
   </si>
   <si>
-    <t>aHAZL7Du</t>
+    <t>YN9CVdoh</t>
   </si>
   <si>
     <t>SOLORZANO ALAVA TAIRUN FRANCISCO</t>
@@ -3701,7 +3701,7 @@
     <t>tairun.solorzano@espam.edu.ec</t>
   </si>
   <si>
-    <t>IiXz1Z0r</t>
+    <t>&amp;7KH7yme</t>
   </si>
   <si>
     <t>SOLORZANO BAILON MARIA GABRIELA</t>
@@ -3710,7 +3710,7 @@
     <t>mariaga.solorzano@espam.edu.ec</t>
   </si>
   <si>
-    <t>MLYIAT7v</t>
+    <t>Kqhf&amp;4D2</t>
   </si>
   <si>
     <t>TRUJILLO AGUAS MAYERLI DAYANA</t>
@@ -3719,7 +3719,7 @@
     <t>mayerli.trujillo@espam.edu.ec</t>
   </si>
   <si>
-    <t>h/Hc1IZv</t>
+    <t>xSYegk1e</t>
   </si>
   <si>
     <t>VERA VERA CINTHIA MARIA</t>
@@ -3728,7 +3728,7 @@
     <t>cinthia.verav@espam.edu.ec</t>
   </si>
   <si>
-    <t>/GjAmFCo</t>
+    <t>3028PqK7</t>
   </si>
   <si>
     <t>VIDAL INTRIAGO ANDY YOEL</t>
@@ -3737,7 +3737,7 @@
     <t>andy.vidal@espam.edu.ec</t>
   </si>
   <si>
-    <t>2HqVIFd?</t>
+    <t>rlRJzNAs</t>
   </si>
   <si>
     <t>VINTIMILLA PROAÑO MARIA DE LOURDES</t>
@@ -3746,7 +3746,7 @@
     <t>maria.vintimilla@espam.edu.ec</t>
   </si>
   <si>
-    <t>7mdd7QMA</t>
+    <t>U?0tkEQ/</t>
   </si>
   <si>
     <t>VITERI SANTOS VINICIO ORLEY</t>
@@ -3755,7 +3755,7 @@
     <t>vinicio.viteri@espam.edu.ec</t>
   </si>
   <si>
-    <t>uoB#aFJa</t>
+    <t>kH31!i8P</t>
   </si>
   <si>
     <t>ZAMBRANO CANO FRANCISCO JAVIER</t>
@@ -3764,7 +3764,7 @@
     <t>francisco.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>ISmo98Dy</t>
+    <t>7HJR8Wqy</t>
   </si>
   <si>
     <t>ZAMBRANO NAVARRETE ELBA MARIA</t>
@@ -3773,7 +3773,7 @@
     <t>elba.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>PvnYHlAN</t>
+    <t>#otnCWaJ</t>
   </si>
   <si>
     <t>ZAMBRANO ZAMBRANO WENDY GISSELLA</t>
@@ -3782,7 +3782,7 @@
     <t>wendy.zambranoz@espam.edu.ec</t>
   </si>
   <si>
-    <t>tMoLpNdq</t>
+    <t>IHzmV6Q5</t>
   </si>
   <si>
     <t>ARANA RUEDA ANGY LISSETH</t>
@@ -3794,7 +3794,7 @@
     <t>angy.arana@espam.edu.ec</t>
   </si>
   <si>
-    <t>gKPQ6ejb</t>
+    <t>!JgpmMlB</t>
   </si>
   <si>
     <t>ARTEAGA VARGAS ANDREA VALERIA</t>
@@ -3803,7 +3803,7 @@
     <t>andrea.arteaga@espam.edu.ec</t>
   </si>
   <si>
-    <t>#qNzxc6A</t>
+    <t>jrg?lxkf</t>
   </si>
   <si>
     <t>BARBERAN SANCHEZ KARLA MICHELLE</t>
@@ -3812,7 +3812,7 @@
     <t>karla.barberan@espam.edu.ec</t>
   </si>
   <si>
-    <t>6u4R#Gt3</t>
+    <t>R1xn4dJp</t>
   </si>
   <si>
     <t>BAZURTO MANZABA SORAYA STEFANIA</t>
@@ -3821,7 +3821,7 @@
     <t>soraya.bazurto@espam.edu.ec</t>
   </si>
   <si>
-    <t>FH6/vXNg</t>
+    <t>3S/hodc7</t>
   </si>
   <si>
     <t>CAGUA GARCIA ANDRES VIRGILIO</t>
@@ -3830,7 +3830,7 @@
     <t>andres.cagua@espam.edu.ec</t>
   </si>
   <si>
-    <t>Jz80XTw8</t>
+    <t>G17EiLB7</t>
   </si>
   <si>
     <t>DOMINGUEZ CALDERON JEAN PIERRE</t>
@@ -3839,7 +3839,7 @@
     <t>jean.dominguez@espam.edu.ec</t>
   </si>
   <si>
-    <t>ZgdE?iIm</t>
+    <t>&amp;Bn?nmFz</t>
   </si>
   <si>
     <t>ESPINOZA ALCIVAR EVELYN ALEXANDRA</t>
@@ -3848,7 +3848,7 @@
     <t>evelyn.espinoza@espam.edu.ec</t>
   </si>
   <si>
-    <t>7zSO2FAY</t>
+    <t>skK2ZxMV</t>
   </si>
   <si>
     <t>LOOR MORENO DANIEL AGUSTIN</t>
@@ -3857,7 +3857,7 @@
     <t>daniel.loor@espam.edu.ec</t>
   </si>
   <si>
-    <t>NHnUY/MM</t>
+    <t>oaiqEeH?</t>
   </si>
   <si>
     <t>MACIAS PARRALES MEREDITH MARIBEL</t>
@@ -3866,7 +3866,7 @@
     <t>meredith.macias@espam.edu.ec</t>
   </si>
   <si>
-    <t>D#INE7c?</t>
+    <t>i54jXC!t</t>
   </si>
   <si>
     <t>MENDOZA CANCHINGRE BRIGITH MIKAELA</t>
@@ -3875,7 +3875,7 @@
     <t>brigith.mendoza@espam.edu.ec</t>
   </si>
   <si>
-    <t>/2tM3!XD</t>
+    <t>pihUMHwR</t>
   </si>
   <si>
     <t>MENDOZA VELEZ JOSE MIGUEL</t>
@@ -3884,7 +3884,7 @@
     <t>josemi.mendoza@espam.edu.ec</t>
   </si>
   <si>
-    <t>gm4!z45b</t>
+    <t>iYk2!vQb</t>
   </si>
   <si>
     <t>MEZA BRIONES ANTHONY NARCILO</t>
@@ -3893,7 +3893,7 @@
     <t>anthony.meza@espam.edu.ec</t>
   </si>
   <si>
-    <t>qRftAfWF</t>
+    <t>?J&amp;EmJOk</t>
   </si>
   <si>
     <t>MORA ZAMBRANO MARIA LAURA</t>
@@ -3902,7 +3902,7 @@
     <t>maria.mora@espam.edu.ec</t>
   </si>
   <si>
-    <t>M14gd800</t>
+    <t>Y3sYdU6e</t>
   </si>
   <si>
     <t>NAVARRETE ZAMBRANO ROBIN LUGERIO</t>
@@ -3911,7 +3911,7 @@
     <t>robin.navarrete@espam.edu.ec</t>
   </si>
   <si>
-    <t>Qzp2Puuz</t>
+    <t>i&amp;2IXYlo</t>
   </si>
   <si>
     <t>OSTAIZA LOPEZ JOSEPH MANUEL</t>
@@ -3920,7 +3920,7 @@
     <t>josepth.ostaiza@espam.edu.ec</t>
   </si>
   <si>
-    <t>#oXPg654</t>
+    <t>xB9Hc90/</t>
   </si>
   <si>
     <t>PARRAGA PARRAGA CARLA ESTEFANIA</t>
@@ -3929,7 +3929,7 @@
     <t>carla.parraga@espam.edu.ec</t>
   </si>
   <si>
-    <t>6f8s#5Su</t>
+    <t>q#T1EJoc</t>
   </si>
   <si>
     <t>PLAZA CABRERA MAYERLY MARIA</t>
@@ -3941,7 +3941,7 @@
     <t>mayerly.plaza@espam.edu.ec</t>
   </si>
   <si>
-    <t>b20qYE?8</t>
+    <t>BMnoYKSi</t>
   </si>
   <si>
     <t>RODRIGUEZ VELIZ LEANDRO MOISES</t>
@@ -3950,7 +3950,7 @@
     <t>leandro.rodriguez@espam.edu.ec</t>
   </si>
   <si>
-    <t>GPi49EgV</t>
+    <t>7cPZbuKc</t>
   </si>
   <si>
     <t>SANTANA GUERRERO MARIA RAQUEL</t>
@@ -3959,7 +3959,7 @@
     <t>mariar.santanag@espam.edu.ec</t>
   </si>
   <si>
-    <t>qYySj0bV</t>
+    <t>KFp0zOuf</t>
   </si>
   <si>
     <t>SANTOS SALAZAR JANDRY DAVID</t>
@@ -3968,7 +3968,7 @@
     <t>jandry.santos@espam.edu.ec</t>
   </si>
   <si>
-    <t>Ir1G6GuD</t>
+    <t>AeZ7D7nc</t>
   </si>
   <si>
     <t>SOLORZANO LOOR KEYLA GEOVANNA</t>
@@ -3977,7 +3977,7 @@
     <t>keyla.solorzano@espam.edu.ec</t>
   </si>
   <si>
-    <t>0UKiQcgQ</t>
+    <t>3aYItnPk</t>
   </si>
   <si>
     <t>VALENCIA ZAMBRANO VALERIA MERCEDES</t>
@@ -3986,7 +3986,7 @@
     <t>valeria.valencia@espam.edu.ec</t>
   </si>
   <si>
-    <t>8?qNH5rW</t>
+    <t>s0RTy3cy</t>
   </si>
   <si>
     <t>VARGAS CHOEZ ALEXIS ELIAN</t>
@@ -3995,7 +3995,7 @@
     <t>alexis.vargas@espam.edu.ec</t>
   </si>
   <si>
-    <t>dLsdYnUz</t>
+    <t>8y9QXAVm</t>
   </si>
   <si>
     <t>VELEZ ALMEIDA CARMEN REBECA</t>
@@ -4004,7 +4004,7 @@
     <t>carmen.velez@espam.edu.ec</t>
   </si>
   <si>
-    <t>J0#o7sL?</t>
+    <t>#hNAAft7</t>
   </si>
   <si>
     <t>VELEZ LEGTON GENESIS YAMILET</t>
@@ -4013,7 +4013,7 @@
     <t>genesisya.velez@espam.edu.ec</t>
   </si>
   <si>
-    <t>MysUF4yU</t>
+    <t>HYPcjytg</t>
   </si>
   <si>
     <t>VERA BALAREZO MARYAM JANELLA</t>
@@ -4022,7 +4022,7 @@
     <t>maryam.vera@espam.edu.ec</t>
   </si>
   <si>
-    <t>T?Ty9ijD</t>
+    <t>skmPub4L</t>
   </si>
   <si>
     <t>VERA SERRANO CARLOS STEFANO</t>
@@ -4031,7 +4031,7 @@
     <t>carlos.verase@espam.edu.ec</t>
   </si>
   <si>
-    <t>0A?efi4R</t>
+    <t>Fx!Vp/Jj</t>
   </si>
   <si>
     <t>VIERA BAZURTO JOSE ALEXANDER</t>
@@ -4040,7 +4040,7 @@
     <t>jose.viera@espam.edu.ec</t>
   </si>
   <si>
-    <t>AWBN?pJc</t>
+    <t>NZZQ00u#</t>
   </si>
   <si>
     <t>ZAMBRANO ALCIVAR DIEGO JAHIR</t>
@@ -4049,7 +4049,7 @@
     <t>diego.zambranoa@espam.edu.ec</t>
   </si>
   <si>
-    <t>v&amp;wk1#zW</t>
+    <t>b?muxRX5</t>
   </si>
   <si>
     <t>ZAMBRANO MANZABA MARIA FERNANDA</t>
@@ -4058,7 +4058,7 @@
     <t>mariafer.zambranom@espam.edu.ec</t>
   </si>
   <si>
-    <t>ZsnY/WH9</t>
+    <t>/#AOdL3c</t>
   </si>
   <si>
     <t>ALCIVAR GILER MELANY JULISA</t>
@@ -4067,7 +4067,7 @@
     <t>melany.alcivar@espam.edu.ec</t>
   </si>
   <si>
-    <t>bzZ9f9nf</t>
+    <t>t4OL4xjE</t>
   </si>
   <si>
     <t>ANDRADE ZAMBRANO NATHALY NICOLLE</t>
@@ -4076,7 +4076,7 @@
     <t>nathaly.andrade@espam.edu.ec</t>
   </si>
   <si>
-    <t>AdUD&amp;eWY</t>
+    <t>3/mF/kgs</t>
   </si>
   <si>
     <t>BASURTO MORAN LUIS ALEXANDER</t>
@@ -4085,7 +4085,7 @@
     <t>luis.basurtom@espam.edu.ec</t>
   </si>
   <si>
-    <t>7/QCP64R</t>
+    <t>X?trEaFe</t>
   </si>
   <si>
     <t>BERMELLO VELEZ ANGELA DANIELA</t>
@@ -4094,7 +4094,7 @@
     <t>angela.bermello@espam.edu.ec</t>
   </si>
   <si>
-    <t>boAY?O//</t>
+    <t>1tso/d45</t>
   </si>
   <si>
     <t>BRAVO VERA GEMA VIVIANA</t>
@@ -4103,7 +4103,7 @@
     <t>gema.bravov@espam.edu.ec</t>
   </si>
   <si>
-    <t>vWG#Xco2</t>
+    <t>lP4gTNW0</t>
   </si>
   <si>
     <t>BRIONES INTRIAGO LORENA LUCIA</t>
@@ -4112,7 +4112,7 @@
     <t>lorena.briones@espam.edu.ec</t>
   </si>
   <si>
-    <t>DA9Afy?Q</t>
+    <t>?ahHhPoY</t>
   </si>
   <si>
     <t>BURGOS BRAVO KATHERIN DANIELA</t>
@@ -4121,7 +4121,7 @@
     <t>katherin.burgos@espam.edu.ec</t>
   </si>
   <si>
-    <t>/#aIIMSq</t>
+    <t>kGR?s1H/</t>
   </si>
   <si>
     <t>LOOR PARRAGA ROY RUBEN</t>
@@ -4130,7 +4130,7 @@
     <t>roy.loor@espam.edu.ec</t>
   </si>
   <si>
-    <t>RkbtHtP!</t>
+    <t>VNSq6BDT</t>
   </si>
   <si>
     <t>LOPEZ GANCHOZO LEANDRO ANTONIO</t>
@@ -4139,7 +4139,7 @@
     <t>leandro.lopez@espam.edu.ec</t>
   </si>
   <si>
-    <t>bE#wITBz</t>
+    <t>d4/J5oE#</t>
   </si>
   <si>
     <t>MACIAS MACIAS JOY ROBERTO</t>
@@ -4148,7 +4148,7 @@
     <t>joy.macias@espam.edu.ec</t>
   </si>
   <si>
-    <t>d8eXXDAo</t>
+    <t>C#/gp9t&amp;</t>
   </si>
   <si>
     <t>MACIAS SILVA CINTHYA MARIANA</t>
@@ -4157,7 +4157,7 @@
     <t>cinthya.macias@espam.edu.ec</t>
   </si>
   <si>
-    <t>2WwH#3z7</t>
+    <t>/L7t!lYg</t>
   </si>
   <si>
     <t>MENDOZA PONCE MARIA ANGELICA</t>
@@ -4166,7 +4166,7 @@
     <t>maria.mendozap@espam.edu.ec</t>
   </si>
   <si>
-    <t>#b?ZNTDe</t>
+    <t>csg8XScG</t>
   </si>
   <si>
     <t>MONCAYO LAINEZ KERLY ARIANNA</t>
@@ -4175,7 +4175,7 @@
     <t>kerly.moncayo@espam.edu.ec</t>
   </si>
   <si>
-    <t>q/ozad?I</t>
+    <t>&amp;q&amp;x/Q3G</t>
   </si>
   <si>
     <t>MONTES POZO JEAN POLL</t>
@@ -4184,7 +4184,7 @@
     <t>jean.montes@espam.edu.ec</t>
   </si>
   <si>
-    <t>Ivel69m3</t>
+    <t>0w#J8!3X</t>
   </si>
   <si>
     <t>MORENO OBANDO ANA BELLA</t>
@@ -4193,7 +4193,7 @@
     <t>ana.moreno@espam.edu.ec</t>
   </si>
   <si>
-    <t>uf22zike</t>
+    <t>DzHNlEBo</t>
   </si>
   <si>
     <t>NAVARRETE PARODI ERIKA KARINA</t>
@@ -4202,7 +4202,7 @@
     <t>erika.navarrete@espam.edu.ec</t>
   </si>
   <si>
-    <t>12g7Y5sJ</t>
+    <t>vSFAWJGC</t>
   </si>
   <si>
     <t>ORMAZA ESPINOZA JESUS EMILIO</t>
@@ -4211,7 +4211,7 @@
     <t>jesus.ormaza@espam.edu.ec</t>
   </si>
   <si>
-    <t>Lh4?q33O</t>
+    <t>ie0uJ7Ky</t>
   </si>
   <si>
     <t>ORMAZA FALCONES MARIA ALEJANDRA</t>
@@ -4220,7 +4220,7 @@
     <t>maria.ormaza@espam.edu.ec</t>
   </si>
   <si>
-    <t>RrDodQnf</t>
+    <t>n#tIYbZC</t>
   </si>
   <si>
     <t>PARRAGA QUIJIJE GEMA KAROLINA</t>
@@ -4229,7 +4229,7 @@
     <t>gemak.parragaq@espam.edu.ec</t>
   </si>
   <si>
-    <t>!rlrjHNy</t>
+    <t>AOZn/p&amp;l</t>
   </si>
   <si>
     <t>PICO TOLA MARCO ANDRES</t>
@@ -4238,7 +4238,7 @@
     <t>marco.pico@espam.edu.ec</t>
   </si>
   <si>
-    <t>NmYL9XSi</t>
+    <t>6EC#zAtM</t>
   </si>
   <si>
     <t>PIN NAPA IVANA MAYERLI</t>
@@ -4247,7 +4247,7 @@
     <t>ivana.pin@espam.edu.ec</t>
   </si>
   <si>
-    <t>xJHuq0wr</t>
+    <t>p4XBRdIh</t>
   </si>
   <si>
     <t>ROMERO BRAVO JOSE AGUSTIN</t>
@@ -4256,7 +4256,7 @@
     <t>jose.romero@espam.edu.ec</t>
   </si>
   <si>
-    <t>jvl9!ZE0</t>
+    <t>g1wSTL9!</t>
   </si>
   <si>
     <t>SALTOS INTRIAGO NATHALIA MELISSA</t>
@@ -4265,7 +4265,7 @@
     <t>nathalia.saltos@espam.edu.ec</t>
   </si>
   <si>
-    <t>SjBrvtWg</t>
+    <t>tuHT8sjh</t>
   </si>
   <si>
     <t>SALTOS SALTOS MADELYNE PIERINA</t>
@@ -4274,7 +4274,7 @@
     <t>madelyne.saltos@espam.edu.ec</t>
   </si>
   <si>
-    <t>L3dtJIj&amp;</t>
+    <t>F1rZ&amp;b8o</t>
   </si>
   <si>
     <t>SOLIS ORTIZ SANTIAGO</t>
@@ -4283,7 +4283,7 @@
     <t>santiago.solis@espam.edu.ec</t>
   </si>
   <si>
-    <t>DYFJUMrN</t>
+    <t>QjDwdh2s</t>
   </si>
   <si>
     <t>SOLORZANO ZAMBRANO GEMA NARCISA</t>
@@ -4292,7 +4292,7 @@
     <t>gema.solorzano@espam.edu.ec</t>
   </si>
   <si>
-    <t>62Vehi3b</t>
+    <t>Ms2RoTYr</t>
   </si>
   <si>
     <t>VARGAS SOLORZANO ANDREA DIVINA</t>
@@ -4301,7 +4301,7 @@
     <t>andrea.vargas@espam.edu.ec</t>
   </si>
   <si>
-    <t>lj8&amp;GbvB</t>
+    <t>gqJP&amp;Dkq</t>
   </si>
   <si>
     <t>VELEZ VERA MANUEL ALEXANDER</t>
@@ -4310,7 +4310,7 @@
     <t>manuel.velez@espam.edu.ec</t>
   </si>
   <si>
-    <t>FrCa!Yli</t>
+    <t>BHM62s1V</t>
   </si>
   <si>
     <t>VELEZ ZAMBRANO ADRIAN DAVID</t>
@@ -4319,7 +4319,7 @@
     <t>adrian.velez@espam.edu.ec</t>
   </si>
   <si>
-    <t>NQY3I7B&amp;</t>
+    <t>Wxy8xSUI</t>
   </si>
   <si>
     <t>YLLESCA CEDEÑO JESUS JONATHAN</t>
@@ -4328,7 +4328,7 @@
     <t>jesus.yllesca@espam.edu.ec</t>
   </si>
   <si>
-    <t>XqE9snEy</t>
+    <t>BvIIuZRZ</t>
   </si>
   <si>
     <t>ZAMBRANO CATOTA DERLYN MILENA</t>
@@ -4337,7 +4337,7 @@
     <t>derlyn.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>uVnpZKt4</t>
+    <t>BN7!?9QD</t>
   </si>
   <si>
     <t>ZAMBRANO CEDEÑO CHRISTIAN EDUARDO</t>
@@ -4346,7 +4346,7 @@
     <t>christian.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>Dps99Wb#</t>
+    <t>UrtnZXgv</t>
   </si>
   <si>
     <t>ZAMBRANO ROBLES GLENDY MERCEDES</t>
@@ -4355,7 +4355,7 @@
     <t>glendy.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>TVPnYmnl</t>
+    <t>tN&amp;cACyY</t>
   </si>
   <si>
     <t>ZAMBRANO ROSADO JORGE ALESSANDRO</t>
@@ -4364,7 +4364,7 @@
     <t>jorge.zambranor@espam.edu.ec</t>
   </si>
   <si>
-    <t>wPNafbO1</t>
+    <t>tm3PlKPW</t>
   </si>
   <si>
     <t>ZAMBRANO VERA WENDY ANAHI</t>
@@ -4373,7 +4373,7 @@
     <t>wendy.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>s2aC1l6?</t>
+    <t>hP8tCc8Z</t>
   </si>
   <si>
     <t>ZAMBRANO ZAMBRANO JONATHAN JAVIER</t>
@@ -4382,7 +4382,7 @@
     <t>jonathan.zambranoz@espam.edu.ec</t>
   </si>
   <si>
-    <t>5fL1wAu7</t>
+    <t>3?UzdDYY</t>
   </si>
   <si>
     <t>ZAMORA SOLORZANO MAGALY DOLORES</t>
@@ -4391,7 +4391,7 @@
     <t>magaly.zamora@espam.edu.ec</t>
   </si>
   <si>
-    <t>tD#7Yh89</t>
+    <t>m0B5AMFh</t>
   </si>
   <si>
     <t>BRAVO ZAMBRANO MARIA EMILIA</t>
@@ -4400,7 +4400,7 @@
     <t>maria.bravoz@espam.edu.ec</t>
   </si>
   <si>
-    <t>EAUQ16S7</t>
+    <t>mvMMDMvj</t>
   </si>
   <si>
     <t>CEVALLOS ALVAREZ ARMANDO ENRIQUE</t>
@@ -4409,7 +4409,7 @@
     <t>armando.cevallos@espam.edu.ec</t>
   </si>
   <si>
-    <t>QM&amp;uCswZ</t>
+    <t>3z!qDS29</t>
   </si>
   <si>
     <t>CEVALLOS VERA ARELIS STEFANIA</t>
@@ -4418,7 +4418,7 @@
     <t>arelis.cevallos@espam.edu.ec</t>
   </si>
   <si>
-    <t>aHjcDpdc</t>
+    <t>J13DMMk8</t>
   </si>
   <si>
     <t>COOL MERO PATRICIO JAVIER</t>
@@ -4427,7 +4427,7 @@
     <t>patricio.cool@espam.edu.ec</t>
   </si>
   <si>
-    <t>l6GGGKL!</t>
+    <t>wwx0PpEI</t>
   </si>
   <si>
     <t>FRANCO ORELLANA GUADALUPE MONSERRATE</t>
@@ -4436,7 +4436,7 @@
     <t>guadalupe.franco@espam.edu.ec</t>
   </si>
   <si>
-    <t>1AeJS7Kj</t>
+    <t>YO5c0ek1</t>
   </si>
   <si>
     <t>HUERTA BALDIVIEZO JEAN CRISTHIAN</t>
@@ -4445,7 +4445,7 @@
     <t>jean.huerta@espam.edu.ec</t>
   </si>
   <si>
-    <t>/JgPGFep</t>
+    <t>2o/YjVCq</t>
   </si>
   <si>
     <t>INTRIAGO CANTOS MARIA JOSE</t>
@@ -4454,7 +4454,7 @@
     <t>maria.intriagoc@espam.edu.ec</t>
   </si>
   <si>
-    <t>GrY4kGWV</t>
+    <t>l?ZevcTL</t>
   </si>
   <si>
     <t>LOOR CANTOS DIANA ISABEL</t>
@@ -4463,7 +4463,7 @@
     <t>diana.loor@espam.edu.ec</t>
   </si>
   <si>
-    <t>nyxrurwV</t>
+    <t>HKu3C9i6</t>
   </si>
   <si>
     <t>LOOR SEGOVIA EVELYN ADRIANA</t>
@@ -4472,7 +4472,7 @@
     <t>evelyn.loors@espam.edu.ec</t>
   </si>
   <si>
-    <t>bz2bRkxd</t>
+    <t>t8eFGY0v</t>
   </si>
   <si>
     <t>MEDINA CEDEÑO JULIO CESAR</t>
@@ -4481,7 +4481,7 @@
     <t>julio.medina@espam.edu.ec</t>
   </si>
   <si>
-    <t>5NI1Xxs1</t>
+    <t>AyEWHFRm</t>
   </si>
   <si>
     <t>MERA VELEZ ALONDRA GARDENIA</t>
@@ -4490,7 +4490,7 @@
     <t>alondra.mera@espam.edu.ec</t>
   </si>
   <si>
-    <t>6xaIkNuD</t>
+    <t>nlXn?Jon</t>
   </si>
   <si>
     <t>MUÑOZ ZAMBRANO CARLOS JOSUE</t>
@@ -4499,7 +4499,7 @@
     <t>carlos.munozz@espam.edu.ec</t>
   </si>
   <si>
-    <t>Wh6RyYVN</t>
+    <t>qPJZUtS/</t>
   </si>
   <si>
     <t>NAPA RODRIGUEZ JOSE AGUSTIN</t>
@@ -4508,7 +4508,7 @@
     <t>jose.napa@espam.edu.ec</t>
   </si>
   <si>
-    <t>ceDDFeXw</t>
+    <t>KLslSv#D</t>
   </si>
   <si>
     <t>PALMA CEVALLOS MARIA JOSE</t>
@@ -4517,7 +4517,7 @@
     <t>maria.palma@espam.edu.ec</t>
   </si>
   <si>
-    <t>eS&amp;!75Mr</t>
+    <t>vOaKm2Je</t>
   </si>
   <si>
     <t>PATIÑO MESIAS MARIA GABRIELA</t>
@@ -4526,7 +4526,7 @@
     <t>maria.patino@espam.edu.ec</t>
   </si>
   <si>
-    <t>O&amp;YU3jP#</t>
+    <t>pW6k8wPe</t>
   </si>
   <si>
     <t>QUINTANA CAGUA YENIFER YULI</t>
@@ -4535,7 +4535,7 @@
     <t>yenifer.quintana@espam.edu.ec</t>
   </si>
   <si>
-    <t>r?0Z25h7</t>
+    <t>ZjF/APkE</t>
   </si>
   <si>
     <t>RIVERA CANTOS MARIA DANIELA</t>
@@ -4544,7 +4544,7 @@
     <t>maria.riverac@espam.edu.ec</t>
   </si>
   <si>
-    <t>/nLgLwQb</t>
+    <t>SAcuR6!m</t>
   </si>
   <si>
     <t>RODRIGUEZ PINCAY CARLOS BRYAN</t>
@@ -4553,7 +4553,7 @@
     <t>carlos.rodriguezp@espam.edu.ec</t>
   </si>
   <si>
-    <t>pKQA86tp</t>
+    <t>14qdaAWl</t>
   </si>
   <si>
     <t>SABANDO VELEZ CRISTHIAN ANTHONY</t>
@@ -4562,7 +4562,7 @@
     <t>cristhian.sabando@espam.edu.ec</t>
   </si>
   <si>
-    <t>nIqtX9AU</t>
+    <t>w4/O!WwV</t>
   </si>
   <si>
     <t>SANTANA VERA ANTHONY JAHIR</t>
@@ -4571,7 +4571,7 @@
     <t>anthony.santana@espam.edu.ec</t>
   </si>
   <si>
-    <t>LA9onKeW</t>
+    <t>9n99glgN</t>
   </si>
   <si>
     <t>VELEZ ESPINOZA JUNIOR JESUS</t>
@@ -4580,7 +4580,7 @@
     <t>junior.veleze@espam.edu.ec</t>
   </si>
   <si>
-    <t>q4AO4dsu</t>
+    <t>CD8nxzUB</t>
   </si>
   <si>
     <t>VERDUGA ZAMBRANO DIEGO ALEJANDRO</t>
@@ -4589,7 +4589,7 @@
     <t>diego.verduga@espam.edu.ec</t>
   </si>
   <si>
-    <t>g3f/OgPc</t>
+    <t>HpRK&amp;xVJ</t>
   </si>
   <si>
     <t>ZAMBRANO VELEZ NAYELHY LILIBETH</t>
@@ -4598,7 +4598,7 @@
     <t>nayelhy.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>Frap6bj!</t>
+    <t>fYB051qV</t>
   </si>
   <si>
     <t>ZAMBRANO WITONG KENIA THAIS</t>
@@ -4607,7 +4607,7 @@
     <t>keniath.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>zQuEhEfe</t>
+    <t>X0nl4ajo</t>
   </si>
   <si>
     <t>ANCHUNDIA ANCHUNDIA GEMA LILIBETH</t>
@@ -4616,7 +4616,7 @@
     <t>gema.anchundia@espam.edu.ec</t>
   </si>
   <si>
-    <t>Cxa1PZy9</t>
+    <t>ATB/A#1x</t>
   </si>
   <si>
     <t>ARTEAGA DELGADO JEAN CARLOS</t>
@@ -4625,7 +4625,7 @@
     <t>jean.arteaga@espam.edu.ec</t>
   </si>
   <si>
-    <t>caFca7OW</t>
+    <t>MpGzusy!</t>
   </si>
   <si>
     <t>BARREIRO ZAMBRANO JOSE VICENTE</t>
@@ -4634,7 +4634,7 @@
     <t>jose.barreiro@espam.edu.ec</t>
   </si>
   <si>
-    <t>E#/8t!8P</t>
+    <t>MuDffWm4</t>
   </si>
   <si>
     <t>BASURTO ALCIVAR DARWIN JESUS</t>
@@ -4643,7 +4643,7 @@
     <t>darwin.basurto@espam.edu.ec</t>
   </si>
   <si>
-    <t>gE5llP0r</t>
+    <t>caHLZ7T0</t>
   </si>
   <si>
     <t>BRAVO CEDEÑO JOSE RODOLFO</t>
@@ -4652,7 +4652,7 @@
     <t>jose.bravo@espam.edu.ec</t>
   </si>
   <si>
-    <t>Gxz&amp;jgAM</t>
+    <t>FEjnpJTc</t>
   </si>
   <si>
     <t>BRIONES BERMEO ANTONY JAVIER</t>
@@ -4661,7 +4661,7 @@
     <t>antony.briones@espam.edu.ec</t>
   </si>
   <si>
-    <t>wWj?&amp;Kwb</t>
+    <t>Qy#1CSss</t>
   </si>
   <si>
     <t>CEDEÑO ANCHUNDIA YANDRY ANTONIO</t>
@@ -4673,7 +4673,7 @@
     <t>yandry.cedeno@espam.edu.ec</t>
   </si>
   <si>
-    <t>W50CGjK&amp;</t>
+    <t>U1GV8943</t>
   </si>
   <si>
     <t>CEDEÑO PEÑARRIETA DAYANA SOPHIA</t>
@@ -4682,7 +4682,7 @@
     <t>dayanaso.cedeno@espam.edu.ec</t>
   </si>
   <si>
-    <t>fLFDuOhQ</t>
+    <t>!dKVZspE</t>
   </si>
   <si>
     <t>CHAVARRIA PEÑARRIETA MARCOS ALEJANDRO</t>
@@ -4691,7 +4691,7 @@
     <t>marcos.chavarria@espam.edu.ec</t>
   </si>
   <si>
-    <t>qnlTCPqW</t>
+    <t>p69kTxIV</t>
   </si>
   <si>
     <t>DEL VALLE BASURTO CARMEN MELINA</t>
@@ -4700,7 +4700,7 @@
     <t>carmen.del@espam.edu.ec</t>
   </si>
   <si>
-    <t>g&amp;Hjnrbz</t>
+    <t>WEjpDGLY</t>
   </si>
   <si>
     <t>GUERRERO BRAVO ANA BELEN</t>
@@ -4709,7 +4709,7 @@
     <t>ana.guerrero@espam.edu.ec</t>
   </si>
   <si>
-    <t>irrLJhTp</t>
+    <t>VJWk1xfS</t>
   </si>
   <si>
     <t>GUERRERO GUERRERO JOSSELYN MELISSA</t>
@@ -4718,7 +4718,7 @@
     <t>josselyn.guerrero@espam.edu.ec</t>
   </si>
   <si>
-    <t>2AS5lplS</t>
+    <t>&amp;QNyLHbc</t>
   </si>
   <si>
     <t>INTRIAGO BARBERAN LAURO ANTONIO</t>
@@ -4727,7 +4727,7 @@
     <t>lauro.intriago1@espam.edu.ec</t>
   </si>
   <si>
-    <t>d8fqFZDJ</t>
+    <t>rbp1MZBq</t>
   </si>
   <si>
     <t>INTRIAGO MORA LENIN ARCENIO</t>
@@ -4736,7 +4736,7 @@
     <t>lenin.intriago@espam.edu.ec</t>
   </si>
   <si>
-    <t>#MBR/Xa?</t>
+    <t>!7jhvnsu</t>
   </si>
   <si>
     <t>MACIAS CALDERON JOSE ARIEL</t>
@@ -4745,7 +4745,7 @@
     <t>jose.macias@espam.edu.ec</t>
   </si>
   <si>
-    <t>Gj5a839h</t>
+    <t>EPKbvy00</t>
   </si>
   <si>
     <t>MARCILLO VELEZ ANA PATRICIA</t>
@@ -4754,7 +4754,7 @@
     <t>ana.marcillo@espam.edu.ec</t>
   </si>
   <si>
-    <t>MdHvOf5N</t>
+    <t>6OM/6kim</t>
   </si>
   <si>
     <t>MERA FIGUEROA RAYMOND ALEJANDRO</t>
@@ -4763,7 +4763,7 @@
     <t>raymond.mera@espam.edu.ec</t>
   </si>
   <si>
-    <t>GDrIMIZY</t>
+    <t>IQWNPJ?T</t>
   </si>
   <si>
     <t>MOREIRA ZAMBRANO JOSSENKA MERCEDES</t>
@@ -4772,7 +4772,7 @@
     <t>jossenka.moreira@espam.edu.ec</t>
   </si>
   <si>
-    <t>I&amp;zyn77Z</t>
+    <t>M3ytj8af</t>
   </si>
   <si>
     <t>MUÑOZ ALCIVAR CRISTHIAN MARTIN</t>
@@ -4781,7 +4781,7 @@
     <t>cristhian.munoz@espam.edu.ec</t>
   </si>
   <si>
-    <t>GiWUo6I0</t>
+    <t>rZ&amp;ejG8O</t>
   </si>
   <si>
     <t>MUÑOZ MACIAS MARIA MAGDALENA</t>
@@ -4790,7 +4790,7 @@
     <t>mariama.munoz@espam.edu.ec</t>
   </si>
   <si>
-    <t>DrWWOB5B</t>
+    <t>!6t&amp;Do4x</t>
   </si>
   <si>
     <t>POLO GANCHOZO ARON ESNEYDER</t>
@@ -4799,7 +4799,7 @@
     <t>aron.polo@espam.edu.ec</t>
   </si>
   <si>
-    <t>ZaC7SC7y</t>
+    <t>5UdaKJ0o</t>
   </si>
   <si>
     <t>RIOS BERMELLO JENIFFER LIZETH</t>
@@ -4808,7 +4808,7 @@
     <t>jeniffer.rios@espam.edu.ec</t>
   </si>
   <si>
-    <t>FaNyYsph</t>
+    <t>m62W6c9n</t>
   </si>
   <si>
     <t>SALVATIERRA VALDEZ VICKY NICOLLE</t>
@@ -4817,7 +4817,7 @@
     <t>vicky.salvatierra@espam.edu.ec</t>
   </si>
   <si>
-    <t>duq9L6bq</t>
+    <t>gxHKuQsk</t>
   </si>
   <si>
     <t>SANTOS VELEZ MONICA GERMANIA</t>
@@ -4826,7 +4826,7 @@
     <t>monica.santos@espam.edu.ec</t>
   </si>
   <si>
-    <t>iXcl5yp/</t>
+    <t>PFB2K4/7</t>
   </si>
   <si>
     <t>SOLORZANO ZAMBRANO MILENA DENISSE</t>
@@ -4835,7 +4835,7 @@
     <t>milena.solorzano@espam.edu.ec</t>
   </si>
   <si>
-    <t>gvVS?K&amp;m</t>
+    <t>6T8QY9WJ</t>
   </si>
   <si>
     <t>TUQUERES TACURI JESSICA MARIBELL</t>
@@ -4844,7 +4844,7 @@
     <t>jessica.tuqueres@espam.edu.ec</t>
   </si>
   <si>
-    <t>JAaVfajB</t>
+    <t>Tr#afTCA</t>
   </si>
   <si>
     <t>VERDUGA ERAZO JOSUE SALVADOR</t>
@@ -4853,7 +4853,7 @@
     <t>josue.verduga@espam.edu.ec</t>
   </si>
   <si>
-    <t>Oxjd5JeN</t>
+    <t>LG2ixkSV</t>
   </si>
   <si>
     <t>YEPEZ VELIZ GENESIS THALIA</t>
@@ -4862,7 +4862,7 @@
     <t>genesis.yepez@espam.edu.ec</t>
   </si>
   <si>
-    <t>09o/xZeu</t>
+    <t>Wdksdp&amp;m</t>
   </si>
   <si>
     <t>ZAMBRANO BASURTO ERICK RAFAEL</t>
@@ -4871,7 +4871,7 @@
     <t>erick.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>J/dqa20J</t>
+    <t>eEoFONUs</t>
   </si>
   <si>
     <t>ZAMBRANO MUÑOZ JANDRY DEIVY</t>
@@ -4880,7 +4880,7 @@
     <t>jandry.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>ahwpxdpp</t>
+    <t>i9UjOEbi</t>
   </si>
   <si>
     <t>AYONG VERA JUAN DAVID</t>
@@ -4889,7 +4889,7 @@
     <t>juan.ayong@espam.edu.ec</t>
   </si>
   <si>
-    <t>yC9?6Brw</t>
+    <t>wQN&amp;7tVD</t>
   </si>
   <si>
     <t>BASURTO SALAZAR ANGELA MARGARITA</t>
@@ -4898,7 +4898,7 @@
     <t>angela.basurto@espam.edu.ec</t>
   </si>
   <si>
-    <t>#OSpJYJL</t>
+    <t>7lpc9GFP</t>
   </si>
   <si>
     <t>CASANOVA INTRIAGO ANDREA BELEN</t>
@@ -4910,7 +4910,7 @@
     <t>andrea.casanova@espam.edu.ec</t>
   </si>
   <si>
-    <t>ecN6MFSR</t>
+    <t>j1HjanS/</t>
   </si>
   <si>
     <t>CHUMO ZAMBRANO ANTONIO BENITO</t>
@@ -4919,7 +4919,7 @@
     <t>antonio.chumo@espam.edu.ec</t>
   </si>
   <si>
-    <t>fQAqd#bH</t>
+    <t>D?Si97g0</t>
   </si>
   <si>
     <t>GARCIA CORTEZ ERIKA STEFANIA</t>
@@ -4928,7 +4928,7 @@
     <t>erika.garcia@espam.edu.ec</t>
   </si>
   <si>
-    <t>tV?qc?7/</t>
+    <t>S8Ahhgrr</t>
   </si>
   <si>
     <t>GOMEZ BARRERA JUNIOR LENIN</t>
@@ -4937,7 +4937,7 @@
     <t>junior.gomez@espam.edu.ec</t>
   </si>
   <si>
-    <t>ZnTxeFMI</t>
+    <t>XlvJPg2u</t>
   </si>
   <si>
     <t>LOOR CEDEÑO RICARDO EMANUEL</t>
@@ -4946,7 +4946,7 @@
     <t>ricardo.loor@espam.edu.ec</t>
   </si>
   <si>
-    <t>Phm19SSZ</t>
+    <t>cf9bmAq8</t>
   </si>
   <si>
     <t>LOOR LUCAS EVELYN GUADALUPE</t>
@@ -4958,7 +4958,7 @@
     <t>evelyn.loor@espam.edu.ec</t>
   </si>
   <si>
-    <t>&amp;yY/36DT</t>
+    <t>0VE&amp;yckO</t>
   </si>
   <si>
     <t>LOOR VELASCO FABIANA BELEN</t>
@@ -4970,7 +4970,7 @@
     <t>fabiana.loor@espam.edu.ec</t>
   </si>
   <si>
-    <t>ojyEZNtx</t>
+    <t>4K7ldzmy</t>
   </si>
   <si>
     <t>MARTINEZ CEDEÑO JENIFFER ESTEFANIA</t>
@@ -4979,7 +4979,7 @@
     <t>jeniffer.martinez@espam.edu.ec</t>
   </si>
   <si>
-    <t>Dk9OvhRW</t>
+    <t>zxOKWs?u</t>
   </si>
   <si>
     <t>MENDOZA BARRE EDDY ENMANUEL</t>
@@ -4988,7 +4988,7 @@
     <t>eddy.mendoza@espam.edu.ec</t>
   </si>
   <si>
-    <t>pBRFEynz</t>
+    <t>25vtYk3y</t>
   </si>
   <si>
     <t>MURILLO PALACIOS ULICES JAIR</t>
@@ -4997,7 +4997,7 @@
     <t>ulices.murillo@espam.edu.ec</t>
   </si>
   <si>
-    <t>Q?kx0YNJ</t>
+    <t>5L#xzxUf</t>
   </si>
   <si>
     <t>QUIJANO ZAMBRANO JONATHAN ERNESTO</t>
@@ -5006,7 +5006,7 @@
     <t>jonathan.quijano@espam.edu.ec</t>
   </si>
   <si>
-    <t>qMH/hmgU</t>
+    <t>vzpRsmVX</t>
   </si>
   <si>
     <t>ROBLES YORI EFRAIN DAVID</t>
@@ -5015,7 +5015,7 @@
     <t>efrain.robles@espam.edu.ec</t>
   </si>
   <si>
-    <t>wkUP9fxj</t>
+    <t>99aevnma</t>
   </si>
   <si>
     <t>SABANDO ZAMBRANO FREDDY ANTONIO</t>
@@ -5024,7 +5024,7 @@
     <t>freddy.sabando@espam.edu.ec</t>
   </si>
   <si>
-    <t>5aDvKiYD</t>
+    <t>lLQ62s14</t>
   </si>
   <si>
     <t>SOLORZANO GUERRERO RONALDO WANDERLEY</t>
@@ -5033,7 +5033,7 @@
     <t>ronaldo.solorzano@espam.edu.ec</t>
   </si>
   <si>
-    <t>BsPzzzZu</t>
+    <t>y2!SGHA?</t>
   </si>
   <si>
     <t>VELEZ CALDERON GENESIS MARIANA</t>
@@ -5045,7 +5045,7 @@
     <t>genesis.velez@espam.edu.ec</t>
   </si>
   <si>
-    <t>kW9hotcy</t>
+    <t>RRm2yZY/</t>
   </si>
   <si>
     <t>ZAMBRANO BALDA JOSE RAMIRO</t>
@@ -5054,7 +5054,7 @@
     <t>josera.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>6ZWI&amp;9#Y</t>
+    <t>V27HDvT7</t>
   </si>
   <si>
     <t>ZAMBRANO CANTOS YENNY ANNABEL</t>
@@ -5063,7 +5063,7 @@
     <t>yenny.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>Rh2uDw6a</t>
+    <t>d1?fcixr</t>
   </si>
   <si>
     <t>ZAMBRANO LOOR CRISTHIAN LEONARDO</t>
@@ -5072,7 +5072,7 @@
     <t>cristhian.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>EH7Ma1jm</t>
+    <t>w1!LDs6j</t>
   </si>
   <si>
     <t>ZAMBRANO LOOR DIANA STEFANIA</t>
@@ -5081,7 +5081,7 @@
     <t>dianas.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>CtGfcGwM</t>
+    <t>3ju2NwX?</t>
   </si>
   <si>
     <t>ZAMBRANO LOOR MARIA EMILIA</t>
@@ -5090,7 +5090,7 @@
     <t>maria.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>pIqj8knu</t>
+    <t>dBN3O/Zc</t>
   </si>
   <si>
     <t>ZAMBRANO MOREIRA LEONELA ALEJANDRA</t>
@@ -5099,7 +5099,7 @@
     <t>leonela.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>b17ZuVB2</t>
+    <t>yW!GvWo7</t>
   </si>
   <si>
     <t>ALAVA ORTIZ EDWIN ALEXANDER</t>
@@ -5108,7 +5108,7 @@
     <t>edwin.alava@espam.edu.ec</t>
   </si>
   <si>
-    <t>qKbJje8Q</t>
+    <t>gEm&amp;wu!u</t>
   </si>
   <si>
     <t>ALCIVAR LOOR GEMA LISBETH</t>
@@ -5117,7 +5117,7 @@
     <t>gemal.alcivar@espam.edu.ec</t>
   </si>
   <si>
-    <t>aNLF2j9t</t>
+    <t>9W51erba</t>
   </si>
   <si>
     <t>AVELLAN SANTANA GENESIS NICOLLE</t>
@@ -5126,7 +5126,7 @@
     <t>genesis.avellan@espam.edu.ec</t>
   </si>
   <si>
-    <t>4xDnlSid</t>
+    <t>3fTe1R&amp;v</t>
   </si>
   <si>
     <t>CALDERON SANCHEZ SANDY KATHERINE</t>
@@ -5138,7 +5138,7 @@
     <t>sandy.calderon@espam.edu.ec</t>
   </si>
   <si>
-    <t>lehvJDvC</t>
+    <t>q6qAn5VR</t>
   </si>
   <si>
     <t>CARDENAS ASTUDILLO ANGELA JULIANA</t>
@@ -5150,7 +5150,7 @@
     <t>angela.cardenas@espam.edu.ec</t>
   </si>
   <si>
-    <t>oXd1d23i</t>
+    <t>lVVuZ3zo</t>
   </si>
   <si>
     <t>CARRILLO PACHAY MARCO STEVE</t>
@@ -5159,7 +5159,7 @@
     <t>marco.carrillo@espam.edu.ec</t>
   </si>
   <si>
-    <t>xb11/BzJ</t>
+    <t>Riy6KrE&amp;</t>
   </si>
   <si>
     <t>CEDEÑO ZAMBRANO BRYAN ISIDRO</t>
@@ -5168,7 +5168,7 @@
     <t>bryan.cedeno@espam.edu.ec</t>
   </si>
   <si>
-    <t>in!?1fk1</t>
+    <t>N6LCsKe0</t>
   </si>
   <si>
     <t>CEVALLOS SALTOS ANTHONY FERNANDO</t>
@@ -5177,7 +5177,7 @@
     <t>anthonyf.cevallos@espam.edu.ec</t>
   </si>
   <si>
-    <t>S2seBnAa</t>
+    <t>X1BMO0Ti</t>
   </si>
   <si>
     <t>CHANG ZAMBRANO MARTHA YAMILETH</t>
@@ -5186,7 +5186,7 @@
     <t>martha.chang@espam.edu.ec</t>
   </si>
   <si>
-    <t>2jJ5Vh!r</t>
+    <t>W7IGHZL#</t>
   </si>
   <si>
     <t>CHIRIBOGA FARIAS LUIS FERNANDO</t>
@@ -5195,7 +5195,7 @@
     <t>luis.chiriboga@espam.edu.ec</t>
   </si>
   <si>
-    <t>#MTss#8w</t>
+    <t>VdJfa?hK</t>
   </si>
   <si>
     <t>ESPINOZA PILAY JERSON JOSE</t>
@@ -5204,7 +5204,7 @@
     <t>jerson.espinoza@espam.edu.ec</t>
   </si>
   <si>
-    <t>WoH#QC#K</t>
+    <t>oj&amp;OgDeX</t>
   </si>
   <si>
     <t>FARIAS MERA MAURICIO ANDRES</t>
@@ -5213,7 +5213,7 @@
     <t>mauricio.farias@espam.edu.ec</t>
   </si>
   <si>
-    <t>2NNf06le</t>
+    <t>/SqTNHLC</t>
   </si>
   <si>
     <t>HERNANDEZ GONZALEZ JAMILEX KAREY</t>
@@ -5225,7 +5225,7 @@
     <t>jamilex.hernandez@espam.edu.ec</t>
   </si>
   <si>
-    <t>fVpUKdFv</t>
+    <t>a7hfM&amp;Kn</t>
   </si>
   <si>
     <t>LEONES FALCONES ABAD JHOAN</t>
@@ -5234,7 +5234,7 @@
     <t>abad.leones@espam.edu.ec</t>
   </si>
   <si>
-    <t>iFANyZ!x</t>
+    <t>hJ2OmzYV</t>
   </si>
   <si>
     <t>LOOR CEVALLOS ANA MARIA</t>
@@ -5243,7 +5243,7 @@
     <t>anama.loor@espam.edu.ec</t>
   </si>
   <si>
-    <t>X38iJQnU</t>
+    <t>SRdOxOOS</t>
   </si>
   <si>
     <t>LOOR LOOR RONALD POLIVIO</t>
@@ -5252,7 +5252,7 @@
     <t>ronald.loor@espam.edu.ec</t>
   </si>
   <si>
-    <t>msdjZjPV</t>
+    <t>UGawhaWJ</t>
   </si>
   <si>
     <t>LOOR REYES GENESIS JAMILETH</t>
@@ -5261,7 +5261,7 @@
     <t>genesis.loor@espam.edu.ec</t>
   </si>
   <si>
-    <t>a&amp;vXtY?l</t>
+    <t>w3#G!XIF</t>
   </si>
   <si>
     <t>MACIAS BRAVO RICARDO FRANCISCO</t>
@@ -5270,7 +5270,7 @@
     <t>ricardo.macias@espam.edu.ec</t>
   </si>
   <si>
-    <t>am5nCWIJ</t>
+    <t>apiu/h1W</t>
   </si>
   <si>
     <t>MACIAS MACIAS LISSETH LILIBETH</t>
@@ -5279,7 +5279,7 @@
     <t>lisseth.macias@espam.edu.ec</t>
   </si>
   <si>
-    <t>uU4F!/Hj</t>
+    <t>h6Xd/Pfe</t>
   </si>
   <si>
     <t>MANZABA CEDEÑO KEVIN ALBERTO</t>
@@ -5288,7 +5288,7 @@
     <t>kevin.manzaba@espam.edu.ec</t>
   </si>
   <si>
-    <t>0rfmjvFk</t>
+    <t>g#kcDHoi</t>
   </si>
   <si>
     <t>MARQUEZ LEMA NAYELI SABRINA</t>
@@ -5297,7 +5297,7 @@
     <t>nayeli.marquez@espam.edu.ec</t>
   </si>
   <si>
-    <t>2BKZy8yL</t>
+    <t>/ZO5KWjr</t>
   </si>
   <si>
     <t>MENDOZA BRIONES MARIUXI KATHERINE</t>
@@ -5309,7 +5309,7 @@
     <t>mariuxi.mendoza@espam.edu.ec</t>
   </si>
   <si>
-    <t>W08kx5ra</t>
+    <t>KM5dmPx6</t>
   </si>
   <si>
     <t>MOLINA CEDEÑO JUAN DE DIOS</t>
@@ -5318,7 +5318,7 @@
     <t>juan.molina@espam.edu.ec</t>
   </si>
   <si>
-    <t>tf!gx#FK</t>
+    <t>pufbgF&amp;m</t>
   </si>
   <si>
     <t>MONTESDEOCA GARCIA YUDID ALEXANDRA</t>
@@ -5327,7 +5327,7 @@
     <t>yudid.montesdeoca@espam.edu.ec</t>
   </si>
   <si>
-    <t>2c&amp;I&amp;P7Z</t>
+    <t>jySh9ekh</t>
   </si>
   <si>
     <t>MUÑOZ MERA JUAN PABLO</t>
@@ -5336,7 +5336,7 @@
     <t>juan.munoz@espam.edu.ec</t>
   </si>
   <si>
-    <t>L70B3faD</t>
+    <t>45PpKHPy</t>
   </si>
   <si>
     <t>NAVARRETE ORMAZA ERICK ALEXANDER</t>
@@ -5345,7 +5345,7 @@
     <t>erick.navarrete@espam.edu.ec</t>
   </si>
   <si>
-    <t>1gxnG7pp</t>
+    <t>V6Wpy8zD</t>
   </si>
   <si>
     <t>OCAMPO BARRE ANTHONY VICENTE</t>
@@ -5354,7 +5354,7 @@
     <t>anthony.ocampo@espam.edu.ec</t>
   </si>
   <si>
-    <t>24vKz?5h</t>
+    <t>2iGgl3zk</t>
   </si>
   <si>
     <t>PARRALES FALCONES ANTHONY LEONARDO</t>
@@ -5363,7 +5363,7 @@
     <t>anthony.parrales@espam.edu.ec</t>
   </si>
   <si>
-    <t>3/LoQE3b</t>
+    <t>e31!JBX6</t>
   </si>
   <si>
     <t>RAMOS SALTOS NICOLE PAOLA</t>
@@ -5372,7 +5372,7 @@
     <t>nicole.ramos@espam.edu.ec</t>
   </si>
   <si>
-    <t>m#UGkFmo</t>
+    <t>OkZImtr7</t>
   </si>
   <si>
     <t>ROBLES MOLINA JENIFFER STEFANIA</t>
@@ -5381,7 +5381,7 @@
     <t>jeniffer.robles@espam.edu.ec</t>
   </si>
   <si>
-    <t>fc3Gmq!s</t>
+    <t>oaVWsV7&amp;</t>
   </si>
   <si>
     <t>RODRIGUEZ CAMPOS JEAN KATHERINE</t>
@@ -5390,7 +5390,7 @@
     <t>jean.rodriguez@espam.edu.ec</t>
   </si>
   <si>
-    <t>Qcb7sXC#</t>
+    <t>jWK6e1YR</t>
   </si>
   <si>
     <t>SANCHEZ MEDINA GISSEL STEPHANIE</t>
@@ -5399,7 +5399,7 @@
     <t>gissel.sanchez@espam.edu.ec</t>
   </si>
   <si>
-    <t>gXWFlQSe</t>
+    <t>u&amp;VbW3J7</t>
   </si>
   <si>
     <t>VASQUEZ VERA ARGENIS JAVIER</t>
@@ -5408,7 +5408,7 @@
     <t>argenis.vasquez@espam.edu.ec</t>
   </si>
   <si>
-    <t>7S/P&amp;lDq</t>
+    <t>WteNd&amp;3N</t>
   </si>
   <si>
     <t>VASQUEZ VERA MARIA MERCEDES</t>
@@ -5417,7 +5417,7 @@
     <t>maria.vasquez@espam.edu.ec</t>
   </si>
   <si>
-    <t>!lZ1oyof</t>
+    <t>M08OTTNB</t>
   </si>
   <si>
     <t>VELEZ MERA JOSSELYN JOSSENKA</t>
@@ -5426,7 +5426,7 @@
     <t>josselynjo.velez@espam.edu.ec</t>
   </si>
   <si>
-    <t>DdES/Ud6</t>
+    <t>X?CIfg2u</t>
   </si>
   <si>
     <t>VELEZ PALACIOS STEVEN RAMON</t>
@@ -5435,7 +5435,7 @@
     <t>steven.velez@espam.edu.ec</t>
   </si>
   <si>
-    <t>/LNf48ST</t>
+    <t>ICq/K7aH</t>
   </si>
   <si>
     <t>VERA BRAVO MARY LAURA</t>
@@ -5444,7 +5444,7 @@
     <t>mary.vera@espam.edu.ec</t>
   </si>
   <si>
-    <t>CGf7oROE</t>
+    <t>30k#gQ6p</t>
   </si>
   <si>
     <t>VILLAMIL VALENCIA ISABEL ANDREA</t>
@@ -5453,7 +5453,7 @@
     <t>isabel.villamil@espam.edu.ec</t>
   </si>
   <si>
-    <t>m2RDjF&amp;G</t>
+    <t>96Gx7u5S</t>
   </si>
   <si>
     <t>ZAMBRANO COBEÑA PABLO ALBERTO</t>
@@ -5462,7 +5462,7 @@
     <t>pablo.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>3TTHup!m</t>
+    <t>SIzvozY0</t>
   </si>
   <si>
     <t>ALVAREZ INTRIAGO MAILIN KATHERINE</t>
@@ -5471,7 +5471,7 @@
     <t>mailin.alvarez@espam.edu.ec</t>
   </si>
   <si>
-    <t>yizLzSF3</t>
+    <t>YFZ5cRCF</t>
   </si>
   <si>
     <t>BRAVO ARTEAGA RICARDO JAVIER</t>
@@ -5480,7 +5480,7 @@
     <t>ricardo.bravo@espam.edu.ec</t>
   </si>
   <si>
-    <t>rvSeyEYW</t>
+    <t>k1g11SBA</t>
   </si>
   <si>
     <t>BRAVO VERGARA GEMA CAROLINA</t>
@@ -5489,7 +5489,7 @@
     <t>gemac.bravo@espam.edu.ec</t>
   </si>
   <si>
-    <t>/?jXnN3L</t>
+    <t>rnBomRq7</t>
   </si>
   <si>
     <t>CEDEÑO VELASQUEZ GEMA GUADALUPE</t>
@@ -5498,7 +5498,7 @@
     <t>gemag.cedeno@espam.edu.ec</t>
   </si>
   <si>
-    <t>0C5VSY#3</t>
+    <t>FfT1i4&amp;s</t>
   </si>
   <si>
     <t>CHAVEZ VELIZ DENIS ALEXANDER</t>
@@ -5507,7 +5507,7 @@
     <t>denis.chavez@espam.edu.ec</t>
   </si>
   <si>
-    <t>ISjcrrOf</t>
+    <t>8ePpTBKq</t>
   </si>
   <si>
     <t>DEMERA ZAMBRANO JACKSON ANDRES</t>
@@ -5516,7 +5516,7 @@
     <t>jackson.demera@espam.edu.ec</t>
   </si>
   <si>
-    <t>Pum3sgDf</t>
+    <t>?h!PvZtk</t>
   </si>
   <si>
     <t>GANCHOZO LECTONG GRESSILLE GUISSELLA</t>
@@ -5525,7 +5525,7 @@
     <t>gressille.ganchozo@espam.edu.ec</t>
   </si>
   <si>
-    <t>eV4vv!g8</t>
+    <t>awuwt#Fa</t>
   </si>
   <si>
     <t>INDIO ZAMBRANO ODALIS MICHELLE</t>
@@ -5537,7 +5537,7 @@
     <t>odalis.indio@espam.edu.ec</t>
   </si>
   <si>
-    <t>RJ9wD?VP</t>
+    <t>3LuIOtwg</t>
   </si>
   <si>
     <t>INTRIAGO TERAN BRYAN ASDRUBAL</t>
@@ -5546,7 +5546,7 @@
     <t>bryan.intriago@espam.edu.ec</t>
   </si>
   <si>
-    <t>MlalE/uK</t>
+    <t>w72jFac8</t>
   </si>
   <si>
     <t>INTRIAGO ZAMBRANO GISSELA KAROLINA</t>
@@ -5555,7 +5555,7 @@
     <t>gissela.intriago@espam.edu.ec</t>
   </si>
   <si>
-    <t>2v24kPvL</t>
+    <t>uw23E4xV</t>
   </si>
   <si>
     <t>LEONES SOLORZANO YARITZA DANIELA</t>
@@ -5564,7 +5564,7 @@
     <t>yaritza.leones@espam.edu.ec</t>
   </si>
   <si>
-    <t>rf0kBXFn</t>
+    <t>oF&amp;bZIKX</t>
   </si>
   <si>
     <t>LOPEZ MORA JOSSELYN AMARILYS</t>
@@ -5573,7 +5573,7 @@
     <t>josselyn.lopez@espam.edu.ec</t>
   </si>
   <si>
-    <t>R?kkUzjc</t>
+    <t>BHVjpwRM</t>
   </si>
   <si>
     <t>MERA LOOR ANTONY ELIAN</t>
@@ -5582,7 +5582,7 @@
     <t>antony.mera@espam.edu.ec</t>
   </si>
   <si>
-    <t>8jtfF4s9</t>
+    <t>mI6FnTJ!</t>
   </si>
   <si>
     <t>MERA SABANDO GEMA YAMILETH</t>
@@ -5591,7 +5591,7 @@
     <t>gema.mera@espam.edu.ec</t>
   </si>
   <si>
-    <t>wA!Z9#fM</t>
+    <t>4x8KxYZk</t>
   </si>
   <si>
     <t>MIRANDA IBARRA ALFONSO SEBASTIAN</t>
@@ -5600,7 +5600,7 @@
     <t>alfonso.miranda@espam.edu.ec</t>
   </si>
   <si>
-    <t>epPDuAOO</t>
+    <t>sKsLFuRp</t>
   </si>
   <si>
     <t>MONGE ERAZO JECSY PIERINA</t>
@@ -5609,7 +5609,7 @@
     <t>jecsy.monge@espam.edu.ec</t>
   </si>
   <si>
-    <t>zEnOtaOB</t>
+    <t>7WnK9izz</t>
   </si>
   <si>
     <t>ROMERO ORTEGA ANGEL ANDRES</t>
@@ -5618,7 +5618,7 @@
     <t>angel.romero@espam.edu.ec</t>
   </si>
   <si>
-    <t>VDriq6ma</t>
+    <t>J1Eb0GW!</t>
   </si>
   <si>
     <t>SOLORZANO INTRIAGO OSCAR FABIAN</t>
@@ -5630,7 +5630,7 @@
     <t>oscar.solorzano@espam.edu.ec</t>
   </si>
   <si>
-    <t>ofmOOrCe</t>
+    <t>&amp;yFaa&amp;6J</t>
   </si>
   <si>
     <t>VALVERDE ZAPATA KATHIUSCA CARLOTA</t>
@@ -5642,7 +5642,7 @@
     <t>kathiusca.valverde@espam.edu.ec</t>
   </si>
   <si>
-    <t>?Dzk#cw7</t>
+    <t>dhFvpeAb</t>
   </si>
   <si>
     <t>VERA AYALA GENESIS LISBETH</t>
@@ -5651,7 +5651,7 @@
     <t>genesis.vera@espam.edu.ec</t>
   </si>
   <si>
-    <t>1tOZK7eX</t>
+    <t>8#gYJYzb</t>
   </si>
   <si>
     <t>VERA PULIDO MARIA IVANNA</t>
@@ -5660,7 +5660,7 @@
     <t>mariai.verap@espam.edu.ec</t>
   </si>
   <si>
-    <t>lXLeZxmQ</t>
+    <t>0rW8numk</t>
   </si>
   <si>
     <t>VERA ZAMBRANO JAZMIN CAROLINA</t>
@@ -5669,7 +5669,7 @@
     <t>jazmin.vera@espam.edu.ec</t>
   </si>
   <si>
-    <t>Qf8MAkEN</t>
+    <t>rdgaDWoa</t>
   </si>
   <si>
     <t>VERGARA ARBOLEDA WENDY DEL ROCIO</t>
@@ -5681,7 +5681,7 @@
     <t>wendy.vergara@espam.edu.ec</t>
   </si>
   <si>
-    <t>GqQm3KHr</t>
+    <t>9cd?uft7</t>
   </si>
   <si>
     <t>VILLAMAR GONZALEZ ELENA SAMANTA</t>
@@ -5690,7 +5690,7 @@
     <t>elena.villamar@espam.edu.ec</t>
   </si>
   <si>
-    <t>jhKrIVwP</t>
+    <t>xBJ?8Wc!</t>
   </si>
   <si>
     <t>ZAMBRANO ALCIVAR GENESIS VALENTINA</t>
@@ -5699,7 +5699,7 @@
     <t>genesis.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>yy9Myp8H</t>
+    <t>FOyXm!Oh</t>
   </si>
   <si>
     <t>ZAMBRANO CHAVEZ ANDREA MONSERRATE</t>
@@ -5708,7 +5708,7 @@
     <t>andream.zambranoc@espam.edu.ec</t>
   </si>
   <si>
-    <t>6aJeya6r</t>
+    <t>cvaDoPgy</t>
   </si>
   <si>
     <t>ZAMBRANO GRACIA DANIELA ANGELINA</t>
@@ -5717,7 +5717,7 @@
     <t>daniela.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>CVhl3Nmt</t>
+    <t>O!Jc5WFT</t>
   </si>
   <si>
     <t>ZAMBRANO MUÑOZ WILLY JHONAY</t>
@@ -5726,7 +5726,7 @@
     <t>willy.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>IZVTFbdU</t>
+    <t>oJXTVHOv</t>
   </si>
   <si>
     <t>ZAMBRANO ZAMBRANO TATIANA ELIZABETH</t>
@@ -5735,7 +5735,7 @@
     <t>tatianael.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>k1eEwPmS</t>
+    <t>#RCp0qjp</t>
   </si>
 </sst>
 </file>

--- a/storage/app/public/seeds/datosPassword.xlsx
+++ b/storage/app/public/seeds/datosPassword.xlsx
@@ -44,7 +44,7 @@
     <t>angie.alcivar.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>BIN1yMcW</t>
+    <t>ZhYkYIFZ</t>
   </si>
   <si>
     <t>ALCIVAR VERA KARLA MILENA</t>
@@ -53,7 +53,7 @@
     <t>karla.alcivar.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>9DYo#&amp;nu</t>
+    <t>bAcZ69fS</t>
   </si>
   <si>
     <t>ALVIA ROCA HENRY ISAAC</t>
@@ -65,7 +65,7 @@
     <t>henry.alvia.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>3kb#/G8l</t>
+    <t>fHYLzZkb</t>
   </si>
   <si>
     <t>ANANGONO GOMEZ ANA MARCELA</t>
@@ -74,7 +74,7 @@
     <t>ana.anangono.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>m?bzIDpl</t>
+    <t>IPgur&amp;hL</t>
   </si>
   <si>
     <t>BRAVO MARCILLO NATHALY SILVANA</t>
@@ -86,7 +86,7 @@
     <t>nathaly.bravo.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>3K1Foa0O</t>
+    <t>/P1&amp;kFNi</t>
   </si>
   <si>
     <t>BRIONES SUAREZ DANIA MELISSA</t>
@@ -95,7 +95,7 @@
     <t>dania.briones.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>ZzYmsWuq</t>
+    <t>u6ku6O8Y</t>
   </si>
   <si>
     <t>CANCHINGRE LOZA MARIANA DE JESUS</t>
@@ -107,7 +107,7 @@
     <t>mariana.canchingre.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>lCyotMvi</t>
+    <t>j3JHFIol</t>
   </si>
   <si>
     <t>CEDEÑO GARCIA EMILY JAHAIRA</t>
@@ -116,7 +116,7 @@
     <t>emily.cedeno.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>bPOssUqs</t>
+    <t>sxr3&amp;4Su</t>
   </si>
   <si>
     <t>CEDEÑO VELEZ STEVEN ANTONIO</t>
@@ -125,7 +125,7 @@
     <t>steven.cedeno.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>3DbbuRAR</t>
+    <t>rNkVqfQC</t>
   </si>
   <si>
     <t>CHICA ORDOÑEZ YAIZA ANAHI</t>
@@ -134,7 +134,7 @@
     <t>yaiza.chica.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>4OXj3e88</t>
+    <t>efiDRWo7</t>
   </si>
   <si>
     <t>CORONEL MERO DAMARY SABRINA</t>
@@ -143,7 +143,7 @@
     <t>damary.coronel.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>1uij/HIl</t>
+    <t>3ARYHii&amp;</t>
   </si>
   <si>
     <t>DELGADO BENAVIDES MELISSA ANDREINA</t>
@@ -152,7 +152,7 @@
     <t>melissa.delgado.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>XKi3AUmg</t>
+    <t>qeZlGDU&amp;</t>
   </si>
   <si>
     <t>DELGADO SOLORZANO TONY DAMIAN</t>
@@ -161,7 +161,7 @@
     <t>tony.delgado.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>ui!fgVau</t>
+    <t>K9foWJUX</t>
   </si>
   <si>
     <t>ELENO GENDE JOSELYN KATHERINE</t>
@@ -173,7 +173,7 @@
     <t>joselyn.eleno.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>KQvzvonE</t>
+    <t>za2JZo9c</t>
   </si>
   <si>
     <t>GARCIA RIVERA ANGHELA LISBETH</t>
@@ -185,7 +185,7 @@
     <t>anghela.garcia.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>aWtOHM&amp;C</t>
+    <t>#PpWiw4q</t>
   </si>
   <si>
     <t>GARCIA ROSS PRISCILA TAHILY</t>
@@ -194,7 +194,7 @@
     <t>priscila.garcia.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>#TIcOnjm</t>
+    <t>BUD2uFbz</t>
   </si>
   <si>
     <t>LOOR ZAMBRANO MARILYN MICHEL</t>
@@ -203,7 +203,7 @@
     <t>marilyn.loor.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>axDC1Ewd</t>
+    <t>voGKglEq</t>
   </si>
   <si>
     <t>LUCAS MENDOZA MOISES NOE</t>
@@ -212,7 +212,7 @@
     <t>moises.lucas.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>339Czl!M</t>
+    <t>2beEnGR&amp;</t>
   </si>
   <si>
     <t>MANTUANO LOOR JENIFER DANIELA</t>
@@ -221,7 +221,7 @@
     <t>jenifer.mantuano.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>zh99P3sb</t>
+    <t>akOHcYhF</t>
   </si>
   <si>
     <t>MENENDEZ SANTANA JOSMELY ANAHI</t>
@@ -230,7 +230,7 @@
     <t>josmely.menendez.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>v41vdqcS</t>
+    <t>ILfnXwVg</t>
   </si>
   <si>
     <t>MEZA ESPINOZA MISHEL NICOL</t>
@@ -239,7 +239,7 @@
     <t>mishel.meza.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>fsPMp8XC</t>
+    <t>PLzaFSrm</t>
   </si>
   <si>
     <t>MORANTE TROYA JAIME ANDRES</t>
@@ -248,7 +248,7 @@
     <t>jaime.morante.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>ZiTImsFb</t>
+    <t>E&amp;J5Q?ll</t>
   </si>
   <si>
     <t>PARRAGA MOREIRA CINDY ANDREA</t>
@@ -257,7 +257,7 @@
     <t>cindy.parraga.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>K&amp;4rKyFS</t>
+    <t>Pt5WQwFZ</t>
   </si>
   <si>
     <t>PEÑAFIEL VALENCIA JULEISY LISBETH</t>
@@ -269,7 +269,7 @@
     <t>juleisy.penafiel.4623@espam.edu.ec</t>
   </si>
   <si>
-    <t>1&amp;0gHdTz</t>
+    <t>tJP9zTq3</t>
   </si>
   <si>
     <t>PICO CRIOLLO MILETH KATHERINE</t>
@@ -278,7 +278,7 @@
     <t>mileth.pico.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>B?09qOD8</t>
+    <t>hJ0/gABV</t>
   </si>
   <si>
     <t>RENDON GILER JUNIOR ARIEL</t>
@@ -287,7 +287,7 @@
     <t>junior.rendon@espam.edu.ec</t>
   </si>
   <si>
-    <t>xra3tSJI</t>
+    <t>&amp;cYd8SiB</t>
   </si>
   <si>
     <t>SALVATIERRA SANTOS BRYAN ALEJANDRO</t>
@@ -296,7 +296,7 @@
     <t>bryan.salvatierra@espam.edu.ec</t>
   </si>
   <si>
-    <t>Lt&amp;FjYN2</t>
+    <t>Q4!Jl291</t>
   </si>
   <si>
     <t>SOLORZANO LUCAS ALEXANDER JOEL</t>
@@ -308,7 +308,7 @@
     <t>alexander.solorzano.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>hZK6wMZR</t>
+    <t>QzL70eTL</t>
   </si>
   <si>
     <t>SOLORZANO RODRIGUEZ DAYANA NICOLLE</t>
@@ -317,7 +317,7 @@
     <t>dayanna.solorzano.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>4Cy0mGkG</t>
+    <t>swgErjHy</t>
   </si>
   <si>
     <t>TENORIO QUINTERO ELY GILMAR</t>
@@ -329,7 +329,7 @@
     <t>ely.tenorio.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>duci88m/</t>
+    <t>RKe3EVrb</t>
   </si>
   <si>
     <t>VELASQUEZ DOMINGUEZ JORDAN RICARDO</t>
@@ -338,7 +338,7 @@
     <t>jordan.velasquez.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>cPXsE6Q7</t>
+    <t>keI5e7E4</t>
   </si>
   <si>
     <t>VILLAVICENCIO SALVADOR MELANIE HELLAIM</t>
@@ -350,7 +350,7 @@
     <t>melanie.villavicencio.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>OX9kvOnB</t>
+    <t>5iQuB?RX</t>
   </si>
   <si>
     <t>ZAMBRANO CEDEÑO ANGELO ALEXANDER</t>
@@ -359,7 +359,7 @@
     <t>angelo.zambrano.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>Fs9cIFc0</t>
+    <t>!Qzht?Zc</t>
   </si>
   <si>
     <t>ZAMBRANO VALENCIA SHIRLEY EDITH</t>
@@ -368,7 +368,7 @@
     <t>shirley.zambrano.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>rjFjCzmJ</t>
+    <t>mwmsOq2i</t>
   </si>
   <si>
     <t>ANGEL GOMEZ GILENY NAHOMY</t>
@@ -380,7 +380,7 @@
     <t>gileny.angel.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>3lEolrPx</t>
+    <t>8ZCL1#8r</t>
   </si>
   <si>
     <t>BARRE QUIJANO DARWIN JOSE</t>
@@ -389,7 +389,7 @@
     <t>darwin.barre@espam.edu.ec</t>
   </si>
   <si>
-    <t>pkI3dHok</t>
+    <t>cKNyo&amp;pl</t>
   </si>
   <si>
     <t>BRAVO ALVAREZ EMILY JESUS</t>
@@ -398,7 +398,7 @@
     <t>emily.bravo.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>WJfbTzCI</t>
+    <t>u2Vhu6E9</t>
   </si>
   <si>
     <t>CAGUA YOONG NAHOMY JAMILETH</t>
@@ -407,7 +407,7 @@
     <t>nahomy.cagua.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>4JYLSNzE</t>
+    <t>FjqJ#QAz</t>
   </si>
   <si>
     <t>CASTILLO CEDEÑO EMILIA MARICELA</t>
@@ -416,7 +416,7 @@
     <t>emilia.castillo.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>dKuNV8jj</t>
+    <t>UP&amp;!&amp;sZb</t>
   </si>
   <si>
     <t>CEDEÑO ZAMBRANO JOSE DANIEL</t>
@@ -425,7 +425,7 @@
     <t>jose.cedenoz.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>tvs1!It3</t>
+    <t>v06AEiP0</t>
   </si>
   <si>
     <t>CIFUENTES VELASQUEZ JOSE JAHIR</t>
@@ -434,7 +434,7 @@
     <t>jose.cifuentes.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>BRmDzmYs</t>
+    <t>lNZ##7DC</t>
   </si>
   <si>
     <t>CONFORME CIFUENTES ROBERTH JESUS</t>
@@ -443,7 +443,7 @@
     <t>roberth.conforme.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>cYX78ip4</t>
+    <t>rt4x&amp;kAz</t>
   </si>
   <si>
     <t>CORDERO GILER SALMA PAOLA</t>
@@ -452,7 +452,7 @@
     <t>salma.cordero.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>/6tWqpdW</t>
+    <t>ym0d1enW</t>
   </si>
   <si>
     <t>FARIAS VELIZ RENE OCTAVIO</t>
@@ -461,7 +461,7 @@
     <t>rene.farias.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>TRXi#7&amp;o</t>
+    <t>UltQYZZP</t>
   </si>
   <si>
     <t>GARCIA DUEÑAS JEAN FERNANDO</t>
@@ -470,7 +470,7 @@
     <t>jean.garcia.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>r3C7TBo9</t>
+    <t>zRHvfUKE</t>
   </si>
   <si>
     <t>HERRERA BASURTO IVIS ANTONELLA</t>
@@ -479,7 +479,7 @@
     <t>ivis.herrera.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>zoZmOAou</t>
+    <t>TE/k/U2j</t>
   </si>
   <si>
     <t>HIDALGO LOOR MARLYN NALLELY</t>
@@ -488,7 +488,7 @@
     <t>marlyn.hidalgo.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>UBwAisWz</t>
+    <t>Sjhpo1s#</t>
   </si>
   <si>
     <t>IBARRA CHAVARRIA JUAN DIEGO</t>
@@ -497,7 +497,7 @@
     <t>juan.ibarra.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>IWE4ybq4</t>
+    <t>l2EpvMD5</t>
   </si>
   <si>
     <t>JAYA ZAPATA VICTOR EDUARDO</t>
@@ -506,7 +506,7 @@
     <t>victor.jaya.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>4k1QkzVH</t>
+    <t>ZDuRegei</t>
   </si>
   <si>
     <t>LOOR DELGADO JERRY JOEL</t>
@@ -515,7 +515,7 @@
     <t>jerry.loor.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>0I9GPSOa</t>
+    <t>YsztbMqt</t>
   </si>
   <si>
     <t>MANTUANO PONCE MELANY MONCERRATE</t>
@@ -524,7 +524,7 @@
     <t>melany.mantuano.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>HqbbDJo4</t>
+    <t>kB7P/krM</t>
   </si>
   <si>
     <t>MENDOZA VASQUEZ ARIEL ALEXIS</t>
@@ -536,7 +536,7 @@
     <t>ariel.mendoza.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>Gq/1zsOW</t>
+    <t>ksf0?FNT</t>
   </si>
   <si>
     <t>MOREIRA GARCIA MACARIO EMANUEL</t>
@@ -545,7 +545,7 @@
     <t>macario.moreira.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>hc2#xcEh</t>
+    <t>&amp;bH1z/PF</t>
   </si>
   <si>
     <t>MOREIRA GILCES GABRIELA NIKOL</t>
@@ -554,7 +554,7 @@
     <t>gabriela.moreira.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>VnxtELz8</t>
+    <t>tMzQ/fRa</t>
   </si>
   <si>
     <t>NOBOA MONTESDEOCA INGRITH MADELEYN</t>
@@ -563,7 +563,7 @@
     <t>ingrith.noboa.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>bQrO!WTg</t>
+    <t>lK/1?eqF</t>
   </si>
   <si>
     <t>ORDOÑEZ ALCIVAR ALEX PAUL</t>
@@ -572,7 +572,7 @@
     <t>alex.ordonez.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>!kIUsnJm</t>
+    <t>bDNhVGiE</t>
   </si>
   <si>
     <t>PALMA GARCIA MELYN JARITZA</t>
@@ -581,7 +581,7 @@
     <t>melyn.palma.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>cBLm7fL0</t>
+    <t>17yH9FnI</t>
   </si>
   <si>
     <t>PAREDES MERO GHISLAINE ANAHI</t>
@@ -590,7 +590,7 @@
     <t>ghislaine.paredes.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>SS0MosLv</t>
+    <t>x4y#sWab</t>
   </si>
   <si>
     <t>QUIJIJE PIANDA XIOMARA MISHELLE</t>
@@ -602,7 +602,7 @@
     <t>xiomara.quijije.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>#N5vGuh8</t>
+    <t>QUhV?H7&amp;</t>
   </si>
   <si>
     <t>SALAVARRIA AVEIGA YULIANA GUADALUPE</t>
@@ -611,7 +611,7 @@
     <t>yuliana.salavarria.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>5cKlVmPn</t>
+    <t>x8T7m4k7</t>
   </si>
   <si>
     <t>SANTOS ALCIVAR JAIR SEBASTIAN</t>
@@ -620,7 +620,7 @@
     <t>jair.santos.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>T0srOWs2</t>
+    <t>GWd&amp;ImPv</t>
   </si>
   <si>
     <t>SOLORZANO CANDELA JARITZA NOHEMY</t>
@@ -629,7 +629,7 @@
     <t>jaritza.solorzano.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>a4OdBLij</t>
+    <t>l6jSMRgc</t>
   </si>
   <si>
     <t>VERA CEBALLOS MARIA CONCEPCION</t>
@@ -638,7 +638,7 @@
     <t>maria.vera.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>N5Yi02i0</t>
+    <t>l4olVY53</t>
   </si>
   <si>
     <t>ALAVA MUÑOZ BILL JARVI</t>
@@ -647,7 +647,7 @@
     <t>bill.alava.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>mWuNqiRF</t>
+    <t>aQOzw4j3</t>
   </si>
   <si>
     <t>ALCIVAR ZAMBRANO ESTHER JOMARA</t>
@@ -656,7 +656,7 @@
     <t>esther.alcivar.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>R?H#xB6j</t>
+    <t>9LTh8omi</t>
   </si>
   <si>
     <t>ALMEIDA LOOR MARIA VICTORIA</t>
@@ -665,7 +665,7 @@
     <t>maria.almeida.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>alz4IS#p</t>
+    <t>4nLDEi5O</t>
   </si>
   <si>
     <t>ANDRADE VILLAVICENCIO PABLO HUGO</t>
@@ -674,7 +674,7 @@
     <t>pablo.andrade.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>1vLwCkH3</t>
+    <t>YxnA9gW0</t>
   </si>
   <si>
     <t>AVENDAÑO YZQUIERDO ADRIANA ISABEL</t>
@@ -686,7 +686,7 @@
     <t>adriana.avendano.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>zdCXeh1o</t>
+    <t>4zd7D2dF</t>
   </si>
   <si>
     <t>BALUARTE PARRAGA MAYERLY NARCISA</t>
@@ -698,7 +698,7 @@
     <t>mayerly.baluarte.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>5rKaMama</t>
+    <t>3ykPjILS</t>
   </si>
   <si>
     <t>BARRE CASTAÑEDA MAYERLI SOLANGE</t>
@@ -710,7 +710,7 @@
     <t>mayerli.barre.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>HCalBLHu</t>
+    <t>sLgmXdrX</t>
   </si>
   <si>
     <t>BERMEO MENDOZA LESLY JULIETT</t>
@@ -719,7 +719,7 @@
     <t>lesly.bermeo.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>ymPtUDoG</t>
+    <t>SrCnPpgp</t>
   </si>
   <si>
     <t>BRAVO ZAMBRANO DANA KATIUSKA</t>
@@ -728,7 +728,7 @@
     <t>dana.bravo.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>&amp;IbbcqVm</t>
+    <t>!biT#NlX</t>
   </si>
   <si>
     <t>CEDEÑO ALVARADO JORGE LUIS</t>
@@ -737,7 +737,7 @@
     <t>jorge.cedeno.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>RGMIfBh5</t>
+    <t>LqWzRvrn</t>
   </si>
   <si>
     <t>DOMINGUEZ ANGEL ANAIS ZULEYMA</t>
@@ -749,7 +749,7 @@
     <t>anais.dominguez.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>E52Utj4X</t>
+    <t>VSSh0YFK</t>
   </si>
   <si>
     <t>ESPARZA TELLO ERICKA MARIA</t>
@@ -761,7 +761,7 @@
     <t>ericka.esparza.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>2bJ3LZdp</t>
+    <t>o6p02yF/</t>
   </si>
   <si>
     <t>GRAIN MARCILLO MICHAEL JOSUE</t>
@@ -770,7 +770,7 @@
     <t>michael.grain.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>!Z3a!BEW</t>
+    <t>k66zU0J0</t>
   </si>
   <si>
     <t>JAMA ZAMBRANO ROBERTH XAVIER</t>
@@ -779,7 +779,7 @@
     <t>roberth.jama@espam.edu.ec</t>
   </si>
   <si>
-    <t>x?wzW&amp;ul</t>
+    <t>&amp;u5qvVRF</t>
   </si>
   <si>
     <t>LARA BONE ANGIE NICOLE</t>
@@ -791,7 +791,7 @@
     <t>angie.lara.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>0FlEIbC#</t>
+    <t>66RbJL&amp;s</t>
   </si>
   <si>
     <t>LOPEZ DELGADO DAYANA NICOLLE</t>
@@ -800,7 +800,7 @@
     <t>dayana.lopez.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>vIYWUlSS</t>
+    <t>HZX9St#7</t>
   </si>
   <si>
     <t>MELO CENTENO HELEN SOFIA</t>
@@ -809,7 +809,7 @@
     <t>helen.melo.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>?Ap&amp;0h/?</t>
+    <t>KiGYrGPf</t>
   </si>
   <si>
     <t>MENDOZA ORTEGA ANGELO DANIEL</t>
@@ -818,7 +818,7 @@
     <t>angelo.mendoza.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>gvrV!2cF</t>
+    <t>sBjrgI8W</t>
   </si>
   <si>
     <t>MERO CARRILLO EMELY MILENA</t>
@@ -827,7 +827,7 @@
     <t>emely.mero.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>Joazo5VD</t>
+    <t>zrxlAwtj</t>
   </si>
   <si>
     <t>MITE MENENDEZ GEORGE ISAAC</t>
@@ -836,7 +836,7 @@
     <t>george.mite.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>/y#nCzrI</t>
+    <t>ZYGeVZVW</t>
   </si>
   <si>
     <t>MONCAYO CAGUA LADY NOHELIA</t>
@@ -845,7 +845,7 @@
     <t>lady.moncayo.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>f51oUX1j</t>
+    <t>InnAI0vM</t>
   </si>
   <si>
     <t>ORMAZA ALCIVAR NOHELIA MILENA</t>
@@ -854,7 +854,7 @@
     <t>nohelia.ormaza.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>1JfX2GlX</t>
+    <t>bXwor3y3</t>
   </si>
   <si>
     <t>PANTA CANDELA YONNY ALEXANDER</t>
@@ -863,7 +863,7 @@
     <t>jonny.panta.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>vxsz4wT!</t>
+    <t>Eq#FJ6lZ</t>
   </si>
   <si>
     <t>QUINATOA SIMALIZA YAJAIRA NICOLE</t>
@@ -872,7 +872,7 @@
     <t>yajaira.quinatoa.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>qrEnNA19</t>
+    <t>dQ9srYqB</t>
   </si>
   <si>
     <t>REYNA RAMIREZ SINDY MAHOLY</t>
@@ -881,7 +881,7 @@
     <t>sindy.reyna.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>jJfJp9pt</t>
+    <t>JLPQUunb</t>
   </si>
   <si>
     <t>RODRIGUEZ ANCHUNDIA LUIS FERNANDO</t>
@@ -890,7 +890,7 @@
     <t>luis.rodriguez.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>8Hq11hyB</t>
+    <t>5t2Po&amp;87</t>
   </si>
   <si>
     <t>SABANDO TUAREZ MILENA BLANCA</t>
@@ -899,7 +899,7 @@
     <t>milena.sabando.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>QWDLgmjg</t>
+    <t>70uNHkUd</t>
   </si>
   <si>
     <t>SALAZAR RAMIREZ YARITZA GABRIELA</t>
@@ -908,7 +908,7 @@
     <t>yaritza.salazar.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>qlUg05l&amp;</t>
+    <t>YETKbpy3</t>
   </si>
   <si>
     <t>SHIGUANGO AGUINDA KATTY MIRELLA</t>
@@ -917,7 +917,7 @@
     <t>katty.shiguango.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>9oY7Y32l</t>
+    <t>O?AsYIKQ</t>
   </si>
   <si>
     <t>VACA MORALES JOSE EDUARDO</t>
@@ -926,7 +926,7 @@
     <t>jose.vaca.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>enutdJTj</t>
+    <t>4b7RVtUB</t>
   </si>
   <si>
     <t>VELASQUEZ MEJIA ARIANNA ELIZABETH</t>
@@ -935,7 +935,7 @@
     <t>arianna.velasquez.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>u1M?1Pgj</t>
+    <t>v4RrmfGd</t>
   </si>
   <si>
     <t>VELEZ CEDEÑO YANDRY ALAIN</t>
@@ -944,7 +944,7 @@
     <t>yandry.velez.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>HK&amp;okD2d</t>
+    <t>E6/cwSOx</t>
   </si>
   <si>
     <t>VERA ZAMORA DIXON YAIR</t>
@@ -953,7 +953,7 @@
     <t>dixon.vera.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>ZrNQijlQ</t>
+    <t>?egN!N2x</t>
   </si>
   <si>
     <t>ZAMBRANO FORTIS RICARDO MIGUEL</t>
@@ -962,7 +962,7 @@
     <t>ricardo.zambrano.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>vs2gZFGS</t>
+    <t>QYTnaZeE</t>
   </si>
   <si>
     <t>ALVARADO DUEÑAS KARELYS VANESSA</t>
@@ -971,7 +971,7 @@
     <t>karelys.alvarado.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>2fk!dQMv</t>
+    <t>qSgv7rh!</t>
   </si>
   <si>
     <t>ANDRADE ILES ALVIERY JAHIR</t>
@@ -983,7 +983,7 @@
     <t>alviery.andrade.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>HmcyrV5N</t>
+    <t>O8Oh6kNE</t>
   </si>
   <si>
     <t>ARTEAGA RAMOS DIEGO ALEJANDRO</t>
@@ -992,7 +992,7 @@
     <t>diego.arteaga.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>Q6a/lWzj</t>
+    <t>q6hf?heg</t>
   </si>
   <si>
     <t>BARREIRO INTRIAGO STEFANY PIERINA</t>
@@ -1001,7 +1001,7 @@
     <t>stefany.barreiro.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>mgd/RPDu</t>
+    <t>qM0uz&amp;vK</t>
   </si>
   <si>
     <t>BRAVO QUINTERO SARA NICOLE</t>
@@ -1013,7 +1013,7 @@
     <t>sara.bravo.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>kUcgcXTu</t>
+    <t>x#VZcMl/</t>
   </si>
   <si>
     <t>CABALLERO MUÑOZ STEVEN FABRICIO</t>
@@ -1022,7 +1022,7 @@
     <t>steven.caballero.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>lOtv7AZm</t>
+    <t>OoArBze#</t>
   </si>
   <si>
     <t>CARRASCO VERA LUCAS JOSUE</t>
@@ -1031,7 +1031,7 @@
     <t>lucas.carrasco.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>JD4Vvfff</t>
+    <t>ztmGieuH</t>
   </si>
   <si>
     <t>CEDEÑO MURILLO KENNER STEVEN</t>
@@ -1040,7 +1040,7 @@
     <t>kenner.cedeno.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>gmloMvnu</t>
+    <t>/69LEsz4</t>
   </si>
   <si>
     <t>CUERO PAZMIÑO EMMANUEL JOSUE</t>
@@ -1049,7 +1049,7 @@
     <t>emmanuel.cuero.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>?6VxT6IK</t>
+    <t>DZCBX6WV</t>
   </si>
   <si>
     <t>LADINES CASTRO MIRKA DARLISHA</t>
@@ -1061,7 +1061,7 @@
     <t>mirka.ladines.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>P/10d28B</t>
+    <t>9AnLSil2</t>
   </si>
   <si>
     <t>LARA FRANCO MICHAEL ARGEL</t>
@@ -1073,7 +1073,7 @@
     <t>michael.lara.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>jAiGAu24</t>
+    <t>ynqS&amp;WZH</t>
   </si>
   <si>
     <t>LEYTHON QUIÑONEZ JEIMY SILVANA</t>
@@ -1085,7 +1085,7 @@
     <t>jeimy.leython.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>CvTmBrj1</t>
+    <t>Djgpuahn</t>
   </si>
   <si>
     <t>LOOR LOOR GENESIS DANIELA</t>
@@ -1094,7 +1094,7 @@
     <t>genesis.loor.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>PANFF9ht</t>
+    <t>CtvNawty</t>
   </si>
   <si>
     <t>MATAMBA GUANGA THALIA VALERIA</t>
@@ -1106,7 +1106,7 @@
     <t>thalia.matamba.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>DZo!akfE</t>
+    <t>vGoh#kOj</t>
   </si>
   <si>
     <t>MENDOZA DE LA CRUZ MARTHA DANIELA</t>
@@ -1115,7 +1115,7 @@
     <t>martha.mendoza.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>67HguR&amp;4</t>
+    <t>6Rj2?az/</t>
   </si>
   <si>
     <t>MINOTA BORJA ALEXANDER JAHIR</t>
@@ -1127,7 +1127,7 @@
     <t>alexander.minota.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>PVXDYjoW</t>
+    <t>wf/EzlYb</t>
   </si>
   <si>
     <t>NAVIA LOOR JOSE EFRAIN</t>
@@ -1136,7 +1136,7 @@
     <t>jose.navia.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>APc9s!lW</t>
+    <t>4onbWB73</t>
   </si>
   <si>
     <t>PILATAXI UTRERAS KATHERIN JULIETH</t>
@@ -1145,7 +1145,7 @@
     <t>katherin.pilataxi.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>!Mjf5887</t>
+    <t>!k/oJSoe</t>
   </si>
   <si>
     <t>PINARGOTE CARREÑO FELIX JOEL</t>
@@ -1154,7 +1154,7 @@
     <t>felix.pinargote.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>YdlxbshW</t>
+    <t>H#F/Uz!V</t>
   </si>
   <si>
     <t>PONCE ZAMBRANO ARIANA JESSENIA</t>
@@ -1163,7 +1163,7 @@
     <t>ariana.ponce.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>d&amp;Wak&amp;A8</t>
+    <t>d4hWHLwX</t>
   </si>
   <si>
     <t>QUINATOA SIMALIZA KELLY MARIUXI</t>
@@ -1172,7 +1172,7 @@
     <t>kelly.quinatoa.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>rdHLS9mk</t>
+    <t>i3#kh9H2</t>
   </si>
   <si>
     <t>ROSADO ROSADO JOEL JESUS</t>
@@ -1181,7 +1181,7 @@
     <t>joel.rosado.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>Eb78M6hi</t>
+    <t>CrIZpEWN</t>
   </si>
   <si>
     <t>SANMARTIN TAPIA CARMEN EDITH</t>
@@ -1190,7 +1190,7 @@
     <t>carmen.sanmartin.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>9fLLMbJE</t>
+    <t>YtkudgLU</t>
   </si>
   <si>
     <t>SAYAY DAGUA JOSELYN NICOL</t>
@@ -1202,7 +1202,7 @@
     <t>joselyn.sayay.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>U60YTEFt</t>
+    <t>G25fdh08</t>
   </si>
   <si>
     <t>SOLORZANO PAZMIÑO DECCY DANIELA</t>
@@ -1211,7 +1211,7 @@
     <t>deccy.solorzano.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>9LbXFCbX</t>
+    <t>3gc/3A3s</t>
   </si>
   <si>
     <t>VERGARA ZAMBRANO MATIAS ALEXANDER</t>
@@ -1220,7 +1220,7 @@
     <t>matias.vergara.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>A&amp;ua4NG4</t>
+    <t>pBBlrktC</t>
   </si>
   <si>
     <t>ZAMBRANO INTRIAGO FRAYDA JESSENIA</t>
@@ -1229,7 +1229,7 @@
     <t>frayda.zambrano.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>z5FZ?0pZ</t>
+    <t>w/z1jHln</t>
   </si>
   <si>
     <t>ZAMBRANO VALAREZO ANDREA LISBETH</t>
@@ -1238,7 +1238,7 @@
     <t>andrea.zambrano.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>dRlS8jkK</t>
+    <t>kCApBu4h</t>
   </si>
   <si>
     <t>AGUAS MARTINEZ KEVIN SNAIDER</t>
@@ -1247,7 +1247,7 @@
     <t>kevin.aguas@espam.edu.ec</t>
   </si>
   <si>
-    <t>kYp&amp;xZWe</t>
+    <t>SUlRAfrU</t>
   </si>
   <si>
     <t>ANDRADE GARCIA LUZ CRUCELINA</t>
@@ -1256,7 +1256,7 @@
     <t>luz.andrade.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>g3I#zyey</t>
+    <t>si2Zar02</t>
   </si>
   <si>
     <t>BARBERAN MERO HELEN ADRIANA</t>
@@ -1265,7 +1265,7 @@
     <t>helen.barberan.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>xUqfb43w</t>
+    <t>FqCg2#dR</t>
   </si>
   <si>
     <t>BARROS ZAMBRANO DANIEL ANGEL</t>
@@ -1274,7 +1274,7 @@
     <t>daniel.barros.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>rNYKbngK</t>
+    <t>huJs#8#5</t>
   </si>
   <si>
     <t>BASURTO ZAMBRANO CARLOS RAUL</t>
@@ -1283,7 +1283,7 @@
     <t>carlos.basurto.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>Be3kW5PA</t>
+    <t>S#1GXPvS</t>
   </si>
   <si>
     <t>BRAVO BRAVO ANTHONY ADEMIR</t>
@@ -1292,7 +1292,7 @@
     <t>anthony.bravo.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>zPWxHhSH</t>
+    <t>1A7J/iIB</t>
   </si>
   <si>
     <t>CANTOS VERA ANGELA AUXILIADORA</t>
@@ -1301,7 +1301,7 @@
     <t>angela.cantos.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>aWy8ZOLI</t>
+    <t>?aRm54Jb</t>
   </si>
   <si>
     <t>CASTRO BOLAÑO FANNY TATIANA</t>
@@ -1310,7 +1310,7 @@
     <t>fanny.castro.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>8jsRZrd9</t>
+    <t>qT!htCg3</t>
   </si>
   <si>
     <t>CASTRO SALTOS MATTEWS FARID</t>
@@ -1319,7 +1319,7 @@
     <t>mattews.castro.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>zgePY/#Z</t>
+    <t>OkqoU3&amp;k</t>
   </si>
   <si>
     <t>CHANCAY RADE ANTONY GABRIEL</t>
@@ -1328,7 +1328,7 @@
     <t>antony.chancay@espam.edu.ec</t>
   </si>
   <si>
-    <t>vvEXEt2V</t>
+    <t>hwH10UAm</t>
   </si>
   <si>
     <t>COBEÑA GARCIA YOMAYRA ALEXANDRA</t>
@@ -1337,7 +1337,7 @@
     <t>yomayra.cobena.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>9q90KO/e</t>
+    <t>H4w?K8kd</t>
   </si>
   <si>
     <t>CRUZ ERAZO JOSE MIGUEL</t>
@@ -1346,7 +1346,7 @@
     <t>jose.cruz.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>7lstR9Sf</t>
+    <t>bjKL&amp;T4J</t>
   </si>
   <si>
     <t>GARCIA ANDRADE MARIA ROSA</t>
@@ -1355,7 +1355,7 @@
     <t>maria.garcia.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>WjghBF?K</t>
+    <t>o3x1nxrT</t>
   </si>
   <si>
     <t>HERNANDEZ LOPEZ LUIS DAVID</t>
@@ -1364,7 +1364,7 @@
     <t>luis.hernandez.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>UwpPOI6q</t>
+    <t>oEfYAl&amp;t</t>
   </si>
   <si>
     <t>LEON FUENTES JONATHAN ALBINO</t>
@@ -1376,7 +1376,7 @@
     <t>jonathan.leon.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>Ft8LHLPY</t>
+    <t>X4Kv6btE</t>
   </si>
   <si>
     <t>MACIAS ANCHUNDIA ROBERTO CARLOS</t>
@@ -1385,7 +1385,7 @@
     <t>roberto.macias.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>yGufq&amp;#f</t>
+    <t>yqn?ZhVe</t>
   </si>
   <si>
     <t>MAZA AGREDA KAREN IBETH</t>
@@ -1394,7 +1394,7 @@
     <t>karen.maza.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>8j4RH&amp;GH</t>
+    <t>AKWZa!6!</t>
   </si>
   <si>
     <t>MUÑOZ MERA LITZY ALEJANDRA</t>
@@ -1403,7 +1403,7 @@
     <t>litzy.munoz.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>JtuDVYJM</t>
+    <t>G4Yo1ow1</t>
   </si>
   <si>
     <t>MUÑOZ MOLINA ANDRY FABIAN</t>
@@ -1412,7 +1412,7 @@
     <t>andry.munoz.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>oUf?y!QM</t>
+    <t>sMvElRW1</t>
   </si>
   <si>
     <t>ORMAZA VALENCIA KEVIN JAVIER</t>
@@ -1424,7 +1424,7 @@
     <t>kevin.ormaza.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>JlbgAqno</t>
+    <t>ahi3yiv!</t>
   </si>
   <si>
     <t>PAZMIÑO PINCAY NAYELLY AGUSTINA</t>
@@ -1433,7 +1433,7 @@
     <t>nayelly.pazmino.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>Ot7ROvdX</t>
+    <t>v9W2X7A#</t>
   </si>
   <si>
     <t>POZO PONCE DANNY IVAN</t>
@@ -1442,7 +1442,7 @@
     <t>danny.pozo@espam.edu.ec</t>
   </si>
   <si>
-    <t>kF#y/Li&amp;</t>
+    <t>giWktq?E</t>
   </si>
   <si>
     <t>QUIJANO MEZA MARIANA LISETH</t>
@@ -1451,7 +1451,7 @@
     <t>mariana.quijano.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>?tkaAN3S</t>
+    <t>7Y0Nr9t9</t>
   </si>
   <si>
     <t>QUIÑONEZ AÑAPA RODRIGO MANUEL</t>
@@ -1463,7 +1463,7 @@
     <t>rodrigo.quinonez.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>MPRiFNF0</t>
+    <t>pdQTR?!!</t>
   </si>
   <si>
     <t>SANTOS ALCIVAR KELVIN YOEL</t>
@@ -1472,7 +1472,7 @@
     <t>kelvin.santos.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>/oE!bL2E</t>
+    <t>0WMF/Op6</t>
   </si>
   <si>
     <t>SOLORZANO RODRIGUEZ SANDY</t>
@@ -1481,7 +1481,7 @@
     <t>sandy.solorzano.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>EqF9II3?</t>
+    <t>KVJVqpkP</t>
   </si>
   <si>
     <t>TOALA PIN ARIEL ALEJANDRO</t>
@@ -1493,7 +1493,7 @@
     <t>ariel.toala.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>3#iNHaaC</t>
+    <t>&amp;H48SEhH</t>
   </si>
   <si>
     <t>VEGA INTRIAGO MIGUEL ANGEL</t>
@@ -1502,7 +1502,7 @@
     <t>miguel.vega.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>l58lcjsQ</t>
+    <t>9QXoh6SJ</t>
   </si>
   <si>
     <t>VELASQUEZ RODRIGUEZ GEMA BELEN</t>
@@ -1511,7 +1511,7 @@
     <t>gema.velasquez.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>Z33dMEGd</t>
+    <t>YPKI7vir</t>
   </si>
   <si>
     <t>VERA MENDOZA MARIA VICTORIA</t>
@@ -1520,7 +1520,7 @@
     <t>maria.veram.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>6fC&amp;qJ0V</t>
+    <t>kYhgMaaQ</t>
   </si>
   <si>
     <t>VERA PALACIOS JORDANO SAUL</t>
@@ -1529,7 +1529,7 @@
     <t>jordano.vera.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>oB9BFt6E</t>
+    <t>HDO4lzMt</t>
   </si>
   <si>
     <t>ZAMBRANO MERA VALENTINA MONSERRATE</t>
@@ -1538,7 +1538,7 @@
     <t>valentina.zambrano.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>Vyl?IZGY</t>
+    <t>YOG86eb#</t>
   </si>
   <si>
     <t>ZAMBRANO QUIMI JUAN GEORGE</t>
@@ -1550,7 +1550,7 @@
     <t>juan.zambrano.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>exuscL77</t>
+    <t>&amp;ct!iwDL</t>
   </si>
   <si>
     <t>ALCIVAR ZAMBRANO GEOMAYRA KATHERINE</t>
@@ -1562,7 +1562,7 @@
     <t>geomayra.alcivar.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>uVjj5RU&amp;</t>
+    <t>3LsBrggh</t>
   </si>
   <si>
     <t>ANDRADE CASTILLO CLAUDIA VICTORIA</t>
@@ -1571,7 +1571,7 @@
     <t>claudia.andrade.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>bxNXWT/1</t>
+    <t>i00b4YsO</t>
   </si>
   <si>
     <t>ANGUISACA CUENCA ALEXANDRA CECIBEL</t>
@@ -1580,7 +1580,7 @@
     <t>alexandra.anguisaca.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>Bf95d&amp;4?</t>
+    <t>vI3?&amp;Knx</t>
   </si>
   <si>
     <t>BARIAS GUARACA LESLY NAYHELY</t>
@@ -1589,7 +1589,7 @@
     <t>lesly.barias.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>?28JWH7b</t>
+    <t>To/0XFIA</t>
   </si>
   <si>
     <t>BARROS VERA ANGEL DAVID</t>
@@ -1598,7 +1598,7 @@
     <t>angel.barros.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>ypwPj89R</t>
+    <t>BCUHUyGg</t>
   </si>
   <si>
     <t>BAZURTO SANTOS KENNIA KATHERINE</t>
@@ -1607,7 +1607,7 @@
     <t>kennia.bazurto.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>No6260w7</t>
+    <t>2cjIIMn4</t>
   </si>
   <si>
     <t>BRAVO BAZURTO GISSELA MARIA</t>
@@ -1616,7 +1616,7 @@
     <t>gissela.bravo.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>?85O8PkS</t>
+    <t>QFfq?xrN</t>
   </si>
   <si>
     <t>BUSTAMANTE YANEZ ANTHONY MICHEL</t>
@@ -1625,7 +1625,7 @@
     <t>anthony.bustamante.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>?k1A54vl</t>
+    <t>uaLCQ/OE</t>
   </si>
   <si>
     <t>CASTRO SOLORZANO NIURKA JULIANA</t>
@@ -1634,7 +1634,7 @@
     <t>niurka.castro.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>HC3PsFEM</t>
+    <t>kK27Vgeg</t>
   </si>
   <si>
     <t>CEDEÑO CEDEÑO YOHANA VANESA</t>
@@ -1643,7 +1643,7 @@
     <t>yohana.cedeno.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>EJo&amp;oKsZ</t>
+    <t>M0/nyK8!</t>
   </si>
   <si>
     <t>CEDEÑO INTRIAGO JEAN PIERRE</t>
@@ -1652,7 +1652,7 @@
     <t>jean.cedeno@espam.edu.ec</t>
   </si>
   <si>
-    <t>zAt/P4JM</t>
+    <t>GCjQA6gy</t>
   </si>
   <si>
     <t>DELGADO CEVALLOS MARIA JOSE</t>
@@ -1661,7 +1661,7 @@
     <t>maria.delgado.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>6gn8/XD7</t>
+    <t>vzRPFKIm</t>
   </si>
   <si>
     <t>ERAZO MORALES GABRIELA ALEJANDRA</t>
@@ -1670,7 +1670,7 @@
     <t>gabriela.erazo.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>JdiOFGL#</t>
+    <t>8YKIx2Zo</t>
   </si>
   <si>
     <t>INTRIAGO ZAMBRANO LUIS JOSE</t>
@@ -1679,7 +1679,7 @@
     <t>luis.intriagoz.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>hAWCkXV&amp;</t>
+    <t>BnVzC95W</t>
   </si>
   <si>
     <t>LOOR ORTIZ YORDY DAVID</t>
@@ -1688,7 +1688,7 @@
     <t>yordy.loor.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>yXiiUAn#</t>
+    <t>TI1ohG&amp;c</t>
   </si>
   <si>
     <t>LOZANO GAMEZ THALIA VANESSA</t>
@@ -1700,7 +1700,7 @@
     <t>thalia.lozano.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>kSDItgcD</t>
+    <t>GuseefYW</t>
   </si>
   <si>
     <t>MONTES RODRIGUEZ ROLANDO ANTONIO</t>
@@ -1709,7 +1709,7 @@
     <t>rolando.montes.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>dFkDN1ry</t>
+    <t>CPm2G5ew</t>
   </si>
   <si>
     <t>PALMA RENDON ARGENIS ARTURO</t>
@@ -1718,7 +1718,7 @@
     <t>argenis.palma@espam.edu.ec</t>
   </si>
   <si>
-    <t>bwC7uV?X</t>
+    <t>XXxHoRkG</t>
   </si>
   <si>
     <t>PAREDES YUMBILLO KATTY MARGOTH</t>
@@ -1730,7 +1730,7 @@
     <t>katty.paredes.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>&amp;NgXw#ev</t>
+    <t>9uM/ttqY</t>
   </si>
   <si>
     <t>PARRALES DELGADO ALAN SEBASTIAN</t>
@@ -1739,7 +1739,7 @@
     <t>alan.parrales.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>U#kz4Nhr</t>
+    <t>gdyKZdw!</t>
   </si>
   <si>
     <t>PATA CEDEÑO ROSA JUANA</t>
@@ -1751,7 +1751,7 @@
     <t>rosa.pata.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>XXZV&amp;ksK</t>
+    <t>zlbbhXmT</t>
   </si>
   <si>
     <t>RETETE BASARAN KEVIN ALEXANDER</t>
@@ -1760,7 +1760,7 @@
     <t>kevin.retete.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>#U5HhwOX</t>
+    <t>z?/LZ/tP</t>
   </si>
   <si>
     <t>ROMAN MACIAS ESTEFANIA ISABEL</t>
@@ -1769,7 +1769,7 @@
     <t>estefania.roman.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>6V&amp;1eujx</t>
+    <t>jigGG5fo</t>
   </si>
   <si>
     <t>SANDOVAL UREÑA FERNANDA DAYANARA</t>
@@ -1781,7 +1781,7 @@
     <t>fernanda.sandoval.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>nNrSEUO4</t>
+    <t>7hXS7&amp;/o</t>
   </si>
   <si>
     <t>SUBIAGA RAMOS LUIS ALEJANDRO</t>
@@ -1790,7 +1790,7 @@
     <t>luis.subiaga.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>1QsgTKBr</t>
+    <t>wl1iImpp</t>
   </si>
   <si>
     <t>VELASQUEZ AVEIGA MARIA JESUS</t>
@@ -1799,7 +1799,7 @@
     <t>maria.velasquez.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>UdGA4mO!</t>
+    <t>gyawBlXb</t>
   </si>
   <si>
     <t>VELEZ CHEME JORDAN ESTEBAN</t>
@@ -1811,7 +1811,7 @@
     <t>jordan.velez.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>20Ufs6rE</t>
+    <t>D&amp;xaalmp</t>
   </si>
   <si>
     <t>VELEZ MENDOZA DARWIN ALEXIS</t>
@@ -1820,7 +1820,7 @@
     <t>darwin.velez.4623@espam.edu.ec</t>
   </si>
   <si>
-    <t>xppXAU4V</t>
+    <t>vWbmwa&amp;Z</t>
   </si>
   <si>
     <t>VERA BARRE RONNY ARISTIDES</t>
@@ -1829,7 +1829,7 @@
     <t>ronny.vera.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>fz5STI8e</t>
+    <t>cVmEvNn#</t>
   </si>
   <si>
     <t>ZAMBRANO MACIAS DIEGO ANDRES</t>
@@ -1838,7 +1838,7 @@
     <t>diego.zambrano.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>oAqoZdMY</t>
+    <t>fRjtwimi</t>
   </si>
   <si>
     <t>ZAMBRANO REYNA YERSY ENRIQUE</t>
@@ -1847,7 +1847,7 @@
     <t>yersy.zambrano.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>EpcvH&amp;Ri</t>
+    <t>01enbuJG</t>
   </si>
   <si>
     <t>CARDENAS MIELES CRISTHYAN ALBERTO</t>
@@ -1856,7 +1856,7 @@
     <t>cristhyan.cardenas.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>hdAscFmL</t>
+    <t>NXOuvKxL</t>
   </si>
   <si>
     <t>CASTRO CARRERA JUAN CARLOS</t>
@@ -1865,7 +1865,7 @@
     <t>juan.castro.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>iMiMBe&amp;q</t>
+    <t>jIMUZpD0</t>
   </si>
   <si>
     <t>CHAVEZ MIRANDA ANTHONY MIGUEL</t>
@@ -1874,7 +1874,7 @@
     <t>anthony.chavez@espam.edu.ec</t>
   </si>
   <si>
-    <t>V3suAh1l</t>
+    <t>7KW&amp;4bER</t>
   </si>
   <si>
     <t>CUSME ZAMBRANO MICHAEL RICHARD</t>
@@ -1883,7 +1883,7 @@
     <t>michael.cusme.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>HNCMJMSS</t>
+    <t>/?doa7we</t>
   </si>
   <si>
     <t>GILER SALAZAR CARLOS IGNACIO</t>
@@ -1892,7 +1892,7 @@
     <t>carlos.giler@espam.edu.ec</t>
   </si>
   <si>
-    <t>RkIqnIaJ</t>
+    <t>H2xAzCOm</t>
   </si>
   <si>
     <t>HERNANDEZ DIAZ MARIA JOSE</t>
@@ -1904,7 +1904,7 @@
     <t>maria.hernandez.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>PlKIrEkD</t>
+    <t>FdWRWe#k</t>
   </si>
   <si>
     <t>HIDALGO MOREIRA ESTELA NATHALY</t>
@@ -1913,7 +1913,7 @@
     <t>estela.hidalgo.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>!EmMhlJV</t>
+    <t>#nXC7pxP</t>
   </si>
   <si>
     <t>HIDALGO MOREIRA PIERINA NATHALY</t>
@@ -1922,7 +1922,7 @@
     <t>pierina.hidalgo.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>CnmT2GHi</t>
+    <t>Cvj57tWp</t>
   </si>
   <si>
     <t>LARA QUIJIJE PAMELA JULISSA</t>
@@ -1931,7 +1931,7 @@
     <t>pamela.lara.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>Y7Fgy1xE</t>
+    <t>7IX98zqr</t>
   </si>
   <si>
     <t>LOOR PITIZACA FRANK ALLAN</t>
@@ -1940,7 +1940,7 @@
     <t>frank.loor.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>2UGXr8qS</t>
+    <t>MiB!vAah</t>
   </si>
   <si>
     <t>LOOR ZAMBRANO GEMA STEFANIA</t>
@@ -1949,7 +1949,7 @@
     <t>gema.loor.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>&amp;YIyh6CG</t>
+    <t>bnLbVsL9</t>
   </si>
   <si>
     <t>PALACIOS TAPIA CESAR XAVIER</t>
@@ -1958,7 +1958,7 @@
     <t>cesar.palacios.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>N8uGnbQZ</t>
+    <t>/sK9Qr?&amp;</t>
   </si>
   <si>
     <t>PEÑARRETA LANCHE PILAR MICAELA</t>
@@ -1967,7 +1967,7 @@
     <t>pilar.penarreta.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>qJ!26SYL</t>
+    <t>0l52q0Gc</t>
   </si>
   <si>
     <t>PILLASAGUA PINARGOTE INGRID MAYERLI</t>
@@ -1979,7 +1979,7 @@
     <t>ingrid.pillasagua.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>f&amp;?P8zfw</t>
+    <t>R9WoNxy0</t>
   </si>
   <si>
     <t>QUIJIJE CEDEÑO GEMA LISBETH</t>
@@ -1988,7 +1988,7 @@
     <t>gema.quijije.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>uihxq3/O</t>
+    <t>zhWYX6bo</t>
   </si>
   <si>
     <t>RUIZ ZAMBRANO VICTOR ANDRES</t>
@@ -1997,7 +1997,7 @@
     <t>victor.ruiz.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>uIFsVwKy</t>
+    <t>8m2&amp;rw#h</t>
   </si>
   <si>
     <t>SALTOS SALAZAR MAYERLY VERONICA</t>
@@ -2009,7 +2009,7 @@
     <t>mayerly.saltos.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>eQQEdmGm</t>
+    <t>52/XgH95</t>
   </si>
   <si>
     <t>SANTANA PALOMINO FRANKLIN JOHAO</t>
@@ -2018,7 +2018,7 @@
     <t>franklin.santana.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>MReW?6TX</t>
+    <t>PZ3fa2sz</t>
   </si>
   <si>
     <t>TAFFUR TOASA OLGA MARIA</t>
@@ -2027,7 +2027,7 @@
     <t>olga.taffur@espam.edu.ec</t>
   </si>
   <si>
-    <t>jAIWXmJL</t>
+    <t>8KXHhq2d</t>
   </si>
   <si>
     <t>TOALA MACAY JOSSELYN VALERIA</t>
@@ -2036,7 +2036,7 @@
     <t>josselyn.toala.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>!Tv2rB82</t>
+    <t>6zKNeKxv</t>
   </si>
   <si>
     <t>VALLADARES ALCIVAR LUIS EDUARDO</t>
@@ -2045,7 +2045,7 @@
     <t>luis.valladares@espam.edu.ec</t>
   </si>
   <si>
-    <t>YNJGjTrA</t>
+    <t>LYvMEcjV</t>
   </si>
   <si>
     <t>VERA ZAMBRANO HILTER JOSSBEL</t>
@@ -2054,7 +2054,7 @@
     <t>hilter.vera.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>TCEEpYD5</t>
+    <t>uu8HrhS7</t>
   </si>
   <si>
     <t>VERGARA TABOADA ROMEL ALEXANDER</t>
@@ -2063,7 +2063,7 @@
     <t>romel.vergara@espam.edu.ec</t>
   </si>
   <si>
-    <t>cH&amp;rYDic</t>
+    <t>db3eAvan</t>
   </si>
   <si>
     <t>ZAMBRANO RIVAS NALLELY LISBETH</t>
@@ -2072,7 +2072,7 @@
     <t>nallely.zambrano.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>r6XGq#Yd</t>
+    <t>vpiR6Dow</t>
   </si>
   <si>
     <t>ABAD MIRANDA KENYA ESTEFANIA</t>
@@ -2084,7 +2084,7 @@
     <t>kenya.abad.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>/vLrU/k2</t>
+    <t>OqXzk71h</t>
   </si>
   <si>
     <t>ALAVA MORENO MILTON ANTERO</t>
@@ -2093,7 +2093,7 @@
     <t>milton.alava@espam.edu.ec</t>
   </si>
   <si>
-    <t>dHuZPzve</t>
+    <t>0oTxh90Y</t>
   </si>
   <si>
     <t>ALMEIDA CEDEÑO CINDY BELEN</t>
@@ -2102,7 +2102,7 @@
     <t>cindy.almeida.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>WUo18VhJ</t>
+    <t>L9RBG63h</t>
   </si>
   <si>
     <t>ANCHUNDIA VERA JUSTIN JOSE</t>
@@ -2111,7 +2111,7 @@
     <t>justin.anchundia.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>IHNwESqZ</t>
+    <t>8#3YQuw3</t>
   </si>
   <si>
     <t>AYONG PALADINES MARIA FERNANDA</t>
@@ -2120,7 +2120,7 @@
     <t>maria.ayong.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>wf/X8bA9</t>
+    <t>p?gN?hp9</t>
   </si>
   <si>
     <t>BRAVO CEVALLOS MELANY PIERINA</t>
@@ -2129,7 +2129,7 @@
     <t>melany.bravo.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>KL&amp;SqKVv</t>
+    <t>N3OfIKYP</t>
   </si>
   <si>
     <t>CASANOVA SALAZAR ROSEMBERG STEVEN</t>
@@ -2138,7 +2138,7 @@
     <t>rosemberg.casanova@espam.edu.ec</t>
   </si>
   <si>
-    <t>4Mm8QGQo</t>
+    <t>PNlX?wdR</t>
   </si>
   <si>
     <t>FERNANDEZ TORRES JALENI SCARLETH</t>
@@ -2150,7 +2150,7 @@
     <t>jaleni.fernandez.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>i5sLvaku</t>
+    <t>K4rAzbrf</t>
   </si>
   <si>
     <t>HERRERA SABANDO WILLIAMS ANDRES</t>
@@ -2159,7 +2159,7 @@
     <t>williams.herrera.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>IaCBzrf#</t>
+    <t>1mjfP/ln</t>
   </si>
   <si>
     <t>LOPEZ PALADINES EDGAR JOSE</t>
@@ -2168,7 +2168,7 @@
     <t>edgar.lopez.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>bhpIGkCZ</t>
+    <t>0w8Z#dPi</t>
   </si>
   <si>
     <t>MEDRANDA GONZALES LINCI YERLEY</t>
@@ -2177,7 +2177,7 @@
     <t>linci.medranda.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>Kd9&amp;30Dt</t>
+    <t>x2lliGY!</t>
   </si>
   <si>
     <t>MENDIETA GILER JORDY EDUARDO</t>
@@ -2186,7 +2186,7 @@
     <t>jordy.mendieta.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>R9ZsKBUY</t>
+    <t>uM3hvSix</t>
   </si>
   <si>
     <t>MORENO VELIZ ALDRIN DAIRY</t>
@@ -2195,7 +2195,7 @@
     <t>aldrin.moreno.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>q#H7PdVi</t>
+    <t>&amp;pgp02WI</t>
   </si>
   <si>
     <t>MUÑOZ VERA GENESIS LOURDES</t>
@@ -2204,7 +2204,7 @@
     <t>genesis.munoz.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>QKHQ5cYH</t>
+    <t>o3ZdvIBL</t>
   </si>
   <si>
     <t>PLAZA CHOEZ RODOLFO JEAMPIERRE</t>
@@ -2213,7 +2213,7 @@
     <t>rodolfo.plaza.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>sdm/LO2g</t>
+    <t>A9z0NxIz</t>
   </si>
   <si>
     <t>PRECIADO MOREIRA PABLO ANTHONY</t>
@@ -2225,7 +2225,7 @@
     <t>pablo.preciado@espam.edu.ec</t>
   </si>
   <si>
-    <t>iagggaYM</t>
+    <t>?4h1tavG</t>
   </si>
   <si>
     <t>SABANDO SALCEDO GENESIS BETZABETH</t>
@@ -2237,7 +2237,7 @@
     <t>genesis.sabando.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>Q5ykmx2K</t>
+    <t>PJ0zdCJY</t>
   </si>
   <si>
     <t>SOLEDISPA ZAMBRANO CRISTHINA ISABELA</t>
@@ -2246,7 +2246,7 @@
     <t>cristhina.soledispa.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>x!/aIIk7</t>
+    <t>7o9tR/TP</t>
   </si>
   <si>
     <t>SOLORZANO RODRIGUEZ EVELYN AGUSTINA</t>
@@ -2255,7 +2255,7 @@
     <t>evelyn.solorzanor@espam.edu.ec</t>
   </si>
   <si>
-    <t>xl9hqAcS</t>
+    <t>1JO1yJB7</t>
   </si>
   <si>
     <t>VERA AGUAS KELVIN JEAN PIERRE</t>
@@ -2264,7 +2264,7 @@
     <t>kelvin.vera@espam.edu.ec</t>
   </si>
   <si>
-    <t>BkrlTWr8</t>
+    <t>KeEogyLR</t>
   </si>
   <si>
     <t>VERA LOOR DENYS ESTEFANIA</t>
@@ -2273,7 +2273,7 @@
     <t>denys.vera.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>d0oslJd3</t>
+    <t>6SKa&amp;XAT</t>
   </si>
   <si>
     <t>VINCES PIN MARIA FERNANDA</t>
@@ -2282,7 +2282,7 @@
     <t>maria.vinces.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>sk/EtlpS</t>
+    <t>&amp;0YZcMXO</t>
   </si>
   <si>
     <t>ZAMBRANO ZAMBRANO MARIA BELEN</t>
@@ -2291,7 +2291,7 @@
     <t>mariab.zambranoz.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>5CeaFw9/</t>
+    <t>b#Y?gc8q</t>
   </si>
   <si>
     <t>ALCIVAR ZAMBRANO DIANA ESTHER</t>
@@ -2300,7 +2300,7 @@
     <t>diana.alcivar.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>KD9h3/1S</t>
+    <t>0m991evW</t>
   </si>
   <si>
     <t>ALVAREZ BORJA ANGHELO JOSUE</t>
@@ -2309,7 +2309,7 @@
     <t>anghelo.alvarez.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>d30dE&amp;dq</t>
+    <t>nMKuSupp</t>
   </si>
   <si>
     <t>BRAVO MENDOZA ALBERDY JAVIER</t>
@@ -2318,7 +2318,7 @@
     <t>alberdy.bravo@espam.edu.ec</t>
   </si>
   <si>
-    <t>cFGRhLm5</t>
+    <t>cnJLjrhm</t>
   </si>
   <si>
     <t>GARCIA PARRAGA FATIMA MARIA</t>
@@ -2327,7 +2327,7 @@
     <t>fatima.garcia.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>wAvTx#EW</t>
+    <t>RNfK!ocR</t>
   </si>
   <si>
     <t>GRACIA PRATT WILINTON JOSUE</t>
@@ -2339,7 +2339,7 @@
     <t>wilinton.gracia.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>AsaALbbT</t>
+    <t>0/R0DV&amp;N</t>
   </si>
   <si>
     <t>MARRETT BEDOYA MISHELLE MARCELA</t>
@@ -2351,7 +2351,7 @@
     <t>mishelle.marrett.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>xyE6Nl&amp;X</t>
+    <t>2Z4U8sxM</t>
   </si>
   <si>
     <t>MERA CASTILLO NATHALY VIRGINIA</t>
@@ -2360,7 +2360,7 @@
     <t>nathaly.mera.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>H6&amp;hQfO8</t>
+    <t>BEaWbJFq</t>
   </si>
   <si>
     <t>ROSERO VERA LUIS ANDRES</t>
@@ -2369,7 +2369,7 @@
     <t>luis.rosero@espam.edu.ec</t>
   </si>
   <si>
-    <t>g0UzAVP5</t>
+    <t>Tdi?Zumj</t>
   </si>
   <si>
     <t>SANTISTEBAN BENAVIDES JOSUE ROMARIO</t>
@@ -2378,7 +2378,7 @@
     <t>josue.santisteban.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>KpQQS93H</t>
+    <t>M0xinJWP</t>
   </si>
   <si>
     <t>SOLORZANO CUSME GEMA JULIANA</t>
@@ -2387,7 +2387,7 @@
     <t>gemaju.solorzano@espam.edu.ec</t>
   </si>
   <si>
-    <t>BivHgTPE</t>
+    <t>!SICDB#c</t>
   </si>
   <si>
     <t>TORRES PINARGOTE MAHOLY</t>
@@ -2396,7 +2396,7 @@
     <t>maholy.torres.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>SAZpHrlS</t>
+    <t>OzgiHl3S</t>
   </si>
   <si>
     <t>ZAMBRANO BRAVO LEANDRO ISMAEL</t>
@@ -2405,7 +2405,7 @@
     <t>leandro.zambrano.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>mGBfS3uJ</t>
+    <t>wTxN4NdO</t>
   </si>
   <si>
     <t>ZAMBRANO GARCIA HENRY ARTURO</t>
@@ -2414,7 +2414,7 @@
     <t>henry.zambrano.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>ORd5PDvU</t>
+    <t>/9hDW#FP</t>
   </si>
   <si>
     <t>BARRE PARRAGA BETSY BEATRIZ</t>
@@ -2423,7 +2423,7 @@
     <t>betsy.barre.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>N5nnzF70</t>
+    <t>imFJ0oPS</t>
   </si>
   <si>
     <t>CEDEÑO CEDEÑO CAMILA PATRICIA</t>
@@ -2435,7 +2435,7 @@
     <t>camila.cedeno.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>2lfMX0m4</t>
+    <t>ZMKEBtrl</t>
   </si>
   <si>
     <t>CEDEÑO SOLORZANO ANTHONY STEVEN</t>
@@ -2444,7 +2444,7 @@
     <t>anthony.cedenos.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>zd#T1o8&amp;</t>
+    <t>esQA#w22</t>
   </si>
   <si>
     <t>CEDEÑO TUAREZ ANGIE LISSETTE</t>
@@ -2453,7 +2453,7 @@
     <t>angie.cedeno@espam.edu.ec</t>
   </si>
   <si>
-    <t>Ke7Fqpjg</t>
+    <t>Pxw4rXeU</t>
   </si>
   <si>
     <t>CHAVEZ LANDAZURI JACKSON JAIR</t>
@@ -2465,7 +2465,7 @@
     <t>jackson.chavez.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>NvvxaySE</t>
+    <t>tqalfwvZ</t>
   </si>
   <si>
     <t>CHICA MOREIRA MARIA FERNANDA</t>
@@ -2474,7 +2474,7 @@
     <t>maria.chica.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>bxlBMrQl</t>
+    <t>jYs6bKBc</t>
   </si>
   <si>
     <t>GARCIA ZAMBRANO WENDY YAMILETH</t>
@@ -2483,7 +2483,7 @@
     <t>wendy.garcia.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>tlY3byj3</t>
+    <t>ybrek1lk</t>
   </si>
   <si>
     <t>GARZON CEDEÑO FRANCESCO RUBEN</t>
@@ -2492,7 +2492,7 @@
     <t>francesco.garzon.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>QpW?LSlC</t>
+    <t>b/b?7YbG</t>
   </si>
   <si>
     <t>GUERRERO CEDEÑO MICHAEL JORDY</t>
@@ -2501,7 +2501,7 @@
     <t>michael.guerrero.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>uTjc90PG</t>
+    <t>tcBxg6uU</t>
   </si>
   <si>
     <t>MEDRANDA GONZALES CRISTHIAN JOSE</t>
@@ -2510,7 +2510,7 @@
     <t>cristhian.medranda@espam.edu.ec</t>
   </si>
   <si>
-    <t>LSNCMUi1</t>
+    <t>yRkUBGvu</t>
   </si>
   <si>
     <t>ORELLANA ANCHUNDIA JESUS MIGUEL</t>
@@ -2519,7 +2519,7 @@
     <t>jesus.orellana@espam.edu.ec</t>
   </si>
   <si>
-    <t>1Y7ZJywH</t>
+    <t>D4CTBsd&amp;</t>
   </si>
   <si>
     <t>ORTIZ GOMEZ EDUARDO ANDRES</t>
@@ -2528,7 +2528,7 @@
     <t>eduardo.ortiz@espam.edu.ec</t>
   </si>
   <si>
-    <t>4YM!hLAC</t>
+    <t>Yv/cMCr7</t>
   </si>
   <si>
     <t>PAZMIÑO MERA SHANDE ALEXANDER</t>
@@ -2537,7 +2537,7 @@
     <t>shande.pazmino.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>GM79d2YO</t>
+    <t>74xLaaJP</t>
   </si>
   <si>
     <t>PEÑARRIETA BAZURTO ERICK ANDRES</t>
@@ -2546,7 +2546,7 @@
     <t>erick.penarrieta@espam.edu.ec</t>
   </si>
   <si>
-    <t>9zOQpt7G</t>
+    <t>xhi60Hdt</t>
   </si>
   <si>
     <t>RIERA GAVILANES IZHURY MILLENYTH</t>
@@ -2558,7 +2558,7 @@
     <t>izhury.riera.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>EX6eJuev</t>
+    <t>wDqy?15i</t>
   </si>
   <si>
     <t>RIVERA CEDEÑO RIVALDO JOSE</t>
@@ -2570,7 +2570,7 @@
     <t>rivaldo.rivera.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>X0mZc5nh</t>
+    <t>TNjIk81t</t>
   </si>
   <si>
     <t>SALDARRIAGA ARTEAGA OMAIRA MARIBI</t>
@@ -2579,7 +2579,7 @@
     <t>omaira.saldarriaga@espam.edu.ec</t>
   </si>
   <si>
-    <t>tswI041H</t>
+    <t>5bpmjQ&amp;G</t>
   </si>
   <si>
     <t>SANDOVAL MERA NALLELY STEFANIA</t>
@@ -2588,7 +2588,7 @@
     <t>nallely.sandoval.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>GVPDXZ2x</t>
+    <t>9C6nQkq5</t>
   </si>
   <si>
     <t>SUQUI CANGO BRYAN EDUARDO</t>
@@ -2600,7 +2600,7 @@
     <t>bryan.suqui.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>Su3zVZOP</t>
+    <t>zBmdybqs</t>
   </si>
   <si>
     <t>VERDUGA ZAMBRANO CARLOS ANDRES</t>
@@ -2609,7 +2609,7 @@
     <t>carlos.verduga.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>XOkLD2fR</t>
+    <t>4X34?9g1</t>
   </si>
   <si>
     <t>ZAMBRANO LARA MARVIN RENE</t>
@@ -2618,7 +2618,7 @@
     <t>marvin.zambrano.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>8cN3POv6</t>
+    <t>iM7#GKKy</t>
   </si>
   <si>
     <t>ZAMBRANO OBANDO KELVIN JOSUE</t>
@@ -2630,7 +2630,7 @@
     <t>kelvin.zambrano.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>geT051US</t>
+    <t>7z9RW96J</t>
   </si>
   <si>
     <t>ZAPATA QUINCHE ANDREA CAROLINA</t>
@@ -2639,7 +2639,7 @@
     <t>andrea.zapata.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>m1XelWQE</t>
+    <t>cj?X9ug6</t>
   </si>
   <si>
     <t>ALMEIDA PEREZ ANGEL FERNANDO</t>
@@ -2648,7 +2648,7 @@
     <t>angel.almeida@espam.edu.ec</t>
   </si>
   <si>
-    <t>#SLxIbek</t>
+    <t>eNqDDwVx</t>
   </si>
   <si>
     <t>CEDEÑO PARRAGA MELANY NALLELY</t>
@@ -2657,7 +2657,7 @@
     <t>melany.cedeno.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>iYwEyTlz</t>
+    <t>FQThX!jd</t>
   </si>
   <si>
     <t>CEDEÑO SALVATIERRA JENIFFER ALEJANDRA</t>
@@ -2666,7 +2666,7 @@
     <t>jeniffer.cedenosal@espam.edu.ec</t>
   </si>
   <si>
-    <t>oKz?QUAG</t>
+    <t>s7UDPIbh</t>
   </si>
   <si>
     <t>FERNANDEZ ARTEAGA SCHEZNARDA EDITH</t>
@@ -2675,7 +2675,7 @@
     <t>scheznarda.fernandez.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>5/VIYDcJ</t>
+    <t>U9Aa6q?x</t>
   </si>
   <si>
     <t>GANCHOZO VELEZ EMILY JULEXY</t>
@@ -2684,7 +2684,7 @@
     <t>emily.ganchozo.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>dUhIZbTC</t>
+    <t>0Bw0TjEL</t>
   </si>
   <si>
     <t>LEON VIZÑAY ROQUE JAVIER</t>
@@ -2696,7 +2696,7 @@
     <t>roque.leon@espam.edu.ec</t>
   </si>
   <si>
-    <t>LtAa!No7</t>
+    <t>nTW3PBPE</t>
   </si>
   <si>
     <t>LOOR LOOR EVELYN YAMILETH</t>
@@ -2705,7 +2705,7 @@
     <t>evelynya.loor@espam.edu.ec</t>
   </si>
   <si>
-    <t>goeLUIbo</t>
+    <t>tXqr!dH#</t>
   </si>
   <si>
     <t>LOOR MOREIRA MELANIE NOEMI</t>
@@ -2714,7 +2714,7 @@
     <t>melanie.loorm.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>Fo&amp;axZAN</t>
+    <t>KWHTuZtY</t>
   </si>
   <si>
     <t>LOPEZ ESTACIO ROSA ANGELICA</t>
@@ -2723,7 +2723,7 @@
     <t>rosa.lopez@espam.edu.ec</t>
   </si>
   <si>
-    <t>JJ?134CL</t>
+    <t>XhtMrlve</t>
   </si>
   <si>
     <t>MENDOZA MUÑOZ FLOR ANTONELA</t>
@@ -2732,7 +2732,7 @@
     <t>flor.mendoza.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>xvOOOSkW</t>
+    <t>I&amp;sOdW/E</t>
   </si>
   <si>
     <t>MERELO SOLORZANO NAIDELYN MISHELLE</t>
@@ -2741,7 +2741,7 @@
     <t>naidelyn.merelo.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>HDWuEV/V</t>
+    <t>Z!IFkypV</t>
   </si>
   <si>
     <t>MOREIRA LOOR FABIAN ALEXANDER</t>
@@ -2750,7 +2750,7 @@
     <t>fabian.moreira@espam.edu.ec</t>
   </si>
   <si>
-    <t>2Hx5ymss</t>
+    <t>al1D0ama</t>
   </si>
   <si>
     <t>PAZMIÑO FALCONES JOSE MIGUEL</t>
@@ -2759,7 +2759,7 @@
     <t>jose.pazmino@espam.edu.ec</t>
   </si>
   <si>
-    <t>#dptYSA7</t>
+    <t>/&amp;i9AFxv</t>
   </si>
   <si>
     <t>PEÑAFIEL PITA BRITHANNY MICAELA</t>
@@ -2771,7 +2771,7 @@
     <t>brithanny.penafiel.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>p4O/XyHQ</t>
+    <t>Ax/2O3Xa</t>
   </si>
   <si>
     <t>PINTO PALACIOS JOSE ANTONIO</t>
@@ -2780,7 +2780,7 @@
     <t>jose.pinto@espam.edu.ec</t>
   </si>
   <si>
-    <t>ijJVklL9</t>
+    <t>x8DmkXab</t>
   </si>
   <si>
     <t>RENTERIA VALENCIA NEURYS GYSSELA</t>
@@ -2792,7 +2792,7 @@
     <t>neurys.renteria@espam.edu.ec</t>
   </si>
   <si>
-    <t>22T0JqnV</t>
+    <t>jsMs7SaW</t>
   </si>
   <si>
     <t>RIVAS ZAMBRANO ALISSON KATIUSKA</t>
@@ -2801,7 +2801,7 @@
     <t>alisson.rivas.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>snjP555v</t>
+    <t>G6iGzuKv</t>
   </si>
   <si>
     <t>TORRES VARGAS KARELIS ANDREINA</t>
@@ -2813,7 +2813,7 @@
     <t>karelis.torres@espam.edu.ec</t>
   </si>
   <si>
-    <t>FrONRNFI</t>
+    <t>j5wTfXs/</t>
   </si>
   <si>
     <t>VALDIVIESO CHUNG DANIEL JAFET</t>
@@ -2822,7 +2822,7 @@
     <t>daniel.valdivieso.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>sBs0TZ/7</t>
+    <t>c1f6rsr/</t>
   </si>
   <si>
     <t>VASCONEZ GONZALEZ FRANCISCO ALESSIO</t>
@@ -2831,7 +2831,7 @@
     <t>francisco.vasconez.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>#zUPSuhf</t>
+    <t>1Vr?PLrM</t>
   </si>
   <si>
     <t>VELEZ ORTEGA BORIS ANDRES</t>
@@ -2840,7 +2840,7 @@
     <t>boris.velez.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>h0pmhomN</t>
+    <t>T8?UlRry</t>
   </si>
   <si>
     <t>VERA ESTUPIÑAN BRYAN FRANCISCO</t>
@@ -2849,7 +2849,7 @@
     <t>bryan.vera@espam.edu.ec</t>
   </si>
   <si>
-    <t>#YxvEWp!</t>
+    <t>N6S97DIp</t>
   </si>
   <si>
     <t>VERA LOOR ARIANA PAOLA</t>
@@ -2858,7 +2858,7 @@
     <t>ariana.vera.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>c!8t#b7L</t>
+    <t>i/o3e9/x</t>
   </si>
   <si>
     <t>ZAMBRANO VEGA AURA ARACELY</t>
@@ -2867,7 +2867,7 @@
     <t>aura.zambranov@espam.edu.ec</t>
   </si>
   <si>
-    <t>V9ioB!yy</t>
+    <t>x/c5fLh!</t>
   </si>
   <si>
     <t>ALMEIDA ZAMBRANO HALINTONG VICENTE</t>
@@ -2876,7 +2876,7 @@
     <t>halintong.almeida@espam.edu.ec</t>
   </si>
   <si>
-    <t>CSZddDMg</t>
+    <t>BfY4a#T4</t>
   </si>
   <si>
     <t>AYALA VILLAFUERTE NAHOMY NAYELY</t>
@@ -2885,7 +2885,7 @@
     <t>nahomy.ayala@espam.edu.ec</t>
   </si>
   <si>
-    <t>pLLWXPrr</t>
+    <t>oAtKpWyf</t>
   </si>
   <si>
     <t>BASURTO CEDEÑO ITALO JORDANO</t>
@@ -2894,7 +2894,7 @@
     <t>italo.basurto.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>5fCzcnml</t>
+    <t>yi0yjRo1</t>
   </si>
   <si>
     <t>CASTRO TAIPE YERIK LEXANDER</t>
@@ -2903,7 +2903,7 @@
     <t>yerik.castro.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>oFV?kPgx</t>
+    <t>1JsGdVRE</t>
   </si>
   <si>
     <t>CEDEÑO GARCIA CARLOS PAUL</t>
@@ -2912,7 +2912,7 @@
     <t>carlos.cedeno.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>HvXI?kjR</t>
+    <t>83WJQvsO</t>
   </si>
   <si>
     <t>COBEÑA ZAMBRANO EDIS ARIEL</t>
@@ -2921,7 +2921,7 @@
     <t>edis.cobena@espam.edu.ec</t>
   </si>
   <si>
-    <t>SFKvbc3X</t>
+    <t>LkcgUZUV</t>
   </si>
   <si>
     <t>CORDOVA MUGUERZA ADRIANA NICOLLE</t>
@@ -2930,7 +2930,7 @@
     <t>adriana.muguersa.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>BYWZJp#m</t>
+    <t>tkk9VqBP</t>
   </si>
   <si>
     <t>COTERA PIN MAYERLY DAYANARA</t>
@@ -2939,7 +2939,7 @@
     <t>mayerly.cotera.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>K4ImDyql</t>
+    <t>gUd3nBu5</t>
   </si>
   <si>
     <t>CUENCA CUSME CECILIA ALEXANDRA</t>
@@ -2948,7 +2948,7 @@
     <t>cecilia.cuenca@espam.edu.ec</t>
   </si>
   <si>
-    <t>/J7S4nvE</t>
+    <t>cbVRkvu#</t>
   </si>
   <si>
     <t>FERNANDEZ ARTEAGA ANGIE MISHELLE</t>
@@ -2957,7 +2957,7 @@
     <t>angie.fernandez.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>u#r6bI?q</t>
+    <t>20&amp;mMpQs</t>
   </si>
   <si>
     <t>LATA QUINCHI SANDRA LOURDES</t>
@@ -2966,7 +2966,7 @@
     <t>sandra.lata.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>sFt4EjXY</t>
+    <t>Ebs&amp;TWsC</t>
   </si>
   <si>
     <t>MEJICANGO CALLE JAZMIN LISBETH</t>
@@ -2978,7 +2978,7 @@
     <t>jazmin.mejicango.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>0AM/W!Ka</t>
+    <t>d/Gbwent</t>
   </si>
   <si>
     <t>MENDOZA GANCHOZO DOMENICA NICOLE</t>
@@ -2987,7 +2987,7 @@
     <t>domenica.mendoza.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>bB82!8L#</t>
+    <t>l?r&amp;3nqJ</t>
   </si>
   <si>
     <t>MOREIRA CEVALLOS NAYELY VANESSA</t>
@@ -2996,7 +2996,7 @@
     <t>nayely.moreira@espam.edu.ec</t>
   </si>
   <si>
-    <t>4jRaULeL</t>
+    <t>ttaA0cIV</t>
   </si>
   <si>
     <t>MUÑOZ VERA MICHELLE VALENTINA</t>
@@ -3005,7 +3005,7 @@
     <t>michelle.munoz.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>xUyw/Un4</t>
+    <t>o22!OLda</t>
   </si>
   <si>
     <t>OLMOS RIVERA CLEOPATRA STEFANIA</t>
@@ -3014,7 +3014,7 @@
     <t>cleopatra.olmos.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>FEYKbXjG</t>
+    <t>pZls6w3d</t>
   </si>
   <si>
     <t>PAREDES RODRIGUEZ GIBELY JARLETH</t>
@@ -3026,7 +3026,7 @@
     <t>gibely.paredes.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>y8g6ADGU</t>
+    <t>7KQqq5KS</t>
   </si>
   <si>
     <t>PERUGACHI MECIAS GEOVANNY ALEJANDRO</t>
@@ -3035,7 +3035,7 @@
     <t>geovanny.perugachi.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>MtznkKeD</t>
+    <t>XFxKdebt</t>
   </si>
   <si>
     <t>PITA MACIAS RUBEN DARIO</t>
@@ -3044,7 +3044,7 @@
     <t>ruben.pita@espam.edu.ec</t>
   </si>
   <si>
-    <t>2?5SMBgf</t>
+    <t>kCgr?Fuw</t>
   </si>
   <si>
     <t>ROSADO QUIROZ JANDRY FABRICIO</t>
@@ -3053,7 +3053,7 @@
     <t>jandry.rosado.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>6jEODix8</t>
+    <t>P7Yt!p0y</t>
   </si>
   <si>
     <t>SANCHEZ CHOEZ BERTHA DOLORES</t>
@@ -3062,7 +3062,7 @@
     <t>bertha.choez.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>1JMZ!sdN</t>
+    <t>sojsRX5y</t>
   </si>
   <si>
     <t>VALENCIA MARCILLO JENIFFER KAROLINA</t>
@@ -3071,7 +3071,7 @@
     <t>jenifferk.valenciam@espam.edu.ec</t>
   </si>
   <si>
-    <t>lgknpy67</t>
+    <t>2Hq&amp;7Z9u</t>
   </si>
   <si>
     <t>VELASQUEZ GUADAMUD MARIO DAMIAN</t>
@@ -3080,7 +3080,7 @@
     <t>mario.velasquez@espam.edu.ec</t>
   </si>
   <si>
-    <t>bCMgZrwW</t>
+    <t>v6?eSsnm</t>
   </si>
   <si>
     <t>VELEZ RIVAS JOFFRE GEOVANNY</t>
@@ -3089,7 +3089,7 @@
     <t>joffre.velez.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>tzt5pJR0</t>
+    <t>r6F!F!#i</t>
   </si>
   <si>
     <t>VELEZ ZAMBRANO GEMA BRIGITH</t>
@@ -3098,7 +3098,7 @@
     <t>gema.velez.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>jyBrQw&amp;F</t>
+    <t>vv!rV!j5</t>
   </si>
   <si>
     <t>VERA CEVALLOS CARMEN GISSELLA</t>
@@ -3107,7 +3107,7 @@
     <t>carmen.vera@espam.edu.ec</t>
   </si>
   <si>
-    <t>xazt/!Zj</t>
+    <t>i7dT#aUu</t>
   </si>
   <si>
     <t>VERA SOLORZANO CARLOS NEPTALI</t>
@@ -3116,7 +3116,7 @@
     <t>carlos.veras@espam.edu.ec</t>
   </si>
   <si>
-    <t>&amp;gRy2tDW</t>
+    <t>G3ilKp0a</t>
   </si>
   <si>
     <t>VERA VERA YUSTHYN YARLETH</t>
@@ -3125,7 +3125,7 @@
     <t>yusthyn.vera.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>!2N##hg/</t>
+    <t>QAm2xzNS</t>
   </si>
   <si>
     <t>VIDAL SABANDO MARIA KATHERINE</t>
@@ -3134,7 +3134,7 @@
     <t>maria.vidal.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>31eb5A&amp;A</t>
+    <t>ZraSvD&amp;R</t>
   </si>
   <si>
     <t>ZAMBRANO ALCIVAR EMILIO JOSE</t>
@@ -3143,7 +3143,7 @@
     <t>emilio.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>axtNbdAT</t>
+    <t>bbA7YO9e</t>
   </si>
   <si>
     <t>ZAMBRANO AVEIGA MAYRA ALEXANDRA</t>
@@ -3152,7 +3152,7 @@
     <t>mayra.zambrano.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>YPXa2rGY</t>
+    <t>Zt6Zzuap</t>
   </si>
   <si>
     <t>ZAMBRANO VERA MARIA BEATRIZ</t>
@@ -3161,7 +3161,7 @@
     <t>maria.zambrano.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>#Kl0Nw6a</t>
+    <t>nw?hCvhs</t>
   </si>
   <si>
     <t>ALCIVAR RODRIGUEZ STEFANY LISETH</t>
@@ -3170,7 +3170,7 @@
     <t>stefany.alcivar.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>vcd&amp;d8Jw</t>
+    <t>Poet5ziT</t>
   </si>
   <si>
     <t>ANGULO GLENN YURANI MAGERLI</t>
@@ -3182,7 +3182,7 @@
     <t>yurani.angulo.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>VBwxWhhj</t>
+    <t>HC1YW8I/</t>
   </si>
   <si>
     <t>ARTEAGA TRIVIÑO CAMILA</t>
@@ -3191,7 +3191,7 @@
     <t>camila.arteaga.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>a3G#rz37</t>
+    <t>G7OXFyGw</t>
   </si>
   <si>
     <t>BALDERRAMO CABRERA JOSE GERMAN</t>
@@ -3200,7 +3200,7 @@
     <t>jose.balderramo.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>vlWZxgBb</t>
+    <t>1pzwzIEp</t>
   </si>
   <si>
     <t>BRAVO MUÑOZ JEAN MYCKEL</t>
@@ -3209,7 +3209,7 @@
     <t>jean.bravomu@espam.edu.ec</t>
   </si>
   <si>
-    <t>ajEC&amp;rgd</t>
+    <t>5IE947o4</t>
   </si>
   <si>
     <t>BRAVO SANTANA JUNIOR XAVIER</t>
@@ -3218,7 +3218,7 @@
     <t>juniorx.bravos@espam.edu.ec</t>
   </si>
   <si>
-    <t>OYoxZcjq</t>
+    <t>xMOTxU5j</t>
   </si>
   <si>
     <t>CAGUA RODRIGUEZ NAYELY ANAHI</t>
@@ -3227,7 +3227,7 @@
     <t>nayely.cagua.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>ZxiDzOFr</t>
+    <t>YeuPFdyU</t>
   </si>
   <si>
     <t>CALDERON RODRIGUEZ FATIMA DANIELA</t>
@@ -3236,7 +3236,7 @@
     <t>fatima.calderon.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>!GJM02D3</t>
+    <t>7NEfilG1</t>
   </si>
   <si>
     <t>CASTILLO MEJIA MARIA CARLOTA</t>
@@ -3245,7 +3245,7 @@
     <t>maria.castillo.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>ZQw4GCDK</t>
+    <t>7ksSS!eI</t>
   </si>
   <si>
     <t>CEDEÑO CUSME DAYANARA NARCISA</t>
@@ -3254,7 +3254,7 @@
     <t>dayanara.cedeno.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>pzUdKxSd</t>
+    <t>HLORSTzU</t>
   </si>
   <si>
     <t>CELORIO VERA PETER PABLO</t>
@@ -3263,7 +3263,7 @@
     <t>peter.celorio.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>N2BhqEtd</t>
+    <t>OOZspHWD</t>
   </si>
   <si>
     <t>COOL MORENO DIANA ESTHEFANIA</t>
@@ -3272,7 +3272,7 @@
     <t>diana.cool@espam.edu.ec</t>
   </si>
   <si>
-    <t>uHEHTVx8</t>
+    <t>6j5hokyn</t>
   </si>
   <si>
     <t>DELGADO GARZON PAOLA FERNANDA</t>
@@ -3281,7 +3281,7 @@
     <t>paola.delgadog.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>Plt&amp;9LP#</t>
+    <t>jNk65Wat</t>
   </si>
   <si>
     <t>DOMINGUEZ DOMINGUEZ ROMINA MELISSA</t>
@@ -3290,7 +3290,7 @@
     <t>romina.dominguez@espam.edu.ec</t>
   </si>
   <si>
-    <t>yOHno7u3</t>
+    <t>u8cfF9jr</t>
   </si>
   <si>
     <t>GARCIA MUÑOZ EDDY SANTIAGO</t>
@@ -3299,7 +3299,7 @@
     <t>eddy.garcia@espam.edu.ec</t>
   </si>
   <si>
-    <t>cKPkULj0</t>
+    <t>IHelU8mp</t>
   </si>
   <si>
     <t>GARCIA PONCE LEONELA ANTONELLA</t>
@@ -3308,7 +3308,7 @@
     <t>leonela.garcia.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>GrQ5DKKX</t>
+    <t>IfnetdMN</t>
   </si>
   <si>
     <t>LOPEZ SOLORZANO YIMMY</t>
@@ -3317,7 +3317,7 @@
     <t>yimmy.lopez@espam.edu.ec</t>
   </si>
   <si>
-    <t>!C2YkNOS</t>
+    <t>1y7!u&amp;AI</t>
   </si>
   <si>
     <t>LOPEZ ZAMBRANO JORGE ISAAC</t>
@@ -3326,7 +3326,7 @@
     <t>jorge.lopez.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>wVwKDe&amp;i</t>
+    <t>NrfuFaR6</t>
   </si>
   <si>
     <t>MACIAS GUAGUA MAGERLY THAIS</t>
@@ -3338,7 +3338,7 @@
     <t>magerly.macias.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>x5PI9bL#</t>
+    <t>OywY4IBf</t>
   </si>
   <si>
     <t>MARTINEZ SABANDO MARCELO EFRAIN</t>
@@ -3347,7 +3347,7 @@
     <t>marcelo.martinez@espam.edu.ec</t>
   </si>
   <si>
-    <t>z/YrGcBP</t>
+    <t>O5QXeqGR</t>
   </si>
   <si>
     <t>MEDRANDA CEDEÑO IVAN ARTURO</t>
@@ -3356,7 +3356,7 @@
     <t>ivan.medranda@espam.edu.ec</t>
   </si>
   <si>
-    <t>0GsTUJQv</t>
+    <t>65HN13j7</t>
   </si>
   <si>
     <t>MENDOZA INTRIAGO KEYLA YAMIRA</t>
@@ -3365,7 +3365,7 @@
     <t>keyla.mendoza@espam.edu.ec</t>
   </si>
   <si>
-    <t>PfpHWDgH</t>
+    <t>gEWpfio?</t>
   </si>
   <si>
     <t>MENDOZA LOOR MARIAGRACIA</t>
@@ -3374,7 +3374,7 @@
     <t>mariagracia.mendoza@espam.edu.ec</t>
   </si>
   <si>
-    <t>BcvKr!9P</t>
+    <t>6axDQS!e</t>
   </si>
   <si>
     <t>MOREIRA VELEZ ANGELICA LISBETH</t>
@@ -3383,7 +3383,7 @@
     <t>angelica.moreira@espam.edu.ec</t>
   </si>
   <si>
-    <t>juC42QLp</t>
+    <t>&amp;WE3c#1s</t>
   </si>
   <si>
     <t>PATA HERRERA ESTRELLA TATIANA</t>
@@ -3392,7 +3392,7 @@
     <t>estrella.pata.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>WQuw1v6N</t>
+    <t>VmvsGqKn</t>
   </si>
   <si>
     <t>PONCE MIRANDA YOEL ISAIAS</t>
@@ -3401,7 +3401,7 @@
     <t>yoel.ponce@espam.edu.ec</t>
   </si>
   <si>
-    <t>efZQ&amp;qHX</t>
+    <t>Xn/Bzdkw</t>
   </si>
   <si>
     <t>RIVAS ALARCON ALISSON MAYERLI</t>
@@ -3413,7 +3413,7 @@
     <t>alisson.rivas@espam.edu.ec</t>
   </si>
   <si>
-    <t>Xb4sgxyB</t>
+    <t>un9s0NDq</t>
   </si>
   <si>
     <t>SABANDO VERA EMELY NOEMI</t>
@@ -3425,7 +3425,7 @@
     <t>emely.sabando.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>zOLtvhaz</t>
+    <t>Ur&amp;34NY&amp;</t>
   </si>
   <si>
     <t>VELASQUEZ ZAMBRANO JUAN DIEGO</t>
@@ -3434,7 +3434,7 @@
     <t>juan.velasquez@espam.edu.ec</t>
   </si>
   <si>
-    <t>8RsoExeU</t>
+    <t>yR#6Iklv</t>
   </si>
   <si>
     <t>ZAMBRANO MENDOZA JOSE LUIS</t>
@@ -3443,7 +3443,7 @@
     <t>jose.zambrano.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>Zl1hnTBB</t>
+    <t>ftEX5yrm</t>
   </si>
   <si>
     <t>ZAMBRANO PEREZ CARLOS JULIO</t>
@@ -3452,7 +3452,7 @@
     <t>carlos.zambranop@espam.edu.ec</t>
   </si>
   <si>
-    <t>3ez#DSKw</t>
+    <t>/5oGELth</t>
   </si>
   <si>
     <t>ACHIG GUALACATA EVELIN LISETTE</t>
@@ -3461,7 +3461,7 @@
     <t>evelin.achig@espam.edu.ec</t>
   </si>
   <si>
-    <t>7pJl#FTa</t>
+    <t>zMrQnXMC</t>
   </si>
   <si>
     <t>AGUAS VERA JEICOL MIKE</t>
@@ -3470,7 +3470,7 @@
     <t>jeicol.aguas@espam.edu.ec</t>
   </si>
   <si>
-    <t>s7xQJU!b</t>
+    <t>Rip42L4D</t>
   </si>
   <si>
     <t>BRAVO BASURTO JUAN CARLOS</t>
@@ -3479,7 +3479,7 @@
     <t>juan.bravo@espam.edu.ec</t>
   </si>
   <si>
-    <t>vG36?F7p</t>
+    <t>eyHTijHn</t>
   </si>
   <si>
     <t>CANTOS ZAMBRANO MARIA FERNANDA</t>
@@ -3488,7 +3488,7 @@
     <t>mariaf.cantos@espam.edu.ec</t>
   </si>
   <si>
-    <t>oUSPUqRq</t>
+    <t>HVs/2qjo</t>
   </si>
   <si>
     <t>CASTILLO DELGADO LERENY JAMILEX</t>
@@ -3497,7 +3497,7 @@
     <t>lereny.castillo@espam.edu.ec</t>
   </si>
   <si>
-    <t>mu3aorCW</t>
+    <t>Kx!j77QO</t>
   </si>
   <si>
     <t>CASTILLO JACOME JHON JAIRO</t>
@@ -3506,7 +3506,7 @@
     <t>jhon.castillo@espam.edu.ec</t>
   </si>
   <si>
-    <t>iR/59m86</t>
+    <t>m5aDmZAo</t>
   </si>
   <si>
     <t>CELORIO MENDOZA MIRIAN ALEJANDRA</t>
@@ -3515,7 +3515,7 @@
     <t>mirian.celorio@espam.edu.ec</t>
   </si>
   <si>
-    <t>n4Do5A?&amp;</t>
+    <t>8mDNFl4Y</t>
   </si>
   <si>
     <t>CHUMO CHAVEZ JANINA BELEN</t>
@@ -3524,7 +3524,7 @@
     <t>janina.chumo@espam.edu.ec</t>
   </si>
   <si>
-    <t>96ak!r1k</t>
+    <t>Mwm3z#h7</t>
   </si>
   <si>
     <t>DELGADO LOPEZ MERCEDES ELIZABETH</t>
@@ -3533,7 +3533,7 @@
     <t>mercedes.delgado@espam.edu.ec</t>
   </si>
   <si>
-    <t>D!PQQCjc</t>
+    <t>7A8q6rFx</t>
   </si>
   <si>
     <t>ESTEVES OLVERA DIANA MILENA</t>
@@ -3542,7 +3542,7 @@
     <t>diana.esteves@espam.edu.ec</t>
   </si>
   <si>
-    <t>RwXGMG7F</t>
+    <t>DlQI?WiM</t>
   </si>
   <si>
     <t>FALLAIN ZAMBRANO MARIA ANGELICA</t>
@@ -3551,7 +3551,7 @@
     <t>maria.fallain@espam.edu.ec</t>
   </si>
   <si>
-    <t>/Rz6acPM</t>
+    <t>iJ1i#ugC</t>
   </si>
   <si>
     <t>FERNANDEZ CEVALLOS FRANCISCO ESTUARDO</t>
@@ -3560,7 +3560,7 @@
     <t>francisco.fernandez@espam.edu.ec</t>
   </si>
   <si>
-    <t>52!OjQ33</t>
+    <t>M1mnbJS/</t>
   </si>
   <si>
     <t>HERNANDEZ HERNANDEZ MARIA ZULEMA</t>
@@ -3572,7 +3572,7 @@
     <t>maria.hernandez@espam.edu.ec</t>
   </si>
   <si>
-    <t>?j?cNzk/</t>
+    <t>cM/lNg34</t>
   </si>
   <si>
     <t>INTRIAGO SOLORZANO LEYDI GABRIELA</t>
@@ -3581,7 +3581,7 @@
     <t>leydi.intriago@espam.edu.ec</t>
   </si>
   <si>
-    <t>ERXVnfja</t>
+    <t>#JH71zwo</t>
   </si>
   <si>
     <t>MACIAS LOOR ELIAN RENE</t>
@@ -3590,7 +3590,7 @@
     <t>elian.macias@espam.edu.ec</t>
   </si>
   <si>
-    <t>6&amp;!x0qs6</t>
+    <t>!RrUJ7C6</t>
   </si>
   <si>
     <t>MACIAS PISCO NACHY MONSERRAT</t>
@@ -3599,7 +3599,7 @@
     <t>nachy.macias@espam.edu.ec</t>
   </si>
   <si>
-    <t>j9ik?62#</t>
+    <t>aqzSlx4U</t>
   </si>
   <si>
     <t>MERA LOOR JONAYKER REYNALDO</t>
@@ -3608,7 +3608,7 @@
     <t>jonayker.mera@espam.edu.ec</t>
   </si>
   <si>
-    <t>!4Z50CCO</t>
+    <t>e02B8Ssg</t>
   </si>
   <si>
     <t>MOREIRA BASURTO YORDY JOEL</t>
@@ -3617,7 +3617,7 @@
     <t>yordy.moreira@espam.edu.ec</t>
   </si>
   <si>
-    <t>/z51llbj</t>
+    <t>FD1sqPp#</t>
   </si>
   <si>
     <t>MOREIRA MENDOZA MAGDALENA JAMILETH</t>
@@ -3626,7 +3626,7 @@
     <t>magdalena.moreira@espam.edu.ec</t>
   </si>
   <si>
-    <t>y2qeblJV</t>
+    <t>/l4sa9DP</t>
   </si>
   <si>
     <t>PANTUSIN MUGUERZA ANDREA LISSETH</t>
@@ -3635,7 +3635,7 @@
     <t>andrea.pantusin@espam.edu.ec</t>
   </si>
   <si>
-    <t>2GmVN7AD</t>
+    <t>SPMHCDqR</t>
   </si>
   <si>
     <t>PATIÑO MEJIA MILENA ANAHI</t>
@@ -3644,7 +3644,7 @@
     <t>milena.patino@espam.edu.ec</t>
   </si>
   <si>
-    <t>9Axzv?dt</t>
+    <t>&amp;Oxf4Dc#</t>
   </si>
   <si>
     <t>PICO GARCIA ALLISON JANELY</t>
@@ -3653,7 +3653,7 @@
     <t>allison.pico@espam.edu.ec</t>
   </si>
   <si>
-    <t>HO5yr8!5</t>
+    <t>lqIC#HFv</t>
   </si>
   <si>
     <t>POVEDA SANTANA ENZO JAVIER</t>
@@ -3665,7 +3665,7 @@
     <t>enzo.poveda@espam.edu.ec</t>
   </si>
   <si>
-    <t>qHTIiBBd</t>
+    <t>T&amp;JygFCN</t>
   </si>
   <si>
     <t>QUIJIJE CEDEÑO NATALY SILVANA</t>
@@ -3674,7 +3674,7 @@
     <t>nataly.quijije@espam.edu.ec</t>
   </si>
   <si>
-    <t>CoXqmT/V</t>
+    <t>nP3nbhMD</t>
   </si>
   <si>
     <t>ROBALINO DELGADO JORGE DAVID</t>
@@ -3683,7 +3683,7 @@
     <t>jorge.robalino@espam.edu.ec</t>
   </si>
   <si>
-    <t>?2LiTs0!</t>
+    <t>3/Guj98q</t>
   </si>
   <si>
     <t>SANCHEZ CASTILLO ADRIANA MICAELA</t>
@@ -3692,7 +3692,7 @@
     <t>adriana.sanchez@espam.edu.ec</t>
   </si>
   <si>
-    <t>YN9CVdoh</t>
+    <t>zAiHdZoP</t>
   </si>
   <si>
     <t>SOLORZANO ALAVA TAIRUN FRANCISCO</t>
@@ -3701,7 +3701,7 @@
     <t>tairun.solorzano@espam.edu.ec</t>
   </si>
   <si>
-    <t>&amp;7KH7yme</t>
+    <t>ZmB#VmTC</t>
   </si>
   <si>
     <t>SOLORZANO BAILON MARIA GABRIELA</t>
@@ -3710,7 +3710,7 @@
     <t>mariaga.solorzano@espam.edu.ec</t>
   </si>
   <si>
-    <t>Kqhf&amp;4D2</t>
+    <t>suPR2A3f</t>
   </si>
   <si>
     <t>TRUJILLO AGUAS MAYERLI DAYANA</t>
@@ -3719,7 +3719,7 @@
     <t>mayerli.trujillo@espam.edu.ec</t>
   </si>
   <si>
-    <t>xSYegk1e</t>
+    <t>H51#9zpS</t>
   </si>
   <si>
     <t>VERA VERA CINTHIA MARIA</t>
@@ -3728,7 +3728,7 @@
     <t>cinthia.verav@espam.edu.ec</t>
   </si>
   <si>
-    <t>3028PqK7</t>
+    <t>GFbxQg?&amp;</t>
   </si>
   <si>
     <t>VIDAL INTRIAGO ANDY YOEL</t>
@@ -3737,7 +3737,7 @@
     <t>andy.vidal@espam.edu.ec</t>
   </si>
   <si>
-    <t>rlRJzNAs</t>
+    <t>h5j8hEr1</t>
   </si>
   <si>
     <t>VINTIMILLA PROAÑO MARIA DE LOURDES</t>
@@ -3746,7 +3746,7 @@
     <t>maria.vintimilla@espam.edu.ec</t>
   </si>
   <si>
-    <t>U?0tkEQ/</t>
+    <t>IJigCIfg</t>
   </si>
   <si>
     <t>VITERI SANTOS VINICIO ORLEY</t>
@@ -3755,7 +3755,7 @@
     <t>vinicio.viteri@espam.edu.ec</t>
   </si>
   <si>
-    <t>kH31!i8P</t>
+    <t>!aXrWgn0</t>
   </si>
   <si>
     <t>ZAMBRANO CANO FRANCISCO JAVIER</t>
@@ -3764,7 +3764,7 @@
     <t>francisco.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>7HJR8Wqy</t>
+    <t>RFZp2CCy</t>
   </si>
   <si>
     <t>ZAMBRANO NAVARRETE ELBA MARIA</t>
@@ -3773,7 +3773,7 @@
     <t>elba.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>#otnCWaJ</t>
+    <t>fEnu4P7k</t>
   </si>
   <si>
     <t>ZAMBRANO ZAMBRANO WENDY GISSELLA</t>
@@ -3782,7 +3782,7 @@
     <t>wendy.zambranoz@espam.edu.ec</t>
   </si>
   <si>
-    <t>IHzmV6Q5</t>
+    <t>gvt3/Vhz</t>
   </si>
   <si>
     <t>ARANA RUEDA ANGY LISSETH</t>
@@ -3794,7 +3794,7 @@
     <t>angy.arana@espam.edu.ec</t>
   </si>
   <si>
-    <t>!JgpmMlB</t>
+    <t>DCnLST2B</t>
   </si>
   <si>
     <t>ARTEAGA VARGAS ANDREA VALERIA</t>
@@ -3803,7 +3803,7 @@
     <t>andrea.arteaga@espam.edu.ec</t>
   </si>
   <si>
-    <t>jrg?lxkf</t>
+    <t>2?MGUbAg</t>
   </si>
   <si>
     <t>BARBERAN SANCHEZ KARLA MICHELLE</t>
@@ -3812,7 +3812,7 @@
     <t>karla.barberan@espam.edu.ec</t>
   </si>
   <si>
-    <t>R1xn4dJp</t>
+    <t>&amp;GI#rNIW</t>
   </si>
   <si>
     <t>BAZURTO MANZABA SORAYA STEFANIA</t>
@@ -3821,7 +3821,7 @@
     <t>soraya.bazurto@espam.edu.ec</t>
   </si>
   <si>
-    <t>3S/hodc7</t>
+    <t>I/7jEah5</t>
   </si>
   <si>
     <t>CAGUA GARCIA ANDRES VIRGILIO</t>
@@ -3830,7 +3830,7 @@
     <t>andres.cagua@espam.edu.ec</t>
   </si>
   <si>
-    <t>G17EiLB7</t>
+    <t>AtXbcSma</t>
   </si>
   <si>
     <t>DOMINGUEZ CALDERON JEAN PIERRE</t>
@@ -3839,7 +3839,7 @@
     <t>jean.dominguez@espam.edu.ec</t>
   </si>
   <si>
-    <t>&amp;Bn?nmFz</t>
+    <t>I7/xTo&amp;U</t>
   </si>
   <si>
     <t>ESPINOZA ALCIVAR EVELYN ALEXANDRA</t>
@@ -3848,7 +3848,7 @@
     <t>evelyn.espinoza@espam.edu.ec</t>
   </si>
   <si>
-    <t>skK2ZxMV</t>
+    <t>NhyV6ufj</t>
   </si>
   <si>
     <t>LOOR MORENO DANIEL AGUSTIN</t>
@@ -3857,7 +3857,7 @@
     <t>daniel.loor@espam.edu.ec</t>
   </si>
   <si>
-    <t>oaiqEeH?</t>
+    <t>AvXzIW3P</t>
   </si>
   <si>
     <t>MACIAS PARRALES MEREDITH MARIBEL</t>
@@ -3866,7 +3866,7 @@
     <t>meredith.macias@espam.edu.ec</t>
   </si>
   <si>
-    <t>i54jXC!t</t>
+    <t>G3L4DzHY</t>
   </si>
   <si>
     <t>MENDOZA CANCHINGRE BRIGITH MIKAELA</t>
@@ -3875,7 +3875,7 @@
     <t>brigith.mendoza@espam.edu.ec</t>
   </si>
   <si>
-    <t>pihUMHwR</t>
+    <t>B0dRNJYy</t>
   </si>
   <si>
     <t>MENDOZA VELEZ JOSE MIGUEL</t>
@@ -3884,7 +3884,7 @@
     <t>josemi.mendoza@espam.edu.ec</t>
   </si>
   <si>
-    <t>iYk2!vQb</t>
+    <t>/Nt5B5HN</t>
   </si>
   <si>
     <t>MEZA BRIONES ANTHONY NARCILO</t>
@@ -3893,7 +3893,7 @@
     <t>anthony.meza@espam.edu.ec</t>
   </si>
   <si>
-    <t>?J&amp;EmJOk</t>
+    <t>bKQGBgRx</t>
   </si>
   <si>
     <t>MORA ZAMBRANO MARIA LAURA</t>
@@ -3902,7 +3902,7 @@
     <t>maria.mora@espam.edu.ec</t>
   </si>
   <si>
-    <t>Y3sYdU6e</t>
+    <t>m?yhuwic</t>
   </si>
   <si>
     <t>NAVARRETE ZAMBRANO ROBIN LUGERIO</t>
@@ -3911,7 +3911,7 @@
     <t>robin.navarrete@espam.edu.ec</t>
   </si>
   <si>
-    <t>i&amp;2IXYlo</t>
+    <t>at8h#n&amp;W</t>
   </si>
   <si>
     <t>OSTAIZA LOPEZ JOSEPH MANUEL</t>
@@ -3920,7 +3920,7 @@
     <t>josepth.ostaiza@espam.edu.ec</t>
   </si>
   <si>
-    <t>xB9Hc90/</t>
+    <t>JnRpdcGb</t>
   </si>
   <si>
     <t>PARRAGA PARRAGA CARLA ESTEFANIA</t>
@@ -3929,7 +3929,7 @@
     <t>carla.parraga@espam.edu.ec</t>
   </si>
   <si>
-    <t>q#T1EJoc</t>
+    <t>ZTz3ocC2</t>
   </si>
   <si>
     <t>PLAZA CABRERA MAYERLY MARIA</t>
@@ -3941,7 +3941,7 @@
     <t>mayerly.plaza@espam.edu.ec</t>
   </si>
   <si>
-    <t>BMnoYKSi</t>
+    <t>0yK3IUyt</t>
   </si>
   <si>
     <t>RODRIGUEZ VELIZ LEANDRO MOISES</t>
@@ -3950,7 +3950,7 @@
     <t>leandro.rodriguez@espam.edu.ec</t>
   </si>
   <si>
-    <t>7cPZbuKc</t>
+    <t>S3n9MZ/o</t>
   </si>
   <si>
     <t>SANTANA GUERRERO MARIA RAQUEL</t>
@@ -3959,7 +3959,7 @@
     <t>mariar.santanag@espam.edu.ec</t>
   </si>
   <si>
-    <t>KFp0zOuf</t>
+    <t>OZwAPBZI</t>
   </si>
   <si>
     <t>SANTOS SALAZAR JANDRY DAVID</t>
@@ -3968,7 +3968,7 @@
     <t>jandry.santos@espam.edu.ec</t>
   </si>
   <si>
-    <t>AeZ7D7nc</t>
+    <t>ni?fm6B?</t>
   </si>
   <si>
     <t>SOLORZANO LOOR KEYLA GEOVANNA</t>
@@ -3977,7 +3977,7 @@
     <t>keyla.solorzano@espam.edu.ec</t>
   </si>
   <si>
-    <t>3aYItnPk</t>
+    <t>dtO18wMv</t>
   </si>
   <si>
     <t>VALENCIA ZAMBRANO VALERIA MERCEDES</t>
@@ -3986,7 +3986,7 @@
     <t>valeria.valencia@espam.edu.ec</t>
   </si>
   <si>
-    <t>s0RTy3cy</t>
+    <t>n&amp;qHGv8t</t>
   </si>
   <si>
     <t>VARGAS CHOEZ ALEXIS ELIAN</t>
@@ -3995,7 +3995,7 @@
     <t>alexis.vargas@espam.edu.ec</t>
   </si>
   <si>
-    <t>8y9QXAVm</t>
+    <t>MziBPjTo</t>
   </si>
   <si>
     <t>VELEZ ALMEIDA CARMEN REBECA</t>
@@ -4004,7 +4004,7 @@
     <t>carmen.velez@espam.edu.ec</t>
   </si>
   <si>
-    <t>#hNAAft7</t>
+    <t>JIJBF!vB</t>
   </si>
   <si>
     <t>VELEZ LEGTON GENESIS YAMILET</t>
@@ -4013,7 +4013,7 @@
     <t>genesisya.velez@espam.edu.ec</t>
   </si>
   <si>
-    <t>HYPcjytg</t>
+    <t>OcJ825Pd</t>
   </si>
   <si>
     <t>VERA BALAREZO MARYAM JANELLA</t>
@@ -4022,7 +4022,7 @@
     <t>maryam.vera@espam.edu.ec</t>
   </si>
   <si>
-    <t>skmPub4L</t>
+    <t>e6NAH1J9</t>
   </si>
   <si>
     <t>VERA SERRANO CARLOS STEFANO</t>
@@ -4031,7 +4031,7 @@
     <t>carlos.verase@espam.edu.ec</t>
   </si>
   <si>
-    <t>Fx!Vp/Jj</t>
+    <t>TejD!jR1</t>
   </si>
   <si>
     <t>VIERA BAZURTO JOSE ALEXANDER</t>
@@ -4040,7 +4040,7 @@
     <t>jose.viera@espam.edu.ec</t>
   </si>
   <si>
-    <t>NZZQ00u#</t>
+    <t>55ghVPMW</t>
   </si>
   <si>
     <t>ZAMBRANO ALCIVAR DIEGO JAHIR</t>
@@ -4049,7 +4049,7 @@
     <t>diego.zambranoa@espam.edu.ec</t>
   </si>
   <si>
-    <t>b?muxRX5</t>
+    <t>sp/#TvTH</t>
   </si>
   <si>
     <t>ZAMBRANO MANZABA MARIA FERNANDA</t>
@@ -4058,7 +4058,7 @@
     <t>mariafer.zambranom@espam.edu.ec</t>
   </si>
   <si>
-    <t>/#AOdL3c</t>
+    <t>tWK6cDW7</t>
   </si>
   <si>
     <t>ALCIVAR GILER MELANY JULISA</t>
@@ -4067,7 +4067,7 @@
     <t>melany.alcivar@espam.edu.ec</t>
   </si>
   <si>
-    <t>t4OL4xjE</t>
+    <t>9z#qh3#f</t>
   </si>
   <si>
     <t>ANDRADE ZAMBRANO NATHALY NICOLLE</t>
@@ -4076,7 +4076,7 @@
     <t>nathaly.andrade@espam.edu.ec</t>
   </si>
   <si>
-    <t>3/mF/kgs</t>
+    <t>3c1thd1g</t>
   </si>
   <si>
     <t>BASURTO MORAN LUIS ALEXANDER</t>
@@ -4085,7 +4085,7 @@
     <t>luis.basurtom@espam.edu.ec</t>
   </si>
   <si>
-    <t>X?trEaFe</t>
+    <t>aTfwTUPz</t>
   </si>
   <si>
     <t>BERMELLO VELEZ ANGELA DANIELA</t>
@@ -4094,7 +4094,7 @@
     <t>angela.bermello@espam.edu.ec</t>
   </si>
   <si>
-    <t>1tso/d45</t>
+    <t>C&amp;X39a8I</t>
   </si>
   <si>
     <t>BRAVO VERA GEMA VIVIANA</t>
@@ -4103,7 +4103,7 @@
     <t>gema.bravov@espam.edu.ec</t>
   </si>
   <si>
-    <t>lP4gTNW0</t>
+    <t>RC972klR</t>
   </si>
   <si>
     <t>BRIONES INTRIAGO LORENA LUCIA</t>
@@ -4112,7 +4112,7 @@
     <t>lorena.briones@espam.edu.ec</t>
   </si>
   <si>
-    <t>?ahHhPoY</t>
+    <t>QhAUsKjD</t>
   </si>
   <si>
     <t>BURGOS BRAVO KATHERIN DANIELA</t>
@@ -4121,7 +4121,7 @@
     <t>katherin.burgos@espam.edu.ec</t>
   </si>
   <si>
-    <t>kGR?s1H/</t>
+    <t>Zp9x2LXB</t>
   </si>
   <si>
     <t>LOOR PARRAGA ROY RUBEN</t>
@@ -4130,7 +4130,7 @@
     <t>roy.loor@espam.edu.ec</t>
   </si>
   <si>
-    <t>VNSq6BDT</t>
+    <t>XaxNL7Go</t>
   </si>
   <si>
     <t>LOPEZ GANCHOZO LEANDRO ANTONIO</t>
@@ -4139,7 +4139,7 @@
     <t>leandro.lopez@espam.edu.ec</t>
   </si>
   <si>
-    <t>d4/J5oE#</t>
+    <t>0Oc3Rzti</t>
   </si>
   <si>
     <t>MACIAS MACIAS JOY ROBERTO</t>
@@ -4148,7 +4148,7 @@
     <t>joy.macias@espam.edu.ec</t>
   </si>
   <si>
-    <t>C#/gp9t&amp;</t>
+    <t>ZI?vgEOs</t>
   </si>
   <si>
     <t>MACIAS SILVA CINTHYA MARIANA</t>
@@ -4157,7 +4157,7 @@
     <t>cinthya.macias@espam.edu.ec</t>
   </si>
   <si>
-    <t>/L7t!lYg</t>
+    <t>MNMoio&amp;S</t>
   </si>
   <si>
     <t>MENDOZA PONCE MARIA ANGELICA</t>
@@ -4166,7 +4166,7 @@
     <t>maria.mendozap@espam.edu.ec</t>
   </si>
   <si>
-    <t>csg8XScG</t>
+    <t>W/KGWeNy</t>
   </si>
   <si>
     <t>MONCAYO LAINEZ KERLY ARIANNA</t>
@@ -4175,7 +4175,7 @@
     <t>kerly.moncayo@espam.edu.ec</t>
   </si>
   <si>
-    <t>&amp;q&amp;x/Q3G</t>
+    <t>q4rjVGVB</t>
   </si>
   <si>
     <t>MONTES POZO JEAN POLL</t>
@@ -4184,7 +4184,7 @@
     <t>jean.montes@espam.edu.ec</t>
   </si>
   <si>
-    <t>0w#J8!3X</t>
+    <t>KJ!Homvc</t>
   </si>
   <si>
     <t>MORENO OBANDO ANA BELLA</t>
@@ -4193,7 +4193,7 @@
     <t>ana.moreno@espam.edu.ec</t>
   </si>
   <si>
-    <t>DzHNlEBo</t>
+    <t>4o!Ay0bw</t>
   </si>
   <si>
     <t>NAVARRETE PARODI ERIKA KARINA</t>
@@ -4202,7 +4202,7 @@
     <t>erika.navarrete@espam.edu.ec</t>
   </si>
   <si>
-    <t>vSFAWJGC</t>
+    <t>2Y7suLw0</t>
   </si>
   <si>
     <t>ORMAZA ESPINOZA JESUS EMILIO</t>
@@ -4211,7 +4211,7 @@
     <t>jesus.ormaza@espam.edu.ec</t>
   </si>
   <si>
-    <t>ie0uJ7Ky</t>
+    <t>01D1Wgd!</t>
   </si>
   <si>
     <t>ORMAZA FALCONES MARIA ALEJANDRA</t>
@@ -4220,7 +4220,7 @@
     <t>maria.ormaza@espam.edu.ec</t>
   </si>
   <si>
-    <t>n#tIYbZC</t>
+    <t>mF/K5rHH</t>
   </si>
   <si>
     <t>PARRAGA QUIJIJE GEMA KAROLINA</t>
@@ -4229,7 +4229,7 @@
     <t>gemak.parragaq@espam.edu.ec</t>
   </si>
   <si>
-    <t>AOZn/p&amp;l</t>
+    <t>yXOFEkP1</t>
   </si>
   <si>
     <t>PICO TOLA MARCO ANDRES</t>
@@ -4238,7 +4238,7 @@
     <t>marco.pico@espam.edu.ec</t>
   </si>
   <si>
-    <t>6EC#zAtM</t>
+    <t>QNasdx0d</t>
   </si>
   <si>
     <t>PIN NAPA IVANA MAYERLI</t>
@@ -4247,7 +4247,7 @@
     <t>ivana.pin@espam.edu.ec</t>
   </si>
   <si>
-    <t>p4XBRdIh</t>
+    <t>t9P1LlF9</t>
   </si>
   <si>
     <t>ROMERO BRAVO JOSE AGUSTIN</t>
@@ -4256,7 +4256,7 @@
     <t>jose.romero@espam.edu.ec</t>
   </si>
   <si>
-    <t>g1wSTL9!</t>
+    <t>HoDnGwoC</t>
   </si>
   <si>
     <t>SALTOS INTRIAGO NATHALIA MELISSA</t>
@@ -4265,7 +4265,7 @@
     <t>nathalia.saltos@espam.edu.ec</t>
   </si>
   <si>
-    <t>tuHT8sjh</t>
+    <t>7tT&amp;iVQw</t>
   </si>
   <si>
     <t>SALTOS SALTOS MADELYNE PIERINA</t>
@@ -4274,7 +4274,7 @@
     <t>madelyne.saltos@espam.edu.ec</t>
   </si>
   <si>
-    <t>F1rZ&amp;b8o</t>
+    <t>H9kg&amp;1iK</t>
   </si>
   <si>
     <t>SOLIS ORTIZ SANTIAGO</t>
@@ -4283,7 +4283,7 @@
     <t>santiago.solis@espam.edu.ec</t>
   </si>
   <si>
-    <t>QjDwdh2s</t>
+    <t>CtPAG19x</t>
   </si>
   <si>
     <t>SOLORZANO ZAMBRANO GEMA NARCISA</t>
@@ -4292,7 +4292,7 @@
     <t>gema.solorzano@espam.edu.ec</t>
   </si>
   <si>
-    <t>Ms2RoTYr</t>
+    <t>ep8e6nxA</t>
   </si>
   <si>
     <t>VARGAS SOLORZANO ANDREA DIVINA</t>
@@ -4301,7 +4301,7 @@
     <t>andrea.vargas@espam.edu.ec</t>
   </si>
   <si>
-    <t>gqJP&amp;Dkq</t>
+    <t>BEmOoBwV</t>
   </si>
   <si>
     <t>VELEZ VERA MANUEL ALEXANDER</t>
@@ -4310,7 +4310,7 @@
     <t>manuel.velez@espam.edu.ec</t>
   </si>
   <si>
-    <t>BHM62s1V</t>
+    <t>YW8OoU6n</t>
   </si>
   <si>
     <t>VELEZ ZAMBRANO ADRIAN DAVID</t>
@@ -4319,7 +4319,7 @@
     <t>adrian.velez@espam.edu.ec</t>
   </si>
   <si>
-    <t>Wxy8xSUI</t>
+    <t>b0dW?/rg</t>
   </si>
   <si>
     <t>YLLESCA CEDEÑO JESUS JONATHAN</t>
@@ -4328,7 +4328,7 @@
     <t>jesus.yllesca@espam.edu.ec</t>
   </si>
   <si>
-    <t>BvIIuZRZ</t>
+    <t>!5lVstBb</t>
   </si>
   <si>
     <t>ZAMBRANO CATOTA DERLYN MILENA</t>
@@ -4337,7 +4337,7 @@
     <t>derlyn.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>BN7!?9QD</t>
+    <t>nor/pABu</t>
   </si>
   <si>
     <t>ZAMBRANO CEDEÑO CHRISTIAN EDUARDO</t>
@@ -4346,7 +4346,7 @@
     <t>christian.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>UrtnZXgv</t>
+    <t>Oy6ONe0N</t>
   </si>
   <si>
     <t>ZAMBRANO ROBLES GLENDY MERCEDES</t>
@@ -4355,7 +4355,7 @@
     <t>glendy.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>tN&amp;cACyY</t>
+    <t>xQLRytV0</t>
   </si>
   <si>
     <t>ZAMBRANO ROSADO JORGE ALESSANDRO</t>
@@ -4364,7 +4364,7 @@
     <t>jorge.zambranor@espam.edu.ec</t>
   </si>
   <si>
-    <t>tm3PlKPW</t>
+    <t>yF1duVNU</t>
   </si>
   <si>
     <t>ZAMBRANO VERA WENDY ANAHI</t>
@@ -4373,7 +4373,7 @@
     <t>wendy.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>hP8tCc8Z</t>
+    <t>vHH8BUUG</t>
   </si>
   <si>
     <t>ZAMBRANO ZAMBRANO JONATHAN JAVIER</t>
@@ -4382,7 +4382,7 @@
     <t>jonathan.zambranoz@espam.edu.ec</t>
   </si>
   <si>
-    <t>3?UzdDYY</t>
+    <t>Z5r!9zJ!</t>
   </si>
   <si>
     <t>ZAMORA SOLORZANO MAGALY DOLORES</t>
@@ -4391,7 +4391,7 @@
     <t>magaly.zamora@espam.edu.ec</t>
   </si>
   <si>
-    <t>m0B5AMFh</t>
+    <t>sZGA?QsF</t>
   </si>
   <si>
     <t>BRAVO ZAMBRANO MARIA EMILIA</t>
@@ -4400,7 +4400,7 @@
     <t>maria.bravoz@espam.edu.ec</t>
   </si>
   <si>
-    <t>mvMMDMvj</t>
+    <t>YsufIdJL</t>
   </si>
   <si>
     <t>CEVALLOS ALVAREZ ARMANDO ENRIQUE</t>
@@ -4409,7 +4409,7 @@
     <t>armando.cevallos@espam.edu.ec</t>
   </si>
   <si>
-    <t>3z!qDS29</t>
+    <t>!2PeUMlL</t>
   </si>
   <si>
     <t>CEVALLOS VERA ARELIS STEFANIA</t>
@@ -4418,7 +4418,7 @@
     <t>arelis.cevallos@espam.edu.ec</t>
   </si>
   <si>
-    <t>J13DMMk8</t>
+    <t>1kN&amp;1IHp</t>
   </si>
   <si>
     <t>COOL MERO PATRICIO JAVIER</t>
@@ -4427,7 +4427,7 @@
     <t>patricio.cool@espam.edu.ec</t>
   </si>
   <si>
-    <t>wwx0PpEI</t>
+    <t>bZSMQaZt</t>
   </si>
   <si>
     <t>FRANCO ORELLANA GUADALUPE MONSERRATE</t>
@@ -4436,7 +4436,7 @@
     <t>guadalupe.franco@espam.edu.ec</t>
   </si>
   <si>
-    <t>YO5c0ek1</t>
+    <t>pAfPra/#</t>
   </si>
   <si>
     <t>HUERTA BALDIVIEZO JEAN CRISTHIAN</t>
@@ -4445,7 +4445,7 @@
     <t>jean.huerta@espam.edu.ec</t>
   </si>
   <si>
-    <t>2o/YjVCq</t>
+    <t>cwGJUZFM</t>
   </si>
   <si>
     <t>INTRIAGO CANTOS MARIA JOSE</t>
@@ -4454,7 +4454,7 @@
     <t>maria.intriagoc@espam.edu.ec</t>
   </si>
   <si>
-    <t>l?ZevcTL</t>
+    <t>b&amp;SMrCrx</t>
   </si>
   <si>
     <t>LOOR CANTOS DIANA ISABEL</t>
@@ -4463,7 +4463,7 @@
     <t>diana.loor@espam.edu.ec</t>
   </si>
   <si>
-    <t>HKu3C9i6</t>
+    <t>vlWCtiY2</t>
   </si>
   <si>
     <t>LOOR SEGOVIA EVELYN ADRIANA</t>
@@ -4472,7 +4472,7 @@
     <t>evelyn.loors@espam.edu.ec</t>
   </si>
   <si>
-    <t>t8eFGY0v</t>
+    <t>#Pg1/DbV</t>
   </si>
   <si>
     <t>MEDINA CEDEÑO JULIO CESAR</t>
@@ -4481,7 +4481,7 @@
     <t>julio.medina@espam.edu.ec</t>
   </si>
   <si>
-    <t>AyEWHFRm</t>
+    <t>mNteSNDn</t>
   </si>
   <si>
     <t>MERA VELEZ ALONDRA GARDENIA</t>
@@ -4490,7 +4490,7 @@
     <t>alondra.mera@espam.edu.ec</t>
   </si>
   <si>
-    <t>nlXn?Jon</t>
+    <t>UrSYEtsH</t>
   </si>
   <si>
     <t>MUÑOZ ZAMBRANO CARLOS JOSUE</t>
@@ -4499,7 +4499,7 @@
     <t>carlos.munozz@espam.edu.ec</t>
   </si>
   <si>
-    <t>qPJZUtS/</t>
+    <t>VzUuUbjy</t>
   </si>
   <si>
     <t>NAPA RODRIGUEZ JOSE AGUSTIN</t>
@@ -4508,7 +4508,7 @@
     <t>jose.napa@espam.edu.ec</t>
   </si>
   <si>
-    <t>KLslSv#D</t>
+    <t>!gTaY8WQ</t>
   </si>
   <si>
     <t>PALMA CEVALLOS MARIA JOSE</t>
@@ -4517,7 +4517,7 @@
     <t>maria.palma@espam.edu.ec</t>
   </si>
   <si>
-    <t>vOaKm2Je</t>
+    <t>&amp;0eTybpS</t>
   </si>
   <si>
     <t>PATIÑO MESIAS MARIA GABRIELA</t>
@@ -4526,7 +4526,7 @@
     <t>maria.patino@espam.edu.ec</t>
   </si>
   <si>
-    <t>pW6k8wPe</t>
+    <t>3eQmn/oA</t>
   </si>
   <si>
     <t>QUINTANA CAGUA YENIFER YULI</t>
@@ -4535,7 +4535,7 @@
     <t>yenifer.quintana@espam.edu.ec</t>
   </si>
   <si>
-    <t>ZjF/APkE</t>
+    <t>5YbYyRmd</t>
   </si>
   <si>
     <t>RIVERA CANTOS MARIA DANIELA</t>
@@ -4544,7 +4544,7 @@
     <t>maria.riverac@espam.edu.ec</t>
   </si>
   <si>
-    <t>SAcuR6!m</t>
+    <t>Pir7SbBv</t>
   </si>
   <si>
     <t>RODRIGUEZ PINCAY CARLOS BRYAN</t>
@@ -4553,7 +4553,7 @@
     <t>carlos.rodriguezp@espam.edu.ec</t>
   </si>
   <si>
-    <t>14qdaAWl</t>
+    <t>UNJ1cTWr</t>
   </si>
   <si>
     <t>SABANDO VELEZ CRISTHIAN ANTHONY</t>
@@ -4562,7 +4562,7 @@
     <t>cristhian.sabando@espam.edu.ec</t>
   </si>
   <si>
-    <t>w4/O!WwV</t>
+    <t>6tiG7A7o</t>
   </si>
   <si>
     <t>SANTANA VERA ANTHONY JAHIR</t>
@@ -4571,7 +4571,7 @@
     <t>anthony.santana@espam.edu.ec</t>
   </si>
   <si>
-    <t>9n99glgN</t>
+    <t>ay7W3p3o</t>
   </si>
   <si>
     <t>VELEZ ESPINOZA JUNIOR JESUS</t>
@@ -4580,7 +4580,7 @@
     <t>junior.veleze@espam.edu.ec</t>
   </si>
   <si>
-    <t>CD8nxzUB</t>
+    <t>8H/K!l0O</t>
   </si>
   <si>
     <t>VERDUGA ZAMBRANO DIEGO ALEJANDRO</t>
@@ -4589,7 +4589,7 @@
     <t>diego.verduga@espam.edu.ec</t>
   </si>
   <si>
-    <t>HpRK&amp;xVJ</t>
+    <t>fqkUJhOp</t>
   </si>
   <si>
     <t>ZAMBRANO VELEZ NAYELHY LILIBETH</t>
@@ -4598,7 +4598,7 @@
     <t>nayelhy.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>fYB051qV</t>
+    <t>LQnvnuW4</t>
   </si>
   <si>
     <t>ZAMBRANO WITONG KENIA THAIS</t>
@@ -4607,7 +4607,7 @@
     <t>keniath.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>X0nl4ajo</t>
+    <t>L2hU2Rxv</t>
   </si>
   <si>
     <t>ANCHUNDIA ANCHUNDIA GEMA LILIBETH</t>
@@ -4616,7 +4616,7 @@
     <t>gema.anchundia@espam.edu.ec</t>
   </si>
   <si>
-    <t>ATB/A#1x</t>
+    <t>4c2!wgDg</t>
   </si>
   <si>
     <t>ARTEAGA DELGADO JEAN CARLOS</t>
@@ -4625,7 +4625,7 @@
     <t>jean.arteaga@espam.edu.ec</t>
   </si>
   <si>
-    <t>MpGzusy!</t>
+    <t>&amp;YQ7oA1U</t>
   </si>
   <si>
     <t>BARREIRO ZAMBRANO JOSE VICENTE</t>
@@ -4634,7 +4634,7 @@
     <t>jose.barreiro@espam.edu.ec</t>
   </si>
   <si>
-    <t>MuDffWm4</t>
+    <t>APcJ7NIV</t>
   </si>
   <si>
     <t>BASURTO ALCIVAR DARWIN JESUS</t>
@@ -4643,7 +4643,7 @@
     <t>darwin.basurto@espam.edu.ec</t>
   </si>
   <si>
-    <t>caHLZ7T0</t>
+    <t>rdJ1o&amp;rU</t>
   </si>
   <si>
     <t>BRAVO CEDEÑO JOSE RODOLFO</t>
@@ -4652,7 +4652,7 @@
     <t>jose.bravo@espam.edu.ec</t>
   </si>
   <si>
-    <t>FEjnpJTc</t>
+    <t>?n#rThPt</t>
   </si>
   <si>
     <t>BRIONES BERMEO ANTONY JAVIER</t>
@@ -4661,7 +4661,7 @@
     <t>antony.briones@espam.edu.ec</t>
   </si>
   <si>
-    <t>Qy#1CSss</t>
+    <t>eSMj2e?K</t>
   </si>
   <si>
     <t>CEDEÑO ANCHUNDIA YANDRY ANTONIO</t>
@@ -4673,7 +4673,7 @@
     <t>yandry.cedeno@espam.edu.ec</t>
   </si>
   <si>
-    <t>U1GV8943</t>
+    <t>hwqWc9q#</t>
   </si>
   <si>
     <t>CEDEÑO PEÑARRIETA DAYANA SOPHIA</t>
@@ -4682,7 +4682,7 @@
     <t>dayanaso.cedeno@espam.edu.ec</t>
   </si>
   <si>
-    <t>!dKVZspE</t>
+    <t>nomxopUd</t>
   </si>
   <si>
     <t>CHAVARRIA PEÑARRIETA MARCOS ALEJANDRO</t>
@@ -4691,7 +4691,7 @@
     <t>marcos.chavarria@espam.edu.ec</t>
   </si>
   <si>
-    <t>p69kTxIV</t>
+    <t>Q4asNnjS</t>
   </si>
   <si>
     <t>DEL VALLE BASURTO CARMEN MELINA</t>
@@ -4700,7 +4700,7 @@
     <t>carmen.del@espam.edu.ec</t>
   </si>
   <si>
-    <t>WEjpDGLY</t>
+    <t>7iOJM#Zz</t>
   </si>
   <si>
     <t>GUERRERO BRAVO ANA BELEN</t>
@@ -4709,7 +4709,7 @@
     <t>ana.guerrero@espam.edu.ec</t>
   </si>
   <si>
-    <t>VJWk1xfS</t>
+    <t>WIzkd7SA</t>
   </si>
   <si>
     <t>GUERRERO GUERRERO JOSSELYN MELISSA</t>
@@ -4718,7 +4718,7 @@
     <t>josselyn.guerrero@espam.edu.ec</t>
   </si>
   <si>
-    <t>&amp;QNyLHbc</t>
+    <t>1W0IQWN0</t>
   </si>
   <si>
     <t>INTRIAGO BARBERAN LAURO ANTONIO</t>
@@ -4727,7 +4727,7 @@
     <t>lauro.intriago1@espam.edu.ec</t>
   </si>
   <si>
-    <t>rbp1MZBq</t>
+    <t>szLmhyJ&amp;</t>
   </si>
   <si>
     <t>INTRIAGO MORA LENIN ARCENIO</t>
@@ -4736,7 +4736,7 @@
     <t>lenin.intriago@espam.edu.ec</t>
   </si>
   <si>
-    <t>!7jhvnsu</t>
+    <t>RJbe1UWw</t>
   </si>
   <si>
     <t>MACIAS CALDERON JOSE ARIEL</t>
@@ -4745,7 +4745,7 @@
     <t>jose.macias@espam.edu.ec</t>
   </si>
   <si>
-    <t>EPKbvy00</t>
+    <t>BWJH8699</t>
   </si>
   <si>
     <t>MARCILLO VELEZ ANA PATRICIA</t>
@@ -4754,7 +4754,7 @@
     <t>ana.marcillo@espam.edu.ec</t>
   </si>
   <si>
-    <t>6OM/6kim</t>
+    <t>5Gh3Dc&amp;k</t>
   </si>
   <si>
     <t>MERA FIGUEROA RAYMOND ALEJANDRO</t>
@@ -4763,7 +4763,7 @@
     <t>raymond.mera@espam.edu.ec</t>
   </si>
   <si>
-    <t>IQWNPJ?T</t>
+    <t>ouMqoFt4</t>
   </si>
   <si>
     <t>MOREIRA ZAMBRANO JOSSENKA MERCEDES</t>
@@ -4772,7 +4772,7 @@
     <t>jossenka.moreira@espam.edu.ec</t>
   </si>
   <si>
-    <t>M3ytj8af</t>
+    <t>g6ltNWt2</t>
   </si>
   <si>
     <t>MUÑOZ ALCIVAR CRISTHIAN MARTIN</t>
@@ -4781,7 +4781,7 @@
     <t>cristhian.munoz@espam.edu.ec</t>
   </si>
   <si>
-    <t>rZ&amp;ejG8O</t>
+    <t>Uy?0trer</t>
   </si>
   <si>
     <t>MUÑOZ MACIAS MARIA MAGDALENA</t>
@@ -4790,7 +4790,7 @@
     <t>mariama.munoz@espam.edu.ec</t>
   </si>
   <si>
-    <t>!6t&amp;Do4x</t>
+    <t>j8Wg?xCi</t>
   </si>
   <si>
     <t>POLO GANCHOZO ARON ESNEYDER</t>
@@ -4799,7 +4799,7 @@
     <t>aron.polo@espam.edu.ec</t>
   </si>
   <si>
-    <t>5UdaKJ0o</t>
+    <t>shiNpcio</t>
   </si>
   <si>
     <t>RIOS BERMELLO JENIFFER LIZETH</t>
@@ -4808,7 +4808,7 @@
     <t>jeniffer.rios@espam.edu.ec</t>
   </si>
   <si>
-    <t>m62W6c9n</t>
+    <t>RVyR1H8T</t>
   </si>
   <si>
     <t>SALVATIERRA VALDEZ VICKY NICOLLE</t>
@@ -4817,7 +4817,7 @@
     <t>vicky.salvatierra@espam.edu.ec</t>
   </si>
   <si>
-    <t>gxHKuQsk</t>
+    <t>VMAspbP7</t>
   </si>
   <si>
     <t>SANTOS VELEZ MONICA GERMANIA</t>
@@ -4826,7 +4826,7 @@
     <t>monica.santos@espam.edu.ec</t>
   </si>
   <si>
-    <t>PFB2K4/7</t>
+    <t>VgKCexZ1</t>
   </si>
   <si>
     <t>SOLORZANO ZAMBRANO MILENA DENISSE</t>
@@ -4835,7 +4835,7 @@
     <t>milena.solorzano@espam.edu.ec</t>
   </si>
   <si>
-    <t>6T8QY9WJ</t>
+    <t>zOptn2VH</t>
   </si>
   <si>
     <t>TUQUERES TACURI JESSICA MARIBELL</t>
@@ -4844,7 +4844,7 @@
     <t>jessica.tuqueres@espam.edu.ec</t>
   </si>
   <si>
-    <t>Tr#afTCA</t>
+    <t>Yn9qfuw6</t>
   </si>
   <si>
     <t>VERDUGA ERAZO JOSUE SALVADOR</t>
@@ -4853,7 +4853,7 @@
     <t>josue.verduga@espam.edu.ec</t>
   </si>
   <si>
-    <t>LG2ixkSV</t>
+    <t>Ha8nxD3B</t>
   </si>
   <si>
     <t>YEPEZ VELIZ GENESIS THALIA</t>
@@ -4862,7 +4862,7 @@
     <t>genesis.yepez@espam.edu.ec</t>
   </si>
   <si>
-    <t>Wdksdp&amp;m</t>
+    <t>jJt3aYx1</t>
   </si>
   <si>
     <t>ZAMBRANO BASURTO ERICK RAFAEL</t>
@@ -4871,7 +4871,7 @@
     <t>erick.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>eEoFONUs</t>
+    <t>2gVkyQEZ</t>
   </si>
   <si>
     <t>ZAMBRANO MUÑOZ JANDRY DEIVY</t>
@@ -4880,7 +4880,7 @@
     <t>jandry.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>i9UjOEbi</t>
+    <t>Q5e6XqZB</t>
   </si>
   <si>
     <t>AYONG VERA JUAN DAVID</t>
@@ -4889,7 +4889,7 @@
     <t>juan.ayong@espam.edu.ec</t>
   </si>
   <si>
-    <t>wQN&amp;7tVD</t>
+    <t>tEGcOcdz</t>
   </si>
   <si>
     <t>BASURTO SALAZAR ANGELA MARGARITA</t>
@@ -4898,7 +4898,7 @@
     <t>angela.basurto@espam.edu.ec</t>
   </si>
   <si>
-    <t>7lpc9GFP</t>
+    <t>#xi0GWTd</t>
   </si>
   <si>
     <t>CASANOVA INTRIAGO ANDREA BELEN</t>
@@ -4910,7 +4910,7 @@
     <t>andrea.casanova@espam.edu.ec</t>
   </si>
   <si>
-    <t>j1HjanS/</t>
+    <t>fbYZ7Lky</t>
   </si>
   <si>
     <t>CHUMO ZAMBRANO ANTONIO BENITO</t>
@@ -4919,7 +4919,7 @@
     <t>antonio.chumo@espam.edu.ec</t>
   </si>
   <si>
-    <t>D?Si97g0</t>
+    <t>pS5ZpN&amp;f</t>
   </si>
   <si>
     <t>GARCIA CORTEZ ERIKA STEFANIA</t>
@@ -4928,7 +4928,7 @@
     <t>erika.garcia@espam.edu.ec</t>
   </si>
   <si>
-    <t>S8Ahhgrr</t>
+    <t>rQ9#5Oxi</t>
   </si>
   <si>
     <t>GOMEZ BARRERA JUNIOR LENIN</t>
@@ -4937,7 +4937,7 @@
     <t>junior.gomez@espam.edu.ec</t>
   </si>
   <si>
-    <t>XlvJPg2u</t>
+    <t>mYAe6l1F</t>
   </si>
   <si>
     <t>LOOR CEDEÑO RICARDO EMANUEL</t>
@@ -4946,7 +4946,7 @@
     <t>ricardo.loor@espam.edu.ec</t>
   </si>
   <si>
-    <t>cf9bmAq8</t>
+    <t>hZL#mv92</t>
   </si>
   <si>
     <t>LOOR LUCAS EVELYN GUADALUPE</t>
@@ -4958,7 +4958,7 @@
     <t>evelyn.loor@espam.edu.ec</t>
   </si>
   <si>
-    <t>0VE&amp;yckO</t>
+    <t>L7mrfPaF</t>
   </si>
   <si>
     <t>LOOR VELASCO FABIANA BELEN</t>
@@ -4970,7 +4970,7 @@
     <t>fabiana.loor@espam.edu.ec</t>
   </si>
   <si>
-    <t>4K7ldzmy</t>
+    <t>hXjhn&amp;Ac</t>
   </si>
   <si>
     <t>MARTINEZ CEDEÑO JENIFFER ESTEFANIA</t>
@@ -4979,7 +4979,7 @@
     <t>jeniffer.martinez@espam.edu.ec</t>
   </si>
   <si>
-    <t>zxOKWs?u</t>
+    <t>E0eXmYsM</t>
   </si>
   <si>
     <t>MENDOZA BARRE EDDY ENMANUEL</t>
@@ -4988,7 +4988,7 @@
     <t>eddy.mendoza@espam.edu.ec</t>
   </si>
   <si>
-    <t>25vtYk3y</t>
+    <t>ttv4Eo&amp;v</t>
   </si>
   <si>
     <t>MURILLO PALACIOS ULICES JAIR</t>
@@ -4997,7 +4997,7 @@
     <t>ulices.murillo@espam.edu.ec</t>
   </si>
   <si>
-    <t>5L#xzxUf</t>
+    <t>xnTZE!FP</t>
   </si>
   <si>
     <t>QUIJANO ZAMBRANO JONATHAN ERNESTO</t>
@@ -5006,7 +5006,7 @@
     <t>jonathan.quijano@espam.edu.ec</t>
   </si>
   <si>
-    <t>vzpRsmVX</t>
+    <t>yL58H9t?</t>
   </si>
   <si>
     <t>ROBLES YORI EFRAIN DAVID</t>
@@ -5015,7 +5015,7 @@
     <t>efrain.robles@espam.edu.ec</t>
   </si>
   <si>
-    <t>99aevnma</t>
+    <t>Xf0gmoMi</t>
   </si>
   <si>
     <t>SABANDO ZAMBRANO FREDDY ANTONIO</t>
@@ -5024,7 +5024,7 @@
     <t>freddy.sabando@espam.edu.ec</t>
   </si>
   <si>
-    <t>lLQ62s14</t>
+    <t>h30cLCiW</t>
   </si>
   <si>
     <t>SOLORZANO GUERRERO RONALDO WANDERLEY</t>
@@ -5033,7 +5033,7 @@
     <t>ronaldo.solorzano@espam.edu.ec</t>
   </si>
   <si>
-    <t>y2!SGHA?</t>
+    <t>panx5sEe</t>
   </si>
   <si>
     <t>VELEZ CALDERON GENESIS MARIANA</t>
@@ -5045,7 +5045,7 @@
     <t>genesis.velez@espam.edu.ec</t>
   </si>
   <si>
-    <t>RRm2yZY/</t>
+    <t>cGVdmijv</t>
   </si>
   <si>
     <t>ZAMBRANO BALDA JOSE RAMIRO</t>
@@ -5054,7 +5054,7 @@
     <t>josera.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>V27HDvT7</t>
+    <t>hR0xAo?m</t>
   </si>
   <si>
     <t>ZAMBRANO CANTOS YENNY ANNABEL</t>
@@ -5063,7 +5063,7 @@
     <t>yenny.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>d1?fcixr</t>
+    <t>lknzAIdz</t>
   </si>
   <si>
     <t>ZAMBRANO LOOR CRISTHIAN LEONARDO</t>
@@ -5072,7 +5072,7 @@
     <t>cristhian.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>w1!LDs6j</t>
+    <t>Mce&amp;B/Au</t>
   </si>
   <si>
     <t>ZAMBRANO LOOR DIANA STEFANIA</t>
@@ -5081,7 +5081,7 @@
     <t>dianas.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>3ju2NwX?</t>
+    <t>MxY5?t5C</t>
   </si>
   <si>
     <t>ZAMBRANO LOOR MARIA EMILIA</t>
@@ -5090,7 +5090,7 @@
     <t>maria.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>dBN3O/Zc</t>
+    <t>D&amp;rwA5Li</t>
   </si>
   <si>
     <t>ZAMBRANO MOREIRA LEONELA ALEJANDRA</t>
@@ -5099,7 +5099,7 @@
     <t>leonela.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>yW!GvWo7</t>
+    <t>698AmgMC</t>
   </si>
   <si>
     <t>ALAVA ORTIZ EDWIN ALEXANDER</t>
@@ -5108,7 +5108,7 @@
     <t>edwin.alava@espam.edu.ec</t>
   </si>
   <si>
-    <t>gEm&amp;wu!u</t>
+    <t>G8lM2cxp</t>
   </si>
   <si>
     <t>ALCIVAR LOOR GEMA LISBETH</t>
@@ -5117,7 +5117,7 @@
     <t>gemal.alcivar@espam.edu.ec</t>
   </si>
   <si>
-    <t>9W51erba</t>
+    <t>9B&amp;rEXq9</t>
   </si>
   <si>
     <t>AVELLAN SANTANA GENESIS NICOLLE</t>
@@ -5126,7 +5126,7 @@
     <t>genesis.avellan@espam.edu.ec</t>
   </si>
   <si>
-    <t>3fTe1R&amp;v</t>
+    <t>YETnJys1</t>
   </si>
   <si>
     <t>CALDERON SANCHEZ SANDY KATHERINE</t>
@@ -5138,7 +5138,7 @@
     <t>sandy.calderon@espam.edu.ec</t>
   </si>
   <si>
-    <t>q6qAn5VR</t>
+    <t>KseeP4dy</t>
   </si>
   <si>
     <t>CARDENAS ASTUDILLO ANGELA JULIANA</t>
@@ -5150,7 +5150,7 @@
     <t>angela.cardenas@espam.edu.ec</t>
   </si>
   <si>
-    <t>lVVuZ3zo</t>
+    <t>gI6QMv?i</t>
   </si>
   <si>
     <t>CARRILLO PACHAY MARCO STEVE</t>
@@ -5159,7 +5159,7 @@
     <t>marco.carrillo@espam.edu.ec</t>
   </si>
   <si>
-    <t>Riy6KrE&amp;</t>
+    <t>sO5Qizx4</t>
   </si>
   <si>
     <t>CEDEÑO ZAMBRANO BRYAN ISIDRO</t>
@@ -5168,7 +5168,7 @@
     <t>bryan.cedeno@espam.edu.ec</t>
   </si>
   <si>
-    <t>N6LCsKe0</t>
+    <t>M1b6DIYF</t>
   </si>
   <si>
     <t>CEVALLOS SALTOS ANTHONY FERNANDO</t>
@@ -5177,7 +5177,7 @@
     <t>anthonyf.cevallos@espam.edu.ec</t>
   </si>
   <si>
-    <t>X1BMO0Ti</t>
+    <t>sUhFVgJ5</t>
   </si>
   <si>
     <t>CHANG ZAMBRANO MARTHA YAMILETH</t>
@@ -5186,7 +5186,7 @@
     <t>martha.chang@espam.edu.ec</t>
   </si>
   <si>
-    <t>W7IGHZL#</t>
+    <t>stDZqsAK</t>
   </si>
   <si>
     <t>CHIRIBOGA FARIAS LUIS FERNANDO</t>
@@ -5195,7 +5195,7 @@
     <t>luis.chiriboga@espam.edu.ec</t>
   </si>
   <si>
-    <t>VdJfa?hK</t>
+    <t>Wl26Q!h4</t>
   </si>
   <si>
     <t>ESPINOZA PILAY JERSON JOSE</t>
@@ -5204,7 +5204,7 @@
     <t>jerson.espinoza@espam.edu.ec</t>
   </si>
   <si>
-    <t>oj&amp;OgDeX</t>
+    <t>5vuTm3&amp;o</t>
   </si>
   <si>
     <t>FARIAS MERA MAURICIO ANDRES</t>
@@ -5213,7 +5213,7 @@
     <t>mauricio.farias@espam.edu.ec</t>
   </si>
   <si>
-    <t>/SqTNHLC</t>
+    <t>6tnHOXBQ</t>
   </si>
   <si>
     <t>HERNANDEZ GONZALEZ JAMILEX KAREY</t>
@@ -5225,7 +5225,7 @@
     <t>jamilex.hernandez@espam.edu.ec</t>
   </si>
   <si>
-    <t>a7hfM&amp;Kn</t>
+    <t>9A&amp;uGekk</t>
   </si>
   <si>
     <t>LEONES FALCONES ABAD JHOAN</t>
@@ -5234,7 +5234,7 @@
     <t>abad.leones@espam.edu.ec</t>
   </si>
   <si>
-    <t>hJ2OmzYV</t>
+    <t>cGHQAm81</t>
   </si>
   <si>
     <t>LOOR CEVALLOS ANA MARIA</t>
@@ -5243,7 +5243,7 @@
     <t>anama.loor@espam.edu.ec</t>
   </si>
   <si>
-    <t>SRdOxOOS</t>
+    <t>IvMzgyz#</t>
   </si>
   <si>
     <t>LOOR LOOR RONALD POLIVIO</t>
@@ -5252,7 +5252,7 @@
     <t>ronald.loor@espam.edu.ec</t>
   </si>
   <si>
-    <t>UGawhaWJ</t>
+    <t>P!rM?BFP</t>
   </si>
   <si>
     <t>LOOR REYES GENESIS JAMILETH</t>
@@ -5261,7 +5261,7 @@
     <t>genesis.loor@espam.edu.ec</t>
   </si>
   <si>
-    <t>w3#G!XIF</t>
+    <t>WqvUB8o7</t>
   </si>
   <si>
     <t>MACIAS BRAVO RICARDO FRANCISCO</t>
@@ -5270,7 +5270,7 @@
     <t>ricardo.macias@espam.edu.ec</t>
   </si>
   <si>
-    <t>apiu/h1W</t>
+    <t>HY9NuyfO</t>
   </si>
   <si>
     <t>MACIAS MACIAS LISSETH LILIBETH</t>
@@ -5279,7 +5279,7 @@
     <t>lisseth.macias@espam.edu.ec</t>
   </si>
   <si>
-    <t>h6Xd/Pfe</t>
+    <t>KPklCF9i</t>
   </si>
   <si>
     <t>MANZABA CEDEÑO KEVIN ALBERTO</t>
@@ -5288,7 +5288,7 @@
     <t>kevin.manzaba@espam.edu.ec</t>
   </si>
   <si>
-    <t>g#kcDHoi</t>
+    <t>cWqF!Y8K</t>
   </si>
   <si>
     <t>MARQUEZ LEMA NAYELI SABRINA</t>
@@ -5297,7 +5297,7 @@
     <t>nayeli.marquez@espam.edu.ec</t>
   </si>
   <si>
-    <t>/ZO5KWjr</t>
+    <t>RY9?nL6M</t>
   </si>
   <si>
     <t>MENDOZA BRIONES MARIUXI KATHERINE</t>
@@ -5309,7 +5309,7 @@
     <t>mariuxi.mendoza@espam.edu.ec</t>
   </si>
   <si>
-    <t>KM5dmPx6</t>
+    <t>!3xE/I?Z</t>
   </si>
   <si>
     <t>MOLINA CEDEÑO JUAN DE DIOS</t>
@@ -5318,7 +5318,7 @@
     <t>juan.molina@espam.edu.ec</t>
   </si>
   <si>
-    <t>pufbgF&amp;m</t>
+    <t>2ku8YZqC</t>
   </si>
   <si>
     <t>MONTESDEOCA GARCIA YUDID ALEXANDRA</t>
@@ -5327,7 +5327,7 @@
     <t>yudid.montesdeoca@espam.edu.ec</t>
   </si>
   <si>
-    <t>jySh9ekh</t>
+    <t>x6GNEyQ#</t>
   </si>
   <si>
     <t>MUÑOZ MERA JUAN PABLO</t>
@@ -5336,7 +5336,7 @@
     <t>juan.munoz@espam.edu.ec</t>
   </si>
   <si>
-    <t>45PpKHPy</t>
+    <t>lemRmWZy</t>
   </si>
   <si>
     <t>NAVARRETE ORMAZA ERICK ALEXANDER</t>
@@ -5345,7 +5345,7 @@
     <t>erick.navarrete@espam.edu.ec</t>
   </si>
   <si>
-    <t>V6Wpy8zD</t>
+    <t>25YPzFr?</t>
   </si>
   <si>
     <t>OCAMPO BARRE ANTHONY VICENTE</t>
@@ -5354,7 +5354,7 @@
     <t>anthony.ocampo@espam.edu.ec</t>
   </si>
   <si>
-    <t>2iGgl3zk</t>
+    <t>SybHcXYK</t>
   </si>
   <si>
     <t>PARRALES FALCONES ANTHONY LEONARDO</t>
@@ -5363,7 +5363,7 @@
     <t>anthony.parrales@espam.edu.ec</t>
   </si>
   <si>
-    <t>e31!JBX6</t>
+    <t>TlmLf#ak</t>
   </si>
   <si>
     <t>RAMOS SALTOS NICOLE PAOLA</t>
@@ -5372,7 +5372,7 @@
     <t>nicole.ramos@espam.edu.ec</t>
   </si>
   <si>
-    <t>OkZImtr7</t>
+    <t>OTKZCfdH</t>
   </si>
   <si>
     <t>ROBLES MOLINA JENIFFER STEFANIA</t>
@@ -5381,7 +5381,7 @@
     <t>jeniffer.robles@espam.edu.ec</t>
   </si>
   <si>
-    <t>oaVWsV7&amp;</t>
+    <t>u!lhE?Pf</t>
   </si>
   <si>
     <t>RODRIGUEZ CAMPOS JEAN KATHERINE</t>
@@ -5390,7 +5390,7 @@
     <t>jean.rodriguez@espam.edu.ec</t>
   </si>
   <si>
-    <t>jWK6e1YR</t>
+    <t>tZX5Ac5A</t>
   </si>
   <si>
     <t>SANCHEZ MEDINA GISSEL STEPHANIE</t>
@@ -5399,7 +5399,7 @@
     <t>gissel.sanchez@espam.edu.ec</t>
   </si>
   <si>
-    <t>u&amp;VbW3J7</t>
+    <t>qevBIAwY</t>
   </si>
   <si>
     <t>VASQUEZ VERA ARGENIS JAVIER</t>
@@ -5408,7 +5408,7 @@
     <t>argenis.vasquez@espam.edu.ec</t>
   </si>
   <si>
-    <t>WteNd&amp;3N</t>
+    <t>nBPcaTSz</t>
   </si>
   <si>
     <t>VASQUEZ VERA MARIA MERCEDES</t>
@@ -5417,7 +5417,7 @@
     <t>maria.vasquez@espam.edu.ec</t>
   </si>
   <si>
-    <t>M08OTTNB</t>
+    <t>zv9RGM8S</t>
   </si>
   <si>
     <t>VELEZ MERA JOSSELYN JOSSENKA</t>
@@ -5426,7 +5426,7 @@
     <t>josselynjo.velez@espam.edu.ec</t>
   </si>
   <si>
-    <t>X?CIfg2u</t>
+    <t>Et3qSB7V</t>
   </si>
   <si>
     <t>VELEZ PALACIOS STEVEN RAMON</t>
@@ -5435,7 +5435,7 @@
     <t>steven.velez@espam.edu.ec</t>
   </si>
   <si>
-    <t>ICq/K7aH</t>
+    <t>ONFX7zif</t>
   </si>
   <si>
     <t>VERA BRAVO MARY LAURA</t>
@@ -5444,7 +5444,7 @@
     <t>mary.vera@espam.edu.ec</t>
   </si>
   <si>
-    <t>30k#gQ6p</t>
+    <t>SrCnekTS</t>
   </si>
   <si>
     <t>VILLAMIL VALENCIA ISABEL ANDREA</t>
@@ -5453,7 +5453,7 @@
     <t>isabel.villamil@espam.edu.ec</t>
   </si>
   <si>
-    <t>96Gx7u5S</t>
+    <t>i9vQNsMw</t>
   </si>
   <si>
     <t>ZAMBRANO COBEÑA PABLO ALBERTO</t>
@@ -5462,7 +5462,7 @@
     <t>pablo.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>SIzvozY0</t>
+    <t>G&amp;?m8mge</t>
   </si>
   <si>
     <t>ALVAREZ INTRIAGO MAILIN KATHERINE</t>
@@ -5471,7 +5471,7 @@
     <t>mailin.alvarez@espam.edu.ec</t>
   </si>
   <si>
-    <t>YFZ5cRCF</t>
+    <t>rqkHpQOj</t>
   </si>
   <si>
     <t>BRAVO ARTEAGA RICARDO JAVIER</t>
@@ -5480,7 +5480,7 @@
     <t>ricardo.bravo@espam.edu.ec</t>
   </si>
   <si>
-    <t>k1g11SBA</t>
+    <t>3MGOrXD/</t>
   </si>
   <si>
     <t>BRAVO VERGARA GEMA CAROLINA</t>
@@ -5489,7 +5489,7 @@
     <t>gemac.bravo@espam.edu.ec</t>
   </si>
   <si>
-    <t>rnBomRq7</t>
+    <t>rWzVNE21</t>
   </si>
   <si>
     <t>CEDEÑO VELASQUEZ GEMA GUADALUPE</t>
@@ -5498,7 +5498,7 @@
     <t>gemag.cedeno@espam.edu.ec</t>
   </si>
   <si>
-    <t>FfT1i4&amp;s</t>
+    <t>7h4KWo7I</t>
   </si>
   <si>
     <t>CHAVEZ VELIZ DENIS ALEXANDER</t>
@@ -5507,7 +5507,7 @@
     <t>denis.chavez@espam.edu.ec</t>
   </si>
   <si>
-    <t>8ePpTBKq</t>
+    <t>U/VP0S3q</t>
   </si>
   <si>
     <t>DEMERA ZAMBRANO JACKSON ANDRES</t>
@@ -5516,7 +5516,7 @@
     <t>jackson.demera@espam.edu.ec</t>
   </si>
   <si>
-    <t>?h!PvZtk</t>
+    <t>ab#S3oxT</t>
   </si>
   <si>
     <t>GANCHOZO LECTONG GRESSILLE GUISSELLA</t>
@@ -5525,7 +5525,7 @@
     <t>gressille.ganchozo@espam.edu.ec</t>
   </si>
   <si>
-    <t>awuwt#Fa</t>
+    <t>Ay/fNWul</t>
   </si>
   <si>
     <t>INDIO ZAMBRANO ODALIS MICHELLE</t>
@@ -5537,7 +5537,7 @@
     <t>odalis.indio@espam.edu.ec</t>
   </si>
   <si>
-    <t>3LuIOtwg</t>
+    <t>gONJCFGX</t>
   </si>
   <si>
     <t>INTRIAGO TERAN BRYAN ASDRUBAL</t>
@@ -5546,7 +5546,7 @@
     <t>bryan.intriago@espam.edu.ec</t>
   </si>
   <si>
-    <t>w72jFac8</t>
+    <t>vWRdCIMT</t>
   </si>
   <si>
     <t>INTRIAGO ZAMBRANO GISSELA KAROLINA</t>
@@ -5555,7 +5555,7 @@
     <t>gissela.intriago@espam.edu.ec</t>
   </si>
   <si>
-    <t>uw23E4xV</t>
+    <t>BoUE4hcG</t>
   </si>
   <si>
     <t>LEONES SOLORZANO YARITZA DANIELA</t>
@@ -5564,7 +5564,7 @@
     <t>yaritza.leones@espam.edu.ec</t>
   </si>
   <si>
-    <t>oF&amp;bZIKX</t>
+    <t>mndavUTA</t>
   </si>
   <si>
     <t>LOPEZ MORA JOSSELYN AMARILYS</t>
@@ -5573,7 +5573,7 @@
     <t>josselyn.lopez@espam.edu.ec</t>
   </si>
   <si>
-    <t>BHVjpwRM</t>
+    <t>&amp;wYoH6Im</t>
   </si>
   <si>
     <t>MERA LOOR ANTONY ELIAN</t>
@@ -5582,7 +5582,7 @@
     <t>antony.mera@espam.edu.ec</t>
   </si>
   <si>
-    <t>mI6FnTJ!</t>
+    <t>GqmUGDih</t>
   </si>
   <si>
     <t>MERA SABANDO GEMA YAMILETH</t>
@@ -5591,7 +5591,7 @@
     <t>gema.mera@espam.edu.ec</t>
   </si>
   <si>
-    <t>4x8KxYZk</t>
+    <t>DzWd/bbN</t>
   </si>
   <si>
     <t>MIRANDA IBARRA ALFONSO SEBASTIAN</t>
@@ -5600,7 +5600,7 @@
     <t>alfonso.miranda@espam.edu.ec</t>
   </si>
   <si>
-    <t>sKsLFuRp</t>
+    <t>NkAXrnhz</t>
   </si>
   <si>
     <t>MONGE ERAZO JECSY PIERINA</t>
@@ -5609,7 +5609,7 @@
     <t>jecsy.monge@espam.edu.ec</t>
   </si>
   <si>
-    <t>7WnK9izz</t>
+    <t>NPiW&amp;hVg</t>
   </si>
   <si>
     <t>ROMERO ORTEGA ANGEL ANDRES</t>
@@ -5618,7 +5618,7 @@
     <t>angel.romero@espam.edu.ec</t>
   </si>
   <si>
-    <t>J1Eb0GW!</t>
+    <t>jWz7Iair</t>
   </si>
   <si>
     <t>SOLORZANO INTRIAGO OSCAR FABIAN</t>
@@ -5630,7 +5630,7 @@
     <t>oscar.solorzano@espam.edu.ec</t>
   </si>
   <si>
-    <t>&amp;yFaa&amp;6J</t>
+    <t>NShv2Bp5</t>
   </si>
   <si>
     <t>VALVERDE ZAPATA KATHIUSCA CARLOTA</t>
@@ -5642,7 +5642,7 @@
     <t>kathiusca.valverde@espam.edu.ec</t>
   </si>
   <si>
-    <t>dhFvpeAb</t>
+    <t>AlI!?KC3</t>
   </si>
   <si>
     <t>VERA AYALA GENESIS LISBETH</t>
@@ -5651,7 +5651,7 @@
     <t>genesis.vera@espam.edu.ec</t>
   </si>
   <si>
-    <t>8#gYJYzb</t>
+    <t>O45Za9hB</t>
   </si>
   <si>
     <t>VERA PULIDO MARIA IVANNA</t>
@@ -5660,7 +5660,7 @@
     <t>mariai.verap@espam.edu.ec</t>
   </si>
   <si>
-    <t>0rW8numk</t>
+    <t>tZ2S0yID</t>
   </si>
   <si>
     <t>VERA ZAMBRANO JAZMIN CAROLINA</t>
@@ -5669,7 +5669,7 @@
     <t>jazmin.vera@espam.edu.ec</t>
   </si>
   <si>
-    <t>rdgaDWoa</t>
+    <t>PIeDs01j</t>
   </si>
   <si>
     <t>VERGARA ARBOLEDA WENDY DEL ROCIO</t>
@@ -5681,7 +5681,7 @@
     <t>wendy.vergara@espam.edu.ec</t>
   </si>
   <si>
-    <t>9cd?uft7</t>
+    <t>Q5/DSDd#</t>
   </si>
   <si>
     <t>VILLAMAR GONZALEZ ELENA SAMANTA</t>
@@ -5690,7 +5690,7 @@
     <t>elena.villamar@espam.edu.ec</t>
   </si>
   <si>
-    <t>xBJ?8Wc!</t>
+    <t>DTV37L2Q</t>
   </si>
   <si>
     <t>ZAMBRANO ALCIVAR GENESIS VALENTINA</t>
@@ -5699,7 +5699,7 @@
     <t>genesis.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>FOyXm!Oh</t>
+    <t>#gejx7H0</t>
   </si>
   <si>
     <t>ZAMBRANO CHAVEZ ANDREA MONSERRATE</t>
@@ -5708,7 +5708,7 @@
     <t>andream.zambranoc@espam.edu.ec</t>
   </si>
   <si>
-    <t>cvaDoPgy</t>
+    <t>0Fdx2#UZ</t>
   </si>
   <si>
     <t>ZAMBRANO GRACIA DANIELA ANGELINA</t>
@@ -5717,7 +5717,7 @@
     <t>daniela.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>O!Jc5WFT</t>
+    <t>XE!#J8PF</t>
   </si>
   <si>
     <t>ZAMBRANO MUÑOZ WILLY JHONAY</t>
@@ -5726,7 +5726,7 @@
     <t>willy.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>oJXTVHOv</t>
+    <t>f8dIsx6w</t>
   </si>
   <si>
     <t>ZAMBRANO ZAMBRANO TATIANA ELIZABETH</t>
@@ -5735,7 +5735,7 @@
     <t>tatianael.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>#RCp0qjp</t>
+    <t>jbYfoUhd</t>
   </si>
 </sst>
 </file>

--- a/storage/app/public/seeds/datosPassword.xlsx
+++ b/storage/app/public/seeds/datosPassword.xlsx
@@ -44,7 +44,7 @@
     <t>angie.alcivar.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>ZhYkYIFZ</t>
+    <t>K1/Pl4T&amp;</t>
   </si>
   <si>
     <t>ALCIVAR VERA KARLA MILENA</t>
@@ -53,7 +53,7 @@
     <t>karla.alcivar.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>bAcZ69fS</t>
+    <t>wQe7RI!r</t>
   </si>
   <si>
     <t>ALVIA ROCA HENRY ISAAC</t>
@@ -65,7 +65,7 @@
     <t>henry.alvia.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>fHYLzZkb</t>
+    <t>8BWYfaK4</t>
   </si>
   <si>
     <t>ANANGONO GOMEZ ANA MARCELA</t>
@@ -74,7 +74,7 @@
     <t>ana.anangono.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>IPgur&amp;hL</t>
+    <t>XU0D0sFm</t>
   </si>
   <si>
     <t>BRAVO MARCILLO NATHALY SILVANA</t>
@@ -86,7 +86,7 @@
     <t>nathaly.bravo.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>/P1&amp;kFNi</t>
+    <t>EI1xPZZY</t>
   </si>
   <si>
     <t>BRIONES SUAREZ DANIA MELISSA</t>
@@ -95,7 +95,7 @@
     <t>dania.briones.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>u6ku6O8Y</t>
+    <t>BbPVyW!4</t>
   </si>
   <si>
     <t>CANCHINGRE LOZA MARIANA DE JESUS</t>
@@ -107,7 +107,7 @@
     <t>mariana.canchingre.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>j3JHFIol</t>
+    <t>!pS9qRfI</t>
   </si>
   <si>
     <t>CEDEÑO GARCIA EMILY JAHAIRA</t>
@@ -116,7 +116,7 @@
     <t>emily.cedeno.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>sxr3&amp;4Su</t>
+    <t>oXT4rSCZ</t>
   </si>
   <si>
     <t>CEDEÑO VELEZ STEVEN ANTONIO</t>
@@ -125,7 +125,7 @@
     <t>steven.cedeno.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>rNkVqfQC</t>
+    <t>HE#BKeiK</t>
   </si>
   <si>
     <t>CHICA ORDOÑEZ YAIZA ANAHI</t>
@@ -134,7 +134,7 @@
     <t>yaiza.chica.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>efiDRWo7</t>
+    <t>OAGYoPJM</t>
   </si>
   <si>
     <t>CORONEL MERO DAMARY SABRINA</t>
@@ -143,7 +143,7 @@
     <t>damary.coronel.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>3ARYHii&amp;</t>
+    <t>JgxskBUw</t>
   </si>
   <si>
     <t>DELGADO BENAVIDES MELISSA ANDREINA</t>
@@ -152,7 +152,7 @@
     <t>melissa.delgado.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>qeZlGDU&amp;</t>
+    <t>lWkp25?K</t>
   </si>
   <si>
     <t>DELGADO SOLORZANO TONY DAMIAN</t>
@@ -161,7 +161,7 @@
     <t>tony.delgado.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>K9foWJUX</t>
+    <t>/xM7mmwt</t>
   </si>
   <si>
     <t>ELENO GENDE JOSELYN KATHERINE</t>
@@ -173,7 +173,7 @@
     <t>joselyn.eleno.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>za2JZo9c</t>
+    <t>HiUMReML</t>
   </si>
   <si>
     <t>GARCIA RIVERA ANGHELA LISBETH</t>
@@ -185,7 +185,7 @@
     <t>anghela.garcia.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>#PpWiw4q</t>
+    <t>45NTek1B</t>
   </si>
   <si>
     <t>GARCIA ROSS PRISCILA TAHILY</t>
@@ -194,7 +194,7 @@
     <t>priscila.garcia.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>BUD2uFbz</t>
+    <t>6xNEhk6&amp;</t>
   </si>
   <si>
     <t>LOOR ZAMBRANO MARILYN MICHEL</t>
@@ -203,7 +203,7 @@
     <t>marilyn.loor.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>voGKglEq</t>
+    <t>FTj6mTjO</t>
   </si>
   <si>
     <t>LUCAS MENDOZA MOISES NOE</t>
@@ -212,7 +212,7 @@
     <t>moises.lucas.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>2beEnGR&amp;</t>
+    <t>lfXcpJ8f</t>
   </si>
   <si>
     <t>MANTUANO LOOR JENIFER DANIELA</t>
@@ -221,7 +221,7 @@
     <t>jenifer.mantuano.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>akOHcYhF</t>
+    <t>hy?T4ciZ</t>
   </si>
   <si>
     <t>MENENDEZ SANTANA JOSMELY ANAHI</t>
@@ -230,7 +230,7 @@
     <t>josmely.menendez.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>ILfnXwVg</t>
+    <t>tBjaDrqn</t>
   </si>
   <si>
     <t>MEZA ESPINOZA MISHEL NICOL</t>
@@ -239,7 +239,7 @@
     <t>mishel.meza.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>PLzaFSrm</t>
+    <t>!V?76YOl</t>
   </si>
   <si>
     <t>MORANTE TROYA JAIME ANDRES</t>
@@ -248,7 +248,7 @@
     <t>jaime.morante.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>E&amp;J5Q?ll</t>
+    <t>foSfGxo2</t>
   </si>
   <si>
     <t>PARRAGA MOREIRA CINDY ANDREA</t>
@@ -257,7 +257,7 @@
     <t>cindy.parraga.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>Pt5WQwFZ</t>
+    <t>&amp;QCABPAh</t>
   </si>
   <si>
     <t>PEÑAFIEL VALENCIA JULEISY LISBETH</t>
@@ -269,7 +269,7 @@
     <t>juleisy.penafiel.4623@espam.edu.ec</t>
   </si>
   <si>
-    <t>tJP9zTq3</t>
+    <t>bU02F3og</t>
   </si>
   <si>
     <t>PICO CRIOLLO MILETH KATHERINE</t>
@@ -278,7 +278,7 @@
     <t>mileth.pico.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>hJ0/gABV</t>
+    <t>9GgQDGmV</t>
   </si>
   <si>
     <t>RENDON GILER JUNIOR ARIEL</t>
@@ -287,7 +287,7 @@
     <t>junior.rendon@espam.edu.ec</t>
   </si>
   <si>
-    <t>&amp;cYd8SiB</t>
+    <t>4J47Jla1</t>
   </si>
   <si>
     <t>SALVATIERRA SANTOS BRYAN ALEJANDRO</t>
@@ -296,7 +296,7 @@
     <t>bryan.salvatierra@espam.edu.ec</t>
   </si>
   <si>
-    <t>Q4!Jl291</t>
+    <t>tFkwbeZD</t>
   </si>
   <si>
     <t>SOLORZANO LUCAS ALEXANDER JOEL</t>
@@ -308,7 +308,7 @@
     <t>alexander.solorzano.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>QzL70eTL</t>
+    <t>2TA6g??T</t>
   </si>
   <si>
     <t>SOLORZANO RODRIGUEZ DAYANA NICOLLE</t>
@@ -317,7 +317,7 @@
     <t>dayanna.solorzano.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>swgErjHy</t>
+    <t>56TqNrgZ</t>
   </si>
   <si>
     <t>TENORIO QUINTERO ELY GILMAR</t>
@@ -329,7 +329,7 @@
     <t>ely.tenorio.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>RKe3EVrb</t>
+    <t>xQTveMpW</t>
   </si>
   <si>
     <t>VELASQUEZ DOMINGUEZ JORDAN RICARDO</t>
@@ -338,7 +338,7 @@
     <t>jordan.velasquez.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>keI5e7E4</t>
+    <t>SmAB01pz</t>
   </si>
   <si>
     <t>VILLAVICENCIO SALVADOR MELANIE HELLAIM</t>
@@ -350,7 +350,7 @@
     <t>melanie.villavicencio.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>5iQuB?RX</t>
+    <t>o!IT!9QD</t>
   </si>
   <si>
     <t>ZAMBRANO CEDEÑO ANGELO ALEXANDER</t>
@@ -359,7 +359,7 @@
     <t>angelo.zambrano.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>!Qzht?Zc</t>
+    <t>W9I2kUsv</t>
   </si>
   <si>
     <t>ZAMBRANO VALENCIA SHIRLEY EDITH</t>
@@ -368,7 +368,7 @@
     <t>shirley.zambrano.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>mwmsOq2i</t>
+    <t>FWUkhAzC</t>
   </si>
   <si>
     <t>ANGEL GOMEZ GILENY NAHOMY</t>
@@ -380,7 +380,7 @@
     <t>gileny.angel.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>8ZCL1#8r</t>
+    <t>4rm7n2bm</t>
   </si>
   <si>
     <t>BARRE QUIJANO DARWIN JOSE</t>
@@ -389,7 +389,7 @@
     <t>darwin.barre@espam.edu.ec</t>
   </si>
   <si>
-    <t>cKNyo&amp;pl</t>
+    <t>wNVGMdzN</t>
   </si>
   <si>
     <t>BRAVO ALVAREZ EMILY JESUS</t>
@@ -398,7 +398,7 @@
     <t>emily.bravo.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>u2Vhu6E9</t>
+    <t>?FrC2DBv</t>
   </si>
   <si>
     <t>CAGUA YOONG NAHOMY JAMILETH</t>
@@ -407,7 +407,7 @@
     <t>nahomy.cagua.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>FjqJ#QAz</t>
+    <t>ur//BSwk</t>
   </si>
   <si>
     <t>CASTILLO CEDEÑO EMILIA MARICELA</t>
@@ -416,7 +416,7 @@
     <t>emilia.castillo.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>UP&amp;!&amp;sZb</t>
+    <t>ffat?yFP</t>
   </si>
   <si>
     <t>CEDEÑO ZAMBRANO JOSE DANIEL</t>
@@ -425,7 +425,7 @@
     <t>jose.cedenoz.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>v06AEiP0</t>
+    <t>H7Cd7ydF</t>
   </si>
   <si>
     <t>CIFUENTES VELASQUEZ JOSE JAHIR</t>
@@ -434,7 +434,7 @@
     <t>jose.cifuentes.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>lNZ##7DC</t>
+    <t>5Fw4K&amp;GP</t>
   </si>
   <si>
     <t>CONFORME CIFUENTES ROBERTH JESUS</t>
@@ -443,7 +443,7 @@
     <t>roberth.conforme.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>rt4x&amp;kAz</t>
+    <t>9rnz8LzZ</t>
   </si>
   <si>
     <t>CORDERO GILER SALMA PAOLA</t>
@@ -452,7 +452,7 @@
     <t>salma.cordero.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>ym0d1enW</t>
+    <t>fkC8r/zc</t>
   </si>
   <si>
     <t>FARIAS VELIZ RENE OCTAVIO</t>
@@ -461,7 +461,7 @@
     <t>rene.farias.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>UltQYZZP</t>
+    <t>QJI/Q0K!</t>
   </si>
   <si>
     <t>GARCIA DUEÑAS JEAN FERNANDO</t>
@@ -470,7 +470,7 @@
     <t>jean.garcia.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>zRHvfUKE</t>
+    <t>NYfXH0Md</t>
   </si>
   <si>
     <t>HERRERA BASURTO IVIS ANTONELLA</t>
@@ -479,7 +479,7 @@
     <t>ivis.herrera.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>TE/k/U2j</t>
+    <t>QS8QmKNq</t>
   </si>
   <si>
     <t>HIDALGO LOOR MARLYN NALLELY</t>
@@ -488,7 +488,7 @@
     <t>marlyn.hidalgo.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>Sjhpo1s#</t>
+    <t>m7DXaMCv</t>
   </si>
   <si>
     <t>IBARRA CHAVARRIA JUAN DIEGO</t>
@@ -497,7 +497,7 @@
     <t>juan.ibarra.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>l2EpvMD5</t>
+    <t>G&amp;rYuBOx</t>
   </si>
   <si>
     <t>JAYA ZAPATA VICTOR EDUARDO</t>
@@ -506,7 +506,7 @@
     <t>victor.jaya.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>ZDuRegei</t>
+    <t>HtRfXgIQ</t>
   </si>
   <si>
     <t>LOOR DELGADO JERRY JOEL</t>
@@ -515,7 +515,7 @@
     <t>jerry.loor.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>YsztbMqt</t>
+    <t>BOX&amp;yyft</t>
   </si>
   <si>
     <t>MANTUANO PONCE MELANY MONCERRATE</t>
@@ -524,7 +524,7 @@
     <t>melany.mantuano.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>kB7P/krM</t>
+    <t>wxVhdSuT</t>
   </si>
   <si>
     <t>MENDOZA VASQUEZ ARIEL ALEXIS</t>
@@ -536,7 +536,7 @@
     <t>ariel.mendoza.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>ksf0?FNT</t>
+    <t>4NMr1pQy</t>
   </si>
   <si>
     <t>MOREIRA GARCIA MACARIO EMANUEL</t>
@@ -545,7 +545,7 @@
     <t>macario.moreira.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>&amp;bH1z/PF</t>
+    <t>qNVnIGZ/</t>
   </si>
   <si>
     <t>MOREIRA GILCES GABRIELA NIKOL</t>
@@ -554,7 +554,7 @@
     <t>gabriela.moreira.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>tMzQ/fRa</t>
+    <t>F3F/fCPy</t>
   </si>
   <si>
     <t>NOBOA MONTESDEOCA INGRITH MADELEYN</t>
@@ -563,7 +563,7 @@
     <t>ingrith.noboa.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>lK/1?eqF</t>
+    <t>E?#Q!Ma0</t>
   </si>
   <si>
     <t>ORDOÑEZ ALCIVAR ALEX PAUL</t>
@@ -572,7 +572,7 @@
     <t>alex.ordonez.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>bDNhVGiE</t>
+    <t>Kvn8/Ab0</t>
   </si>
   <si>
     <t>PALMA GARCIA MELYN JARITZA</t>
@@ -581,7 +581,7 @@
     <t>melyn.palma.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>17yH9FnI</t>
+    <t>5qdDX!/&amp;</t>
   </si>
   <si>
     <t>PAREDES MERO GHISLAINE ANAHI</t>
@@ -590,7 +590,7 @@
     <t>ghislaine.paredes.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>x4y#sWab</t>
+    <t>61YOYMf&amp;</t>
   </si>
   <si>
     <t>QUIJIJE PIANDA XIOMARA MISHELLE</t>
@@ -602,7 +602,7 @@
     <t>xiomara.quijije.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>QUhV?H7&amp;</t>
+    <t>p9&amp;DIm2E</t>
   </si>
   <si>
     <t>SALAVARRIA AVEIGA YULIANA GUADALUPE</t>
@@ -611,7 +611,7 @@
     <t>yuliana.salavarria.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>x8T7m4k7</t>
+    <t>Tg7NiVGv</t>
   </si>
   <si>
     <t>SANTOS ALCIVAR JAIR SEBASTIAN</t>
@@ -620,7 +620,7 @@
     <t>jair.santos.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>GWd&amp;ImPv</t>
+    <t>&amp;89meZy5</t>
   </si>
   <si>
     <t>SOLORZANO CANDELA JARITZA NOHEMY</t>
@@ -629,7 +629,7 @@
     <t>jaritza.solorzano.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>l6jSMRgc</t>
+    <t>kKFMVxmT</t>
   </si>
   <si>
     <t>VERA CEBALLOS MARIA CONCEPCION</t>
@@ -638,7 +638,7 @@
     <t>maria.vera.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>l4olVY53</t>
+    <t>#&amp;MALt5H</t>
   </si>
   <si>
     <t>ALAVA MUÑOZ BILL JARVI</t>
@@ -647,7 +647,7 @@
     <t>bill.alava.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>aQOzw4j3</t>
+    <t>9X0zr/g/</t>
   </si>
   <si>
     <t>ALCIVAR ZAMBRANO ESTHER JOMARA</t>
@@ -656,7 +656,7 @@
     <t>esther.alcivar.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>9LTh8omi</t>
+    <t>rhQicpmK</t>
   </si>
   <si>
     <t>ALMEIDA LOOR MARIA VICTORIA</t>
@@ -665,7 +665,7 @@
     <t>maria.almeida.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>4nLDEi5O</t>
+    <t>7SASvlI4</t>
   </si>
   <si>
     <t>ANDRADE VILLAVICENCIO PABLO HUGO</t>
@@ -674,7 +674,7 @@
     <t>pablo.andrade.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>YxnA9gW0</t>
+    <t>chTbQ6TS</t>
   </si>
   <si>
     <t>AVENDAÑO YZQUIERDO ADRIANA ISABEL</t>
@@ -686,7 +686,7 @@
     <t>adriana.avendano.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>4zd7D2dF</t>
+    <t>VPCbvwQB</t>
   </si>
   <si>
     <t>BALUARTE PARRAGA MAYERLY NARCISA</t>
@@ -698,7 +698,7 @@
     <t>mayerly.baluarte.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>3ykPjILS</t>
+    <t>1H1b5Csa</t>
   </si>
   <si>
     <t>BARRE CASTAÑEDA MAYERLI SOLANGE</t>
@@ -710,7 +710,7 @@
     <t>mayerli.barre.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>sLgmXdrX</t>
+    <t>CfoJJdWf</t>
   </si>
   <si>
     <t>BERMEO MENDOZA LESLY JULIETT</t>
@@ -719,7 +719,7 @@
     <t>lesly.bermeo.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>SrCnPpgp</t>
+    <t>Xmp/dHHS</t>
   </si>
   <si>
     <t>BRAVO ZAMBRANO DANA KATIUSKA</t>
@@ -728,7 +728,7 @@
     <t>dana.bravo.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>!biT#NlX</t>
+    <t>UCx9HGL0</t>
   </si>
   <si>
     <t>CEDEÑO ALVARADO JORGE LUIS</t>
@@ -737,7 +737,7 @@
     <t>jorge.cedeno.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>LqWzRvrn</t>
+    <t>lgbSioy5</t>
   </si>
   <si>
     <t>DOMINGUEZ ANGEL ANAIS ZULEYMA</t>
@@ -749,7 +749,7 @@
     <t>anais.dominguez.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>VSSh0YFK</t>
+    <t>BcIAOAX&amp;</t>
   </si>
   <si>
     <t>ESPARZA TELLO ERICKA MARIA</t>
@@ -761,7 +761,7 @@
     <t>ericka.esparza.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>o6p02yF/</t>
+    <t>c0yUS75A</t>
   </si>
   <si>
     <t>GRAIN MARCILLO MICHAEL JOSUE</t>
@@ -770,7 +770,7 @@
     <t>michael.grain.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>k66zU0J0</t>
+    <t>ukrUsUAE</t>
   </si>
   <si>
     <t>JAMA ZAMBRANO ROBERTH XAVIER</t>
@@ -779,7 +779,7 @@
     <t>roberth.jama@espam.edu.ec</t>
   </si>
   <si>
-    <t>&amp;u5qvVRF</t>
+    <t>/v!g!q95</t>
   </si>
   <si>
     <t>LARA BONE ANGIE NICOLE</t>
@@ -791,7 +791,7 @@
     <t>angie.lara.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>66RbJL&amp;s</t>
+    <t>Xv88WtZF</t>
   </si>
   <si>
     <t>LOPEZ DELGADO DAYANA NICOLLE</t>
@@ -800,7 +800,7 @@
     <t>dayana.lopez.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>HZX9St#7</t>
+    <t>FXhOHIGy</t>
   </si>
   <si>
     <t>MELO CENTENO HELEN SOFIA</t>
@@ -809,7 +809,7 @@
     <t>helen.melo.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>KiGYrGPf</t>
+    <t>OtZARuyY</t>
   </si>
   <si>
     <t>MENDOZA ORTEGA ANGELO DANIEL</t>
@@ -818,7 +818,7 @@
     <t>angelo.mendoza.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>sBjrgI8W</t>
+    <t>0rEsHi7f</t>
   </si>
   <si>
     <t>MERO CARRILLO EMELY MILENA</t>
@@ -827,7 +827,7 @@
     <t>emely.mero.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>zrxlAwtj</t>
+    <t>6UpI4W0f</t>
   </si>
   <si>
     <t>MITE MENENDEZ GEORGE ISAAC</t>
@@ -836,7 +836,7 @@
     <t>george.mite.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>ZYGeVZVW</t>
+    <t>vFL&amp;sxW/</t>
   </si>
   <si>
     <t>MONCAYO CAGUA LADY NOHELIA</t>
@@ -845,7 +845,7 @@
     <t>lady.moncayo.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>InnAI0vM</t>
+    <t>Wn8pjWX5</t>
   </si>
   <si>
     <t>ORMAZA ALCIVAR NOHELIA MILENA</t>
@@ -854,7 +854,7 @@
     <t>nohelia.ormaza.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>bXwor3y3</t>
+    <t>98K8F0F2</t>
   </si>
   <si>
     <t>PANTA CANDELA YONNY ALEXANDER</t>
@@ -863,7 +863,7 @@
     <t>jonny.panta.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>Eq#FJ6lZ</t>
+    <t>J1x8G7js</t>
   </si>
   <si>
     <t>QUINATOA SIMALIZA YAJAIRA NICOLE</t>
@@ -872,7 +872,7 @@
     <t>yajaira.quinatoa.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>dQ9srYqB</t>
+    <t>i2RIO&amp;ES</t>
   </si>
   <si>
     <t>REYNA RAMIREZ SINDY MAHOLY</t>
@@ -881,7 +881,7 @@
     <t>sindy.reyna.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>JLPQUunb</t>
+    <t>Osn&amp;iK4X</t>
   </si>
   <si>
     <t>RODRIGUEZ ANCHUNDIA LUIS FERNANDO</t>
@@ -890,7 +890,7 @@
     <t>luis.rodriguez.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>5t2Po&amp;87</t>
+    <t>RI2WOcl9</t>
   </si>
   <si>
     <t>SABANDO TUAREZ MILENA BLANCA</t>
@@ -899,7 +899,7 @@
     <t>milena.sabando.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>70uNHkUd</t>
+    <t>uO6bO!RB</t>
   </si>
   <si>
     <t>SALAZAR RAMIREZ YARITZA GABRIELA</t>
@@ -908,7 +908,7 @@
     <t>yaritza.salazar.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>YETKbpy3</t>
+    <t>UcwtG5fM</t>
   </si>
   <si>
     <t>SHIGUANGO AGUINDA KATTY MIRELLA</t>
@@ -917,7 +917,7 @@
     <t>katty.shiguango.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>O?AsYIKQ</t>
+    <t>nb8gHh8t</t>
   </si>
   <si>
     <t>VACA MORALES JOSE EDUARDO</t>
@@ -926,7 +926,7 @@
     <t>jose.vaca.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>4b7RVtUB</t>
+    <t>daBUqRy!</t>
   </si>
   <si>
     <t>VELASQUEZ MEJIA ARIANNA ELIZABETH</t>
@@ -935,7 +935,7 @@
     <t>arianna.velasquez.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>v4RrmfGd</t>
+    <t>&amp;dx&amp;DC7u</t>
   </si>
   <si>
     <t>VELEZ CEDEÑO YANDRY ALAIN</t>
@@ -944,7 +944,7 @@
     <t>yandry.velez.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>E6/cwSOx</t>
+    <t>LNOInmkP</t>
   </si>
   <si>
     <t>VERA ZAMORA DIXON YAIR</t>
@@ -953,7 +953,7 @@
     <t>dixon.vera.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>?egN!N2x</t>
+    <t>nIRxMpFK</t>
   </si>
   <si>
     <t>ZAMBRANO FORTIS RICARDO MIGUEL</t>
@@ -962,7 +962,7 @@
     <t>ricardo.zambrano.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>QYTnaZeE</t>
+    <t>Yq6GiLn#</t>
   </si>
   <si>
     <t>ALVARADO DUEÑAS KARELYS VANESSA</t>
@@ -971,7 +971,7 @@
     <t>karelys.alvarado.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>qSgv7rh!</t>
+    <t>2kZVyOfB</t>
   </si>
   <si>
     <t>ANDRADE ILES ALVIERY JAHIR</t>
@@ -983,7 +983,7 @@
     <t>alviery.andrade.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>O8Oh6kNE</t>
+    <t>85DdSQjH</t>
   </si>
   <si>
     <t>ARTEAGA RAMOS DIEGO ALEJANDRO</t>
@@ -992,7 +992,7 @@
     <t>diego.arteaga.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>q6hf?heg</t>
+    <t>R?rojOsb</t>
   </si>
   <si>
     <t>BARREIRO INTRIAGO STEFANY PIERINA</t>
@@ -1001,7 +1001,7 @@
     <t>stefany.barreiro.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>qM0uz&amp;vK</t>
+    <t>MLShJ9Jp</t>
   </si>
   <si>
     <t>BRAVO QUINTERO SARA NICOLE</t>
@@ -1013,7 +1013,7 @@
     <t>sara.bravo.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>x#VZcMl/</t>
+    <t>3MSwvINh</t>
   </si>
   <si>
     <t>CABALLERO MUÑOZ STEVEN FABRICIO</t>
@@ -1022,7 +1022,7 @@
     <t>steven.caballero.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>OoArBze#</t>
+    <t>92w7mWqH</t>
   </si>
   <si>
     <t>CARRASCO VERA LUCAS JOSUE</t>
@@ -1031,7 +1031,7 @@
     <t>lucas.carrasco.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>ztmGieuH</t>
+    <t>wYn7yc4K</t>
   </si>
   <si>
     <t>CEDEÑO MURILLO KENNER STEVEN</t>
@@ -1040,7 +1040,7 @@
     <t>kenner.cedeno.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>/69LEsz4</t>
+    <t>L&amp;lVy86s</t>
   </si>
   <si>
     <t>CUERO PAZMIÑO EMMANUEL JOSUE</t>
@@ -1049,7 +1049,7 @@
     <t>emmanuel.cuero.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>DZCBX6WV</t>
+    <t>e389vcjd</t>
   </si>
   <si>
     <t>LADINES CASTRO MIRKA DARLISHA</t>
@@ -1061,7 +1061,7 @@
     <t>mirka.ladines.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>9AnLSil2</t>
+    <t>ybUzuEZv</t>
   </si>
   <si>
     <t>LARA FRANCO MICHAEL ARGEL</t>
@@ -1073,7 +1073,7 @@
     <t>michael.lara.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>ynqS&amp;WZH</t>
+    <t>?WcXPpCn</t>
   </si>
   <si>
     <t>LEYTHON QUIÑONEZ JEIMY SILVANA</t>
@@ -1085,7 +1085,7 @@
     <t>jeimy.leython.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>Djgpuahn</t>
+    <t>S8xcqAX4</t>
   </si>
   <si>
     <t>LOOR LOOR GENESIS DANIELA</t>
@@ -1094,7 +1094,7 @@
     <t>genesis.loor.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>CtvNawty</t>
+    <t>6d8hK#xv</t>
   </si>
   <si>
     <t>MATAMBA GUANGA THALIA VALERIA</t>
@@ -1106,7 +1106,7 @@
     <t>thalia.matamba.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>vGoh#kOj</t>
+    <t>Z#YI8qXE</t>
   </si>
   <si>
     <t>MENDOZA DE LA CRUZ MARTHA DANIELA</t>
@@ -1115,7 +1115,7 @@
     <t>martha.mendoza.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>6Rj2?az/</t>
+    <t>6?gwtvH2</t>
   </si>
   <si>
     <t>MINOTA BORJA ALEXANDER JAHIR</t>
@@ -1127,7 +1127,7 @@
     <t>alexander.minota.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>wf/EzlYb</t>
+    <t>dTj5ebNo</t>
   </si>
   <si>
     <t>NAVIA LOOR JOSE EFRAIN</t>
@@ -1136,7 +1136,7 @@
     <t>jose.navia.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>4onbWB73</t>
+    <t>Zr&amp;uVz1l</t>
   </si>
   <si>
     <t>PILATAXI UTRERAS KATHERIN JULIETH</t>
@@ -1145,7 +1145,7 @@
     <t>katherin.pilataxi.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>!k/oJSoe</t>
+    <t>?#sFvJ?Z</t>
   </si>
   <si>
     <t>PINARGOTE CARREÑO FELIX JOEL</t>
@@ -1154,7 +1154,7 @@
     <t>felix.pinargote.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>H#F/Uz!V</t>
+    <t>qLAzSOIt</t>
   </si>
   <si>
     <t>PONCE ZAMBRANO ARIANA JESSENIA</t>
@@ -1163,7 +1163,7 @@
     <t>ariana.ponce.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>d4hWHLwX</t>
+    <t>7T49y1UD</t>
   </si>
   <si>
     <t>QUINATOA SIMALIZA KELLY MARIUXI</t>
@@ -1172,7 +1172,7 @@
     <t>kelly.quinatoa.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>i3#kh9H2</t>
+    <t>QH#Rn82?</t>
   </si>
   <si>
     <t>ROSADO ROSADO JOEL JESUS</t>
@@ -1181,7 +1181,7 @@
     <t>joel.rosado.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>CrIZpEWN</t>
+    <t>T3tt8vvg</t>
   </si>
   <si>
     <t>SANMARTIN TAPIA CARMEN EDITH</t>
@@ -1190,7 +1190,7 @@
     <t>carmen.sanmartin.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>YtkudgLU</t>
+    <t>Qxg8&amp;iTK</t>
   </si>
   <si>
     <t>SAYAY DAGUA JOSELYN NICOL</t>
@@ -1202,7 +1202,7 @@
     <t>joselyn.sayay.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>G25fdh08</t>
+    <t>dbWojRUP</t>
   </si>
   <si>
     <t>SOLORZANO PAZMIÑO DECCY DANIELA</t>
@@ -1211,7 +1211,7 @@
     <t>deccy.solorzano.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>3gc/3A3s</t>
+    <t>NIF8Ma/k</t>
   </si>
   <si>
     <t>VERGARA ZAMBRANO MATIAS ALEXANDER</t>
@@ -1220,7 +1220,7 @@
     <t>matias.vergara.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>pBBlrktC</t>
+    <t>?exOA8#M</t>
   </si>
   <si>
     <t>ZAMBRANO INTRIAGO FRAYDA JESSENIA</t>
@@ -1229,7 +1229,7 @@
     <t>frayda.zambrano.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>w/z1jHln</t>
+    <t>lkHka7gV</t>
   </si>
   <si>
     <t>ZAMBRANO VALAREZO ANDREA LISBETH</t>
@@ -1238,7 +1238,7 @@
     <t>andrea.zambrano.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>kCApBu4h</t>
+    <t>HeAb5nS9</t>
   </si>
   <si>
     <t>AGUAS MARTINEZ KEVIN SNAIDER</t>
@@ -1247,7 +1247,7 @@
     <t>kevin.aguas@espam.edu.ec</t>
   </si>
   <si>
-    <t>SUlRAfrU</t>
+    <t>bQJI&amp;9Ky</t>
   </si>
   <si>
     <t>ANDRADE GARCIA LUZ CRUCELINA</t>
@@ -1256,7 +1256,7 @@
     <t>luz.andrade.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>si2Zar02</t>
+    <t>oJq8BbEo</t>
   </si>
   <si>
     <t>BARBERAN MERO HELEN ADRIANA</t>
@@ -1265,7 +1265,7 @@
     <t>helen.barberan.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>FqCg2#dR</t>
+    <t>ZzKc5r#W</t>
   </si>
   <si>
     <t>BARROS ZAMBRANO DANIEL ANGEL</t>
@@ -1274,7 +1274,7 @@
     <t>daniel.barros.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>huJs#8#5</t>
+    <t>E3hZ!UqT</t>
   </si>
   <si>
     <t>BASURTO ZAMBRANO CARLOS RAUL</t>
@@ -1283,7 +1283,7 @@
     <t>carlos.basurto.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>S#1GXPvS</t>
+    <t>yukMFXAp</t>
   </si>
   <si>
     <t>BRAVO BRAVO ANTHONY ADEMIR</t>
@@ -1292,7 +1292,7 @@
     <t>anthony.bravo.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>1A7J/iIB</t>
+    <t>8ZbxhZ#i</t>
   </si>
   <si>
     <t>CANTOS VERA ANGELA AUXILIADORA</t>
@@ -1301,7 +1301,7 @@
     <t>angela.cantos.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>?aRm54Jb</t>
+    <t>u?8bU1px</t>
   </si>
   <si>
     <t>CASTRO BOLAÑO FANNY TATIANA</t>
@@ -1310,7 +1310,7 @@
     <t>fanny.castro.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>qT!htCg3</t>
+    <t>E6fVccje</t>
   </si>
   <si>
     <t>CASTRO SALTOS MATTEWS FARID</t>
@@ -1319,7 +1319,7 @@
     <t>mattews.castro.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>OkqoU3&amp;k</t>
+    <t>dTwGHU1R</t>
   </si>
   <si>
     <t>CHANCAY RADE ANTONY GABRIEL</t>
@@ -1328,7 +1328,7 @@
     <t>antony.chancay@espam.edu.ec</t>
   </si>
   <si>
-    <t>hwH10UAm</t>
+    <t>6V4W4YVJ</t>
   </si>
   <si>
     <t>COBEÑA GARCIA YOMAYRA ALEXANDRA</t>
@@ -1337,7 +1337,7 @@
     <t>yomayra.cobena.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>H4w?K8kd</t>
+    <t>tVyoD3P3</t>
   </si>
   <si>
     <t>CRUZ ERAZO JOSE MIGUEL</t>
@@ -1346,7 +1346,7 @@
     <t>jose.cruz.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>bjKL&amp;T4J</t>
+    <t>6uLglcTk</t>
   </si>
   <si>
     <t>GARCIA ANDRADE MARIA ROSA</t>
@@ -1355,7 +1355,7 @@
     <t>maria.garcia.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>o3x1nxrT</t>
+    <t>!hk#r5/Q</t>
   </si>
   <si>
     <t>HERNANDEZ LOPEZ LUIS DAVID</t>
@@ -1364,7 +1364,7 @@
     <t>luis.hernandez.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>oEfYAl&amp;t</t>
+    <t>2gfJn2xb</t>
   </si>
   <si>
     <t>LEON FUENTES JONATHAN ALBINO</t>
@@ -1376,7 +1376,7 @@
     <t>jonathan.leon.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>X4Kv6btE</t>
+    <t>/H8?&amp;rs4</t>
   </si>
   <si>
     <t>MACIAS ANCHUNDIA ROBERTO CARLOS</t>
@@ -1385,7 +1385,7 @@
     <t>roberto.macias.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>yqn?ZhVe</t>
+    <t>YC&amp;4ko!a</t>
   </si>
   <si>
     <t>MAZA AGREDA KAREN IBETH</t>
@@ -1394,7 +1394,7 @@
     <t>karen.maza.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>AKWZa!6!</t>
+    <t>R/OztPt8</t>
   </si>
   <si>
     <t>MUÑOZ MERA LITZY ALEJANDRA</t>
@@ -1403,7 +1403,7 @@
     <t>litzy.munoz.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>G4Yo1ow1</t>
+    <t>foOtdGy0</t>
   </si>
   <si>
     <t>MUÑOZ MOLINA ANDRY FABIAN</t>
@@ -1412,7 +1412,7 @@
     <t>andry.munoz.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>sMvElRW1</t>
+    <t>OIJZyNXX</t>
   </si>
   <si>
     <t>ORMAZA VALENCIA KEVIN JAVIER</t>
@@ -1424,7 +1424,7 @@
     <t>kevin.ormaza.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>ahi3yiv!</t>
+    <t>G3H5/AK4</t>
   </si>
   <si>
     <t>PAZMIÑO PINCAY NAYELLY AGUSTINA</t>
@@ -1433,7 +1433,7 @@
     <t>nayelly.pazmino.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>v9W2X7A#</t>
+    <t>PySeRQsA</t>
   </si>
   <si>
     <t>POZO PONCE DANNY IVAN</t>
@@ -1442,7 +1442,7 @@
     <t>danny.pozo@espam.edu.ec</t>
   </si>
   <si>
-    <t>giWktq?E</t>
+    <t>6Yuj4L8A</t>
   </si>
   <si>
     <t>QUIJANO MEZA MARIANA LISETH</t>
@@ -1451,7 +1451,7 @@
     <t>mariana.quijano.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>7Y0Nr9t9</t>
+    <t>71q3XZ!Y</t>
   </si>
   <si>
     <t>QUIÑONEZ AÑAPA RODRIGO MANUEL</t>
@@ -1463,7 +1463,7 @@
     <t>rodrigo.quinonez.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>pdQTR?!!</t>
+    <t>pwggZad2</t>
   </si>
   <si>
     <t>SANTOS ALCIVAR KELVIN YOEL</t>
@@ -1472,7 +1472,7 @@
     <t>kelvin.santos.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>0WMF/Op6</t>
+    <t>zCm?bt3L</t>
   </si>
   <si>
     <t>SOLORZANO RODRIGUEZ SANDY</t>
@@ -1481,7 +1481,7 @@
     <t>sandy.solorzano.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>KVJVqpkP</t>
+    <t>Bzrdll7k</t>
   </si>
   <si>
     <t>TOALA PIN ARIEL ALEJANDRO</t>
@@ -1493,7 +1493,7 @@
     <t>ariel.toala.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>&amp;H48SEhH</t>
+    <t>pD?&amp;luqO</t>
   </si>
   <si>
     <t>VEGA INTRIAGO MIGUEL ANGEL</t>
@@ -1502,7 +1502,7 @@
     <t>miguel.vega.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>9QXoh6SJ</t>
+    <t>i7cojcSD</t>
   </si>
   <si>
     <t>VELASQUEZ RODRIGUEZ GEMA BELEN</t>
@@ -1511,7 +1511,7 @@
     <t>gema.velasquez.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>YPKI7vir</t>
+    <t>XlXMPrms</t>
   </si>
   <si>
     <t>VERA MENDOZA MARIA VICTORIA</t>
@@ -1520,7 +1520,7 @@
     <t>maria.veram.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>kYhgMaaQ</t>
+    <t>ngzHgyI#</t>
   </si>
   <si>
     <t>VERA PALACIOS JORDANO SAUL</t>
@@ -1529,7 +1529,7 @@
     <t>jordano.vera.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>HDO4lzMt</t>
+    <t>iMM/zjRw</t>
   </si>
   <si>
     <t>ZAMBRANO MERA VALENTINA MONSERRATE</t>
@@ -1538,7 +1538,7 @@
     <t>valentina.zambrano.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>YOG86eb#</t>
+    <t>YHVkvAmC</t>
   </si>
   <si>
     <t>ZAMBRANO QUIMI JUAN GEORGE</t>
@@ -1550,7 +1550,7 @@
     <t>juan.zambrano.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>&amp;ct!iwDL</t>
+    <t>HrRHuNAR</t>
   </si>
   <si>
     <t>ALCIVAR ZAMBRANO GEOMAYRA KATHERINE</t>
@@ -1562,7 +1562,7 @@
     <t>geomayra.alcivar.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>3LsBrggh</t>
+    <t>wmb4p/zd</t>
   </si>
   <si>
     <t>ANDRADE CASTILLO CLAUDIA VICTORIA</t>
@@ -1571,7 +1571,7 @@
     <t>claudia.andrade.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>i00b4YsO</t>
+    <t>iWmqzdU6</t>
   </si>
   <si>
     <t>ANGUISACA CUENCA ALEXANDRA CECIBEL</t>
@@ -1580,7 +1580,7 @@
     <t>alexandra.anguisaca.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>vI3?&amp;Knx</t>
+    <t>wb&amp;i2#G3</t>
   </si>
   <si>
     <t>BARIAS GUARACA LESLY NAYHELY</t>
@@ -1589,7 +1589,7 @@
     <t>lesly.barias.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>To/0XFIA</t>
+    <t>8elRWxjs</t>
   </si>
   <si>
     <t>BARROS VERA ANGEL DAVID</t>
@@ -1598,7 +1598,7 @@
     <t>angel.barros.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>BCUHUyGg</t>
+    <t>glBdfBMu</t>
   </si>
   <si>
     <t>BAZURTO SANTOS KENNIA KATHERINE</t>
@@ -1607,7 +1607,7 @@
     <t>kennia.bazurto.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>2cjIIMn4</t>
+    <t>7qTlePSf</t>
   </si>
   <si>
     <t>BRAVO BAZURTO GISSELA MARIA</t>
@@ -1616,7 +1616,7 @@
     <t>gissela.bravo.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>QFfq?xrN</t>
+    <t>vNtiYOXJ</t>
   </si>
   <si>
     <t>BUSTAMANTE YANEZ ANTHONY MICHEL</t>
@@ -1625,7 +1625,7 @@
     <t>anthony.bustamante.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>uaLCQ/OE</t>
+    <t>I?//LxW#</t>
   </si>
   <si>
     <t>CASTRO SOLORZANO NIURKA JULIANA</t>
@@ -1634,7 +1634,7 @@
     <t>niurka.castro.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>kK27Vgeg</t>
+    <t>rR4dw/ev</t>
   </si>
   <si>
     <t>CEDEÑO CEDEÑO YOHANA VANESA</t>
@@ -1643,7 +1643,7 @@
     <t>yohana.cedeno.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>M0/nyK8!</t>
+    <t>jIb3LDdU</t>
   </si>
   <si>
     <t>CEDEÑO INTRIAGO JEAN PIERRE</t>
@@ -1652,7 +1652,7 @@
     <t>jean.cedeno@espam.edu.ec</t>
   </si>
   <si>
-    <t>GCjQA6gy</t>
+    <t>FngHGtio</t>
   </si>
   <si>
     <t>DELGADO CEVALLOS MARIA JOSE</t>
@@ -1661,7 +1661,7 @@
     <t>maria.delgado.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>vzRPFKIm</t>
+    <t>qUv2s2fl</t>
   </si>
   <si>
     <t>ERAZO MORALES GABRIELA ALEJANDRA</t>
@@ -1670,7 +1670,7 @@
     <t>gabriela.erazo.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>8YKIx2Zo</t>
+    <t>OS0A&amp;Ucp</t>
   </si>
   <si>
     <t>INTRIAGO ZAMBRANO LUIS JOSE</t>
@@ -1679,7 +1679,7 @@
     <t>luis.intriagoz.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>BnVzC95W</t>
+    <t>F7Xpk2NZ</t>
   </si>
   <si>
     <t>LOOR ORTIZ YORDY DAVID</t>
@@ -1688,7 +1688,7 @@
     <t>yordy.loor.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>TI1ohG&amp;c</t>
+    <t>!dCQwa&amp;4</t>
   </si>
   <si>
     <t>LOZANO GAMEZ THALIA VANESSA</t>
@@ -1700,7 +1700,7 @@
     <t>thalia.lozano.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>GuseefYW</t>
+    <t>YbJ47yPx</t>
   </si>
   <si>
     <t>MONTES RODRIGUEZ ROLANDO ANTONIO</t>
@@ -1709,7 +1709,7 @@
     <t>rolando.montes.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>CPm2G5ew</t>
+    <t>1I0fNkcK</t>
   </si>
   <si>
     <t>PALMA RENDON ARGENIS ARTURO</t>
@@ -1718,7 +1718,7 @@
     <t>argenis.palma@espam.edu.ec</t>
   </si>
   <si>
-    <t>XXxHoRkG</t>
+    <t>Lws4wymU</t>
   </si>
   <si>
     <t>PAREDES YUMBILLO KATTY MARGOTH</t>
@@ -1730,7 +1730,7 @@
     <t>katty.paredes.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>9uM/ttqY</t>
+    <t>Q8ukFXZ6</t>
   </si>
   <si>
     <t>PARRALES DELGADO ALAN SEBASTIAN</t>
@@ -1739,7 +1739,7 @@
     <t>alan.parrales.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>gdyKZdw!</t>
+    <t>U9gbg&amp;nr</t>
   </si>
   <si>
     <t>PATA CEDEÑO ROSA JUANA</t>
@@ -1751,7 +1751,7 @@
     <t>rosa.pata.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>zlbbhXmT</t>
+    <t>&amp;BrbqOjf</t>
   </si>
   <si>
     <t>RETETE BASARAN KEVIN ALEXANDER</t>
@@ -1760,7 +1760,7 @@
     <t>kevin.retete.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>z?/LZ/tP</t>
+    <t>T&amp;ZyFXyv</t>
   </si>
   <si>
     <t>ROMAN MACIAS ESTEFANIA ISABEL</t>
@@ -1769,7 +1769,7 @@
     <t>estefania.roman.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>jigGG5fo</t>
+    <t>Z69jdBO/</t>
   </si>
   <si>
     <t>SANDOVAL UREÑA FERNANDA DAYANARA</t>
@@ -1781,7 +1781,7 @@
     <t>fernanda.sandoval.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>7hXS7&amp;/o</t>
+    <t>06UUz0SL</t>
   </si>
   <si>
     <t>SUBIAGA RAMOS LUIS ALEJANDRO</t>
@@ -1790,7 +1790,7 @@
     <t>luis.subiaga.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>wl1iImpp</t>
+    <t>UWa&amp;UfbM</t>
   </si>
   <si>
     <t>VELASQUEZ AVEIGA MARIA JESUS</t>
@@ -1799,7 +1799,7 @@
     <t>maria.velasquez.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>gyawBlXb</t>
+    <t>uPPDAm6z</t>
   </si>
   <si>
     <t>VELEZ CHEME JORDAN ESTEBAN</t>
@@ -1811,7 +1811,7 @@
     <t>jordan.velez.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>D&amp;xaalmp</t>
+    <t>p7oy2olk</t>
   </si>
   <si>
     <t>VELEZ MENDOZA DARWIN ALEXIS</t>
@@ -1820,7 +1820,7 @@
     <t>darwin.velez.4623@espam.edu.ec</t>
   </si>
   <si>
-    <t>vWbmwa&amp;Z</t>
+    <t>8RuZZZSC</t>
   </si>
   <si>
     <t>VERA BARRE RONNY ARISTIDES</t>
@@ -1829,7 +1829,7 @@
     <t>ronny.vera.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>cVmEvNn#</t>
+    <t>/CILGm5L</t>
   </si>
   <si>
     <t>ZAMBRANO MACIAS DIEGO ANDRES</t>
@@ -1838,7 +1838,7 @@
     <t>diego.zambrano.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>fRjtwimi</t>
+    <t>ZsGBzM7w</t>
   </si>
   <si>
     <t>ZAMBRANO REYNA YERSY ENRIQUE</t>
@@ -1847,7 +1847,7 @@
     <t>yersy.zambrano.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>01enbuJG</t>
+    <t>FHFMhuYs</t>
   </si>
   <si>
     <t>CARDENAS MIELES CRISTHYAN ALBERTO</t>
@@ -1856,7 +1856,7 @@
     <t>cristhyan.cardenas.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>NXOuvKxL</t>
+    <t>QbZQ/r&amp;?</t>
   </si>
   <si>
     <t>CASTRO CARRERA JUAN CARLOS</t>
@@ -1865,7 +1865,7 @@
     <t>juan.castro.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>jIMUZpD0</t>
+    <t>37zDzLxZ</t>
   </si>
   <si>
     <t>CHAVEZ MIRANDA ANTHONY MIGUEL</t>
@@ -1874,7 +1874,7 @@
     <t>anthony.chavez@espam.edu.ec</t>
   </si>
   <si>
-    <t>7KW&amp;4bER</t>
+    <t>BKldHyEC</t>
   </si>
   <si>
     <t>CUSME ZAMBRANO MICHAEL RICHARD</t>
@@ -1883,7 +1883,7 @@
     <t>michael.cusme.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>/?doa7we</t>
+    <t>Sh8BzO/J</t>
   </si>
   <si>
     <t>GILER SALAZAR CARLOS IGNACIO</t>
@@ -1892,7 +1892,7 @@
     <t>carlos.giler@espam.edu.ec</t>
   </si>
   <si>
-    <t>H2xAzCOm</t>
+    <t>b6DFnCpy</t>
   </si>
   <si>
     <t>HERNANDEZ DIAZ MARIA JOSE</t>
@@ -1904,7 +1904,7 @@
     <t>maria.hernandez.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>FdWRWe#k</t>
+    <t>SBWnjS3g</t>
   </si>
   <si>
     <t>HIDALGO MOREIRA ESTELA NATHALY</t>
@@ -1913,7 +1913,7 @@
     <t>estela.hidalgo.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>#nXC7pxP</t>
+    <t>ASZI47qd</t>
   </si>
   <si>
     <t>HIDALGO MOREIRA PIERINA NATHALY</t>
@@ -1922,7 +1922,7 @@
     <t>pierina.hidalgo.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>Cvj57tWp</t>
+    <t>yl3V?xmY</t>
   </si>
   <si>
     <t>LARA QUIJIJE PAMELA JULISSA</t>
@@ -1931,7 +1931,7 @@
     <t>pamela.lara.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>7IX98zqr</t>
+    <t>D/#FFkpu</t>
   </si>
   <si>
     <t>LOOR PITIZACA FRANK ALLAN</t>
@@ -1940,7 +1940,7 @@
     <t>frank.loor.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>MiB!vAah</t>
+    <t>N&amp;Ymi7x9</t>
   </si>
   <si>
     <t>LOOR ZAMBRANO GEMA STEFANIA</t>
@@ -1949,7 +1949,7 @@
     <t>gema.loor.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>bnLbVsL9</t>
+    <t>7!?P2BAc</t>
   </si>
   <si>
     <t>PALACIOS TAPIA CESAR XAVIER</t>
@@ -1958,7 +1958,7 @@
     <t>cesar.palacios.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>/sK9Qr?&amp;</t>
+    <t>1BMpqu35</t>
   </si>
   <si>
     <t>PEÑARRETA LANCHE PILAR MICAELA</t>
@@ -1967,7 +1967,7 @@
     <t>pilar.penarreta.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>0l52q0Gc</t>
+    <t>ohHeeOmg</t>
   </si>
   <si>
     <t>PILLASAGUA PINARGOTE INGRID MAYERLI</t>
@@ -1979,7 +1979,7 @@
     <t>ingrid.pillasagua.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>R9WoNxy0</t>
+    <t>yPz27lb&amp;</t>
   </si>
   <si>
     <t>QUIJIJE CEDEÑO GEMA LISBETH</t>
@@ -1988,7 +1988,7 @@
     <t>gema.quijije.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>zhWYX6bo</t>
+    <t>IG7CyAfl</t>
   </si>
   <si>
     <t>RUIZ ZAMBRANO VICTOR ANDRES</t>
@@ -1997,7 +1997,7 @@
     <t>victor.ruiz.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>8m2&amp;rw#h</t>
+    <t>YDrXw2yc</t>
   </si>
   <si>
     <t>SALTOS SALAZAR MAYERLY VERONICA</t>
@@ -2009,7 +2009,7 @@
     <t>mayerly.saltos.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>52/XgH95</t>
+    <t>dqT#0KOW</t>
   </si>
   <si>
     <t>SANTANA PALOMINO FRANKLIN JOHAO</t>
@@ -2018,7 +2018,7 @@
     <t>franklin.santana.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>PZ3fa2sz</t>
+    <t>9SB3kCMH</t>
   </si>
   <si>
     <t>TAFFUR TOASA OLGA MARIA</t>
@@ -2027,7 +2027,7 @@
     <t>olga.taffur@espam.edu.ec</t>
   </si>
   <si>
-    <t>8KXHhq2d</t>
+    <t>!g6pZYow</t>
   </si>
   <si>
     <t>TOALA MACAY JOSSELYN VALERIA</t>
@@ -2036,7 +2036,7 @@
     <t>josselyn.toala.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>6zKNeKxv</t>
+    <t>dXhHYlQi</t>
   </si>
   <si>
     <t>VALLADARES ALCIVAR LUIS EDUARDO</t>
@@ -2045,7 +2045,7 @@
     <t>luis.valladares@espam.edu.ec</t>
   </si>
   <si>
-    <t>LYvMEcjV</t>
+    <t>42qVjBo#</t>
   </si>
   <si>
     <t>VERA ZAMBRANO HILTER JOSSBEL</t>
@@ -2054,7 +2054,7 @@
     <t>hilter.vera.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>uu8HrhS7</t>
+    <t>JQh31qr8</t>
   </si>
   <si>
     <t>VERGARA TABOADA ROMEL ALEXANDER</t>
@@ -2063,7 +2063,7 @@
     <t>romel.vergara@espam.edu.ec</t>
   </si>
   <si>
-    <t>db3eAvan</t>
+    <t>mL4sOsov</t>
   </si>
   <si>
     <t>ZAMBRANO RIVAS NALLELY LISBETH</t>
@@ -2072,7 +2072,7 @@
     <t>nallely.zambrano.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>vpiR6Dow</t>
+    <t>?#ptVFwj</t>
   </si>
   <si>
     <t>ABAD MIRANDA KENYA ESTEFANIA</t>
@@ -2084,7 +2084,7 @@
     <t>kenya.abad.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>OqXzk71h</t>
+    <t>dCJnEXAC</t>
   </si>
   <si>
     <t>ALAVA MORENO MILTON ANTERO</t>
@@ -2093,7 +2093,7 @@
     <t>milton.alava@espam.edu.ec</t>
   </si>
   <si>
-    <t>0oTxh90Y</t>
+    <t>qhmqZ&amp;Pw</t>
   </si>
   <si>
     <t>ALMEIDA CEDEÑO CINDY BELEN</t>
@@ -2102,7 +2102,7 @@
     <t>cindy.almeida.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>L9RBG63h</t>
+    <t>5YV!q7tE</t>
   </si>
   <si>
     <t>ANCHUNDIA VERA JUSTIN JOSE</t>
@@ -2111,7 +2111,7 @@
     <t>justin.anchundia.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>8#3YQuw3</t>
+    <t>6ou?aS?d</t>
   </si>
   <si>
     <t>AYONG PALADINES MARIA FERNANDA</t>
@@ -2120,7 +2120,7 @@
     <t>maria.ayong.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>p?gN?hp9</t>
+    <t>KNBPN4V3</t>
   </si>
   <si>
     <t>BRAVO CEVALLOS MELANY PIERINA</t>
@@ -2129,7 +2129,7 @@
     <t>melany.bravo.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>N3OfIKYP</t>
+    <t>lpR4Am0b</t>
   </si>
   <si>
     <t>CASANOVA SALAZAR ROSEMBERG STEVEN</t>
@@ -2138,7 +2138,7 @@
     <t>rosemberg.casanova@espam.edu.ec</t>
   </si>
   <si>
-    <t>PNlX?wdR</t>
+    <t>07dp!e/A</t>
   </si>
   <si>
     <t>FERNANDEZ TORRES JALENI SCARLETH</t>
@@ -2150,7 +2150,7 @@
     <t>jaleni.fernandez.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>K4rAzbrf</t>
+    <t>J?2cDnU!</t>
   </si>
   <si>
     <t>HERRERA SABANDO WILLIAMS ANDRES</t>
@@ -2159,7 +2159,7 @@
     <t>williams.herrera.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>1mjfP/ln</t>
+    <t>Ml&amp;QfRti</t>
   </si>
   <si>
     <t>LOPEZ PALADINES EDGAR JOSE</t>
@@ -2168,7 +2168,7 @@
     <t>edgar.lopez.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>0w8Z#dPi</t>
+    <t>!g!MQuN!</t>
   </si>
   <si>
     <t>MEDRANDA GONZALES LINCI YERLEY</t>
@@ -2177,7 +2177,7 @@
     <t>linci.medranda.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>x2lliGY!</t>
+    <t>jMGG8iXK</t>
   </si>
   <si>
     <t>MENDIETA GILER JORDY EDUARDO</t>
@@ -2186,7 +2186,7 @@
     <t>jordy.mendieta.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>uM3hvSix</t>
+    <t>i1!/06wf</t>
   </si>
   <si>
     <t>MORENO VELIZ ALDRIN DAIRY</t>
@@ -2195,7 +2195,7 @@
     <t>aldrin.moreno.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>&amp;pgp02WI</t>
+    <t>4W2jah?4</t>
   </si>
   <si>
     <t>MUÑOZ VERA GENESIS LOURDES</t>
@@ -2204,7 +2204,7 @@
     <t>genesis.munoz.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>o3ZdvIBL</t>
+    <t>ZjTz&amp;wbn</t>
   </si>
   <si>
     <t>PLAZA CHOEZ RODOLFO JEAMPIERRE</t>
@@ -2213,7 +2213,7 @@
     <t>rodolfo.plaza.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>A9z0NxIz</t>
+    <t>8GidTJZg</t>
   </si>
   <si>
     <t>PRECIADO MOREIRA PABLO ANTHONY</t>
@@ -2225,7 +2225,7 @@
     <t>pablo.preciado@espam.edu.ec</t>
   </si>
   <si>
-    <t>?4h1tavG</t>
+    <t>9SegUDAX</t>
   </si>
   <si>
     <t>SABANDO SALCEDO GENESIS BETZABETH</t>
@@ -2237,7 +2237,7 @@
     <t>genesis.sabando.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>PJ0zdCJY</t>
+    <t>MFNloE3F</t>
   </si>
   <si>
     <t>SOLEDISPA ZAMBRANO CRISTHINA ISABELA</t>
@@ -2246,7 +2246,7 @@
     <t>cristhina.soledispa.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>7o9tR/TP</t>
+    <t>MTFF6Oiy</t>
   </si>
   <si>
     <t>SOLORZANO RODRIGUEZ EVELYN AGUSTINA</t>
@@ -2255,7 +2255,7 @@
     <t>evelyn.solorzanor@espam.edu.ec</t>
   </si>
   <si>
-    <t>1JO1yJB7</t>
+    <t>XGUoBdsz</t>
   </si>
   <si>
     <t>VERA AGUAS KELVIN JEAN PIERRE</t>
@@ -2264,7 +2264,7 @@
     <t>kelvin.vera@espam.edu.ec</t>
   </si>
   <si>
-    <t>KeEogyLR</t>
+    <t>qjRBZ?yX</t>
   </si>
   <si>
     <t>VERA LOOR DENYS ESTEFANIA</t>
@@ -2273,7 +2273,7 @@
     <t>denys.vera.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>6SKa&amp;XAT</t>
+    <t>AkoM09Zm</t>
   </si>
   <si>
     <t>VINCES PIN MARIA FERNANDA</t>
@@ -2282,7 +2282,7 @@
     <t>maria.vinces.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>&amp;0YZcMXO</t>
+    <t>5/x?0NyB</t>
   </si>
   <si>
     <t>ZAMBRANO ZAMBRANO MARIA BELEN</t>
@@ -2291,7 +2291,7 @@
     <t>mariab.zambranoz.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>b#Y?gc8q</t>
+    <t>VjzJzMQ2</t>
   </si>
   <si>
     <t>ALCIVAR ZAMBRANO DIANA ESTHER</t>
@@ -2300,7 +2300,7 @@
     <t>diana.alcivar.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>0m991evW</t>
+    <t>eNwM?mNQ</t>
   </si>
   <si>
     <t>ALVAREZ BORJA ANGHELO JOSUE</t>
@@ -2309,7 +2309,7 @@
     <t>anghelo.alvarez.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>nMKuSupp</t>
+    <t>E42gHCtP</t>
   </si>
   <si>
     <t>BRAVO MENDOZA ALBERDY JAVIER</t>
@@ -2318,7 +2318,7 @@
     <t>alberdy.bravo@espam.edu.ec</t>
   </si>
   <si>
-    <t>cnJLjrhm</t>
+    <t>OBwjR!TV</t>
   </si>
   <si>
     <t>GARCIA PARRAGA FATIMA MARIA</t>
@@ -2327,7 +2327,7 @@
     <t>fatima.garcia.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>RNfK!ocR</t>
+    <t>Ln&amp;xGs6T</t>
   </si>
   <si>
     <t>GRACIA PRATT WILINTON JOSUE</t>
@@ -2339,7 +2339,7 @@
     <t>wilinton.gracia.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>0/R0DV&amp;N</t>
+    <t>!?C?JrGM</t>
   </si>
   <si>
     <t>MARRETT BEDOYA MISHELLE MARCELA</t>
@@ -2351,7 +2351,7 @@
     <t>mishelle.marrett.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>2Z4U8sxM</t>
+    <t>kF2sO0Re</t>
   </si>
   <si>
     <t>MERA CASTILLO NATHALY VIRGINIA</t>
@@ -2360,7 +2360,7 @@
     <t>nathaly.mera.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>BEaWbJFq</t>
+    <t>kQ0D21s#</t>
   </si>
   <si>
     <t>ROSERO VERA LUIS ANDRES</t>
@@ -2369,7 +2369,7 @@
     <t>luis.rosero@espam.edu.ec</t>
   </si>
   <si>
-    <t>Tdi?Zumj</t>
+    <t>zOpFlsb9</t>
   </si>
   <si>
     <t>SANTISTEBAN BENAVIDES JOSUE ROMARIO</t>
@@ -2378,7 +2378,7 @@
     <t>josue.santisteban.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>M0xinJWP</t>
+    <t>Vg1po2Es</t>
   </si>
   <si>
     <t>SOLORZANO CUSME GEMA JULIANA</t>
@@ -2387,7 +2387,7 @@
     <t>gemaju.solorzano@espam.edu.ec</t>
   </si>
   <si>
-    <t>!SICDB#c</t>
+    <t>kpzMyVV0</t>
   </si>
   <si>
     <t>TORRES PINARGOTE MAHOLY</t>
@@ -2396,7 +2396,7 @@
     <t>maholy.torres.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>OzgiHl3S</t>
+    <t>ALx/Tn63</t>
   </si>
   <si>
     <t>ZAMBRANO BRAVO LEANDRO ISMAEL</t>
@@ -2405,7 +2405,7 @@
     <t>leandro.zambrano.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>wTxN4NdO</t>
+    <t>gtwt?g2k</t>
   </si>
   <si>
     <t>ZAMBRANO GARCIA HENRY ARTURO</t>
@@ -2414,7 +2414,7 @@
     <t>henry.zambrano.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>/9hDW#FP</t>
+    <t>aeMVlAF2</t>
   </si>
   <si>
     <t>BARRE PARRAGA BETSY BEATRIZ</t>
@@ -2423,7 +2423,7 @@
     <t>betsy.barre.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>imFJ0oPS</t>
+    <t>ip/ozQ/g</t>
   </si>
   <si>
     <t>CEDEÑO CEDEÑO CAMILA PATRICIA</t>
@@ -2435,7 +2435,7 @@
     <t>camila.cedeno.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>ZMKEBtrl</t>
+    <t>rxvZ6Fjg</t>
   </si>
   <si>
     <t>CEDEÑO SOLORZANO ANTHONY STEVEN</t>
@@ -2444,7 +2444,7 @@
     <t>anthony.cedenos.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>esQA#w22</t>
+    <t>v05j32We</t>
   </si>
   <si>
     <t>CEDEÑO TUAREZ ANGIE LISSETTE</t>
@@ -2453,7 +2453,7 @@
     <t>angie.cedeno@espam.edu.ec</t>
   </si>
   <si>
-    <t>Pxw4rXeU</t>
+    <t>1gO/8Rdu</t>
   </si>
   <si>
     <t>CHAVEZ LANDAZURI JACKSON JAIR</t>
@@ -2465,7 +2465,7 @@
     <t>jackson.chavez.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>tqalfwvZ</t>
+    <t>ybjY5HT/</t>
   </si>
   <si>
     <t>CHICA MOREIRA MARIA FERNANDA</t>
@@ -2474,7 +2474,7 @@
     <t>maria.chica.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>jYs6bKBc</t>
+    <t>yFeX3VEH</t>
   </si>
   <si>
     <t>GARCIA ZAMBRANO WENDY YAMILETH</t>
@@ -2483,7 +2483,7 @@
     <t>wendy.garcia.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>ybrek1lk</t>
+    <t>oDwKR8EE</t>
   </si>
   <si>
     <t>GARZON CEDEÑO FRANCESCO RUBEN</t>
@@ -2492,7 +2492,7 @@
     <t>francesco.garzon.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>b/b?7YbG</t>
+    <t>ivFs40ob</t>
   </si>
   <si>
     <t>GUERRERO CEDEÑO MICHAEL JORDY</t>
@@ -2501,7 +2501,7 @@
     <t>michael.guerrero.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>tcBxg6uU</t>
+    <t>7ywCpNjA</t>
   </si>
   <si>
     <t>MEDRANDA GONZALES CRISTHIAN JOSE</t>
@@ -2510,7 +2510,7 @@
     <t>cristhian.medranda@espam.edu.ec</t>
   </si>
   <si>
-    <t>yRkUBGvu</t>
+    <t>5elbrW6u</t>
   </si>
   <si>
     <t>ORELLANA ANCHUNDIA JESUS MIGUEL</t>
@@ -2519,7 +2519,7 @@
     <t>jesus.orellana@espam.edu.ec</t>
   </si>
   <si>
-    <t>D4CTBsd&amp;</t>
+    <t>!r6f#o9Q</t>
   </si>
   <si>
     <t>ORTIZ GOMEZ EDUARDO ANDRES</t>
@@ -2528,7 +2528,7 @@
     <t>eduardo.ortiz@espam.edu.ec</t>
   </si>
   <si>
-    <t>Yv/cMCr7</t>
+    <t>VENT6oDs</t>
   </si>
   <si>
     <t>PAZMIÑO MERA SHANDE ALEXANDER</t>
@@ -2537,7 +2537,7 @@
     <t>shande.pazmino.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>74xLaaJP</t>
+    <t>VGr!&amp;gu6</t>
   </si>
   <si>
     <t>PEÑARRIETA BAZURTO ERICK ANDRES</t>
@@ -2546,7 +2546,7 @@
     <t>erick.penarrieta@espam.edu.ec</t>
   </si>
   <si>
-    <t>xhi60Hdt</t>
+    <t>vdSrRRZm</t>
   </si>
   <si>
     <t>RIERA GAVILANES IZHURY MILLENYTH</t>
@@ -2558,7 +2558,7 @@
     <t>izhury.riera.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>wDqy?15i</t>
+    <t>xu64tgxF</t>
   </si>
   <si>
     <t>RIVERA CEDEÑO RIVALDO JOSE</t>
@@ -2570,7 +2570,7 @@
     <t>rivaldo.rivera.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>TNjIk81t</t>
+    <t>2MdM5O81</t>
   </si>
   <si>
     <t>SALDARRIAGA ARTEAGA OMAIRA MARIBI</t>
@@ -2579,7 +2579,7 @@
     <t>omaira.saldarriaga@espam.edu.ec</t>
   </si>
   <si>
-    <t>5bpmjQ&amp;G</t>
+    <t>IVMjwqUl</t>
   </si>
   <si>
     <t>SANDOVAL MERA NALLELY STEFANIA</t>
@@ -2588,7 +2588,7 @@
     <t>nallely.sandoval.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>9C6nQkq5</t>
+    <t>3dgDhuOt</t>
   </si>
   <si>
     <t>SUQUI CANGO BRYAN EDUARDO</t>
@@ -2600,7 +2600,7 @@
     <t>bryan.suqui.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>zBmdybqs</t>
+    <t>vNxt2bQi</t>
   </si>
   <si>
     <t>VERDUGA ZAMBRANO CARLOS ANDRES</t>
@@ -2609,7 +2609,7 @@
     <t>carlos.verduga.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>4X34?9g1</t>
+    <t>IfVqvNZ5</t>
   </si>
   <si>
     <t>ZAMBRANO LARA MARVIN RENE</t>
@@ -2618,7 +2618,7 @@
     <t>marvin.zambrano.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>iM7#GKKy</t>
+    <t>drjo7!DQ</t>
   </si>
   <si>
     <t>ZAMBRANO OBANDO KELVIN JOSUE</t>
@@ -2630,7 +2630,7 @@
     <t>kelvin.zambrano.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>7z9RW96J</t>
+    <t>bf!m8Fk7</t>
   </si>
   <si>
     <t>ZAPATA QUINCHE ANDREA CAROLINA</t>
@@ -2639,7 +2639,7 @@
     <t>andrea.zapata.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>cj?X9ug6</t>
+    <t>YbQJhjia</t>
   </si>
   <si>
     <t>ALMEIDA PEREZ ANGEL FERNANDO</t>
@@ -2648,7 +2648,7 @@
     <t>angel.almeida@espam.edu.ec</t>
   </si>
   <si>
-    <t>eNqDDwVx</t>
+    <t>kEBE#zvu</t>
   </si>
   <si>
     <t>CEDEÑO PARRAGA MELANY NALLELY</t>
@@ -2657,7 +2657,7 @@
     <t>melany.cedeno.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>FQThX!jd</t>
+    <t>IV8?Ipbl</t>
   </si>
   <si>
     <t>CEDEÑO SALVATIERRA JENIFFER ALEJANDRA</t>
@@ -2666,7 +2666,7 @@
     <t>jeniffer.cedenosal@espam.edu.ec</t>
   </si>
   <si>
-    <t>s7UDPIbh</t>
+    <t>Pdbg0lDm</t>
   </si>
   <si>
     <t>FERNANDEZ ARTEAGA SCHEZNARDA EDITH</t>
@@ -2675,7 +2675,7 @@
     <t>scheznarda.fernandez.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>U9Aa6q?x</t>
+    <t>W04R3!Nm</t>
   </si>
   <si>
     <t>GANCHOZO VELEZ EMILY JULEXY</t>
@@ -2684,7 +2684,7 @@
     <t>emily.ganchozo.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>0Bw0TjEL</t>
+    <t>/hv99pzc</t>
   </si>
   <si>
     <t>LEON VIZÑAY ROQUE JAVIER</t>
@@ -2696,7 +2696,7 @@
     <t>roque.leon@espam.edu.ec</t>
   </si>
   <si>
-    <t>nTW3PBPE</t>
+    <t>6bTB0k7f</t>
   </si>
   <si>
     <t>LOOR LOOR EVELYN YAMILETH</t>
@@ -2705,7 +2705,7 @@
     <t>evelynya.loor@espam.edu.ec</t>
   </si>
   <si>
-    <t>tXqr!dH#</t>
+    <t>lYlZY1J3</t>
   </si>
   <si>
     <t>LOOR MOREIRA MELANIE NOEMI</t>
@@ -2714,7 +2714,7 @@
     <t>melanie.loorm.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>KWHTuZtY</t>
+    <t>sl/6kDG/</t>
   </si>
   <si>
     <t>LOPEZ ESTACIO ROSA ANGELICA</t>
@@ -2723,7 +2723,7 @@
     <t>rosa.lopez@espam.edu.ec</t>
   </si>
   <si>
-    <t>XhtMrlve</t>
+    <t>ypErebW#</t>
   </si>
   <si>
     <t>MENDOZA MUÑOZ FLOR ANTONELA</t>
@@ -2732,7 +2732,7 @@
     <t>flor.mendoza.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>I&amp;sOdW/E</t>
+    <t>#FgebR3/</t>
   </si>
   <si>
     <t>MERELO SOLORZANO NAIDELYN MISHELLE</t>
@@ -2741,7 +2741,7 @@
     <t>naidelyn.merelo.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>Z!IFkypV</t>
+    <t>aDqF8DkB</t>
   </si>
   <si>
     <t>MOREIRA LOOR FABIAN ALEXANDER</t>
@@ -2750,7 +2750,7 @@
     <t>fabian.moreira@espam.edu.ec</t>
   </si>
   <si>
-    <t>al1D0ama</t>
+    <t>!gpZ/JB5</t>
   </si>
   <si>
     <t>PAZMIÑO FALCONES JOSE MIGUEL</t>
@@ -2759,7 +2759,7 @@
     <t>jose.pazmino@espam.edu.ec</t>
   </si>
   <si>
-    <t>/&amp;i9AFxv</t>
+    <t>/thohO#r</t>
   </si>
   <si>
     <t>PEÑAFIEL PITA BRITHANNY MICAELA</t>
@@ -2771,7 +2771,7 @@
     <t>brithanny.penafiel.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>Ax/2O3Xa</t>
+    <t>lMmE!zof</t>
   </si>
   <si>
     <t>PINTO PALACIOS JOSE ANTONIO</t>
@@ -2780,7 +2780,7 @@
     <t>jose.pinto@espam.edu.ec</t>
   </si>
   <si>
-    <t>x8DmkXab</t>
+    <t>rnOfrHor</t>
   </si>
   <si>
     <t>RENTERIA VALENCIA NEURYS GYSSELA</t>
@@ -2792,7 +2792,7 @@
     <t>neurys.renteria@espam.edu.ec</t>
   </si>
   <si>
-    <t>jsMs7SaW</t>
+    <t>4UQ#mm3Z</t>
   </si>
   <si>
     <t>RIVAS ZAMBRANO ALISSON KATIUSKA</t>
@@ -2801,7 +2801,7 @@
     <t>alisson.rivas.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>G6iGzuKv</t>
+    <t>aDrEZkHh</t>
   </si>
   <si>
     <t>TORRES VARGAS KARELIS ANDREINA</t>
@@ -2813,7 +2813,7 @@
     <t>karelis.torres@espam.edu.ec</t>
   </si>
   <si>
-    <t>j5wTfXs/</t>
+    <t>B!5G2GZp</t>
   </si>
   <si>
     <t>VALDIVIESO CHUNG DANIEL JAFET</t>
@@ -2822,7 +2822,7 @@
     <t>daniel.valdivieso.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>c1f6rsr/</t>
+    <t>YBnVVdpX</t>
   </si>
   <si>
     <t>VASCONEZ GONZALEZ FRANCISCO ALESSIO</t>
@@ -2831,7 +2831,7 @@
     <t>francisco.vasconez.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>1Vr?PLrM</t>
+    <t>tbRtFM88</t>
   </si>
   <si>
     <t>VELEZ ORTEGA BORIS ANDRES</t>
@@ -2840,7 +2840,7 @@
     <t>boris.velez.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>T8?UlRry</t>
+    <t>B7y#ckKw</t>
   </si>
   <si>
     <t>VERA ESTUPIÑAN BRYAN FRANCISCO</t>
@@ -2849,7 +2849,7 @@
     <t>bryan.vera@espam.edu.ec</t>
   </si>
   <si>
-    <t>N6S97DIp</t>
+    <t>5!!9edm0</t>
   </si>
   <si>
     <t>VERA LOOR ARIANA PAOLA</t>
@@ -2858,7 +2858,7 @@
     <t>ariana.vera.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>i/o3e9/x</t>
+    <t>/2HTJ#pN</t>
   </si>
   <si>
     <t>ZAMBRANO VEGA AURA ARACELY</t>
@@ -2867,7 +2867,7 @@
     <t>aura.zambranov@espam.edu.ec</t>
   </si>
   <si>
-    <t>x/c5fLh!</t>
+    <t>P5ENaIxx</t>
   </si>
   <si>
     <t>ALMEIDA ZAMBRANO HALINTONG VICENTE</t>
@@ -2876,7 +2876,7 @@
     <t>halintong.almeida@espam.edu.ec</t>
   </si>
   <si>
-    <t>BfY4a#T4</t>
+    <t>wJI7buMX</t>
   </si>
   <si>
     <t>AYALA VILLAFUERTE NAHOMY NAYELY</t>
@@ -2885,7 +2885,7 @@
     <t>nahomy.ayala@espam.edu.ec</t>
   </si>
   <si>
-    <t>oAtKpWyf</t>
+    <t>K6Kv4DX7</t>
   </si>
   <si>
     <t>BASURTO CEDEÑO ITALO JORDANO</t>
@@ -2894,7 +2894,7 @@
     <t>italo.basurto.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>yi0yjRo1</t>
+    <t>MJFOf&amp;NU</t>
   </si>
   <si>
     <t>CASTRO TAIPE YERIK LEXANDER</t>
@@ -2903,7 +2903,7 @@
     <t>yerik.castro.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>1JsGdVRE</t>
+    <t>hOKU2UFn</t>
   </si>
   <si>
     <t>CEDEÑO GARCIA CARLOS PAUL</t>
@@ -2912,7 +2912,7 @@
     <t>carlos.cedeno.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>83WJQvsO</t>
+    <t>uJ#T#p#a</t>
   </si>
   <si>
     <t>COBEÑA ZAMBRANO EDIS ARIEL</t>
@@ -2921,7 +2921,7 @@
     <t>edis.cobena@espam.edu.ec</t>
   </si>
   <si>
-    <t>LkcgUZUV</t>
+    <t>Nmxu6?Bl</t>
   </si>
   <si>
     <t>CORDOVA MUGUERZA ADRIANA NICOLLE</t>
@@ -2930,7 +2930,7 @@
     <t>adriana.muguersa.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>tkk9VqBP</t>
+    <t>baTinZse</t>
   </si>
   <si>
     <t>COTERA PIN MAYERLY DAYANARA</t>
@@ -2939,7 +2939,7 @@
     <t>mayerly.cotera.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>gUd3nBu5</t>
+    <t>1y4!iiF9</t>
   </si>
   <si>
     <t>CUENCA CUSME CECILIA ALEXANDRA</t>
@@ -2948,7 +2948,7 @@
     <t>cecilia.cuenca@espam.edu.ec</t>
   </si>
   <si>
-    <t>cbVRkvu#</t>
+    <t>YB23RopG</t>
   </si>
   <si>
     <t>FERNANDEZ ARTEAGA ANGIE MISHELLE</t>
@@ -2957,7 +2957,7 @@
     <t>angie.fernandez.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>20&amp;mMpQs</t>
+    <t>#PqgPu&amp;H</t>
   </si>
   <si>
     <t>LATA QUINCHI SANDRA LOURDES</t>
@@ -2966,7 +2966,7 @@
     <t>sandra.lata.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>Ebs&amp;TWsC</t>
+    <t>lXVXinbt</t>
   </si>
   <si>
     <t>MEJICANGO CALLE JAZMIN LISBETH</t>
@@ -2978,7 +2978,7 @@
     <t>jazmin.mejicango.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>d/Gbwent</t>
+    <t>mIQPDV0v</t>
   </si>
   <si>
     <t>MENDOZA GANCHOZO DOMENICA NICOLE</t>
@@ -2987,7 +2987,7 @@
     <t>domenica.mendoza.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>l?r&amp;3nqJ</t>
+    <t>BEkR!UH6</t>
   </si>
   <si>
     <t>MOREIRA CEVALLOS NAYELY VANESSA</t>
@@ -2996,7 +2996,7 @@
     <t>nayely.moreira@espam.edu.ec</t>
   </si>
   <si>
-    <t>ttaA0cIV</t>
+    <t>ayNE#kDW</t>
   </si>
   <si>
     <t>MUÑOZ VERA MICHELLE VALENTINA</t>
@@ -3005,7 +3005,7 @@
     <t>michelle.munoz.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>o22!OLda</t>
+    <t>dTYtgksB</t>
   </si>
   <si>
     <t>OLMOS RIVERA CLEOPATRA STEFANIA</t>
@@ -3014,7 +3014,7 @@
     <t>cleopatra.olmos.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>pZls6w3d</t>
+    <t>Yb63N7eR</t>
   </si>
   <si>
     <t>PAREDES RODRIGUEZ GIBELY JARLETH</t>
@@ -3026,7 +3026,7 @@
     <t>gibely.paredes.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>7KQqq5KS</t>
+    <t>k&amp;#&amp;xzvk</t>
   </si>
   <si>
     <t>PERUGACHI MECIAS GEOVANNY ALEJANDRO</t>
@@ -3035,7 +3035,7 @@
     <t>geovanny.perugachi.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>XFxKdebt</t>
+    <t>oh8S?Gns</t>
   </si>
   <si>
     <t>PITA MACIAS RUBEN DARIO</t>
@@ -3044,7 +3044,7 @@
     <t>ruben.pita@espam.edu.ec</t>
   </si>
   <si>
-    <t>kCgr?Fuw</t>
+    <t>Z7MZzwj&amp;</t>
   </si>
   <si>
     <t>ROSADO QUIROZ JANDRY FABRICIO</t>
@@ -3053,7 +3053,7 @@
     <t>jandry.rosado.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>P7Yt!p0y</t>
+    <t>wQ0sXCQ1</t>
   </si>
   <si>
     <t>SANCHEZ CHOEZ BERTHA DOLORES</t>
@@ -3062,7 +3062,7 @@
     <t>bertha.choez.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>sojsRX5y</t>
+    <t>XXMZ5OKM</t>
   </si>
   <si>
     <t>VALENCIA MARCILLO JENIFFER KAROLINA</t>
@@ -3071,7 +3071,7 @@
     <t>jenifferk.valenciam@espam.edu.ec</t>
   </si>
   <si>
-    <t>2Hq&amp;7Z9u</t>
+    <t>rZedyqHk</t>
   </si>
   <si>
     <t>VELASQUEZ GUADAMUD MARIO DAMIAN</t>
@@ -3080,7 +3080,7 @@
     <t>mario.velasquez@espam.edu.ec</t>
   </si>
   <si>
-    <t>v6?eSsnm</t>
+    <t>RT41m#8i</t>
   </si>
   <si>
     <t>VELEZ RIVAS JOFFRE GEOVANNY</t>
@@ -3089,7 +3089,7 @@
     <t>joffre.velez.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>r6F!F!#i</t>
+    <t>aclFII/Y</t>
   </si>
   <si>
     <t>VELEZ ZAMBRANO GEMA BRIGITH</t>
@@ -3098,7 +3098,7 @@
     <t>gema.velez.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>vv!rV!j5</t>
+    <t>0vCFO4KL</t>
   </si>
   <si>
     <t>VERA CEVALLOS CARMEN GISSELLA</t>
@@ -3107,7 +3107,7 @@
     <t>carmen.vera@espam.edu.ec</t>
   </si>
   <si>
-    <t>i7dT#aUu</t>
+    <t>HbsBTaIa</t>
   </si>
   <si>
     <t>VERA SOLORZANO CARLOS NEPTALI</t>
@@ -3116,7 +3116,7 @@
     <t>carlos.veras@espam.edu.ec</t>
   </si>
   <si>
-    <t>G3ilKp0a</t>
+    <t>QDv?dERt</t>
   </si>
   <si>
     <t>VERA VERA YUSTHYN YARLETH</t>
@@ -3125,7 +3125,7 @@
     <t>yusthyn.vera.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>QAm2xzNS</t>
+    <t>nOr93nME</t>
   </si>
   <si>
     <t>VIDAL SABANDO MARIA KATHERINE</t>
@@ -3134,7 +3134,7 @@
     <t>maria.vidal.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>ZraSvD&amp;R</t>
+    <t>Yh9kjfhJ</t>
   </si>
   <si>
     <t>ZAMBRANO ALCIVAR EMILIO JOSE</t>
@@ -3143,7 +3143,7 @@
     <t>emilio.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>bbA7YO9e</t>
+    <t>4IW/lwsw</t>
   </si>
   <si>
     <t>ZAMBRANO AVEIGA MAYRA ALEXANDRA</t>
@@ -3152,7 +3152,7 @@
     <t>mayra.zambrano.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>Zt6Zzuap</t>
+    <t>sqOTLqYj</t>
   </si>
   <si>
     <t>ZAMBRANO VERA MARIA BEATRIZ</t>
@@ -3161,7 +3161,7 @@
     <t>maria.zambrano.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>nw?hCvhs</t>
+    <t>vRafX3KO</t>
   </si>
   <si>
     <t>ALCIVAR RODRIGUEZ STEFANY LISETH</t>
@@ -3170,7 +3170,7 @@
     <t>stefany.alcivar.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>Poet5ziT</t>
+    <t>N3XLdbAr</t>
   </si>
   <si>
     <t>ANGULO GLENN YURANI MAGERLI</t>
@@ -3182,7 +3182,7 @@
     <t>yurani.angulo.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>HC1YW8I/</t>
+    <t>SR4EglKK</t>
   </si>
   <si>
     <t>ARTEAGA TRIVIÑO CAMILA</t>
@@ -3191,7 +3191,7 @@
     <t>camila.arteaga.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>G7OXFyGw</t>
+    <t>T7xSYQg&amp;</t>
   </si>
   <si>
     <t>BALDERRAMO CABRERA JOSE GERMAN</t>
@@ -3200,7 +3200,7 @@
     <t>jose.balderramo.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>1pzwzIEp</t>
+    <t>Wmsw5Ixx</t>
   </si>
   <si>
     <t>BRAVO MUÑOZ JEAN MYCKEL</t>
@@ -3209,7 +3209,7 @@
     <t>jean.bravomu@espam.edu.ec</t>
   </si>
   <si>
-    <t>5IE947o4</t>
+    <t>MRp8YkSI</t>
   </si>
   <si>
     <t>BRAVO SANTANA JUNIOR XAVIER</t>
@@ -3218,7 +3218,7 @@
     <t>juniorx.bravos@espam.edu.ec</t>
   </si>
   <si>
-    <t>xMOTxU5j</t>
+    <t>eJ1&amp;XXGK</t>
   </si>
   <si>
     <t>CAGUA RODRIGUEZ NAYELY ANAHI</t>
@@ -3227,7 +3227,7 @@
     <t>nayely.cagua.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>YeuPFdyU</t>
+    <t>UP&amp;6TuUp</t>
   </si>
   <si>
     <t>CALDERON RODRIGUEZ FATIMA DANIELA</t>
@@ -3236,7 +3236,7 @@
     <t>fatima.calderon.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>7NEfilG1</t>
+    <t>X8BtLGFR</t>
   </si>
   <si>
     <t>CASTILLO MEJIA MARIA CARLOTA</t>
@@ -3245,7 +3245,7 @@
     <t>maria.castillo.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>7ksSS!eI</t>
+    <t>magbjM3&amp;</t>
   </si>
   <si>
     <t>CEDEÑO CUSME DAYANARA NARCISA</t>
@@ -3254,7 +3254,7 @@
     <t>dayanara.cedeno.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>HLORSTzU</t>
+    <t>A!/ZzxEo</t>
   </si>
   <si>
     <t>CELORIO VERA PETER PABLO</t>
@@ -3263,7 +3263,7 @@
     <t>peter.celorio.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>OOZspHWD</t>
+    <t>8?RjMMn1</t>
   </si>
   <si>
     <t>COOL MORENO DIANA ESTHEFANIA</t>
@@ -3272,7 +3272,7 @@
     <t>diana.cool@espam.edu.ec</t>
   </si>
   <si>
-    <t>6j5hokyn</t>
+    <t>y/Q&amp;pkSo</t>
   </si>
   <si>
     <t>DELGADO GARZON PAOLA FERNANDA</t>
@@ -3281,7 +3281,7 @@
     <t>paola.delgadog.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>jNk65Wat</t>
+    <t>?lYz6voj</t>
   </si>
   <si>
     <t>DOMINGUEZ DOMINGUEZ ROMINA MELISSA</t>
@@ -3290,7 +3290,7 @@
     <t>romina.dominguez@espam.edu.ec</t>
   </si>
   <si>
-    <t>u8cfF9jr</t>
+    <t>DecU?Z0i</t>
   </si>
   <si>
     <t>GARCIA MUÑOZ EDDY SANTIAGO</t>
@@ -3299,7 +3299,7 @@
     <t>eddy.garcia@espam.edu.ec</t>
   </si>
   <si>
-    <t>IHelU8mp</t>
+    <t>/F6dALEk</t>
   </si>
   <si>
     <t>GARCIA PONCE LEONELA ANTONELLA</t>
@@ -3308,7 +3308,7 @@
     <t>leonela.garcia.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>IfnetdMN</t>
+    <t>SQ6oHv3?</t>
   </si>
   <si>
     <t>LOPEZ SOLORZANO YIMMY</t>
@@ -3317,7 +3317,7 @@
     <t>yimmy.lopez@espam.edu.ec</t>
   </si>
   <si>
-    <t>1y7!u&amp;AI</t>
+    <t>afK6ceNc</t>
   </si>
   <si>
     <t>LOPEZ ZAMBRANO JORGE ISAAC</t>
@@ -3326,7 +3326,7 @@
     <t>jorge.lopez.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>NrfuFaR6</t>
+    <t>qKZxw&amp;59</t>
   </si>
   <si>
     <t>MACIAS GUAGUA MAGERLY THAIS</t>
@@ -3338,7 +3338,7 @@
     <t>magerly.macias.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>OywY4IBf</t>
+    <t>XCR4krpu</t>
   </si>
   <si>
     <t>MARTINEZ SABANDO MARCELO EFRAIN</t>
@@ -3347,7 +3347,7 @@
     <t>marcelo.martinez@espam.edu.ec</t>
   </si>
   <si>
-    <t>O5QXeqGR</t>
+    <t>ZUAkyUQe</t>
   </si>
   <si>
     <t>MEDRANDA CEDEÑO IVAN ARTURO</t>
@@ -3356,7 +3356,7 @@
     <t>ivan.medranda@espam.edu.ec</t>
   </si>
   <si>
-    <t>65HN13j7</t>
+    <t>K#yIvd!d</t>
   </si>
   <si>
     <t>MENDOZA INTRIAGO KEYLA YAMIRA</t>
@@ -3365,7 +3365,7 @@
     <t>keyla.mendoza@espam.edu.ec</t>
   </si>
   <si>
-    <t>gEWpfio?</t>
+    <t>kPR0E1dx</t>
   </si>
   <si>
     <t>MENDOZA LOOR MARIAGRACIA</t>
@@ -3374,7 +3374,7 @@
     <t>mariagracia.mendoza@espam.edu.ec</t>
   </si>
   <si>
-    <t>6axDQS!e</t>
+    <t>?jK!ewb0</t>
   </si>
   <si>
     <t>MOREIRA VELEZ ANGELICA LISBETH</t>
@@ -3383,7 +3383,7 @@
     <t>angelica.moreira@espam.edu.ec</t>
   </si>
   <si>
-    <t>&amp;WE3c#1s</t>
+    <t>qd?oyH7U</t>
   </si>
   <si>
     <t>PATA HERRERA ESTRELLA TATIANA</t>
@@ -3392,7 +3392,7 @@
     <t>estrella.pata.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>VmvsGqKn</t>
+    <t>A7sgzOj/</t>
   </si>
   <si>
     <t>PONCE MIRANDA YOEL ISAIAS</t>
@@ -3401,7 +3401,7 @@
     <t>yoel.ponce@espam.edu.ec</t>
   </si>
   <si>
-    <t>Xn/Bzdkw</t>
+    <t>81FARR38</t>
   </si>
   <si>
     <t>RIVAS ALARCON ALISSON MAYERLI</t>
@@ -3413,7 +3413,7 @@
     <t>alisson.rivas@espam.edu.ec</t>
   </si>
   <si>
-    <t>un9s0NDq</t>
+    <t>VsAXfqT7</t>
   </si>
   <si>
     <t>SABANDO VERA EMELY NOEMI</t>
@@ -3425,7 +3425,7 @@
     <t>emely.sabando.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>Ur&amp;34NY&amp;</t>
+    <t>wo6Ks0hn</t>
   </si>
   <si>
     <t>VELASQUEZ ZAMBRANO JUAN DIEGO</t>
@@ -3434,7 +3434,7 @@
     <t>juan.velasquez@espam.edu.ec</t>
   </si>
   <si>
-    <t>yR#6Iklv</t>
+    <t>IiPU!Kh&amp;</t>
   </si>
   <si>
     <t>ZAMBRANO MENDOZA JOSE LUIS</t>
@@ -3443,7 +3443,7 @@
     <t>jose.zambrano.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>ftEX5yrm</t>
+    <t>2TLqlUfx</t>
   </si>
   <si>
     <t>ZAMBRANO PEREZ CARLOS JULIO</t>
@@ -3452,7 +3452,7 @@
     <t>carlos.zambranop@espam.edu.ec</t>
   </si>
   <si>
-    <t>/5oGELth</t>
+    <t>1?YNMEHI</t>
   </si>
   <si>
     <t>ACHIG GUALACATA EVELIN LISETTE</t>
@@ -3461,7 +3461,7 @@
     <t>evelin.achig@espam.edu.ec</t>
   </si>
   <si>
-    <t>zMrQnXMC</t>
+    <t>GxLCS&amp;Vm</t>
   </si>
   <si>
     <t>AGUAS VERA JEICOL MIKE</t>
@@ -3470,7 +3470,7 @@
     <t>jeicol.aguas@espam.edu.ec</t>
   </si>
   <si>
-    <t>Rip42L4D</t>
+    <t>5rY5ZNSt</t>
   </si>
   <si>
     <t>BRAVO BASURTO JUAN CARLOS</t>
@@ -3479,7 +3479,7 @@
     <t>juan.bravo@espam.edu.ec</t>
   </si>
   <si>
-    <t>eyHTijHn</t>
+    <t>iAsKt0e#</t>
   </si>
   <si>
     <t>CANTOS ZAMBRANO MARIA FERNANDA</t>
@@ -3488,7 +3488,7 @@
     <t>mariaf.cantos@espam.edu.ec</t>
   </si>
   <si>
-    <t>HVs/2qjo</t>
+    <t>ezm4BfqM</t>
   </si>
   <si>
     <t>CASTILLO DELGADO LERENY JAMILEX</t>
@@ -3497,7 +3497,7 @@
     <t>lereny.castillo@espam.edu.ec</t>
   </si>
   <si>
-    <t>Kx!j77QO</t>
+    <t>6W29sfRG</t>
   </si>
   <si>
     <t>CASTILLO JACOME JHON JAIRO</t>
@@ -3506,7 +3506,7 @@
     <t>jhon.castillo@espam.edu.ec</t>
   </si>
   <si>
-    <t>m5aDmZAo</t>
+    <t>6Pwhx0n9</t>
   </si>
   <si>
     <t>CELORIO MENDOZA MIRIAN ALEJANDRA</t>
@@ -3515,7 +3515,7 @@
     <t>mirian.celorio@espam.edu.ec</t>
   </si>
   <si>
-    <t>8mDNFl4Y</t>
+    <t>YMLoEv94</t>
   </si>
   <si>
     <t>CHUMO CHAVEZ JANINA BELEN</t>
@@ -3524,7 +3524,7 @@
     <t>janina.chumo@espam.edu.ec</t>
   </si>
   <si>
-    <t>Mwm3z#h7</t>
+    <t>Y7QTuezl</t>
   </si>
   <si>
     <t>DELGADO LOPEZ MERCEDES ELIZABETH</t>
@@ -3533,7 +3533,7 @@
     <t>mercedes.delgado@espam.edu.ec</t>
   </si>
   <si>
-    <t>7A8q6rFx</t>
+    <t>#9wj!yrQ</t>
   </si>
   <si>
     <t>ESTEVES OLVERA DIANA MILENA</t>
@@ -3542,7 +3542,7 @@
     <t>diana.esteves@espam.edu.ec</t>
   </si>
   <si>
-    <t>DlQI?WiM</t>
+    <t>DyPYf&amp;hF</t>
   </si>
   <si>
     <t>FALLAIN ZAMBRANO MARIA ANGELICA</t>
@@ -3551,7 +3551,7 @@
     <t>maria.fallain@espam.edu.ec</t>
   </si>
   <si>
-    <t>iJ1i#ugC</t>
+    <t>#&amp;xteZaq</t>
   </si>
   <si>
     <t>FERNANDEZ CEVALLOS FRANCISCO ESTUARDO</t>
@@ -3560,7 +3560,7 @@
     <t>francisco.fernandez@espam.edu.ec</t>
   </si>
   <si>
-    <t>M1mnbJS/</t>
+    <t>07!RN7j0</t>
   </si>
   <si>
     <t>HERNANDEZ HERNANDEZ MARIA ZULEMA</t>
@@ -3572,7 +3572,7 @@
     <t>maria.hernandez@espam.edu.ec</t>
   </si>
   <si>
-    <t>cM/lNg34</t>
+    <t>&amp;yQX8b7Y</t>
   </si>
   <si>
     <t>INTRIAGO SOLORZANO LEYDI GABRIELA</t>
@@ -3581,7 +3581,7 @@
     <t>leydi.intriago@espam.edu.ec</t>
   </si>
   <si>
-    <t>#JH71zwo</t>
+    <t>AqL?9yRO</t>
   </si>
   <si>
     <t>MACIAS LOOR ELIAN RENE</t>
@@ -3590,7 +3590,7 @@
     <t>elian.macias@espam.edu.ec</t>
   </si>
   <si>
-    <t>!RrUJ7C6</t>
+    <t>gip3USau</t>
   </si>
   <si>
     <t>MACIAS PISCO NACHY MONSERRAT</t>
@@ -3599,7 +3599,7 @@
     <t>nachy.macias@espam.edu.ec</t>
   </si>
   <si>
-    <t>aqzSlx4U</t>
+    <t>LsSBwF88</t>
   </si>
   <si>
     <t>MERA LOOR JONAYKER REYNALDO</t>
@@ -3608,7 +3608,7 @@
     <t>jonayker.mera@espam.edu.ec</t>
   </si>
   <si>
-    <t>e02B8Ssg</t>
+    <t>&amp;gVIlGM3</t>
   </si>
   <si>
     <t>MOREIRA BASURTO YORDY JOEL</t>
@@ -3617,7 +3617,7 @@
     <t>yordy.moreira@espam.edu.ec</t>
   </si>
   <si>
-    <t>FD1sqPp#</t>
+    <t>BVyP4AIK</t>
   </si>
   <si>
     <t>MOREIRA MENDOZA MAGDALENA JAMILETH</t>
@@ -3626,7 +3626,7 @@
     <t>magdalena.moreira@espam.edu.ec</t>
   </si>
   <si>
-    <t>/l4sa9DP</t>
+    <t>#iEMcUzx</t>
   </si>
   <si>
     <t>PANTUSIN MUGUERZA ANDREA LISSETH</t>
@@ -3635,7 +3635,7 @@
     <t>andrea.pantusin@espam.edu.ec</t>
   </si>
   <si>
-    <t>SPMHCDqR</t>
+    <t>u6WfG/#v</t>
   </si>
   <si>
     <t>PATIÑO MEJIA MILENA ANAHI</t>
@@ -3644,7 +3644,7 @@
     <t>milena.patino@espam.edu.ec</t>
   </si>
   <si>
-    <t>&amp;Oxf4Dc#</t>
+    <t>ae9anHmU</t>
   </si>
   <si>
     <t>PICO GARCIA ALLISON JANELY</t>
@@ -3653,7 +3653,7 @@
     <t>allison.pico@espam.edu.ec</t>
   </si>
   <si>
-    <t>lqIC#HFv</t>
+    <t>a9BJDzX5</t>
   </si>
   <si>
     <t>POVEDA SANTANA ENZO JAVIER</t>
@@ -3665,7 +3665,7 @@
     <t>enzo.poveda@espam.edu.ec</t>
   </si>
   <si>
-    <t>T&amp;JygFCN</t>
+    <t>zjnqpPTt</t>
   </si>
   <si>
     <t>QUIJIJE CEDEÑO NATALY SILVANA</t>
@@ -3674,7 +3674,7 @@
     <t>nataly.quijije@espam.edu.ec</t>
   </si>
   <si>
-    <t>nP3nbhMD</t>
+    <t>Rd&amp;//gKS</t>
   </si>
   <si>
     <t>ROBALINO DELGADO JORGE DAVID</t>
@@ -3683,7 +3683,7 @@
     <t>jorge.robalino@espam.edu.ec</t>
   </si>
   <si>
-    <t>3/Guj98q</t>
+    <t>scljdYwo</t>
   </si>
   <si>
     <t>SANCHEZ CASTILLO ADRIANA MICAELA</t>
@@ -3692,7 +3692,7 @@
     <t>adriana.sanchez@espam.edu.ec</t>
   </si>
   <si>
-    <t>zAiHdZoP</t>
+    <t>r#5fZ9ND</t>
   </si>
   <si>
     <t>SOLORZANO ALAVA TAIRUN FRANCISCO</t>
@@ -3701,7 +3701,7 @@
     <t>tairun.solorzano@espam.edu.ec</t>
   </si>
   <si>
-    <t>ZmB#VmTC</t>
+    <t>lsugohXI</t>
   </si>
   <si>
     <t>SOLORZANO BAILON MARIA GABRIELA</t>
@@ -3710,7 +3710,7 @@
     <t>mariaga.solorzano@espam.edu.ec</t>
   </si>
   <si>
-    <t>suPR2A3f</t>
+    <t>gSHZSr5s</t>
   </si>
   <si>
     <t>TRUJILLO AGUAS MAYERLI DAYANA</t>
@@ -3719,7 +3719,7 @@
     <t>mayerli.trujillo@espam.edu.ec</t>
   </si>
   <si>
-    <t>H51#9zpS</t>
+    <t>TXlpzwnC</t>
   </si>
   <si>
     <t>VERA VERA CINTHIA MARIA</t>
@@ -3728,7 +3728,7 @@
     <t>cinthia.verav@espam.edu.ec</t>
   </si>
   <si>
-    <t>GFbxQg?&amp;</t>
+    <t>T&amp;SqMZzk</t>
   </si>
   <si>
     <t>VIDAL INTRIAGO ANDY YOEL</t>
@@ -3737,7 +3737,7 @@
     <t>andy.vidal@espam.edu.ec</t>
   </si>
   <si>
-    <t>h5j8hEr1</t>
+    <t>F02ow96g</t>
   </si>
   <si>
     <t>VINTIMILLA PROAÑO MARIA DE LOURDES</t>
@@ -3746,7 +3746,7 @@
     <t>maria.vintimilla@espam.edu.ec</t>
   </si>
   <si>
-    <t>IJigCIfg</t>
+    <t>y71ei05I</t>
   </si>
   <si>
     <t>VITERI SANTOS VINICIO ORLEY</t>
@@ -3755,7 +3755,7 @@
     <t>vinicio.viteri@espam.edu.ec</t>
   </si>
   <si>
-    <t>!aXrWgn0</t>
+    <t>9/?NCpvm</t>
   </si>
   <si>
     <t>ZAMBRANO CANO FRANCISCO JAVIER</t>
@@ -3764,7 +3764,7 @@
     <t>francisco.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>RFZp2CCy</t>
+    <t>wdOJ3Jr!</t>
   </si>
   <si>
     <t>ZAMBRANO NAVARRETE ELBA MARIA</t>
@@ -3773,7 +3773,7 @@
     <t>elba.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>fEnu4P7k</t>
+    <t>KK5yytW#</t>
   </si>
   <si>
     <t>ZAMBRANO ZAMBRANO WENDY GISSELLA</t>
@@ -3782,7 +3782,7 @@
     <t>wendy.zambranoz@espam.edu.ec</t>
   </si>
   <si>
-    <t>gvt3/Vhz</t>
+    <t>wv&amp;6mase</t>
   </si>
   <si>
     <t>ARANA RUEDA ANGY LISSETH</t>
@@ -3794,7 +3794,7 @@
     <t>angy.arana@espam.edu.ec</t>
   </si>
   <si>
-    <t>DCnLST2B</t>
+    <t>TiP7DwlT</t>
   </si>
   <si>
     <t>ARTEAGA VARGAS ANDREA VALERIA</t>
@@ -3803,7 +3803,7 @@
     <t>andrea.arteaga@espam.edu.ec</t>
   </si>
   <si>
-    <t>2?MGUbAg</t>
+    <t>4Myd2Tnv</t>
   </si>
   <si>
     <t>BARBERAN SANCHEZ KARLA MICHELLE</t>
@@ -3812,7 +3812,7 @@
     <t>karla.barberan@espam.edu.ec</t>
   </si>
   <si>
-    <t>&amp;GI#rNIW</t>
+    <t>2fn4kmj?</t>
   </si>
   <si>
     <t>BAZURTO MANZABA SORAYA STEFANIA</t>
@@ -3821,7 +3821,7 @@
     <t>soraya.bazurto@espam.edu.ec</t>
   </si>
   <si>
-    <t>I/7jEah5</t>
+    <t>EvOnXTW0</t>
   </si>
   <si>
     <t>CAGUA GARCIA ANDRES VIRGILIO</t>
@@ -3830,7 +3830,7 @@
     <t>andres.cagua@espam.edu.ec</t>
   </si>
   <si>
-    <t>AtXbcSma</t>
+    <t>CWQUBPeJ</t>
   </si>
   <si>
     <t>DOMINGUEZ CALDERON JEAN PIERRE</t>
@@ -3839,7 +3839,7 @@
     <t>jean.dominguez@espam.edu.ec</t>
   </si>
   <si>
-    <t>I7/xTo&amp;U</t>
+    <t>dL2PCQ44</t>
   </si>
   <si>
     <t>ESPINOZA ALCIVAR EVELYN ALEXANDRA</t>
@@ -3848,7 +3848,7 @@
     <t>evelyn.espinoza@espam.edu.ec</t>
   </si>
   <si>
-    <t>NhyV6ufj</t>
+    <t>ad6kNdxg</t>
   </si>
   <si>
     <t>LOOR MORENO DANIEL AGUSTIN</t>
@@ -3857,7 +3857,7 @@
     <t>daniel.loor@espam.edu.ec</t>
   </si>
   <si>
-    <t>AvXzIW3P</t>
+    <t>RVu#P?Nq</t>
   </si>
   <si>
     <t>MACIAS PARRALES MEREDITH MARIBEL</t>
@@ -3866,7 +3866,7 @@
     <t>meredith.macias@espam.edu.ec</t>
   </si>
   <si>
-    <t>G3L4DzHY</t>
+    <t>dulEjwvU</t>
   </si>
   <si>
     <t>MENDOZA CANCHINGRE BRIGITH MIKAELA</t>
@@ -3875,7 +3875,7 @@
     <t>brigith.mendoza@espam.edu.ec</t>
   </si>
   <si>
-    <t>B0dRNJYy</t>
+    <t>og!XIib7</t>
   </si>
   <si>
     <t>MENDOZA VELEZ JOSE MIGUEL</t>
@@ -3884,7 +3884,7 @@
     <t>josemi.mendoza@espam.edu.ec</t>
   </si>
   <si>
-    <t>/Nt5B5HN</t>
+    <t>9K2Y!D1L</t>
   </si>
   <si>
     <t>MEZA BRIONES ANTHONY NARCILO</t>
@@ -3893,7 +3893,7 @@
     <t>anthony.meza@espam.edu.ec</t>
   </si>
   <si>
-    <t>bKQGBgRx</t>
+    <t>js&amp;jPgw6</t>
   </si>
   <si>
     <t>MORA ZAMBRANO MARIA LAURA</t>
@@ -3902,7 +3902,7 @@
     <t>maria.mora@espam.edu.ec</t>
   </si>
   <si>
-    <t>m?yhuwic</t>
+    <t>9Iu5FxWe</t>
   </si>
   <si>
     <t>NAVARRETE ZAMBRANO ROBIN LUGERIO</t>
@@ -3911,7 +3911,7 @@
     <t>robin.navarrete@espam.edu.ec</t>
   </si>
   <si>
-    <t>at8h#n&amp;W</t>
+    <t>SceRjmFT</t>
   </si>
   <si>
     <t>OSTAIZA LOPEZ JOSEPH MANUEL</t>
@@ -3920,7 +3920,7 @@
     <t>josepth.ostaiza@espam.edu.ec</t>
   </si>
   <si>
-    <t>JnRpdcGb</t>
+    <t>RB1oNw#f</t>
   </si>
   <si>
     <t>PARRAGA PARRAGA CARLA ESTEFANIA</t>
@@ -3929,7 +3929,7 @@
     <t>carla.parraga@espam.edu.ec</t>
   </si>
   <si>
-    <t>ZTz3ocC2</t>
+    <t>UbjPI0Jt</t>
   </si>
   <si>
     <t>PLAZA CABRERA MAYERLY MARIA</t>
@@ -3941,7 +3941,7 @@
     <t>mayerly.plaza@espam.edu.ec</t>
   </si>
   <si>
-    <t>0yK3IUyt</t>
+    <t>ce9cfsxk</t>
   </si>
   <si>
     <t>RODRIGUEZ VELIZ LEANDRO MOISES</t>
@@ -3950,7 +3950,7 @@
     <t>leandro.rodriguez@espam.edu.ec</t>
   </si>
   <si>
-    <t>S3n9MZ/o</t>
+    <t>lg7r9?a9</t>
   </si>
   <si>
     <t>SANTANA GUERRERO MARIA RAQUEL</t>
@@ -3959,7 +3959,7 @@
     <t>mariar.santanag@espam.edu.ec</t>
   </si>
   <si>
-    <t>OZwAPBZI</t>
+    <t>isvSQUL?</t>
   </si>
   <si>
     <t>SANTOS SALAZAR JANDRY DAVID</t>
@@ -3968,7 +3968,7 @@
     <t>jandry.santos@espam.edu.ec</t>
   </si>
   <si>
-    <t>ni?fm6B?</t>
+    <t>68l&amp;X&amp;hk</t>
   </si>
   <si>
     <t>SOLORZANO LOOR KEYLA GEOVANNA</t>
@@ -3977,7 +3977,7 @@
     <t>keyla.solorzano@espam.edu.ec</t>
   </si>
   <si>
-    <t>dtO18wMv</t>
+    <t>um39IdDd</t>
   </si>
   <si>
     <t>VALENCIA ZAMBRANO VALERIA MERCEDES</t>
@@ -3986,7 +3986,7 @@
     <t>valeria.valencia@espam.edu.ec</t>
   </si>
   <si>
-    <t>n&amp;qHGv8t</t>
+    <t>rPuc8TmP</t>
   </si>
   <si>
     <t>VARGAS CHOEZ ALEXIS ELIAN</t>
@@ -3995,7 +3995,7 @@
     <t>alexis.vargas@espam.edu.ec</t>
   </si>
   <si>
-    <t>MziBPjTo</t>
+    <t>1PKh9XV7</t>
   </si>
   <si>
     <t>VELEZ ALMEIDA CARMEN REBECA</t>
@@ -4004,7 +4004,7 @@
     <t>carmen.velez@espam.edu.ec</t>
   </si>
   <si>
-    <t>JIJBF!vB</t>
+    <t>SUsVeRKP</t>
   </si>
   <si>
     <t>VELEZ LEGTON GENESIS YAMILET</t>
@@ -4013,7 +4013,7 @@
     <t>genesisya.velez@espam.edu.ec</t>
   </si>
   <si>
-    <t>OcJ825Pd</t>
+    <t>0FnNydb#</t>
   </si>
   <si>
     <t>VERA BALAREZO MARYAM JANELLA</t>
@@ -4022,7 +4022,7 @@
     <t>maryam.vera@espam.edu.ec</t>
   </si>
   <si>
-    <t>e6NAH1J9</t>
+    <t>FTKDt6T9</t>
   </si>
   <si>
     <t>VERA SERRANO CARLOS STEFANO</t>
@@ -4031,7 +4031,7 @@
     <t>carlos.verase@espam.edu.ec</t>
   </si>
   <si>
-    <t>TejD!jR1</t>
+    <t>Vy?0RvYb</t>
   </si>
   <si>
     <t>VIERA BAZURTO JOSE ALEXANDER</t>
@@ -4040,7 +4040,7 @@
     <t>jose.viera@espam.edu.ec</t>
   </si>
   <si>
-    <t>55ghVPMW</t>
+    <t>VyS5DPf/</t>
   </si>
   <si>
     <t>ZAMBRANO ALCIVAR DIEGO JAHIR</t>
@@ -4049,7 +4049,7 @@
     <t>diego.zambranoa@espam.edu.ec</t>
   </si>
   <si>
-    <t>sp/#TvTH</t>
+    <t>CvpPV4s!</t>
   </si>
   <si>
     <t>ZAMBRANO MANZABA MARIA FERNANDA</t>
@@ -4058,7 +4058,7 @@
     <t>mariafer.zambranom@espam.edu.ec</t>
   </si>
   <si>
-    <t>tWK6cDW7</t>
+    <t>uy4HhpOs</t>
   </si>
   <si>
     <t>ALCIVAR GILER MELANY JULISA</t>
@@ -4067,7 +4067,7 @@
     <t>melany.alcivar@espam.edu.ec</t>
   </si>
   <si>
-    <t>9z#qh3#f</t>
+    <t>92MKmx&amp;I</t>
   </si>
   <si>
     <t>ANDRADE ZAMBRANO NATHALY NICOLLE</t>
@@ -4076,7 +4076,7 @@
     <t>nathaly.andrade@espam.edu.ec</t>
   </si>
   <si>
-    <t>3c1thd1g</t>
+    <t>QH4/SudV</t>
   </si>
   <si>
     <t>BASURTO MORAN LUIS ALEXANDER</t>
@@ -4085,7 +4085,7 @@
     <t>luis.basurtom@espam.edu.ec</t>
   </si>
   <si>
-    <t>aTfwTUPz</t>
+    <t>5KGwOqfT</t>
   </si>
   <si>
     <t>BERMELLO VELEZ ANGELA DANIELA</t>
@@ -4094,7 +4094,7 @@
     <t>angela.bermello@espam.edu.ec</t>
   </si>
   <si>
-    <t>C&amp;X39a8I</t>
+    <t>zvA0#zAM</t>
   </si>
   <si>
     <t>BRAVO VERA GEMA VIVIANA</t>
@@ -4103,7 +4103,7 @@
     <t>gema.bravov@espam.edu.ec</t>
   </si>
   <si>
-    <t>RC972klR</t>
+    <t>IX87I1Tm</t>
   </si>
   <si>
     <t>BRIONES INTRIAGO LORENA LUCIA</t>
@@ -4112,7 +4112,7 @@
     <t>lorena.briones@espam.edu.ec</t>
   </si>
   <si>
-    <t>QhAUsKjD</t>
+    <t>&amp;JGUdkPd</t>
   </si>
   <si>
     <t>BURGOS BRAVO KATHERIN DANIELA</t>
@@ -4121,7 +4121,7 @@
     <t>katherin.burgos@espam.edu.ec</t>
   </si>
   <si>
-    <t>Zp9x2LXB</t>
+    <t>GdctE7Go</t>
   </si>
   <si>
     <t>LOOR PARRAGA ROY RUBEN</t>
@@ -4130,7 +4130,7 @@
     <t>roy.loor@espam.edu.ec</t>
   </si>
   <si>
-    <t>XaxNL7Go</t>
+    <t>?tSmX5q/</t>
   </si>
   <si>
     <t>LOPEZ GANCHOZO LEANDRO ANTONIO</t>
@@ -4139,7 +4139,7 @@
     <t>leandro.lopez@espam.edu.ec</t>
   </si>
   <si>
-    <t>0Oc3Rzti</t>
+    <t>FXe7e1mG</t>
   </si>
   <si>
     <t>MACIAS MACIAS JOY ROBERTO</t>
@@ -4148,7 +4148,7 @@
     <t>joy.macias@espam.edu.ec</t>
   </si>
   <si>
-    <t>ZI?vgEOs</t>
+    <t>S9blrJAP</t>
   </si>
   <si>
     <t>MACIAS SILVA CINTHYA MARIANA</t>
@@ -4157,7 +4157,7 @@
     <t>cinthya.macias@espam.edu.ec</t>
   </si>
   <si>
-    <t>MNMoio&amp;S</t>
+    <t>T7DIeAYB</t>
   </si>
   <si>
     <t>MENDOZA PONCE MARIA ANGELICA</t>
@@ -4166,7 +4166,7 @@
     <t>maria.mendozap@espam.edu.ec</t>
   </si>
   <si>
-    <t>W/KGWeNy</t>
+    <t>24pCKuP4</t>
   </si>
   <si>
     <t>MONCAYO LAINEZ KERLY ARIANNA</t>
@@ -4175,7 +4175,7 @@
     <t>kerly.moncayo@espam.edu.ec</t>
   </si>
   <si>
-    <t>q4rjVGVB</t>
+    <t>gcnr7&amp;B9</t>
   </si>
   <si>
     <t>MONTES POZO JEAN POLL</t>
@@ -4184,7 +4184,7 @@
     <t>jean.montes@espam.edu.ec</t>
   </si>
   <si>
-    <t>KJ!Homvc</t>
+    <t>f2zaLKe0</t>
   </si>
   <si>
     <t>MORENO OBANDO ANA BELLA</t>
@@ -4193,7 +4193,7 @@
     <t>ana.moreno@espam.edu.ec</t>
   </si>
   <si>
-    <t>4o!Ay0bw</t>
+    <t>gvqfge#W</t>
   </si>
   <si>
     <t>NAVARRETE PARODI ERIKA KARINA</t>
@@ -4202,7 +4202,7 @@
     <t>erika.navarrete@espam.edu.ec</t>
   </si>
   <si>
-    <t>2Y7suLw0</t>
+    <t>qeIQ7eE8</t>
   </si>
   <si>
     <t>ORMAZA ESPINOZA JESUS EMILIO</t>
@@ -4211,7 +4211,7 @@
     <t>jesus.ormaza@espam.edu.ec</t>
   </si>
   <si>
-    <t>01D1Wgd!</t>
+    <t>!cd6!HfR</t>
   </si>
   <si>
     <t>ORMAZA FALCONES MARIA ALEJANDRA</t>
@@ -4220,7 +4220,7 @@
     <t>maria.ormaza@espam.edu.ec</t>
   </si>
   <si>
-    <t>mF/K5rHH</t>
+    <t>STKZynaB</t>
   </si>
   <si>
     <t>PARRAGA QUIJIJE GEMA KAROLINA</t>
@@ -4229,7 +4229,7 @@
     <t>gemak.parragaq@espam.edu.ec</t>
   </si>
   <si>
-    <t>yXOFEkP1</t>
+    <t>f6sJq2vP</t>
   </si>
   <si>
     <t>PICO TOLA MARCO ANDRES</t>
@@ -4238,7 +4238,7 @@
     <t>marco.pico@espam.edu.ec</t>
   </si>
   <si>
-    <t>QNasdx0d</t>
+    <t>Ix&amp;KV?R3</t>
   </si>
   <si>
     <t>PIN NAPA IVANA MAYERLI</t>
@@ -4247,7 +4247,7 @@
     <t>ivana.pin@espam.edu.ec</t>
   </si>
   <si>
-    <t>t9P1LlF9</t>
+    <t>iP9?wY3l</t>
   </si>
   <si>
     <t>ROMERO BRAVO JOSE AGUSTIN</t>
@@ -4256,7 +4256,7 @@
     <t>jose.romero@espam.edu.ec</t>
   </si>
   <si>
-    <t>HoDnGwoC</t>
+    <t>jF3IWDMI</t>
   </si>
   <si>
     <t>SALTOS INTRIAGO NATHALIA MELISSA</t>
@@ -4265,7 +4265,7 @@
     <t>nathalia.saltos@espam.edu.ec</t>
   </si>
   <si>
-    <t>7tT&amp;iVQw</t>
+    <t>8#T3cze!</t>
   </si>
   <si>
     <t>SALTOS SALTOS MADELYNE PIERINA</t>
@@ -4274,7 +4274,7 @@
     <t>madelyne.saltos@espam.edu.ec</t>
   </si>
   <si>
-    <t>H9kg&amp;1iK</t>
+    <t>tu&amp;3JmI7</t>
   </si>
   <si>
     <t>SOLIS ORTIZ SANTIAGO</t>
@@ -4283,7 +4283,7 @@
     <t>santiago.solis@espam.edu.ec</t>
   </si>
   <si>
-    <t>CtPAG19x</t>
+    <t>v!mR?h3s</t>
   </si>
   <si>
     <t>SOLORZANO ZAMBRANO GEMA NARCISA</t>
@@ -4292,7 +4292,7 @@
     <t>gema.solorzano@espam.edu.ec</t>
   </si>
   <si>
-    <t>ep8e6nxA</t>
+    <t>a/DSPCZF</t>
   </si>
   <si>
     <t>VARGAS SOLORZANO ANDREA DIVINA</t>
@@ -4301,7 +4301,7 @@
     <t>andrea.vargas@espam.edu.ec</t>
   </si>
   <si>
-    <t>BEmOoBwV</t>
+    <t>Z2x1sw/B</t>
   </si>
   <si>
     <t>VELEZ VERA MANUEL ALEXANDER</t>
@@ -4310,7 +4310,7 @@
     <t>manuel.velez@espam.edu.ec</t>
   </si>
   <si>
-    <t>YW8OoU6n</t>
+    <t>GyN1ZIbO</t>
   </si>
   <si>
     <t>VELEZ ZAMBRANO ADRIAN DAVID</t>
@@ -4319,7 +4319,7 @@
     <t>adrian.velez@espam.edu.ec</t>
   </si>
   <si>
-    <t>b0dW?/rg</t>
+    <t>XPXTAjZV</t>
   </si>
   <si>
     <t>YLLESCA CEDEÑO JESUS JONATHAN</t>
@@ -4328,7 +4328,7 @@
     <t>jesus.yllesca@espam.edu.ec</t>
   </si>
   <si>
-    <t>!5lVstBb</t>
+    <t>iYQx?B6?</t>
   </si>
   <si>
     <t>ZAMBRANO CATOTA DERLYN MILENA</t>
@@ -4337,7 +4337,7 @@
     <t>derlyn.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>nor/pABu</t>
+    <t>CUU3EnMH</t>
   </si>
   <si>
     <t>ZAMBRANO CEDEÑO CHRISTIAN EDUARDO</t>
@@ -4346,7 +4346,7 @@
     <t>christian.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>Oy6ONe0N</t>
+    <t>tsEdq5lJ</t>
   </si>
   <si>
     <t>ZAMBRANO ROBLES GLENDY MERCEDES</t>
@@ -4355,7 +4355,7 @@
     <t>glendy.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>xQLRytV0</t>
+    <t>x/R9IZ7n</t>
   </si>
   <si>
     <t>ZAMBRANO ROSADO JORGE ALESSANDRO</t>
@@ -4364,7 +4364,7 @@
     <t>jorge.zambranor@espam.edu.ec</t>
   </si>
   <si>
-    <t>yF1duVNU</t>
+    <t>DKdtsor6</t>
   </si>
   <si>
     <t>ZAMBRANO VERA WENDY ANAHI</t>
@@ -4373,7 +4373,7 @@
     <t>wendy.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>vHH8BUUG</t>
+    <t>Sw5KiUWN</t>
   </si>
   <si>
     <t>ZAMBRANO ZAMBRANO JONATHAN JAVIER</t>
@@ -4382,7 +4382,7 @@
     <t>jonathan.zambranoz@espam.edu.ec</t>
   </si>
   <si>
-    <t>Z5r!9zJ!</t>
+    <t>N?V3TBcj</t>
   </si>
   <si>
     <t>ZAMORA SOLORZANO MAGALY DOLORES</t>
@@ -4391,7 +4391,7 @@
     <t>magaly.zamora@espam.edu.ec</t>
   </si>
   <si>
-    <t>sZGA?QsF</t>
+    <t>Q8xHAeFl</t>
   </si>
   <si>
     <t>BRAVO ZAMBRANO MARIA EMILIA</t>
@@ -4400,7 +4400,7 @@
     <t>maria.bravoz@espam.edu.ec</t>
   </si>
   <si>
-    <t>YsufIdJL</t>
+    <t>xzrl6d?R</t>
   </si>
   <si>
     <t>CEVALLOS ALVAREZ ARMANDO ENRIQUE</t>
@@ -4409,7 +4409,7 @@
     <t>armando.cevallos@espam.edu.ec</t>
   </si>
   <si>
-    <t>!2PeUMlL</t>
+    <t>Cpx&amp;7HHK</t>
   </si>
   <si>
     <t>CEVALLOS VERA ARELIS STEFANIA</t>
@@ -4418,7 +4418,7 @@
     <t>arelis.cevallos@espam.edu.ec</t>
   </si>
   <si>
-    <t>1kN&amp;1IHp</t>
+    <t>aiEGSnvI</t>
   </si>
   <si>
     <t>COOL MERO PATRICIO JAVIER</t>
@@ -4427,7 +4427,7 @@
     <t>patricio.cool@espam.edu.ec</t>
   </si>
   <si>
-    <t>bZSMQaZt</t>
+    <t>fM58K3Jp</t>
   </si>
   <si>
     <t>FRANCO ORELLANA GUADALUPE MONSERRATE</t>
@@ -4436,7 +4436,7 @@
     <t>guadalupe.franco@espam.edu.ec</t>
   </si>
   <si>
-    <t>pAfPra/#</t>
+    <t>qK2HYJ1k</t>
   </si>
   <si>
     <t>HUERTA BALDIVIEZO JEAN CRISTHIAN</t>
@@ -4445,7 +4445,7 @@
     <t>jean.huerta@espam.edu.ec</t>
   </si>
   <si>
-    <t>cwGJUZFM</t>
+    <t>xYx5YMiS</t>
   </si>
   <si>
     <t>INTRIAGO CANTOS MARIA JOSE</t>
@@ -4454,7 +4454,7 @@
     <t>maria.intriagoc@espam.edu.ec</t>
   </si>
   <si>
-    <t>b&amp;SMrCrx</t>
+    <t>iNgX?uzK</t>
   </si>
   <si>
     <t>LOOR CANTOS DIANA ISABEL</t>
@@ -4463,7 +4463,7 @@
     <t>diana.loor@espam.edu.ec</t>
   </si>
   <si>
-    <t>vlWCtiY2</t>
+    <t>mCaE1feh</t>
   </si>
   <si>
     <t>LOOR SEGOVIA EVELYN ADRIANA</t>
@@ -4472,7 +4472,7 @@
     <t>evelyn.loors@espam.edu.ec</t>
   </si>
   <si>
-    <t>#Pg1/DbV</t>
+    <t>S/FD1uWO</t>
   </si>
   <si>
     <t>MEDINA CEDEÑO JULIO CESAR</t>
@@ -4481,7 +4481,7 @@
     <t>julio.medina@espam.edu.ec</t>
   </si>
   <si>
-    <t>mNteSNDn</t>
+    <t>V#Vc1ipQ</t>
   </si>
   <si>
     <t>MERA VELEZ ALONDRA GARDENIA</t>
@@ -4490,7 +4490,7 @@
     <t>alondra.mera@espam.edu.ec</t>
   </si>
   <si>
-    <t>UrSYEtsH</t>
+    <t>b1jk6krM</t>
   </si>
   <si>
     <t>MUÑOZ ZAMBRANO CARLOS JOSUE</t>
@@ -4499,7 +4499,7 @@
     <t>carlos.munozz@espam.edu.ec</t>
   </si>
   <si>
-    <t>VzUuUbjy</t>
+    <t>O9AE1#E5</t>
   </si>
   <si>
     <t>NAPA RODRIGUEZ JOSE AGUSTIN</t>
@@ -4508,7 +4508,7 @@
     <t>jose.napa@espam.edu.ec</t>
   </si>
   <si>
-    <t>!gTaY8WQ</t>
+    <t>s/Wm2PK1</t>
   </si>
   <si>
     <t>PALMA CEVALLOS MARIA JOSE</t>
@@ -4517,7 +4517,7 @@
     <t>maria.palma@espam.edu.ec</t>
   </si>
   <si>
-    <t>&amp;0eTybpS</t>
+    <t>DF8sIPlO</t>
   </si>
   <si>
     <t>PATIÑO MESIAS MARIA GABRIELA</t>
@@ -4526,7 +4526,7 @@
     <t>maria.patino@espam.edu.ec</t>
   </si>
   <si>
-    <t>3eQmn/oA</t>
+    <t>MQozOJyG</t>
   </si>
   <si>
     <t>QUINTANA CAGUA YENIFER YULI</t>
@@ -4535,7 +4535,7 @@
     <t>yenifer.quintana@espam.edu.ec</t>
   </si>
   <si>
-    <t>5YbYyRmd</t>
+    <t>o0e6Bbrk</t>
   </si>
   <si>
     <t>RIVERA CANTOS MARIA DANIELA</t>
@@ -4544,7 +4544,7 @@
     <t>maria.riverac@espam.edu.ec</t>
   </si>
   <si>
-    <t>Pir7SbBv</t>
+    <t>i4W3vk7M</t>
   </si>
   <si>
     <t>RODRIGUEZ PINCAY CARLOS BRYAN</t>
@@ -4553,7 +4553,7 @@
     <t>carlos.rodriguezp@espam.edu.ec</t>
   </si>
   <si>
-    <t>UNJ1cTWr</t>
+    <t>/aND1Q7/</t>
   </si>
   <si>
     <t>SABANDO VELEZ CRISTHIAN ANTHONY</t>
@@ -4562,7 +4562,7 @@
     <t>cristhian.sabando@espam.edu.ec</t>
   </si>
   <si>
-    <t>6tiG7A7o</t>
+    <t>?q0u/W#H</t>
   </si>
   <si>
     <t>SANTANA VERA ANTHONY JAHIR</t>
@@ -4571,7 +4571,7 @@
     <t>anthony.santana@espam.edu.ec</t>
   </si>
   <si>
-    <t>ay7W3p3o</t>
+    <t>iAJR&amp;Eqp</t>
   </si>
   <si>
     <t>VELEZ ESPINOZA JUNIOR JESUS</t>
@@ -4580,7 +4580,7 @@
     <t>junior.veleze@espam.edu.ec</t>
   </si>
   <si>
-    <t>8H/K!l0O</t>
+    <t>YB#6Qgpx</t>
   </si>
   <si>
     <t>VERDUGA ZAMBRANO DIEGO ALEJANDRO</t>
@@ -4589,7 +4589,7 @@
     <t>diego.verduga@espam.edu.ec</t>
   </si>
   <si>
-    <t>fqkUJhOp</t>
+    <t>jawXlP3I</t>
   </si>
   <si>
     <t>ZAMBRANO VELEZ NAYELHY LILIBETH</t>
@@ -4598,7 +4598,7 @@
     <t>nayelhy.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>LQnvnuW4</t>
+    <t>EyjrZ0Ok</t>
   </si>
   <si>
     <t>ZAMBRANO WITONG KENIA THAIS</t>
@@ -4607,7 +4607,7 @@
     <t>keniath.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>L2hU2Rxv</t>
+    <t>#2TzUCx!</t>
   </si>
   <si>
     <t>ANCHUNDIA ANCHUNDIA GEMA LILIBETH</t>
@@ -4616,7 +4616,7 @@
     <t>gema.anchundia@espam.edu.ec</t>
   </si>
   <si>
-    <t>4c2!wgDg</t>
+    <t>O#pU9kQr</t>
   </si>
   <si>
     <t>ARTEAGA DELGADO JEAN CARLOS</t>
@@ -4625,7 +4625,7 @@
     <t>jean.arteaga@espam.edu.ec</t>
   </si>
   <si>
-    <t>&amp;YQ7oA1U</t>
+    <t>Yy7gsWt4</t>
   </si>
   <si>
     <t>BARREIRO ZAMBRANO JOSE VICENTE</t>
@@ -4634,7 +4634,7 @@
     <t>jose.barreiro@espam.edu.ec</t>
   </si>
   <si>
-    <t>APcJ7NIV</t>
+    <t>r0f77OCY</t>
   </si>
   <si>
     <t>BASURTO ALCIVAR DARWIN JESUS</t>
@@ -4643,7 +4643,7 @@
     <t>darwin.basurto@espam.edu.ec</t>
   </si>
   <si>
-    <t>rdJ1o&amp;rU</t>
+    <t>Xi71x0yI</t>
   </si>
   <si>
     <t>BRAVO CEDEÑO JOSE RODOLFO</t>
@@ -4652,7 +4652,7 @@
     <t>jose.bravo@espam.edu.ec</t>
   </si>
   <si>
-    <t>?n#rThPt</t>
+    <t>Wwiqx7Qo</t>
   </si>
   <si>
     <t>BRIONES BERMEO ANTONY JAVIER</t>
@@ -4661,7 +4661,7 @@
     <t>antony.briones@espam.edu.ec</t>
   </si>
   <si>
-    <t>eSMj2e?K</t>
+    <t>YiTEAYJ3</t>
   </si>
   <si>
     <t>CEDEÑO ANCHUNDIA YANDRY ANTONIO</t>
@@ -4673,7 +4673,7 @@
     <t>yandry.cedeno@espam.edu.ec</t>
   </si>
   <si>
-    <t>hwqWc9q#</t>
+    <t>gFnaj448</t>
   </si>
   <si>
     <t>CEDEÑO PEÑARRIETA DAYANA SOPHIA</t>
@@ -4682,7 +4682,7 @@
     <t>dayanaso.cedeno@espam.edu.ec</t>
   </si>
   <si>
-    <t>nomxopUd</t>
+    <t>raSTzKfg</t>
   </si>
   <si>
     <t>CHAVARRIA PEÑARRIETA MARCOS ALEJANDRO</t>
@@ -4691,7 +4691,7 @@
     <t>marcos.chavarria@espam.edu.ec</t>
   </si>
   <si>
-    <t>Q4asNnjS</t>
+    <t>317ucfRN</t>
   </si>
   <si>
     <t>DEL VALLE BASURTO CARMEN MELINA</t>
@@ -4700,7 +4700,7 @@
     <t>carmen.del@espam.edu.ec</t>
   </si>
   <si>
-    <t>7iOJM#Zz</t>
+    <t>Iw/VQiCg</t>
   </si>
   <si>
     <t>GUERRERO BRAVO ANA BELEN</t>
@@ -4709,7 +4709,7 @@
     <t>ana.guerrero@espam.edu.ec</t>
   </si>
   <si>
-    <t>WIzkd7SA</t>
+    <t>m#5qclz4</t>
   </si>
   <si>
     <t>GUERRERO GUERRERO JOSSELYN MELISSA</t>
@@ -4718,7 +4718,7 @@
     <t>josselyn.guerrero@espam.edu.ec</t>
   </si>
   <si>
-    <t>1W0IQWN0</t>
+    <t>!1vTSCQL</t>
   </si>
   <si>
     <t>INTRIAGO BARBERAN LAURO ANTONIO</t>
@@ -4727,7 +4727,7 @@
     <t>lauro.intriago1@espam.edu.ec</t>
   </si>
   <si>
-    <t>szLmhyJ&amp;</t>
+    <t>C38ta0Zl</t>
   </si>
   <si>
     <t>INTRIAGO MORA LENIN ARCENIO</t>
@@ -4736,7 +4736,7 @@
     <t>lenin.intriago@espam.edu.ec</t>
   </si>
   <si>
-    <t>RJbe1UWw</t>
+    <t>alX9keNU</t>
   </si>
   <si>
     <t>MACIAS CALDERON JOSE ARIEL</t>
@@ -4745,7 +4745,7 @@
     <t>jose.macias@espam.edu.ec</t>
   </si>
   <si>
-    <t>BWJH8699</t>
+    <t>Y6JzrUxr</t>
   </si>
   <si>
     <t>MARCILLO VELEZ ANA PATRICIA</t>
@@ -4754,7 +4754,7 @@
     <t>ana.marcillo@espam.edu.ec</t>
   </si>
   <si>
-    <t>5Gh3Dc&amp;k</t>
+    <t>Lmls#KXe</t>
   </si>
   <si>
     <t>MERA FIGUEROA RAYMOND ALEJANDRO</t>
@@ -4763,7 +4763,7 @@
     <t>raymond.mera@espam.edu.ec</t>
   </si>
   <si>
-    <t>ouMqoFt4</t>
+    <t>uVfhJ/F0</t>
   </si>
   <si>
     <t>MOREIRA ZAMBRANO JOSSENKA MERCEDES</t>
@@ -4772,7 +4772,7 @@
     <t>jossenka.moreira@espam.edu.ec</t>
   </si>
   <si>
-    <t>g6ltNWt2</t>
+    <t>Nnlbcrcu</t>
   </si>
   <si>
     <t>MUÑOZ ALCIVAR CRISTHIAN MARTIN</t>
@@ -4781,7 +4781,7 @@
     <t>cristhian.munoz@espam.edu.ec</t>
   </si>
   <si>
-    <t>Uy?0trer</t>
+    <t>I49s6n&amp;i</t>
   </si>
   <si>
     <t>MUÑOZ MACIAS MARIA MAGDALENA</t>
@@ -4790,7 +4790,7 @@
     <t>mariama.munoz@espam.edu.ec</t>
   </si>
   <si>
-    <t>j8Wg?xCi</t>
+    <t>q9Mtkd!U</t>
   </si>
   <si>
     <t>POLO GANCHOZO ARON ESNEYDER</t>
@@ -4799,7 +4799,7 @@
     <t>aron.polo@espam.edu.ec</t>
   </si>
   <si>
-    <t>shiNpcio</t>
+    <t>we6R/GLn</t>
   </si>
   <si>
     <t>RIOS BERMELLO JENIFFER LIZETH</t>
@@ -4808,7 +4808,7 @@
     <t>jeniffer.rios@espam.edu.ec</t>
   </si>
   <si>
-    <t>RVyR1H8T</t>
+    <t>!QrtMLpY</t>
   </si>
   <si>
     <t>SALVATIERRA VALDEZ VICKY NICOLLE</t>
@@ -4817,7 +4817,7 @@
     <t>vicky.salvatierra@espam.edu.ec</t>
   </si>
   <si>
-    <t>VMAspbP7</t>
+    <t>OxcWAwPf</t>
   </si>
   <si>
     <t>SANTOS VELEZ MONICA GERMANIA</t>
@@ -4826,7 +4826,7 @@
     <t>monica.santos@espam.edu.ec</t>
   </si>
   <si>
-    <t>VgKCexZ1</t>
+    <t>egZ2/gkZ</t>
   </si>
   <si>
     <t>SOLORZANO ZAMBRANO MILENA DENISSE</t>
@@ -4835,7 +4835,7 @@
     <t>milena.solorzano@espam.edu.ec</t>
   </si>
   <si>
-    <t>zOptn2VH</t>
+    <t>8r3r8tr2</t>
   </si>
   <si>
     <t>TUQUERES TACURI JESSICA MARIBELL</t>
@@ -4844,7 +4844,7 @@
     <t>jessica.tuqueres@espam.edu.ec</t>
   </si>
   <si>
-    <t>Yn9qfuw6</t>
+    <t>MMskswKE</t>
   </si>
   <si>
     <t>VERDUGA ERAZO JOSUE SALVADOR</t>
@@ -4853,7 +4853,7 @@
     <t>josue.verduga@espam.edu.ec</t>
   </si>
   <si>
-    <t>Ha8nxD3B</t>
+    <t>qbXJ8Epj</t>
   </si>
   <si>
     <t>YEPEZ VELIZ GENESIS THALIA</t>
@@ -4862,7 +4862,7 @@
     <t>genesis.yepez@espam.edu.ec</t>
   </si>
   <si>
-    <t>jJt3aYx1</t>
+    <t>LWJIS#hJ</t>
   </si>
   <si>
     <t>ZAMBRANO BASURTO ERICK RAFAEL</t>
@@ -4871,7 +4871,7 @@
     <t>erick.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>2gVkyQEZ</t>
+    <t>tzP?pMwa</t>
   </si>
   <si>
     <t>ZAMBRANO MUÑOZ JANDRY DEIVY</t>
@@ -4880,7 +4880,7 @@
     <t>jandry.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>Q5e6XqZB</t>
+    <t>Z??H7r/X</t>
   </si>
   <si>
     <t>AYONG VERA JUAN DAVID</t>
@@ -4889,7 +4889,7 @@
     <t>juan.ayong@espam.edu.ec</t>
   </si>
   <si>
-    <t>tEGcOcdz</t>
+    <t>MTrZjD?2</t>
   </si>
   <si>
     <t>BASURTO SALAZAR ANGELA MARGARITA</t>
@@ -4898,7 +4898,7 @@
     <t>angela.basurto@espam.edu.ec</t>
   </si>
   <si>
-    <t>#xi0GWTd</t>
+    <t>OdGy27vG</t>
   </si>
   <si>
     <t>CASANOVA INTRIAGO ANDREA BELEN</t>
@@ -4910,7 +4910,7 @@
     <t>andrea.casanova@espam.edu.ec</t>
   </si>
   <si>
-    <t>fbYZ7Lky</t>
+    <t>OnoREkV0</t>
   </si>
   <si>
     <t>CHUMO ZAMBRANO ANTONIO BENITO</t>
@@ -4919,7 +4919,7 @@
     <t>antonio.chumo@espam.edu.ec</t>
   </si>
   <si>
-    <t>pS5ZpN&amp;f</t>
+    <t>PIs#&amp;mF/</t>
   </si>
   <si>
     <t>GARCIA CORTEZ ERIKA STEFANIA</t>
@@ -4928,7 +4928,7 @@
     <t>erika.garcia@espam.edu.ec</t>
   </si>
   <si>
-    <t>rQ9#5Oxi</t>
+    <t>RjwJ!u9B</t>
   </si>
   <si>
     <t>GOMEZ BARRERA JUNIOR LENIN</t>
@@ -4937,7 +4937,7 @@
     <t>junior.gomez@espam.edu.ec</t>
   </si>
   <si>
-    <t>mYAe6l1F</t>
+    <t>nkF732Ki</t>
   </si>
   <si>
     <t>LOOR CEDEÑO RICARDO EMANUEL</t>
@@ -4946,7 +4946,7 @@
     <t>ricardo.loor@espam.edu.ec</t>
   </si>
   <si>
-    <t>hZL#mv92</t>
+    <t>7hW8E?Ua</t>
   </si>
   <si>
     <t>LOOR LUCAS EVELYN GUADALUPE</t>
@@ -4958,7 +4958,7 @@
     <t>evelyn.loor@espam.edu.ec</t>
   </si>
   <si>
-    <t>L7mrfPaF</t>
+    <t>sh?RVQ/1</t>
   </si>
   <si>
     <t>LOOR VELASCO FABIANA BELEN</t>
@@ -4970,7 +4970,7 @@
     <t>fabiana.loor@espam.edu.ec</t>
   </si>
   <si>
-    <t>hXjhn&amp;Ac</t>
+    <t>9M#24&amp;vl</t>
   </si>
   <si>
     <t>MARTINEZ CEDEÑO JENIFFER ESTEFANIA</t>
@@ -4979,7 +4979,7 @@
     <t>jeniffer.martinez@espam.edu.ec</t>
   </si>
   <si>
-    <t>E0eXmYsM</t>
+    <t>2I1/xGbw</t>
   </si>
   <si>
     <t>MENDOZA BARRE EDDY ENMANUEL</t>
@@ -4988,7 +4988,7 @@
     <t>eddy.mendoza@espam.edu.ec</t>
   </si>
   <si>
-    <t>ttv4Eo&amp;v</t>
+    <t>wUD&amp;VefD</t>
   </si>
   <si>
     <t>MURILLO PALACIOS ULICES JAIR</t>
@@ -4997,7 +4997,7 @@
     <t>ulices.murillo@espam.edu.ec</t>
   </si>
   <si>
-    <t>xnTZE!FP</t>
+    <t>Y78Xqj6r</t>
   </si>
   <si>
     <t>QUIJANO ZAMBRANO JONATHAN ERNESTO</t>
@@ -5006,7 +5006,7 @@
     <t>jonathan.quijano@espam.edu.ec</t>
   </si>
   <si>
-    <t>yL58H9t?</t>
+    <t>LsqL/vpY</t>
   </si>
   <si>
     <t>ROBLES YORI EFRAIN DAVID</t>
@@ -5015,7 +5015,7 @@
     <t>efrain.robles@espam.edu.ec</t>
   </si>
   <si>
-    <t>Xf0gmoMi</t>
+    <t>SLMuv1oq</t>
   </si>
   <si>
     <t>SABANDO ZAMBRANO FREDDY ANTONIO</t>
@@ -5024,7 +5024,7 @@
     <t>freddy.sabando@espam.edu.ec</t>
   </si>
   <si>
-    <t>h30cLCiW</t>
+    <t>xTfS4Osq</t>
   </si>
   <si>
     <t>SOLORZANO GUERRERO RONALDO WANDERLEY</t>
@@ -5033,7 +5033,7 @@
     <t>ronaldo.solorzano@espam.edu.ec</t>
   </si>
   <si>
-    <t>panx5sEe</t>
+    <t>!1oum!Xt</t>
   </si>
   <si>
     <t>VELEZ CALDERON GENESIS MARIANA</t>
@@ -5045,7 +5045,7 @@
     <t>genesis.velez@espam.edu.ec</t>
   </si>
   <si>
-    <t>cGVdmijv</t>
+    <t>C93BTNKS</t>
   </si>
   <si>
     <t>ZAMBRANO BALDA JOSE RAMIRO</t>
@@ -5054,7 +5054,7 @@
     <t>josera.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>hR0xAo?m</t>
+    <t>?7o7MpCw</t>
   </si>
   <si>
     <t>ZAMBRANO CANTOS YENNY ANNABEL</t>
@@ -5063,7 +5063,7 @@
     <t>yenny.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>lknzAIdz</t>
+    <t>gKN8y&amp;oF</t>
   </si>
   <si>
     <t>ZAMBRANO LOOR CRISTHIAN LEONARDO</t>
@@ -5072,7 +5072,7 @@
     <t>cristhian.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>Mce&amp;B/Au</t>
+    <t>yBH829GR</t>
   </si>
   <si>
     <t>ZAMBRANO LOOR DIANA STEFANIA</t>
@@ -5081,7 +5081,7 @@
     <t>dianas.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>MxY5?t5C</t>
+    <t>rZ1ymLqy</t>
   </si>
   <si>
     <t>ZAMBRANO LOOR MARIA EMILIA</t>
@@ -5090,7 +5090,7 @@
     <t>maria.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>D&amp;rwA5Li</t>
+    <t>pTx3Txld</t>
   </si>
   <si>
     <t>ZAMBRANO MOREIRA LEONELA ALEJANDRA</t>
@@ -5099,7 +5099,7 @@
     <t>leonela.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>698AmgMC</t>
+    <t>LJ2qawh4</t>
   </si>
   <si>
     <t>ALAVA ORTIZ EDWIN ALEXANDER</t>
@@ -5108,7 +5108,7 @@
     <t>edwin.alava@espam.edu.ec</t>
   </si>
   <si>
-    <t>G8lM2cxp</t>
+    <t>vEHaKCD4</t>
   </si>
   <si>
     <t>ALCIVAR LOOR GEMA LISBETH</t>
@@ -5117,7 +5117,7 @@
     <t>gemal.alcivar@espam.edu.ec</t>
   </si>
   <si>
-    <t>9B&amp;rEXq9</t>
+    <t>mawp4fw9</t>
   </si>
   <si>
     <t>AVELLAN SANTANA GENESIS NICOLLE</t>
@@ -5126,7 +5126,7 @@
     <t>genesis.avellan@espam.edu.ec</t>
   </si>
   <si>
-    <t>YETnJys1</t>
+    <t>ePGRaoV5</t>
   </si>
   <si>
     <t>CALDERON SANCHEZ SANDY KATHERINE</t>
@@ -5138,7 +5138,7 @@
     <t>sandy.calderon@espam.edu.ec</t>
   </si>
   <si>
-    <t>KseeP4dy</t>
+    <t>iuxQVf#6</t>
   </si>
   <si>
     <t>CARDENAS ASTUDILLO ANGELA JULIANA</t>
@@ -5150,7 +5150,7 @@
     <t>angela.cardenas@espam.edu.ec</t>
   </si>
   <si>
-    <t>gI6QMv?i</t>
+    <t>TL/4?hqp</t>
   </si>
   <si>
     <t>CARRILLO PACHAY MARCO STEVE</t>
@@ -5159,7 +5159,7 @@
     <t>marco.carrillo@espam.edu.ec</t>
   </si>
   <si>
-    <t>sO5Qizx4</t>
+    <t>Uzy&amp;WQNR</t>
   </si>
   <si>
     <t>CEDEÑO ZAMBRANO BRYAN ISIDRO</t>
@@ -5168,7 +5168,7 @@
     <t>bryan.cedeno@espam.edu.ec</t>
   </si>
   <si>
-    <t>M1b6DIYF</t>
+    <t>ObqJ637/</t>
   </si>
   <si>
     <t>CEVALLOS SALTOS ANTHONY FERNANDO</t>
@@ -5177,7 +5177,7 @@
     <t>anthonyf.cevallos@espam.edu.ec</t>
   </si>
   <si>
-    <t>sUhFVgJ5</t>
+    <t>Wmcp!lys</t>
   </si>
   <si>
     <t>CHANG ZAMBRANO MARTHA YAMILETH</t>
@@ -5186,7 +5186,7 @@
     <t>martha.chang@espam.edu.ec</t>
   </si>
   <si>
-    <t>stDZqsAK</t>
+    <t>Srpv4hr0</t>
   </si>
   <si>
     <t>CHIRIBOGA FARIAS LUIS FERNANDO</t>
@@ -5195,7 +5195,7 @@
     <t>luis.chiriboga@espam.edu.ec</t>
   </si>
   <si>
-    <t>Wl26Q!h4</t>
+    <t>QTZYnykA</t>
   </si>
   <si>
     <t>ESPINOZA PILAY JERSON JOSE</t>
@@ -5204,7 +5204,7 @@
     <t>jerson.espinoza@espam.edu.ec</t>
   </si>
   <si>
-    <t>5vuTm3&amp;o</t>
+    <t>Pr?7Tss9</t>
   </si>
   <si>
     <t>FARIAS MERA MAURICIO ANDRES</t>
@@ -5213,7 +5213,7 @@
     <t>mauricio.farias@espam.edu.ec</t>
   </si>
   <si>
-    <t>6tnHOXBQ</t>
+    <t>P2fr/WXo</t>
   </si>
   <si>
     <t>HERNANDEZ GONZALEZ JAMILEX KAREY</t>
@@ -5225,7 +5225,7 @@
     <t>jamilex.hernandez@espam.edu.ec</t>
   </si>
   <si>
-    <t>9A&amp;uGekk</t>
+    <t>Gf6bGOnb</t>
   </si>
   <si>
     <t>LEONES FALCONES ABAD JHOAN</t>
@@ -5234,7 +5234,7 @@
     <t>abad.leones@espam.edu.ec</t>
   </si>
   <si>
-    <t>cGHQAm81</t>
+    <t>LTM5zJqB</t>
   </si>
   <si>
     <t>LOOR CEVALLOS ANA MARIA</t>
@@ -5243,7 +5243,7 @@
     <t>anama.loor@espam.edu.ec</t>
   </si>
   <si>
-    <t>IvMzgyz#</t>
+    <t>/O7fVqKX</t>
   </si>
   <si>
     <t>LOOR LOOR RONALD POLIVIO</t>
@@ -5252,7 +5252,7 @@
     <t>ronald.loor@espam.edu.ec</t>
   </si>
   <si>
-    <t>P!rM?BFP</t>
+    <t>lzm14K8h</t>
   </si>
   <si>
     <t>LOOR REYES GENESIS JAMILETH</t>
@@ -5261,7 +5261,7 @@
     <t>genesis.loor@espam.edu.ec</t>
   </si>
   <si>
-    <t>WqvUB8o7</t>
+    <t>3l9MVaxE</t>
   </si>
   <si>
     <t>MACIAS BRAVO RICARDO FRANCISCO</t>
@@ -5270,7 +5270,7 @@
     <t>ricardo.macias@espam.edu.ec</t>
   </si>
   <si>
-    <t>HY9NuyfO</t>
+    <t>?0xR5Wis</t>
   </si>
   <si>
     <t>MACIAS MACIAS LISSETH LILIBETH</t>
@@ -5279,7 +5279,7 @@
     <t>lisseth.macias@espam.edu.ec</t>
   </si>
   <si>
-    <t>KPklCF9i</t>
+    <t>DA#eIgCX</t>
   </si>
   <si>
     <t>MANZABA CEDEÑO KEVIN ALBERTO</t>
@@ -5288,7 +5288,7 @@
     <t>kevin.manzaba@espam.edu.ec</t>
   </si>
   <si>
-    <t>cWqF!Y8K</t>
+    <t>IfUIlc7r</t>
   </si>
   <si>
     <t>MARQUEZ LEMA NAYELI SABRINA</t>
@@ -5297,7 +5297,7 @@
     <t>nayeli.marquez@espam.edu.ec</t>
   </si>
   <si>
-    <t>RY9?nL6M</t>
+    <t>3n5k7!v6</t>
   </si>
   <si>
     <t>MENDOZA BRIONES MARIUXI KATHERINE</t>
@@ -5309,7 +5309,7 @@
     <t>mariuxi.mendoza@espam.edu.ec</t>
   </si>
   <si>
-    <t>!3xE/I?Z</t>
+    <t>L8YNP9l8</t>
   </si>
   <si>
     <t>MOLINA CEDEÑO JUAN DE DIOS</t>
@@ -5318,7 +5318,7 @@
     <t>juan.molina@espam.edu.ec</t>
   </si>
   <si>
-    <t>2ku8YZqC</t>
+    <t>&amp;ysN3W2#</t>
   </si>
   <si>
     <t>MONTESDEOCA GARCIA YUDID ALEXANDRA</t>
@@ -5327,7 +5327,7 @@
     <t>yudid.montesdeoca@espam.edu.ec</t>
   </si>
   <si>
-    <t>x6GNEyQ#</t>
+    <t>M5ppYvft</t>
   </si>
   <si>
     <t>MUÑOZ MERA JUAN PABLO</t>
@@ -5336,7 +5336,7 @@
     <t>juan.munoz@espam.edu.ec</t>
   </si>
   <si>
-    <t>lemRmWZy</t>
+    <t>z?IWQZWO</t>
   </si>
   <si>
     <t>NAVARRETE ORMAZA ERICK ALEXANDER</t>
@@ -5345,7 +5345,7 @@
     <t>erick.navarrete@espam.edu.ec</t>
   </si>
   <si>
-    <t>25YPzFr?</t>
+    <t>tBzPWSfj</t>
   </si>
   <si>
     <t>OCAMPO BARRE ANTHONY VICENTE</t>
@@ -5354,7 +5354,7 @@
     <t>anthony.ocampo@espam.edu.ec</t>
   </si>
   <si>
-    <t>SybHcXYK</t>
+    <t>5/6&amp;YrxU</t>
   </si>
   <si>
     <t>PARRALES FALCONES ANTHONY LEONARDO</t>
@@ -5363,7 +5363,7 @@
     <t>anthony.parrales@espam.edu.ec</t>
   </si>
   <si>
-    <t>TlmLf#ak</t>
+    <t>&amp;7TFxnt7</t>
   </si>
   <si>
     <t>RAMOS SALTOS NICOLE PAOLA</t>
@@ -5372,7 +5372,7 @@
     <t>nicole.ramos@espam.edu.ec</t>
   </si>
   <si>
-    <t>OTKZCfdH</t>
+    <t>3phOQ9lg</t>
   </si>
   <si>
     <t>ROBLES MOLINA JENIFFER STEFANIA</t>
@@ -5381,7 +5381,7 @@
     <t>jeniffer.robles@espam.edu.ec</t>
   </si>
   <si>
-    <t>u!lhE?Pf</t>
+    <t>sgS2Dr1V</t>
   </si>
   <si>
     <t>RODRIGUEZ CAMPOS JEAN KATHERINE</t>
@@ -5390,7 +5390,7 @@
     <t>jean.rodriguez@espam.edu.ec</t>
   </si>
   <si>
-    <t>tZX5Ac5A</t>
+    <t>dj&amp;nIQJa</t>
   </si>
   <si>
     <t>SANCHEZ MEDINA GISSEL STEPHANIE</t>
@@ -5399,7 +5399,7 @@
     <t>gissel.sanchez@espam.edu.ec</t>
   </si>
   <si>
-    <t>qevBIAwY</t>
+    <t>9jsfbgLH</t>
   </si>
   <si>
     <t>VASQUEZ VERA ARGENIS JAVIER</t>
@@ -5408,7 +5408,7 @@
     <t>argenis.vasquez@espam.edu.ec</t>
   </si>
   <si>
-    <t>nBPcaTSz</t>
+    <t>/Zv/qvIZ</t>
   </si>
   <si>
     <t>VASQUEZ VERA MARIA MERCEDES</t>
@@ -5417,7 +5417,7 @@
     <t>maria.vasquez@espam.edu.ec</t>
   </si>
   <si>
-    <t>zv9RGM8S</t>
+    <t>Eh9p!qxH</t>
   </si>
   <si>
     <t>VELEZ MERA JOSSELYN JOSSENKA</t>
@@ -5426,7 +5426,7 @@
     <t>josselynjo.velez@espam.edu.ec</t>
   </si>
   <si>
-    <t>Et3qSB7V</t>
+    <t>AbVEjIPL</t>
   </si>
   <si>
     <t>VELEZ PALACIOS STEVEN RAMON</t>
@@ -5435,7 +5435,7 @@
     <t>steven.velez@espam.edu.ec</t>
   </si>
   <si>
-    <t>ONFX7zif</t>
+    <t>bMIRKQrk</t>
   </si>
   <si>
     <t>VERA BRAVO MARY LAURA</t>
@@ -5444,7 +5444,7 @@
     <t>mary.vera@espam.edu.ec</t>
   </si>
   <si>
-    <t>SrCnekTS</t>
+    <t>#wNdHAFD</t>
   </si>
   <si>
     <t>VILLAMIL VALENCIA ISABEL ANDREA</t>
@@ -5453,7 +5453,7 @@
     <t>isabel.villamil@espam.edu.ec</t>
   </si>
   <si>
-    <t>i9vQNsMw</t>
+    <t>S&amp;2j8c7j</t>
   </si>
   <si>
     <t>ZAMBRANO COBEÑA PABLO ALBERTO</t>
@@ -5462,7 +5462,7 @@
     <t>pablo.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>G&amp;?m8mge</t>
+    <t>g5C6QDbA</t>
   </si>
   <si>
     <t>ALVAREZ INTRIAGO MAILIN KATHERINE</t>
@@ -5471,7 +5471,7 @@
     <t>mailin.alvarez@espam.edu.ec</t>
   </si>
   <si>
-    <t>rqkHpQOj</t>
+    <t>r9yK!78D</t>
   </si>
   <si>
     <t>BRAVO ARTEAGA RICARDO JAVIER</t>
@@ -5480,7 +5480,7 @@
     <t>ricardo.bravo@espam.edu.ec</t>
   </si>
   <si>
-    <t>3MGOrXD/</t>
+    <t>0zSb?2b8</t>
   </si>
   <si>
     <t>BRAVO VERGARA GEMA CAROLINA</t>
@@ -5489,7 +5489,7 @@
     <t>gemac.bravo@espam.edu.ec</t>
   </si>
   <si>
-    <t>rWzVNE21</t>
+    <t>yFndoWtp</t>
   </si>
   <si>
     <t>CEDEÑO VELASQUEZ GEMA GUADALUPE</t>
@@ -5498,7 +5498,7 @@
     <t>gemag.cedeno@espam.edu.ec</t>
   </si>
   <si>
-    <t>7h4KWo7I</t>
+    <t>9RtD/PF!</t>
   </si>
   <si>
     <t>CHAVEZ VELIZ DENIS ALEXANDER</t>
@@ -5507,7 +5507,7 @@
     <t>denis.chavez@espam.edu.ec</t>
   </si>
   <si>
-    <t>U/VP0S3q</t>
+    <t>LGfq?Z2b</t>
   </si>
   <si>
     <t>DEMERA ZAMBRANO JACKSON ANDRES</t>
@@ -5516,7 +5516,7 @@
     <t>jackson.demera@espam.edu.ec</t>
   </si>
   <si>
-    <t>ab#S3oxT</t>
+    <t>bg04fSY9</t>
   </si>
   <si>
     <t>GANCHOZO LECTONG GRESSILLE GUISSELLA</t>
@@ -5525,7 +5525,7 @@
     <t>gressille.ganchozo@espam.edu.ec</t>
   </si>
   <si>
-    <t>Ay/fNWul</t>
+    <t>swDJn1FU</t>
   </si>
   <si>
     <t>INDIO ZAMBRANO ODALIS MICHELLE</t>
@@ -5537,7 +5537,7 @@
     <t>odalis.indio@espam.edu.ec</t>
   </si>
   <si>
-    <t>gONJCFGX</t>
+    <t>UBnjZcz2</t>
   </si>
   <si>
     <t>INTRIAGO TERAN BRYAN ASDRUBAL</t>
@@ -5546,7 +5546,7 @@
     <t>bryan.intriago@espam.edu.ec</t>
   </si>
   <si>
-    <t>vWRdCIMT</t>
+    <t>?F8cMC1h</t>
   </si>
   <si>
     <t>INTRIAGO ZAMBRANO GISSELA KAROLINA</t>
@@ -5555,7 +5555,7 @@
     <t>gissela.intriago@espam.edu.ec</t>
   </si>
   <si>
-    <t>BoUE4hcG</t>
+    <t>c5knZq8Y</t>
   </si>
   <si>
     <t>LEONES SOLORZANO YARITZA DANIELA</t>
@@ -5564,7 +5564,7 @@
     <t>yaritza.leones@espam.edu.ec</t>
   </si>
   <si>
-    <t>mndavUTA</t>
+    <t>k0yKtTv2</t>
   </si>
   <si>
     <t>LOPEZ MORA JOSSELYN AMARILYS</t>
@@ -5573,7 +5573,7 @@
     <t>josselyn.lopez@espam.edu.ec</t>
   </si>
   <si>
-    <t>&amp;wYoH6Im</t>
+    <t>nou?Njwh</t>
   </si>
   <si>
     <t>MERA LOOR ANTONY ELIAN</t>
@@ -5582,7 +5582,7 @@
     <t>antony.mera@espam.edu.ec</t>
   </si>
   <si>
-    <t>GqmUGDih</t>
+    <t>yVt5gabL</t>
   </si>
   <si>
     <t>MERA SABANDO GEMA YAMILETH</t>
@@ -5591,7 +5591,7 @@
     <t>gema.mera@espam.edu.ec</t>
   </si>
   <si>
-    <t>DzWd/bbN</t>
+    <t>grAhYT98</t>
   </si>
   <si>
     <t>MIRANDA IBARRA ALFONSO SEBASTIAN</t>
@@ -5600,7 +5600,7 @@
     <t>alfonso.miranda@espam.edu.ec</t>
   </si>
   <si>
-    <t>NkAXrnhz</t>
+    <t>rzmde8Wm</t>
   </si>
   <si>
     <t>MONGE ERAZO JECSY PIERINA</t>
@@ -5609,7 +5609,7 @@
     <t>jecsy.monge@espam.edu.ec</t>
   </si>
   <si>
-    <t>NPiW&amp;hVg</t>
+    <t>Gn5Utv86</t>
   </si>
   <si>
     <t>ROMERO ORTEGA ANGEL ANDRES</t>
@@ -5618,7 +5618,7 @@
     <t>angel.romero@espam.edu.ec</t>
   </si>
   <si>
-    <t>jWz7Iair</t>
+    <t>uAlELojy</t>
   </si>
   <si>
     <t>SOLORZANO INTRIAGO OSCAR FABIAN</t>
@@ -5630,7 +5630,7 @@
     <t>oscar.solorzano@espam.edu.ec</t>
   </si>
   <si>
-    <t>NShv2Bp5</t>
+    <t>c&amp;Lk4Xe7</t>
   </si>
   <si>
     <t>VALVERDE ZAPATA KATHIUSCA CARLOTA</t>
@@ -5642,7 +5642,7 @@
     <t>kathiusca.valverde@espam.edu.ec</t>
   </si>
   <si>
-    <t>AlI!?KC3</t>
+    <t>E!#UoxJI</t>
   </si>
   <si>
     <t>VERA AYALA GENESIS LISBETH</t>
@@ -5651,7 +5651,7 @@
     <t>genesis.vera@espam.edu.ec</t>
   </si>
   <si>
-    <t>O45Za9hB</t>
+    <t>l0w&amp;JuoH</t>
   </si>
   <si>
     <t>VERA PULIDO MARIA IVANNA</t>
@@ -5660,7 +5660,7 @@
     <t>mariai.verap@espam.edu.ec</t>
   </si>
   <si>
-    <t>tZ2S0yID</t>
+    <t>iycuvNgb</t>
   </si>
   <si>
     <t>VERA ZAMBRANO JAZMIN CAROLINA</t>
@@ -5669,7 +5669,7 @@
     <t>jazmin.vera@espam.edu.ec</t>
   </si>
   <si>
-    <t>PIeDs01j</t>
+    <t>2jjn9Xg/</t>
   </si>
   <si>
     <t>VERGARA ARBOLEDA WENDY DEL ROCIO</t>
@@ -5681,7 +5681,7 @@
     <t>wendy.vergara@espam.edu.ec</t>
   </si>
   <si>
-    <t>Q5/DSDd#</t>
+    <t>BxIxkhWZ</t>
   </si>
   <si>
     <t>VILLAMAR GONZALEZ ELENA SAMANTA</t>
@@ -5690,7 +5690,7 @@
     <t>elena.villamar@espam.edu.ec</t>
   </si>
   <si>
-    <t>DTV37L2Q</t>
+    <t>7CkigrNq</t>
   </si>
   <si>
     <t>ZAMBRANO ALCIVAR GENESIS VALENTINA</t>
@@ -5699,7 +5699,7 @@
     <t>genesis.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>#gejx7H0</t>
+    <t>C/CftOwS</t>
   </si>
   <si>
     <t>ZAMBRANO CHAVEZ ANDREA MONSERRATE</t>
@@ -5708,7 +5708,7 @@
     <t>andream.zambranoc@espam.edu.ec</t>
   </si>
   <si>
-    <t>0Fdx2#UZ</t>
+    <t>s3IV&amp;Ks0</t>
   </si>
   <si>
     <t>ZAMBRANO GRACIA DANIELA ANGELINA</t>
@@ -5717,7 +5717,7 @@
     <t>daniela.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>XE!#J8PF</t>
+    <t>foA#OP?1</t>
   </si>
   <si>
     <t>ZAMBRANO MUÑOZ WILLY JHONAY</t>
@@ -5726,7 +5726,7 @@
     <t>willy.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>f8dIsx6w</t>
+    <t>?DAXfaKA</t>
   </si>
   <si>
     <t>ZAMBRANO ZAMBRANO TATIANA ELIZABETH</t>
@@ -5735,7 +5735,7 @@
     <t>tatianael.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>jbYfoUhd</t>
+    <t>L50oJ!!Q</t>
   </si>
 </sst>
 </file>

--- a/storage/app/public/seeds/datosPassword.xlsx
+++ b/storage/app/public/seeds/datosPassword.xlsx
@@ -44,7 +44,7 @@
     <t>angie.alcivar.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>K1/Pl4T&amp;</t>
+    <t>MN5drS/h</t>
   </si>
   <si>
     <t>ALCIVAR VERA KARLA MILENA</t>
@@ -53,7 +53,7 @@
     <t>karla.alcivar.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>wQe7RI!r</t>
+    <t>fXuuOAaH</t>
   </si>
   <si>
     <t>ALVIA ROCA HENRY ISAAC</t>
@@ -65,7 +65,7 @@
     <t>henry.alvia.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>8BWYfaK4</t>
+    <t>EaVQKyeC</t>
   </si>
   <si>
     <t>ANANGONO GOMEZ ANA MARCELA</t>
@@ -74,7 +74,7 @@
     <t>ana.anangono.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>XU0D0sFm</t>
+    <t>YrhEw7q0</t>
   </si>
   <si>
     <t>BRAVO MARCILLO NATHALY SILVANA</t>
@@ -86,7 +86,7 @@
     <t>nathaly.bravo.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>EI1xPZZY</t>
+    <t>Gs&amp;Jkq2s</t>
   </si>
   <si>
     <t>BRIONES SUAREZ DANIA MELISSA</t>
@@ -95,7 +95,7 @@
     <t>dania.briones.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>BbPVyW!4</t>
+    <t>JP5ZOfnY</t>
   </si>
   <si>
     <t>CANCHINGRE LOZA MARIANA DE JESUS</t>
@@ -107,7 +107,7 @@
     <t>mariana.canchingre.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>!pS9qRfI</t>
+    <t>krtlO5eg</t>
   </si>
   <si>
     <t>CEDEÑO GARCIA EMILY JAHAIRA</t>
@@ -116,7 +116,7 @@
     <t>emily.cedeno.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>oXT4rSCZ</t>
+    <t>uJJ!oZr/</t>
   </si>
   <si>
     <t>CEDEÑO VELEZ STEVEN ANTONIO</t>
@@ -125,7 +125,7 @@
     <t>steven.cedeno.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>HE#BKeiK</t>
+    <t>HfuKAeNC</t>
   </si>
   <si>
     <t>CHICA ORDOÑEZ YAIZA ANAHI</t>
@@ -134,7 +134,7 @@
     <t>yaiza.chica.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>OAGYoPJM</t>
+    <t>5JousHfi</t>
   </si>
   <si>
     <t>CORONEL MERO DAMARY SABRINA</t>
@@ -143,7 +143,7 @@
     <t>damary.coronel.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>JgxskBUw</t>
+    <t>LaxJWgkg</t>
   </si>
   <si>
     <t>DELGADO BENAVIDES MELISSA ANDREINA</t>
@@ -152,7 +152,7 @@
     <t>melissa.delgado.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>lWkp25?K</t>
+    <t>IKOgfA##</t>
   </si>
   <si>
     <t>DELGADO SOLORZANO TONY DAMIAN</t>
@@ -161,7 +161,7 @@
     <t>tony.delgado.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>/xM7mmwt</t>
+    <t>9yVbQ15S</t>
   </si>
   <si>
     <t>ELENO GENDE JOSELYN KATHERINE</t>
@@ -173,7 +173,7 @@
     <t>joselyn.eleno.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>HiUMReML</t>
+    <t>Ya4M?cKI</t>
   </si>
   <si>
     <t>GARCIA RIVERA ANGHELA LISBETH</t>
@@ -185,7 +185,7 @@
     <t>anghela.garcia.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>45NTek1B</t>
+    <t>zsvxvp0d</t>
   </si>
   <si>
     <t>GARCIA ROSS PRISCILA TAHILY</t>
@@ -194,7 +194,7 @@
     <t>priscila.garcia.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>6xNEhk6&amp;</t>
+    <t>6Rb1kHuZ</t>
   </si>
   <si>
     <t>LOOR ZAMBRANO MARILYN MICHEL</t>
@@ -203,7 +203,7 @@
     <t>marilyn.loor.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>FTj6mTjO</t>
+    <t>u1m40L5?</t>
   </si>
   <si>
     <t>LUCAS MENDOZA MOISES NOE</t>
@@ -212,7 +212,7 @@
     <t>moises.lucas.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>lfXcpJ8f</t>
+    <t>zby!h80J</t>
   </si>
   <si>
     <t>MANTUANO LOOR JENIFER DANIELA</t>
@@ -221,7 +221,7 @@
     <t>jenifer.mantuano.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>hy?T4ciZ</t>
+    <t>N1HrG8eU</t>
   </si>
   <si>
     <t>MENENDEZ SANTANA JOSMELY ANAHI</t>
@@ -230,7 +230,7 @@
     <t>josmely.menendez.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>tBjaDrqn</t>
+    <t>!UQ9TbTc</t>
   </si>
   <si>
     <t>MEZA ESPINOZA MISHEL NICOL</t>
@@ -239,7 +239,7 @@
     <t>mishel.meza.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>!V?76YOl</t>
+    <t>tgDSFoNv</t>
   </si>
   <si>
     <t>MORANTE TROYA JAIME ANDRES</t>
@@ -248,7 +248,7 @@
     <t>jaime.morante.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>foSfGxo2</t>
+    <t>0mj5iFnt</t>
   </si>
   <si>
     <t>PARRAGA MOREIRA CINDY ANDREA</t>
@@ -257,7 +257,7 @@
     <t>cindy.parraga.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>&amp;QCABPAh</t>
+    <t>9xY69bZk</t>
   </si>
   <si>
     <t>PEÑAFIEL VALENCIA JULEISY LISBETH</t>
@@ -269,7 +269,7 @@
     <t>juleisy.penafiel.4623@espam.edu.ec</t>
   </si>
   <si>
-    <t>bU02F3og</t>
+    <t>zOo38omL</t>
   </si>
   <si>
     <t>PICO CRIOLLO MILETH KATHERINE</t>
@@ -278,7 +278,7 @@
     <t>mileth.pico.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>9GgQDGmV</t>
+    <t>B8mq0LnK</t>
   </si>
   <si>
     <t>RENDON GILER JUNIOR ARIEL</t>
@@ -287,7 +287,7 @@
     <t>junior.rendon@espam.edu.ec</t>
   </si>
   <si>
-    <t>4J47Jla1</t>
+    <t>&amp;pvfJnEA</t>
   </si>
   <si>
     <t>SALVATIERRA SANTOS BRYAN ALEJANDRO</t>
@@ -296,7 +296,7 @@
     <t>bryan.salvatierra@espam.edu.ec</t>
   </si>
   <si>
-    <t>tFkwbeZD</t>
+    <t>4IlwrYBc</t>
   </si>
   <si>
     <t>SOLORZANO LUCAS ALEXANDER JOEL</t>
@@ -308,7 +308,7 @@
     <t>alexander.solorzano.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>2TA6g??T</t>
+    <t>rgG2P66R</t>
   </si>
   <si>
     <t>SOLORZANO RODRIGUEZ DAYANA NICOLLE</t>
@@ -317,7 +317,7 @@
     <t>dayanna.solorzano.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>56TqNrgZ</t>
+    <t>OfiMUnE7</t>
   </si>
   <si>
     <t>TENORIO QUINTERO ELY GILMAR</t>
@@ -329,7 +329,7 @@
     <t>ely.tenorio.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>xQTveMpW</t>
+    <t>AwXnB/Dv</t>
   </si>
   <si>
     <t>VELASQUEZ DOMINGUEZ JORDAN RICARDO</t>
@@ -338,7 +338,7 @@
     <t>jordan.velasquez.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>SmAB01pz</t>
+    <t>PF2Ru4qw</t>
   </si>
   <si>
     <t>VILLAVICENCIO SALVADOR MELANIE HELLAIM</t>
@@ -350,7 +350,7 @@
     <t>melanie.villavicencio.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>o!IT!9QD</t>
+    <t>sEee/PgV</t>
   </si>
   <si>
     <t>ZAMBRANO CEDEÑO ANGELO ALEXANDER</t>
@@ -359,7 +359,7 @@
     <t>angelo.zambrano.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>W9I2kUsv</t>
+    <t>ec9/h#F?</t>
   </si>
   <si>
     <t>ZAMBRANO VALENCIA SHIRLEY EDITH</t>
@@ -368,7 +368,7 @@
     <t>shirley.zambrano.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>FWUkhAzC</t>
+    <t>2whPuyWR</t>
   </si>
   <si>
     <t>ANGEL GOMEZ GILENY NAHOMY</t>
@@ -380,7 +380,7 @@
     <t>gileny.angel.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>4rm7n2bm</t>
+    <t>mBKUkaK7</t>
   </si>
   <si>
     <t>BARRE QUIJANO DARWIN JOSE</t>
@@ -389,7 +389,7 @@
     <t>darwin.barre@espam.edu.ec</t>
   </si>
   <si>
-    <t>wNVGMdzN</t>
+    <t>m5UF&amp;oYm</t>
   </si>
   <si>
     <t>BRAVO ALVAREZ EMILY JESUS</t>
@@ -398,7 +398,7 @@
     <t>emily.bravo.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>?FrC2DBv</t>
+    <t>0H!knIVJ</t>
   </si>
   <si>
     <t>CAGUA YOONG NAHOMY JAMILETH</t>
@@ -407,7 +407,7 @@
     <t>nahomy.cagua.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>ur//BSwk</t>
+    <t>vWuO0p2y</t>
   </si>
   <si>
     <t>CASTILLO CEDEÑO EMILIA MARICELA</t>
@@ -416,7 +416,7 @@
     <t>emilia.castillo.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>ffat?yFP</t>
+    <t>EuN&amp;dLjZ</t>
   </si>
   <si>
     <t>CEDEÑO ZAMBRANO JOSE DANIEL</t>
@@ -425,7 +425,7 @@
     <t>jose.cedenoz.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>H7Cd7ydF</t>
+    <t>ZfaDeIUg</t>
   </si>
   <si>
     <t>CIFUENTES VELASQUEZ JOSE JAHIR</t>
@@ -434,7 +434,7 @@
     <t>jose.cifuentes.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>5Fw4K&amp;GP</t>
+    <t>k1EKJ0m2</t>
   </si>
   <si>
     <t>CONFORME CIFUENTES ROBERTH JESUS</t>
@@ -443,7 +443,7 @@
     <t>roberth.conforme.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>9rnz8LzZ</t>
+    <t>E6RWGFMW</t>
   </si>
   <si>
     <t>CORDERO GILER SALMA PAOLA</t>
@@ -452,7 +452,7 @@
     <t>salma.cordero.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>fkC8r/zc</t>
+    <t>nzQGYz7S</t>
   </si>
   <si>
     <t>FARIAS VELIZ RENE OCTAVIO</t>
@@ -461,7 +461,7 @@
     <t>rene.farias.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>QJI/Q0K!</t>
+    <t>pieZpuI2</t>
   </si>
   <si>
     <t>GARCIA DUEÑAS JEAN FERNANDO</t>
@@ -470,7 +470,7 @@
     <t>jean.garcia.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>NYfXH0Md</t>
+    <t>d6MG61X3</t>
   </si>
   <si>
     <t>HERRERA BASURTO IVIS ANTONELLA</t>
@@ -479,7 +479,7 @@
     <t>ivis.herrera.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>QS8QmKNq</t>
+    <t>YcosHdRw</t>
   </si>
   <si>
     <t>HIDALGO LOOR MARLYN NALLELY</t>
@@ -488,7 +488,7 @@
     <t>marlyn.hidalgo.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>m7DXaMCv</t>
+    <t>cyCuv8fl</t>
   </si>
   <si>
     <t>IBARRA CHAVARRIA JUAN DIEGO</t>
@@ -497,7 +497,7 @@
     <t>juan.ibarra.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>G&amp;rYuBOx</t>
+    <t>TUKxn!sz</t>
   </si>
   <si>
     <t>JAYA ZAPATA VICTOR EDUARDO</t>
@@ -506,7 +506,7 @@
     <t>victor.jaya.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>HtRfXgIQ</t>
+    <t>6tNmYTNx</t>
   </si>
   <si>
     <t>LOOR DELGADO JERRY JOEL</t>
@@ -515,7 +515,7 @@
     <t>jerry.loor.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>BOX&amp;yyft</t>
+    <t>PpGxdypj</t>
   </si>
   <si>
     <t>MANTUANO PONCE MELANY MONCERRATE</t>
@@ -524,7 +524,7 @@
     <t>melany.mantuano.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>wxVhdSuT</t>
+    <t>t3I9bxvZ</t>
   </si>
   <si>
     <t>MENDOZA VASQUEZ ARIEL ALEXIS</t>
@@ -536,7 +536,7 @@
     <t>ariel.mendoza.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>4NMr1pQy</t>
+    <t>xmpycDqg</t>
   </si>
   <si>
     <t>MOREIRA GARCIA MACARIO EMANUEL</t>
@@ -545,7 +545,7 @@
     <t>macario.moreira.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>qNVnIGZ/</t>
+    <t>RoZHqW/k</t>
   </si>
   <si>
     <t>MOREIRA GILCES GABRIELA NIKOL</t>
@@ -554,7 +554,7 @@
     <t>gabriela.moreira.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>F3F/fCPy</t>
+    <t>Ur35Fd7R</t>
   </si>
   <si>
     <t>NOBOA MONTESDEOCA INGRITH MADELEYN</t>
@@ -563,7 +563,7 @@
     <t>ingrith.noboa.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>E?#Q!Ma0</t>
+    <t>ah4r89HM</t>
   </si>
   <si>
     <t>ORDOÑEZ ALCIVAR ALEX PAUL</t>
@@ -572,7 +572,7 @@
     <t>alex.ordonez.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>Kvn8/Ab0</t>
+    <t>d03DSNTe</t>
   </si>
   <si>
     <t>PALMA GARCIA MELYN JARITZA</t>
@@ -581,7 +581,7 @@
     <t>melyn.palma.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>5qdDX!/&amp;</t>
+    <t>CldT9h3s</t>
   </si>
   <si>
     <t>PAREDES MERO GHISLAINE ANAHI</t>
@@ -590,7 +590,7 @@
     <t>ghislaine.paredes.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>61YOYMf&amp;</t>
+    <t>tozm!6mI</t>
   </si>
   <si>
     <t>QUIJIJE PIANDA XIOMARA MISHELLE</t>
@@ -602,7 +602,7 @@
     <t>xiomara.quijije.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>p9&amp;DIm2E</t>
+    <t>PcfoH2X#</t>
   </si>
   <si>
     <t>SALAVARRIA AVEIGA YULIANA GUADALUPE</t>
@@ -611,7 +611,7 @@
     <t>yuliana.salavarria.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>Tg7NiVGv</t>
+    <t>pa2JjZzh</t>
   </si>
   <si>
     <t>SANTOS ALCIVAR JAIR SEBASTIAN</t>
@@ -620,7 +620,7 @@
     <t>jair.santos.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>&amp;89meZy5</t>
+    <t>5EgAzqKS</t>
   </si>
   <si>
     <t>SOLORZANO CANDELA JARITZA NOHEMY</t>
@@ -629,7 +629,7 @@
     <t>jaritza.solorzano.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>kKFMVxmT</t>
+    <t>X#lNYWg7</t>
   </si>
   <si>
     <t>VERA CEBALLOS MARIA CONCEPCION</t>
@@ -638,7 +638,7 @@
     <t>maria.vera.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>#&amp;MALt5H</t>
+    <t>YOYeSUd/</t>
   </si>
   <si>
     <t>ALAVA MUÑOZ BILL JARVI</t>
@@ -647,7 +647,7 @@
     <t>bill.alava.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>9X0zr/g/</t>
+    <t>la&amp;5ArdX</t>
   </si>
   <si>
     <t>ALCIVAR ZAMBRANO ESTHER JOMARA</t>
@@ -656,7 +656,7 @@
     <t>esther.alcivar.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>rhQicpmK</t>
+    <t>85u5GL98</t>
   </si>
   <si>
     <t>ALMEIDA LOOR MARIA VICTORIA</t>
@@ -665,7 +665,7 @@
     <t>maria.almeida.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>7SASvlI4</t>
+    <t>8ZhvDf32</t>
   </si>
   <si>
     <t>ANDRADE VILLAVICENCIO PABLO HUGO</t>
@@ -674,7 +674,7 @@
     <t>pablo.andrade.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>chTbQ6TS</t>
+    <t>yoR?4BVO</t>
   </si>
   <si>
     <t>AVENDAÑO YZQUIERDO ADRIANA ISABEL</t>
@@ -686,7 +686,7 @@
     <t>adriana.avendano.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>VPCbvwQB</t>
+    <t>rvZ#Z2F2</t>
   </si>
   <si>
     <t>BALUARTE PARRAGA MAYERLY NARCISA</t>
@@ -698,7 +698,7 @@
     <t>mayerly.baluarte.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>1H1b5Csa</t>
+    <t>GtCaxBGk</t>
   </si>
   <si>
     <t>BARRE CASTAÑEDA MAYERLI SOLANGE</t>
@@ -710,7 +710,7 @@
     <t>mayerli.barre.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>CfoJJdWf</t>
+    <t>0g9K5mlB</t>
   </si>
   <si>
     <t>BERMEO MENDOZA LESLY JULIETT</t>
@@ -719,7 +719,7 @@
     <t>lesly.bermeo.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>Xmp/dHHS</t>
+    <t>rvqNRTLu</t>
   </si>
   <si>
     <t>BRAVO ZAMBRANO DANA KATIUSKA</t>
@@ -728,7 +728,7 @@
     <t>dana.bravo.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>UCx9HGL0</t>
+    <t>#0bpTQpq</t>
   </si>
   <si>
     <t>CEDEÑO ALVARADO JORGE LUIS</t>
@@ -737,7 +737,7 @@
     <t>jorge.cedeno.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>lgbSioy5</t>
+    <t>ve4#hLbZ</t>
   </si>
   <si>
     <t>DOMINGUEZ ANGEL ANAIS ZULEYMA</t>
@@ -749,7 +749,7 @@
     <t>anais.dominguez.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>BcIAOAX&amp;</t>
+    <t>yX8YX5At</t>
   </si>
   <si>
     <t>ESPARZA TELLO ERICKA MARIA</t>
@@ -761,7 +761,7 @@
     <t>ericka.esparza.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>c0yUS75A</t>
+    <t>aJp7daXz</t>
   </si>
   <si>
     <t>GRAIN MARCILLO MICHAEL JOSUE</t>
@@ -770,7 +770,7 @@
     <t>michael.grain.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>ukrUsUAE</t>
+    <t>TdZEfl7V</t>
   </si>
   <si>
     <t>JAMA ZAMBRANO ROBERTH XAVIER</t>
@@ -779,7 +779,7 @@
     <t>roberth.jama@espam.edu.ec</t>
   </si>
   <si>
-    <t>/v!g!q95</t>
+    <t>#6uaB6rh</t>
   </si>
   <si>
     <t>LARA BONE ANGIE NICOLE</t>
@@ -791,7 +791,7 @@
     <t>angie.lara.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>Xv88WtZF</t>
+    <t>R2mzbB7e</t>
   </si>
   <si>
     <t>LOPEZ DELGADO DAYANA NICOLLE</t>
@@ -800,7 +800,7 @@
     <t>dayana.lopez.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>FXhOHIGy</t>
+    <t>wSeFvv!I</t>
   </si>
   <si>
     <t>MELO CENTENO HELEN SOFIA</t>
@@ -809,7 +809,7 @@
     <t>helen.melo.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>OtZARuyY</t>
+    <t>yXFhGH1!</t>
   </si>
   <si>
     <t>MENDOZA ORTEGA ANGELO DANIEL</t>
@@ -818,7 +818,7 @@
     <t>angelo.mendoza.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>0rEsHi7f</t>
+    <t>/iZqMr7M</t>
   </si>
   <si>
     <t>MERO CARRILLO EMELY MILENA</t>
@@ -827,7 +827,7 @@
     <t>emely.mero.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>6UpI4W0f</t>
+    <t>183XGgVn</t>
   </si>
   <si>
     <t>MITE MENENDEZ GEORGE ISAAC</t>
@@ -836,7 +836,7 @@
     <t>george.mite.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>vFL&amp;sxW/</t>
+    <t>/xJyc&amp;Yv</t>
   </si>
   <si>
     <t>MONCAYO CAGUA LADY NOHELIA</t>
@@ -845,7 +845,7 @@
     <t>lady.moncayo.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>Wn8pjWX5</t>
+    <t>mtSQUCax</t>
   </si>
   <si>
     <t>ORMAZA ALCIVAR NOHELIA MILENA</t>
@@ -854,7 +854,7 @@
     <t>nohelia.ormaza.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>98K8F0F2</t>
+    <t>2WgFEue!</t>
   </si>
   <si>
     <t>PANTA CANDELA YONNY ALEXANDER</t>
@@ -863,7 +863,7 @@
     <t>jonny.panta.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>J1x8G7js</t>
+    <t>QXZmRG28</t>
   </si>
   <si>
     <t>QUINATOA SIMALIZA YAJAIRA NICOLE</t>
@@ -872,7 +872,7 @@
     <t>yajaira.quinatoa.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>i2RIO&amp;ES</t>
+    <t>x!1yaIJd</t>
   </si>
   <si>
     <t>REYNA RAMIREZ SINDY MAHOLY</t>
@@ -881,7 +881,7 @@
     <t>sindy.reyna.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>Osn&amp;iK4X</t>
+    <t>QYYGShIo</t>
   </si>
   <si>
     <t>RODRIGUEZ ANCHUNDIA LUIS FERNANDO</t>
@@ -890,7 +890,7 @@
     <t>luis.rodriguez.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>RI2WOcl9</t>
+    <t>cRHg1K!w</t>
   </si>
   <si>
     <t>SABANDO TUAREZ MILENA BLANCA</t>
@@ -899,7 +899,7 @@
     <t>milena.sabando.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>uO6bO!RB</t>
+    <t>xS5&amp;KGfo</t>
   </si>
   <si>
     <t>SALAZAR RAMIREZ YARITZA GABRIELA</t>
@@ -908,7 +908,7 @@
     <t>yaritza.salazar.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>UcwtG5fM</t>
+    <t>R0sHszx&amp;</t>
   </si>
   <si>
     <t>SHIGUANGO AGUINDA KATTY MIRELLA</t>
@@ -917,7 +917,7 @@
     <t>katty.shiguango.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>nb8gHh8t</t>
+    <t>FxyQsFcn</t>
   </si>
   <si>
     <t>VACA MORALES JOSE EDUARDO</t>
@@ -926,7 +926,7 @@
     <t>jose.vaca.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>daBUqRy!</t>
+    <t>OvXj4KOi</t>
   </si>
   <si>
     <t>VELASQUEZ MEJIA ARIANNA ELIZABETH</t>
@@ -935,7 +935,7 @@
     <t>arianna.velasquez.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>&amp;dx&amp;DC7u</t>
+    <t>s2ESPRhl</t>
   </si>
   <si>
     <t>VELEZ CEDEÑO YANDRY ALAIN</t>
@@ -944,7 +944,7 @@
     <t>yandry.velez.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>LNOInmkP</t>
+    <t>hHXnlAhS</t>
   </si>
   <si>
     <t>VERA ZAMORA DIXON YAIR</t>
@@ -953,7 +953,7 @@
     <t>dixon.vera.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>nIRxMpFK</t>
+    <t>dczfkJFa</t>
   </si>
   <si>
     <t>ZAMBRANO FORTIS RICARDO MIGUEL</t>
@@ -962,7 +962,7 @@
     <t>ricardo.zambrano.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>Yq6GiLn#</t>
+    <t>oMrBPxF2</t>
   </si>
   <si>
     <t>ALVARADO DUEÑAS KARELYS VANESSA</t>
@@ -971,7 +971,7 @@
     <t>karelys.alvarado.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>2kZVyOfB</t>
+    <t>Ips5Tg0k</t>
   </si>
   <si>
     <t>ANDRADE ILES ALVIERY JAHIR</t>
@@ -983,7 +983,7 @@
     <t>alviery.andrade.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>85DdSQjH</t>
+    <t>XGaB&amp;gTz</t>
   </si>
   <si>
     <t>ARTEAGA RAMOS DIEGO ALEJANDRO</t>
@@ -992,7 +992,7 @@
     <t>diego.arteaga.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>R?rojOsb</t>
+    <t>vDqEZSJD</t>
   </si>
   <si>
     <t>BARREIRO INTRIAGO STEFANY PIERINA</t>
@@ -1001,7 +1001,7 @@
     <t>stefany.barreiro.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>MLShJ9Jp</t>
+    <t>qsYvM980</t>
   </si>
   <si>
     <t>BRAVO QUINTERO SARA NICOLE</t>
@@ -1013,7 +1013,7 @@
     <t>sara.bravo.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>3MSwvINh</t>
+    <t>mtFp8lTP</t>
   </si>
   <si>
     <t>CABALLERO MUÑOZ STEVEN FABRICIO</t>
@@ -1022,7 +1022,7 @@
     <t>steven.caballero.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>92w7mWqH</t>
+    <t>XSV!w0i/</t>
   </si>
   <si>
     <t>CARRASCO VERA LUCAS JOSUE</t>
@@ -1031,7 +1031,7 @@
     <t>lucas.carrasco.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>wYn7yc4K</t>
+    <t>2SLiaB8Y</t>
   </si>
   <si>
     <t>CEDEÑO MURILLO KENNER STEVEN</t>
@@ -1040,7 +1040,7 @@
     <t>kenner.cedeno.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>L&amp;lVy86s</t>
+    <t>mUqYSQWm</t>
   </si>
   <si>
     <t>CUERO PAZMIÑO EMMANUEL JOSUE</t>
@@ -1049,7 +1049,7 @@
     <t>emmanuel.cuero.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>e389vcjd</t>
+    <t>X&amp;e4e5!W</t>
   </si>
   <si>
     <t>LADINES CASTRO MIRKA DARLISHA</t>
@@ -1061,7 +1061,7 @@
     <t>mirka.ladines.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>ybUzuEZv</t>
+    <t>usEdXAyH</t>
   </si>
   <si>
     <t>LARA FRANCO MICHAEL ARGEL</t>
@@ -1073,7 +1073,7 @@
     <t>michael.lara.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>?WcXPpCn</t>
+    <t>?FG&amp;B3vV</t>
   </si>
   <si>
     <t>LEYTHON QUIÑONEZ JEIMY SILVANA</t>
@@ -1085,7 +1085,7 @@
     <t>jeimy.leython.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>S8xcqAX4</t>
+    <t>EhUfluOp</t>
   </si>
   <si>
     <t>LOOR LOOR GENESIS DANIELA</t>
@@ -1094,7 +1094,7 @@
     <t>genesis.loor.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>6d8hK#xv</t>
+    <t>KoISo7xF</t>
   </si>
   <si>
     <t>MATAMBA GUANGA THALIA VALERIA</t>
@@ -1106,7 +1106,7 @@
     <t>thalia.matamba.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>Z#YI8qXE</t>
+    <t>F&amp;rJjDA?</t>
   </si>
   <si>
     <t>MENDOZA DE LA CRUZ MARTHA DANIELA</t>
@@ -1115,7 +1115,7 @@
     <t>martha.mendoza.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>6?gwtvH2</t>
+    <t>vV83#8FU</t>
   </si>
   <si>
     <t>MINOTA BORJA ALEXANDER JAHIR</t>
@@ -1127,7 +1127,7 @@
     <t>alexander.minota.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>dTj5ebNo</t>
+    <t>OnPRZ?XC</t>
   </si>
   <si>
     <t>NAVIA LOOR JOSE EFRAIN</t>
@@ -1136,7 +1136,7 @@
     <t>jose.navia.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>Zr&amp;uVz1l</t>
+    <t>kqYNq6?P</t>
   </si>
   <si>
     <t>PILATAXI UTRERAS KATHERIN JULIETH</t>
@@ -1145,7 +1145,7 @@
     <t>katherin.pilataxi.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>?#sFvJ?Z</t>
+    <t>/E&amp;e/VzL</t>
   </si>
   <si>
     <t>PINARGOTE CARREÑO FELIX JOEL</t>
@@ -1154,7 +1154,7 @@
     <t>felix.pinargote.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>qLAzSOIt</t>
+    <t>9TlICi!v</t>
   </si>
   <si>
     <t>PONCE ZAMBRANO ARIANA JESSENIA</t>
@@ -1163,7 +1163,7 @@
     <t>ariana.ponce.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>7T49y1UD</t>
+    <t>irpccmrr</t>
   </si>
   <si>
     <t>QUINATOA SIMALIZA KELLY MARIUXI</t>
@@ -1172,7 +1172,7 @@
     <t>kelly.quinatoa.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>QH#Rn82?</t>
+    <t>aC2EBL?U</t>
   </si>
   <si>
     <t>ROSADO ROSADO JOEL JESUS</t>
@@ -1181,7 +1181,7 @@
     <t>joel.rosado.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>T3tt8vvg</t>
+    <t>6yYCR0cv</t>
   </si>
   <si>
     <t>SANMARTIN TAPIA CARMEN EDITH</t>
@@ -1190,7 +1190,7 @@
     <t>carmen.sanmartin.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>Qxg8&amp;iTK</t>
+    <t>mSkDVoKS</t>
   </si>
   <si>
     <t>SAYAY DAGUA JOSELYN NICOL</t>
@@ -1202,7 +1202,7 @@
     <t>joselyn.sayay.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>dbWojRUP</t>
+    <t>kMT6t9QD</t>
   </si>
   <si>
     <t>SOLORZANO PAZMIÑO DECCY DANIELA</t>
@@ -1211,7 +1211,7 @@
     <t>deccy.solorzano.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>NIF8Ma/k</t>
+    <t>ZDB5kThn</t>
   </si>
   <si>
     <t>VERGARA ZAMBRANO MATIAS ALEXANDER</t>
@@ -1220,7 +1220,7 @@
     <t>matias.vergara.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>?exOA8#M</t>
+    <t>oeqHpRMk</t>
   </si>
   <si>
     <t>ZAMBRANO INTRIAGO FRAYDA JESSENIA</t>
@@ -1229,7 +1229,7 @@
     <t>frayda.zambrano.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>lkHka7gV</t>
+    <t>Lj2WqnG7</t>
   </si>
   <si>
     <t>ZAMBRANO VALAREZO ANDREA LISBETH</t>
@@ -1238,7 +1238,7 @@
     <t>andrea.zambrano.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>HeAb5nS9</t>
+    <t>FEQcw/ve</t>
   </si>
   <si>
     <t>AGUAS MARTINEZ KEVIN SNAIDER</t>
@@ -1247,7 +1247,7 @@
     <t>kevin.aguas@espam.edu.ec</t>
   </si>
   <si>
-    <t>bQJI&amp;9Ky</t>
+    <t>/MdE5mj6</t>
   </si>
   <si>
     <t>ANDRADE GARCIA LUZ CRUCELINA</t>
@@ -1256,7 +1256,7 @@
     <t>luz.andrade.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>oJq8BbEo</t>
+    <t>#XM&amp;yY?G</t>
   </si>
   <si>
     <t>BARBERAN MERO HELEN ADRIANA</t>
@@ -1265,7 +1265,7 @@
     <t>helen.barberan.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>ZzKc5r#W</t>
+    <t>zV8ls3vc</t>
   </si>
   <si>
     <t>BARROS ZAMBRANO DANIEL ANGEL</t>
@@ -1274,7 +1274,7 @@
     <t>daniel.barros.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>E3hZ!UqT</t>
+    <t>y3RNDlQ0</t>
   </si>
   <si>
     <t>BASURTO ZAMBRANO CARLOS RAUL</t>
@@ -1283,7 +1283,7 @@
     <t>carlos.basurto.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>yukMFXAp</t>
+    <t>SCWsQsct</t>
   </si>
   <si>
     <t>BRAVO BRAVO ANTHONY ADEMIR</t>
@@ -1292,7 +1292,7 @@
     <t>anthony.bravo.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>8ZbxhZ#i</t>
+    <t>/L1ck72r</t>
   </si>
   <si>
     <t>CANTOS VERA ANGELA AUXILIADORA</t>
@@ -1301,7 +1301,7 @@
     <t>angela.cantos.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>u?8bU1px</t>
+    <t>0Gf0Z!Nk</t>
   </si>
   <si>
     <t>CASTRO BOLAÑO FANNY TATIANA</t>
@@ -1310,7 +1310,7 @@
     <t>fanny.castro.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>E6fVccje</t>
+    <t>11Lk&amp;9fg</t>
   </si>
   <si>
     <t>CASTRO SALTOS MATTEWS FARID</t>
@@ -1319,7 +1319,7 @@
     <t>mattews.castro.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>dTwGHU1R</t>
+    <t>NC4O3HE5</t>
   </si>
   <si>
     <t>CHANCAY RADE ANTONY GABRIEL</t>
@@ -1328,7 +1328,7 @@
     <t>antony.chancay@espam.edu.ec</t>
   </si>
   <si>
-    <t>6V4W4YVJ</t>
+    <t>bL&amp;74!km</t>
   </si>
   <si>
     <t>COBEÑA GARCIA YOMAYRA ALEXANDRA</t>
@@ -1337,7 +1337,7 @@
     <t>yomayra.cobena.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>tVyoD3P3</t>
+    <t>yiewUAa#</t>
   </si>
   <si>
     <t>CRUZ ERAZO JOSE MIGUEL</t>
@@ -1346,7 +1346,7 @@
     <t>jose.cruz.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>6uLglcTk</t>
+    <t>WAzsdy&amp;4</t>
   </si>
   <si>
     <t>GARCIA ANDRADE MARIA ROSA</t>
@@ -1355,7 +1355,7 @@
     <t>maria.garcia.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>!hk#r5/Q</t>
+    <t>ldUrjSsl</t>
   </si>
   <si>
     <t>HERNANDEZ LOPEZ LUIS DAVID</t>
@@ -1364,7 +1364,7 @@
     <t>luis.hernandez.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>2gfJn2xb</t>
+    <t>?91sszGQ</t>
   </si>
   <si>
     <t>LEON FUENTES JONATHAN ALBINO</t>
@@ -1376,7 +1376,7 @@
     <t>jonathan.leon.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>/H8?&amp;rs4</t>
+    <t>jf2!MVvX</t>
   </si>
   <si>
     <t>MACIAS ANCHUNDIA ROBERTO CARLOS</t>
@@ -1385,7 +1385,7 @@
     <t>roberto.macias.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>YC&amp;4ko!a</t>
+    <t>8f7lWH3Q</t>
   </si>
   <si>
     <t>MAZA AGREDA KAREN IBETH</t>
@@ -1394,7 +1394,7 @@
     <t>karen.maza.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>R/OztPt8</t>
+    <t>aD80jCug</t>
   </si>
   <si>
     <t>MUÑOZ MERA LITZY ALEJANDRA</t>
@@ -1403,7 +1403,7 @@
     <t>litzy.munoz.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>foOtdGy0</t>
+    <t>uB5QUOCe</t>
   </si>
   <si>
     <t>MUÑOZ MOLINA ANDRY FABIAN</t>
@@ -1412,7 +1412,7 @@
     <t>andry.munoz.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>OIJZyNXX</t>
+    <t>ilM38WpW</t>
   </si>
   <si>
     <t>ORMAZA VALENCIA KEVIN JAVIER</t>
@@ -1424,7 +1424,7 @@
     <t>kevin.ormaza.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>G3H5/AK4</t>
+    <t>DMcujt28</t>
   </si>
   <si>
     <t>PAZMIÑO PINCAY NAYELLY AGUSTINA</t>
@@ -1433,7 +1433,7 @@
     <t>nayelly.pazmino.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>PySeRQsA</t>
+    <t>LxgAaiZa</t>
   </si>
   <si>
     <t>POZO PONCE DANNY IVAN</t>
@@ -1442,7 +1442,7 @@
     <t>danny.pozo@espam.edu.ec</t>
   </si>
   <si>
-    <t>6Yuj4L8A</t>
+    <t>#rWEzBWo</t>
   </si>
   <si>
     <t>QUIJANO MEZA MARIANA LISETH</t>
@@ -1451,7 +1451,7 @@
     <t>mariana.quijano.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>71q3XZ!Y</t>
+    <t>G3EABe6a</t>
   </si>
   <si>
     <t>QUIÑONEZ AÑAPA RODRIGO MANUEL</t>
@@ -1463,7 +1463,7 @@
     <t>rodrigo.quinonez.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>pwggZad2</t>
+    <t>jfhYGl3g</t>
   </si>
   <si>
     <t>SANTOS ALCIVAR KELVIN YOEL</t>
@@ -1472,7 +1472,7 @@
     <t>kelvin.santos.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>zCm?bt3L</t>
+    <t>Y2QGIx9M</t>
   </si>
   <si>
     <t>SOLORZANO RODRIGUEZ SANDY</t>
@@ -1481,7 +1481,7 @@
     <t>sandy.solorzano.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>Bzrdll7k</t>
+    <t>OAnZsVpO</t>
   </si>
   <si>
     <t>TOALA PIN ARIEL ALEJANDRO</t>
@@ -1493,7 +1493,7 @@
     <t>ariel.toala.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>pD?&amp;luqO</t>
+    <t>57hDb!Yu</t>
   </si>
   <si>
     <t>VEGA INTRIAGO MIGUEL ANGEL</t>
@@ -1502,7 +1502,7 @@
     <t>miguel.vega.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>i7cojcSD</t>
+    <t>MqMyvRb3</t>
   </si>
   <si>
     <t>VELASQUEZ RODRIGUEZ GEMA BELEN</t>
@@ -1511,7 +1511,7 @@
     <t>gema.velasquez.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>XlXMPrms</t>
+    <t>YhSs3yDE</t>
   </si>
   <si>
     <t>VERA MENDOZA MARIA VICTORIA</t>
@@ -1520,7 +1520,7 @@
     <t>maria.veram.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>ngzHgyI#</t>
+    <t>CPPf2dcW</t>
   </si>
   <si>
     <t>VERA PALACIOS JORDANO SAUL</t>
@@ -1529,7 +1529,7 @@
     <t>jordano.vera.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>iMM/zjRw</t>
+    <t>hjM3cx!c</t>
   </si>
   <si>
     <t>ZAMBRANO MERA VALENTINA MONSERRATE</t>
@@ -1538,7 +1538,7 @@
     <t>valentina.zambrano.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>YHVkvAmC</t>
+    <t>pSzOC#j0</t>
   </si>
   <si>
     <t>ZAMBRANO QUIMI JUAN GEORGE</t>
@@ -1550,7 +1550,7 @@
     <t>juan.zambrano.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>HrRHuNAR</t>
+    <t>clBcY3Jf</t>
   </si>
   <si>
     <t>ALCIVAR ZAMBRANO GEOMAYRA KATHERINE</t>
@@ -1562,7 +1562,7 @@
     <t>geomayra.alcivar.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>wmb4p/zd</t>
+    <t>ko1SG3CV</t>
   </si>
   <si>
     <t>ANDRADE CASTILLO CLAUDIA VICTORIA</t>
@@ -1571,7 +1571,7 @@
     <t>claudia.andrade.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>iWmqzdU6</t>
+    <t>Sh42!Xjo</t>
   </si>
   <si>
     <t>ANGUISACA CUENCA ALEXANDRA CECIBEL</t>
@@ -1580,7 +1580,7 @@
     <t>alexandra.anguisaca.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>wb&amp;i2#G3</t>
+    <t>hs8G5B!I</t>
   </si>
   <si>
     <t>BARIAS GUARACA LESLY NAYHELY</t>
@@ -1589,7 +1589,7 @@
     <t>lesly.barias.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>8elRWxjs</t>
+    <t>2TtZKK7h</t>
   </si>
   <si>
     <t>BARROS VERA ANGEL DAVID</t>
@@ -1598,7 +1598,7 @@
     <t>angel.barros.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>glBdfBMu</t>
+    <t>W!3LwO4P</t>
   </si>
   <si>
     <t>BAZURTO SANTOS KENNIA KATHERINE</t>
@@ -1607,7 +1607,7 @@
     <t>kennia.bazurto.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>7qTlePSf</t>
+    <t>yo3vSS#l</t>
   </si>
   <si>
     <t>BRAVO BAZURTO GISSELA MARIA</t>
@@ -1616,7 +1616,7 @@
     <t>gissela.bravo.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>vNtiYOXJ</t>
+    <t>tY9ySpvJ</t>
   </si>
   <si>
     <t>BUSTAMANTE YANEZ ANTHONY MICHEL</t>
@@ -1625,7 +1625,7 @@
     <t>anthony.bustamante.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>I?//LxW#</t>
+    <t>ouEyftCi</t>
   </si>
   <si>
     <t>CASTRO SOLORZANO NIURKA JULIANA</t>
@@ -1634,7 +1634,7 @@
     <t>niurka.castro.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>rR4dw/ev</t>
+    <t>n6xiPtdq</t>
   </si>
   <si>
     <t>CEDEÑO CEDEÑO YOHANA VANESA</t>
@@ -1643,7 +1643,7 @@
     <t>yohana.cedeno.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>jIb3LDdU</t>
+    <t>CflpKbj4</t>
   </si>
   <si>
     <t>CEDEÑO INTRIAGO JEAN PIERRE</t>
@@ -1652,7 +1652,7 @@
     <t>jean.cedeno@espam.edu.ec</t>
   </si>
   <si>
-    <t>FngHGtio</t>
+    <t>R4BuNbb?</t>
   </si>
   <si>
     <t>DELGADO CEVALLOS MARIA JOSE</t>
@@ -1661,7 +1661,7 @@
     <t>maria.delgado.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>qUv2s2fl</t>
+    <t>ClPQdArW</t>
   </si>
   <si>
     <t>ERAZO MORALES GABRIELA ALEJANDRA</t>
@@ -1670,7 +1670,7 @@
     <t>gabriela.erazo.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>OS0A&amp;Ucp</t>
+    <t>L/fO!lB/</t>
   </si>
   <si>
     <t>INTRIAGO ZAMBRANO LUIS JOSE</t>
@@ -1679,7 +1679,7 @@
     <t>luis.intriagoz.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>F7Xpk2NZ</t>
+    <t>1!yy9&amp;Z8</t>
   </si>
   <si>
     <t>LOOR ORTIZ YORDY DAVID</t>
@@ -1688,7 +1688,7 @@
     <t>yordy.loor.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>!dCQwa&amp;4</t>
+    <t>WrzNXxO0</t>
   </si>
   <si>
     <t>LOZANO GAMEZ THALIA VANESSA</t>
@@ -1700,7 +1700,7 @@
     <t>thalia.lozano.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>YbJ47yPx</t>
+    <t>&amp;zhgsUan</t>
   </si>
   <si>
     <t>MONTES RODRIGUEZ ROLANDO ANTONIO</t>
@@ -1709,7 +1709,7 @@
     <t>rolando.montes.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>1I0fNkcK</t>
+    <t>JO#P&amp;yqJ</t>
   </si>
   <si>
     <t>PALMA RENDON ARGENIS ARTURO</t>
@@ -1718,7 +1718,7 @@
     <t>argenis.palma@espam.edu.ec</t>
   </si>
   <si>
-    <t>Lws4wymU</t>
+    <t>Nw2tY#3b</t>
   </si>
   <si>
     <t>PAREDES YUMBILLO KATTY MARGOTH</t>
@@ -1730,7 +1730,7 @@
     <t>katty.paredes.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>Q8ukFXZ6</t>
+    <t>t3fujZMg</t>
   </si>
   <si>
     <t>PARRALES DELGADO ALAN SEBASTIAN</t>
@@ -1739,7 +1739,7 @@
     <t>alan.parrales.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>U9gbg&amp;nr</t>
+    <t>RcG8vzis</t>
   </si>
   <si>
     <t>PATA CEDEÑO ROSA JUANA</t>
@@ -1751,7 +1751,7 @@
     <t>rosa.pata.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>&amp;BrbqOjf</t>
+    <t>uFPZ2YxB</t>
   </si>
   <si>
     <t>RETETE BASARAN KEVIN ALEXANDER</t>
@@ -1760,7 +1760,7 @@
     <t>kevin.retete.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>T&amp;ZyFXyv</t>
+    <t>BzJ&amp;ALdc</t>
   </si>
   <si>
     <t>ROMAN MACIAS ESTEFANIA ISABEL</t>
@@ -1769,7 +1769,7 @@
     <t>estefania.roman.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>Z69jdBO/</t>
+    <t>p0?V47CA</t>
   </si>
   <si>
     <t>SANDOVAL UREÑA FERNANDA DAYANARA</t>
@@ -1781,7 +1781,7 @@
     <t>fernanda.sandoval.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>06UUz0SL</t>
+    <t>8kF&amp;cMLY</t>
   </si>
   <si>
     <t>SUBIAGA RAMOS LUIS ALEJANDRO</t>
@@ -1790,7 +1790,7 @@
     <t>luis.subiaga.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>UWa&amp;UfbM</t>
+    <t>L#6bLNUH</t>
   </si>
   <si>
     <t>VELASQUEZ AVEIGA MARIA JESUS</t>
@@ -1799,7 +1799,7 @@
     <t>maria.velasquez.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>uPPDAm6z</t>
+    <t>W&amp;dCc37w</t>
   </si>
   <si>
     <t>VELEZ CHEME JORDAN ESTEBAN</t>
@@ -1811,7 +1811,7 @@
     <t>jordan.velez.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>p7oy2olk</t>
+    <t>acW0iy1G</t>
   </si>
   <si>
     <t>VELEZ MENDOZA DARWIN ALEXIS</t>
@@ -1820,7 +1820,7 @@
     <t>darwin.velez.4623@espam.edu.ec</t>
   </si>
   <si>
-    <t>8RuZZZSC</t>
+    <t>P5XewS4t</t>
   </si>
   <si>
     <t>VERA BARRE RONNY ARISTIDES</t>
@@ -1829,7 +1829,7 @@
     <t>ronny.vera.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>/CILGm5L</t>
+    <t>9NB!Q3p1</t>
   </si>
   <si>
     <t>ZAMBRANO MACIAS DIEGO ANDRES</t>
@@ -1838,7 +1838,7 @@
     <t>diego.zambrano.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>ZsGBzM7w</t>
+    <t>DBa3C9qI</t>
   </si>
   <si>
     <t>ZAMBRANO REYNA YERSY ENRIQUE</t>
@@ -1847,7 +1847,7 @@
     <t>yersy.zambrano.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>FHFMhuYs</t>
+    <t>PM2nTOef</t>
   </si>
   <si>
     <t>CARDENAS MIELES CRISTHYAN ALBERTO</t>
@@ -1856,7 +1856,7 @@
     <t>cristhyan.cardenas.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>QbZQ/r&amp;?</t>
+    <t>xbSWb#Tz</t>
   </si>
   <si>
     <t>CASTRO CARRERA JUAN CARLOS</t>
@@ -1865,7 +1865,7 @@
     <t>juan.castro.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>37zDzLxZ</t>
+    <t>BJ3Rz!Kj</t>
   </si>
   <si>
     <t>CHAVEZ MIRANDA ANTHONY MIGUEL</t>
@@ -1874,7 +1874,7 @@
     <t>anthony.chavez@espam.edu.ec</t>
   </si>
   <si>
-    <t>BKldHyEC</t>
+    <t>#pw5t0QO</t>
   </si>
   <si>
     <t>CUSME ZAMBRANO MICHAEL RICHARD</t>
@@ -1883,7 +1883,7 @@
     <t>michael.cusme.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>Sh8BzO/J</t>
+    <t>7rtWDV9A</t>
   </si>
   <si>
     <t>GILER SALAZAR CARLOS IGNACIO</t>
@@ -1892,7 +1892,7 @@
     <t>carlos.giler@espam.edu.ec</t>
   </si>
   <si>
-    <t>b6DFnCpy</t>
+    <t>F9uQ0Qnp</t>
   </si>
   <si>
     <t>HERNANDEZ DIAZ MARIA JOSE</t>
@@ -1904,7 +1904,7 @@
     <t>maria.hernandez.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>SBWnjS3g</t>
+    <t>q#6AlI4W</t>
   </si>
   <si>
     <t>HIDALGO MOREIRA ESTELA NATHALY</t>
@@ -1913,7 +1913,7 @@
     <t>estela.hidalgo.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>ASZI47qd</t>
+    <t>J&amp;wONwpu</t>
   </si>
   <si>
     <t>HIDALGO MOREIRA PIERINA NATHALY</t>
@@ -1922,7 +1922,7 @@
     <t>pierina.hidalgo.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>yl3V?xmY</t>
+    <t>Ac#NGYzw</t>
   </si>
   <si>
     <t>LARA QUIJIJE PAMELA JULISSA</t>
@@ -1931,7 +1931,7 @@
     <t>pamela.lara.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>D/#FFkpu</t>
+    <t>uyhdbBlD</t>
   </si>
   <si>
     <t>LOOR PITIZACA FRANK ALLAN</t>
@@ -1940,7 +1940,7 @@
     <t>frank.loor.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>N&amp;Ymi7x9</t>
+    <t>1En/#EUG</t>
   </si>
   <si>
     <t>LOOR ZAMBRANO GEMA STEFANIA</t>
@@ -1949,7 +1949,7 @@
     <t>gema.loor.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>7!?P2BAc</t>
+    <t>jZtJ&amp;?YF</t>
   </si>
   <si>
     <t>PALACIOS TAPIA CESAR XAVIER</t>
@@ -1958,7 +1958,7 @@
     <t>cesar.palacios.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>1BMpqu35</t>
+    <t>EGjfM4Jy</t>
   </si>
   <si>
     <t>PEÑARRETA LANCHE PILAR MICAELA</t>
@@ -1967,7 +1967,7 @@
     <t>pilar.penarreta.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>ohHeeOmg</t>
+    <t>f7C9!kWj</t>
   </si>
   <si>
     <t>PILLASAGUA PINARGOTE INGRID MAYERLI</t>
@@ -1979,7 +1979,7 @@
     <t>ingrid.pillasagua.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>yPz27lb&amp;</t>
+    <t>uMaSwK0z</t>
   </si>
   <si>
     <t>QUIJIJE CEDEÑO GEMA LISBETH</t>
@@ -1988,7 +1988,7 @@
     <t>gema.quijije.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>IG7CyAfl</t>
+    <t>XKy1DUQI</t>
   </si>
   <si>
     <t>RUIZ ZAMBRANO VICTOR ANDRES</t>
@@ -1997,7 +1997,7 @@
     <t>victor.ruiz.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>YDrXw2yc</t>
+    <t>higB#Pgm</t>
   </si>
   <si>
     <t>SALTOS SALAZAR MAYERLY VERONICA</t>
@@ -2009,7 +2009,7 @@
     <t>mayerly.saltos.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>dqT#0KOW</t>
+    <t>giH#2bfn</t>
   </si>
   <si>
     <t>SANTANA PALOMINO FRANKLIN JOHAO</t>
@@ -2018,7 +2018,7 @@
     <t>franklin.santana.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>9SB3kCMH</t>
+    <t>jQvWT7XV</t>
   </si>
   <si>
     <t>TAFFUR TOASA OLGA MARIA</t>
@@ -2027,7 +2027,7 @@
     <t>olga.taffur@espam.edu.ec</t>
   </si>
   <si>
-    <t>!g6pZYow</t>
+    <t>SCCv5&amp;lj</t>
   </si>
   <si>
     <t>TOALA MACAY JOSSELYN VALERIA</t>
@@ -2036,7 +2036,7 @@
     <t>josselyn.toala.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>dXhHYlQi</t>
+    <t>dprkLD?U</t>
   </si>
   <si>
     <t>VALLADARES ALCIVAR LUIS EDUARDO</t>
@@ -2045,7 +2045,7 @@
     <t>luis.valladares@espam.edu.ec</t>
   </si>
   <si>
-    <t>42qVjBo#</t>
+    <t>xWiWtSk!</t>
   </si>
   <si>
     <t>VERA ZAMBRANO HILTER JOSSBEL</t>
@@ -2054,7 +2054,7 @@
     <t>hilter.vera.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>JQh31qr8</t>
+    <t>HGAsjvas</t>
   </si>
   <si>
     <t>VERGARA TABOADA ROMEL ALEXANDER</t>
@@ -2063,7 +2063,7 @@
     <t>romel.vergara@espam.edu.ec</t>
   </si>
   <si>
-    <t>mL4sOsov</t>
+    <t>Vn81rCVJ</t>
   </si>
   <si>
     <t>ZAMBRANO RIVAS NALLELY LISBETH</t>
@@ -2072,7 +2072,7 @@
     <t>nallely.zambrano.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>?#ptVFwj</t>
+    <t>0/cw!3d2</t>
   </si>
   <si>
     <t>ABAD MIRANDA KENYA ESTEFANIA</t>
@@ -2084,7 +2084,7 @@
     <t>kenya.abad.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>dCJnEXAC</t>
+    <t>rkn7knAE</t>
   </si>
   <si>
     <t>ALAVA MORENO MILTON ANTERO</t>
@@ -2093,7 +2093,7 @@
     <t>milton.alava@espam.edu.ec</t>
   </si>
   <si>
-    <t>qhmqZ&amp;Pw</t>
+    <t>wt4M66pt</t>
   </si>
   <si>
     <t>ALMEIDA CEDEÑO CINDY BELEN</t>
@@ -2102,7 +2102,7 @@
     <t>cindy.almeida.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>5YV!q7tE</t>
+    <t>lg?VnWLE</t>
   </si>
   <si>
     <t>ANCHUNDIA VERA JUSTIN JOSE</t>
@@ -2111,7 +2111,7 @@
     <t>justin.anchundia.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>6ou?aS?d</t>
+    <t>BUKCtkF0</t>
   </si>
   <si>
     <t>AYONG PALADINES MARIA FERNANDA</t>
@@ -2120,7 +2120,7 @@
     <t>maria.ayong.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>KNBPN4V3</t>
+    <t>AEg8Vm?e</t>
   </si>
   <si>
     <t>BRAVO CEVALLOS MELANY PIERINA</t>
@@ -2129,7 +2129,7 @@
     <t>melany.bravo.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>lpR4Am0b</t>
+    <t>sJz84m6?</t>
   </si>
   <si>
     <t>CASANOVA SALAZAR ROSEMBERG STEVEN</t>
@@ -2138,7 +2138,7 @@
     <t>rosemberg.casanova@espam.edu.ec</t>
   </si>
   <si>
-    <t>07dp!e/A</t>
+    <t>ClD8?emU</t>
   </si>
   <si>
     <t>FERNANDEZ TORRES JALENI SCARLETH</t>
@@ -2150,7 +2150,7 @@
     <t>jaleni.fernandez.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>J?2cDnU!</t>
+    <t>DUG4Ymha</t>
   </si>
   <si>
     <t>HERRERA SABANDO WILLIAMS ANDRES</t>
@@ -2159,7 +2159,7 @@
     <t>williams.herrera.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>Ml&amp;QfRti</t>
+    <t>6DlmDwxr</t>
   </si>
   <si>
     <t>LOPEZ PALADINES EDGAR JOSE</t>
@@ -2168,7 +2168,7 @@
     <t>edgar.lopez.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>!g!MQuN!</t>
+    <t>iOoKi!zm</t>
   </si>
   <si>
     <t>MEDRANDA GONZALES LINCI YERLEY</t>
@@ -2177,7 +2177,7 @@
     <t>linci.medranda.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>jMGG8iXK</t>
+    <t>cPY9npb?</t>
   </si>
   <si>
     <t>MENDIETA GILER JORDY EDUARDO</t>
@@ -2186,7 +2186,7 @@
     <t>jordy.mendieta.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>i1!/06wf</t>
+    <t>LXgnL&amp;Zt</t>
   </si>
   <si>
     <t>MORENO VELIZ ALDRIN DAIRY</t>
@@ -2195,7 +2195,7 @@
     <t>aldrin.moreno.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>4W2jah?4</t>
+    <t>hf9q/dCZ</t>
   </si>
   <si>
     <t>MUÑOZ VERA GENESIS LOURDES</t>
@@ -2204,7 +2204,7 @@
     <t>genesis.munoz.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>ZjTz&amp;wbn</t>
+    <t>Z8fhsKU&amp;</t>
   </si>
   <si>
     <t>PLAZA CHOEZ RODOLFO JEAMPIERRE</t>
@@ -2213,7 +2213,7 @@
     <t>rodolfo.plaza.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>8GidTJZg</t>
+    <t>lGgglqRE</t>
   </si>
   <si>
     <t>PRECIADO MOREIRA PABLO ANTHONY</t>
@@ -2225,7 +2225,7 @@
     <t>pablo.preciado@espam.edu.ec</t>
   </si>
   <si>
-    <t>9SegUDAX</t>
+    <t>nouYRDRz</t>
   </si>
   <si>
     <t>SABANDO SALCEDO GENESIS BETZABETH</t>
@@ -2237,7 +2237,7 @@
     <t>genesis.sabando.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>MFNloE3F</t>
+    <t>istQ7B25</t>
   </si>
   <si>
     <t>SOLEDISPA ZAMBRANO CRISTHINA ISABELA</t>
@@ -2246,7 +2246,7 @@
     <t>cristhina.soledispa.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>MTFF6Oiy</t>
+    <t>SG&amp;9CYdh</t>
   </si>
   <si>
     <t>SOLORZANO RODRIGUEZ EVELYN AGUSTINA</t>
@@ -2255,7 +2255,7 @@
     <t>evelyn.solorzanor@espam.edu.ec</t>
   </si>
   <si>
-    <t>XGUoBdsz</t>
+    <t>bQmMsR6o</t>
   </si>
   <si>
     <t>VERA AGUAS KELVIN JEAN PIERRE</t>
@@ -2264,7 +2264,7 @@
     <t>kelvin.vera@espam.edu.ec</t>
   </si>
   <si>
-    <t>qjRBZ?yX</t>
+    <t>#w1DGXgh</t>
   </si>
   <si>
     <t>VERA LOOR DENYS ESTEFANIA</t>
@@ -2273,7 +2273,7 @@
     <t>denys.vera.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>AkoM09Zm</t>
+    <t>0P9csF0/</t>
   </si>
   <si>
     <t>VINCES PIN MARIA FERNANDA</t>
@@ -2282,7 +2282,7 @@
     <t>maria.vinces.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>5/x?0NyB</t>
+    <t>YPbwn4kN</t>
   </si>
   <si>
     <t>ZAMBRANO ZAMBRANO MARIA BELEN</t>
@@ -2291,7 +2291,7 @@
     <t>mariab.zambranoz.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>VjzJzMQ2</t>
+    <t>9R/G/8u9</t>
   </si>
   <si>
     <t>ALCIVAR ZAMBRANO DIANA ESTHER</t>
@@ -2300,7 +2300,7 @@
     <t>diana.alcivar.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>eNwM?mNQ</t>
+    <t>oi0dBs0q</t>
   </si>
   <si>
     <t>ALVAREZ BORJA ANGHELO JOSUE</t>
@@ -2309,7 +2309,7 @@
     <t>anghelo.alvarez.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>E42gHCtP</t>
+    <t>vBhto8W8</t>
   </si>
   <si>
     <t>BRAVO MENDOZA ALBERDY JAVIER</t>
@@ -2318,7 +2318,7 @@
     <t>alberdy.bravo@espam.edu.ec</t>
   </si>
   <si>
-    <t>OBwjR!TV</t>
+    <t>OTo1KuOg</t>
   </si>
   <si>
     <t>GARCIA PARRAGA FATIMA MARIA</t>
@@ -2327,7 +2327,7 @@
     <t>fatima.garcia.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>Ln&amp;xGs6T</t>
+    <t>wff90n4y</t>
   </si>
   <si>
     <t>GRACIA PRATT WILINTON JOSUE</t>
@@ -2339,7 +2339,7 @@
     <t>wilinton.gracia.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>!?C?JrGM</t>
+    <t>nuhAvATS</t>
   </si>
   <si>
     <t>MARRETT BEDOYA MISHELLE MARCELA</t>
@@ -2351,7 +2351,7 @@
     <t>mishelle.marrett.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>kF2sO0Re</t>
+    <t>a0H?pi!c</t>
   </si>
   <si>
     <t>MERA CASTILLO NATHALY VIRGINIA</t>
@@ -2360,7 +2360,7 @@
     <t>nathaly.mera.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>kQ0D21s#</t>
+    <t>8u8PNngV</t>
   </si>
   <si>
     <t>ROSERO VERA LUIS ANDRES</t>
@@ -2369,7 +2369,7 @@
     <t>luis.rosero@espam.edu.ec</t>
   </si>
   <si>
-    <t>zOpFlsb9</t>
+    <t>S2PJ0znZ</t>
   </si>
   <si>
     <t>SANTISTEBAN BENAVIDES JOSUE ROMARIO</t>
@@ -2378,7 +2378,7 @@
     <t>josue.santisteban.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>Vg1po2Es</t>
+    <t>?HRt!GQr</t>
   </si>
   <si>
     <t>SOLORZANO CUSME GEMA JULIANA</t>
@@ -2387,7 +2387,7 @@
     <t>gemaju.solorzano@espam.edu.ec</t>
   </si>
   <si>
-    <t>kpzMyVV0</t>
+    <t>PKfd9Wso</t>
   </si>
   <si>
     <t>TORRES PINARGOTE MAHOLY</t>
@@ -2396,7 +2396,7 @@
     <t>maholy.torres.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>ALx/Tn63</t>
+    <t>!7!fGlDp</t>
   </si>
   <si>
     <t>ZAMBRANO BRAVO LEANDRO ISMAEL</t>
@@ -2405,7 +2405,7 @@
     <t>leandro.zambrano.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>gtwt?g2k</t>
+    <t>zvKxoTub</t>
   </si>
   <si>
     <t>ZAMBRANO GARCIA HENRY ARTURO</t>
@@ -2414,7 +2414,7 @@
     <t>henry.zambrano.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>aeMVlAF2</t>
+    <t>?ISNVDgh</t>
   </si>
   <si>
     <t>BARRE PARRAGA BETSY BEATRIZ</t>
@@ -2423,7 +2423,7 @@
     <t>betsy.barre.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>ip/ozQ/g</t>
+    <t>SEjsWAKl</t>
   </si>
   <si>
     <t>CEDEÑO CEDEÑO CAMILA PATRICIA</t>
@@ -2435,7 +2435,7 @@
     <t>camila.cedeno.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>rxvZ6Fjg</t>
+    <t>X1QYMS08</t>
   </si>
   <si>
     <t>CEDEÑO SOLORZANO ANTHONY STEVEN</t>
@@ -2444,7 +2444,7 @@
     <t>anthony.cedenos.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>v05j32We</t>
+    <t>IZo2RRVl</t>
   </si>
   <si>
     <t>CEDEÑO TUAREZ ANGIE LISSETTE</t>
@@ -2453,7 +2453,7 @@
     <t>angie.cedeno@espam.edu.ec</t>
   </si>
   <si>
-    <t>1gO/8Rdu</t>
+    <t>7?xSZkpm</t>
   </si>
   <si>
     <t>CHAVEZ LANDAZURI JACKSON JAIR</t>
@@ -2465,7 +2465,7 @@
     <t>jackson.chavez.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>ybjY5HT/</t>
+    <t>i!0xDnIs</t>
   </si>
   <si>
     <t>CHICA MOREIRA MARIA FERNANDA</t>
@@ -2474,7 +2474,7 @@
     <t>maria.chica.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>yFeX3VEH</t>
+    <t>o#SxXiSF</t>
   </si>
   <si>
     <t>GARCIA ZAMBRANO WENDY YAMILETH</t>
@@ -2483,7 +2483,7 @@
     <t>wendy.garcia.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>oDwKR8EE</t>
+    <t>z1O9IHGr</t>
   </si>
   <si>
     <t>GARZON CEDEÑO FRANCESCO RUBEN</t>
@@ -2492,7 +2492,7 @@
     <t>francesco.garzon.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>ivFs40ob</t>
+    <t>UgX2PUCm</t>
   </si>
   <si>
     <t>GUERRERO CEDEÑO MICHAEL JORDY</t>
@@ -2501,7 +2501,7 @@
     <t>michael.guerrero.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>7ywCpNjA</t>
+    <t>P1V5whqs</t>
   </si>
   <si>
     <t>MEDRANDA GONZALES CRISTHIAN JOSE</t>
@@ -2510,7 +2510,7 @@
     <t>cristhian.medranda@espam.edu.ec</t>
   </si>
   <si>
-    <t>5elbrW6u</t>
+    <t>dIq#DDMA</t>
   </si>
   <si>
     <t>ORELLANA ANCHUNDIA JESUS MIGUEL</t>
@@ -2519,7 +2519,7 @@
     <t>jesus.orellana@espam.edu.ec</t>
   </si>
   <si>
-    <t>!r6f#o9Q</t>
+    <t>HiICp5TX</t>
   </si>
   <si>
     <t>ORTIZ GOMEZ EDUARDO ANDRES</t>
@@ -2528,7 +2528,7 @@
     <t>eduardo.ortiz@espam.edu.ec</t>
   </si>
   <si>
-    <t>VENT6oDs</t>
+    <t>9BQ#vvIC</t>
   </si>
   <si>
     <t>PAZMIÑO MERA SHANDE ALEXANDER</t>
@@ -2537,7 +2537,7 @@
     <t>shande.pazmino.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>VGr!&amp;gu6</t>
+    <t>OerFINBK</t>
   </si>
   <si>
     <t>PEÑARRIETA BAZURTO ERICK ANDRES</t>
@@ -2546,7 +2546,7 @@
     <t>erick.penarrieta@espam.edu.ec</t>
   </si>
   <si>
-    <t>vdSrRRZm</t>
+    <t>9?0VGtei</t>
   </si>
   <si>
     <t>RIERA GAVILANES IZHURY MILLENYTH</t>
@@ -2558,7 +2558,7 @@
     <t>izhury.riera.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>xu64tgxF</t>
+    <t>q#LVJd53</t>
   </si>
   <si>
     <t>RIVERA CEDEÑO RIVALDO JOSE</t>
@@ -2570,7 +2570,7 @@
     <t>rivaldo.rivera.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>2MdM5O81</t>
+    <t>e6l51B1/</t>
   </si>
   <si>
     <t>SALDARRIAGA ARTEAGA OMAIRA MARIBI</t>
@@ -2579,7 +2579,7 @@
     <t>omaira.saldarriaga@espam.edu.ec</t>
   </si>
   <si>
-    <t>IVMjwqUl</t>
+    <t>fkt3Xt1#</t>
   </si>
   <si>
     <t>SANDOVAL MERA NALLELY STEFANIA</t>
@@ -2588,7 +2588,7 @@
     <t>nallely.sandoval.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>3dgDhuOt</t>
+    <t>x?eQaRuz</t>
   </si>
   <si>
     <t>SUQUI CANGO BRYAN EDUARDO</t>
@@ -2600,7 +2600,7 @@
     <t>bryan.suqui.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>vNxt2bQi</t>
+    <t>ed3Uo1r7</t>
   </si>
   <si>
     <t>VERDUGA ZAMBRANO CARLOS ANDRES</t>
@@ -2609,7 +2609,7 @@
     <t>carlos.verduga.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>IfVqvNZ5</t>
+    <t>WpplEZzA</t>
   </si>
   <si>
     <t>ZAMBRANO LARA MARVIN RENE</t>
@@ -2618,7 +2618,7 @@
     <t>marvin.zambrano.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>drjo7!DQ</t>
+    <t>zCulmDMx</t>
   </si>
   <si>
     <t>ZAMBRANO OBANDO KELVIN JOSUE</t>
@@ -2630,7 +2630,7 @@
     <t>kelvin.zambrano.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>bf!m8Fk7</t>
+    <t>?vm6JGMj</t>
   </si>
   <si>
     <t>ZAPATA QUINCHE ANDREA CAROLINA</t>
@@ -2639,7 +2639,7 @@
     <t>andrea.zapata.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>YbQJhjia</t>
+    <t>UAW1aiyk</t>
   </si>
   <si>
     <t>ALMEIDA PEREZ ANGEL FERNANDO</t>
@@ -2648,7 +2648,7 @@
     <t>angel.almeida@espam.edu.ec</t>
   </si>
   <si>
-    <t>kEBE#zvu</t>
+    <t>9OG&amp;lPOJ</t>
   </si>
   <si>
     <t>CEDEÑO PARRAGA MELANY NALLELY</t>
@@ -2657,7 +2657,7 @@
     <t>melany.cedeno.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>IV8?Ipbl</t>
+    <t>H4RIpW/z</t>
   </si>
   <si>
     <t>CEDEÑO SALVATIERRA JENIFFER ALEJANDRA</t>
@@ -2666,7 +2666,7 @@
     <t>jeniffer.cedenosal@espam.edu.ec</t>
   </si>
   <si>
-    <t>Pdbg0lDm</t>
+    <t>z3b20/kv</t>
   </si>
   <si>
     <t>FERNANDEZ ARTEAGA SCHEZNARDA EDITH</t>
@@ -2675,7 +2675,7 @@
     <t>scheznarda.fernandez.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>W04R3!Nm</t>
+    <t>zq!8?n4K</t>
   </si>
   <si>
     <t>GANCHOZO VELEZ EMILY JULEXY</t>
@@ -2684,7 +2684,7 @@
     <t>emily.ganchozo.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>/hv99pzc</t>
+    <t>C1kwMv3N</t>
   </si>
   <si>
     <t>LEON VIZÑAY ROQUE JAVIER</t>
@@ -2696,7 +2696,7 @@
     <t>roque.leon@espam.edu.ec</t>
   </si>
   <si>
-    <t>6bTB0k7f</t>
+    <t>c9ANbBRR</t>
   </si>
   <si>
     <t>LOOR LOOR EVELYN YAMILETH</t>
@@ -2705,7 +2705,7 @@
     <t>evelynya.loor@espam.edu.ec</t>
   </si>
   <si>
-    <t>lYlZY1J3</t>
+    <t>sXtb4mlt</t>
   </si>
   <si>
     <t>LOOR MOREIRA MELANIE NOEMI</t>
@@ -2714,7 +2714,7 @@
     <t>melanie.loorm.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>sl/6kDG/</t>
+    <t>Qqcie?Jb</t>
   </si>
   <si>
     <t>LOPEZ ESTACIO ROSA ANGELICA</t>
@@ -2723,7 +2723,7 @@
     <t>rosa.lopez@espam.edu.ec</t>
   </si>
   <si>
-    <t>ypErebW#</t>
+    <t>xmiZkKCl</t>
   </si>
   <si>
     <t>MENDOZA MUÑOZ FLOR ANTONELA</t>
@@ -2732,7 +2732,7 @@
     <t>flor.mendoza.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>#FgebR3/</t>
+    <t>HOWaeadf</t>
   </si>
   <si>
     <t>MERELO SOLORZANO NAIDELYN MISHELLE</t>
@@ -2741,7 +2741,7 @@
     <t>naidelyn.merelo.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>aDqF8DkB</t>
+    <t>m30Fra#f</t>
   </si>
   <si>
     <t>MOREIRA LOOR FABIAN ALEXANDER</t>
@@ -2750,7 +2750,7 @@
     <t>fabian.moreira@espam.edu.ec</t>
   </si>
   <si>
-    <t>!gpZ/JB5</t>
+    <t>Zc17jMpI</t>
   </si>
   <si>
     <t>PAZMIÑO FALCONES JOSE MIGUEL</t>
@@ -2759,7 +2759,7 @@
     <t>jose.pazmino@espam.edu.ec</t>
   </si>
   <si>
-    <t>/thohO#r</t>
+    <t>5m/R0vAm</t>
   </si>
   <si>
     <t>PEÑAFIEL PITA BRITHANNY MICAELA</t>
@@ -2771,7 +2771,7 @@
     <t>brithanny.penafiel.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>lMmE!zof</t>
+    <t>0B1WfHcZ</t>
   </si>
   <si>
     <t>PINTO PALACIOS JOSE ANTONIO</t>
@@ -2780,7 +2780,7 @@
     <t>jose.pinto@espam.edu.ec</t>
   </si>
   <si>
-    <t>rnOfrHor</t>
+    <t>oSxQANcC</t>
   </si>
   <si>
     <t>RENTERIA VALENCIA NEURYS GYSSELA</t>
@@ -2792,7 +2792,7 @@
     <t>neurys.renteria@espam.edu.ec</t>
   </si>
   <si>
-    <t>4UQ#mm3Z</t>
+    <t>toA45NC&amp;</t>
   </si>
   <si>
     <t>RIVAS ZAMBRANO ALISSON KATIUSKA</t>
@@ -2801,7 +2801,7 @@
     <t>alisson.rivas.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>aDrEZkHh</t>
+    <t>Iv4IwwFP</t>
   </si>
   <si>
     <t>TORRES VARGAS KARELIS ANDREINA</t>
@@ -2813,7 +2813,7 @@
     <t>karelis.torres@espam.edu.ec</t>
   </si>
   <si>
-    <t>B!5G2GZp</t>
+    <t>QZSUV5JT</t>
   </si>
   <si>
     <t>VALDIVIESO CHUNG DANIEL JAFET</t>
@@ -2822,7 +2822,7 @@
     <t>daniel.valdivieso.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>YBnVVdpX</t>
+    <t>h7Rzh7KP</t>
   </si>
   <si>
     <t>VASCONEZ GONZALEZ FRANCISCO ALESSIO</t>
@@ -2831,7 +2831,7 @@
     <t>francisco.vasconez.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>tbRtFM88</t>
+    <t>CJkbG0s3</t>
   </si>
   <si>
     <t>VELEZ ORTEGA BORIS ANDRES</t>
@@ -2840,7 +2840,7 @@
     <t>boris.velez.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>B7y#ckKw</t>
+    <t>?dhD78kx</t>
   </si>
   <si>
     <t>VERA ESTUPIÑAN BRYAN FRANCISCO</t>
@@ -2849,7 +2849,7 @@
     <t>bryan.vera@espam.edu.ec</t>
   </si>
   <si>
-    <t>5!!9edm0</t>
+    <t>UNuWzV62</t>
   </si>
   <si>
     <t>VERA LOOR ARIANA PAOLA</t>
@@ -2858,7 +2858,7 @@
     <t>ariana.vera.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>/2HTJ#pN</t>
+    <t>xxBVo4IW</t>
   </si>
   <si>
     <t>ZAMBRANO VEGA AURA ARACELY</t>
@@ -2867,7 +2867,7 @@
     <t>aura.zambranov@espam.edu.ec</t>
   </si>
   <si>
-    <t>P5ENaIxx</t>
+    <t>RM8ILDzX</t>
   </si>
   <si>
     <t>ALMEIDA ZAMBRANO HALINTONG VICENTE</t>
@@ -2876,7 +2876,7 @@
     <t>halintong.almeida@espam.edu.ec</t>
   </si>
   <si>
-    <t>wJI7buMX</t>
+    <t>A#pJ11qR</t>
   </si>
   <si>
     <t>AYALA VILLAFUERTE NAHOMY NAYELY</t>
@@ -2885,7 +2885,7 @@
     <t>nahomy.ayala@espam.edu.ec</t>
   </si>
   <si>
-    <t>K6Kv4DX7</t>
+    <t>8cjhQN1t</t>
   </si>
   <si>
     <t>BASURTO CEDEÑO ITALO JORDANO</t>
@@ -2894,7 +2894,7 @@
     <t>italo.basurto.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>MJFOf&amp;NU</t>
+    <t>d/G93j4w</t>
   </si>
   <si>
     <t>CASTRO TAIPE YERIK LEXANDER</t>
@@ -2903,7 +2903,7 @@
     <t>yerik.castro.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>hOKU2UFn</t>
+    <t>PRmuKL3R</t>
   </si>
   <si>
     <t>CEDEÑO GARCIA CARLOS PAUL</t>
@@ -2912,7 +2912,7 @@
     <t>carlos.cedeno.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>uJ#T#p#a</t>
+    <t>ui!iixu?</t>
   </si>
   <si>
     <t>COBEÑA ZAMBRANO EDIS ARIEL</t>
@@ -2921,7 +2921,7 @@
     <t>edis.cobena@espam.edu.ec</t>
   </si>
   <si>
-    <t>Nmxu6?Bl</t>
+    <t>N2Pp2CVR</t>
   </si>
   <si>
     <t>CORDOVA MUGUERZA ADRIANA NICOLLE</t>
@@ -2930,7 +2930,7 @@
     <t>adriana.muguersa.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>baTinZse</t>
+    <t>BVRtnf!3</t>
   </si>
   <si>
     <t>COTERA PIN MAYERLY DAYANARA</t>
@@ -2939,7 +2939,7 @@
     <t>mayerly.cotera.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>1y4!iiF9</t>
+    <t>gPn92ZR5</t>
   </si>
   <si>
     <t>CUENCA CUSME CECILIA ALEXANDRA</t>
@@ -2948,7 +2948,7 @@
     <t>cecilia.cuenca@espam.edu.ec</t>
   </si>
   <si>
-    <t>YB23RopG</t>
+    <t>cL!V?Upb</t>
   </si>
   <si>
     <t>FERNANDEZ ARTEAGA ANGIE MISHELLE</t>
@@ -2957,7 +2957,7 @@
     <t>angie.fernandez.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>#PqgPu&amp;H</t>
+    <t>HJTJfdXo</t>
   </si>
   <si>
     <t>LATA QUINCHI SANDRA LOURDES</t>
@@ -2966,7 +2966,7 @@
     <t>sandra.lata.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>lXVXinbt</t>
+    <t>UDgbY0KB</t>
   </si>
   <si>
     <t>MEJICANGO CALLE JAZMIN LISBETH</t>
@@ -2978,7 +2978,7 @@
     <t>jazmin.mejicango.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>mIQPDV0v</t>
+    <t>LkMXDoWn</t>
   </si>
   <si>
     <t>MENDOZA GANCHOZO DOMENICA NICOLE</t>
@@ -2987,7 +2987,7 @@
     <t>domenica.mendoza.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>BEkR!UH6</t>
+    <t>4uqVy4Cr</t>
   </si>
   <si>
     <t>MOREIRA CEVALLOS NAYELY VANESSA</t>
@@ -2996,7 +2996,7 @@
     <t>nayely.moreira@espam.edu.ec</t>
   </si>
   <si>
-    <t>ayNE#kDW</t>
+    <t>25NLCG2K</t>
   </si>
   <si>
     <t>MUÑOZ VERA MICHELLE VALENTINA</t>
@@ -3005,7 +3005,7 @@
     <t>michelle.munoz.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>dTYtgksB</t>
+    <t>D1jegsa1</t>
   </si>
   <si>
     <t>OLMOS RIVERA CLEOPATRA STEFANIA</t>
@@ -3014,7 +3014,7 @@
     <t>cleopatra.olmos.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>Yb63N7eR</t>
+    <t>x3OB5tMa</t>
   </si>
   <si>
     <t>PAREDES RODRIGUEZ GIBELY JARLETH</t>
@@ -3026,7 +3026,7 @@
     <t>gibely.paredes.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>k&amp;#&amp;xzvk</t>
+    <t>K8z?/!v5</t>
   </si>
   <si>
     <t>PERUGACHI MECIAS GEOVANNY ALEJANDRO</t>
@@ -3035,7 +3035,7 @@
     <t>geovanny.perugachi.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>oh8S?Gns</t>
+    <t>!h&amp;lpbtQ</t>
   </si>
   <si>
     <t>PITA MACIAS RUBEN DARIO</t>
@@ -3044,7 +3044,7 @@
     <t>ruben.pita@espam.edu.ec</t>
   </si>
   <si>
-    <t>Z7MZzwj&amp;</t>
+    <t>IZQGijk&amp;</t>
   </si>
   <si>
     <t>ROSADO QUIROZ JANDRY FABRICIO</t>
@@ -3053,7 +3053,7 @@
     <t>jandry.rosado.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>wQ0sXCQ1</t>
+    <t>wi0QQ9wZ</t>
   </si>
   <si>
     <t>SANCHEZ CHOEZ BERTHA DOLORES</t>
@@ -3062,7 +3062,7 @@
     <t>bertha.choez.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>XXMZ5OKM</t>
+    <t>EmYYJ6y5</t>
   </si>
   <si>
     <t>VALENCIA MARCILLO JENIFFER KAROLINA</t>
@@ -3071,7 +3071,7 @@
     <t>jenifferk.valenciam@espam.edu.ec</t>
   </si>
   <si>
-    <t>rZedyqHk</t>
+    <t>DlSNut55</t>
   </si>
   <si>
     <t>VELASQUEZ GUADAMUD MARIO DAMIAN</t>
@@ -3080,7 +3080,7 @@
     <t>mario.velasquez@espam.edu.ec</t>
   </si>
   <si>
-    <t>RT41m#8i</t>
+    <t>RWciE26i</t>
   </si>
   <si>
     <t>VELEZ RIVAS JOFFRE GEOVANNY</t>
@@ -3089,7 +3089,7 @@
     <t>joffre.velez.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>aclFII/Y</t>
+    <t>&amp;4IXGnW/</t>
   </si>
   <si>
     <t>VELEZ ZAMBRANO GEMA BRIGITH</t>
@@ -3098,7 +3098,7 @@
     <t>gema.velez.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>0vCFO4KL</t>
+    <t>Tu/GtP1e</t>
   </si>
   <si>
     <t>VERA CEVALLOS CARMEN GISSELLA</t>
@@ -3107,7 +3107,7 @@
     <t>carmen.vera@espam.edu.ec</t>
   </si>
   <si>
-    <t>HbsBTaIa</t>
+    <t>MZlUuZ61</t>
   </si>
   <si>
     <t>VERA SOLORZANO CARLOS NEPTALI</t>
@@ -3116,7 +3116,7 @@
     <t>carlos.veras@espam.edu.ec</t>
   </si>
   <si>
-    <t>QDv?dERt</t>
+    <t>W!xjTA&amp;r</t>
   </si>
   <si>
     <t>VERA VERA YUSTHYN YARLETH</t>
@@ -3125,7 +3125,7 @@
     <t>yusthyn.vera.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>nOr93nME</t>
+    <t>E0sbD8Q5</t>
   </si>
   <si>
     <t>VIDAL SABANDO MARIA KATHERINE</t>
@@ -3134,7 +3134,7 @@
     <t>maria.vidal.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>Yh9kjfhJ</t>
+    <t>kBKLlo&amp;I</t>
   </si>
   <si>
     <t>ZAMBRANO ALCIVAR EMILIO JOSE</t>
@@ -3143,7 +3143,7 @@
     <t>emilio.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>4IW/lwsw</t>
+    <t>/kH8CpHC</t>
   </si>
   <si>
     <t>ZAMBRANO AVEIGA MAYRA ALEXANDRA</t>
@@ -3152,7 +3152,7 @@
     <t>mayra.zambrano.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>sqOTLqYj</t>
+    <t>b52n&amp;#qq</t>
   </si>
   <si>
     <t>ZAMBRANO VERA MARIA BEATRIZ</t>
@@ -3161,7 +3161,7 @@
     <t>maria.zambrano.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>vRafX3KO</t>
+    <t>NJi3HTJW</t>
   </si>
   <si>
     <t>ALCIVAR RODRIGUEZ STEFANY LISETH</t>
@@ -3170,7 +3170,7 @@
     <t>stefany.alcivar.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>N3XLdbAr</t>
+    <t>iWVpSiIN</t>
   </si>
   <si>
     <t>ANGULO GLENN YURANI MAGERLI</t>
@@ -3182,7 +3182,7 @@
     <t>yurani.angulo.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>SR4EglKK</t>
+    <t>?M&amp;X0MZI</t>
   </si>
   <si>
     <t>ARTEAGA TRIVIÑO CAMILA</t>
@@ -3191,7 +3191,7 @@
     <t>camila.arteaga.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>T7xSYQg&amp;</t>
+    <t>8IpHQ28R</t>
   </si>
   <si>
     <t>BALDERRAMO CABRERA JOSE GERMAN</t>
@@ -3200,7 +3200,7 @@
     <t>jose.balderramo.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>Wmsw5Ixx</t>
+    <t>hWrfj/RR</t>
   </si>
   <si>
     <t>BRAVO MUÑOZ JEAN MYCKEL</t>
@@ -3209,7 +3209,7 @@
     <t>jean.bravomu@espam.edu.ec</t>
   </si>
   <si>
-    <t>MRp8YkSI</t>
+    <t>cQIS82dV</t>
   </si>
   <si>
     <t>BRAVO SANTANA JUNIOR XAVIER</t>
@@ -3218,7 +3218,7 @@
     <t>juniorx.bravos@espam.edu.ec</t>
   </si>
   <si>
-    <t>eJ1&amp;XXGK</t>
+    <t>5ws5bRZy</t>
   </si>
   <si>
     <t>CAGUA RODRIGUEZ NAYELY ANAHI</t>
@@ -3227,7 +3227,7 @@
     <t>nayely.cagua.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>UP&amp;6TuUp</t>
+    <t>mtQCIa0d</t>
   </si>
   <si>
     <t>CALDERON RODRIGUEZ FATIMA DANIELA</t>
@@ -3236,7 +3236,7 @@
     <t>fatima.calderon.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>X8BtLGFR</t>
+    <t>sX5zTylZ</t>
   </si>
   <si>
     <t>CASTILLO MEJIA MARIA CARLOTA</t>
@@ -3245,7 +3245,7 @@
     <t>maria.castillo.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>magbjM3&amp;</t>
+    <t>h#SPutT8</t>
   </si>
   <si>
     <t>CEDEÑO CUSME DAYANARA NARCISA</t>
@@ -3254,7 +3254,7 @@
     <t>dayanara.cedeno.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>A!/ZzxEo</t>
+    <t>6LFYG!3t</t>
   </si>
   <si>
     <t>CELORIO VERA PETER PABLO</t>
@@ -3263,7 +3263,7 @@
     <t>peter.celorio.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>8?RjMMn1</t>
+    <t>lFoh?PV6</t>
   </si>
   <si>
     <t>COOL MORENO DIANA ESTHEFANIA</t>
@@ -3272,7 +3272,7 @@
     <t>diana.cool@espam.edu.ec</t>
   </si>
   <si>
-    <t>y/Q&amp;pkSo</t>
+    <t>Lajp/xPA</t>
   </si>
   <si>
     <t>DELGADO GARZON PAOLA FERNANDA</t>
@@ -3281,7 +3281,7 @@
     <t>paola.delgadog.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>?lYz6voj</t>
+    <t>tE81A9sN</t>
   </si>
   <si>
     <t>DOMINGUEZ DOMINGUEZ ROMINA MELISSA</t>
@@ -3290,7 +3290,7 @@
     <t>romina.dominguez@espam.edu.ec</t>
   </si>
   <si>
-    <t>DecU?Z0i</t>
+    <t>xZAGUKfQ</t>
   </si>
   <si>
     <t>GARCIA MUÑOZ EDDY SANTIAGO</t>
@@ -3299,7 +3299,7 @@
     <t>eddy.garcia@espam.edu.ec</t>
   </si>
   <si>
-    <t>/F6dALEk</t>
+    <t>tTjtWmws</t>
   </si>
   <si>
     <t>GARCIA PONCE LEONELA ANTONELLA</t>
@@ -3308,7 +3308,7 @@
     <t>leonela.garcia.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>SQ6oHv3?</t>
+    <t>R5/CSOqD</t>
   </si>
   <si>
     <t>LOPEZ SOLORZANO YIMMY</t>
@@ -3317,7 +3317,7 @@
     <t>yimmy.lopez@espam.edu.ec</t>
   </si>
   <si>
-    <t>afK6ceNc</t>
+    <t>ef/EYbz?</t>
   </si>
   <si>
     <t>LOPEZ ZAMBRANO JORGE ISAAC</t>
@@ -3326,7 +3326,7 @@
     <t>jorge.lopez.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>qKZxw&amp;59</t>
+    <t>YAlBnvAH</t>
   </si>
   <si>
     <t>MACIAS GUAGUA MAGERLY THAIS</t>
@@ -3338,7 +3338,7 @@
     <t>magerly.macias.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>XCR4krpu</t>
+    <t>s#DRt&amp;iG</t>
   </si>
   <si>
     <t>MARTINEZ SABANDO MARCELO EFRAIN</t>
@@ -3347,7 +3347,7 @@
     <t>marcelo.martinez@espam.edu.ec</t>
   </si>
   <si>
-    <t>ZUAkyUQe</t>
+    <t>dmx4DqC2</t>
   </si>
   <si>
     <t>MEDRANDA CEDEÑO IVAN ARTURO</t>
@@ -3356,7 +3356,7 @@
     <t>ivan.medranda@espam.edu.ec</t>
   </si>
   <si>
-    <t>K#yIvd!d</t>
+    <t>OmL7504R</t>
   </si>
   <si>
     <t>MENDOZA INTRIAGO KEYLA YAMIRA</t>
@@ -3365,7 +3365,7 @@
     <t>keyla.mendoza@espam.edu.ec</t>
   </si>
   <si>
-    <t>kPR0E1dx</t>
+    <t>a4GYVj55</t>
   </si>
   <si>
     <t>MENDOZA LOOR MARIAGRACIA</t>
@@ -3374,7 +3374,7 @@
     <t>mariagracia.mendoza@espam.edu.ec</t>
   </si>
   <si>
-    <t>?jK!ewb0</t>
+    <t>6PLW52hr</t>
   </si>
   <si>
     <t>MOREIRA VELEZ ANGELICA LISBETH</t>
@@ -3383,7 +3383,7 @@
     <t>angelica.moreira@espam.edu.ec</t>
   </si>
   <si>
-    <t>qd?oyH7U</t>
+    <t>j4JdQ7S6</t>
   </si>
   <si>
     <t>PATA HERRERA ESTRELLA TATIANA</t>
@@ -3392,7 +3392,7 @@
     <t>estrella.pata.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>A7sgzOj/</t>
+    <t>ijgeOWuh</t>
   </si>
   <si>
     <t>PONCE MIRANDA YOEL ISAIAS</t>
@@ -3401,7 +3401,7 @@
     <t>yoel.ponce@espam.edu.ec</t>
   </si>
   <si>
-    <t>81FARR38</t>
+    <t>I8R5Jf&amp;5</t>
   </si>
   <si>
     <t>RIVAS ALARCON ALISSON MAYERLI</t>
@@ -3413,7 +3413,7 @@
     <t>alisson.rivas@espam.edu.ec</t>
   </si>
   <si>
-    <t>VsAXfqT7</t>
+    <t>PhDt61Yg</t>
   </si>
   <si>
     <t>SABANDO VERA EMELY NOEMI</t>
@@ -3425,7 +3425,7 @@
     <t>emely.sabando.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>wo6Ks0hn</t>
+    <t>sg4#P9wR</t>
   </si>
   <si>
     <t>VELASQUEZ ZAMBRANO JUAN DIEGO</t>
@@ -3434,7 +3434,7 @@
     <t>juan.velasquez@espam.edu.ec</t>
   </si>
   <si>
-    <t>IiPU!Kh&amp;</t>
+    <t>kgbU4Whb</t>
   </si>
   <si>
     <t>ZAMBRANO MENDOZA JOSE LUIS</t>
@@ -3443,7 +3443,7 @@
     <t>jose.zambrano.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>2TLqlUfx</t>
+    <t>f5PzoEjL</t>
   </si>
   <si>
     <t>ZAMBRANO PEREZ CARLOS JULIO</t>
@@ -3452,7 +3452,7 @@
     <t>carlos.zambranop@espam.edu.ec</t>
   </si>
   <si>
-    <t>1?YNMEHI</t>
+    <t>tIL&amp;nqp9</t>
   </si>
   <si>
     <t>ACHIG GUALACATA EVELIN LISETTE</t>
@@ -3461,7 +3461,7 @@
     <t>evelin.achig@espam.edu.ec</t>
   </si>
   <si>
-    <t>GxLCS&amp;Vm</t>
+    <t>P&amp;H0NeZk</t>
   </si>
   <si>
     <t>AGUAS VERA JEICOL MIKE</t>
@@ -3470,7 +3470,7 @@
     <t>jeicol.aguas@espam.edu.ec</t>
   </si>
   <si>
-    <t>5rY5ZNSt</t>
+    <t>jDSOQoUX</t>
   </si>
   <si>
     <t>BRAVO BASURTO JUAN CARLOS</t>
@@ -3479,7 +3479,7 @@
     <t>juan.bravo@espam.edu.ec</t>
   </si>
   <si>
-    <t>iAsKt0e#</t>
+    <t>ulQ39jJ4</t>
   </si>
   <si>
     <t>CANTOS ZAMBRANO MARIA FERNANDA</t>
@@ -3488,7 +3488,7 @@
     <t>mariaf.cantos@espam.edu.ec</t>
   </si>
   <si>
-    <t>ezm4BfqM</t>
+    <t>cM&amp;B7P?N</t>
   </si>
   <si>
     <t>CASTILLO DELGADO LERENY JAMILEX</t>
@@ -3497,7 +3497,7 @@
     <t>lereny.castillo@espam.edu.ec</t>
   </si>
   <si>
-    <t>6W29sfRG</t>
+    <t>q?DCCzpO</t>
   </si>
   <si>
     <t>CASTILLO JACOME JHON JAIRO</t>
@@ -3506,7 +3506,7 @@
     <t>jhon.castillo@espam.edu.ec</t>
   </si>
   <si>
-    <t>6Pwhx0n9</t>
+    <t>ExAxB8xF</t>
   </si>
   <si>
     <t>CELORIO MENDOZA MIRIAN ALEJANDRA</t>
@@ -3515,7 +3515,7 @@
     <t>mirian.celorio@espam.edu.ec</t>
   </si>
   <si>
-    <t>YMLoEv94</t>
+    <t>RWLQIvj1</t>
   </si>
   <si>
     <t>CHUMO CHAVEZ JANINA BELEN</t>
@@ -3524,7 +3524,7 @@
     <t>janina.chumo@espam.edu.ec</t>
   </si>
   <si>
-    <t>Y7QTuezl</t>
+    <t>7IDLf!f5</t>
   </si>
   <si>
     <t>DELGADO LOPEZ MERCEDES ELIZABETH</t>
@@ -3533,7 +3533,7 @@
     <t>mercedes.delgado@espam.edu.ec</t>
   </si>
   <si>
-    <t>#9wj!yrQ</t>
+    <t>zd#Q3MF0</t>
   </si>
   <si>
     <t>ESTEVES OLVERA DIANA MILENA</t>
@@ -3542,7 +3542,7 @@
     <t>diana.esteves@espam.edu.ec</t>
   </si>
   <si>
-    <t>DyPYf&amp;hF</t>
+    <t>Toyfg&amp;!L</t>
   </si>
   <si>
     <t>FALLAIN ZAMBRANO MARIA ANGELICA</t>
@@ -3551,7 +3551,7 @@
     <t>maria.fallain@espam.edu.ec</t>
   </si>
   <si>
-    <t>#&amp;xteZaq</t>
+    <t>O?WHR0J6</t>
   </si>
   <si>
     <t>FERNANDEZ CEVALLOS FRANCISCO ESTUARDO</t>
@@ -3560,7 +3560,7 @@
     <t>francisco.fernandez@espam.edu.ec</t>
   </si>
   <si>
-    <t>07!RN7j0</t>
+    <t>wq8I1NR8</t>
   </si>
   <si>
     <t>HERNANDEZ HERNANDEZ MARIA ZULEMA</t>
@@ -3572,7 +3572,7 @@
     <t>maria.hernandez@espam.edu.ec</t>
   </si>
   <si>
-    <t>&amp;yQX8b7Y</t>
+    <t>Wh8OwL4D</t>
   </si>
   <si>
     <t>INTRIAGO SOLORZANO LEYDI GABRIELA</t>
@@ -3581,7 +3581,7 @@
     <t>leydi.intriago@espam.edu.ec</t>
   </si>
   <si>
-    <t>AqL?9yRO</t>
+    <t>WjjFlk/D</t>
   </si>
   <si>
     <t>MACIAS LOOR ELIAN RENE</t>
@@ -3590,7 +3590,7 @@
     <t>elian.macias@espam.edu.ec</t>
   </si>
   <si>
-    <t>gip3USau</t>
+    <t>7riv0rNs</t>
   </si>
   <si>
     <t>MACIAS PISCO NACHY MONSERRAT</t>
@@ -3599,7 +3599,7 @@
     <t>nachy.macias@espam.edu.ec</t>
   </si>
   <si>
-    <t>LsSBwF88</t>
+    <t>ejPoEhGa</t>
   </si>
   <si>
     <t>MERA LOOR JONAYKER REYNALDO</t>
@@ -3608,7 +3608,7 @@
     <t>jonayker.mera@espam.edu.ec</t>
   </si>
   <si>
-    <t>&amp;gVIlGM3</t>
+    <t>xEjCIShb</t>
   </si>
   <si>
     <t>MOREIRA BASURTO YORDY JOEL</t>
@@ -3617,7 +3617,7 @@
     <t>yordy.moreira@espam.edu.ec</t>
   </si>
   <si>
-    <t>BVyP4AIK</t>
+    <t>PaZ9owRr</t>
   </si>
   <si>
     <t>MOREIRA MENDOZA MAGDALENA JAMILETH</t>
@@ -3626,7 +3626,7 @@
     <t>magdalena.moreira@espam.edu.ec</t>
   </si>
   <si>
-    <t>#iEMcUzx</t>
+    <t>Atcu?WAf</t>
   </si>
   <si>
     <t>PANTUSIN MUGUERZA ANDREA LISSETH</t>
@@ -3635,7 +3635,7 @@
     <t>andrea.pantusin@espam.edu.ec</t>
   </si>
   <si>
-    <t>u6WfG/#v</t>
+    <t>97?&amp;aMvp</t>
   </si>
   <si>
     <t>PATIÑO MEJIA MILENA ANAHI</t>
@@ -3644,7 +3644,7 @@
     <t>milena.patino@espam.edu.ec</t>
   </si>
   <si>
-    <t>ae9anHmU</t>
+    <t>&amp;/PMYjNh</t>
   </si>
   <si>
     <t>PICO GARCIA ALLISON JANELY</t>
@@ -3653,7 +3653,7 @@
     <t>allison.pico@espam.edu.ec</t>
   </si>
   <si>
-    <t>a9BJDzX5</t>
+    <t>oBoKyg/b</t>
   </si>
   <si>
     <t>POVEDA SANTANA ENZO JAVIER</t>
@@ -3665,7 +3665,7 @@
     <t>enzo.poveda@espam.edu.ec</t>
   </si>
   <si>
-    <t>zjnqpPTt</t>
+    <t>Yrk0?4nJ</t>
   </si>
   <si>
     <t>QUIJIJE CEDEÑO NATALY SILVANA</t>
@@ -3674,7 +3674,7 @@
     <t>nataly.quijije@espam.edu.ec</t>
   </si>
   <si>
-    <t>Rd&amp;//gKS</t>
+    <t>AzFDUu4s</t>
   </si>
   <si>
     <t>ROBALINO DELGADO JORGE DAVID</t>
@@ -3683,7 +3683,7 @@
     <t>jorge.robalino@espam.edu.ec</t>
   </si>
   <si>
-    <t>scljdYwo</t>
+    <t>RXLlzobx</t>
   </si>
   <si>
     <t>SANCHEZ CASTILLO ADRIANA MICAELA</t>
@@ -3692,7 +3692,7 @@
     <t>adriana.sanchez@espam.edu.ec</t>
   </si>
   <si>
-    <t>r#5fZ9ND</t>
+    <t>2CRPl7zp</t>
   </si>
   <si>
     <t>SOLORZANO ALAVA TAIRUN FRANCISCO</t>
@@ -3701,7 +3701,7 @@
     <t>tairun.solorzano@espam.edu.ec</t>
   </si>
   <si>
-    <t>lsugohXI</t>
+    <t>GW1iPLCF</t>
   </si>
   <si>
     <t>SOLORZANO BAILON MARIA GABRIELA</t>
@@ -3710,7 +3710,7 @@
     <t>mariaga.solorzano@espam.edu.ec</t>
   </si>
   <si>
-    <t>gSHZSr5s</t>
+    <t>5hTWFaQ?</t>
   </si>
   <si>
     <t>TRUJILLO AGUAS MAYERLI DAYANA</t>
@@ -3719,7 +3719,7 @@
     <t>mayerli.trujillo@espam.edu.ec</t>
   </si>
   <si>
-    <t>TXlpzwnC</t>
+    <t>ZGGnM74E</t>
   </si>
   <si>
     <t>VERA VERA CINTHIA MARIA</t>
@@ -3728,7 +3728,7 @@
     <t>cinthia.verav@espam.edu.ec</t>
   </si>
   <si>
-    <t>T&amp;SqMZzk</t>
+    <t>Cq0RkjF8</t>
   </si>
   <si>
     <t>VIDAL INTRIAGO ANDY YOEL</t>
@@ -3737,7 +3737,7 @@
     <t>andy.vidal@espam.edu.ec</t>
   </si>
   <si>
-    <t>F02ow96g</t>
+    <t>z8a6viz0</t>
   </si>
   <si>
     <t>VINTIMILLA PROAÑO MARIA DE LOURDES</t>
@@ -3746,7 +3746,7 @@
     <t>maria.vintimilla@espam.edu.ec</t>
   </si>
   <si>
-    <t>y71ei05I</t>
+    <t>kwpQaeEO</t>
   </si>
   <si>
     <t>VITERI SANTOS VINICIO ORLEY</t>
@@ -3755,7 +3755,7 @@
     <t>vinicio.viteri@espam.edu.ec</t>
   </si>
   <si>
-    <t>9/?NCpvm</t>
+    <t>/aFLC46p</t>
   </si>
   <si>
     <t>ZAMBRANO CANO FRANCISCO JAVIER</t>
@@ -3764,7 +3764,7 @@
     <t>francisco.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>wdOJ3Jr!</t>
+    <t>ZmN1BgZ4</t>
   </si>
   <si>
     <t>ZAMBRANO NAVARRETE ELBA MARIA</t>
@@ -3773,7 +3773,7 @@
     <t>elba.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>KK5yytW#</t>
+    <t>ZXhamM87</t>
   </si>
   <si>
     <t>ZAMBRANO ZAMBRANO WENDY GISSELLA</t>
@@ -3782,7 +3782,7 @@
     <t>wendy.zambranoz@espam.edu.ec</t>
   </si>
   <si>
-    <t>wv&amp;6mase</t>
+    <t>iiDdkjqh</t>
   </si>
   <si>
     <t>ARANA RUEDA ANGY LISSETH</t>
@@ -3794,7 +3794,7 @@
     <t>angy.arana@espam.edu.ec</t>
   </si>
   <si>
-    <t>TiP7DwlT</t>
+    <t>7FwvIh?e</t>
   </si>
   <si>
     <t>ARTEAGA VARGAS ANDREA VALERIA</t>
@@ -3803,7 +3803,7 @@
     <t>andrea.arteaga@espam.edu.ec</t>
   </si>
   <si>
-    <t>4Myd2Tnv</t>
+    <t>nU7DSI2F</t>
   </si>
   <si>
     <t>BARBERAN SANCHEZ KARLA MICHELLE</t>
@@ -3812,7 +3812,7 @@
     <t>karla.barberan@espam.edu.ec</t>
   </si>
   <si>
-    <t>2fn4kmj?</t>
+    <t>uC1aXnNL</t>
   </si>
   <si>
     <t>BAZURTO MANZABA SORAYA STEFANIA</t>
@@ -3821,7 +3821,7 @@
     <t>soraya.bazurto@espam.edu.ec</t>
   </si>
   <si>
-    <t>EvOnXTW0</t>
+    <t>v3w9RTik</t>
   </si>
   <si>
     <t>CAGUA GARCIA ANDRES VIRGILIO</t>
@@ -3830,7 +3830,7 @@
     <t>andres.cagua@espam.edu.ec</t>
   </si>
   <si>
-    <t>CWQUBPeJ</t>
+    <t>yxJ#f?L7</t>
   </si>
   <si>
     <t>DOMINGUEZ CALDERON JEAN PIERRE</t>
@@ -3839,7 +3839,7 @@
     <t>jean.dominguez@espam.edu.ec</t>
   </si>
   <si>
-    <t>dL2PCQ44</t>
+    <t>XJe0jctb</t>
   </si>
   <si>
     <t>ESPINOZA ALCIVAR EVELYN ALEXANDRA</t>
@@ -3848,7 +3848,7 @@
     <t>evelyn.espinoza@espam.edu.ec</t>
   </si>
   <si>
-    <t>ad6kNdxg</t>
+    <t>9d4wYHiR</t>
   </si>
   <si>
     <t>LOOR MORENO DANIEL AGUSTIN</t>
@@ -3857,7 +3857,7 @@
     <t>daniel.loor@espam.edu.ec</t>
   </si>
   <si>
-    <t>RVu#P?Nq</t>
+    <t>zOznaJSd</t>
   </si>
   <si>
     <t>MACIAS PARRALES MEREDITH MARIBEL</t>
@@ -3866,7 +3866,7 @@
     <t>meredith.macias@espam.edu.ec</t>
   </si>
   <si>
-    <t>dulEjwvU</t>
+    <t>4MbUhA?t</t>
   </si>
   <si>
     <t>MENDOZA CANCHINGRE BRIGITH MIKAELA</t>
@@ -3875,7 +3875,7 @@
     <t>brigith.mendoza@espam.edu.ec</t>
   </si>
   <si>
-    <t>og!XIib7</t>
+    <t>w?ALPUDn</t>
   </si>
   <si>
     <t>MENDOZA VELEZ JOSE MIGUEL</t>
@@ -3884,7 +3884,7 @@
     <t>josemi.mendoza@espam.edu.ec</t>
   </si>
   <si>
-    <t>9K2Y!D1L</t>
+    <t>DUOtee9V</t>
   </si>
   <si>
     <t>MEZA BRIONES ANTHONY NARCILO</t>
@@ -3893,7 +3893,7 @@
     <t>anthony.meza@espam.edu.ec</t>
   </si>
   <si>
-    <t>js&amp;jPgw6</t>
+    <t>tLVG8XUv</t>
   </si>
   <si>
     <t>MORA ZAMBRANO MARIA LAURA</t>
@@ -3902,7 +3902,7 @@
     <t>maria.mora@espam.edu.ec</t>
   </si>
   <si>
-    <t>9Iu5FxWe</t>
+    <t>f&amp;/fuiC2</t>
   </si>
   <si>
     <t>NAVARRETE ZAMBRANO ROBIN LUGERIO</t>
@@ -3911,7 +3911,7 @@
     <t>robin.navarrete@espam.edu.ec</t>
   </si>
   <si>
-    <t>SceRjmFT</t>
+    <t>Vmb7TE7b</t>
   </si>
   <si>
     <t>OSTAIZA LOPEZ JOSEPH MANUEL</t>
@@ -3920,7 +3920,7 @@
     <t>josepth.ostaiza@espam.edu.ec</t>
   </si>
   <si>
-    <t>RB1oNw#f</t>
+    <t>EzIVMmHs</t>
   </si>
   <si>
     <t>PARRAGA PARRAGA CARLA ESTEFANIA</t>
@@ -3929,7 +3929,7 @@
     <t>carla.parraga@espam.edu.ec</t>
   </si>
   <si>
-    <t>UbjPI0Jt</t>
+    <t>FgSds2xO</t>
   </si>
   <si>
     <t>PLAZA CABRERA MAYERLY MARIA</t>
@@ -3941,7 +3941,7 @@
     <t>mayerly.plaza@espam.edu.ec</t>
   </si>
   <si>
-    <t>ce9cfsxk</t>
+    <t>K!bGtI15</t>
   </si>
   <si>
     <t>RODRIGUEZ VELIZ LEANDRO MOISES</t>
@@ -3950,7 +3950,7 @@
     <t>leandro.rodriguez@espam.edu.ec</t>
   </si>
   <si>
-    <t>lg7r9?a9</t>
+    <t>hJE&amp;SGdu</t>
   </si>
   <si>
     <t>SANTANA GUERRERO MARIA RAQUEL</t>
@@ -3959,7 +3959,7 @@
     <t>mariar.santanag@espam.edu.ec</t>
   </si>
   <si>
-    <t>isvSQUL?</t>
+    <t>2SpRFxaM</t>
   </si>
   <si>
     <t>SANTOS SALAZAR JANDRY DAVID</t>
@@ -3968,7 +3968,7 @@
     <t>jandry.santos@espam.edu.ec</t>
   </si>
   <si>
-    <t>68l&amp;X&amp;hk</t>
+    <t>zQ88Sedy</t>
   </si>
   <si>
     <t>SOLORZANO LOOR KEYLA GEOVANNA</t>
@@ -3977,7 +3977,7 @@
     <t>keyla.solorzano@espam.edu.ec</t>
   </si>
   <si>
-    <t>um39IdDd</t>
+    <t>lJSZdm0n</t>
   </si>
   <si>
     <t>VALENCIA ZAMBRANO VALERIA MERCEDES</t>
@@ -3986,7 +3986,7 @@
     <t>valeria.valencia@espam.edu.ec</t>
   </si>
   <si>
-    <t>rPuc8TmP</t>
+    <t>lOPGs8hA</t>
   </si>
   <si>
     <t>VARGAS CHOEZ ALEXIS ELIAN</t>
@@ -3995,7 +3995,7 @@
     <t>alexis.vargas@espam.edu.ec</t>
   </si>
   <si>
-    <t>1PKh9XV7</t>
+    <t>?#4hc7Fj</t>
   </si>
   <si>
     <t>VELEZ ALMEIDA CARMEN REBECA</t>
@@ -4004,7 +4004,7 @@
     <t>carmen.velez@espam.edu.ec</t>
   </si>
   <si>
-    <t>SUsVeRKP</t>
+    <t>McYqSr5d</t>
   </si>
   <si>
     <t>VELEZ LEGTON GENESIS YAMILET</t>
@@ -4013,7 +4013,7 @@
     <t>genesisya.velez@espam.edu.ec</t>
   </si>
   <si>
-    <t>0FnNydb#</t>
+    <t>&amp;PA21h?p</t>
   </si>
   <si>
     <t>VERA BALAREZO MARYAM JANELLA</t>
@@ -4022,7 +4022,7 @@
     <t>maryam.vera@espam.edu.ec</t>
   </si>
   <si>
-    <t>FTKDt6T9</t>
+    <t>bawG&amp;CFc</t>
   </si>
   <si>
     <t>VERA SERRANO CARLOS STEFANO</t>
@@ -4031,7 +4031,7 @@
     <t>carlos.verase@espam.edu.ec</t>
   </si>
   <si>
-    <t>Vy?0RvYb</t>
+    <t>yIHRIfvh</t>
   </si>
   <si>
     <t>VIERA BAZURTO JOSE ALEXANDER</t>
@@ -4040,7 +4040,7 @@
     <t>jose.viera@espam.edu.ec</t>
   </si>
   <si>
-    <t>VyS5DPf/</t>
+    <t>Heiu1rQs</t>
   </si>
   <si>
     <t>ZAMBRANO ALCIVAR DIEGO JAHIR</t>
@@ -4049,7 +4049,7 @@
     <t>diego.zambranoa@espam.edu.ec</t>
   </si>
   <si>
-    <t>CvpPV4s!</t>
+    <t>Eqor2CsX</t>
   </si>
   <si>
     <t>ZAMBRANO MANZABA MARIA FERNANDA</t>
@@ -4058,7 +4058,7 @@
     <t>mariafer.zambranom@espam.edu.ec</t>
   </si>
   <si>
-    <t>uy4HhpOs</t>
+    <t>dNMph/ub</t>
   </si>
   <si>
     <t>ALCIVAR GILER MELANY JULISA</t>
@@ -4067,7 +4067,7 @@
     <t>melany.alcivar@espam.edu.ec</t>
   </si>
   <si>
-    <t>92MKmx&amp;I</t>
+    <t>M?/3MwoP</t>
   </si>
   <si>
     <t>ANDRADE ZAMBRANO NATHALY NICOLLE</t>
@@ -4076,7 +4076,7 @@
     <t>nathaly.andrade@espam.edu.ec</t>
   </si>
   <si>
-    <t>QH4/SudV</t>
+    <t>K5JlKcPI</t>
   </si>
   <si>
     <t>BASURTO MORAN LUIS ALEXANDER</t>
@@ -4085,7 +4085,7 @@
     <t>luis.basurtom@espam.edu.ec</t>
   </si>
   <si>
-    <t>5KGwOqfT</t>
+    <t>WLoeuxiA</t>
   </si>
   <si>
     <t>BERMELLO VELEZ ANGELA DANIELA</t>
@@ -4094,7 +4094,7 @@
     <t>angela.bermello@espam.edu.ec</t>
   </si>
   <si>
-    <t>zvA0#zAM</t>
+    <t>IasqUhI6</t>
   </si>
   <si>
     <t>BRAVO VERA GEMA VIVIANA</t>
@@ -4103,7 +4103,7 @@
     <t>gema.bravov@espam.edu.ec</t>
   </si>
   <si>
-    <t>IX87I1Tm</t>
+    <t>7yi9f?Jb</t>
   </si>
   <si>
     <t>BRIONES INTRIAGO LORENA LUCIA</t>
@@ -4112,7 +4112,7 @@
     <t>lorena.briones@espam.edu.ec</t>
   </si>
   <si>
-    <t>&amp;JGUdkPd</t>
+    <t>vDhRXJYM</t>
   </si>
   <si>
     <t>BURGOS BRAVO KATHERIN DANIELA</t>
@@ -4121,7 +4121,7 @@
     <t>katherin.burgos@espam.edu.ec</t>
   </si>
   <si>
-    <t>GdctE7Go</t>
+    <t>JVEik9RM</t>
   </si>
   <si>
     <t>LOOR PARRAGA ROY RUBEN</t>
@@ -4130,7 +4130,7 @@
     <t>roy.loor@espam.edu.ec</t>
   </si>
   <si>
-    <t>?tSmX5q/</t>
+    <t>ORHjdQh9</t>
   </si>
   <si>
     <t>LOPEZ GANCHOZO LEANDRO ANTONIO</t>
@@ -4139,7 +4139,7 @@
     <t>leandro.lopez@espam.edu.ec</t>
   </si>
   <si>
-    <t>FXe7e1mG</t>
+    <t>MD3Gmz5B</t>
   </si>
   <si>
     <t>MACIAS MACIAS JOY ROBERTO</t>
@@ -4148,7 +4148,7 @@
     <t>joy.macias@espam.edu.ec</t>
   </si>
   <si>
-    <t>S9blrJAP</t>
+    <t>D8XSPt1y</t>
   </si>
   <si>
     <t>MACIAS SILVA CINTHYA MARIANA</t>
@@ -4157,7 +4157,7 @@
     <t>cinthya.macias@espam.edu.ec</t>
   </si>
   <si>
-    <t>T7DIeAYB</t>
+    <t>1IP4d39V</t>
   </si>
   <si>
     <t>MENDOZA PONCE MARIA ANGELICA</t>
@@ -4166,7 +4166,7 @@
     <t>maria.mendozap@espam.edu.ec</t>
   </si>
   <si>
-    <t>24pCKuP4</t>
+    <t>sn78jhce</t>
   </si>
   <si>
     <t>MONCAYO LAINEZ KERLY ARIANNA</t>
@@ -4175,7 +4175,7 @@
     <t>kerly.moncayo@espam.edu.ec</t>
   </si>
   <si>
-    <t>gcnr7&amp;B9</t>
+    <t>TKmLSw3P</t>
   </si>
   <si>
     <t>MONTES POZO JEAN POLL</t>
@@ -4184,7 +4184,7 @@
     <t>jean.montes@espam.edu.ec</t>
   </si>
   <si>
-    <t>f2zaLKe0</t>
+    <t>tfJchqym</t>
   </si>
   <si>
     <t>MORENO OBANDO ANA BELLA</t>
@@ -4193,7 +4193,7 @@
     <t>ana.moreno@espam.edu.ec</t>
   </si>
   <si>
-    <t>gvqfge#W</t>
+    <t>FfPPssPm</t>
   </si>
   <si>
     <t>NAVARRETE PARODI ERIKA KARINA</t>
@@ -4202,7 +4202,7 @@
     <t>erika.navarrete@espam.edu.ec</t>
   </si>
   <si>
-    <t>qeIQ7eE8</t>
+    <t>aNZDJlM6</t>
   </si>
   <si>
     <t>ORMAZA ESPINOZA JESUS EMILIO</t>
@@ -4211,7 +4211,7 @@
     <t>jesus.ormaza@espam.edu.ec</t>
   </si>
   <si>
-    <t>!cd6!HfR</t>
+    <t>FZutlgie</t>
   </si>
   <si>
     <t>ORMAZA FALCONES MARIA ALEJANDRA</t>
@@ -4220,7 +4220,7 @@
     <t>maria.ormaza@espam.edu.ec</t>
   </si>
   <si>
-    <t>STKZynaB</t>
+    <t>#Z&amp;bbOS5</t>
   </si>
   <si>
     <t>PARRAGA QUIJIJE GEMA KAROLINA</t>
@@ -4229,7 +4229,7 @@
     <t>gemak.parragaq@espam.edu.ec</t>
   </si>
   <si>
-    <t>f6sJq2vP</t>
+    <t>WdSOlsfe</t>
   </si>
   <si>
     <t>PICO TOLA MARCO ANDRES</t>
@@ -4238,7 +4238,7 @@
     <t>marco.pico@espam.edu.ec</t>
   </si>
   <si>
-    <t>Ix&amp;KV?R3</t>
+    <t>YbgMxo?x</t>
   </si>
   <si>
     <t>PIN NAPA IVANA MAYERLI</t>
@@ -4247,7 +4247,7 @@
     <t>ivana.pin@espam.edu.ec</t>
   </si>
   <si>
-    <t>iP9?wY3l</t>
+    <t>SFZG4l0y</t>
   </si>
   <si>
     <t>ROMERO BRAVO JOSE AGUSTIN</t>
@@ -4256,7 +4256,7 @@
     <t>jose.romero@espam.edu.ec</t>
   </si>
   <si>
-    <t>jF3IWDMI</t>
+    <t>yTcBSz7d</t>
   </si>
   <si>
     <t>SALTOS INTRIAGO NATHALIA MELISSA</t>
@@ -4265,7 +4265,7 @@
     <t>nathalia.saltos@espam.edu.ec</t>
   </si>
   <si>
-    <t>8#T3cze!</t>
+    <t>wsZBYi9n</t>
   </si>
   <si>
     <t>SALTOS SALTOS MADELYNE PIERINA</t>
@@ -4274,7 +4274,7 @@
     <t>madelyne.saltos@espam.edu.ec</t>
   </si>
   <si>
-    <t>tu&amp;3JmI7</t>
+    <t>Sau52g/B</t>
   </si>
   <si>
     <t>SOLIS ORTIZ SANTIAGO</t>
@@ -4283,7 +4283,7 @@
     <t>santiago.solis@espam.edu.ec</t>
   </si>
   <si>
-    <t>v!mR?h3s</t>
+    <t>DspH86n!</t>
   </si>
   <si>
     <t>SOLORZANO ZAMBRANO GEMA NARCISA</t>
@@ -4292,7 +4292,7 @@
     <t>gema.solorzano@espam.edu.ec</t>
   </si>
   <si>
-    <t>a/DSPCZF</t>
+    <t>KzVRPWyB</t>
   </si>
   <si>
     <t>VARGAS SOLORZANO ANDREA DIVINA</t>
@@ -4301,7 +4301,7 @@
     <t>andrea.vargas@espam.edu.ec</t>
   </si>
   <si>
-    <t>Z2x1sw/B</t>
+    <t>#qUh5IGa</t>
   </si>
   <si>
     <t>VELEZ VERA MANUEL ALEXANDER</t>
@@ -4310,7 +4310,7 @@
     <t>manuel.velez@espam.edu.ec</t>
   </si>
   <si>
-    <t>GyN1ZIbO</t>
+    <t>0Kc04tMQ</t>
   </si>
   <si>
     <t>VELEZ ZAMBRANO ADRIAN DAVID</t>
@@ -4319,7 +4319,7 @@
     <t>adrian.velez@espam.edu.ec</t>
   </si>
   <si>
-    <t>XPXTAjZV</t>
+    <t>HePkuDvG</t>
   </si>
   <si>
     <t>YLLESCA CEDEÑO JESUS JONATHAN</t>
@@ -4328,7 +4328,7 @@
     <t>jesus.yllesca@espam.edu.ec</t>
   </si>
   <si>
-    <t>iYQx?B6?</t>
+    <t>LI5jOlDL</t>
   </si>
   <si>
     <t>ZAMBRANO CATOTA DERLYN MILENA</t>
@@ -4337,7 +4337,7 @@
     <t>derlyn.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>CUU3EnMH</t>
+    <t>bf4hlFud</t>
   </si>
   <si>
     <t>ZAMBRANO CEDEÑO CHRISTIAN EDUARDO</t>
@@ -4346,7 +4346,7 @@
     <t>christian.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>tsEdq5lJ</t>
+    <t>OUvIhc0F</t>
   </si>
   <si>
     <t>ZAMBRANO ROBLES GLENDY MERCEDES</t>
@@ -4355,7 +4355,7 @@
     <t>glendy.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>x/R9IZ7n</t>
+    <t>BEyLmPFc</t>
   </si>
   <si>
     <t>ZAMBRANO ROSADO JORGE ALESSANDRO</t>
@@ -4364,7 +4364,7 @@
     <t>jorge.zambranor@espam.edu.ec</t>
   </si>
   <si>
-    <t>DKdtsor6</t>
+    <t>YzmltSl2</t>
   </si>
   <si>
     <t>ZAMBRANO VERA WENDY ANAHI</t>
@@ -4373,7 +4373,7 @@
     <t>wendy.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>Sw5KiUWN</t>
+    <t>l/nJ8ov2</t>
   </si>
   <si>
     <t>ZAMBRANO ZAMBRANO JONATHAN JAVIER</t>
@@ -4382,7 +4382,7 @@
     <t>jonathan.zambranoz@espam.edu.ec</t>
   </si>
   <si>
-    <t>N?V3TBcj</t>
+    <t>2mUxPikl</t>
   </si>
   <si>
     <t>ZAMORA SOLORZANO MAGALY DOLORES</t>
@@ -4391,7 +4391,7 @@
     <t>magaly.zamora@espam.edu.ec</t>
   </si>
   <si>
-    <t>Q8xHAeFl</t>
+    <t>urw3Hnye</t>
   </si>
   <si>
     <t>BRAVO ZAMBRANO MARIA EMILIA</t>
@@ -4400,7 +4400,7 @@
     <t>maria.bravoz@espam.edu.ec</t>
   </si>
   <si>
-    <t>xzrl6d?R</t>
+    <t>eGpGzMMU</t>
   </si>
   <si>
     <t>CEVALLOS ALVAREZ ARMANDO ENRIQUE</t>
@@ -4409,7 +4409,7 @@
     <t>armando.cevallos@espam.edu.ec</t>
   </si>
   <si>
-    <t>Cpx&amp;7HHK</t>
+    <t>EpvhI#28</t>
   </si>
   <si>
     <t>CEVALLOS VERA ARELIS STEFANIA</t>
@@ -4418,7 +4418,7 @@
     <t>arelis.cevallos@espam.edu.ec</t>
   </si>
   <si>
-    <t>aiEGSnvI</t>
+    <t>rioKIW4u</t>
   </si>
   <si>
     <t>COOL MERO PATRICIO JAVIER</t>
@@ -4427,7 +4427,7 @@
     <t>patricio.cool@espam.edu.ec</t>
   </si>
   <si>
-    <t>fM58K3Jp</t>
+    <t>1B/U2SKe</t>
   </si>
   <si>
     <t>FRANCO ORELLANA GUADALUPE MONSERRATE</t>
@@ -4436,7 +4436,7 @@
     <t>guadalupe.franco@espam.edu.ec</t>
   </si>
   <si>
-    <t>qK2HYJ1k</t>
+    <t>YyBKt6GW</t>
   </si>
   <si>
     <t>HUERTA BALDIVIEZO JEAN CRISTHIAN</t>
@@ -4445,7 +4445,7 @@
     <t>jean.huerta@espam.edu.ec</t>
   </si>
   <si>
-    <t>xYx5YMiS</t>
+    <t>Qi6ASpuK</t>
   </si>
   <si>
     <t>INTRIAGO CANTOS MARIA JOSE</t>
@@ -4454,7 +4454,7 @@
     <t>maria.intriagoc@espam.edu.ec</t>
   </si>
   <si>
-    <t>iNgX?uzK</t>
+    <t>E&amp;jQUmQW</t>
   </si>
   <si>
     <t>LOOR CANTOS DIANA ISABEL</t>
@@ -4463,7 +4463,7 @@
     <t>diana.loor@espam.edu.ec</t>
   </si>
   <si>
-    <t>mCaE1feh</t>
+    <t>N?VXFfG5</t>
   </si>
   <si>
     <t>LOOR SEGOVIA EVELYN ADRIANA</t>
@@ -4472,7 +4472,7 @@
     <t>evelyn.loors@espam.edu.ec</t>
   </si>
   <si>
-    <t>S/FD1uWO</t>
+    <t>h0B786ac</t>
   </si>
   <si>
     <t>MEDINA CEDEÑO JULIO CESAR</t>
@@ -4481,7 +4481,7 @@
     <t>julio.medina@espam.edu.ec</t>
   </si>
   <si>
-    <t>V#Vc1ipQ</t>
+    <t>vCZrQ7rx</t>
   </si>
   <si>
     <t>MERA VELEZ ALONDRA GARDENIA</t>
@@ -4490,7 +4490,7 @@
     <t>alondra.mera@espam.edu.ec</t>
   </si>
   <si>
-    <t>b1jk6krM</t>
+    <t>NGZfH!sq</t>
   </si>
   <si>
     <t>MUÑOZ ZAMBRANO CARLOS JOSUE</t>
@@ -4499,7 +4499,7 @@
     <t>carlos.munozz@espam.edu.ec</t>
   </si>
   <si>
-    <t>O9AE1#E5</t>
+    <t>X8edKOwA</t>
   </si>
   <si>
     <t>NAPA RODRIGUEZ JOSE AGUSTIN</t>
@@ -4508,7 +4508,7 @@
     <t>jose.napa@espam.edu.ec</t>
   </si>
   <si>
-    <t>s/Wm2PK1</t>
+    <t>CI0NaB95</t>
   </si>
   <si>
     <t>PALMA CEVALLOS MARIA JOSE</t>
@@ -4517,7 +4517,7 @@
     <t>maria.palma@espam.edu.ec</t>
   </si>
   <si>
-    <t>DF8sIPlO</t>
+    <t>3Aqnsq#K</t>
   </si>
   <si>
     <t>PATIÑO MESIAS MARIA GABRIELA</t>
@@ -4526,7 +4526,7 @@
     <t>maria.patino@espam.edu.ec</t>
   </si>
   <si>
-    <t>MQozOJyG</t>
+    <t>6W&amp;WPQAJ</t>
   </si>
   <si>
     <t>QUINTANA CAGUA YENIFER YULI</t>
@@ -4535,7 +4535,7 @@
     <t>yenifer.quintana@espam.edu.ec</t>
   </si>
   <si>
-    <t>o0e6Bbrk</t>
+    <t>v!lOao#x</t>
   </si>
   <si>
     <t>RIVERA CANTOS MARIA DANIELA</t>
@@ -4544,7 +4544,7 @@
     <t>maria.riverac@espam.edu.ec</t>
   </si>
   <si>
-    <t>i4W3vk7M</t>
+    <t>2CGY2ga9</t>
   </si>
   <si>
     <t>RODRIGUEZ PINCAY CARLOS BRYAN</t>
@@ -4553,7 +4553,7 @@
     <t>carlos.rodriguezp@espam.edu.ec</t>
   </si>
   <si>
-    <t>/aND1Q7/</t>
+    <t>iBH0GH3?</t>
   </si>
   <si>
     <t>SABANDO VELEZ CRISTHIAN ANTHONY</t>
@@ -4562,7 +4562,7 @@
     <t>cristhian.sabando@espam.edu.ec</t>
   </si>
   <si>
-    <t>?q0u/W#H</t>
+    <t>gNwAmlLq</t>
   </si>
   <si>
     <t>SANTANA VERA ANTHONY JAHIR</t>
@@ -4571,7 +4571,7 @@
     <t>anthony.santana@espam.edu.ec</t>
   </si>
   <si>
-    <t>iAJR&amp;Eqp</t>
+    <t>sE7wDcDp</t>
   </si>
   <si>
     <t>VELEZ ESPINOZA JUNIOR JESUS</t>
@@ -4580,7 +4580,7 @@
     <t>junior.veleze@espam.edu.ec</t>
   </si>
   <si>
-    <t>YB#6Qgpx</t>
+    <t>?ZQIh7hY</t>
   </si>
   <si>
     <t>VERDUGA ZAMBRANO DIEGO ALEJANDRO</t>
@@ -4589,7 +4589,7 @@
     <t>diego.verduga@espam.edu.ec</t>
   </si>
   <si>
-    <t>jawXlP3I</t>
+    <t>eb##xpos</t>
   </si>
   <si>
     <t>ZAMBRANO VELEZ NAYELHY LILIBETH</t>
@@ -4598,7 +4598,7 @@
     <t>nayelhy.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>EyjrZ0Ok</t>
+    <t>jJvDKqJA</t>
   </si>
   <si>
     <t>ZAMBRANO WITONG KENIA THAIS</t>
@@ -4607,7 +4607,7 @@
     <t>keniath.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>#2TzUCx!</t>
+    <t>Ar4nJenb</t>
   </si>
   <si>
     <t>ANCHUNDIA ANCHUNDIA GEMA LILIBETH</t>
@@ -4616,7 +4616,7 @@
     <t>gema.anchundia@espam.edu.ec</t>
   </si>
   <si>
-    <t>O#pU9kQr</t>
+    <t>3XQGf5U#</t>
   </si>
   <si>
     <t>ARTEAGA DELGADO JEAN CARLOS</t>
@@ -4625,7 +4625,7 @@
     <t>jean.arteaga@espam.edu.ec</t>
   </si>
   <si>
-    <t>Yy7gsWt4</t>
+    <t>oKEUVIcn</t>
   </si>
   <si>
     <t>BARREIRO ZAMBRANO JOSE VICENTE</t>
@@ -4634,7 +4634,7 @@
     <t>jose.barreiro@espam.edu.ec</t>
   </si>
   <si>
-    <t>r0f77OCY</t>
+    <t>hi8cboc/</t>
   </si>
   <si>
     <t>BASURTO ALCIVAR DARWIN JESUS</t>
@@ -4643,7 +4643,7 @@
     <t>darwin.basurto@espam.edu.ec</t>
   </si>
   <si>
-    <t>Xi71x0yI</t>
+    <t>eJKnlQ7k</t>
   </si>
   <si>
     <t>BRAVO CEDEÑO JOSE RODOLFO</t>
@@ -4652,7 +4652,7 @@
     <t>jose.bravo@espam.edu.ec</t>
   </si>
   <si>
-    <t>Wwiqx7Qo</t>
+    <t>3LTHuJa9</t>
   </si>
   <si>
     <t>BRIONES BERMEO ANTONY JAVIER</t>
@@ -4661,7 +4661,7 @@
     <t>antony.briones@espam.edu.ec</t>
   </si>
   <si>
-    <t>YiTEAYJ3</t>
+    <t>k5BweCGx</t>
   </si>
   <si>
     <t>CEDEÑO ANCHUNDIA YANDRY ANTONIO</t>
@@ -4673,7 +4673,7 @@
     <t>yandry.cedeno@espam.edu.ec</t>
   </si>
   <si>
-    <t>gFnaj448</t>
+    <t>/zzkQCNz</t>
   </si>
   <si>
     <t>CEDEÑO PEÑARRIETA DAYANA SOPHIA</t>
@@ -4682,7 +4682,7 @@
     <t>dayanaso.cedeno@espam.edu.ec</t>
   </si>
   <si>
-    <t>raSTzKfg</t>
+    <t>gx!FqrIN</t>
   </si>
   <si>
     <t>CHAVARRIA PEÑARRIETA MARCOS ALEJANDRO</t>
@@ -4691,7 +4691,7 @@
     <t>marcos.chavarria@espam.edu.ec</t>
   </si>
   <si>
-    <t>317ucfRN</t>
+    <t>wyw!TKTk</t>
   </si>
   <si>
     <t>DEL VALLE BASURTO CARMEN MELINA</t>
@@ -4700,7 +4700,7 @@
     <t>carmen.del@espam.edu.ec</t>
   </si>
   <si>
-    <t>Iw/VQiCg</t>
+    <t>khpvSM!J</t>
   </si>
   <si>
     <t>GUERRERO BRAVO ANA BELEN</t>
@@ -4709,7 +4709,7 @@
     <t>ana.guerrero@espam.edu.ec</t>
   </si>
   <si>
-    <t>m#5qclz4</t>
+    <t>tEr?OxBP</t>
   </si>
   <si>
     <t>GUERRERO GUERRERO JOSSELYN MELISSA</t>
@@ -4718,7 +4718,7 @@
     <t>josselyn.guerrero@espam.edu.ec</t>
   </si>
   <si>
-    <t>!1vTSCQL</t>
+    <t>sp44oxxG</t>
   </si>
   <si>
     <t>INTRIAGO BARBERAN LAURO ANTONIO</t>
@@ -4727,7 +4727,7 @@
     <t>lauro.intriago1@espam.edu.ec</t>
   </si>
   <si>
-    <t>C38ta0Zl</t>
+    <t>K6Gep/XI</t>
   </si>
   <si>
     <t>INTRIAGO MORA LENIN ARCENIO</t>
@@ -4736,7 +4736,7 @@
     <t>lenin.intriago@espam.edu.ec</t>
   </si>
   <si>
-    <t>alX9keNU</t>
+    <t>UYRRFtQs</t>
   </si>
   <si>
     <t>MACIAS CALDERON JOSE ARIEL</t>
@@ -4745,7 +4745,7 @@
     <t>jose.macias@espam.edu.ec</t>
   </si>
   <si>
-    <t>Y6JzrUxr</t>
+    <t>Z8E6rQ!h</t>
   </si>
   <si>
     <t>MARCILLO VELEZ ANA PATRICIA</t>
@@ -4754,7 +4754,7 @@
     <t>ana.marcillo@espam.edu.ec</t>
   </si>
   <si>
-    <t>Lmls#KXe</t>
+    <t>!UR5OhD4</t>
   </si>
   <si>
     <t>MERA FIGUEROA RAYMOND ALEJANDRO</t>
@@ -4763,7 +4763,7 @@
     <t>raymond.mera@espam.edu.ec</t>
   </si>
   <si>
-    <t>uVfhJ/F0</t>
+    <t>nkGQzw1N</t>
   </si>
   <si>
     <t>MOREIRA ZAMBRANO JOSSENKA MERCEDES</t>
@@ -4772,7 +4772,7 @@
     <t>jossenka.moreira@espam.edu.ec</t>
   </si>
   <si>
-    <t>Nnlbcrcu</t>
+    <t>S3&amp;InpYL</t>
   </si>
   <si>
     <t>MUÑOZ ALCIVAR CRISTHIAN MARTIN</t>
@@ -4781,7 +4781,7 @@
     <t>cristhian.munoz@espam.edu.ec</t>
   </si>
   <si>
-    <t>I49s6n&amp;i</t>
+    <t>lZrX87YA</t>
   </si>
   <si>
     <t>MUÑOZ MACIAS MARIA MAGDALENA</t>
@@ -4790,7 +4790,7 @@
     <t>mariama.munoz@espam.edu.ec</t>
   </si>
   <si>
-    <t>q9Mtkd!U</t>
+    <t>bqWn&amp;JcX</t>
   </si>
   <si>
     <t>POLO GANCHOZO ARON ESNEYDER</t>
@@ -4799,7 +4799,7 @@
     <t>aron.polo@espam.edu.ec</t>
   </si>
   <si>
-    <t>we6R/GLn</t>
+    <t>PtNEG7tM</t>
   </si>
   <si>
     <t>RIOS BERMELLO JENIFFER LIZETH</t>
@@ -4808,7 +4808,7 @@
     <t>jeniffer.rios@espam.edu.ec</t>
   </si>
   <si>
-    <t>!QrtMLpY</t>
+    <t>TSo3oZg9</t>
   </si>
   <si>
     <t>SALVATIERRA VALDEZ VICKY NICOLLE</t>
@@ -4817,7 +4817,7 @@
     <t>vicky.salvatierra@espam.edu.ec</t>
   </si>
   <si>
-    <t>OxcWAwPf</t>
+    <t>uSwxh2#M</t>
   </si>
   <si>
     <t>SANTOS VELEZ MONICA GERMANIA</t>
@@ -4826,7 +4826,7 @@
     <t>monica.santos@espam.edu.ec</t>
   </si>
   <si>
-    <t>egZ2/gkZ</t>
+    <t>TCm1NKYV</t>
   </si>
   <si>
     <t>SOLORZANO ZAMBRANO MILENA DENISSE</t>
@@ -4835,7 +4835,7 @@
     <t>milena.solorzano@espam.edu.ec</t>
   </si>
   <si>
-    <t>8r3r8tr2</t>
+    <t>KkD0RJwt</t>
   </si>
   <si>
     <t>TUQUERES TACURI JESSICA MARIBELL</t>
@@ -4844,7 +4844,7 @@
     <t>jessica.tuqueres@espam.edu.ec</t>
   </si>
   <si>
-    <t>MMskswKE</t>
+    <t>WlJondYB</t>
   </si>
   <si>
     <t>VERDUGA ERAZO JOSUE SALVADOR</t>
@@ -4853,7 +4853,7 @@
     <t>josue.verduga@espam.edu.ec</t>
   </si>
   <si>
-    <t>qbXJ8Epj</t>
+    <t>2#JWLw3W</t>
   </si>
   <si>
     <t>YEPEZ VELIZ GENESIS THALIA</t>
@@ -4862,7 +4862,7 @@
     <t>genesis.yepez@espam.edu.ec</t>
   </si>
   <si>
-    <t>LWJIS#hJ</t>
+    <t>c5VYlIfD</t>
   </si>
   <si>
     <t>ZAMBRANO BASURTO ERICK RAFAEL</t>
@@ -4871,7 +4871,7 @@
     <t>erick.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>tzP?pMwa</t>
+    <t>KfgonhAw</t>
   </si>
   <si>
     <t>ZAMBRANO MUÑOZ JANDRY DEIVY</t>
@@ -4880,7 +4880,7 @@
     <t>jandry.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>Z??H7r/X</t>
+    <t>Sa1wDWv9</t>
   </si>
   <si>
     <t>AYONG VERA JUAN DAVID</t>
@@ -4889,7 +4889,7 @@
     <t>juan.ayong@espam.edu.ec</t>
   </si>
   <si>
-    <t>MTrZjD?2</t>
+    <t>hLOM!spf</t>
   </si>
   <si>
     <t>BASURTO SALAZAR ANGELA MARGARITA</t>
@@ -4898,7 +4898,7 @@
     <t>angela.basurto@espam.edu.ec</t>
   </si>
   <si>
-    <t>OdGy27vG</t>
+    <t>5izI?2rv</t>
   </si>
   <si>
     <t>CASANOVA INTRIAGO ANDREA BELEN</t>
@@ -4910,7 +4910,7 @@
     <t>andrea.casanova@espam.edu.ec</t>
   </si>
   <si>
-    <t>OnoREkV0</t>
+    <t>QX0I#A#0</t>
   </si>
   <si>
     <t>CHUMO ZAMBRANO ANTONIO BENITO</t>
@@ -4919,7 +4919,7 @@
     <t>antonio.chumo@espam.edu.ec</t>
   </si>
   <si>
-    <t>PIs#&amp;mF/</t>
+    <t>T0RUKqLY</t>
   </si>
   <si>
     <t>GARCIA CORTEZ ERIKA STEFANIA</t>
@@ -4928,7 +4928,7 @@
     <t>erika.garcia@espam.edu.ec</t>
   </si>
   <si>
-    <t>RjwJ!u9B</t>
+    <t>BEpCa1Ax</t>
   </si>
   <si>
     <t>GOMEZ BARRERA JUNIOR LENIN</t>
@@ -4937,7 +4937,7 @@
     <t>junior.gomez@espam.edu.ec</t>
   </si>
   <si>
-    <t>nkF732Ki</t>
+    <t>YTIX8NAF</t>
   </si>
   <si>
     <t>LOOR CEDEÑO RICARDO EMANUEL</t>
@@ -4946,7 +4946,7 @@
     <t>ricardo.loor@espam.edu.ec</t>
   </si>
   <si>
-    <t>7hW8E?Ua</t>
+    <t>2T1wj2bQ</t>
   </si>
   <si>
     <t>LOOR LUCAS EVELYN GUADALUPE</t>
@@ -4958,7 +4958,7 @@
     <t>evelyn.loor@espam.edu.ec</t>
   </si>
   <si>
-    <t>sh?RVQ/1</t>
+    <t>clcI?9W5</t>
   </si>
   <si>
     <t>LOOR VELASCO FABIANA BELEN</t>
@@ -4970,7 +4970,7 @@
     <t>fabiana.loor@espam.edu.ec</t>
   </si>
   <si>
-    <t>9M#24&amp;vl</t>
+    <t>N60t!93E</t>
   </si>
   <si>
     <t>MARTINEZ CEDEÑO JENIFFER ESTEFANIA</t>
@@ -4979,7 +4979,7 @@
     <t>jeniffer.martinez@espam.edu.ec</t>
   </si>
   <si>
-    <t>2I1/xGbw</t>
+    <t>5A7jGpkY</t>
   </si>
   <si>
     <t>MENDOZA BARRE EDDY ENMANUEL</t>
@@ -4988,7 +4988,7 @@
     <t>eddy.mendoza@espam.edu.ec</t>
   </si>
   <si>
-    <t>wUD&amp;VefD</t>
+    <t>&amp;/Ml56PT</t>
   </si>
   <si>
     <t>MURILLO PALACIOS ULICES JAIR</t>
@@ -4997,7 +4997,7 @@
     <t>ulices.murillo@espam.edu.ec</t>
   </si>
   <si>
-    <t>Y78Xqj6r</t>
+    <t>HFu5t!K?</t>
   </si>
   <si>
     <t>QUIJANO ZAMBRANO JONATHAN ERNESTO</t>
@@ -5006,7 +5006,7 @@
     <t>jonathan.quijano@espam.edu.ec</t>
   </si>
   <si>
-    <t>LsqL/vpY</t>
+    <t>SdK8cHop</t>
   </si>
   <si>
     <t>ROBLES YORI EFRAIN DAVID</t>
@@ -5015,7 +5015,7 @@
     <t>efrain.robles@espam.edu.ec</t>
   </si>
   <si>
-    <t>SLMuv1oq</t>
+    <t>hz44gi!T</t>
   </si>
   <si>
     <t>SABANDO ZAMBRANO FREDDY ANTONIO</t>
@@ -5024,7 +5024,7 @@
     <t>freddy.sabando@espam.edu.ec</t>
   </si>
   <si>
-    <t>xTfS4Osq</t>
+    <t>l8b&amp;B!34</t>
   </si>
   <si>
     <t>SOLORZANO GUERRERO RONALDO WANDERLEY</t>
@@ -5033,7 +5033,7 @@
     <t>ronaldo.solorzano@espam.edu.ec</t>
   </si>
   <si>
-    <t>!1oum!Xt</t>
+    <t>lSMVlK4G</t>
   </si>
   <si>
     <t>VELEZ CALDERON GENESIS MARIANA</t>
@@ -5045,7 +5045,7 @@
     <t>genesis.velez@espam.edu.ec</t>
   </si>
   <si>
-    <t>C93BTNKS</t>
+    <t>sT#ufrt#</t>
   </si>
   <si>
     <t>ZAMBRANO BALDA JOSE RAMIRO</t>
@@ -5054,7 +5054,7 @@
     <t>josera.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>?7o7MpCw</t>
+    <t>mtJEX??0</t>
   </si>
   <si>
     <t>ZAMBRANO CANTOS YENNY ANNABEL</t>
@@ -5063,7 +5063,7 @@
     <t>yenny.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>gKN8y&amp;oF</t>
+    <t>NnG49P3q</t>
   </si>
   <si>
     <t>ZAMBRANO LOOR CRISTHIAN LEONARDO</t>
@@ -5072,7 +5072,7 @@
     <t>cristhian.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>yBH829GR</t>
+    <t>ofnPo6MD</t>
   </si>
   <si>
     <t>ZAMBRANO LOOR DIANA STEFANIA</t>
@@ -5081,7 +5081,7 @@
     <t>dianas.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>rZ1ymLqy</t>
+    <t>T8e6xEqp</t>
   </si>
   <si>
     <t>ZAMBRANO LOOR MARIA EMILIA</t>
@@ -5090,7 +5090,7 @@
     <t>maria.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>pTx3Txld</t>
+    <t>r6ozJXTZ</t>
   </si>
   <si>
     <t>ZAMBRANO MOREIRA LEONELA ALEJANDRA</t>
@@ -5099,7 +5099,7 @@
     <t>leonela.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>LJ2qawh4</t>
+    <t>fP/y!P4h</t>
   </si>
   <si>
     <t>ALAVA ORTIZ EDWIN ALEXANDER</t>
@@ -5108,7 +5108,7 @@
     <t>edwin.alava@espam.edu.ec</t>
   </si>
   <si>
-    <t>vEHaKCD4</t>
+    <t>Vn5NgPv!</t>
   </si>
   <si>
     <t>ALCIVAR LOOR GEMA LISBETH</t>
@@ -5117,7 +5117,7 @@
     <t>gemal.alcivar@espam.edu.ec</t>
   </si>
   <si>
-    <t>mawp4fw9</t>
+    <t>9LPeNrQL</t>
   </si>
   <si>
     <t>AVELLAN SANTANA GENESIS NICOLLE</t>
@@ -5126,7 +5126,7 @@
     <t>genesis.avellan@espam.edu.ec</t>
   </si>
   <si>
-    <t>ePGRaoV5</t>
+    <t>78kgXsWT</t>
   </si>
   <si>
     <t>CALDERON SANCHEZ SANDY KATHERINE</t>
@@ -5138,7 +5138,7 @@
     <t>sandy.calderon@espam.edu.ec</t>
   </si>
   <si>
-    <t>iuxQVf#6</t>
+    <t>4AoyyFxe</t>
   </si>
   <si>
     <t>CARDENAS ASTUDILLO ANGELA JULIANA</t>
@@ -5150,7 +5150,7 @@
     <t>angela.cardenas@espam.edu.ec</t>
   </si>
   <si>
-    <t>TL/4?hqp</t>
+    <t>P2ZOf?sX</t>
   </si>
   <si>
     <t>CARRILLO PACHAY MARCO STEVE</t>
@@ -5159,7 +5159,7 @@
     <t>marco.carrillo@espam.edu.ec</t>
   </si>
   <si>
-    <t>Uzy&amp;WQNR</t>
+    <t>mTkqI?yS</t>
   </si>
   <si>
     <t>CEDEÑO ZAMBRANO BRYAN ISIDRO</t>
@@ -5168,7 +5168,7 @@
     <t>bryan.cedeno@espam.edu.ec</t>
   </si>
   <si>
-    <t>ObqJ637/</t>
+    <t>u/dUieWL</t>
   </si>
   <si>
     <t>CEVALLOS SALTOS ANTHONY FERNANDO</t>
@@ -5177,7 +5177,7 @@
     <t>anthonyf.cevallos@espam.edu.ec</t>
   </si>
   <si>
-    <t>Wmcp!lys</t>
+    <t>xL!j0Aur</t>
   </si>
   <si>
     <t>CHANG ZAMBRANO MARTHA YAMILETH</t>
@@ -5186,7 +5186,7 @@
     <t>martha.chang@espam.edu.ec</t>
   </si>
   <si>
-    <t>Srpv4hr0</t>
+    <t>dYB!OQKk</t>
   </si>
   <si>
     <t>CHIRIBOGA FARIAS LUIS FERNANDO</t>
@@ -5195,7 +5195,7 @@
     <t>luis.chiriboga@espam.edu.ec</t>
   </si>
   <si>
-    <t>QTZYnykA</t>
+    <t>Zt0BWTVX</t>
   </si>
   <si>
     <t>ESPINOZA PILAY JERSON JOSE</t>
@@ -5204,7 +5204,7 @@
     <t>jerson.espinoza@espam.edu.ec</t>
   </si>
   <si>
-    <t>Pr?7Tss9</t>
+    <t>CqAtzdfQ</t>
   </si>
   <si>
     <t>FARIAS MERA MAURICIO ANDRES</t>
@@ -5213,7 +5213,7 @@
     <t>mauricio.farias@espam.edu.ec</t>
   </si>
   <si>
-    <t>P2fr/WXo</t>
+    <t>A&amp;uXjqgD</t>
   </si>
   <si>
     <t>HERNANDEZ GONZALEZ JAMILEX KAREY</t>
@@ -5225,7 +5225,7 @@
     <t>jamilex.hernandez@espam.edu.ec</t>
   </si>
   <si>
-    <t>Gf6bGOnb</t>
+    <t>afS?nNrE</t>
   </si>
   <si>
     <t>LEONES FALCONES ABAD JHOAN</t>
@@ -5234,7 +5234,7 @@
     <t>abad.leones@espam.edu.ec</t>
   </si>
   <si>
-    <t>LTM5zJqB</t>
+    <t>aGaGfpal</t>
   </si>
   <si>
     <t>LOOR CEVALLOS ANA MARIA</t>
@@ -5243,7 +5243,7 @@
     <t>anama.loor@espam.edu.ec</t>
   </si>
   <si>
-    <t>/O7fVqKX</t>
+    <t>DRy5waUz</t>
   </si>
   <si>
     <t>LOOR LOOR RONALD POLIVIO</t>
@@ -5252,7 +5252,7 @@
     <t>ronald.loor@espam.edu.ec</t>
   </si>
   <si>
-    <t>lzm14K8h</t>
+    <t>x?kftP#y</t>
   </si>
   <si>
     <t>LOOR REYES GENESIS JAMILETH</t>
@@ -5261,7 +5261,7 @@
     <t>genesis.loor@espam.edu.ec</t>
   </si>
   <si>
-    <t>3l9MVaxE</t>
+    <t>egEYtPkm</t>
   </si>
   <si>
     <t>MACIAS BRAVO RICARDO FRANCISCO</t>
@@ -5270,7 +5270,7 @@
     <t>ricardo.macias@espam.edu.ec</t>
   </si>
   <si>
-    <t>?0xR5Wis</t>
+    <t>Zk0nvRHp</t>
   </si>
   <si>
     <t>MACIAS MACIAS LISSETH LILIBETH</t>
@@ -5279,7 +5279,7 @@
     <t>lisseth.macias@espam.edu.ec</t>
   </si>
   <si>
-    <t>DA#eIgCX</t>
+    <t>Xl&amp;YxDd8</t>
   </si>
   <si>
     <t>MANZABA CEDEÑO KEVIN ALBERTO</t>
@@ -5288,7 +5288,7 @@
     <t>kevin.manzaba@espam.edu.ec</t>
   </si>
   <si>
-    <t>IfUIlc7r</t>
+    <t>68rS8H/U</t>
   </si>
   <si>
     <t>MARQUEZ LEMA NAYELI SABRINA</t>
@@ -5297,7 +5297,7 @@
     <t>nayeli.marquez@espam.edu.ec</t>
   </si>
   <si>
-    <t>3n5k7!v6</t>
+    <t>h4L#19QP</t>
   </si>
   <si>
     <t>MENDOZA BRIONES MARIUXI KATHERINE</t>
@@ -5309,7 +5309,7 @@
     <t>mariuxi.mendoza@espam.edu.ec</t>
   </si>
   <si>
-    <t>L8YNP9l8</t>
+    <t>/vlsZ/Sq</t>
   </si>
   <si>
     <t>MOLINA CEDEÑO JUAN DE DIOS</t>
@@ -5318,7 +5318,7 @@
     <t>juan.molina@espam.edu.ec</t>
   </si>
   <si>
-    <t>&amp;ysN3W2#</t>
+    <t>Mu56oxPi</t>
   </si>
   <si>
     <t>MONTESDEOCA GARCIA YUDID ALEXANDRA</t>
@@ -5327,7 +5327,7 @@
     <t>yudid.montesdeoca@espam.edu.ec</t>
   </si>
   <si>
-    <t>M5ppYvft</t>
+    <t>#qnARxF7</t>
   </si>
   <si>
     <t>MUÑOZ MERA JUAN PABLO</t>
@@ -5336,7 +5336,7 @@
     <t>juan.munoz@espam.edu.ec</t>
   </si>
   <si>
-    <t>z?IWQZWO</t>
+    <t>KJ1dzMhE</t>
   </si>
   <si>
     <t>NAVARRETE ORMAZA ERICK ALEXANDER</t>
@@ -5345,7 +5345,7 @@
     <t>erick.navarrete@espam.edu.ec</t>
   </si>
   <si>
-    <t>tBzPWSfj</t>
+    <t>#dIrigDe</t>
   </si>
   <si>
     <t>OCAMPO BARRE ANTHONY VICENTE</t>
@@ -5354,7 +5354,7 @@
     <t>anthony.ocampo@espam.edu.ec</t>
   </si>
   <si>
-    <t>5/6&amp;YrxU</t>
+    <t>5!nihOfu</t>
   </si>
   <si>
     <t>PARRALES FALCONES ANTHONY LEONARDO</t>
@@ -5363,7 +5363,7 @@
     <t>anthony.parrales@espam.edu.ec</t>
   </si>
   <si>
-    <t>&amp;7TFxnt7</t>
+    <t>b6mDEPAX</t>
   </si>
   <si>
     <t>RAMOS SALTOS NICOLE PAOLA</t>
@@ -5372,7 +5372,7 @@
     <t>nicole.ramos@espam.edu.ec</t>
   </si>
   <si>
-    <t>3phOQ9lg</t>
+    <t>t2d1GsJh</t>
   </si>
   <si>
     <t>ROBLES MOLINA JENIFFER STEFANIA</t>
@@ -5381,7 +5381,7 @@
     <t>jeniffer.robles@espam.edu.ec</t>
   </si>
   <si>
-    <t>sgS2Dr1V</t>
+    <t>zQ!rwkfh</t>
   </si>
   <si>
     <t>RODRIGUEZ CAMPOS JEAN KATHERINE</t>
@@ -5390,7 +5390,7 @@
     <t>jean.rodriguez@espam.edu.ec</t>
   </si>
   <si>
-    <t>dj&amp;nIQJa</t>
+    <t>TjNM/CEr</t>
   </si>
   <si>
     <t>SANCHEZ MEDINA GISSEL STEPHANIE</t>
@@ -5399,7 +5399,7 @@
     <t>gissel.sanchez@espam.edu.ec</t>
   </si>
   <si>
-    <t>9jsfbgLH</t>
+    <t>rGshWoQ3</t>
   </si>
   <si>
     <t>VASQUEZ VERA ARGENIS JAVIER</t>
@@ -5408,7 +5408,7 @@
     <t>argenis.vasquez@espam.edu.ec</t>
   </si>
   <si>
-    <t>/Zv/qvIZ</t>
+    <t>gymbrXsg</t>
   </si>
   <si>
     <t>VASQUEZ VERA MARIA MERCEDES</t>
@@ -5417,7 +5417,7 @@
     <t>maria.vasquez@espam.edu.ec</t>
   </si>
   <si>
-    <t>Eh9p!qxH</t>
+    <t>HTS!OClX</t>
   </si>
   <si>
     <t>VELEZ MERA JOSSELYN JOSSENKA</t>
@@ -5426,7 +5426,7 @@
     <t>josselynjo.velez@espam.edu.ec</t>
   </si>
   <si>
-    <t>AbVEjIPL</t>
+    <t>sJnq826V</t>
   </si>
   <si>
     <t>VELEZ PALACIOS STEVEN RAMON</t>
@@ -5435,7 +5435,7 @@
     <t>steven.velez@espam.edu.ec</t>
   </si>
   <si>
-    <t>bMIRKQrk</t>
+    <t>8ot#7GnX</t>
   </si>
   <si>
     <t>VERA BRAVO MARY LAURA</t>
@@ -5444,7 +5444,7 @@
     <t>mary.vera@espam.edu.ec</t>
   </si>
   <si>
-    <t>#wNdHAFD</t>
+    <t>gPE18seb</t>
   </si>
   <si>
     <t>VILLAMIL VALENCIA ISABEL ANDREA</t>
@@ -5453,7 +5453,7 @@
     <t>isabel.villamil@espam.edu.ec</t>
   </si>
   <si>
-    <t>S&amp;2j8c7j</t>
+    <t>WCTYaPx!</t>
   </si>
   <si>
     <t>ZAMBRANO COBEÑA PABLO ALBERTO</t>
@@ -5462,7 +5462,7 @@
     <t>pablo.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>g5C6QDbA</t>
+    <t>&amp;D3AHoM6</t>
   </si>
   <si>
     <t>ALVAREZ INTRIAGO MAILIN KATHERINE</t>
@@ -5471,7 +5471,7 @@
     <t>mailin.alvarez@espam.edu.ec</t>
   </si>
   <si>
-    <t>r9yK!78D</t>
+    <t>rm2dJ1#!</t>
   </si>
   <si>
     <t>BRAVO ARTEAGA RICARDO JAVIER</t>
@@ -5480,7 +5480,7 @@
     <t>ricardo.bravo@espam.edu.ec</t>
   </si>
   <si>
-    <t>0zSb?2b8</t>
+    <t>?Xk1IPs4</t>
   </si>
   <si>
     <t>BRAVO VERGARA GEMA CAROLINA</t>
@@ -5489,7 +5489,7 @@
     <t>gemac.bravo@espam.edu.ec</t>
   </si>
   <si>
-    <t>yFndoWtp</t>
+    <t>0E!ibH9#</t>
   </si>
   <si>
     <t>CEDEÑO VELASQUEZ GEMA GUADALUPE</t>
@@ -5498,7 +5498,7 @@
     <t>gemag.cedeno@espam.edu.ec</t>
   </si>
   <si>
-    <t>9RtD/PF!</t>
+    <t>#rDK&amp;0xy</t>
   </si>
   <si>
     <t>CHAVEZ VELIZ DENIS ALEXANDER</t>
@@ -5507,7 +5507,7 @@
     <t>denis.chavez@espam.edu.ec</t>
   </si>
   <si>
-    <t>LGfq?Z2b</t>
+    <t>k5nru6u7</t>
   </si>
   <si>
     <t>DEMERA ZAMBRANO JACKSON ANDRES</t>
@@ -5516,7 +5516,7 @@
     <t>jackson.demera@espam.edu.ec</t>
   </si>
   <si>
-    <t>bg04fSY9</t>
+    <t>btFBHTvE</t>
   </si>
   <si>
     <t>GANCHOZO LECTONG GRESSILLE GUISSELLA</t>
@@ -5525,7 +5525,7 @@
     <t>gressille.ganchozo@espam.edu.ec</t>
   </si>
   <si>
-    <t>swDJn1FU</t>
+    <t>fN2oirQB</t>
   </si>
   <si>
     <t>INDIO ZAMBRANO ODALIS MICHELLE</t>
@@ -5537,7 +5537,7 @@
     <t>odalis.indio@espam.edu.ec</t>
   </si>
   <si>
-    <t>UBnjZcz2</t>
+    <t>3kQu/UlY</t>
   </si>
   <si>
     <t>INTRIAGO TERAN BRYAN ASDRUBAL</t>
@@ -5546,7 +5546,7 @@
     <t>bryan.intriago@espam.edu.ec</t>
   </si>
   <si>
-    <t>?F8cMC1h</t>
+    <t>8Q20QuXt</t>
   </si>
   <si>
     <t>INTRIAGO ZAMBRANO GISSELA KAROLINA</t>
@@ -5555,7 +5555,7 @@
     <t>gissela.intriago@espam.edu.ec</t>
   </si>
   <si>
-    <t>c5knZq8Y</t>
+    <t>eZMnE5Lf</t>
   </si>
   <si>
     <t>LEONES SOLORZANO YARITZA DANIELA</t>
@@ -5564,7 +5564,7 @@
     <t>yaritza.leones@espam.edu.ec</t>
   </si>
   <si>
-    <t>k0yKtTv2</t>
+    <t>n&amp;u8QtaC</t>
   </si>
   <si>
     <t>LOPEZ MORA JOSSELYN AMARILYS</t>
@@ -5573,7 +5573,7 @@
     <t>josselyn.lopez@espam.edu.ec</t>
   </si>
   <si>
-    <t>nou?Njwh</t>
+    <t>b8!WMsXk</t>
   </si>
   <si>
     <t>MERA LOOR ANTONY ELIAN</t>
@@ -5582,7 +5582,7 @@
     <t>antony.mera@espam.edu.ec</t>
   </si>
   <si>
-    <t>yVt5gabL</t>
+    <t>o8qFrSJ!</t>
   </si>
   <si>
     <t>MERA SABANDO GEMA YAMILETH</t>
@@ -5591,7 +5591,7 @@
     <t>gema.mera@espam.edu.ec</t>
   </si>
   <si>
-    <t>grAhYT98</t>
+    <t>vAwzr9AK</t>
   </si>
   <si>
     <t>MIRANDA IBARRA ALFONSO SEBASTIAN</t>
@@ -5600,7 +5600,7 @@
     <t>alfonso.miranda@espam.edu.ec</t>
   </si>
   <si>
-    <t>rzmde8Wm</t>
+    <t>QXhvE66?</t>
   </si>
   <si>
     <t>MONGE ERAZO JECSY PIERINA</t>
@@ -5609,7 +5609,7 @@
     <t>jecsy.monge@espam.edu.ec</t>
   </si>
   <si>
-    <t>Gn5Utv86</t>
+    <t>HHCE#V0?</t>
   </si>
   <si>
     <t>ROMERO ORTEGA ANGEL ANDRES</t>
@@ -5618,7 +5618,7 @@
     <t>angel.romero@espam.edu.ec</t>
   </si>
   <si>
-    <t>uAlELojy</t>
+    <t>86?fPXQ4</t>
   </si>
   <si>
     <t>SOLORZANO INTRIAGO OSCAR FABIAN</t>
@@ -5630,7 +5630,7 @@
     <t>oscar.solorzano@espam.edu.ec</t>
   </si>
   <si>
-    <t>c&amp;Lk4Xe7</t>
+    <t>uACyAwin</t>
   </si>
   <si>
     <t>VALVERDE ZAPATA KATHIUSCA CARLOTA</t>
@@ -5642,7 +5642,7 @@
     <t>kathiusca.valverde@espam.edu.ec</t>
   </si>
   <si>
-    <t>E!#UoxJI</t>
+    <t>0YWKWadI</t>
   </si>
   <si>
     <t>VERA AYALA GENESIS LISBETH</t>
@@ -5651,7 +5651,7 @@
     <t>genesis.vera@espam.edu.ec</t>
   </si>
   <si>
-    <t>l0w&amp;JuoH</t>
+    <t>S#fLVVTx</t>
   </si>
   <si>
     <t>VERA PULIDO MARIA IVANNA</t>
@@ -5660,7 +5660,7 @@
     <t>mariai.verap@espam.edu.ec</t>
   </si>
   <si>
-    <t>iycuvNgb</t>
+    <t>ggJUhGfQ</t>
   </si>
   <si>
     <t>VERA ZAMBRANO JAZMIN CAROLINA</t>
@@ -5669,7 +5669,7 @@
     <t>jazmin.vera@espam.edu.ec</t>
   </si>
   <si>
-    <t>2jjn9Xg/</t>
+    <t>FngwVibk</t>
   </si>
   <si>
     <t>VERGARA ARBOLEDA WENDY DEL ROCIO</t>
@@ -5681,7 +5681,7 @@
     <t>wendy.vergara@espam.edu.ec</t>
   </si>
   <si>
-    <t>BxIxkhWZ</t>
+    <t>mbRINPkG</t>
   </si>
   <si>
     <t>VILLAMAR GONZALEZ ELENA SAMANTA</t>
@@ -5690,7 +5690,7 @@
     <t>elena.villamar@espam.edu.ec</t>
   </si>
   <si>
-    <t>7CkigrNq</t>
+    <t>EC8VRN&amp;Y</t>
   </si>
   <si>
     <t>ZAMBRANO ALCIVAR GENESIS VALENTINA</t>
@@ -5699,7 +5699,7 @@
     <t>genesis.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>C/CftOwS</t>
+    <t>6ONzXTbp</t>
   </si>
   <si>
     <t>ZAMBRANO CHAVEZ ANDREA MONSERRATE</t>
@@ -5708,7 +5708,7 @@
     <t>andream.zambranoc@espam.edu.ec</t>
   </si>
   <si>
-    <t>s3IV&amp;Ks0</t>
+    <t>Z5/u2NNg</t>
   </si>
   <si>
     <t>ZAMBRANO GRACIA DANIELA ANGELINA</t>
@@ -5717,7 +5717,7 @@
     <t>daniela.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>foA#OP?1</t>
+    <t>JSxx!?Kt</t>
   </si>
   <si>
     <t>ZAMBRANO MUÑOZ WILLY JHONAY</t>
@@ -5726,7 +5726,7 @@
     <t>willy.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>?DAXfaKA</t>
+    <t>/o&amp;WvD&amp;g</t>
   </si>
   <si>
     <t>ZAMBRANO ZAMBRANO TATIANA ELIZABETH</t>
@@ -5735,7 +5735,7 @@
     <t>tatianael.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>L50oJ!!Q</t>
+    <t>BUfJTak!</t>
   </si>
 </sst>
 </file>

--- a/storage/app/public/seeds/datosPassword.xlsx
+++ b/storage/app/public/seeds/datosPassword.xlsx
@@ -44,7 +44,7 @@
     <t>angie.alcivar.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>MN5drS/h</t>
+    <t>TljGPb!J</t>
   </si>
   <si>
     <t>ALCIVAR VERA KARLA MILENA</t>
@@ -53,7 +53,7 @@
     <t>karla.alcivar.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>fXuuOAaH</t>
+    <t>Lt5X0W7x</t>
   </si>
   <si>
     <t>ALVIA ROCA HENRY ISAAC</t>
@@ -65,7 +65,7 @@
     <t>henry.alvia.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>EaVQKyeC</t>
+    <t>9S1eT8cQ</t>
   </si>
   <si>
     <t>ANANGONO GOMEZ ANA MARCELA</t>
@@ -74,7 +74,7 @@
     <t>ana.anangono.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>YrhEw7q0</t>
+    <t>x9dDVEC4</t>
   </si>
   <si>
     <t>BRAVO MARCILLO NATHALY SILVANA</t>
@@ -86,7 +86,7 @@
     <t>nathaly.bravo.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>Gs&amp;Jkq2s</t>
+    <t>S3ogIVjN</t>
   </si>
   <si>
     <t>BRIONES SUAREZ DANIA MELISSA</t>
@@ -95,7 +95,7 @@
     <t>dania.briones.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>JP5ZOfnY</t>
+    <t>ZD0jrXhZ</t>
   </si>
   <si>
     <t>CANCHINGRE LOZA MARIANA DE JESUS</t>
@@ -107,7 +107,7 @@
     <t>mariana.canchingre.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>krtlO5eg</t>
+    <t>YC1KNuPy</t>
   </si>
   <si>
     <t>CEDEÑO GARCIA EMILY JAHAIRA</t>
@@ -116,7 +116,7 @@
     <t>emily.cedeno.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>uJJ!oZr/</t>
+    <t>tJ#BY5QZ</t>
   </si>
   <si>
     <t>CEDEÑO VELEZ STEVEN ANTONIO</t>
@@ -125,7 +125,7 @@
     <t>steven.cedeno.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>HfuKAeNC</t>
+    <t>0T?hmN2X</t>
   </si>
   <si>
     <t>CHICA ORDOÑEZ YAIZA ANAHI</t>
@@ -134,7 +134,7 @@
     <t>yaiza.chica.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>5JousHfi</t>
+    <t>6!YbMZBF</t>
   </si>
   <si>
     <t>CORONEL MERO DAMARY SABRINA</t>
@@ -143,7 +143,7 @@
     <t>damary.coronel.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>LaxJWgkg</t>
+    <t>owgiWrAl</t>
   </si>
   <si>
     <t>DELGADO BENAVIDES MELISSA ANDREINA</t>
@@ -152,7 +152,7 @@
     <t>melissa.delgado.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>IKOgfA##</t>
+    <t>ay#OSvxh</t>
   </si>
   <si>
     <t>DELGADO SOLORZANO TONY DAMIAN</t>
@@ -161,7 +161,7 @@
     <t>tony.delgado.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>9yVbQ15S</t>
+    <t>QHrIMQk?</t>
   </si>
   <si>
     <t>ELENO GENDE JOSELYN KATHERINE</t>
@@ -173,7 +173,7 @@
     <t>joselyn.eleno.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>Ya4M?cKI</t>
+    <t>4X#N0Je6</t>
   </si>
   <si>
     <t>GARCIA RIVERA ANGHELA LISBETH</t>
@@ -185,7 +185,7 @@
     <t>anghela.garcia.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>zsvxvp0d</t>
+    <t>QOSjXxn&amp;</t>
   </si>
   <si>
     <t>GARCIA ROSS PRISCILA TAHILY</t>
@@ -194,7 +194,7 @@
     <t>priscila.garcia.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>6Rb1kHuZ</t>
+    <t>k0x2GVr#</t>
   </si>
   <si>
     <t>LOOR ZAMBRANO MARILYN MICHEL</t>
@@ -203,7 +203,7 @@
     <t>marilyn.loor.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>u1m40L5?</t>
+    <t>i#FMcYMI</t>
   </si>
   <si>
     <t>LUCAS MENDOZA MOISES NOE</t>
@@ -212,7 +212,7 @@
     <t>moises.lucas.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>zby!h80J</t>
+    <t>Dj2v42Y9</t>
   </si>
   <si>
     <t>MANTUANO LOOR JENIFER DANIELA</t>
@@ -221,7 +221,7 @@
     <t>jenifer.mantuano.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>N1HrG8eU</t>
+    <t>kEKYN#&amp;3</t>
   </si>
   <si>
     <t>MENENDEZ SANTANA JOSMELY ANAHI</t>
@@ -230,7 +230,7 @@
     <t>josmely.menendez.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>!UQ9TbTc</t>
+    <t>zU2NgbJ#</t>
   </si>
   <si>
     <t>MEZA ESPINOZA MISHEL NICOL</t>
@@ -239,7 +239,7 @@
     <t>mishel.meza.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>tgDSFoNv</t>
+    <t>9OiJOidl</t>
   </si>
   <si>
     <t>MORANTE TROYA JAIME ANDRES</t>
@@ -248,7 +248,7 @@
     <t>jaime.morante.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>0mj5iFnt</t>
+    <t>xCgUT#6/</t>
   </si>
   <si>
     <t>PARRAGA MOREIRA CINDY ANDREA</t>
@@ -257,7 +257,7 @@
     <t>cindy.parraga.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>9xY69bZk</t>
+    <t>T4LQwrc!</t>
   </si>
   <si>
     <t>PEÑAFIEL VALENCIA JULEISY LISBETH</t>
@@ -269,7 +269,7 @@
     <t>juleisy.penafiel.4623@espam.edu.ec</t>
   </si>
   <si>
-    <t>zOo38omL</t>
+    <t>ZVZ5dan7</t>
   </si>
   <si>
     <t>PICO CRIOLLO MILETH KATHERINE</t>
@@ -278,7 +278,7 @@
     <t>mileth.pico.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>B8mq0LnK</t>
+    <t>Irl7#/5D</t>
   </si>
   <si>
     <t>RENDON GILER JUNIOR ARIEL</t>
@@ -287,7 +287,7 @@
     <t>junior.rendon@espam.edu.ec</t>
   </si>
   <si>
-    <t>&amp;pvfJnEA</t>
+    <t>DsqP?gij</t>
   </si>
   <si>
     <t>SALVATIERRA SANTOS BRYAN ALEJANDRO</t>
@@ -296,7 +296,7 @@
     <t>bryan.salvatierra@espam.edu.ec</t>
   </si>
   <si>
-    <t>4IlwrYBc</t>
+    <t>52HYrK?V</t>
   </si>
   <si>
     <t>SOLORZANO LUCAS ALEXANDER JOEL</t>
@@ -308,7 +308,7 @@
     <t>alexander.solorzano.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>rgG2P66R</t>
+    <t>TNMUMgPt</t>
   </si>
   <si>
     <t>SOLORZANO RODRIGUEZ DAYANA NICOLLE</t>
@@ -317,7 +317,7 @@
     <t>dayanna.solorzano.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>OfiMUnE7</t>
+    <t>M2?Aryyv</t>
   </si>
   <si>
     <t>TENORIO QUINTERO ELY GILMAR</t>
@@ -329,7 +329,7 @@
     <t>ely.tenorio.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>AwXnB/Dv</t>
+    <t>9UmHKPku</t>
   </si>
   <si>
     <t>VELASQUEZ DOMINGUEZ JORDAN RICARDO</t>
@@ -338,7 +338,7 @@
     <t>jordan.velasquez.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>PF2Ru4qw</t>
+    <t>nodHeI3?</t>
   </si>
   <si>
     <t>VILLAVICENCIO SALVADOR MELANIE HELLAIM</t>
@@ -350,7 +350,7 @@
     <t>melanie.villavicencio.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>sEee/PgV</t>
+    <t>7kGR6Pl9</t>
   </si>
   <si>
     <t>ZAMBRANO CEDEÑO ANGELO ALEXANDER</t>
@@ -359,7 +359,7 @@
     <t>angelo.zambrano.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>ec9/h#F?</t>
+    <t>1MPTlpnw</t>
   </si>
   <si>
     <t>ZAMBRANO VALENCIA SHIRLEY EDITH</t>
@@ -368,7 +368,7 @@
     <t>shirley.zambrano.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>2whPuyWR</t>
+    <t>WGzPOIUT</t>
   </si>
   <si>
     <t>ANGEL GOMEZ GILENY NAHOMY</t>
@@ -380,7 +380,7 @@
     <t>gileny.angel.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>mBKUkaK7</t>
+    <t>vRCnN&amp;&amp;y</t>
   </si>
   <si>
     <t>BARRE QUIJANO DARWIN JOSE</t>
@@ -389,7 +389,7 @@
     <t>darwin.barre@espam.edu.ec</t>
   </si>
   <si>
-    <t>m5UF&amp;oYm</t>
+    <t>WcaMxFt9</t>
   </si>
   <si>
     <t>BRAVO ALVAREZ EMILY JESUS</t>
@@ -398,7 +398,7 @@
     <t>emily.bravo.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>0H!knIVJ</t>
+    <t>AcD#0gyZ</t>
   </si>
   <si>
     <t>CAGUA YOONG NAHOMY JAMILETH</t>
@@ -407,7 +407,7 @@
     <t>nahomy.cagua.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>vWuO0p2y</t>
+    <t>rJl9OTyL</t>
   </si>
   <si>
     <t>CASTILLO CEDEÑO EMILIA MARICELA</t>
@@ -416,7 +416,7 @@
     <t>emilia.castillo.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>EuN&amp;dLjZ</t>
+    <t>fFTqIgiS</t>
   </si>
   <si>
     <t>CEDEÑO ZAMBRANO JOSE DANIEL</t>
@@ -425,7 +425,7 @@
     <t>jose.cedenoz.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>ZfaDeIUg</t>
+    <t>H095kcHL</t>
   </si>
   <si>
     <t>CIFUENTES VELASQUEZ JOSE JAHIR</t>
@@ -434,7 +434,7 @@
     <t>jose.cifuentes.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>k1EKJ0m2</t>
+    <t>KW2xFdyj</t>
   </si>
   <si>
     <t>CONFORME CIFUENTES ROBERTH JESUS</t>
@@ -443,7 +443,7 @@
     <t>roberth.conforme.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>E6RWGFMW</t>
+    <t>y4uP&amp;uUj</t>
   </si>
   <si>
     <t>CORDERO GILER SALMA PAOLA</t>
@@ -452,7 +452,7 @@
     <t>salma.cordero.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>nzQGYz7S</t>
+    <t>&amp;8&amp;0CMxK</t>
   </si>
   <si>
     <t>FARIAS VELIZ RENE OCTAVIO</t>
@@ -461,7 +461,7 @@
     <t>rene.farias.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>pieZpuI2</t>
+    <t>p&amp;/#dLtI</t>
   </si>
   <si>
     <t>GARCIA DUEÑAS JEAN FERNANDO</t>
@@ -470,7 +470,7 @@
     <t>jean.garcia.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>d6MG61X3</t>
+    <t>ch179eZb</t>
   </si>
   <si>
     <t>HERRERA BASURTO IVIS ANTONELLA</t>
@@ -479,7 +479,7 @@
     <t>ivis.herrera.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>YcosHdRw</t>
+    <t>NOfg3XOq</t>
   </si>
   <si>
     <t>HIDALGO LOOR MARLYN NALLELY</t>
@@ -488,7 +488,7 @@
     <t>marlyn.hidalgo.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>cyCuv8fl</t>
+    <t>oCp1?6Vi</t>
   </si>
   <si>
     <t>IBARRA CHAVARRIA JUAN DIEGO</t>
@@ -497,7 +497,7 @@
     <t>juan.ibarra.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>TUKxn!sz</t>
+    <t>tYDLtbI?</t>
   </si>
   <si>
     <t>JAYA ZAPATA VICTOR EDUARDO</t>
@@ -506,7 +506,7 @@
     <t>victor.jaya.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>6tNmYTNx</t>
+    <t>TTd#2QGo</t>
   </si>
   <si>
     <t>LOOR DELGADO JERRY JOEL</t>
@@ -515,7 +515,7 @@
     <t>jerry.loor.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>PpGxdypj</t>
+    <t>iRfH7En5</t>
   </si>
   <si>
     <t>MANTUANO PONCE MELANY MONCERRATE</t>
@@ -524,7 +524,7 @@
     <t>melany.mantuano.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>t3I9bxvZ</t>
+    <t>bhcfAi33</t>
   </si>
   <si>
     <t>MENDOZA VASQUEZ ARIEL ALEXIS</t>
@@ -536,7 +536,7 @@
     <t>ariel.mendoza.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>xmpycDqg</t>
+    <t>7y0/PiGo</t>
   </si>
   <si>
     <t>MOREIRA GARCIA MACARIO EMANUEL</t>
@@ -545,7 +545,7 @@
     <t>macario.moreira.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>RoZHqW/k</t>
+    <t>M9PP7uKQ</t>
   </si>
   <si>
     <t>MOREIRA GILCES GABRIELA NIKOL</t>
@@ -554,7 +554,7 @@
     <t>gabriela.moreira.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>Ur35Fd7R</t>
+    <t>AIey#qpL</t>
   </si>
   <si>
     <t>NOBOA MONTESDEOCA INGRITH MADELEYN</t>
@@ -563,7 +563,7 @@
     <t>ingrith.noboa.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>ah4r89HM</t>
+    <t>cQEthjax</t>
   </si>
   <si>
     <t>ORDOÑEZ ALCIVAR ALEX PAUL</t>
@@ -572,7 +572,7 @@
     <t>alex.ordonez.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>d03DSNTe</t>
+    <t>AwE7HesE</t>
   </si>
   <si>
     <t>PALMA GARCIA MELYN JARITZA</t>
@@ -581,7 +581,7 @@
     <t>melyn.palma.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>CldT9h3s</t>
+    <t>8DzduI8r</t>
   </si>
   <si>
     <t>PAREDES MERO GHISLAINE ANAHI</t>
@@ -590,7 +590,7 @@
     <t>ghislaine.paredes.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>tozm!6mI</t>
+    <t>yJ2Zv&amp;Wc</t>
   </si>
   <si>
     <t>QUIJIJE PIANDA XIOMARA MISHELLE</t>
@@ -602,7 +602,7 @@
     <t>xiomara.quijije.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>PcfoH2X#</t>
+    <t>M/clJI21</t>
   </si>
   <si>
     <t>SALAVARRIA AVEIGA YULIANA GUADALUPE</t>
@@ -611,7 +611,7 @@
     <t>yuliana.salavarria.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>pa2JjZzh</t>
+    <t>Bs2omIai</t>
   </si>
   <si>
     <t>SANTOS ALCIVAR JAIR SEBASTIAN</t>
@@ -620,7 +620,7 @@
     <t>jair.santos.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>5EgAzqKS</t>
+    <t>7Wv!!Qp2</t>
   </si>
   <si>
     <t>SOLORZANO CANDELA JARITZA NOHEMY</t>
@@ -629,7 +629,7 @@
     <t>jaritza.solorzano.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>X#lNYWg7</t>
+    <t>OA27zb4M</t>
   </si>
   <si>
     <t>VERA CEBALLOS MARIA CONCEPCION</t>
@@ -638,7 +638,7 @@
     <t>maria.vera.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>YOYeSUd/</t>
+    <t>PstFd1Mh</t>
   </si>
   <si>
     <t>ALAVA MUÑOZ BILL JARVI</t>
@@ -647,7 +647,7 @@
     <t>bill.alava.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>la&amp;5ArdX</t>
+    <t>Q8ySTGkF</t>
   </si>
   <si>
     <t>ALCIVAR ZAMBRANO ESTHER JOMARA</t>
@@ -656,7 +656,7 @@
     <t>esther.alcivar.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>85u5GL98</t>
+    <t>hqSS4uM0</t>
   </si>
   <si>
     <t>ALMEIDA LOOR MARIA VICTORIA</t>
@@ -665,7 +665,7 @@
     <t>maria.almeida.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>8ZhvDf32</t>
+    <t>Fw4d1xZN</t>
   </si>
   <si>
     <t>ANDRADE VILLAVICENCIO PABLO HUGO</t>
@@ -674,7 +674,7 @@
     <t>pablo.andrade.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>yoR?4BVO</t>
+    <t>ZfWHrF8n</t>
   </si>
   <si>
     <t>AVENDAÑO YZQUIERDO ADRIANA ISABEL</t>
@@ -686,7 +686,7 @@
     <t>adriana.avendano.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>rvZ#Z2F2</t>
+    <t>JIL2I?2s</t>
   </si>
   <si>
     <t>BALUARTE PARRAGA MAYERLY NARCISA</t>
@@ -698,7 +698,7 @@
     <t>mayerly.baluarte.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>GtCaxBGk</t>
+    <t>0dzOjRrd</t>
   </si>
   <si>
     <t>BARRE CASTAÑEDA MAYERLI SOLANGE</t>
@@ -710,7 +710,7 @@
     <t>mayerli.barre.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>0g9K5mlB</t>
+    <t>lRnb3JG2</t>
   </si>
   <si>
     <t>BERMEO MENDOZA LESLY JULIETT</t>
@@ -719,7 +719,7 @@
     <t>lesly.bermeo.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>rvqNRTLu</t>
+    <t>UTUmfKkL</t>
   </si>
   <si>
     <t>BRAVO ZAMBRANO DANA KATIUSKA</t>
@@ -728,7 +728,7 @@
     <t>dana.bravo.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>#0bpTQpq</t>
+    <t>CizY8a9k</t>
   </si>
   <si>
     <t>CEDEÑO ALVARADO JORGE LUIS</t>
@@ -737,7 +737,7 @@
     <t>jorge.cedeno.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>ve4#hLbZ</t>
+    <t>pJtscjCF</t>
   </si>
   <si>
     <t>DOMINGUEZ ANGEL ANAIS ZULEYMA</t>
@@ -749,7 +749,7 @@
     <t>anais.dominguez.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>yX8YX5At</t>
+    <t>sxbCpXel</t>
   </si>
   <si>
     <t>ESPARZA TELLO ERICKA MARIA</t>
@@ -761,7 +761,7 @@
     <t>ericka.esparza.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>aJp7daXz</t>
+    <t>c?yG9VAB</t>
   </si>
   <si>
     <t>GRAIN MARCILLO MICHAEL JOSUE</t>
@@ -770,7 +770,7 @@
     <t>michael.grain.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>TdZEfl7V</t>
+    <t>&amp;j3o46n&amp;</t>
   </si>
   <si>
     <t>JAMA ZAMBRANO ROBERTH XAVIER</t>
@@ -779,7 +779,7 @@
     <t>roberth.jama@espam.edu.ec</t>
   </si>
   <si>
-    <t>#6uaB6rh</t>
+    <t>smzitlO#</t>
   </si>
   <si>
     <t>LARA BONE ANGIE NICOLE</t>
@@ -791,7 +791,7 @@
     <t>angie.lara.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>R2mzbB7e</t>
+    <t>x0t0voOZ</t>
   </si>
   <si>
     <t>LOPEZ DELGADO DAYANA NICOLLE</t>
@@ -800,7 +800,7 @@
     <t>dayana.lopez.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>wSeFvv!I</t>
+    <t>FqiwFgfI</t>
   </si>
   <si>
     <t>MELO CENTENO HELEN SOFIA</t>
@@ -809,7 +809,7 @@
     <t>helen.melo.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>yXFhGH1!</t>
+    <t>fi&amp;F0z5c</t>
   </si>
   <si>
     <t>MENDOZA ORTEGA ANGELO DANIEL</t>
@@ -818,7 +818,7 @@
     <t>angelo.mendoza.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>/iZqMr7M</t>
+    <t>G39#Nf?4</t>
   </si>
   <si>
     <t>MERO CARRILLO EMELY MILENA</t>
@@ -827,7 +827,7 @@
     <t>emely.mero.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>183XGgVn</t>
+    <t>ruhYR8zx</t>
   </si>
   <si>
     <t>MITE MENENDEZ GEORGE ISAAC</t>
@@ -836,7 +836,7 @@
     <t>george.mite.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>/xJyc&amp;Yv</t>
+    <t>bglMl612</t>
   </si>
   <si>
     <t>MONCAYO CAGUA LADY NOHELIA</t>
@@ -845,7 +845,7 @@
     <t>lady.moncayo.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>mtSQUCax</t>
+    <t>D79ePRre</t>
   </si>
   <si>
     <t>ORMAZA ALCIVAR NOHELIA MILENA</t>
@@ -854,7 +854,7 @@
     <t>nohelia.ormaza.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>2WgFEue!</t>
+    <t>zze&amp;964#</t>
   </si>
   <si>
     <t>PANTA CANDELA YONNY ALEXANDER</t>
@@ -863,7 +863,7 @@
     <t>jonny.panta.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>QXZmRG28</t>
+    <t>3ZQnUw9u</t>
   </si>
   <si>
     <t>QUINATOA SIMALIZA YAJAIRA NICOLE</t>
@@ -872,7 +872,7 @@
     <t>yajaira.quinatoa.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>x!1yaIJd</t>
+    <t>RpD!DZch</t>
   </si>
   <si>
     <t>REYNA RAMIREZ SINDY MAHOLY</t>
@@ -881,7 +881,7 @@
     <t>sindy.reyna.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>QYYGShIo</t>
+    <t>#9jXG9hi</t>
   </si>
   <si>
     <t>RODRIGUEZ ANCHUNDIA LUIS FERNANDO</t>
@@ -890,7 +890,7 @@
     <t>luis.rodriguez.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>cRHg1K!w</t>
+    <t>UaobGrCN</t>
   </si>
   <si>
     <t>SABANDO TUAREZ MILENA BLANCA</t>
@@ -899,7 +899,7 @@
     <t>milena.sabando.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>xS5&amp;KGfo</t>
+    <t>sB4bFIOq</t>
   </si>
   <si>
     <t>SALAZAR RAMIREZ YARITZA GABRIELA</t>
@@ -908,7 +908,7 @@
     <t>yaritza.salazar.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>R0sHszx&amp;</t>
+    <t>PmX5GJ41</t>
   </si>
   <si>
     <t>SHIGUANGO AGUINDA KATTY MIRELLA</t>
@@ -917,7 +917,7 @@
     <t>katty.shiguango.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>FxyQsFcn</t>
+    <t>zAsg09r#</t>
   </si>
   <si>
     <t>VACA MORALES JOSE EDUARDO</t>
@@ -926,7 +926,7 @@
     <t>jose.vaca.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>OvXj4KOi</t>
+    <t>I2I44LPN</t>
   </si>
   <si>
     <t>VELASQUEZ MEJIA ARIANNA ELIZABETH</t>
@@ -935,7 +935,7 @@
     <t>arianna.velasquez.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>s2ESPRhl</t>
+    <t>i?09#IpN</t>
   </si>
   <si>
     <t>VELEZ CEDEÑO YANDRY ALAIN</t>
@@ -944,7 +944,7 @@
     <t>yandry.velez.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>hHXnlAhS</t>
+    <t>zg3m3?1g</t>
   </si>
   <si>
     <t>VERA ZAMORA DIXON YAIR</t>
@@ -953,7 +953,7 @@
     <t>dixon.vera.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>dczfkJFa</t>
+    <t>FybI2OQo</t>
   </si>
   <si>
     <t>ZAMBRANO FORTIS RICARDO MIGUEL</t>
@@ -962,7 +962,7 @@
     <t>ricardo.zambrano.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>oMrBPxF2</t>
+    <t>v0g5HMLb</t>
   </si>
   <si>
     <t>ALVARADO DUEÑAS KARELYS VANESSA</t>
@@ -971,7 +971,7 @@
     <t>karelys.alvarado.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>Ips5Tg0k</t>
+    <t>k!WsKR5L</t>
   </si>
   <si>
     <t>ANDRADE ILES ALVIERY JAHIR</t>
@@ -983,7 +983,7 @@
     <t>alviery.andrade.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>XGaB&amp;gTz</t>
+    <t>FAuxz7nU</t>
   </si>
   <si>
     <t>ARTEAGA RAMOS DIEGO ALEJANDRO</t>
@@ -992,7 +992,7 @@
     <t>diego.arteaga.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>vDqEZSJD</t>
+    <t>?nwNAMXx</t>
   </si>
   <si>
     <t>BARREIRO INTRIAGO STEFANY PIERINA</t>
@@ -1001,7 +1001,7 @@
     <t>stefany.barreiro.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>qsYvM980</t>
+    <t>8aqECHyH</t>
   </si>
   <si>
     <t>BRAVO QUINTERO SARA NICOLE</t>
@@ -1013,7 +1013,7 @@
     <t>sara.bravo.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>mtFp8lTP</t>
+    <t>YgKj/c1a</t>
   </si>
   <si>
     <t>CABALLERO MUÑOZ STEVEN FABRICIO</t>
@@ -1022,7 +1022,7 @@
     <t>steven.caballero.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>XSV!w0i/</t>
+    <t>mf93LatA</t>
   </si>
   <si>
     <t>CARRASCO VERA LUCAS JOSUE</t>
@@ -1031,7 +1031,7 @@
     <t>lucas.carrasco.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>2SLiaB8Y</t>
+    <t>BpfB3cdZ</t>
   </si>
   <si>
     <t>CEDEÑO MURILLO KENNER STEVEN</t>
@@ -1040,7 +1040,7 @@
     <t>kenner.cedeno.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>mUqYSQWm</t>
+    <t>SCYCLzc4</t>
   </si>
   <si>
     <t>CUERO PAZMIÑO EMMANUEL JOSUE</t>
@@ -1049,7 +1049,7 @@
     <t>emmanuel.cuero.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>X&amp;e4e5!W</t>
+    <t>JFYz!1X/</t>
   </si>
   <si>
     <t>LADINES CASTRO MIRKA DARLISHA</t>
@@ -1061,7 +1061,7 @@
     <t>mirka.ladines.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>usEdXAyH</t>
+    <t>39u22VSs</t>
   </si>
   <si>
     <t>LARA FRANCO MICHAEL ARGEL</t>
@@ -1073,7 +1073,7 @@
     <t>michael.lara.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>?FG&amp;B3vV</t>
+    <t>jwH/VXDU</t>
   </si>
   <si>
     <t>LEYTHON QUIÑONEZ JEIMY SILVANA</t>
@@ -1085,7 +1085,7 @@
     <t>jeimy.leython.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>EhUfluOp</t>
+    <t>loAfh6Y9</t>
   </si>
   <si>
     <t>LOOR LOOR GENESIS DANIELA</t>
@@ -1094,7 +1094,7 @@
     <t>genesis.loor.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>KoISo7xF</t>
+    <t>83cPMo2A</t>
   </si>
   <si>
     <t>MATAMBA GUANGA THALIA VALERIA</t>
@@ -1106,7 +1106,7 @@
     <t>thalia.matamba.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>F&amp;rJjDA?</t>
+    <t>XZLbBneY</t>
   </si>
   <si>
     <t>MENDOZA DE LA CRUZ MARTHA DANIELA</t>
@@ -1115,7 +1115,7 @@
     <t>martha.mendoza.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>vV83#8FU</t>
+    <t>Z5d!Ilbx</t>
   </si>
   <si>
     <t>MINOTA BORJA ALEXANDER JAHIR</t>
@@ -1127,7 +1127,7 @@
     <t>alexander.minota.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>OnPRZ?XC</t>
+    <t>IJsiLzfq</t>
   </si>
   <si>
     <t>NAVIA LOOR JOSE EFRAIN</t>
@@ -1136,7 +1136,7 @@
     <t>jose.navia.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>kqYNq6?P</t>
+    <t>drgZZpt4</t>
   </si>
   <si>
     <t>PILATAXI UTRERAS KATHERIN JULIETH</t>
@@ -1145,7 +1145,7 @@
     <t>katherin.pilataxi.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>/E&amp;e/VzL</t>
+    <t>z1snOG85</t>
   </si>
   <si>
     <t>PINARGOTE CARREÑO FELIX JOEL</t>
@@ -1154,7 +1154,7 @@
     <t>felix.pinargote.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>9TlICi!v</t>
+    <t>pFL5PMfV</t>
   </si>
   <si>
     <t>PONCE ZAMBRANO ARIANA JESSENIA</t>
@@ -1163,7 +1163,7 @@
     <t>ariana.ponce.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>irpccmrr</t>
+    <t>#?3Usksi</t>
   </si>
   <si>
     <t>QUINATOA SIMALIZA KELLY MARIUXI</t>
@@ -1172,7 +1172,7 @@
     <t>kelly.quinatoa.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>aC2EBL?U</t>
+    <t>HhcqNC7#</t>
   </si>
   <si>
     <t>ROSADO ROSADO JOEL JESUS</t>
@@ -1181,7 +1181,7 @@
     <t>joel.rosado.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>6yYCR0cv</t>
+    <t>oYbqgNJu</t>
   </si>
   <si>
     <t>SANMARTIN TAPIA CARMEN EDITH</t>
@@ -1190,7 +1190,7 @@
     <t>carmen.sanmartin.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>mSkDVoKS</t>
+    <t>s?hhrFo0</t>
   </si>
   <si>
     <t>SAYAY DAGUA JOSELYN NICOL</t>
@@ -1202,7 +1202,7 @@
     <t>joselyn.sayay.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>kMT6t9QD</t>
+    <t>wlHQ&amp;v2m</t>
   </si>
   <si>
     <t>SOLORZANO PAZMIÑO DECCY DANIELA</t>
@@ -1211,7 +1211,7 @@
     <t>deccy.solorzano.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>ZDB5kThn</t>
+    <t>kgYxxkwL</t>
   </si>
   <si>
     <t>VERGARA ZAMBRANO MATIAS ALEXANDER</t>
@@ -1220,7 +1220,7 @@
     <t>matias.vergara.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>oeqHpRMk</t>
+    <t>DZVnte0k</t>
   </si>
   <si>
     <t>ZAMBRANO INTRIAGO FRAYDA JESSENIA</t>
@@ -1229,7 +1229,7 @@
     <t>frayda.zambrano.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>Lj2WqnG7</t>
+    <t>grYmvxmm</t>
   </si>
   <si>
     <t>ZAMBRANO VALAREZO ANDREA LISBETH</t>
@@ -1238,7 +1238,7 @@
     <t>andrea.zambrano.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>FEQcw/ve</t>
+    <t>u/Nj8wxG</t>
   </si>
   <si>
     <t>AGUAS MARTINEZ KEVIN SNAIDER</t>
@@ -1247,7 +1247,7 @@
     <t>kevin.aguas@espam.edu.ec</t>
   </si>
   <si>
-    <t>/MdE5mj6</t>
+    <t>W8i&amp;mIgL</t>
   </si>
   <si>
     <t>ANDRADE GARCIA LUZ CRUCELINA</t>
@@ -1256,7 +1256,7 @@
     <t>luz.andrade.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>#XM&amp;yY?G</t>
+    <t>eeyng6L/</t>
   </si>
   <si>
     <t>BARBERAN MERO HELEN ADRIANA</t>
@@ -1265,7 +1265,7 @@
     <t>helen.barberan.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>zV8ls3vc</t>
+    <t>3qpOfc60</t>
   </si>
   <si>
     <t>BARROS ZAMBRANO DANIEL ANGEL</t>
@@ -1274,7 +1274,7 @@
     <t>daniel.barros.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>y3RNDlQ0</t>
+    <t>Ip003IHF</t>
   </si>
   <si>
     <t>BASURTO ZAMBRANO CARLOS RAUL</t>
@@ -1283,7 +1283,7 @@
     <t>carlos.basurto.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>SCWsQsct</t>
+    <t>#yV8UFQ6</t>
   </si>
   <si>
     <t>BRAVO BRAVO ANTHONY ADEMIR</t>
@@ -1292,7 +1292,7 @@
     <t>anthony.bravo.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>/L1ck72r</t>
+    <t>YVagFYzT</t>
   </si>
   <si>
     <t>CANTOS VERA ANGELA AUXILIADORA</t>
@@ -1301,7 +1301,7 @@
     <t>angela.cantos.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>0Gf0Z!Nk</t>
+    <t>4JG#dgwp</t>
   </si>
   <si>
     <t>CASTRO BOLAÑO FANNY TATIANA</t>
@@ -1310,7 +1310,7 @@
     <t>fanny.castro.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>11Lk&amp;9fg</t>
+    <t>DsJLSQUh</t>
   </si>
   <si>
     <t>CASTRO SALTOS MATTEWS FARID</t>
@@ -1319,7 +1319,7 @@
     <t>mattews.castro.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>NC4O3HE5</t>
+    <t>mDWo6A67</t>
   </si>
   <si>
     <t>CHANCAY RADE ANTONY GABRIEL</t>
@@ -1328,7 +1328,7 @@
     <t>antony.chancay@espam.edu.ec</t>
   </si>
   <si>
-    <t>bL&amp;74!km</t>
+    <t>lR/QO2&amp;1</t>
   </si>
   <si>
     <t>COBEÑA GARCIA YOMAYRA ALEXANDRA</t>
@@ -1337,7 +1337,7 @@
     <t>yomayra.cobena.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>yiewUAa#</t>
+    <t>2jepQb#v</t>
   </si>
   <si>
     <t>CRUZ ERAZO JOSE MIGUEL</t>
@@ -1346,7 +1346,7 @@
     <t>jose.cruz.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>WAzsdy&amp;4</t>
+    <t>KYNJinNI</t>
   </si>
   <si>
     <t>GARCIA ANDRADE MARIA ROSA</t>
@@ -1355,7 +1355,7 @@
     <t>maria.garcia.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>ldUrjSsl</t>
+    <t>qvEgI3QH</t>
   </si>
   <si>
     <t>HERNANDEZ LOPEZ LUIS DAVID</t>
@@ -1364,7 +1364,7 @@
     <t>luis.hernandez.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>?91sszGQ</t>
+    <t>Zl3#NFYQ</t>
   </si>
   <si>
     <t>LEON FUENTES JONATHAN ALBINO</t>
@@ -1376,7 +1376,7 @@
     <t>jonathan.leon.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>jf2!MVvX</t>
+    <t>JhB7o&amp;gP</t>
   </si>
   <si>
     <t>MACIAS ANCHUNDIA ROBERTO CARLOS</t>
@@ -1385,7 +1385,7 @@
     <t>roberto.macias.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>8f7lWH3Q</t>
+    <t>0kI!3xw7</t>
   </si>
   <si>
     <t>MAZA AGREDA KAREN IBETH</t>
@@ -1394,7 +1394,7 @@
     <t>karen.maza.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>aD80jCug</t>
+    <t>oI#elq#g</t>
   </si>
   <si>
     <t>MUÑOZ MERA LITZY ALEJANDRA</t>
@@ -1403,7 +1403,7 @@
     <t>litzy.munoz.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>uB5QUOCe</t>
+    <t>Qo?rWy3d</t>
   </si>
   <si>
     <t>MUÑOZ MOLINA ANDRY FABIAN</t>
@@ -1412,7 +1412,7 @@
     <t>andry.munoz.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>ilM38WpW</t>
+    <t>A4J&amp;MDcV</t>
   </si>
   <si>
     <t>ORMAZA VALENCIA KEVIN JAVIER</t>
@@ -1424,7 +1424,7 @@
     <t>kevin.ormaza.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>DMcujt28</t>
+    <t>2uBVjScc</t>
   </si>
   <si>
     <t>PAZMIÑO PINCAY NAYELLY AGUSTINA</t>
@@ -1433,7 +1433,7 @@
     <t>nayelly.pazmino.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>LxgAaiZa</t>
+    <t>o5kGZkF7</t>
   </si>
   <si>
     <t>POZO PONCE DANNY IVAN</t>
@@ -1442,7 +1442,7 @@
     <t>danny.pozo@espam.edu.ec</t>
   </si>
   <si>
-    <t>#rWEzBWo</t>
+    <t>yQssEjnF</t>
   </si>
   <si>
     <t>QUIJANO MEZA MARIANA LISETH</t>
@@ -1451,7 +1451,7 @@
     <t>mariana.quijano.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>G3EABe6a</t>
+    <t>MQAGCMbV</t>
   </si>
   <si>
     <t>QUIÑONEZ AÑAPA RODRIGO MANUEL</t>
@@ -1463,7 +1463,7 @@
     <t>rodrigo.quinonez.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>jfhYGl3g</t>
+    <t>JNNG0zyY</t>
   </si>
   <si>
     <t>SANTOS ALCIVAR KELVIN YOEL</t>
@@ -1472,7 +1472,7 @@
     <t>kelvin.santos.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>Y2QGIx9M</t>
+    <t>QSem5i&amp;X</t>
   </si>
   <si>
     <t>SOLORZANO RODRIGUEZ SANDY</t>
@@ -1481,7 +1481,7 @@
     <t>sandy.solorzano.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>OAnZsVpO</t>
+    <t>f1Np3JN/</t>
   </si>
   <si>
     <t>TOALA PIN ARIEL ALEJANDRO</t>
@@ -1493,7 +1493,7 @@
     <t>ariel.toala.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>57hDb!Yu</t>
+    <t>yKScYKfb</t>
   </si>
   <si>
     <t>VEGA INTRIAGO MIGUEL ANGEL</t>
@@ -1502,7 +1502,7 @@
     <t>miguel.vega.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>MqMyvRb3</t>
+    <t>rY&amp;ImCr6</t>
   </si>
   <si>
     <t>VELASQUEZ RODRIGUEZ GEMA BELEN</t>
@@ -1511,7 +1511,7 @@
     <t>gema.velasquez.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>YhSs3yDE</t>
+    <t>er!hTmOD</t>
   </si>
   <si>
     <t>VERA MENDOZA MARIA VICTORIA</t>
@@ -1520,7 +1520,7 @@
     <t>maria.veram.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>CPPf2dcW</t>
+    <t>?QaBaHWy</t>
   </si>
   <si>
     <t>VERA PALACIOS JORDANO SAUL</t>
@@ -1529,7 +1529,7 @@
     <t>jordano.vera.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>hjM3cx!c</t>
+    <t>nMb&amp;l70G</t>
   </si>
   <si>
     <t>ZAMBRANO MERA VALENTINA MONSERRATE</t>
@@ -1538,7 +1538,7 @@
     <t>valentina.zambrano.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>pSzOC#j0</t>
+    <t>E&amp;ufpBPu</t>
   </si>
   <si>
     <t>ZAMBRANO QUIMI JUAN GEORGE</t>
@@ -1550,7 +1550,7 @@
     <t>juan.zambrano.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>clBcY3Jf</t>
+    <t>5hVJVhCP</t>
   </si>
   <si>
     <t>ALCIVAR ZAMBRANO GEOMAYRA KATHERINE</t>
@@ -1562,7 +1562,7 @@
     <t>geomayra.alcivar.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>ko1SG3CV</t>
+    <t>5GHepQUX</t>
   </si>
   <si>
     <t>ANDRADE CASTILLO CLAUDIA VICTORIA</t>
@@ -1571,7 +1571,7 @@
     <t>claudia.andrade.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>Sh42!Xjo</t>
+    <t>3DcXDoju</t>
   </si>
   <si>
     <t>ANGUISACA CUENCA ALEXANDRA CECIBEL</t>
@@ -1580,7 +1580,7 @@
     <t>alexandra.anguisaca.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>hs8G5B!I</t>
+    <t>moI316wQ</t>
   </si>
   <si>
     <t>BARIAS GUARACA LESLY NAYHELY</t>
@@ -1589,7 +1589,7 @@
     <t>lesly.barias.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>2TtZKK7h</t>
+    <t>SBtR3j4U</t>
   </si>
   <si>
     <t>BARROS VERA ANGEL DAVID</t>
@@ -1598,7 +1598,7 @@
     <t>angel.barros.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>W!3LwO4P</t>
+    <t>XYr?3XfD</t>
   </si>
   <si>
     <t>BAZURTO SANTOS KENNIA KATHERINE</t>
@@ -1607,7 +1607,7 @@
     <t>kennia.bazurto.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>yo3vSS#l</t>
+    <t>2Wk#ACqQ</t>
   </si>
   <si>
     <t>BRAVO BAZURTO GISSELA MARIA</t>
@@ -1616,7 +1616,7 @@
     <t>gissela.bravo.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>tY9ySpvJ</t>
+    <t>fGi1MEYM</t>
   </si>
   <si>
     <t>BUSTAMANTE YANEZ ANTHONY MICHEL</t>
@@ -1625,7 +1625,7 @@
     <t>anthony.bustamante.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>ouEyftCi</t>
+    <t>SDU&amp;B/jz</t>
   </si>
   <si>
     <t>CASTRO SOLORZANO NIURKA JULIANA</t>
@@ -1634,7 +1634,7 @@
     <t>niurka.castro.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>n6xiPtdq</t>
+    <t>dwzjPDdm</t>
   </si>
   <si>
     <t>CEDEÑO CEDEÑO YOHANA VANESA</t>
@@ -1643,7 +1643,7 @@
     <t>yohana.cedeno.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>CflpKbj4</t>
+    <t>Kdl6cDW9</t>
   </si>
   <si>
     <t>CEDEÑO INTRIAGO JEAN PIERRE</t>
@@ -1652,7 +1652,7 @@
     <t>jean.cedeno@espam.edu.ec</t>
   </si>
   <si>
-    <t>R4BuNbb?</t>
+    <t>7ZkCa45n</t>
   </si>
   <si>
     <t>DELGADO CEVALLOS MARIA JOSE</t>
@@ -1661,7 +1661,7 @@
     <t>maria.delgado.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>ClPQdArW</t>
+    <t>kgjV8t/U</t>
   </si>
   <si>
     <t>ERAZO MORALES GABRIELA ALEJANDRA</t>
@@ -1670,7 +1670,7 @@
     <t>gabriela.erazo.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>L/fO!lB/</t>
+    <t>9kBWYF9I</t>
   </si>
   <si>
     <t>INTRIAGO ZAMBRANO LUIS JOSE</t>
@@ -1679,7 +1679,7 @@
     <t>luis.intriagoz.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>1!yy9&amp;Z8</t>
+    <t>83AyyRhI</t>
   </si>
   <si>
     <t>LOOR ORTIZ YORDY DAVID</t>
@@ -1688,7 +1688,7 @@
     <t>yordy.loor.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>WrzNXxO0</t>
+    <t>9HjVOJvk</t>
   </si>
   <si>
     <t>LOZANO GAMEZ THALIA VANESSA</t>
@@ -1700,7 +1700,7 @@
     <t>thalia.lozano.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>&amp;zhgsUan</t>
+    <t>Mx/LiS!w</t>
   </si>
   <si>
     <t>MONTES RODRIGUEZ ROLANDO ANTONIO</t>
@@ -1709,7 +1709,7 @@
     <t>rolando.montes.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>JO#P&amp;yqJ</t>
+    <t>mWqHd63c</t>
   </si>
   <si>
     <t>PALMA RENDON ARGENIS ARTURO</t>
@@ -1718,7 +1718,7 @@
     <t>argenis.palma@espam.edu.ec</t>
   </si>
   <si>
-    <t>Nw2tY#3b</t>
+    <t>rafRa05O</t>
   </si>
   <si>
     <t>PAREDES YUMBILLO KATTY MARGOTH</t>
@@ -1730,7 +1730,7 @@
     <t>katty.paredes.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>t3fujZMg</t>
+    <t>XQAsovqT</t>
   </si>
   <si>
     <t>PARRALES DELGADO ALAN SEBASTIAN</t>
@@ -1739,7 +1739,7 @@
     <t>alan.parrales.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>RcG8vzis</t>
+    <t>fBvdyEQz</t>
   </si>
   <si>
     <t>PATA CEDEÑO ROSA JUANA</t>
@@ -1751,7 +1751,7 @@
     <t>rosa.pata.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>uFPZ2YxB</t>
+    <t>VSGYN4Kg</t>
   </si>
   <si>
     <t>RETETE BASARAN KEVIN ALEXANDER</t>
@@ -1760,7 +1760,7 @@
     <t>kevin.retete.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>BzJ&amp;ALdc</t>
+    <t>HweFFfk8</t>
   </si>
   <si>
     <t>ROMAN MACIAS ESTEFANIA ISABEL</t>
@@ -1769,7 +1769,7 @@
     <t>estefania.roman.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>p0?V47CA</t>
+    <t>!27Q05iX</t>
   </si>
   <si>
     <t>SANDOVAL UREÑA FERNANDA DAYANARA</t>
@@ -1781,7 +1781,7 @@
     <t>fernanda.sandoval.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>8kF&amp;cMLY</t>
+    <t>YsUwMHB0</t>
   </si>
   <si>
     <t>SUBIAGA RAMOS LUIS ALEJANDRO</t>
@@ -1790,7 +1790,7 @@
     <t>luis.subiaga.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>L#6bLNUH</t>
+    <t>tdG0zOl3</t>
   </si>
   <si>
     <t>VELASQUEZ AVEIGA MARIA JESUS</t>
@@ -1799,7 +1799,7 @@
     <t>maria.velasquez.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>W&amp;dCc37w</t>
+    <t>E6va!f1h</t>
   </si>
   <si>
     <t>VELEZ CHEME JORDAN ESTEBAN</t>
@@ -1811,7 +1811,7 @@
     <t>jordan.velez.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>acW0iy1G</t>
+    <t>dO/2c#/j</t>
   </si>
   <si>
     <t>VELEZ MENDOZA DARWIN ALEXIS</t>
@@ -1820,7 +1820,7 @@
     <t>darwin.velez.4623@espam.edu.ec</t>
   </si>
   <si>
-    <t>P5XewS4t</t>
+    <t>KYQhXxKo</t>
   </si>
   <si>
     <t>VERA BARRE RONNY ARISTIDES</t>
@@ -1829,7 +1829,7 @@
     <t>ronny.vera.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>9NB!Q3p1</t>
+    <t>T3AKeqxS</t>
   </si>
   <si>
     <t>ZAMBRANO MACIAS DIEGO ANDRES</t>
@@ -1838,7 +1838,7 @@
     <t>diego.zambrano.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>DBa3C9qI</t>
+    <t>LD2WX5Gh</t>
   </si>
   <si>
     <t>ZAMBRANO REYNA YERSY ENRIQUE</t>
@@ -1847,7 +1847,7 @@
     <t>yersy.zambrano.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>PM2nTOef</t>
+    <t>rv1R1zEk</t>
   </si>
   <si>
     <t>CARDENAS MIELES CRISTHYAN ALBERTO</t>
@@ -1856,7 +1856,7 @@
     <t>cristhyan.cardenas.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>xbSWb#Tz</t>
+    <t>/lE/Zj3a</t>
   </si>
   <si>
     <t>CASTRO CARRERA JUAN CARLOS</t>
@@ -1865,7 +1865,7 @@
     <t>juan.castro.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>BJ3Rz!Kj</t>
+    <t>kONbiCKA</t>
   </si>
   <si>
     <t>CHAVEZ MIRANDA ANTHONY MIGUEL</t>
@@ -1874,7 +1874,7 @@
     <t>anthony.chavez@espam.edu.ec</t>
   </si>
   <si>
-    <t>#pw5t0QO</t>
+    <t>eEiS#O13</t>
   </si>
   <si>
     <t>CUSME ZAMBRANO MICHAEL RICHARD</t>
@@ -1883,7 +1883,7 @@
     <t>michael.cusme.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>7rtWDV9A</t>
+    <t>Sv6r1YM6</t>
   </si>
   <si>
     <t>GILER SALAZAR CARLOS IGNACIO</t>
@@ -1892,7 +1892,7 @@
     <t>carlos.giler@espam.edu.ec</t>
   </si>
   <si>
-    <t>F9uQ0Qnp</t>
+    <t>Z2K8zZcW</t>
   </si>
   <si>
     <t>HERNANDEZ DIAZ MARIA JOSE</t>
@@ -1904,7 +1904,7 @@
     <t>maria.hernandez.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>q#6AlI4W</t>
+    <t>e3CGfgp!</t>
   </si>
   <si>
     <t>HIDALGO MOREIRA ESTELA NATHALY</t>
@@ -1913,7 +1913,7 @@
     <t>estela.hidalgo.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>J&amp;wONwpu</t>
+    <t>kpKZWb3?</t>
   </si>
   <si>
     <t>HIDALGO MOREIRA PIERINA NATHALY</t>
@@ -1922,7 +1922,7 @@
     <t>pierina.hidalgo.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>Ac#NGYzw</t>
+    <t>2YfN3c4J</t>
   </si>
   <si>
     <t>LARA QUIJIJE PAMELA JULISSA</t>
@@ -1931,7 +1931,7 @@
     <t>pamela.lara.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>uyhdbBlD</t>
+    <t>1QgS89Si</t>
   </si>
   <si>
     <t>LOOR PITIZACA FRANK ALLAN</t>
@@ -1940,7 +1940,7 @@
     <t>frank.loor.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>1En/#EUG</t>
+    <t>eCrWAfHb</t>
   </si>
   <si>
     <t>LOOR ZAMBRANO GEMA STEFANIA</t>
@@ -1949,7 +1949,7 @@
     <t>gema.loor.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>jZtJ&amp;?YF</t>
+    <t>cY5uZ3pY</t>
   </si>
   <si>
     <t>PALACIOS TAPIA CESAR XAVIER</t>
@@ -1958,7 +1958,7 @@
     <t>cesar.palacios.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>EGjfM4Jy</t>
+    <t>hODZcy8z</t>
   </si>
   <si>
     <t>PEÑARRETA LANCHE PILAR MICAELA</t>
@@ -1967,7 +1967,7 @@
     <t>pilar.penarreta.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>f7C9!kWj</t>
+    <t>bW7pXcNa</t>
   </si>
   <si>
     <t>PILLASAGUA PINARGOTE INGRID MAYERLI</t>
@@ -1979,7 +1979,7 @@
     <t>ingrid.pillasagua.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>uMaSwK0z</t>
+    <t>/yY?hGJR</t>
   </si>
   <si>
     <t>QUIJIJE CEDEÑO GEMA LISBETH</t>
@@ -1988,7 +1988,7 @@
     <t>gema.quijije.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>XKy1DUQI</t>
+    <t>jwA&amp;lHTO</t>
   </si>
   <si>
     <t>RUIZ ZAMBRANO VICTOR ANDRES</t>
@@ -1997,7 +1997,7 @@
     <t>victor.ruiz.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>higB#Pgm</t>
+    <t>iueGnfAn</t>
   </si>
   <si>
     <t>SALTOS SALAZAR MAYERLY VERONICA</t>
@@ -2009,7 +2009,7 @@
     <t>mayerly.saltos.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>giH#2bfn</t>
+    <t>j?DcFZ7g</t>
   </si>
   <si>
     <t>SANTANA PALOMINO FRANKLIN JOHAO</t>
@@ -2018,7 +2018,7 @@
     <t>franklin.santana.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>jQvWT7XV</t>
+    <t>f0ivVjlX</t>
   </si>
   <si>
     <t>TAFFUR TOASA OLGA MARIA</t>
@@ -2027,7 +2027,7 @@
     <t>olga.taffur@espam.edu.ec</t>
   </si>
   <si>
-    <t>SCCv5&amp;lj</t>
+    <t>JecTsKqp</t>
   </si>
   <si>
     <t>TOALA MACAY JOSSELYN VALERIA</t>
@@ -2036,7 +2036,7 @@
     <t>josselyn.toala.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>dprkLD?U</t>
+    <t>MN1FV/P2</t>
   </si>
   <si>
     <t>VALLADARES ALCIVAR LUIS EDUARDO</t>
@@ -2045,7 +2045,7 @@
     <t>luis.valladares@espam.edu.ec</t>
   </si>
   <si>
-    <t>xWiWtSk!</t>
+    <t>juBX3gqw</t>
   </si>
   <si>
     <t>VERA ZAMBRANO HILTER JOSSBEL</t>
@@ -2054,7 +2054,7 @@
     <t>hilter.vera.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>HGAsjvas</t>
+    <t>/6N03gCU</t>
   </si>
   <si>
     <t>VERGARA TABOADA ROMEL ALEXANDER</t>
@@ -2063,7 +2063,7 @@
     <t>romel.vergara@espam.edu.ec</t>
   </si>
   <si>
-    <t>Vn81rCVJ</t>
+    <t>8pHjy/rr</t>
   </si>
   <si>
     <t>ZAMBRANO RIVAS NALLELY LISBETH</t>
@@ -2072,7 +2072,7 @@
     <t>nallely.zambrano.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>0/cw!3d2</t>
+    <t>kg?6ZU1#</t>
   </si>
   <si>
     <t>ABAD MIRANDA KENYA ESTEFANIA</t>
@@ -2084,7 +2084,7 @@
     <t>kenya.abad.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>rkn7knAE</t>
+    <t>KjgNftul</t>
   </si>
   <si>
     <t>ALAVA MORENO MILTON ANTERO</t>
@@ -2093,7 +2093,7 @@
     <t>milton.alava@espam.edu.ec</t>
   </si>
   <si>
-    <t>wt4M66pt</t>
+    <t>64v?wQBq</t>
   </si>
   <si>
     <t>ALMEIDA CEDEÑO CINDY BELEN</t>
@@ -2102,7 +2102,7 @@
     <t>cindy.almeida.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>lg?VnWLE</t>
+    <t>13RzvqBs</t>
   </si>
   <si>
     <t>ANCHUNDIA VERA JUSTIN JOSE</t>
@@ -2111,7 +2111,7 @@
     <t>justin.anchundia.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>BUKCtkF0</t>
+    <t>WnzzGV#I</t>
   </si>
   <si>
     <t>AYONG PALADINES MARIA FERNANDA</t>
@@ -2120,7 +2120,7 @@
     <t>maria.ayong.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>AEg8Vm?e</t>
+    <t>q1Z/OwI!</t>
   </si>
   <si>
     <t>BRAVO CEVALLOS MELANY PIERINA</t>
@@ -2129,7 +2129,7 @@
     <t>melany.bravo.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>sJz84m6?</t>
+    <t>pIMBol#2</t>
   </si>
   <si>
     <t>CASANOVA SALAZAR ROSEMBERG STEVEN</t>
@@ -2138,7 +2138,7 @@
     <t>rosemberg.casanova@espam.edu.ec</t>
   </si>
   <si>
-    <t>ClD8?emU</t>
+    <t>J3Cd5RiZ</t>
   </si>
   <si>
     <t>FERNANDEZ TORRES JALENI SCARLETH</t>
@@ -2150,7 +2150,7 @@
     <t>jaleni.fernandez.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>DUG4Ymha</t>
+    <t>bidzS9!t</t>
   </si>
   <si>
     <t>HERRERA SABANDO WILLIAMS ANDRES</t>
@@ -2159,7 +2159,7 @@
     <t>williams.herrera.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>6DlmDwxr</t>
+    <t>wIycipKr</t>
   </si>
   <si>
     <t>LOPEZ PALADINES EDGAR JOSE</t>
@@ -2168,7 +2168,7 @@
     <t>edgar.lopez.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>iOoKi!zm</t>
+    <t>2W!hVMP5</t>
   </si>
   <si>
     <t>MEDRANDA GONZALES LINCI YERLEY</t>
@@ -2177,7 +2177,7 @@
     <t>linci.medranda.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>cPY9npb?</t>
+    <t>JeS7dtIi</t>
   </si>
   <si>
     <t>MENDIETA GILER JORDY EDUARDO</t>
@@ -2186,7 +2186,7 @@
     <t>jordy.mendieta.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>LXgnL&amp;Zt</t>
+    <t>p47wLux#</t>
   </si>
   <si>
     <t>MORENO VELIZ ALDRIN DAIRY</t>
@@ -2195,7 +2195,7 @@
     <t>aldrin.moreno.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>hf9q/dCZ</t>
+    <t>muqKJeyA</t>
   </si>
   <si>
     <t>MUÑOZ VERA GENESIS LOURDES</t>
@@ -2204,7 +2204,7 @@
     <t>genesis.munoz.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>Z8fhsKU&amp;</t>
+    <t>aRyhDv9U</t>
   </si>
   <si>
     <t>PLAZA CHOEZ RODOLFO JEAMPIERRE</t>
@@ -2213,7 +2213,7 @@
     <t>rodolfo.plaza.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>lGgglqRE</t>
+    <t>YqMehONv</t>
   </si>
   <si>
     <t>PRECIADO MOREIRA PABLO ANTHONY</t>
@@ -2225,7 +2225,7 @@
     <t>pablo.preciado@espam.edu.ec</t>
   </si>
   <si>
-    <t>nouYRDRz</t>
+    <t>Mp8k2dPN</t>
   </si>
   <si>
     <t>SABANDO SALCEDO GENESIS BETZABETH</t>
@@ -2237,7 +2237,7 @@
     <t>genesis.sabando.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>istQ7B25</t>
+    <t>R3mD1kx5</t>
   </si>
   <si>
     <t>SOLEDISPA ZAMBRANO CRISTHINA ISABELA</t>
@@ -2246,7 +2246,7 @@
     <t>cristhina.soledispa.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>SG&amp;9CYdh</t>
+    <t>hFfA1AUl</t>
   </si>
   <si>
     <t>SOLORZANO RODRIGUEZ EVELYN AGUSTINA</t>
@@ -2255,7 +2255,7 @@
     <t>evelyn.solorzanor@espam.edu.ec</t>
   </si>
   <si>
-    <t>bQmMsR6o</t>
+    <t>k23l1e#o</t>
   </si>
   <si>
     <t>VERA AGUAS KELVIN JEAN PIERRE</t>
@@ -2264,7 +2264,7 @@
     <t>kelvin.vera@espam.edu.ec</t>
   </si>
   <si>
-    <t>#w1DGXgh</t>
+    <t>RrKPuuAJ</t>
   </si>
   <si>
     <t>VERA LOOR DENYS ESTEFANIA</t>
@@ -2273,7 +2273,7 @@
     <t>denys.vera.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>0P9csF0/</t>
+    <t>zYE!hJbp</t>
   </si>
   <si>
     <t>VINCES PIN MARIA FERNANDA</t>
@@ -2282,7 +2282,7 @@
     <t>maria.vinces.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>YPbwn4kN</t>
+    <t>setLXxIS</t>
   </si>
   <si>
     <t>ZAMBRANO ZAMBRANO MARIA BELEN</t>
@@ -2291,7 +2291,7 @@
     <t>mariab.zambranoz.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>9R/G/8u9</t>
+    <t>bV!inkmS</t>
   </si>
   <si>
     <t>ALCIVAR ZAMBRANO DIANA ESTHER</t>
@@ -2300,7 +2300,7 @@
     <t>diana.alcivar.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>oi0dBs0q</t>
+    <t>eZV1QDba</t>
   </si>
   <si>
     <t>ALVAREZ BORJA ANGHELO JOSUE</t>
@@ -2309,7 +2309,7 @@
     <t>anghelo.alvarez.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>vBhto8W8</t>
+    <t>#Fd2Qh!w</t>
   </si>
   <si>
     <t>BRAVO MENDOZA ALBERDY JAVIER</t>
@@ -2318,7 +2318,7 @@
     <t>alberdy.bravo@espam.edu.ec</t>
   </si>
   <si>
-    <t>OTo1KuOg</t>
+    <t>2ECOjhCx</t>
   </si>
   <si>
     <t>GARCIA PARRAGA FATIMA MARIA</t>
@@ -2327,7 +2327,7 @@
     <t>fatima.garcia.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>wff90n4y</t>
+    <t>QAT!LNpl</t>
   </si>
   <si>
     <t>GRACIA PRATT WILINTON JOSUE</t>
@@ -2339,7 +2339,7 @@
     <t>wilinton.gracia.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>nuhAvATS</t>
+    <t>sJc685Xr</t>
   </si>
   <si>
     <t>MARRETT BEDOYA MISHELLE MARCELA</t>
@@ -2351,7 +2351,7 @@
     <t>mishelle.marrett.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>a0H?pi!c</t>
+    <t>RyLfZbtV</t>
   </si>
   <si>
     <t>MERA CASTILLO NATHALY VIRGINIA</t>
@@ -2360,7 +2360,7 @@
     <t>nathaly.mera.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>8u8PNngV</t>
+    <t>hQKzx?nd</t>
   </si>
   <si>
     <t>ROSERO VERA LUIS ANDRES</t>
@@ -2369,7 +2369,7 @@
     <t>luis.rosero@espam.edu.ec</t>
   </si>
   <si>
-    <t>S2PJ0znZ</t>
+    <t>4r#3GlGR</t>
   </si>
   <si>
     <t>SANTISTEBAN BENAVIDES JOSUE ROMARIO</t>
@@ -2378,7 +2378,7 @@
     <t>josue.santisteban.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>?HRt!GQr</t>
+    <t>qvmT5ziV</t>
   </si>
   <si>
     <t>SOLORZANO CUSME GEMA JULIANA</t>
@@ -2387,7 +2387,7 @@
     <t>gemaju.solorzano@espam.edu.ec</t>
   </si>
   <si>
-    <t>PKfd9Wso</t>
+    <t>VnP7?#d2</t>
   </si>
   <si>
     <t>TORRES PINARGOTE MAHOLY</t>
@@ -2396,7 +2396,7 @@
     <t>maholy.torres.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>!7!fGlDp</t>
+    <t>Ma1O/NRc</t>
   </si>
   <si>
     <t>ZAMBRANO BRAVO LEANDRO ISMAEL</t>
@@ -2405,7 +2405,7 @@
     <t>leandro.zambrano.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>zvKxoTub</t>
+    <t>5rlpjwDt</t>
   </si>
   <si>
     <t>ZAMBRANO GARCIA HENRY ARTURO</t>
@@ -2414,7 +2414,7 @@
     <t>henry.zambrano.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>?ISNVDgh</t>
+    <t>nVAGLqR3</t>
   </si>
   <si>
     <t>BARRE PARRAGA BETSY BEATRIZ</t>
@@ -2423,7 +2423,7 @@
     <t>betsy.barre.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>SEjsWAKl</t>
+    <t>hUtTl&amp;/m</t>
   </si>
   <si>
     <t>CEDEÑO CEDEÑO CAMILA PATRICIA</t>
@@ -2435,7 +2435,7 @@
     <t>camila.cedeno.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>X1QYMS08</t>
+    <t>/PJsx4gp</t>
   </si>
   <si>
     <t>CEDEÑO SOLORZANO ANTHONY STEVEN</t>
@@ -2444,7 +2444,7 @@
     <t>anthony.cedenos.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>IZo2RRVl</t>
+    <t>MVsXO#dS</t>
   </si>
   <si>
     <t>CEDEÑO TUAREZ ANGIE LISSETTE</t>
@@ -2453,7 +2453,7 @@
     <t>angie.cedeno@espam.edu.ec</t>
   </si>
   <si>
-    <t>7?xSZkpm</t>
+    <t>ETeKvv#c</t>
   </si>
   <si>
     <t>CHAVEZ LANDAZURI JACKSON JAIR</t>
@@ -2465,7 +2465,7 @@
     <t>jackson.chavez.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>i!0xDnIs</t>
+    <t>h800dSx1</t>
   </si>
   <si>
     <t>CHICA MOREIRA MARIA FERNANDA</t>
@@ -2474,7 +2474,7 @@
     <t>maria.chica.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>o#SxXiSF</t>
+    <t>7PAX2OLW</t>
   </si>
   <si>
     <t>GARCIA ZAMBRANO WENDY YAMILETH</t>
@@ -2483,7 +2483,7 @@
     <t>wendy.garcia.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>z1O9IHGr</t>
+    <t>?luCI3f8</t>
   </si>
   <si>
     <t>GARZON CEDEÑO FRANCESCO RUBEN</t>
@@ -2492,7 +2492,7 @@
     <t>francesco.garzon.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>UgX2PUCm</t>
+    <t>I3s/Cda1</t>
   </si>
   <si>
     <t>GUERRERO CEDEÑO MICHAEL JORDY</t>
@@ -2501,7 +2501,7 @@
     <t>michael.guerrero.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>P1V5whqs</t>
+    <t>Ku0E7JQA</t>
   </si>
   <si>
     <t>MEDRANDA GONZALES CRISTHIAN JOSE</t>
@@ -2510,7 +2510,7 @@
     <t>cristhian.medranda@espam.edu.ec</t>
   </si>
   <si>
-    <t>dIq#DDMA</t>
+    <t>luSLVzTm</t>
   </si>
   <si>
     <t>ORELLANA ANCHUNDIA JESUS MIGUEL</t>
@@ -2519,7 +2519,7 @@
     <t>jesus.orellana@espam.edu.ec</t>
   </si>
   <si>
-    <t>HiICp5TX</t>
+    <t>O1e7BHHX</t>
   </si>
   <si>
     <t>ORTIZ GOMEZ EDUARDO ANDRES</t>
@@ -2528,7 +2528,7 @@
     <t>eduardo.ortiz@espam.edu.ec</t>
   </si>
   <si>
-    <t>9BQ#vvIC</t>
+    <t>bnxQK5ST</t>
   </si>
   <si>
     <t>PAZMIÑO MERA SHANDE ALEXANDER</t>
@@ -2537,7 +2537,7 @@
     <t>shande.pazmino.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>OerFINBK</t>
+    <t>KQWiasJ&amp;</t>
   </si>
   <si>
     <t>PEÑARRIETA BAZURTO ERICK ANDRES</t>
@@ -2546,7 +2546,7 @@
     <t>erick.penarrieta@espam.edu.ec</t>
   </si>
   <si>
-    <t>9?0VGtei</t>
+    <t>xA5M#chR</t>
   </si>
   <si>
     <t>RIERA GAVILANES IZHURY MILLENYTH</t>
@@ -2558,7 +2558,7 @@
     <t>izhury.riera.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>q#LVJd53</t>
+    <t>zccY3m&amp;I</t>
   </si>
   <si>
     <t>RIVERA CEDEÑO RIVALDO JOSE</t>
@@ -2570,7 +2570,7 @@
     <t>rivaldo.rivera.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>e6l51B1/</t>
+    <t>Nq8F5Nqv</t>
   </si>
   <si>
     <t>SALDARRIAGA ARTEAGA OMAIRA MARIBI</t>
@@ -2579,7 +2579,7 @@
     <t>omaira.saldarriaga@espam.edu.ec</t>
   </si>
   <si>
-    <t>fkt3Xt1#</t>
+    <t>wzu8h0aM</t>
   </si>
   <si>
     <t>SANDOVAL MERA NALLELY STEFANIA</t>
@@ -2588,7 +2588,7 @@
     <t>nallely.sandoval.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>x?eQaRuz</t>
+    <t>H92nu68m</t>
   </si>
   <si>
     <t>SUQUI CANGO BRYAN EDUARDO</t>
@@ -2600,7 +2600,7 @@
     <t>bryan.suqui.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>ed3Uo1r7</t>
+    <t>#YxmG2zs</t>
   </si>
   <si>
     <t>VERDUGA ZAMBRANO CARLOS ANDRES</t>
@@ -2609,7 +2609,7 @@
     <t>carlos.verduga.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>WpplEZzA</t>
+    <t>5RBU?yeT</t>
   </si>
   <si>
     <t>ZAMBRANO LARA MARVIN RENE</t>
@@ -2618,7 +2618,7 @@
     <t>marvin.zambrano.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>zCulmDMx</t>
+    <t>Tn8c9qGm</t>
   </si>
   <si>
     <t>ZAMBRANO OBANDO KELVIN JOSUE</t>
@@ -2630,7 +2630,7 @@
     <t>kelvin.zambrano.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>?vm6JGMj</t>
+    <t>T2mCmvms</t>
   </si>
   <si>
     <t>ZAPATA QUINCHE ANDREA CAROLINA</t>
@@ -2639,7 +2639,7 @@
     <t>andrea.zapata.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>UAW1aiyk</t>
+    <t>fhxs94PK</t>
   </si>
   <si>
     <t>ALMEIDA PEREZ ANGEL FERNANDO</t>
@@ -2648,7 +2648,7 @@
     <t>angel.almeida@espam.edu.ec</t>
   </si>
   <si>
-    <t>9OG&amp;lPOJ</t>
+    <t>j/cmKQJZ</t>
   </si>
   <si>
     <t>CEDEÑO PARRAGA MELANY NALLELY</t>
@@ -2657,7 +2657,7 @@
     <t>melany.cedeno.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>H4RIpW/z</t>
+    <t>V81J5fs1</t>
   </si>
   <si>
     <t>CEDEÑO SALVATIERRA JENIFFER ALEJANDRA</t>
@@ -2666,7 +2666,7 @@
     <t>jeniffer.cedenosal@espam.edu.ec</t>
   </si>
   <si>
-    <t>z3b20/kv</t>
+    <t>2kXlLaDx</t>
   </si>
   <si>
     <t>FERNANDEZ ARTEAGA SCHEZNARDA EDITH</t>
@@ -2675,7 +2675,7 @@
     <t>scheznarda.fernandez.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>zq!8?n4K</t>
+    <t>pZj?otJY</t>
   </si>
   <si>
     <t>GANCHOZO VELEZ EMILY JULEXY</t>
@@ -2684,7 +2684,7 @@
     <t>emily.ganchozo.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>C1kwMv3N</t>
+    <t>phYPkeS/</t>
   </si>
   <si>
     <t>LEON VIZÑAY ROQUE JAVIER</t>
@@ -2696,7 +2696,7 @@
     <t>roque.leon@espam.edu.ec</t>
   </si>
   <si>
-    <t>c9ANbBRR</t>
+    <t>0yKgHIXI</t>
   </si>
   <si>
     <t>LOOR LOOR EVELYN YAMILETH</t>
@@ -2705,7 +2705,7 @@
     <t>evelynya.loor@espam.edu.ec</t>
   </si>
   <si>
-    <t>sXtb4mlt</t>
+    <t>&amp;LV38/mN</t>
   </si>
   <si>
     <t>LOOR MOREIRA MELANIE NOEMI</t>
@@ -2714,7 +2714,7 @@
     <t>melanie.loorm.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>Qqcie?Jb</t>
+    <t>&amp;lS/6cJH</t>
   </si>
   <si>
     <t>LOPEZ ESTACIO ROSA ANGELICA</t>
@@ -2723,7 +2723,7 @@
     <t>rosa.lopez@espam.edu.ec</t>
   </si>
   <si>
-    <t>xmiZkKCl</t>
+    <t>T0dRM&amp;BN</t>
   </si>
   <si>
     <t>MENDOZA MUÑOZ FLOR ANTONELA</t>
@@ -2732,7 +2732,7 @@
     <t>flor.mendoza.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>HOWaeadf</t>
+    <t>5u4KVrQu</t>
   </si>
   <si>
     <t>MERELO SOLORZANO NAIDELYN MISHELLE</t>
@@ -2741,7 +2741,7 @@
     <t>naidelyn.merelo.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>m30Fra#f</t>
+    <t>aBqyK6PO</t>
   </si>
   <si>
     <t>MOREIRA LOOR FABIAN ALEXANDER</t>
@@ -2750,7 +2750,7 @@
     <t>fabian.moreira@espam.edu.ec</t>
   </si>
   <si>
-    <t>Zc17jMpI</t>
+    <t>t0ewPE8E</t>
   </si>
   <si>
     <t>PAZMIÑO FALCONES JOSE MIGUEL</t>
@@ -2759,7 +2759,7 @@
     <t>jose.pazmino@espam.edu.ec</t>
   </si>
   <si>
-    <t>5m/R0vAm</t>
+    <t>zocs2K4?</t>
   </si>
   <si>
     <t>PEÑAFIEL PITA BRITHANNY MICAELA</t>
@@ -2771,7 +2771,7 @@
     <t>brithanny.penafiel.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>0B1WfHcZ</t>
+    <t>eAU1&amp;5mf</t>
   </si>
   <si>
     <t>PINTO PALACIOS JOSE ANTONIO</t>
@@ -2780,7 +2780,7 @@
     <t>jose.pinto@espam.edu.ec</t>
   </si>
   <si>
-    <t>oSxQANcC</t>
+    <t>#CioY!DU</t>
   </si>
   <si>
     <t>RENTERIA VALENCIA NEURYS GYSSELA</t>
@@ -2792,7 +2792,7 @@
     <t>neurys.renteria@espam.edu.ec</t>
   </si>
   <si>
-    <t>toA45NC&amp;</t>
+    <t>gKTf7lsQ</t>
   </si>
   <si>
     <t>RIVAS ZAMBRANO ALISSON KATIUSKA</t>
@@ -2801,7 +2801,7 @@
     <t>alisson.rivas.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>Iv4IwwFP</t>
+    <t>42sHjLz?</t>
   </si>
   <si>
     <t>TORRES VARGAS KARELIS ANDREINA</t>
@@ -2813,7 +2813,7 @@
     <t>karelis.torres@espam.edu.ec</t>
   </si>
   <si>
-    <t>QZSUV5JT</t>
+    <t>rxJ&amp;P!OK</t>
   </si>
   <si>
     <t>VALDIVIESO CHUNG DANIEL JAFET</t>
@@ -2822,7 +2822,7 @@
     <t>daniel.valdivieso.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>h7Rzh7KP</t>
+    <t>bYinIEcr</t>
   </si>
   <si>
     <t>VASCONEZ GONZALEZ FRANCISCO ALESSIO</t>
@@ -2831,7 +2831,7 @@
     <t>francisco.vasconez.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>CJkbG0s3</t>
+    <t>w4KNkFAn</t>
   </si>
   <si>
     <t>VELEZ ORTEGA BORIS ANDRES</t>
@@ -2840,7 +2840,7 @@
     <t>boris.velez.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>?dhD78kx</t>
+    <t>zTt3s4B?</t>
   </si>
   <si>
     <t>VERA ESTUPIÑAN BRYAN FRANCISCO</t>
@@ -2849,7 +2849,7 @@
     <t>bryan.vera@espam.edu.ec</t>
   </si>
   <si>
-    <t>UNuWzV62</t>
+    <t>XhmA!wX8</t>
   </si>
   <si>
     <t>VERA LOOR ARIANA PAOLA</t>
@@ -2858,7 +2858,7 @@
     <t>ariana.vera.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>xxBVo4IW</t>
+    <t>BcvzFuTp</t>
   </si>
   <si>
     <t>ZAMBRANO VEGA AURA ARACELY</t>
@@ -2867,7 +2867,7 @@
     <t>aura.zambranov@espam.edu.ec</t>
   </si>
   <si>
-    <t>RM8ILDzX</t>
+    <t>hp&amp;1v&amp;cV</t>
   </si>
   <si>
     <t>ALMEIDA ZAMBRANO HALINTONG VICENTE</t>
@@ -2876,7 +2876,7 @@
     <t>halintong.almeida@espam.edu.ec</t>
   </si>
   <si>
-    <t>A#pJ11qR</t>
+    <t>?jrOgEfK</t>
   </si>
   <si>
     <t>AYALA VILLAFUERTE NAHOMY NAYELY</t>
@@ -2885,7 +2885,7 @@
     <t>nahomy.ayala@espam.edu.ec</t>
   </si>
   <si>
-    <t>8cjhQN1t</t>
+    <t>okD27Wx&amp;</t>
   </si>
   <si>
     <t>BASURTO CEDEÑO ITALO JORDANO</t>
@@ -2894,7 +2894,7 @@
     <t>italo.basurto.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>d/G93j4w</t>
+    <t>UZVda5qF</t>
   </si>
   <si>
     <t>CASTRO TAIPE YERIK LEXANDER</t>
@@ -2903,7 +2903,7 @@
     <t>yerik.castro.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>PRmuKL3R</t>
+    <t>ucAxBbRE</t>
   </si>
   <si>
     <t>CEDEÑO GARCIA CARLOS PAUL</t>
@@ -2912,7 +2912,7 @@
     <t>carlos.cedeno.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>ui!iixu?</t>
+    <t>#ClcPKVI</t>
   </si>
   <si>
     <t>COBEÑA ZAMBRANO EDIS ARIEL</t>
@@ -2921,7 +2921,7 @@
     <t>edis.cobena@espam.edu.ec</t>
   </si>
   <si>
-    <t>N2Pp2CVR</t>
+    <t>fkHwZha#</t>
   </si>
   <si>
     <t>CORDOVA MUGUERZA ADRIANA NICOLLE</t>
@@ -2930,7 +2930,7 @@
     <t>adriana.muguersa.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>BVRtnf!3</t>
+    <t>jILA?8oC</t>
   </si>
   <si>
     <t>COTERA PIN MAYERLY DAYANARA</t>
@@ -2939,7 +2939,7 @@
     <t>mayerly.cotera.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>gPn92ZR5</t>
+    <t>9vBLXDqm</t>
   </si>
   <si>
     <t>CUENCA CUSME CECILIA ALEXANDRA</t>
@@ -2948,7 +2948,7 @@
     <t>cecilia.cuenca@espam.edu.ec</t>
   </si>
   <si>
-    <t>cL!V?Upb</t>
+    <t>vGy/q5LC</t>
   </si>
   <si>
     <t>FERNANDEZ ARTEAGA ANGIE MISHELLE</t>
@@ -2957,7 +2957,7 @@
     <t>angie.fernandez.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>HJTJfdXo</t>
+    <t>YQ3M!jJB</t>
   </si>
   <si>
     <t>LATA QUINCHI SANDRA LOURDES</t>
@@ -2966,7 +2966,7 @@
     <t>sandra.lata.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>UDgbY0KB</t>
+    <t>nsZ8X9Vd</t>
   </si>
   <si>
     <t>MEJICANGO CALLE JAZMIN LISBETH</t>
@@ -2978,7 +2978,7 @@
     <t>jazmin.mejicango.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>LkMXDoWn</t>
+    <t>Tqe#yy/y</t>
   </si>
   <si>
     <t>MENDOZA GANCHOZO DOMENICA NICOLE</t>
@@ -2987,7 +2987,7 @@
     <t>domenica.mendoza.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>4uqVy4Cr</t>
+    <t>x150j3&amp;I</t>
   </si>
   <si>
     <t>MOREIRA CEVALLOS NAYELY VANESSA</t>
@@ -2996,7 +2996,7 @@
     <t>nayely.moreira@espam.edu.ec</t>
   </si>
   <si>
-    <t>25NLCG2K</t>
+    <t>8UxhwlLP</t>
   </si>
   <si>
     <t>MUÑOZ VERA MICHELLE VALENTINA</t>
@@ -3005,7 +3005,7 @@
     <t>michelle.munoz.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>D1jegsa1</t>
+    <t>NQ4!iPhI</t>
   </si>
   <si>
     <t>OLMOS RIVERA CLEOPATRA STEFANIA</t>
@@ -3014,7 +3014,7 @@
     <t>cleopatra.olmos.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>x3OB5tMa</t>
+    <t>jl1iZ3Ll</t>
   </si>
   <si>
     <t>PAREDES RODRIGUEZ GIBELY JARLETH</t>
@@ -3026,7 +3026,7 @@
     <t>gibely.paredes.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>K8z?/!v5</t>
+    <t>hfVsQ3Lc</t>
   </si>
   <si>
     <t>PERUGACHI MECIAS GEOVANNY ALEJANDRO</t>
@@ -3035,7 +3035,7 @@
     <t>geovanny.perugachi.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>!h&amp;lpbtQ</t>
+    <t>KPa?59&amp;B</t>
   </si>
   <si>
     <t>PITA MACIAS RUBEN DARIO</t>
@@ -3044,7 +3044,7 @@
     <t>ruben.pita@espam.edu.ec</t>
   </si>
   <si>
-    <t>IZQGijk&amp;</t>
+    <t>K7mQdv8&amp;</t>
   </si>
   <si>
     <t>ROSADO QUIROZ JANDRY FABRICIO</t>
@@ -3053,7 +3053,7 @@
     <t>jandry.rosado.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>wi0QQ9wZ</t>
+    <t>UGC8qAzV</t>
   </si>
   <si>
     <t>SANCHEZ CHOEZ BERTHA DOLORES</t>
@@ -3062,7 +3062,7 @@
     <t>bertha.choez.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>EmYYJ6y5</t>
+    <t>rn&amp;zNEh!</t>
   </si>
   <si>
     <t>VALENCIA MARCILLO JENIFFER KAROLINA</t>
@@ -3071,7 +3071,7 @@
     <t>jenifferk.valenciam@espam.edu.ec</t>
   </si>
   <si>
-    <t>DlSNut55</t>
+    <t>TlJQvI2B</t>
   </si>
   <si>
     <t>VELASQUEZ GUADAMUD MARIO DAMIAN</t>
@@ -3080,7 +3080,7 @@
     <t>mario.velasquez@espam.edu.ec</t>
   </si>
   <si>
-    <t>RWciE26i</t>
+    <t>KtBb7hB6</t>
   </si>
   <si>
     <t>VELEZ RIVAS JOFFRE GEOVANNY</t>
@@ -3089,7 +3089,7 @@
     <t>joffre.velez.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>&amp;4IXGnW/</t>
+    <t>es1VzWZ5</t>
   </si>
   <si>
     <t>VELEZ ZAMBRANO GEMA BRIGITH</t>
@@ -3098,7 +3098,7 @@
     <t>gema.velez.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>Tu/GtP1e</t>
+    <t>?SWey7&amp;S</t>
   </si>
   <si>
     <t>VERA CEVALLOS CARMEN GISSELLA</t>
@@ -3107,7 +3107,7 @@
     <t>carmen.vera@espam.edu.ec</t>
   </si>
   <si>
-    <t>MZlUuZ61</t>
+    <t>rtQNHB1Z</t>
   </si>
   <si>
     <t>VERA SOLORZANO CARLOS NEPTALI</t>
@@ -3116,7 +3116,7 @@
     <t>carlos.veras@espam.edu.ec</t>
   </si>
   <si>
-    <t>W!xjTA&amp;r</t>
+    <t>eMgA6KQQ</t>
   </si>
   <si>
     <t>VERA VERA YUSTHYN YARLETH</t>
@@ -3125,7 +3125,7 @@
     <t>yusthyn.vera.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>E0sbD8Q5</t>
+    <t>sr12H!/7</t>
   </si>
   <si>
     <t>VIDAL SABANDO MARIA KATHERINE</t>
@@ -3134,7 +3134,7 @@
     <t>maria.vidal.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>kBKLlo&amp;I</t>
+    <t>PUr7YxFw</t>
   </si>
   <si>
     <t>ZAMBRANO ALCIVAR EMILIO JOSE</t>
@@ -3143,7 +3143,7 @@
     <t>emilio.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>/kH8CpHC</t>
+    <t>RI3scQBh</t>
   </si>
   <si>
     <t>ZAMBRANO AVEIGA MAYRA ALEXANDRA</t>
@@ -3152,7 +3152,7 @@
     <t>mayra.zambrano.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>b52n&amp;#qq</t>
+    <t>0ZFVtbZk</t>
   </si>
   <si>
     <t>ZAMBRANO VERA MARIA BEATRIZ</t>
@@ -3161,7 +3161,7 @@
     <t>maria.zambrano.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>NJi3HTJW</t>
+    <t>HmAM9Ape</t>
   </si>
   <si>
     <t>ALCIVAR RODRIGUEZ STEFANY LISETH</t>
@@ -3170,7 +3170,7 @@
     <t>stefany.alcivar.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>iWVpSiIN</t>
+    <t>sqb&amp;q!DT</t>
   </si>
   <si>
     <t>ANGULO GLENN YURANI MAGERLI</t>
@@ -3182,7 +3182,7 @@
     <t>yurani.angulo.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>?M&amp;X0MZI</t>
+    <t>0hrw??sJ</t>
   </si>
   <si>
     <t>ARTEAGA TRIVIÑO CAMILA</t>
@@ -3191,7 +3191,7 @@
     <t>camila.arteaga.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>8IpHQ28R</t>
+    <t>#eBBxAMF</t>
   </si>
   <si>
     <t>BALDERRAMO CABRERA JOSE GERMAN</t>
@@ -3200,7 +3200,7 @@
     <t>jose.balderramo.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>hWrfj/RR</t>
+    <t>8ocOfMz!</t>
   </si>
   <si>
     <t>BRAVO MUÑOZ JEAN MYCKEL</t>
@@ -3209,7 +3209,7 @@
     <t>jean.bravomu@espam.edu.ec</t>
   </si>
   <si>
-    <t>cQIS82dV</t>
+    <t>XDtEq3X5</t>
   </si>
   <si>
     <t>BRAVO SANTANA JUNIOR XAVIER</t>
@@ -3218,7 +3218,7 @@
     <t>juniorx.bravos@espam.edu.ec</t>
   </si>
   <si>
-    <t>5ws5bRZy</t>
+    <t>ZtHhBLE3</t>
   </si>
   <si>
     <t>CAGUA RODRIGUEZ NAYELY ANAHI</t>
@@ -3227,7 +3227,7 @@
     <t>nayely.cagua.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>mtQCIa0d</t>
+    <t>75yAFbMH</t>
   </si>
   <si>
     <t>CALDERON RODRIGUEZ FATIMA DANIELA</t>
@@ -3236,7 +3236,7 @@
     <t>fatima.calderon.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>sX5zTylZ</t>
+    <t>XiKG3chb</t>
   </si>
   <si>
     <t>CASTILLO MEJIA MARIA CARLOTA</t>
@@ -3245,7 +3245,7 @@
     <t>maria.castillo.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>h#SPutT8</t>
+    <t>f67dTwac</t>
   </si>
   <si>
     <t>CEDEÑO CUSME DAYANARA NARCISA</t>
@@ -3254,7 +3254,7 @@
     <t>dayanara.cedeno.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>6LFYG!3t</t>
+    <t>PW1pyAmE</t>
   </si>
   <si>
     <t>CELORIO VERA PETER PABLO</t>
@@ -3263,7 +3263,7 @@
     <t>peter.celorio.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>lFoh?PV6</t>
+    <t>dpeYCjR8</t>
   </si>
   <si>
     <t>COOL MORENO DIANA ESTHEFANIA</t>
@@ -3272,7 +3272,7 @@
     <t>diana.cool@espam.edu.ec</t>
   </si>
   <si>
-    <t>Lajp/xPA</t>
+    <t>jt32?EAj</t>
   </si>
   <si>
     <t>DELGADO GARZON PAOLA FERNANDA</t>
@@ -3281,7 +3281,7 @@
     <t>paola.delgadog.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>tE81A9sN</t>
+    <t>TbVxxYTO</t>
   </si>
   <si>
     <t>DOMINGUEZ DOMINGUEZ ROMINA MELISSA</t>
@@ -3290,7 +3290,7 @@
     <t>romina.dominguez@espam.edu.ec</t>
   </si>
   <si>
-    <t>xZAGUKfQ</t>
+    <t>7JPPie&amp;0</t>
   </si>
   <si>
     <t>GARCIA MUÑOZ EDDY SANTIAGO</t>
@@ -3299,7 +3299,7 @@
     <t>eddy.garcia@espam.edu.ec</t>
   </si>
   <si>
-    <t>tTjtWmws</t>
+    <t>CwfHAVpL</t>
   </si>
   <si>
     <t>GARCIA PONCE LEONELA ANTONELLA</t>
@@ -3308,7 +3308,7 @@
     <t>leonela.garcia.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>R5/CSOqD</t>
+    <t>DKcskC9Y</t>
   </si>
   <si>
     <t>LOPEZ SOLORZANO YIMMY</t>
@@ -3317,7 +3317,7 @@
     <t>yimmy.lopez@espam.edu.ec</t>
   </si>
   <si>
-    <t>ef/EYbz?</t>
+    <t>vIT6NEla</t>
   </si>
   <si>
     <t>LOPEZ ZAMBRANO JORGE ISAAC</t>
@@ -3326,7 +3326,7 @@
     <t>jorge.lopez.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>YAlBnvAH</t>
+    <t>eG/0Z1J5</t>
   </si>
   <si>
     <t>MACIAS GUAGUA MAGERLY THAIS</t>
@@ -3338,7 +3338,7 @@
     <t>magerly.macias.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>s#DRt&amp;iG</t>
+    <t>EXAsAg58</t>
   </si>
   <si>
     <t>MARTINEZ SABANDO MARCELO EFRAIN</t>
@@ -3347,7 +3347,7 @@
     <t>marcelo.martinez@espam.edu.ec</t>
   </si>
   <si>
-    <t>dmx4DqC2</t>
+    <t>T22Sw/gJ</t>
   </si>
   <si>
     <t>MEDRANDA CEDEÑO IVAN ARTURO</t>
@@ -3356,7 +3356,7 @@
     <t>ivan.medranda@espam.edu.ec</t>
   </si>
   <si>
-    <t>OmL7504R</t>
+    <t>X2A1uEnO</t>
   </si>
   <si>
     <t>MENDOZA INTRIAGO KEYLA YAMIRA</t>
@@ -3365,7 +3365,7 @@
     <t>keyla.mendoza@espam.edu.ec</t>
   </si>
   <si>
-    <t>a4GYVj55</t>
+    <t>ECXC2lJP</t>
   </si>
   <si>
     <t>MENDOZA LOOR MARIAGRACIA</t>
@@ -3374,7 +3374,7 @@
     <t>mariagracia.mendoza@espam.edu.ec</t>
   </si>
   <si>
-    <t>6PLW52hr</t>
+    <t>8ejMGT08</t>
   </si>
   <si>
     <t>MOREIRA VELEZ ANGELICA LISBETH</t>
@@ -3383,7 +3383,7 @@
     <t>angelica.moreira@espam.edu.ec</t>
   </si>
   <si>
-    <t>j4JdQ7S6</t>
+    <t>z/MEpISP</t>
   </si>
   <si>
     <t>PATA HERRERA ESTRELLA TATIANA</t>
@@ -3392,7 +3392,7 @@
     <t>estrella.pata.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>ijgeOWuh</t>
+    <t>h32#Q111</t>
   </si>
   <si>
     <t>PONCE MIRANDA YOEL ISAIAS</t>
@@ -3401,7 +3401,7 @@
     <t>yoel.ponce@espam.edu.ec</t>
   </si>
   <si>
-    <t>I8R5Jf&amp;5</t>
+    <t>LDM8Tvuv</t>
   </si>
   <si>
     <t>RIVAS ALARCON ALISSON MAYERLI</t>
@@ -3413,7 +3413,7 @@
     <t>alisson.rivas@espam.edu.ec</t>
   </si>
   <si>
-    <t>PhDt61Yg</t>
+    <t>7u0hG&amp;4R</t>
   </si>
   <si>
     <t>SABANDO VERA EMELY NOEMI</t>
@@ -3425,7 +3425,7 @@
     <t>emely.sabando.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>sg4#P9wR</t>
+    <t>PoCxtAJl</t>
   </si>
   <si>
     <t>VELASQUEZ ZAMBRANO JUAN DIEGO</t>
@@ -3434,7 +3434,7 @@
     <t>juan.velasquez@espam.edu.ec</t>
   </si>
   <si>
-    <t>kgbU4Whb</t>
+    <t>k1w2GymA</t>
   </si>
   <si>
     <t>ZAMBRANO MENDOZA JOSE LUIS</t>
@@ -3443,7 +3443,7 @@
     <t>jose.zambrano.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>f5PzoEjL</t>
+    <t>dTYHQorD</t>
   </si>
   <si>
     <t>ZAMBRANO PEREZ CARLOS JULIO</t>
@@ -3452,7 +3452,7 @@
     <t>carlos.zambranop@espam.edu.ec</t>
   </si>
   <si>
-    <t>tIL&amp;nqp9</t>
+    <t>Ot!YMD!?</t>
   </si>
   <si>
     <t>ACHIG GUALACATA EVELIN LISETTE</t>
@@ -3461,7 +3461,7 @@
     <t>evelin.achig@espam.edu.ec</t>
   </si>
   <si>
-    <t>P&amp;H0NeZk</t>
+    <t>f##Achz5</t>
   </si>
   <si>
     <t>AGUAS VERA JEICOL MIKE</t>
@@ -3470,7 +3470,7 @@
     <t>jeicol.aguas@espam.edu.ec</t>
   </si>
   <si>
-    <t>jDSOQoUX</t>
+    <t>gnpyu77V</t>
   </si>
   <si>
     <t>BRAVO BASURTO JUAN CARLOS</t>
@@ -3479,7 +3479,7 @@
     <t>juan.bravo@espam.edu.ec</t>
   </si>
   <si>
-    <t>ulQ39jJ4</t>
+    <t>RX8!uxJl</t>
   </si>
   <si>
     <t>CANTOS ZAMBRANO MARIA FERNANDA</t>
@@ -3488,7 +3488,7 @@
     <t>mariaf.cantos@espam.edu.ec</t>
   </si>
   <si>
-    <t>cM&amp;B7P?N</t>
+    <t>DNYrGe1!</t>
   </si>
   <si>
     <t>CASTILLO DELGADO LERENY JAMILEX</t>
@@ -3497,7 +3497,7 @@
     <t>lereny.castillo@espam.edu.ec</t>
   </si>
   <si>
-    <t>q?DCCzpO</t>
+    <t>ZybEctuZ</t>
   </si>
   <si>
     <t>CASTILLO JACOME JHON JAIRO</t>
@@ -3506,7 +3506,7 @@
     <t>jhon.castillo@espam.edu.ec</t>
   </si>
   <si>
-    <t>ExAxB8xF</t>
+    <t>n7w?UB0y</t>
   </si>
   <si>
     <t>CELORIO MENDOZA MIRIAN ALEJANDRA</t>
@@ -3515,7 +3515,7 @@
     <t>mirian.celorio@espam.edu.ec</t>
   </si>
   <si>
-    <t>RWLQIvj1</t>
+    <t>D&amp;n!1s2B</t>
   </si>
   <si>
     <t>CHUMO CHAVEZ JANINA BELEN</t>
@@ -3524,7 +3524,7 @@
     <t>janina.chumo@espam.edu.ec</t>
   </si>
   <si>
-    <t>7IDLf!f5</t>
+    <t>#Vovo/Jh</t>
   </si>
   <si>
     <t>DELGADO LOPEZ MERCEDES ELIZABETH</t>
@@ -3533,7 +3533,7 @@
     <t>mercedes.delgado@espam.edu.ec</t>
   </si>
   <si>
-    <t>zd#Q3MF0</t>
+    <t>NEy2nQPD</t>
   </si>
   <si>
     <t>ESTEVES OLVERA DIANA MILENA</t>
@@ -3542,7 +3542,7 @@
     <t>diana.esteves@espam.edu.ec</t>
   </si>
   <si>
-    <t>Toyfg&amp;!L</t>
+    <t>IW28oB6M</t>
   </si>
   <si>
     <t>FALLAIN ZAMBRANO MARIA ANGELICA</t>
@@ -3551,7 +3551,7 @@
     <t>maria.fallain@espam.edu.ec</t>
   </si>
   <si>
-    <t>O?WHR0J6</t>
+    <t>6wnnxLSV</t>
   </si>
   <si>
     <t>FERNANDEZ CEVALLOS FRANCISCO ESTUARDO</t>
@@ -3560,7 +3560,7 @@
     <t>francisco.fernandez@espam.edu.ec</t>
   </si>
   <si>
-    <t>wq8I1NR8</t>
+    <t>WnchD62G</t>
   </si>
   <si>
     <t>HERNANDEZ HERNANDEZ MARIA ZULEMA</t>
@@ -3572,7 +3572,7 @@
     <t>maria.hernandez@espam.edu.ec</t>
   </si>
   <si>
-    <t>Wh8OwL4D</t>
+    <t>P4XYTNlA</t>
   </si>
   <si>
     <t>INTRIAGO SOLORZANO LEYDI GABRIELA</t>
@@ -3581,7 +3581,7 @@
     <t>leydi.intriago@espam.edu.ec</t>
   </si>
   <si>
-    <t>WjjFlk/D</t>
+    <t>EMacppS6</t>
   </si>
   <si>
     <t>MACIAS LOOR ELIAN RENE</t>
@@ -3590,7 +3590,7 @@
     <t>elian.macias@espam.edu.ec</t>
   </si>
   <si>
-    <t>7riv0rNs</t>
+    <t>4KNaWQwY</t>
   </si>
   <si>
     <t>MACIAS PISCO NACHY MONSERRAT</t>
@@ -3599,7 +3599,7 @@
     <t>nachy.macias@espam.edu.ec</t>
   </si>
   <si>
-    <t>ejPoEhGa</t>
+    <t>Ulcj9Pb2</t>
   </si>
   <si>
     <t>MERA LOOR JONAYKER REYNALDO</t>
@@ -3608,7 +3608,7 @@
     <t>jonayker.mera@espam.edu.ec</t>
   </si>
   <si>
-    <t>xEjCIShb</t>
+    <t>yDr/hPHP</t>
   </si>
   <si>
     <t>MOREIRA BASURTO YORDY JOEL</t>
@@ -3617,7 +3617,7 @@
     <t>yordy.moreira@espam.edu.ec</t>
   </si>
   <si>
-    <t>PaZ9owRr</t>
+    <t>STpQmcHh</t>
   </si>
   <si>
     <t>MOREIRA MENDOZA MAGDALENA JAMILETH</t>
@@ -3626,7 +3626,7 @@
     <t>magdalena.moreira@espam.edu.ec</t>
   </si>
   <si>
-    <t>Atcu?WAf</t>
+    <t>nbLnulKI</t>
   </si>
   <si>
     <t>PANTUSIN MUGUERZA ANDREA LISSETH</t>
@@ -3635,7 +3635,7 @@
     <t>andrea.pantusin@espam.edu.ec</t>
   </si>
   <si>
-    <t>97?&amp;aMvp</t>
+    <t>YD!D#R4f</t>
   </si>
   <si>
     <t>PATIÑO MEJIA MILENA ANAHI</t>
@@ -3644,7 +3644,7 @@
     <t>milena.patino@espam.edu.ec</t>
   </si>
   <si>
-    <t>&amp;/PMYjNh</t>
+    <t>nW#V1RNN</t>
   </si>
   <si>
     <t>PICO GARCIA ALLISON JANELY</t>
@@ -3653,7 +3653,7 @@
     <t>allison.pico@espam.edu.ec</t>
   </si>
   <si>
-    <t>oBoKyg/b</t>
+    <t>vITYLnpA</t>
   </si>
   <si>
     <t>POVEDA SANTANA ENZO JAVIER</t>
@@ -3665,7 +3665,7 @@
     <t>enzo.poveda@espam.edu.ec</t>
   </si>
   <si>
-    <t>Yrk0?4nJ</t>
+    <t>c!TurVQQ</t>
   </si>
   <si>
     <t>QUIJIJE CEDEÑO NATALY SILVANA</t>
@@ -3674,7 +3674,7 @@
     <t>nataly.quijije@espam.edu.ec</t>
   </si>
   <si>
-    <t>AzFDUu4s</t>
+    <t>/ETNDypo</t>
   </si>
   <si>
     <t>ROBALINO DELGADO JORGE DAVID</t>
@@ -3683,7 +3683,7 @@
     <t>jorge.robalino@espam.edu.ec</t>
   </si>
   <si>
-    <t>RXLlzobx</t>
+    <t>YuM&amp;&amp;ay7</t>
   </si>
   <si>
     <t>SANCHEZ CASTILLO ADRIANA MICAELA</t>
@@ -3692,7 +3692,7 @@
     <t>adriana.sanchez@espam.edu.ec</t>
   </si>
   <si>
-    <t>2CRPl7zp</t>
+    <t>hwr3!ayX</t>
   </si>
   <si>
     <t>SOLORZANO ALAVA TAIRUN FRANCISCO</t>
@@ -3701,7 +3701,7 @@
     <t>tairun.solorzano@espam.edu.ec</t>
   </si>
   <si>
-    <t>GW1iPLCF</t>
+    <t>Wzl3M45q</t>
   </si>
   <si>
     <t>SOLORZANO BAILON MARIA GABRIELA</t>
@@ -3710,7 +3710,7 @@
     <t>mariaga.solorzano@espam.edu.ec</t>
   </si>
   <si>
-    <t>5hTWFaQ?</t>
+    <t>uA3gr0tU</t>
   </si>
   <si>
     <t>TRUJILLO AGUAS MAYERLI DAYANA</t>
@@ -3719,7 +3719,7 @@
     <t>mayerli.trujillo@espam.edu.ec</t>
   </si>
   <si>
-    <t>ZGGnM74E</t>
+    <t>VmgNwF!?</t>
   </si>
   <si>
     <t>VERA VERA CINTHIA MARIA</t>
@@ -3728,7 +3728,7 @@
     <t>cinthia.verav@espam.edu.ec</t>
   </si>
   <si>
-    <t>Cq0RkjF8</t>
+    <t>eM7PG2AH</t>
   </si>
   <si>
     <t>VIDAL INTRIAGO ANDY YOEL</t>
@@ -3737,7 +3737,7 @@
     <t>andy.vidal@espam.edu.ec</t>
   </si>
   <si>
-    <t>z8a6viz0</t>
+    <t>z#rDOALb</t>
   </si>
   <si>
     <t>VINTIMILLA PROAÑO MARIA DE LOURDES</t>
@@ -3746,7 +3746,7 @@
     <t>maria.vintimilla@espam.edu.ec</t>
   </si>
   <si>
-    <t>kwpQaeEO</t>
+    <t>!XVnYvxo</t>
   </si>
   <si>
     <t>VITERI SANTOS VINICIO ORLEY</t>
@@ -3755,7 +3755,7 @@
     <t>vinicio.viteri@espam.edu.ec</t>
   </si>
   <si>
-    <t>/aFLC46p</t>
+    <t>eHWUe/GH</t>
   </si>
   <si>
     <t>ZAMBRANO CANO FRANCISCO JAVIER</t>
@@ -3764,7 +3764,7 @@
     <t>francisco.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>ZmN1BgZ4</t>
+    <t>b9!gr1Fl</t>
   </si>
   <si>
     <t>ZAMBRANO NAVARRETE ELBA MARIA</t>
@@ -3773,7 +3773,7 @@
     <t>elba.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>ZXhamM87</t>
+    <t>HnY0#FL1</t>
   </si>
   <si>
     <t>ZAMBRANO ZAMBRANO WENDY GISSELLA</t>
@@ -3782,7 +3782,7 @@
     <t>wendy.zambranoz@espam.edu.ec</t>
   </si>
   <si>
-    <t>iiDdkjqh</t>
+    <t>i2/al8Xo</t>
   </si>
   <si>
     <t>ARANA RUEDA ANGY LISSETH</t>
@@ -3794,7 +3794,7 @@
     <t>angy.arana@espam.edu.ec</t>
   </si>
   <si>
-    <t>7FwvIh?e</t>
+    <t>HMc1UPra</t>
   </si>
   <si>
     <t>ARTEAGA VARGAS ANDREA VALERIA</t>
@@ -3803,7 +3803,7 @@
     <t>andrea.arteaga@espam.edu.ec</t>
   </si>
   <si>
-    <t>nU7DSI2F</t>
+    <t>jbAH6dWS</t>
   </si>
   <si>
     <t>BARBERAN SANCHEZ KARLA MICHELLE</t>
@@ -3812,7 +3812,7 @@
     <t>karla.barberan@espam.edu.ec</t>
   </si>
   <si>
-    <t>uC1aXnNL</t>
+    <t>F#Alz3zI</t>
   </si>
   <si>
     <t>BAZURTO MANZABA SORAYA STEFANIA</t>
@@ -3821,7 +3821,7 @@
     <t>soraya.bazurto@espam.edu.ec</t>
   </si>
   <si>
-    <t>v3w9RTik</t>
+    <t>uFOG0qCw</t>
   </si>
   <si>
     <t>CAGUA GARCIA ANDRES VIRGILIO</t>
@@ -3830,7 +3830,7 @@
     <t>andres.cagua@espam.edu.ec</t>
   </si>
   <si>
-    <t>yxJ#f?L7</t>
+    <t>sWxx122X</t>
   </si>
   <si>
     <t>DOMINGUEZ CALDERON JEAN PIERRE</t>
@@ -3839,7 +3839,7 @@
     <t>jean.dominguez@espam.edu.ec</t>
   </si>
   <si>
-    <t>XJe0jctb</t>
+    <t>ru7CBYzb</t>
   </si>
   <si>
     <t>ESPINOZA ALCIVAR EVELYN ALEXANDRA</t>
@@ -3848,7 +3848,7 @@
     <t>evelyn.espinoza@espam.edu.ec</t>
   </si>
   <si>
-    <t>9d4wYHiR</t>
+    <t>qkqRXo#G</t>
   </si>
   <si>
     <t>LOOR MORENO DANIEL AGUSTIN</t>
@@ -3857,7 +3857,7 @@
     <t>daniel.loor@espam.edu.ec</t>
   </si>
   <si>
-    <t>zOznaJSd</t>
+    <t>14O9h3uz</t>
   </si>
   <si>
     <t>MACIAS PARRALES MEREDITH MARIBEL</t>
@@ -3866,7 +3866,7 @@
     <t>meredith.macias@espam.edu.ec</t>
   </si>
   <si>
-    <t>4MbUhA?t</t>
+    <t>gTTLMFhQ</t>
   </si>
   <si>
     <t>MENDOZA CANCHINGRE BRIGITH MIKAELA</t>
@@ -3875,7 +3875,7 @@
     <t>brigith.mendoza@espam.edu.ec</t>
   </si>
   <si>
-    <t>w?ALPUDn</t>
+    <t>1rN5ObeD</t>
   </si>
   <si>
     <t>MENDOZA VELEZ JOSE MIGUEL</t>
@@ -3884,7 +3884,7 @@
     <t>josemi.mendoza@espam.edu.ec</t>
   </si>
   <si>
-    <t>DUOtee9V</t>
+    <t>h&amp;t2hza1</t>
   </si>
   <si>
     <t>MEZA BRIONES ANTHONY NARCILO</t>
@@ -3893,7 +3893,7 @@
     <t>anthony.meza@espam.edu.ec</t>
   </si>
   <si>
-    <t>tLVG8XUv</t>
+    <t>Y5hDLIy3</t>
   </si>
   <si>
     <t>MORA ZAMBRANO MARIA LAURA</t>
@@ -3902,7 +3902,7 @@
     <t>maria.mora@espam.edu.ec</t>
   </si>
   <si>
-    <t>f&amp;/fuiC2</t>
+    <t>hhxqfyOz</t>
   </si>
   <si>
     <t>NAVARRETE ZAMBRANO ROBIN LUGERIO</t>
@@ -3911,7 +3911,7 @@
     <t>robin.navarrete@espam.edu.ec</t>
   </si>
   <si>
-    <t>Vmb7TE7b</t>
+    <t>1KP0jwat</t>
   </si>
   <si>
     <t>OSTAIZA LOPEZ JOSEPH MANUEL</t>
@@ -3920,7 +3920,7 @@
     <t>josepth.ostaiza@espam.edu.ec</t>
   </si>
   <si>
-    <t>EzIVMmHs</t>
+    <t>bEGY3bqN</t>
   </si>
   <si>
     <t>PARRAGA PARRAGA CARLA ESTEFANIA</t>
@@ -3929,7 +3929,7 @@
     <t>carla.parraga@espam.edu.ec</t>
   </si>
   <si>
-    <t>FgSds2xO</t>
+    <t>B&amp;JDe7SF</t>
   </si>
   <si>
     <t>PLAZA CABRERA MAYERLY MARIA</t>
@@ -3941,7 +3941,7 @@
     <t>mayerly.plaza@espam.edu.ec</t>
   </si>
   <si>
-    <t>K!bGtI15</t>
+    <t>Gnd5ZYHB</t>
   </si>
   <si>
     <t>RODRIGUEZ VELIZ LEANDRO MOISES</t>
@@ -3950,7 +3950,7 @@
     <t>leandro.rodriguez@espam.edu.ec</t>
   </si>
   <si>
-    <t>hJE&amp;SGdu</t>
+    <t>vgD2plzR</t>
   </si>
   <si>
     <t>SANTANA GUERRERO MARIA RAQUEL</t>
@@ -3959,7 +3959,7 @@
     <t>mariar.santanag@espam.edu.ec</t>
   </si>
   <si>
-    <t>2SpRFxaM</t>
+    <t>Iy0HfiRy</t>
   </si>
   <si>
     <t>SANTOS SALAZAR JANDRY DAVID</t>
@@ -3968,7 +3968,7 @@
     <t>jandry.santos@espam.edu.ec</t>
   </si>
   <si>
-    <t>zQ88Sedy</t>
+    <t>yoL&amp;yszW</t>
   </si>
   <si>
     <t>SOLORZANO LOOR KEYLA GEOVANNA</t>
@@ -3977,7 +3977,7 @@
     <t>keyla.solorzano@espam.edu.ec</t>
   </si>
   <si>
-    <t>lJSZdm0n</t>
+    <t>BYIgKwbg</t>
   </si>
   <si>
     <t>VALENCIA ZAMBRANO VALERIA MERCEDES</t>
@@ -3986,7 +3986,7 @@
     <t>valeria.valencia@espam.edu.ec</t>
   </si>
   <si>
-    <t>lOPGs8hA</t>
+    <t>OlxzI9!x</t>
   </si>
   <si>
     <t>VARGAS CHOEZ ALEXIS ELIAN</t>
@@ -3995,7 +3995,7 @@
     <t>alexis.vargas@espam.edu.ec</t>
   </si>
   <si>
-    <t>?#4hc7Fj</t>
+    <t>UIvURyMB</t>
   </si>
   <si>
     <t>VELEZ ALMEIDA CARMEN REBECA</t>
@@ -4004,7 +4004,7 @@
     <t>carmen.velez@espam.edu.ec</t>
   </si>
   <si>
-    <t>McYqSr5d</t>
+    <t>KTdOzLcw</t>
   </si>
   <si>
     <t>VELEZ LEGTON GENESIS YAMILET</t>
@@ -4013,7 +4013,7 @@
     <t>genesisya.velez@espam.edu.ec</t>
   </si>
   <si>
-    <t>&amp;PA21h?p</t>
+    <t>vqlD?C1w</t>
   </si>
   <si>
     <t>VERA BALAREZO MARYAM JANELLA</t>
@@ -4022,7 +4022,7 @@
     <t>maryam.vera@espam.edu.ec</t>
   </si>
   <si>
-    <t>bawG&amp;CFc</t>
+    <t>PU1d9caY</t>
   </si>
   <si>
     <t>VERA SERRANO CARLOS STEFANO</t>
@@ -4031,7 +4031,7 @@
     <t>carlos.verase@espam.edu.ec</t>
   </si>
   <si>
-    <t>yIHRIfvh</t>
+    <t>!KgXGi6U</t>
   </si>
   <si>
     <t>VIERA BAZURTO JOSE ALEXANDER</t>
@@ -4040,7 +4040,7 @@
     <t>jose.viera@espam.edu.ec</t>
   </si>
   <si>
-    <t>Heiu1rQs</t>
+    <t>nIm3lMZn</t>
   </si>
   <si>
     <t>ZAMBRANO ALCIVAR DIEGO JAHIR</t>
@@ -4049,7 +4049,7 @@
     <t>diego.zambranoa@espam.edu.ec</t>
   </si>
   <si>
-    <t>Eqor2CsX</t>
+    <t>acG4fYJz</t>
   </si>
   <si>
     <t>ZAMBRANO MANZABA MARIA FERNANDA</t>
@@ -4058,7 +4058,7 @@
     <t>mariafer.zambranom@espam.edu.ec</t>
   </si>
   <si>
-    <t>dNMph/ub</t>
+    <t>GknZoFar</t>
   </si>
   <si>
     <t>ALCIVAR GILER MELANY JULISA</t>
@@ -4067,7 +4067,7 @@
     <t>melany.alcivar@espam.edu.ec</t>
   </si>
   <si>
-    <t>M?/3MwoP</t>
+    <t>jVWtnKaJ</t>
   </si>
   <si>
     <t>ANDRADE ZAMBRANO NATHALY NICOLLE</t>
@@ -4076,7 +4076,7 @@
     <t>nathaly.andrade@espam.edu.ec</t>
   </si>
   <si>
-    <t>K5JlKcPI</t>
+    <t>DE00L9J!</t>
   </si>
   <si>
     <t>BASURTO MORAN LUIS ALEXANDER</t>
@@ -4085,7 +4085,7 @@
     <t>luis.basurtom@espam.edu.ec</t>
   </si>
   <si>
-    <t>WLoeuxiA</t>
+    <t>esy#kuEn</t>
   </si>
   <si>
     <t>BERMELLO VELEZ ANGELA DANIELA</t>
@@ -4094,7 +4094,7 @@
     <t>angela.bermello@espam.edu.ec</t>
   </si>
   <si>
-    <t>IasqUhI6</t>
+    <t>bkSDw!IF</t>
   </si>
   <si>
     <t>BRAVO VERA GEMA VIVIANA</t>
@@ -4103,7 +4103,7 @@
     <t>gema.bravov@espam.edu.ec</t>
   </si>
   <si>
-    <t>7yi9f?Jb</t>
+    <t>T!y&amp;UhkU</t>
   </si>
   <si>
     <t>BRIONES INTRIAGO LORENA LUCIA</t>
@@ -4112,7 +4112,7 @@
     <t>lorena.briones@espam.edu.ec</t>
   </si>
   <si>
-    <t>vDhRXJYM</t>
+    <t>YhpBWM#u</t>
   </si>
   <si>
     <t>BURGOS BRAVO KATHERIN DANIELA</t>
@@ -4121,7 +4121,7 @@
     <t>katherin.burgos@espam.edu.ec</t>
   </si>
   <si>
-    <t>JVEik9RM</t>
+    <t>HaZ/1LKK</t>
   </si>
   <si>
     <t>LOOR PARRAGA ROY RUBEN</t>
@@ -4130,7 +4130,7 @@
     <t>roy.loor@espam.edu.ec</t>
   </si>
   <si>
-    <t>ORHjdQh9</t>
+    <t>J2mj/PGb</t>
   </si>
   <si>
     <t>LOPEZ GANCHOZO LEANDRO ANTONIO</t>
@@ -4139,7 +4139,7 @@
     <t>leandro.lopez@espam.edu.ec</t>
   </si>
   <si>
-    <t>MD3Gmz5B</t>
+    <t>FiEzJiQX</t>
   </si>
   <si>
     <t>MACIAS MACIAS JOY ROBERTO</t>
@@ -4148,7 +4148,7 @@
     <t>joy.macias@espam.edu.ec</t>
   </si>
   <si>
-    <t>D8XSPt1y</t>
+    <t>i?pjYGWo</t>
   </si>
   <si>
     <t>MACIAS SILVA CINTHYA MARIANA</t>
@@ -4157,7 +4157,7 @@
     <t>cinthya.macias@espam.edu.ec</t>
   </si>
   <si>
-    <t>1IP4d39V</t>
+    <t>fFmBcevE</t>
   </si>
   <si>
     <t>MENDOZA PONCE MARIA ANGELICA</t>
@@ -4166,7 +4166,7 @@
     <t>maria.mendozap@espam.edu.ec</t>
   </si>
   <si>
-    <t>sn78jhce</t>
+    <t>qhXkQcki</t>
   </si>
   <si>
     <t>MONCAYO LAINEZ KERLY ARIANNA</t>
@@ -4175,7 +4175,7 @@
     <t>kerly.moncayo@espam.edu.ec</t>
   </si>
   <si>
-    <t>TKmLSw3P</t>
+    <t>6U4Od!3Q</t>
   </si>
   <si>
     <t>MONTES POZO JEAN POLL</t>
@@ -4184,7 +4184,7 @@
     <t>jean.montes@espam.edu.ec</t>
   </si>
   <si>
-    <t>tfJchqym</t>
+    <t>U38T31x?</t>
   </si>
   <si>
     <t>MORENO OBANDO ANA BELLA</t>
@@ -4193,7 +4193,7 @@
     <t>ana.moreno@espam.edu.ec</t>
   </si>
   <si>
-    <t>FfPPssPm</t>
+    <t>tHU1QdQi</t>
   </si>
   <si>
     <t>NAVARRETE PARODI ERIKA KARINA</t>
@@ -4202,7 +4202,7 @@
     <t>erika.navarrete@espam.edu.ec</t>
   </si>
   <si>
-    <t>aNZDJlM6</t>
+    <t>sy8Mt!iU</t>
   </si>
   <si>
     <t>ORMAZA ESPINOZA JESUS EMILIO</t>
@@ -4211,7 +4211,7 @@
     <t>jesus.ormaza@espam.edu.ec</t>
   </si>
   <si>
-    <t>FZutlgie</t>
+    <t>bGqKgX6D</t>
   </si>
   <si>
     <t>ORMAZA FALCONES MARIA ALEJANDRA</t>
@@ -4220,7 +4220,7 @@
     <t>maria.ormaza@espam.edu.ec</t>
   </si>
   <si>
-    <t>#Z&amp;bbOS5</t>
+    <t>O!8oq2gY</t>
   </si>
   <si>
     <t>PARRAGA QUIJIJE GEMA KAROLINA</t>
@@ -4229,7 +4229,7 @@
     <t>gemak.parragaq@espam.edu.ec</t>
   </si>
   <si>
-    <t>WdSOlsfe</t>
+    <t>VTDAraTb</t>
   </si>
   <si>
     <t>PICO TOLA MARCO ANDRES</t>
@@ -4238,7 +4238,7 @@
     <t>marco.pico@espam.edu.ec</t>
   </si>
   <si>
-    <t>YbgMxo?x</t>
+    <t>V1JmQ5ET</t>
   </si>
   <si>
     <t>PIN NAPA IVANA MAYERLI</t>
@@ -4247,7 +4247,7 @@
     <t>ivana.pin@espam.edu.ec</t>
   </si>
   <si>
-    <t>SFZG4l0y</t>
+    <t>Q9ysbZPf</t>
   </si>
   <si>
     <t>ROMERO BRAVO JOSE AGUSTIN</t>
@@ -4256,7 +4256,7 @@
     <t>jose.romero@espam.edu.ec</t>
   </si>
   <si>
-    <t>yTcBSz7d</t>
+    <t>a9/ojwqw</t>
   </si>
   <si>
     <t>SALTOS INTRIAGO NATHALIA MELISSA</t>
@@ -4265,7 +4265,7 @@
     <t>nathalia.saltos@espam.edu.ec</t>
   </si>
   <si>
-    <t>wsZBYi9n</t>
+    <t>au!6&amp;BIg</t>
   </si>
   <si>
     <t>SALTOS SALTOS MADELYNE PIERINA</t>
@@ -4274,7 +4274,7 @@
     <t>madelyne.saltos@espam.edu.ec</t>
   </si>
   <si>
-    <t>Sau52g/B</t>
+    <t>jk8FLPp7</t>
   </si>
   <si>
     <t>SOLIS ORTIZ SANTIAGO</t>
@@ -4283,7 +4283,7 @@
     <t>santiago.solis@espam.edu.ec</t>
   </si>
   <si>
-    <t>DspH86n!</t>
+    <t>/HKGKf8s</t>
   </si>
   <si>
     <t>SOLORZANO ZAMBRANO GEMA NARCISA</t>
@@ -4292,7 +4292,7 @@
     <t>gema.solorzano@espam.edu.ec</t>
   </si>
   <si>
-    <t>KzVRPWyB</t>
+    <t>teKemjU2</t>
   </si>
   <si>
     <t>VARGAS SOLORZANO ANDREA DIVINA</t>
@@ -4301,7 +4301,7 @@
     <t>andrea.vargas@espam.edu.ec</t>
   </si>
   <si>
-    <t>#qUh5IGa</t>
+    <t>46JrIedo</t>
   </si>
   <si>
     <t>VELEZ VERA MANUEL ALEXANDER</t>
@@ -4310,7 +4310,7 @@
     <t>manuel.velez@espam.edu.ec</t>
   </si>
   <si>
-    <t>0Kc04tMQ</t>
+    <t>58gxobxn</t>
   </si>
   <si>
     <t>VELEZ ZAMBRANO ADRIAN DAVID</t>
@@ -4319,7 +4319,7 @@
     <t>adrian.velez@espam.edu.ec</t>
   </si>
   <si>
-    <t>HePkuDvG</t>
+    <t>DBfv9jap</t>
   </si>
   <si>
     <t>YLLESCA CEDEÑO JESUS JONATHAN</t>
@@ -4328,7 +4328,7 @@
     <t>jesus.yllesca@espam.edu.ec</t>
   </si>
   <si>
-    <t>LI5jOlDL</t>
+    <t>Mwx2h#Tn</t>
   </si>
   <si>
     <t>ZAMBRANO CATOTA DERLYN MILENA</t>
@@ -4337,7 +4337,7 @@
     <t>derlyn.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>bf4hlFud</t>
+    <t>3aP6pDk6</t>
   </si>
   <si>
     <t>ZAMBRANO CEDEÑO CHRISTIAN EDUARDO</t>
@@ -4346,7 +4346,7 @@
     <t>christian.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>OUvIhc0F</t>
+    <t>HGU394Gi</t>
   </si>
   <si>
     <t>ZAMBRANO ROBLES GLENDY MERCEDES</t>
@@ -4355,7 +4355,7 @@
     <t>glendy.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>BEyLmPFc</t>
+    <t>T5kV3mbW</t>
   </si>
   <si>
     <t>ZAMBRANO ROSADO JORGE ALESSANDRO</t>
@@ -4364,7 +4364,7 @@
     <t>jorge.zambranor@espam.edu.ec</t>
   </si>
   <si>
-    <t>YzmltSl2</t>
+    <t>zm/YkTqI</t>
   </si>
   <si>
     <t>ZAMBRANO VERA WENDY ANAHI</t>
@@ -4373,7 +4373,7 @@
     <t>wendy.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>l/nJ8ov2</t>
+    <t>ZyS36AQV</t>
   </si>
   <si>
     <t>ZAMBRANO ZAMBRANO JONATHAN JAVIER</t>
@@ -4382,7 +4382,7 @@
     <t>jonathan.zambranoz@espam.edu.ec</t>
   </si>
   <si>
-    <t>2mUxPikl</t>
+    <t>PXmWlieo</t>
   </si>
   <si>
     <t>ZAMORA SOLORZANO MAGALY DOLORES</t>
@@ -4391,7 +4391,7 @@
     <t>magaly.zamora@espam.edu.ec</t>
   </si>
   <si>
-    <t>urw3Hnye</t>
+    <t>q8mbmpeO</t>
   </si>
   <si>
     <t>BRAVO ZAMBRANO MARIA EMILIA</t>
@@ -4400,7 +4400,7 @@
     <t>maria.bravoz@espam.edu.ec</t>
   </si>
   <si>
-    <t>eGpGzMMU</t>
+    <t>JJB!R6fq</t>
   </si>
   <si>
     <t>CEVALLOS ALVAREZ ARMANDO ENRIQUE</t>
@@ -4409,7 +4409,7 @@
     <t>armando.cevallos@espam.edu.ec</t>
   </si>
   <si>
-    <t>EpvhI#28</t>
+    <t>gw2NG3vZ</t>
   </si>
   <si>
     <t>CEVALLOS VERA ARELIS STEFANIA</t>
@@ -4418,7 +4418,7 @@
     <t>arelis.cevallos@espam.edu.ec</t>
   </si>
   <si>
-    <t>rioKIW4u</t>
+    <t>nmAdrpzf</t>
   </si>
   <si>
     <t>COOL MERO PATRICIO JAVIER</t>
@@ -4427,7 +4427,7 @@
     <t>patricio.cool@espam.edu.ec</t>
   </si>
   <si>
-    <t>1B/U2SKe</t>
+    <t>akSX!h2v</t>
   </si>
   <si>
     <t>FRANCO ORELLANA GUADALUPE MONSERRATE</t>
@@ -4436,7 +4436,7 @@
     <t>guadalupe.franco@espam.edu.ec</t>
   </si>
   <si>
-    <t>YyBKt6GW</t>
+    <t>EocvTm5u</t>
   </si>
   <si>
     <t>HUERTA BALDIVIEZO JEAN CRISTHIAN</t>
@@ -4445,7 +4445,7 @@
     <t>jean.huerta@espam.edu.ec</t>
   </si>
   <si>
-    <t>Qi6ASpuK</t>
+    <t>snsvmEz5</t>
   </si>
   <si>
     <t>INTRIAGO CANTOS MARIA JOSE</t>
@@ -4454,7 +4454,7 @@
     <t>maria.intriagoc@espam.edu.ec</t>
   </si>
   <si>
-    <t>E&amp;jQUmQW</t>
+    <t>8MvoL3AZ</t>
   </si>
   <si>
     <t>LOOR CANTOS DIANA ISABEL</t>
@@ -4463,7 +4463,7 @@
     <t>diana.loor@espam.edu.ec</t>
   </si>
   <si>
-    <t>N?VXFfG5</t>
+    <t>l&amp;ieAP?F</t>
   </si>
   <si>
     <t>LOOR SEGOVIA EVELYN ADRIANA</t>
@@ -4472,7 +4472,7 @@
     <t>evelyn.loors@espam.edu.ec</t>
   </si>
   <si>
-    <t>h0B786ac</t>
+    <t>dK!wj6NY</t>
   </si>
   <si>
     <t>MEDINA CEDEÑO JULIO CESAR</t>
@@ -4481,7 +4481,7 @@
     <t>julio.medina@espam.edu.ec</t>
   </si>
   <si>
-    <t>vCZrQ7rx</t>
+    <t>5y4R96ZL</t>
   </si>
   <si>
     <t>MERA VELEZ ALONDRA GARDENIA</t>
@@ -4490,7 +4490,7 @@
     <t>alondra.mera@espam.edu.ec</t>
   </si>
   <si>
-    <t>NGZfH!sq</t>
+    <t>YMb5NUOF</t>
   </si>
   <si>
     <t>MUÑOZ ZAMBRANO CARLOS JOSUE</t>
@@ -4499,7 +4499,7 @@
     <t>carlos.munozz@espam.edu.ec</t>
   </si>
   <si>
-    <t>X8edKOwA</t>
+    <t>EGyliR7D</t>
   </si>
   <si>
     <t>NAPA RODRIGUEZ JOSE AGUSTIN</t>
@@ -4508,7 +4508,7 @@
     <t>jose.napa@espam.edu.ec</t>
   </si>
   <si>
-    <t>CI0NaB95</t>
+    <t>mBorHlzJ</t>
   </si>
   <si>
     <t>PALMA CEVALLOS MARIA JOSE</t>
@@ -4517,7 +4517,7 @@
     <t>maria.palma@espam.edu.ec</t>
   </si>
   <si>
-    <t>3Aqnsq#K</t>
+    <t>MSoeN2Ph</t>
   </si>
   <si>
     <t>PATIÑO MESIAS MARIA GABRIELA</t>
@@ -4526,7 +4526,7 @@
     <t>maria.patino@espam.edu.ec</t>
   </si>
   <si>
-    <t>6W&amp;WPQAJ</t>
+    <t>4MEmM8Wj</t>
   </si>
   <si>
     <t>QUINTANA CAGUA YENIFER YULI</t>
@@ -4535,7 +4535,7 @@
     <t>yenifer.quintana@espam.edu.ec</t>
   </si>
   <si>
-    <t>v!lOao#x</t>
+    <t>u9U5JQ9#</t>
   </si>
   <si>
     <t>RIVERA CANTOS MARIA DANIELA</t>
@@ -4544,7 +4544,7 @@
     <t>maria.riverac@espam.edu.ec</t>
   </si>
   <si>
-    <t>2CGY2ga9</t>
+    <t>!wyPC#ta</t>
   </si>
   <si>
     <t>RODRIGUEZ PINCAY CARLOS BRYAN</t>
@@ -4553,7 +4553,7 @@
     <t>carlos.rodriguezp@espam.edu.ec</t>
   </si>
   <si>
-    <t>iBH0GH3?</t>
+    <t>J0GQ0mib</t>
   </si>
   <si>
     <t>SABANDO VELEZ CRISTHIAN ANTHONY</t>
@@ -4562,7 +4562,7 @@
     <t>cristhian.sabando@espam.edu.ec</t>
   </si>
   <si>
-    <t>gNwAmlLq</t>
+    <t>!g4J93ji</t>
   </si>
   <si>
     <t>SANTANA VERA ANTHONY JAHIR</t>
@@ -4571,7 +4571,7 @@
     <t>anthony.santana@espam.edu.ec</t>
   </si>
   <si>
-    <t>sE7wDcDp</t>
+    <t>VYUy&amp;P/t</t>
   </si>
   <si>
     <t>VELEZ ESPINOZA JUNIOR JESUS</t>
@@ -4580,7 +4580,7 @@
     <t>junior.veleze@espam.edu.ec</t>
   </si>
   <si>
-    <t>?ZQIh7hY</t>
+    <t>6#VrxliH</t>
   </si>
   <si>
     <t>VERDUGA ZAMBRANO DIEGO ALEJANDRO</t>
@@ -4589,7 +4589,7 @@
     <t>diego.verduga@espam.edu.ec</t>
   </si>
   <si>
-    <t>eb##xpos</t>
+    <t>qC&amp;92PPj</t>
   </si>
   <si>
     <t>ZAMBRANO VELEZ NAYELHY LILIBETH</t>
@@ -4598,7 +4598,7 @@
     <t>nayelhy.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>jJvDKqJA</t>
+    <t>wkoeMY&amp;8</t>
   </si>
   <si>
     <t>ZAMBRANO WITONG KENIA THAIS</t>
@@ -4607,7 +4607,7 @@
     <t>keniath.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>Ar4nJenb</t>
+    <t>GK3CnfWU</t>
   </si>
   <si>
     <t>ANCHUNDIA ANCHUNDIA GEMA LILIBETH</t>
@@ -4616,7 +4616,7 @@
     <t>gema.anchundia@espam.edu.ec</t>
   </si>
   <si>
-    <t>3XQGf5U#</t>
+    <t>!tWo#j3o</t>
   </si>
   <si>
     <t>ARTEAGA DELGADO JEAN CARLOS</t>
@@ -4625,7 +4625,7 @@
     <t>jean.arteaga@espam.edu.ec</t>
   </si>
   <si>
-    <t>oKEUVIcn</t>
+    <t>6UF4hN25</t>
   </si>
   <si>
     <t>BARREIRO ZAMBRANO JOSE VICENTE</t>
@@ -4634,7 +4634,7 @@
     <t>jose.barreiro@espam.edu.ec</t>
   </si>
   <si>
-    <t>hi8cboc/</t>
+    <t>9k1?h!wD</t>
   </si>
   <si>
     <t>BASURTO ALCIVAR DARWIN JESUS</t>
@@ -4643,7 +4643,7 @@
     <t>darwin.basurto@espam.edu.ec</t>
   </si>
   <si>
-    <t>eJKnlQ7k</t>
+    <t>SOW7!qoY</t>
   </si>
   <si>
     <t>BRAVO CEDEÑO JOSE RODOLFO</t>
@@ -4652,7 +4652,7 @@
     <t>jose.bravo@espam.edu.ec</t>
   </si>
   <si>
-    <t>3LTHuJa9</t>
+    <t>K7GI?X9M</t>
   </si>
   <si>
     <t>BRIONES BERMEO ANTONY JAVIER</t>
@@ -4661,7 +4661,7 @@
     <t>antony.briones@espam.edu.ec</t>
   </si>
   <si>
-    <t>k5BweCGx</t>
+    <t>FYCkw!VU</t>
   </si>
   <si>
     <t>CEDEÑO ANCHUNDIA YANDRY ANTONIO</t>
@@ -4673,7 +4673,7 @@
     <t>yandry.cedeno@espam.edu.ec</t>
   </si>
   <si>
-    <t>/zzkQCNz</t>
+    <t>OrHruP?H</t>
   </si>
   <si>
     <t>CEDEÑO PEÑARRIETA DAYANA SOPHIA</t>
@@ -4682,7 +4682,7 @@
     <t>dayanaso.cedeno@espam.edu.ec</t>
   </si>
   <si>
-    <t>gx!FqrIN</t>
+    <t>eT6dwERa</t>
   </si>
   <si>
     <t>CHAVARRIA PEÑARRIETA MARCOS ALEJANDRO</t>
@@ -4691,7 +4691,7 @@
     <t>marcos.chavarria@espam.edu.ec</t>
   </si>
   <si>
-    <t>wyw!TKTk</t>
+    <t>MQ&amp;3dBxE</t>
   </si>
   <si>
     <t>DEL VALLE BASURTO CARMEN MELINA</t>
@@ -4700,7 +4700,7 @@
     <t>carmen.del@espam.edu.ec</t>
   </si>
   <si>
-    <t>khpvSM!J</t>
+    <t>A?OjdLCk</t>
   </si>
   <si>
     <t>GUERRERO BRAVO ANA BELEN</t>
@@ -4709,7 +4709,7 @@
     <t>ana.guerrero@espam.edu.ec</t>
   </si>
   <si>
-    <t>tEr?OxBP</t>
+    <t>En3v1w4Q</t>
   </si>
   <si>
     <t>GUERRERO GUERRERO JOSSELYN MELISSA</t>
@@ -4718,7 +4718,7 @@
     <t>josselyn.guerrero@espam.edu.ec</t>
   </si>
   <si>
-    <t>sp44oxxG</t>
+    <t>vPliWA#R</t>
   </si>
   <si>
     <t>INTRIAGO BARBERAN LAURO ANTONIO</t>
@@ -4727,7 +4727,7 @@
     <t>lauro.intriago1@espam.edu.ec</t>
   </si>
   <si>
-    <t>K6Gep/XI</t>
+    <t>fq8ZdZzz</t>
   </si>
   <si>
     <t>INTRIAGO MORA LENIN ARCENIO</t>
@@ -4736,7 +4736,7 @@
     <t>lenin.intriago@espam.edu.ec</t>
   </si>
   <si>
-    <t>UYRRFtQs</t>
+    <t>m2L4RNVe</t>
   </si>
   <si>
     <t>MACIAS CALDERON JOSE ARIEL</t>
@@ -4745,7 +4745,7 @@
     <t>jose.macias@espam.edu.ec</t>
   </si>
   <si>
-    <t>Z8E6rQ!h</t>
+    <t>mRUHmFQy</t>
   </si>
   <si>
     <t>MARCILLO VELEZ ANA PATRICIA</t>
@@ -4754,7 +4754,7 @@
     <t>ana.marcillo@espam.edu.ec</t>
   </si>
   <si>
-    <t>!UR5OhD4</t>
+    <t>il/yX#Dq</t>
   </si>
   <si>
     <t>MERA FIGUEROA RAYMOND ALEJANDRO</t>
@@ -4763,7 +4763,7 @@
     <t>raymond.mera@espam.edu.ec</t>
   </si>
   <si>
-    <t>nkGQzw1N</t>
+    <t>VGmNc/mV</t>
   </si>
   <si>
     <t>MOREIRA ZAMBRANO JOSSENKA MERCEDES</t>
@@ -4772,7 +4772,7 @@
     <t>jossenka.moreira@espam.edu.ec</t>
   </si>
   <si>
-    <t>S3&amp;InpYL</t>
+    <t>1xL4&amp;VEp</t>
   </si>
   <si>
     <t>MUÑOZ ALCIVAR CRISTHIAN MARTIN</t>
@@ -4781,7 +4781,7 @@
     <t>cristhian.munoz@espam.edu.ec</t>
   </si>
   <si>
-    <t>lZrX87YA</t>
+    <t>/14ZACAG</t>
   </si>
   <si>
     <t>MUÑOZ MACIAS MARIA MAGDALENA</t>
@@ -4790,7 +4790,7 @@
     <t>mariama.munoz@espam.edu.ec</t>
   </si>
   <si>
-    <t>bqWn&amp;JcX</t>
+    <t>6GfIdW68</t>
   </si>
   <si>
     <t>POLO GANCHOZO ARON ESNEYDER</t>
@@ -4799,7 +4799,7 @@
     <t>aron.polo@espam.edu.ec</t>
   </si>
   <si>
-    <t>PtNEG7tM</t>
+    <t>S8X7F0Kn</t>
   </si>
   <si>
     <t>RIOS BERMELLO JENIFFER LIZETH</t>
@@ -4808,7 +4808,7 @@
     <t>jeniffer.rios@espam.edu.ec</t>
   </si>
   <si>
-    <t>TSo3oZg9</t>
+    <t>NLnZZJjr</t>
   </si>
   <si>
     <t>SALVATIERRA VALDEZ VICKY NICOLLE</t>
@@ -4817,7 +4817,7 @@
     <t>vicky.salvatierra@espam.edu.ec</t>
   </si>
   <si>
-    <t>uSwxh2#M</t>
+    <t>CHI4f6uI</t>
   </si>
   <si>
     <t>SANTOS VELEZ MONICA GERMANIA</t>
@@ -4826,7 +4826,7 @@
     <t>monica.santos@espam.edu.ec</t>
   </si>
   <si>
-    <t>TCm1NKYV</t>
+    <t>cbI/gQqh</t>
   </si>
   <si>
     <t>SOLORZANO ZAMBRANO MILENA DENISSE</t>
@@ -4835,7 +4835,7 @@
     <t>milena.solorzano@espam.edu.ec</t>
   </si>
   <si>
-    <t>KkD0RJwt</t>
+    <t>PCHJyIFx</t>
   </si>
   <si>
     <t>TUQUERES TACURI JESSICA MARIBELL</t>
@@ -4844,7 +4844,7 @@
     <t>jessica.tuqueres@espam.edu.ec</t>
   </si>
   <si>
-    <t>WlJondYB</t>
+    <t>Zjjeh9np</t>
   </si>
   <si>
     <t>VERDUGA ERAZO JOSUE SALVADOR</t>
@@ -4853,7 +4853,7 @@
     <t>josue.verduga@espam.edu.ec</t>
   </si>
   <si>
-    <t>2#JWLw3W</t>
+    <t>Ar9F0O4O</t>
   </si>
   <si>
     <t>YEPEZ VELIZ GENESIS THALIA</t>
@@ -4862,7 +4862,7 @@
     <t>genesis.yepez@espam.edu.ec</t>
   </si>
   <si>
-    <t>c5VYlIfD</t>
+    <t>ToxgHhbG</t>
   </si>
   <si>
     <t>ZAMBRANO BASURTO ERICK RAFAEL</t>
@@ -4871,7 +4871,7 @@
     <t>erick.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>KfgonhAw</t>
+    <t>2?#Yrw&amp;b</t>
   </si>
   <si>
     <t>ZAMBRANO MUÑOZ JANDRY DEIVY</t>
@@ -4880,7 +4880,7 @@
     <t>jandry.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>Sa1wDWv9</t>
+    <t>#CzF8KLX</t>
   </si>
   <si>
     <t>AYONG VERA JUAN DAVID</t>
@@ -4889,7 +4889,7 @@
     <t>juan.ayong@espam.edu.ec</t>
   </si>
   <si>
-    <t>hLOM!spf</t>
+    <t>65hmWaZ1</t>
   </si>
   <si>
     <t>BASURTO SALAZAR ANGELA MARGARITA</t>
@@ -4898,7 +4898,7 @@
     <t>angela.basurto@espam.edu.ec</t>
   </si>
   <si>
-    <t>5izI?2rv</t>
+    <t>2#E5kPB#</t>
   </si>
   <si>
     <t>CASANOVA INTRIAGO ANDREA BELEN</t>
@@ -4910,7 +4910,7 @@
     <t>andrea.casanova@espam.edu.ec</t>
   </si>
   <si>
-    <t>QX0I#A#0</t>
+    <t>ZNCN9RrC</t>
   </si>
   <si>
     <t>CHUMO ZAMBRANO ANTONIO BENITO</t>
@@ -4919,7 +4919,7 @@
     <t>antonio.chumo@espam.edu.ec</t>
   </si>
   <si>
-    <t>T0RUKqLY</t>
+    <t>Rr5hM0sF</t>
   </si>
   <si>
     <t>GARCIA CORTEZ ERIKA STEFANIA</t>
@@ -4928,7 +4928,7 @@
     <t>erika.garcia@espam.edu.ec</t>
   </si>
   <si>
-    <t>BEpCa1Ax</t>
+    <t>oY?/zbF2</t>
   </si>
   <si>
     <t>GOMEZ BARRERA JUNIOR LENIN</t>
@@ -4937,7 +4937,7 @@
     <t>junior.gomez@espam.edu.ec</t>
   </si>
   <si>
-    <t>YTIX8NAF</t>
+    <t>aCmAYwTe</t>
   </si>
   <si>
     <t>LOOR CEDEÑO RICARDO EMANUEL</t>
@@ -4946,7 +4946,7 @@
     <t>ricardo.loor@espam.edu.ec</t>
   </si>
   <si>
-    <t>2T1wj2bQ</t>
+    <t>qarptx1x</t>
   </si>
   <si>
     <t>LOOR LUCAS EVELYN GUADALUPE</t>
@@ -4958,7 +4958,7 @@
     <t>evelyn.loor@espam.edu.ec</t>
   </si>
   <si>
-    <t>clcI?9W5</t>
+    <t>?tmhsWzr</t>
   </si>
   <si>
     <t>LOOR VELASCO FABIANA BELEN</t>
@@ -4970,7 +4970,7 @@
     <t>fabiana.loor@espam.edu.ec</t>
   </si>
   <si>
-    <t>N60t!93E</t>
+    <t>nCRClwwo</t>
   </si>
   <si>
     <t>MARTINEZ CEDEÑO JENIFFER ESTEFANIA</t>
@@ -4979,7 +4979,7 @@
     <t>jeniffer.martinez@espam.edu.ec</t>
   </si>
   <si>
-    <t>5A7jGpkY</t>
+    <t>/pUxRhXf</t>
   </si>
   <si>
     <t>MENDOZA BARRE EDDY ENMANUEL</t>
@@ -4988,7 +4988,7 @@
     <t>eddy.mendoza@espam.edu.ec</t>
   </si>
   <si>
-    <t>&amp;/Ml56PT</t>
+    <t>1SBJiWov</t>
   </si>
   <si>
     <t>MURILLO PALACIOS ULICES JAIR</t>
@@ -4997,7 +4997,7 @@
     <t>ulices.murillo@espam.edu.ec</t>
   </si>
   <si>
-    <t>HFu5t!K?</t>
+    <t>jiuNZPNi</t>
   </si>
   <si>
     <t>QUIJANO ZAMBRANO JONATHAN ERNESTO</t>
@@ -5006,7 +5006,7 @@
     <t>jonathan.quijano@espam.edu.ec</t>
   </si>
   <si>
-    <t>SdK8cHop</t>
+    <t>Nb!Nx3tB</t>
   </si>
   <si>
     <t>ROBLES YORI EFRAIN DAVID</t>
@@ -5015,7 +5015,7 @@
     <t>efrain.robles@espam.edu.ec</t>
   </si>
   <si>
-    <t>hz44gi!T</t>
+    <t>ImYLGJJ?</t>
   </si>
   <si>
     <t>SABANDO ZAMBRANO FREDDY ANTONIO</t>
@@ -5024,7 +5024,7 @@
     <t>freddy.sabando@espam.edu.ec</t>
   </si>
   <si>
-    <t>l8b&amp;B!34</t>
+    <t>!GynVIjN</t>
   </si>
   <si>
     <t>SOLORZANO GUERRERO RONALDO WANDERLEY</t>
@@ -5033,7 +5033,7 @@
     <t>ronaldo.solorzano@espam.edu.ec</t>
   </si>
   <si>
-    <t>lSMVlK4G</t>
+    <t>6qNGeRhd</t>
   </si>
   <si>
     <t>VELEZ CALDERON GENESIS MARIANA</t>
@@ -5045,7 +5045,7 @@
     <t>genesis.velez@espam.edu.ec</t>
   </si>
   <si>
-    <t>sT#ufrt#</t>
+    <t>eaqh0q5o</t>
   </si>
   <si>
     <t>ZAMBRANO BALDA JOSE RAMIRO</t>
@@ -5054,7 +5054,7 @@
     <t>josera.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>mtJEX??0</t>
+    <t>K#9yU4ss</t>
   </si>
   <si>
     <t>ZAMBRANO CANTOS YENNY ANNABEL</t>
@@ -5063,7 +5063,7 @@
     <t>yenny.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>NnG49P3q</t>
+    <t>yte6SxDT</t>
   </si>
   <si>
     <t>ZAMBRANO LOOR CRISTHIAN LEONARDO</t>
@@ -5072,7 +5072,7 @@
     <t>cristhian.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>ofnPo6MD</t>
+    <t>!0IBtgv9</t>
   </si>
   <si>
     <t>ZAMBRANO LOOR DIANA STEFANIA</t>
@@ -5081,7 +5081,7 @@
     <t>dianas.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>T8e6xEqp</t>
+    <t>XdRU9Nef</t>
   </si>
   <si>
     <t>ZAMBRANO LOOR MARIA EMILIA</t>
@@ -5090,7 +5090,7 @@
     <t>maria.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>r6ozJXTZ</t>
+    <t>Z4JE5cO9</t>
   </si>
   <si>
     <t>ZAMBRANO MOREIRA LEONELA ALEJANDRA</t>
@@ -5099,7 +5099,7 @@
     <t>leonela.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>fP/y!P4h</t>
+    <t>AuTw5Xm?</t>
   </si>
   <si>
     <t>ALAVA ORTIZ EDWIN ALEXANDER</t>
@@ -5108,7 +5108,7 @@
     <t>edwin.alava@espam.edu.ec</t>
   </si>
   <si>
-    <t>Vn5NgPv!</t>
+    <t>Livl&amp;UN0</t>
   </si>
   <si>
     <t>ALCIVAR LOOR GEMA LISBETH</t>
@@ -5117,7 +5117,7 @@
     <t>gemal.alcivar@espam.edu.ec</t>
   </si>
   <si>
-    <t>9LPeNrQL</t>
+    <t>e#BGLiuB</t>
   </si>
   <si>
     <t>AVELLAN SANTANA GENESIS NICOLLE</t>
@@ -5126,7 +5126,7 @@
     <t>genesis.avellan@espam.edu.ec</t>
   </si>
   <si>
-    <t>78kgXsWT</t>
+    <t>1o?5CGgG</t>
   </si>
   <si>
     <t>CALDERON SANCHEZ SANDY KATHERINE</t>
@@ -5138,7 +5138,7 @@
     <t>sandy.calderon@espam.edu.ec</t>
   </si>
   <si>
-    <t>4AoyyFxe</t>
+    <t>A6!pPdTW</t>
   </si>
   <si>
     <t>CARDENAS ASTUDILLO ANGELA JULIANA</t>
@@ -5150,7 +5150,7 @@
     <t>angela.cardenas@espam.edu.ec</t>
   </si>
   <si>
-    <t>P2ZOf?sX</t>
+    <t>lg6z&amp;aOr</t>
   </si>
   <si>
     <t>CARRILLO PACHAY MARCO STEVE</t>
@@ -5159,7 +5159,7 @@
     <t>marco.carrillo@espam.edu.ec</t>
   </si>
   <si>
-    <t>mTkqI?yS</t>
+    <t>zjbkzjnc</t>
   </si>
   <si>
     <t>CEDEÑO ZAMBRANO BRYAN ISIDRO</t>
@@ -5168,7 +5168,7 @@
     <t>bryan.cedeno@espam.edu.ec</t>
   </si>
   <si>
-    <t>u/dUieWL</t>
+    <t>NH2aGYUF</t>
   </si>
   <si>
     <t>CEVALLOS SALTOS ANTHONY FERNANDO</t>
@@ -5177,7 +5177,7 @@
     <t>anthonyf.cevallos@espam.edu.ec</t>
   </si>
   <si>
-    <t>xL!j0Aur</t>
+    <t>x8MfJbzm</t>
   </si>
   <si>
     <t>CHANG ZAMBRANO MARTHA YAMILETH</t>
@@ -5186,7 +5186,7 @@
     <t>martha.chang@espam.edu.ec</t>
   </si>
   <si>
-    <t>dYB!OQKk</t>
+    <t>vAji5gj?</t>
   </si>
   <si>
     <t>CHIRIBOGA FARIAS LUIS FERNANDO</t>
@@ -5195,7 +5195,7 @@
     <t>luis.chiriboga@espam.edu.ec</t>
   </si>
   <si>
-    <t>Zt0BWTVX</t>
+    <t>qFg1rNc4</t>
   </si>
   <si>
     <t>ESPINOZA PILAY JERSON JOSE</t>
@@ -5204,7 +5204,7 @@
     <t>jerson.espinoza@espam.edu.ec</t>
   </si>
   <si>
-    <t>CqAtzdfQ</t>
+    <t>0S9nL3E7</t>
   </si>
   <si>
     <t>FARIAS MERA MAURICIO ANDRES</t>
@@ -5213,7 +5213,7 @@
     <t>mauricio.farias@espam.edu.ec</t>
   </si>
   <si>
-    <t>A&amp;uXjqgD</t>
+    <t>7a0noiWs</t>
   </si>
   <si>
     <t>HERNANDEZ GONZALEZ JAMILEX KAREY</t>
@@ -5225,7 +5225,7 @@
     <t>jamilex.hernandez@espam.edu.ec</t>
   </si>
   <si>
-    <t>afS?nNrE</t>
+    <t>1jTAg7k!</t>
   </si>
   <si>
     <t>LEONES FALCONES ABAD JHOAN</t>
@@ -5234,7 +5234,7 @@
     <t>abad.leones@espam.edu.ec</t>
   </si>
   <si>
-    <t>aGaGfpal</t>
+    <t>oikD/5o2</t>
   </si>
   <si>
     <t>LOOR CEVALLOS ANA MARIA</t>
@@ -5243,7 +5243,7 @@
     <t>anama.loor@espam.edu.ec</t>
   </si>
   <si>
-    <t>DRy5waUz</t>
+    <t>ZRI/GFyq</t>
   </si>
   <si>
     <t>LOOR LOOR RONALD POLIVIO</t>
@@ -5252,7 +5252,7 @@
     <t>ronald.loor@espam.edu.ec</t>
   </si>
   <si>
-    <t>x?kftP#y</t>
+    <t>eWIfBPCf</t>
   </si>
   <si>
     <t>LOOR REYES GENESIS JAMILETH</t>
@@ -5261,7 +5261,7 @@
     <t>genesis.loor@espam.edu.ec</t>
   </si>
   <si>
-    <t>egEYtPkm</t>
+    <t>TxoTdysr</t>
   </si>
   <si>
     <t>MACIAS BRAVO RICARDO FRANCISCO</t>
@@ -5270,7 +5270,7 @@
     <t>ricardo.macias@espam.edu.ec</t>
   </si>
   <si>
-    <t>Zk0nvRHp</t>
+    <t>QV/o#4ib</t>
   </si>
   <si>
     <t>MACIAS MACIAS LISSETH LILIBETH</t>
@@ -5279,7 +5279,7 @@
     <t>lisseth.macias@espam.edu.ec</t>
   </si>
   <si>
-    <t>Xl&amp;YxDd8</t>
+    <t>K&amp;fYgfku</t>
   </si>
   <si>
     <t>MANZABA CEDEÑO KEVIN ALBERTO</t>
@@ -5288,7 +5288,7 @@
     <t>kevin.manzaba@espam.edu.ec</t>
   </si>
   <si>
-    <t>68rS8H/U</t>
+    <t>93QJgV8u</t>
   </si>
   <si>
     <t>MARQUEZ LEMA NAYELI SABRINA</t>
@@ -5297,7 +5297,7 @@
     <t>nayeli.marquez@espam.edu.ec</t>
   </si>
   <si>
-    <t>h4L#19QP</t>
+    <t>84rgV0wz</t>
   </si>
   <si>
     <t>MENDOZA BRIONES MARIUXI KATHERINE</t>
@@ -5309,7 +5309,7 @@
     <t>mariuxi.mendoza@espam.edu.ec</t>
   </si>
   <si>
-    <t>/vlsZ/Sq</t>
+    <t>kNHv&amp;i8P</t>
   </si>
   <si>
     <t>MOLINA CEDEÑO JUAN DE DIOS</t>
@@ -5318,7 +5318,7 @@
     <t>juan.molina@espam.edu.ec</t>
   </si>
   <si>
-    <t>Mu56oxPi</t>
+    <t>uEsUndpw</t>
   </si>
   <si>
     <t>MONTESDEOCA GARCIA YUDID ALEXANDRA</t>
@@ -5327,7 +5327,7 @@
     <t>yudid.montesdeoca@espam.edu.ec</t>
   </si>
   <si>
-    <t>#qnARxF7</t>
+    <t>osgfobTq</t>
   </si>
   <si>
     <t>MUÑOZ MERA JUAN PABLO</t>
@@ -5336,7 +5336,7 @@
     <t>juan.munoz@espam.edu.ec</t>
   </si>
   <si>
-    <t>KJ1dzMhE</t>
+    <t>17HlwF/L</t>
   </si>
   <si>
     <t>NAVARRETE ORMAZA ERICK ALEXANDER</t>
@@ -5345,7 +5345,7 @@
     <t>erick.navarrete@espam.edu.ec</t>
   </si>
   <si>
-    <t>#dIrigDe</t>
+    <t>n1miT1Zq</t>
   </si>
   <si>
     <t>OCAMPO BARRE ANTHONY VICENTE</t>
@@ -5354,7 +5354,7 @@
     <t>anthony.ocampo@espam.edu.ec</t>
   </si>
   <si>
-    <t>5!nihOfu</t>
+    <t>DCWYPmtG</t>
   </si>
   <si>
     <t>PARRALES FALCONES ANTHONY LEONARDO</t>
@@ -5363,7 +5363,7 @@
     <t>anthony.parrales@espam.edu.ec</t>
   </si>
   <si>
-    <t>b6mDEPAX</t>
+    <t>5SHWGzvU</t>
   </si>
   <si>
     <t>RAMOS SALTOS NICOLE PAOLA</t>
@@ -5372,7 +5372,7 @@
     <t>nicole.ramos@espam.edu.ec</t>
   </si>
   <si>
-    <t>t2d1GsJh</t>
+    <t>jZpBzlJV</t>
   </si>
   <si>
     <t>ROBLES MOLINA JENIFFER STEFANIA</t>
@@ -5381,7 +5381,7 @@
     <t>jeniffer.robles@espam.edu.ec</t>
   </si>
   <si>
-    <t>zQ!rwkfh</t>
+    <t>5LkUl&amp;vT</t>
   </si>
   <si>
     <t>RODRIGUEZ CAMPOS JEAN KATHERINE</t>
@@ -5390,7 +5390,7 @@
     <t>jean.rodriguez@espam.edu.ec</t>
   </si>
   <si>
-    <t>TjNM/CEr</t>
+    <t>oBX?eYjF</t>
   </si>
   <si>
     <t>SANCHEZ MEDINA GISSEL STEPHANIE</t>
@@ -5399,7 +5399,7 @@
     <t>gissel.sanchez@espam.edu.ec</t>
   </si>
   <si>
-    <t>rGshWoQ3</t>
+    <t>jCVB!PKD</t>
   </si>
   <si>
     <t>VASQUEZ VERA ARGENIS JAVIER</t>
@@ -5408,7 +5408,7 @@
     <t>argenis.vasquez@espam.edu.ec</t>
   </si>
   <si>
-    <t>gymbrXsg</t>
+    <t>wREmVM#T</t>
   </si>
   <si>
     <t>VASQUEZ VERA MARIA MERCEDES</t>
@@ -5417,7 +5417,7 @@
     <t>maria.vasquez@espam.edu.ec</t>
   </si>
   <si>
-    <t>HTS!OClX</t>
+    <t>MD6pXzR&amp;</t>
   </si>
   <si>
     <t>VELEZ MERA JOSSELYN JOSSENKA</t>
@@ -5426,7 +5426,7 @@
     <t>josselynjo.velez@espam.edu.ec</t>
   </si>
   <si>
-    <t>sJnq826V</t>
+    <t>nW3Vk1A3</t>
   </si>
   <si>
     <t>VELEZ PALACIOS STEVEN RAMON</t>
@@ -5435,7 +5435,7 @@
     <t>steven.velez@espam.edu.ec</t>
   </si>
   <si>
-    <t>8ot#7GnX</t>
+    <t>S9dv#Ywq</t>
   </si>
   <si>
     <t>VERA BRAVO MARY LAURA</t>
@@ -5444,7 +5444,7 @@
     <t>mary.vera@espam.edu.ec</t>
   </si>
   <si>
-    <t>gPE18seb</t>
+    <t>tt5DivNG</t>
   </si>
   <si>
     <t>VILLAMIL VALENCIA ISABEL ANDREA</t>
@@ -5453,7 +5453,7 @@
     <t>isabel.villamil@espam.edu.ec</t>
   </si>
   <si>
-    <t>WCTYaPx!</t>
+    <t>Dk!blnLR</t>
   </si>
   <si>
     <t>ZAMBRANO COBEÑA PABLO ALBERTO</t>
@@ -5462,7 +5462,7 @@
     <t>pablo.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>&amp;D3AHoM6</t>
+    <t>&amp;BUCe#uP</t>
   </si>
   <si>
     <t>ALVAREZ INTRIAGO MAILIN KATHERINE</t>
@@ -5471,7 +5471,7 @@
     <t>mailin.alvarez@espam.edu.ec</t>
   </si>
   <si>
-    <t>rm2dJ1#!</t>
+    <t>fGajkvGh</t>
   </si>
   <si>
     <t>BRAVO ARTEAGA RICARDO JAVIER</t>
@@ -5480,7 +5480,7 @@
     <t>ricardo.bravo@espam.edu.ec</t>
   </si>
   <si>
-    <t>?Xk1IPs4</t>
+    <t>u5GO6mFY</t>
   </si>
   <si>
     <t>BRAVO VERGARA GEMA CAROLINA</t>
@@ -5489,7 +5489,7 @@
     <t>gemac.bravo@espam.edu.ec</t>
   </si>
   <si>
-    <t>0E!ibH9#</t>
+    <t>QT5p#LTI</t>
   </si>
   <si>
     <t>CEDEÑO VELASQUEZ GEMA GUADALUPE</t>
@@ -5498,7 +5498,7 @@
     <t>gemag.cedeno@espam.edu.ec</t>
   </si>
   <si>
-    <t>#rDK&amp;0xy</t>
+    <t>evbI?tPN</t>
   </si>
   <si>
     <t>CHAVEZ VELIZ DENIS ALEXANDER</t>
@@ -5507,7 +5507,7 @@
     <t>denis.chavez@espam.edu.ec</t>
   </si>
   <si>
-    <t>k5nru6u7</t>
+    <t>SEOPT#r5</t>
   </si>
   <si>
     <t>DEMERA ZAMBRANO JACKSON ANDRES</t>
@@ -5516,7 +5516,7 @@
     <t>jackson.demera@espam.edu.ec</t>
   </si>
   <si>
-    <t>btFBHTvE</t>
+    <t>OcwjsEjO</t>
   </si>
   <si>
     <t>GANCHOZO LECTONG GRESSILLE GUISSELLA</t>
@@ -5525,7 +5525,7 @@
     <t>gressille.ganchozo@espam.edu.ec</t>
   </si>
   <si>
-    <t>fN2oirQB</t>
+    <t>dYXTqe5U</t>
   </si>
   <si>
     <t>INDIO ZAMBRANO ODALIS MICHELLE</t>
@@ -5537,7 +5537,7 @@
     <t>odalis.indio@espam.edu.ec</t>
   </si>
   <si>
-    <t>3kQu/UlY</t>
+    <t>W!H4OYwN</t>
   </si>
   <si>
     <t>INTRIAGO TERAN BRYAN ASDRUBAL</t>
@@ -5546,7 +5546,7 @@
     <t>bryan.intriago@espam.edu.ec</t>
   </si>
   <si>
-    <t>8Q20QuXt</t>
+    <t>?DV?3/JQ</t>
   </si>
   <si>
     <t>INTRIAGO ZAMBRANO GISSELA KAROLINA</t>
@@ -5555,7 +5555,7 @@
     <t>gissela.intriago@espam.edu.ec</t>
   </si>
   <si>
-    <t>eZMnE5Lf</t>
+    <t>azYUTt6U</t>
   </si>
   <si>
     <t>LEONES SOLORZANO YARITZA DANIELA</t>
@@ -5564,7 +5564,7 @@
     <t>yaritza.leones@espam.edu.ec</t>
   </si>
   <si>
-    <t>n&amp;u8QtaC</t>
+    <t>WqS1vAa&amp;</t>
   </si>
   <si>
     <t>LOPEZ MORA JOSSELYN AMARILYS</t>
@@ -5573,7 +5573,7 @@
     <t>josselyn.lopez@espam.edu.ec</t>
   </si>
   <si>
-    <t>b8!WMsXk</t>
+    <t>?pzB/C8N</t>
   </si>
   <si>
     <t>MERA LOOR ANTONY ELIAN</t>
@@ -5582,7 +5582,7 @@
     <t>antony.mera@espam.edu.ec</t>
   </si>
   <si>
-    <t>o8qFrSJ!</t>
+    <t>9lLdbd7h</t>
   </si>
   <si>
     <t>MERA SABANDO GEMA YAMILETH</t>
@@ -5591,7 +5591,7 @@
     <t>gema.mera@espam.edu.ec</t>
   </si>
   <si>
-    <t>vAwzr9AK</t>
+    <t>f!ju91bG</t>
   </si>
   <si>
     <t>MIRANDA IBARRA ALFONSO SEBASTIAN</t>
@@ -5600,7 +5600,7 @@
     <t>alfonso.miranda@espam.edu.ec</t>
   </si>
   <si>
-    <t>QXhvE66?</t>
+    <t>yNQNrZYx</t>
   </si>
   <si>
     <t>MONGE ERAZO JECSY PIERINA</t>
@@ -5609,7 +5609,7 @@
     <t>jecsy.monge@espam.edu.ec</t>
   </si>
   <si>
-    <t>HHCE#V0?</t>
+    <t>d2WYlve7</t>
   </si>
   <si>
     <t>ROMERO ORTEGA ANGEL ANDRES</t>
@@ -5618,7 +5618,7 @@
     <t>angel.romero@espam.edu.ec</t>
   </si>
   <si>
-    <t>86?fPXQ4</t>
+    <t>faiunFgJ</t>
   </si>
   <si>
     <t>SOLORZANO INTRIAGO OSCAR FABIAN</t>
@@ -5630,7 +5630,7 @@
     <t>oscar.solorzano@espam.edu.ec</t>
   </si>
   <si>
-    <t>uACyAwin</t>
+    <t>dHW01F1i</t>
   </si>
   <si>
     <t>VALVERDE ZAPATA KATHIUSCA CARLOTA</t>
@@ -5642,7 +5642,7 @@
     <t>kathiusca.valverde@espam.edu.ec</t>
   </si>
   <si>
-    <t>0YWKWadI</t>
+    <t>XLUcU1dF</t>
   </si>
   <si>
     <t>VERA AYALA GENESIS LISBETH</t>
@@ -5651,7 +5651,7 @@
     <t>genesis.vera@espam.edu.ec</t>
   </si>
   <si>
-    <t>S#fLVVTx</t>
+    <t>qtshGR9/</t>
   </si>
   <si>
     <t>VERA PULIDO MARIA IVANNA</t>
@@ -5660,7 +5660,7 @@
     <t>mariai.verap@espam.edu.ec</t>
   </si>
   <si>
-    <t>ggJUhGfQ</t>
+    <t>YM/DsdzU</t>
   </si>
   <si>
     <t>VERA ZAMBRANO JAZMIN CAROLINA</t>
@@ -5669,7 +5669,7 @@
     <t>jazmin.vera@espam.edu.ec</t>
   </si>
   <si>
-    <t>FngwVibk</t>
+    <t>aFcBsdpi</t>
   </si>
   <si>
     <t>VERGARA ARBOLEDA WENDY DEL ROCIO</t>
@@ -5681,7 +5681,7 @@
     <t>wendy.vergara@espam.edu.ec</t>
   </si>
   <si>
-    <t>mbRINPkG</t>
+    <t>c5PbNFj/</t>
   </si>
   <si>
     <t>VILLAMAR GONZALEZ ELENA SAMANTA</t>
@@ -5690,7 +5690,7 @@
     <t>elena.villamar@espam.edu.ec</t>
   </si>
   <si>
-    <t>EC8VRN&amp;Y</t>
+    <t>0Bnq04WX</t>
   </si>
   <si>
     <t>ZAMBRANO ALCIVAR GENESIS VALENTINA</t>
@@ -5699,7 +5699,7 @@
     <t>genesis.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>6ONzXTbp</t>
+    <t>l0dEDVRT</t>
   </si>
   <si>
     <t>ZAMBRANO CHAVEZ ANDREA MONSERRATE</t>
@@ -5708,7 +5708,7 @@
     <t>andream.zambranoc@espam.edu.ec</t>
   </si>
   <si>
-    <t>Z5/u2NNg</t>
+    <t>My4jnfRX</t>
   </si>
   <si>
     <t>ZAMBRANO GRACIA DANIELA ANGELINA</t>
@@ -5717,7 +5717,7 @@
     <t>daniela.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>JSxx!?Kt</t>
+    <t>dcX7BHM8</t>
   </si>
   <si>
     <t>ZAMBRANO MUÑOZ WILLY JHONAY</t>
@@ -5726,7 +5726,7 @@
     <t>willy.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>/o&amp;WvD&amp;g</t>
+    <t>uliqZlbO</t>
   </si>
   <si>
     <t>ZAMBRANO ZAMBRANO TATIANA ELIZABETH</t>
@@ -5735,7 +5735,7 @@
     <t>tatianael.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>BUfJTak!</t>
+    <t>7Nk3H&amp;W5</t>
   </si>
 </sst>
 </file>

--- a/storage/app/public/seeds/datosPassword.xlsx
+++ b/storage/app/public/seeds/datosPassword.xlsx
@@ -44,7 +44,7 @@
     <t>angie.alcivar.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>TljGPb!J</t>
+    <t>nUrcCNb9</t>
   </si>
   <si>
     <t>ALCIVAR VERA KARLA MILENA</t>
@@ -53,7 +53,7 @@
     <t>karla.alcivar.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>Lt5X0W7x</t>
+    <t>q8RdTBIf</t>
   </si>
   <si>
     <t>ALVIA ROCA HENRY ISAAC</t>
@@ -65,7 +65,7 @@
     <t>henry.alvia.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>9S1eT8cQ</t>
+    <t>iEZlvSmx</t>
   </si>
   <si>
     <t>ANANGONO GOMEZ ANA MARCELA</t>
@@ -74,7 +74,7 @@
     <t>ana.anangono.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>x9dDVEC4</t>
+    <t>4WUYvr4o</t>
   </si>
   <si>
     <t>BRAVO MARCILLO NATHALY SILVANA</t>
@@ -86,7 +86,7 @@
     <t>nathaly.bravo.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>S3ogIVjN</t>
+    <t>pZIwjql!</t>
   </si>
   <si>
     <t>BRIONES SUAREZ DANIA MELISSA</t>
@@ -95,7 +95,7 @@
     <t>dania.briones.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>ZD0jrXhZ</t>
+    <t>SP8ssJpm</t>
   </si>
   <si>
     <t>CANCHINGRE LOZA MARIANA DE JESUS</t>
@@ -107,7 +107,7 @@
     <t>mariana.canchingre.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>YC1KNuPy</t>
+    <t>0h/8i/r?</t>
   </si>
   <si>
     <t>CEDEÑO GARCIA EMILY JAHAIRA</t>
@@ -116,7 +116,7 @@
     <t>emily.cedeno.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>tJ#BY5QZ</t>
+    <t>xuV3hwI4</t>
   </si>
   <si>
     <t>CEDEÑO VELEZ STEVEN ANTONIO</t>
@@ -125,7 +125,7 @@
     <t>steven.cedeno.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>0T?hmN2X</t>
+    <t>MpK?LRS5</t>
   </si>
   <si>
     <t>CHICA ORDOÑEZ YAIZA ANAHI</t>
@@ -134,7 +134,7 @@
     <t>yaiza.chica.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>6!YbMZBF</t>
+    <t>EEO/OEUP</t>
   </si>
   <si>
     <t>CORONEL MERO DAMARY SABRINA</t>
@@ -143,7 +143,7 @@
     <t>damary.coronel.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>owgiWrAl</t>
+    <t>zTPHiEDN</t>
   </si>
   <si>
     <t>DELGADO BENAVIDES MELISSA ANDREINA</t>
@@ -152,7 +152,7 @@
     <t>melissa.delgado.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>ay#OSvxh</t>
+    <t>jHVD3oik</t>
   </si>
   <si>
     <t>DELGADO SOLORZANO TONY DAMIAN</t>
@@ -161,7 +161,7 @@
     <t>tony.delgado.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>QHrIMQk?</t>
+    <t>2LRQw0gF</t>
   </si>
   <si>
     <t>ELENO GENDE JOSELYN KATHERINE</t>
@@ -173,7 +173,7 @@
     <t>joselyn.eleno.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>4X#N0Je6</t>
+    <t>4t8ThygO</t>
   </si>
   <si>
     <t>GARCIA RIVERA ANGHELA LISBETH</t>
@@ -185,7 +185,7 @@
     <t>anghela.garcia.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>QOSjXxn&amp;</t>
+    <t>mMhC3b?v</t>
   </si>
   <si>
     <t>GARCIA ROSS PRISCILA TAHILY</t>
@@ -194,7 +194,7 @@
     <t>priscila.garcia.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>k0x2GVr#</t>
+    <t>?gs5/#qi</t>
   </si>
   <si>
     <t>LOOR ZAMBRANO MARILYN MICHEL</t>
@@ -203,7 +203,7 @@
     <t>marilyn.loor.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>i#FMcYMI</t>
+    <t>Rlklw10!</t>
   </si>
   <si>
     <t>LUCAS MENDOZA MOISES NOE</t>
@@ -212,7 +212,7 @@
     <t>moises.lucas.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>Dj2v42Y9</t>
+    <t>1Je3EcOP</t>
   </si>
   <si>
     <t>MANTUANO LOOR JENIFER DANIELA</t>
@@ -221,7 +221,7 @@
     <t>jenifer.mantuano.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>kEKYN#&amp;3</t>
+    <t>Ex/vaavl</t>
   </si>
   <si>
     <t>MENENDEZ SANTANA JOSMELY ANAHI</t>
@@ -230,7 +230,7 @@
     <t>josmely.menendez.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>zU2NgbJ#</t>
+    <t>XvY5SBEG</t>
   </si>
   <si>
     <t>MEZA ESPINOZA MISHEL NICOL</t>
@@ -239,7 +239,7 @@
     <t>mishel.meza.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>9OiJOidl</t>
+    <t>6hoJl3/0</t>
   </si>
   <si>
     <t>MORANTE TROYA JAIME ANDRES</t>
@@ -248,7 +248,7 @@
     <t>jaime.morante.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>xCgUT#6/</t>
+    <t>iexTynq9</t>
   </si>
   <si>
     <t>PARRAGA MOREIRA CINDY ANDREA</t>
@@ -257,7 +257,7 @@
     <t>cindy.parraga.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>T4LQwrc!</t>
+    <t>g6HI94B0</t>
   </si>
   <si>
     <t>PEÑAFIEL VALENCIA JULEISY LISBETH</t>
@@ -269,7 +269,7 @@
     <t>juleisy.penafiel.4623@espam.edu.ec</t>
   </si>
   <si>
-    <t>ZVZ5dan7</t>
+    <t>LqzIFGK/</t>
   </si>
   <si>
     <t>PICO CRIOLLO MILETH KATHERINE</t>
@@ -278,7 +278,7 @@
     <t>mileth.pico.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>Irl7#/5D</t>
+    <t>prY#MPs6</t>
   </si>
   <si>
     <t>RENDON GILER JUNIOR ARIEL</t>
@@ -287,7 +287,7 @@
     <t>junior.rendon@espam.edu.ec</t>
   </si>
   <si>
-    <t>DsqP?gij</t>
+    <t>!2PhTXil</t>
   </si>
   <si>
     <t>SALVATIERRA SANTOS BRYAN ALEJANDRO</t>
@@ -296,7 +296,7 @@
     <t>bryan.salvatierra@espam.edu.ec</t>
   </si>
   <si>
-    <t>52HYrK?V</t>
+    <t>iWQ/Qd7J</t>
   </si>
   <si>
     <t>SOLORZANO LUCAS ALEXANDER JOEL</t>
@@ -308,7 +308,7 @@
     <t>alexander.solorzano.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>TNMUMgPt</t>
+    <t>g9Y1evQC</t>
   </si>
   <si>
     <t>SOLORZANO RODRIGUEZ DAYANA NICOLLE</t>
@@ -317,7 +317,7 @@
     <t>dayanna.solorzano.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>M2?Aryyv</t>
+    <t>/hn8Qpua</t>
   </si>
   <si>
     <t>TENORIO QUINTERO ELY GILMAR</t>
@@ -329,7 +329,7 @@
     <t>ely.tenorio.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>9UmHKPku</t>
+    <t>zxLjid#x</t>
   </si>
   <si>
     <t>VELASQUEZ DOMINGUEZ JORDAN RICARDO</t>
@@ -338,7 +338,7 @@
     <t>jordan.velasquez.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>nodHeI3?</t>
+    <t>2ge3tX0r</t>
   </si>
   <si>
     <t>VILLAVICENCIO SALVADOR MELANIE HELLAIM</t>
@@ -350,7 +350,7 @@
     <t>melanie.villavicencio.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>7kGR6Pl9</t>
+    <t>!x9JS71t</t>
   </si>
   <si>
     <t>ZAMBRANO CEDEÑO ANGELO ALEXANDER</t>
@@ -359,7 +359,7 @@
     <t>angelo.zambrano.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>1MPTlpnw</t>
+    <t>ExP6ezea</t>
   </si>
   <si>
     <t>ZAMBRANO VALENCIA SHIRLEY EDITH</t>
@@ -368,7 +368,7 @@
     <t>shirley.zambrano.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>WGzPOIUT</t>
+    <t>sEQP5?IN</t>
   </si>
   <si>
     <t>ANGEL GOMEZ GILENY NAHOMY</t>
@@ -380,7 +380,7 @@
     <t>gileny.angel.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>vRCnN&amp;&amp;y</t>
+    <t>sO51j9S9</t>
   </si>
   <si>
     <t>BARRE QUIJANO DARWIN JOSE</t>
@@ -389,7 +389,7 @@
     <t>darwin.barre@espam.edu.ec</t>
   </si>
   <si>
-    <t>WcaMxFt9</t>
+    <t>#plUJPqD</t>
   </si>
   <si>
     <t>BRAVO ALVAREZ EMILY JESUS</t>
@@ -398,7 +398,7 @@
     <t>emily.bravo.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>AcD#0gyZ</t>
+    <t>4jfe9dKS</t>
   </si>
   <si>
     <t>CAGUA YOONG NAHOMY JAMILETH</t>
@@ -407,7 +407,7 @@
     <t>nahomy.cagua.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>rJl9OTyL</t>
+    <t>2VKSIK8#</t>
   </si>
   <si>
     <t>CASTILLO CEDEÑO EMILIA MARICELA</t>
@@ -416,7 +416,7 @@
     <t>emilia.castillo.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>fFTqIgiS</t>
+    <t>jdyjGBvm</t>
   </si>
   <si>
     <t>CEDEÑO ZAMBRANO JOSE DANIEL</t>
@@ -425,7 +425,7 @@
     <t>jose.cedenoz.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>H095kcHL</t>
+    <t>0InqPHqS</t>
   </si>
   <si>
     <t>CIFUENTES VELASQUEZ JOSE JAHIR</t>
@@ -434,7 +434,7 @@
     <t>jose.cifuentes.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>KW2xFdyj</t>
+    <t>i3t?&amp;dWf</t>
   </si>
   <si>
     <t>CONFORME CIFUENTES ROBERTH JESUS</t>
@@ -443,7 +443,7 @@
     <t>roberth.conforme.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>y4uP&amp;uUj</t>
+    <t>aipw8PGR</t>
   </si>
   <si>
     <t>CORDERO GILER SALMA PAOLA</t>
@@ -452,7 +452,7 @@
     <t>salma.cordero.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>&amp;8&amp;0CMxK</t>
+    <t>bDJ?B6lQ</t>
   </si>
   <si>
     <t>FARIAS VELIZ RENE OCTAVIO</t>
@@ -461,7 +461,7 @@
     <t>rene.farias.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>p&amp;/#dLtI</t>
+    <t>6&amp;1oKUQg</t>
   </si>
   <si>
     <t>GARCIA DUEÑAS JEAN FERNANDO</t>
@@ -470,7 +470,7 @@
     <t>jean.garcia.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>ch179eZb</t>
+    <t>ezVeLxga</t>
   </si>
   <si>
     <t>HERRERA BASURTO IVIS ANTONELLA</t>
@@ -479,7 +479,7 @@
     <t>ivis.herrera.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>NOfg3XOq</t>
+    <t>4w?VXUvT</t>
   </si>
   <si>
     <t>HIDALGO LOOR MARLYN NALLELY</t>
@@ -488,7 +488,7 @@
     <t>marlyn.hidalgo.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>oCp1?6Vi</t>
+    <t>ggOtm8g1</t>
   </si>
   <si>
     <t>IBARRA CHAVARRIA JUAN DIEGO</t>
@@ -497,7 +497,7 @@
     <t>juan.ibarra.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>tYDLtbI?</t>
+    <t>ApioZ3CX</t>
   </si>
   <si>
     <t>JAYA ZAPATA VICTOR EDUARDO</t>
@@ -506,7 +506,7 @@
     <t>victor.jaya.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>TTd#2QGo</t>
+    <t>iLq2wvUa</t>
   </si>
   <si>
     <t>LOOR DELGADO JERRY JOEL</t>
@@ -515,7 +515,7 @@
     <t>jerry.loor.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>iRfH7En5</t>
+    <t>gcSnG5mT</t>
   </si>
   <si>
     <t>MANTUANO PONCE MELANY MONCERRATE</t>
@@ -524,7 +524,7 @@
     <t>melany.mantuano.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>bhcfAi33</t>
+    <t>XrLapmY9</t>
   </si>
   <si>
     <t>MENDOZA VASQUEZ ARIEL ALEXIS</t>
@@ -536,7 +536,7 @@
     <t>ariel.mendoza.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>7y0/PiGo</t>
+    <t>?tfc9e8T</t>
   </si>
   <si>
     <t>MOREIRA GARCIA MACARIO EMANUEL</t>
@@ -545,7 +545,7 @@
     <t>macario.moreira.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>M9PP7uKQ</t>
+    <t>Z1fetBKl</t>
   </si>
   <si>
     <t>MOREIRA GILCES GABRIELA NIKOL</t>
@@ -554,7 +554,7 @@
     <t>gabriela.moreira.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>AIey#qpL</t>
+    <t>taJw!Ma5</t>
   </si>
   <si>
     <t>NOBOA MONTESDEOCA INGRITH MADELEYN</t>
@@ -563,7 +563,7 @@
     <t>ingrith.noboa.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>cQEthjax</t>
+    <t>&amp;7/Wy7nX</t>
   </si>
   <si>
     <t>ORDOÑEZ ALCIVAR ALEX PAUL</t>
@@ -572,7 +572,7 @@
     <t>alex.ordonez.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>AwE7HesE</t>
+    <t>AHPz!GQR</t>
   </si>
   <si>
     <t>PALMA GARCIA MELYN JARITZA</t>
@@ -581,7 +581,7 @@
     <t>melyn.palma.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>8DzduI8r</t>
+    <t>RiiEpJwZ</t>
   </si>
   <si>
     <t>PAREDES MERO GHISLAINE ANAHI</t>
@@ -590,7 +590,7 @@
     <t>ghislaine.paredes.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>yJ2Zv&amp;Wc</t>
+    <t>3LCXFGlz</t>
   </si>
   <si>
     <t>QUIJIJE PIANDA XIOMARA MISHELLE</t>
@@ -602,7 +602,7 @@
     <t>xiomara.quijije.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>M/clJI21</t>
+    <t>IR1ylfGo</t>
   </si>
   <si>
     <t>SALAVARRIA AVEIGA YULIANA GUADALUPE</t>
@@ -611,7 +611,7 @@
     <t>yuliana.salavarria.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>Bs2omIai</t>
+    <t>TPpNKYqF</t>
   </si>
   <si>
     <t>SANTOS ALCIVAR JAIR SEBASTIAN</t>
@@ -620,7 +620,7 @@
     <t>jair.santos.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>7Wv!!Qp2</t>
+    <t>uAkbrSYO</t>
   </si>
   <si>
     <t>SOLORZANO CANDELA JARITZA NOHEMY</t>
@@ -629,7 +629,7 @@
     <t>jaritza.solorzano.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>OA27zb4M</t>
+    <t>&amp;&amp;e58K71</t>
   </si>
   <si>
     <t>VERA CEBALLOS MARIA CONCEPCION</t>
@@ -638,7 +638,7 @@
     <t>maria.vera.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>PstFd1Mh</t>
+    <t>F9#JrR6l</t>
   </si>
   <si>
     <t>ALAVA MUÑOZ BILL JARVI</t>
@@ -647,7 +647,7 @@
     <t>bill.alava.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>Q8ySTGkF</t>
+    <t>/vNvEfoZ</t>
   </si>
   <si>
     <t>ALCIVAR ZAMBRANO ESTHER JOMARA</t>
@@ -656,7 +656,7 @@
     <t>esther.alcivar.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>hqSS4uM0</t>
+    <t>FsrI1YrF</t>
   </si>
   <si>
     <t>ALMEIDA LOOR MARIA VICTORIA</t>
@@ -665,7 +665,7 @@
     <t>maria.almeida.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>Fw4d1xZN</t>
+    <t>uRrTG31Q</t>
   </si>
   <si>
     <t>ANDRADE VILLAVICENCIO PABLO HUGO</t>
@@ -674,7 +674,7 @@
     <t>pablo.andrade.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>ZfWHrF8n</t>
+    <t>!Q&amp;4jTO8</t>
   </si>
   <si>
     <t>AVENDAÑO YZQUIERDO ADRIANA ISABEL</t>
@@ -686,7 +686,7 @@
     <t>adriana.avendano.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>JIL2I?2s</t>
+    <t>nVrirrEr</t>
   </si>
   <si>
     <t>BALUARTE PARRAGA MAYERLY NARCISA</t>
@@ -698,7 +698,7 @@
     <t>mayerly.baluarte.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>0dzOjRrd</t>
+    <t>IZ7hG8YD</t>
   </si>
   <si>
     <t>BARRE CASTAÑEDA MAYERLI SOLANGE</t>
@@ -710,7 +710,7 @@
     <t>mayerli.barre.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>lRnb3JG2</t>
+    <t>X?TAKyWM</t>
   </si>
   <si>
     <t>BERMEO MENDOZA LESLY JULIETT</t>
@@ -719,7 +719,7 @@
     <t>lesly.bermeo.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>UTUmfKkL</t>
+    <t>1jmElz2o</t>
   </si>
   <si>
     <t>BRAVO ZAMBRANO DANA KATIUSKA</t>
@@ -728,7 +728,7 @@
     <t>dana.bravo.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>CizY8a9k</t>
+    <t>clVKre6v</t>
   </si>
   <si>
     <t>CEDEÑO ALVARADO JORGE LUIS</t>
@@ -737,7 +737,7 @@
     <t>jorge.cedeno.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>pJtscjCF</t>
+    <t>!EnYv?Ao</t>
   </si>
   <si>
     <t>DOMINGUEZ ANGEL ANAIS ZULEYMA</t>
@@ -749,7 +749,7 @@
     <t>anais.dominguez.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>sxbCpXel</t>
+    <t>wNrTvjdK</t>
   </si>
   <si>
     <t>ESPARZA TELLO ERICKA MARIA</t>
@@ -761,7 +761,7 @@
     <t>ericka.esparza.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>c?yG9VAB</t>
+    <t>Z78#dqS/</t>
   </si>
   <si>
     <t>GRAIN MARCILLO MICHAEL JOSUE</t>
@@ -770,7 +770,7 @@
     <t>michael.grain.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>&amp;j3o46n&amp;</t>
+    <t>UfxD8pkZ</t>
   </si>
   <si>
     <t>JAMA ZAMBRANO ROBERTH XAVIER</t>
@@ -779,7 +779,7 @@
     <t>roberth.jama@espam.edu.ec</t>
   </si>
   <si>
-    <t>smzitlO#</t>
+    <t>I0BmgqZY</t>
   </si>
   <si>
     <t>LARA BONE ANGIE NICOLE</t>
@@ -791,7 +791,7 @@
     <t>angie.lara.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>x0t0voOZ</t>
+    <t>q!CC7arJ</t>
   </si>
   <si>
     <t>LOPEZ DELGADO DAYANA NICOLLE</t>
@@ -800,7 +800,7 @@
     <t>dayana.lopez.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>FqiwFgfI</t>
+    <t>tdp5wprS</t>
   </si>
   <si>
     <t>MELO CENTENO HELEN SOFIA</t>
@@ -809,7 +809,7 @@
     <t>helen.melo.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>fi&amp;F0z5c</t>
+    <t>G67eE/uv</t>
   </si>
   <si>
     <t>MENDOZA ORTEGA ANGELO DANIEL</t>
@@ -818,7 +818,7 @@
     <t>angelo.mendoza.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>G39#Nf?4</t>
+    <t>SP7vmaij</t>
   </si>
   <si>
     <t>MERO CARRILLO EMELY MILENA</t>
@@ -827,7 +827,7 @@
     <t>emely.mero.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>ruhYR8zx</t>
+    <t>hczOz/?a</t>
   </si>
   <si>
     <t>MITE MENENDEZ GEORGE ISAAC</t>
@@ -836,7 +836,7 @@
     <t>george.mite.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>bglMl612</t>
+    <t>hv!XE0o9</t>
   </si>
   <si>
     <t>MONCAYO CAGUA LADY NOHELIA</t>
@@ -845,7 +845,7 @@
     <t>lady.moncayo.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>D79ePRre</t>
+    <t>sWmsZiN8</t>
   </si>
   <si>
     <t>ORMAZA ALCIVAR NOHELIA MILENA</t>
@@ -854,7 +854,7 @@
     <t>nohelia.ormaza.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>zze&amp;964#</t>
+    <t>t2aFF893</t>
   </si>
   <si>
     <t>PANTA CANDELA YONNY ALEXANDER</t>
@@ -863,7 +863,7 @@
     <t>jonny.panta.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>3ZQnUw9u</t>
+    <t>bpANiJRA</t>
   </si>
   <si>
     <t>QUINATOA SIMALIZA YAJAIRA NICOLE</t>
@@ -872,7 +872,7 @@
     <t>yajaira.quinatoa.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>RpD!DZch</t>
+    <t>pV4TSzoC</t>
   </si>
   <si>
     <t>REYNA RAMIREZ SINDY MAHOLY</t>
@@ -881,7 +881,7 @@
     <t>sindy.reyna.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>#9jXG9hi</t>
+    <t>G1KzXYOT</t>
   </si>
   <si>
     <t>RODRIGUEZ ANCHUNDIA LUIS FERNANDO</t>
@@ -890,7 +890,7 @@
     <t>luis.rodriguez.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>UaobGrCN</t>
+    <t>L8fQwQIR</t>
   </si>
   <si>
     <t>SABANDO TUAREZ MILENA BLANCA</t>
@@ -899,7 +899,7 @@
     <t>milena.sabando.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>sB4bFIOq</t>
+    <t>Fy1pgmd3</t>
   </si>
   <si>
     <t>SALAZAR RAMIREZ YARITZA GABRIELA</t>
@@ -908,7 +908,7 @@
     <t>yaritza.salazar.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>PmX5GJ41</t>
+    <t>Zt&amp;ctIjo</t>
   </si>
   <si>
     <t>SHIGUANGO AGUINDA KATTY MIRELLA</t>
@@ -917,7 +917,7 @@
     <t>katty.shiguango.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>zAsg09r#</t>
+    <t>9QaMDL2r</t>
   </si>
   <si>
     <t>VACA MORALES JOSE EDUARDO</t>
@@ -926,7 +926,7 @@
     <t>jose.vaca.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>I2I44LPN</t>
+    <t>rngCo0nS</t>
   </si>
   <si>
     <t>VELASQUEZ MEJIA ARIANNA ELIZABETH</t>
@@ -935,7 +935,7 @@
     <t>arianna.velasquez.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>i?09#IpN</t>
+    <t>pVDva1Qb</t>
   </si>
   <si>
     <t>VELEZ CEDEÑO YANDRY ALAIN</t>
@@ -944,7 +944,7 @@
     <t>yandry.velez.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>zg3m3?1g</t>
+    <t>acK9T&amp;Uc</t>
   </si>
   <si>
     <t>VERA ZAMORA DIXON YAIR</t>
@@ -953,7 +953,7 @@
     <t>dixon.vera.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>FybI2OQo</t>
+    <t>jAtfmWIg</t>
   </si>
   <si>
     <t>ZAMBRANO FORTIS RICARDO MIGUEL</t>
@@ -962,7 +962,7 @@
     <t>ricardo.zambrano.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>v0g5HMLb</t>
+    <t>5DifwVrS</t>
   </si>
   <si>
     <t>ALVARADO DUEÑAS KARELYS VANESSA</t>
@@ -971,7 +971,7 @@
     <t>karelys.alvarado.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>k!WsKR5L</t>
+    <t>IemCoGzQ</t>
   </si>
   <si>
     <t>ANDRADE ILES ALVIERY JAHIR</t>
@@ -983,7 +983,7 @@
     <t>alviery.andrade.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>FAuxz7nU</t>
+    <t>cC7PWJk3</t>
   </si>
   <si>
     <t>ARTEAGA RAMOS DIEGO ALEJANDRO</t>
@@ -992,7 +992,7 @@
     <t>diego.arteaga.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>?nwNAMXx</t>
+    <t>NpwYvLUd</t>
   </si>
   <si>
     <t>BARREIRO INTRIAGO STEFANY PIERINA</t>
@@ -1001,7 +1001,7 @@
     <t>stefany.barreiro.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>8aqECHyH</t>
+    <t>bXFloR0l</t>
   </si>
   <si>
     <t>BRAVO QUINTERO SARA NICOLE</t>
@@ -1013,7 +1013,7 @@
     <t>sara.bravo.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>YgKj/c1a</t>
+    <t>NarcLCcq</t>
   </si>
   <si>
     <t>CABALLERO MUÑOZ STEVEN FABRICIO</t>
@@ -1022,7 +1022,7 @@
     <t>steven.caballero.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>mf93LatA</t>
+    <t>pWzMNid0</t>
   </si>
   <si>
     <t>CARRASCO VERA LUCAS JOSUE</t>
@@ -1031,7 +1031,7 @@
     <t>lucas.carrasco.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>BpfB3cdZ</t>
+    <t>cwO#WL6U</t>
   </si>
   <si>
     <t>CEDEÑO MURILLO KENNER STEVEN</t>
@@ -1040,7 +1040,7 @@
     <t>kenner.cedeno.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>SCYCLzc4</t>
+    <t>9MO9?908</t>
   </si>
   <si>
     <t>CUERO PAZMIÑO EMMANUEL JOSUE</t>
@@ -1049,7 +1049,7 @@
     <t>emmanuel.cuero.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>JFYz!1X/</t>
+    <t>AqXpus3C</t>
   </si>
   <si>
     <t>LADINES CASTRO MIRKA DARLISHA</t>
@@ -1061,7 +1061,7 @@
     <t>mirka.ladines.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>39u22VSs</t>
+    <t>#fl!eUw&amp;</t>
   </si>
   <si>
     <t>LARA FRANCO MICHAEL ARGEL</t>
@@ -1073,7 +1073,7 @@
     <t>michael.lara.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>jwH/VXDU</t>
+    <t>t9?Eck19</t>
   </si>
   <si>
     <t>LEYTHON QUIÑONEZ JEIMY SILVANA</t>
@@ -1085,7 +1085,7 @@
     <t>jeimy.leython.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>loAfh6Y9</t>
+    <t>TXtBS5uz</t>
   </si>
   <si>
     <t>LOOR LOOR GENESIS DANIELA</t>
@@ -1094,7 +1094,7 @@
     <t>genesis.loor.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>83cPMo2A</t>
+    <t>9JFgD?Vr</t>
   </si>
   <si>
     <t>MATAMBA GUANGA THALIA VALERIA</t>
@@ -1106,7 +1106,7 @@
     <t>thalia.matamba.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>XZLbBneY</t>
+    <t>PNf57uqQ</t>
   </si>
   <si>
     <t>MENDOZA DE LA CRUZ MARTHA DANIELA</t>
@@ -1115,7 +1115,7 @@
     <t>martha.mendoza.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>Z5d!Ilbx</t>
+    <t>At9qiiFr</t>
   </si>
   <si>
     <t>MINOTA BORJA ALEXANDER JAHIR</t>
@@ -1127,7 +1127,7 @@
     <t>alexander.minota.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>IJsiLzfq</t>
+    <t>Y9rZ4yVe</t>
   </si>
   <si>
     <t>NAVIA LOOR JOSE EFRAIN</t>
@@ -1136,7 +1136,7 @@
     <t>jose.navia.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>drgZZpt4</t>
+    <t>Pdj224?k</t>
   </si>
   <si>
     <t>PILATAXI UTRERAS KATHERIN JULIETH</t>
@@ -1145,7 +1145,7 @@
     <t>katherin.pilataxi.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>z1snOG85</t>
+    <t>mixo&amp;/?y</t>
   </si>
   <si>
     <t>PINARGOTE CARREÑO FELIX JOEL</t>
@@ -1154,7 +1154,7 @@
     <t>felix.pinargote.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>pFL5PMfV</t>
+    <t>#?EH4Qo3</t>
   </si>
   <si>
     <t>PONCE ZAMBRANO ARIANA JESSENIA</t>
@@ -1163,7 +1163,7 @@
     <t>ariana.ponce.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>#?3Usksi</t>
+    <t>2Medbw4H</t>
   </si>
   <si>
     <t>QUINATOA SIMALIZA KELLY MARIUXI</t>
@@ -1172,7 +1172,7 @@
     <t>kelly.quinatoa.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>HhcqNC7#</t>
+    <t>gAhtGziX</t>
   </si>
   <si>
     <t>ROSADO ROSADO JOEL JESUS</t>
@@ -1181,7 +1181,7 @@
     <t>joel.rosado.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>oYbqgNJu</t>
+    <t>gln/BDXB</t>
   </si>
   <si>
     <t>SANMARTIN TAPIA CARMEN EDITH</t>
@@ -1190,7 +1190,7 @@
     <t>carmen.sanmartin.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>s?hhrFo0</t>
+    <t>i6R2ADnW</t>
   </si>
   <si>
     <t>SAYAY DAGUA JOSELYN NICOL</t>
@@ -1202,7 +1202,7 @@
     <t>joselyn.sayay.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>wlHQ&amp;v2m</t>
+    <t>vW6IIP/1</t>
   </si>
   <si>
     <t>SOLORZANO PAZMIÑO DECCY DANIELA</t>
@@ -1211,7 +1211,7 @@
     <t>deccy.solorzano.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>kgYxxkwL</t>
+    <t>eJxcRPvA</t>
   </si>
   <si>
     <t>VERGARA ZAMBRANO MATIAS ALEXANDER</t>
@@ -1220,7 +1220,7 @@
     <t>matias.vergara.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>DZVnte0k</t>
+    <t>rBT4OOt5</t>
   </si>
   <si>
     <t>ZAMBRANO INTRIAGO FRAYDA JESSENIA</t>
@@ -1229,7 +1229,7 @@
     <t>frayda.zambrano.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>grYmvxmm</t>
+    <t>PvzEeREd</t>
   </si>
   <si>
     <t>ZAMBRANO VALAREZO ANDREA LISBETH</t>
@@ -1238,7 +1238,7 @@
     <t>andrea.zambrano.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>u/Nj8wxG</t>
+    <t>aDy/43#J</t>
   </si>
   <si>
     <t>AGUAS MARTINEZ KEVIN SNAIDER</t>
@@ -1247,7 +1247,7 @@
     <t>kevin.aguas@espam.edu.ec</t>
   </si>
   <si>
-    <t>W8i&amp;mIgL</t>
+    <t>tOF12jSK</t>
   </si>
   <si>
     <t>ANDRADE GARCIA LUZ CRUCELINA</t>
@@ -1256,7 +1256,7 @@
     <t>luz.andrade.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>eeyng6L/</t>
+    <t>7?C1SFEq</t>
   </si>
   <si>
     <t>BARBERAN MERO HELEN ADRIANA</t>
@@ -1265,7 +1265,7 @@
     <t>helen.barberan.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>3qpOfc60</t>
+    <t>w!hPvc1j</t>
   </si>
   <si>
     <t>BARROS ZAMBRANO DANIEL ANGEL</t>
@@ -1274,7 +1274,7 @@
     <t>daniel.barros.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>Ip003IHF</t>
+    <t>d1XYGu/&amp;</t>
   </si>
   <si>
     <t>BASURTO ZAMBRANO CARLOS RAUL</t>
@@ -1283,7 +1283,7 @@
     <t>carlos.basurto.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>#yV8UFQ6</t>
+    <t>/aDu6LmL</t>
   </si>
   <si>
     <t>BRAVO BRAVO ANTHONY ADEMIR</t>
@@ -1292,7 +1292,7 @@
     <t>anthony.bravo.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>YVagFYzT</t>
+    <t>9VwKq048</t>
   </si>
   <si>
     <t>CANTOS VERA ANGELA AUXILIADORA</t>
@@ -1301,7 +1301,7 @@
     <t>angela.cantos.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>4JG#dgwp</t>
+    <t>8nGqeiCV</t>
   </si>
   <si>
     <t>CASTRO BOLAÑO FANNY TATIANA</t>
@@ -1310,7 +1310,7 @@
     <t>fanny.castro.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>DsJLSQUh</t>
+    <t>7Q/3YsLv</t>
   </si>
   <si>
     <t>CASTRO SALTOS MATTEWS FARID</t>
@@ -1319,7 +1319,7 @@
     <t>mattews.castro.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>mDWo6A67</t>
+    <t>U1lKXz0l</t>
   </si>
   <si>
     <t>CHANCAY RADE ANTONY GABRIEL</t>
@@ -1328,7 +1328,7 @@
     <t>antony.chancay@espam.edu.ec</t>
   </si>
   <si>
-    <t>lR/QO2&amp;1</t>
+    <t>HkHZLEey</t>
   </si>
   <si>
     <t>COBEÑA GARCIA YOMAYRA ALEXANDRA</t>
@@ -1337,7 +1337,7 @@
     <t>yomayra.cobena.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>2jepQb#v</t>
+    <t>s1!ed6Gj</t>
   </si>
   <si>
     <t>CRUZ ERAZO JOSE MIGUEL</t>
@@ -1346,7 +1346,7 @@
     <t>jose.cruz.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>KYNJinNI</t>
+    <t>lvOiRRKN</t>
   </si>
   <si>
     <t>GARCIA ANDRADE MARIA ROSA</t>
@@ -1355,7 +1355,7 @@
     <t>maria.garcia.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>qvEgI3QH</t>
+    <t>QsEMXy2d</t>
   </si>
   <si>
     <t>HERNANDEZ LOPEZ LUIS DAVID</t>
@@ -1364,7 +1364,7 @@
     <t>luis.hernandez.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>Zl3#NFYQ</t>
+    <t>R2ucEWnL</t>
   </si>
   <si>
     <t>LEON FUENTES JONATHAN ALBINO</t>
@@ -1376,7 +1376,7 @@
     <t>jonathan.leon.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>JhB7o&amp;gP</t>
+    <t>z/d#WW9p</t>
   </si>
   <si>
     <t>MACIAS ANCHUNDIA ROBERTO CARLOS</t>
@@ -1385,7 +1385,7 @@
     <t>roberto.macias.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>0kI!3xw7</t>
+    <t>iXssLqKd</t>
   </si>
   <si>
     <t>MAZA AGREDA KAREN IBETH</t>
@@ -1394,7 +1394,7 @@
     <t>karen.maza.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>oI#elq#g</t>
+    <t>Xfsvg&amp;4V</t>
   </si>
   <si>
     <t>MUÑOZ MERA LITZY ALEJANDRA</t>
@@ -1403,7 +1403,7 @@
     <t>litzy.munoz.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>Qo?rWy3d</t>
+    <t>vBydWsdL</t>
   </si>
   <si>
     <t>MUÑOZ MOLINA ANDRY FABIAN</t>
@@ -1412,7 +1412,7 @@
     <t>andry.munoz.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>A4J&amp;MDcV</t>
+    <t>9ViMNxKa</t>
   </si>
   <si>
     <t>ORMAZA VALENCIA KEVIN JAVIER</t>
@@ -1424,7 +1424,7 @@
     <t>kevin.ormaza.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>2uBVjScc</t>
+    <t>jN1vGoXx</t>
   </si>
   <si>
     <t>PAZMIÑO PINCAY NAYELLY AGUSTINA</t>
@@ -1433,7 +1433,7 @@
     <t>nayelly.pazmino.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>o5kGZkF7</t>
+    <t>?lJ9BC3y</t>
   </si>
   <si>
     <t>POZO PONCE DANNY IVAN</t>
@@ -1442,7 +1442,7 @@
     <t>danny.pozo@espam.edu.ec</t>
   </si>
   <si>
-    <t>yQssEjnF</t>
+    <t>75mBJmB6</t>
   </si>
   <si>
     <t>QUIJANO MEZA MARIANA LISETH</t>
@@ -1451,7 +1451,7 @@
     <t>mariana.quijano.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>MQAGCMbV</t>
+    <t>PN#HKSI1</t>
   </si>
   <si>
     <t>QUIÑONEZ AÑAPA RODRIGO MANUEL</t>
@@ -1463,7 +1463,7 @@
     <t>rodrigo.quinonez.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>JNNG0zyY</t>
+    <t>iF/VuoUu</t>
   </si>
   <si>
     <t>SANTOS ALCIVAR KELVIN YOEL</t>
@@ -1472,7 +1472,7 @@
     <t>kelvin.santos.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>QSem5i&amp;X</t>
+    <t>L7XB6Q!3</t>
   </si>
   <si>
     <t>SOLORZANO RODRIGUEZ SANDY</t>
@@ -1481,7 +1481,7 @@
     <t>sandy.solorzano.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>f1Np3JN/</t>
+    <t>kcmcAj#P</t>
   </si>
   <si>
     <t>TOALA PIN ARIEL ALEJANDRO</t>
@@ -1493,7 +1493,7 @@
     <t>ariel.toala.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>yKScYKfb</t>
+    <t>m?!lC&amp;Yl</t>
   </si>
   <si>
     <t>VEGA INTRIAGO MIGUEL ANGEL</t>
@@ -1502,7 +1502,7 @@
     <t>miguel.vega.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>rY&amp;ImCr6</t>
+    <t>ZxtXgpBO</t>
   </si>
   <si>
     <t>VELASQUEZ RODRIGUEZ GEMA BELEN</t>
@@ -1511,7 +1511,7 @@
     <t>gema.velasquez.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>er!hTmOD</t>
+    <t>owx5xd/d</t>
   </si>
   <si>
     <t>VERA MENDOZA MARIA VICTORIA</t>
@@ -1520,7 +1520,7 @@
     <t>maria.veram.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>?QaBaHWy</t>
+    <t>&amp;!gVIkga</t>
   </si>
   <si>
     <t>VERA PALACIOS JORDANO SAUL</t>
@@ -1529,7 +1529,7 @@
     <t>jordano.vera.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>nMb&amp;l70G</t>
+    <t>j0zMGZmy</t>
   </si>
   <si>
     <t>ZAMBRANO MERA VALENTINA MONSERRATE</t>
@@ -1538,7 +1538,7 @@
     <t>valentina.zambrano.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>E&amp;ufpBPu</t>
+    <t>?vVmIc0g</t>
   </si>
   <si>
     <t>ZAMBRANO QUIMI JUAN GEORGE</t>
@@ -1550,7 +1550,7 @@
     <t>juan.zambrano.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>5hVJVhCP</t>
+    <t>xkr3OJN7</t>
   </si>
   <si>
     <t>ALCIVAR ZAMBRANO GEOMAYRA KATHERINE</t>
@@ -1562,7 +1562,7 @@
     <t>geomayra.alcivar.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>5GHepQUX</t>
+    <t>HtbqmFQr</t>
   </si>
   <si>
     <t>ANDRADE CASTILLO CLAUDIA VICTORIA</t>
@@ -1571,7 +1571,7 @@
     <t>claudia.andrade.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>3DcXDoju</t>
+    <t>WKpDaFjQ</t>
   </si>
   <si>
     <t>ANGUISACA CUENCA ALEXANDRA CECIBEL</t>
@@ -1580,7 +1580,7 @@
     <t>alexandra.anguisaca.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>moI316wQ</t>
+    <t>fNJBGaRJ</t>
   </si>
   <si>
     <t>BARIAS GUARACA LESLY NAYHELY</t>
@@ -1589,7 +1589,7 @@
     <t>lesly.barias.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>SBtR3j4U</t>
+    <t>ipb8!Qk3</t>
   </si>
   <si>
     <t>BARROS VERA ANGEL DAVID</t>
@@ -1598,7 +1598,7 @@
     <t>angel.barros.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>XYr?3XfD</t>
+    <t>do9ePTaI</t>
   </si>
   <si>
     <t>BAZURTO SANTOS KENNIA KATHERINE</t>
@@ -1607,7 +1607,7 @@
     <t>kennia.bazurto.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>2Wk#ACqQ</t>
+    <t>L97h8upH</t>
   </si>
   <si>
     <t>BRAVO BAZURTO GISSELA MARIA</t>
@@ -1616,7 +1616,7 @@
     <t>gissela.bravo.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>fGi1MEYM</t>
+    <t>KN7q!/sJ</t>
   </si>
   <si>
     <t>BUSTAMANTE YANEZ ANTHONY MICHEL</t>
@@ -1625,7 +1625,7 @@
     <t>anthony.bustamante.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>SDU&amp;B/jz</t>
+    <t>BOSV#tEt</t>
   </si>
   <si>
     <t>CASTRO SOLORZANO NIURKA JULIANA</t>
@@ -1634,7 +1634,7 @@
     <t>niurka.castro.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>dwzjPDdm</t>
+    <t>Nj5D4XSQ</t>
   </si>
   <si>
     <t>CEDEÑO CEDEÑO YOHANA VANESA</t>
@@ -1643,7 +1643,7 @@
     <t>yohana.cedeno.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>Kdl6cDW9</t>
+    <t>6u7SkgB7</t>
   </si>
   <si>
     <t>CEDEÑO INTRIAGO JEAN PIERRE</t>
@@ -1652,7 +1652,7 @@
     <t>jean.cedeno@espam.edu.ec</t>
   </si>
   <si>
-    <t>7ZkCa45n</t>
+    <t>OHp1XU0H</t>
   </si>
   <si>
     <t>DELGADO CEVALLOS MARIA JOSE</t>
@@ -1661,7 +1661,7 @@
     <t>maria.delgado.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>kgjV8t/U</t>
+    <t>l2yUqy4p</t>
   </si>
   <si>
     <t>ERAZO MORALES GABRIELA ALEJANDRA</t>
@@ -1670,7 +1670,7 @@
     <t>gabriela.erazo.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>9kBWYF9I</t>
+    <t>5TkqFXWa</t>
   </si>
   <si>
     <t>INTRIAGO ZAMBRANO LUIS JOSE</t>
@@ -1679,7 +1679,7 @@
     <t>luis.intriagoz.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>83AyyRhI</t>
+    <t>EFNQh5Dm</t>
   </si>
   <si>
     <t>LOOR ORTIZ YORDY DAVID</t>
@@ -1688,7 +1688,7 @@
     <t>yordy.loor.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>9HjVOJvk</t>
+    <t>pCbWtBQ5</t>
   </si>
   <si>
     <t>LOZANO GAMEZ THALIA VANESSA</t>
@@ -1700,7 +1700,7 @@
     <t>thalia.lozano.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>Mx/LiS!w</t>
+    <t>g&amp;ZUB#cv</t>
   </si>
   <si>
     <t>MONTES RODRIGUEZ ROLANDO ANTONIO</t>
@@ -1709,7 +1709,7 @@
     <t>rolando.montes.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>mWqHd63c</t>
+    <t>Lun2sJy9</t>
   </si>
   <si>
     <t>PALMA RENDON ARGENIS ARTURO</t>
@@ -1718,7 +1718,7 @@
     <t>argenis.palma@espam.edu.ec</t>
   </si>
   <si>
-    <t>rafRa05O</t>
+    <t>l2skmBKU</t>
   </si>
   <si>
     <t>PAREDES YUMBILLO KATTY MARGOTH</t>
@@ -1730,7 +1730,7 @@
     <t>katty.paredes.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>XQAsovqT</t>
+    <t>aS4d/vOj</t>
   </si>
   <si>
     <t>PARRALES DELGADO ALAN SEBASTIAN</t>
@@ -1739,7 +1739,7 @@
     <t>alan.parrales.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>fBvdyEQz</t>
+    <t>NVHEU#v7</t>
   </si>
   <si>
     <t>PATA CEDEÑO ROSA JUANA</t>
@@ -1751,7 +1751,7 @@
     <t>rosa.pata.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>VSGYN4Kg</t>
+    <t>zb&amp;LFMN3</t>
   </si>
   <si>
     <t>RETETE BASARAN KEVIN ALEXANDER</t>
@@ -1760,7 +1760,7 @@
     <t>kevin.retete.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>HweFFfk8</t>
+    <t>F9V62Qf8</t>
   </si>
   <si>
     <t>ROMAN MACIAS ESTEFANIA ISABEL</t>
@@ -1769,7 +1769,7 @@
     <t>estefania.roman.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>!27Q05iX</t>
+    <t>/&amp;Q?Zivu</t>
   </si>
   <si>
     <t>SANDOVAL UREÑA FERNANDA DAYANARA</t>
@@ -1781,7 +1781,7 @@
     <t>fernanda.sandoval.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>YsUwMHB0</t>
+    <t>rM9LLLht</t>
   </si>
   <si>
     <t>SUBIAGA RAMOS LUIS ALEJANDRO</t>
@@ -1790,7 +1790,7 @@
     <t>luis.subiaga.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>tdG0zOl3</t>
+    <t>zoZINYLC</t>
   </si>
   <si>
     <t>VELASQUEZ AVEIGA MARIA JESUS</t>
@@ -1799,7 +1799,7 @@
     <t>maria.velasquez.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>E6va!f1h</t>
+    <t>!g7hv4xn</t>
   </si>
   <si>
     <t>VELEZ CHEME JORDAN ESTEBAN</t>
@@ -1811,7 +1811,7 @@
     <t>jordan.velez.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>dO/2c#/j</t>
+    <t>opR4Z!98</t>
   </si>
   <si>
     <t>VELEZ MENDOZA DARWIN ALEXIS</t>
@@ -1820,7 +1820,7 @@
     <t>darwin.velez.4623@espam.edu.ec</t>
   </si>
   <si>
-    <t>KYQhXxKo</t>
+    <t>MdgZneN9</t>
   </si>
   <si>
     <t>VERA BARRE RONNY ARISTIDES</t>
@@ -1829,7 +1829,7 @@
     <t>ronny.vera.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>T3AKeqxS</t>
+    <t>xOKCKmxb</t>
   </si>
   <si>
     <t>ZAMBRANO MACIAS DIEGO ANDRES</t>
@@ -1838,7 +1838,7 @@
     <t>diego.zambrano.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>LD2WX5Gh</t>
+    <t>Zd&amp;cH#C#</t>
   </si>
   <si>
     <t>ZAMBRANO REYNA YERSY ENRIQUE</t>
@@ -1847,7 +1847,7 @@
     <t>yersy.zambrano.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>rv1R1zEk</t>
+    <t>ut4OSe?4</t>
   </si>
   <si>
     <t>CARDENAS MIELES CRISTHYAN ALBERTO</t>
@@ -1856,7 +1856,7 @@
     <t>cristhyan.cardenas.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>/lE/Zj3a</t>
+    <t>!F?&amp;pXPm</t>
   </si>
   <si>
     <t>CASTRO CARRERA JUAN CARLOS</t>
@@ -1865,7 +1865,7 @@
     <t>juan.castro.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>kONbiCKA</t>
+    <t>qKg0mTih</t>
   </si>
   <si>
     <t>CHAVEZ MIRANDA ANTHONY MIGUEL</t>
@@ -1874,7 +1874,7 @@
     <t>anthony.chavez@espam.edu.ec</t>
   </si>
   <si>
-    <t>eEiS#O13</t>
+    <t>BXUGtTwO</t>
   </si>
   <si>
     <t>CUSME ZAMBRANO MICHAEL RICHARD</t>
@@ -1883,7 +1883,7 @@
     <t>michael.cusme.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>Sv6r1YM6</t>
+    <t>zNe3yQ0h</t>
   </si>
   <si>
     <t>GILER SALAZAR CARLOS IGNACIO</t>
@@ -1892,7 +1892,7 @@
     <t>carlos.giler@espam.edu.ec</t>
   </si>
   <si>
-    <t>Z2K8zZcW</t>
+    <t>4UOi4Vid</t>
   </si>
   <si>
     <t>HERNANDEZ DIAZ MARIA JOSE</t>
@@ -1904,7 +1904,7 @@
     <t>maria.hernandez.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>e3CGfgp!</t>
+    <t>9QCT79ro</t>
   </si>
   <si>
     <t>HIDALGO MOREIRA ESTELA NATHALY</t>
@@ -1913,7 +1913,7 @@
     <t>estela.hidalgo.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>kpKZWb3?</t>
+    <t>ksGLJQip</t>
   </si>
   <si>
     <t>HIDALGO MOREIRA PIERINA NATHALY</t>
@@ -1922,7 +1922,7 @@
     <t>pierina.hidalgo.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>2YfN3c4J</t>
+    <t>JEWZrFWZ</t>
   </si>
   <si>
     <t>LARA QUIJIJE PAMELA JULISSA</t>
@@ -1931,7 +1931,7 @@
     <t>pamela.lara.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>1QgS89Si</t>
+    <t>bxnhniGK</t>
   </si>
   <si>
     <t>LOOR PITIZACA FRANK ALLAN</t>
@@ -1940,7 +1940,7 @@
     <t>frank.loor.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>eCrWAfHb</t>
+    <t>#UgsINej</t>
   </si>
   <si>
     <t>LOOR ZAMBRANO GEMA STEFANIA</t>
@@ -1949,7 +1949,7 @@
     <t>gema.loor.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>cY5uZ3pY</t>
+    <t>ej29T05#</t>
   </si>
   <si>
     <t>PALACIOS TAPIA CESAR XAVIER</t>
@@ -1958,7 +1958,7 @@
     <t>cesar.palacios.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>hODZcy8z</t>
+    <t>6suz2wi0</t>
   </si>
   <si>
     <t>PEÑARRETA LANCHE PILAR MICAELA</t>
@@ -1967,7 +1967,7 @@
     <t>pilar.penarreta.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>bW7pXcNa</t>
+    <t>j3laRO&amp;v</t>
   </si>
   <si>
     <t>PILLASAGUA PINARGOTE INGRID MAYERLI</t>
@@ -1979,7 +1979,7 @@
     <t>ingrid.pillasagua.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>/yY?hGJR</t>
+    <t>j5UlTYdf</t>
   </si>
   <si>
     <t>QUIJIJE CEDEÑO GEMA LISBETH</t>
@@ -1988,7 +1988,7 @@
     <t>gema.quijije.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>jwA&amp;lHTO</t>
+    <t>qpXDdNaA</t>
   </si>
   <si>
     <t>RUIZ ZAMBRANO VICTOR ANDRES</t>
@@ -1997,7 +1997,7 @@
     <t>victor.ruiz.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>iueGnfAn</t>
+    <t>IC3Qe4/9</t>
   </si>
   <si>
     <t>SALTOS SALAZAR MAYERLY VERONICA</t>
@@ -2009,7 +2009,7 @@
     <t>mayerly.saltos.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>j?DcFZ7g</t>
+    <t>fF0tyvU!</t>
   </si>
   <si>
     <t>SANTANA PALOMINO FRANKLIN JOHAO</t>
@@ -2018,7 +2018,7 @@
     <t>franklin.santana.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>f0ivVjlX</t>
+    <t>jfnF8#4G</t>
   </si>
   <si>
     <t>TAFFUR TOASA OLGA MARIA</t>
@@ -2027,7 +2027,7 @@
     <t>olga.taffur@espam.edu.ec</t>
   </si>
   <si>
-    <t>JecTsKqp</t>
+    <t>vhiw1eCb</t>
   </si>
   <si>
     <t>TOALA MACAY JOSSELYN VALERIA</t>
@@ -2036,7 +2036,7 @@
     <t>josselyn.toala.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>MN1FV/P2</t>
+    <t>flKG/SBk</t>
   </si>
   <si>
     <t>VALLADARES ALCIVAR LUIS EDUARDO</t>
@@ -2045,7 +2045,7 @@
     <t>luis.valladares@espam.edu.ec</t>
   </si>
   <si>
-    <t>juBX3gqw</t>
+    <t>Y39svHsM</t>
   </si>
   <si>
     <t>VERA ZAMBRANO HILTER JOSSBEL</t>
@@ -2054,7 +2054,7 @@
     <t>hilter.vera.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>/6N03gCU</t>
+    <t>4Hxohtgt</t>
   </si>
   <si>
     <t>VERGARA TABOADA ROMEL ALEXANDER</t>
@@ -2063,7 +2063,7 @@
     <t>romel.vergara@espam.edu.ec</t>
   </si>
   <si>
-    <t>8pHjy/rr</t>
+    <t>7?evfeVZ</t>
   </si>
   <si>
     <t>ZAMBRANO RIVAS NALLELY LISBETH</t>
@@ -2072,7 +2072,7 @@
     <t>nallely.zambrano.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>kg?6ZU1#</t>
+    <t>N6955FU&amp;</t>
   </si>
   <si>
     <t>ABAD MIRANDA KENYA ESTEFANIA</t>
@@ -2084,7 +2084,7 @@
     <t>kenya.abad.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>KjgNftul</t>
+    <t>EAsd39H/</t>
   </si>
   <si>
     <t>ALAVA MORENO MILTON ANTERO</t>
@@ -2093,7 +2093,7 @@
     <t>milton.alava@espam.edu.ec</t>
   </si>
   <si>
-    <t>64v?wQBq</t>
+    <t>m4Kr#XlH</t>
   </si>
   <si>
     <t>ALMEIDA CEDEÑO CINDY BELEN</t>
@@ -2102,7 +2102,7 @@
     <t>cindy.almeida.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>13RzvqBs</t>
+    <t>LqXXOuiV</t>
   </si>
   <si>
     <t>ANCHUNDIA VERA JUSTIN JOSE</t>
@@ -2111,7 +2111,7 @@
     <t>justin.anchundia.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>WnzzGV#I</t>
+    <t>mnDkIuiw</t>
   </si>
   <si>
     <t>AYONG PALADINES MARIA FERNANDA</t>
@@ -2120,7 +2120,7 @@
     <t>maria.ayong.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>q1Z/OwI!</t>
+    <t>fFWlPAlQ</t>
   </si>
   <si>
     <t>BRAVO CEVALLOS MELANY PIERINA</t>
@@ -2129,7 +2129,7 @@
     <t>melany.bravo.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>pIMBol#2</t>
+    <t>gjy&amp;Sh?L</t>
   </si>
   <si>
     <t>CASANOVA SALAZAR ROSEMBERG STEVEN</t>
@@ -2138,7 +2138,7 @@
     <t>rosemberg.casanova@espam.edu.ec</t>
   </si>
   <si>
-    <t>J3Cd5RiZ</t>
+    <t>Fbn3mQSW</t>
   </si>
   <si>
     <t>FERNANDEZ TORRES JALENI SCARLETH</t>
@@ -2150,7 +2150,7 @@
     <t>jaleni.fernandez.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>bidzS9!t</t>
+    <t>k3dI4n?U</t>
   </si>
   <si>
     <t>HERRERA SABANDO WILLIAMS ANDRES</t>
@@ -2159,7 +2159,7 @@
     <t>williams.herrera.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>wIycipKr</t>
+    <t>VpZpwhW!</t>
   </si>
   <si>
     <t>LOPEZ PALADINES EDGAR JOSE</t>
@@ -2168,7 +2168,7 @@
     <t>edgar.lopez.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>2W!hVMP5</t>
+    <t>MbqImmK7</t>
   </si>
   <si>
     <t>MEDRANDA GONZALES LINCI YERLEY</t>
@@ -2177,7 +2177,7 @@
     <t>linci.medranda.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>JeS7dtIi</t>
+    <t>55ZZbHGZ</t>
   </si>
   <si>
     <t>MENDIETA GILER JORDY EDUARDO</t>
@@ -2186,7 +2186,7 @@
     <t>jordy.mendieta.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>p47wLux#</t>
+    <t>E#0NNA7M</t>
   </si>
   <si>
     <t>MORENO VELIZ ALDRIN DAIRY</t>
@@ -2195,7 +2195,7 @@
     <t>aldrin.moreno.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>muqKJeyA</t>
+    <t>a5XSHBD1</t>
   </si>
   <si>
     <t>MUÑOZ VERA GENESIS LOURDES</t>
@@ -2204,7 +2204,7 @@
     <t>genesis.munoz.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>aRyhDv9U</t>
+    <t>0nOAX#Xd</t>
   </si>
   <si>
     <t>PLAZA CHOEZ RODOLFO JEAMPIERRE</t>
@@ -2213,7 +2213,7 @@
     <t>rodolfo.plaza.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>YqMehONv</t>
+    <t>4kIu0JcE</t>
   </si>
   <si>
     <t>PRECIADO MOREIRA PABLO ANTHONY</t>
@@ -2225,7 +2225,7 @@
     <t>pablo.preciado@espam.edu.ec</t>
   </si>
   <si>
-    <t>Mp8k2dPN</t>
+    <t>gcaQ9WI9</t>
   </si>
   <si>
     <t>SABANDO SALCEDO GENESIS BETZABETH</t>
@@ -2237,7 +2237,7 @@
     <t>genesis.sabando.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>R3mD1kx5</t>
+    <t>YU7#PjTF</t>
   </si>
   <si>
     <t>SOLEDISPA ZAMBRANO CRISTHINA ISABELA</t>
@@ -2246,7 +2246,7 @@
     <t>cristhina.soledispa.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>hFfA1AUl</t>
+    <t>qRTQOrNg</t>
   </si>
   <si>
     <t>SOLORZANO RODRIGUEZ EVELYN AGUSTINA</t>
@@ -2255,7 +2255,7 @@
     <t>evelyn.solorzanor@espam.edu.ec</t>
   </si>
   <si>
-    <t>k23l1e#o</t>
+    <t>YFqDYd5A</t>
   </si>
   <si>
     <t>VERA AGUAS KELVIN JEAN PIERRE</t>
@@ -2264,7 +2264,7 @@
     <t>kelvin.vera@espam.edu.ec</t>
   </si>
   <si>
-    <t>RrKPuuAJ</t>
+    <t>/0VfnBUV</t>
   </si>
   <si>
     <t>VERA LOOR DENYS ESTEFANIA</t>
@@ -2273,7 +2273,7 @@
     <t>denys.vera.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>zYE!hJbp</t>
+    <t>!BlIN4XV</t>
   </si>
   <si>
     <t>VINCES PIN MARIA FERNANDA</t>
@@ -2282,7 +2282,7 @@
     <t>maria.vinces.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>setLXxIS</t>
+    <t>Mw6UK6Cx</t>
   </si>
   <si>
     <t>ZAMBRANO ZAMBRANO MARIA BELEN</t>
@@ -2291,7 +2291,7 @@
     <t>mariab.zambranoz.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>bV!inkmS</t>
+    <t>X/uU2Mqm</t>
   </si>
   <si>
     <t>ALCIVAR ZAMBRANO DIANA ESTHER</t>
@@ -2300,7 +2300,7 @@
     <t>diana.alcivar.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>eZV1QDba</t>
+    <t>8/?n?UKj</t>
   </si>
   <si>
     <t>ALVAREZ BORJA ANGHELO JOSUE</t>
@@ -2309,7 +2309,7 @@
     <t>anghelo.alvarez.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>#Fd2Qh!w</t>
+    <t>b99JoN5e</t>
   </si>
   <si>
     <t>BRAVO MENDOZA ALBERDY JAVIER</t>
@@ -2318,7 +2318,7 @@
     <t>alberdy.bravo@espam.edu.ec</t>
   </si>
   <si>
-    <t>2ECOjhCx</t>
+    <t>vfsaCdtN</t>
   </si>
   <si>
     <t>GARCIA PARRAGA FATIMA MARIA</t>
@@ -2327,7 +2327,7 @@
     <t>fatima.garcia.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>QAT!LNpl</t>
+    <t>VRNtXXaS</t>
   </si>
   <si>
     <t>GRACIA PRATT WILINTON JOSUE</t>
@@ -2339,7 +2339,7 @@
     <t>wilinton.gracia.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>sJc685Xr</t>
+    <t>McZSh/jN</t>
   </si>
   <si>
     <t>MARRETT BEDOYA MISHELLE MARCELA</t>
@@ -2351,7 +2351,7 @@
     <t>mishelle.marrett.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>RyLfZbtV</t>
+    <t>LzhvRoB4</t>
   </si>
   <si>
     <t>MERA CASTILLO NATHALY VIRGINIA</t>
@@ -2360,7 +2360,7 @@
     <t>nathaly.mera.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>hQKzx?nd</t>
+    <t>oPygF80P</t>
   </si>
   <si>
     <t>ROSERO VERA LUIS ANDRES</t>
@@ -2369,7 +2369,7 @@
     <t>luis.rosero@espam.edu.ec</t>
   </si>
   <si>
-    <t>4r#3GlGR</t>
+    <t>d4NxIdj#</t>
   </si>
   <si>
     <t>SANTISTEBAN BENAVIDES JOSUE ROMARIO</t>
@@ -2378,7 +2378,7 @@
     <t>josue.santisteban.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>qvmT5ziV</t>
+    <t>4A#RwEOD</t>
   </si>
   <si>
     <t>SOLORZANO CUSME GEMA JULIANA</t>
@@ -2387,7 +2387,7 @@
     <t>gemaju.solorzano@espam.edu.ec</t>
   </si>
   <si>
-    <t>VnP7?#d2</t>
+    <t>gWbE9#XM</t>
   </si>
   <si>
     <t>TORRES PINARGOTE MAHOLY</t>
@@ -2396,7 +2396,7 @@
     <t>maholy.torres.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>Ma1O/NRc</t>
+    <t>&amp;7KeHi06</t>
   </si>
   <si>
     <t>ZAMBRANO BRAVO LEANDRO ISMAEL</t>
@@ -2405,7 +2405,7 @@
     <t>leandro.zambrano.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>5rlpjwDt</t>
+    <t>RQs!y!ED</t>
   </si>
   <si>
     <t>ZAMBRANO GARCIA HENRY ARTURO</t>
@@ -2414,7 +2414,7 @@
     <t>henry.zambrano.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>nVAGLqR3</t>
+    <t>CxUF!ylO</t>
   </si>
   <si>
     <t>BARRE PARRAGA BETSY BEATRIZ</t>
@@ -2423,7 +2423,7 @@
     <t>betsy.barre.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>hUtTl&amp;/m</t>
+    <t>i0m/s!tC</t>
   </si>
   <si>
     <t>CEDEÑO CEDEÑO CAMILA PATRICIA</t>
@@ -2435,7 +2435,7 @@
     <t>camila.cedeno.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>/PJsx4gp</t>
+    <t>#AsoqI?Z</t>
   </si>
   <si>
     <t>CEDEÑO SOLORZANO ANTHONY STEVEN</t>
@@ -2444,7 +2444,7 @@
     <t>anthony.cedenos.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>MVsXO#dS</t>
+    <t>2PwhQXr9</t>
   </si>
   <si>
     <t>CEDEÑO TUAREZ ANGIE LISSETTE</t>
@@ -2453,7 +2453,7 @@
     <t>angie.cedeno@espam.edu.ec</t>
   </si>
   <si>
-    <t>ETeKvv#c</t>
+    <t>nrH3m2hA</t>
   </si>
   <si>
     <t>CHAVEZ LANDAZURI JACKSON JAIR</t>
@@ -2465,7 +2465,7 @@
     <t>jackson.chavez.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>h800dSx1</t>
+    <t>H3laLzwc</t>
   </si>
   <si>
     <t>CHICA MOREIRA MARIA FERNANDA</t>
@@ -2474,7 +2474,7 @@
     <t>maria.chica.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>7PAX2OLW</t>
+    <t>cvQlRVfk</t>
   </si>
   <si>
     <t>GARCIA ZAMBRANO WENDY YAMILETH</t>
@@ -2483,7 +2483,7 @@
     <t>wendy.garcia.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>?luCI3f8</t>
+    <t>P7kuVBE0</t>
   </si>
   <si>
     <t>GARZON CEDEÑO FRANCESCO RUBEN</t>
@@ -2492,7 +2492,7 @@
     <t>francesco.garzon.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>I3s/Cda1</t>
+    <t>hZAcLtpW</t>
   </si>
   <si>
     <t>GUERRERO CEDEÑO MICHAEL JORDY</t>
@@ -2501,7 +2501,7 @@
     <t>michael.guerrero.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>Ku0E7JQA</t>
+    <t>dugrqLyl</t>
   </si>
   <si>
     <t>MEDRANDA GONZALES CRISTHIAN JOSE</t>
@@ -2510,7 +2510,7 @@
     <t>cristhian.medranda@espam.edu.ec</t>
   </si>
   <si>
-    <t>luSLVzTm</t>
+    <t>7WqEHaiO</t>
   </si>
   <si>
     <t>ORELLANA ANCHUNDIA JESUS MIGUEL</t>
@@ -2519,7 +2519,7 @@
     <t>jesus.orellana@espam.edu.ec</t>
   </si>
   <si>
-    <t>O1e7BHHX</t>
+    <t>HBmOX2A!</t>
   </si>
   <si>
     <t>ORTIZ GOMEZ EDUARDO ANDRES</t>
@@ -2528,7 +2528,7 @@
     <t>eduardo.ortiz@espam.edu.ec</t>
   </si>
   <si>
-    <t>bnxQK5ST</t>
+    <t>r#72f6X9</t>
   </si>
   <si>
     <t>PAZMIÑO MERA SHANDE ALEXANDER</t>
@@ -2537,7 +2537,7 @@
     <t>shande.pazmino.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>KQWiasJ&amp;</t>
+    <t>K1oHIynL</t>
   </si>
   <si>
     <t>PEÑARRIETA BAZURTO ERICK ANDRES</t>
@@ -2546,7 +2546,7 @@
     <t>erick.penarrieta@espam.edu.ec</t>
   </si>
   <si>
-    <t>xA5M#chR</t>
+    <t>&amp;nsUJIzz</t>
   </si>
   <si>
     <t>RIERA GAVILANES IZHURY MILLENYTH</t>
@@ -2558,7 +2558,7 @@
     <t>izhury.riera.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>zccY3m&amp;I</t>
+    <t>MS8InhM?</t>
   </si>
   <si>
     <t>RIVERA CEDEÑO RIVALDO JOSE</t>
@@ -2570,7 +2570,7 @@
     <t>rivaldo.rivera.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>Nq8F5Nqv</t>
+    <t>pyRY/AUr</t>
   </si>
   <si>
     <t>SALDARRIAGA ARTEAGA OMAIRA MARIBI</t>
@@ -2579,7 +2579,7 @@
     <t>omaira.saldarriaga@espam.edu.ec</t>
   </si>
   <si>
-    <t>wzu8h0aM</t>
+    <t>!8#E2uAk</t>
   </si>
   <si>
     <t>SANDOVAL MERA NALLELY STEFANIA</t>
@@ -2588,7 +2588,7 @@
     <t>nallely.sandoval.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>H92nu68m</t>
+    <t>WiUxQyho</t>
   </si>
   <si>
     <t>SUQUI CANGO BRYAN EDUARDO</t>
@@ -2600,7 +2600,7 @@
     <t>bryan.suqui.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>#YxmG2zs</t>
+    <t>MoOEc?9Q</t>
   </si>
   <si>
     <t>VERDUGA ZAMBRANO CARLOS ANDRES</t>
@@ -2609,7 +2609,7 @@
     <t>carlos.verduga.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>5RBU?yeT</t>
+    <t>1CiX2A4b</t>
   </si>
   <si>
     <t>ZAMBRANO LARA MARVIN RENE</t>
@@ -2618,7 +2618,7 @@
     <t>marvin.zambrano.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>Tn8c9qGm</t>
+    <t>Qo8Wx2!J</t>
   </si>
   <si>
     <t>ZAMBRANO OBANDO KELVIN JOSUE</t>
@@ -2630,7 +2630,7 @@
     <t>kelvin.zambrano.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>T2mCmvms</t>
+    <t>m?y4C5f2</t>
   </si>
   <si>
     <t>ZAPATA QUINCHE ANDREA CAROLINA</t>
@@ -2639,7 +2639,7 @@
     <t>andrea.zapata.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>fhxs94PK</t>
+    <t>4dI4b2pb</t>
   </si>
   <si>
     <t>ALMEIDA PEREZ ANGEL FERNANDO</t>
@@ -2648,7 +2648,7 @@
     <t>angel.almeida@espam.edu.ec</t>
   </si>
   <si>
-    <t>j/cmKQJZ</t>
+    <t>l/dsm9LQ</t>
   </si>
   <si>
     <t>CEDEÑO PARRAGA MELANY NALLELY</t>
@@ -2657,7 +2657,7 @@
     <t>melany.cedeno.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>V81J5fs1</t>
+    <t>CxxWlkA&amp;</t>
   </si>
   <si>
     <t>CEDEÑO SALVATIERRA JENIFFER ALEJANDRA</t>
@@ -2666,7 +2666,7 @@
     <t>jeniffer.cedenosal@espam.edu.ec</t>
   </si>
   <si>
-    <t>2kXlLaDx</t>
+    <t>IniPnXSw</t>
   </si>
   <si>
     <t>FERNANDEZ ARTEAGA SCHEZNARDA EDITH</t>
@@ -2675,7 +2675,7 @@
     <t>scheznarda.fernandez.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>pZj?otJY</t>
+    <t>Cv2MIWh6</t>
   </si>
   <si>
     <t>GANCHOZO VELEZ EMILY JULEXY</t>
@@ -2684,7 +2684,7 @@
     <t>emily.ganchozo.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>phYPkeS/</t>
+    <t>ANWXt6p&amp;</t>
   </si>
   <si>
     <t>LEON VIZÑAY ROQUE JAVIER</t>
@@ -2696,7 +2696,7 @@
     <t>roque.leon@espam.edu.ec</t>
   </si>
   <si>
-    <t>0yKgHIXI</t>
+    <t>PVvhtbfz</t>
   </si>
   <si>
     <t>LOOR LOOR EVELYN YAMILETH</t>
@@ -2705,7 +2705,7 @@
     <t>evelynya.loor@espam.edu.ec</t>
   </si>
   <si>
-    <t>&amp;LV38/mN</t>
+    <t>58jwHqa2</t>
   </si>
   <si>
     <t>LOOR MOREIRA MELANIE NOEMI</t>
@@ -2714,7 +2714,7 @@
     <t>melanie.loorm.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>&amp;lS/6cJH</t>
+    <t>zgIKGXvk</t>
   </si>
   <si>
     <t>LOPEZ ESTACIO ROSA ANGELICA</t>
@@ -2723,7 +2723,7 @@
     <t>rosa.lopez@espam.edu.ec</t>
   </si>
   <si>
-    <t>T0dRM&amp;BN</t>
+    <t>FfhVvzkE</t>
   </si>
   <si>
     <t>MENDOZA MUÑOZ FLOR ANTONELA</t>
@@ -2732,7 +2732,7 @@
     <t>flor.mendoza.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>5u4KVrQu</t>
+    <t>KXfPgIdK</t>
   </si>
   <si>
     <t>MERELO SOLORZANO NAIDELYN MISHELLE</t>
@@ -2741,7 +2741,7 @@
     <t>naidelyn.merelo.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>aBqyK6PO</t>
+    <t>XIf#ohsi</t>
   </si>
   <si>
     <t>MOREIRA LOOR FABIAN ALEXANDER</t>
@@ -2750,7 +2750,7 @@
     <t>fabian.moreira@espam.edu.ec</t>
   </si>
   <si>
-    <t>t0ewPE8E</t>
+    <t>7guxej&amp;R</t>
   </si>
   <si>
     <t>PAZMIÑO FALCONES JOSE MIGUEL</t>
@@ -2759,7 +2759,7 @@
     <t>jose.pazmino@espam.edu.ec</t>
   </si>
   <si>
-    <t>zocs2K4?</t>
+    <t>6zZwCSuC</t>
   </si>
   <si>
     <t>PEÑAFIEL PITA BRITHANNY MICAELA</t>
@@ -2771,7 +2771,7 @@
     <t>brithanny.penafiel.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>eAU1&amp;5mf</t>
+    <t>C8Ss6U/S</t>
   </si>
   <si>
     <t>PINTO PALACIOS JOSE ANTONIO</t>
@@ -2780,7 +2780,7 @@
     <t>jose.pinto@espam.edu.ec</t>
   </si>
   <si>
-    <t>#CioY!DU</t>
+    <t>3/Zhyfq!</t>
   </si>
   <si>
     <t>RENTERIA VALENCIA NEURYS GYSSELA</t>
@@ -2792,7 +2792,7 @@
     <t>neurys.renteria@espam.edu.ec</t>
   </si>
   <si>
-    <t>gKTf7lsQ</t>
+    <t>58nKYs9m</t>
   </si>
   <si>
     <t>RIVAS ZAMBRANO ALISSON KATIUSKA</t>
@@ -2801,7 +2801,7 @@
     <t>alisson.rivas.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>42sHjLz?</t>
+    <t>6aohZx&amp;N</t>
   </si>
   <si>
     <t>TORRES VARGAS KARELIS ANDREINA</t>
@@ -2813,7 +2813,7 @@
     <t>karelis.torres@espam.edu.ec</t>
   </si>
   <si>
-    <t>rxJ&amp;P!OK</t>
+    <t>aOr2#ddg</t>
   </si>
   <si>
     <t>VALDIVIESO CHUNG DANIEL JAFET</t>
@@ -2822,7 +2822,7 @@
     <t>daniel.valdivieso.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>bYinIEcr</t>
+    <t>nTXYICsg</t>
   </si>
   <si>
     <t>VASCONEZ GONZALEZ FRANCISCO ALESSIO</t>
@@ -2831,7 +2831,7 @@
     <t>francisco.vasconez.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>w4KNkFAn</t>
+    <t>!zXn5PFi</t>
   </si>
   <si>
     <t>VELEZ ORTEGA BORIS ANDRES</t>
@@ -2840,7 +2840,7 @@
     <t>boris.velez.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>zTt3s4B?</t>
+    <t>9aoWt?Bh</t>
   </si>
   <si>
     <t>VERA ESTUPIÑAN BRYAN FRANCISCO</t>
@@ -2849,7 +2849,7 @@
     <t>bryan.vera@espam.edu.ec</t>
   </si>
   <si>
-    <t>XhmA!wX8</t>
+    <t>o#lTtp8C</t>
   </si>
   <si>
     <t>VERA LOOR ARIANA PAOLA</t>
@@ -2858,7 +2858,7 @@
     <t>ariana.vera.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>BcvzFuTp</t>
+    <t>Q79xwPaZ</t>
   </si>
   <si>
     <t>ZAMBRANO VEGA AURA ARACELY</t>
@@ -2867,7 +2867,7 @@
     <t>aura.zambranov@espam.edu.ec</t>
   </si>
   <si>
-    <t>hp&amp;1v&amp;cV</t>
+    <t>OcZJCBvc</t>
   </si>
   <si>
     <t>ALMEIDA ZAMBRANO HALINTONG VICENTE</t>
@@ -2876,7 +2876,7 @@
     <t>halintong.almeida@espam.edu.ec</t>
   </si>
   <si>
-    <t>?jrOgEfK</t>
+    <t>q#okf6Xs</t>
   </si>
   <si>
     <t>AYALA VILLAFUERTE NAHOMY NAYELY</t>
@@ -2885,7 +2885,7 @@
     <t>nahomy.ayala@espam.edu.ec</t>
   </si>
   <si>
-    <t>okD27Wx&amp;</t>
+    <t>o26lvk10</t>
   </si>
   <si>
     <t>BASURTO CEDEÑO ITALO JORDANO</t>
@@ -2894,7 +2894,7 @@
     <t>italo.basurto.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>UZVda5qF</t>
+    <t>Z1w?qNpi</t>
   </si>
   <si>
     <t>CASTRO TAIPE YERIK LEXANDER</t>
@@ -2903,7 +2903,7 @@
     <t>yerik.castro.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>ucAxBbRE</t>
+    <t>nyMQ7oWo</t>
   </si>
   <si>
     <t>CEDEÑO GARCIA CARLOS PAUL</t>
@@ -2912,7 +2912,7 @@
     <t>carlos.cedeno.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>#ClcPKVI</t>
+    <t>vEiC?Jnw</t>
   </si>
   <si>
     <t>COBEÑA ZAMBRANO EDIS ARIEL</t>
@@ -2921,7 +2921,7 @@
     <t>edis.cobena@espam.edu.ec</t>
   </si>
   <si>
-    <t>fkHwZha#</t>
+    <t>UjZWxbd8</t>
   </si>
   <si>
     <t>CORDOVA MUGUERZA ADRIANA NICOLLE</t>
@@ -2930,7 +2930,7 @@
     <t>adriana.muguersa.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>jILA?8oC</t>
+    <t>wd9L55!H</t>
   </si>
   <si>
     <t>COTERA PIN MAYERLY DAYANARA</t>
@@ -2939,7 +2939,7 @@
     <t>mayerly.cotera.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>9vBLXDqm</t>
+    <t>0ieyOLBi</t>
   </si>
   <si>
     <t>CUENCA CUSME CECILIA ALEXANDRA</t>
@@ -2948,7 +2948,7 @@
     <t>cecilia.cuenca@espam.edu.ec</t>
   </si>
   <si>
-    <t>vGy/q5LC</t>
+    <t>rRICnd1z</t>
   </si>
   <si>
     <t>FERNANDEZ ARTEAGA ANGIE MISHELLE</t>
@@ -2957,7 +2957,7 @@
     <t>angie.fernandez.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>YQ3M!jJB</t>
+    <t>tf8zvOD6</t>
   </si>
   <si>
     <t>LATA QUINCHI SANDRA LOURDES</t>
@@ -2966,7 +2966,7 @@
     <t>sandra.lata.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>nsZ8X9Vd</t>
+    <t>QQPAAvDd</t>
   </si>
   <si>
     <t>MEJICANGO CALLE JAZMIN LISBETH</t>
@@ -2978,7 +2978,7 @@
     <t>jazmin.mejicango.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>Tqe#yy/y</t>
+    <t>BIqBI?L9</t>
   </si>
   <si>
     <t>MENDOZA GANCHOZO DOMENICA NICOLE</t>
@@ -2987,7 +2987,7 @@
     <t>domenica.mendoza.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>x150j3&amp;I</t>
+    <t>JUxo9&amp;zU</t>
   </si>
   <si>
     <t>MOREIRA CEVALLOS NAYELY VANESSA</t>
@@ -2996,7 +2996,7 @@
     <t>nayely.moreira@espam.edu.ec</t>
   </si>
   <si>
-    <t>8UxhwlLP</t>
+    <t>z/RD#V7V</t>
   </si>
   <si>
     <t>MUÑOZ VERA MICHELLE VALENTINA</t>
@@ -3005,7 +3005,7 @@
     <t>michelle.munoz.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>NQ4!iPhI</t>
+    <t>JX2r!ngj</t>
   </si>
   <si>
     <t>OLMOS RIVERA CLEOPATRA STEFANIA</t>
@@ -3014,7 +3014,7 @@
     <t>cleopatra.olmos.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>jl1iZ3Ll</t>
+    <t>1USyas?Y</t>
   </si>
   <si>
     <t>PAREDES RODRIGUEZ GIBELY JARLETH</t>
@@ -3026,7 +3026,7 @@
     <t>gibely.paredes.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>hfVsQ3Lc</t>
+    <t>9?Aw/rq0</t>
   </si>
   <si>
     <t>PERUGACHI MECIAS GEOVANNY ALEJANDRO</t>
@@ -3035,7 +3035,7 @@
     <t>geovanny.perugachi.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>KPa?59&amp;B</t>
+    <t>Vvnm/wzN</t>
   </si>
   <si>
     <t>PITA MACIAS RUBEN DARIO</t>
@@ -3044,7 +3044,7 @@
     <t>ruben.pita@espam.edu.ec</t>
   </si>
   <si>
-    <t>K7mQdv8&amp;</t>
+    <t>bDvS6cMA</t>
   </si>
   <si>
     <t>ROSADO QUIROZ JANDRY FABRICIO</t>
@@ -3053,7 +3053,7 @@
     <t>jandry.rosado.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>UGC8qAzV</t>
+    <t>Xcv5p&amp;!t</t>
   </si>
   <si>
     <t>SANCHEZ CHOEZ BERTHA DOLORES</t>
@@ -3062,7 +3062,7 @@
     <t>bertha.choez.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>rn&amp;zNEh!</t>
+    <t>lpM!!/J/</t>
   </si>
   <si>
     <t>VALENCIA MARCILLO JENIFFER KAROLINA</t>
@@ -3071,7 +3071,7 @@
     <t>jenifferk.valenciam@espam.edu.ec</t>
   </si>
   <si>
-    <t>TlJQvI2B</t>
+    <t>sHjJ2o9H</t>
   </si>
   <si>
     <t>VELASQUEZ GUADAMUD MARIO DAMIAN</t>
@@ -3080,7 +3080,7 @@
     <t>mario.velasquez@espam.edu.ec</t>
   </si>
   <si>
-    <t>KtBb7hB6</t>
+    <t>R9hyj1PX</t>
   </si>
   <si>
     <t>VELEZ RIVAS JOFFRE GEOVANNY</t>
@@ -3089,7 +3089,7 @@
     <t>joffre.velez.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>es1VzWZ5</t>
+    <t>vMP9!9OW</t>
   </si>
   <si>
     <t>VELEZ ZAMBRANO GEMA BRIGITH</t>
@@ -3098,7 +3098,7 @@
     <t>gema.velez.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>?SWey7&amp;S</t>
+    <t>Cbl5WQCT</t>
   </si>
   <si>
     <t>VERA CEVALLOS CARMEN GISSELLA</t>
@@ -3107,7 +3107,7 @@
     <t>carmen.vera@espam.edu.ec</t>
   </si>
   <si>
-    <t>rtQNHB1Z</t>
+    <t>zUl34rWS</t>
   </si>
   <si>
     <t>VERA SOLORZANO CARLOS NEPTALI</t>
@@ -3116,7 +3116,7 @@
     <t>carlos.veras@espam.edu.ec</t>
   </si>
   <si>
-    <t>eMgA6KQQ</t>
+    <t>nyxZZhlE</t>
   </si>
   <si>
     <t>VERA VERA YUSTHYN YARLETH</t>
@@ -3125,7 +3125,7 @@
     <t>yusthyn.vera.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>sr12H!/7</t>
+    <t>o3pc6E!E</t>
   </si>
   <si>
     <t>VIDAL SABANDO MARIA KATHERINE</t>
@@ -3134,7 +3134,7 @@
     <t>maria.vidal.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>PUr7YxFw</t>
+    <t>wxNONIeb</t>
   </si>
   <si>
     <t>ZAMBRANO ALCIVAR EMILIO JOSE</t>
@@ -3143,7 +3143,7 @@
     <t>emilio.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>RI3scQBh</t>
+    <t>xv!iN#/6</t>
   </si>
   <si>
     <t>ZAMBRANO AVEIGA MAYRA ALEXANDRA</t>
@@ -3152,7 +3152,7 @@
     <t>mayra.zambrano.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>0ZFVtbZk</t>
+    <t>FQV8Nwfz</t>
   </si>
   <si>
     <t>ZAMBRANO VERA MARIA BEATRIZ</t>
@@ -3161,7 +3161,7 @@
     <t>maria.zambrano.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>HmAM9Ape</t>
+    <t>#a5UFsvE</t>
   </si>
   <si>
     <t>ALCIVAR RODRIGUEZ STEFANY LISETH</t>
@@ -3170,7 +3170,7 @@
     <t>stefany.alcivar.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>sqb&amp;q!DT</t>
+    <t>lzMYfU1Q</t>
   </si>
   <si>
     <t>ANGULO GLENN YURANI MAGERLI</t>
@@ -3182,7 +3182,7 @@
     <t>yurani.angulo.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>0hrw??sJ</t>
+    <t>p3cA31ge</t>
   </si>
   <si>
     <t>ARTEAGA TRIVIÑO CAMILA</t>
@@ -3191,7 +3191,7 @@
     <t>camila.arteaga.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>#eBBxAMF</t>
+    <t>G!owKoCD</t>
   </si>
   <si>
     <t>BALDERRAMO CABRERA JOSE GERMAN</t>
@@ -3200,7 +3200,7 @@
     <t>jose.balderramo.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>8ocOfMz!</t>
+    <t>EQ5H3/Ni</t>
   </si>
   <si>
     <t>BRAVO MUÑOZ JEAN MYCKEL</t>
@@ -3209,7 +3209,7 @@
     <t>jean.bravomu@espam.edu.ec</t>
   </si>
   <si>
-    <t>XDtEq3X5</t>
+    <t>eLJfHYqQ</t>
   </si>
   <si>
     <t>BRAVO SANTANA JUNIOR XAVIER</t>
@@ -3218,7 +3218,7 @@
     <t>juniorx.bravos@espam.edu.ec</t>
   </si>
   <si>
-    <t>ZtHhBLE3</t>
+    <t>J9OquAP7</t>
   </si>
   <si>
     <t>CAGUA RODRIGUEZ NAYELY ANAHI</t>
@@ -3227,7 +3227,7 @@
     <t>nayely.cagua.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>75yAFbMH</t>
+    <t>m!h!nET4</t>
   </si>
   <si>
     <t>CALDERON RODRIGUEZ FATIMA DANIELA</t>
@@ -3236,7 +3236,7 @@
     <t>fatima.calderon.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>XiKG3chb</t>
+    <t>D##GQJkd</t>
   </si>
   <si>
     <t>CASTILLO MEJIA MARIA CARLOTA</t>
@@ -3245,7 +3245,7 @@
     <t>maria.castillo.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>f67dTwac</t>
+    <t>uT8INDaR</t>
   </si>
   <si>
     <t>CEDEÑO CUSME DAYANARA NARCISA</t>
@@ -3254,7 +3254,7 @@
     <t>dayanara.cedeno.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>PW1pyAmE</t>
+    <t>804?Ge0i</t>
   </si>
   <si>
     <t>CELORIO VERA PETER PABLO</t>
@@ -3263,7 +3263,7 @@
     <t>peter.celorio.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>dpeYCjR8</t>
+    <t>wUPcsR#B</t>
   </si>
   <si>
     <t>COOL MORENO DIANA ESTHEFANIA</t>
@@ -3272,7 +3272,7 @@
     <t>diana.cool@espam.edu.ec</t>
   </si>
   <si>
-    <t>jt32?EAj</t>
+    <t>oWWwC/f!</t>
   </si>
   <si>
     <t>DELGADO GARZON PAOLA FERNANDA</t>
@@ -3281,7 +3281,7 @@
     <t>paola.delgadog.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>TbVxxYTO</t>
+    <t>/JTa?cpm</t>
   </si>
   <si>
     <t>DOMINGUEZ DOMINGUEZ ROMINA MELISSA</t>
@@ -3290,7 +3290,7 @@
     <t>romina.dominguez@espam.edu.ec</t>
   </si>
   <si>
-    <t>7JPPie&amp;0</t>
+    <t>hGpYw1QQ</t>
   </si>
   <si>
     <t>GARCIA MUÑOZ EDDY SANTIAGO</t>
@@ -3299,7 +3299,7 @@
     <t>eddy.garcia@espam.edu.ec</t>
   </si>
   <si>
-    <t>CwfHAVpL</t>
+    <t>4mlu7vIz</t>
   </si>
   <si>
     <t>GARCIA PONCE LEONELA ANTONELLA</t>
@@ -3308,7 +3308,7 @@
     <t>leonela.garcia.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>DKcskC9Y</t>
+    <t>ojbiLUxZ</t>
   </si>
   <si>
     <t>LOPEZ SOLORZANO YIMMY</t>
@@ -3317,7 +3317,7 @@
     <t>yimmy.lopez@espam.edu.ec</t>
   </si>
   <si>
-    <t>vIT6NEla</t>
+    <t>AZkfqRI7</t>
   </si>
   <si>
     <t>LOPEZ ZAMBRANO JORGE ISAAC</t>
@@ -3326,7 +3326,7 @@
     <t>jorge.lopez.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>eG/0Z1J5</t>
+    <t>CVdA49N8</t>
   </si>
   <si>
     <t>MACIAS GUAGUA MAGERLY THAIS</t>
@@ -3338,7 +3338,7 @@
     <t>magerly.macias.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>EXAsAg58</t>
+    <t>uI&amp;YIGJ/</t>
   </si>
   <si>
     <t>MARTINEZ SABANDO MARCELO EFRAIN</t>
@@ -3347,7 +3347,7 @@
     <t>marcelo.martinez@espam.edu.ec</t>
   </si>
   <si>
-    <t>T22Sw/gJ</t>
+    <t>PMPcbKlI</t>
   </si>
   <si>
     <t>MEDRANDA CEDEÑO IVAN ARTURO</t>
@@ -3356,7 +3356,7 @@
     <t>ivan.medranda@espam.edu.ec</t>
   </si>
   <si>
-    <t>X2A1uEnO</t>
+    <t>vxtKsI6F</t>
   </si>
   <si>
     <t>MENDOZA INTRIAGO KEYLA YAMIRA</t>
@@ -3365,7 +3365,7 @@
     <t>keyla.mendoza@espam.edu.ec</t>
   </si>
   <si>
-    <t>ECXC2lJP</t>
+    <t>n62GgFrG</t>
   </si>
   <si>
     <t>MENDOZA LOOR MARIAGRACIA</t>
@@ -3374,7 +3374,7 @@
     <t>mariagracia.mendoza@espam.edu.ec</t>
   </si>
   <si>
-    <t>8ejMGT08</t>
+    <t>pHcY4MrG</t>
   </si>
   <si>
     <t>MOREIRA VELEZ ANGELICA LISBETH</t>
@@ -3383,7 +3383,7 @@
     <t>angelica.moreira@espam.edu.ec</t>
   </si>
   <si>
-    <t>z/MEpISP</t>
+    <t>zJTE4SmE</t>
   </si>
   <si>
     <t>PATA HERRERA ESTRELLA TATIANA</t>
@@ -3392,7 +3392,7 @@
     <t>estrella.pata.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>h32#Q111</t>
+    <t>wn4g6ngH</t>
   </si>
   <si>
     <t>PONCE MIRANDA YOEL ISAIAS</t>
@@ -3401,7 +3401,7 @@
     <t>yoel.ponce@espam.edu.ec</t>
   </si>
   <si>
-    <t>LDM8Tvuv</t>
+    <t>4XakscD8</t>
   </si>
   <si>
     <t>RIVAS ALARCON ALISSON MAYERLI</t>
@@ -3413,7 +3413,7 @@
     <t>alisson.rivas@espam.edu.ec</t>
   </si>
   <si>
-    <t>7u0hG&amp;4R</t>
+    <t>lmUMrNqe</t>
   </si>
   <si>
     <t>SABANDO VERA EMELY NOEMI</t>
@@ -3425,7 +3425,7 @@
     <t>emely.sabando.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>PoCxtAJl</t>
+    <t>PpXpIeO!</t>
   </si>
   <si>
     <t>VELASQUEZ ZAMBRANO JUAN DIEGO</t>
@@ -3434,7 +3434,7 @@
     <t>juan.velasquez@espam.edu.ec</t>
   </si>
   <si>
-    <t>k1w2GymA</t>
+    <t>eK?Qn93i</t>
   </si>
   <si>
     <t>ZAMBRANO MENDOZA JOSE LUIS</t>
@@ -3443,7 +3443,7 @@
     <t>jose.zambrano.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>dTYHQorD</t>
+    <t>jGgnkgF!</t>
   </si>
   <si>
     <t>ZAMBRANO PEREZ CARLOS JULIO</t>
@@ -3452,7 +3452,7 @@
     <t>carlos.zambranop@espam.edu.ec</t>
   </si>
   <si>
-    <t>Ot!YMD!?</t>
+    <t>ll9NambR</t>
   </si>
   <si>
     <t>ACHIG GUALACATA EVELIN LISETTE</t>
@@ -3461,7 +3461,7 @@
     <t>evelin.achig@espam.edu.ec</t>
   </si>
   <si>
-    <t>f##Achz5</t>
+    <t>Xq#MjXE#</t>
   </si>
   <si>
     <t>AGUAS VERA JEICOL MIKE</t>
@@ -3470,7 +3470,7 @@
     <t>jeicol.aguas@espam.edu.ec</t>
   </si>
   <si>
-    <t>gnpyu77V</t>
+    <t>XCQEsV4f</t>
   </si>
   <si>
     <t>BRAVO BASURTO JUAN CARLOS</t>
@@ -3479,7 +3479,7 @@
     <t>juan.bravo@espam.edu.ec</t>
   </si>
   <si>
-    <t>RX8!uxJl</t>
+    <t>cLFu!BjF</t>
   </si>
   <si>
     <t>CANTOS ZAMBRANO MARIA FERNANDA</t>
@@ -3488,7 +3488,7 @@
     <t>mariaf.cantos@espam.edu.ec</t>
   </si>
   <si>
-    <t>DNYrGe1!</t>
+    <t>Xd5FHv&amp;x</t>
   </si>
   <si>
     <t>CASTILLO DELGADO LERENY JAMILEX</t>
@@ -3497,7 +3497,7 @@
     <t>lereny.castillo@espam.edu.ec</t>
   </si>
   <si>
-    <t>ZybEctuZ</t>
+    <t>od/WpG!3</t>
   </si>
   <si>
     <t>CASTILLO JACOME JHON JAIRO</t>
@@ -3506,7 +3506,7 @@
     <t>jhon.castillo@espam.edu.ec</t>
   </si>
   <si>
-    <t>n7w?UB0y</t>
+    <t>7p7MjgMb</t>
   </si>
   <si>
     <t>CELORIO MENDOZA MIRIAN ALEJANDRA</t>
@@ -3515,7 +3515,7 @@
     <t>mirian.celorio@espam.edu.ec</t>
   </si>
   <si>
-    <t>D&amp;n!1s2B</t>
+    <t>fR&amp;#cJ8Z</t>
   </si>
   <si>
     <t>CHUMO CHAVEZ JANINA BELEN</t>
@@ -3524,7 +3524,7 @@
     <t>janina.chumo@espam.edu.ec</t>
   </si>
   <si>
-    <t>#Vovo/Jh</t>
+    <t>Oee13l?p</t>
   </si>
   <si>
     <t>DELGADO LOPEZ MERCEDES ELIZABETH</t>
@@ -3533,7 +3533,7 @@
     <t>mercedes.delgado@espam.edu.ec</t>
   </si>
   <si>
-    <t>NEy2nQPD</t>
+    <t>fW41ng6V</t>
   </si>
   <si>
     <t>ESTEVES OLVERA DIANA MILENA</t>
@@ -3542,7 +3542,7 @@
     <t>diana.esteves@espam.edu.ec</t>
   </si>
   <si>
-    <t>IW28oB6M</t>
+    <t>EptqV7yZ</t>
   </si>
   <si>
     <t>FALLAIN ZAMBRANO MARIA ANGELICA</t>
@@ -3551,7 +3551,7 @@
     <t>maria.fallain@espam.edu.ec</t>
   </si>
   <si>
-    <t>6wnnxLSV</t>
+    <t>/7Gz2jKC</t>
   </si>
   <si>
     <t>FERNANDEZ CEVALLOS FRANCISCO ESTUARDO</t>
@@ -3560,7 +3560,7 @@
     <t>francisco.fernandez@espam.edu.ec</t>
   </si>
   <si>
-    <t>WnchD62G</t>
+    <t>u?0NQfgO</t>
   </si>
   <si>
     <t>HERNANDEZ HERNANDEZ MARIA ZULEMA</t>
@@ -3572,7 +3572,7 @@
     <t>maria.hernandez@espam.edu.ec</t>
   </si>
   <si>
-    <t>P4XYTNlA</t>
+    <t>REG1k0!s</t>
   </si>
   <si>
     <t>INTRIAGO SOLORZANO LEYDI GABRIELA</t>
@@ -3581,7 +3581,7 @@
     <t>leydi.intriago@espam.edu.ec</t>
   </si>
   <si>
-    <t>EMacppS6</t>
+    <t>Nl2Jv4oY</t>
   </si>
   <si>
     <t>MACIAS LOOR ELIAN RENE</t>
@@ -3590,7 +3590,7 @@
     <t>elian.macias@espam.edu.ec</t>
   </si>
   <si>
-    <t>4KNaWQwY</t>
+    <t>Uh!wgope</t>
   </si>
   <si>
     <t>MACIAS PISCO NACHY MONSERRAT</t>
@@ -3599,7 +3599,7 @@
     <t>nachy.macias@espam.edu.ec</t>
   </si>
   <si>
-    <t>Ulcj9Pb2</t>
+    <t>ZI!tat&amp;J</t>
   </si>
   <si>
     <t>MERA LOOR JONAYKER REYNALDO</t>
@@ -3608,7 +3608,7 @@
     <t>jonayker.mera@espam.edu.ec</t>
   </si>
   <si>
-    <t>yDr/hPHP</t>
+    <t>RrRJ!ppo</t>
   </si>
   <si>
     <t>MOREIRA BASURTO YORDY JOEL</t>
@@ -3617,7 +3617,7 @@
     <t>yordy.moreira@espam.edu.ec</t>
   </si>
   <si>
-    <t>STpQmcHh</t>
+    <t>MvUtxP&amp;V</t>
   </si>
   <si>
     <t>MOREIRA MENDOZA MAGDALENA JAMILETH</t>
@@ -3626,7 +3626,7 @@
     <t>magdalena.moreira@espam.edu.ec</t>
   </si>
   <si>
-    <t>nbLnulKI</t>
+    <t>?0N5WeQ3</t>
   </si>
   <si>
     <t>PANTUSIN MUGUERZA ANDREA LISSETH</t>
@@ -3635,7 +3635,7 @@
     <t>andrea.pantusin@espam.edu.ec</t>
   </si>
   <si>
-    <t>YD!D#R4f</t>
+    <t>01HX3ROV</t>
   </si>
   <si>
     <t>PATIÑO MEJIA MILENA ANAHI</t>
@@ -3644,7 +3644,7 @@
     <t>milena.patino@espam.edu.ec</t>
   </si>
   <si>
-    <t>nW#V1RNN</t>
+    <t>tNSLl9Z&amp;</t>
   </si>
   <si>
     <t>PICO GARCIA ALLISON JANELY</t>
@@ -3653,7 +3653,7 @@
     <t>allison.pico@espam.edu.ec</t>
   </si>
   <si>
-    <t>vITYLnpA</t>
+    <t>S&amp;!n6I8n</t>
   </si>
   <si>
     <t>POVEDA SANTANA ENZO JAVIER</t>
@@ -3665,7 +3665,7 @@
     <t>enzo.poveda@espam.edu.ec</t>
   </si>
   <si>
-    <t>c!TurVQQ</t>
+    <t>/6?UdC3o</t>
   </si>
   <si>
     <t>QUIJIJE CEDEÑO NATALY SILVANA</t>
@@ -3674,7 +3674,7 @@
     <t>nataly.quijije@espam.edu.ec</t>
   </si>
   <si>
-    <t>/ETNDypo</t>
+    <t>K4ybcAq/</t>
   </si>
   <si>
     <t>ROBALINO DELGADO JORGE DAVID</t>
@@ -3683,7 +3683,7 @@
     <t>jorge.robalino@espam.edu.ec</t>
   </si>
   <si>
-    <t>YuM&amp;&amp;ay7</t>
+    <t>ndiGVf5M</t>
   </si>
   <si>
     <t>SANCHEZ CASTILLO ADRIANA MICAELA</t>
@@ -3692,7 +3692,7 @@
     <t>adriana.sanchez@espam.edu.ec</t>
   </si>
   <si>
-    <t>hwr3!ayX</t>
+    <t>S8UxZ2yB</t>
   </si>
   <si>
     <t>SOLORZANO ALAVA TAIRUN FRANCISCO</t>
@@ -3701,7 +3701,7 @@
     <t>tairun.solorzano@espam.edu.ec</t>
   </si>
   <si>
-    <t>Wzl3M45q</t>
+    <t>ohAC3yl6</t>
   </si>
   <si>
     <t>SOLORZANO BAILON MARIA GABRIELA</t>
@@ -3710,7 +3710,7 @@
     <t>mariaga.solorzano@espam.edu.ec</t>
   </si>
   <si>
-    <t>uA3gr0tU</t>
+    <t>njGtOtSL</t>
   </si>
   <si>
     <t>TRUJILLO AGUAS MAYERLI DAYANA</t>
@@ -3719,7 +3719,7 @@
     <t>mayerli.trujillo@espam.edu.ec</t>
   </si>
   <si>
-    <t>VmgNwF!?</t>
+    <t>W3VZ?m6y</t>
   </si>
   <si>
     <t>VERA VERA CINTHIA MARIA</t>
@@ -3728,7 +3728,7 @@
     <t>cinthia.verav@espam.edu.ec</t>
   </si>
   <si>
-    <t>eM7PG2AH</t>
+    <t>MOUo1CCz</t>
   </si>
   <si>
     <t>VIDAL INTRIAGO ANDY YOEL</t>
@@ -3737,7 +3737,7 @@
     <t>andy.vidal@espam.edu.ec</t>
   </si>
   <si>
-    <t>z#rDOALb</t>
+    <t>OK&amp;z!s!J</t>
   </si>
   <si>
     <t>VINTIMILLA PROAÑO MARIA DE LOURDES</t>
@@ -3746,7 +3746,7 @@
     <t>maria.vintimilla@espam.edu.ec</t>
   </si>
   <si>
-    <t>!XVnYvxo</t>
+    <t>0L/xHN&amp;f</t>
   </si>
   <si>
     <t>VITERI SANTOS VINICIO ORLEY</t>
@@ -3755,7 +3755,7 @@
     <t>vinicio.viteri@espam.edu.ec</t>
   </si>
   <si>
-    <t>eHWUe/GH</t>
+    <t>iDjVugBd</t>
   </si>
   <si>
     <t>ZAMBRANO CANO FRANCISCO JAVIER</t>
@@ -3764,7 +3764,7 @@
     <t>francisco.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>b9!gr1Fl</t>
+    <t>hp7mXu#j</t>
   </si>
   <si>
     <t>ZAMBRANO NAVARRETE ELBA MARIA</t>
@@ -3773,7 +3773,7 @@
     <t>elba.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>HnY0#FL1</t>
+    <t>rIDRE7x5</t>
   </si>
   <si>
     <t>ZAMBRANO ZAMBRANO WENDY GISSELLA</t>
@@ -3782,7 +3782,7 @@
     <t>wendy.zambranoz@espam.edu.ec</t>
   </si>
   <si>
-    <t>i2/al8Xo</t>
+    <t>EayGfYRP</t>
   </si>
   <si>
     <t>ARANA RUEDA ANGY LISSETH</t>
@@ -3794,7 +3794,7 @@
     <t>angy.arana@espam.edu.ec</t>
   </si>
   <si>
-    <t>HMc1UPra</t>
+    <t>fW290ZjH</t>
   </si>
   <si>
     <t>ARTEAGA VARGAS ANDREA VALERIA</t>
@@ -3803,7 +3803,7 @@
     <t>andrea.arteaga@espam.edu.ec</t>
   </si>
   <si>
-    <t>jbAH6dWS</t>
+    <t>mR0cWZTO</t>
   </si>
   <si>
     <t>BARBERAN SANCHEZ KARLA MICHELLE</t>
@@ -3812,7 +3812,7 @@
     <t>karla.barberan@espam.edu.ec</t>
   </si>
   <si>
-    <t>F#Alz3zI</t>
+    <t>u5YyNSVS</t>
   </si>
   <si>
     <t>BAZURTO MANZABA SORAYA STEFANIA</t>
@@ -3821,7 +3821,7 @@
     <t>soraya.bazurto@espam.edu.ec</t>
   </si>
   <si>
-    <t>uFOG0qCw</t>
+    <t>E1X7ZB1J</t>
   </si>
   <si>
     <t>CAGUA GARCIA ANDRES VIRGILIO</t>
@@ -3830,7 +3830,7 @@
     <t>andres.cagua@espam.edu.ec</t>
   </si>
   <si>
-    <t>sWxx122X</t>
+    <t>Fsv?PCmB</t>
   </si>
   <si>
     <t>DOMINGUEZ CALDERON JEAN PIERRE</t>
@@ -3839,7 +3839,7 @@
     <t>jean.dominguez@espam.edu.ec</t>
   </si>
   <si>
-    <t>ru7CBYzb</t>
+    <t>7Njj2pHt</t>
   </si>
   <si>
     <t>ESPINOZA ALCIVAR EVELYN ALEXANDRA</t>
@@ -3848,7 +3848,7 @@
     <t>evelyn.espinoza@espam.edu.ec</t>
   </si>
   <si>
-    <t>qkqRXo#G</t>
+    <t>0T9sJ9S9</t>
   </si>
   <si>
     <t>LOOR MORENO DANIEL AGUSTIN</t>
@@ -3857,7 +3857,7 @@
     <t>daniel.loor@espam.edu.ec</t>
   </si>
   <si>
-    <t>14O9h3uz</t>
+    <t>XHA3&amp;DTh</t>
   </si>
   <si>
     <t>MACIAS PARRALES MEREDITH MARIBEL</t>
@@ -3866,7 +3866,7 @@
     <t>meredith.macias@espam.edu.ec</t>
   </si>
   <si>
-    <t>gTTLMFhQ</t>
+    <t>bCz2yts!</t>
   </si>
   <si>
     <t>MENDOZA CANCHINGRE BRIGITH MIKAELA</t>
@@ -3875,7 +3875,7 @@
     <t>brigith.mendoza@espam.edu.ec</t>
   </si>
   <si>
-    <t>1rN5ObeD</t>
+    <t>DRCrnlCU</t>
   </si>
   <si>
     <t>MENDOZA VELEZ JOSE MIGUEL</t>
@@ -3884,7 +3884,7 @@
     <t>josemi.mendoza@espam.edu.ec</t>
   </si>
   <si>
-    <t>h&amp;t2hza1</t>
+    <t>s/X?z2&amp;#</t>
   </si>
   <si>
     <t>MEZA BRIONES ANTHONY NARCILO</t>
@@ -3893,7 +3893,7 @@
     <t>anthony.meza@espam.edu.ec</t>
   </si>
   <si>
-    <t>Y5hDLIy3</t>
+    <t>8q0PB5BZ</t>
   </si>
   <si>
     <t>MORA ZAMBRANO MARIA LAURA</t>
@@ -3902,7 +3902,7 @@
     <t>maria.mora@espam.edu.ec</t>
   </si>
   <si>
-    <t>hhxqfyOz</t>
+    <t>LhcoJNE8</t>
   </si>
   <si>
     <t>NAVARRETE ZAMBRANO ROBIN LUGERIO</t>
@@ -3911,7 +3911,7 @@
     <t>robin.navarrete@espam.edu.ec</t>
   </si>
   <si>
-    <t>1KP0jwat</t>
+    <t>yIdX2&amp;0J</t>
   </si>
   <si>
     <t>OSTAIZA LOPEZ JOSEPH MANUEL</t>
@@ -3920,7 +3920,7 @@
     <t>josepth.ostaiza@espam.edu.ec</t>
   </si>
   <si>
-    <t>bEGY3bqN</t>
+    <t>?1z3e8h2</t>
   </si>
   <si>
     <t>PARRAGA PARRAGA CARLA ESTEFANIA</t>
@@ -3929,7 +3929,7 @@
     <t>carla.parraga@espam.edu.ec</t>
   </si>
   <si>
-    <t>B&amp;JDe7SF</t>
+    <t>QfUoOhOF</t>
   </si>
   <si>
     <t>PLAZA CABRERA MAYERLY MARIA</t>
@@ -3941,7 +3941,7 @@
     <t>mayerly.plaza@espam.edu.ec</t>
   </si>
   <si>
-    <t>Gnd5ZYHB</t>
+    <t>oTLUQWUh</t>
   </si>
   <si>
     <t>RODRIGUEZ VELIZ LEANDRO MOISES</t>
@@ -3950,7 +3950,7 @@
     <t>leandro.rodriguez@espam.edu.ec</t>
   </si>
   <si>
-    <t>vgD2plzR</t>
+    <t>2H!5gF58</t>
   </si>
   <si>
     <t>SANTANA GUERRERO MARIA RAQUEL</t>
@@ -3959,7 +3959,7 @@
     <t>mariar.santanag@espam.edu.ec</t>
   </si>
   <si>
-    <t>Iy0HfiRy</t>
+    <t>3MdMbcEM</t>
   </si>
   <si>
     <t>SANTOS SALAZAR JANDRY DAVID</t>
@@ -3968,7 +3968,7 @@
     <t>jandry.santos@espam.edu.ec</t>
   </si>
   <si>
-    <t>yoL&amp;yszW</t>
+    <t>uB2!8f9f</t>
   </si>
   <si>
     <t>SOLORZANO LOOR KEYLA GEOVANNA</t>
@@ -3977,7 +3977,7 @@
     <t>keyla.solorzano@espam.edu.ec</t>
   </si>
   <si>
-    <t>BYIgKwbg</t>
+    <t>r&amp;qg5eS6</t>
   </si>
   <si>
     <t>VALENCIA ZAMBRANO VALERIA MERCEDES</t>
@@ -3986,7 +3986,7 @@
     <t>valeria.valencia@espam.edu.ec</t>
   </si>
   <si>
-    <t>OlxzI9!x</t>
+    <t>yQCbg7GO</t>
   </si>
   <si>
     <t>VARGAS CHOEZ ALEXIS ELIAN</t>
@@ -3995,7 +3995,7 @@
     <t>alexis.vargas@espam.edu.ec</t>
   </si>
   <si>
-    <t>UIvURyMB</t>
+    <t>I?HtXZyv</t>
   </si>
   <si>
     <t>VELEZ ALMEIDA CARMEN REBECA</t>
@@ -4004,7 +4004,7 @@
     <t>carmen.velez@espam.edu.ec</t>
   </si>
   <si>
-    <t>KTdOzLcw</t>
+    <t>DS4Nnhzd</t>
   </si>
   <si>
     <t>VELEZ LEGTON GENESIS YAMILET</t>
@@ -4013,7 +4013,7 @@
     <t>genesisya.velez@espam.edu.ec</t>
   </si>
   <si>
-    <t>vqlD?C1w</t>
+    <t>?hNvW7K#</t>
   </si>
   <si>
     <t>VERA BALAREZO MARYAM JANELLA</t>
@@ -4022,7 +4022,7 @@
     <t>maryam.vera@espam.edu.ec</t>
   </si>
   <si>
-    <t>PU1d9caY</t>
+    <t>RyFWTsE6</t>
   </si>
   <si>
     <t>VERA SERRANO CARLOS STEFANO</t>
@@ -4031,7 +4031,7 @@
     <t>carlos.verase@espam.edu.ec</t>
   </si>
   <si>
-    <t>!KgXGi6U</t>
+    <t>DDZ3Haxq</t>
   </si>
   <si>
     <t>VIERA BAZURTO JOSE ALEXANDER</t>
@@ -4040,7 +4040,7 @@
     <t>jose.viera@espam.edu.ec</t>
   </si>
   <si>
-    <t>nIm3lMZn</t>
+    <t>BZmD3Zn/</t>
   </si>
   <si>
     <t>ZAMBRANO ALCIVAR DIEGO JAHIR</t>
@@ -4049,7 +4049,7 @@
     <t>diego.zambranoa@espam.edu.ec</t>
   </si>
   <si>
-    <t>acG4fYJz</t>
+    <t>2ysLuDX1</t>
   </si>
   <si>
     <t>ZAMBRANO MANZABA MARIA FERNANDA</t>
@@ -4058,7 +4058,7 @@
     <t>mariafer.zambranom@espam.edu.ec</t>
   </si>
   <si>
-    <t>GknZoFar</t>
+    <t>R8Mn/9l1</t>
   </si>
   <si>
     <t>ALCIVAR GILER MELANY JULISA</t>
@@ -4067,7 +4067,7 @@
     <t>melany.alcivar@espam.edu.ec</t>
   </si>
   <si>
-    <t>jVWtnKaJ</t>
+    <t>Il?MgiR2</t>
   </si>
   <si>
     <t>ANDRADE ZAMBRANO NATHALY NICOLLE</t>
@@ -4076,7 +4076,7 @@
     <t>nathaly.andrade@espam.edu.ec</t>
   </si>
   <si>
-    <t>DE00L9J!</t>
+    <t>FfmsF5N4</t>
   </si>
   <si>
     <t>BASURTO MORAN LUIS ALEXANDER</t>
@@ -4085,7 +4085,7 @@
     <t>luis.basurtom@espam.edu.ec</t>
   </si>
   <si>
-    <t>esy#kuEn</t>
+    <t>u8U0RPYQ</t>
   </si>
   <si>
     <t>BERMELLO VELEZ ANGELA DANIELA</t>
@@ -4094,7 +4094,7 @@
     <t>angela.bermello@espam.edu.ec</t>
   </si>
   <si>
-    <t>bkSDw!IF</t>
+    <t>XygPNL?n</t>
   </si>
   <si>
     <t>BRAVO VERA GEMA VIVIANA</t>
@@ -4103,7 +4103,7 @@
     <t>gema.bravov@espam.edu.ec</t>
   </si>
   <si>
-    <t>T!y&amp;UhkU</t>
+    <t>/5fmnXo4</t>
   </si>
   <si>
     <t>BRIONES INTRIAGO LORENA LUCIA</t>
@@ -4112,7 +4112,7 @@
     <t>lorena.briones@espam.edu.ec</t>
   </si>
   <si>
-    <t>YhpBWM#u</t>
+    <t>zI7I5WTw</t>
   </si>
   <si>
     <t>BURGOS BRAVO KATHERIN DANIELA</t>
@@ -4121,7 +4121,7 @@
     <t>katherin.burgos@espam.edu.ec</t>
   </si>
   <si>
-    <t>HaZ/1LKK</t>
+    <t>yySEqM#P</t>
   </si>
   <si>
     <t>LOOR PARRAGA ROY RUBEN</t>
@@ -4130,7 +4130,7 @@
     <t>roy.loor@espam.edu.ec</t>
   </si>
   <si>
-    <t>J2mj/PGb</t>
+    <t>NQ16O1/o</t>
   </si>
   <si>
     <t>LOPEZ GANCHOZO LEANDRO ANTONIO</t>
@@ -4139,7 +4139,7 @@
     <t>leandro.lopez@espam.edu.ec</t>
   </si>
   <si>
-    <t>FiEzJiQX</t>
+    <t>NVPpQqWx</t>
   </si>
   <si>
     <t>MACIAS MACIAS JOY ROBERTO</t>
@@ -4148,7 +4148,7 @@
     <t>joy.macias@espam.edu.ec</t>
   </si>
   <si>
-    <t>i?pjYGWo</t>
+    <t>f0EczYzu</t>
   </si>
   <si>
     <t>MACIAS SILVA CINTHYA MARIANA</t>
@@ -4157,7 +4157,7 @@
     <t>cinthya.macias@espam.edu.ec</t>
   </si>
   <si>
-    <t>fFmBcevE</t>
+    <t>nIS4j3fD</t>
   </si>
   <si>
     <t>MENDOZA PONCE MARIA ANGELICA</t>
@@ -4166,7 +4166,7 @@
     <t>maria.mendozap@espam.edu.ec</t>
   </si>
   <si>
-    <t>qhXkQcki</t>
+    <t>xSKZzcWz</t>
   </si>
   <si>
     <t>MONCAYO LAINEZ KERLY ARIANNA</t>
@@ -4175,7 +4175,7 @@
     <t>kerly.moncayo@espam.edu.ec</t>
   </si>
   <si>
-    <t>6U4Od!3Q</t>
+    <t>4p1dkJD4</t>
   </si>
   <si>
     <t>MONTES POZO JEAN POLL</t>
@@ -4184,7 +4184,7 @@
     <t>jean.montes@espam.edu.ec</t>
   </si>
   <si>
-    <t>U38T31x?</t>
+    <t>6XSYS3lU</t>
   </si>
   <si>
     <t>MORENO OBANDO ANA BELLA</t>
@@ -4193,7 +4193,7 @@
     <t>ana.moreno@espam.edu.ec</t>
   </si>
   <si>
-    <t>tHU1QdQi</t>
+    <t>RL&amp;Wotg4</t>
   </si>
   <si>
     <t>NAVARRETE PARODI ERIKA KARINA</t>
@@ -4202,7 +4202,7 @@
     <t>erika.navarrete@espam.edu.ec</t>
   </si>
   <si>
-    <t>sy8Mt!iU</t>
+    <t>K4LRsuei</t>
   </si>
   <si>
     <t>ORMAZA ESPINOZA JESUS EMILIO</t>
@@ -4211,7 +4211,7 @@
     <t>jesus.ormaza@espam.edu.ec</t>
   </si>
   <si>
-    <t>bGqKgX6D</t>
+    <t>hqBlU10r</t>
   </si>
   <si>
     <t>ORMAZA FALCONES MARIA ALEJANDRA</t>
@@ -4220,7 +4220,7 @@
     <t>maria.ormaza@espam.edu.ec</t>
   </si>
   <si>
-    <t>O!8oq2gY</t>
+    <t>pVPncUP?</t>
   </si>
   <si>
     <t>PARRAGA QUIJIJE GEMA KAROLINA</t>
@@ -4229,7 +4229,7 @@
     <t>gemak.parragaq@espam.edu.ec</t>
   </si>
   <si>
-    <t>VTDAraTb</t>
+    <t>mNK1kHFh</t>
   </si>
   <si>
     <t>PICO TOLA MARCO ANDRES</t>
@@ -4238,7 +4238,7 @@
     <t>marco.pico@espam.edu.ec</t>
   </si>
   <si>
-    <t>V1JmQ5ET</t>
+    <t>WjdR!Tcr</t>
   </si>
   <si>
     <t>PIN NAPA IVANA MAYERLI</t>
@@ -4247,7 +4247,7 @@
     <t>ivana.pin@espam.edu.ec</t>
   </si>
   <si>
-    <t>Q9ysbZPf</t>
+    <t>iW842XzN</t>
   </si>
   <si>
     <t>ROMERO BRAVO JOSE AGUSTIN</t>
@@ -4256,7 +4256,7 @@
     <t>jose.romero@espam.edu.ec</t>
   </si>
   <si>
-    <t>a9/ojwqw</t>
+    <t>0k/vEgeM</t>
   </si>
   <si>
     <t>SALTOS INTRIAGO NATHALIA MELISSA</t>
@@ -4265,7 +4265,7 @@
     <t>nathalia.saltos@espam.edu.ec</t>
   </si>
   <si>
-    <t>au!6&amp;BIg</t>
+    <t>Ajs/KoAX</t>
   </si>
   <si>
     <t>SALTOS SALTOS MADELYNE PIERINA</t>
@@ -4274,7 +4274,7 @@
     <t>madelyne.saltos@espam.edu.ec</t>
   </si>
   <si>
-    <t>jk8FLPp7</t>
+    <t>6ocaj7tG</t>
   </si>
   <si>
     <t>SOLIS ORTIZ SANTIAGO</t>
@@ -4283,7 +4283,7 @@
     <t>santiago.solis@espam.edu.ec</t>
   </si>
   <si>
-    <t>/HKGKf8s</t>
+    <t>ikmyS7JV</t>
   </si>
   <si>
     <t>SOLORZANO ZAMBRANO GEMA NARCISA</t>
@@ -4292,7 +4292,7 @@
     <t>gema.solorzano@espam.edu.ec</t>
   </si>
   <si>
-    <t>teKemjU2</t>
+    <t>tIWgbb/Z</t>
   </si>
   <si>
     <t>VARGAS SOLORZANO ANDREA DIVINA</t>
@@ -4301,7 +4301,7 @@
     <t>andrea.vargas@espam.edu.ec</t>
   </si>
   <si>
-    <t>46JrIedo</t>
+    <t>XLaL#lYq</t>
   </si>
   <si>
     <t>VELEZ VERA MANUEL ALEXANDER</t>
@@ -4310,7 +4310,7 @@
     <t>manuel.velez@espam.edu.ec</t>
   </si>
   <si>
-    <t>58gxobxn</t>
+    <t>Td8XPjsa</t>
   </si>
   <si>
     <t>VELEZ ZAMBRANO ADRIAN DAVID</t>
@@ -4319,7 +4319,7 @@
     <t>adrian.velez@espam.edu.ec</t>
   </si>
   <si>
-    <t>DBfv9jap</t>
+    <t>d4WCZA6R</t>
   </si>
   <si>
     <t>YLLESCA CEDEÑO JESUS JONATHAN</t>
@@ -4328,7 +4328,7 @@
     <t>jesus.yllesca@espam.edu.ec</t>
   </si>
   <si>
-    <t>Mwx2h#Tn</t>
+    <t>98kSR27p</t>
   </si>
   <si>
     <t>ZAMBRANO CATOTA DERLYN MILENA</t>
@@ -4337,7 +4337,7 @@
     <t>derlyn.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>3aP6pDk6</t>
+    <t>q!lsD/0#</t>
   </si>
   <si>
     <t>ZAMBRANO CEDEÑO CHRISTIAN EDUARDO</t>
@@ -4346,7 +4346,7 @@
     <t>christian.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>HGU394Gi</t>
+    <t>CNkcyuPZ</t>
   </si>
   <si>
     <t>ZAMBRANO ROBLES GLENDY MERCEDES</t>
@@ -4355,7 +4355,7 @@
     <t>glendy.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>T5kV3mbW</t>
+    <t>xm9KV!JO</t>
   </si>
   <si>
     <t>ZAMBRANO ROSADO JORGE ALESSANDRO</t>
@@ -4364,7 +4364,7 @@
     <t>jorge.zambranor@espam.edu.ec</t>
   </si>
   <si>
-    <t>zm/YkTqI</t>
+    <t>lfbJ1VjL</t>
   </si>
   <si>
     <t>ZAMBRANO VERA WENDY ANAHI</t>
@@ -4373,7 +4373,7 @@
     <t>wendy.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>ZyS36AQV</t>
+    <t>I9f!4Y!I</t>
   </si>
   <si>
     <t>ZAMBRANO ZAMBRANO JONATHAN JAVIER</t>
@@ -4382,7 +4382,7 @@
     <t>jonathan.zambranoz@espam.edu.ec</t>
   </si>
   <si>
-    <t>PXmWlieo</t>
+    <t>#jVxLWUd</t>
   </si>
   <si>
     <t>ZAMORA SOLORZANO MAGALY DOLORES</t>
@@ -4391,7 +4391,7 @@
     <t>magaly.zamora@espam.edu.ec</t>
   </si>
   <si>
-    <t>q8mbmpeO</t>
+    <t>prrSKEAf</t>
   </si>
   <si>
     <t>BRAVO ZAMBRANO MARIA EMILIA</t>
@@ -4400,7 +4400,7 @@
     <t>maria.bravoz@espam.edu.ec</t>
   </si>
   <si>
-    <t>JJB!R6fq</t>
+    <t>MxKNXYDK</t>
   </si>
   <si>
     <t>CEVALLOS ALVAREZ ARMANDO ENRIQUE</t>
@@ -4409,7 +4409,7 @@
     <t>armando.cevallos@espam.edu.ec</t>
   </si>
   <si>
-    <t>gw2NG3vZ</t>
+    <t>TWieg9IQ</t>
   </si>
   <si>
     <t>CEVALLOS VERA ARELIS STEFANIA</t>
@@ -4418,7 +4418,7 @@
     <t>arelis.cevallos@espam.edu.ec</t>
   </si>
   <si>
-    <t>nmAdrpzf</t>
+    <t>r5&amp;1?pa?</t>
   </si>
   <si>
     <t>COOL MERO PATRICIO JAVIER</t>
@@ -4427,7 +4427,7 @@
     <t>patricio.cool@espam.edu.ec</t>
   </si>
   <si>
-    <t>akSX!h2v</t>
+    <t>B0FBpUCP</t>
   </si>
   <si>
     <t>FRANCO ORELLANA GUADALUPE MONSERRATE</t>
@@ -4436,7 +4436,7 @@
     <t>guadalupe.franco@espam.edu.ec</t>
   </si>
   <si>
-    <t>EocvTm5u</t>
+    <t>Zj?aqNCl</t>
   </si>
   <si>
     <t>HUERTA BALDIVIEZO JEAN CRISTHIAN</t>
@@ -4445,7 +4445,7 @@
     <t>jean.huerta@espam.edu.ec</t>
   </si>
   <si>
-    <t>snsvmEz5</t>
+    <t>g1&amp;ZNJY&amp;</t>
   </si>
   <si>
     <t>INTRIAGO CANTOS MARIA JOSE</t>
@@ -4454,7 +4454,7 @@
     <t>maria.intriagoc@espam.edu.ec</t>
   </si>
   <si>
-    <t>8MvoL3AZ</t>
+    <t>mCF!jTv4</t>
   </si>
   <si>
     <t>LOOR CANTOS DIANA ISABEL</t>
@@ -4463,7 +4463,7 @@
     <t>diana.loor@espam.edu.ec</t>
   </si>
   <si>
-    <t>l&amp;ieAP?F</t>
+    <t>jEn0YdIR</t>
   </si>
   <si>
     <t>LOOR SEGOVIA EVELYN ADRIANA</t>
@@ -4472,7 +4472,7 @@
     <t>evelyn.loors@espam.edu.ec</t>
   </si>
   <si>
-    <t>dK!wj6NY</t>
+    <t>B!LwMKAG</t>
   </si>
   <si>
     <t>MEDINA CEDEÑO JULIO CESAR</t>
@@ -4481,7 +4481,7 @@
     <t>julio.medina@espam.edu.ec</t>
   </si>
   <si>
-    <t>5y4R96ZL</t>
+    <t>Y#Hd9xDj</t>
   </si>
   <si>
     <t>MERA VELEZ ALONDRA GARDENIA</t>
@@ -4490,7 +4490,7 @@
     <t>alondra.mera@espam.edu.ec</t>
   </si>
   <si>
-    <t>YMb5NUOF</t>
+    <t>0Np#YieK</t>
   </si>
   <si>
     <t>MUÑOZ ZAMBRANO CARLOS JOSUE</t>
@@ -4499,7 +4499,7 @@
     <t>carlos.munozz@espam.edu.ec</t>
   </si>
   <si>
-    <t>EGyliR7D</t>
+    <t>ctd7yGPI</t>
   </si>
   <si>
     <t>NAPA RODRIGUEZ JOSE AGUSTIN</t>
@@ -4508,7 +4508,7 @@
     <t>jose.napa@espam.edu.ec</t>
   </si>
   <si>
-    <t>mBorHlzJ</t>
+    <t>xQ7xXO!S</t>
   </si>
   <si>
     <t>PALMA CEVALLOS MARIA JOSE</t>
@@ -4517,7 +4517,7 @@
     <t>maria.palma@espam.edu.ec</t>
   </si>
   <si>
-    <t>MSoeN2Ph</t>
+    <t>cA7VTt7Z</t>
   </si>
   <si>
     <t>PATIÑO MESIAS MARIA GABRIELA</t>
@@ -4526,7 +4526,7 @@
     <t>maria.patino@espam.edu.ec</t>
   </si>
   <si>
-    <t>4MEmM8Wj</t>
+    <t>tb8#IAO9</t>
   </si>
   <si>
     <t>QUINTANA CAGUA YENIFER YULI</t>
@@ -4535,7 +4535,7 @@
     <t>yenifer.quintana@espam.edu.ec</t>
   </si>
   <si>
-    <t>u9U5JQ9#</t>
+    <t>8RNYroM9</t>
   </si>
   <si>
     <t>RIVERA CANTOS MARIA DANIELA</t>
@@ -4544,7 +4544,7 @@
     <t>maria.riverac@espam.edu.ec</t>
   </si>
   <si>
-    <t>!wyPC#ta</t>
+    <t>P3OgaZz#</t>
   </si>
   <si>
     <t>RODRIGUEZ PINCAY CARLOS BRYAN</t>
@@ -4553,7 +4553,7 @@
     <t>carlos.rodriguezp@espam.edu.ec</t>
   </si>
   <si>
-    <t>J0GQ0mib</t>
+    <t>taYh!w6S</t>
   </si>
   <si>
     <t>SABANDO VELEZ CRISTHIAN ANTHONY</t>
@@ -4562,7 +4562,7 @@
     <t>cristhian.sabando@espam.edu.ec</t>
   </si>
   <si>
-    <t>!g4J93ji</t>
+    <t>sc/sD/6O</t>
   </si>
   <si>
     <t>SANTANA VERA ANTHONY JAHIR</t>
@@ -4571,7 +4571,7 @@
     <t>anthony.santana@espam.edu.ec</t>
   </si>
   <si>
-    <t>VYUy&amp;P/t</t>
+    <t>wWss1nDx</t>
   </si>
   <si>
     <t>VELEZ ESPINOZA JUNIOR JESUS</t>
@@ -4580,7 +4580,7 @@
     <t>junior.veleze@espam.edu.ec</t>
   </si>
   <si>
-    <t>6#VrxliH</t>
+    <t>9dD&amp;L?T8</t>
   </si>
   <si>
     <t>VERDUGA ZAMBRANO DIEGO ALEJANDRO</t>
@@ -4589,7 +4589,7 @@
     <t>diego.verduga@espam.edu.ec</t>
   </si>
   <si>
-    <t>qC&amp;92PPj</t>
+    <t>v16?mBoO</t>
   </si>
   <si>
     <t>ZAMBRANO VELEZ NAYELHY LILIBETH</t>
@@ -4598,7 +4598,7 @@
     <t>nayelhy.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>wkoeMY&amp;8</t>
+    <t>uG6f7fh0</t>
   </si>
   <si>
     <t>ZAMBRANO WITONG KENIA THAIS</t>
@@ -4607,7 +4607,7 @@
     <t>keniath.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>GK3CnfWU</t>
+    <t>GjB/S6uR</t>
   </si>
   <si>
     <t>ANCHUNDIA ANCHUNDIA GEMA LILIBETH</t>
@@ -4616,7 +4616,7 @@
     <t>gema.anchundia@espam.edu.ec</t>
   </si>
   <si>
-    <t>!tWo#j3o</t>
+    <t>HUYu0TYT</t>
   </si>
   <si>
     <t>ARTEAGA DELGADO JEAN CARLOS</t>
@@ -4625,7 +4625,7 @@
     <t>jean.arteaga@espam.edu.ec</t>
   </si>
   <si>
-    <t>6UF4hN25</t>
+    <t>2a3yl#nS</t>
   </si>
   <si>
     <t>BARREIRO ZAMBRANO JOSE VICENTE</t>
@@ -4634,7 +4634,7 @@
     <t>jose.barreiro@espam.edu.ec</t>
   </si>
   <si>
-    <t>9k1?h!wD</t>
+    <t>hRGy49fW</t>
   </si>
   <si>
     <t>BASURTO ALCIVAR DARWIN JESUS</t>
@@ -4643,7 +4643,7 @@
     <t>darwin.basurto@espam.edu.ec</t>
   </si>
   <si>
-    <t>SOW7!qoY</t>
+    <t>2woUPqQQ</t>
   </si>
   <si>
     <t>BRAVO CEDEÑO JOSE RODOLFO</t>
@@ -4652,7 +4652,7 @@
     <t>jose.bravo@espam.edu.ec</t>
   </si>
   <si>
-    <t>K7GI?X9M</t>
+    <t>vrchcDzA</t>
   </si>
   <si>
     <t>BRIONES BERMEO ANTONY JAVIER</t>
@@ -4661,7 +4661,7 @@
     <t>antony.briones@espam.edu.ec</t>
   </si>
   <si>
-    <t>FYCkw!VU</t>
+    <t>yQTVTRvp</t>
   </si>
   <si>
     <t>CEDEÑO ANCHUNDIA YANDRY ANTONIO</t>
@@ -4673,7 +4673,7 @@
     <t>yandry.cedeno@espam.edu.ec</t>
   </si>
   <si>
-    <t>OrHruP?H</t>
+    <t>OEGTGToM</t>
   </si>
   <si>
     <t>CEDEÑO PEÑARRIETA DAYANA SOPHIA</t>
@@ -4682,7 +4682,7 @@
     <t>dayanaso.cedeno@espam.edu.ec</t>
   </si>
   <si>
-    <t>eT6dwERa</t>
+    <t>ddH4Fnhg</t>
   </si>
   <si>
     <t>CHAVARRIA PEÑARRIETA MARCOS ALEJANDRO</t>
@@ -4691,7 +4691,7 @@
     <t>marcos.chavarria@espam.edu.ec</t>
   </si>
   <si>
-    <t>MQ&amp;3dBxE</t>
+    <t>F?!dcRlT</t>
   </si>
   <si>
     <t>DEL VALLE BASURTO CARMEN MELINA</t>
@@ -4700,7 +4700,7 @@
     <t>carmen.del@espam.edu.ec</t>
   </si>
   <si>
-    <t>A?OjdLCk</t>
+    <t>3QW7FaVJ</t>
   </si>
   <si>
     <t>GUERRERO BRAVO ANA BELEN</t>
@@ -4709,7 +4709,7 @@
     <t>ana.guerrero@espam.edu.ec</t>
   </si>
   <si>
-    <t>En3v1w4Q</t>
+    <t>Fwt8W/zf</t>
   </si>
   <si>
     <t>GUERRERO GUERRERO JOSSELYN MELISSA</t>
@@ -4718,7 +4718,7 @@
     <t>josselyn.guerrero@espam.edu.ec</t>
   </si>
   <si>
-    <t>vPliWA#R</t>
+    <t>KinG52Qm</t>
   </si>
   <si>
     <t>INTRIAGO BARBERAN LAURO ANTONIO</t>
@@ -4727,7 +4727,7 @@
     <t>lauro.intriago1@espam.edu.ec</t>
   </si>
   <si>
-    <t>fq8ZdZzz</t>
+    <t>Hz9RQupI</t>
   </si>
   <si>
     <t>INTRIAGO MORA LENIN ARCENIO</t>
@@ -4736,7 +4736,7 @@
     <t>lenin.intriago@espam.edu.ec</t>
   </si>
   <si>
-    <t>m2L4RNVe</t>
+    <t>Tfamsa6Y</t>
   </si>
   <si>
     <t>MACIAS CALDERON JOSE ARIEL</t>
@@ -4745,7 +4745,7 @@
     <t>jose.macias@espam.edu.ec</t>
   </si>
   <si>
-    <t>mRUHmFQy</t>
+    <t>ouqmKC1?</t>
   </si>
   <si>
     <t>MARCILLO VELEZ ANA PATRICIA</t>
@@ -4754,7 +4754,7 @@
     <t>ana.marcillo@espam.edu.ec</t>
   </si>
   <si>
-    <t>il/yX#Dq</t>
+    <t>OVB6NKg3</t>
   </si>
   <si>
     <t>MERA FIGUEROA RAYMOND ALEJANDRO</t>
@@ -4763,7 +4763,7 @@
     <t>raymond.mera@espam.edu.ec</t>
   </si>
   <si>
-    <t>VGmNc/mV</t>
+    <t>FDfeZcmz</t>
   </si>
   <si>
     <t>MOREIRA ZAMBRANO JOSSENKA MERCEDES</t>
@@ -4772,7 +4772,7 @@
     <t>jossenka.moreira@espam.edu.ec</t>
   </si>
   <si>
-    <t>1xL4&amp;VEp</t>
+    <t>&amp;?d3OEXS</t>
   </si>
   <si>
     <t>MUÑOZ ALCIVAR CRISTHIAN MARTIN</t>
@@ -4781,7 +4781,7 @@
     <t>cristhian.munoz@espam.edu.ec</t>
   </si>
   <si>
-    <t>/14ZACAG</t>
+    <t>5?A&amp;SgAU</t>
   </si>
   <si>
     <t>MUÑOZ MACIAS MARIA MAGDALENA</t>
@@ -4790,7 +4790,7 @@
     <t>mariama.munoz@espam.edu.ec</t>
   </si>
   <si>
-    <t>6GfIdW68</t>
+    <t>HLuY2cNw</t>
   </si>
   <si>
     <t>POLO GANCHOZO ARON ESNEYDER</t>
@@ -4799,7 +4799,7 @@
     <t>aron.polo@espam.edu.ec</t>
   </si>
   <si>
-    <t>S8X7F0Kn</t>
+    <t>/BaK?G2v</t>
   </si>
   <si>
     <t>RIOS BERMELLO JENIFFER LIZETH</t>
@@ -4808,7 +4808,7 @@
     <t>jeniffer.rios@espam.edu.ec</t>
   </si>
   <si>
-    <t>NLnZZJjr</t>
+    <t>TVD#fwIM</t>
   </si>
   <si>
     <t>SALVATIERRA VALDEZ VICKY NICOLLE</t>
@@ -4817,7 +4817,7 @@
     <t>vicky.salvatierra@espam.edu.ec</t>
   </si>
   <si>
-    <t>CHI4f6uI</t>
+    <t>4cAKpCR6</t>
   </si>
   <si>
     <t>SANTOS VELEZ MONICA GERMANIA</t>
@@ -4826,7 +4826,7 @@
     <t>monica.santos@espam.edu.ec</t>
   </si>
   <si>
-    <t>cbI/gQqh</t>
+    <t>WC&amp;ToQm/</t>
   </si>
   <si>
     <t>SOLORZANO ZAMBRANO MILENA DENISSE</t>
@@ -4835,7 +4835,7 @@
     <t>milena.solorzano@espam.edu.ec</t>
   </si>
   <si>
-    <t>PCHJyIFx</t>
+    <t>NgVJ!P9H</t>
   </si>
   <si>
     <t>TUQUERES TACURI JESSICA MARIBELL</t>
@@ -4844,7 +4844,7 @@
     <t>jessica.tuqueres@espam.edu.ec</t>
   </si>
   <si>
-    <t>Zjjeh9np</t>
+    <t>Q#O2Trgv</t>
   </si>
   <si>
     <t>VERDUGA ERAZO JOSUE SALVADOR</t>
@@ -4853,7 +4853,7 @@
     <t>josue.verduga@espam.edu.ec</t>
   </si>
   <si>
-    <t>Ar9F0O4O</t>
+    <t>41Gr1YZo</t>
   </si>
   <si>
     <t>YEPEZ VELIZ GENESIS THALIA</t>
@@ -4862,7 +4862,7 @@
     <t>genesis.yepez@espam.edu.ec</t>
   </si>
   <si>
-    <t>ToxgHhbG</t>
+    <t>5Cg5nH4F</t>
   </si>
   <si>
     <t>ZAMBRANO BASURTO ERICK RAFAEL</t>
@@ -4871,7 +4871,7 @@
     <t>erick.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>2?#Yrw&amp;b</t>
+    <t>PCY0!qKk</t>
   </si>
   <si>
     <t>ZAMBRANO MUÑOZ JANDRY DEIVY</t>
@@ -4880,7 +4880,7 @@
     <t>jandry.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>#CzF8KLX</t>
+    <t>?!Xb5zyw</t>
   </si>
   <si>
     <t>AYONG VERA JUAN DAVID</t>
@@ -4889,7 +4889,7 @@
     <t>juan.ayong@espam.edu.ec</t>
   </si>
   <si>
-    <t>65hmWaZ1</t>
+    <t>j4QUz0K!</t>
   </si>
   <si>
     <t>BASURTO SALAZAR ANGELA MARGARITA</t>
@@ -4898,7 +4898,7 @@
     <t>angela.basurto@espam.edu.ec</t>
   </si>
   <si>
-    <t>2#E5kPB#</t>
+    <t>Gs9S3ttd</t>
   </si>
   <si>
     <t>CASANOVA INTRIAGO ANDREA BELEN</t>
@@ -4910,7 +4910,7 @@
     <t>andrea.casanova@espam.edu.ec</t>
   </si>
   <si>
-    <t>ZNCN9RrC</t>
+    <t>zm9&amp;ngR4</t>
   </si>
   <si>
     <t>CHUMO ZAMBRANO ANTONIO BENITO</t>
@@ -4919,7 +4919,7 @@
     <t>antonio.chumo@espam.edu.ec</t>
   </si>
   <si>
-    <t>Rr5hM0sF</t>
+    <t>STaB&amp;0ZD</t>
   </si>
   <si>
     <t>GARCIA CORTEZ ERIKA STEFANIA</t>
@@ -4928,7 +4928,7 @@
     <t>erika.garcia@espam.edu.ec</t>
   </si>
   <si>
-    <t>oY?/zbF2</t>
+    <t>#1&amp;xqF?u</t>
   </si>
   <si>
     <t>GOMEZ BARRERA JUNIOR LENIN</t>
@@ -4937,7 +4937,7 @@
     <t>junior.gomez@espam.edu.ec</t>
   </si>
   <si>
-    <t>aCmAYwTe</t>
+    <t>n&amp;KuCuOq</t>
   </si>
   <si>
     <t>LOOR CEDEÑO RICARDO EMANUEL</t>
@@ -4946,7 +4946,7 @@
     <t>ricardo.loor@espam.edu.ec</t>
   </si>
   <si>
-    <t>qarptx1x</t>
+    <t>tDNvWyOW</t>
   </si>
   <si>
     <t>LOOR LUCAS EVELYN GUADALUPE</t>
@@ -4958,7 +4958,7 @@
     <t>evelyn.loor@espam.edu.ec</t>
   </si>
   <si>
-    <t>?tmhsWzr</t>
+    <t>li!l2uxg</t>
   </si>
   <si>
     <t>LOOR VELASCO FABIANA BELEN</t>
@@ -4970,7 +4970,7 @@
     <t>fabiana.loor@espam.edu.ec</t>
   </si>
   <si>
-    <t>nCRClwwo</t>
+    <t>ATpTO5RO</t>
   </si>
   <si>
     <t>MARTINEZ CEDEÑO JENIFFER ESTEFANIA</t>
@@ -4979,7 +4979,7 @@
     <t>jeniffer.martinez@espam.edu.ec</t>
   </si>
   <si>
-    <t>/pUxRhXf</t>
+    <t>8DMW11JB</t>
   </si>
   <si>
     <t>MENDOZA BARRE EDDY ENMANUEL</t>
@@ -4988,7 +4988,7 @@
     <t>eddy.mendoza@espam.edu.ec</t>
   </si>
   <si>
-    <t>1SBJiWov</t>
+    <t>THnV/Ng2</t>
   </si>
   <si>
     <t>MURILLO PALACIOS ULICES JAIR</t>
@@ -4997,7 +4997,7 @@
     <t>ulices.murillo@espam.edu.ec</t>
   </si>
   <si>
-    <t>jiuNZPNi</t>
+    <t>u07iR/Ns</t>
   </si>
   <si>
     <t>QUIJANO ZAMBRANO JONATHAN ERNESTO</t>
@@ -5006,7 +5006,7 @@
     <t>jonathan.quijano@espam.edu.ec</t>
   </si>
   <si>
-    <t>Nb!Nx3tB</t>
+    <t>LCdMnfcf</t>
   </si>
   <si>
     <t>ROBLES YORI EFRAIN DAVID</t>
@@ -5015,7 +5015,7 @@
     <t>efrain.robles@espam.edu.ec</t>
   </si>
   <si>
-    <t>ImYLGJJ?</t>
+    <t>AlhGqEHL</t>
   </si>
   <si>
     <t>SABANDO ZAMBRANO FREDDY ANTONIO</t>
@@ -5024,7 +5024,7 @@
     <t>freddy.sabando@espam.edu.ec</t>
   </si>
   <si>
-    <t>!GynVIjN</t>
+    <t>6ec06Qnm</t>
   </si>
   <si>
     <t>SOLORZANO GUERRERO RONALDO WANDERLEY</t>
@@ -5033,7 +5033,7 @@
     <t>ronaldo.solorzano@espam.edu.ec</t>
   </si>
   <si>
-    <t>6qNGeRhd</t>
+    <t>y6Wa!74G</t>
   </si>
   <si>
     <t>VELEZ CALDERON GENESIS MARIANA</t>
@@ -5045,7 +5045,7 @@
     <t>genesis.velez@espam.edu.ec</t>
   </si>
   <si>
-    <t>eaqh0q5o</t>
+    <t>&amp;U3cI//4</t>
   </si>
   <si>
     <t>ZAMBRANO BALDA JOSE RAMIRO</t>
@@ -5054,7 +5054,7 @@
     <t>josera.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>K#9yU4ss</t>
+    <t>Bc#nMRhA</t>
   </si>
   <si>
     <t>ZAMBRANO CANTOS YENNY ANNABEL</t>
@@ -5063,7 +5063,7 @@
     <t>yenny.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>yte6SxDT</t>
+    <t>BNlP?PfD</t>
   </si>
   <si>
     <t>ZAMBRANO LOOR CRISTHIAN LEONARDO</t>
@@ -5072,7 +5072,7 @@
     <t>cristhian.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>!0IBtgv9</t>
+    <t>yNzXa8!M</t>
   </si>
   <si>
     <t>ZAMBRANO LOOR DIANA STEFANIA</t>
@@ -5081,7 +5081,7 @@
     <t>dianas.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>XdRU9Nef</t>
+    <t>M4sxv&amp;EF</t>
   </si>
   <si>
     <t>ZAMBRANO LOOR MARIA EMILIA</t>
@@ -5090,7 +5090,7 @@
     <t>maria.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>Z4JE5cO9</t>
+    <t>9Kre0Tl#</t>
   </si>
   <si>
     <t>ZAMBRANO MOREIRA LEONELA ALEJANDRA</t>
@@ -5099,7 +5099,7 @@
     <t>leonela.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>AuTw5Xm?</t>
+    <t>!Xp#D4Y#</t>
   </si>
   <si>
     <t>ALAVA ORTIZ EDWIN ALEXANDER</t>
@@ -5108,7 +5108,7 @@
     <t>edwin.alava@espam.edu.ec</t>
   </si>
   <si>
-    <t>Livl&amp;UN0</t>
+    <t>!2lQl2NH</t>
   </si>
   <si>
     <t>ALCIVAR LOOR GEMA LISBETH</t>
@@ -5117,7 +5117,7 @@
     <t>gemal.alcivar@espam.edu.ec</t>
   </si>
   <si>
-    <t>e#BGLiuB</t>
+    <t>!ETVcCEJ</t>
   </si>
   <si>
     <t>AVELLAN SANTANA GENESIS NICOLLE</t>
@@ -5126,7 +5126,7 @@
     <t>genesis.avellan@espam.edu.ec</t>
   </si>
   <si>
-    <t>1o?5CGgG</t>
+    <t>CTv&amp;ENin</t>
   </si>
   <si>
     <t>CALDERON SANCHEZ SANDY KATHERINE</t>
@@ -5138,7 +5138,7 @@
     <t>sandy.calderon@espam.edu.ec</t>
   </si>
   <si>
-    <t>A6!pPdTW</t>
+    <t>OrOjsoSP</t>
   </si>
   <si>
     <t>CARDENAS ASTUDILLO ANGELA JULIANA</t>
@@ -5150,7 +5150,7 @@
     <t>angela.cardenas@espam.edu.ec</t>
   </si>
   <si>
-    <t>lg6z&amp;aOr</t>
+    <t>UAqNc3f#</t>
   </si>
   <si>
     <t>CARRILLO PACHAY MARCO STEVE</t>
@@ -5159,7 +5159,7 @@
     <t>marco.carrillo@espam.edu.ec</t>
   </si>
   <si>
-    <t>zjbkzjnc</t>
+    <t>ns9JmbSp</t>
   </si>
   <si>
     <t>CEDEÑO ZAMBRANO BRYAN ISIDRO</t>
@@ -5168,7 +5168,7 @@
     <t>bryan.cedeno@espam.edu.ec</t>
   </si>
   <si>
-    <t>NH2aGYUF</t>
+    <t>dwlXizLb</t>
   </si>
   <si>
     <t>CEVALLOS SALTOS ANTHONY FERNANDO</t>
@@ -5177,7 +5177,7 @@
     <t>anthonyf.cevallos@espam.edu.ec</t>
   </si>
   <si>
-    <t>x8MfJbzm</t>
+    <t>U9kVRxBk</t>
   </si>
   <si>
     <t>CHANG ZAMBRANO MARTHA YAMILETH</t>
@@ -5186,7 +5186,7 @@
     <t>martha.chang@espam.edu.ec</t>
   </si>
   <si>
-    <t>vAji5gj?</t>
+    <t>DM0tsC4X</t>
   </si>
   <si>
     <t>CHIRIBOGA FARIAS LUIS FERNANDO</t>
@@ -5195,7 +5195,7 @@
     <t>luis.chiriboga@espam.edu.ec</t>
   </si>
   <si>
-    <t>qFg1rNc4</t>
+    <t>fDoQSj&amp;N</t>
   </si>
   <si>
     <t>ESPINOZA PILAY JERSON JOSE</t>
@@ -5204,7 +5204,7 @@
     <t>jerson.espinoza@espam.edu.ec</t>
   </si>
   <si>
-    <t>0S9nL3E7</t>
+    <t>xICtvdG0</t>
   </si>
   <si>
     <t>FARIAS MERA MAURICIO ANDRES</t>
@@ -5213,7 +5213,7 @@
     <t>mauricio.farias@espam.edu.ec</t>
   </si>
   <si>
-    <t>7a0noiWs</t>
+    <t>MQ36XALx</t>
   </si>
   <si>
     <t>HERNANDEZ GONZALEZ JAMILEX KAREY</t>
@@ -5225,7 +5225,7 @@
     <t>jamilex.hernandez@espam.edu.ec</t>
   </si>
   <si>
-    <t>1jTAg7k!</t>
+    <t>TT0ZckSk</t>
   </si>
   <si>
     <t>LEONES FALCONES ABAD JHOAN</t>
@@ -5234,7 +5234,7 @@
     <t>abad.leones@espam.edu.ec</t>
   </si>
   <si>
-    <t>oikD/5o2</t>
+    <t>AEkKgDUX</t>
   </si>
   <si>
     <t>LOOR CEVALLOS ANA MARIA</t>
@@ -5243,7 +5243,7 @@
     <t>anama.loor@espam.edu.ec</t>
   </si>
   <si>
-    <t>ZRI/GFyq</t>
+    <t>5IpAKqI#</t>
   </si>
   <si>
     <t>LOOR LOOR RONALD POLIVIO</t>
@@ -5252,7 +5252,7 @@
     <t>ronald.loor@espam.edu.ec</t>
   </si>
   <si>
-    <t>eWIfBPCf</t>
+    <t>pBV3TeJh</t>
   </si>
   <si>
     <t>LOOR REYES GENESIS JAMILETH</t>
@@ -5261,7 +5261,7 @@
     <t>genesis.loor@espam.edu.ec</t>
   </si>
   <si>
-    <t>TxoTdysr</t>
+    <t>Hu!jjMON</t>
   </si>
   <si>
     <t>MACIAS BRAVO RICARDO FRANCISCO</t>
@@ -5270,7 +5270,7 @@
     <t>ricardo.macias@espam.edu.ec</t>
   </si>
   <si>
-    <t>QV/o#4ib</t>
+    <t>zltP9YQD</t>
   </si>
   <si>
     <t>MACIAS MACIAS LISSETH LILIBETH</t>
@@ -5279,7 +5279,7 @@
     <t>lisseth.macias@espam.edu.ec</t>
   </si>
   <si>
-    <t>K&amp;fYgfku</t>
+    <t>0Qkm3BDH</t>
   </si>
   <si>
     <t>MANZABA CEDEÑO KEVIN ALBERTO</t>
@@ -5288,7 +5288,7 @@
     <t>kevin.manzaba@espam.edu.ec</t>
   </si>
   <si>
-    <t>93QJgV8u</t>
+    <t>vA2lFsm!</t>
   </si>
   <si>
     <t>MARQUEZ LEMA NAYELI SABRINA</t>
@@ -5297,7 +5297,7 @@
     <t>nayeli.marquez@espam.edu.ec</t>
   </si>
   <si>
-    <t>84rgV0wz</t>
+    <t>folAPdA3</t>
   </si>
   <si>
     <t>MENDOZA BRIONES MARIUXI KATHERINE</t>
@@ -5309,7 +5309,7 @@
     <t>mariuxi.mendoza@espam.edu.ec</t>
   </si>
   <si>
-    <t>kNHv&amp;i8P</t>
+    <t>NzmMGbuj</t>
   </si>
   <si>
     <t>MOLINA CEDEÑO JUAN DE DIOS</t>
@@ -5318,7 +5318,7 @@
     <t>juan.molina@espam.edu.ec</t>
   </si>
   <si>
-    <t>uEsUndpw</t>
+    <t>BR5SsN7E</t>
   </si>
   <si>
     <t>MONTESDEOCA GARCIA YUDID ALEXANDRA</t>
@@ -5327,7 +5327,7 @@
     <t>yudid.montesdeoca@espam.edu.ec</t>
   </si>
   <si>
-    <t>osgfobTq</t>
+    <t>U0GqK5VU</t>
   </si>
   <si>
     <t>MUÑOZ MERA JUAN PABLO</t>
@@ -5336,7 +5336,7 @@
     <t>juan.munoz@espam.edu.ec</t>
   </si>
   <si>
-    <t>17HlwF/L</t>
+    <t>jFIJd9&amp;1</t>
   </si>
   <si>
     <t>NAVARRETE ORMAZA ERICK ALEXANDER</t>
@@ -5345,7 +5345,7 @@
     <t>erick.navarrete@espam.edu.ec</t>
   </si>
   <si>
-    <t>n1miT1Zq</t>
+    <t>/vajr!Y7</t>
   </si>
   <si>
     <t>OCAMPO BARRE ANTHONY VICENTE</t>
@@ -5354,7 +5354,7 @@
     <t>anthony.ocampo@espam.edu.ec</t>
   </si>
   <si>
-    <t>DCWYPmtG</t>
+    <t>TtiOx3GT</t>
   </si>
   <si>
     <t>PARRALES FALCONES ANTHONY LEONARDO</t>
@@ -5363,7 +5363,7 @@
     <t>anthony.parrales@espam.edu.ec</t>
   </si>
   <si>
-    <t>5SHWGzvU</t>
+    <t>p8lscaI7</t>
   </si>
   <si>
     <t>RAMOS SALTOS NICOLE PAOLA</t>
@@ -5372,7 +5372,7 @@
     <t>nicole.ramos@espam.edu.ec</t>
   </si>
   <si>
-    <t>jZpBzlJV</t>
+    <t>vxmcHyR4</t>
   </si>
   <si>
     <t>ROBLES MOLINA JENIFFER STEFANIA</t>
@@ -5381,7 +5381,7 @@
     <t>jeniffer.robles@espam.edu.ec</t>
   </si>
   <si>
-    <t>5LkUl&amp;vT</t>
+    <t>yLAUnkbx</t>
   </si>
   <si>
     <t>RODRIGUEZ CAMPOS JEAN KATHERINE</t>
@@ -5390,7 +5390,7 @@
     <t>jean.rodriguez@espam.edu.ec</t>
   </si>
   <si>
-    <t>oBX?eYjF</t>
+    <t>/yk7v#wY</t>
   </si>
   <si>
     <t>SANCHEZ MEDINA GISSEL STEPHANIE</t>
@@ -5399,7 +5399,7 @@
     <t>gissel.sanchez@espam.edu.ec</t>
   </si>
   <si>
-    <t>jCVB!PKD</t>
+    <t>&amp;y/!n7r8</t>
   </si>
   <si>
     <t>VASQUEZ VERA ARGENIS JAVIER</t>
@@ -5408,7 +5408,7 @@
     <t>argenis.vasquez@espam.edu.ec</t>
   </si>
   <si>
-    <t>wREmVM#T</t>
+    <t>430GXQac</t>
   </si>
   <si>
     <t>VASQUEZ VERA MARIA MERCEDES</t>
@@ -5417,7 +5417,7 @@
     <t>maria.vasquez@espam.edu.ec</t>
   </si>
   <si>
-    <t>MD6pXzR&amp;</t>
+    <t>j2vLKDkn</t>
   </si>
   <si>
     <t>VELEZ MERA JOSSELYN JOSSENKA</t>
@@ -5426,7 +5426,7 @@
     <t>josselynjo.velez@espam.edu.ec</t>
   </si>
   <si>
-    <t>nW3Vk1A3</t>
+    <t>Rhejz6l2</t>
   </si>
   <si>
     <t>VELEZ PALACIOS STEVEN RAMON</t>
@@ -5435,7 +5435,7 @@
     <t>steven.velez@espam.edu.ec</t>
   </si>
   <si>
-    <t>S9dv#Ywq</t>
+    <t>MpR2N1yt</t>
   </si>
   <si>
     <t>VERA BRAVO MARY LAURA</t>
@@ -5444,7 +5444,7 @@
     <t>mary.vera@espam.edu.ec</t>
   </si>
   <si>
-    <t>tt5DivNG</t>
+    <t>lkWTh2uB</t>
   </si>
   <si>
     <t>VILLAMIL VALENCIA ISABEL ANDREA</t>
@@ -5453,7 +5453,7 @@
     <t>isabel.villamil@espam.edu.ec</t>
   </si>
   <si>
-    <t>Dk!blnLR</t>
+    <t>/L&amp;44pzq</t>
   </si>
   <si>
     <t>ZAMBRANO COBEÑA PABLO ALBERTO</t>
@@ -5462,7 +5462,7 @@
     <t>pablo.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>&amp;BUCe#uP</t>
+    <t>B&amp;C9p1BH</t>
   </si>
   <si>
     <t>ALVAREZ INTRIAGO MAILIN KATHERINE</t>
@@ -5471,7 +5471,7 @@
     <t>mailin.alvarez@espam.edu.ec</t>
   </si>
   <si>
-    <t>fGajkvGh</t>
+    <t>V1IPCIRV</t>
   </si>
   <si>
     <t>BRAVO ARTEAGA RICARDO JAVIER</t>
@@ -5480,7 +5480,7 @@
     <t>ricardo.bravo@espam.edu.ec</t>
   </si>
   <si>
-    <t>u5GO6mFY</t>
+    <t>#TUiR2nL</t>
   </si>
   <si>
     <t>BRAVO VERGARA GEMA CAROLINA</t>
@@ -5489,7 +5489,7 @@
     <t>gemac.bravo@espam.edu.ec</t>
   </si>
   <si>
-    <t>QT5p#LTI</t>
+    <t>h#8UK9CJ</t>
   </si>
   <si>
     <t>CEDEÑO VELASQUEZ GEMA GUADALUPE</t>
@@ -5498,7 +5498,7 @@
     <t>gemag.cedeno@espam.edu.ec</t>
   </si>
   <si>
-    <t>evbI?tPN</t>
+    <t>FqDv8k4l</t>
   </si>
   <si>
     <t>CHAVEZ VELIZ DENIS ALEXANDER</t>
@@ -5507,7 +5507,7 @@
     <t>denis.chavez@espam.edu.ec</t>
   </si>
   <si>
-    <t>SEOPT#r5</t>
+    <t>126GxXPp</t>
   </si>
   <si>
     <t>DEMERA ZAMBRANO JACKSON ANDRES</t>
@@ -5516,7 +5516,7 @@
     <t>jackson.demera@espam.edu.ec</t>
   </si>
   <si>
-    <t>OcwjsEjO</t>
+    <t>u2dUndGb</t>
   </si>
   <si>
     <t>GANCHOZO LECTONG GRESSILLE GUISSELLA</t>
@@ -5525,7 +5525,7 @@
     <t>gressille.ganchozo@espam.edu.ec</t>
   </si>
   <si>
-    <t>dYXTqe5U</t>
+    <t>Jf36hrZG</t>
   </si>
   <si>
     <t>INDIO ZAMBRANO ODALIS MICHELLE</t>
@@ -5537,7 +5537,7 @@
     <t>odalis.indio@espam.edu.ec</t>
   </si>
   <si>
-    <t>W!H4OYwN</t>
+    <t>3cAmcAj1</t>
   </si>
   <si>
     <t>INTRIAGO TERAN BRYAN ASDRUBAL</t>
@@ -5546,7 +5546,7 @@
     <t>bryan.intriago@espam.edu.ec</t>
   </si>
   <si>
-    <t>?DV?3/JQ</t>
+    <t>HZxoEVeT</t>
   </si>
   <si>
     <t>INTRIAGO ZAMBRANO GISSELA KAROLINA</t>
@@ -5555,7 +5555,7 @@
     <t>gissela.intriago@espam.edu.ec</t>
   </si>
   <si>
-    <t>azYUTt6U</t>
+    <t>fvROtsvm</t>
   </si>
   <si>
     <t>LEONES SOLORZANO YARITZA DANIELA</t>
@@ -5564,7 +5564,7 @@
     <t>yaritza.leones@espam.edu.ec</t>
   </si>
   <si>
-    <t>WqS1vAa&amp;</t>
+    <t>g&amp;xyn015</t>
   </si>
   <si>
     <t>LOPEZ MORA JOSSELYN AMARILYS</t>
@@ -5573,7 +5573,7 @@
     <t>josselyn.lopez@espam.edu.ec</t>
   </si>
   <si>
-    <t>?pzB/C8N</t>
+    <t>kQE26lMC</t>
   </si>
   <si>
     <t>MERA LOOR ANTONY ELIAN</t>
@@ -5582,7 +5582,7 @@
     <t>antony.mera@espam.edu.ec</t>
   </si>
   <si>
-    <t>9lLdbd7h</t>
+    <t>IN!Vmjo6</t>
   </si>
   <si>
     <t>MERA SABANDO GEMA YAMILETH</t>
@@ -5591,7 +5591,7 @@
     <t>gema.mera@espam.edu.ec</t>
   </si>
   <si>
-    <t>f!ju91bG</t>
+    <t>8uaZ23/n</t>
   </si>
   <si>
     <t>MIRANDA IBARRA ALFONSO SEBASTIAN</t>
@@ -5600,7 +5600,7 @@
     <t>alfonso.miranda@espam.edu.ec</t>
   </si>
   <si>
-    <t>yNQNrZYx</t>
+    <t>6RnegTio</t>
   </si>
   <si>
     <t>MONGE ERAZO JECSY PIERINA</t>
@@ -5609,7 +5609,7 @@
     <t>jecsy.monge@espam.edu.ec</t>
   </si>
   <si>
-    <t>d2WYlve7</t>
+    <t>yYOOwmuC</t>
   </si>
   <si>
     <t>ROMERO ORTEGA ANGEL ANDRES</t>
@@ -5618,7 +5618,7 @@
     <t>angel.romero@espam.edu.ec</t>
   </si>
   <si>
-    <t>faiunFgJ</t>
+    <t>2HQTce9K</t>
   </si>
   <si>
     <t>SOLORZANO INTRIAGO OSCAR FABIAN</t>
@@ -5630,7 +5630,7 @@
     <t>oscar.solorzano@espam.edu.ec</t>
   </si>
   <si>
-    <t>dHW01F1i</t>
+    <t>AfT6Y0Vy</t>
   </si>
   <si>
     <t>VALVERDE ZAPATA KATHIUSCA CARLOTA</t>
@@ -5642,7 +5642,7 @@
     <t>kathiusca.valverde@espam.edu.ec</t>
   </si>
   <si>
-    <t>XLUcU1dF</t>
+    <t>zP/vHA9d</t>
   </si>
   <si>
     <t>VERA AYALA GENESIS LISBETH</t>
@@ -5651,7 +5651,7 @@
     <t>genesis.vera@espam.edu.ec</t>
   </si>
   <si>
-    <t>qtshGR9/</t>
+    <t>7R0gx&amp;Cs</t>
   </si>
   <si>
     <t>VERA PULIDO MARIA IVANNA</t>
@@ -5660,7 +5660,7 @@
     <t>mariai.verap@espam.edu.ec</t>
   </si>
   <si>
-    <t>YM/DsdzU</t>
+    <t>5pwUghv0</t>
   </si>
   <si>
     <t>VERA ZAMBRANO JAZMIN CAROLINA</t>
@@ -5669,7 +5669,7 @@
     <t>jazmin.vera@espam.edu.ec</t>
   </si>
   <si>
-    <t>aFcBsdpi</t>
+    <t>k9JLnkaL</t>
   </si>
   <si>
     <t>VERGARA ARBOLEDA WENDY DEL ROCIO</t>
@@ -5681,7 +5681,7 @@
     <t>wendy.vergara@espam.edu.ec</t>
   </si>
   <si>
-    <t>c5PbNFj/</t>
+    <t>1VpPq#fJ</t>
   </si>
   <si>
     <t>VILLAMAR GONZALEZ ELENA SAMANTA</t>
@@ -5690,7 +5690,7 @@
     <t>elena.villamar@espam.edu.ec</t>
   </si>
   <si>
-    <t>0Bnq04WX</t>
+    <t>K/xWc1HP</t>
   </si>
   <si>
     <t>ZAMBRANO ALCIVAR GENESIS VALENTINA</t>
@@ -5699,7 +5699,7 @@
     <t>genesis.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>l0dEDVRT</t>
+    <t>0gzPSg&amp;J</t>
   </si>
   <si>
     <t>ZAMBRANO CHAVEZ ANDREA MONSERRATE</t>
@@ -5708,7 +5708,7 @@
     <t>andream.zambranoc@espam.edu.ec</t>
   </si>
   <si>
-    <t>My4jnfRX</t>
+    <t>emq3&amp;gMJ</t>
   </si>
   <si>
     <t>ZAMBRANO GRACIA DANIELA ANGELINA</t>
@@ -5717,7 +5717,7 @@
     <t>daniela.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>dcX7BHM8</t>
+    <t>5&amp;5rHFku</t>
   </si>
   <si>
     <t>ZAMBRANO MUÑOZ WILLY JHONAY</t>
@@ -5726,7 +5726,7 @@
     <t>willy.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>uliqZlbO</t>
+    <t>mE4ya9Sm</t>
   </si>
   <si>
     <t>ZAMBRANO ZAMBRANO TATIANA ELIZABETH</t>
@@ -5735,7 +5735,7 @@
     <t>tatianael.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>7Nk3H&amp;W5</t>
+    <t>HsF4!?LE</t>
   </si>
 </sst>
 </file>

--- a/storage/app/public/seeds/datosPassword.xlsx
+++ b/storage/app/public/seeds/datosPassword.xlsx
@@ -44,7 +44,7 @@
     <t>angie.alcivar.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>nUrcCNb9</t>
+    <t>EuvpW/ux</t>
   </si>
   <si>
     <t>ALCIVAR VERA KARLA MILENA</t>
@@ -53,7 +53,7 @@
     <t>karla.alcivar.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>q8RdTBIf</t>
+    <t>6KCaO&amp;5c</t>
   </si>
   <si>
     <t>ALVIA ROCA HENRY ISAAC</t>
@@ -65,7 +65,7 @@
     <t>henry.alvia.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>iEZlvSmx</t>
+    <t>BiH4WUoW</t>
   </si>
   <si>
     <t>ANANGONO GOMEZ ANA MARCELA</t>
@@ -74,7 +74,7 @@
     <t>ana.anangono.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>4WUYvr4o</t>
+    <t>GxV98rk#</t>
   </si>
   <si>
     <t>BRAVO MARCILLO NATHALY SILVANA</t>
@@ -86,7 +86,7 @@
     <t>nathaly.bravo.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>pZIwjql!</t>
+    <t>95He/E62</t>
   </si>
   <si>
     <t>BRIONES SUAREZ DANIA MELISSA</t>
@@ -95,7 +95,7 @@
     <t>dania.briones.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>SP8ssJpm</t>
+    <t>G#U0&amp;Y5I</t>
   </si>
   <si>
     <t>CANCHINGRE LOZA MARIANA DE JESUS</t>
@@ -107,7 +107,7 @@
     <t>mariana.canchingre.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>0h/8i/r?</t>
+    <t>dl!XEuWR</t>
   </si>
   <si>
     <t>CEDEÑO GARCIA EMILY JAHAIRA</t>
@@ -116,7 +116,7 @@
     <t>emily.cedeno.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>xuV3hwI4</t>
+    <t>XpIw/cU9</t>
   </si>
   <si>
     <t>CEDEÑO VELEZ STEVEN ANTONIO</t>
@@ -125,7 +125,7 @@
     <t>steven.cedeno.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>MpK?LRS5</t>
+    <t>nil2aQsA</t>
   </si>
   <si>
     <t>CHICA ORDOÑEZ YAIZA ANAHI</t>
@@ -134,7 +134,7 @@
     <t>yaiza.chica.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>EEO/OEUP</t>
+    <t>Oe6UlgHv</t>
   </si>
   <si>
     <t>CORONEL MERO DAMARY SABRINA</t>
@@ -143,7 +143,7 @@
     <t>damary.coronel.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>zTPHiEDN</t>
+    <t>EuMraRNH</t>
   </si>
   <si>
     <t>DELGADO BENAVIDES MELISSA ANDREINA</t>
@@ -152,7 +152,7 @@
     <t>melissa.delgado.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>jHVD3oik</t>
+    <t>fBMewzsd</t>
   </si>
   <si>
     <t>DELGADO SOLORZANO TONY DAMIAN</t>
@@ -161,7 +161,7 @@
     <t>tony.delgado.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>2LRQw0gF</t>
+    <t>j0t4c4Ku</t>
   </si>
   <si>
     <t>ELENO GENDE JOSELYN KATHERINE</t>
@@ -173,7 +173,7 @@
     <t>joselyn.eleno.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>4t8ThygO</t>
+    <t>hBO9Fa43</t>
   </si>
   <si>
     <t>GARCIA RIVERA ANGHELA LISBETH</t>
@@ -185,7 +185,7 @@
     <t>anghela.garcia.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>mMhC3b?v</t>
+    <t>xIJFCspp</t>
   </si>
   <si>
     <t>GARCIA ROSS PRISCILA TAHILY</t>
@@ -194,7 +194,7 @@
     <t>priscila.garcia.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>?gs5/#qi</t>
+    <t>?S4YNIQp</t>
   </si>
   <si>
     <t>LOOR ZAMBRANO MARILYN MICHEL</t>
@@ -203,7 +203,7 @@
     <t>marilyn.loor.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>Rlklw10!</t>
+    <t>J&amp;jH0sid</t>
   </si>
   <si>
     <t>LUCAS MENDOZA MOISES NOE</t>
@@ -212,7 +212,7 @@
     <t>moises.lucas.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>1Je3EcOP</t>
+    <t>GntEJy##</t>
   </si>
   <si>
     <t>MANTUANO LOOR JENIFER DANIELA</t>
@@ -221,7 +221,7 @@
     <t>jenifer.mantuano.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>Ex/vaavl</t>
+    <t>PV4UxZFd</t>
   </si>
   <si>
     <t>MENENDEZ SANTANA JOSMELY ANAHI</t>
@@ -230,7 +230,7 @@
     <t>josmely.menendez.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>XvY5SBEG</t>
+    <t>ga6B70AQ</t>
   </si>
   <si>
     <t>MEZA ESPINOZA MISHEL NICOL</t>
@@ -239,7 +239,7 @@
     <t>mishel.meza.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>6hoJl3/0</t>
+    <t>RGUGRejY</t>
   </si>
   <si>
     <t>MORANTE TROYA JAIME ANDRES</t>
@@ -248,7 +248,7 @@
     <t>jaime.morante.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>iexTynq9</t>
+    <t>KOAaEo00</t>
   </si>
   <si>
     <t>PARRAGA MOREIRA CINDY ANDREA</t>
@@ -257,7 +257,7 @@
     <t>cindy.parraga.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>g6HI94B0</t>
+    <t>JOMU6ziu</t>
   </si>
   <si>
     <t>PEÑAFIEL VALENCIA JULEISY LISBETH</t>
@@ -269,7 +269,7 @@
     <t>juleisy.penafiel.4623@espam.edu.ec</t>
   </si>
   <si>
-    <t>LqzIFGK/</t>
+    <t>bQ0qsWTF</t>
   </si>
   <si>
     <t>PICO CRIOLLO MILETH KATHERINE</t>
@@ -278,7 +278,7 @@
     <t>mileth.pico.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>prY#MPs6</t>
+    <t>C5R3blwe</t>
   </si>
   <si>
     <t>RENDON GILER JUNIOR ARIEL</t>
@@ -287,7 +287,7 @@
     <t>junior.rendon@espam.edu.ec</t>
   </si>
   <si>
-    <t>!2PhTXil</t>
+    <t>?4CF!Qef</t>
   </si>
   <si>
     <t>SALVATIERRA SANTOS BRYAN ALEJANDRO</t>
@@ -296,7 +296,7 @@
     <t>bryan.salvatierra@espam.edu.ec</t>
   </si>
   <si>
-    <t>iWQ/Qd7J</t>
+    <t>Z5CN!2v#</t>
   </si>
   <si>
     <t>SOLORZANO LUCAS ALEXANDER JOEL</t>
@@ -308,7 +308,7 @@
     <t>alexander.solorzano.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>g9Y1evQC</t>
+    <t>tplbqhlJ</t>
   </si>
   <si>
     <t>SOLORZANO RODRIGUEZ DAYANA NICOLLE</t>
@@ -317,7 +317,7 @@
     <t>dayanna.solorzano.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>/hn8Qpua</t>
+    <t>&amp;BnpW!4G</t>
   </si>
   <si>
     <t>TENORIO QUINTERO ELY GILMAR</t>
@@ -329,7 +329,7 @@
     <t>ely.tenorio.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>zxLjid#x</t>
+    <t>kiRIBV7A</t>
   </si>
   <si>
     <t>VELASQUEZ DOMINGUEZ JORDAN RICARDO</t>
@@ -338,7 +338,7 @@
     <t>jordan.velasquez.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>2ge3tX0r</t>
+    <t>oi#rePnX</t>
   </si>
   <si>
     <t>VILLAVICENCIO SALVADOR MELANIE HELLAIM</t>
@@ -350,7 +350,7 @@
     <t>melanie.villavicencio.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>!x9JS71t</t>
+    <t>!I12oUEE</t>
   </si>
   <si>
     <t>ZAMBRANO CEDEÑO ANGELO ALEXANDER</t>
@@ -359,7 +359,7 @@
     <t>angelo.zambrano.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>ExP6ezea</t>
+    <t>yoiJZR15</t>
   </si>
   <si>
     <t>ZAMBRANO VALENCIA SHIRLEY EDITH</t>
@@ -368,7 +368,7 @@
     <t>shirley.zambrano.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>sEQP5?IN</t>
+    <t>ncTth923</t>
   </si>
   <si>
     <t>ANGEL GOMEZ GILENY NAHOMY</t>
@@ -380,7 +380,7 @@
     <t>gileny.angel.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>sO51j9S9</t>
+    <t>1dCAsjw5</t>
   </si>
   <si>
     <t>BARRE QUIJANO DARWIN JOSE</t>
@@ -389,7 +389,7 @@
     <t>darwin.barre@espam.edu.ec</t>
   </si>
   <si>
-    <t>#plUJPqD</t>
+    <t>!TF70US3</t>
   </si>
   <si>
     <t>BRAVO ALVAREZ EMILY JESUS</t>
@@ -398,7 +398,7 @@
     <t>emily.bravo.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>4jfe9dKS</t>
+    <t>Ji#B/MXY</t>
   </si>
   <si>
     <t>CAGUA YOONG NAHOMY JAMILETH</t>
@@ -407,7 +407,7 @@
     <t>nahomy.cagua.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>2VKSIK8#</t>
+    <t>LRjLNCUF</t>
   </si>
   <si>
     <t>CASTILLO CEDEÑO EMILIA MARICELA</t>
@@ -416,7 +416,7 @@
     <t>emilia.castillo.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>jdyjGBvm</t>
+    <t>h/lYRIoU</t>
   </si>
   <si>
     <t>CEDEÑO ZAMBRANO JOSE DANIEL</t>
@@ -425,7 +425,7 @@
     <t>jose.cedenoz.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>0InqPHqS</t>
+    <t>j8RNibvE</t>
   </si>
   <si>
     <t>CIFUENTES VELASQUEZ JOSE JAHIR</t>
@@ -434,7 +434,7 @@
     <t>jose.cifuentes.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>i3t?&amp;dWf</t>
+    <t>3#mk78XF</t>
   </si>
   <si>
     <t>CONFORME CIFUENTES ROBERTH JESUS</t>
@@ -443,7 +443,7 @@
     <t>roberth.conforme.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>aipw8PGR</t>
+    <t>bN8B45ym</t>
   </si>
   <si>
     <t>CORDERO GILER SALMA PAOLA</t>
@@ -452,7 +452,7 @@
     <t>salma.cordero.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>bDJ?B6lQ</t>
+    <t>49NJaMbS</t>
   </si>
   <si>
     <t>FARIAS VELIZ RENE OCTAVIO</t>
@@ -461,7 +461,7 @@
     <t>rene.farias.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>6&amp;1oKUQg</t>
+    <t>&amp;7&amp;muwnl</t>
   </si>
   <si>
     <t>GARCIA DUEÑAS JEAN FERNANDO</t>
@@ -470,7 +470,7 @@
     <t>jean.garcia.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>ezVeLxga</t>
+    <t>sOcTU!a6</t>
   </si>
   <si>
     <t>HERRERA BASURTO IVIS ANTONELLA</t>
@@ -479,7 +479,7 @@
     <t>ivis.herrera.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>4w?VXUvT</t>
+    <t>m6uIV3pr</t>
   </si>
   <si>
     <t>HIDALGO LOOR MARLYN NALLELY</t>
@@ -488,7 +488,7 @@
     <t>marlyn.hidalgo.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>ggOtm8g1</t>
+    <t>PTc!nrW5</t>
   </si>
   <si>
     <t>IBARRA CHAVARRIA JUAN DIEGO</t>
@@ -497,7 +497,7 @@
     <t>juan.ibarra.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>ApioZ3CX</t>
+    <t>gJv/natX</t>
   </si>
   <si>
     <t>JAYA ZAPATA VICTOR EDUARDO</t>
@@ -506,7 +506,7 @@
     <t>victor.jaya.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>iLq2wvUa</t>
+    <t>7b30V6XQ</t>
   </si>
   <si>
     <t>LOOR DELGADO JERRY JOEL</t>
@@ -515,7 +515,7 @@
     <t>jerry.loor.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>gcSnG5mT</t>
+    <t>Sl7lvLmF</t>
   </si>
   <si>
     <t>MANTUANO PONCE MELANY MONCERRATE</t>
@@ -524,7 +524,7 @@
     <t>melany.mantuano.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>XrLapmY9</t>
+    <t>Rza/USdH</t>
   </si>
   <si>
     <t>MENDOZA VASQUEZ ARIEL ALEXIS</t>
@@ -536,7 +536,7 @@
     <t>ariel.mendoza.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>?tfc9e8T</t>
+    <t>mPt7PWIb</t>
   </si>
   <si>
     <t>MOREIRA GARCIA MACARIO EMANUEL</t>
@@ -545,7 +545,7 @@
     <t>macario.moreira.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>Z1fetBKl</t>
+    <t>xanOQ!wY</t>
   </si>
   <si>
     <t>MOREIRA GILCES GABRIELA NIKOL</t>
@@ -554,7 +554,7 @@
     <t>gabriela.moreira.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>taJw!Ma5</t>
+    <t>aTI?cML/</t>
   </si>
   <si>
     <t>NOBOA MONTESDEOCA INGRITH MADELEYN</t>
@@ -563,7 +563,7 @@
     <t>ingrith.noboa.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>&amp;7/Wy7nX</t>
+    <t>IeKDxm3G</t>
   </si>
   <si>
     <t>ORDOÑEZ ALCIVAR ALEX PAUL</t>
@@ -572,7 +572,7 @@
     <t>alex.ordonez.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>AHPz!GQR</t>
+    <t>D/MVrTd?</t>
   </si>
   <si>
     <t>PALMA GARCIA MELYN JARITZA</t>
@@ -581,7 +581,7 @@
     <t>melyn.palma.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>RiiEpJwZ</t>
+    <t>eIoOEfmi</t>
   </si>
   <si>
     <t>PAREDES MERO GHISLAINE ANAHI</t>
@@ -590,7 +590,7 @@
     <t>ghislaine.paredes.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>3LCXFGlz</t>
+    <t>aC149azh</t>
   </si>
   <si>
     <t>QUIJIJE PIANDA XIOMARA MISHELLE</t>
@@ -602,7 +602,7 @@
     <t>xiomara.quijije.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>IR1ylfGo</t>
+    <t>1dR2tzrB</t>
   </si>
   <si>
     <t>SALAVARRIA AVEIGA YULIANA GUADALUPE</t>
@@ -611,7 +611,7 @@
     <t>yuliana.salavarria.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>TPpNKYqF</t>
+    <t>sse16Ifn</t>
   </si>
   <si>
     <t>SANTOS ALCIVAR JAIR SEBASTIAN</t>
@@ -620,7 +620,7 @@
     <t>jair.santos.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>uAkbrSYO</t>
+    <t>YLPjeAhs</t>
   </si>
   <si>
     <t>SOLORZANO CANDELA JARITZA NOHEMY</t>
@@ -629,7 +629,7 @@
     <t>jaritza.solorzano.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>&amp;&amp;e58K71</t>
+    <t>dquo1Lwg</t>
   </si>
   <si>
     <t>VERA CEBALLOS MARIA CONCEPCION</t>
@@ -638,7 +638,7 @@
     <t>maria.vera.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>F9#JrR6l</t>
+    <t>B2yLW3g1</t>
   </si>
   <si>
     <t>ALAVA MUÑOZ BILL JARVI</t>
@@ -647,7 +647,7 @@
     <t>bill.alava.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>/vNvEfoZ</t>
+    <t>UYjLZS35</t>
   </si>
   <si>
     <t>ALCIVAR ZAMBRANO ESTHER JOMARA</t>
@@ -656,7 +656,7 @@
     <t>esther.alcivar.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>FsrI1YrF</t>
+    <t>Sve49Xk1</t>
   </si>
   <si>
     <t>ALMEIDA LOOR MARIA VICTORIA</t>
@@ -665,7 +665,7 @@
     <t>maria.almeida.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>uRrTG31Q</t>
+    <t>krXa0PEB</t>
   </si>
   <si>
     <t>ANDRADE VILLAVICENCIO PABLO HUGO</t>
@@ -674,7 +674,7 @@
     <t>pablo.andrade.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>!Q&amp;4jTO8</t>
+    <t>2veK!F4k</t>
   </si>
   <si>
     <t>AVENDAÑO YZQUIERDO ADRIANA ISABEL</t>
@@ -686,7 +686,7 @@
     <t>adriana.avendano.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>nVrirrEr</t>
+    <t>JEqzOrMy</t>
   </si>
   <si>
     <t>BALUARTE PARRAGA MAYERLY NARCISA</t>
@@ -698,7 +698,7 @@
     <t>mayerly.baluarte.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>IZ7hG8YD</t>
+    <t>iqVbhtwJ</t>
   </si>
   <si>
     <t>BARRE CASTAÑEDA MAYERLI SOLANGE</t>
@@ -710,7 +710,7 @@
     <t>mayerli.barre.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>X?TAKyWM</t>
+    <t>tJ!8iyA5</t>
   </si>
   <si>
     <t>BERMEO MENDOZA LESLY JULIETT</t>
@@ -719,7 +719,7 @@
     <t>lesly.bermeo.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>1jmElz2o</t>
+    <t>Pr1WMGHK</t>
   </si>
   <si>
     <t>BRAVO ZAMBRANO DANA KATIUSKA</t>
@@ -728,7 +728,7 @@
     <t>dana.bravo.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>clVKre6v</t>
+    <t>BF71bBeO</t>
   </si>
   <si>
     <t>CEDEÑO ALVARADO JORGE LUIS</t>
@@ -737,7 +737,7 @@
     <t>jorge.cedeno.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>!EnYv?Ao</t>
+    <t>FRz7mQ6n</t>
   </si>
   <si>
     <t>DOMINGUEZ ANGEL ANAIS ZULEYMA</t>
@@ -749,7 +749,7 @@
     <t>anais.dominguez.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>wNrTvjdK</t>
+    <t>reb6o?GT</t>
   </si>
   <si>
     <t>ESPARZA TELLO ERICKA MARIA</t>
@@ -761,7 +761,7 @@
     <t>ericka.esparza.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>Z78#dqS/</t>
+    <t>kMovHnf6</t>
   </si>
   <si>
     <t>GRAIN MARCILLO MICHAEL JOSUE</t>
@@ -770,7 +770,7 @@
     <t>michael.grain.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>UfxD8pkZ</t>
+    <t>lyUt?o?4</t>
   </si>
   <si>
     <t>JAMA ZAMBRANO ROBERTH XAVIER</t>
@@ -779,7 +779,7 @@
     <t>roberth.jama@espam.edu.ec</t>
   </si>
   <si>
-    <t>I0BmgqZY</t>
+    <t>u0XwPPPa</t>
   </si>
   <si>
     <t>LARA BONE ANGIE NICOLE</t>
@@ -791,7 +791,7 @@
     <t>angie.lara.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>q!CC7arJ</t>
+    <t>Jd3Bacqa</t>
   </si>
   <si>
     <t>LOPEZ DELGADO DAYANA NICOLLE</t>
@@ -800,7 +800,7 @@
     <t>dayana.lopez.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>tdp5wprS</t>
+    <t>n/MLjCja</t>
   </si>
   <si>
     <t>MELO CENTENO HELEN SOFIA</t>
@@ -809,7 +809,7 @@
     <t>helen.melo.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>G67eE/uv</t>
+    <t>ORhjT0EF</t>
   </si>
   <si>
     <t>MENDOZA ORTEGA ANGELO DANIEL</t>
@@ -818,7 +818,7 @@
     <t>angelo.mendoza.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>SP7vmaij</t>
+    <t>cSOR4UOA</t>
   </si>
   <si>
     <t>MERO CARRILLO EMELY MILENA</t>
@@ -827,7 +827,7 @@
     <t>emely.mero.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>hczOz/?a</t>
+    <t>e?Ho!?OB</t>
   </si>
   <si>
     <t>MITE MENENDEZ GEORGE ISAAC</t>
@@ -836,7 +836,7 @@
     <t>george.mite.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>hv!XE0o9</t>
+    <t>?g!4q!A/</t>
   </si>
   <si>
     <t>MONCAYO CAGUA LADY NOHELIA</t>
@@ -845,7 +845,7 @@
     <t>lady.moncayo.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>sWmsZiN8</t>
+    <t>KRENSjqO</t>
   </si>
   <si>
     <t>ORMAZA ALCIVAR NOHELIA MILENA</t>
@@ -854,7 +854,7 @@
     <t>nohelia.ormaza.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>t2aFF893</t>
+    <t>tW2AHYPR</t>
   </si>
   <si>
     <t>PANTA CANDELA YONNY ALEXANDER</t>
@@ -863,7 +863,7 @@
     <t>jonny.panta.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>bpANiJRA</t>
+    <t>S&amp;wIRPyN</t>
   </si>
   <si>
     <t>QUINATOA SIMALIZA YAJAIRA NICOLE</t>
@@ -872,7 +872,7 @@
     <t>yajaira.quinatoa.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>pV4TSzoC</t>
+    <t>N8BOEqp4</t>
   </si>
   <si>
     <t>REYNA RAMIREZ SINDY MAHOLY</t>
@@ -881,7 +881,7 @@
     <t>sindy.reyna.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>G1KzXYOT</t>
+    <t>!jq6D/K?</t>
   </si>
   <si>
     <t>RODRIGUEZ ANCHUNDIA LUIS FERNANDO</t>
@@ -890,7 +890,7 @@
     <t>luis.rodriguez.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>L8fQwQIR</t>
+    <t>RuygufAC</t>
   </si>
   <si>
     <t>SABANDO TUAREZ MILENA BLANCA</t>
@@ -899,7 +899,7 @@
     <t>milena.sabando.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>Fy1pgmd3</t>
+    <t>YZMCV4ct</t>
   </si>
   <si>
     <t>SALAZAR RAMIREZ YARITZA GABRIELA</t>
@@ -908,7 +908,7 @@
     <t>yaritza.salazar.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>Zt&amp;ctIjo</t>
+    <t>ydGRta8T</t>
   </si>
   <si>
     <t>SHIGUANGO AGUINDA KATTY MIRELLA</t>
@@ -917,7 +917,7 @@
     <t>katty.shiguango.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>9QaMDL2r</t>
+    <t>!s4L2oQF</t>
   </si>
   <si>
     <t>VACA MORALES JOSE EDUARDO</t>
@@ -926,7 +926,7 @@
     <t>jose.vaca.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>rngCo0nS</t>
+    <t>79#p2r5T</t>
   </si>
   <si>
     <t>VELASQUEZ MEJIA ARIANNA ELIZABETH</t>
@@ -935,7 +935,7 @@
     <t>arianna.velasquez.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>pVDva1Qb</t>
+    <t>ePzbFlig</t>
   </si>
   <si>
     <t>VELEZ CEDEÑO YANDRY ALAIN</t>
@@ -944,7 +944,7 @@
     <t>yandry.velez.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>acK9T&amp;Uc</t>
+    <t>P1RFX2Na</t>
   </si>
   <si>
     <t>VERA ZAMORA DIXON YAIR</t>
@@ -953,7 +953,7 @@
     <t>dixon.vera.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>jAtfmWIg</t>
+    <t>5C4Fe9bb</t>
   </si>
   <si>
     <t>ZAMBRANO FORTIS RICARDO MIGUEL</t>
@@ -962,7 +962,7 @@
     <t>ricardo.zambrano.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>5DifwVrS</t>
+    <t>H&amp;61f#mF</t>
   </si>
   <si>
     <t>ALVARADO DUEÑAS KARELYS VANESSA</t>
@@ -971,7 +971,7 @@
     <t>karelys.alvarado.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>IemCoGzQ</t>
+    <t>dB4tFHJK</t>
   </si>
   <si>
     <t>ANDRADE ILES ALVIERY JAHIR</t>
@@ -983,7 +983,7 @@
     <t>alviery.andrade.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>cC7PWJk3</t>
+    <t>9d3P6xgI</t>
   </si>
   <si>
     <t>ARTEAGA RAMOS DIEGO ALEJANDRO</t>
@@ -992,7 +992,7 @@
     <t>diego.arteaga.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>NpwYvLUd</t>
+    <t>i&amp;sBge0s</t>
   </si>
   <si>
     <t>BARREIRO INTRIAGO STEFANY PIERINA</t>
@@ -1001,7 +1001,7 @@
     <t>stefany.barreiro.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>bXFloR0l</t>
+    <t>/CaKDujl</t>
   </si>
   <si>
     <t>BRAVO QUINTERO SARA NICOLE</t>
@@ -1013,7 +1013,7 @@
     <t>sara.bravo.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>NarcLCcq</t>
+    <t>hISH&amp;bx?</t>
   </si>
   <si>
     <t>CABALLERO MUÑOZ STEVEN FABRICIO</t>
@@ -1022,7 +1022,7 @@
     <t>steven.caballero.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>pWzMNid0</t>
+    <t>q4JomFvB</t>
   </si>
   <si>
     <t>CARRASCO VERA LUCAS JOSUE</t>
@@ -1031,7 +1031,7 @@
     <t>lucas.carrasco.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>cwO#WL6U</t>
+    <t>iQ5qB/D#</t>
   </si>
   <si>
     <t>CEDEÑO MURILLO KENNER STEVEN</t>
@@ -1040,7 +1040,7 @@
     <t>kenner.cedeno.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>9MO9?908</t>
+    <t>NEK91xMR</t>
   </si>
   <si>
     <t>CUERO PAZMIÑO EMMANUEL JOSUE</t>
@@ -1049,7 +1049,7 @@
     <t>emmanuel.cuero.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>AqXpus3C</t>
+    <t>xydrrysF</t>
   </si>
   <si>
     <t>LADINES CASTRO MIRKA DARLISHA</t>
@@ -1061,7 +1061,7 @@
     <t>mirka.ladines.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>#fl!eUw&amp;</t>
+    <t>U9P8DKJb</t>
   </si>
   <si>
     <t>LARA FRANCO MICHAEL ARGEL</t>
@@ -1073,7 +1073,7 @@
     <t>michael.lara.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>t9?Eck19</t>
+    <t>5a&amp;M?&amp;i4</t>
   </si>
   <si>
     <t>LEYTHON QUIÑONEZ JEIMY SILVANA</t>
@@ -1085,7 +1085,7 @@
     <t>jeimy.leython.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>TXtBS5uz</t>
+    <t>3bcMcLNQ</t>
   </si>
   <si>
     <t>LOOR LOOR GENESIS DANIELA</t>
@@ -1094,7 +1094,7 @@
     <t>genesis.loor.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>9JFgD?Vr</t>
+    <t>AQgF7Vo1</t>
   </si>
   <si>
     <t>MATAMBA GUANGA THALIA VALERIA</t>
@@ -1106,7 +1106,7 @@
     <t>thalia.matamba.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>PNf57uqQ</t>
+    <t>7#HoZ1Ab</t>
   </si>
   <si>
     <t>MENDOZA DE LA CRUZ MARTHA DANIELA</t>
@@ -1115,7 +1115,7 @@
     <t>martha.mendoza.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>At9qiiFr</t>
+    <t>/&amp;M?soRN</t>
   </si>
   <si>
     <t>MINOTA BORJA ALEXANDER JAHIR</t>
@@ -1127,7 +1127,7 @@
     <t>alexander.minota.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>Y9rZ4yVe</t>
+    <t>QUygND&amp;c</t>
   </si>
   <si>
     <t>NAVIA LOOR JOSE EFRAIN</t>
@@ -1136,7 +1136,7 @@
     <t>jose.navia.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>Pdj224?k</t>
+    <t>TXuytKjw</t>
   </si>
   <si>
     <t>PILATAXI UTRERAS KATHERIN JULIETH</t>
@@ -1145,7 +1145,7 @@
     <t>katherin.pilataxi.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>mixo&amp;/?y</t>
+    <t>e94hUhjh</t>
   </si>
   <si>
     <t>PINARGOTE CARREÑO FELIX JOEL</t>
@@ -1154,7 +1154,7 @@
     <t>felix.pinargote.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>#?EH4Qo3</t>
+    <t>PYfFxRFB</t>
   </si>
   <si>
     <t>PONCE ZAMBRANO ARIANA JESSENIA</t>
@@ -1163,7 +1163,7 @@
     <t>ariana.ponce.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>2Medbw4H</t>
+    <t>3i6Bqtuu</t>
   </si>
   <si>
     <t>QUINATOA SIMALIZA KELLY MARIUXI</t>
@@ -1172,7 +1172,7 @@
     <t>kelly.quinatoa.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>gAhtGziX</t>
+    <t>TejRINRe</t>
   </si>
   <si>
     <t>ROSADO ROSADO JOEL JESUS</t>
@@ -1181,7 +1181,7 @@
     <t>joel.rosado.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>gln/BDXB</t>
+    <t>7VMcRtay</t>
   </si>
   <si>
     <t>SANMARTIN TAPIA CARMEN EDITH</t>
@@ -1190,7 +1190,7 @@
     <t>carmen.sanmartin.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>i6R2ADnW</t>
+    <t>0BoMD1bW</t>
   </si>
   <si>
     <t>SAYAY DAGUA JOSELYN NICOL</t>
@@ -1202,7 +1202,7 @@
     <t>joselyn.sayay.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>vW6IIP/1</t>
+    <t>?6RKgk5r</t>
   </si>
   <si>
     <t>SOLORZANO PAZMIÑO DECCY DANIELA</t>
@@ -1211,7 +1211,7 @@
     <t>deccy.solorzano.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>eJxcRPvA</t>
+    <t>#u5G9rtJ</t>
   </si>
   <si>
     <t>VERGARA ZAMBRANO MATIAS ALEXANDER</t>
@@ -1220,7 +1220,7 @@
     <t>matias.vergara.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>rBT4OOt5</t>
+    <t>2D8AMIXn</t>
   </si>
   <si>
     <t>ZAMBRANO INTRIAGO FRAYDA JESSENIA</t>
@@ -1229,7 +1229,7 @@
     <t>frayda.zambrano.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>PvzEeREd</t>
+    <t>HVGjIFRj</t>
   </si>
   <si>
     <t>ZAMBRANO VALAREZO ANDREA LISBETH</t>
@@ -1238,7 +1238,7 @@
     <t>andrea.zambrano.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>aDy/43#J</t>
+    <t>GTdegBdT</t>
   </si>
   <si>
     <t>AGUAS MARTINEZ KEVIN SNAIDER</t>
@@ -1247,7 +1247,7 @@
     <t>kevin.aguas@espam.edu.ec</t>
   </si>
   <si>
-    <t>tOF12jSK</t>
+    <t>AT0Pn/Kk</t>
   </si>
   <si>
     <t>ANDRADE GARCIA LUZ CRUCELINA</t>
@@ -1256,7 +1256,7 @@
     <t>luz.andrade.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>7?C1SFEq</t>
+    <t>V#M5yQ15</t>
   </si>
   <si>
     <t>BARBERAN MERO HELEN ADRIANA</t>
@@ -1265,7 +1265,7 @@
     <t>helen.barberan.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>w!hPvc1j</t>
+    <t>kBtOBZhn</t>
   </si>
   <si>
     <t>BARROS ZAMBRANO DANIEL ANGEL</t>
@@ -1274,7 +1274,7 @@
     <t>daniel.barros.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>d1XYGu/&amp;</t>
+    <t>pr71W6/y</t>
   </si>
   <si>
     <t>BASURTO ZAMBRANO CARLOS RAUL</t>
@@ -1283,7 +1283,7 @@
     <t>carlos.basurto.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>/aDu6LmL</t>
+    <t>jBKa/lvi</t>
   </si>
   <si>
     <t>BRAVO BRAVO ANTHONY ADEMIR</t>
@@ -1292,7 +1292,7 @@
     <t>anthony.bravo.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>9VwKq048</t>
+    <t>1fdmuRVJ</t>
   </si>
   <si>
     <t>CANTOS VERA ANGELA AUXILIADORA</t>
@@ -1301,7 +1301,7 @@
     <t>angela.cantos.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>8nGqeiCV</t>
+    <t>8C6DImdc</t>
   </si>
   <si>
     <t>CASTRO BOLAÑO FANNY TATIANA</t>
@@ -1310,7 +1310,7 @@
     <t>fanny.castro.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>7Q/3YsLv</t>
+    <t>UK#H8Uqx</t>
   </si>
   <si>
     <t>CASTRO SALTOS MATTEWS FARID</t>
@@ -1319,7 +1319,7 @@
     <t>mattews.castro.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>U1lKXz0l</t>
+    <t>Q5acNaBk</t>
   </si>
   <si>
     <t>CHANCAY RADE ANTONY GABRIEL</t>
@@ -1328,7 +1328,7 @@
     <t>antony.chancay@espam.edu.ec</t>
   </si>
   <si>
-    <t>HkHZLEey</t>
+    <t>QuA1P&amp;9o</t>
   </si>
   <si>
     <t>COBEÑA GARCIA YOMAYRA ALEXANDRA</t>
@@ -1337,7 +1337,7 @@
     <t>yomayra.cobena.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>s1!ed6Gj</t>
+    <t>RoCtEwW&amp;</t>
   </si>
   <si>
     <t>CRUZ ERAZO JOSE MIGUEL</t>
@@ -1346,7 +1346,7 @@
     <t>jose.cruz.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>lvOiRRKN</t>
+    <t>t&amp;UQzfim</t>
   </si>
   <si>
     <t>GARCIA ANDRADE MARIA ROSA</t>
@@ -1355,7 +1355,7 @@
     <t>maria.garcia.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>QsEMXy2d</t>
+    <t>XLQNJ!t9</t>
   </si>
   <si>
     <t>HERNANDEZ LOPEZ LUIS DAVID</t>
@@ -1364,7 +1364,7 @@
     <t>luis.hernandez.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>R2ucEWnL</t>
+    <t>kPN5tr5V</t>
   </si>
   <si>
     <t>LEON FUENTES JONATHAN ALBINO</t>
@@ -1376,7 +1376,7 @@
     <t>jonathan.leon.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>z/d#WW9p</t>
+    <t>0WSDg6yg</t>
   </si>
   <si>
     <t>MACIAS ANCHUNDIA ROBERTO CARLOS</t>
@@ -1385,7 +1385,7 @@
     <t>roberto.macias.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>iXssLqKd</t>
+    <t>J/huIVlp</t>
   </si>
   <si>
     <t>MAZA AGREDA KAREN IBETH</t>
@@ -1394,7 +1394,7 @@
     <t>karen.maza.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>Xfsvg&amp;4V</t>
+    <t>WyP2oQiJ</t>
   </si>
   <si>
     <t>MUÑOZ MERA LITZY ALEJANDRA</t>
@@ -1403,7 +1403,7 @@
     <t>litzy.munoz.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>vBydWsdL</t>
+    <t>FRE6m0F5</t>
   </si>
   <si>
     <t>MUÑOZ MOLINA ANDRY FABIAN</t>
@@ -1412,7 +1412,7 @@
     <t>andry.munoz.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>9ViMNxKa</t>
+    <t>tCudd?Nj</t>
   </si>
   <si>
     <t>ORMAZA VALENCIA KEVIN JAVIER</t>
@@ -1424,7 +1424,7 @@
     <t>kevin.ormaza.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>jN1vGoXx</t>
+    <t>O9zfuMXZ</t>
   </si>
   <si>
     <t>PAZMIÑO PINCAY NAYELLY AGUSTINA</t>
@@ -1433,7 +1433,7 @@
     <t>nayelly.pazmino.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>?lJ9BC3y</t>
+    <t>9DH/cdVz</t>
   </si>
   <si>
     <t>POZO PONCE DANNY IVAN</t>
@@ -1442,7 +1442,7 @@
     <t>danny.pozo@espam.edu.ec</t>
   </si>
   <si>
-    <t>75mBJmB6</t>
+    <t>B0lHZymo</t>
   </si>
   <si>
     <t>QUIJANO MEZA MARIANA LISETH</t>
@@ -1451,7 +1451,7 @@
     <t>mariana.quijano.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>PN#HKSI1</t>
+    <t>lZPkTZfe</t>
   </si>
   <si>
     <t>QUIÑONEZ AÑAPA RODRIGO MANUEL</t>
@@ -1463,7 +1463,7 @@
     <t>rodrigo.quinonez.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>iF/VuoUu</t>
+    <t>&amp;pO#YX7K</t>
   </si>
   <si>
     <t>SANTOS ALCIVAR KELVIN YOEL</t>
@@ -1472,7 +1472,7 @@
     <t>kelvin.santos.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>L7XB6Q!3</t>
+    <t>?5jeQTI6</t>
   </si>
   <si>
     <t>SOLORZANO RODRIGUEZ SANDY</t>
@@ -1481,7 +1481,7 @@
     <t>sandy.solorzano.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>kcmcAj#P</t>
+    <t>FlfZsxh/</t>
   </si>
   <si>
     <t>TOALA PIN ARIEL ALEJANDRO</t>
@@ -1493,7 +1493,7 @@
     <t>ariel.toala.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>m?!lC&amp;Yl</t>
+    <t>B0TwcGd2</t>
   </si>
   <si>
     <t>VEGA INTRIAGO MIGUEL ANGEL</t>
@@ -1502,7 +1502,7 @@
     <t>miguel.vega.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>ZxtXgpBO</t>
+    <t>IzpnWFK7</t>
   </si>
   <si>
     <t>VELASQUEZ RODRIGUEZ GEMA BELEN</t>
@@ -1511,7 +1511,7 @@
     <t>gema.velasquez.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>owx5xd/d</t>
+    <t>KgjK6f/H</t>
   </si>
   <si>
     <t>VERA MENDOZA MARIA VICTORIA</t>
@@ -1520,7 +1520,7 @@
     <t>maria.veram.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>&amp;!gVIkga</t>
+    <t>Ea3WYs/s</t>
   </si>
   <si>
     <t>VERA PALACIOS JORDANO SAUL</t>
@@ -1529,7 +1529,7 @@
     <t>jordano.vera.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>j0zMGZmy</t>
+    <t>23K3IoUd</t>
   </si>
   <si>
     <t>ZAMBRANO MERA VALENTINA MONSERRATE</t>
@@ -1538,7 +1538,7 @@
     <t>valentina.zambrano.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>?vVmIc0g</t>
+    <t>HT8iu&amp;Nh</t>
   </si>
   <si>
     <t>ZAMBRANO QUIMI JUAN GEORGE</t>
@@ -1550,7 +1550,7 @@
     <t>juan.zambrano.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>xkr3OJN7</t>
+    <t>2DTkVBSm</t>
   </si>
   <si>
     <t>ALCIVAR ZAMBRANO GEOMAYRA KATHERINE</t>
@@ -1562,7 +1562,7 @@
     <t>geomayra.alcivar.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>HtbqmFQr</t>
+    <t>4aodtLuK</t>
   </si>
   <si>
     <t>ANDRADE CASTILLO CLAUDIA VICTORIA</t>
@@ -1571,7 +1571,7 @@
     <t>claudia.andrade.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>WKpDaFjQ</t>
+    <t>YQNndLRs</t>
   </si>
   <si>
     <t>ANGUISACA CUENCA ALEXANDRA CECIBEL</t>
@@ -1580,7 +1580,7 @@
     <t>alexandra.anguisaca.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>fNJBGaRJ</t>
+    <t>JJP#Bg8Y</t>
   </si>
   <si>
     <t>BARIAS GUARACA LESLY NAYHELY</t>
@@ -1589,7 +1589,7 @@
     <t>lesly.barias.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>ipb8!Qk3</t>
+    <t>tk4?Jpn#</t>
   </si>
   <si>
     <t>BARROS VERA ANGEL DAVID</t>
@@ -1598,7 +1598,7 @@
     <t>angel.barros.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>do9ePTaI</t>
+    <t>eEfOtV?F</t>
   </si>
   <si>
     <t>BAZURTO SANTOS KENNIA KATHERINE</t>
@@ -1607,7 +1607,7 @@
     <t>kennia.bazurto.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>L97h8upH</t>
+    <t>!V1y7UkG</t>
   </si>
   <si>
     <t>BRAVO BAZURTO GISSELA MARIA</t>
@@ -1616,7 +1616,7 @@
     <t>gissela.bravo.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>KN7q!/sJ</t>
+    <t>YrtSNvcN</t>
   </si>
   <si>
     <t>BUSTAMANTE YANEZ ANTHONY MICHEL</t>
@@ -1625,7 +1625,7 @@
     <t>anthony.bustamante.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>BOSV#tEt</t>
+    <t>GkVh?P0u</t>
   </si>
   <si>
     <t>CASTRO SOLORZANO NIURKA JULIANA</t>
@@ -1634,7 +1634,7 @@
     <t>niurka.castro.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>Nj5D4XSQ</t>
+    <t>Dpih8Glc</t>
   </si>
   <si>
     <t>CEDEÑO CEDEÑO YOHANA VANESA</t>
@@ -1643,7 +1643,7 @@
     <t>yohana.cedeno.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>6u7SkgB7</t>
+    <t>tDQHX8mC</t>
   </si>
   <si>
     <t>CEDEÑO INTRIAGO JEAN PIERRE</t>
@@ -1652,7 +1652,7 @@
     <t>jean.cedeno@espam.edu.ec</t>
   </si>
   <si>
-    <t>OHp1XU0H</t>
+    <t>xLED5V#J</t>
   </si>
   <si>
     <t>DELGADO CEVALLOS MARIA JOSE</t>
@@ -1661,7 +1661,7 @@
     <t>maria.delgado.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>l2yUqy4p</t>
+    <t>7aFWlhvD</t>
   </si>
   <si>
     <t>ERAZO MORALES GABRIELA ALEJANDRA</t>
@@ -1670,7 +1670,7 @@
     <t>gabriela.erazo.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>5TkqFXWa</t>
+    <t>JWR4Y#Lw</t>
   </si>
   <si>
     <t>INTRIAGO ZAMBRANO LUIS JOSE</t>
@@ -1679,7 +1679,7 @@
     <t>luis.intriagoz.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>EFNQh5Dm</t>
+    <t>vkPcn08V</t>
   </si>
   <si>
     <t>LOOR ORTIZ YORDY DAVID</t>
@@ -1688,7 +1688,7 @@
     <t>yordy.loor.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>pCbWtBQ5</t>
+    <t>ICL5Z?wN</t>
   </si>
   <si>
     <t>LOZANO GAMEZ THALIA VANESSA</t>
@@ -1700,7 +1700,7 @@
     <t>thalia.lozano.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>g&amp;ZUB#cv</t>
+    <t>VsPjOhL!</t>
   </si>
   <si>
     <t>MONTES RODRIGUEZ ROLANDO ANTONIO</t>
@@ -1709,7 +1709,7 @@
     <t>rolando.montes.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>Lun2sJy9</t>
+    <t>LlDx8jfb</t>
   </si>
   <si>
     <t>PALMA RENDON ARGENIS ARTURO</t>
@@ -1718,7 +1718,7 @@
     <t>argenis.palma@espam.edu.ec</t>
   </si>
   <si>
-    <t>l2skmBKU</t>
+    <t>nC4wPKdg</t>
   </si>
   <si>
     <t>PAREDES YUMBILLO KATTY MARGOTH</t>
@@ -1730,7 +1730,7 @@
     <t>katty.paredes.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>aS4d/vOj</t>
+    <t>nIM1EQ9H</t>
   </si>
   <si>
     <t>PARRALES DELGADO ALAN SEBASTIAN</t>
@@ -1739,7 +1739,7 @@
     <t>alan.parrales.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>NVHEU#v7</t>
+    <t>CQuE0F1o</t>
   </si>
   <si>
     <t>PATA CEDEÑO ROSA JUANA</t>
@@ -1751,7 +1751,7 @@
     <t>rosa.pata.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>zb&amp;LFMN3</t>
+    <t>d62dcV33</t>
   </si>
   <si>
     <t>RETETE BASARAN KEVIN ALEXANDER</t>
@@ -1760,7 +1760,7 @@
     <t>kevin.retete.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>F9V62Qf8</t>
+    <t>VAUXBw1Y</t>
   </si>
   <si>
     <t>ROMAN MACIAS ESTEFANIA ISABEL</t>
@@ -1769,7 +1769,7 @@
     <t>estefania.roman.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>/&amp;Q?Zivu</t>
+    <t>q#7Od1b0</t>
   </si>
   <si>
     <t>SANDOVAL UREÑA FERNANDA DAYANARA</t>
@@ -1781,7 +1781,7 @@
     <t>fernanda.sandoval.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>rM9LLLht</t>
+    <t>G1Vx89dB</t>
   </si>
   <si>
     <t>SUBIAGA RAMOS LUIS ALEJANDRO</t>
@@ -1790,7 +1790,7 @@
     <t>luis.subiaga.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>zoZINYLC</t>
+    <t>dgeKhQMq</t>
   </si>
   <si>
     <t>VELASQUEZ AVEIGA MARIA JESUS</t>
@@ -1799,7 +1799,7 @@
     <t>maria.velasquez.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>!g7hv4xn</t>
+    <t>HsQkZTlY</t>
   </si>
   <si>
     <t>VELEZ CHEME JORDAN ESTEBAN</t>
@@ -1811,7 +1811,7 @@
     <t>jordan.velez.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>opR4Z!98</t>
+    <t>KGaaaq5T</t>
   </si>
   <si>
     <t>VELEZ MENDOZA DARWIN ALEXIS</t>
@@ -1820,7 +1820,7 @@
     <t>darwin.velez.4623@espam.edu.ec</t>
   </si>
   <si>
-    <t>MdgZneN9</t>
+    <t>0LpUrEta</t>
   </si>
   <si>
     <t>VERA BARRE RONNY ARISTIDES</t>
@@ -1829,7 +1829,7 @@
     <t>ronny.vera.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>xOKCKmxb</t>
+    <t>QNRIVEew</t>
   </si>
   <si>
     <t>ZAMBRANO MACIAS DIEGO ANDRES</t>
@@ -1838,7 +1838,7 @@
     <t>diego.zambrano.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>Zd&amp;cH#C#</t>
+    <t>CGgn?Auf</t>
   </si>
   <si>
     <t>ZAMBRANO REYNA YERSY ENRIQUE</t>
@@ -1847,7 +1847,7 @@
     <t>yersy.zambrano.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>ut4OSe?4</t>
+    <t>1BxegG?q</t>
   </si>
   <si>
     <t>CARDENAS MIELES CRISTHYAN ALBERTO</t>
@@ -1856,7 +1856,7 @@
     <t>cristhyan.cardenas.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>!F?&amp;pXPm</t>
+    <t>e&amp;8Lr0Uq</t>
   </si>
   <si>
     <t>CASTRO CARRERA JUAN CARLOS</t>
@@ -1865,7 +1865,7 @@
     <t>juan.castro.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>qKg0mTih</t>
+    <t>kRgrToWJ</t>
   </si>
   <si>
     <t>CHAVEZ MIRANDA ANTHONY MIGUEL</t>
@@ -1874,7 +1874,7 @@
     <t>anthony.chavez@espam.edu.ec</t>
   </si>
   <si>
-    <t>BXUGtTwO</t>
+    <t>IItza2L/</t>
   </si>
   <si>
     <t>CUSME ZAMBRANO MICHAEL RICHARD</t>
@@ -1883,7 +1883,7 @@
     <t>michael.cusme.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>zNe3yQ0h</t>
+    <t>fxyO2itv</t>
   </si>
   <si>
     <t>GILER SALAZAR CARLOS IGNACIO</t>
@@ -1892,7 +1892,7 @@
     <t>carlos.giler@espam.edu.ec</t>
   </si>
   <si>
-    <t>4UOi4Vid</t>
+    <t>P6R//JJd</t>
   </si>
   <si>
     <t>HERNANDEZ DIAZ MARIA JOSE</t>
@@ -1904,7 +1904,7 @@
     <t>maria.hernandez.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>9QCT79ro</t>
+    <t>orxr/Soa</t>
   </si>
   <si>
     <t>HIDALGO MOREIRA ESTELA NATHALY</t>
@@ -1913,7 +1913,7 @@
     <t>estela.hidalgo.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>ksGLJQip</t>
+    <t>/k9yktuH</t>
   </si>
   <si>
     <t>HIDALGO MOREIRA PIERINA NATHALY</t>
@@ -1922,7 +1922,7 @@
     <t>pierina.hidalgo.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>JEWZrFWZ</t>
+    <t>DQEy2vRi</t>
   </si>
   <si>
     <t>LARA QUIJIJE PAMELA JULISSA</t>
@@ -1931,7 +1931,7 @@
     <t>pamela.lara.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>bxnhniGK</t>
+    <t>794SHudv</t>
   </si>
   <si>
     <t>LOOR PITIZACA FRANK ALLAN</t>
@@ -1940,7 +1940,7 @@
     <t>frank.loor.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>#UgsINej</t>
+    <t>Dsnq9&amp;jd</t>
   </si>
   <si>
     <t>LOOR ZAMBRANO GEMA STEFANIA</t>
@@ -1949,7 +1949,7 @@
     <t>gema.loor.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>ej29T05#</t>
+    <t>IwhGqF0u</t>
   </si>
   <si>
     <t>PALACIOS TAPIA CESAR XAVIER</t>
@@ -1958,7 +1958,7 @@
     <t>cesar.palacios.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>6suz2wi0</t>
+    <t>xmJViXMu</t>
   </si>
   <si>
     <t>PEÑARRETA LANCHE PILAR MICAELA</t>
@@ -1967,7 +1967,7 @@
     <t>pilar.penarreta.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>j3laRO&amp;v</t>
+    <t>4QF&amp;RRvJ</t>
   </si>
   <si>
     <t>PILLASAGUA PINARGOTE INGRID MAYERLI</t>
@@ -1979,7 +1979,7 @@
     <t>ingrid.pillasagua.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>j5UlTYdf</t>
+    <t>NduT&amp;&amp;wN</t>
   </si>
   <si>
     <t>QUIJIJE CEDEÑO GEMA LISBETH</t>
@@ -1988,7 +1988,7 @@
     <t>gema.quijije.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>qpXDdNaA</t>
+    <t>bZMkE#Yo</t>
   </si>
   <si>
     <t>RUIZ ZAMBRANO VICTOR ANDRES</t>
@@ -1997,7 +1997,7 @@
     <t>victor.ruiz.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>IC3Qe4/9</t>
+    <t>1TDWpILS</t>
   </si>
   <si>
     <t>SALTOS SALAZAR MAYERLY VERONICA</t>
@@ -2009,7 +2009,7 @@
     <t>mayerly.saltos.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>fF0tyvU!</t>
+    <t>ZvmvTMMx</t>
   </si>
   <si>
     <t>SANTANA PALOMINO FRANKLIN JOHAO</t>
@@ -2018,7 +2018,7 @@
     <t>franklin.santana.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>jfnF8#4G</t>
+    <t>lPgsrLM2</t>
   </si>
   <si>
     <t>TAFFUR TOASA OLGA MARIA</t>
@@ -2027,7 +2027,7 @@
     <t>olga.taffur@espam.edu.ec</t>
   </si>
   <si>
-    <t>vhiw1eCb</t>
+    <t>QNPo?MOe</t>
   </si>
   <si>
     <t>TOALA MACAY JOSSELYN VALERIA</t>
@@ -2036,7 +2036,7 @@
     <t>josselyn.toala.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>flKG/SBk</t>
+    <t>Y&amp;qBKQyA</t>
   </si>
   <si>
     <t>VALLADARES ALCIVAR LUIS EDUARDO</t>
@@ -2045,7 +2045,7 @@
     <t>luis.valladares@espam.edu.ec</t>
   </si>
   <si>
-    <t>Y39svHsM</t>
+    <t>7WcBb/IY</t>
   </si>
   <si>
     <t>VERA ZAMBRANO HILTER JOSSBEL</t>
@@ -2054,7 +2054,7 @@
     <t>hilter.vera.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>4Hxohtgt</t>
+    <t>PtXf&amp;kPK</t>
   </si>
   <si>
     <t>VERGARA TABOADA ROMEL ALEXANDER</t>
@@ -2063,7 +2063,7 @@
     <t>romel.vergara@espam.edu.ec</t>
   </si>
   <si>
-    <t>7?evfeVZ</t>
+    <t>/kXVx0yf</t>
   </si>
   <si>
     <t>ZAMBRANO RIVAS NALLELY LISBETH</t>
@@ -2072,7 +2072,7 @@
     <t>nallely.zambrano.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>N6955FU&amp;</t>
+    <t>Z4DO8UDt</t>
   </si>
   <si>
     <t>ABAD MIRANDA KENYA ESTEFANIA</t>
@@ -2084,7 +2084,7 @@
     <t>kenya.abad.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>EAsd39H/</t>
+    <t>FoIizdhs</t>
   </si>
   <si>
     <t>ALAVA MORENO MILTON ANTERO</t>
@@ -2093,7 +2093,7 @@
     <t>milton.alava@espam.edu.ec</t>
   </si>
   <si>
-    <t>m4Kr#XlH</t>
+    <t>WrTIVwDp</t>
   </si>
   <si>
     <t>ALMEIDA CEDEÑO CINDY BELEN</t>
@@ -2102,7 +2102,7 @@
     <t>cindy.almeida.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>LqXXOuiV</t>
+    <t>&amp;!M&amp;N6ag</t>
   </si>
   <si>
     <t>ANCHUNDIA VERA JUSTIN JOSE</t>
@@ -2111,7 +2111,7 @@
     <t>justin.anchundia.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>mnDkIuiw</t>
+    <t>ppZr2C06</t>
   </si>
   <si>
     <t>AYONG PALADINES MARIA FERNANDA</t>
@@ -2120,7 +2120,7 @@
     <t>maria.ayong.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>fFWlPAlQ</t>
+    <t>EplLQ/ue</t>
   </si>
   <si>
     <t>BRAVO CEVALLOS MELANY PIERINA</t>
@@ -2129,7 +2129,7 @@
     <t>melany.bravo.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>gjy&amp;Sh?L</t>
+    <t>#K3HY2C0</t>
   </si>
   <si>
     <t>CASANOVA SALAZAR ROSEMBERG STEVEN</t>
@@ -2138,7 +2138,7 @@
     <t>rosemberg.casanova@espam.edu.ec</t>
   </si>
   <si>
-    <t>Fbn3mQSW</t>
+    <t>DpSU?LQm</t>
   </si>
   <si>
     <t>FERNANDEZ TORRES JALENI SCARLETH</t>
@@ -2150,7 +2150,7 @@
     <t>jaleni.fernandez.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>k3dI4n?U</t>
+    <t>bfvTIWHW</t>
   </si>
   <si>
     <t>HERRERA SABANDO WILLIAMS ANDRES</t>
@@ -2159,7 +2159,7 @@
     <t>williams.herrera.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>VpZpwhW!</t>
+    <t>!8f0Rctl</t>
   </si>
   <si>
     <t>LOPEZ PALADINES EDGAR JOSE</t>
@@ -2168,7 +2168,7 @@
     <t>edgar.lopez.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>MbqImmK7</t>
+    <t>hCiaBRtg</t>
   </si>
   <si>
     <t>MEDRANDA GONZALES LINCI YERLEY</t>
@@ -2177,7 +2177,7 @@
     <t>linci.medranda.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>55ZZbHGZ</t>
+    <t>1awZxr5M</t>
   </si>
   <si>
     <t>MENDIETA GILER JORDY EDUARDO</t>
@@ -2186,7 +2186,7 @@
     <t>jordy.mendieta.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>E#0NNA7M</t>
+    <t>14wTPZmc</t>
   </si>
   <si>
     <t>MORENO VELIZ ALDRIN DAIRY</t>
@@ -2195,7 +2195,7 @@
     <t>aldrin.moreno.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>a5XSHBD1</t>
+    <t>CuJvu#ZA</t>
   </si>
   <si>
     <t>MUÑOZ VERA GENESIS LOURDES</t>
@@ -2204,7 +2204,7 @@
     <t>genesis.munoz.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>0nOAX#Xd</t>
+    <t>OKXgT9Y8</t>
   </si>
   <si>
     <t>PLAZA CHOEZ RODOLFO JEAMPIERRE</t>
@@ -2213,7 +2213,7 @@
     <t>rodolfo.plaza.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>4kIu0JcE</t>
+    <t>rDe6XDju</t>
   </si>
   <si>
     <t>PRECIADO MOREIRA PABLO ANTHONY</t>
@@ -2225,7 +2225,7 @@
     <t>pablo.preciado@espam.edu.ec</t>
   </si>
   <si>
-    <t>gcaQ9WI9</t>
+    <t>k7H0xAIn</t>
   </si>
   <si>
     <t>SABANDO SALCEDO GENESIS BETZABETH</t>
@@ -2237,7 +2237,7 @@
     <t>genesis.sabando.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>YU7#PjTF</t>
+    <t>vQ&amp;IBJjq</t>
   </si>
   <si>
     <t>SOLEDISPA ZAMBRANO CRISTHINA ISABELA</t>
@@ -2246,7 +2246,7 @@
     <t>cristhina.soledispa.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>qRTQOrNg</t>
+    <t>x#w47n/o</t>
   </si>
   <si>
     <t>SOLORZANO RODRIGUEZ EVELYN AGUSTINA</t>
@@ -2255,7 +2255,7 @@
     <t>evelyn.solorzanor@espam.edu.ec</t>
   </si>
   <si>
-    <t>YFqDYd5A</t>
+    <t>1sexQCFk</t>
   </si>
   <si>
     <t>VERA AGUAS KELVIN JEAN PIERRE</t>
@@ -2264,7 +2264,7 @@
     <t>kelvin.vera@espam.edu.ec</t>
   </si>
   <si>
-    <t>/0VfnBUV</t>
+    <t>9L46wlau</t>
   </si>
   <si>
     <t>VERA LOOR DENYS ESTEFANIA</t>
@@ -2273,7 +2273,7 @@
     <t>denys.vera.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>!BlIN4XV</t>
+    <t>8uH4VjsB</t>
   </si>
   <si>
     <t>VINCES PIN MARIA FERNANDA</t>
@@ -2282,7 +2282,7 @@
     <t>maria.vinces.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>Mw6UK6Cx</t>
+    <t>PKJMsuJ1</t>
   </si>
   <si>
     <t>ZAMBRANO ZAMBRANO MARIA BELEN</t>
@@ -2291,7 +2291,7 @@
     <t>mariab.zambranoz.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>X/uU2Mqm</t>
+    <t>&amp;aem0f3d</t>
   </si>
   <si>
     <t>ALCIVAR ZAMBRANO DIANA ESTHER</t>
@@ -2300,7 +2300,7 @@
     <t>diana.alcivar.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>8/?n?UKj</t>
+    <t>70SNAfPU</t>
   </si>
   <si>
     <t>ALVAREZ BORJA ANGHELO JOSUE</t>
@@ -2309,7 +2309,7 @@
     <t>anghelo.alvarez.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>b99JoN5e</t>
+    <t>QwSD6yR&amp;</t>
   </si>
   <si>
     <t>BRAVO MENDOZA ALBERDY JAVIER</t>
@@ -2318,7 +2318,7 @@
     <t>alberdy.bravo@espam.edu.ec</t>
   </si>
   <si>
-    <t>vfsaCdtN</t>
+    <t>5b?6PkP2</t>
   </si>
   <si>
     <t>GARCIA PARRAGA FATIMA MARIA</t>
@@ -2327,7 +2327,7 @@
     <t>fatima.garcia.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>VRNtXXaS</t>
+    <t>oI5vT!ge</t>
   </si>
   <si>
     <t>GRACIA PRATT WILINTON JOSUE</t>
@@ -2339,7 +2339,7 @@
     <t>wilinton.gracia.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>McZSh/jN</t>
+    <t>vKETMozm</t>
   </si>
   <si>
     <t>MARRETT BEDOYA MISHELLE MARCELA</t>
@@ -2351,7 +2351,7 @@
     <t>mishelle.marrett.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>LzhvRoB4</t>
+    <t>z0CKZQ?4</t>
   </si>
   <si>
     <t>MERA CASTILLO NATHALY VIRGINIA</t>
@@ -2360,7 +2360,7 @@
     <t>nathaly.mera.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>oPygF80P</t>
+    <t>vVoh!59r</t>
   </si>
   <si>
     <t>ROSERO VERA LUIS ANDRES</t>
@@ -2369,7 +2369,7 @@
     <t>luis.rosero@espam.edu.ec</t>
   </si>
   <si>
-    <t>d4NxIdj#</t>
+    <t>i2Fl6zcw</t>
   </si>
   <si>
     <t>SANTISTEBAN BENAVIDES JOSUE ROMARIO</t>
@@ -2378,7 +2378,7 @@
     <t>josue.santisteban.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>4A#RwEOD</t>
+    <t>xVbvDLTU</t>
   </si>
   <si>
     <t>SOLORZANO CUSME GEMA JULIANA</t>
@@ -2387,7 +2387,7 @@
     <t>gemaju.solorzano@espam.edu.ec</t>
   </si>
   <si>
-    <t>gWbE9#XM</t>
+    <t>BiQBWekA</t>
   </si>
   <si>
     <t>TORRES PINARGOTE MAHOLY</t>
@@ -2396,7 +2396,7 @@
     <t>maholy.torres.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>&amp;7KeHi06</t>
+    <t>h1bPM6jU</t>
   </si>
   <si>
     <t>ZAMBRANO BRAVO LEANDRO ISMAEL</t>
@@ -2405,7 +2405,7 @@
     <t>leandro.zambrano.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>RQs!y!ED</t>
+    <t>WRq#o02v</t>
   </si>
   <si>
     <t>ZAMBRANO GARCIA HENRY ARTURO</t>
@@ -2414,7 +2414,7 @@
     <t>henry.zambrano.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>CxUF!ylO</t>
+    <t>xJyOywEp</t>
   </si>
   <si>
     <t>BARRE PARRAGA BETSY BEATRIZ</t>
@@ -2423,7 +2423,7 @@
     <t>betsy.barre.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>i0m/s!tC</t>
+    <t>FhTAED&amp;B</t>
   </si>
   <si>
     <t>CEDEÑO CEDEÑO CAMILA PATRICIA</t>
@@ -2435,7 +2435,7 @@
     <t>camila.cedeno.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>#AsoqI?Z</t>
+    <t>mATLmLn0</t>
   </si>
   <si>
     <t>CEDEÑO SOLORZANO ANTHONY STEVEN</t>
@@ -2444,7 +2444,7 @@
     <t>anthony.cedenos.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>2PwhQXr9</t>
+    <t>UMbnK27t</t>
   </si>
   <si>
     <t>CEDEÑO TUAREZ ANGIE LISSETTE</t>
@@ -2453,7 +2453,7 @@
     <t>angie.cedeno@espam.edu.ec</t>
   </si>
   <si>
-    <t>nrH3m2hA</t>
+    <t>hT1iX&amp;nM</t>
   </si>
   <si>
     <t>CHAVEZ LANDAZURI JACKSON JAIR</t>
@@ -2465,7 +2465,7 @@
     <t>jackson.chavez.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>H3laLzwc</t>
+    <t>6nK2INvm</t>
   </si>
   <si>
     <t>CHICA MOREIRA MARIA FERNANDA</t>
@@ -2474,7 +2474,7 @@
     <t>maria.chica.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>cvQlRVfk</t>
+    <t>kS15ebGO</t>
   </si>
   <si>
     <t>GARCIA ZAMBRANO WENDY YAMILETH</t>
@@ -2483,7 +2483,7 @@
     <t>wendy.garcia.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>P7kuVBE0</t>
+    <t>4aItaM72</t>
   </si>
   <si>
     <t>GARZON CEDEÑO FRANCESCO RUBEN</t>
@@ -2492,7 +2492,7 @@
     <t>francesco.garzon.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>hZAcLtpW</t>
+    <t>NjKxUAr2</t>
   </si>
   <si>
     <t>GUERRERO CEDEÑO MICHAEL JORDY</t>
@@ -2501,7 +2501,7 @@
     <t>michael.guerrero.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>dugrqLyl</t>
+    <t>G9v9keqZ</t>
   </si>
   <si>
     <t>MEDRANDA GONZALES CRISTHIAN JOSE</t>
@@ -2510,7 +2510,7 @@
     <t>cristhian.medranda@espam.edu.ec</t>
   </si>
   <si>
-    <t>7WqEHaiO</t>
+    <t>GWez5w1C</t>
   </si>
   <si>
     <t>ORELLANA ANCHUNDIA JESUS MIGUEL</t>
@@ -2519,7 +2519,7 @@
     <t>jesus.orellana@espam.edu.ec</t>
   </si>
   <si>
-    <t>HBmOX2A!</t>
+    <t>p3MH#o#c</t>
   </si>
   <si>
     <t>ORTIZ GOMEZ EDUARDO ANDRES</t>
@@ -2528,7 +2528,7 @@
     <t>eduardo.ortiz@espam.edu.ec</t>
   </si>
   <si>
-    <t>r#72f6X9</t>
+    <t>4S!8l/2p</t>
   </si>
   <si>
     <t>PAZMIÑO MERA SHANDE ALEXANDER</t>
@@ -2537,7 +2537,7 @@
     <t>shande.pazmino.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>K1oHIynL</t>
+    <t>SUcF6Veh</t>
   </si>
   <si>
     <t>PEÑARRIETA BAZURTO ERICK ANDRES</t>
@@ -2546,7 +2546,7 @@
     <t>erick.penarrieta@espam.edu.ec</t>
   </si>
   <si>
-    <t>&amp;nsUJIzz</t>
+    <t>xEJiqWUU</t>
   </si>
   <si>
     <t>RIERA GAVILANES IZHURY MILLENYTH</t>
@@ -2558,7 +2558,7 @@
     <t>izhury.riera.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>MS8InhM?</t>
+    <t>a#P0DKTO</t>
   </si>
   <si>
     <t>RIVERA CEDEÑO RIVALDO JOSE</t>
@@ -2570,7 +2570,7 @@
     <t>rivaldo.rivera.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>pyRY/AUr</t>
+    <t>bXvZ0Ygk</t>
   </si>
   <si>
     <t>SALDARRIAGA ARTEAGA OMAIRA MARIBI</t>
@@ -2579,7 +2579,7 @@
     <t>omaira.saldarriaga@espam.edu.ec</t>
   </si>
   <si>
-    <t>!8#E2uAk</t>
+    <t>VUjJ5KQY</t>
   </si>
   <si>
     <t>SANDOVAL MERA NALLELY STEFANIA</t>
@@ -2588,7 +2588,7 @@
     <t>nallely.sandoval.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>WiUxQyho</t>
+    <t>226hGAji</t>
   </si>
   <si>
     <t>SUQUI CANGO BRYAN EDUARDO</t>
@@ -2600,7 +2600,7 @@
     <t>bryan.suqui.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>MoOEc?9Q</t>
+    <t>GqQdXTKY</t>
   </si>
   <si>
     <t>VERDUGA ZAMBRANO CARLOS ANDRES</t>
@@ -2609,7 +2609,7 @@
     <t>carlos.verduga.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>1CiX2A4b</t>
+    <t>943cUlKV</t>
   </si>
   <si>
     <t>ZAMBRANO LARA MARVIN RENE</t>
@@ -2618,7 +2618,7 @@
     <t>marvin.zambrano.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>Qo8Wx2!J</t>
+    <t>7H88KUjQ</t>
   </si>
   <si>
     <t>ZAMBRANO OBANDO KELVIN JOSUE</t>
@@ -2630,7 +2630,7 @@
     <t>kelvin.zambrano.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>m?y4C5f2</t>
+    <t>n#YI4pmw</t>
   </si>
   <si>
     <t>ZAPATA QUINCHE ANDREA CAROLINA</t>
@@ -2639,7 +2639,7 @@
     <t>andrea.zapata.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>4dI4b2pb</t>
+    <t>6QSZrv6a</t>
   </si>
   <si>
     <t>ALMEIDA PEREZ ANGEL FERNANDO</t>
@@ -2648,7 +2648,7 @@
     <t>angel.almeida@espam.edu.ec</t>
   </si>
   <si>
-    <t>l/dsm9LQ</t>
+    <t>8RIEoYyY</t>
   </si>
   <si>
     <t>CEDEÑO PARRAGA MELANY NALLELY</t>
@@ -2657,7 +2657,7 @@
     <t>melany.cedeno.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>CxxWlkA&amp;</t>
+    <t>k7Z#6sQy</t>
   </si>
   <si>
     <t>CEDEÑO SALVATIERRA JENIFFER ALEJANDRA</t>
@@ -2666,7 +2666,7 @@
     <t>jeniffer.cedenosal@espam.edu.ec</t>
   </si>
   <si>
-    <t>IniPnXSw</t>
+    <t>fkv/9p1&amp;</t>
   </si>
   <si>
     <t>FERNANDEZ ARTEAGA SCHEZNARDA EDITH</t>
@@ -2675,7 +2675,7 @@
     <t>scheznarda.fernandez.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>Cv2MIWh6</t>
+    <t>iiRF0AFJ</t>
   </si>
   <si>
     <t>GANCHOZO VELEZ EMILY JULEXY</t>
@@ -2684,7 +2684,7 @@
     <t>emily.ganchozo.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>ANWXt6p&amp;</t>
+    <t>dUoBkP6J</t>
   </si>
   <si>
     <t>LEON VIZÑAY ROQUE JAVIER</t>
@@ -2696,7 +2696,7 @@
     <t>roque.leon@espam.edu.ec</t>
   </si>
   <si>
-    <t>PVvhtbfz</t>
+    <t>R6vxx49h</t>
   </si>
   <si>
     <t>LOOR LOOR EVELYN YAMILETH</t>
@@ -2705,7 +2705,7 @@
     <t>evelynya.loor@espam.edu.ec</t>
   </si>
   <si>
-    <t>58jwHqa2</t>
+    <t>PS0PQtJt</t>
   </si>
   <si>
     <t>LOOR MOREIRA MELANIE NOEMI</t>
@@ -2714,7 +2714,7 @@
     <t>melanie.loorm.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>zgIKGXvk</t>
+    <t>sPxv7wf/</t>
   </si>
   <si>
     <t>LOPEZ ESTACIO ROSA ANGELICA</t>
@@ -2723,7 +2723,7 @@
     <t>rosa.lopez@espam.edu.ec</t>
   </si>
   <si>
-    <t>FfhVvzkE</t>
+    <t>Kmo&amp;GI6#</t>
   </si>
   <si>
     <t>MENDOZA MUÑOZ FLOR ANTONELA</t>
@@ -2732,7 +2732,7 @@
     <t>flor.mendoza.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>KXfPgIdK</t>
+    <t>HBE0FGPb</t>
   </si>
   <si>
     <t>MERELO SOLORZANO NAIDELYN MISHELLE</t>
@@ -2741,7 +2741,7 @@
     <t>naidelyn.merelo.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>XIf#ohsi</t>
+    <t>M08lQW1e</t>
   </si>
   <si>
     <t>MOREIRA LOOR FABIAN ALEXANDER</t>
@@ -2750,7 +2750,7 @@
     <t>fabian.moreira@espam.edu.ec</t>
   </si>
   <si>
-    <t>7guxej&amp;R</t>
+    <t>gjB7KH8S</t>
   </si>
   <si>
     <t>PAZMIÑO FALCONES JOSE MIGUEL</t>
@@ -2759,7 +2759,7 @@
     <t>jose.pazmino@espam.edu.ec</t>
   </si>
   <si>
-    <t>6zZwCSuC</t>
+    <t>kUDxK9eT</t>
   </si>
   <si>
     <t>PEÑAFIEL PITA BRITHANNY MICAELA</t>
@@ -2771,7 +2771,7 @@
     <t>brithanny.penafiel.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>C8Ss6U/S</t>
+    <t>VFy0ZMR!</t>
   </si>
   <si>
     <t>PINTO PALACIOS JOSE ANTONIO</t>
@@ -2780,7 +2780,7 @@
     <t>jose.pinto@espam.edu.ec</t>
   </si>
   <si>
-    <t>3/Zhyfq!</t>
+    <t>0e2lX22?</t>
   </si>
   <si>
     <t>RENTERIA VALENCIA NEURYS GYSSELA</t>
@@ -2792,7 +2792,7 @@
     <t>neurys.renteria@espam.edu.ec</t>
   </si>
   <si>
-    <t>58nKYs9m</t>
+    <t>jvokAGDL</t>
   </si>
   <si>
     <t>RIVAS ZAMBRANO ALISSON KATIUSKA</t>
@@ -2801,7 +2801,7 @@
     <t>alisson.rivas.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>6aohZx&amp;N</t>
+    <t>&amp;8uFyRMU</t>
   </si>
   <si>
     <t>TORRES VARGAS KARELIS ANDREINA</t>
@@ -2813,7 +2813,7 @@
     <t>karelis.torres@espam.edu.ec</t>
   </si>
   <si>
-    <t>aOr2#ddg</t>
+    <t>xZ706a7w</t>
   </si>
   <si>
     <t>VALDIVIESO CHUNG DANIEL JAFET</t>
@@ -2822,7 +2822,7 @@
     <t>daniel.valdivieso.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>nTXYICsg</t>
+    <t>S!5t!HOF</t>
   </si>
   <si>
     <t>VASCONEZ GONZALEZ FRANCISCO ALESSIO</t>
@@ -2831,7 +2831,7 @@
     <t>francisco.vasconez.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>!zXn5PFi</t>
+    <t>1VJBYW1c</t>
   </si>
   <si>
     <t>VELEZ ORTEGA BORIS ANDRES</t>
@@ -2840,7 +2840,7 @@
     <t>boris.velez.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>9aoWt?Bh</t>
+    <t>EYQGgy91</t>
   </si>
   <si>
     <t>VERA ESTUPIÑAN BRYAN FRANCISCO</t>
@@ -2849,7 +2849,7 @@
     <t>bryan.vera@espam.edu.ec</t>
   </si>
   <si>
-    <t>o#lTtp8C</t>
+    <t>uTcRY2&amp;D</t>
   </si>
   <si>
     <t>VERA LOOR ARIANA PAOLA</t>
@@ -2858,7 +2858,7 @@
     <t>ariana.vera.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>Q79xwPaZ</t>
+    <t>zUk3Hrak</t>
   </si>
   <si>
     <t>ZAMBRANO VEGA AURA ARACELY</t>
@@ -2867,7 +2867,7 @@
     <t>aura.zambranov@espam.edu.ec</t>
   </si>
   <si>
-    <t>OcZJCBvc</t>
+    <t>ALyE2QqO</t>
   </si>
   <si>
     <t>ALMEIDA ZAMBRANO HALINTONG VICENTE</t>
@@ -2876,7 +2876,7 @@
     <t>halintong.almeida@espam.edu.ec</t>
   </si>
   <si>
-    <t>q#okf6Xs</t>
+    <t>j!0cOugS</t>
   </si>
   <si>
     <t>AYALA VILLAFUERTE NAHOMY NAYELY</t>
@@ -2885,7 +2885,7 @@
     <t>nahomy.ayala@espam.edu.ec</t>
   </si>
   <si>
-    <t>o26lvk10</t>
+    <t>mHBIANW&amp;</t>
   </si>
   <si>
     <t>BASURTO CEDEÑO ITALO JORDANO</t>
@@ -2894,7 +2894,7 @@
     <t>italo.basurto.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>Z1w?qNpi</t>
+    <t>BvfiWhsZ</t>
   </si>
   <si>
     <t>CASTRO TAIPE YERIK LEXANDER</t>
@@ -2903,7 +2903,7 @@
     <t>yerik.castro.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>nyMQ7oWo</t>
+    <t>AtmOWkQe</t>
   </si>
   <si>
     <t>CEDEÑO GARCIA CARLOS PAUL</t>
@@ -2912,7 +2912,7 @@
     <t>carlos.cedeno.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>vEiC?Jnw</t>
+    <t>ayT5&amp;bcU</t>
   </si>
   <si>
     <t>COBEÑA ZAMBRANO EDIS ARIEL</t>
@@ -2921,7 +2921,7 @@
     <t>edis.cobena@espam.edu.ec</t>
   </si>
   <si>
-    <t>UjZWxbd8</t>
+    <t>7jp9RBeP</t>
   </si>
   <si>
     <t>CORDOVA MUGUERZA ADRIANA NICOLLE</t>
@@ -2930,7 +2930,7 @@
     <t>adriana.muguersa.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>wd9L55!H</t>
+    <t>whBcovyZ</t>
   </si>
   <si>
     <t>COTERA PIN MAYERLY DAYANARA</t>
@@ -2939,7 +2939,7 @@
     <t>mayerly.cotera.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>0ieyOLBi</t>
+    <t>D4TxTajv</t>
   </si>
   <si>
     <t>CUENCA CUSME CECILIA ALEXANDRA</t>
@@ -2948,7 +2948,7 @@
     <t>cecilia.cuenca@espam.edu.ec</t>
   </si>
   <si>
-    <t>rRICnd1z</t>
+    <t>?Sj7GwNL</t>
   </si>
   <si>
     <t>FERNANDEZ ARTEAGA ANGIE MISHELLE</t>
@@ -2957,7 +2957,7 @@
     <t>angie.fernandez.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>tf8zvOD6</t>
+    <t>08CYQWHV</t>
   </si>
   <si>
     <t>LATA QUINCHI SANDRA LOURDES</t>
@@ -2966,7 +2966,7 @@
     <t>sandra.lata.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>QQPAAvDd</t>
+    <t>jElpwUWm</t>
   </si>
   <si>
     <t>MEJICANGO CALLE JAZMIN LISBETH</t>
@@ -2978,7 +2978,7 @@
     <t>jazmin.mejicango.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>BIqBI?L9</t>
+    <t>QXJsBiEB</t>
   </si>
   <si>
     <t>MENDOZA GANCHOZO DOMENICA NICOLE</t>
@@ -2987,7 +2987,7 @@
     <t>domenica.mendoza.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>JUxo9&amp;zU</t>
+    <t>7y?H5/GN</t>
   </si>
   <si>
     <t>MOREIRA CEVALLOS NAYELY VANESSA</t>
@@ -2996,7 +2996,7 @@
     <t>nayely.moreira@espam.edu.ec</t>
   </si>
   <si>
-    <t>z/RD#V7V</t>
+    <t>ZiefPp5t</t>
   </si>
   <si>
     <t>MUÑOZ VERA MICHELLE VALENTINA</t>
@@ -3005,7 +3005,7 @@
     <t>michelle.munoz.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>JX2r!ngj</t>
+    <t>gfbz&amp;rsJ</t>
   </si>
   <si>
     <t>OLMOS RIVERA CLEOPATRA STEFANIA</t>
@@ -3014,7 +3014,7 @@
     <t>cleopatra.olmos.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>1USyas?Y</t>
+    <t>ivm&amp;1PMg</t>
   </si>
   <si>
     <t>PAREDES RODRIGUEZ GIBELY JARLETH</t>
@@ -3026,7 +3026,7 @@
     <t>gibely.paredes.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>9?Aw/rq0</t>
+    <t>5GJRjfq/</t>
   </si>
   <si>
     <t>PERUGACHI MECIAS GEOVANNY ALEJANDRO</t>
@@ -3035,7 +3035,7 @@
     <t>geovanny.perugachi.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>Vvnm/wzN</t>
+    <t>r5g?y43q</t>
   </si>
   <si>
     <t>PITA MACIAS RUBEN DARIO</t>
@@ -3044,7 +3044,7 @@
     <t>ruben.pita@espam.edu.ec</t>
   </si>
   <si>
-    <t>bDvS6cMA</t>
+    <t>6?AmX#O5</t>
   </si>
   <si>
     <t>ROSADO QUIROZ JANDRY FABRICIO</t>
@@ -3053,7 +3053,7 @@
     <t>jandry.rosado.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>Xcv5p&amp;!t</t>
+    <t>jrbTOJ4B</t>
   </si>
   <si>
     <t>SANCHEZ CHOEZ BERTHA DOLORES</t>
@@ -3062,7 +3062,7 @@
     <t>bertha.choez.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>lpM!!/J/</t>
+    <t>A?Vukb71</t>
   </si>
   <si>
     <t>VALENCIA MARCILLO JENIFFER KAROLINA</t>
@@ -3071,7 +3071,7 @@
     <t>jenifferk.valenciam@espam.edu.ec</t>
   </si>
   <si>
-    <t>sHjJ2o9H</t>
+    <t>DVOdCxUH</t>
   </si>
   <si>
     <t>VELASQUEZ GUADAMUD MARIO DAMIAN</t>
@@ -3080,7 +3080,7 @@
     <t>mario.velasquez@espam.edu.ec</t>
   </si>
   <si>
-    <t>R9hyj1PX</t>
+    <t>BBwHfqla</t>
   </si>
   <si>
     <t>VELEZ RIVAS JOFFRE GEOVANNY</t>
@@ -3089,7 +3089,7 @@
     <t>joffre.velez.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>vMP9!9OW</t>
+    <t>jY55w1Cn</t>
   </si>
   <si>
     <t>VELEZ ZAMBRANO GEMA BRIGITH</t>
@@ -3098,7 +3098,7 @@
     <t>gema.velez.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>Cbl5WQCT</t>
+    <t>yTPRhb8Y</t>
   </si>
   <si>
     <t>VERA CEVALLOS CARMEN GISSELLA</t>
@@ -3107,7 +3107,7 @@
     <t>carmen.vera@espam.edu.ec</t>
   </si>
   <si>
-    <t>zUl34rWS</t>
+    <t>yROLd#Ih</t>
   </si>
   <si>
     <t>VERA SOLORZANO CARLOS NEPTALI</t>
@@ -3116,7 +3116,7 @@
     <t>carlos.veras@espam.edu.ec</t>
   </si>
   <si>
-    <t>nyxZZhlE</t>
+    <t>Kb&amp;wJfjV</t>
   </si>
   <si>
     <t>VERA VERA YUSTHYN YARLETH</t>
@@ -3125,7 +3125,7 @@
     <t>yusthyn.vera.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>o3pc6E!E</t>
+    <t>Ya53ZLEa</t>
   </si>
   <si>
     <t>VIDAL SABANDO MARIA KATHERINE</t>
@@ -3134,7 +3134,7 @@
     <t>maria.vidal.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>wxNONIeb</t>
+    <t>JZ0QNm0M</t>
   </si>
   <si>
     <t>ZAMBRANO ALCIVAR EMILIO JOSE</t>
@@ -3143,7 +3143,7 @@
     <t>emilio.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>xv!iN#/6</t>
+    <t>#V0vA!7H</t>
   </si>
   <si>
     <t>ZAMBRANO AVEIGA MAYRA ALEXANDRA</t>
@@ -3152,7 +3152,7 @@
     <t>mayra.zambrano.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>FQV8Nwfz</t>
+    <t>pVeXVvWT</t>
   </si>
   <si>
     <t>ZAMBRANO VERA MARIA BEATRIZ</t>
@@ -3161,7 +3161,7 @@
     <t>maria.zambrano.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>#a5UFsvE</t>
+    <t>Rhyfaecv</t>
   </si>
   <si>
     <t>ALCIVAR RODRIGUEZ STEFANY LISETH</t>
@@ -3170,7 +3170,7 @@
     <t>stefany.alcivar.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>lzMYfU1Q</t>
+    <t>?WBpiKq!</t>
   </si>
   <si>
     <t>ANGULO GLENN YURANI MAGERLI</t>
@@ -3182,7 +3182,7 @@
     <t>yurani.angulo.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>p3cA31ge</t>
+    <t>6ANf3kTH</t>
   </si>
   <si>
     <t>ARTEAGA TRIVIÑO CAMILA</t>
@@ -3191,7 +3191,7 @@
     <t>camila.arteaga.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>G!owKoCD</t>
+    <t>1VJJEwYX</t>
   </si>
   <si>
     <t>BALDERRAMO CABRERA JOSE GERMAN</t>
@@ -3200,7 +3200,7 @@
     <t>jose.balderramo.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>EQ5H3/Ni</t>
+    <t>xSGv2j9T</t>
   </si>
   <si>
     <t>BRAVO MUÑOZ JEAN MYCKEL</t>
@@ -3209,7 +3209,7 @@
     <t>jean.bravomu@espam.edu.ec</t>
   </si>
   <si>
-    <t>eLJfHYqQ</t>
+    <t>Udhd6zq/</t>
   </si>
   <si>
     <t>BRAVO SANTANA JUNIOR XAVIER</t>
@@ -3218,7 +3218,7 @@
     <t>juniorx.bravos@espam.edu.ec</t>
   </si>
   <si>
-    <t>J9OquAP7</t>
+    <t>G0tmGNYi</t>
   </si>
   <si>
     <t>CAGUA RODRIGUEZ NAYELY ANAHI</t>
@@ -3227,7 +3227,7 @@
     <t>nayely.cagua.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>m!h!nET4</t>
+    <t>cOAkcBQr</t>
   </si>
   <si>
     <t>CALDERON RODRIGUEZ FATIMA DANIELA</t>
@@ -3236,7 +3236,7 @@
     <t>fatima.calderon.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>D##GQJkd</t>
+    <t>D8rTR29b</t>
   </si>
   <si>
     <t>CASTILLO MEJIA MARIA CARLOTA</t>
@@ -3245,7 +3245,7 @@
     <t>maria.castillo.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>uT8INDaR</t>
+    <t>DmplDrHx</t>
   </si>
   <si>
     <t>CEDEÑO CUSME DAYANARA NARCISA</t>
@@ -3254,7 +3254,7 @@
     <t>dayanara.cedeno.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>804?Ge0i</t>
+    <t>rOQFTsCP</t>
   </si>
   <si>
     <t>CELORIO VERA PETER PABLO</t>
@@ -3263,7 +3263,7 @@
     <t>peter.celorio.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>wUPcsR#B</t>
+    <t>Zb/Wu&amp;fY</t>
   </si>
   <si>
     <t>COOL MORENO DIANA ESTHEFANIA</t>
@@ -3272,7 +3272,7 @@
     <t>diana.cool@espam.edu.ec</t>
   </si>
   <si>
-    <t>oWWwC/f!</t>
+    <t>WF8owBPx</t>
   </si>
   <si>
     <t>DELGADO GARZON PAOLA FERNANDA</t>
@@ -3281,7 +3281,7 @@
     <t>paola.delgadog.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>/JTa?cpm</t>
+    <t>liRnMh&amp;a</t>
   </si>
   <si>
     <t>DOMINGUEZ DOMINGUEZ ROMINA MELISSA</t>
@@ -3290,7 +3290,7 @@
     <t>romina.dominguez@espam.edu.ec</t>
   </si>
   <si>
-    <t>hGpYw1QQ</t>
+    <t>!RgPn6&amp;?</t>
   </si>
   <si>
     <t>GARCIA MUÑOZ EDDY SANTIAGO</t>
@@ -3299,7 +3299,7 @@
     <t>eddy.garcia@espam.edu.ec</t>
   </si>
   <si>
-    <t>4mlu7vIz</t>
+    <t>KXU9TWN3</t>
   </si>
   <si>
     <t>GARCIA PONCE LEONELA ANTONELLA</t>
@@ -3308,7 +3308,7 @@
     <t>leonela.garcia.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>ojbiLUxZ</t>
+    <t>5TZ2HbHr</t>
   </si>
   <si>
     <t>LOPEZ SOLORZANO YIMMY</t>
@@ -3317,7 +3317,7 @@
     <t>yimmy.lopez@espam.edu.ec</t>
   </si>
   <si>
-    <t>AZkfqRI7</t>
+    <t>/DRH!YT4</t>
   </si>
   <si>
     <t>LOPEZ ZAMBRANO JORGE ISAAC</t>
@@ -3326,7 +3326,7 @@
     <t>jorge.lopez.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>CVdA49N8</t>
+    <t>y5O2XI0/</t>
   </si>
   <si>
     <t>MACIAS GUAGUA MAGERLY THAIS</t>
@@ -3338,7 +3338,7 @@
     <t>magerly.macias.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>uI&amp;YIGJ/</t>
+    <t>CZR?Vads</t>
   </si>
   <si>
     <t>MARTINEZ SABANDO MARCELO EFRAIN</t>
@@ -3347,7 +3347,7 @@
     <t>marcelo.martinez@espam.edu.ec</t>
   </si>
   <si>
-    <t>PMPcbKlI</t>
+    <t>RjrOcdAE</t>
   </si>
   <si>
     <t>MEDRANDA CEDEÑO IVAN ARTURO</t>
@@ -3356,7 +3356,7 @@
     <t>ivan.medranda@espam.edu.ec</t>
   </si>
   <si>
-    <t>vxtKsI6F</t>
+    <t>xuuymAjU</t>
   </si>
   <si>
     <t>MENDOZA INTRIAGO KEYLA YAMIRA</t>
@@ -3365,7 +3365,7 @@
     <t>keyla.mendoza@espam.edu.ec</t>
   </si>
   <si>
-    <t>n62GgFrG</t>
+    <t>nY0UtZ2?</t>
   </si>
   <si>
     <t>MENDOZA LOOR MARIAGRACIA</t>
@@ -3374,7 +3374,7 @@
     <t>mariagracia.mendoza@espam.edu.ec</t>
   </si>
   <si>
-    <t>pHcY4MrG</t>
+    <t>QR!jQjL2</t>
   </si>
   <si>
     <t>MOREIRA VELEZ ANGELICA LISBETH</t>
@@ -3383,7 +3383,7 @@
     <t>angelica.moreira@espam.edu.ec</t>
   </si>
   <si>
-    <t>zJTE4SmE</t>
+    <t>bUczB?dP</t>
   </si>
   <si>
     <t>PATA HERRERA ESTRELLA TATIANA</t>
@@ -3392,7 +3392,7 @@
     <t>estrella.pata.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>wn4g6ngH</t>
+    <t>zZkJ&amp;eN8</t>
   </si>
   <si>
     <t>PONCE MIRANDA YOEL ISAIAS</t>
@@ -3401,7 +3401,7 @@
     <t>yoel.ponce@espam.edu.ec</t>
   </si>
   <si>
-    <t>4XakscD8</t>
+    <t>CH5OvZtN</t>
   </si>
   <si>
     <t>RIVAS ALARCON ALISSON MAYERLI</t>
@@ -3413,7 +3413,7 @@
     <t>alisson.rivas@espam.edu.ec</t>
   </si>
   <si>
-    <t>lmUMrNqe</t>
+    <t>gXHMSBpt</t>
   </si>
   <si>
     <t>SABANDO VERA EMELY NOEMI</t>
@@ -3425,7 +3425,7 @@
     <t>emely.sabando.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>PpXpIeO!</t>
+    <t>qVLTzCdR</t>
   </si>
   <si>
     <t>VELASQUEZ ZAMBRANO JUAN DIEGO</t>
@@ -3434,7 +3434,7 @@
     <t>juan.velasquez@espam.edu.ec</t>
   </si>
   <si>
-    <t>eK?Qn93i</t>
+    <t>BXKinuZY</t>
   </si>
   <si>
     <t>ZAMBRANO MENDOZA JOSE LUIS</t>
@@ -3443,7 +3443,7 @@
     <t>jose.zambrano.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>jGgnkgF!</t>
+    <t>9nywh/S/</t>
   </si>
   <si>
     <t>ZAMBRANO PEREZ CARLOS JULIO</t>
@@ -3452,7 +3452,7 @@
     <t>carlos.zambranop@espam.edu.ec</t>
   </si>
   <si>
-    <t>ll9NambR</t>
+    <t>CEvb02uk</t>
   </si>
   <si>
     <t>ACHIG GUALACATA EVELIN LISETTE</t>
@@ -3461,7 +3461,7 @@
     <t>evelin.achig@espam.edu.ec</t>
   </si>
   <si>
-    <t>Xq#MjXE#</t>
+    <t>Re2lr0DV</t>
   </si>
   <si>
     <t>AGUAS VERA JEICOL MIKE</t>
@@ -3470,7 +3470,7 @@
     <t>jeicol.aguas@espam.edu.ec</t>
   </si>
   <si>
-    <t>XCQEsV4f</t>
+    <t>uOB6YXQ0</t>
   </si>
   <si>
     <t>BRAVO BASURTO JUAN CARLOS</t>
@@ -3479,7 +3479,7 @@
     <t>juan.bravo@espam.edu.ec</t>
   </si>
   <si>
-    <t>cLFu!BjF</t>
+    <t>bssR&amp;GHU</t>
   </si>
   <si>
     <t>CANTOS ZAMBRANO MARIA FERNANDA</t>
@@ -3488,7 +3488,7 @@
     <t>mariaf.cantos@espam.edu.ec</t>
   </si>
   <si>
-    <t>Xd5FHv&amp;x</t>
+    <t>QXtZ?Gbc</t>
   </si>
   <si>
     <t>CASTILLO DELGADO LERENY JAMILEX</t>
@@ -3497,7 +3497,7 @@
     <t>lereny.castillo@espam.edu.ec</t>
   </si>
   <si>
-    <t>od/WpG!3</t>
+    <t>KC?LBSNC</t>
   </si>
   <si>
     <t>CASTILLO JACOME JHON JAIRO</t>
@@ -3506,7 +3506,7 @@
     <t>jhon.castillo@espam.edu.ec</t>
   </si>
   <si>
-    <t>7p7MjgMb</t>
+    <t>bUn8FpVk</t>
   </si>
   <si>
     <t>CELORIO MENDOZA MIRIAN ALEJANDRA</t>
@@ -3515,7 +3515,7 @@
     <t>mirian.celorio@espam.edu.ec</t>
   </si>
   <si>
-    <t>fR&amp;#cJ8Z</t>
+    <t>I7agouN6</t>
   </si>
   <si>
     <t>CHUMO CHAVEZ JANINA BELEN</t>
@@ -3524,7 +3524,7 @@
     <t>janina.chumo@espam.edu.ec</t>
   </si>
   <si>
-    <t>Oee13l?p</t>
+    <t>QbXkcb#8</t>
   </si>
   <si>
     <t>DELGADO LOPEZ MERCEDES ELIZABETH</t>
@@ -3533,7 +3533,7 @@
     <t>mercedes.delgado@espam.edu.ec</t>
   </si>
   <si>
-    <t>fW41ng6V</t>
+    <t>RVQagvaQ</t>
   </si>
   <si>
     <t>ESTEVES OLVERA DIANA MILENA</t>
@@ -3542,7 +3542,7 @@
     <t>diana.esteves@espam.edu.ec</t>
   </si>
   <si>
-    <t>EptqV7yZ</t>
+    <t>zXDU&amp;pPu</t>
   </si>
   <si>
     <t>FALLAIN ZAMBRANO MARIA ANGELICA</t>
@@ -3551,7 +3551,7 @@
     <t>maria.fallain@espam.edu.ec</t>
   </si>
   <si>
-    <t>/7Gz2jKC</t>
+    <t>b2h1KiTo</t>
   </si>
   <si>
     <t>FERNANDEZ CEVALLOS FRANCISCO ESTUARDO</t>
@@ -3560,7 +3560,7 @@
     <t>francisco.fernandez@espam.edu.ec</t>
   </si>
   <si>
-    <t>u?0NQfgO</t>
+    <t>DWp7yYw?</t>
   </si>
   <si>
     <t>HERNANDEZ HERNANDEZ MARIA ZULEMA</t>
@@ -3572,7 +3572,7 @@
     <t>maria.hernandez@espam.edu.ec</t>
   </si>
   <si>
-    <t>REG1k0!s</t>
+    <t>u44WngAR</t>
   </si>
   <si>
     <t>INTRIAGO SOLORZANO LEYDI GABRIELA</t>
@@ -3581,7 +3581,7 @@
     <t>leydi.intriago@espam.edu.ec</t>
   </si>
   <si>
-    <t>Nl2Jv4oY</t>
+    <t>gtGwwQ4T</t>
   </si>
   <si>
     <t>MACIAS LOOR ELIAN RENE</t>
@@ -3590,7 +3590,7 @@
     <t>elian.macias@espam.edu.ec</t>
   </si>
   <si>
-    <t>Uh!wgope</t>
+    <t>8ugwD&amp;?&amp;</t>
   </si>
   <si>
     <t>MACIAS PISCO NACHY MONSERRAT</t>
@@ -3599,7 +3599,7 @@
     <t>nachy.macias@espam.edu.ec</t>
   </si>
   <si>
-    <t>ZI!tat&amp;J</t>
+    <t>OyXZkANg</t>
   </si>
   <si>
     <t>MERA LOOR JONAYKER REYNALDO</t>
@@ -3608,7 +3608,7 @@
     <t>jonayker.mera@espam.edu.ec</t>
   </si>
   <si>
-    <t>RrRJ!ppo</t>
+    <t>JCV/lamB</t>
   </si>
   <si>
     <t>MOREIRA BASURTO YORDY JOEL</t>
@@ -3617,7 +3617,7 @@
     <t>yordy.moreira@espam.edu.ec</t>
   </si>
   <si>
-    <t>MvUtxP&amp;V</t>
+    <t>0bdoX?nS</t>
   </si>
   <si>
     <t>MOREIRA MENDOZA MAGDALENA JAMILETH</t>
@@ -3626,7 +3626,7 @@
     <t>magdalena.moreira@espam.edu.ec</t>
   </si>
   <si>
-    <t>?0N5WeQ3</t>
+    <t>3MG/Mu&amp;8</t>
   </si>
   <si>
     <t>PANTUSIN MUGUERZA ANDREA LISSETH</t>
@@ -3635,7 +3635,7 @@
     <t>andrea.pantusin@espam.edu.ec</t>
   </si>
   <si>
-    <t>01HX3ROV</t>
+    <t>JmJkSOFa</t>
   </si>
   <si>
     <t>PATIÑO MEJIA MILENA ANAHI</t>
@@ -3644,7 +3644,7 @@
     <t>milena.patino@espam.edu.ec</t>
   </si>
   <si>
-    <t>tNSLl9Z&amp;</t>
+    <t>3OZXtNHQ</t>
   </si>
   <si>
     <t>PICO GARCIA ALLISON JANELY</t>
@@ -3653,7 +3653,7 @@
     <t>allison.pico@espam.edu.ec</t>
   </si>
   <si>
-    <t>S&amp;!n6I8n</t>
+    <t>?w7ePOOZ</t>
   </si>
   <si>
     <t>POVEDA SANTANA ENZO JAVIER</t>
@@ -3665,7 +3665,7 @@
     <t>enzo.poveda@espam.edu.ec</t>
   </si>
   <si>
-    <t>/6?UdC3o</t>
+    <t>HHMn5nx0</t>
   </si>
   <si>
     <t>QUIJIJE CEDEÑO NATALY SILVANA</t>
@@ -3674,7 +3674,7 @@
     <t>nataly.quijije@espam.edu.ec</t>
   </si>
   <si>
-    <t>K4ybcAq/</t>
+    <t>o3pWcUHh</t>
   </si>
   <si>
     <t>ROBALINO DELGADO JORGE DAVID</t>
@@ -3683,7 +3683,7 @@
     <t>jorge.robalino@espam.edu.ec</t>
   </si>
   <si>
-    <t>ndiGVf5M</t>
+    <t>vjHskawC</t>
   </si>
   <si>
     <t>SANCHEZ CASTILLO ADRIANA MICAELA</t>
@@ -3692,7 +3692,7 @@
     <t>adriana.sanchez@espam.edu.ec</t>
   </si>
   <si>
-    <t>S8UxZ2yB</t>
+    <t>NxVKHLy8</t>
   </si>
   <si>
     <t>SOLORZANO ALAVA TAIRUN FRANCISCO</t>
@@ -3701,7 +3701,7 @@
     <t>tairun.solorzano@espam.edu.ec</t>
   </si>
   <si>
-    <t>ohAC3yl6</t>
+    <t>stiIesy4</t>
   </si>
   <si>
     <t>SOLORZANO BAILON MARIA GABRIELA</t>
@@ -3710,7 +3710,7 @@
     <t>mariaga.solorzano@espam.edu.ec</t>
   </si>
   <si>
-    <t>njGtOtSL</t>
+    <t>jo01PRAF</t>
   </si>
   <si>
     <t>TRUJILLO AGUAS MAYERLI DAYANA</t>
@@ -3719,7 +3719,7 @@
     <t>mayerli.trujillo@espam.edu.ec</t>
   </si>
   <si>
-    <t>W3VZ?m6y</t>
+    <t>!oV7uuAe</t>
   </si>
   <si>
     <t>VERA VERA CINTHIA MARIA</t>
@@ -3728,7 +3728,7 @@
     <t>cinthia.verav@espam.edu.ec</t>
   </si>
   <si>
-    <t>MOUo1CCz</t>
+    <t>Ui0iZxxb</t>
   </si>
   <si>
     <t>VIDAL INTRIAGO ANDY YOEL</t>
@@ -3737,7 +3737,7 @@
     <t>andy.vidal@espam.edu.ec</t>
   </si>
   <si>
-    <t>OK&amp;z!s!J</t>
+    <t>DLI03t&amp;Z</t>
   </si>
   <si>
     <t>VINTIMILLA PROAÑO MARIA DE LOURDES</t>
@@ -3746,7 +3746,7 @@
     <t>maria.vintimilla@espam.edu.ec</t>
   </si>
   <si>
-    <t>0L/xHN&amp;f</t>
+    <t>3xHSB/uJ</t>
   </si>
   <si>
     <t>VITERI SANTOS VINICIO ORLEY</t>
@@ -3755,7 +3755,7 @@
     <t>vinicio.viteri@espam.edu.ec</t>
   </si>
   <si>
-    <t>iDjVugBd</t>
+    <t>GJ#LPzz5</t>
   </si>
   <si>
     <t>ZAMBRANO CANO FRANCISCO JAVIER</t>
@@ -3764,7 +3764,7 @@
     <t>francisco.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>hp7mXu#j</t>
+    <t>UVvf11jP</t>
   </si>
   <si>
     <t>ZAMBRANO NAVARRETE ELBA MARIA</t>
@@ -3773,7 +3773,7 @@
     <t>elba.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>rIDRE7x5</t>
+    <t>TXh!#!6u</t>
   </si>
   <si>
     <t>ZAMBRANO ZAMBRANO WENDY GISSELLA</t>
@@ -3782,7 +3782,7 @@
     <t>wendy.zambranoz@espam.edu.ec</t>
   </si>
   <si>
-    <t>EayGfYRP</t>
+    <t>cjKWXMO1</t>
   </si>
   <si>
     <t>ARANA RUEDA ANGY LISSETH</t>
@@ -3794,7 +3794,7 @@
     <t>angy.arana@espam.edu.ec</t>
   </si>
   <si>
-    <t>fW290ZjH</t>
+    <t>tvpKJI70</t>
   </si>
   <si>
     <t>ARTEAGA VARGAS ANDREA VALERIA</t>
@@ -3803,7 +3803,7 @@
     <t>andrea.arteaga@espam.edu.ec</t>
   </si>
   <si>
-    <t>mR0cWZTO</t>
+    <t>W9MOWiv3</t>
   </si>
   <si>
     <t>BARBERAN SANCHEZ KARLA MICHELLE</t>
@@ -3812,7 +3812,7 @@
     <t>karla.barberan@espam.edu.ec</t>
   </si>
   <si>
-    <t>u5YyNSVS</t>
+    <t>K/sq0xDQ</t>
   </si>
   <si>
     <t>BAZURTO MANZABA SORAYA STEFANIA</t>
@@ -3821,7 +3821,7 @@
     <t>soraya.bazurto@espam.edu.ec</t>
   </si>
   <si>
-    <t>E1X7ZB1J</t>
+    <t>bdU4TPJP</t>
   </si>
   <si>
     <t>CAGUA GARCIA ANDRES VIRGILIO</t>
@@ -3830,7 +3830,7 @@
     <t>andres.cagua@espam.edu.ec</t>
   </si>
   <si>
-    <t>Fsv?PCmB</t>
+    <t>BDbYzIbN</t>
   </si>
   <si>
     <t>DOMINGUEZ CALDERON JEAN PIERRE</t>
@@ -3839,7 +3839,7 @@
     <t>jean.dominguez@espam.edu.ec</t>
   </si>
   <si>
-    <t>7Njj2pHt</t>
+    <t>mztclwES</t>
   </si>
   <si>
     <t>ESPINOZA ALCIVAR EVELYN ALEXANDRA</t>
@@ -3848,7 +3848,7 @@
     <t>evelyn.espinoza@espam.edu.ec</t>
   </si>
   <si>
-    <t>0T9sJ9S9</t>
+    <t>Gx2oK&amp;!w</t>
   </si>
   <si>
     <t>LOOR MORENO DANIEL AGUSTIN</t>
@@ -3857,7 +3857,7 @@
     <t>daniel.loor@espam.edu.ec</t>
   </si>
   <si>
-    <t>XHA3&amp;DTh</t>
+    <t>h5VU35Z7</t>
   </si>
   <si>
     <t>MACIAS PARRALES MEREDITH MARIBEL</t>
@@ -3866,7 +3866,7 @@
     <t>meredith.macias@espam.edu.ec</t>
   </si>
   <si>
-    <t>bCz2yts!</t>
+    <t>!59FqV0X</t>
   </si>
   <si>
     <t>MENDOZA CANCHINGRE BRIGITH MIKAELA</t>
@@ -3875,7 +3875,7 @@
     <t>brigith.mendoza@espam.edu.ec</t>
   </si>
   <si>
-    <t>DRCrnlCU</t>
+    <t>brpx82Ya</t>
   </si>
   <si>
     <t>MENDOZA VELEZ JOSE MIGUEL</t>
@@ -3884,7 +3884,7 @@
     <t>josemi.mendoza@espam.edu.ec</t>
   </si>
   <si>
-    <t>s/X?z2&amp;#</t>
+    <t>04/nxF&amp;J</t>
   </si>
   <si>
     <t>MEZA BRIONES ANTHONY NARCILO</t>
@@ -3893,7 +3893,7 @@
     <t>anthony.meza@espam.edu.ec</t>
   </si>
   <si>
-    <t>8q0PB5BZ</t>
+    <t>xI5O#nbF</t>
   </si>
   <si>
     <t>MORA ZAMBRANO MARIA LAURA</t>
@@ -3902,7 +3902,7 @@
     <t>maria.mora@espam.edu.ec</t>
   </si>
   <si>
-    <t>LhcoJNE8</t>
+    <t>pEMpkY3f</t>
   </si>
   <si>
     <t>NAVARRETE ZAMBRANO ROBIN LUGERIO</t>
@@ -3911,7 +3911,7 @@
     <t>robin.navarrete@espam.edu.ec</t>
   </si>
   <si>
-    <t>yIdX2&amp;0J</t>
+    <t>ujCr!9!/</t>
   </si>
   <si>
     <t>OSTAIZA LOPEZ JOSEPH MANUEL</t>
@@ -3920,7 +3920,7 @@
     <t>josepth.ostaiza@espam.edu.ec</t>
   </si>
   <si>
-    <t>?1z3e8h2</t>
+    <t>IqMdxJTO</t>
   </si>
   <si>
     <t>PARRAGA PARRAGA CARLA ESTEFANIA</t>
@@ -3929,7 +3929,7 @@
     <t>carla.parraga@espam.edu.ec</t>
   </si>
   <si>
-    <t>QfUoOhOF</t>
+    <t>fXWTALVr</t>
   </si>
   <si>
     <t>PLAZA CABRERA MAYERLY MARIA</t>
@@ -3941,7 +3941,7 @@
     <t>mayerly.plaza@espam.edu.ec</t>
   </si>
   <si>
-    <t>oTLUQWUh</t>
+    <t>K#9BAoR9</t>
   </si>
   <si>
     <t>RODRIGUEZ VELIZ LEANDRO MOISES</t>
@@ -3950,7 +3950,7 @@
     <t>leandro.rodriguez@espam.edu.ec</t>
   </si>
   <si>
-    <t>2H!5gF58</t>
+    <t>qYk#SDtW</t>
   </si>
   <si>
     <t>SANTANA GUERRERO MARIA RAQUEL</t>
@@ -3959,7 +3959,7 @@
     <t>mariar.santanag@espam.edu.ec</t>
   </si>
   <si>
-    <t>3MdMbcEM</t>
+    <t>ioRhb5Rh</t>
   </si>
   <si>
     <t>SANTOS SALAZAR JANDRY DAVID</t>
@@ -3968,7 +3968,7 @@
     <t>jandry.santos@espam.edu.ec</t>
   </si>
   <si>
-    <t>uB2!8f9f</t>
+    <t>sULlIz67</t>
   </si>
   <si>
     <t>SOLORZANO LOOR KEYLA GEOVANNA</t>
@@ -3977,7 +3977,7 @@
     <t>keyla.solorzano@espam.edu.ec</t>
   </si>
   <si>
-    <t>r&amp;qg5eS6</t>
+    <t>PqAWhC3&amp;</t>
   </si>
   <si>
     <t>VALENCIA ZAMBRANO VALERIA MERCEDES</t>
@@ -3986,7 +3986,7 @@
     <t>valeria.valencia@espam.edu.ec</t>
   </si>
   <si>
-    <t>yQCbg7GO</t>
+    <t>gjsOzCuU</t>
   </si>
   <si>
     <t>VARGAS CHOEZ ALEXIS ELIAN</t>
@@ -3995,7 +3995,7 @@
     <t>alexis.vargas@espam.edu.ec</t>
   </si>
   <si>
-    <t>I?HtXZyv</t>
+    <t>0z2ojs/a</t>
   </si>
   <si>
     <t>VELEZ ALMEIDA CARMEN REBECA</t>
@@ -4004,7 +4004,7 @@
     <t>carmen.velez@espam.edu.ec</t>
   </si>
   <si>
-    <t>DS4Nnhzd</t>
+    <t>c1M2BKgp</t>
   </si>
   <si>
     <t>VELEZ LEGTON GENESIS YAMILET</t>
@@ -4013,7 +4013,7 @@
     <t>genesisya.velez@espam.edu.ec</t>
   </si>
   <si>
-    <t>?hNvW7K#</t>
+    <t>vXOAskcL</t>
   </si>
   <si>
     <t>VERA BALAREZO MARYAM JANELLA</t>
@@ -4022,7 +4022,7 @@
     <t>maryam.vera@espam.edu.ec</t>
   </si>
   <si>
-    <t>RyFWTsE6</t>
+    <t>kUb79Hfi</t>
   </si>
   <si>
     <t>VERA SERRANO CARLOS STEFANO</t>
@@ -4031,7 +4031,7 @@
     <t>carlos.verase@espam.edu.ec</t>
   </si>
   <si>
-    <t>DDZ3Haxq</t>
+    <t>?KxtAwQ9</t>
   </si>
   <si>
     <t>VIERA BAZURTO JOSE ALEXANDER</t>
@@ -4040,7 +4040,7 @@
     <t>jose.viera@espam.edu.ec</t>
   </si>
   <si>
-    <t>BZmD3Zn/</t>
+    <t>qoC2DPrU</t>
   </si>
   <si>
     <t>ZAMBRANO ALCIVAR DIEGO JAHIR</t>
@@ -4049,7 +4049,7 @@
     <t>diego.zambranoa@espam.edu.ec</t>
   </si>
   <si>
-    <t>2ysLuDX1</t>
+    <t>KrCkaSk/</t>
   </si>
   <si>
     <t>ZAMBRANO MANZABA MARIA FERNANDA</t>
@@ -4058,7 +4058,7 @@
     <t>mariafer.zambranom@espam.edu.ec</t>
   </si>
   <si>
-    <t>R8Mn/9l1</t>
+    <t>RqSNa2kL</t>
   </si>
   <si>
     <t>ALCIVAR GILER MELANY JULISA</t>
@@ -4067,7 +4067,7 @@
     <t>melany.alcivar@espam.edu.ec</t>
   </si>
   <si>
-    <t>Il?MgiR2</t>
+    <t>WBY4lHZC</t>
   </si>
   <si>
     <t>ANDRADE ZAMBRANO NATHALY NICOLLE</t>
@@ -4076,7 +4076,7 @@
     <t>nathaly.andrade@espam.edu.ec</t>
   </si>
   <si>
-    <t>FfmsF5N4</t>
+    <t>l4hKqr&amp;v</t>
   </si>
   <si>
     <t>BASURTO MORAN LUIS ALEXANDER</t>
@@ -4085,7 +4085,7 @@
     <t>luis.basurtom@espam.edu.ec</t>
   </si>
   <si>
-    <t>u8U0RPYQ</t>
+    <t>!ZOd9XmG</t>
   </si>
   <si>
     <t>BERMELLO VELEZ ANGELA DANIELA</t>
@@ -4094,7 +4094,7 @@
     <t>angela.bermello@espam.edu.ec</t>
   </si>
   <si>
-    <t>XygPNL?n</t>
+    <t>/gwY7hd2</t>
   </si>
   <si>
     <t>BRAVO VERA GEMA VIVIANA</t>
@@ -4103,7 +4103,7 @@
     <t>gema.bravov@espam.edu.ec</t>
   </si>
   <si>
-    <t>/5fmnXo4</t>
+    <t>vTWE5r9#</t>
   </si>
   <si>
     <t>BRIONES INTRIAGO LORENA LUCIA</t>
@@ -4112,7 +4112,7 @@
     <t>lorena.briones@espam.edu.ec</t>
   </si>
   <si>
-    <t>zI7I5WTw</t>
+    <t>&amp;kF7VuV2</t>
   </si>
   <si>
     <t>BURGOS BRAVO KATHERIN DANIELA</t>
@@ -4121,7 +4121,7 @@
     <t>katherin.burgos@espam.edu.ec</t>
   </si>
   <si>
-    <t>yySEqM#P</t>
+    <t>0!xXJ&amp;/N</t>
   </si>
   <si>
     <t>LOOR PARRAGA ROY RUBEN</t>
@@ -4130,7 +4130,7 @@
     <t>roy.loor@espam.edu.ec</t>
   </si>
   <si>
-    <t>NQ16O1/o</t>
+    <t>FH&amp;UoJWn</t>
   </si>
   <si>
     <t>LOPEZ GANCHOZO LEANDRO ANTONIO</t>
@@ -4139,7 +4139,7 @@
     <t>leandro.lopez@espam.edu.ec</t>
   </si>
   <si>
-    <t>NVPpQqWx</t>
+    <t>wE8m!oNj</t>
   </si>
   <si>
     <t>MACIAS MACIAS JOY ROBERTO</t>
@@ -4148,7 +4148,7 @@
     <t>joy.macias@espam.edu.ec</t>
   </si>
   <si>
-    <t>f0EczYzu</t>
+    <t>FoCJsnKB</t>
   </si>
   <si>
     <t>MACIAS SILVA CINTHYA MARIANA</t>
@@ -4157,7 +4157,7 @@
     <t>cinthya.macias@espam.edu.ec</t>
   </si>
   <si>
-    <t>nIS4j3fD</t>
+    <t>wNR4J5KW</t>
   </si>
   <si>
     <t>MENDOZA PONCE MARIA ANGELICA</t>
@@ -4166,7 +4166,7 @@
     <t>maria.mendozap@espam.edu.ec</t>
   </si>
   <si>
-    <t>xSKZzcWz</t>
+    <t>NYXfl8xO</t>
   </si>
   <si>
     <t>MONCAYO LAINEZ KERLY ARIANNA</t>
@@ -4175,7 +4175,7 @@
     <t>kerly.moncayo@espam.edu.ec</t>
   </si>
   <si>
-    <t>4p1dkJD4</t>
+    <t>z&amp;2kVeeD</t>
   </si>
   <si>
     <t>MONTES POZO JEAN POLL</t>
@@ -4184,7 +4184,7 @@
     <t>jean.montes@espam.edu.ec</t>
   </si>
   <si>
-    <t>6XSYS3lU</t>
+    <t>a7tEnL1j</t>
   </si>
   <si>
     <t>MORENO OBANDO ANA BELLA</t>
@@ -4193,7 +4193,7 @@
     <t>ana.moreno@espam.edu.ec</t>
   </si>
   <si>
-    <t>RL&amp;Wotg4</t>
+    <t>szOJkLwe</t>
   </si>
   <si>
     <t>NAVARRETE PARODI ERIKA KARINA</t>
@@ -4202,7 +4202,7 @@
     <t>erika.navarrete@espam.edu.ec</t>
   </si>
   <si>
-    <t>K4LRsuei</t>
+    <t>yN/Cr7hu</t>
   </si>
   <si>
     <t>ORMAZA ESPINOZA JESUS EMILIO</t>
@@ -4211,7 +4211,7 @@
     <t>jesus.ormaza@espam.edu.ec</t>
   </si>
   <si>
-    <t>hqBlU10r</t>
+    <t>dyXrJZWa</t>
   </si>
   <si>
     <t>ORMAZA FALCONES MARIA ALEJANDRA</t>
@@ -4220,7 +4220,7 @@
     <t>maria.ormaza@espam.edu.ec</t>
   </si>
   <si>
-    <t>pVPncUP?</t>
+    <t>TNlQ78IX</t>
   </si>
   <si>
     <t>PARRAGA QUIJIJE GEMA KAROLINA</t>
@@ -4229,7 +4229,7 @@
     <t>gemak.parragaq@espam.edu.ec</t>
   </si>
   <si>
-    <t>mNK1kHFh</t>
+    <t>hHLyTaxF</t>
   </si>
   <si>
     <t>PICO TOLA MARCO ANDRES</t>
@@ -4238,7 +4238,7 @@
     <t>marco.pico@espam.edu.ec</t>
   </si>
   <si>
-    <t>WjdR!Tcr</t>
+    <t>?GHGr#gU</t>
   </si>
   <si>
     <t>PIN NAPA IVANA MAYERLI</t>
@@ -4247,7 +4247,7 @@
     <t>ivana.pin@espam.edu.ec</t>
   </si>
   <si>
-    <t>iW842XzN</t>
+    <t>kUSZOiwv</t>
   </si>
   <si>
     <t>ROMERO BRAVO JOSE AGUSTIN</t>
@@ -4256,7 +4256,7 @@
     <t>jose.romero@espam.edu.ec</t>
   </si>
   <si>
-    <t>0k/vEgeM</t>
+    <t>1PYnOWEl</t>
   </si>
   <si>
     <t>SALTOS INTRIAGO NATHALIA MELISSA</t>
@@ -4265,7 +4265,7 @@
     <t>nathalia.saltos@espam.edu.ec</t>
   </si>
   <si>
-    <t>Ajs/KoAX</t>
+    <t>hxH7riRR</t>
   </si>
   <si>
     <t>SALTOS SALTOS MADELYNE PIERINA</t>
@@ -4274,7 +4274,7 @@
     <t>madelyne.saltos@espam.edu.ec</t>
   </si>
   <si>
-    <t>6ocaj7tG</t>
+    <t>xTo#Cnm2</t>
   </si>
   <si>
     <t>SOLIS ORTIZ SANTIAGO</t>
@@ -4283,7 +4283,7 @@
     <t>santiago.solis@espam.edu.ec</t>
   </si>
   <si>
-    <t>ikmyS7JV</t>
+    <t>erM2ok5n</t>
   </si>
   <si>
     <t>SOLORZANO ZAMBRANO GEMA NARCISA</t>
@@ -4292,7 +4292,7 @@
     <t>gema.solorzano@espam.edu.ec</t>
   </si>
   <si>
-    <t>tIWgbb/Z</t>
+    <t>r0EeNyUi</t>
   </si>
   <si>
     <t>VARGAS SOLORZANO ANDREA DIVINA</t>
@@ -4301,7 +4301,7 @@
     <t>andrea.vargas@espam.edu.ec</t>
   </si>
   <si>
-    <t>XLaL#lYq</t>
+    <t>70az&amp;CVI</t>
   </si>
   <si>
     <t>VELEZ VERA MANUEL ALEXANDER</t>
@@ -4310,7 +4310,7 @@
     <t>manuel.velez@espam.edu.ec</t>
   </si>
   <si>
-    <t>Td8XPjsa</t>
+    <t>/YB1A4zw</t>
   </si>
   <si>
     <t>VELEZ ZAMBRANO ADRIAN DAVID</t>
@@ -4319,7 +4319,7 @@
     <t>adrian.velez@espam.edu.ec</t>
   </si>
   <si>
-    <t>d4WCZA6R</t>
+    <t>Tua/au9I</t>
   </si>
   <si>
     <t>YLLESCA CEDEÑO JESUS JONATHAN</t>
@@ -4328,7 +4328,7 @@
     <t>jesus.yllesca@espam.edu.ec</t>
   </si>
   <si>
-    <t>98kSR27p</t>
+    <t>NJ9VW5/P</t>
   </si>
   <si>
     <t>ZAMBRANO CATOTA DERLYN MILENA</t>
@@ -4337,7 +4337,7 @@
     <t>derlyn.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>q!lsD/0#</t>
+    <t>7Xgf1Wx1</t>
   </si>
   <si>
     <t>ZAMBRANO CEDEÑO CHRISTIAN EDUARDO</t>
@@ -4346,7 +4346,7 @@
     <t>christian.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>CNkcyuPZ</t>
+    <t>7lPte2Kc</t>
   </si>
   <si>
     <t>ZAMBRANO ROBLES GLENDY MERCEDES</t>
@@ -4355,7 +4355,7 @@
     <t>glendy.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>xm9KV!JO</t>
+    <t>G7hBqS&amp;E</t>
   </si>
   <si>
     <t>ZAMBRANO ROSADO JORGE ALESSANDRO</t>
@@ -4364,7 +4364,7 @@
     <t>jorge.zambranor@espam.edu.ec</t>
   </si>
   <si>
-    <t>lfbJ1VjL</t>
+    <t>!5Ok7KPF</t>
   </si>
   <si>
     <t>ZAMBRANO VERA WENDY ANAHI</t>
@@ -4373,7 +4373,7 @@
     <t>wendy.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>I9f!4Y!I</t>
+    <t>LKzcCSdn</t>
   </si>
   <si>
     <t>ZAMBRANO ZAMBRANO JONATHAN JAVIER</t>
@@ -4382,7 +4382,7 @@
     <t>jonathan.zambranoz@espam.edu.ec</t>
   </si>
   <si>
-    <t>#jVxLWUd</t>
+    <t>jw7Sn&amp;jN</t>
   </si>
   <si>
     <t>ZAMORA SOLORZANO MAGALY DOLORES</t>
@@ -4391,7 +4391,7 @@
     <t>magaly.zamora@espam.edu.ec</t>
   </si>
   <si>
-    <t>prrSKEAf</t>
+    <t>5lmvnOWp</t>
   </si>
   <si>
     <t>BRAVO ZAMBRANO MARIA EMILIA</t>
@@ -4400,7 +4400,7 @@
     <t>maria.bravoz@espam.edu.ec</t>
   </si>
   <si>
-    <t>MxKNXYDK</t>
+    <t>LK7Yxamv</t>
   </si>
   <si>
     <t>CEVALLOS ALVAREZ ARMANDO ENRIQUE</t>
@@ -4409,7 +4409,7 @@
     <t>armando.cevallos@espam.edu.ec</t>
   </si>
   <si>
-    <t>TWieg9IQ</t>
+    <t>VZvCbUdB</t>
   </si>
   <si>
     <t>CEVALLOS VERA ARELIS STEFANIA</t>
@@ -4418,7 +4418,7 @@
     <t>arelis.cevallos@espam.edu.ec</t>
   </si>
   <si>
-    <t>r5&amp;1?pa?</t>
+    <t>PHzy2Xei</t>
   </si>
   <si>
     <t>COOL MERO PATRICIO JAVIER</t>
@@ -4427,7 +4427,7 @@
     <t>patricio.cool@espam.edu.ec</t>
   </si>
   <si>
-    <t>B0FBpUCP</t>
+    <t>/uaEvOm!</t>
   </si>
   <si>
     <t>FRANCO ORELLANA GUADALUPE MONSERRATE</t>
@@ -4436,7 +4436,7 @@
     <t>guadalupe.franco@espam.edu.ec</t>
   </si>
   <si>
-    <t>Zj?aqNCl</t>
+    <t>4jGdMkVP</t>
   </si>
   <si>
     <t>HUERTA BALDIVIEZO JEAN CRISTHIAN</t>
@@ -4445,7 +4445,7 @@
     <t>jean.huerta@espam.edu.ec</t>
   </si>
   <si>
-    <t>g1&amp;ZNJY&amp;</t>
+    <t>eOMFaxZ?</t>
   </si>
   <si>
     <t>INTRIAGO CANTOS MARIA JOSE</t>
@@ -4454,7 +4454,7 @@
     <t>maria.intriagoc@espam.edu.ec</t>
   </si>
   <si>
-    <t>mCF!jTv4</t>
+    <t>/!jC3C?E</t>
   </si>
   <si>
     <t>LOOR CANTOS DIANA ISABEL</t>
@@ -4463,7 +4463,7 @@
     <t>diana.loor@espam.edu.ec</t>
   </si>
   <si>
-    <t>jEn0YdIR</t>
+    <t>vnOQSmmv</t>
   </si>
   <si>
     <t>LOOR SEGOVIA EVELYN ADRIANA</t>
@@ -4472,7 +4472,7 @@
     <t>evelyn.loors@espam.edu.ec</t>
   </si>
   <si>
-    <t>B!LwMKAG</t>
+    <t>HUG0qke9</t>
   </si>
   <si>
     <t>MEDINA CEDEÑO JULIO CESAR</t>
@@ -4481,7 +4481,7 @@
     <t>julio.medina@espam.edu.ec</t>
   </si>
   <si>
-    <t>Y#Hd9xDj</t>
+    <t>6wAkNrjG</t>
   </si>
   <si>
     <t>MERA VELEZ ALONDRA GARDENIA</t>
@@ -4490,7 +4490,7 @@
     <t>alondra.mera@espam.edu.ec</t>
   </si>
   <si>
-    <t>0Np#YieK</t>
+    <t>uGZxoiJ0</t>
   </si>
   <si>
     <t>MUÑOZ ZAMBRANO CARLOS JOSUE</t>
@@ -4499,7 +4499,7 @@
     <t>carlos.munozz@espam.edu.ec</t>
   </si>
   <si>
-    <t>ctd7yGPI</t>
+    <t>A3dflqZy</t>
   </si>
   <si>
     <t>NAPA RODRIGUEZ JOSE AGUSTIN</t>
@@ -4508,7 +4508,7 @@
     <t>jose.napa@espam.edu.ec</t>
   </si>
   <si>
-    <t>xQ7xXO!S</t>
+    <t>DHkNI2nx</t>
   </si>
   <si>
     <t>PALMA CEVALLOS MARIA JOSE</t>
@@ -4517,7 +4517,7 @@
     <t>maria.palma@espam.edu.ec</t>
   </si>
   <si>
-    <t>cA7VTt7Z</t>
+    <t>MShX7Muv</t>
   </si>
   <si>
     <t>PATIÑO MESIAS MARIA GABRIELA</t>
@@ -4526,7 +4526,7 @@
     <t>maria.patino@espam.edu.ec</t>
   </si>
   <si>
-    <t>tb8#IAO9</t>
+    <t>DPomdUWW</t>
   </si>
   <si>
     <t>QUINTANA CAGUA YENIFER YULI</t>
@@ -4535,7 +4535,7 @@
     <t>yenifer.quintana@espam.edu.ec</t>
   </si>
   <si>
-    <t>8RNYroM9</t>
+    <t>3U1!JoH!</t>
   </si>
   <si>
     <t>RIVERA CANTOS MARIA DANIELA</t>
@@ -4544,7 +4544,7 @@
     <t>maria.riverac@espam.edu.ec</t>
   </si>
   <si>
-    <t>P3OgaZz#</t>
+    <t>MBDNLL33</t>
   </si>
   <si>
     <t>RODRIGUEZ PINCAY CARLOS BRYAN</t>
@@ -4553,7 +4553,7 @@
     <t>carlos.rodriguezp@espam.edu.ec</t>
   </si>
   <si>
-    <t>taYh!w6S</t>
+    <t>Yzd/xC8o</t>
   </si>
   <si>
     <t>SABANDO VELEZ CRISTHIAN ANTHONY</t>
@@ -4562,7 +4562,7 @@
     <t>cristhian.sabando@espam.edu.ec</t>
   </si>
   <si>
-    <t>sc/sD/6O</t>
+    <t>bn7ARbAY</t>
   </si>
   <si>
     <t>SANTANA VERA ANTHONY JAHIR</t>
@@ -4571,7 +4571,7 @@
     <t>anthony.santana@espam.edu.ec</t>
   </si>
   <si>
-    <t>wWss1nDx</t>
+    <t>oD2Dtp9M</t>
   </si>
   <si>
     <t>VELEZ ESPINOZA JUNIOR JESUS</t>
@@ -4580,7 +4580,7 @@
     <t>junior.veleze@espam.edu.ec</t>
   </si>
   <si>
-    <t>9dD&amp;L?T8</t>
+    <t>UmE5SGQg</t>
   </si>
   <si>
     <t>VERDUGA ZAMBRANO DIEGO ALEJANDRO</t>
@@ -4589,7 +4589,7 @@
     <t>diego.verduga@espam.edu.ec</t>
   </si>
   <si>
-    <t>v16?mBoO</t>
+    <t>7zjzDV47</t>
   </si>
   <si>
     <t>ZAMBRANO VELEZ NAYELHY LILIBETH</t>
@@ -4598,7 +4598,7 @@
     <t>nayelhy.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>uG6f7fh0</t>
+    <t>lxebIIY0</t>
   </si>
   <si>
     <t>ZAMBRANO WITONG KENIA THAIS</t>
@@ -4607,7 +4607,7 @@
     <t>keniath.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>GjB/S6uR</t>
+    <t>jM2gNd&amp;#</t>
   </si>
   <si>
     <t>ANCHUNDIA ANCHUNDIA GEMA LILIBETH</t>
@@ -4616,7 +4616,7 @@
     <t>gema.anchundia@espam.edu.ec</t>
   </si>
   <si>
-    <t>HUYu0TYT</t>
+    <t>9UuRlPAX</t>
   </si>
   <si>
     <t>ARTEAGA DELGADO JEAN CARLOS</t>
@@ -4625,7 +4625,7 @@
     <t>jean.arteaga@espam.edu.ec</t>
   </si>
   <si>
-    <t>2a3yl#nS</t>
+    <t>66h2&amp;kVW</t>
   </si>
   <si>
     <t>BARREIRO ZAMBRANO JOSE VICENTE</t>
@@ -4634,7 +4634,7 @@
     <t>jose.barreiro@espam.edu.ec</t>
   </si>
   <si>
-    <t>hRGy49fW</t>
+    <t>R?#/uEFC</t>
   </si>
   <si>
     <t>BASURTO ALCIVAR DARWIN JESUS</t>
@@ -4643,7 +4643,7 @@
     <t>darwin.basurto@espam.edu.ec</t>
   </si>
   <si>
-    <t>2woUPqQQ</t>
+    <t>wbopfLe&amp;</t>
   </si>
   <si>
     <t>BRAVO CEDEÑO JOSE RODOLFO</t>
@@ -4652,7 +4652,7 @@
     <t>jose.bravo@espam.edu.ec</t>
   </si>
   <si>
-    <t>vrchcDzA</t>
+    <t>8RxSUJrV</t>
   </si>
   <si>
     <t>BRIONES BERMEO ANTONY JAVIER</t>
@@ -4661,7 +4661,7 @@
     <t>antony.briones@espam.edu.ec</t>
   </si>
   <si>
-    <t>yQTVTRvp</t>
+    <t>AfYAPPId</t>
   </si>
   <si>
     <t>CEDEÑO ANCHUNDIA YANDRY ANTONIO</t>
@@ -4673,7 +4673,7 @@
     <t>yandry.cedeno@espam.edu.ec</t>
   </si>
   <si>
-    <t>OEGTGToM</t>
+    <t>6yvZeaTE</t>
   </si>
   <si>
     <t>CEDEÑO PEÑARRIETA DAYANA SOPHIA</t>
@@ -4682,7 +4682,7 @@
     <t>dayanaso.cedeno@espam.edu.ec</t>
   </si>
   <si>
-    <t>ddH4Fnhg</t>
+    <t>&amp;kWnU50/</t>
   </si>
   <si>
     <t>CHAVARRIA PEÑARRIETA MARCOS ALEJANDRO</t>
@@ -4691,7 +4691,7 @@
     <t>marcos.chavarria@espam.edu.ec</t>
   </si>
   <si>
-    <t>F?!dcRlT</t>
+    <t>qHKBU3Y8</t>
   </si>
   <si>
     <t>DEL VALLE BASURTO CARMEN MELINA</t>
@@ -4700,7 +4700,7 @@
     <t>carmen.del@espam.edu.ec</t>
   </si>
   <si>
-    <t>3QW7FaVJ</t>
+    <t>8j!mQP0K</t>
   </si>
   <si>
     <t>GUERRERO BRAVO ANA BELEN</t>
@@ -4709,7 +4709,7 @@
     <t>ana.guerrero@espam.edu.ec</t>
   </si>
   <si>
-    <t>Fwt8W/zf</t>
+    <t>#di79P1e</t>
   </si>
   <si>
     <t>GUERRERO GUERRERO JOSSELYN MELISSA</t>
@@ -4718,7 +4718,7 @@
     <t>josselyn.guerrero@espam.edu.ec</t>
   </si>
   <si>
-    <t>KinG52Qm</t>
+    <t>tERuh?6S</t>
   </si>
   <si>
     <t>INTRIAGO BARBERAN LAURO ANTONIO</t>
@@ -4727,7 +4727,7 @@
     <t>lauro.intriago1@espam.edu.ec</t>
   </si>
   <si>
-    <t>Hz9RQupI</t>
+    <t>uP68AWVU</t>
   </si>
   <si>
     <t>INTRIAGO MORA LENIN ARCENIO</t>
@@ -4736,7 +4736,7 @@
     <t>lenin.intriago@espam.edu.ec</t>
   </si>
   <si>
-    <t>Tfamsa6Y</t>
+    <t>X?K#KQdq</t>
   </si>
   <si>
     <t>MACIAS CALDERON JOSE ARIEL</t>
@@ -4745,7 +4745,7 @@
     <t>jose.macias@espam.edu.ec</t>
   </si>
   <si>
-    <t>ouqmKC1?</t>
+    <t>NbLeEk5D</t>
   </si>
   <si>
     <t>MARCILLO VELEZ ANA PATRICIA</t>
@@ -4754,7 +4754,7 @@
     <t>ana.marcillo@espam.edu.ec</t>
   </si>
   <si>
-    <t>OVB6NKg3</t>
+    <t>w4oz666K</t>
   </si>
   <si>
     <t>MERA FIGUEROA RAYMOND ALEJANDRO</t>
@@ -4763,7 +4763,7 @@
     <t>raymond.mera@espam.edu.ec</t>
   </si>
   <si>
-    <t>FDfeZcmz</t>
+    <t>!W2NQWr5</t>
   </si>
   <si>
     <t>MOREIRA ZAMBRANO JOSSENKA MERCEDES</t>
@@ -4772,7 +4772,7 @@
     <t>jossenka.moreira@espam.edu.ec</t>
   </si>
   <si>
-    <t>&amp;?d3OEXS</t>
+    <t>HnQR/T!O</t>
   </si>
   <si>
     <t>MUÑOZ ALCIVAR CRISTHIAN MARTIN</t>
@@ -4781,7 +4781,7 @@
     <t>cristhian.munoz@espam.edu.ec</t>
   </si>
   <si>
-    <t>5?A&amp;SgAU</t>
+    <t>cnhna1sR</t>
   </si>
   <si>
     <t>MUÑOZ MACIAS MARIA MAGDALENA</t>
@@ -4790,7 +4790,7 @@
     <t>mariama.munoz@espam.edu.ec</t>
   </si>
   <si>
-    <t>HLuY2cNw</t>
+    <t>E#L23PK?</t>
   </si>
   <si>
     <t>POLO GANCHOZO ARON ESNEYDER</t>
@@ -4799,7 +4799,7 @@
     <t>aron.polo@espam.edu.ec</t>
   </si>
   <si>
-    <t>/BaK?G2v</t>
+    <t>TX/0pJ3T</t>
   </si>
   <si>
     <t>RIOS BERMELLO JENIFFER LIZETH</t>
@@ -4808,7 +4808,7 @@
     <t>jeniffer.rios@espam.edu.ec</t>
   </si>
   <si>
-    <t>TVD#fwIM</t>
+    <t>KlVNLPTz</t>
   </si>
   <si>
     <t>SALVATIERRA VALDEZ VICKY NICOLLE</t>
@@ -4817,7 +4817,7 @@
     <t>vicky.salvatierra@espam.edu.ec</t>
   </si>
   <si>
-    <t>4cAKpCR6</t>
+    <t>BGZlDZGh</t>
   </si>
   <si>
     <t>SANTOS VELEZ MONICA GERMANIA</t>
@@ -4826,7 +4826,7 @@
     <t>monica.santos@espam.edu.ec</t>
   </si>
   <si>
-    <t>WC&amp;ToQm/</t>
+    <t>c?3mVzC0</t>
   </si>
   <si>
     <t>SOLORZANO ZAMBRANO MILENA DENISSE</t>
@@ -4835,7 +4835,7 @@
     <t>milena.solorzano@espam.edu.ec</t>
   </si>
   <si>
-    <t>NgVJ!P9H</t>
+    <t>Cf1qVgwL</t>
   </si>
   <si>
     <t>TUQUERES TACURI JESSICA MARIBELL</t>
@@ -4844,7 +4844,7 @@
     <t>jessica.tuqueres@espam.edu.ec</t>
   </si>
   <si>
-    <t>Q#O2Trgv</t>
+    <t>SPYeLZ9S</t>
   </si>
   <si>
     <t>VERDUGA ERAZO JOSUE SALVADOR</t>
@@ -4853,7 +4853,7 @@
     <t>josue.verduga@espam.edu.ec</t>
   </si>
   <si>
-    <t>41Gr1YZo</t>
+    <t>jME6/ug3</t>
   </si>
   <si>
     <t>YEPEZ VELIZ GENESIS THALIA</t>
@@ -4862,7 +4862,7 @@
     <t>genesis.yepez@espam.edu.ec</t>
   </si>
   <si>
-    <t>5Cg5nH4F</t>
+    <t>/bUXtaJL</t>
   </si>
   <si>
     <t>ZAMBRANO BASURTO ERICK RAFAEL</t>
@@ -4871,7 +4871,7 @@
     <t>erick.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>PCY0!qKk</t>
+    <t>CLpT0Vge</t>
   </si>
   <si>
     <t>ZAMBRANO MUÑOZ JANDRY DEIVY</t>
@@ -4880,7 +4880,7 @@
     <t>jandry.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>?!Xb5zyw</t>
+    <t>QLYDuN3e</t>
   </si>
   <si>
     <t>AYONG VERA JUAN DAVID</t>
@@ -4889,7 +4889,7 @@
     <t>juan.ayong@espam.edu.ec</t>
   </si>
   <si>
-    <t>j4QUz0K!</t>
+    <t>WxVIOYEM</t>
   </si>
   <si>
     <t>BASURTO SALAZAR ANGELA MARGARITA</t>
@@ -4898,7 +4898,7 @@
     <t>angela.basurto@espam.edu.ec</t>
   </si>
   <si>
-    <t>Gs9S3ttd</t>
+    <t>dbcP89lY</t>
   </si>
   <si>
     <t>CASANOVA INTRIAGO ANDREA BELEN</t>
@@ -4910,7 +4910,7 @@
     <t>andrea.casanova@espam.edu.ec</t>
   </si>
   <si>
-    <t>zm9&amp;ngR4</t>
+    <t>JOzvYmX1</t>
   </si>
   <si>
     <t>CHUMO ZAMBRANO ANTONIO BENITO</t>
@@ -4919,7 +4919,7 @@
     <t>antonio.chumo@espam.edu.ec</t>
   </si>
   <si>
-    <t>STaB&amp;0ZD</t>
+    <t>h2qH3K1L</t>
   </si>
   <si>
     <t>GARCIA CORTEZ ERIKA STEFANIA</t>
@@ -4928,7 +4928,7 @@
     <t>erika.garcia@espam.edu.ec</t>
   </si>
   <si>
-    <t>#1&amp;xqF?u</t>
+    <t>z14HqzBw</t>
   </si>
   <si>
     <t>GOMEZ BARRERA JUNIOR LENIN</t>
@@ -4937,7 +4937,7 @@
     <t>junior.gomez@espam.edu.ec</t>
   </si>
   <si>
-    <t>n&amp;KuCuOq</t>
+    <t>J1Ttv!Wf</t>
   </si>
   <si>
     <t>LOOR CEDEÑO RICARDO EMANUEL</t>
@@ -4946,7 +4946,7 @@
     <t>ricardo.loor@espam.edu.ec</t>
   </si>
   <si>
-    <t>tDNvWyOW</t>
+    <t>Xn5v5Gr4</t>
   </si>
   <si>
     <t>LOOR LUCAS EVELYN GUADALUPE</t>
@@ -4958,7 +4958,7 @@
     <t>evelyn.loor@espam.edu.ec</t>
   </si>
   <si>
-    <t>li!l2uxg</t>
+    <t>cIsW2Rd4</t>
   </si>
   <si>
     <t>LOOR VELASCO FABIANA BELEN</t>
@@ -4970,7 +4970,7 @@
     <t>fabiana.loor@espam.edu.ec</t>
   </si>
   <si>
-    <t>ATpTO5RO</t>
+    <t>JX/iLS6Z</t>
   </si>
   <si>
     <t>MARTINEZ CEDEÑO JENIFFER ESTEFANIA</t>
@@ -4979,7 +4979,7 @@
     <t>jeniffer.martinez@espam.edu.ec</t>
   </si>
   <si>
-    <t>8DMW11JB</t>
+    <t>MzM/j8YP</t>
   </si>
   <si>
     <t>MENDOZA BARRE EDDY ENMANUEL</t>
@@ -4988,7 +4988,7 @@
     <t>eddy.mendoza@espam.edu.ec</t>
   </si>
   <si>
-    <t>THnV/Ng2</t>
+    <t>qy3ysV/9</t>
   </si>
   <si>
     <t>MURILLO PALACIOS ULICES JAIR</t>
@@ -4997,7 +4997,7 @@
     <t>ulices.murillo@espam.edu.ec</t>
   </si>
   <si>
-    <t>u07iR/Ns</t>
+    <t>rI9?/oTw</t>
   </si>
   <si>
     <t>QUIJANO ZAMBRANO JONATHAN ERNESTO</t>
@@ -5006,7 +5006,7 @@
     <t>jonathan.quijano@espam.edu.ec</t>
   </si>
   <si>
-    <t>LCdMnfcf</t>
+    <t>gEPkS#xE</t>
   </si>
   <si>
     <t>ROBLES YORI EFRAIN DAVID</t>
@@ -5015,7 +5015,7 @@
     <t>efrain.robles@espam.edu.ec</t>
   </si>
   <si>
-    <t>AlhGqEHL</t>
+    <t>#gbhrJaA</t>
   </si>
   <si>
     <t>SABANDO ZAMBRANO FREDDY ANTONIO</t>
@@ -5024,7 +5024,7 @@
     <t>freddy.sabando@espam.edu.ec</t>
   </si>
   <si>
-    <t>6ec06Qnm</t>
+    <t>f/778R75</t>
   </si>
   <si>
     <t>SOLORZANO GUERRERO RONALDO WANDERLEY</t>
@@ -5033,7 +5033,7 @@
     <t>ronaldo.solorzano@espam.edu.ec</t>
   </si>
   <si>
-    <t>y6Wa!74G</t>
+    <t>MXfn3h3Q</t>
   </si>
   <si>
     <t>VELEZ CALDERON GENESIS MARIANA</t>
@@ -5045,7 +5045,7 @@
     <t>genesis.velez@espam.edu.ec</t>
   </si>
   <si>
-    <t>&amp;U3cI//4</t>
+    <t>aSk9nEgb</t>
   </si>
   <si>
     <t>ZAMBRANO BALDA JOSE RAMIRO</t>
@@ -5054,7 +5054,7 @@
     <t>josera.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>Bc#nMRhA</t>
+    <t>iULcpvCg</t>
   </si>
   <si>
     <t>ZAMBRANO CANTOS YENNY ANNABEL</t>
@@ -5063,7 +5063,7 @@
     <t>yenny.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>BNlP?PfD</t>
+    <t>8t0x7DAf</t>
   </si>
   <si>
     <t>ZAMBRANO LOOR CRISTHIAN LEONARDO</t>
@@ -5072,7 +5072,7 @@
     <t>cristhian.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>yNzXa8!M</t>
+    <t>vznCXKiU</t>
   </si>
   <si>
     <t>ZAMBRANO LOOR DIANA STEFANIA</t>
@@ -5081,7 +5081,7 @@
     <t>dianas.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>M4sxv&amp;EF</t>
+    <t>p3dNi50o</t>
   </si>
   <si>
     <t>ZAMBRANO LOOR MARIA EMILIA</t>
@@ -5090,7 +5090,7 @@
     <t>maria.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>9Kre0Tl#</t>
+    <t>!FQkqxkv</t>
   </si>
   <si>
     <t>ZAMBRANO MOREIRA LEONELA ALEJANDRA</t>
@@ -5099,7 +5099,7 @@
     <t>leonela.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>!Xp#D4Y#</t>
+    <t>kIkYu1x6</t>
   </si>
   <si>
     <t>ALAVA ORTIZ EDWIN ALEXANDER</t>
@@ -5108,7 +5108,7 @@
     <t>edwin.alava@espam.edu.ec</t>
   </si>
   <si>
-    <t>!2lQl2NH</t>
+    <t>LVdheptw</t>
   </si>
   <si>
     <t>ALCIVAR LOOR GEMA LISBETH</t>
@@ -5117,7 +5117,7 @@
     <t>gemal.alcivar@espam.edu.ec</t>
   </si>
   <si>
-    <t>!ETVcCEJ</t>
+    <t>6IG&amp;CcZB</t>
   </si>
   <si>
     <t>AVELLAN SANTANA GENESIS NICOLLE</t>
@@ -5126,7 +5126,7 @@
     <t>genesis.avellan@espam.edu.ec</t>
   </si>
   <si>
-    <t>CTv&amp;ENin</t>
+    <t>mmICvKge</t>
   </si>
   <si>
     <t>CALDERON SANCHEZ SANDY KATHERINE</t>
@@ -5138,7 +5138,7 @@
     <t>sandy.calderon@espam.edu.ec</t>
   </si>
   <si>
-    <t>OrOjsoSP</t>
+    <t>fyhTqh&amp;C</t>
   </si>
   <si>
     <t>CARDENAS ASTUDILLO ANGELA JULIANA</t>
@@ -5150,7 +5150,7 @@
     <t>angela.cardenas@espam.edu.ec</t>
   </si>
   <si>
-    <t>UAqNc3f#</t>
+    <t>o/tzfQ1c</t>
   </si>
   <si>
     <t>CARRILLO PACHAY MARCO STEVE</t>
@@ -5159,7 +5159,7 @@
     <t>marco.carrillo@espam.edu.ec</t>
   </si>
   <si>
-    <t>ns9JmbSp</t>
+    <t>oHtlzIyy</t>
   </si>
   <si>
     <t>CEDEÑO ZAMBRANO BRYAN ISIDRO</t>
@@ -5168,7 +5168,7 @@
     <t>bryan.cedeno@espam.edu.ec</t>
   </si>
   <si>
-    <t>dwlXizLb</t>
+    <t>TtSIXRUB</t>
   </si>
   <si>
     <t>CEVALLOS SALTOS ANTHONY FERNANDO</t>
@@ -5177,7 +5177,7 @@
     <t>anthonyf.cevallos@espam.edu.ec</t>
   </si>
   <si>
-    <t>U9kVRxBk</t>
+    <t>Je/4zNHJ</t>
   </si>
   <si>
     <t>CHANG ZAMBRANO MARTHA YAMILETH</t>
@@ -5186,7 +5186,7 @@
     <t>martha.chang@espam.edu.ec</t>
   </si>
   <si>
-    <t>DM0tsC4X</t>
+    <t>5#OFWJoL</t>
   </si>
   <si>
     <t>CHIRIBOGA FARIAS LUIS FERNANDO</t>
@@ -5195,7 +5195,7 @@
     <t>luis.chiriboga@espam.edu.ec</t>
   </si>
   <si>
-    <t>fDoQSj&amp;N</t>
+    <t>Ci6pdkqD</t>
   </si>
   <si>
     <t>ESPINOZA PILAY JERSON JOSE</t>
@@ -5204,7 +5204,7 @@
     <t>jerson.espinoza@espam.edu.ec</t>
   </si>
   <si>
-    <t>xICtvdG0</t>
+    <t>vGn?89xZ</t>
   </si>
   <si>
     <t>FARIAS MERA MAURICIO ANDRES</t>
@@ -5213,7 +5213,7 @@
     <t>mauricio.farias@espam.edu.ec</t>
   </si>
   <si>
-    <t>MQ36XALx</t>
+    <t>wxI#dn8#</t>
   </si>
   <si>
     <t>HERNANDEZ GONZALEZ JAMILEX KAREY</t>
@@ -5225,7 +5225,7 @@
     <t>jamilex.hernandez@espam.edu.ec</t>
   </si>
   <si>
-    <t>TT0ZckSk</t>
+    <t>8aXbpMmN</t>
   </si>
   <si>
     <t>LEONES FALCONES ABAD JHOAN</t>
@@ -5234,7 +5234,7 @@
     <t>abad.leones@espam.edu.ec</t>
   </si>
   <si>
-    <t>AEkKgDUX</t>
+    <t>0#qd1CCP</t>
   </si>
   <si>
     <t>LOOR CEVALLOS ANA MARIA</t>
@@ -5243,7 +5243,7 @@
     <t>anama.loor@espam.edu.ec</t>
   </si>
   <si>
-    <t>5IpAKqI#</t>
+    <t>!WbWOLAJ</t>
   </si>
   <si>
     <t>LOOR LOOR RONALD POLIVIO</t>
@@ -5252,7 +5252,7 @@
     <t>ronald.loor@espam.edu.ec</t>
   </si>
   <si>
-    <t>pBV3TeJh</t>
+    <t>yXqD?JBN</t>
   </si>
   <si>
     <t>LOOR REYES GENESIS JAMILETH</t>
@@ -5261,7 +5261,7 @@
     <t>genesis.loor@espam.edu.ec</t>
   </si>
   <si>
-    <t>Hu!jjMON</t>
+    <t>oFSMJnPi</t>
   </si>
   <si>
     <t>MACIAS BRAVO RICARDO FRANCISCO</t>
@@ -5270,7 +5270,7 @@
     <t>ricardo.macias@espam.edu.ec</t>
   </si>
   <si>
-    <t>zltP9YQD</t>
+    <t>0cbyB2rl</t>
   </si>
   <si>
     <t>MACIAS MACIAS LISSETH LILIBETH</t>
@@ -5279,7 +5279,7 @@
     <t>lisseth.macias@espam.edu.ec</t>
   </si>
   <si>
-    <t>0Qkm3BDH</t>
+    <t>wL1YNPSG</t>
   </si>
   <si>
     <t>MANZABA CEDEÑO KEVIN ALBERTO</t>
@@ -5288,7 +5288,7 @@
     <t>kevin.manzaba@espam.edu.ec</t>
   </si>
   <si>
-    <t>vA2lFsm!</t>
+    <t>2bNFqIft</t>
   </si>
   <si>
     <t>MARQUEZ LEMA NAYELI SABRINA</t>
@@ -5297,7 +5297,7 @@
     <t>nayeli.marquez@espam.edu.ec</t>
   </si>
   <si>
-    <t>folAPdA3</t>
+    <t>9rK?Z2eU</t>
   </si>
   <si>
     <t>MENDOZA BRIONES MARIUXI KATHERINE</t>
@@ -5309,7 +5309,7 @@
     <t>mariuxi.mendoza@espam.edu.ec</t>
   </si>
   <si>
-    <t>NzmMGbuj</t>
+    <t>Wo8yNjbZ</t>
   </si>
   <si>
     <t>MOLINA CEDEÑO JUAN DE DIOS</t>
@@ -5318,7 +5318,7 @@
     <t>juan.molina@espam.edu.ec</t>
   </si>
   <si>
-    <t>BR5SsN7E</t>
+    <t>CryRa66N</t>
   </si>
   <si>
     <t>MONTESDEOCA GARCIA YUDID ALEXANDRA</t>
@@ -5327,7 +5327,7 @@
     <t>yudid.montesdeoca@espam.edu.ec</t>
   </si>
   <si>
-    <t>U0GqK5VU</t>
+    <t>7e02/T9?</t>
   </si>
   <si>
     <t>MUÑOZ MERA JUAN PABLO</t>
@@ -5336,7 +5336,7 @@
     <t>juan.munoz@espam.edu.ec</t>
   </si>
   <si>
-    <t>jFIJd9&amp;1</t>
+    <t>cuGQbic#</t>
   </si>
   <si>
     <t>NAVARRETE ORMAZA ERICK ALEXANDER</t>
@@ -5345,7 +5345,7 @@
     <t>erick.navarrete@espam.edu.ec</t>
   </si>
   <si>
-    <t>/vajr!Y7</t>
+    <t>Dsi6rb4P</t>
   </si>
   <si>
     <t>OCAMPO BARRE ANTHONY VICENTE</t>
@@ -5354,7 +5354,7 @@
     <t>anthony.ocampo@espam.edu.ec</t>
   </si>
   <si>
-    <t>TtiOx3GT</t>
+    <t>OvtWD7o6</t>
   </si>
   <si>
     <t>PARRALES FALCONES ANTHONY LEONARDO</t>
@@ -5363,7 +5363,7 @@
     <t>anthony.parrales@espam.edu.ec</t>
   </si>
   <si>
-    <t>p8lscaI7</t>
+    <t>IauvLcb7</t>
   </si>
   <si>
     <t>RAMOS SALTOS NICOLE PAOLA</t>
@@ -5372,7 +5372,7 @@
     <t>nicole.ramos@espam.edu.ec</t>
   </si>
   <si>
-    <t>vxmcHyR4</t>
+    <t>ng8BNWlL</t>
   </si>
   <si>
     <t>ROBLES MOLINA JENIFFER STEFANIA</t>
@@ -5381,7 +5381,7 @@
     <t>jeniffer.robles@espam.edu.ec</t>
   </si>
   <si>
-    <t>yLAUnkbx</t>
+    <t>l#uGaOao</t>
   </si>
   <si>
     <t>RODRIGUEZ CAMPOS JEAN KATHERINE</t>
@@ -5390,7 +5390,7 @@
     <t>jean.rodriguez@espam.edu.ec</t>
   </si>
   <si>
-    <t>/yk7v#wY</t>
+    <t>m70dzD0#</t>
   </si>
   <si>
     <t>SANCHEZ MEDINA GISSEL STEPHANIE</t>
@@ -5399,7 +5399,7 @@
     <t>gissel.sanchez@espam.edu.ec</t>
   </si>
   <si>
-    <t>&amp;y/!n7r8</t>
+    <t>/FnBC1?a</t>
   </si>
   <si>
     <t>VASQUEZ VERA ARGENIS JAVIER</t>
@@ -5408,7 +5408,7 @@
     <t>argenis.vasquez@espam.edu.ec</t>
   </si>
   <si>
-    <t>430GXQac</t>
+    <t>D5TPGjlv</t>
   </si>
   <si>
     <t>VASQUEZ VERA MARIA MERCEDES</t>
@@ -5417,7 +5417,7 @@
     <t>maria.vasquez@espam.edu.ec</t>
   </si>
   <si>
-    <t>j2vLKDkn</t>
+    <t>eDxyCdH0</t>
   </si>
   <si>
     <t>VELEZ MERA JOSSELYN JOSSENKA</t>
@@ -5426,7 +5426,7 @@
     <t>josselynjo.velez@espam.edu.ec</t>
   </si>
   <si>
-    <t>Rhejz6l2</t>
+    <t>9myNCfPT</t>
   </si>
   <si>
     <t>VELEZ PALACIOS STEVEN RAMON</t>
@@ -5435,7 +5435,7 @@
     <t>steven.velez@espam.edu.ec</t>
   </si>
   <si>
-    <t>MpR2N1yt</t>
+    <t>FOLT2V72</t>
   </si>
   <si>
     <t>VERA BRAVO MARY LAURA</t>
@@ -5444,7 +5444,7 @@
     <t>mary.vera@espam.edu.ec</t>
   </si>
   <si>
-    <t>lkWTh2uB</t>
+    <t>XWJfEi#U</t>
   </si>
   <si>
     <t>VILLAMIL VALENCIA ISABEL ANDREA</t>
@@ -5453,7 +5453,7 @@
     <t>isabel.villamil@espam.edu.ec</t>
   </si>
   <si>
-    <t>/L&amp;44pzq</t>
+    <t>3&amp;#!/tKR</t>
   </si>
   <si>
     <t>ZAMBRANO COBEÑA PABLO ALBERTO</t>
@@ -5462,7 +5462,7 @@
     <t>pablo.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>B&amp;C9p1BH</t>
+    <t>f?YKe5?l</t>
   </si>
   <si>
     <t>ALVAREZ INTRIAGO MAILIN KATHERINE</t>
@@ -5471,7 +5471,7 @@
     <t>mailin.alvarez@espam.edu.ec</t>
   </si>
   <si>
-    <t>V1IPCIRV</t>
+    <t>jXMVv6dN</t>
   </si>
   <si>
     <t>BRAVO ARTEAGA RICARDO JAVIER</t>
@@ -5480,7 +5480,7 @@
     <t>ricardo.bravo@espam.edu.ec</t>
   </si>
   <si>
-    <t>#TUiR2nL</t>
+    <t>8go5ItK0</t>
   </si>
   <si>
     <t>BRAVO VERGARA GEMA CAROLINA</t>
@@ -5489,7 +5489,7 @@
     <t>gemac.bravo@espam.edu.ec</t>
   </si>
   <si>
-    <t>h#8UK9CJ</t>
+    <t>/fIjbJO/</t>
   </si>
   <si>
     <t>CEDEÑO VELASQUEZ GEMA GUADALUPE</t>
@@ -5498,7 +5498,7 @@
     <t>gemag.cedeno@espam.edu.ec</t>
   </si>
   <si>
-    <t>FqDv8k4l</t>
+    <t>EkpsjEGC</t>
   </si>
   <si>
     <t>CHAVEZ VELIZ DENIS ALEXANDER</t>
@@ -5507,7 +5507,7 @@
     <t>denis.chavez@espam.edu.ec</t>
   </si>
   <si>
-    <t>126GxXPp</t>
+    <t>o1elXCWq</t>
   </si>
   <si>
     <t>DEMERA ZAMBRANO JACKSON ANDRES</t>
@@ -5516,7 +5516,7 @@
     <t>jackson.demera@espam.edu.ec</t>
   </si>
   <si>
-    <t>u2dUndGb</t>
+    <t>VCyZs6ho</t>
   </si>
   <si>
     <t>GANCHOZO LECTONG GRESSILLE GUISSELLA</t>
@@ -5525,7 +5525,7 @@
     <t>gressille.ganchozo@espam.edu.ec</t>
   </si>
   <si>
-    <t>Jf36hrZG</t>
+    <t>#J1&amp;Uo0q</t>
   </si>
   <si>
     <t>INDIO ZAMBRANO ODALIS MICHELLE</t>
@@ -5537,7 +5537,7 @@
     <t>odalis.indio@espam.edu.ec</t>
   </si>
   <si>
-    <t>3cAmcAj1</t>
+    <t>BzMlB1#s</t>
   </si>
   <si>
     <t>INTRIAGO TERAN BRYAN ASDRUBAL</t>
@@ -5546,7 +5546,7 @@
     <t>bryan.intriago@espam.edu.ec</t>
   </si>
   <si>
-    <t>HZxoEVeT</t>
+    <t>uyZBvYiS</t>
   </si>
   <si>
     <t>INTRIAGO ZAMBRANO GISSELA KAROLINA</t>
@@ -5555,7 +5555,7 @@
     <t>gissela.intriago@espam.edu.ec</t>
   </si>
   <si>
-    <t>fvROtsvm</t>
+    <t>4PblYUgj</t>
   </si>
   <si>
     <t>LEONES SOLORZANO YARITZA DANIELA</t>
@@ -5564,7 +5564,7 @@
     <t>yaritza.leones@espam.edu.ec</t>
   </si>
   <si>
-    <t>g&amp;xyn015</t>
+    <t>t2WCeIh#</t>
   </si>
   <si>
     <t>LOPEZ MORA JOSSELYN AMARILYS</t>
@@ -5573,7 +5573,7 @@
     <t>josselyn.lopez@espam.edu.ec</t>
   </si>
   <si>
-    <t>kQE26lMC</t>
+    <t>eutt1vPo</t>
   </si>
   <si>
     <t>MERA LOOR ANTONY ELIAN</t>
@@ -5582,7 +5582,7 @@
     <t>antony.mera@espam.edu.ec</t>
   </si>
   <si>
-    <t>IN!Vmjo6</t>
+    <t>o3CecWBp</t>
   </si>
   <si>
     <t>MERA SABANDO GEMA YAMILETH</t>
@@ -5591,7 +5591,7 @@
     <t>gema.mera@espam.edu.ec</t>
   </si>
   <si>
-    <t>8uaZ23/n</t>
+    <t>mMEI95ti</t>
   </si>
   <si>
     <t>MIRANDA IBARRA ALFONSO SEBASTIAN</t>
@@ -5600,7 +5600,7 @@
     <t>alfonso.miranda@espam.edu.ec</t>
   </si>
   <si>
-    <t>6RnegTio</t>
+    <t>KCOyHpiS</t>
   </si>
   <si>
     <t>MONGE ERAZO JECSY PIERINA</t>
@@ -5609,7 +5609,7 @@
     <t>jecsy.monge@espam.edu.ec</t>
   </si>
   <si>
-    <t>yYOOwmuC</t>
+    <t>LzKP40wu</t>
   </si>
   <si>
     <t>ROMERO ORTEGA ANGEL ANDRES</t>
@@ -5618,7 +5618,7 @@
     <t>angel.romero@espam.edu.ec</t>
   </si>
   <si>
-    <t>2HQTce9K</t>
+    <t>7A1uuPv5</t>
   </si>
   <si>
     <t>SOLORZANO INTRIAGO OSCAR FABIAN</t>
@@ -5630,7 +5630,7 @@
     <t>oscar.solorzano@espam.edu.ec</t>
   </si>
   <si>
-    <t>AfT6Y0Vy</t>
+    <t>3xBpZ57A</t>
   </si>
   <si>
     <t>VALVERDE ZAPATA KATHIUSCA CARLOTA</t>
@@ -5642,7 +5642,7 @@
     <t>kathiusca.valverde@espam.edu.ec</t>
   </si>
   <si>
-    <t>zP/vHA9d</t>
+    <t>ozxB#qGN</t>
   </si>
   <si>
     <t>VERA AYALA GENESIS LISBETH</t>
@@ -5651,7 +5651,7 @@
     <t>genesis.vera@espam.edu.ec</t>
   </si>
   <si>
-    <t>7R0gx&amp;Cs</t>
+    <t>uAxXJ9ZK</t>
   </si>
   <si>
     <t>VERA PULIDO MARIA IVANNA</t>
@@ -5660,7 +5660,7 @@
     <t>mariai.verap@espam.edu.ec</t>
   </si>
   <si>
-    <t>5pwUghv0</t>
+    <t>9JFWxJKp</t>
   </si>
   <si>
     <t>VERA ZAMBRANO JAZMIN CAROLINA</t>
@@ -5669,7 +5669,7 @@
     <t>jazmin.vera@espam.edu.ec</t>
   </si>
   <si>
-    <t>k9JLnkaL</t>
+    <t>&amp;KhIfOQX</t>
   </si>
   <si>
     <t>VERGARA ARBOLEDA WENDY DEL ROCIO</t>
@@ -5681,7 +5681,7 @@
     <t>wendy.vergara@espam.edu.ec</t>
   </si>
   <si>
-    <t>1VpPq#fJ</t>
+    <t>GUNMoDQt</t>
   </si>
   <si>
     <t>VILLAMAR GONZALEZ ELENA SAMANTA</t>
@@ -5690,7 +5690,7 @@
     <t>elena.villamar@espam.edu.ec</t>
   </si>
   <si>
-    <t>K/xWc1HP</t>
+    <t>axzsTxkg</t>
   </si>
   <si>
     <t>ZAMBRANO ALCIVAR GENESIS VALENTINA</t>
@@ -5699,7 +5699,7 @@
     <t>genesis.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>0gzPSg&amp;J</t>
+    <t>!HK#TbHM</t>
   </si>
   <si>
     <t>ZAMBRANO CHAVEZ ANDREA MONSERRATE</t>
@@ -5708,7 +5708,7 @@
     <t>andream.zambranoc@espam.edu.ec</t>
   </si>
   <si>
-    <t>emq3&amp;gMJ</t>
+    <t>zoqNt63T</t>
   </si>
   <si>
     <t>ZAMBRANO GRACIA DANIELA ANGELINA</t>
@@ -5717,7 +5717,7 @@
     <t>daniela.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>5&amp;5rHFku</t>
+    <t>MWzvmi3H</t>
   </si>
   <si>
     <t>ZAMBRANO MUÑOZ WILLY JHONAY</t>
@@ -5726,7 +5726,7 @@
     <t>willy.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>mE4ya9Sm</t>
+    <t>kNnEpfnH</t>
   </si>
   <si>
     <t>ZAMBRANO ZAMBRANO TATIANA ELIZABETH</t>
@@ -5735,7 +5735,7 @@
     <t>tatianael.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>HsF4!?LE</t>
+    <t>o/vGSSE1</t>
   </si>
 </sst>
 </file>
